--- a/asset/Control GESPRO.xlsx
+++ b/asset/Control GESPRO.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="152">
   <si>
     <t>Sección</t>
   </si>
@@ -472,6 +472,15 @@
   </si>
   <si>
     <t>recomennd</t>
+  </si>
+  <si>
+    <t>iiiciclo</t>
+  </si>
+  <si>
+    <t>diversifi</t>
+  </si>
+  <si>
+    <t>mp3</t>
   </si>
 </sst>
 </file>
@@ -999,7 +1008,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1170,9 +1179,6 @@
     <xf numFmtId="0" fontId="4" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1180,6 +1186,13 @@
     <xf numFmtId="0" fontId="9" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1252,10 +1265,9 @@
     <xf numFmtId="0" fontId="9" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1597,14 +1609,14 @@
       <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G3" s="108" t="s">
+      <c r="G3" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="109"/>
-      <c r="I3" s="109"/>
-      <c r="J3" s="109"/>
-      <c r="K3" s="109"/>
-      <c r="L3" s="110"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="112"/>
     </row>
     <row r="4" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -1648,10 +1660,10 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="105" t="s">
+      <c r="A5" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="116" t="s">
+      <c r="B5" s="118" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1676,13 +1688,13 @@
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="102" t="s">
+      <c r="M5" s="104" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="106"/>
-      <c r="B6" s="117"/>
+      <c r="A6" s="108"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
@@ -1705,11 +1717,11 @@
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="103"/>
+      <c r="M6" s="105"/>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="106"/>
-      <c r="B7" s="117"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="8" t="s">
         <v>7</v>
       </c>
@@ -1732,11 +1744,11 @@
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="103"/>
+      <c r="M7" s="105"/>
     </row>
     <row r="8" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="106"/>
-      <c r="B8" s="117"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1759,11 +1771,11 @@
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="103"/>
+      <c r="M8" s="105"/>
     </row>
     <row r="9" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="106"/>
-      <c r="B9" s="117"/>
+      <c r="A9" s="108"/>
+      <c r="B9" s="119"/>
       <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
@@ -1786,11 +1798,11 @@
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="103"/>
+      <c r="M9" s="105"/>
     </row>
     <row r="10" spans="1:13" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="106"/>
-      <c r="B10" s="117"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
@@ -1813,11 +1825,11 @@
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="103"/>
+      <c r="M10" s="105"/>
     </row>
     <row r="11" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="106"/>
-      <c r="B11" s="117"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="8" t="s">
         <v>11</v>
       </c>
@@ -1840,11 +1852,11 @@
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="103"/>
+      <c r="M11" s="105"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="106"/>
-      <c r="B12" s="117"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="8" t="s">
         <v>12</v>
       </c>
@@ -1867,11 +1879,11 @@
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="103"/>
+      <c r="M12" s="105"/>
     </row>
     <row r="13" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="106"/>
-      <c r="B13" s="117"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="119"/>
       <c r="C13" s="8" t="s">
         <v>13</v>
       </c>
@@ -1894,18 +1906,18 @@
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="103"/>
+      <c r="M13" s="105"/>
     </row>
     <row r="14" spans="1:13" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="106"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="111" t="s">
+      <c r="A14" s="108"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="113" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="9">
         <v>31</v>
       </c>
-      <c r="E14" s="114" t="s">
+      <c r="E14" s="116" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="13" t="s">
@@ -1925,16 +1937,16 @@
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="103"/>
+      <c r="M14" s="105"/>
     </row>
     <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="106"/>
-      <c r="B15" s="117"/>
-      <c r="C15" s="112"/>
+      <c r="A15" s="108"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="114"/>
       <c r="D15" s="10">
         <v>31</v>
       </c>
-      <c r="E15" s="119"/>
+      <c r="E15" s="121"/>
       <c r="F15" s="12" t="s">
         <v>14</v>
       </c>
@@ -1952,16 +1964,16 @@
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="103"/>
+      <c r="M15" s="105"/>
     </row>
     <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="106"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="112"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="114"/>
       <c r="D16" s="10">
         <v>31</v>
       </c>
-      <c r="E16" s="115"/>
+      <c r="E16" s="117"/>
       <c r="F16" s="12" t="s">
         <v>16</v>
       </c>
@@ -1979,16 +1991,16 @@
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="103"/>
+      <c r="M16" s="105"/>
     </row>
     <row r="17" spans="1:15" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="106"/>
-      <c r="B17" s="117"/>
-      <c r="C17" s="112"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="114"/>
       <c r="D17" s="10">
         <v>31</v>
       </c>
-      <c r="E17" s="114" t="s">
+      <c r="E17" s="116" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="11" t="s">
@@ -2008,16 +2020,16 @@
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="103"/>
+      <c r="M17" s="105"/>
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="106"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="112"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="114"/>
       <c r="D18" s="10">
         <v>31</v>
       </c>
-      <c r="E18" s="119"/>
+      <c r="E18" s="121"/>
       <c r="F18" s="12" t="s">
         <v>14</v>
       </c>
@@ -2035,16 +2047,16 @@
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="103"/>
+      <c r="M18" s="105"/>
     </row>
     <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="106"/>
-      <c r="B19" s="117"/>
-      <c r="C19" s="113"/>
+      <c r="A19" s="108"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="115"/>
       <c r="D19" s="10">
         <v>31</v>
       </c>
-      <c r="E19" s="115"/>
+      <c r="E19" s="117"/>
       <c r="F19" s="12" t="s">
         <v>16</v>
       </c>
@@ -2062,12 +2074,12 @@
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="103"/>
+      <c r="M19" s="105"/>
     </row>
     <row r="20" spans="1:15" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="106"/>
-      <c r="B20" s="117"/>
-      <c r="C20" s="111" t="s">
+      <c r="A20" s="108"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="113" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="9">
@@ -2091,12 +2103,12 @@
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="103"/>
+      <c r="M20" s="105"/>
     </row>
     <row r="21" spans="1:15" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="106"/>
-      <c r="B21" s="117"/>
-      <c r="C21" s="112"/>
+      <c r="A21" s="108"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="114"/>
       <c r="D21" s="10">
         <v>29</v>
       </c>
@@ -2118,11 +2130,11 @@
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="103"/>
+      <c r="M21" s="105"/>
     </row>
     <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="106"/>
-      <c r="B22" s="117"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="119"/>
       <c r="C22" s="7" t="s">
         <v>19</v>
       </c>
@@ -2145,11 +2157,11 @@
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="103"/>
+      <c r="M22" s="105"/>
     </row>
     <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="107"/>
-      <c r="B23" s="118"/>
+      <c r="A23" s="109"/>
+      <c r="B23" s="120"/>
       <c r="C23" s="8" t="s">
         <v>16</v>
       </c>
@@ -2172,7 +2184,7 @@
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="104"/>
+      <c r="M23" s="106"/>
     </row>
     <row r="24" spans="1:15" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
@@ -2232,10 +2244,10 @@
       <c r="O25" s="79"/>
     </row>
     <row r="26" spans="1:15" ht="97.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="105" t="s">
+      <c r="A26" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="116" t="s">
+      <c r="B26" s="118" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -2260,13 +2272,13 @@
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="102" t="s">
+      <c r="M26" s="104" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="106"/>
-      <c r="B27" s="117"/>
+      <c r="A27" s="108"/>
+      <c r="B27" s="119"/>
       <c r="C27" s="7" t="s">
         <v>5</v>
       </c>
@@ -2289,11 +2301,11 @@
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="103"/>
+      <c r="M27" s="105"/>
     </row>
     <row r="28" spans="1:15" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="106"/>
-      <c r="B28" s="117"/>
+      <c r="A28" s="108"/>
+      <c r="B28" s="119"/>
       <c r="C28" s="8" t="s">
         <v>6</v>
       </c>
@@ -2316,11 +2328,11 @@
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="103"/>
+      <c r="M28" s="105"/>
     </row>
     <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="106"/>
-      <c r="B29" s="117"/>
+      <c r="A29" s="108"/>
+      <c r="B29" s="119"/>
       <c r="C29" s="8" t="s">
         <v>39</v>
       </c>
@@ -2343,11 +2355,11 @@
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="103"/>
+      <c r="M29" s="105"/>
     </row>
     <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="106"/>
-      <c r="B30" s="117"/>
+      <c r="A30" s="108"/>
+      <c r="B30" s="119"/>
       <c r="C30" s="8" t="s">
         <v>7</v>
       </c>
@@ -2370,11 +2382,11 @@
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="103"/>
+      <c r="M30" s="105"/>
     </row>
     <row r="31" spans="1:15" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="106"/>
-      <c r="B31" s="117"/>
+      <c r="A31" s="108"/>
+      <c r="B31" s="119"/>
       <c r="C31" s="8" t="s">
         <v>40</v>
       </c>
@@ -2397,11 +2409,11 @@
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="103"/>
+      <c r="M31" s="105"/>
     </row>
     <row r="32" spans="1:15" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="106"/>
-      <c r="B32" s="117"/>
+      <c r="A32" s="108"/>
+      <c r="B32" s="119"/>
       <c r="C32" s="8" t="s">
         <v>8</v>
       </c>
@@ -2424,11 +2436,11 @@
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="103"/>
+      <c r="M32" s="105"/>
     </row>
     <row r="33" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="106"/>
-      <c r="B33" s="117"/>
+      <c r="A33" s="108"/>
+      <c r="B33" s="119"/>
       <c r="C33" s="8" t="s">
         <v>9</v>
       </c>
@@ -2451,11 +2463,11 @@
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="103"/>
+      <c r="M33" s="105"/>
     </row>
     <row r="34" spans="1:13" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="106"/>
-      <c r="B34" s="117"/>
+      <c r="A34" s="108"/>
+      <c r="B34" s="119"/>
       <c r="C34" s="8" t="s">
         <v>10</v>
       </c>
@@ -2478,11 +2490,11 @@
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="103"/>
+      <c r="M34" s="105"/>
     </row>
     <row r="35" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="106"/>
-      <c r="B35" s="117"/>
+      <c r="A35" s="108"/>
+      <c r="B35" s="119"/>
       <c r="C35" s="8" t="s">
         <v>11</v>
       </c>
@@ -2505,11 +2517,11 @@
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="103"/>
+      <c r="M35" s="105"/>
     </row>
     <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="106"/>
-      <c r="B36" s="117"/>
+      <c r="A36" s="108"/>
+      <c r="B36" s="119"/>
       <c r="C36" s="8" t="s">
         <v>12</v>
       </c>
@@ -2532,11 +2544,11 @@
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="103"/>
+      <c r="M36" s="105"/>
     </row>
     <row r="37" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="106"/>
-      <c r="B37" s="117"/>
+      <c r="A37" s="108"/>
+      <c r="B37" s="119"/>
       <c r="C37" s="8" t="s">
         <v>13</v>
       </c>
@@ -2559,11 +2571,11 @@
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="103"/>
+      <c r="M37" s="105"/>
     </row>
     <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="106"/>
-      <c r="B38" s="117"/>
+      <c r="A38" s="108"/>
+      <c r="B38" s="119"/>
       <c r="C38" s="8" t="s">
         <v>41</v>
       </c>
@@ -2586,11 +2598,11 @@
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="103"/>
+      <c r="M38" s="105"/>
     </row>
     <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="106"/>
-      <c r="B39" s="117"/>
+      <c r="A39" s="108"/>
+      <c r="B39" s="119"/>
       <c r="C39" s="8" t="s">
         <v>42</v>
       </c>
@@ -2613,18 +2625,18 @@
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="103"/>
+      <c r="M39" s="105"/>
     </row>
     <row r="40" spans="1:13" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="106"/>
-      <c r="B40" s="117"/>
-      <c r="C40" s="111" t="s">
+      <c r="A40" s="108"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="113" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="9">
         <v>32</v>
       </c>
-      <c r="E40" s="114" t="s">
+      <c r="E40" s="116" t="s">
         <v>15</v>
       </c>
       <c r="F40" s="13"/>
@@ -2642,16 +2654,16 @@
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="103"/>
+      <c r="M40" s="105"/>
     </row>
     <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="106"/>
-      <c r="B41" s="117"/>
-      <c r="C41" s="112"/>
+      <c r="A41" s="108"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="114"/>
       <c r="D41" s="10">
         <v>32</v>
       </c>
-      <c r="E41" s="115"/>
+      <c r="E41" s="117"/>
       <c r="F41" s="12"/>
       <c r="G41" s="1" t="s">
         <v>49</v>
@@ -2667,16 +2679,16 @@
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="103"/>
+      <c r="M41" s="105"/>
     </row>
     <row r="42" spans="1:13" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="106"/>
-      <c r="B42" s="117"/>
-      <c r="C42" s="112"/>
+      <c r="A42" s="108"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="114"/>
       <c r="D42" s="10">
         <v>32</v>
       </c>
-      <c r="E42" s="114" t="s">
+      <c r="E42" s="116" t="s">
         <v>17</v>
       </c>
       <c r="F42" s="11"/>
@@ -2694,16 +2706,16 @@
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="103"/>
+      <c r="M42" s="105"/>
     </row>
     <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="106"/>
-      <c r="B43" s="117"/>
-      <c r="C43" s="113"/>
+      <c r="A43" s="108"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="115"/>
       <c r="D43" s="10">
         <v>32</v>
       </c>
-      <c r="E43" s="115"/>
+      <c r="E43" s="117"/>
       <c r="F43" s="12"/>
       <c r="G43" s="1" t="s">
         <v>49</v>
@@ -2719,12 +2731,12 @@
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="103"/>
+      <c r="M43" s="105"/>
     </row>
     <row r="44" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="106"/>
-      <c r="B44" s="117"/>
-      <c r="C44" s="111" t="s">
+      <c r="A44" s="108"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="113" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="9">
@@ -2748,12 +2760,12 @@
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="103"/>
+      <c r="M44" s="105"/>
     </row>
     <row r="45" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="106"/>
-      <c r="B45" s="117"/>
-      <c r="C45" s="112"/>
+      <c r="A45" s="108"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="114"/>
       <c r="D45" s="10">
         <v>30</v>
       </c>
@@ -2775,12 +2787,12 @@
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="103"/>
+      <c r="M45" s="105"/>
     </row>
     <row r="46" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="106"/>
-      <c r="B46" s="117"/>
-      <c r="C46" s="111" t="s">
+      <c r="A46" s="108"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="113" t="s">
         <v>19</v>
       </c>
       <c r="D46" s="9">
@@ -2804,12 +2816,12 @@
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="103"/>
+      <c r="M46" s="105"/>
     </row>
     <row r="47" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="106"/>
-      <c r="B47" s="117"/>
-      <c r="C47" s="112"/>
+      <c r="A47" s="108"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="114"/>
       <c r="D47" s="10">
         <v>35</v>
       </c>
@@ -2831,11 +2843,11 @@
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="103"/>
+      <c r="M47" s="105"/>
     </row>
     <row r="48" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="106"/>
-      <c r="B48" s="117"/>
+      <c r="A48" s="108"/>
+      <c r="B48" s="119"/>
       <c r="C48" s="8" t="s">
         <v>16</v>
       </c>
@@ -2858,11 +2870,11 @@
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-      <c r="M48" s="103"/>
+      <c r="M48" s="105"/>
     </row>
     <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="106"/>
-      <c r="B49" s="117"/>
+      <c r="A49" s="108"/>
+      <c r="B49" s="119"/>
       <c r="C49" s="8" t="s">
         <v>45</v>
       </c>
@@ -2885,11 +2897,11 @@
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-      <c r="M49" s="103"/>
+      <c r="M49" s="105"/>
     </row>
     <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="107"/>
-      <c r="B50" s="118"/>
+      <c r="A50" s="109"/>
+      <c r="B50" s="120"/>
       <c r="C50" s="8" t="s">
         <v>46</v>
       </c>
@@ -2912,7 +2924,7 @@
       </c>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-      <c r="M50" s="104"/>
+      <c r="M50" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2940,10 +2952,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H95"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2952,8 +2964,9 @@
     <col min="3" max="3" width="27.77734375" customWidth="1"/>
     <col min="4" max="4" width="26.77734375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
-    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="5.6640625" style="64" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="91" customFormat="1" ht="18" x14ac:dyDescent="0.35">
@@ -2983,10 +2996,10 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="127" t="s">
+      <c r="A4" s="103" t="s">
         <v>137</v>
       </c>
-      <c r="B4" s="97" t="s">
+      <c r="B4" s="96" t="s">
         <v>107</v>
       </c>
       <c r="C4" s="80" t="s">
@@ -3085,7 +3098,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C18" s="123" t="s">
+      <c r="C18" s="125" t="s">
         <v>115</v>
       </c>
       <c r="D18" s="90" t="s">
@@ -3093,7 +3106,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C19" s="124"/>
+      <c r="C19" s="126"/>
       <c r="D19" s="90" t="s">
         <v>124</v>
       </c>
@@ -3104,16 +3117,16 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="97" t="s">
+      <c r="B21" s="96" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="99"/>
+      <c r="C21" s="98"/>
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="97" t="s">
+      <c r="B22" s="96" t="s">
         <v>142</v>
       </c>
-      <c r="C22" s="100" t="s">
+      <c r="C22" s="99" t="s">
         <v>143</v>
       </c>
     </row>
@@ -3123,10 +3136,10 @@
     </row>
     <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="26" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="127" t="s">
+      <c r="A26" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="B26" s="97" t="s">
+      <c r="B26" s="96" t="s">
         <v>140</v>
       </c>
       <c r="C26" s="81" t="s">
@@ -3348,56 +3361,56 @@
       </c>
       <c r="G48" s="71"/>
     </row>
-    <row r="49" spans="3:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="61"/>
       <c r="D49" s="44" t="s">
         <v>69</v>
       </c>
       <c r="G49" s="71"/>
     </row>
-    <row r="50" spans="3:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="61"/>
       <c r="D50" s="44" t="s">
         <v>70</v>
       </c>
       <c r="G50" s="71"/>
     </row>
-    <row r="51" spans="3:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="61"/>
       <c r="D51" s="44" t="s">
         <v>71</v>
       </c>
       <c r="G51" s="71"/>
     </row>
-    <row r="52" spans="3:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="61"/>
       <c r="D52" s="44" t="s">
         <v>72</v>
       </c>
       <c r="G52" s="71"/>
     </row>
-    <row r="53" spans="3:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="61"/>
       <c r="D53" s="44" t="s">
         <v>73</v>
       </c>
       <c r="G53" s="71"/>
     </row>
-    <row r="54" spans="3:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="61"/>
       <c r="D54" s="44" t="s">
         <v>74</v>
       </c>
       <c r="G54" s="71"/>
     </row>
-    <row r="55" spans="3:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="62"/>
       <c r="D55" s="45" t="s">
         <v>67</v>
       </c>
       <c r="G55" s="71"/>
     </row>
-    <row r="56" spans="3:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="47" t="s">
         <v>120</v>
       </c>
@@ -3406,14 +3419,14 @@
       </c>
       <c r="G56" s="71"/>
     </row>
-    <row r="57" spans="3:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="48"/>
       <c r="D57" s="94" t="s">
         <v>78</v>
       </c>
       <c r="G57" s="71"/>
     </row>
-    <row r="58" spans="3:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="93"/>
       <c r="D58" s="47" t="s">
         <v>133</v>
@@ -3424,12 +3437,14 @@
       <c r="F58" s="46">
         <v>4</v>
       </c>
-      <c r="G58" s="71"/>
-    </row>
-    <row r="59" spans="3:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G58" s="46" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="93"/>
       <c r="D59" s="48"/>
-      <c r="E59" s="46" t="s">
+      <c r="E59" s="94" t="s">
         <v>99</v>
       </c>
       <c r="F59" s="46" t="s">
@@ -3437,323 +3452,356 @@
       </c>
       <c r="G59" s="71"/>
     </row>
-    <row r="60" spans="3:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="93"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="46" t="s">
+      <c r="D60" s="93"/>
+      <c r="E60" s="47" t="s">
         <v>134</v>
       </c>
-      <c r="F60" s="46"/>
-      <c r="G60" s="96"/>
-    </row>
-    <row r="61" spans="3:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F60" s="46" t="s">
+        <v>150</v>
+      </c>
+      <c r="G60" s="128">
+        <v>17</v>
+      </c>
+      <c r="H60" s="46" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="61" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="93"/>
-      <c r="D61" s="48"/>
-      <c r="E61" s="46" t="s">
-        <v>131</v>
-      </c>
-      <c r="F61" s="46">
-        <v>1</v>
-      </c>
-      <c r="G61" s="71"/>
-    </row>
-    <row r="62" spans="3:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D61" s="93"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="46" t="s">
+        <v>149</v>
+      </c>
+      <c r="G61" s="128">
+        <v>13</v>
+      </c>
+      <c r="H61" s="46" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="93"/>
       <c r="D62" s="48"/>
-      <c r="E62" s="46" t="s">
+      <c r="E62" s="95" t="s">
+        <v>131</v>
+      </c>
+      <c r="F62" s="46">
+        <v>1</v>
+      </c>
+      <c r="G62" s="46" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C63" s="93"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="46" t="s">
         <v>95</v>
       </c>
-      <c r="F62" s="46"/>
-      <c r="G62" s="71"/>
-    </row>
-    <row r="63" spans="3:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="93"/>
-      <c r="D63" s="49"/>
-      <c r="E63" s="46" t="s">
+      <c r="F63" s="46"/>
+      <c r="G63" s="71"/>
+    </row>
+    <row r="64" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C64" s="93"/>
+      <c r="D64" s="49"/>
+      <c r="E64" s="46" t="s">
         <v>132</v>
       </c>
-      <c r="F63" s="46">
+      <c r="F64" s="46">
         <v>1</v>
       </c>
-      <c r="G63" s="71"/>
-    </row>
-    <row r="64" spans="3:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="48"/>
-      <c r="D64" s="95" t="s">
-        <v>79</v>
-      </c>
-      <c r="G64" s="71"/>
+      <c r="G64" s="46" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="65" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="48"/>
-      <c r="D65" s="46" t="s">
+      <c r="D65" s="95" t="s">
+        <v>79</v>
+      </c>
+      <c r="G65" s="71"/>
+    </row>
+    <row r="66" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C66" s="48"/>
+      <c r="D66" s="46" t="s">
         <v>80</v>
       </c>
-      <c r="G65" s="71"/>
-    </row>
-    <row r="66" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="49"/>
-      <c r="D66" s="46" t="s">
+      <c r="G66" s="71"/>
+    </row>
+    <row r="67" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C67" s="49"/>
+      <c r="D67" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="G66" s="71"/>
-    </row>
-    <row r="67" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="51" t="s">
+      <c r="G67" s="71"/>
+    </row>
+    <row r="68" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C68" s="51" t="s">
         <v>121</v>
       </c>
-      <c r="D67" s="52" t="s">
+      <c r="D68" s="52" t="s">
         <v>82</v>
-      </c>
-      <c r="G67" s="71"/>
-    </row>
-    <row r="68" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="53"/>
-      <c r="D68" s="52" t="s">
-        <v>83</v>
       </c>
       <c r="G68" s="71"/>
     </row>
     <row r="69" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C69" s="53"/>
       <c r="D69" s="52" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G69" s="71"/>
     </row>
     <row r="70" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C70" s="53"/>
       <c r="D70" s="52" t="s">
+        <v>84</v>
+      </c>
+      <c r="G70" s="71"/>
+    </row>
+    <row r="71" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C71" s="53"/>
+      <c r="D71" s="52" t="s">
         <v>85</v>
       </c>
-      <c r="G70" s="71"/>
-    </row>
-    <row r="71" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C71" s="54"/>
-      <c r="D71" s="52" t="s">
+      <c r="G71" s="71"/>
+    </row>
+    <row r="72" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C72" s="54"/>
+      <c r="D72" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="G71" s="71"/>
-    </row>
-    <row r="72" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C72" s="75" t="s">
+      <c r="G72" s="71"/>
+    </row>
+    <row r="73" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C73" s="75" t="s">
         <v>122</v>
       </c>
-      <c r="D72" s="57" t="s">
+      <c r="D73" s="57" t="s">
         <v>87</v>
       </c>
-      <c r="G72" s="71"/>
-    </row>
-    <row r="73" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C73" s="76"/>
-      <c r="D73" s="59" t="s">
+      <c r="G73" s="71"/>
+    </row>
+    <row r="74" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="76"/>
+      <c r="D74" s="59" t="s">
         <v>88</v>
       </c>
-      <c r="G73" s="71"/>
-    </row>
-    <row r="74" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C74" s="77"/>
-      <c r="D74" s="120" t="s">
-        <v>89</v>
-      </c>
-      <c r="E74" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="F74" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="G74" s="72"/>
-      <c r="H74" s="72"/>
+      <c r="G74" s="71"/>
     </row>
     <row r="75" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C75" s="77"/>
-      <c r="D75" s="121"/>
-      <c r="E75" s="60"/>
+      <c r="D75" s="122" t="s">
+        <v>89</v>
+      </c>
+      <c r="E75" s="59" t="s">
+        <v>94</v>
+      </c>
       <c r="F75" s="58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G75" s="72"/>
       <c r="H75" s="72"/>
     </row>
     <row r="76" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C76" s="77"/>
-      <c r="D76" s="121"/>
-      <c r="E76" s="59" t="s">
-        <v>99</v>
-      </c>
+      <c r="D76" s="123"/>
+      <c r="E76" s="60"/>
       <c r="F76" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="G76" s="72">
-        <v>13</v>
-      </c>
-      <c r="H76" s="72" t="s">
-        <v>147</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G76" s="72"/>
+      <c r="H76" s="72"/>
     </row>
     <row r="77" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C77" s="77"/>
-      <c r="D77" s="121"/>
-      <c r="E77" s="60"/>
+      <c r="D77" s="123"/>
+      <c r="E77" s="59" t="s">
+        <v>99</v>
+      </c>
       <c r="F77" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="G77" s="72"/>
-      <c r="H77" s="72"/>
+        <v>92</v>
+      </c>
+      <c r="G77" s="72">
+        <v>13</v>
+      </c>
+      <c r="H77" s="72" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="78" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C78" s="77"/>
-      <c r="D78" s="121"/>
-      <c r="E78" s="59" t="s">
-        <v>98</v>
-      </c>
+      <c r="D78" s="123"/>
+      <c r="E78" s="60"/>
       <c r="F78" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="G78" s="72">
-        <v>22</v>
-      </c>
-      <c r="H78" s="126" t="s">
-        <v>147</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G78" s="72"/>
+      <c r="H78" s="72"/>
     </row>
     <row r="79" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C79" s="77"/>
-      <c r="D79" s="121"/>
-      <c r="E79" s="60"/>
+      <c r="D79" s="123"/>
+      <c r="E79" s="59" t="s">
+        <v>98</v>
+      </c>
       <c r="F79" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="G79" s="72"/>
-      <c r="H79" s="72"/>
+        <v>92</v>
+      </c>
+      <c r="G79" s="72">
+        <v>22</v>
+      </c>
+      <c r="H79" s="102" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="80" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C80" s="77"/>
-      <c r="D80" s="121"/>
-      <c r="E80" s="59" t="s">
-        <v>95</v>
-      </c>
+      <c r="D80" s="123"/>
+      <c r="E80" s="60"/>
       <c r="F80" s="58" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G80" s="72"/>
       <c r="H80" s="72"/>
     </row>
     <row r="81" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C81" s="77"/>
-      <c r="D81" s="121"/>
-      <c r="E81" s="60"/>
+      <c r="D81" s="123"/>
+      <c r="E81" s="59" t="s">
+        <v>95</v>
+      </c>
       <c r="F81" s="58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G81" s="72"/>
       <c r="H81" s="72"/>
     </row>
     <row r="82" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C82" s="77"/>
-      <c r="D82" s="121"/>
-      <c r="E82" s="59" t="s">
-        <v>96</v>
-      </c>
+      <c r="D82" s="123"/>
+      <c r="E82" s="60"/>
       <c r="F82" s="58" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G82" s="72"/>
       <c r="H82" s="72"/>
     </row>
     <row r="83" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C83" s="77"/>
-      <c r="D83" s="121"/>
-      <c r="E83" s="60"/>
+      <c r="D83" s="123"/>
+      <c r="E83" s="59" t="s">
+        <v>96</v>
+      </c>
       <c r="F83" s="58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G83" s="72"/>
       <c r="H83" s="72"/>
     </row>
     <row r="84" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C84" s="77"/>
-      <c r="D84" s="121"/>
-      <c r="E84" s="73" t="s">
-        <v>97</v>
-      </c>
+      <c r="D84" s="123"/>
+      <c r="E84" s="60"/>
       <c r="F84" s="58" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G84" s="72"/>
       <c r="H84" s="72"/>
     </row>
     <row r="85" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C85" s="77"/>
-      <c r="D85" s="122"/>
-      <c r="E85" s="60"/>
+      <c r="D85" s="123"/>
+      <c r="E85" s="73" t="s">
+        <v>97</v>
+      </c>
       <c r="F85" s="58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="G85" s="72"/>
       <c r="H85" s="72"/>
     </row>
     <row r="86" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C86" s="77"/>
-      <c r="D86" s="60" t="s">
-        <v>102</v>
-      </c>
+      <c r="D86" s="124"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="58" t="s">
+        <v>93</v>
+      </c>
+      <c r="G86" s="72"/>
+      <c r="H86" s="72"/>
     </row>
     <row r="87" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C87" s="77"/>
-      <c r="D87" s="57" t="s">
-        <v>90</v>
+      <c r="D87" s="60" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C88" s="77"/>
-      <c r="D88" s="59" t="s">
+      <c r="D88" s="57" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="89" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C89" s="77"/>
+      <c r="D89" s="59" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C89" s="125" t="s">
+    <row r="90" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C90" s="127" t="s">
         <v>136</v>
       </c>
-      <c r="D89" s="98" t="s">
+      <c r="D90" s="97" t="s">
         <v>145</v>
       </c>
-      <c r="E89" s="101">
+      <c r="E90" s="100">
         <v>1</v>
       </c>
-    </row>
-    <row r="90" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C90" s="125"/>
-      <c r="D90" s="98" t="s">
+      <c r="F90" s="101" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C91" s="127"/>
+      <c r="D91" s="97" t="s">
         <v>144</v>
       </c>
-      <c r="E90" s="101"/>
-    </row>
-    <row r="91" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C91" s="125"/>
-      <c r="D91" s="98"/>
-      <c r="E91" s="101"/>
+      <c r="E91" s="100"/>
+      <c r="F91" s="101"/>
     </row>
     <row r="92" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C92" s="125"/>
-      <c r="D92" s="98"/>
-      <c r="E92" s="101"/>
+      <c r="C92" s="127"/>
+      <c r="D92" s="97"/>
+      <c r="E92" s="100"/>
+      <c r="F92" s="101"/>
     </row>
     <row r="93" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C93" s="125"/>
-      <c r="D93" s="98"/>
-      <c r="E93" s="101"/>
+      <c r="C93" s="127"/>
+      <c r="D93" s="97"/>
+      <c r="E93" s="100"/>
+      <c r="F93" s="101"/>
     </row>
     <row r="94" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C94" s="125"/>
-      <c r="D94" s="98"/>
-      <c r="E94" s="101"/>
+      <c r="C94" s="127"/>
+      <c r="D94" s="97"/>
+      <c r="E94" s="100"/>
+      <c r="F94" s="101"/>
+    </row>
+    <row r="95" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C95" s="127"/>
+      <c r="D95" s="97"/>
+      <c r="E95" s="100"/>
+      <c r="F95" s="101"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D74:D85"/>
+    <mergeCell ref="D75:D86"/>
     <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C89:C94"/>
+    <mergeCell ref="C90:C95"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/asset/Control GESPRO.xlsx
+++ b/asset/Control GESPRO.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="155">
   <si>
     <t>Sección</t>
   </si>
@@ -481,6 +481,15 @@
   </si>
   <si>
     <t>mp3</t>
+  </si>
+  <si>
+    <t>13*</t>
+  </si>
+  <si>
+    <t>22*</t>
+  </si>
+  <si>
+    <t>* con diseño final</t>
   </si>
 </sst>
 </file>
@@ -1008,7 +1017,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="129">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1193,6 +1202,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1265,9 +1277,7 @@
     <xf numFmtId="0" fontId="9" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1609,14 +1619,14 @@
       <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G3" s="110" t="s">
+      <c r="G3" s="111" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="112"/>
+      <c r="H3" s="112"/>
+      <c r="I3" s="112"/>
+      <c r="J3" s="112"/>
+      <c r="K3" s="112"/>
+      <c r="L3" s="113"/>
     </row>
     <row r="4" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -1660,10 +1670,10 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="118" t="s">
+      <c r="B5" s="119" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1688,13 +1698,13 @@
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="104" t="s">
+      <c r="M5" s="105" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="108"/>
-      <c r="B6" s="119"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="120"/>
       <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
@@ -1717,11 +1727,11 @@
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="105"/>
+      <c r="M6" s="106"/>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="108"/>
-      <c r="B7" s="119"/>
+      <c r="A7" s="109"/>
+      <c r="B7" s="120"/>
       <c r="C7" s="8" t="s">
         <v>7</v>
       </c>
@@ -1744,11 +1754,11 @@
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="105"/>
+      <c r="M7" s="106"/>
     </row>
     <row r="8" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="108"/>
-      <c r="B8" s="119"/>
+      <c r="A8" s="109"/>
+      <c r="B8" s="120"/>
       <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1771,11 +1781,11 @@
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="105"/>
+      <c r="M8" s="106"/>
     </row>
     <row r="9" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="108"/>
-      <c r="B9" s="119"/>
+      <c r="A9" s="109"/>
+      <c r="B9" s="120"/>
       <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
@@ -1798,11 +1808,11 @@
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="105"/>
+      <c r="M9" s="106"/>
     </row>
     <row r="10" spans="1:13" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="108"/>
-      <c r="B10" s="119"/>
+      <c r="A10" s="109"/>
+      <c r="B10" s="120"/>
       <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
@@ -1825,11 +1835,11 @@
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="105"/>
+      <c r="M10" s="106"/>
     </row>
     <row r="11" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="108"/>
-      <c r="B11" s="119"/>
+      <c r="A11" s="109"/>
+      <c r="B11" s="120"/>
       <c r="C11" s="8" t="s">
         <v>11</v>
       </c>
@@ -1852,11 +1862,11 @@
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="105"/>
+      <c r="M11" s="106"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="108"/>
-      <c r="B12" s="119"/>
+      <c r="A12" s="109"/>
+      <c r="B12" s="120"/>
       <c r="C12" s="8" t="s">
         <v>12</v>
       </c>
@@ -1879,11 +1889,11 @@
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="105"/>
+      <c r="M12" s="106"/>
     </row>
     <row r="13" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="108"/>
-      <c r="B13" s="119"/>
+      <c r="A13" s="109"/>
+      <c r="B13" s="120"/>
       <c r="C13" s="8" t="s">
         <v>13</v>
       </c>
@@ -1906,18 +1916,18 @@
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="105"/>
+      <c r="M13" s="106"/>
     </row>
     <row r="14" spans="1:13" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="108"/>
-      <c r="B14" s="119"/>
-      <c r="C14" s="113" t="s">
+      <c r="A14" s="109"/>
+      <c r="B14" s="120"/>
+      <c r="C14" s="114" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="9">
         <v>31</v>
       </c>
-      <c r="E14" s="116" t="s">
+      <c r="E14" s="117" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="13" t="s">
@@ -1937,16 +1947,16 @@
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="105"/>
+      <c r="M14" s="106"/>
     </row>
     <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="108"/>
-      <c r="B15" s="119"/>
-      <c r="C15" s="114"/>
+      <c r="A15" s="109"/>
+      <c r="B15" s="120"/>
+      <c r="C15" s="115"/>
       <c r="D15" s="10">
         <v>31</v>
       </c>
-      <c r="E15" s="121"/>
+      <c r="E15" s="122"/>
       <c r="F15" s="12" t="s">
         <v>14</v>
       </c>
@@ -1964,16 +1974,16 @@
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="105"/>
+      <c r="M15" s="106"/>
     </row>
     <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="108"/>
-      <c r="B16" s="119"/>
-      <c r="C16" s="114"/>
+      <c r="A16" s="109"/>
+      <c r="B16" s="120"/>
+      <c r="C16" s="115"/>
       <c r="D16" s="10">
         <v>31</v>
       </c>
-      <c r="E16" s="117"/>
+      <c r="E16" s="118"/>
       <c r="F16" s="12" t="s">
         <v>16</v>
       </c>
@@ -1991,16 +2001,16 @@
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="105"/>
+      <c r="M16" s="106"/>
     </row>
     <row r="17" spans="1:15" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="108"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="114"/>
+      <c r="A17" s="109"/>
+      <c r="B17" s="120"/>
+      <c r="C17" s="115"/>
       <c r="D17" s="10">
         <v>31</v>
       </c>
-      <c r="E17" s="116" t="s">
+      <c r="E17" s="117" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="11" t="s">
@@ -2020,16 +2030,16 @@
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="105"/>
+      <c r="M17" s="106"/>
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="108"/>
-      <c r="B18" s="119"/>
-      <c r="C18" s="114"/>
+      <c r="A18" s="109"/>
+      <c r="B18" s="120"/>
+      <c r="C18" s="115"/>
       <c r="D18" s="10">
         <v>31</v>
       </c>
-      <c r="E18" s="121"/>
+      <c r="E18" s="122"/>
       <c r="F18" s="12" t="s">
         <v>14</v>
       </c>
@@ -2047,16 +2057,16 @@
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="105"/>
+      <c r="M18" s="106"/>
     </row>
     <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="108"/>
-      <c r="B19" s="119"/>
-      <c r="C19" s="115"/>
+      <c r="A19" s="109"/>
+      <c r="B19" s="120"/>
+      <c r="C19" s="116"/>
       <c r="D19" s="10">
         <v>31</v>
       </c>
-      <c r="E19" s="117"/>
+      <c r="E19" s="118"/>
       <c r="F19" s="12" t="s">
         <v>16</v>
       </c>
@@ -2074,12 +2084,12 @@
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="105"/>
+      <c r="M19" s="106"/>
     </row>
     <row r="20" spans="1:15" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="108"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="113" t="s">
+      <c r="A20" s="109"/>
+      <c r="B20" s="120"/>
+      <c r="C20" s="114" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="9">
@@ -2103,12 +2113,12 @@
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="105"/>
+      <c r="M20" s="106"/>
     </row>
     <row r="21" spans="1:15" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="108"/>
-      <c r="B21" s="119"/>
-      <c r="C21" s="114"/>
+      <c r="A21" s="109"/>
+      <c r="B21" s="120"/>
+      <c r="C21" s="115"/>
       <c r="D21" s="10">
         <v>29</v>
       </c>
@@ -2130,11 +2140,11 @@
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="105"/>
+      <c r="M21" s="106"/>
     </row>
     <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="108"/>
-      <c r="B22" s="119"/>
+      <c r="A22" s="109"/>
+      <c r="B22" s="120"/>
       <c r="C22" s="7" t="s">
         <v>19</v>
       </c>
@@ -2157,11 +2167,11 @@
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="105"/>
+      <c r="M22" s="106"/>
     </row>
     <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="109"/>
-      <c r="B23" s="120"/>
+      <c r="A23" s="110"/>
+      <c r="B23" s="121"/>
       <c r="C23" s="8" t="s">
         <v>16</v>
       </c>
@@ -2184,7 +2194,7 @@
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="106"/>
+      <c r="M23" s="107"/>
     </row>
     <row r="24" spans="1:15" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
@@ -2244,10 +2254,10 @@
       <c r="O25" s="79"/>
     </row>
     <row r="26" spans="1:15" ht="97.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="107" t="s">
+      <c r="A26" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="118" t="s">
+      <c r="B26" s="119" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -2272,13 +2282,13 @@
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="104" t="s">
+      <c r="M26" s="105" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="108"/>
-      <c r="B27" s="119"/>
+      <c r="A27" s="109"/>
+      <c r="B27" s="120"/>
       <c r="C27" s="7" t="s">
         <v>5</v>
       </c>
@@ -2301,11 +2311,11 @@
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="105"/>
+      <c r="M27" s="106"/>
     </row>
     <row r="28" spans="1:15" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="108"/>
-      <c r="B28" s="119"/>
+      <c r="A28" s="109"/>
+      <c r="B28" s="120"/>
       <c r="C28" s="8" t="s">
         <v>6</v>
       </c>
@@ -2328,11 +2338,11 @@
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="105"/>
+      <c r="M28" s="106"/>
     </row>
     <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="108"/>
-      <c r="B29" s="119"/>
+      <c r="A29" s="109"/>
+      <c r="B29" s="120"/>
       <c r="C29" s="8" t="s">
         <v>39</v>
       </c>
@@ -2355,11 +2365,11 @@
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="105"/>
+      <c r="M29" s="106"/>
     </row>
     <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="108"/>
-      <c r="B30" s="119"/>
+      <c r="A30" s="109"/>
+      <c r="B30" s="120"/>
       <c r="C30" s="8" t="s">
         <v>7</v>
       </c>
@@ -2382,11 +2392,11 @@
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="105"/>
+      <c r="M30" s="106"/>
     </row>
     <row r="31" spans="1:15" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="108"/>
-      <c r="B31" s="119"/>
+      <c r="A31" s="109"/>
+      <c r="B31" s="120"/>
       <c r="C31" s="8" t="s">
         <v>40</v>
       </c>
@@ -2409,11 +2419,11 @@
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="105"/>
+      <c r="M31" s="106"/>
     </row>
     <row r="32" spans="1:15" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="108"/>
-      <c r="B32" s="119"/>
+      <c r="A32" s="109"/>
+      <c r="B32" s="120"/>
       <c r="C32" s="8" t="s">
         <v>8</v>
       </c>
@@ -2436,11 +2446,11 @@
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="105"/>
+      <c r="M32" s="106"/>
     </row>
     <row r="33" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="108"/>
-      <c r="B33" s="119"/>
+      <c r="A33" s="109"/>
+      <c r="B33" s="120"/>
       <c r="C33" s="8" t="s">
         <v>9</v>
       </c>
@@ -2463,11 +2473,11 @@
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="105"/>
+      <c r="M33" s="106"/>
     </row>
     <row r="34" spans="1:13" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="108"/>
-      <c r="B34" s="119"/>
+      <c r="A34" s="109"/>
+      <c r="B34" s="120"/>
       <c r="C34" s="8" t="s">
         <v>10</v>
       </c>
@@ -2490,11 +2500,11 @@
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="105"/>
+      <c r="M34" s="106"/>
     </row>
     <row r="35" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="108"/>
-      <c r="B35" s="119"/>
+      <c r="A35" s="109"/>
+      <c r="B35" s="120"/>
       <c r="C35" s="8" t="s">
         <v>11</v>
       </c>
@@ -2517,11 +2527,11 @@
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="105"/>
+      <c r="M35" s="106"/>
     </row>
     <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="108"/>
-      <c r="B36" s="119"/>
+      <c r="A36" s="109"/>
+      <c r="B36" s="120"/>
       <c r="C36" s="8" t="s">
         <v>12</v>
       </c>
@@ -2544,11 +2554,11 @@
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="105"/>
+      <c r="M36" s="106"/>
     </row>
     <row r="37" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="108"/>
-      <c r="B37" s="119"/>
+      <c r="A37" s="109"/>
+      <c r="B37" s="120"/>
       <c r="C37" s="8" t="s">
         <v>13</v>
       </c>
@@ -2571,11 +2581,11 @@
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="105"/>
+      <c r="M37" s="106"/>
     </row>
     <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="108"/>
-      <c r="B38" s="119"/>
+      <c r="A38" s="109"/>
+      <c r="B38" s="120"/>
       <c r="C38" s="8" t="s">
         <v>41</v>
       </c>
@@ -2598,11 +2608,11 @@
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="105"/>
+      <c r="M38" s="106"/>
     </row>
     <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="108"/>
-      <c r="B39" s="119"/>
+      <c r="A39" s="109"/>
+      <c r="B39" s="120"/>
       <c r="C39" s="8" t="s">
         <v>42</v>
       </c>
@@ -2625,18 +2635,18 @@
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="105"/>
+      <c r="M39" s="106"/>
     </row>
     <row r="40" spans="1:13" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="108"/>
-      <c r="B40" s="119"/>
-      <c r="C40" s="113" t="s">
+      <c r="A40" s="109"/>
+      <c r="B40" s="120"/>
+      <c r="C40" s="114" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="9">
         <v>32</v>
       </c>
-      <c r="E40" s="116" t="s">
+      <c r="E40" s="117" t="s">
         <v>15</v>
       </c>
       <c r="F40" s="13"/>
@@ -2654,16 +2664,16 @@
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="105"/>
+      <c r="M40" s="106"/>
     </row>
     <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="108"/>
-      <c r="B41" s="119"/>
-      <c r="C41" s="114"/>
+      <c r="A41" s="109"/>
+      <c r="B41" s="120"/>
+      <c r="C41" s="115"/>
       <c r="D41" s="10">
         <v>32</v>
       </c>
-      <c r="E41" s="117"/>
+      <c r="E41" s="118"/>
       <c r="F41" s="12"/>
       <c r="G41" s="1" t="s">
         <v>49</v>
@@ -2679,16 +2689,16 @@
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="105"/>
+      <c r="M41" s="106"/>
     </row>
     <row r="42" spans="1:13" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="108"/>
-      <c r="B42" s="119"/>
-      <c r="C42" s="114"/>
+      <c r="A42" s="109"/>
+      <c r="B42" s="120"/>
+      <c r="C42" s="115"/>
       <c r="D42" s="10">
         <v>32</v>
       </c>
-      <c r="E42" s="116" t="s">
+      <c r="E42" s="117" t="s">
         <v>17</v>
       </c>
       <c r="F42" s="11"/>
@@ -2706,16 +2716,16 @@
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="105"/>
+      <c r="M42" s="106"/>
     </row>
     <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="108"/>
-      <c r="B43" s="119"/>
-      <c r="C43" s="115"/>
+      <c r="A43" s="109"/>
+      <c r="B43" s="120"/>
+      <c r="C43" s="116"/>
       <c r="D43" s="10">
         <v>32</v>
       </c>
-      <c r="E43" s="117"/>
+      <c r="E43" s="118"/>
       <c r="F43" s="12"/>
       <c r="G43" s="1" t="s">
         <v>49</v>
@@ -2731,12 +2741,12 @@
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="105"/>
+      <c r="M43" s="106"/>
     </row>
     <row r="44" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="108"/>
-      <c r="B44" s="119"/>
-      <c r="C44" s="113" t="s">
+      <c r="A44" s="109"/>
+      <c r="B44" s="120"/>
+      <c r="C44" s="114" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="9">
@@ -2760,12 +2770,12 @@
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="105"/>
+      <c r="M44" s="106"/>
     </row>
     <row r="45" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="108"/>
-      <c r="B45" s="119"/>
-      <c r="C45" s="114"/>
+      <c r="A45" s="109"/>
+      <c r="B45" s="120"/>
+      <c r="C45" s="115"/>
       <c r="D45" s="10">
         <v>30</v>
       </c>
@@ -2787,12 +2797,12 @@
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="105"/>
+      <c r="M45" s="106"/>
     </row>
     <row r="46" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="108"/>
-      <c r="B46" s="119"/>
-      <c r="C46" s="113" t="s">
+      <c r="A46" s="109"/>
+      <c r="B46" s="120"/>
+      <c r="C46" s="114" t="s">
         <v>19</v>
       </c>
       <c r="D46" s="9">
@@ -2816,12 +2826,12 @@
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="105"/>
+      <c r="M46" s="106"/>
     </row>
     <row r="47" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="108"/>
-      <c r="B47" s="119"/>
-      <c r="C47" s="114"/>
+      <c r="A47" s="109"/>
+      <c r="B47" s="120"/>
+      <c r="C47" s="115"/>
       <c r="D47" s="10">
         <v>35</v>
       </c>
@@ -2843,11 +2853,11 @@
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="105"/>
+      <c r="M47" s="106"/>
     </row>
     <row r="48" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="108"/>
-      <c r="B48" s="119"/>
+      <c r="A48" s="109"/>
+      <c r="B48" s="120"/>
       <c r="C48" s="8" t="s">
         <v>16</v>
       </c>
@@ -2870,11 +2880,11 @@
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-      <c r="M48" s="105"/>
+      <c r="M48" s="106"/>
     </row>
     <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="108"/>
-      <c r="B49" s="119"/>
+      <c r="A49" s="109"/>
+      <c r="B49" s="120"/>
       <c r="C49" s="8" t="s">
         <v>45</v>
       </c>
@@ -2897,11 +2907,11 @@
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-      <c r="M49" s="105"/>
+      <c r="M49" s="106"/>
     </row>
     <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="109"/>
-      <c r="B50" s="120"/>
+      <c r="A50" s="110"/>
+      <c r="B50" s="121"/>
       <c r="C50" s="8" t="s">
         <v>46</v>
       </c>
@@ -2924,7 +2934,7 @@
       </c>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-      <c r="M50" s="106"/>
+      <c r="M50" s="107"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2952,10 +2962,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H95"/>
+  <dimension ref="A1:I95"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="I79" sqref="I79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3098,7 +3108,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C18" s="125" t="s">
+      <c r="C18" s="126" t="s">
         <v>115</v>
       </c>
       <c r="D18" s="90" t="s">
@@ -3106,7 +3116,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C19" s="126"/>
+      <c r="C19" s="127"/>
       <c r="D19" s="90" t="s">
         <v>124</v>
       </c>
@@ -3461,7 +3471,7 @@
       <c r="F60" s="46" t="s">
         <v>150</v>
       </c>
-      <c r="G60" s="128">
+      <c r="G60" s="104">
         <v>17</v>
       </c>
       <c r="H60" s="46" t="s">
@@ -3475,7 +3485,7 @@
       <c r="F61" s="46" t="s">
         <v>149</v>
       </c>
-      <c r="G61" s="128">
+      <c r="G61" s="104">
         <v>13</v>
       </c>
       <c r="H61" s="46" t="s">
@@ -3517,28 +3527,28 @@
         <v>147</v>
       </c>
     </row>
-    <row r="65" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="48"/>
       <c r="D65" s="95" t="s">
         <v>79</v>
       </c>
       <c r="G65" s="71"/>
     </row>
-    <row r="66" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="48"/>
       <c r="D66" s="46" t="s">
         <v>80</v>
       </c>
       <c r="G66" s="71"/>
     </row>
-    <row r="67" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C67" s="49"/>
       <c r="D67" s="46" t="s">
         <v>81</v>
       </c>
       <c r="G67" s="71"/>
     </row>
-    <row r="68" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C68" s="51" t="s">
         <v>121</v>
       </c>
@@ -3547,35 +3557,35 @@
       </c>
       <c r="G68" s="71"/>
     </row>
-    <row r="69" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C69" s="53"/>
       <c r="D69" s="52" t="s">
         <v>83</v>
       </c>
       <c r="G69" s="71"/>
     </row>
-    <row r="70" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C70" s="53"/>
       <c r="D70" s="52" t="s">
         <v>84</v>
       </c>
       <c r="G70" s="71"/>
     </row>
-    <row r="71" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C71" s="53"/>
       <c r="D71" s="52" t="s">
         <v>85</v>
       </c>
       <c r="G71" s="71"/>
     </row>
-    <row r="72" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C72" s="54"/>
       <c r="D72" s="52" t="s">
         <v>86</v>
       </c>
       <c r="G72" s="71"/>
     </row>
-    <row r="73" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C73" s="75" t="s">
         <v>122</v>
       </c>
@@ -3584,16 +3594,16 @@
       </c>
       <c r="G73" s="71"/>
     </row>
-    <row r="74" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C74" s="76"/>
       <c r="D74" s="59" t="s">
         <v>88</v>
       </c>
       <c r="G74" s="71"/>
     </row>
-    <row r="75" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C75" s="77"/>
-      <c r="D75" s="122" t="s">
+      <c r="D75" s="123" t="s">
         <v>89</v>
       </c>
       <c r="E75" s="59" t="s">
@@ -3605,9 +3615,9 @@
       <c r="G75" s="72"/>
       <c r="H75" s="72"/>
     </row>
-    <row r="76" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C76" s="77"/>
-      <c r="D76" s="123"/>
+      <c r="D76" s="124"/>
       <c r="E76" s="60"/>
       <c r="F76" s="58" t="s">
         <v>93</v>
@@ -3615,25 +3625,28 @@
       <c r="G76" s="72"/>
       <c r="H76" s="72"/>
     </row>
-    <row r="77" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C77" s="77"/>
-      <c r="D77" s="123"/>
+      <c r="D77" s="124"/>
       <c r="E77" s="59" t="s">
         <v>99</v>
       </c>
       <c r="F77" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="G77" s="72">
-        <v>13</v>
+      <c r="G77" s="72" t="s">
+        <v>152</v>
       </c>
       <c r="H77" s="72" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="78" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="I77" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C78" s="77"/>
-      <c r="D78" s="123"/>
+      <c r="D78" s="124"/>
       <c r="E78" s="60"/>
       <c r="F78" s="58" t="s">
         <v>93</v>
@@ -3641,25 +3654,28 @@
       <c r="G78" s="72"/>
       <c r="H78" s="72"/>
     </row>
-    <row r="79" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="79" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C79" s="77"/>
-      <c r="D79" s="123"/>
+      <c r="D79" s="124"/>
       <c r="E79" s="59" t="s">
         <v>98</v>
       </c>
       <c r="F79" s="58" t="s">
         <v>92</v>
       </c>
-      <c r="G79" s="72">
-        <v>22</v>
+      <c r="G79" s="72" t="s">
+        <v>153</v>
       </c>
       <c r="H79" s="102" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="80" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="I79" s="129" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="80" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C80" s="77"/>
-      <c r="D80" s="123"/>
+      <c r="D80" s="124"/>
       <c r="E80" s="60"/>
       <c r="F80" s="58" t="s">
         <v>93</v>
@@ -3669,7 +3685,7 @@
     </row>
     <row r="81" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C81" s="77"/>
-      <c r="D81" s="123"/>
+      <c r="D81" s="124"/>
       <c r="E81" s="59" t="s">
         <v>95</v>
       </c>
@@ -3681,7 +3697,7 @@
     </row>
     <row r="82" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C82" s="77"/>
-      <c r="D82" s="123"/>
+      <c r="D82" s="124"/>
       <c r="E82" s="60"/>
       <c r="F82" s="58" t="s">
         <v>93</v>
@@ -3691,7 +3707,7 @@
     </row>
     <row r="83" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C83" s="77"/>
-      <c r="D83" s="123"/>
+      <c r="D83" s="124"/>
       <c r="E83" s="59" t="s">
         <v>96</v>
       </c>
@@ -3703,7 +3719,7 @@
     </row>
     <row r="84" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C84" s="77"/>
-      <c r="D84" s="123"/>
+      <c r="D84" s="124"/>
       <c r="E84" s="60"/>
       <c r="F84" s="58" t="s">
         <v>93</v>
@@ -3713,7 +3729,7 @@
     </row>
     <row r="85" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C85" s="77"/>
-      <c r="D85" s="123"/>
+      <c r="D85" s="124"/>
       <c r="E85" s="73" t="s">
         <v>97</v>
       </c>
@@ -3725,7 +3741,7 @@
     </row>
     <row r="86" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C86" s="77"/>
-      <c r="D86" s="124"/>
+      <c r="D86" s="125"/>
       <c r="E86" s="60"/>
       <c r="F86" s="58" t="s">
         <v>93</v>
@@ -3752,7 +3768,7 @@
       </c>
     </row>
     <row r="90" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C90" s="127" t="s">
+      <c r="C90" s="128" t="s">
         <v>136</v>
       </c>
       <c r="D90" s="97" t="s">
@@ -3766,7 +3782,7 @@
       </c>
     </row>
     <row r="91" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C91" s="127"/>
+      <c r="C91" s="128"/>
       <c r="D91" s="97" t="s">
         <v>144</v>
       </c>
@@ -3774,25 +3790,25 @@
       <c r="F91" s="101"/>
     </row>
     <row r="92" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C92" s="127"/>
+      <c r="C92" s="128"/>
       <c r="D92" s="97"/>
       <c r="E92" s="100"/>
       <c r="F92" s="101"/>
     </row>
     <row r="93" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C93" s="127"/>
+      <c r="C93" s="128"/>
       <c r="D93" s="97"/>
       <c r="E93" s="100"/>
       <c r="F93" s="101"/>
     </row>
     <row r="94" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C94" s="127"/>
+      <c r="C94" s="128"/>
       <c r="D94" s="97"/>
       <c r="E94" s="100"/>
       <c r="F94" s="101"/>
     </row>
     <row r="95" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C95" s="127"/>
+      <c r="C95" s="128"/>
       <c r="D95" s="97"/>
       <c r="E95" s="100"/>
       <c r="F95" s="101"/>

--- a/asset/Control GESPRO.xlsx
+++ b/asset/Control GESPRO.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="409" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="160">
   <si>
     <t>Sección</t>
   </si>
@@ -210,9 +210,6 @@
     <t>tareas</t>
   </si>
   <si>
-    <t>trabajoCot</t>
-  </si>
-  <si>
     <t>asistencia</t>
   </si>
   <si>
@@ -261,15 +258,6 @@
     <t>politica_educa</t>
   </si>
   <si>
-    <t>politica_curricular</t>
-  </si>
-  <si>
-    <t>reglamento_evaluacion</t>
-  </si>
-  <si>
-    <t>perfil_estudiante</t>
-  </si>
-  <si>
     <t>faro</t>
   </si>
   <si>
@@ -297,12 +285,6 @@
     <t>plantillas</t>
   </si>
   <si>
-    <t>video_planeamiento</t>
-  </si>
-  <si>
-    <t>video_unidocentes</t>
-  </si>
-  <si>
     <t>lineam</t>
   </si>
   <si>
@@ -345,36 +327,9 @@
     <t>NIVEL-3</t>
   </si>
   <si>
-    <t>NIVLE-4</t>
-  </si>
-  <si>
     <t>Img</t>
   </si>
   <si>
-    <t>1_img_portada</t>
-  </si>
-  <si>
-    <t>2_img_home</t>
-  </si>
-  <si>
-    <t>3_img_apoyos_aula</t>
-  </si>
-  <si>
-    <t>4_img_apoyos_eval</t>
-  </si>
-  <si>
-    <t>5_img_recursos_did</t>
-  </si>
-  <si>
-    <t>6_img_documen_educ</t>
-  </si>
-  <si>
-    <t>7_img_desarrollo_prof</t>
-  </si>
-  <si>
-    <t>8_img_apoyo_planea</t>
-  </si>
-  <si>
     <t>1_ref_portada</t>
   </si>
   <si>
@@ -447,9 +402,6 @@
     <t>NIVEL-0</t>
   </si>
   <si>
-    <t>faro-referencias</t>
-  </si>
-  <si>
     <t>audios</t>
   </si>
   <si>
@@ -490,13 +442,76 @@
   </si>
   <si>
     <t>* con diseño final</t>
+  </si>
+  <si>
+    <t>10_no_referenciadas</t>
+  </si>
+  <si>
+    <t>NIVEL-4</t>
+  </si>
+  <si>
+    <t>faro_referencias</t>
+  </si>
+  <si>
+    <t>1_portada</t>
+  </si>
+  <si>
+    <t>2_home</t>
+  </si>
+  <si>
+    <t>3_apoyos_aula</t>
+  </si>
+  <si>
+    <t>4_apoyos_eval</t>
+  </si>
+  <si>
+    <t>5_recursos_did</t>
+  </si>
+  <si>
+    <t>6_documen_educ</t>
+  </si>
+  <si>
+    <t>7_desarrollo_prof</t>
+  </si>
+  <si>
+    <t>8_apoyo_planea</t>
+  </si>
+  <si>
+    <t>8_ref_apoyos_planea_planeamiento</t>
+  </si>
+  <si>
+    <t>8_ref_apoyos_planea_unidocentes</t>
+  </si>
+  <si>
+    <t>trabajo_cot</t>
+  </si>
+  <si>
+    <t>video planeamiento</t>
+  </si>
+  <si>
+    <t>video unidocentes</t>
+  </si>
+  <si>
+    <t>enlace:</t>
+  </si>
+  <si>
+    <t>politica_curricul</t>
+  </si>
+  <si>
+    <t>reglamento</t>
+  </si>
+  <si>
+    <t>perfil</t>
+  </si>
+  <si>
+    <t>sin referencias</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -606,12 +621,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color theme="1"/>
@@ -628,7 +637,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="24">
+  <fills count="25">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -767,8 +776,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1012,12 +1027,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="142">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1175,14 +1199,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1190,8 +1214,6 @@
     <xf numFmtId="0" fontId="4" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1202,9 +1224,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1277,7 +1300,44 @@
     <xf numFmtId="0" fontId="9" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -1568,7 +1628,7 @@
   <dimension ref="A1:O50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26:M50"/>
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1619,14 +1679,14 @@
       <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G3" s="111" t="s">
+      <c r="G3" s="110" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="112"/>
-      <c r="I3" s="112"/>
-      <c r="J3" s="112"/>
-      <c r="K3" s="112"/>
-      <c r="L3" s="113"/>
+      <c r="H3" s="111"/>
+      <c r="I3" s="111"/>
+      <c r="J3" s="111"/>
+      <c r="K3" s="111"/>
+      <c r="L3" s="112"/>
     </row>
     <row r="4" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -1666,14 +1726,14 @@
         <v>28</v>
       </c>
       <c r="M4" s="65" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="119" t="s">
+      <c r="B5" s="118" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1698,13 +1758,13 @@
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="105" t="s">
-        <v>101</v>
+      <c r="M5" s="104" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="109"/>
-      <c r="B6" s="120"/>
+      <c r="A6" s="108"/>
+      <c r="B6" s="119"/>
       <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
@@ -1727,11 +1787,11 @@
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="106"/>
+      <c r="M6" s="105"/>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="109"/>
-      <c r="B7" s="120"/>
+      <c r="A7" s="108"/>
+      <c r="B7" s="119"/>
       <c r="C7" s="8" t="s">
         <v>7</v>
       </c>
@@ -1754,11 +1814,11 @@
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="106"/>
+      <c r="M7" s="105"/>
     </row>
     <row r="8" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="109"/>
-      <c r="B8" s="120"/>
+      <c r="A8" s="108"/>
+      <c r="B8" s="119"/>
       <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1781,11 +1841,11 @@
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="106"/>
+      <c r="M8" s="105"/>
     </row>
     <row r="9" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="109"/>
-      <c r="B9" s="120"/>
+      <c r="A9" s="108"/>
+      <c r="B9" s="119"/>
       <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
@@ -1808,11 +1868,11 @@
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="106"/>
+      <c r="M9" s="105"/>
     </row>
     <row r="10" spans="1:13" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="109"/>
-      <c r="B10" s="120"/>
+      <c r="A10" s="108"/>
+      <c r="B10" s="119"/>
       <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
@@ -1835,11 +1895,11 @@
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="106"/>
+      <c r="M10" s="105"/>
     </row>
     <row r="11" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="109"/>
-      <c r="B11" s="120"/>
+      <c r="A11" s="108"/>
+      <c r="B11" s="119"/>
       <c r="C11" s="8" t="s">
         <v>11</v>
       </c>
@@ -1862,11 +1922,11 @@
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="106"/>
+      <c r="M11" s="105"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="109"/>
-      <c r="B12" s="120"/>
+      <c r="A12" s="108"/>
+      <c r="B12" s="119"/>
       <c r="C12" s="8" t="s">
         <v>12</v>
       </c>
@@ -1889,11 +1949,11 @@
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="106"/>
+      <c r="M12" s="105"/>
     </row>
     <row r="13" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="109"/>
-      <c r="B13" s="120"/>
+      <c r="A13" s="108"/>
+      <c r="B13" s="119"/>
       <c r="C13" s="8" t="s">
         <v>13</v>
       </c>
@@ -1916,18 +1976,18 @@
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="106"/>
+      <c r="M13" s="105"/>
     </row>
     <row r="14" spans="1:13" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="109"/>
-      <c r="B14" s="120"/>
-      <c r="C14" s="114" t="s">
+      <c r="A14" s="108"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="113" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="9">
         <v>31</v>
       </c>
-      <c r="E14" s="117" t="s">
+      <c r="E14" s="116" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="13" t="s">
@@ -1947,16 +2007,16 @@
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="106"/>
+      <c r="M14" s="105"/>
     </row>
     <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="109"/>
-      <c r="B15" s="120"/>
-      <c r="C15" s="115"/>
+      <c r="A15" s="108"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="114"/>
       <c r="D15" s="10">
         <v>31</v>
       </c>
-      <c r="E15" s="122"/>
+      <c r="E15" s="121"/>
       <c r="F15" s="12" t="s">
         <v>14</v>
       </c>
@@ -1974,16 +2034,16 @@
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="106"/>
+      <c r="M15" s="105"/>
     </row>
     <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="109"/>
-      <c r="B16" s="120"/>
-      <c r="C16" s="115"/>
+      <c r="A16" s="108"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="114"/>
       <c r="D16" s="10">
         <v>31</v>
       </c>
-      <c r="E16" s="118"/>
+      <c r="E16" s="117"/>
       <c r="F16" s="12" t="s">
         <v>16</v>
       </c>
@@ -2001,16 +2061,16 @@
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="106"/>
+      <c r="M16" s="105"/>
     </row>
     <row r="17" spans="1:15" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="109"/>
-      <c r="B17" s="120"/>
-      <c r="C17" s="115"/>
+      <c r="A17" s="108"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="114"/>
       <c r="D17" s="10">
         <v>31</v>
       </c>
-      <c r="E17" s="117" t="s">
+      <c r="E17" s="116" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="11" t="s">
@@ -2030,16 +2090,16 @@
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="106"/>
+      <c r="M17" s="105"/>
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="109"/>
-      <c r="B18" s="120"/>
-      <c r="C18" s="115"/>
+      <c r="A18" s="108"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="114"/>
       <c r="D18" s="10">
         <v>31</v>
       </c>
-      <c r="E18" s="122"/>
+      <c r="E18" s="121"/>
       <c r="F18" s="12" t="s">
         <v>14</v>
       </c>
@@ -2057,16 +2117,16 @@
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="106"/>
+      <c r="M18" s="105"/>
     </row>
     <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="109"/>
-      <c r="B19" s="120"/>
-      <c r="C19" s="116"/>
+      <c r="A19" s="108"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="115"/>
       <c r="D19" s="10">
         <v>31</v>
       </c>
-      <c r="E19" s="118"/>
+      <c r="E19" s="117"/>
       <c r="F19" s="12" t="s">
         <v>16</v>
       </c>
@@ -2084,12 +2144,12 @@
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="106"/>
+      <c r="M19" s="105"/>
     </row>
     <row r="20" spans="1:15" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="109"/>
-      <c r="B20" s="120"/>
-      <c r="C20" s="114" t="s">
+      <c r="A20" s="108"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="113" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="9">
@@ -2113,12 +2173,12 @@
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="106"/>
+      <c r="M20" s="105"/>
     </row>
     <row r="21" spans="1:15" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="109"/>
-      <c r="B21" s="120"/>
-      <c r="C21" s="115"/>
+      <c r="A21" s="108"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="114"/>
       <c r="D21" s="10">
         <v>29</v>
       </c>
@@ -2140,11 +2200,11 @@
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="106"/>
+      <c r="M21" s="105"/>
     </row>
     <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="109"/>
-      <c r="B22" s="120"/>
+      <c r="A22" s="108"/>
+      <c r="B22" s="119"/>
       <c r="C22" s="7" t="s">
         <v>19</v>
       </c>
@@ -2167,11 +2227,11 @@
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="106"/>
+      <c r="M22" s="105"/>
     </row>
     <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="110"/>
-      <c r="B23" s="121"/>
+      <c r="A23" s="109"/>
+      <c r="B23" s="120"/>
       <c r="C23" s="8" t="s">
         <v>16</v>
       </c>
@@ -2194,7 +2254,7 @@
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="107"/>
+      <c r="M23" s="106"/>
     </row>
     <row r="24" spans="1:15" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
@@ -2249,15 +2309,15 @@
         <v>28</v>
       </c>
       <c r="M25" s="66" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="O25" s="79"/>
     </row>
     <row r="26" spans="1:15" ht="97.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="108" t="s">
+      <c r="A26" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="119" t="s">
+      <c r="B26" s="118" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -2282,13 +2342,13 @@
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="105" t="s">
-        <v>101</v>
+      <c r="M26" s="104" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="109"/>
-      <c r="B27" s="120"/>
+      <c r="A27" s="108"/>
+      <c r="B27" s="119"/>
       <c r="C27" s="7" t="s">
         <v>5</v>
       </c>
@@ -2311,11 +2371,11 @@
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="106"/>
+      <c r="M27" s="105"/>
     </row>
     <row r="28" spans="1:15" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="109"/>
-      <c r="B28" s="120"/>
+      <c r="A28" s="108"/>
+      <c r="B28" s="119"/>
       <c r="C28" s="8" t="s">
         <v>6</v>
       </c>
@@ -2338,11 +2398,11 @@
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="106"/>
+      <c r="M28" s="105"/>
     </row>
     <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="109"/>
-      <c r="B29" s="120"/>
+      <c r="A29" s="108"/>
+      <c r="B29" s="119"/>
       <c r="C29" s="8" t="s">
         <v>39</v>
       </c>
@@ -2365,11 +2425,11 @@
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="106"/>
+      <c r="M29" s="105"/>
     </row>
     <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="109"/>
-      <c r="B30" s="120"/>
+      <c r="A30" s="108"/>
+      <c r="B30" s="119"/>
       <c r="C30" s="8" t="s">
         <v>7</v>
       </c>
@@ -2392,11 +2452,11 @@
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="106"/>
+      <c r="M30" s="105"/>
     </row>
     <row r="31" spans="1:15" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="109"/>
-      <c r="B31" s="120"/>
+      <c r="A31" s="108"/>
+      <c r="B31" s="119"/>
       <c r="C31" s="8" t="s">
         <v>40</v>
       </c>
@@ -2419,11 +2479,11 @@
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="106"/>
+      <c r="M31" s="105"/>
     </row>
     <row r="32" spans="1:15" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="109"/>
-      <c r="B32" s="120"/>
+      <c r="A32" s="108"/>
+      <c r="B32" s="119"/>
       <c r="C32" s="8" t="s">
         <v>8</v>
       </c>
@@ -2446,11 +2506,11 @@
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="106"/>
+      <c r="M32" s="105"/>
     </row>
     <row r="33" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="109"/>
-      <c r="B33" s="120"/>
+      <c r="A33" s="108"/>
+      <c r="B33" s="119"/>
       <c r="C33" s="8" t="s">
         <v>9</v>
       </c>
@@ -2473,11 +2533,11 @@
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="106"/>
+      <c r="M33" s="105"/>
     </row>
     <row r="34" spans="1:13" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="109"/>
-      <c r="B34" s="120"/>
+      <c r="A34" s="108"/>
+      <c r="B34" s="119"/>
       <c r="C34" s="8" t="s">
         <v>10</v>
       </c>
@@ -2500,11 +2560,11 @@
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="106"/>
+      <c r="M34" s="105"/>
     </row>
     <row r="35" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="109"/>
-      <c r="B35" s="120"/>
+      <c r="A35" s="108"/>
+      <c r="B35" s="119"/>
       <c r="C35" s="8" t="s">
         <v>11</v>
       </c>
@@ -2527,11 +2587,11 @@
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="106"/>
+      <c r="M35" s="105"/>
     </row>
     <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="109"/>
-      <c r="B36" s="120"/>
+      <c r="A36" s="108"/>
+      <c r="B36" s="119"/>
       <c r="C36" s="8" t="s">
         <v>12</v>
       </c>
@@ -2554,11 +2614,11 @@
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="106"/>
+      <c r="M36" s="105"/>
     </row>
     <row r="37" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="109"/>
-      <c r="B37" s="120"/>
+      <c r="A37" s="108"/>
+      <c r="B37" s="119"/>
       <c r="C37" s="8" t="s">
         <v>13</v>
       </c>
@@ -2581,11 +2641,11 @@
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="106"/>
+      <c r="M37" s="105"/>
     </row>
     <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="109"/>
-      <c r="B38" s="120"/>
+      <c r="A38" s="108"/>
+      <c r="B38" s="119"/>
       <c r="C38" s="8" t="s">
         <v>41</v>
       </c>
@@ -2608,11 +2668,11 @@
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="106"/>
+      <c r="M38" s="105"/>
     </row>
     <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="109"/>
-      <c r="B39" s="120"/>
+      <c r="A39" s="108"/>
+      <c r="B39" s="119"/>
       <c r="C39" s="8" t="s">
         <v>42</v>
       </c>
@@ -2635,18 +2695,18 @@
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="106"/>
+      <c r="M39" s="105"/>
     </row>
     <row r="40" spans="1:13" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="109"/>
-      <c r="B40" s="120"/>
-      <c r="C40" s="114" t="s">
+      <c r="A40" s="108"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="113" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="9">
         <v>32</v>
       </c>
-      <c r="E40" s="117" t="s">
+      <c r="E40" s="116" t="s">
         <v>15</v>
       </c>
       <c r="F40" s="13"/>
@@ -2664,16 +2724,16 @@
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="106"/>
+      <c r="M40" s="105"/>
     </row>
     <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="109"/>
-      <c r="B41" s="120"/>
-      <c r="C41" s="115"/>
+      <c r="A41" s="108"/>
+      <c r="B41" s="119"/>
+      <c r="C41" s="114"/>
       <c r="D41" s="10">
         <v>32</v>
       </c>
-      <c r="E41" s="118"/>
+      <c r="E41" s="117"/>
       <c r="F41" s="12"/>
       <c r="G41" s="1" t="s">
         <v>49</v>
@@ -2689,16 +2749,16 @@
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="106"/>
+      <c r="M41" s="105"/>
     </row>
     <row r="42" spans="1:13" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="109"/>
-      <c r="B42" s="120"/>
-      <c r="C42" s="115"/>
+      <c r="A42" s="108"/>
+      <c r="B42" s="119"/>
+      <c r="C42" s="114"/>
       <c r="D42" s="10">
         <v>32</v>
       </c>
-      <c r="E42" s="117" t="s">
+      <c r="E42" s="116" t="s">
         <v>17</v>
       </c>
       <c r="F42" s="11"/>
@@ -2716,16 +2776,16 @@
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="106"/>
+      <c r="M42" s="105"/>
     </row>
     <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="109"/>
-      <c r="B43" s="120"/>
-      <c r="C43" s="116"/>
+      <c r="A43" s="108"/>
+      <c r="B43" s="119"/>
+      <c r="C43" s="115"/>
       <c r="D43" s="10">
         <v>32</v>
       </c>
-      <c r="E43" s="118"/>
+      <c r="E43" s="117"/>
       <c r="F43" s="12"/>
       <c r="G43" s="1" t="s">
         <v>49</v>
@@ -2741,12 +2801,12 @@
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="106"/>
+      <c r="M43" s="105"/>
     </row>
     <row r="44" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="109"/>
-      <c r="B44" s="120"/>
-      <c r="C44" s="114" t="s">
+      <c r="A44" s="108"/>
+      <c r="B44" s="119"/>
+      <c r="C44" s="113" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="9">
@@ -2770,12 +2830,12 @@
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="106"/>
+      <c r="M44" s="105"/>
     </row>
     <row r="45" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="109"/>
-      <c r="B45" s="120"/>
-      <c r="C45" s="115"/>
+      <c r="A45" s="108"/>
+      <c r="B45" s="119"/>
+      <c r="C45" s="114"/>
       <c r="D45" s="10">
         <v>30</v>
       </c>
@@ -2797,12 +2857,12 @@
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="106"/>
+      <c r="M45" s="105"/>
     </row>
     <row r="46" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="109"/>
-      <c r="B46" s="120"/>
-      <c r="C46" s="114" t="s">
+      <c r="A46" s="108"/>
+      <c r="B46" s="119"/>
+      <c r="C46" s="113" t="s">
         <v>19</v>
       </c>
       <c r="D46" s="9">
@@ -2826,12 +2886,12 @@
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="106"/>
+      <c r="M46" s="105"/>
     </row>
     <row r="47" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="109"/>
-      <c r="B47" s="120"/>
-      <c r="C47" s="115"/>
+      <c r="A47" s="108"/>
+      <c r="B47" s="119"/>
+      <c r="C47" s="114"/>
       <c r="D47" s="10">
         <v>35</v>
       </c>
@@ -2853,11 +2913,11 @@
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="106"/>
+      <c r="M47" s="105"/>
     </row>
     <row r="48" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="109"/>
-      <c r="B48" s="120"/>
+      <c r="A48" s="108"/>
+      <c r="B48" s="119"/>
       <c r="C48" s="8" t="s">
         <v>16</v>
       </c>
@@ -2880,11 +2940,11 @@
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-      <c r="M48" s="106"/>
+      <c r="M48" s="105"/>
     </row>
     <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="109"/>
-      <c r="B49" s="120"/>
+      <c r="A49" s="108"/>
+      <c r="B49" s="119"/>
       <c r="C49" s="8" t="s">
         <v>45</v>
       </c>
@@ -2907,11 +2967,11 @@
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-      <c r="M49" s="106"/>
+      <c r="M49" s="105"/>
     </row>
     <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="110"/>
-      <c r="B50" s="121"/>
+      <c r="A50" s="109"/>
+      <c r="B50" s="120"/>
       <c r="C50" s="8" t="s">
         <v>46</v>
       </c>
@@ -2934,7 +2994,7 @@
       </c>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-      <c r="M50" s="107"/>
+      <c r="M50" s="106"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -2962,17 +3022,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I95"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="I79" sqref="I79"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.77734375" customWidth="1"/>
     <col min="3" max="3" width="27.77734375" customWidth="1"/>
-    <col min="4" max="4" width="26.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" customWidth="1"/>
     <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
     <col min="7" max="7" width="5.6640625" style="64" customWidth="1"/>
@@ -2981,7 +3041,7 @@
   <sheetData>
     <row r="1" spans="1:7" s="91" customFormat="1" ht="18" x14ac:dyDescent="0.35">
       <c r="B1" s="91" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="G1" s="92"/>
     </row>
@@ -2990,30 +3050,30 @@
     </row>
     <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="74" t="s">
-        <v>139</v>
+        <v>124</v>
       </c>
       <c r="B3" s="74" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="C3" s="74" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="E3" s="74" t="s">
-        <v>106</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="103" t="s">
-        <v>137</v>
+      <c r="A4" s="101" t="s">
+        <v>122</v>
       </c>
       <c r="B4" s="96" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="C4" s="80" t="s">
-        <v>108</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -3022,257 +3082,260 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C6" s="83" t="s">
-        <v>109</v>
+        <v>143</v>
       </c>
       <c r="D6" s="82" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C7" s="84"/>
       <c r="D7" s="82" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C8" s="30" t="s">
-        <v>110</v>
+        <v>144</v>
       </c>
       <c r="D8" s="41" t="s">
-        <v>123</v>
-      </c>
+        <v>108</v>
+      </c>
+      <c r="E8" s="87"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C9" s="30"/>
       <c r="D9" s="41" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C10" s="31" t="s">
-        <v>111</v>
+        <v>145</v>
       </c>
       <c r="D10" s="42" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C11" s="31"/>
       <c r="D11" s="42" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C12" s="43" t="s">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="D12" s="88" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C13" s="43"/>
       <c r="D13" s="88" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E13" s="87"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C14" s="50" t="s">
-        <v>113</v>
+        <v>147</v>
       </c>
       <c r="D14" s="89" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="E14" s="87"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C15" s="50"/>
       <c r="D15" s="89" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="E15" s="87"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C16" s="56" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="D16" s="52" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C17" s="56"/>
       <c r="D17" s="52" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C18" s="126" t="s">
-        <v>115</v>
+      <c r="C18" s="125" t="s">
+        <v>149</v>
       </c>
       <c r="D18" s="90" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C19" s="126"/>
+      <c r="D19" s="90" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C20" s="86" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="129" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="128" t="s">
+        <v>125</v>
+      </c>
+      <c r="C22" s="130">
+        <v>8</v>
+      </c>
+      <c r="D22" s="130" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="128" t="s">
+        <v>126</v>
+      </c>
+      <c r="C23" s="97" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="25"/>
+      <c r="C25" s="25"/>
+    </row>
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="101" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C19" s="127"/>
-      <c r="D19" s="90" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C20" s="86" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="96" t="s">
+      <c r="B27" s="96" t="s">
         <v>141</v>
       </c>
-      <c r="C21" s="98"/>
-    </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="96" t="s">
-        <v>142</v>
-      </c>
-      <c r="C22" s="99" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="25"/>
-      <c r="C24" s="25"/>
-    </row>
-    <row r="25" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="103" t="s">
-        <v>138</v>
-      </c>
-      <c r="B26" s="96" t="s">
-        <v>140</v>
-      </c>
-      <c r="C26" s="81" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" s="27"/>
-      <c r="G26" s="67"/>
-    </row>
-    <row r="27" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="G27" s="68"/>
-    </row>
-    <row r="28" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="38" t="s">
-        <v>126</v>
-      </c>
-      <c r="D28" s="41" t="s">
+      <c r="C27" s="81" t="s">
+        <v>101</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="G27" s="67"/>
+    </row>
+    <row r="28" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="55" t="s">
+        <v>102</v>
+      </c>
+      <c r="G28" s="68"/>
+    </row>
+    <row r="29" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C29" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="D29" s="41" t="s">
         <v>50</v>
-      </c>
-      <c r="E28" s="85">
-        <v>1</v>
-      </c>
-      <c r="F28" s="85" t="s">
-        <v>146</v>
-      </c>
-      <c r="G28" s="69"/>
-    </row>
-    <row r="29" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C29" s="39"/>
-      <c r="D29" s="41" t="s">
-        <v>51</v>
       </c>
       <c r="E29" s="85">
         <v>1</v>
       </c>
       <c r="F29" s="85" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="G29" s="69"/>
     </row>
     <row r="30" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="39"/>
       <c r="D30" s="41" t="s">
-        <v>148</v>
+        <v>51</v>
       </c>
       <c r="E30" s="85">
         <v>1</v>
       </c>
       <c r="F30" s="85" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="G30" s="69"/>
     </row>
     <row r="31" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="39"/>
       <c r="D31" s="41" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="E31" s="85">
         <v>1</v>
       </c>
       <c r="F31" s="85" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="G31" s="69"/>
     </row>
     <row r="32" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="39"/>
       <c r="D32" s="41" t="s">
-        <v>52</v>
+        <v>113</v>
       </c>
       <c r="E32" s="85">
         <v>1</v>
       </c>
       <c r="F32" s="85" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="G32" s="69"/>
     </row>
-    <row r="33" spans="3:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C33" s="40"/>
+    <row r="33" spans="3:9" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C33" s="39"/>
       <c r="D33" s="41" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="E33" s="85">
         <v>1</v>
       </c>
       <c r="F33" s="85" t="s">
-        <v>147</v>
+        <v>112</v>
       </c>
       <c r="G33" s="69"/>
     </row>
-    <row r="34" spans="3:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="35" t="s">
-        <v>118</v>
-      </c>
-      <c r="D34" s="32" t="s">
+    <row r="34" spans="3:9" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C34" s="40"/>
+      <c r="D34" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="E34" s="85">
+        <v>1</v>
+      </c>
+      <c r="F34" s="85" t="s">
+        <v>131</v>
+      </c>
+      <c r="G34" s="69"/>
+    </row>
+    <row r="35" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C35" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="D35" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="E34" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="G34" s="70"/>
-    </row>
-    <row r="35" spans="3:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C35" s="36"/>
-      <c r="D35" s="33"/>
       <c r="E35" s="42" t="s">
-        <v>56</v>
+        <v>65</v>
       </c>
       <c r="G35" s="70"/>
     </row>
-    <row r="36" spans="3:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="36"/>
       <c r="D36" s="33"/>
       <c r="E36" s="42" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="G36" s="70"/>
     </row>
-    <row r="37" spans="3:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="36"/>
       <c r="D37" s="33"/>
       <c r="E37" s="42" t="s">
@@ -3280,7 +3343,7 @@
       </c>
       <c r="G37" s="70"/>
     </row>
-    <row r="38" spans="3:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="36"/>
       <c r="D38" s="33"/>
       <c r="E38" s="42" t="s">
@@ -3288,536 +3351,703 @@
       </c>
       <c r="G38" s="70"/>
     </row>
-    <row r="39" spans="3:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="36"/>
-      <c r="D39" s="32" t="s">
-        <v>54</v>
-      </c>
+      <c r="D39" s="33"/>
       <c r="E39" s="42" t="s">
         <v>62</v>
       </c>
       <c r="G39" s="70"/>
     </row>
-    <row r="40" spans="3:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="36"/>
-      <c r="D40" s="33"/>
+      <c r="D40" s="32" t="s">
+        <v>54</v>
+      </c>
       <c r="E40" s="42" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="G40" s="70"/>
     </row>
-    <row r="41" spans="3:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="36"/>
       <c r="D41" s="33"/>
       <c r="E41" s="42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G41" s="70"/>
     </row>
-    <row r="42" spans="3:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="36"/>
       <c r="D42" s="33"/>
       <c r="E42" s="42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G42" s="70"/>
     </row>
-    <row r="43" spans="3:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="36"/>
       <c r="D43" s="33"/>
       <c r="E43" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="G43" s="70"/>
+    </row>
+    <row r="44" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C44" s="36"/>
+      <c r="D44" s="33"/>
+      <c r="E44" s="131" t="s">
         <v>60</v>
       </c>
-      <c r="G43" s="70"/>
-    </row>
-    <row r="44" spans="3:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C44" s="36"/>
-      <c r="D44" s="34"/>
-      <c r="E44" s="42" t="s">
-        <v>61</v>
-      </c>
-      <c r="G44" s="70"/>
-    </row>
-    <row r="45" spans="3:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="132"/>
+      <c r="G44" s="132"/>
+      <c r="H44" s="132"/>
+      <c r="I44" s="132"/>
+    </row>
+    <row r="45" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="36"/>
-      <c r="D45" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="E45" s="24"/>
-      <c r="G45" s="70"/>
-    </row>
-    <row r="46" spans="3:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="D45" s="34"/>
+      <c r="E45" s="131" t="s">
+        <v>152</v>
+      </c>
+      <c r="F45" s="132"/>
+      <c r="G45" s="132"/>
+      <c r="H45" s="132"/>
+      <c r="I45" s="132"/>
+    </row>
+    <row r="46" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="36"/>
       <c r="D46" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E46" s="133"/>
+      <c r="F46" s="132"/>
+      <c r="G46" s="132"/>
+      <c r="H46" s="132"/>
+      <c r="I46" s="132"/>
+    </row>
+    <row r="47" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C47" s="36"/>
+      <c r="D47" s="42" t="s">
+        <v>74</v>
+      </c>
+      <c r="E47" s="131" t="s">
+        <v>155</v>
+      </c>
+      <c r="F47" s="132"/>
+      <c r="G47" s="132"/>
+      <c r="H47" s="132"/>
+      <c r="I47" s="132"/>
+    </row>
+    <row r="48" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C48" s="37"/>
+      <c r="D48" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="E46" s="24"/>
-      <c r="G46" s="70"/>
-    </row>
-    <row r="47" spans="3:7" s="29" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C47" s="37"/>
-      <c r="D47" s="42" t="s">
-        <v>76</v>
-      </c>
-      <c r="E47" s="24"/>
-      <c r="G47" s="70"/>
-    </row>
-    <row r="48" spans="3:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C48" s="45" t="s">
-        <v>119</v>
-      </c>
-      <c r="D48" s="44" t="s">
-        <v>68</v>
-      </c>
-      <c r="G48" s="71"/>
-    </row>
-    <row r="49" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C49" s="61"/>
+      <c r="E48" s="131" t="s">
+        <v>155</v>
+      </c>
+      <c r="F48" s="132"/>
+      <c r="G48" s="132"/>
+      <c r="H48" s="132"/>
+      <c r="I48" s="132"/>
+    </row>
+    <row r="49" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C49" s="45" t="s">
+        <v>104</v>
+      </c>
       <c r="D49" s="44" t="s">
-        <v>69</v>
-      </c>
-      <c r="G49" s="71"/>
-    </row>
-    <row r="50" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="E49" s="133"/>
+      <c r="F49" s="133"/>
+      <c r="G49" s="133"/>
+      <c r="H49" s="133"/>
+      <c r="I49" s="133"/>
+    </row>
+    <row r="50" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="61"/>
       <c r="D50" s="44" t="s">
-        <v>70</v>
-      </c>
-      <c r="G50" s="71"/>
-    </row>
-    <row r="51" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="E50" s="133"/>
+      <c r="F50" s="133"/>
+      <c r="G50" s="133"/>
+      <c r="H50" s="133"/>
+      <c r="I50" s="133"/>
+    </row>
+    <row r="51" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="61"/>
       <c r="D51" s="44" t="s">
-        <v>71</v>
-      </c>
-      <c r="G51" s="71"/>
-    </row>
-    <row r="52" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="E51" s="133"/>
+      <c r="F51" s="133"/>
+      <c r="G51" s="133"/>
+      <c r="H51" s="133"/>
+      <c r="I51" s="133"/>
+    </row>
+    <row r="52" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="61"/>
       <c r="D52" s="44" t="s">
-        <v>72</v>
-      </c>
-      <c r="G52" s="71"/>
-    </row>
-    <row r="53" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="E52" s="133"/>
+      <c r="F52" s="133"/>
+      <c r="G52" s="133"/>
+      <c r="H52" s="133"/>
+      <c r="I52" s="133"/>
+    </row>
+    <row r="53" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="61"/>
       <c r="D53" s="44" t="s">
-        <v>73</v>
-      </c>
-      <c r="G53" s="71"/>
-    </row>
-    <row r="54" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="E53" s="133"/>
+      <c r="F53" s="133"/>
+      <c r="G53" s="133"/>
+      <c r="H53" s="133"/>
+      <c r="I53" s="133"/>
+    </row>
+    <row r="54" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="61"/>
       <c r="D54" s="44" t="s">
-        <v>74</v>
-      </c>
-      <c r="G54" s="71"/>
-    </row>
-    <row r="55" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C55" s="62"/>
-      <c r="D55" s="45" t="s">
-        <v>67</v>
-      </c>
-      <c r="G55" s="71"/>
-    </row>
-    <row r="56" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C56" s="47" t="s">
+        <v>72</v>
+      </c>
+      <c r="E54" s="133"/>
+      <c r="F54" s="133"/>
+      <c r="G54" s="133"/>
+      <c r="H54" s="133"/>
+      <c r="I54" s="133"/>
+    </row>
+    <row r="55" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="61"/>
+      <c r="D55" s="44" t="s">
+        <v>73</v>
+      </c>
+      <c r="E55" s="133"/>
+      <c r="F55" s="133"/>
+      <c r="G55" s="133"/>
+      <c r="H55" s="133"/>
+      <c r="I55" s="133"/>
+    </row>
+    <row r="56" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C56" s="62"/>
+      <c r="D56" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56" s="133"/>
+      <c r="F56" s="133"/>
+      <c r="G56" s="133"/>
+      <c r="H56" s="133"/>
+      <c r="I56" s="133"/>
+    </row>
+    <row r="57" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C57" s="47" t="s">
+        <v>105</v>
+      </c>
+      <c r="D57" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="E57" s="135">
+        <v>1</v>
+      </c>
+      <c r="F57" s="135" t="s">
+        <v>131</v>
+      </c>
+      <c r="G57" s="133"/>
+      <c r="H57" s="133"/>
+      <c r="I57" s="133"/>
+    </row>
+    <row r="58" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C58" s="48"/>
+      <c r="D58" s="94" t="s">
+        <v>156</v>
+      </c>
+      <c r="E58" s="135">
+        <v>1</v>
+      </c>
+      <c r="F58" s="135" t="s">
+        <v>131</v>
+      </c>
+      <c r="G58" s="133"/>
+      <c r="H58" s="133"/>
+      <c r="I58" s="133"/>
+    </row>
+    <row r="59" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="93"/>
+      <c r="D59" s="47" t="s">
+        <v>118</v>
+      </c>
+      <c r="E59" s="135" t="s">
+        <v>88</v>
+      </c>
+      <c r="F59" s="135">
+        <v>4</v>
+      </c>
+      <c r="G59" s="135" t="s">
+        <v>131</v>
+      </c>
+      <c r="H59" s="133"/>
+      <c r="I59" s="133"/>
+    </row>
+    <row r="60" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C60" s="93"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="135" t="s">
+        <v>93</v>
+      </c>
+      <c r="F60" s="135" t="s">
         <v>120</v>
       </c>
-      <c r="D56" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="G56" s="71"/>
-    </row>
-    <row r="57" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C57" s="48"/>
-      <c r="D57" s="94" t="s">
-        <v>78</v>
-      </c>
-      <c r="G57" s="71"/>
-    </row>
-    <row r="58" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C58" s="93"/>
-      <c r="D58" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="E58" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="F58" s="46">
-        <v>4</v>
-      </c>
-      <c r="G58" s="46" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="59" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="93"/>
-      <c r="D59" s="48"/>
-      <c r="E59" s="94" t="s">
-        <v>99</v>
-      </c>
-      <c r="F59" s="46" t="s">
-        <v>135</v>
-      </c>
-      <c r="G59" s="71"/>
-    </row>
-    <row r="60" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="93"/>
-      <c r="D60" s="93"/>
-      <c r="E60" s="47" t="s">
-        <v>134</v>
-      </c>
-      <c r="F60" s="46" t="s">
-        <v>150</v>
-      </c>
-      <c r="G60" s="104">
-        <v>17</v>
-      </c>
-      <c r="H60" s="46" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="61" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G60" s="135" t="s">
+        <v>131</v>
+      </c>
+      <c r="H60" s="133"/>
+      <c r="I60" s="133"/>
+    </row>
+    <row r="61" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="93"/>
       <c r="D61" s="93"/>
-      <c r="E61" s="49"/>
-      <c r="F61" s="46" t="s">
-        <v>149</v>
-      </c>
-      <c r="G61" s="104">
+      <c r="E61" s="136" t="s">
+        <v>119</v>
+      </c>
+      <c r="F61" s="135" t="s">
+        <v>134</v>
+      </c>
+      <c r="G61" s="135">
+        <v>17</v>
+      </c>
+      <c r="H61" s="135" t="s">
+        <v>131</v>
+      </c>
+      <c r="I61" s="133"/>
+    </row>
+    <row r="62" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C62" s="93"/>
+      <c r="D62" s="93"/>
+      <c r="E62" s="137"/>
+      <c r="F62" s="135" t="s">
+        <v>133</v>
+      </c>
+      <c r="G62" s="135">
         <v>13</v>
       </c>
-      <c r="H61" s="46" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="62" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="93"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="95" t="s">
+      <c r="H62" s="135" t="s">
         <v>131</v>
       </c>
-      <c r="F62" s="46">
-        <v>1</v>
-      </c>
-      <c r="G62" s="46" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="63" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="I62" s="133"/>
+    </row>
+    <row r="63" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="93"/>
       <c r="D63" s="48"/>
-      <c r="E63" s="46" t="s">
-        <v>95</v>
-      </c>
-      <c r="F63" s="46"/>
-      <c r="G63" s="71"/>
-    </row>
-    <row r="64" spans="3:8" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E63" s="139" t="s">
+        <v>116</v>
+      </c>
+      <c r="F63" s="135">
+        <v>1</v>
+      </c>
+      <c r="G63" s="138" t="s">
+        <v>131</v>
+      </c>
+      <c r="H63" s="133"/>
+      <c r="I63" s="133"/>
+    </row>
+    <row r="64" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="93"/>
-      <c r="D64" s="49"/>
-      <c r="E64" s="46" t="s">
-        <v>132</v>
-      </c>
-      <c r="F64" s="46">
+      <c r="D64" s="48"/>
+      <c r="E64" s="135" t="s">
+        <v>89</v>
+      </c>
+      <c r="F64" s="135"/>
+      <c r="G64" s="133"/>
+      <c r="H64" s="133"/>
+      <c r="I64" s="133"/>
+    </row>
+    <row r="65" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="93"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="135" t="s">
+        <v>117</v>
+      </c>
+      <c r="F65" s="135">
         <v>1</v>
       </c>
-      <c r="G64" s="46" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="65" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="48"/>
-      <c r="D65" s="95" t="s">
-        <v>79</v>
-      </c>
-      <c r="G65" s="71"/>
+      <c r="G65" s="134" t="s">
+        <v>131</v>
+      </c>
+      <c r="H65" s="133"/>
+      <c r="I65" s="133"/>
     </row>
     <row r="66" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="48"/>
-      <c r="D66" s="46" t="s">
-        <v>80</v>
-      </c>
-      <c r="G66" s="71"/>
+      <c r="D66" s="95" t="s">
+        <v>157</v>
+      </c>
+      <c r="E66" s="135">
+        <v>1</v>
+      </c>
+      <c r="F66" s="135" t="s">
+        <v>131</v>
+      </c>
+      <c r="G66" s="133"/>
+      <c r="H66" s="133"/>
+      <c r="I66" s="133"/>
     </row>
     <row r="67" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C67" s="49"/>
+      <c r="C67" s="48"/>
       <c r="D67" s="46" t="s">
-        <v>81</v>
-      </c>
-      <c r="G67" s="71"/>
+        <v>158</v>
+      </c>
+      <c r="E67" s="135">
+        <v>1</v>
+      </c>
+      <c r="F67" s="135" t="s">
+        <v>131</v>
+      </c>
+      <c r="G67" s="133"/>
+      <c r="H67" s="133"/>
+      <c r="I67" s="133"/>
     </row>
     <row r="68" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="51" t="s">
-        <v>121</v>
-      </c>
-      <c r="D68" s="52" t="s">
-        <v>82</v>
-      </c>
-      <c r="G68" s="71"/>
+      <c r="C68" s="49"/>
+      <c r="D68" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="E68" s="138">
+        <v>1</v>
+      </c>
+      <c r="F68" s="138" t="s">
+        <v>131</v>
+      </c>
+      <c r="G68" s="133"/>
+      <c r="H68" s="133"/>
+      <c r="I68" s="133"/>
     </row>
     <row r="69" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C69" s="53"/>
+      <c r="C69" s="51" t="s">
+        <v>106</v>
+      </c>
       <c r="D69" s="52" t="s">
-        <v>83</v>
-      </c>
-      <c r="G69" s="71"/>
+        <v>78</v>
+      </c>
+      <c r="E69" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F69" s="133"/>
+      <c r="G69" s="133"/>
+      <c r="H69" s="133"/>
+      <c r="I69" s="133"/>
     </row>
     <row r="70" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C70" s="53"/>
       <c r="D70" s="52" t="s">
-        <v>84</v>
-      </c>
-      <c r="G70" s="71"/>
+        <v>79</v>
+      </c>
+      <c r="E70" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F70" s="133"/>
+      <c r="G70" s="133"/>
+      <c r="H70" s="133"/>
+      <c r="I70" s="133"/>
     </row>
     <row r="71" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C71" s="53"/>
       <c r="D71" s="52" t="s">
-        <v>85</v>
-      </c>
-      <c r="G71" s="71"/>
+        <v>80</v>
+      </c>
+      <c r="E71" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F71" s="133"/>
+      <c r="G71" s="141"/>
+      <c r="H71" s="133"/>
+      <c r="I71" s="133"/>
     </row>
     <row r="72" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C72" s="54"/>
+      <c r="C72" s="53"/>
       <c r="D72" s="52" t="s">
-        <v>86</v>
-      </c>
-      <c r="G72" s="71"/>
+        <v>81</v>
+      </c>
+      <c r="E72" s="140">
+        <v>3</v>
+      </c>
+      <c r="F72" s="140" t="s">
+        <v>131</v>
+      </c>
+      <c r="G72" s="133"/>
+      <c r="H72" s="133"/>
+      <c r="I72" s="133"/>
     </row>
     <row r="73" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C73" s="75" t="s">
-        <v>122</v>
-      </c>
-      <c r="D73" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="G73" s="71"/>
+      <c r="C73" s="54"/>
+      <c r="D73" s="52" t="s">
+        <v>82</v>
+      </c>
+      <c r="E73" s="52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F73" s="133"/>
+      <c r="G73" s="133"/>
+      <c r="H73" s="133"/>
+      <c r="I73" s="133"/>
     </row>
     <row r="74" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C74" s="76"/>
-      <c r="D74" s="59" t="s">
-        <v>88</v>
+      <c r="C74" s="75" t="s">
+        <v>107</v>
+      </c>
+      <c r="D74" s="57" t="s">
+        <v>83</v>
       </c>
       <c r="G74" s="71"/>
     </row>
-    <row r="75" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C75" s="77"/>
-      <c r="D75" s="123" t="s">
-        <v>89</v>
-      </c>
-      <c r="E75" s="59" t="s">
-        <v>94</v>
-      </c>
-      <c r="F75" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="G75" s="72"/>
-      <c r="H75" s="72"/>
+    <row r="75" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="76"/>
+      <c r="D75" s="59" t="s">
+        <v>84</v>
+      </c>
+      <c r="E75" s="59">
+        <v>3</v>
+      </c>
+      <c r="F75" s="59" t="s">
+        <v>131</v>
+      </c>
+      <c r="G75" s="71"/>
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C76" s="77"/>
-      <c r="D76" s="124"/>
-      <c r="E76" s="60"/>
+      <c r="D76" s="122" t="s">
+        <v>85</v>
+      </c>
+      <c r="E76" s="59" t="s">
+        <v>88</v>
+      </c>
       <c r="F76" s="58" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G76" s="72"/>
       <c r="H76" s="72"/>
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C77" s="77"/>
-      <c r="D77" s="124"/>
-      <c r="E77" s="59" t="s">
-        <v>99</v>
-      </c>
+      <c r="D77" s="123"/>
+      <c r="E77" s="60"/>
       <c r="F77" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="G77" s="72" t="s">
-        <v>152</v>
-      </c>
-      <c r="H77" s="72" t="s">
-        <v>147</v>
-      </c>
-      <c r="I77" t="s">
-        <v>154</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G77" s="72"/>
+      <c r="H77" s="72"/>
     </row>
     <row r="78" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C78" s="77"/>
-      <c r="D78" s="124"/>
-      <c r="E78" s="60"/>
+      <c r="D78" s="123"/>
+      <c r="E78" s="59" t="s">
+        <v>93</v>
+      </c>
       <c r="F78" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="G78" s="72"/>
-      <c r="H78" s="72"/>
+        <v>86</v>
+      </c>
+      <c r="G78" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="H78" s="72" t="s">
+        <v>131</v>
+      </c>
+      <c r="I78" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C79" s="77"/>
-      <c r="D79" s="124"/>
-      <c r="E79" s="59" t="s">
-        <v>98</v>
-      </c>
+      <c r="D79" s="123"/>
+      <c r="E79" s="60"/>
       <c r="F79" s="58" t="s">
-        <v>92</v>
-      </c>
-      <c r="G79" s="72" t="s">
-        <v>153</v>
-      </c>
-      <c r="H79" s="102" t="s">
-        <v>147</v>
-      </c>
-      <c r="I79" s="129" t="s">
-        <v>154</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G79" s="72"/>
+      <c r="H79" s="72"/>
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C80" s="77"/>
-      <c r="D80" s="124"/>
-      <c r="E80" s="60"/>
+      <c r="D80" s="123"/>
+      <c r="E80" s="59" t="s">
+        <v>92</v>
+      </c>
       <c r="F80" s="58" t="s">
-        <v>93</v>
-      </c>
-      <c r="G80" s="72"/>
-      <c r="H80" s="72"/>
+        <v>86</v>
+      </c>
+      <c r="G80" s="72" t="s">
+        <v>137</v>
+      </c>
+      <c r="H80" s="100" t="s">
+        <v>131</v>
+      </c>
+      <c r="I80" s="103" t="s">
+        <v>138</v>
+      </c>
     </row>
     <row r="81" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C81" s="77"/>
-      <c r="D81" s="124"/>
-      <c r="E81" s="59" t="s">
-        <v>95</v>
-      </c>
+      <c r="D81" s="123"/>
+      <c r="E81" s="60"/>
       <c r="F81" s="58" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G81" s="72"/>
       <c r="H81" s="72"/>
     </row>
     <row r="82" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C82" s="77"/>
-      <c r="D82" s="124"/>
-      <c r="E82" s="60"/>
+      <c r="D82" s="123"/>
+      <c r="E82" s="59" t="s">
+        <v>89</v>
+      </c>
       <c r="F82" s="58" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G82" s="72"/>
       <c r="H82" s="72"/>
     </row>
     <row r="83" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C83" s="77"/>
-      <c r="D83" s="124"/>
-      <c r="E83" s="59" t="s">
-        <v>96</v>
-      </c>
+      <c r="D83" s="123"/>
+      <c r="E83" s="60"/>
       <c r="F83" s="58" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G83" s="72"/>
       <c r="H83" s="72"/>
     </row>
     <row r="84" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C84" s="77"/>
-      <c r="D84" s="124"/>
-      <c r="E84" s="60"/>
+      <c r="D84" s="123"/>
+      <c r="E84" s="59" t="s">
+        <v>90</v>
+      </c>
       <c r="F84" s="58" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G84" s="72"/>
       <c r="H84" s="72"/>
     </row>
     <row r="85" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C85" s="77"/>
-      <c r="D85" s="124"/>
-      <c r="E85" s="73" t="s">
-        <v>97</v>
-      </c>
+      <c r="D85" s="123"/>
+      <c r="E85" s="60"/>
       <c r="F85" s="58" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G85" s="72"/>
       <c r="H85" s="72"/>
     </row>
     <row r="86" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C86" s="77"/>
-      <c r="D86" s="125"/>
-      <c r="E86" s="60"/>
+      <c r="D86" s="123"/>
+      <c r="E86" s="73" t="s">
+        <v>91</v>
+      </c>
       <c r="F86" s="58" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G86" s="72"/>
       <c r="H86" s="72"/>
     </row>
     <row r="87" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C87" s="77"/>
-      <c r="D87" s="60" t="s">
-        <v>102</v>
-      </c>
+      <c r="D87" s="124"/>
+      <c r="E87" s="60"/>
+      <c r="F87" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="G87" s="72"/>
+      <c r="H87" s="72"/>
     </row>
     <row r="88" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C88" s="77"/>
-      <c r="D88" s="57" t="s">
-        <v>90</v>
-      </c>
+      <c r="D88" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="G88"/>
     </row>
     <row r="89" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C89" s="77"/>
-      <c r="D89" s="59" t="s">
-        <v>91</v>
-      </c>
+      <c r="D89" s="102" t="s">
+        <v>153</v>
+      </c>
+      <c r="E89" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="G89"/>
     </row>
     <row r="90" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C90" s="128" t="s">
-        <v>136</v>
-      </c>
-      <c r="D90" s="97" t="s">
-        <v>145</v>
-      </c>
-      <c r="E90" s="100">
+      <c r="C90" s="77"/>
+      <c r="D90" s="102" t="s">
+        <v>154</v>
+      </c>
+      <c r="E90" s="102" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="91" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C91" s="127" t="s">
+        <v>121</v>
+      </c>
+      <c r="D91" s="97" t="s">
+        <v>129</v>
+      </c>
+      <c r="E91" s="98">
         <v>1</v>
       </c>
-      <c r="F90" s="101" t="s">
+      <c r="F91" s="99" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C92" s="127"/>
+      <c r="D92" s="97" t="s">
+        <v>128</v>
+      </c>
+      <c r="E92" s="98"/>
+      <c r="F92" s="99"/>
+    </row>
+    <row r="93" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C93" s="127"/>
+      <c r="D93" s="97" t="s">
+        <v>150</v>
+      </c>
+      <c r="E93" s="98"/>
+      <c r="F93" s="99"/>
+    </row>
+    <row r="94" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C94" s="127"/>
+      <c r="D94" s="97" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="91" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C91" s="128"/>
-      <c r="D91" s="97" t="s">
-        <v>144</v>
-      </c>
-      <c r="E91" s="100"/>
-      <c r="F91" s="101"/>
-    </row>
-    <row r="92" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C92" s="128"/>
-      <c r="D92" s="97"/>
-      <c r="E92" s="100"/>
-      <c r="F92" s="101"/>
-    </row>
-    <row r="93" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C93" s="128"/>
-      <c r="D93" s="97"/>
-      <c r="E93" s="100"/>
-      <c r="F93" s="101"/>
-    </row>
-    <row r="94" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C94" s="128"/>
-      <c r="D94" s="97"/>
-      <c r="E94" s="100"/>
-      <c r="F94" s="101"/>
+      <c r="E94" s="98"/>
+      <c r="F94" s="99"/>
     </row>
     <row r="95" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C95" s="128"/>
-      <c r="D95" s="97"/>
-      <c r="E95" s="100"/>
-      <c r="F95" s="101"/>
+      <c r="C95" s="127"/>
+      <c r="D95" s="97" t="s">
+        <v>103</v>
+      </c>
+      <c r="E95" s="98"/>
+      <c r="F95" s="99"/>
+    </row>
+    <row r="96" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C96" s="127"/>
+      <c r="D96" s="97" t="s">
+        <v>103</v>
+      </c>
+      <c r="E96" s="98"/>
+      <c r="F96" s="99"/>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="D75:D86"/>
+    <mergeCell ref="D76:D87"/>
     <mergeCell ref="C18:C19"/>
-    <mergeCell ref="C90:C95"/>
+    <mergeCell ref="C91:C96"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>

--- a/asset/Control GESPRO.xlsx
+++ b/asset/Control GESPRO.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="162">
   <si>
     <t>Sección</t>
   </si>
@@ -505,6 +505,12 @@
   </si>
   <si>
     <t>sin referencias</t>
+  </si>
+  <si>
+    <t>https://youtu.be/bbZntIVMFr4</t>
+  </si>
+  <si>
+    <t>video_ministra</t>
   </si>
 </sst>
 </file>
@@ -1041,7 +1047,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="143">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1228,78 +1234,6 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="21" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1336,6 +1270,81 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1679,14 +1688,14 @@
       <c r="L2" s="22"/>
     </row>
     <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G3" s="110" t="s">
+      <c r="G3" s="124" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="111"/>
-      <c r="I3" s="111"/>
-      <c r="J3" s="111"/>
-      <c r="K3" s="111"/>
-      <c r="L3" s="112"/>
+      <c r="H3" s="125"/>
+      <c r="I3" s="125"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="126"/>
     </row>
     <row r="4" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
@@ -1730,10 +1739,10 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="118" t="s">
+      <c r="B5" s="132" t="s">
         <v>20</v>
       </c>
       <c r="C5" s="7" t="s">
@@ -1758,13 +1767,13 @@
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
-      <c r="M5" s="104" t="s">
+      <c r="M5" s="118" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="108"/>
-      <c r="B6" s="119"/>
+      <c r="A6" s="122"/>
+      <c r="B6" s="133"/>
       <c r="C6" s="8" t="s">
         <v>6</v>
       </c>
@@ -1787,11 +1796,11 @@
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
-      <c r="M6" s="105"/>
+      <c r="M6" s="119"/>
     </row>
     <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="108"/>
-      <c r="B7" s="119"/>
+      <c r="A7" s="122"/>
+      <c r="B7" s="133"/>
       <c r="C7" s="8" t="s">
         <v>7</v>
       </c>
@@ -1814,11 +1823,11 @@
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
-      <c r="M7" s="105"/>
+      <c r="M7" s="119"/>
     </row>
     <row r="8" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="108"/>
-      <c r="B8" s="119"/>
+      <c r="A8" s="122"/>
+      <c r="B8" s="133"/>
       <c r="C8" s="8" t="s">
         <v>8</v>
       </c>
@@ -1841,11 +1850,11 @@
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="105"/>
+      <c r="M8" s="119"/>
     </row>
     <row r="9" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="108"/>
-      <c r="B9" s="119"/>
+      <c r="A9" s="122"/>
+      <c r="B9" s="133"/>
       <c r="C9" s="8" t="s">
         <v>9</v>
       </c>
@@ -1868,11 +1877,11 @@
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="105"/>
+      <c r="M9" s="119"/>
     </row>
     <row r="10" spans="1:13" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="108"/>
-      <c r="B10" s="119"/>
+      <c r="A10" s="122"/>
+      <c r="B10" s="133"/>
       <c r="C10" s="8" t="s">
         <v>10</v>
       </c>
@@ -1895,11 +1904,11 @@
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="105"/>
+      <c r="M10" s="119"/>
     </row>
     <row r="11" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="108"/>
-      <c r="B11" s="119"/>
+      <c r="A11" s="122"/>
+      <c r="B11" s="133"/>
       <c r="C11" s="8" t="s">
         <v>11</v>
       </c>
@@ -1922,11 +1931,11 @@
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="105"/>
+      <c r="M11" s="119"/>
     </row>
     <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="108"/>
-      <c r="B12" s="119"/>
+      <c r="A12" s="122"/>
+      <c r="B12" s="133"/>
       <c r="C12" s="8" t="s">
         <v>12</v>
       </c>
@@ -1949,11 +1958,11 @@
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="105"/>
+      <c r="M12" s="119"/>
     </row>
     <row r="13" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="108"/>
-      <c r="B13" s="119"/>
+      <c r="A13" s="122"/>
+      <c r="B13" s="133"/>
       <c r="C13" s="8" t="s">
         <v>13</v>
       </c>
@@ -1976,18 +1985,18 @@
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="105"/>
+      <c r="M13" s="119"/>
     </row>
     <row r="14" spans="1:13" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="108"/>
-      <c r="B14" s="119"/>
-      <c r="C14" s="113" t="s">
+      <c r="A14" s="122"/>
+      <c r="B14" s="133"/>
+      <c r="C14" s="127" t="s">
         <v>14</v>
       </c>
       <c r="D14" s="9">
         <v>31</v>
       </c>
-      <c r="E14" s="116" t="s">
+      <c r="E14" s="130" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="13" t="s">
@@ -2007,16 +2016,16 @@
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="105"/>
+      <c r="M14" s="119"/>
     </row>
     <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="108"/>
-      <c r="B15" s="119"/>
-      <c r="C15" s="114"/>
+      <c r="A15" s="122"/>
+      <c r="B15" s="133"/>
+      <c r="C15" s="128"/>
       <c r="D15" s="10">
         <v>31</v>
       </c>
-      <c r="E15" s="121"/>
+      <c r="E15" s="135"/>
       <c r="F15" s="12" t="s">
         <v>14</v>
       </c>
@@ -2034,16 +2043,16 @@
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="105"/>
+      <c r="M15" s="119"/>
     </row>
     <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="108"/>
-      <c r="B16" s="119"/>
-      <c r="C16" s="114"/>
+      <c r="A16" s="122"/>
+      <c r="B16" s="133"/>
+      <c r="C16" s="128"/>
       <c r="D16" s="10">
         <v>31</v>
       </c>
-      <c r="E16" s="117"/>
+      <c r="E16" s="131"/>
       <c r="F16" s="12" t="s">
         <v>16</v>
       </c>
@@ -2061,16 +2070,16 @@
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="105"/>
+      <c r="M16" s="119"/>
     </row>
     <row r="17" spans="1:15" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="108"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="114"/>
+      <c r="A17" s="122"/>
+      <c r="B17" s="133"/>
+      <c r="C17" s="128"/>
       <c r="D17" s="10">
         <v>31</v>
       </c>
-      <c r="E17" s="116" t="s">
+      <c r="E17" s="130" t="s">
         <v>17</v>
       </c>
       <c r="F17" s="11" t="s">
@@ -2090,16 +2099,16 @@
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="105"/>
+      <c r="M17" s="119"/>
     </row>
     <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="108"/>
-      <c r="B18" s="119"/>
-      <c r="C18" s="114"/>
+      <c r="A18" s="122"/>
+      <c r="B18" s="133"/>
+      <c r="C18" s="128"/>
       <c r="D18" s="10">
         <v>31</v>
       </c>
-      <c r="E18" s="121"/>
+      <c r="E18" s="135"/>
       <c r="F18" s="12" t="s">
         <v>14</v>
       </c>
@@ -2117,16 +2126,16 @@
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="105"/>
+      <c r="M18" s="119"/>
     </row>
     <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="108"/>
-      <c r="B19" s="119"/>
-      <c r="C19" s="115"/>
+      <c r="A19" s="122"/>
+      <c r="B19" s="133"/>
+      <c r="C19" s="129"/>
       <c r="D19" s="10">
         <v>31</v>
       </c>
-      <c r="E19" s="117"/>
+      <c r="E19" s="131"/>
       <c r="F19" s="12" t="s">
         <v>16</v>
       </c>
@@ -2144,12 +2153,12 @@
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="105"/>
+      <c r="M19" s="119"/>
     </row>
     <row r="20" spans="1:15" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="108"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="113" t="s">
+      <c r="A20" s="122"/>
+      <c r="B20" s="133"/>
+      <c r="C20" s="127" t="s">
         <v>18</v>
       </c>
       <c r="D20" s="9">
@@ -2173,12 +2182,12 @@
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="105"/>
+      <c r="M20" s="119"/>
     </row>
     <row r="21" spans="1:15" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="108"/>
-      <c r="B21" s="119"/>
-      <c r="C21" s="114"/>
+      <c r="A21" s="122"/>
+      <c r="B21" s="133"/>
+      <c r="C21" s="128"/>
       <c r="D21" s="10">
         <v>29</v>
       </c>
@@ -2200,11 +2209,11 @@
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="105"/>
+      <c r="M21" s="119"/>
     </row>
     <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="108"/>
-      <c r="B22" s="119"/>
+      <c r="A22" s="122"/>
+      <c r="B22" s="133"/>
       <c r="C22" s="7" t="s">
         <v>19</v>
       </c>
@@ -2227,11 +2236,11 @@
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="105"/>
+      <c r="M22" s="119"/>
     </row>
     <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="109"/>
-      <c r="B23" s="120"/>
+      <c r="A23" s="123"/>
+      <c r="B23" s="134"/>
       <c r="C23" s="8" t="s">
         <v>16</v>
       </c>
@@ -2254,7 +2263,7 @@
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="106"/>
+      <c r="M23" s="120"/>
     </row>
     <row r="24" spans="1:15" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="14"/>
@@ -2314,10 +2323,10 @@
       <c r="O25" s="79"/>
     </row>
     <row r="26" spans="1:15" ht="97.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="107" t="s">
+      <c r="A26" s="121" t="s">
         <v>21</v>
       </c>
-      <c r="B26" s="118" t="s">
+      <c r="B26" s="132" t="s">
         <v>48</v>
       </c>
       <c r="C26" s="7" t="s">
@@ -2342,13 +2351,13 @@
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="104" t="s">
+      <c r="M26" s="118" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="27" spans="1:15" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="108"/>
-      <c r="B27" s="119"/>
+      <c r="A27" s="122"/>
+      <c r="B27" s="133"/>
       <c r="C27" s="7" t="s">
         <v>5</v>
       </c>
@@ -2371,11 +2380,11 @@
       </c>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
-      <c r="M27" s="105"/>
+      <c r="M27" s="119"/>
     </row>
     <row r="28" spans="1:15" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="108"/>
-      <c r="B28" s="119"/>
+      <c r="A28" s="122"/>
+      <c r="B28" s="133"/>
       <c r="C28" s="8" t="s">
         <v>6</v>
       </c>
@@ -2398,11 +2407,11 @@
       </c>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
-      <c r="M28" s="105"/>
+      <c r="M28" s="119"/>
     </row>
     <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="108"/>
-      <c r="B29" s="119"/>
+      <c r="A29" s="122"/>
+      <c r="B29" s="133"/>
       <c r="C29" s="8" t="s">
         <v>39</v>
       </c>
@@ -2425,11 +2434,11 @@
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="105"/>
+      <c r="M29" s="119"/>
     </row>
     <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="108"/>
-      <c r="B30" s="119"/>
+      <c r="A30" s="122"/>
+      <c r="B30" s="133"/>
       <c r="C30" s="8" t="s">
         <v>7</v>
       </c>
@@ -2452,11 +2461,11 @@
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="105"/>
+      <c r="M30" s="119"/>
     </row>
     <row r="31" spans="1:15" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="108"/>
-      <c r="B31" s="119"/>
+      <c r="A31" s="122"/>
+      <c r="B31" s="133"/>
       <c r="C31" s="8" t="s">
         <v>40</v>
       </c>
@@ -2479,11 +2488,11 @@
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="105"/>
+      <c r="M31" s="119"/>
     </row>
     <row r="32" spans="1:15" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="108"/>
-      <c r="B32" s="119"/>
+      <c r="A32" s="122"/>
+      <c r="B32" s="133"/>
       <c r="C32" s="8" t="s">
         <v>8</v>
       </c>
@@ -2506,11 +2515,11 @@
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="105"/>
+      <c r="M32" s="119"/>
     </row>
     <row r="33" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="108"/>
-      <c r="B33" s="119"/>
+      <c r="A33" s="122"/>
+      <c r="B33" s="133"/>
       <c r="C33" s="8" t="s">
         <v>9</v>
       </c>
@@ -2533,11 +2542,11 @@
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="105"/>
+      <c r="M33" s="119"/>
     </row>
     <row r="34" spans="1:13" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="108"/>
-      <c r="B34" s="119"/>
+      <c r="A34" s="122"/>
+      <c r="B34" s="133"/>
       <c r="C34" s="8" t="s">
         <v>10</v>
       </c>
@@ -2560,11 +2569,11 @@
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="105"/>
+      <c r="M34" s="119"/>
     </row>
     <row r="35" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="108"/>
-      <c r="B35" s="119"/>
+      <c r="A35" s="122"/>
+      <c r="B35" s="133"/>
       <c r="C35" s="8" t="s">
         <v>11</v>
       </c>
@@ -2587,11 +2596,11 @@
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="105"/>
+      <c r="M35" s="119"/>
     </row>
     <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="108"/>
-      <c r="B36" s="119"/>
+      <c r="A36" s="122"/>
+      <c r="B36" s="133"/>
       <c r="C36" s="8" t="s">
         <v>12</v>
       </c>
@@ -2614,11 +2623,11 @@
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="105"/>
+      <c r="M36" s="119"/>
     </row>
     <row r="37" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="108"/>
-      <c r="B37" s="119"/>
+      <c r="A37" s="122"/>
+      <c r="B37" s="133"/>
       <c r="C37" s="8" t="s">
         <v>13</v>
       </c>
@@ -2641,11 +2650,11 @@
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="105"/>
+      <c r="M37" s="119"/>
     </row>
     <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="108"/>
-      <c r="B38" s="119"/>
+      <c r="A38" s="122"/>
+      <c r="B38" s="133"/>
       <c r="C38" s="8" t="s">
         <v>41</v>
       </c>
@@ -2668,11 +2677,11 @@
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="105"/>
+      <c r="M38" s="119"/>
     </row>
     <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="108"/>
-      <c r="B39" s="119"/>
+      <c r="A39" s="122"/>
+      <c r="B39" s="133"/>
       <c r="C39" s="8" t="s">
         <v>42</v>
       </c>
@@ -2695,18 +2704,18 @@
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="105"/>
+      <c r="M39" s="119"/>
     </row>
     <row r="40" spans="1:13" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="108"/>
-      <c r="B40" s="119"/>
-      <c r="C40" s="113" t="s">
+      <c r="A40" s="122"/>
+      <c r="B40" s="133"/>
+      <c r="C40" s="127" t="s">
         <v>14</v>
       </c>
       <c r="D40" s="9">
         <v>32</v>
       </c>
-      <c r="E40" s="116" t="s">
+      <c r="E40" s="130" t="s">
         <v>15</v>
       </c>
       <c r="F40" s="13"/>
@@ -2724,16 +2733,16 @@
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="105"/>
+      <c r="M40" s="119"/>
     </row>
     <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="108"/>
-      <c r="B41" s="119"/>
-      <c r="C41" s="114"/>
+      <c r="A41" s="122"/>
+      <c r="B41" s="133"/>
+      <c r="C41" s="128"/>
       <c r="D41" s="10">
         <v>32</v>
       </c>
-      <c r="E41" s="117"/>
+      <c r="E41" s="131"/>
       <c r="F41" s="12"/>
       <c r="G41" s="1" t="s">
         <v>49</v>
@@ -2749,16 +2758,16 @@
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="105"/>
+      <c r="M41" s="119"/>
     </row>
     <row r="42" spans="1:13" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="108"/>
-      <c r="B42" s="119"/>
-      <c r="C42" s="114"/>
+      <c r="A42" s="122"/>
+      <c r="B42" s="133"/>
+      <c r="C42" s="128"/>
       <c r="D42" s="10">
         <v>32</v>
       </c>
-      <c r="E42" s="116" t="s">
+      <c r="E42" s="130" t="s">
         <v>17</v>
       </c>
       <c r="F42" s="11"/>
@@ -2776,16 +2785,16 @@
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="105"/>
+      <c r="M42" s="119"/>
     </row>
     <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="108"/>
-      <c r="B43" s="119"/>
-      <c r="C43" s="115"/>
+      <c r="A43" s="122"/>
+      <c r="B43" s="133"/>
+      <c r="C43" s="129"/>
       <c r="D43" s="10">
         <v>32</v>
       </c>
-      <c r="E43" s="117"/>
+      <c r="E43" s="131"/>
       <c r="F43" s="12"/>
       <c r="G43" s="1" t="s">
         <v>49</v>
@@ -2801,12 +2810,12 @@
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="105"/>
+      <c r="M43" s="119"/>
     </row>
     <row r="44" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="108"/>
-      <c r="B44" s="119"/>
-      <c r="C44" s="113" t="s">
+      <c r="A44" s="122"/>
+      <c r="B44" s="133"/>
+      <c r="C44" s="127" t="s">
         <v>18</v>
       </c>
       <c r="D44" s="9">
@@ -2830,12 +2839,12 @@
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="105"/>
+      <c r="M44" s="119"/>
     </row>
     <row r="45" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="108"/>
-      <c r="B45" s="119"/>
-      <c r="C45" s="114"/>
+      <c r="A45" s="122"/>
+      <c r="B45" s="133"/>
+      <c r="C45" s="128"/>
       <c r="D45" s="10">
         <v>30</v>
       </c>
@@ -2857,12 +2866,12 @@
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="105"/>
+      <c r="M45" s="119"/>
     </row>
     <row r="46" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="108"/>
-      <c r="B46" s="119"/>
-      <c r="C46" s="113" t="s">
+      <c r="A46" s="122"/>
+      <c r="B46" s="133"/>
+      <c r="C46" s="127" t="s">
         <v>19</v>
       </c>
       <c r="D46" s="9">
@@ -2886,12 +2895,12 @@
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="105"/>
+      <c r="M46" s="119"/>
     </row>
     <row r="47" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="108"/>
-      <c r="B47" s="119"/>
-      <c r="C47" s="114"/>
+      <c r="A47" s="122"/>
+      <c r="B47" s="133"/>
+      <c r="C47" s="128"/>
       <c r="D47" s="10">
         <v>35</v>
       </c>
@@ -2913,11 +2922,11 @@
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="105"/>
+      <c r="M47" s="119"/>
     </row>
     <row r="48" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="108"/>
-      <c r="B48" s="119"/>
+      <c r="A48" s="122"/>
+      <c r="B48" s="133"/>
       <c r="C48" s="8" t="s">
         <v>16</v>
       </c>
@@ -2940,11 +2949,11 @@
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-      <c r="M48" s="105"/>
+      <c r="M48" s="119"/>
     </row>
     <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="108"/>
-      <c r="B49" s="119"/>
+      <c r="A49" s="122"/>
+      <c r="B49" s="133"/>
       <c r="C49" s="8" t="s">
         <v>45</v>
       </c>
@@ -2967,11 +2976,11 @@
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-      <c r="M49" s="105"/>
+      <c r="M49" s="119"/>
     </row>
     <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="109"/>
-      <c r="B50" s="120"/>
+      <c r="A50" s="123"/>
+      <c r="B50" s="134"/>
       <c r="C50" s="8" t="s">
         <v>46</v>
       </c>
@@ -2994,7 +3003,7 @@
       </c>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-      <c r="M50" s="106"/>
+      <c r="M50" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -3024,8 +3033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3169,7 +3178,7 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C18" s="125" t="s">
+      <c r="C18" s="139" t="s">
         <v>149</v>
       </c>
       <c r="D18" s="90" t="s">
@@ -3177,7 +3186,7 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C19" s="126"/>
+      <c r="C19" s="140"/>
       <c r="D19" s="90" t="s">
         <v>109</v>
       </c>
@@ -3188,28 +3197,31 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="129" t="s">
+      <c r="C21" s="105" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="128" t="s">
+      <c r="B22" s="104" t="s">
         <v>125</v>
       </c>
-      <c r="C22" s="130">
+      <c r="C22" s="106">
         <v>8</v>
       </c>
-      <c r="D22" s="130" t="s">
+      <c r="D22" s="106" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="128" t="s">
+      <c r="B23" s="104" t="s">
         <v>126</v>
       </c>
       <c r="C23" s="97" t="s">
         <v>127</v>
       </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E24" s="87"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="25"/>
@@ -3226,7 +3238,12 @@
       <c r="C27" s="81" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="27"/>
+      <c r="D27" s="81" t="s">
+        <v>161</v>
+      </c>
+      <c r="E27" s="142" t="s">
+        <v>160</v>
+      </c>
       <c r="G27" s="67"/>
     </row>
     <row r="28" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
@@ -3396,61 +3413,61 @@
     <row r="44" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="36"/>
       <c r="D44" s="33"/>
-      <c r="E44" s="131" t="s">
+      <c r="E44" s="107" t="s">
         <v>60</v>
       </c>
-      <c r="F44" s="132"/>
-      <c r="G44" s="132"/>
-      <c r="H44" s="132"/>
-      <c r="I44" s="132"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="108"/>
+      <c r="H44" s="108"/>
+      <c r="I44" s="108"/>
     </row>
     <row r="45" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="36"/>
       <c r="D45" s="34"/>
-      <c r="E45" s="131" t="s">
+      <c r="E45" s="107" t="s">
         <v>152</v>
       </c>
-      <c r="F45" s="132"/>
-      <c r="G45" s="132"/>
-      <c r="H45" s="132"/>
-      <c r="I45" s="132"/>
+      <c r="F45" s="108"/>
+      <c r="G45" s="108"/>
+      <c r="H45" s="108"/>
+      <c r="I45" s="108"/>
     </row>
     <row r="46" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="36"/>
       <c r="D46" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="E46" s="133"/>
-      <c r="F46" s="132"/>
-      <c r="G46" s="132"/>
-      <c r="H46" s="132"/>
-      <c r="I46" s="132"/>
+      <c r="E46" s="109"/>
+      <c r="F46" s="108"/>
+      <c r="G46" s="108"/>
+      <c r="H46" s="108"/>
+      <c r="I46" s="108"/>
     </row>
     <row r="47" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="36"/>
       <c r="D47" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="E47" s="131" t="s">
+      <c r="E47" s="107" t="s">
         <v>155</v>
       </c>
-      <c r="F47" s="132"/>
-      <c r="G47" s="132"/>
-      <c r="H47" s="132"/>
-      <c r="I47" s="132"/>
+      <c r="F47" s="108"/>
+      <c r="G47" s="108"/>
+      <c r="H47" s="108"/>
+      <c r="I47" s="108"/>
     </row>
     <row r="48" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37"/>
       <c r="D48" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="E48" s="131" t="s">
+      <c r="E48" s="107" t="s">
         <v>155</v>
       </c>
-      <c r="F48" s="132"/>
-      <c r="G48" s="132"/>
-      <c r="H48" s="132"/>
-      <c r="I48" s="132"/>
+      <c r="F48" s="108"/>
+      <c r="G48" s="108"/>
+      <c r="H48" s="108"/>
+      <c r="I48" s="108"/>
     </row>
     <row r="49" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="45" t="s">
@@ -3459,88 +3476,88 @@
       <c r="D49" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="E49" s="133"/>
-      <c r="F49" s="133"/>
-      <c r="G49" s="133"/>
-      <c r="H49" s="133"/>
-      <c r="I49" s="133"/>
+      <c r="E49" s="109"/>
+      <c r="F49" s="109"/>
+      <c r="G49" s="109"/>
+      <c r="H49" s="109"/>
+      <c r="I49" s="109"/>
     </row>
     <row r="50" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="61"/>
       <c r="D50" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="133"/>
-      <c r="F50" s="133"/>
-      <c r="G50" s="133"/>
-      <c r="H50" s="133"/>
-      <c r="I50" s="133"/>
+      <c r="E50" s="109"/>
+      <c r="F50" s="109"/>
+      <c r="G50" s="109"/>
+      <c r="H50" s="109"/>
+      <c r="I50" s="109"/>
     </row>
     <row r="51" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="61"/>
       <c r="D51" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="E51" s="133"/>
-      <c r="F51" s="133"/>
-      <c r="G51" s="133"/>
-      <c r="H51" s="133"/>
-      <c r="I51" s="133"/>
+      <c r="E51" s="109"/>
+      <c r="F51" s="109"/>
+      <c r="G51" s="109"/>
+      <c r="H51" s="109"/>
+      <c r="I51" s="109"/>
     </row>
     <row r="52" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="61"/>
       <c r="D52" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="E52" s="133"/>
-      <c r="F52" s="133"/>
-      <c r="G52" s="133"/>
-      <c r="H52" s="133"/>
-      <c r="I52" s="133"/>
+      <c r="E52" s="109"/>
+      <c r="F52" s="109"/>
+      <c r="G52" s="109"/>
+      <c r="H52" s="109"/>
+      <c r="I52" s="109"/>
     </row>
     <row r="53" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="61"/>
       <c r="D53" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="E53" s="133"/>
-      <c r="F53" s="133"/>
-      <c r="G53" s="133"/>
-      <c r="H53" s="133"/>
-      <c r="I53" s="133"/>
+      <c r="E53" s="109"/>
+      <c r="F53" s="109"/>
+      <c r="G53" s="109"/>
+      <c r="H53" s="109"/>
+      <c r="I53" s="109"/>
     </row>
     <row r="54" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="61"/>
       <c r="D54" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="E54" s="133"/>
-      <c r="F54" s="133"/>
-      <c r="G54" s="133"/>
-      <c r="H54" s="133"/>
-      <c r="I54" s="133"/>
+      <c r="E54" s="109"/>
+      <c r="F54" s="109"/>
+      <c r="G54" s="109"/>
+      <c r="H54" s="109"/>
+      <c r="I54" s="109"/>
     </row>
     <row r="55" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="61"/>
       <c r="D55" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="E55" s="133"/>
-      <c r="F55" s="133"/>
-      <c r="G55" s="133"/>
-      <c r="H55" s="133"/>
-      <c r="I55" s="133"/>
+      <c r="E55" s="109"/>
+      <c r="F55" s="109"/>
+      <c r="G55" s="109"/>
+      <c r="H55" s="109"/>
+      <c r="I55" s="109"/>
     </row>
     <row r="56" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="62"/>
       <c r="D56" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="E56" s="133"/>
-      <c r="F56" s="133"/>
-      <c r="G56" s="133"/>
-      <c r="H56" s="133"/>
-      <c r="I56" s="133"/>
+      <c r="E56" s="109"/>
+      <c r="F56" s="109"/>
+      <c r="G56" s="109"/>
+      <c r="H56" s="109"/>
+      <c r="I56" s="109"/>
     </row>
     <row r="57" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="47" t="s">
@@ -3549,180 +3566,180 @@
       <c r="D57" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="E57" s="135">
+      <c r="E57" s="111">
         <v>1</v>
       </c>
-      <c r="F57" s="135" t="s">
+      <c r="F57" s="111" t="s">
         <v>131</v>
       </c>
-      <c r="G57" s="133"/>
-      <c r="H57" s="133"/>
-      <c r="I57" s="133"/>
+      <c r="G57" s="109"/>
+      <c r="H57" s="109"/>
+      <c r="I57" s="109"/>
     </row>
     <row r="58" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="48"/>
       <c r="D58" s="94" t="s">
         <v>156</v>
       </c>
-      <c r="E58" s="135">
+      <c r="E58" s="111">
         <v>1</v>
       </c>
-      <c r="F58" s="135" t="s">
+      <c r="F58" s="111" t="s">
         <v>131</v>
       </c>
-      <c r="G58" s="133"/>
-      <c r="H58" s="133"/>
-      <c r="I58" s="133"/>
+      <c r="G58" s="109"/>
+      <c r="H58" s="109"/>
+      <c r="I58" s="109"/>
     </row>
     <row r="59" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="93"/>
       <c r="D59" s="47" t="s">
         <v>118</v>
       </c>
-      <c r="E59" s="135" t="s">
+      <c r="E59" s="111" t="s">
         <v>88</v>
       </c>
-      <c r="F59" s="135">
+      <c r="F59" s="111">
         <v>4</v>
       </c>
-      <c r="G59" s="135" t="s">
+      <c r="G59" s="111" t="s">
         <v>131</v>
       </c>
-      <c r="H59" s="133"/>
-      <c r="I59" s="133"/>
+      <c r="H59" s="109"/>
+      <c r="I59" s="109"/>
     </row>
     <row r="60" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="93"/>
       <c r="D60" s="48"/>
-      <c r="E60" s="135" t="s">
+      <c r="E60" s="111" t="s">
         <v>93</v>
       </c>
-      <c r="F60" s="135" t="s">
+      <c r="F60" s="111" t="s">
         <v>120</v>
       </c>
-      <c r="G60" s="135" t="s">
+      <c r="G60" s="111" t="s">
         <v>131</v>
       </c>
-      <c r="H60" s="133"/>
-      <c r="I60" s="133"/>
+      <c r="H60" s="109"/>
+      <c r="I60" s="109"/>
     </row>
     <row r="61" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="93"/>
       <c r="D61" s="93"/>
-      <c r="E61" s="136" t="s">
+      <c r="E61" s="112" t="s">
         <v>119</v>
       </c>
-      <c r="F61" s="135" t="s">
+      <c r="F61" s="111" t="s">
         <v>134</v>
       </c>
-      <c r="G61" s="135">
+      <c r="G61" s="111">
         <v>17</v>
       </c>
-      <c r="H61" s="135" t="s">
+      <c r="H61" s="111" t="s">
         <v>131</v>
       </c>
-      <c r="I61" s="133"/>
+      <c r="I61" s="109"/>
     </row>
     <row r="62" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="93"/>
       <c r="D62" s="93"/>
-      <c r="E62" s="137"/>
-      <c r="F62" s="135" t="s">
+      <c r="E62" s="113"/>
+      <c r="F62" s="111" t="s">
         <v>133</v>
       </c>
-      <c r="G62" s="135">
+      <c r="G62" s="111">
         <v>13</v>
       </c>
-      <c r="H62" s="135" t="s">
+      <c r="H62" s="111" t="s">
         <v>131</v>
       </c>
-      <c r="I62" s="133"/>
+      <c r="I62" s="109"/>
     </row>
     <row r="63" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="93"/>
       <c r="D63" s="48"/>
-      <c r="E63" s="139" t="s">
+      <c r="E63" s="115" t="s">
         <v>116</v>
       </c>
-      <c r="F63" s="135">
+      <c r="F63" s="111">
         <v>1</v>
       </c>
-      <c r="G63" s="138" t="s">
+      <c r="G63" s="114" t="s">
         <v>131</v>
       </c>
-      <c r="H63" s="133"/>
-      <c r="I63" s="133"/>
+      <c r="H63" s="109"/>
+      <c r="I63" s="109"/>
     </row>
     <row r="64" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="93"/>
       <c r="D64" s="48"/>
-      <c r="E64" s="135" t="s">
+      <c r="E64" s="111" t="s">
         <v>89</v>
       </c>
-      <c r="F64" s="135"/>
-      <c r="G64" s="133"/>
-      <c r="H64" s="133"/>
-      <c r="I64" s="133"/>
+      <c r="F64" s="111"/>
+      <c r="G64" s="109"/>
+      <c r="H64" s="109"/>
+      <c r="I64" s="109"/>
     </row>
     <row r="65" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="93"/>
       <c r="D65" s="49"/>
-      <c r="E65" s="135" t="s">
+      <c r="E65" s="111" t="s">
         <v>117</v>
       </c>
-      <c r="F65" s="135">
+      <c r="F65" s="111">
         <v>1</v>
       </c>
-      <c r="G65" s="134" t="s">
+      <c r="G65" s="110" t="s">
         <v>131</v>
       </c>
-      <c r="H65" s="133"/>
-      <c r="I65" s="133"/>
+      <c r="H65" s="109"/>
+      <c r="I65" s="109"/>
     </row>
     <row r="66" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="48"/>
       <c r="D66" s="95" t="s">
         <v>157</v>
       </c>
-      <c r="E66" s="135">
+      <c r="E66" s="111">
         <v>1</v>
       </c>
-      <c r="F66" s="135" t="s">
+      <c r="F66" s="111" t="s">
         <v>131</v>
       </c>
-      <c r="G66" s="133"/>
-      <c r="H66" s="133"/>
-      <c r="I66" s="133"/>
+      <c r="G66" s="109"/>
+      <c r="H66" s="109"/>
+      <c r="I66" s="109"/>
     </row>
     <row r="67" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C67" s="48"/>
       <c r="D67" s="46" t="s">
         <v>158</v>
       </c>
-      <c r="E67" s="135">
+      <c r="E67" s="111">
         <v>1</v>
       </c>
-      <c r="F67" s="135" t="s">
+      <c r="F67" s="111" t="s">
         <v>131</v>
       </c>
-      <c r="G67" s="133"/>
-      <c r="H67" s="133"/>
-      <c r="I67" s="133"/>
+      <c r="G67" s="109"/>
+      <c r="H67" s="109"/>
+      <c r="I67" s="109"/>
     </row>
     <row r="68" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C68" s="49"/>
       <c r="D68" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="E68" s="138">
+      <c r="E68" s="114">
         <v>1</v>
       </c>
-      <c r="F68" s="138" t="s">
+      <c r="F68" s="114" t="s">
         <v>131</v>
       </c>
-      <c r="G68" s="133"/>
-      <c r="H68" s="133"/>
-      <c r="I68" s="133"/>
+      <c r="G68" s="109"/>
+      <c r="H68" s="109"/>
+      <c r="I68" s="109"/>
     </row>
     <row r="69" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C69" s="51" t="s">
@@ -3734,10 +3751,10 @@
       <c r="E69" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="F69" s="133"/>
-      <c r="G69" s="133"/>
-      <c r="H69" s="133"/>
-      <c r="I69" s="133"/>
+      <c r="F69" s="109"/>
+      <c r="G69" s="109"/>
+      <c r="H69" s="109"/>
+      <c r="I69" s="109"/>
     </row>
     <row r="70" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C70" s="53"/>
@@ -3747,10 +3764,10 @@
       <c r="E70" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="F70" s="133"/>
-      <c r="G70" s="133"/>
-      <c r="H70" s="133"/>
-      <c r="I70" s="133"/>
+      <c r="F70" s="109"/>
+      <c r="G70" s="109"/>
+      <c r="H70" s="109"/>
+      <c r="I70" s="109"/>
     </row>
     <row r="71" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C71" s="53"/>
@@ -3760,25 +3777,25 @@
       <c r="E71" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="F71" s="133"/>
-      <c r="G71" s="141"/>
-      <c r="H71" s="133"/>
-      <c r="I71" s="133"/>
+      <c r="F71" s="109"/>
+      <c r="G71" s="117"/>
+      <c r="H71" s="109"/>
+      <c r="I71" s="109"/>
     </row>
     <row r="72" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C72" s="53"/>
       <c r="D72" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="E72" s="140">
+      <c r="E72" s="116">
         <v>3</v>
       </c>
-      <c r="F72" s="140" t="s">
+      <c r="F72" s="116" t="s">
         <v>131</v>
       </c>
-      <c r="G72" s="133"/>
-      <c r="H72" s="133"/>
-      <c r="I72" s="133"/>
+      <c r="G72" s="109"/>
+      <c r="H72" s="109"/>
+      <c r="I72" s="109"/>
     </row>
     <row r="73" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C73" s="54"/>
@@ -3788,10 +3805,10 @@
       <c r="E73" s="52" t="s">
         <v>159</v>
       </c>
-      <c r="F73" s="133"/>
-      <c r="G73" s="133"/>
-      <c r="H73" s="133"/>
-      <c r="I73" s="133"/>
+      <c r="F73" s="109"/>
+      <c r="G73" s="109"/>
+      <c r="H73" s="109"/>
+      <c r="I73" s="109"/>
     </row>
     <row r="74" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C74" s="75" t="s">
@@ -3817,7 +3834,7 @@
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C76" s="77"/>
-      <c r="D76" s="122" t="s">
+      <c r="D76" s="136" t="s">
         <v>85</v>
       </c>
       <c r="E76" s="59" t="s">
@@ -3831,7 +3848,7 @@
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C77" s="77"/>
-      <c r="D77" s="123"/>
+      <c r="D77" s="137"/>
       <c r="E77" s="60"/>
       <c r="F77" s="58" t="s">
         <v>87</v>
@@ -3841,7 +3858,7 @@
     </row>
     <row r="78" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C78" s="77"/>
-      <c r="D78" s="123"/>
+      <c r="D78" s="137"/>
       <c r="E78" s="59" t="s">
         <v>93</v>
       </c>
@@ -3860,7 +3877,7 @@
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C79" s="77"/>
-      <c r="D79" s="123"/>
+      <c r="D79" s="137"/>
       <c r="E79" s="60"/>
       <c r="F79" s="58" t="s">
         <v>87</v>
@@ -3870,7 +3887,7 @@
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C80" s="77"/>
-      <c r="D80" s="123"/>
+      <c r="D80" s="137"/>
       <c r="E80" s="59" t="s">
         <v>92</v>
       </c>
@@ -3889,7 +3906,7 @@
     </row>
     <row r="81" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C81" s="77"/>
-      <c r="D81" s="123"/>
+      <c r="D81" s="137"/>
       <c r="E81" s="60"/>
       <c r="F81" s="58" t="s">
         <v>87</v>
@@ -3899,7 +3916,7 @@
     </row>
     <row r="82" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C82" s="77"/>
-      <c r="D82" s="123"/>
+      <c r="D82" s="137"/>
       <c r="E82" s="59" t="s">
         <v>89</v>
       </c>
@@ -3911,7 +3928,7 @@
     </row>
     <row r="83" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C83" s="77"/>
-      <c r="D83" s="123"/>
+      <c r="D83" s="137"/>
       <c r="E83" s="60"/>
       <c r="F83" s="58" t="s">
         <v>87</v>
@@ -3921,7 +3938,7 @@
     </row>
     <row r="84" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C84" s="77"/>
-      <c r="D84" s="123"/>
+      <c r="D84" s="137"/>
       <c r="E84" s="59" t="s">
         <v>90</v>
       </c>
@@ -3933,7 +3950,7 @@
     </row>
     <row r="85" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C85" s="77"/>
-      <c r="D85" s="123"/>
+      <c r="D85" s="137"/>
       <c r="E85" s="60"/>
       <c r="F85" s="58" t="s">
         <v>87</v>
@@ -3943,7 +3960,7 @@
     </row>
     <row r="86" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C86" s="77"/>
-      <c r="D86" s="123"/>
+      <c r="D86" s="137"/>
       <c r="E86" s="73" t="s">
         <v>91</v>
       </c>
@@ -3955,7 +3972,7 @@
     </row>
     <row r="87" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C87" s="77"/>
-      <c r="D87" s="124"/>
+      <c r="D87" s="138"/>
       <c r="E87" s="60"/>
       <c r="F87" s="58" t="s">
         <v>87</v>
@@ -3990,7 +4007,7 @@
       </c>
     </row>
     <row r="91" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C91" s="127" t="s">
+      <c r="C91" s="141" t="s">
         <v>121</v>
       </c>
       <c r="D91" s="97" t="s">
@@ -4002,9 +4019,12 @@
       <c r="F91" s="99" t="s">
         <v>135</v>
       </c>
+      <c r="G91" s="142" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="92" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C92" s="127"/>
+      <c r="C92" s="141"/>
       <c r="D92" s="97" t="s">
         <v>128</v>
       </c>
@@ -4012,7 +4032,7 @@
       <c r="F92" s="99"/>
     </row>
     <row r="93" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C93" s="127"/>
+      <c r="C93" s="141"/>
       <c r="D93" s="97" t="s">
         <v>150</v>
       </c>
@@ -4020,7 +4040,7 @@
       <c r="F93" s="99"/>
     </row>
     <row r="94" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C94" s="127"/>
+      <c r="C94" s="141"/>
       <c r="D94" s="97" t="s">
         <v>151</v>
       </c>
@@ -4028,7 +4048,7 @@
       <c r="F94" s="99"/>
     </row>
     <row r="95" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C95" s="127"/>
+      <c r="C95" s="141"/>
       <c r="D95" s="97" t="s">
         <v>103</v>
       </c>
@@ -4036,7 +4056,7 @@
       <c r="F95" s="99"/>
     </row>
     <row r="96" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C96" s="127"/>
+      <c r="C96" s="141"/>
       <c r="D96" s="97" t="s">
         <v>103</v>
       </c>
@@ -4049,6 +4069,10 @@
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C91:C96"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="G91" r:id="rId1"/>
+    <hyperlink ref="E27" r:id="rId2"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>

--- a/asset/Control GESPRO.xlsx
+++ b/asset/Control GESPRO.xlsx
@@ -9,11 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10272" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10275" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planeam-Lineam" sheetId="1" r:id="rId1"/>
-    <sheet name="Estructura" sheetId="2" r:id="rId2"/>
+    <sheet name="Apoyos_Planeamiento" sheetId="3" r:id="rId2"/>
+    <sheet name="Estructura" sheetId="2" r:id="rId3"/>
+    <sheet name="Hoja2" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,8 +26,124 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Patricia Hernandez Conejo</author>
+  </authors>
+  <commentList>
+    <comment ref="D37" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Patricia Hernandez Conejo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+El documento es de ARTES INDUSTRIALES</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Patricia Hernandez Conejo</author>
+  </authors>
+  <commentList>
+    <comment ref="F7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Patricia Hernandez Conejo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Indica que es 1 documento pero vienen 2</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Patricia Hernandez Conejo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+El nombre en la carpeta original dice Evaluacion formativa se cambia a evaluacion formativa</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F26" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Patricia Hernandez Conejo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+No viene documento </t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="303">
   <si>
     <t>Sección</t>
   </si>
@@ -372,9 +490,6 @@
     <t>9_generales</t>
   </si>
   <si>
-    <t>DISTRIBUCIÓN DE CARPETAS</t>
-  </si>
-  <si>
     <t>interc</t>
   </si>
   <si>
@@ -511,13 +626,439 @@
   </si>
   <si>
     <t>video_ministra</t>
+  </si>
+  <si>
+    <t>JÓVENES Y ADULTOS</t>
+  </si>
+  <si>
+    <t>Colegios Académicos Nocturnos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colegio Nacional Educación a Distancia </t>
+  </si>
+  <si>
+    <t>IPEC-CINDEA I</t>
+  </si>
+  <si>
+    <t>IPEC-CINDEA II</t>
+  </si>
+  <si>
+    <t>IPEC-CINDEA III</t>
+  </si>
+  <si>
+    <t>Educación Preescolar</t>
+  </si>
+  <si>
+    <t>Diagnóstico</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
+  <si>
+    <t>Plan Febre</t>
+  </si>
+  <si>
+    <t>Conciencia corporal</t>
+  </si>
+  <si>
+    <t>Imagen corporal</t>
+  </si>
+  <si>
+    <t>Identidad sexual</t>
+  </si>
+  <si>
+    <t>Posibilidades de acción</t>
+  </si>
+  <si>
+    <t>Coordinación visomotora</t>
+  </si>
+  <si>
+    <t>Lateralidad</t>
+  </si>
+  <si>
+    <t>Autonomía</t>
+  </si>
+  <si>
+    <t>Salud y nutrición</t>
+  </si>
+  <si>
+    <t>Atención</t>
+  </si>
+  <si>
+    <t>Sentimientos y emociones</t>
+  </si>
+  <si>
+    <t>Familia</t>
+  </si>
+  <si>
+    <t>Centro educativo</t>
+  </si>
+  <si>
+    <t>Comunidad</t>
+  </si>
+  <si>
+    <t>Somos diferentes e iguales</t>
+  </si>
+  <si>
+    <t>Convivencia</t>
+  </si>
+  <si>
+    <t>Elementos del medio</t>
+  </si>
+  <si>
+    <t>Sentido espacial</t>
+  </si>
+  <si>
+    <t>Sentido temporal</t>
+  </si>
+  <si>
+    <t>Conservación de la cantidad</t>
+  </si>
+  <si>
+    <t>Correspondencia término a término</t>
+  </si>
+  <si>
+    <t>Seriación</t>
+  </si>
+  <si>
+    <t>Inclusión de la parte al todo</t>
+  </si>
+  <si>
+    <t>Expresión oral</t>
+  </si>
+  <si>
+    <t>Comprensión oral</t>
+  </si>
+  <si>
+    <t>Lectura</t>
+  </si>
+  <si>
+    <t>Escritura</t>
+  </si>
+  <si>
+    <t>Conciencia fonológica</t>
+  </si>
+  <si>
+    <t>Plan de marzo</t>
+  </si>
+  <si>
+    <t>Discriminación</t>
+  </si>
+  <si>
+    <t>Identificación</t>
+  </si>
+  <si>
+    <t>Reconocimiento</t>
+  </si>
+  <si>
+    <t>Desarrollo</t>
+  </si>
+  <si>
+    <t>Demostración</t>
+  </si>
+  <si>
+    <t>Descripción</t>
+  </si>
+  <si>
+    <t>Comprensión</t>
+  </si>
+  <si>
+    <t>Ejecución</t>
+  </si>
+  <si>
+    <t>Potenciación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coordinación </t>
+  </si>
+  <si>
+    <t>Utilización</t>
+  </si>
+  <si>
+    <t>Manifestación</t>
+  </si>
+  <si>
+    <t>Practica</t>
+  </si>
+  <si>
+    <t>Realización</t>
+  </si>
+  <si>
+    <t>Adquisición</t>
+  </si>
+  <si>
+    <t>Conocimiento</t>
+  </si>
+  <si>
+    <t>Experimentación</t>
+  </si>
+  <si>
+    <t>Aplicación</t>
+  </si>
+  <si>
+    <t>Clasificación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comprensión </t>
+  </si>
+  <si>
+    <t>Construcción</t>
+  </si>
+  <si>
+    <t>Categorización</t>
+  </si>
+  <si>
+    <t>Observación</t>
+  </si>
+  <si>
+    <t>Agrupación</t>
+  </si>
+  <si>
+    <t>Apreciación</t>
+  </si>
+  <si>
+    <t>Interpretación</t>
+  </si>
+  <si>
+    <t>Concientización</t>
+  </si>
+  <si>
+    <t>Representación</t>
+  </si>
+  <si>
+    <t>Producción</t>
+  </si>
+  <si>
+    <t>Reconoce sílabas</t>
+  </si>
+  <si>
+    <t>Reconoce sonidos</t>
+  </si>
+  <si>
+    <t>Reconoce rimas</t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>ServidoR</t>
+  </si>
+  <si>
+    <t>Categoría</t>
+  </si>
+  <si>
+    <t>Subcategoría</t>
+  </si>
+  <si>
+    <t>Documento</t>
+  </si>
+  <si>
+    <t>Cantidad de documentos</t>
+  </si>
+  <si>
+    <t>Salida de publicación</t>
+  </si>
+  <si>
+    <t>Apoyos para la Evaluación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funciones de la evaluación </t>
+  </si>
+  <si>
+    <t>Diagnóstica</t>
+  </si>
+  <si>
+    <t>Implementación e importancia</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>Formativa</t>
+  </si>
+  <si>
+    <t>Sumativa</t>
+  </si>
+  <si>
+    <t>Técnicas de evaluación</t>
+  </si>
+  <si>
+    <t>Mapa conceptual</t>
+  </si>
+  <si>
+    <t>Diario Reflexivo</t>
+  </si>
+  <si>
+    <t>Cuestionario</t>
+  </si>
+  <si>
+    <t>Portafolio</t>
+  </si>
+  <si>
+    <t>Diario de clase</t>
+  </si>
+  <si>
+    <t>Debate</t>
+  </si>
+  <si>
+    <t>Estudio de casos</t>
+  </si>
+  <si>
+    <t>Instrumentos para la evaluación</t>
+  </si>
+  <si>
+    <t>Escalas de calificación</t>
+  </si>
+  <si>
+    <t>Rúbricas</t>
+  </si>
+  <si>
+    <t>Lista de Cotejo</t>
+  </si>
+  <si>
+    <t>Registro de desempeño</t>
+  </si>
+  <si>
+    <t>Registro anecdótico</t>
+  </si>
+  <si>
+    <t>Sucategoria</t>
+  </si>
+  <si>
+    <t>Componentes de la calificación</t>
+  </si>
+  <si>
+    <t>Trabajo Cotidiano</t>
+  </si>
+  <si>
+    <t>Definición</t>
+  </si>
+  <si>
+    <t>Lineamientos Técnicos</t>
+  </si>
+  <si>
+    <t>Pruebas</t>
+  </si>
+  <si>
+    <t>Lineamientos técnicos</t>
+  </si>
+  <si>
+    <t>Ejemplos de ïtem</t>
+  </si>
+  <si>
+    <t>Tareas</t>
+  </si>
+  <si>
+    <t>Proyecto</t>
+  </si>
+  <si>
+    <t>Demostración de lo aprendido</t>
+  </si>
+  <si>
+    <t>Asistencia</t>
+  </si>
+  <si>
+    <t>Documentos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">APOYOS PARA EL PLANEAMIENTO </t>
+  </si>
+  <si>
+    <t>LINEAMIENTOS</t>
+  </si>
+  <si>
+    <t>APOYOS PARA LA EVALUACION</t>
+  </si>
+  <si>
+    <t>Nombre del documento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autoycoevaluacion </t>
+  </si>
+  <si>
+    <t>Evaluacion formativa</t>
+  </si>
+  <si>
+    <t>Evaluacion Sumativa</t>
+  </si>
+  <si>
+    <t>Diario reflexivo</t>
+  </si>
+  <si>
+    <t>Trabajo cotidiano</t>
+  </si>
+  <si>
+    <t>proyecto</t>
+  </si>
+  <si>
+    <t>lin_proyecto</t>
+  </si>
+  <si>
+    <t>demostracion_aprendido</t>
+  </si>
+  <si>
+    <t>lin_demostracion_aprendido</t>
+  </si>
+  <si>
+    <t>lin_asistencia</t>
+  </si>
+  <si>
+    <t>Evaluacion Diagnóstica 2013</t>
+  </si>
+  <si>
+    <t>evalucacion_formativa_2013</t>
+  </si>
+  <si>
+    <t>orientaciones_comites_de_evaluacion_2014</t>
+  </si>
+  <si>
+    <t>Prueba_oral_lenguas_estranjeras_2018</t>
+  </si>
+  <si>
+    <t>Registro_eva_Decrt_ejec_40862</t>
+  </si>
+  <si>
+    <t>pruebas_ejecución_2014</t>
+  </si>
+  <si>
+    <t>I entrega</t>
+  </si>
+  <si>
+    <t>II entrega</t>
+  </si>
+  <si>
+    <t>29 de noviembre</t>
+  </si>
+  <si>
+    <t>TOTAL DE ENTREGA DE DOCUMENTOS</t>
+  </si>
+  <si>
+    <t>PLANTILLAS</t>
+  </si>
+  <si>
+    <t>Intercultural Primaria</t>
+  </si>
+  <si>
+    <t>Intercultural Secundaria</t>
+  </si>
+  <si>
+    <t>Unidocente</t>
+  </si>
+  <si>
+    <t>DISTRIBUCIÓN DE CARPETAS-SUBIDA DE RECURSO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -621,14 +1162,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -642,8 +1175,61 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="25">
+  <fills count="31">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -788,8 +1374,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -1042,12 +1664,100 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="143">
+  <cellXfs count="256">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1195,7 +1905,6 @@
     <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1205,14 +1914,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="20" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="16" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1272,33 +1981,280 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1314,16 +2270,79 @@
     <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1344,12 +2363,23 @@
     <xf numFmtId="0" fontId="9" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1633,206 +2663,174 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O50"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:M166"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43:E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="7.6640625" customWidth="1"/>
-    <col min="8" max="12" width="7.109375" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="21.28515625" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" customWidth="1"/>
+    <col min="7" max="7" width="7.7109375" customWidth="1"/>
+    <col min="8" max="12" width="7.140625" customWidth="1"/>
+    <col min="13" max="13" width="22.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="G1" s="20" t="s">
+    <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="194" t="s">
+        <v>274</v>
+      </c>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="194"/>
+      <c r="H1" s="194"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="194"/>
+      <c r="K1" s="194"/>
+      <c r="L1" s="194"/>
+      <c r="M1" s="194"/>
+    </row>
+    <row r="2" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="194" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" s="194"/>
+      <c r="C2" s="194"/>
+      <c r="D2" s="194"/>
+      <c r="E2" s="194"/>
+      <c r="F2" s="194"/>
+      <c r="G2" s="194"/>
+      <c r="H2" s="194"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="194"/>
+      <c r="K2" s="194"/>
+      <c r="L2" s="194"/>
+      <c r="M2" s="194"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H3" s="21" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I3" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J3" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K3" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L3" s="20" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G2" s="22" t="s">
+    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G4" s="22" t="s">
         <v>30</v>
       </c>
-      <c r="H2" s="23" t="s">
+      <c r="H4" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="I2" s="22" t="s">
+      <c r="I4" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="J2" s="22" t="s">
+      <c r="J4" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="K2" s="23" t="s">
+      <c r="K4" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="L2" s="22"/>
-    </row>
-    <row r="3" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G3" s="124" t="s">
+      <c r="L4" s="22"/>
+    </row>
+    <row r="5" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G5" s="195" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="125"/>
-      <c r="I3" s="125"/>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="126"/>
-    </row>
-    <row r="4" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
+      <c r="H5" s="196"/>
+      <c r="I5" s="196"/>
+      <c r="J5" s="196"/>
+      <c r="K5" s="196"/>
+      <c r="L5" s="197"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G6" s="195" t="s">
+        <v>275</v>
+      </c>
+      <c r="H6" s="196"/>
+      <c r="I6" s="196"/>
+      <c r="J6" s="196"/>
+      <c r="K6" s="196"/>
+      <c r="L6" s="197"/>
+    </row>
+    <row r="7" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E7" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I7" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="M4" s="65" t="s">
+      <c r="M7" s="65" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="121" t="s">
+    <row r="8" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="189" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="132" t="s">
+      <c r="B8" s="207" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D8" s="9">
         <v>22</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J5" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="118" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="122"/>
-      <c r="B6" s="133"/>
-      <c r="C6" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D6" s="10">
-        <v>18</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="119"/>
-    </row>
-    <row r="7" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="122"/>
-      <c r="B7" s="133"/>
-      <c r="C7" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D7" s="10">
-        <v>5</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="119"/>
-    </row>
-    <row r="8" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="122"/>
-      <c r="B8" s="133"/>
-      <c r="C8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="10">
-        <v>16</v>
       </c>
       <c r="E8" s="13"/>
       <c r="F8" s="13"/>
@@ -1850,16 +2848,18 @@
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="119"/>
-    </row>
-    <row r="9" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="122"/>
-      <c r="B9" s="133"/>
+      <c r="M8" s="210" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="190"/>
+      <c r="B9" s="208"/>
       <c r="C9" s="8" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D9" s="10">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E9" s="13"/>
       <c r="F9" s="13"/>
@@ -1877,16 +2877,16 @@
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="119"/>
-    </row>
-    <row r="10" spans="1:13" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="122"/>
-      <c r="B10" s="133"/>
+      <c r="M9" s="211"/>
+    </row>
+    <row r="10" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="190"/>
+      <c r="B10" s="208"/>
       <c r="C10" s="8" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D10" s="10">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E10" s="13"/>
       <c r="F10" s="13"/>
@@ -1904,16 +2904,16 @@
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="119"/>
-    </row>
-    <row r="11" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="122"/>
-      <c r="B11" s="133"/>
+      <c r="M10" s="211"/>
+    </row>
+    <row r="11" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="190"/>
+      <c r="B11" s="208"/>
       <c r="C11" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D11" s="10">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="E11" s="13"/>
       <c r="F11" s="13"/>
@@ -1931,16 +2931,16 @@
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="119"/>
-    </row>
-    <row r="12" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="122"/>
-      <c r="B12" s="133"/>
+      <c r="M11" s="211"/>
+    </row>
+    <row r="12" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="190"/>
+      <c r="B12" s="208"/>
       <c r="C12" s="8" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D12" s="10">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="E12" s="13"/>
       <c r="F12" s="13"/>
@@ -1958,16 +2958,16 @@
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="119"/>
-    </row>
-    <row r="13" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="122"/>
-      <c r="B13" s="133"/>
+      <c r="M12" s="211"/>
+    </row>
+    <row r="13" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="190"/>
+      <c r="B13" s="208"/>
       <c r="C13" s="8" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D13" s="10">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="E13" s="13"/>
       <c r="F13" s="13"/>
@@ -1985,23 +2985,19 @@
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="119"/>
-    </row>
-    <row r="14" spans="1:13" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="122"/>
-      <c r="B14" s="133"/>
-      <c r="C14" s="127" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="9">
-        <v>31</v>
-      </c>
-      <c r="E14" s="130" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="M13" s="211"/>
+    </row>
+    <row r="14" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="190"/>
+      <c r="B14" s="208"/>
+      <c r="C14" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D14" s="10">
+        <v>26</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
       <c r="G14" s="1" t="s">
         <v>49</v>
       </c>
@@ -2016,19 +3012,19 @@
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="119"/>
-    </row>
-    <row r="15" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="122"/>
-      <c r="B15" s="133"/>
-      <c r="C15" s="128"/>
+      <c r="M14" s="211"/>
+    </row>
+    <row r="15" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="190"/>
+      <c r="B15" s="208"/>
+      <c r="C15" s="8" t="s">
+        <v>12</v>
+      </c>
       <c r="D15" s="10">
-        <v>31</v>
-      </c>
-      <c r="E15" s="135"/>
-      <c r="F15" s="12" t="s">
-        <v>14</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
       <c r="G15" s="1" t="s">
         <v>49</v>
       </c>
@@ -2043,19 +3039,19 @@
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="119"/>
-    </row>
-    <row r="16" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="122"/>
-      <c r="B16" s="133"/>
-      <c r="C16" s="128"/>
+      <c r="M15" s="211"/>
+    </row>
+    <row r="16" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="190"/>
+      <c r="B16" s="208"/>
+      <c r="C16" s="8" t="s">
+        <v>13</v>
+      </c>
       <c r="D16" s="10">
-        <v>31</v>
-      </c>
-      <c r="E16" s="131"/>
-      <c r="F16" s="12" t="s">
-        <v>16</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
       <c r="G16" s="1" t="s">
         <v>49</v>
       </c>
@@ -2070,19 +3066,21 @@
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="119"/>
-    </row>
-    <row r="17" spans="1:15" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="122"/>
-      <c r="B17" s="133"/>
-      <c r="C17" s="128"/>
-      <c r="D17" s="10">
+      <c r="M16" s="211"/>
+    </row>
+    <row r="17" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="190"/>
+      <c r="B17" s="208"/>
+      <c r="C17" s="215" t="s">
+        <v>14</v>
+      </c>
+      <c r="D17" s="9">
         <v>31</v>
       </c>
-      <c r="E17" s="130" t="s">
-        <v>17</v>
-      </c>
-      <c r="F17" s="11" t="s">
+      <c r="E17" s="218" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="13" t="s">
         <v>7</v>
       </c>
       <c r="G17" s="1" t="s">
@@ -2099,16 +3097,16 @@
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="119"/>
-    </row>
-    <row r="18" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="122"/>
-      <c r="B18" s="133"/>
-      <c r="C18" s="128"/>
+      <c r="M17" s="211"/>
+    </row>
+    <row r="18" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="190"/>
+      <c r="B18" s="208"/>
+      <c r="C18" s="216"/>
       <c r="D18" s="10">
         <v>31</v>
       </c>
-      <c r="E18" s="135"/>
+      <c r="E18" s="220"/>
       <c r="F18" s="12" t="s">
         <v>14</v>
       </c>
@@ -2126,16 +3124,16 @@
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="119"/>
-    </row>
-    <row r="19" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="122"/>
-      <c r="B19" s="133"/>
-      <c r="C19" s="129"/>
+      <c r="M18" s="211"/>
+    </row>
+    <row r="19" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="190"/>
+      <c r="B19" s="208"/>
+      <c r="C19" s="216"/>
       <c r="D19" s="10">
         <v>31</v>
       </c>
-      <c r="E19" s="131"/>
+      <c r="E19" s="219"/>
       <c r="F19" s="12" t="s">
         <v>16</v>
       </c>
@@ -2153,21 +3151,21 @@
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="119"/>
-    </row>
-    <row r="20" spans="1:15" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="122"/>
-      <c r="B20" s="133"/>
-      <c r="C20" s="127" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="9">
-        <v>29</v>
-      </c>
-      <c r="E20" s="12" t="s">
+      <c r="M19" s="211"/>
+    </row>
+    <row r="20" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="190"/>
+      <c r="B20" s="208"/>
+      <c r="C20" s="216"/>
+      <c r="D20" s="10">
+        <v>31</v>
+      </c>
+      <c r="E20" s="218" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="12"/>
+      <c r="F20" s="11" t="s">
+        <v>7</v>
+      </c>
       <c r="G20" s="1" t="s">
         <v>49</v>
       </c>
@@ -2182,19 +3180,19 @@
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="119"/>
-    </row>
-    <row r="21" spans="1:15" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="122"/>
-      <c r="B21" s="133"/>
-      <c r="C21" s="128"/>
+      <c r="M20" s="211"/>
+    </row>
+    <row r="21" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="190"/>
+      <c r="B21" s="208"/>
+      <c r="C21" s="216"/>
       <c r="D21" s="10">
-        <v>29</v>
-      </c>
-      <c r="E21" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="12"/>
+        <v>31</v>
+      </c>
+      <c r="E21" s="220"/>
+      <c r="F21" s="12" t="s">
+        <v>14</v>
+      </c>
       <c r="G21" s="1" t="s">
         <v>49</v>
       </c>
@@ -2204,24 +3202,24 @@
       <c r="I21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J21" s="78" t="s">
+      <c r="J21" s="1" t="s">
         <v>49</v>
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="119"/>
-    </row>
-    <row r="22" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="122"/>
-      <c r="B22" s="133"/>
-      <c r="C22" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="9">
-        <v>33</v>
-      </c>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
+      <c r="M21" s="211"/>
+    </row>
+    <row r="22" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="190"/>
+      <c r="B22" s="208"/>
+      <c r="C22" s="217"/>
+      <c r="D22" s="10">
+        <v>31</v>
+      </c>
+      <c r="E22" s="219"/>
+      <c r="F22" s="12" t="s">
+        <v>16</v>
+      </c>
       <c r="G22" s="1" t="s">
         <v>49</v>
       </c>
@@ -2236,18 +3234,20 @@
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="119"/>
-    </row>
-    <row r="23" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="123"/>
-      <c r="B23" s="134"/>
-      <c r="C23" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D23" s="10">
-        <v>4</v>
-      </c>
-      <c r="E23" s="12"/>
+      <c r="M22" s="211"/>
+    </row>
+    <row r="23" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="190"/>
+      <c r="B23" s="208"/>
+      <c r="C23" s="215" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="9">
+        <v>29</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>17</v>
+      </c>
       <c r="F23" s="12"/>
       <c r="G23" s="1" t="s">
         <v>49</v>
@@ -2263,80 +3263,73 @@
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="120"/>
-    </row>
-    <row r="24" spans="1:15" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="17"/>
-      <c r="G24" s="18"/>
-      <c r="H24" s="18"/>
-      <c r="I24" s="18"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="18"/>
-      <c r="L24" s="18"/>
-      <c r="M24" s="63"/>
-    </row>
-    <row r="25" spans="1:15" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D25" s="6" t="s">
+      <c r="M23" s="211"/>
+    </row>
+    <row r="24" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="190"/>
+      <c r="B24" s="208"/>
+      <c r="C24" s="216"/>
+      <c r="D24" s="10">
+        <v>29</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="12"/>
+      <c r="G24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J24" s="78" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="211"/>
+    </row>
+    <row r="25" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="190"/>
+      <c r="B25" s="208"/>
+      <c r="C25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" s="9">
+        <v>33</v>
+      </c>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="211"/>
+    </row>
+    <row r="26" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="191"/>
+      <c r="B26" s="209"/>
+      <c r="C26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D26" s="10">
         <v>4</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="J25" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="L25" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="M25" s="66" t="s">
-        <v>94</v>
-      </c>
-      <c r="O25" s="79"/>
-    </row>
-    <row r="26" spans="1:15" ht="97.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="121" t="s">
-        <v>21</v>
-      </c>
-      <c r="B26" s="132" t="s">
-        <v>48</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D26" s="9">
-        <v>15</v>
-      </c>
-      <c r="E26" s="4"/>
-      <c r="F26" s="5"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
       <c r="G26" s="1" t="s">
         <v>49</v>
       </c>
@@ -2351,75 +3344,79 @@
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="118" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="122"/>
-      <c r="B27" s="133"/>
-      <c r="C27" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="9">
+      <c r="M26" s="214"/>
+    </row>
+    <row r="27" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="14"/>
+      <c r="B27" s="15"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="18"/>
+      <c r="H27" s="18"/>
+      <c r="I27" s="18"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="18"/>
+      <c r="L27" s="18"/>
+      <c r="M27" s="63"/>
+    </row>
+    <row r="28" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E27" s="13"/>
-      <c r="F27" s="13"/>
-      <c r="G27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J27" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27" s="1"/>
-      <c r="L27" s="1"/>
-      <c r="M27" s="119"/>
-    </row>
-    <row r="28" spans="1:15" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="122"/>
-      <c r="B28" s="133"/>
-      <c r="C28" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="10">
-        <v>19</v>
-      </c>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="I28" s="1" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="K28" s="1"/>
-      <c r="L28" s="1"/>
-      <c r="M28" s="119"/>
-    </row>
-    <row r="29" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="122"/>
-      <c r="B29" s="133"/>
-      <c r="C29" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D29" s="10">
-        <v>7</v>
-      </c>
-      <c r="E29" s="13"/>
-      <c r="F29" s="13"/>
+        <v>26</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="M28" s="66" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="192" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29" s="207" t="s">
+        <v>48</v>
+      </c>
+      <c r="C29" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="9">
+        <v>15</v>
+      </c>
+      <c r="E29" s="4"/>
+      <c r="F29" s="5"/>
       <c r="G29" s="1" t="s">
         <v>49</v>
       </c>
@@ -2434,16 +3431,18 @@
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="119"/>
-    </row>
-    <row r="30" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="122"/>
-      <c r="B30" s="133"/>
-      <c r="C30" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="D30" s="10">
-        <v>6</v>
+      <c r="M29" s="210" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="193"/>
+      <c r="B30" s="208"/>
+      <c r="C30" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="9">
+        <v>23</v>
       </c>
       <c r="E30" s="13"/>
       <c r="F30" s="13"/>
@@ -2461,16 +3460,16 @@
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="119"/>
-    </row>
-    <row r="31" spans="1:15" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="122"/>
-      <c r="B31" s="133"/>
+      <c r="M30" s="211"/>
+    </row>
+    <row r="31" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="193"/>
+      <c r="B31" s="208"/>
       <c r="C31" s="8" t="s">
-        <v>40</v>
+        <v>6</v>
       </c>
       <c r="D31" s="10">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="E31" s="13"/>
       <c r="F31" s="13"/>
@@ -2488,16 +3487,16 @@
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="119"/>
-    </row>
-    <row r="32" spans="1:15" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="122"/>
-      <c r="B32" s="133"/>
+      <c r="M31" s="211"/>
+    </row>
+    <row r="32" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="193"/>
+      <c r="B32" s="208"/>
       <c r="C32" s="8" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D32" s="10">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="13"/>
@@ -2515,16 +3514,16 @@
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="119"/>
-    </row>
-    <row r="33" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="122"/>
-      <c r="B33" s="133"/>
+      <c r="M32" s="211"/>
+    </row>
+    <row r="33" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="193"/>
+      <c r="B33" s="208"/>
       <c r="C33" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D33" s="10">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E33" s="13"/>
       <c r="F33" s="13"/>
@@ -2542,16 +3541,16 @@
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="119"/>
-    </row>
-    <row r="34" spans="1:13" ht="42" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="122"/>
-      <c r="B34" s="133"/>
+      <c r="M33" s="211"/>
+    </row>
+    <row r="34" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="193"/>
+      <c r="B34" s="208"/>
       <c r="C34" s="8" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="D34" s="10">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E34" s="13"/>
       <c r="F34" s="13"/>
@@ -2569,16 +3568,16 @@
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="119"/>
-    </row>
-    <row r="35" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="122"/>
-      <c r="B35" s="133"/>
+      <c r="M34" s="211"/>
+    </row>
+    <row r="35" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="193"/>
+      <c r="B35" s="208"/>
       <c r="C35" s="8" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D35" s="10">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E35" s="13"/>
       <c r="F35" s="13"/>
@@ -2596,16 +3595,16 @@
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="119"/>
-    </row>
-    <row r="36" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="122"/>
-      <c r="B36" s="133"/>
+      <c r="M35" s="211"/>
+    </row>
+    <row r="36" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="193"/>
+      <c r="B36" s="208"/>
       <c r="C36" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="19" t="s">
-        <v>47</v>
+        <v>9</v>
+      </c>
+      <c r="D36" s="10">
+        <v>21</v>
       </c>
       <c r="E36" s="13"/>
       <c r="F36" s="13"/>
@@ -2623,16 +3622,16 @@
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="119"/>
-    </row>
-    <row r="37" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="122"/>
-      <c r="B37" s="133"/>
+      <c r="M36" s="211"/>
+    </row>
+    <row r="37" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="193"/>
+      <c r="B37" s="208"/>
       <c r="C37" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="10">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="D37" s="252">
+        <v>25</v>
       </c>
       <c r="E37" s="13"/>
       <c r="F37" s="13"/>
@@ -2650,16 +3649,16 @@
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="119"/>
-    </row>
-    <row r="38" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="122"/>
-      <c r="B38" s="133"/>
+      <c r="M37" s="211"/>
+    </row>
+    <row r="38" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="193"/>
+      <c r="B38" s="208"/>
       <c r="C38" s="8" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="D38" s="10">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="E38" s="13"/>
       <c r="F38" s="13"/>
@@ -2677,16 +3676,16 @@
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="119"/>
-    </row>
-    <row r="39" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="122"/>
-      <c r="B39" s="133"/>
+      <c r="M38" s="211"/>
+    </row>
+    <row r="39" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="193"/>
+      <c r="B39" s="208"/>
       <c r="C39" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="D39" s="10">
-        <v>9</v>
+        <v>12</v>
+      </c>
+      <c r="D39" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="E39" s="13"/>
       <c r="F39" s="13"/>
@@ -2704,20 +3703,18 @@
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="119"/>
-    </row>
-    <row r="40" spans="1:13" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="122"/>
-      <c r="B40" s="133"/>
-      <c r="C40" s="127" t="s">
-        <v>14</v>
-      </c>
-      <c r="D40" s="9">
-        <v>32</v>
-      </c>
-      <c r="E40" s="130" t="s">
-        <v>15</v>
-      </c>
+      <c r="M39" s="211"/>
+    </row>
+    <row r="40" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="193"/>
+      <c r="B40" s="208"/>
+      <c r="C40" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D40" s="10">
+        <v>11</v>
+      </c>
+      <c r="E40" s="13"/>
       <c r="F40" s="13"/>
       <c r="G40" s="1" t="s">
         <v>49</v>
@@ -2733,17 +3730,19 @@
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="119"/>
-    </row>
-    <row r="41" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="122"/>
-      <c r="B41" s="133"/>
-      <c r="C41" s="128"/>
+      <c r="M40" s="211"/>
+    </row>
+    <row r="41" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="193"/>
+      <c r="B41" s="208"/>
+      <c r="C41" s="8" t="s">
+        <v>41</v>
+      </c>
       <c r="D41" s="10">
-        <v>32</v>
-      </c>
-      <c r="E41" s="131"/>
-      <c r="F41" s="12"/>
+        <v>14</v>
+      </c>
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
       <c r="G41" s="1" t="s">
         <v>49</v>
       </c>
@@ -2758,19 +3757,19 @@
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="119"/>
-    </row>
-    <row r="42" spans="1:13" ht="28.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="122"/>
-      <c r="B42" s="133"/>
-      <c r="C42" s="128"/>
+      <c r="M41" s="211"/>
+    </row>
+    <row r="42" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="193"/>
+      <c r="B42" s="208"/>
+      <c r="C42" s="8" t="s">
+        <v>42</v>
+      </c>
       <c r="D42" s="10">
-        <v>32</v>
-      </c>
-      <c r="E42" s="130" t="s">
-        <v>17</v>
-      </c>
-      <c r="F42" s="11"/>
+        <v>9</v>
+      </c>
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
       <c r="G42" s="1" t="s">
         <v>49</v>
       </c>
@@ -2785,17 +3784,21 @@
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="119"/>
-    </row>
-    <row r="43" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="122"/>
-      <c r="B43" s="133"/>
-      <c r="C43" s="129"/>
-      <c r="D43" s="10">
+      <c r="M42" s="211"/>
+    </row>
+    <row r="43" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="193"/>
+      <c r="B43" s="208"/>
+      <c r="C43" s="215" t="s">
+        <v>14</v>
+      </c>
+      <c r="D43" s="9">
         <v>32</v>
       </c>
-      <c r="E43" s="131"/>
-      <c r="F43" s="12"/>
+      <c r="E43" s="218" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="13"/>
       <c r="G43" s="1" t="s">
         <v>49</v>
       </c>
@@ -2810,20 +3813,16 @@
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="119"/>
-    </row>
-    <row r="44" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="122"/>
-      <c r="B44" s="133"/>
-      <c r="C44" s="127" t="s">
-        <v>18</v>
-      </c>
-      <c r="D44" s="9">
-        <v>30</v>
-      </c>
-      <c r="E44" s="12" t="s">
-        <v>17</v>
-      </c>
+      <c r="M43" s="211"/>
+    </row>
+    <row r="44" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="193"/>
+      <c r="B44" s="208"/>
+      <c r="C44" s="216"/>
+      <c r="D44" s="10">
+        <v>32</v>
+      </c>
+      <c r="E44" s="219"/>
       <c r="F44" s="12"/>
       <c r="G44" s="1" t="s">
         <v>49</v>
@@ -2839,19 +3838,19 @@
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="119"/>
-    </row>
-    <row r="45" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="122"/>
-      <c r="B45" s="133"/>
-      <c r="C45" s="128"/>
+      <c r="M44" s="211"/>
+    </row>
+    <row r="45" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="193"/>
+      <c r="B45" s="208"/>
+      <c r="C45" s="216"/>
       <c r="D45" s="10">
-        <v>30</v>
-      </c>
-      <c r="E45" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="12"/>
+        <v>32</v>
+      </c>
+      <c r="E45" s="218" t="s">
+        <v>17</v>
+      </c>
+      <c r="F45" s="11"/>
       <c r="G45" s="1" t="s">
         <v>49</v>
       </c>
@@ -2866,20 +3865,16 @@
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="119"/>
-    </row>
-    <row r="46" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="122"/>
-      <c r="B46" s="133"/>
-      <c r="C46" s="127" t="s">
-        <v>19</v>
-      </c>
-      <c r="D46" s="9">
-        <v>34</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>43</v>
-      </c>
+      <c r="M45" s="211"/>
+    </row>
+    <row r="46" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="193"/>
+      <c r="B46" s="208"/>
+      <c r="C46" s="217"/>
+      <c r="D46" s="10">
+        <v>32</v>
+      </c>
+      <c r="E46" s="219"/>
       <c r="F46" s="12"/>
       <c r="G46" s="1" t="s">
         <v>49</v>
@@ -2895,17 +3890,19 @@
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="119"/>
-    </row>
-    <row r="47" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="122"/>
-      <c r="B47" s="133"/>
-      <c r="C47" s="128"/>
-      <c r="D47" s="10">
-        <v>35</v>
+      <c r="M46" s="211"/>
+    </row>
+    <row r="47" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="193"/>
+      <c r="B47" s="208"/>
+      <c r="C47" s="215" t="s">
+        <v>18</v>
+      </c>
+      <c r="D47" s="9">
+        <v>30</v>
       </c>
       <c r="E47" s="12" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="F47" s="12"/>
       <c r="G47" s="1" t="s">
@@ -2922,18 +3919,18 @@
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="119"/>
-    </row>
-    <row r="48" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="122"/>
-      <c r="B48" s="133"/>
-      <c r="C48" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D48" s="9">
-        <v>4</v>
-      </c>
-      <c r="E48" s="12"/>
+      <c r="M47" s="211"/>
+    </row>
+    <row r="48" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="193"/>
+      <c r="B48" s="208"/>
+      <c r="C48" s="216"/>
+      <c r="D48" s="10">
+        <v>30</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>15</v>
+      </c>
       <c r="F48" s="12"/>
       <c r="G48" s="1" t="s">
         <v>49</v>
@@ -2949,18 +3946,20 @@
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-      <c r="M48" s="119"/>
-    </row>
-    <row r="49" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="122"/>
-      <c r="B49" s="133"/>
-      <c r="C49" s="8" t="s">
-        <v>45</v>
-      </c>
-      <c r="D49" s="10">
-        <v>13</v>
-      </c>
-      <c r="E49" s="12"/>
+      <c r="M48" s="211"/>
+    </row>
+    <row r="49" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="193"/>
+      <c r="B49" s="208"/>
+      <c r="C49" s="215" t="s">
+        <v>19</v>
+      </c>
+      <c r="D49" s="9">
+        <v>34</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="F49" s="12"/>
       <c r="G49" s="1" t="s">
         <v>49</v>
@@ -2976,18 +3975,18 @@
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-      <c r="M49" s="119"/>
-    </row>
-    <row r="50" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="123"/>
-      <c r="B50" s="134"/>
-      <c r="C50" s="8" t="s">
-        <v>46</v>
-      </c>
+      <c r="M49" s="211"/>
+    </row>
+    <row r="50" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="193"/>
+      <c r="B50" s="208"/>
+      <c r="C50" s="216"/>
       <c r="D50" s="10">
-        <v>8</v>
-      </c>
-      <c r="E50" s="12"/>
+        <v>35</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>44</v>
+      </c>
       <c r="F50" s="12"/>
       <c r="G50" s="1" t="s">
         <v>49</v>
@@ -3003,63 +4002,3629 @@
       </c>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-      <c r="M50" s="120"/>
+      <c r="M50" s="211"/>
+    </row>
+    <row r="51" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="193"/>
+      <c r="B51" s="208"/>
+      <c r="C51" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D51" s="9">
+        <v>4</v>
+      </c>
+      <c r="E51" s="12"/>
+      <c r="F51" s="12"/>
+      <c r="G51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J51" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K51" s="1"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="211"/>
+    </row>
+    <row r="52" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="193"/>
+      <c r="B52" s="208"/>
+      <c r="C52" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D52" s="10">
+        <v>13</v>
+      </c>
+      <c r="E52" s="12"/>
+      <c r="F52" s="12"/>
+      <c r="G52" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J52" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="211"/>
+    </row>
+    <row r="53" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="193"/>
+      <c r="B53" s="209"/>
+      <c r="C53" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D53" s="10">
+        <v>8</v>
+      </c>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J53" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="214"/>
+    </row>
+    <row r="54" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="14"/>
+      <c r="B54" s="15"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="16"/>
+      <c r="E54" s="16"/>
+      <c r="F54" s="17"/>
+      <c r="G54" s="18"/>
+      <c r="H54" s="18"/>
+      <c r="I54" s="18"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="18"/>
+      <c r="L54" s="18"/>
+      <c r="M54" s="63"/>
+    </row>
+    <row r="55" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" s="119" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="D55" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="F55" s="122" t="s">
+        <v>3</v>
+      </c>
+      <c r="G55" s="123" t="s">
+        <v>24</v>
+      </c>
+      <c r="H55" s="123" t="s">
+        <v>23</v>
+      </c>
+      <c r="I55" s="123" t="s">
+        <v>25</v>
+      </c>
+      <c r="J55" s="123" t="s">
+        <v>26</v>
+      </c>
+      <c r="K55" s="123" t="s">
+        <v>27</v>
+      </c>
+      <c r="L55" s="123" t="s">
+        <v>28</v>
+      </c>
+      <c r="M55" s="117" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="169" t="s">
+        <v>21</v>
+      </c>
+      <c r="B56" s="207" t="s">
+        <v>161</v>
+      </c>
+      <c r="C56" s="124" t="s">
+        <v>162</v>
+      </c>
+      <c r="D56" s="125">
+        <v>36</v>
+      </c>
+      <c r="E56" s="126"/>
+      <c r="F56" s="126"/>
+      <c r="G56" s="127" t="s">
+        <v>49</v>
+      </c>
+      <c r="H56" s="127"/>
+      <c r="I56" s="127"/>
+      <c r="J56" s="127"/>
+      <c r="K56" s="127"/>
+      <c r="L56" s="127"/>
+      <c r="M56" s="210" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="170"/>
+      <c r="B57" s="208"/>
+      <c r="C57" s="124" t="s">
+        <v>163</v>
+      </c>
+      <c r="D57" s="125">
+        <v>37</v>
+      </c>
+      <c r="E57" s="126"/>
+      <c r="F57" s="126"/>
+      <c r="G57" s="127" t="s">
+        <v>49</v>
+      </c>
+      <c r="H57" s="127"/>
+      <c r="I57" s="127"/>
+      <c r="J57" s="127"/>
+      <c r="K57" s="127"/>
+      <c r="L57" s="127"/>
+      <c r="M57" s="211"/>
+    </row>
+    <row r="58" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="170"/>
+      <c r="B58" s="208"/>
+      <c r="C58" s="124" t="s">
+        <v>164</v>
+      </c>
+      <c r="D58" s="125">
+        <v>38</v>
+      </c>
+      <c r="E58" s="126"/>
+      <c r="F58" s="126"/>
+      <c r="G58" s="127" t="s">
+        <v>49</v>
+      </c>
+      <c r="H58" s="127"/>
+      <c r="I58" s="127"/>
+      <c r="J58" s="127"/>
+      <c r="K58" s="127"/>
+      <c r="L58" s="127"/>
+      <c r="M58" s="211"/>
+    </row>
+    <row r="59" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="170"/>
+      <c r="B59" s="208"/>
+      <c r="C59" s="124" t="s">
+        <v>165</v>
+      </c>
+      <c r="D59" s="125">
+        <v>38</v>
+      </c>
+      <c r="E59" s="126"/>
+      <c r="F59" s="126"/>
+      <c r="G59" s="127" t="s">
+        <v>49</v>
+      </c>
+      <c r="H59" s="127"/>
+      <c r="I59" s="127"/>
+      <c r="J59" s="127"/>
+      <c r="K59" s="127"/>
+      <c r="L59" s="127"/>
+      <c r="M59" s="211"/>
+    </row>
+    <row r="60" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="170"/>
+      <c r="B60" s="209"/>
+      <c r="C60" s="124" t="s">
+        <v>166</v>
+      </c>
+      <c r="D60" s="125">
+        <v>38</v>
+      </c>
+      <c r="E60" s="126"/>
+      <c r="F60" s="126"/>
+      <c r="G60" s="127" t="s">
+        <v>49</v>
+      </c>
+      <c r="H60" s="127"/>
+      <c r="I60" s="127"/>
+      <c r="J60" s="127"/>
+      <c r="K60" s="127"/>
+      <c r="L60" s="127"/>
+      <c r="M60" s="211"/>
+    </row>
+    <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="15"/>
+      <c r="B61" s="15"/>
+      <c r="C61" s="16"/>
+      <c r="D61" s="16"/>
+      <c r="E61" s="16"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="18"/>
+      <c r="H61" s="18"/>
+      <c r="I61" s="18"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="18"/>
+      <c r="L61" s="18"/>
+      <c r="M61" s="63"/>
+    </row>
+    <row r="62" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" s="119" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="D62" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="F62" s="122" t="s">
+        <v>3</v>
+      </c>
+      <c r="G62" s="123" t="s">
+        <v>24</v>
+      </c>
+      <c r="H62" s="123" t="s">
+        <v>23</v>
+      </c>
+      <c r="I62" s="123" t="s">
+        <v>25</v>
+      </c>
+      <c r="J62" s="123" t="s">
+        <v>26</v>
+      </c>
+      <c r="K62" s="123" t="s">
+        <v>27</v>
+      </c>
+      <c r="L62" s="123" t="s">
+        <v>28</v>
+      </c>
+      <c r="M62" s="117" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="192" t="s">
+        <v>21</v>
+      </c>
+      <c r="B63" s="207" t="s">
+        <v>167</v>
+      </c>
+      <c r="C63" s="198" t="s">
+        <v>168</v>
+      </c>
+      <c r="D63" s="204">
+        <v>28</v>
+      </c>
+      <c r="E63" s="128" t="s">
+        <v>169</v>
+      </c>
+      <c r="F63" s="129" t="s">
+        <v>172</v>
+      </c>
+      <c r="G63" s="189" t="s">
+        <v>49</v>
+      </c>
+      <c r="H63" s="189" t="s">
+        <v>49</v>
+      </c>
+      <c r="I63" s="189"/>
+      <c r="J63" s="189"/>
+      <c r="K63" s="189"/>
+      <c r="L63" s="189"/>
+      <c r="M63" s="210" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="193"/>
+      <c r="B64" s="208"/>
+      <c r="C64" s="199"/>
+      <c r="D64" s="205"/>
+      <c r="E64" s="128" t="s">
+        <v>170</v>
+      </c>
+      <c r="F64" s="212" t="s">
+        <v>200</v>
+      </c>
+      <c r="G64" s="190"/>
+      <c r="H64" s="190"/>
+      <c r="I64" s="190"/>
+      <c r="J64" s="190"/>
+      <c r="K64" s="190"/>
+      <c r="L64" s="190"/>
+      <c r="M64" s="211"/>
+    </row>
+    <row r="65" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="193"/>
+      <c r="B65" s="208"/>
+      <c r="C65" s="200"/>
+      <c r="D65" s="205"/>
+      <c r="E65" s="128" t="s">
+        <v>171</v>
+      </c>
+      <c r="F65" s="213"/>
+      <c r="G65" s="190"/>
+      <c r="H65" s="190"/>
+      <c r="I65" s="190"/>
+      <c r="J65" s="190"/>
+      <c r="K65" s="190"/>
+      <c r="L65" s="190"/>
+      <c r="M65" s="211"/>
+    </row>
+    <row r="66" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="193"/>
+      <c r="B66" s="208"/>
+      <c r="C66" s="198" t="s">
+        <v>173</v>
+      </c>
+      <c r="D66" s="205"/>
+      <c r="E66" s="128" t="s">
+        <v>169</v>
+      </c>
+      <c r="F66" s="130" t="s">
+        <v>201</v>
+      </c>
+      <c r="G66" s="190"/>
+      <c r="H66" s="190"/>
+      <c r="I66" s="190"/>
+      <c r="J66" s="190"/>
+      <c r="K66" s="190"/>
+      <c r="L66" s="190"/>
+      <c r="M66" s="211"/>
+    </row>
+    <row r="67" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="193"/>
+      <c r="B67" s="208"/>
+      <c r="C67" s="199"/>
+      <c r="D67" s="205"/>
+      <c r="E67" s="128" t="s">
+        <v>170</v>
+      </c>
+      <c r="F67" s="130" t="s">
+        <v>202</v>
+      </c>
+      <c r="G67" s="190"/>
+      <c r="H67" s="190"/>
+      <c r="I67" s="190"/>
+      <c r="J67" s="190"/>
+      <c r="K67" s="190"/>
+      <c r="L67" s="190"/>
+      <c r="M67" s="211"/>
+    </row>
+    <row r="68" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="193"/>
+      <c r="B68" s="208"/>
+      <c r="C68" s="199"/>
+      <c r="D68" s="205"/>
+      <c r="E68" s="201" t="s">
+        <v>171</v>
+      </c>
+      <c r="F68" s="130" t="s">
+        <v>203</v>
+      </c>
+      <c r="G68" s="190"/>
+      <c r="H68" s="190"/>
+      <c r="I68" s="190"/>
+      <c r="J68" s="190"/>
+      <c r="K68" s="190"/>
+      <c r="L68" s="190"/>
+      <c r="M68" s="211"/>
+    </row>
+    <row r="69" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="193"/>
+      <c r="B69" s="208"/>
+      <c r="C69" s="200"/>
+      <c r="D69" s="205"/>
+      <c r="E69" s="202"/>
+      <c r="F69" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="G69" s="190"/>
+      <c r="H69" s="190"/>
+      <c r="I69" s="190"/>
+      <c r="J69" s="190"/>
+      <c r="K69" s="190"/>
+      <c r="L69" s="190"/>
+      <c r="M69" s="211"/>
+    </row>
+    <row r="70" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="193"/>
+      <c r="B70" s="208"/>
+      <c r="C70" s="198" t="s">
+        <v>174</v>
+      </c>
+      <c r="D70" s="205"/>
+      <c r="E70" s="128" t="s">
+        <v>169</v>
+      </c>
+      <c r="F70" s="130" t="s">
+        <v>202</v>
+      </c>
+      <c r="G70" s="190"/>
+      <c r="H70" s="190"/>
+      <c r="I70" s="190"/>
+      <c r="J70" s="190"/>
+      <c r="K70" s="190"/>
+      <c r="L70" s="190"/>
+      <c r="M70" s="211"/>
+    </row>
+    <row r="71" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="193"/>
+      <c r="B71" s="208"/>
+      <c r="C71" s="199"/>
+      <c r="D71" s="205"/>
+      <c r="E71" s="128" t="s">
+        <v>170</v>
+      </c>
+      <c r="F71" s="130" t="s">
+        <v>203</v>
+      </c>
+      <c r="G71" s="190"/>
+      <c r="H71" s="190"/>
+      <c r="I71" s="190"/>
+      <c r="J71" s="190"/>
+      <c r="K71" s="190"/>
+      <c r="L71" s="190"/>
+      <c r="M71" s="211"/>
+    </row>
+    <row r="72" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="193"/>
+      <c r="B72" s="208"/>
+      <c r="C72" s="200"/>
+      <c r="D72" s="205"/>
+      <c r="E72" s="128" t="s">
+        <v>171</v>
+      </c>
+      <c r="F72" s="130" t="s">
+        <v>205</v>
+      </c>
+      <c r="G72" s="190"/>
+      <c r="H72" s="190"/>
+      <c r="I72" s="190"/>
+      <c r="J72" s="190"/>
+      <c r="K72" s="190"/>
+      <c r="L72" s="190"/>
+      <c r="M72" s="211"/>
+    </row>
+    <row r="73" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="193"/>
+      <c r="B73" s="208"/>
+      <c r="C73" s="198" t="s">
+        <v>175</v>
+      </c>
+      <c r="D73" s="205"/>
+      <c r="E73" s="128" t="s">
+        <v>169</v>
+      </c>
+      <c r="F73" s="130" t="s">
+        <v>206</v>
+      </c>
+      <c r="G73" s="190"/>
+      <c r="H73" s="190"/>
+      <c r="I73" s="190"/>
+      <c r="J73" s="190"/>
+      <c r="K73" s="190"/>
+      <c r="L73" s="190"/>
+      <c r="M73" s="211"/>
+    </row>
+    <row r="74" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="193"/>
+      <c r="B74" s="208"/>
+      <c r="C74" s="199"/>
+      <c r="D74" s="205"/>
+      <c r="E74" s="128" t="s">
+        <v>170</v>
+      </c>
+      <c r="F74" s="130" t="s">
+        <v>203</v>
+      </c>
+      <c r="G74" s="190"/>
+      <c r="H74" s="190"/>
+      <c r="I74" s="190"/>
+      <c r="J74" s="190"/>
+      <c r="K74" s="190"/>
+      <c r="L74" s="190"/>
+      <c r="M74" s="211"/>
+    </row>
+    <row r="75" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="193"/>
+      <c r="B75" s="208"/>
+      <c r="C75" s="200"/>
+      <c r="D75" s="205"/>
+      <c r="E75" s="128" t="s">
+        <v>171</v>
+      </c>
+      <c r="F75" s="130" t="s">
+        <v>207</v>
+      </c>
+      <c r="G75" s="190"/>
+      <c r="H75" s="190"/>
+      <c r="I75" s="190"/>
+      <c r="J75" s="190"/>
+      <c r="K75" s="190"/>
+      <c r="L75" s="190"/>
+      <c r="M75" s="211"/>
+    </row>
+    <row r="76" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="193"/>
+      <c r="B76" s="208"/>
+      <c r="C76" s="198" t="s">
+        <v>176</v>
+      </c>
+      <c r="D76" s="205"/>
+      <c r="E76" s="128" t="s">
+        <v>169</v>
+      </c>
+      <c r="F76" s="130" t="s">
+        <v>208</v>
+      </c>
+      <c r="G76" s="190"/>
+      <c r="H76" s="190"/>
+      <c r="I76" s="190"/>
+      <c r="J76" s="190"/>
+      <c r="K76" s="190"/>
+      <c r="L76" s="190"/>
+      <c r="M76" s="211"/>
+    </row>
+    <row r="77" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="193"/>
+      <c r="B77" s="208"/>
+      <c r="C77" s="199"/>
+      <c r="D77" s="205"/>
+      <c r="E77" s="128" t="s">
+        <v>170</v>
+      </c>
+      <c r="F77" s="130" t="s">
+        <v>208</v>
+      </c>
+      <c r="G77" s="190"/>
+      <c r="H77" s="190"/>
+      <c r="I77" s="190"/>
+      <c r="J77" s="190"/>
+      <c r="K77" s="190"/>
+      <c r="L77" s="190"/>
+      <c r="M77" s="211"/>
+    </row>
+    <row r="78" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="193"/>
+      <c r="B78" s="208"/>
+      <c r="C78" s="200"/>
+      <c r="D78" s="205"/>
+      <c r="E78" s="128" t="s">
+        <v>171</v>
+      </c>
+      <c r="F78" s="130" t="s">
+        <v>208</v>
+      </c>
+      <c r="G78" s="190"/>
+      <c r="H78" s="190"/>
+      <c r="I78" s="190"/>
+      <c r="J78" s="190"/>
+      <c r="K78" s="190"/>
+      <c r="L78" s="190"/>
+      <c r="M78" s="211"/>
+    </row>
+    <row r="79" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="193"/>
+      <c r="B79" s="208"/>
+      <c r="C79" s="198" t="s">
+        <v>177</v>
+      </c>
+      <c r="D79" s="205"/>
+      <c r="E79" s="128" t="s">
+        <v>169</v>
+      </c>
+      <c r="F79" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="G79" s="190"/>
+      <c r="H79" s="190"/>
+      <c r="I79" s="190"/>
+      <c r="J79" s="190"/>
+      <c r="K79" s="190"/>
+      <c r="L79" s="190"/>
+      <c r="M79" s="211"/>
+    </row>
+    <row r="80" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="193"/>
+      <c r="B80" s="208"/>
+      <c r="C80" s="199"/>
+      <c r="D80" s="205"/>
+      <c r="E80" s="128" t="s">
+        <v>170</v>
+      </c>
+      <c r="F80" s="130" t="s">
+        <v>209</v>
+      </c>
+      <c r="G80" s="190"/>
+      <c r="H80" s="190"/>
+      <c r="I80" s="190"/>
+      <c r="J80" s="190"/>
+      <c r="K80" s="190"/>
+      <c r="L80" s="190"/>
+      <c r="M80" s="211"/>
+    </row>
+    <row r="81" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="193"/>
+      <c r="B81" s="208"/>
+      <c r="C81" s="200"/>
+      <c r="D81" s="205"/>
+      <c r="E81" s="128" t="s">
+        <v>171</v>
+      </c>
+      <c r="F81" s="130" t="s">
+        <v>210</v>
+      </c>
+      <c r="G81" s="190"/>
+      <c r="H81" s="190"/>
+      <c r="I81" s="190"/>
+      <c r="J81" s="190"/>
+      <c r="K81" s="190"/>
+      <c r="L81" s="190"/>
+      <c r="M81" s="211"/>
+    </row>
+    <row r="82" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="193"/>
+      <c r="B82" s="208"/>
+      <c r="C82" s="198" t="s">
+        <v>178</v>
+      </c>
+      <c r="D82" s="205"/>
+      <c r="E82" s="128" t="s">
+        <v>169</v>
+      </c>
+      <c r="F82" s="130" t="s">
+        <v>203</v>
+      </c>
+      <c r="G82" s="190"/>
+      <c r="H82" s="190"/>
+      <c r="I82" s="190"/>
+      <c r="J82" s="190"/>
+      <c r="K82" s="190"/>
+      <c r="L82" s="190"/>
+      <c r="M82" s="211"/>
+    </row>
+    <row r="83" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="193"/>
+      <c r="B83" s="208"/>
+      <c r="C83" s="199"/>
+      <c r="D83" s="205"/>
+      <c r="E83" s="128" t="s">
+        <v>170</v>
+      </c>
+      <c r="F83" s="130" t="s">
+        <v>202</v>
+      </c>
+      <c r="G83" s="190"/>
+      <c r="H83" s="190"/>
+      <c r="I83" s="190"/>
+      <c r="J83" s="190"/>
+      <c r="K83" s="190"/>
+      <c r="L83" s="190"/>
+      <c r="M83" s="211"/>
+    </row>
+    <row r="84" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="193"/>
+      <c r="B84" s="208"/>
+      <c r="C84" s="200"/>
+      <c r="D84" s="205"/>
+      <c r="E84" s="128" t="s">
+        <v>171</v>
+      </c>
+      <c r="F84" s="130" t="s">
+        <v>211</v>
+      </c>
+      <c r="G84" s="190"/>
+      <c r="H84" s="190"/>
+      <c r="I84" s="190"/>
+      <c r="J84" s="190"/>
+      <c r="K84" s="190"/>
+      <c r="L84" s="190"/>
+      <c r="M84" s="211"/>
+    </row>
+    <row r="85" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="193"/>
+      <c r="B85" s="208"/>
+      <c r="C85" s="198" t="s">
+        <v>179</v>
+      </c>
+      <c r="D85" s="205"/>
+      <c r="E85" s="201" t="s">
+        <v>169</v>
+      </c>
+      <c r="F85" s="130" t="s">
+        <v>212</v>
+      </c>
+      <c r="G85" s="190"/>
+      <c r="H85" s="190"/>
+      <c r="I85" s="190"/>
+      <c r="J85" s="190"/>
+      <c r="K85" s="190"/>
+      <c r="L85" s="190"/>
+      <c r="M85" s="211"/>
+    </row>
+    <row r="86" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="193"/>
+      <c r="B86" s="208"/>
+      <c r="C86" s="199"/>
+      <c r="D86" s="205"/>
+      <c r="E86" s="202"/>
+      <c r="F86" s="130" t="s">
+        <v>213</v>
+      </c>
+      <c r="G86" s="190"/>
+      <c r="H86" s="190"/>
+      <c r="I86" s="190"/>
+      <c r="J86" s="190"/>
+      <c r="K86" s="190"/>
+      <c r="L86" s="190"/>
+      <c r="M86" s="211"/>
+    </row>
+    <row r="87" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="193"/>
+      <c r="B87" s="208"/>
+      <c r="C87" s="199"/>
+      <c r="D87" s="205"/>
+      <c r="E87" s="128" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" s="130" t="s">
+        <v>213</v>
+      </c>
+      <c r="G87" s="190"/>
+      <c r="H87" s="190"/>
+      <c r="I87" s="190"/>
+      <c r="J87" s="190"/>
+      <c r="K87" s="190"/>
+      <c r="L87" s="190"/>
+      <c r="M87" s="211"/>
+    </row>
+    <row r="88" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="193"/>
+      <c r="B88" s="208"/>
+      <c r="C88" s="200"/>
+      <c r="D88" s="205"/>
+      <c r="E88" s="128" t="s">
+        <v>171</v>
+      </c>
+      <c r="F88" s="130" t="s">
+        <v>214</v>
+      </c>
+      <c r="G88" s="190"/>
+      <c r="H88" s="190"/>
+      <c r="I88" s="190"/>
+      <c r="J88" s="190"/>
+      <c r="K88" s="190"/>
+      <c r="L88" s="190"/>
+      <c r="M88" s="211"/>
+    </row>
+    <row r="89" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="193"/>
+      <c r="B89" s="208"/>
+      <c r="C89" s="198" t="s">
+        <v>180</v>
+      </c>
+      <c r="D89" s="205"/>
+      <c r="E89" s="128" t="s">
+        <v>169</v>
+      </c>
+      <c r="F89" s="130" t="s">
+        <v>202</v>
+      </c>
+      <c r="G89" s="190"/>
+      <c r="H89" s="190"/>
+      <c r="I89" s="190"/>
+      <c r="J89" s="190"/>
+      <c r="K89" s="190"/>
+      <c r="L89" s="190"/>
+      <c r="M89" s="211"/>
+    </row>
+    <row r="90" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="193"/>
+      <c r="B90" s="208"/>
+      <c r="C90" s="199"/>
+      <c r="D90" s="205"/>
+      <c r="E90" s="128" t="s">
+        <v>170</v>
+      </c>
+      <c r="F90" s="130" t="s">
+        <v>203</v>
+      </c>
+      <c r="G90" s="190"/>
+      <c r="H90" s="190"/>
+      <c r="I90" s="190"/>
+      <c r="J90" s="190"/>
+      <c r="K90" s="190"/>
+      <c r="L90" s="190"/>
+      <c r="M90" s="211"/>
+    </row>
+    <row r="91" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="193"/>
+      <c r="B91" s="208"/>
+      <c r="C91" s="199"/>
+      <c r="D91" s="205"/>
+      <c r="E91" s="201" t="s">
+        <v>171</v>
+      </c>
+      <c r="F91" s="130" t="s">
+        <v>207</v>
+      </c>
+      <c r="G91" s="190"/>
+      <c r="H91" s="190"/>
+      <c r="I91" s="190"/>
+      <c r="J91" s="190"/>
+      <c r="K91" s="190"/>
+      <c r="L91" s="190"/>
+      <c r="M91" s="211"/>
+    </row>
+    <row r="92" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="193"/>
+      <c r="B92" s="208"/>
+      <c r="C92" s="200"/>
+      <c r="D92" s="205"/>
+      <c r="E92" s="202"/>
+      <c r="F92" s="130" t="s">
+        <v>208</v>
+      </c>
+      <c r="G92" s="190"/>
+      <c r="H92" s="190"/>
+      <c r="I92" s="190"/>
+      <c r="J92" s="190"/>
+      <c r="K92" s="190"/>
+      <c r="L92" s="190"/>
+      <c r="M92" s="211"/>
+    </row>
+    <row r="93" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="193"/>
+      <c r="B93" s="208"/>
+      <c r="C93" s="198" t="s">
+        <v>181</v>
+      </c>
+      <c r="D93" s="205"/>
+      <c r="E93" s="128" t="s">
+        <v>169</v>
+      </c>
+      <c r="F93" s="130" t="s">
+        <v>215</v>
+      </c>
+      <c r="G93" s="190"/>
+      <c r="H93" s="190"/>
+      <c r="I93" s="190"/>
+      <c r="J93" s="190"/>
+      <c r="K93" s="190"/>
+      <c r="L93" s="190"/>
+      <c r="M93" s="211"/>
+    </row>
+    <row r="94" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="193"/>
+      <c r="B94" s="208"/>
+      <c r="C94" s="199"/>
+      <c r="D94" s="205"/>
+      <c r="E94" s="128" t="s">
+        <v>170</v>
+      </c>
+      <c r="F94" s="130" t="s">
+        <v>207</v>
+      </c>
+      <c r="G94" s="190"/>
+      <c r="H94" s="190"/>
+      <c r="I94" s="190"/>
+      <c r="J94" s="190"/>
+      <c r="K94" s="190"/>
+      <c r="L94" s="190"/>
+      <c r="M94" s="211"/>
+    </row>
+    <row r="95" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="193"/>
+      <c r="B95" s="208"/>
+      <c r="C95" s="200"/>
+      <c r="D95" s="205"/>
+      <c r="E95" s="128" t="s">
+        <v>171</v>
+      </c>
+      <c r="F95" s="130" t="s">
+        <v>202</v>
+      </c>
+      <c r="G95" s="190"/>
+      <c r="H95" s="190"/>
+      <c r="I95" s="190"/>
+      <c r="J95" s="190"/>
+      <c r="K95" s="190"/>
+      <c r="L95" s="190"/>
+      <c r="M95" s="211"/>
+    </row>
+    <row r="96" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="193"/>
+      <c r="B96" s="208"/>
+      <c r="C96" s="198" t="s">
+        <v>182</v>
+      </c>
+      <c r="D96" s="205"/>
+      <c r="E96" s="128" t="s">
+        <v>169</v>
+      </c>
+      <c r="F96" s="130" t="s">
+        <v>202</v>
+      </c>
+      <c r="G96" s="190"/>
+      <c r="H96" s="190"/>
+      <c r="I96" s="190"/>
+      <c r="J96" s="190"/>
+      <c r="K96" s="190"/>
+      <c r="L96" s="190"/>
+      <c r="M96" s="211"/>
+    </row>
+    <row r="97" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="193"/>
+      <c r="B97" s="208"/>
+      <c r="C97" s="199"/>
+      <c r="D97" s="205"/>
+      <c r="E97" s="201" t="s">
+        <v>170</v>
+      </c>
+      <c r="F97" s="130" t="s">
+        <v>203</v>
+      </c>
+      <c r="G97" s="190"/>
+      <c r="H97" s="190"/>
+      <c r="I97" s="190"/>
+      <c r="J97" s="190"/>
+      <c r="K97" s="190"/>
+      <c r="L97" s="190"/>
+      <c r="M97" s="211"/>
+    </row>
+    <row r="98" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A98" s="193"/>
+      <c r="B98" s="208"/>
+      <c r="C98" s="199"/>
+      <c r="D98" s="205"/>
+      <c r="E98" s="202"/>
+      <c r="F98" s="130" t="s">
+        <v>204</v>
+      </c>
+      <c r="G98" s="190"/>
+      <c r="H98" s="190"/>
+      <c r="I98" s="190"/>
+      <c r="J98" s="190"/>
+      <c r="K98" s="190"/>
+      <c r="L98" s="190"/>
+      <c r="M98" s="211"/>
+    </row>
+    <row r="99" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A99" s="193"/>
+      <c r="B99" s="208"/>
+      <c r="C99" s="200"/>
+      <c r="D99" s="205"/>
+      <c r="E99" s="128" t="s">
+        <v>171</v>
+      </c>
+      <c r="F99" s="130" t="s">
+        <v>205</v>
+      </c>
+      <c r="G99" s="190"/>
+      <c r="H99" s="190"/>
+      <c r="I99" s="190"/>
+      <c r="J99" s="190"/>
+      <c r="K99" s="190"/>
+      <c r="L99" s="190"/>
+      <c r="M99" s="211"/>
+    </row>
+    <row r="100" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="193"/>
+      <c r="B100" s="208"/>
+      <c r="C100" s="198" t="s">
+        <v>183</v>
+      </c>
+      <c r="D100" s="205"/>
+      <c r="E100" s="201" t="s">
+        <v>169</v>
+      </c>
+      <c r="F100" s="130" t="s">
+        <v>216</v>
+      </c>
+      <c r="G100" s="190"/>
+      <c r="H100" s="190"/>
+      <c r="I100" s="190"/>
+      <c r="J100" s="190"/>
+      <c r="K100" s="190"/>
+      <c r="L100" s="190"/>
+      <c r="M100" s="211"/>
+    </row>
+    <row r="101" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A101" s="193"/>
+      <c r="B101" s="208"/>
+      <c r="C101" s="199"/>
+      <c r="D101" s="205"/>
+      <c r="E101" s="202"/>
+      <c r="F101" s="130" t="s">
+        <v>202</v>
+      </c>
+      <c r="G101" s="190"/>
+      <c r="H101" s="190"/>
+      <c r="I101" s="190"/>
+      <c r="J101" s="190"/>
+      <c r="K101" s="190"/>
+      <c r="L101" s="190"/>
+      <c r="M101" s="211"/>
+    </row>
+    <row r="102" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A102" s="193"/>
+      <c r="B102" s="208"/>
+      <c r="C102" s="199"/>
+      <c r="D102" s="205"/>
+      <c r="E102" s="128" t="s">
+        <v>170</v>
+      </c>
+      <c r="F102" s="130" t="s">
+        <v>202</v>
+      </c>
+      <c r="G102" s="190"/>
+      <c r="H102" s="190"/>
+      <c r="I102" s="190"/>
+      <c r="J102" s="190"/>
+      <c r="K102" s="190"/>
+      <c r="L102" s="190"/>
+      <c r="M102" s="211"/>
+    </row>
+    <row r="103" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A103" s="193"/>
+      <c r="B103" s="208"/>
+      <c r="C103" s="199"/>
+      <c r="D103" s="205"/>
+      <c r="E103" s="201" t="s">
+        <v>171</v>
+      </c>
+      <c r="F103" s="130" t="s">
+        <v>203</v>
+      </c>
+      <c r="G103" s="190"/>
+      <c r="H103" s="190"/>
+      <c r="I103" s="190"/>
+      <c r="J103" s="190"/>
+      <c r="K103" s="190"/>
+      <c r="L103" s="190"/>
+      <c r="M103" s="211"/>
+    </row>
+    <row r="104" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A104" s="193"/>
+      <c r="B104" s="208"/>
+      <c r="C104" s="200"/>
+      <c r="D104" s="205"/>
+      <c r="E104" s="202"/>
+      <c r="F104" s="130" t="s">
+        <v>202</v>
+      </c>
+      <c r="G104" s="190"/>
+      <c r="H104" s="190"/>
+      <c r="I104" s="190"/>
+      <c r="J104" s="190"/>
+      <c r="K104" s="190"/>
+      <c r="L104" s="190"/>
+      <c r="M104" s="211"/>
+    </row>
+    <row r="105" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A105" s="193"/>
+      <c r="B105" s="208"/>
+      <c r="C105" s="198" t="s">
+        <v>184</v>
+      </c>
+      <c r="D105" s="205"/>
+      <c r="E105" s="128" t="s">
+        <v>169</v>
+      </c>
+      <c r="F105" s="130" t="s">
+        <v>203</v>
+      </c>
+      <c r="G105" s="190"/>
+      <c r="H105" s="190"/>
+      <c r="I105" s="190"/>
+      <c r="J105" s="190"/>
+      <c r="K105" s="190"/>
+      <c r="L105" s="190"/>
+      <c r="M105" s="211"/>
+    </row>
+    <row r="106" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="193"/>
+      <c r="B106" s="208"/>
+      <c r="C106" s="199"/>
+      <c r="D106" s="205"/>
+      <c r="E106" s="128" t="s">
+        <v>170</v>
+      </c>
+      <c r="F106" s="130" t="s">
+        <v>202</v>
+      </c>
+      <c r="G106" s="190"/>
+      <c r="H106" s="190"/>
+      <c r="I106" s="190"/>
+      <c r="J106" s="190"/>
+      <c r="K106" s="190"/>
+      <c r="L106" s="190"/>
+      <c r="M106" s="211"/>
+    </row>
+    <row r="107" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A107" s="193"/>
+      <c r="B107" s="208"/>
+      <c r="C107" s="200"/>
+      <c r="D107" s="205"/>
+      <c r="E107" s="128" t="s">
+        <v>171</v>
+      </c>
+      <c r="F107" s="130" t="s">
+        <v>217</v>
+      </c>
+      <c r="G107" s="190"/>
+      <c r="H107" s="190"/>
+      <c r="I107" s="190"/>
+      <c r="J107" s="190"/>
+      <c r="K107" s="190"/>
+      <c r="L107" s="190"/>
+      <c r="M107" s="211"/>
+    </row>
+    <row r="108" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A108" s="193"/>
+      <c r="B108" s="208"/>
+      <c r="C108" s="198" t="s">
+        <v>185</v>
+      </c>
+      <c r="D108" s="205"/>
+      <c r="E108" s="128" t="s">
+        <v>169</v>
+      </c>
+      <c r="F108" s="130" t="s">
+        <v>202</v>
+      </c>
+      <c r="G108" s="190"/>
+      <c r="H108" s="190"/>
+      <c r="I108" s="190"/>
+      <c r="J108" s="190"/>
+      <c r="K108" s="190"/>
+      <c r="L108" s="190"/>
+      <c r="M108" s="211"/>
+    </row>
+    <row r="109" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A109" s="193"/>
+      <c r="B109" s="208"/>
+      <c r="C109" s="199"/>
+      <c r="D109" s="205"/>
+      <c r="E109" s="201" t="s">
+        <v>170</v>
+      </c>
+      <c r="F109" s="130" t="s">
+        <v>203</v>
+      </c>
+      <c r="G109" s="190"/>
+      <c r="H109" s="190"/>
+      <c r="I109" s="190"/>
+      <c r="J109" s="190"/>
+      <c r="K109" s="190"/>
+      <c r="L109" s="190"/>
+      <c r="M109" s="211"/>
+    </row>
+    <row r="110" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A110" s="193"/>
+      <c r="B110" s="208"/>
+      <c r="C110" s="199"/>
+      <c r="D110" s="205"/>
+      <c r="E110" s="202"/>
+      <c r="F110" s="130" t="s">
+        <v>218</v>
+      </c>
+      <c r="G110" s="190"/>
+      <c r="H110" s="190"/>
+      <c r="I110" s="190"/>
+      <c r="J110" s="190"/>
+      <c r="K110" s="190"/>
+      <c r="L110" s="190"/>
+      <c r="M110" s="211"/>
+    </row>
+    <row r="111" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A111" s="193"/>
+      <c r="B111" s="208"/>
+      <c r="C111" s="200"/>
+      <c r="D111" s="205"/>
+      <c r="E111" s="128" t="s">
+        <v>171</v>
+      </c>
+      <c r="F111" s="130" t="s">
+        <v>202</v>
+      </c>
+      <c r="G111" s="190"/>
+      <c r="H111" s="190"/>
+      <c r="I111" s="190"/>
+      <c r="J111" s="190"/>
+      <c r="K111" s="190"/>
+      <c r="L111" s="190"/>
+      <c r="M111" s="211"/>
+    </row>
+    <row r="112" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A112" s="193"/>
+      <c r="B112" s="208"/>
+      <c r="C112" s="198" t="s">
+        <v>186</v>
+      </c>
+      <c r="D112" s="205"/>
+      <c r="E112" s="128" t="s">
+        <v>169</v>
+      </c>
+      <c r="F112" s="130" t="s">
+        <v>203</v>
+      </c>
+      <c r="G112" s="190"/>
+      <c r="H112" s="190"/>
+      <c r="I112" s="190"/>
+      <c r="J112" s="190"/>
+      <c r="K112" s="190"/>
+      <c r="L112" s="190"/>
+      <c r="M112" s="211"/>
+    </row>
+    <row r="113" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="193"/>
+      <c r="B113" s="208"/>
+      <c r="C113" s="199"/>
+      <c r="D113" s="205"/>
+      <c r="E113" s="128" t="s">
+        <v>170</v>
+      </c>
+      <c r="F113" s="130" t="s">
+        <v>202</v>
+      </c>
+      <c r="G113" s="190"/>
+      <c r="H113" s="190"/>
+      <c r="I113" s="190"/>
+      <c r="J113" s="190"/>
+      <c r="K113" s="190"/>
+      <c r="L113" s="190"/>
+      <c r="M113" s="211"/>
+    </row>
+    <row r="114" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="193"/>
+      <c r="B114" s="208"/>
+      <c r="C114" s="200"/>
+      <c r="D114" s="205"/>
+      <c r="E114" s="128" t="s">
+        <v>171</v>
+      </c>
+      <c r="F114" s="130" t="s">
+        <v>205</v>
+      </c>
+      <c r="G114" s="190"/>
+      <c r="H114" s="190"/>
+      <c r="I114" s="190"/>
+      <c r="J114" s="190"/>
+      <c r="K114" s="190"/>
+      <c r="L114" s="190"/>
+      <c r="M114" s="211"/>
+    </row>
+    <row r="115" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="193"/>
+      <c r="B115" s="208"/>
+      <c r="C115" s="198" t="s">
+        <v>187</v>
+      </c>
+      <c r="D115" s="205"/>
+      <c r="E115" s="128" t="s">
+        <v>169</v>
+      </c>
+      <c r="F115" s="130" t="s">
+        <v>202</v>
+      </c>
+      <c r="G115" s="190"/>
+      <c r="H115" s="190"/>
+      <c r="I115" s="190"/>
+      <c r="J115" s="190"/>
+      <c r="K115" s="190"/>
+      <c r="L115" s="190"/>
+      <c r="M115" s="211"/>
+    </row>
+    <row r="116" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A116" s="193"/>
+      <c r="B116" s="208"/>
+      <c r="C116" s="199"/>
+      <c r="D116" s="205"/>
+      <c r="E116" s="128" t="s">
+        <v>170</v>
+      </c>
+      <c r="F116" s="130" t="s">
+        <v>205</v>
+      </c>
+      <c r="G116" s="190"/>
+      <c r="H116" s="190"/>
+      <c r="I116" s="190"/>
+      <c r="J116" s="190"/>
+      <c r="K116" s="190"/>
+      <c r="L116" s="190"/>
+      <c r="M116" s="211"/>
+    </row>
+    <row r="117" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="193"/>
+      <c r="B117" s="208"/>
+      <c r="C117" s="200"/>
+      <c r="D117" s="205"/>
+      <c r="E117" s="128" t="s">
+        <v>171</v>
+      </c>
+      <c r="F117" s="130" t="s">
+        <v>213</v>
+      </c>
+      <c r="G117" s="190"/>
+      <c r="H117" s="190"/>
+      <c r="I117" s="190"/>
+      <c r="J117" s="190"/>
+      <c r="K117" s="190"/>
+      <c r="L117" s="190"/>
+      <c r="M117" s="211"/>
+    </row>
+    <row r="118" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="193"/>
+      <c r="B118" s="208"/>
+      <c r="C118" s="198" t="s">
+        <v>188</v>
+      </c>
+      <c r="D118" s="205"/>
+      <c r="E118" s="128" t="s">
+        <v>169</v>
+      </c>
+      <c r="F118" s="130" t="s">
+        <v>201</v>
+      </c>
+      <c r="G118" s="190"/>
+      <c r="H118" s="190"/>
+      <c r="I118" s="190"/>
+      <c r="J118" s="190"/>
+      <c r="K118" s="190"/>
+      <c r="L118" s="190"/>
+      <c r="M118" s="211"/>
+    </row>
+    <row r="119" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="193"/>
+      <c r="B119" s="208"/>
+      <c r="C119" s="199"/>
+      <c r="D119" s="205"/>
+      <c r="E119" s="128" t="s">
+        <v>170</v>
+      </c>
+      <c r="F119" s="130" t="s">
+        <v>219</v>
+      </c>
+      <c r="G119" s="190"/>
+      <c r="H119" s="190"/>
+      <c r="I119" s="190"/>
+      <c r="J119" s="190"/>
+      <c r="K119" s="190"/>
+      <c r="L119" s="190"/>
+      <c r="M119" s="211"/>
+    </row>
+    <row r="120" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A120" s="193"/>
+      <c r="B120" s="208"/>
+      <c r="C120" s="200"/>
+      <c r="D120" s="205"/>
+      <c r="E120" s="128" t="s">
+        <v>171</v>
+      </c>
+      <c r="F120" s="130" t="s">
+        <v>211</v>
+      </c>
+      <c r="G120" s="190"/>
+      <c r="H120" s="190"/>
+      <c r="I120" s="190"/>
+      <c r="J120" s="190"/>
+      <c r="K120" s="190"/>
+      <c r="L120" s="190"/>
+      <c r="M120" s="211"/>
+    </row>
+    <row r="121" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A121" s="193"/>
+      <c r="B121" s="208"/>
+      <c r="C121" s="198" t="s">
+        <v>189</v>
+      </c>
+      <c r="D121" s="205"/>
+      <c r="E121" s="128" t="s">
+        <v>169</v>
+      </c>
+      <c r="F121" s="130" t="s">
+        <v>216</v>
+      </c>
+      <c r="G121" s="190"/>
+      <c r="H121" s="190"/>
+      <c r="I121" s="190"/>
+      <c r="J121" s="190"/>
+      <c r="K121" s="190"/>
+      <c r="L121" s="190"/>
+      <c r="M121" s="211"/>
+    </row>
+    <row r="122" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A122" s="193"/>
+      <c r="B122" s="208"/>
+      <c r="C122" s="199"/>
+      <c r="D122" s="205"/>
+      <c r="E122" s="128" t="s">
+        <v>170</v>
+      </c>
+      <c r="F122" s="130" t="s">
+        <v>203</v>
+      </c>
+      <c r="G122" s="190"/>
+      <c r="H122" s="190"/>
+      <c r="I122" s="190"/>
+      <c r="J122" s="190"/>
+      <c r="K122" s="190"/>
+      <c r="L122" s="190"/>
+      <c r="M122" s="211"/>
+    </row>
+    <row r="123" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A123" s="193"/>
+      <c r="B123" s="208"/>
+      <c r="C123" s="200"/>
+      <c r="D123" s="205"/>
+      <c r="E123" s="128" t="s">
+        <v>171</v>
+      </c>
+      <c r="F123" s="130" t="s">
+        <v>218</v>
+      </c>
+      <c r="G123" s="190"/>
+      <c r="H123" s="190"/>
+      <c r="I123" s="190"/>
+      <c r="J123" s="190"/>
+      <c r="K123" s="190"/>
+      <c r="L123" s="190"/>
+      <c r="M123" s="211"/>
+    </row>
+    <row r="124" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A124" s="193"/>
+      <c r="B124" s="208"/>
+      <c r="C124" s="198" t="s">
+        <v>190</v>
+      </c>
+      <c r="D124" s="205"/>
+      <c r="E124" s="128" t="s">
+        <v>169</v>
+      </c>
+      <c r="F124" s="130" t="s">
+        <v>202</v>
+      </c>
+      <c r="G124" s="190"/>
+      <c r="H124" s="190"/>
+      <c r="I124" s="190"/>
+      <c r="J124" s="190"/>
+      <c r="K124" s="190"/>
+      <c r="L124" s="190"/>
+      <c r="M124" s="211"/>
+    </row>
+    <row r="125" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="193"/>
+      <c r="B125" s="208"/>
+      <c r="C125" s="199"/>
+      <c r="D125" s="205"/>
+      <c r="E125" s="128" t="s">
+        <v>170</v>
+      </c>
+      <c r="F125" s="130" t="s">
+        <v>220</v>
+      </c>
+      <c r="G125" s="190"/>
+      <c r="H125" s="190"/>
+      <c r="I125" s="190"/>
+      <c r="J125" s="190"/>
+      <c r="K125" s="190"/>
+      <c r="L125" s="190"/>
+      <c r="M125" s="211"/>
+    </row>
+    <row r="126" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A126" s="193"/>
+      <c r="B126" s="208"/>
+      <c r="C126" s="200"/>
+      <c r="D126" s="205"/>
+      <c r="E126" s="128" t="s">
+        <v>171</v>
+      </c>
+      <c r="F126" s="130" t="s">
+        <v>218</v>
+      </c>
+      <c r="G126" s="190"/>
+      <c r="H126" s="190"/>
+      <c r="I126" s="190"/>
+      <c r="J126" s="190"/>
+      <c r="K126" s="190"/>
+      <c r="L126" s="190"/>
+      <c r="M126" s="211"/>
+    </row>
+    <row r="127" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A127" s="193"/>
+      <c r="B127" s="208"/>
+      <c r="C127" s="198" t="s">
+        <v>191</v>
+      </c>
+      <c r="D127" s="205"/>
+      <c r="E127" s="128" t="s">
+        <v>169</v>
+      </c>
+      <c r="F127" s="130" t="s">
+        <v>203</v>
+      </c>
+      <c r="G127" s="190"/>
+      <c r="H127" s="190"/>
+      <c r="I127" s="190"/>
+      <c r="J127" s="190"/>
+      <c r="K127" s="190"/>
+      <c r="L127" s="190"/>
+      <c r="M127" s="211"/>
+    </row>
+    <row r="128" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A128" s="193"/>
+      <c r="B128" s="208"/>
+      <c r="C128" s="199"/>
+      <c r="D128" s="205"/>
+      <c r="E128" s="128" t="s">
+        <v>170</v>
+      </c>
+      <c r="F128" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="G128" s="190"/>
+      <c r="H128" s="190"/>
+      <c r="I128" s="190"/>
+      <c r="J128" s="190"/>
+      <c r="K128" s="190"/>
+      <c r="L128" s="190"/>
+      <c r="M128" s="211"/>
+    </row>
+    <row r="129" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A129" s="193"/>
+      <c r="B129" s="208"/>
+      <c r="C129" s="200"/>
+      <c r="D129" s="205"/>
+      <c r="E129" s="128" t="s">
+        <v>171</v>
+      </c>
+      <c r="F129" s="130" t="s">
+        <v>215</v>
+      </c>
+      <c r="G129" s="190"/>
+      <c r="H129" s="190"/>
+      <c r="I129" s="190"/>
+      <c r="J129" s="190"/>
+      <c r="K129" s="190"/>
+      <c r="L129" s="190"/>
+      <c r="M129" s="211"/>
+    </row>
+    <row r="130" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A130" s="193"/>
+      <c r="B130" s="208"/>
+      <c r="C130" s="198" t="s">
+        <v>192</v>
+      </c>
+      <c r="D130" s="205"/>
+      <c r="E130" s="128" t="s">
+        <v>169</v>
+      </c>
+      <c r="F130" s="130" t="s">
+        <v>202</v>
+      </c>
+      <c r="G130" s="190"/>
+      <c r="H130" s="190"/>
+      <c r="I130" s="190"/>
+      <c r="J130" s="190"/>
+      <c r="K130" s="190"/>
+      <c r="L130" s="190"/>
+      <c r="M130" s="211"/>
+    </row>
+    <row r="131" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A131" s="193"/>
+      <c r="B131" s="208"/>
+      <c r="C131" s="199"/>
+      <c r="D131" s="205"/>
+      <c r="E131" s="128" t="s">
+        <v>170</v>
+      </c>
+      <c r="F131" s="130" t="s">
+        <v>222</v>
+      </c>
+      <c r="G131" s="190"/>
+      <c r="H131" s="190"/>
+      <c r="I131" s="190"/>
+      <c r="J131" s="190"/>
+      <c r="K131" s="190"/>
+      <c r="L131" s="190"/>
+      <c r="M131" s="211"/>
+    </row>
+    <row r="132" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="193"/>
+      <c r="B132" s="208"/>
+      <c r="C132" s="200"/>
+      <c r="D132" s="205"/>
+      <c r="E132" s="128" t="s">
+        <v>171</v>
+      </c>
+      <c r="F132" s="130" t="s">
+        <v>218</v>
+      </c>
+      <c r="G132" s="190"/>
+      <c r="H132" s="190"/>
+      <c r="I132" s="190"/>
+      <c r="J132" s="190"/>
+      <c r="K132" s="190"/>
+      <c r="L132" s="190"/>
+      <c r="M132" s="211"/>
+    </row>
+    <row r="133" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="193"/>
+      <c r="B133" s="208"/>
+      <c r="C133" s="198" t="s">
+        <v>193</v>
+      </c>
+      <c r="D133" s="205"/>
+      <c r="E133" s="128" t="s">
+        <v>169</v>
+      </c>
+      <c r="F133" s="130" t="s">
+        <v>202</v>
+      </c>
+      <c r="G133" s="190"/>
+      <c r="H133" s="190"/>
+      <c r="I133" s="190"/>
+      <c r="J133" s="190"/>
+      <c r="K133" s="190"/>
+      <c r="L133" s="190"/>
+      <c r="M133" s="211"/>
+    </row>
+    <row r="134" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="193"/>
+      <c r="B134" s="208"/>
+      <c r="C134" s="199"/>
+      <c r="D134" s="205"/>
+      <c r="E134" s="128" t="s">
+        <v>170</v>
+      </c>
+      <c r="F134" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="G134" s="190"/>
+      <c r="H134" s="190"/>
+      <c r="I134" s="190"/>
+      <c r="J134" s="190"/>
+      <c r="K134" s="190"/>
+      <c r="L134" s="190"/>
+      <c r="M134" s="211"/>
+    </row>
+    <row r="135" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A135" s="193"/>
+      <c r="B135" s="208"/>
+      <c r="C135" s="200"/>
+      <c r="D135" s="205"/>
+      <c r="E135" s="128" t="s">
+        <v>171</v>
+      </c>
+      <c r="F135" s="130" t="s">
+        <v>218</v>
+      </c>
+      <c r="G135" s="190"/>
+      <c r="H135" s="190"/>
+      <c r="I135" s="190"/>
+      <c r="J135" s="190"/>
+      <c r="K135" s="190"/>
+      <c r="L135" s="190"/>
+      <c r="M135" s="211"/>
+    </row>
+    <row r="136" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A136" s="193"/>
+      <c r="B136" s="208"/>
+      <c r="C136" s="198" t="s">
+        <v>194</v>
+      </c>
+      <c r="D136" s="205"/>
+      <c r="E136" s="128" t="s">
+        <v>169</v>
+      </c>
+      <c r="F136" s="130" t="s">
+        <v>223</v>
+      </c>
+      <c r="G136" s="190"/>
+      <c r="H136" s="190"/>
+      <c r="I136" s="190"/>
+      <c r="J136" s="190"/>
+      <c r="K136" s="190"/>
+      <c r="L136" s="190"/>
+      <c r="M136" s="211"/>
+    </row>
+    <row r="137" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A137" s="193"/>
+      <c r="B137" s="208"/>
+      <c r="C137" s="199"/>
+      <c r="D137" s="205"/>
+      <c r="E137" s="128" t="s">
+        <v>170</v>
+      </c>
+      <c r="F137" s="130" t="s">
+        <v>224</v>
+      </c>
+      <c r="G137" s="190"/>
+      <c r="H137" s="190"/>
+      <c r="I137" s="190"/>
+      <c r="J137" s="190"/>
+      <c r="K137" s="190"/>
+      <c r="L137" s="190"/>
+      <c r="M137" s="211"/>
+    </row>
+    <row r="138" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A138" s="193"/>
+      <c r="B138" s="208"/>
+      <c r="C138" s="200"/>
+      <c r="D138" s="205"/>
+      <c r="E138" s="128" t="s">
+        <v>171</v>
+      </c>
+      <c r="F138" s="130" t="s">
+        <v>203</v>
+      </c>
+      <c r="G138" s="190"/>
+      <c r="H138" s="190"/>
+      <c r="I138" s="190"/>
+      <c r="J138" s="190"/>
+      <c r="K138" s="190"/>
+      <c r="L138" s="190"/>
+      <c r="M138" s="211"/>
+    </row>
+    <row r="139" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A139" s="193"/>
+      <c r="B139" s="208"/>
+      <c r="C139" s="198" t="s">
+        <v>195</v>
+      </c>
+      <c r="D139" s="205"/>
+      <c r="E139" s="128" t="s">
+        <v>169</v>
+      </c>
+      <c r="F139" s="130" t="s">
+        <v>202</v>
+      </c>
+      <c r="G139" s="190"/>
+      <c r="H139" s="190"/>
+      <c r="I139" s="190"/>
+      <c r="J139" s="190"/>
+      <c r="K139" s="190"/>
+      <c r="L139" s="190"/>
+      <c r="M139" s="211"/>
+    </row>
+    <row r="140" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A140" s="193"/>
+      <c r="B140" s="208"/>
+      <c r="C140" s="199"/>
+      <c r="D140" s="205"/>
+      <c r="E140" s="128" t="s">
+        <v>170</v>
+      </c>
+      <c r="F140" s="130" t="s">
+        <v>207</v>
+      </c>
+      <c r="G140" s="190"/>
+      <c r="H140" s="190"/>
+      <c r="I140" s="190"/>
+      <c r="J140" s="190"/>
+      <c r="K140" s="190"/>
+      <c r="L140" s="190"/>
+      <c r="M140" s="211"/>
+    </row>
+    <row r="141" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="193"/>
+      <c r="B141" s="208"/>
+      <c r="C141" s="200"/>
+      <c r="D141" s="205"/>
+      <c r="E141" s="128" t="s">
+        <v>171</v>
+      </c>
+      <c r="F141" s="130" t="s">
+        <v>211</v>
+      </c>
+      <c r="G141" s="190"/>
+      <c r="H141" s="190"/>
+      <c r="I141" s="190"/>
+      <c r="J141" s="190"/>
+      <c r="K141" s="190"/>
+      <c r="L141" s="190"/>
+      <c r="M141" s="211"/>
+    </row>
+    <row r="142" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A142" s="193"/>
+      <c r="B142" s="208"/>
+      <c r="C142" s="198" t="s">
+        <v>196</v>
+      </c>
+      <c r="D142" s="205"/>
+      <c r="E142" s="128" t="s">
+        <v>169</v>
+      </c>
+      <c r="F142" s="130" t="s">
+        <v>203</v>
+      </c>
+      <c r="G142" s="190"/>
+      <c r="H142" s="190"/>
+      <c r="I142" s="190"/>
+      <c r="J142" s="190"/>
+      <c r="K142" s="190"/>
+      <c r="L142" s="190"/>
+      <c r="M142" s="211"/>
+    </row>
+    <row r="143" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A143" s="193"/>
+      <c r="B143" s="208"/>
+      <c r="C143" s="199"/>
+      <c r="D143" s="205"/>
+      <c r="E143" s="128" t="s">
+        <v>170</v>
+      </c>
+      <c r="F143" s="130" t="s">
+        <v>205</v>
+      </c>
+      <c r="G143" s="190"/>
+      <c r="H143" s="190"/>
+      <c r="I143" s="190"/>
+      <c r="J143" s="190"/>
+      <c r="K143" s="190"/>
+      <c r="L143" s="190"/>
+      <c r="M143" s="211"/>
+    </row>
+    <row r="144" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A144" s="193"/>
+      <c r="B144" s="208"/>
+      <c r="C144" s="199"/>
+      <c r="D144" s="205"/>
+      <c r="E144" s="201" t="s">
+        <v>171</v>
+      </c>
+      <c r="F144" s="130" t="s">
+        <v>221</v>
+      </c>
+      <c r="G144" s="190"/>
+      <c r="H144" s="190"/>
+      <c r="I144" s="190"/>
+      <c r="J144" s="190"/>
+      <c r="K144" s="190"/>
+      <c r="L144" s="190"/>
+      <c r="M144" s="211"/>
+    </row>
+    <row r="145" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A145" s="193"/>
+      <c r="B145" s="208"/>
+      <c r="C145" s="200"/>
+      <c r="D145" s="205"/>
+      <c r="E145" s="202"/>
+      <c r="F145" s="130" t="s">
+        <v>208</v>
+      </c>
+      <c r="G145" s="190"/>
+      <c r="H145" s="190"/>
+      <c r="I145" s="190"/>
+      <c r="J145" s="190"/>
+      <c r="K145" s="190"/>
+      <c r="L145" s="190"/>
+      <c r="M145" s="211"/>
+    </row>
+    <row r="146" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A146" s="193"/>
+      <c r="B146" s="208"/>
+      <c r="C146" s="198" t="s">
+        <v>197</v>
+      </c>
+      <c r="D146" s="205"/>
+      <c r="E146" s="128" t="s">
+        <v>169</v>
+      </c>
+      <c r="F146" s="130" t="s">
+        <v>212</v>
+      </c>
+      <c r="G146" s="190"/>
+      <c r="H146" s="190"/>
+      <c r="I146" s="190"/>
+      <c r="J146" s="190"/>
+      <c r="K146" s="190"/>
+      <c r="L146" s="190"/>
+      <c r="M146" s="211"/>
+    </row>
+    <row r="147" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A147" s="193"/>
+      <c r="B147" s="208"/>
+      <c r="C147" s="199"/>
+      <c r="D147" s="205"/>
+      <c r="E147" s="128" t="s">
+        <v>170</v>
+      </c>
+      <c r="F147" s="130" t="s">
+        <v>225</v>
+      </c>
+      <c r="G147" s="190"/>
+      <c r="H147" s="190"/>
+      <c r="I147" s="190"/>
+      <c r="J147" s="190"/>
+      <c r="K147" s="190"/>
+      <c r="L147" s="190"/>
+      <c r="M147" s="211"/>
+    </row>
+    <row r="148" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="193"/>
+      <c r="B148" s="208"/>
+      <c r="C148" s="200"/>
+      <c r="D148" s="205"/>
+      <c r="E148" s="128" t="s">
+        <v>171</v>
+      </c>
+      <c r="F148" s="130" t="s">
+        <v>226</v>
+      </c>
+      <c r="G148" s="190"/>
+      <c r="H148" s="190"/>
+      <c r="I148" s="190"/>
+      <c r="J148" s="190"/>
+      <c r="K148" s="190"/>
+      <c r="L148" s="190"/>
+      <c r="M148" s="211"/>
+    </row>
+    <row r="149" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A149" s="193"/>
+      <c r="B149" s="208"/>
+      <c r="C149" s="198" t="s">
+        <v>198</v>
+      </c>
+      <c r="D149" s="205"/>
+      <c r="E149" s="128" t="s">
+        <v>169</v>
+      </c>
+      <c r="F149" s="130" t="s">
+        <v>227</v>
+      </c>
+      <c r="G149" s="190"/>
+      <c r="H149" s="190"/>
+      <c r="I149" s="190"/>
+      <c r="J149" s="190"/>
+      <c r="K149" s="190"/>
+      <c r="L149" s="190"/>
+      <c r="M149" s="211"/>
+    </row>
+    <row r="150" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="193"/>
+      <c r="B150" s="208"/>
+      <c r="C150" s="199"/>
+      <c r="D150" s="205"/>
+      <c r="E150" s="128" t="s">
+        <v>170</v>
+      </c>
+      <c r="F150" s="130" t="s">
+        <v>228</v>
+      </c>
+      <c r="G150" s="190"/>
+      <c r="H150" s="190"/>
+      <c r="I150" s="190"/>
+      <c r="J150" s="190"/>
+      <c r="K150" s="190"/>
+      <c r="L150" s="190"/>
+      <c r="M150" s="211"/>
+    </row>
+    <row r="151" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A151" s="193"/>
+      <c r="B151" s="208"/>
+      <c r="C151" s="200"/>
+      <c r="D151" s="205"/>
+      <c r="E151" s="128" t="s">
+        <v>171</v>
+      </c>
+      <c r="F151" s="130" t="s">
+        <v>229</v>
+      </c>
+      <c r="G151" s="190"/>
+      <c r="H151" s="190"/>
+      <c r="I151" s="190"/>
+      <c r="J151" s="190"/>
+      <c r="K151" s="190"/>
+      <c r="L151" s="190"/>
+      <c r="M151" s="211"/>
+    </row>
+    <row r="152" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A152" s="193"/>
+      <c r="B152" s="208"/>
+      <c r="C152" s="198" t="s">
+        <v>199</v>
+      </c>
+      <c r="D152" s="205"/>
+      <c r="E152" s="201" t="s">
+        <v>169</v>
+      </c>
+      <c r="F152" s="130" t="s">
+        <v>211</v>
+      </c>
+      <c r="G152" s="190"/>
+      <c r="H152" s="190"/>
+      <c r="I152" s="190"/>
+      <c r="J152" s="190"/>
+      <c r="K152" s="190"/>
+      <c r="L152" s="190"/>
+      <c r="M152" s="211"/>
+    </row>
+    <row r="153" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A153" s="193"/>
+      <c r="B153" s="208"/>
+      <c r="C153" s="199"/>
+      <c r="D153" s="205"/>
+      <c r="E153" s="202"/>
+      <c r="F153" s="130" t="s">
+        <v>227</v>
+      </c>
+      <c r="G153" s="190"/>
+      <c r="H153" s="190"/>
+      <c r="I153" s="190"/>
+      <c r="J153" s="190"/>
+      <c r="K153" s="190"/>
+      <c r="L153" s="190"/>
+      <c r="M153" s="211"/>
+    </row>
+    <row r="154" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A154" s="193"/>
+      <c r="B154" s="208"/>
+      <c r="C154" s="199"/>
+      <c r="D154" s="205"/>
+      <c r="E154" s="201" t="s">
+        <v>170</v>
+      </c>
+      <c r="F154" s="130" t="s">
+        <v>230</v>
+      </c>
+      <c r="G154" s="190"/>
+      <c r="H154" s="190"/>
+      <c r="I154" s="190"/>
+      <c r="J154" s="190"/>
+      <c r="K154" s="190"/>
+      <c r="L154" s="190"/>
+      <c r="M154" s="211"/>
+    </row>
+    <row r="155" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A155" s="193"/>
+      <c r="B155" s="208"/>
+      <c r="C155" s="199"/>
+      <c r="D155" s="205"/>
+      <c r="E155" s="203"/>
+      <c r="F155" s="130" t="s">
+        <v>231</v>
+      </c>
+      <c r="G155" s="190"/>
+      <c r="H155" s="190"/>
+      <c r="I155" s="190"/>
+      <c r="J155" s="190"/>
+      <c r="K155" s="190"/>
+      <c r="L155" s="190"/>
+      <c r="M155" s="211"/>
+    </row>
+    <row r="156" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A156" s="193"/>
+      <c r="B156" s="208"/>
+      <c r="C156" s="199"/>
+      <c r="D156" s="205"/>
+      <c r="E156" s="202"/>
+      <c r="F156" s="130" t="s">
+        <v>232</v>
+      </c>
+      <c r="G156" s="190"/>
+      <c r="H156" s="190"/>
+      <c r="I156" s="190"/>
+      <c r="J156" s="190"/>
+      <c r="K156" s="190"/>
+      <c r="L156" s="190"/>
+      <c r="M156" s="211"/>
+    </row>
+    <row r="157" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="193"/>
+      <c r="B157" s="209"/>
+      <c r="C157" s="200"/>
+      <c r="D157" s="206"/>
+      <c r="E157" s="128" t="s">
+        <v>171</v>
+      </c>
+      <c r="F157" s="130" t="s">
+        <v>217</v>
+      </c>
+      <c r="G157" s="191"/>
+      <c r="H157" s="191"/>
+      <c r="I157" s="191"/>
+      <c r="J157" s="191"/>
+      <c r="K157" s="191"/>
+      <c r="L157" s="191"/>
+      <c r="M157" s="214"/>
+    </row>
+    <row r="158" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="15"/>
+      <c r="B158" s="15"/>
+      <c r="C158" s="16"/>
+      <c r="D158" s="16"/>
+      <c r="E158" s="16"/>
+      <c r="F158" s="17"/>
+      <c r="G158" s="18"/>
+      <c r="H158" s="18"/>
+      <c r="I158" s="18"/>
+      <c r="J158" s="18"/>
+      <c r="K158" s="18"/>
+      <c r="L158" s="18"/>
+      <c r="M158" s="63"/>
+    </row>
+    <row r="159" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B159" s="119" t="s">
+        <v>1</v>
+      </c>
+      <c r="C159" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="D159" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E159" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="F159" s="122" t="s">
+        <v>3</v>
+      </c>
+      <c r="G159" s="123" t="s">
+        <v>24</v>
+      </c>
+      <c r="H159" s="123" t="s">
+        <v>23</v>
+      </c>
+      <c r="I159" s="123" t="s">
+        <v>25</v>
+      </c>
+      <c r="J159" s="123" t="s">
+        <v>26</v>
+      </c>
+      <c r="K159" s="123" t="s">
+        <v>27</v>
+      </c>
+      <c r="L159" s="123" t="s">
+        <v>28</v>
+      </c>
+      <c r="M159" s="117" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A160" s="169" t="s">
+        <v>21</v>
+      </c>
+      <c r="B160" s="168" t="s">
+        <v>299</v>
+      </c>
+      <c r="C160" s="124"/>
+      <c r="D160" s="125"/>
+      <c r="E160" s="126"/>
+      <c r="F160" s="126"/>
+      <c r="G160" s="127"/>
+      <c r="H160" s="127"/>
+      <c r="I160" s="127"/>
+      <c r="J160" s="127"/>
+      <c r="K160" s="127"/>
+      <c r="L160" s="127"/>
+      <c r="M160" s="167"/>
+    </row>
+    <row r="161" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A161" s="15"/>
+      <c r="B161" s="15"/>
+      <c r="C161" s="16"/>
+      <c r="D161" s="16"/>
+      <c r="E161" s="16"/>
+      <c r="F161" s="17"/>
+      <c r="G161" s="18"/>
+      <c r="H161" s="18"/>
+      <c r="I161" s="18"/>
+      <c r="J161" s="18"/>
+      <c r="K161" s="18"/>
+      <c r="L161" s="18"/>
+      <c r="M161" s="63"/>
+    </row>
+    <row r="162" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B162" s="119" t="s">
+        <v>1</v>
+      </c>
+      <c r="C162" s="120" t="s">
+        <v>2</v>
+      </c>
+      <c r="D162" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E162" s="121" t="s">
+        <v>3</v>
+      </c>
+      <c r="F162" s="122" t="s">
+        <v>3</v>
+      </c>
+      <c r="G162" s="123" t="s">
+        <v>24</v>
+      </c>
+      <c r="H162" s="123" t="s">
+        <v>23</v>
+      </c>
+      <c r="I162" s="123" t="s">
+        <v>25</v>
+      </c>
+      <c r="J162" s="123" t="s">
+        <v>26</v>
+      </c>
+      <c r="K162" s="123" t="s">
+        <v>27</v>
+      </c>
+      <c r="L162" s="123" t="s">
+        <v>28</v>
+      </c>
+      <c r="M162" s="117" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A163" s="169" t="s">
+        <v>21</v>
+      </c>
+      <c r="B163" s="168" t="s">
+        <v>300</v>
+      </c>
+      <c r="C163" s="124"/>
+      <c r="D163" s="125"/>
+      <c r="E163" s="126"/>
+      <c r="F163" s="126"/>
+      <c r="G163" s="127"/>
+      <c r="H163" s="127"/>
+      <c r="I163" s="127"/>
+      <c r="J163" s="127"/>
+      <c r="K163" s="127"/>
+      <c r="L163" s="127"/>
+      <c r="M163" s="167"/>
+    </row>
+    <row r="164" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A164" s="15"/>
+      <c r="B164" s="15"/>
+      <c r="C164" s="16"/>
+      <c r="D164" s="16"/>
+      <c r="E164" s="16"/>
+      <c r="F164" s="17"/>
+      <c r="G164" s="18"/>
+      <c r="H164" s="18"/>
+      <c r="I164" s="18"/>
+      <c r="J164" s="18"/>
+      <c r="K164" s="18"/>
+      <c r="L164" s="18"/>
+      <c r="M164" s="63"/>
+    </row>
+    <row r="165" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A165" s="171" t="s">
+        <v>0</v>
+      </c>
+      <c r="B165" s="172" t="s">
+        <v>1</v>
+      </c>
+      <c r="C165" s="173" t="s">
+        <v>2</v>
+      </c>
+      <c r="D165" s="174" t="s">
+        <v>4</v>
+      </c>
+      <c r="E165" s="175" t="s">
+        <v>3</v>
+      </c>
+      <c r="F165" s="176" t="s">
+        <v>3</v>
+      </c>
+      <c r="G165" s="177" t="s">
+        <v>24</v>
+      </c>
+      <c r="H165" s="177" t="s">
+        <v>23</v>
+      </c>
+      <c r="I165" s="177" t="s">
+        <v>25</v>
+      </c>
+      <c r="J165" s="177" t="s">
+        <v>26</v>
+      </c>
+      <c r="K165" s="177" t="s">
+        <v>27</v>
+      </c>
+      <c r="L165" s="177" t="s">
+        <v>28</v>
+      </c>
+      <c r="M165" s="117" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="178" t="s">
+        <v>21</v>
+      </c>
+      <c r="B166" s="179" t="s">
+        <v>301</v>
+      </c>
+      <c r="C166" s="180"/>
+      <c r="D166" s="181"/>
+      <c r="E166" s="182"/>
+      <c r="F166" s="182"/>
+      <c r="G166" s="127"/>
+      <c r="H166" s="127"/>
+      <c r="I166" s="127"/>
+      <c r="J166" s="127"/>
+      <c r="K166" s="127"/>
+      <c r="L166" s="127"/>
+      <c r="M166" s="183"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="M5:M23"/>
-    <mergeCell ref="M26:M50"/>
-    <mergeCell ref="A26:A50"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="C40:C43"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="C44:C45"/>
-    <mergeCell ref="C46:C47"/>
-    <mergeCell ref="B26:B50"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="B5:B23"/>
-    <mergeCell ref="A5:A23"/>
-    <mergeCell ref="C14:C19"/>
-    <mergeCell ref="E14:E16"/>
+  <mergeCells count="70">
+    <mergeCell ref="B29:B53"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B8:B26"/>
+    <mergeCell ref="A8:A26"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="M8:M26"/>
+    <mergeCell ref="M29:M53"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
     <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="M63:M157"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="M56:M60"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="B63:B157"/>
+    <mergeCell ref="C112:C114"/>
+    <mergeCell ref="C115:C117"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="E154:E156"/>
+    <mergeCell ref="D63:D157"/>
+    <mergeCell ref="C133:C135"/>
+    <mergeCell ref="C136:C138"/>
+    <mergeCell ref="C139:C141"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="C146:C148"/>
+    <mergeCell ref="C118:C120"/>
+    <mergeCell ref="C121:C123"/>
+    <mergeCell ref="C124:C126"/>
+    <mergeCell ref="C127:C129"/>
+    <mergeCell ref="C130:C132"/>
+    <mergeCell ref="C100:C104"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="J63:J157"/>
+    <mergeCell ref="K63:K157"/>
+    <mergeCell ref="L63:L157"/>
+    <mergeCell ref="A63:A157"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="A29:A53"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="G63:G157"/>
+    <mergeCell ref="H63:H157"/>
+    <mergeCell ref="I63:I157"/>
+    <mergeCell ref="C149:C151"/>
+    <mergeCell ref="C152:C157"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="E91:E92"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
+  <dimension ref="A1:N43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7:F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.140625" customWidth="1"/>
+    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="28.42578125" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="8.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="224" t="s">
+        <v>276</v>
+      </c>
+      <c r="B1" s="224"/>
+      <c r="C1" s="224"/>
+      <c r="D1" s="224"/>
+      <c r="E1" s="224"/>
+      <c r="F1" s="224"/>
+      <c r="G1" s="224"/>
+      <c r="H1" s="224"/>
+      <c r="I1" s="224"/>
+      <c r="J1" s="224"/>
+      <c r="K1" s="224"/>
+      <c r="L1" s="224"/>
+      <c r="M1" s="224"/>
+      <c r="N1" s="224"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="131"/>
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="131"/>
+      <c r="F2" s="131"/>
+      <c r="G2" s="131"/>
+      <c r="H2" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="I2" s="132" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="132" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="132" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="132" t="s">
+        <v>233</v>
+      </c>
+      <c r="M2" s="132" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="131"/>
+    </row>
+    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="131"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="131"/>
+      <c r="F3" s="131"/>
+      <c r="G3" s="131"/>
+      <c r="H3" s="133" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" s="133" t="s">
+        <v>32</v>
+      </c>
+      <c r="J3" s="133" t="s">
+        <v>32</v>
+      </c>
+      <c r="K3" s="133" t="s">
+        <v>234</v>
+      </c>
+      <c r="L3" s="133" t="s">
+        <v>36</v>
+      </c>
+      <c r="M3" s="133"/>
+      <c r="N3" s="131"/>
+    </row>
+    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="131"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="136"/>
+      <c r="G4" s="136"/>
+      <c r="H4" s="239" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="240"/>
+      <c r="J4" s="240"/>
+      <c r="K4" s="240"/>
+      <c r="L4" s="240"/>
+      <c r="M4" s="241"/>
+      <c r="N4" s="137"/>
+    </row>
+    <row r="5" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="139" t="s">
+        <v>235</v>
+      </c>
+      <c r="C5" s="140" t="s">
+        <v>236</v>
+      </c>
+      <c r="D5" s="141" t="s">
+        <v>236</v>
+      </c>
+      <c r="E5" s="142" t="s">
+        <v>237</v>
+      </c>
+      <c r="F5" s="142" t="s">
+        <v>238</v>
+      </c>
+      <c r="G5" s="142" t="s">
+        <v>277</v>
+      </c>
+      <c r="H5" s="143" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="143" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="143" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="143" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="143" t="s">
+        <v>27</v>
+      </c>
+      <c r="M5" s="144" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="142" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="223" t="s">
+        <v>240</v>
+      </c>
+      <c r="B6" s="233" t="s">
+        <v>241</v>
+      </c>
+      <c r="C6" s="145" t="s">
+        <v>242</v>
+      </c>
+      <c r="D6" s="146" t="s">
+        <v>243</v>
+      </c>
+      <c r="E6" s="242" t="s">
+        <v>244</v>
+      </c>
+      <c r="F6" s="147">
+        <v>1</v>
+      </c>
+      <c r="G6" s="147" t="s">
+        <v>242</v>
+      </c>
+      <c r="H6" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="185"/>
+      <c r="K6" s="185"/>
+      <c r="L6" s="185"/>
+      <c r="M6" s="185"/>
+      <c r="N6" s="242" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="223"/>
+      <c r="B7" s="233"/>
+      <c r="C7" s="227" t="s">
+        <v>245</v>
+      </c>
+      <c r="D7" s="225" t="s">
+        <v>243</v>
+      </c>
+      <c r="E7" s="243"/>
+      <c r="F7" s="254">
+        <v>2</v>
+      </c>
+      <c r="G7" s="147" t="s">
+        <v>278</v>
+      </c>
+      <c r="H7" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="185"/>
+      <c r="K7" s="185"/>
+      <c r="L7" s="185"/>
+      <c r="M7" s="185"/>
+      <c r="N7" s="243"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="223"/>
+      <c r="B8" s="233"/>
+      <c r="C8" s="228"/>
+      <c r="D8" s="226"/>
+      <c r="E8" s="243"/>
+      <c r="F8" s="255"/>
+      <c r="G8" s="147" t="s">
+        <v>279</v>
+      </c>
+      <c r="H8" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="185"/>
+      <c r="K8" s="185"/>
+      <c r="L8" s="185"/>
+      <c r="M8" s="185"/>
+      <c r="N8" s="243"/>
+    </row>
+    <row r="9" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="223"/>
+      <c r="B9" s="233"/>
+      <c r="C9" s="148" t="s">
+        <v>246</v>
+      </c>
+      <c r="D9" s="146" t="s">
+        <v>243</v>
+      </c>
+      <c r="E9" s="243"/>
+      <c r="F9" s="147">
+        <v>1</v>
+      </c>
+      <c r="G9" s="253" t="s">
+        <v>280</v>
+      </c>
+      <c r="H9" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="149"/>
+      <c r="K9" s="149"/>
+      <c r="L9" s="149"/>
+      <c r="M9" s="150"/>
+      <c r="N9" s="243"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="223"/>
+      <c r="B10" s="233"/>
+      <c r="C10" s="238" t="s">
+        <v>247</v>
+      </c>
+      <c r="D10" s="151" t="s">
+        <v>248</v>
+      </c>
+      <c r="E10" s="243"/>
+      <c r="F10" s="147">
+        <v>1</v>
+      </c>
+      <c r="G10" s="147" t="s">
+        <v>248</v>
+      </c>
+      <c r="H10" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="149"/>
+      <c r="K10" s="149"/>
+      <c r="L10" s="149"/>
+      <c r="M10" s="150"/>
+      <c r="N10" s="243"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="223"/>
+      <c r="B11" s="233"/>
+      <c r="C11" s="238"/>
+      <c r="D11" s="151" t="s">
+        <v>249</v>
+      </c>
+      <c r="E11" s="243"/>
+      <c r="F11" s="147">
+        <v>1</v>
+      </c>
+      <c r="G11" s="147" t="s">
+        <v>281</v>
+      </c>
+      <c r="H11" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="149"/>
+      <c r="K11" s="149"/>
+      <c r="L11" s="149"/>
+      <c r="M11" s="150"/>
+      <c r="N11" s="243"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="223"/>
+      <c r="B12" s="233"/>
+      <c r="C12" s="238"/>
+      <c r="D12" s="151" t="s">
+        <v>250</v>
+      </c>
+      <c r="E12" s="243"/>
+      <c r="F12" s="147">
+        <v>1</v>
+      </c>
+      <c r="G12" s="147" t="s">
+        <v>250</v>
+      </c>
+      <c r="H12" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="149"/>
+      <c r="K12" s="149"/>
+      <c r="L12" s="149"/>
+      <c r="M12" s="150"/>
+      <c r="N12" s="243"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="223"/>
+      <c r="B13" s="233"/>
+      <c r="C13" s="238"/>
+      <c r="D13" s="151" t="s">
+        <v>251</v>
+      </c>
+      <c r="E13" s="243"/>
+      <c r="F13" s="147">
+        <v>1</v>
+      </c>
+      <c r="G13" s="147" t="s">
+        <v>251</v>
+      </c>
+      <c r="H13" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="149"/>
+      <c r="K13" s="149"/>
+      <c r="L13" s="149"/>
+      <c r="M13" s="150"/>
+      <c r="N13" s="243"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="223"/>
+      <c r="B14" s="233"/>
+      <c r="C14" s="238"/>
+      <c r="D14" s="151" t="s">
+        <v>252</v>
+      </c>
+      <c r="E14" s="243"/>
+      <c r="F14" s="147">
+        <v>1</v>
+      </c>
+      <c r="G14" s="147" t="s">
+        <v>252</v>
+      </c>
+      <c r="H14" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="149"/>
+      <c r="K14" s="149"/>
+      <c r="L14" s="149"/>
+      <c r="M14" s="150"/>
+      <c r="N14" s="243"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="223"/>
+      <c r="B15" s="233"/>
+      <c r="C15" s="238"/>
+      <c r="D15" s="151" t="s">
+        <v>253</v>
+      </c>
+      <c r="E15" s="243"/>
+      <c r="F15" s="147">
+        <v>1</v>
+      </c>
+      <c r="G15" s="147" t="s">
+        <v>253</v>
+      </c>
+      <c r="H15" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="149"/>
+      <c r="K15" s="149"/>
+      <c r="L15" s="149"/>
+      <c r="M15" s="150"/>
+      <c r="N15" s="243"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="223"/>
+      <c r="B16" s="233"/>
+      <c r="C16" s="238"/>
+      <c r="D16" s="151" t="s">
+        <v>254</v>
+      </c>
+      <c r="E16" s="243"/>
+      <c r="F16" s="147">
+        <v>1</v>
+      </c>
+      <c r="G16" s="147" t="s">
+        <v>254</v>
+      </c>
+      <c r="H16" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="149"/>
+      <c r="K16" s="149"/>
+      <c r="L16" s="149"/>
+      <c r="M16" s="150"/>
+      <c r="N16" s="243"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="223"/>
+      <c r="B17" s="233"/>
+      <c r="C17" s="238" t="s">
+        <v>255</v>
+      </c>
+      <c r="D17" s="151" t="s">
+        <v>256</v>
+      </c>
+      <c r="E17" s="243"/>
+      <c r="F17" s="147">
+        <v>1</v>
+      </c>
+      <c r="G17" s="147" t="s">
+        <v>256</v>
+      </c>
+      <c r="H17" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="149"/>
+      <c r="K17" s="149"/>
+      <c r="L17" s="149"/>
+      <c r="M17" s="150"/>
+      <c r="N17" s="243"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="223"/>
+      <c r="B18" s="233"/>
+      <c r="C18" s="238"/>
+      <c r="D18" s="151" t="s">
+        <v>257</v>
+      </c>
+      <c r="E18" s="243"/>
+      <c r="F18" s="147">
+        <v>1</v>
+      </c>
+      <c r="G18" s="147" t="s">
+        <v>257</v>
+      </c>
+      <c r="H18" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="149"/>
+      <c r="K18" s="149"/>
+      <c r="L18" s="149"/>
+      <c r="M18" s="150"/>
+      <c r="N18" s="243"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="223"/>
+      <c r="B19" s="233"/>
+      <c r="C19" s="238"/>
+      <c r="D19" s="151" t="s">
+        <v>258</v>
+      </c>
+      <c r="E19" s="243"/>
+      <c r="F19" s="147">
+        <v>1</v>
+      </c>
+      <c r="G19" s="147" t="s">
+        <v>258</v>
+      </c>
+      <c r="H19" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="149"/>
+      <c r="K19" s="149"/>
+      <c r="L19" s="149"/>
+      <c r="M19" s="150"/>
+      <c r="N19" s="243"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="223"/>
+      <c r="B20" s="233"/>
+      <c r="C20" s="238"/>
+      <c r="D20" s="151" t="s">
+        <v>259</v>
+      </c>
+      <c r="E20" s="243"/>
+      <c r="F20" s="147">
+        <v>1</v>
+      </c>
+      <c r="G20" s="147" t="s">
+        <v>259</v>
+      </c>
+      <c r="H20" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="149"/>
+      <c r="K20" s="149"/>
+      <c r="L20" s="149"/>
+      <c r="M20" s="150"/>
+      <c r="N20" s="243"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="223"/>
+      <c r="B21" s="233"/>
+      <c r="C21" s="238"/>
+      <c r="D21" s="151" t="s">
+        <v>260</v>
+      </c>
+      <c r="E21" s="244"/>
+      <c r="F21" s="147">
+        <v>1</v>
+      </c>
+      <c r="G21" s="147" t="s">
+        <v>260</v>
+      </c>
+      <c r="H21" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="149"/>
+      <c r="K21" s="149"/>
+      <c r="L21" s="149"/>
+      <c r="M21" s="150"/>
+      <c r="N21" s="244"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="152" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="153" t="s">
+        <v>235</v>
+      </c>
+      <c r="C22" s="154" t="s">
+        <v>261</v>
+      </c>
+      <c r="D22" s="155" t="s">
+        <v>236</v>
+      </c>
+      <c r="E22" s="156"/>
+      <c r="F22" s="157"/>
+      <c r="G22" s="157"/>
+      <c r="H22" s="158"/>
+      <c r="I22" s="158"/>
+      <c r="J22" s="158"/>
+      <c r="K22" s="158"/>
+      <c r="L22" s="158"/>
+      <c r="M22" s="159"/>
+      <c r="N22" s="156"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="223" t="s">
+        <v>240</v>
+      </c>
+      <c r="B23" s="233" t="s">
+        <v>262</v>
+      </c>
+      <c r="C23" s="234" t="s">
+        <v>263</v>
+      </c>
+      <c r="D23" s="151" t="s">
+        <v>264</v>
+      </c>
+      <c r="E23" s="235" t="s">
+        <v>244</v>
+      </c>
+      <c r="F23" s="147">
+        <v>1</v>
+      </c>
+      <c r="G23" s="147" t="s">
+        <v>282</v>
+      </c>
+      <c r="H23" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="149"/>
+      <c r="K23" s="149"/>
+      <c r="L23" s="149"/>
+      <c r="M23" s="150"/>
+      <c r="N23" s="235" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="223"/>
+      <c r="B24" s="233"/>
+      <c r="C24" s="234"/>
+      <c r="D24" s="151" t="s">
+        <v>265</v>
+      </c>
+      <c r="E24" s="236"/>
+      <c r="F24" s="164"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="184"/>
+      <c r="I24" s="184"/>
+      <c r="J24" s="149"/>
+      <c r="K24" s="149"/>
+      <c r="L24" s="149"/>
+      <c r="M24" s="150"/>
+      <c r="N24" s="236"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="223"/>
+      <c r="B25" s="233"/>
+      <c r="C25" s="234" t="s">
+        <v>266</v>
+      </c>
+      <c r="D25" s="151" t="s">
+        <v>264</v>
+      </c>
+      <c r="E25" s="236"/>
+      <c r="F25" s="147">
+        <v>1</v>
+      </c>
+      <c r="G25" s="147" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="J25" s="149"/>
+      <c r="K25" s="149"/>
+      <c r="L25" s="149"/>
+      <c r="M25" s="150"/>
+      <c r="N25" s="236"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="223"/>
+      <c r="B26" s="233"/>
+      <c r="C26" s="234"/>
+      <c r="D26" s="151" t="s">
+        <v>267</v>
+      </c>
+      <c r="E26" s="236"/>
+      <c r="F26" s="253"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="184"/>
+      <c r="I26" s="184"/>
+      <c r="J26" s="149"/>
+      <c r="K26" s="149"/>
+      <c r="L26" s="149"/>
+      <c r="M26" s="149"/>
+      <c r="N26" s="236"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="223"/>
+      <c r="B27" s="233"/>
+      <c r="C27" s="234"/>
+      <c r="D27" s="151" t="s">
+        <v>268</v>
+      </c>
+      <c r="E27" s="236"/>
+      <c r="F27" s="164"/>
+      <c r="G27" s="147"/>
+      <c r="H27" s="184"/>
+      <c r="I27" s="184"/>
+      <c r="J27" s="160"/>
+      <c r="K27" s="160"/>
+      <c r="L27" s="160"/>
+      <c r="M27" s="161"/>
+      <c r="N27" s="236"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="223"/>
+      <c r="B28" s="233"/>
+      <c r="C28" s="234" t="s">
+        <v>269</v>
+      </c>
+      <c r="D28" s="151" t="s">
+        <v>264</v>
+      </c>
+      <c r="E28" s="236"/>
+      <c r="F28" s="147">
+        <v>1</v>
+      </c>
+      <c r="G28" s="147" t="s">
+        <v>60</v>
+      </c>
+      <c r="H28" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="185"/>
+      <c r="K28" s="185"/>
+      <c r="L28" s="185"/>
+      <c r="M28" s="186"/>
+      <c r="N28" s="236"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="223"/>
+      <c r="B29" s="233"/>
+      <c r="C29" s="234"/>
+      <c r="D29" s="151" t="s">
+        <v>267</v>
+      </c>
+      <c r="E29" s="236"/>
+      <c r="F29" s="164"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="184"/>
+      <c r="I29" s="184"/>
+      <c r="J29" s="185"/>
+      <c r="K29" s="185"/>
+      <c r="L29" s="185"/>
+      <c r="M29" s="186"/>
+      <c r="N29" s="236"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="223"/>
+      <c r="B30" s="233"/>
+      <c r="C30" s="234" t="s">
+        <v>270</v>
+      </c>
+      <c r="D30" s="151" t="s">
+        <v>264</v>
+      </c>
+      <c r="E30" s="236"/>
+      <c r="F30" s="147">
+        <v>1</v>
+      </c>
+      <c r="G30" s="147" t="s">
+        <v>283</v>
+      </c>
+      <c r="H30" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" s="185"/>
+      <c r="K30" s="185"/>
+      <c r="L30" s="185"/>
+      <c r="M30" s="186"/>
+      <c r="N30" s="236"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="223"/>
+      <c r="B31" s="233"/>
+      <c r="C31" s="234"/>
+      <c r="D31" s="151" t="s">
+        <v>267</v>
+      </c>
+      <c r="E31" s="236"/>
+      <c r="F31" s="147">
+        <v>1</v>
+      </c>
+      <c r="G31" s="147" t="s">
+        <v>284</v>
+      </c>
+      <c r="H31" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="J31" s="185"/>
+      <c r="K31" s="185"/>
+      <c r="L31" s="185"/>
+      <c r="M31" s="186"/>
+      <c r="N31" s="236"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="223"/>
+      <c r="B32" s="233"/>
+      <c r="C32" s="238" t="s">
+        <v>271</v>
+      </c>
+      <c r="D32" s="151" t="s">
+        <v>264</v>
+      </c>
+      <c r="E32" s="236"/>
+      <c r="F32" s="147">
+        <v>1</v>
+      </c>
+      <c r="G32" s="147" t="s">
+        <v>285</v>
+      </c>
+      <c r="H32" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="J32" s="185"/>
+      <c r="K32" s="185"/>
+      <c r="L32" s="185"/>
+      <c r="M32" s="186"/>
+      <c r="N32" s="236"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="223"/>
+      <c r="B33" s="233"/>
+      <c r="C33" s="238"/>
+      <c r="D33" s="151" t="s">
+        <v>267</v>
+      </c>
+      <c r="E33" s="236"/>
+      <c r="F33" s="147">
+        <v>1</v>
+      </c>
+      <c r="G33" s="147" t="s">
+        <v>286</v>
+      </c>
+      <c r="H33" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="I33" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="J33" s="185"/>
+      <c r="K33" s="185"/>
+      <c r="L33" s="185"/>
+      <c r="M33" s="186"/>
+      <c r="N33" s="236"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="223"/>
+      <c r="B34" s="233"/>
+      <c r="C34" s="234" t="s">
+        <v>272</v>
+      </c>
+      <c r="D34" s="151" t="s">
+        <v>264</v>
+      </c>
+      <c r="E34" s="236"/>
+      <c r="F34" s="147">
+        <v>1</v>
+      </c>
+      <c r="G34" s="147" t="s">
+        <v>61</v>
+      </c>
+      <c r="H34" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="J34" s="185"/>
+      <c r="K34" s="185"/>
+      <c r="L34" s="185"/>
+      <c r="M34" s="186"/>
+      <c r="N34" s="236"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="223"/>
+      <c r="B35" s="233"/>
+      <c r="C35" s="234"/>
+      <c r="D35" s="151" t="s">
+        <v>267</v>
+      </c>
+      <c r="E35" s="237"/>
+      <c r="F35" s="147">
+        <v>1</v>
+      </c>
+      <c r="G35" s="147" t="s">
+        <v>287</v>
+      </c>
+      <c r="H35" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="I35" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="J35" s="185"/>
+      <c r="K35" s="185"/>
+      <c r="L35" s="185"/>
+      <c r="M35" s="186"/>
+      <c r="N35" s="237"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="138" t="s">
+        <v>0</v>
+      </c>
+      <c r="B36" s="153" t="s">
+        <v>235</v>
+      </c>
+      <c r="C36" s="162"/>
+      <c r="D36" s="163"/>
+      <c r="E36" s="156"/>
+      <c r="F36" s="157"/>
+      <c r="G36" s="157"/>
+      <c r="H36" s="187"/>
+      <c r="I36" s="187"/>
+      <c r="J36" s="187"/>
+      <c r="K36" s="187"/>
+      <c r="L36" s="187"/>
+      <c r="M36" s="188"/>
+      <c r="N36" s="156"/>
+    </row>
+    <row r="37" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="223" t="s">
+        <v>240</v>
+      </c>
+      <c r="B37" s="232" t="s">
+        <v>273</v>
+      </c>
+      <c r="C37" s="231"/>
+      <c r="D37" s="230"/>
+      <c r="E37" s="229" t="s">
+        <v>244</v>
+      </c>
+      <c r="F37" s="229">
+        <v>6</v>
+      </c>
+      <c r="G37" s="165" t="s">
+        <v>288</v>
+      </c>
+      <c r="H37" s="221" t="s">
+        <v>49</v>
+      </c>
+      <c r="I37" s="221" t="s">
+        <v>49</v>
+      </c>
+      <c r="J37" s="221"/>
+      <c r="K37" s="221"/>
+      <c r="L37" s="221"/>
+      <c r="M37" s="221"/>
+      <c r="N37" s="222" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="223"/>
+      <c r="B38" s="232"/>
+      <c r="C38" s="231"/>
+      <c r="D38" s="230"/>
+      <c r="E38" s="229"/>
+      <c r="F38" s="229"/>
+      <c r="G38" s="165" t="s">
+        <v>289</v>
+      </c>
+      <c r="H38" s="221"/>
+      <c r="I38" s="221"/>
+      <c r="J38" s="221"/>
+      <c r="K38" s="221"/>
+      <c r="L38" s="221"/>
+      <c r="M38" s="221"/>
+      <c r="N38" s="222"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="223"/>
+      <c r="B39" s="232"/>
+      <c r="C39" s="231"/>
+      <c r="D39" s="230"/>
+      <c r="E39" s="229"/>
+      <c r="F39" s="229"/>
+      <c r="G39" s="165" t="s">
+        <v>290</v>
+      </c>
+      <c r="H39" s="221"/>
+      <c r="I39" s="221"/>
+      <c r="J39" s="221"/>
+      <c r="K39" s="221"/>
+      <c r="L39" s="221"/>
+      <c r="M39" s="221"/>
+      <c r="N39" s="222"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="223"/>
+      <c r="B40" s="232"/>
+      <c r="C40" s="231"/>
+      <c r="D40" s="230"/>
+      <c r="E40" s="229"/>
+      <c r="F40" s="229"/>
+      <c r="G40" s="165" t="s">
+        <v>293</v>
+      </c>
+      <c r="H40" s="221"/>
+      <c r="I40" s="221"/>
+      <c r="J40" s="221"/>
+      <c r="K40" s="221"/>
+      <c r="L40" s="221"/>
+      <c r="M40" s="221"/>
+      <c r="N40" s="222"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="223"/>
+      <c r="B41" s="232"/>
+      <c r="C41" s="231"/>
+      <c r="D41" s="230"/>
+      <c r="E41" s="229"/>
+      <c r="F41" s="229"/>
+      <c r="G41" s="165" t="s">
+        <v>291</v>
+      </c>
+      <c r="H41" s="221"/>
+      <c r="I41" s="221"/>
+      <c r="J41" s="221"/>
+      <c r="K41" s="221"/>
+      <c r="L41" s="221"/>
+      <c r="M41" s="221"/>
+      <c r="N41" s="222"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="223"/>
+      <c r="B42" s="232"/>
+      <c r="C42" s="231"/>
+      <c r="D42" s="230"/>
+      <c r="E42" s="229"/>
+      <c r="F42" s="229"/>
+      <c r="G42" s="165" t="s">
+        <v>292</v>
+      </c>
+      <c r="H42" s="221"/>
+      <c r="I42" s="221"/>
+      <c r="J42" s="221"/>
+      <c r="K42" s="221"/>
+      <c r="L42" s="221"/>
+      <c r="M42" s="221"/>
+      <c r="N42" s="222"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+    </row>
+  </sheetData>
+  <mergeCells count="34">
+    <mergeCell ref="N6:N21"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="A6:A21"/>
+    <mergeCell ref="B6:B21"/>
+    <mergeCell ref="E6:E21"/>
+    <mergeCell ref="A1:N1"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F37:F42"/>
+    <mergeCell ref="E37:E42"/>
+    <mergeCell ref="D37:D42"/>
+    <mergeCell ref="C37:C42"/>
+    <mergeCell ref="B37:B42"/>
+    <mergeCell ref="A23:A35"/>
+    <mergeCell ref="B23:B35"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="E23:E35"/>
+    <mergeCell ref="N23:N35"/>
+    <mergeCell ref="C25:C27"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="M37:M42"/>
+    <mergeCell ref="N37:N42"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="H37:H42"/>
+    <mergeCell ref="I37:I42"/>
+    <mergeCell ref="J37:J42"/>
+    <mergeCell ref="K37:K42"/>
+    <mergeCell ref="L37:L42"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="17.77734375" customWidth="1"/>
-    <col min="3" max="3" width="27.77734375" customWidth="1"/>
-    <col min="4" max="4" width="32.44140625" customWidth="1"/>
-    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="3" max="3" width="27.7109375" customWidth="1"/>
+    <col min="4" max="4" width="32.42578125" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="5.6640625" style="64" customWidth="1"/>
-    <col min="8" max="8" width="5.77734375" customWidth="1"/>
+    <col min="7" max="7" width="5.7109375" style="64" customWidth="1"/>
+    <col min="8" max="8" width="5.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="91" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="B1" s="91" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="92"/>
-    </row>
-    <row r="2" spans="1:7" s="91" customFormat="1" ht="6.6" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G2" s="92"/>
-    </row>
-    <row r="3" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="90" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A1" s="251" t="s">
+        <v>302</v>
+      </c>
+      <c r="B1" s="251"/>
+      <c r="C1" s="251"/>
+      <c r="D1" s="251"/>
+      <c r="E1" s="251"/>
+      <c r="F1" s="251"/>
+      <c r="G1" s="251"/>
+      <c r="H1" s="251"/>
+    </row>
+    <row r="2" spans="1:8" s="90" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G2" s="91"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="74" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B3" s="74" t="s">
         <v>97</v>
@@ -3071,268 +7636,268 @@
         <v>99</v>
       </c>
       <c r="E3" s="74" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="101" t="s">
-        <v>122</v>
-      </c>
-      <c r="B4" s="96" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="100" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="95" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="80" t="s">
+      <c r="C4" s="79" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="25"/>
+      <c r="C5" s="79"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="82" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="B5" s="25"/>
-      <c r="C5" s="80"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C6" s="83" t="s">
+      <c r="D6" s="81" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="83"/>
+      <c r="D7" s="81" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="30" t="s">
         <v>143</v>
-      </c>
-      <c r="D6" s="82" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C7" s="84"/>
-      <c r="D7" s="82" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C8" s="30" t="s">
-        <v>144</v>
       </c>
       <c r="D8" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="87"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="E8" s="86"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C9" s="30"/>
       <c r="D9" s="41" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C10" s="31" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D10" s="42" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C11" s="31"/>
       <c r="D11" s="42" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C12" s="43" t="s">
+        <v>145</v>
+      </c>
+      <c r="D12" s="87" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="43"/>
+      <c r="D13" s="87" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="86"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="D12" s="88" t="s">
+      <c r="D14" s="88" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C13" s="43"/>
-      <c r="D13" s="88" t="s">
+      <c r="E14" s="86"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="50"/>
+      <c r="D15" s="88" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="87"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C14" s="50" t="s">
+      <c r="E15" s="86"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="56" t="s">
         <v>147</v>
-      </c>
-      <c r="D14" s="89" t="s">
-        <v>108</v>
-      </c>
-      <c r="E14" s="87"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C15" s="50"/>
-      <c r="D15" s="89" t="s">
-        <v>109</v>
-      </c>
-      <c r="E15" s="87"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C16" s="56" t="s">
-        <v>148</v>
       </c>
       <c r="D16" s="52" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C17" s="56"/>
       <c r="D17" s="52" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C18" s="139" t="s">
-        <v>149</v>
-      </c>
-      <c r="D18" s="90" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C18" s="248" t="s">
+        <v>148</v>
+      </c>
+      <c r="D18" s="89" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C19" s="140"/>
-      <c r="D19" s="90" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C19" s="249"/>
+      <c r="D19" s="89" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="86" t="s">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="C20" s="85" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="105" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="104" t="s">
+    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="104" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="103" t="s">
+        <v>124</v>
+      </c>
+      <c r="C22" s="105">
+        <v>8</v>
+      </c>
+      <c r="D22" s="105" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="103" t="s">
         <v>125</v>
       </c>
-      <c r="C22" s="106">
-        <v>8</v>
-      </c>
-      <c r="D22" s="106" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="104" t="s">
+      <c r="C23" s="96" t="s">
         <v>126</v>
       </c>
-      <c r="C23" s="97" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E24" s="87"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E24" s="86"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="25"/>
       <c r="C25" s="25"/>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="101" t="s">
-        <v>123</v>
-      </c>
-      <c r="B27" s="96" t="s">
-        <v>141</v>
-      </c>
-      <c r="C27" s="81" t="s">
+    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:7" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="100" t="s">
+        <v>122</v>
+      </c>
+      <c r="B27" s="95" t="s">
+        <v>140</v>
+      </c>
+      <c r="C27" s="80" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="81" t="s">
-        <v>161</v>
-      </c>
-      <c r="E27" s="142" t="s">
+      <c r="D27" s="80" t="s">
         <v>160</v>
       </c>
+      <c r="E27" s="118" t="s">
+        <v>159</v>
+      </c>
       <c r="G27" s="67"/>
     </row>
-    <row r="28" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="55" t="s">
         <v>102</v>
       </c>
       <c r="G28" s="68"/>
     </row>
-    <row r="29" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="38" t="s">
         <v>111</v>
       </c>
       <c r="D29" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="85">
+      <c r="E29" s="84">
         <v>1</v>
       </c>
-      <c r="F29" s="85" t="s">
-        <v>130</v>
+      <c r="F29" s="84" t="s">
+        <v>129</v>
       </c>
       <c r="G29" s="69"/>
     </row>
-    <row r="30" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="39"/>
       <c r="D30" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="85">
+      <c r="E30" s="84">
         <v>1</v>
       </c>
-      <c r="F30" s="85" t="s">
-        <v>130</v>
+      <c r="F30" s="84" t="s">
+        <v>129</v>
       </c>
       <c r="G30" s="69"/>
     </row>
-    <row r="31" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="39"/>
       <c r="D31" s="41" t="s">
-        <v>132</v>
-      </c>
-      <c r="E31" s="85">
+        <v>131</v>
+      </c>
+      <c r="E31" s="84">
         <v>1</v>
       </c>
-      <c r="F31" s="85" t="s">
-        <v>130</v>
+      <c r="F31" s="84" t="s">
+        <v>129</v>
       </c>
       <c r="G31" s="69"/>
     </row>
-    <row r="32" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="39"/>
       <c r="D32" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="E32" s="85">
+      <c r="E32" s="84">
         <v>1</v>
       </c>
-      <c r="F32" s="85" t="s">
+      <c r="F32" s="84" t="s">
         <v>112</v>
       </c>
       <c r="G32" s="69"/>
     </row>
-    <row r="33" spans="3:9" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="39"/>
       <c r="D33" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="85">
+      <c r="E33" s="84">
         <v>1</v>
       </c>
-      <c r="F33" s="85" t="s">
+      <c r="F33" s="84" t="s">
         <v>112</v>
       </c>
       <c r="G33" s="69"/>
     </row>
-    <row r="34" spans="3:9" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="40"/>
       <c r="D34" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="E34" s="85">
+      <c r="E34" s="84">
         <v>1</v>
       </c>
-      <c r="F34" s="85" t="s">
-        <v>131</v>
+      <c r="F34" s="84" t="s">
+        <v>130</v>
       </c>
       <c r="G34" s="69"/>
     </row>
-    <row r="35" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="35" t="s">
         <v>103</v>
       </c>
@@ -3344,7 +7909,7 @@
       </c>
       <c r="G35" s="70"/>
     </row>
-    <row r="36" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="36"/>
       <c r="D36" s="33"/>
       <c r="E36" s="42" t="s">
@@ -3352,7 +7917,7 @@
       </c>
       <c r="G36" s="70"/>
     </row>
-    <row r="37" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="36"/>
       <c r="D37" s="33"/>
       <c r="E37" s="42" t="s">
@@ -3360,7 +7925,7 @@
       </c>
       <c r="G37" s="70"/>
     </row>
-    <row r="38" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="36"/>
       <c r="D38" s="33"/>
       <c r="E38" s="42" t="s">
@@ -3368,7 +7933,7 @@
       </c>
       <c r="G38" s="70"/>
     </row>
-    <row r="39" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="36"/>
       <c r="D39" s="33"/>
       <c r="E39" s="42" t="s">
@@ -3376,7 +7941,7 @@
       </c>
       <c r="G39" s="70"/>
     </row>
-    <row r="40" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="36"/>
       <c r="D40" s="32" t="s">
         <v>54</v>
@@ -3386,7 +7951,7 @@
       </c>
       <c r="G40" s="70"/>
     </row>
-    <row r="41" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="36"/>
       <c r="D41" s="33"/>
       <c r="E41" s="42" t="s">
@@ -3394,7 +7959,7 @@
       </c>
       <c r="G41" s="70"/>
     </row>
-    <row r="42" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="36"/>
       <c r="D42" s="33"/>
       <c r="E42" s="42" t="s">
@@ -3402,7 +7967,7 @@
       </c>
       <c r="G42" s="70"/>
     </row>
-    <row r="43" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="36"/>
       <c r="D43" s="33"/>
       <c r="E43" s="42" t="s">
@@ -3410,338 +7975,338 @@
       </c>
       <c r="G43" s="70"/>
     </row>
-    <row r="44" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="36"/>
       <c r="D44" s="33"/>
-      <c r="E44" s="107" t="s">
+      <c r="E44" s="106" t="s">
         <v>60</v>
       </c>
-      <c r="F44" s="108"/>
-      <c r="G44" s="108"/>
-      <c r="H44" s="108"/>
-      <c r="I44" s="108"/>
-    </row>
-    <row r="45" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F44" s="107"/>
+      <c r="G44" s="107"/>
+      <c r="H44" s="107"/>
+      <c r="I44" s="107"/>
+    </row>
+    <row r="45" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="36"/>
       <c r="D45" s="34"/>
-      <c r="E45" s="107" t="s">
-        <v>152</v>
-      </c>
-      <c r="F45" s="108"/>
-      <c r="G45" s="108"/>
-      <c r="H45" s="108"/>
-      <c r="I45" s="108"/>
-    </row>
-    <row r="46" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E45" s="106" t="s">
+        <v>151</v>
+      </c>
+      <c r="F45" s="107"/>
+      <c r="G45" s="107"/>
+      <c r="H45" s="107"/>
+      <c r="I45" s="107"/>
+    </row>
+    <row r="46" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="36"/>
       <c r="D46" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="E46" s="109"/>
-      <c r="F46" s="108"/>
-      <c r="G46" s="108"/>
-      <c r="H46" s="108"/>
-      <c r="I46" s="108"/>
-    </row>
-    <row r="47" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E46" s="108"/>
+      <c r="F46" s="107"/>
+      <c r="G46" s="107"/>
+      <c r="H46" s="107"/>
+      <c r="I46" s="107"/>
+    </row>
+    <row r="47" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="36"/>
       <c r="D47" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="E47" s="107" t="s">
-        <v>155</v>
-      </c>
-      <c r="F47" s="108"/>
-      <c r="G47" s="108"/>
-      <c r="H47" s="108"/>
-      <c r="I47" s="108"/>
-    </row>
-    <row r="48" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E47" s="106" t="s">
+        <v>154</v>
+      </c>
+      <c r="F47" s="107"/>
+      <c r="G47" s="107"/>
+      <c r="H47" s="107"/>
+      <c r="I47" s="107"/>
+    </row>
+    <row r="48" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37"/>
       <c r="D48" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="E48" s="107" t="s">
-        <v>155</v>
-      </c>
-      <c r="F48" s="108"/>
-      <c r="G48" s="108"/>
-      <c r="H48" s="108"/>
-      <c r="I48" s="108"/>
-    </row>
-    <row r="49" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E48" s="106" t="s">
+        <v>154</v>
+      </c>
+      <c r="F48" s="107"/>
+      <c r="G48" s="107"/>
+      <c r="H48" s="107"/>
+      <c r="I48" s="107"/>
+    </row>
+    <row r="49" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="45" t="s">
         <v>104</v>
       </c>
       <c r="D49" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="E49" s="109"/>
-      <c r="F49" s="109"/>
-      <c r="G49" s="109"/>
-      <c r="H49" s="109"/>
-      <c r="I49" s="109"/>
-    </row>
-    <row r="50" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E49" s="108"/>
+      <c r="F49" s="108"/>
+      <c r="G49" s="108"/>
+      <c r="H49" s="108"/>
+      <c r="I49" s="108"/>
+    </row>
+    <row r="50" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="61"/>
       <c r="D50" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="109"/>
-      <c r="F50" s="109"/>
-      <c r="G50" s="109"/>
-      <c r="H50" s="109"/>
-      <c r="I50" s="109"/>
-    </row>
-    <row r="51" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E50" s="108"/>
+      <c r="F50" s="108"/>
+      <c r="G50" s="108"/>
+      <c r="H50" s="108"/>
+      <c r="I50" s="108"/>
+    </row>
+    <row r="51" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="61"/>
       <c r="D51" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="E51" s="109"/>
-      <c r="F51" s="109"/>
-      <c r="G51" s="109"/>
-      <c r="H51" s="109"/>
-      <c r="I51" s="109"/>
-    </row>
-    <row r="52" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E51" s="108"/>
+      <c r="F51" s="108"/>
+      <c r="G51" s="108"/>
+      <c r="H51" s="108"/>
+      <c r="I51" s="108"/>
+    </row>
+    <row r="52" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="61"/>
       <c r="D52" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="E52" s="109"/>
-      <c r="F52" s="109"/>
-      <c r="G52" s="109"/>
-      <c r="H52" s="109"/>
-      <c r="I52" s="109"/>
-    </row>
-    <row r="53" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E52" s="108"/>
+      <c r="F52" s="108"/>
+      <c r="G52" s="108"/>
+      <c r="H52" s="108"/>
+      <c r="I52" s="108"/>
+    </row>
+    <row r="53" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="61"/>
       <c r="D53" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="E53" s="109"/>
-      <c r="F53" s="109"/>
-      <c r="G53" s="109"/>
-      <c r="H53" s="109"/>
-      <c r="I53" s="109"/>
-    </row>
-    <row r="54" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E53" s="108"/>
+      <c r="F53" s="108"/>
+      <c r="G53" s="108"/>
+      <c r="H53" s="108"/>
+      <c r="I53" s="108"/>
+    </row>
+    <row r="54" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="61"/>
       <c r="D54" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="E54" s="109"/>
-      <c r="F54" s="109"/>
-      <c r="G54" s="109"/>
-      <c r="H54" s="109"/>
-      <c r="I54" s="109"/>
-    </row>
-    <row r="55" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E54" s="108"/>
+      <c r="F54" s="108"/>
+      <c r="G54" s="108"/>
+      <c r="H54" s="108"/>
+      <c r="I54" s="108"/>
+    </row>
+    <row r="55" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="61"/>
       <c r="D55" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="E55" s="109"/>
-      <c r="F55" s="109"/>
-      <c r="G55" s="109"/>
-      <c r="H55" s="109"/>
-      <c r="I55" s="109"/>
-    </row>
-    <row r="56" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E55" s="108"/>
+      <c r="F55" s="108"/>
+      <c r="G55" s="108"/>
+      <c r="H55" s="108"/>
+      <c r="I55" s="108"/>
+    </row>
+    <row r="56" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="62"/>
       <c r="D56" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="E56" s="109"/>
-      <c r="F56" s="109"/>
-      <c r="G56" s="109"/>
-      <c r="H56" s="109"/>
-      <c r="I56" s="109"/>
-    </row>
-    <row r="57" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E56" s="108"/>
+      <c r="F56" s="108"/>
+      <c r="G56" s="108"/>
+      <c r="H56" s="108"/>
+      <c r="I56" s="108"/>
+    </row>
+    <row r="57" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="47" t="s">
         <v>105</v>
       </c>
       <c r="D57" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="E57" s="111">
+      <c r="E57" s="110">
         <v>1</v>
       </c>
-      <c r="F57" s="111" t="s">
-        <v>131</v>
-      </c>
-      <c r="G57" s="109"/>
-      <c r="H57" s="109"/>
-      <c r="I57" s="109"/>
-    </row>
-    <row r="58" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F57" s="110" t="s">
+        <v>130</v>
+      </c>
+      <c r="G57" s="108"/>
+      <c r="H57" s="108"/>
+      <c r="I57" s="108"/>
+    </row>
+    <row r="58" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="48"/>
-      <c r="D58" s="94" t="s">
+      <c r="D58" s="93" t="s">
+        <v>155</v>
+      </c>
+      <c r="E58" s="110">
+        <v>1</v>
+      </c>
+      <c r="F58" s="110" t="s">
+        <v>130</v>
+      </c>
+      <c r="G58" s="108"/>
+      <c r="H58" s="108"/>
+      <c r="I58" s="108"/>
+    </row>
+    <row r="59" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="92"/>
+      <c r="D59" s="47" t="s">
+        <v>117</v>
+      </c>
+      <c r="E59" s="110" t="s">
+        <v>88</v>
+      </c>
+      <c r="F59" s="110">
+        <v>4</v>
+      </c>
+      <c r="G59" s="110" t="s">
+        <v>130</v>
+      </c>
+      <c r="H59" s="108"/>
+      <c r="I59" s="108"/>
+    </row>
+    <row r="60" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C60" s="92"/>
+      <c r="D60" s="48"/>
+      <c r="E60" s="110" t="s">
+        <v>93</v>
+      </c>
+      <c r="F60" s="110" t="s">
+        <v>119</v>
+      </c>
+      <c r="G60" s="110" t="s">
+        <v>130</v>
+      </c>
+      <c r="H60" s="108"/>
+      <c r="I60" s="108"/>
+    </row>
+    <row r="61" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C61" s="92"/>
+      <c r="D61" s="92"/>
+      <c r="E61" s="111" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" s="110" t="s">
+        <v>133</v>
+      </c>
+      <c r="G61" s="110">
+        <v>17</v>
+      </c>
+      <c r="H61" s="110" t="s">
+        <v>130</v>
+      </c>
+      <c r="I61" s="108"/>
+    </row>
+    <row r="62" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C62" s="92"/>
+      <c r="D62" s="92"/>
+      <c r="E62" s="112"/>
+      <c r="F62" s="110" t="s">
+        <v>132</v>
+      </c>
+      <c r="G62" s="110">
+        <v>13</v>
+      </c>
+      <c r="H62" s="110" t="s">
+        <v>130</v>
+      </c>
+      <c r="I62" s="108"/>
+    </row>
+    <row r="63" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C63" s="92"/>
+      <c r="D63" s="48"/>
+      <c r="E63" s="114" t="s">
+        <v>115</v>
+      </c>
+      <c r="F63" s="110">
+        <v>1</v>
+      </c>
+      <c r="G63" s="113" t="s">
+        <v>130</v>
+      </c>
+      <c r="H63" s="108"/>
+      <c r="I63" s="108"/>
+    </row>
+    <row r="64" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C64" s="92"/>
+      <c r="D64" s="48"/>
+      <c r="E64" s="110" t="s">
+        <v>89</v>
+      </c>
+      <c r="F64" s="110"/>
+      <c r="G64" s="108"/>
+      <c r="H64" s="108"/>
+      <c r="I64" s="108"/>
+    </row>
+    <row r="65" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C65" s="92"/>
+      <c r="D65" s="49"/>
+      <c r="E65" s="110" t="s">
+        <v>116</v>
+      </c>
+      <c r="F65" s="110">
+        <v>1</v>
+      </c>
+      <c r="G65" s="109" t="s">
+        <v>130</v>
+      </c>
+      <c r="H65" s="108"/>
+      <c r="I65" s="108"/>
+    </row>
+    <row r="66" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C66" s="48"/>
+      <c r="D66" s="94" t="s">
         <v>156</v>
       </c>
-      <c r="E58" s="111">
+      <c r="E66" s="110">
         <v>1</v>
       </c>
-      <c r="F58" s="111" t="s">
-        <v>131</v>
-      </c>
-      <c r="G58" s="109"/>
-      <c r="H58" s="109"/>
-      <c r="I58" s="109"/>
-    </row>
-    <row r="59" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="93"/>
-      <c r="D59" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="E59" s="111" t="s">
-        <v>88</v>
-      </c>
-      <c r="F59" s="111">
-        <v>4</v>
-      </c>
-      <c r="G59" s="111" t="s">
-        <v>131</v>
-      </c>
-      <c r="H59" s="109"/>
-      <c r="I59" s="109"/>
-    </row>
-    <row r="60" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="93"/>
-      <c r="D60" s="48"/>
-      <c r="E60" s="111" t="s">
-        <v>93</v>
-      </c>
-      <c r="F60" s="111" t="s">
-        <v>120</v>
-      </c>
-      <c r="G60" s="111" t="s">
-        <v>131</v>
-      </c>
-      <c r="H60" s="109"/>
-      <c r="I60" s="109"/>
-    </row>
-    <row r="61" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="93"/>
-      <c r="D61" s="93"/>
-      <c r="E61" s="112" t="s">
-        <v>119</v>
-      </c>
-      <c r="F61" s="111" t="s">
-        <v>134</v>
-      </c>
-      <c r="G61" s="111">
-        <v>17</v>
-      </c>
-      <c r="H61" s="111" t="s">
-        <v>131</v>
-      </c>
-      <c r="I61" s="109"/>
-    </row>
-    <row r="62" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="93"/>
-      <c r="D62" s="93"/>
-      <c r="E62" s="113"/>
-      <c r="F62" s="111" t="s">
-        <v>133</v>
-      </c>
-      <c r="G62" s="111">
-        <v>13</v>
-      </c>
-      <c r="H62" s="111" t="s">
-        <v>131</v>
-      </c>
-      <c r="I62" s="109"/>
-    </row>
-    <row r="63" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="93"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="115" t="s">
-        <v>116</v>
-      </c>
-      <c r="F63" s="111">
-        <v>1</v>
-      </c>
-      <c r="G63" s="114" t="s">
-        <v>131</v>
-      </c>
-      <c r="H63" s="109"/>
-      <c r="I63" s="109"/>
-    </row>
-    <row r="64" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="93"/>
-      <c r="D64" s="48"/>
-      <c r="E64" s="111" t="s">
-        <v>89</v>
-      </c>
-      <c r="F64" s="111"/>
-      <c r="G64" s="109"/>
-      <c r="H64" s="109"/>
-      <c r="I64" s="109"/>
-    </row>
-    <row r="65" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="93"/>
-      <c r="D65" s="49"/>
-      <c r="E65" s="111" t="s">
-        <v>117</v>
-      </c>
-      <c r="F65" s="111">
-        <v>1</v>
-      </c>
-      <c r="G65" s="110" t="s">
-        <v>131</v>
-      </c>
-      <c r="H65" s="109"/>
-      <c r="I65" s="109"/>
-    </row>
-    <row r="66" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="48"/>
-      <c r="D66" s="95" t="s">
-        <v>157</v>
-      </c>
-      <c r="E66" s="111">
-        <v>1</v>
-      </c>
-      <c r="F66" s="111" t="s">
-        <v>131</v>
-      </c>
-      <c r="G66" s="109"/>
-      <c r="H66" s="109"/>
-      <c r="I66" s="109"/>
-    </row>
-    <row r="67" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F66" s="110" t="s">
+        <v>130</v>
+      </c>
+      <c r="G66" s="108"/>
+      <c r="H66" s="108"/>
+      <c r="I66" s="108"/>
+    </row>
+    <row r="67" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C67" s="48"/>
       <c r="D67" s="46" t="s">
-        <v>158</v>
-      </c>
-      <c r="E67" s="111">
+        <v>157</v>
+      </c>
+      <c r="E67" s="110">
         <v>1</v>
       </c>
-      <c r="F67" s="111" t="s">
-        <v>131</v>
-      </c>
-      <c r="G67" s="109"/>
-      <c r="H67" s="109"/>
-      <c r="I67" s="109"/>
-    </row>
-    <row r="68" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F67" s="110" t="s">
+        <v>130</v>
+      </c>
+      <c r="G67" s="108"/>
+      <c r="H67" s="108"/>
+      <c r="I67" s="108"/>
+    </row>
+    <row r="68" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C68" s="49"/>
       <c r="D68" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="E68" s="114">
+      <c r="E68" s="113">
         <v>1</v>
       </c>
-      <c r="F68" s="114" t="s">
-        <v>131</v>
-      </c>
-      <c r="G68" s="109"/>
-      <c r="H68" s="109"/>
-      <c r="I68" s="109"/>
-    </row>
-    <row r="69" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F68" s="113" t="s">
+        <v>130</v>
+      </c>
+      <c r="G68" s="108"/>
+      <c r="H68" s="108"/>
+      <c r="I68" s="108"/>
+    </row>
+    <row r="69" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C69" s="51" t="s">
         <v>106</v>
       </c>
@@ -3749,68 +8314,68 @@
         <v>78</v>
       </c>
       <c r="E69" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="F69" s="109"/>
-      <c r="G69" s="109"/>
-      <c r="H69" s="109"/>
-      <c r="I69" s="109"/>
-    </row>
-    <row r="70" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="F69" s="108"/>
+      <c r="G69" s="108"/>
+      <c r="H69" s="108"/>
+      <c r="I69" s="108"/>
+    </row>
+    <row r="70" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C70" s="53"/>
       <c r="D70" s="52" t="s">
         <v>79</v>
       </c>
       <c r="E70" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="F70" s="109"/>
-      <c r="G70" s="109"/>
-      <c r="H70" s="109"/>
-      <c r="I70" s="109"/>
-    </row>
-    <row r="71" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="F70" s="108"/>
+      <c r="G70" s="108"/>
+      <c r="H70" s="108"/>
+      <c r="I70" s="108"/>
+    </row>
+    <row r="71" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C71" s="53"/>
       <c r="D71" s="52" t="s">
         <v>80</v>
       </c>
       <c r="E71" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="F71" s="109"/>
-      <c r="G71" s="117"/>
-      <c r="H71" s="109"/>
-      <c r="I71" s="109"/>
-    </row>
-    <row r="72" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="F71" s="108"/>
+      <c r="G71" s="116"/>
+      <c r="H71" s="108"/>
+      <c r="I71" s="108"/>
+    </row>
+    <row r="72" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C72" s="53"/>
       <c r="D72" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="E72" s="116">
+      <c r="E72" s="115">
         <v>3</v>
       </c>
-      <c r="F72" s="116" t="s">
-        <v>131</v>
-      </c>
-      <c r="G72" s="109"/>
-      <c r="H72" s="109"/>
-      <c r="I72" s="109"/>
-    </row>
-    <row r="73" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F72" s="115" t="s">
+        <v>130</v>
+      </c>
+      <c r="G72" s="108"/>
+      <c r="H72" s="108"/>
+      <c r="I72" s="108"/>
+    </row>
+    <row r="73" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C73" s="54"/>
       <c r="D73" s="52" t="s">
         <v>82</v>
       </c>
       <c r="E73" s="52" t="s">
-        <v>159</v>
-      </c>
-      <c r="F73" s="109"/>
-      <c r="G73" s="109"/>
-      <c r="H73" s="109"/>
-      <c r="I73" s="109"/>
-    </row>
-    <row r="74" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+        <v>158</v>
+      </c>
+      <c r="F73" s="108"/>
+      <c r="G73" s="108"/>
+      <c r="H73" s="108"/>
+      <c r="I73" s="108"/>
+    </row>
+    <row r="74" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C74" s="75" t="s">
         <v>107</v>
       </c>
@@ -3819,7 +8384,7 @@
       </c>
       <c r="G74" s="71"/>
     </row>
-    <row r="75" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C75" s="76"/>
       <c r="D75" s="59" t="s">
         <v>84</v>
@@ -3828,13 +8393,13 @@
         <v>3</v>
       </c>
       <c r="F75" s="59" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G75" s="71"/>
     </row>
-    <row r="76" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="76" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C76" s="77"/>
-      <c r="D76" s="136" t="s">
+      <c r="D76" s="245" t="s">
         <v>85</v>
       </c>
       <c r="E76" s="59" t="s">
@@ -3846,9 +8411,9 @@
       <c r="G76" s="72"/>
       <c r="H76" s="72"/>
     </row>
-    <row r="77" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C77" s="77"/>
-      <c r="D77" s="137"/>
+      <c r="D77" s="246"/>
       <c r="E77" s="60"/>
       <c r="F77" s="58" t="s">
         <v>87</v>
@@ -3856,9 +8421,9 @@
       <c r="G77" s="72"/>
       <c r="H77" s="72"/>
     </row>
-    <row r="78" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C78" s="77"/>
-      <c r="D78" s="137"/>
+      <c r="D78" s="246"/>
       <c r="E78" s="59" t="s">
         <v>93</v>
       </c>
@@ -3866,18 +8431,18 @@
         <v>86</v>
       </c>
       <c r="G78" s="72" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="H78" s="72" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="I78" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="79" spans="3:9" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="79" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C79" s="77"/>
-      <c r="D79" s="137"/>
+      <c r="D79" s="246"/>
       <c r="E79" s="60"/>
       <c r="F79" s="58" t="s">
         <v>87</v>
@@ -3885,9 +8450,9 @@
       <c r="G79" s="72"/>
       <c r="H79" s="72"/>
     </row>
-    <row r="80" spans="3:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="3:9" x14ac:dyDescent="0.25">
       <c r="C80" s="77"/>
-      <c r="D80" s="137"/>
+      <c r="D80" s="246"/>
       <c r="E80" s="59" t="s">
         <v>92</v>
       </c>
@@ -3895,18 +8460,18 @@
         <v>86</v>
       </c>
       <c r="G80" s="72" t="s">
+        <v>136</v>
+      </c>
+      <c r="H80" s="99" t="s">
+        <v>130</v>
+      </c>
+      <c r="I80" s="102" t="s">
         <v>137</v>
       </c>
-      <c r="H80" s="100" t="s">
-        <v>131</v>
-      </c>
-      <c r="I80" s="103" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="81" spans="3:8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C81" s="77"/>
-      <c r="D81" s="137"/>
+      <c r="D81" s="246"/>
       <c r="E81" s="60"/>
       <c r="F81" s="58" t="s">
         <v>87</v>
@@ -3914,9 +8479,9 @@
       <c r="G81" s="72"/>
       <c r="H81" s="72"/>
     </row>
-    <row r="82" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C82" s="77"/>
-      <c r="D82" s="137"/>
+      <c r="D82" s="246"/>
       <c r="E82" s="59" t="s">
         <v>89</v>
       </c>
@@ -3926,9 +8491,9 @@
       <c r="G82" s="72"/>
       <c r="H82" s="72"/>
     </row>
-    <row r="83" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C83" s="77"/>
-      <c r="D83" s="137"/>
+      <c r="D83" s="246"/>
       <c r="E83" s="60"/>
       <c r="F83" s="58" t="s">
         <v>87</v>
@@ -3936,9 +8501,9 @@
       <c r="G83" s="72"/>
       <c r="H83" s="72"/>
     </row>
-    <row r="84" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C84" s="77"/>
-      <c r="D84" s="137"/>
+      <c r="D84" s="246"/>
       <c r="E84" s="59" t="s">
         <v>90</v>
       </c>
@@ -3948,9 +8513,9 @@
       <c r="G84" s="72"/>
       <c r="H84" s="72"/>
     </row>
-    <row r="85" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C85" s="77"/>
-      <c r="D85" s="137"/>
+      <c r="D85" s="246"/>
       <c r="E85" s="60"/>
       <c r="F85" s="58" t="s">
         <v>87</v>
@@ -3958,9 +8523,9 @@
       <c r="G85" s="72"/>
       <c r="H85" s="72"/>
     </row>
-    <row r="86" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C86" s="77"/>
-      <c r="D86" s="137"/>
+      <c r="D86" s="246"/>
       <c r="E86" s="73" t="s">
         <v>91</v>
       </c>
@@ -3970,9 +8535,9 @@
       <c r="G86" s="72"/>
       <c r="H86" s="72"/>
     </row>
-    <row r="87" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C87" s="77"/>
-      <c r="D87" s="138"/>
+      <c r="D87" s="247"/>
       <c r="E87" s="60"/>
       <c r="F87" s="58" t="s">
         <v>87</v>
@@ -3980,94 +8545,95 @@
       <c r="G87" s="72"/>
       <c r="H87" s="72"/>
     </row>
-    <row r="88" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C88" s="77"/>
       <c r="D88" s="60" t="s">
         <v>96</v>
       </c>
       <c r="G88"/>
     </row>
-    <row r="89" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="3:8" x14ac:dyDescent="0.25">
       <c r="C89" s="77"/>
-      <c r="D89" s="102" t="s">
+      <c r="D89" s="101" t="s">
+        <v>152</v>
+      </c>
+      <c r="E89" s="58" t="s">
+        <v>154</v>
+      </c>
+      <c r="G89"/>
+    </row>
+    <row r="90" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C90" s="77"/>
+      <c r="D90" s="101" t="s">
         <v>153</v>
       </c>
-      <c r="E89" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="G89"/>
-    </row>
-    <row r="90" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C90" s="77"/>
-      <c r="D90" s="102" t="s">
+      <c r="E90" s="101" t="s">
         <v>154</v>
       </c>
-      <c r="E90" s="102" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="91" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C91" s="141" t="s">
-        <v>121</v>
-      </c>
-      <c r="D91" s="97" t="s">
-        <v>129</v>
-      </c>
-      <c r="E91" s="98">
+    </row>
+    <row r="91" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C91" s="250" t="s">
+        <v>120</v>
+      </c>
+      <c r="D91" s="96" t="s">
+        <v>128</v>
+      </c>
+      <c r="E91" s="97">
         <v>1</v>
       </c>
-      <c r="F91" s="99" t="s">
-        <v>135</v>
-      </c>
-      <c r="G91" s="142" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="92" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C92" s="141"/>
-      <c r="D92" s="97" t="s">
-        <v>128</v>
-      </c>
-      <c r="E92" s="98"/>
-      <c r="F92" s="99"/>
-    </row>
-    <row r="93" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C93" s="141"/>
-      <c r="D93" s="97" t="s">
+      <c r="F91" s="98" t="s">
+        <v>134</v>
+      </c>
+      <c r="G91" s="118" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="92" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C92" s="250"/>
+      <c r="D92" s="96" t="s">
+        <v>127</v>
+      </c>
+      <c r="E92" s="97"/>
+      <c r="F92" s="98"/>
+    </row>
+    <row r="93" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C93" s="250"/>
+      <c r="D93" s="96" t="s">
+        <v>149</v>
+      </c>
+      <c r="E93" s="97"/>
+      <c r="F93" s="98"/>
+    </row>
+    <row r="94" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C94" s="250"/>
+      <c r="D94" s="96" t="s">
         <v>150</v>
       </c>
-      <c r="E93" s="98"/>
-      <c r="F93" s="99"/>
-    </row>
-    <row r="94" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C94" s="141"/>
-      <c r="D94" s="97" t="s">
-        <v>151</v>
-      </c>
-      <c r="E94" s="98"/>
-      <c r="F94" s="99"/>
-    </row>
-    <row r="95" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C95" s="141"/>
-      <c r="D95" s="97" t="s">
+      <c r="E94" s="97"/>
+      <c r="F94" s="98"/>
+    </row>
+    <row r="95" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C95" s="250"/>
+      <c r="D95" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="E95" s="98"/>
-      <c r="F95" s="99"/>
-    </row>
-    <row r="96" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C96" s="141"/>
-      <c r="D96" s="97" t="s">
+      <c r="E95" s="97"/>
+      <c r="F95" s="98"/>
+    </row>
+    <row r="96" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C96" s="250"/>
+      <c r="D96" s="96" t="s">
         <v>103</v>
       </c>
-      <c r="E96" s="98"/>
-      <c r="F96" s="99"/>
+      <c r="E96" s="97"/>
+      <c r="F96" s="98"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="D76:D87"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="C91:C96"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G91" r:id="rId1"/>
@@ -4076,4 +8642,48 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="C6:C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="19" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="166" t="s">
+        <v>297</v>
+      </c>
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>295</v>
+      </c>
+      <c r="B4">
+        <v>35</v>
+      </c>
+      <c r="C4" t="s">
+        <v>296</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/asset/Control GESPRO.xlsx
+++ b/asset/Control GESPRO.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10275" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10272" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Planeam-Lineam" sheetId="1" r:id="rId1"/>
@@ -135,6 +135,31 @@
           </rPr>
           <t xml:space="preserve">
 No viene documento </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G35" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Patricia Hernandez Conejo:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Viene con un titulo incompleto, ya se reportó a tatiana
+</t>
         </r>
       </text>
     </comment>
@@ -2177,6 +2202,27 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="23" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2184,6 +2230,69 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2195,83 +2304,77 @@
     <xf numFmtId="0" fontId="18" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2279,72 +2382,6 @@
     <xf numFmtId="0" fontId="1" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2365,18 +2402,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2669,58 +2694,58 @@
   </sheetPr>
   <dimension ref="A1:M166"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E43" sqref="E43:E44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.42578125" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" customWidth="1"/>
-    <col min="7" max="7" width="7.7109375" customWidth="1"/>
-    <col min="8" max="12" width="7.140625" customWidth="1"/>
-    <col min="13" max="13" width="22.42578125" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="21.33203125" customWidth="1"/>
+    <col min="6" max="6" width="20.6640625" customWidth="1"/>
+    <col min="7" max="7" width="7.6640625" customWidth="1"/>
+    <col min="8" max="12" width="7.109375" customWidth="1"/>
+    <col min="13" max="13" width="22.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="194" t="s">
+    <row r="1" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="222" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="194"/>
-      <c r="C1" s="194"/>
-      <c r="D1" s="194"/>
-      <c r="E1" s="194"/>
-      <c r="F1" s="194"/>
-      <c r="G1" s="194"/>
-      <c r="H1" s="194"/>
-      <c r="I1" s="194"/>
-      <c r="J1" s="194"/>
-      <c r="K1" s="194"/>
-      <c r="L1" s="194"/>
-      <c r="M1" s="194"/>
-    </row>
-    <row r="2" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="194" t="s">
+      <c r="B1" s="222"/>
+      <c r="C1" s="222"/>
+      <c r="D1" s="222"/>
+      <c r="E1" s="222"/>
+      <c r="F1" s="222"/>
+      <c r="G1" s="222"/>
+      <c r="H1" s="222"/>
+      <c r="I1" s="222"/>
+      <c r="J1" s="222"/>
+      <c r="K1" s="222"/>
+      <c r="L1" s="222"/>
+      <c r="M1" s="222"/>
+    </row>
+    <row r="2" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="222" t="s">
         <v>298</v>
       </c>
-      <c r="B2" s="194"/>
-      <c r="C2" s="194"/>
-      <c r="D2" s="194"/>
-      <c r="E2" s="194"/>
-      <c r="F2" s="194"/>
-      <c r="G2" s="194"/>
-      <c r="H2" s="194"/>
-      <c r="I2" s="194"/>
-      <c r="J2" s="194"/>
-      <c r="K2" s="194"/>
-      <c r="L2" s="194"/>
-      <c r="M2" s="194"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B2" s="222"/>
+      <c r="C2" s="222"/>
+      <c r="D2" s="222"/>
+      <c r="E2" s="222"/>
+      <c r="F2" s="222"/>
+      <c r="G2" s="222"/>
+      <c r="H2" s="222"/>
+      <c r="I2" s="222"/>
+      <c r="J2" s="222"/>
+      <c r="K2" s="222"/>
+      <c r="L2" s="222"/>
+      <c r="M2" s="222"/>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G3" s="20" t="s">
         <v>29</v>
       </c>
@@ -2740,7 +2765,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="G4" s="22" t="s">
         <v>30</v>
       </c>
@@ -2758,27 +2783,27 @@
       </c>
       <c r="L4" s="22"/>
     </row>
-    <row r="5" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G5" s="195" t="s">
+    <row r="5" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G5" s="203" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="196"/>
-      <c r="I5" s="196"/>
-      <c r="J5" s="196"/>
-      <c r="K5" s="196"/>
-      <c r="L5" s="197"/>
-    </row>
-    <row r="6" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="G6" s="195" t="s">
+      <c r="H5" s="204"/>
+      <c r="I5" s="204"/>
+      <c r="J5" s="204"/>
+      <c r="K5" s="204"/>
+      <c r="L5" s="205"/>
+    </row>
+    <row r="6" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G6" s="203" t="s">
         <v>275</v>
       </c>
-      <c r="H6" s="196"/>
-      <c r="I6" s="196"/>
-      <c r="J6" s="196"/>
-      <c r="K6" s="196"/>
-      <c r="L6" s="197"/>
-    </row>
-    <row r="7" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H6" s="204"/>
+      <c r="I6" s="204"/>
+      <c r="J6" s="204"/>
+      <c r="K6" s="204"/>
+      <c r="L6" s="205"/>
+    </row>
+    <row r="7" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
@@ -2819,11 +2844,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="189" t="s">
+    <row r="8" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="196" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="207" t="s">
+      <c r="B8" s="191" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -2848,13 +2873,13 @@
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="210" t="s">
+      <c r="M8" s="200" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="190"/>
-      <c r="B9" s="208"/>
+    <row r="9" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="197"/>
+      <c r="B9" s="192"/>
       <c r="C9" s="8" t="s">
         <v>6</v>
       </c>
@@ -2877,11 +2902,11 @@
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="211"/>
-    </row>
-    <row r="10" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="190"/>
-      <c r="B10" s="208"/>
+      <c r="M9" s="201"/>
+    </row>
+    <row r="10" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="197"/>
+      <c r="B10" s="192"/>
       <c r="C10" s="8" t="s">
         <v>7</v>
       </c>
@@ -2904,11 +2929,11 @@
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="211"/>
-    </row>
-    <row r="11" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="190"/>
-      <c r="B11" s="208"/>
+      <c r="M10" s="201"/>
+    </row>
+    <row r="11" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="197"/>
+      <c r="B11" s="192"/>
       <c r="C11" s="8" t="s">
         <v>8</v>
       </c>
@@ -2931,11 +2956,11 @@
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="211"/>
-    </row>
-    <row r="12" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="190"/>
-      <c r="B12" s="208"/>
+      <c r="M11" s="201"/>
+    </row>
+    <row r="12" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="197"/>
+      <c r="B12" s="192"/>
       <c r="C12" s="8" t="s">
         <v>9</v>
       </c>
@@ -2958,11 +2983,11 @@
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="211"/>
-    </row>
-    <row r="13" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="190"/>
-      <c r="B13" s="208"/>
+      <c r="M12" s="201"/>
+    </row>
+    <row r="13" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="197"/>
+      <c r="B13" s="192"/>
       <c r="C13" s="8" t="s">
         <v>10</v>
       </c>
@@ -2985,11 +3010,11 @@
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="211"/>
-    </row>
-    <row r="14" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="190"/>
-      <c r="B14" s="208"/>
+      <c r="M13" s="201"/>
+    </row>
+    <row r="14" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="197"/>
+      <c r="B14" s="192"/>
       <c r="C14" s="8" t="s">
         <v>11</v>
       </c>
@@ -3012,11 +3037,11 @@
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="211"/>
-    </row>
-    <row r="15" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="190"/>
-      <c r="B15" s="208"/>
+      <c r="M14" s="201"/>
+    </row>
+    <row r="15" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="197"/>
+      <c r="B15" s="192"/>
       <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
@@ -3039,11 +3064,11 @@
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="211"/>
-    </row>
-    <row r="16" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="190"/>
-      <c r="B16" s="208"/>
+      <c r="M15" s="201"/>
+    </row>
+    <row r="16" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="197"/>
+      <c r="B16" s="192"/>
       <c r="C16" s="8" t="s">
         <v>13</v>
       </c>
@@ -3066,18 +3091,18 @@
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="211"/>
-    </row>
-    <row r="17" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="190"/>
-      <c r="B17" s="208"/>
-      <c r="C17" s="215" t="s">
+      <c r="M16" s="201"/>
+    </row>
+    <row r="17" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="197"/>
+      <c r="B17" s="192"/>
+      <c r="C17" s="194" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="9">
         <v>31</v>
       </c>
-      <c r="E17" s="218" t="s">
+      <c r="E17" s="206" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="13" t="s">
@@ -3097,16 +3122,16 @@
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="211"/>
-    </row>
-    <row r="18" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="190"/>
-      <c r="B18" s="208"/>
-      <c r="C18" s="216"/>
+      <c r="M17" s="201"/>
+    </row>
+    <row r="18" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="197"/>
+      <c r="B18" s="192"/>
+      <c r="C18" s="195"/>
       <c r="D18" s="10">
         <v>31</v>
       </c>
-      <c r="E18" s="220"/>
+      <c r="E18" s="208"/>
       <c r="F18" s="12" t="s">
         <v>14</v>
       </c>
@@ -3124,16 +3149,16 @@
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="211"/>
-    </row>
-    <row r="19" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="190"/>
-      <c r="B19" s="208"/>
-      <c r="C19" s="216"/>
+      <c r="M18" s="201"/>
+    </row>
+    <row r="19" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="197"/>
+      <c r="B19" s="192"/>
+      <c r="C19" s="195"/>
       <c r="D19" s="10">
         <v>31</v>
       </c>
-      <c r="E19" s="219"/>
+      <c r="E19" s="207"/>
       <c r="F19" s="12" t="s">
         <v>16</v>
       </c>
@@ -3151,16 +3176,16 @@
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="211"/>
-    </row>
-    <row r="20" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="190"/>
-      <c r="B20" s="208"/>
-      <c r="C20" s="216"/>
+      <c r="M19" s="201"/>
+    </row>
+    <row r="20" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="197"/>
+      <c r="B20" s="192"/>
+      <c r="C20" s="195"/>
       <c r="D20" s="10">
         <v>31</v>
       </c>
-      <c r="E20" s="218" t="s">
+      <c r="E20" s="206" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="11" t="s">
@@ -3180,16 +3205,16 @@
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="211"/>
-    </row>
-    <row r="21" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="190"/>
-      <c r="B21" s="208"/>
-      <c r="C21" s="216"/>
+      <c r="M20" s="201"/>
+    </row>
+    <row r="21" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="197"/>
+      <c r="B21" s="192"/>
+      <c r="C21" s="195"/>
       <c r="D21" s="10">
         <v>31</v>
       </c>
-      <c r="E21" s="220"/>
+      <c r="E21" s="208"/>
       <c r="F21" s="12" t="s">
         <v>14</v>
       </c>
@@ -3207,16 +3232,16 @@
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="211"/>
-    </row>
-    <row r="22" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="190"/>
-      <c r="B22" s="208"/>
-      <c r="C22" s="217"/>
+      <c r="M21" s="201"/>
+    </row>
+    <row r="22" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="197"/>
+      <c r="B22" s="192"/>
+      <c r="C22" s="199"/>
       <c r="D22" s="10">
         <v>31</v>
       </c>
-      <c r="E22" s="219"/>
+      <c r="E22" s="207"/>
       <c r="F22" s="12" t="s">
         <v>16</v>
       </c>
@@ -3234,12 +3259,12 @@
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="211"/>
-    </row>
-    <row r="23" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="190"/>
-      <c r="B23" s="208"/>
-      <c r="C23" s="215" t="s">
+      <c r="M22" s="201"/>
+    </row>
+    <row r="23" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="197"/>
+      <c r="B23" s="192"/>
+      <c r="C23" s="194" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="9">
@@ -3263,12 +3288,12 @@
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="211"/>
-    </row>
-    <row r="24" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="190"/>
-      <c r="B24" s="208"/>
-      <c r="C24" s="216"/>
+      <c r="M23" s="201"/>
+    </row>
+    <row r="24" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="197"/>
+      <c r="B24" s="192"/>
+      <c r="C24" s="195"/>
       <c r="D24" s="10">
         <v>29</v>
       </c>
@@ -3290,11 +3315,11 @@
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="211"/>
-    </row>
-    <row r="25" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="190"/>
-      <c r="B25" s="208"/>
+      <c r="M24" s="201"/>
+    </row>
+    <row r="25" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="197"/>
+      <c r="B25" s="192"/>
       <c r="C25" s="7" t="s">
         <v>19</v>
       </c>
@@ -3317,11 +3342,11 @@
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="211"/>
-    </row>
-    <row r="26" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="191"/>
-      <c r="B26" s="209"/>
+      <c r="M25" s="201"/>
+    </row>
+    <row r="26" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="198"/>
+      <c r="B26" s="193"/>
       <c r="C26" s="8" t="s">
         <v>16</v>
       </c>
@@ -3344,9 +3369,9 @@
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="214"/>
-    </row>
-    <row r="27" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M26" s="202"/>
+    </row>
+    <row r="27" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="14"/>
       <c r="B27" s="15"/>
       <c r="C27" s="16"/>
@@ -3361,7 +3386,7 @@
       <c r="L27" s="18"/>
       <c r="M27" s="63"/>
     </row>
-    <row r="28" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>0</v>
       </c>
@@ -3402,11 +3427,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="29" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="192" t="s">
+    <row r="29" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="207" t="s">
+      <c r="B29" s="191" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -3431,13 +3456,13 @@
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="210" t="s">
+      <c r="M29" s="200" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="193"/>
-      <c r="B30" s="208"/>
+    <row r="30" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="221"/>
+      <c r="B30" s="192"/>
       <c r="C30" s="7" t="s">
         <v>5</v>
       </c>
@@ -3460,11 +3485,11 @@
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="211"/>
-    </row>
-    <row r="31" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="193"/>
-      <c r="B31" s="208"/>
+      <c r="M30" s="201"/>
+    </row>
+    <row r="31" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="221"/>
+      <c r="B31" s="192"/>
       <c r="C31" s="8" t="s">
         <v>6</v>
       </c>
@@ -3487,11 +3512,11 @@
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="211"/>
-    </row>
-    <row r="32" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="193"/>
-      <c r="B32" s="208"/>
+      <c r="M31" s="201"/>
+    </row>
+    <row r="32" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="221"/>
+      <c r="B32" s="192"/>
       <c r="C32" s="8" t="s">
         <v>39</v>
       </c>
@@ -3514,11 +3539,11 @@
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="211"/>
-    </row>
-    <row r="33" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="193"/>
-      <c r="B33" s="208"/>
+      <c r="M32" s="201"/>
+    </row>
+    <row r="33" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="221"/>
+      <c r="B33" s="192"/>
       <c r="C33" s="8" t="s">
         <v>7</v>
       </c>
@@ -3541,11 +3566,11 @@
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="211"/>
-    </row>
-    <row r="34" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="193"/>
-      <c r="B34" s="208"/>
+      <c r="M33" s="201"/>
+    </row>
+    <row r="34" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="221"/>
+      <c r="B34" s="192"/>
       <c r="C34" s="8" t="s">
         <v>40</v>
       </c>
@@ -3568,11 +3593,11 @@
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="211"/>
-    </row>
-    <row r="35" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="193"/>
-      <c r="B35" s="208"/>
+      <c r="M34" s="201"/>
+    </row>
+    <row r="35" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="221"/>
+      <c r="B35" s="192"/>
       <c r="C35" s="8" t="s">
         <v>8</v>
       </c>
@@ -3595,11 +3620,11 @@
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="211"/>
-    </row>
-    <row r="36" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="193"/>
-      <c r="B36" s="208"/>
+      <c r="M35" s="201"/>
+    </row>
+    <row r="36" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="221"/>
+      <c r="B36" s="192"/>
       <c r="C36" s="8" t="s">
         <v>9</v>
       </c>
@@ -3622,15 +3647,15 @@
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="211"/>
-    </row>
-    <row r="37" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="193"/>
-      <c r="B37" s="208"/>
+      <c r="M36" s="201"/>
+    </row>
+    <row r="37" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="221"/>
+      <c r="B37" s="192"/>
       <c r="C37" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="252">
+      <c r="D37" s="189">
         <v>25</v>
       </c>
       <c r="E37" s="13"/>
@@ -3649,11 +3674,11 @@
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="211"/>
-    </row>
-    <row r="38" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="193"/>
-      <c r="B38" s="208"/>
+      <c r="M37" s="201"/>
+    </row>
+    <row r="38" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="221"/>
+      <c r="B38" s="192"/>
       <c r="C38" s="8" t="s">
         <v>11</v>
       </c>
@@ -3676,11 +3701,11 @@
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="211"/>
-    </row>
-    <row r="39" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="193"/>
-      <c r="B39" s="208"/>
+      <c r="M38" s="201"/>
+    </row>
+    <row r="39" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="221"/>
+      <c r="B39" s="192"/>
       <c r="C39" s="8" t="s">
         <v>12</v>
       </c>
@@ -3703,11 +3728,11 @@
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="211"/>
-    </row>
-    <row r="40" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="193"/>
-      <c r="B40" s="208"/>
+      <c r="M39" s="201"/>
+    </row>
+    <row r="40" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="221"/>
+      <c r="B40" s="192"/>
       <c r="C40" s="8" t="s">
         <v>13</v>
       </c>
@@ -3730,11 +3755,11 @@
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="211"/>
-    </row>
-    <row r="41" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="193"/>
-      <c r="B41" s="208"/>
+      <c r="M40" s="201"/>
+    </row>
+    <row r="41" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="221"/>
+      <c r="B41" s="192"/>
       <c r="C41" s="8" t="s">
         <v>41</v>
       </c>
@@ -3757,11 +3782,11 @@
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="211"/>
-    </row>
-    <row r="42" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="193"/>
-      <c r="B42" s="208"/>
+      <c r="M41" s="201"/>
+    </row>
+    <row r="42" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="221"/>
+      <c r="B42" s="192"/>
       <c r="C42" s="8" t="s">
         <v>42</v>
       </c>
@@ -3784,18 +3809,18 @@
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="211"/>
-    </row>
-    <row r="43" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="193"/>
-      <c r="B43" s="208"/>
-      <c r="C43" s="215" t="s">
+      <c r="M42" s="201"/>
+    </row>
+    <row r="43" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="221"/>
+      <c r="B43" s="192"/>
+      <c r="C43" s="194" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="9">
         <v>32</v>
       </c>
-      <c r="E43" s="218" t="s">
+      <c r="E43" s="206" t="s">
         <v>15</v>
       </c>
       <c r="F43" s="13"/>
@@ -3813,16 +3838,16 @@
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="211"/>
-    </row>
-    <row r="44" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="193"/>
-      <c r="B44" s="208"/>
-      <c r="C44" s="216"/>
+      <c r="M43" s="201"/>
+    </row>
+    <row r="44" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="221"/>
+      <c r="B44" s="192"/>
+      <c r="C44" s="195"/>
       <c r="D44" s="10">
         <v>32</v>
       </c>
-      <c r="E44" s="219"/>
+      <c r="E44" s="207"/>
       <c r="F44" s="12"/>
       <c r="G44" s="1" t="s">
         <v>49</v>
@@ -3838,16 +3863,16 @@
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="211"/>
-    </row>
-    <row r="45" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="193"/>
-      <c r="B45" s="208"/>
-      <c r="C45" s="216"/>
+      <c r="M44" s="201"/>
+    </row>
+    <row r="45" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="221"/>
+      <c r="B45" s="192"/>
+      <c r="C45" s="195"/>
       <c r="D45" s="10">
         <v>32</v>
       </c>
-      <c r="E45" s="218" t="s">
+      <c r="E45" s="206" t="s">
         <v>17</v>
       </c>
       <c r="F45" s="11"/>
@@ -3865,16 +3890,16 @@
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="211"/>
-    </row>
-    <row r="46" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="193"/>
-      <c r="B46" s="208"/>
-      <c r="C46" s="217"/>
+      <c r="M45" s="201"/>
+    </row>
+    <row r="46" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="221"/>
+      <c r="B46" s="192"/>
+      <c r="C46" s="199"/>
       <c r="D46" s="10">
         <v>32</v>
       </c>
-      <c r="E46" s="219"/>
+      <c r="E46" s="207"/>
       <c r="F46" s="12"/>
       <c r="G46" s="1" t="s">
         <v>49</v>
@@ -3890,12 +3915,12 @@
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="211"/>
-    </row>
-    <row r="47" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="193"/>
-      <c r="B47" s="208"/>
-      <c r="C47" s="215" t="s">
+      <c r="M46" s="201"/>
+    </row>
+    <row r="47" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A47" s="221"/>
+      <c r="B47" s="192"/>
+      <c r="C47" s="194" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="9">
@@ -3919,12 +3944,12 @@
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="211"/>
-    </row>
-    <row r="48" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="193"/>
-      <c r="B48" s="208"/>
-      <c r="C48" s="216"/>
+      <c r="M47" s="201"/>
+    </row>
+    <row r="48" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A48" s="221"/>
+      <c r="B48" s="192"/>
+      <c r="C48" s="195"/>
       <c r="D48" s="10">
         <v>30</v>
       </c>
@@ -3946,12 +3971,12 @@
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-      <c r="M48" s="211"/>
-    </row>
-    <row r="49" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A49" s="193"/>
-      <c r="B49" s="208"/>
-      <c r="C49" s="215" t="s">
+      <c r="M48" s="201"/>
+    </row>
+    <row r="49" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A49" s="221"/>
+      <c r="B49" s="192"/>
+      <c r="C49" s="194" t="s">
         <v>19</v>
       </c>
       <c r="D49" s="9">
@@ -3975,12 +4000,12 @@
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-      <c r="M49" s="211"/>
-    </row>
-    <row r="50" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A50" s="193"/>
-      <c r="B50" s="208"/>
-      <c r="C50" s="216"/>
+      <c r="M49" s="201"/>
+    </row>
+    <row r="50" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="221"/>
+      <c r="B50" s="192"/>
+      <c r="C50" s="195"/>
       <c r="D50" s="10">
         <v>35</v>
       </c>
@@ -4002,11 +4027,11 @@
       </c>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-      <c r="M50" s="211"/>
-    </row>
-    <row r="51" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A51" s="193"/>
-      <c r="B51" s="208"/>
+      <c r="M50" s="201"/>
+    </row>
+    <row r="51" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A51" s="221"/>
+      <c r="B51" s="192"/>
       <c r="C51" s="8" t="s">
         <v>16</v>
       </c>
@@ -4029,11 +4054,11 @@
       </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
-      <c r="M51" s="211"/>
-    </row>
-    <row r="52" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="193"/>
-      <c r="B52" s="208"/>
+      <c r="M51" s="201"/>
+    </row>
+    <row r="52" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A52" s="221"/>
+      <c r="B52" s="192"/>
       <c r="C52" s="8" t="s">
         <v>45</v>
       </c>
@@ -4056,11 +4081,11 @@
       </c>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
-      <c r="M52" s="211"/>
-    </row>
-    <row r="53" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="193"/>
-      <c r="B53" s="209"/>
+      <c r="M52" s="201"/>
+    </row>
+    <row r="53" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="221"/>
+      <c r="B53" s="193"/>
       <c r="C53" s="8" t="s">
         <v>46</v>
       </c>
@@ -4083,9 +4108,9 @@
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="214"/>
-    </row>
-    <row r="54" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M53" s="202"/>
+    </row>
+    <row r="54" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="14"/>
       <c r="B54" s="15"/>
       <c r="C54" s="16"/>
@@ -4100,7 +4125,7 @@
       <c r="L54" s="18"/>
       <c r="M54" s="63"/>
     </row>
-    <row r="55" spans="1:13" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
@@ -4141,11 +4166,11 @@
         <v>94</v>
       </c>
     </row>
-    <row r="56" spans="1:13" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:13" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A56" s="169" t="s">
         <v>21</v>
       </c>
-      <c r="B56" s="207" t="s">
+      <c r="B56" s="191" t="s">
         <v>161</v>
       </c>
       <c r="C56" s="124" t="s">
@@ -4164,13 +4189,13 @@
       <c r="J56" s="127"/>
       <c r="K56" s="127"/>
       <c r="L56" s="127"/>
-      <c r="M56" s="210" t="s">
+      <c r="M56" s="200" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="57" spans="1:13" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:13" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="170"/>
-      <c r="B57" s="208"/>
+      <c r="B57" s="192"/>
       <c r="C57" s="124" t="s">
         <v>163</v>
       </c>
@@ -4187,11 +4212,11 @@
       <c r="J57" s="127"/>
       <c r="K57" s="127"/>
       <c r="L57" s="127"/>
-      <c r="M57" s="211"/>
-    </row>
-    <row r="58" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M57" s="201"/>
+    </row>
+    <row r="58" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="170"/>
-      <c r="B58" s="208"/>
+      <c r="B58" s="192"/>
       <c r="C58" s="124" t="s">
         <v>164</v>
       </c>
@@ -4208,11 +4233,11 @@
       <c r="J58" s="127"/>
       <c r="K58" s="127"/>
       <c r="L58" s="127"/>
-      <c r="M58" s="211"/>
-    </row>
-    <row r="59" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M58" s="201"/>
+    </row>
+    <row r="59" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="170"/>
-      <c r="B59" s="208"/>
+      <c r="B59" s="192"/>
       <c r="C59" s="124" t="s">
         <v>165</v>
       </c>
@@ -4229,11 +4254,11 @@
       <c r="J59" s="127"/>
       <c r="K59" s="127"/>
       <c r="L59" s="127"/>
-      <c r="M59" s="211"/>
-    </row>
-    <row r="60" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M59" s="201"/>
+    </row>
+    <row r="60" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="170"/>
-      <c r="B60" s="209"/>
+      <c r="B60" s="193"/>
       <c r="C60" s="124" t="s">
         <v>166</v>
       </c>
@@ -4250,9 +4275,9 @@
       <c r="J60" s="127"/>
       <c r="K60" s="127"/>
       <c r="L60" s="127"/>
-      <c r="M60" s="211"/>
-    </row>
-    <row r="61" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="M60" s="201"/>
+    </row>
+    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="15"/>
       <c r="B61" s="15"/>
       <c r="C61" s="16"/>
@@ -4267,7 +4292,7 @@
       <c r="L61" s="18"/>
       <c r="M61" s="63"/>
     </row>
-    <row r="62" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>0</v>
       </c>
@@ -4308,17 +4333,17 @@
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="192" t="s">
+    <row r="63" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="220" t="s">
         <v>21</v>
       </c>
-      <c r="B63" s="207" t="s">
+      <c r="B63" s="191" t="s">
         <v>167</v>
       </c>
-      <c r="C63" s="198" t="s">
+      <c r="C63" s="209" t="s">
         <v>168</v>
       </c>
-      <c r="D63" s="204">
+      <c r="D63" s="217">
         <v>28</v>
       </c>
       <c r="E63" s="128" t="s">
@@ -4327,1837 +4352,1837 @@
       <c r="F63" s="129" t="s">
         <v>172</v>
       </c>
-      <c r="G63" s="189" t="s">
-        <v>49</v>
-      </c>
-      <c r="H63" s="189" t="s">
-        <v>49</v>
-      </c>
-      <c r="I63" s="189"/>
-      <c r="J63" s="189"/>
-      <c r="K63" s="189"/>
-      <c r="L63" s="189"/>
-      <c r="M63" s="210" t="s">
+      <c r="G63" s="196" t="s">
+        <v>49</v>
+      </c>
+      <c r="H63" s="196" t="s">
+        <v>49</v>
+      </c>
+      <c r="I63" s="196"/>
+      <c r="J63" s="196"/>
+      <c r="K63" s="196"/>
+      <c r="L63" s="196"/>
+      <c r="M63" s="200" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A64" s="193"/>
-      <c r="B64" s="208"/>
-      <c r="C64" s="199"/>
-      <c r="D64" s="205"/>
+    <row r="64" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="221"/>
+      <c r="B64" s="192"/>
+      <c r="C64" s="210"/>
+      <c r="D64" s="218"/>
       <c r="E64" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F64" s="212" t="s">
         <v>200</v>
       </c>
-      <c r="G64" s="190"/>
-      <c r="H64" s="190"/>
-      <c r="I64" s="190"/>
-      <c r="J64" s="190"/>
-      <c r="K64" s="190"/>
-      <c r="L64" s="190"/>
-      <c r="M64" s="211"/>
-    </row>
-    <row r="65" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A65" s="193"/>
-      <c r="B65" s="208"/>
-      <c r="C65" s="200"/>
-      <c r="D65" s="205"/>
+      <c r="G64" s="197"/>
+      <c r="H64" s="197"/>
+      <c r="I64" s="197"/>
+      <c r="J64" s="197"/>
+      <c r="K64" s="197"/>
+      <c r="L64" s="197"/>
+      <c r="M64" s="201"/>
+    </row>
+    <row r="65" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="221"/>
+      <c r="B65" s="192"/>
+      <c r="C65" s="211"/>
+      <c r="D65" s="218"/>
       <c r="E65" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F65" s="213"/>
-      <c r="G65" s="190"/>
-      <c r="H65" s="190"/>
-      <c r="I65" s="190"/>
-      <c r="J65" s="190"/>
-      <c r="K65" s="190"/>
-      <c r="L65" s="190"/>
-      <c r="M65" s="211"/>
-    </row>
-    <row r="66" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A66" s="193"/>
-      <c r="B66" s="208"/>
-      <c r="C66" s="198" t="s">
+      <c r="G65" s="197"/>
+      <c r="H65" s="197"/>
+      <c r="I65" s="197"/>
+      <c r="J65" s="197"/>
+      <c r="K65" s="197"/>
+      <c r="L65" s="197"/>
+      <c r="M65" s="201"/>
+    </row>
+    <row r="66" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="221"/>
+      <c r="B66" s="192"/>
+      <c r="C66" s="209" t="s">
         <v>173</v>
       </c>
-      <c r="D66" s="205"/>
+      <c r="D66" s="218"/>
       <c r="E66" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F66" s="130" t="s">
         <v>201</v>
       </c>
-      <c r="G66" s="190"/>
-      <c r="H66" s="190"/>
-      <c r="I66" s="190"/>
-      <c r="J66" s="190"/>
-      <c r="K66" s="190"/>
-      <c r="L66" s="190"/>
-      <c r="M66" s="211"/>
-    </row>
-    <row r="67" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="193"/>
-      <c r="B67" s="208"/>
-      <c r="C67" s="199"/>
-      <c r="D67" s="205"/>
+      <c r="G66" s="197"/>
+      <c r="H66" s="197"/>
+      <c r="I66" s="197"/>
+      <c r="J66" s="197"/>
+      <c r="K66" s="197"/>
+      <c r="L66" s="197"/>
+      <c r="M66" s="201"/>
+    </row>
+    <row r="67" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="221"/>
+      <c r="B67" s="192"/>
+      <c r="C67" s="210"/>
+      <c r="D67" s="218"/>
       <c r="E67" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F67" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="G67" s="190"/>
-      <c r="H67" s="190"/>
-      <c r="I67" s="190"/>
-      <c r="J67" s="190"/>
-      <c r="K67" s="190"/>
-      <c r="L67" s="190"/>
-      <c r="M67" s="211"/>
-    </row>
-    <row r="68" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A68" s="193"/>
-      <c r="B68" s="208"/>
-      <c r="C68" s="199"/>
-      <c r="D68" s="205"/>
-      <c r="E68" s="201" t="s">
+      <c r="G67" s="197"/>
+      <c r="H67" s="197"/>
+      <c r="I67" s="197"/>
+      <c r="J67" s="197"/>
+      <c r="K67" s="197"/>
+      <c r="L67" s="197"/>
+      <c r="M67" s="201"/>
+    </row>
+    <row r="68" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="221"/>
+      <c r="B68" s="192"/>
+      <c r="C68" s="210"/>
+      <c r="D68" s="218"/>
+      <c r="E68" s="214" t="s">
         <v>171</v>
       </c>
       <c r="F68" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="G68" s="190"/>
-      <c r="H68" s="190"/>
-      <c r="I68" s="190"/>
-      <c r="J68" s="190"/>
-      <c r="K68" s="190"/>
-      <c r="L68" s="190"/>
-      <c r="M68" s="211"/>
-    </row>
-    <row r="69" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A69" s="193"/>
-      <c r="B69" s="208"/>
-      <c r="C69" s="200"/>
-      <c r="D69" s="205"/>
-      <c r="E69" s="202"/>
+      <c r="G68" s="197"/>
+      <c r="H68" s="197"/>
+      <c r="I68" s="197"/>
+      <c r="J68" s="197"/>
+      <c r="K68" s="197"/>
+      <c r="L68" s="197"/>
+      <c r="M68" s="201"/>
+    </row>
+    <row r="69" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="221"/>
+      <c r="B69" s="192"/>
+      <c r="C69" s="211"/>
+      <c r="D69" s="218"/>
+      <c r="E69" s="215"/>
       <c r="F69" s="130" t="s">
         <v>204</v>
       </c>
-      <c r="G69" s="190"/>
-      <c r="H69" s="190"/>
-      <c r="I69" s="190"/>
-      <c r="J69" s="190"/>
-      <c r="K69" s="190"/>
-      <c r="L69" s="190"/>
-      <c r="M69" s="211"/>
-    </row>
-    <row r="70" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A70" s="193"/>
-      <c r="B70" s="208"/>
-      <c r="C70" s="198" t="s">
+      <c r="G69" s="197"/>
+      <c r="H69" s="197"/>
+      <c r="I69" s="197"/>
+      <c r="J69" s="197"/>
+      <c r="K69" s="197"/>
+      <c r="L69" s="197"/>
+      <c r="M69" s="201"/>
+    </row>
+    <row r="70" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="221"/>
+      <c r="B70" s="192"/>
+      <c r="C70" s="209" t="s">
         <v>174</v>
       </c>
-      <c r="D70" s="205"/>
+      <c r="D70" s="218"/>
       <c r="E70" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F70" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="G70" s="190"/>
-      <c r="H70" s="190"/>
-      <c r="I70" s="190"/>
-      <c r="J70" s="190"/>
-      <c r="K70" s="190"/>
-      <c r="L70" s="190"/>
-      <c r="M70" s="211"/>
-    </row>
-    <row r="71" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="193"/>
-      <c r="B71" s="208"/>
-      <c r="C71" s="199"/>
-      <c r="D71" s="205"/>
+      <c r="G70" s="197"/>
+      <c r="H70" s="197"/>
+      <c r="I70" s="197"/>
+      <c r="J70" s="197"/>
+      <c r="K70" s="197"/>
+      <c r="L70" s="197"/>
+      <c r="M70" s="201"/>
+    </row>
+    <row r="71" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="221"/>
+      <c r="B71" s="192"/>
+      <c r="C71" s="210"/>
+      <c r="D71" s="218"/>
       <c r="E71" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F71" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="G71" s="190"/>
-      <c r="H71" s="190"/>
-      <c r="I71" s="190"/>
-      <c r="J71" s="190"/>
-      <c r="K71" s="190"/>
-      <c r="L71" s="190"/>
-      <c r="M71" s="211"/>
-    </row>
-    <row r="72" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A72" s="193"/>
-      <c r="B72" s="208"/>
-      <c r="C72" s="200"/>
-      <c r="D72" s="205"/>
+      <c r="G71" s="197"/>
+      <c r="H71" s="197"/>
+      <c r="I71" s="197"/>
+      <c r="J71" s="197"/>
+      <c r="K71" s="197"/>
+      <c r="L71" s="197"/>
+      <c r="M71" s="201"/>
+    </row>
+    <row r="72" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="221"/>
+      <c r="B72" s="192"/>
+      <c r="C72" s="211"/>
+      <c r="D72" s="218"/>
       <c r="E72" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F72" s="130" t="s">
         <v>205</v>
       </c>
-      <c r="G72" s="190"/>
-      <c r="H72" s="190"/>
-      <c r="I72" s="190"/>
-      <c r="J72" s="190"/>
-      <c r="K72" s="190"/>
-      <c r="L72" s="190"/>
-      <c r="M72" s="211"/>
-    </row>
-    <row r="73" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="193"/>
-      <c r="B73" s="208"/>
-      <c r="C73" s="198" t="s">
+      <c r="G72" s="197"/>
+      <c r="H72" s="197"/>
+      <c r="I72" s="197"/>
+      <c r="J72" s="197"/>
+      <c r="K72" s="197"/>
+      <c r="L72" s="197"/>
+      <c r="M72" s="201"/>
+    </row>
+    <row r="73" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="221"/>
+      <c r="B73" s="192"/>
+      <c r="C73" s="209" t="s">
         <v>175</v>
       </c>
-      <c r="D73" s="205"/>
+      <c r="D73" s="218"/>
       <c r="E73" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F73" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="G73" s="190"/>
-      <c r="H73" s="190"/>
-      <c r="I73" s="190"/>
-      <c r="J73" s="190"/>
-      <c r="K73" s="190"/>
-      <c r="L73" s="190"/>
-      <c r="M73" s="211"/>
-    </row>
-    <row r="74" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="193"/>
-      <c r="B74" s="208"/>
-      <c r="C74" s="199"/>
-      <c r="D74" s="205"/>
+      <c r="G73" s="197"/>
+      <c r="H73" s="197"/>
+      <c r="I73" s="197"/>
+      <c r="J73" s="197"/>
+      <c r="K73" s="197"/>
+      <c r="L73" s="197"/>
+      <c r="M73" s="201"/>
+    </row>
+    <row r="74" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="221"/>
+      <c r="B74" s="192"/>
+      <c r="C74" s="210"/>
+      <c r="D74" s="218"/>
       <c r="E74" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F74" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="G74" s="190"/>
-      <c r="H74" s="190"/>
-      <c r="I74" s="190"/>
-      <c r="J74" s="190"/>
-      <c r="K74" s="190"/>
-      <c r="L74" s="190"/>
-      <c r="M74" s="211"/>
-    </row>
-    <row r="75" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="193"/>
-      <c r="B75" s="208"/>
-      <c r="C75" s="200"/>
-      <c r="D75" s="205"/>
+      <c r="G74" s="197"/>
+      <c r="H74" s="197"/>
+      <c r="I74" s="197"/>
+      <c r="J74" s="197"/>
+      <c r="K74" s="197"/>
+      <c r="L74" s="197"/>
+      <c r="M74" s="201"/>
+    </row>
+    <row r="75" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="221"/>
+      <c r="B75" s="192"/>
+      <c r="C75" s="211"/>
+      <c r="D75" s="218"/>
       <c r="E75" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F75" s="130" t="s">
         <v>207</v>
       </c>
-      <c r="G75" s="190"/>
-      <c r="H75" s="190"/>
-      <c r="I75" s="190"/>
-      <c r="J75" s="190"/>
-      <c r="K75" s="190"/>
-      <c r="L75" s="190"/>
-      <c r="M75" s="211"/>
-    </row>
-    <row r="76" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="193"/>
-      <c r="B76" s="208"/>
-      <c r="C76" s="198" t="s">
+      <c r="G75" s="197"/>
+      <c r="H75" s="197"/>
+      <c r="I75" s="197"/>
+      <c r="J75" s="197"/>
+      <c r="K75" s="197"/>
+      <c r="L75" s="197"/>
+      <c r="M75" s="201"/>
+    </row>
+    <row r="76" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="221"/>
+      <c r="B76" s="192"/>
+      <c r="C76" s="209" t="s">
         <v>176</v>
       </c>
-      <c r="D76" s="205"/>
+      <c r="D76" s="218"/>
       <c r="E76" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F76" s="130" t="s">
         <v>208</v>
       </c>
-      <c r="G76" s="190"/>
-      <c r="H76" s="190"/>
-      <c r="I76" s="190"/>
-      <c r="J76" s="190"/>
-      <c r="K76" s="190"/>
-      <c r="L76" s="190"/>
-      <c r="M76" s="211"/>
-    </row>
-    <row r="77" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="193"/>
-      <c r="B77" s="208"/>
-      <c r="C77" s="199"/>
-      <c r="D77" s="205"/>
+      <c r="G76" s="197"/>
+      <c r="H76" s="197"/>
+      <c r="I76" s="197"/>
+      <c r="J76" s="197"/>
+      <c r="K76" s="197"/>
+      <c r="L76" s="197"/>
+      <c r="M76" s="201"/>
+    </row>
+    <row r="77" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="221"/>
+      <c r="B77" s="192"/>
+      <c r="C77" s="210"/>
+      <c r="D77" s="218"/>
       <c r="E77" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F77" s="130" t="s">
         <v>208</v>
       </c>
-      <c r="G77" s="190"/>
-      <c r="H77" s="190"/>
-      <c r="I77" s="190"/>
-      <c r="J77" s="190"/>
-      <c r="K77" s="190"/>
-      <c r="L77" s="190"/>
-      <c r="M77" s="211"/>
-    </row>
-    <row r="78" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="193"/>
-      <c r="B78" s="208"/>
-      <c r="C78" s="200"/>
-      <c r="D78" s="205"/>
+      <c r="G77" s="197"/>
+      <c r="H77" s="197"/>
+      <c r="I77" s="197"/>
+      <c r="J77" s="197"/>
+      <c r="K77" s="197"/>
+      <c r="L77" s="197"/>
+      <c r="M77" s="201"/>
+    </row>
+    <row r="78" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="221"/>
+      <c r="B78" s="192"/>
+      <c r="C78" s="211"/>
+      <c r="D78" s="218"/>
       <c r="E78" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F78" s="130" t="s">
         <v>208</v>
       </c>
-      <c r="G78" s="190"/>
-      <c r="H78" s="190"/>
-      <c r="I78" s="190"/>
-      <c r="J78" s="190"/>
-      <c r="K78" s="190"/>
-      <c r="L78" s="190"/>
-      <c r="M78" s="211"/>
-    </row>
-    <row r="79" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="193"/>
-      <c r="B79" s="208"/>
-      <c r="C79" s="198" t="s">
+      <c r="G78" s="197"/>
+      <c r="H78" s="197"/>
+      <c r="I78" s="197"/>
+      <c r="J78" s="197"/>
+      <c r="K78" s="197"/>
+      <c r="L78" s="197"/>
+      <c r="M78" s="201"/>
+    </row>
+    <row r="79" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="221"/>
+      <c r="B79" s="192"/>
+      <c r="C79" s="209" t="s">
         <v>177</v>
       </c>
-      <c r="D79" s="205"/>
+      <c r="D79" s="218"/>
       <c r="E79" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F79" s="130" t="s">
         <v>204</v>
       </c>
-      <c r="G79" s="190"/>
-      <c r="H79" s="190"/>
-      <c r="I79" s="190"/>
-      <c r="J79" s="190"/>
-      <c r="K79" s="190"/>
-      <c r="L79" s="190"/>
-      <c r="M79" s="211"/>
-    </row>
-    <row r="80" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="193"/>
-      <c r="B80" s="208"/>
-      <c r="C80" s="199"/>
-      <c r="D80" s="205"/>
+      <c r="G79" s="197"/>
+      <c r="H79" s="197"/>
+      <c r="I79" s="197"/>
+      <c r="J79" s="197"/>
+      <c r="K79" s="197"/>
+      <c r="L79" s="197"/>
+      <c r="M79" s="201"/>
+    </row>
+    <row r="80" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="221"/>
+      <c r="B80" s="192"/>
+      <c r="C80" s="210"/>
+      <c r="D80" s="218"/>
       <c r="E80" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F80" s="130" t="s">
         <v>209</v>
       </c>
-      <c r="G80" s="190"/>
-      <c r="H80" s="190"/>
-      <c r="I80" s="190"/>
-      <c r="J80" s="190"/>
-      <c r="K80" s="190"/>
-      <c r="L80" s="190"/>
-      <c r="M80" s="211"/>
-    </row>
-    <row r="81" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="193"/>
-      <c r="B81" s="208"/>
-      <c r="C81" s="200"/>
-      <c r="D81" s="205"/>
+      <c r="G80" s="197"/>
+      <c r="H80" s="197"/>
+      <c r="I80" s="197"/>
+      <c r="J80" s="197"/>
+      <c r="K80" s="197"/>
+      <c r="L80" s="197"/>
+      <c r="M80" s="201"/>
+    </row>
+    <row r="81" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="221"/>
+      <c r="B81" s="192"/>
+      <c r="C81" s="211"/>
+      <c r="D81" s="218"/>
       <c r="E81" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F81" s="130" t="s">
         <v>210</v>
       </c>
-      <c r="G81" s="190"/>
-      <c r="H81" s="190"/>
-      <c r="I81" s="190"/>
-      <c r="J81" s="190"/>
-      <c r="K81" s="190"/>
-      <c r="L81" s="190"/>
-      <c r="M81" s="211"/>
-    </row>
-    <row r="82" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="193"/>
-      <c r="B82" s="208"/>
-      <c r="C82" s="198" t="s">
+      <c r="G81" s="197"/>
+      <c r="H81" s="197"/>
+      <c r="I81" s="197"/>
+      <c r="J81" s="197"/>
+      <c r="K81" s="197"/>
+      <c r="L81" s="197"/>
+      <c r="M81" s="201"/>
+    </row>
+    <row r="82" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="221"/>
+      <c r="B82" s="192"/>
+      <c r="C82" s="209" t="s">
         <v>178</v>
       </c>
-      <c r="D82" s="205"/>
+      <c r="D82" s="218"/>
       <c r="E82" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F82" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="G82" s="190"/>
-      <c r="H82" s="190"/>
-      <c r="I82" s="190"/>
-      <c r="J82" s="190"/>
-      <c r="K82" s="190"/>
-      <c r="L82" s="190"/>
-      <c r="M82" s="211"/>
-    </row>
-    <row r="83" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="193"/>
-      <c r="B83" s="208"/>
-      <c r="C83" s="199"/>
-      <c r="D83" s="205"/>
+      <c r="G82" s="197"/>
+      <c r="H82" s="197"/>
+      <c r="I82" s="197"/>
+      <c r="J82" s="197"/>
+      <c r="K82" s="197"/>
+      <c r="L82" s="197"/>
+      <c r="M82" s="201"/>
+    </row>
+    <row r="83" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="221"/>
+      <c r="B83" s="192"/>
+      <c r="C83" s="210"/>
+      <c r="D83" s="218"/>
       <c r="E83" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F83" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="G83" s="190"/>
-      <c r="H83" s="190"/>
-      <c r="I83" s="190"/>
-      <c r="J83" s="190"/>
-      <c r="K83" s="190"/>
-      <c r="L83" s="190"/>
-      <c r="M83" s="211"/>
-    </row>
-    <row r="84" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="193"/>
-      <c r="B84" s="208"/>
-      <c r="C84" s="200"/>
-      <c r="D84" s="205"/>
+      <c r="G83" s="197"/>
+      <c r="H83" s="197"/>
+      <c r="I83" s="197"/>
+      <c r="J83" s="197"/>
+      <c r="K83" s="197"/>
+      <c r="L83" s="197"/>
+      <c r="M83" s="201"/>
+    </row>
+    <row r="84" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="221"/>
+      <c r="B84" s="192"/>
+      <c r="C84" s="211"/>
+      <c r="D84" s="218"/>
       <c r="E84" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F84" s="130" t="s">
         <v>211</v>
       </c>
-      <c r="G84" s="190"/>
-      <c r="H84" s="190"/>
-      <c r="I84" s="190"/>
-      <c r="J84" s="190"/>
-      <c r="K84" s="190"/>
-      <c r="L84" s="190"/>
-      <c r="M84" s="211"/>
-    </row>
-    <row r="85" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="193"/>
-      <c r="B85" s="208"/>
-      <c r="C85" s="198" t="s">
+      <c r="G84" s="197"/>
+      <c r="H84" s="197"/>
+      <c r="I84" s="197"/>
+      <c r="J84" s="197"/>
+      <c r="K84" s="197"/>
+      <c r="L84" s="197"/>
+      <c r="M84" s="201"/>
+    </row>
+    <row r="85" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="221"/>
+      <c r="B85" s="192"/>
+      <c r="C85" s="209" t="s">
         <v>179</v>
       </c>
-      <c r="D85" s="205"/>
-      <c r="E85" s="201" t="s">
+      <c r="D85" s="218"/>
+      <c r="E85" s="214" t="s">
         <v>169</v>
       </c>
       <c r="F85" s="130" t="s">
         <v>212</v>
       </c>
-      <c r="G85" s="190"/>
-      <c r="H85" s="190"/>
-      <c r="I85" s="190"/>
-      <c r="J85" s="190"/>
-      <c r="K85" s="190"/>
-      <c r="L85" s="190"/>
-      <c r="M85" s="211"/>
-    </row>
-    <row r="86" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A86" s="193"/>
-      <c r="B86" s="208"/>
-      <c r="C86" s="199"/>
-      <c r="D86" s="205"/>
-      <c r="E86" s="202"/>
+      <c r="G85" s="197"/>
+      <c r="H85" s="197"/>
+      <c r="I85" s="197"/>
+      <c r="J85" s="197"/>
+      <c r="K85" s="197"/>
+      <c r="L85" s="197"/>
+      <c r="M85" s="201"/>
+    </row>
+    <row r="86" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="221"/>
+      <c r="B86" s="192"/>
+      <c r="C86" s="210"/>
+      <c r="D86" s="218"/>
+      <c r="E86" s="215"/>
       <c r="F86" s="130" t="s">
         <v>213</v>
       </c>
-      <c r="G86" s="190"/>
-      <c r="H86" s="190"/>
-      <c r="I86" s="190"/>
-      <c r="J86" s="190"/>
-      <c r="K86" s="190"/>
-      <c r="L86" s="190"/>
-      <c r="M86" s="211"/>
-    </row>
-    <row r="87" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="193"/>
-      <c r="B87" s="208"/>
-      <c r="C87" s="199"/>
-      <c r="D87" s="205"/>
+      <c r="G86" s="197"/>
+      <c r="H86" s="197"/>
+      <c r="I86" s="197"/>
+      <c r="J86" s="197"/>
+      <c r="K86" s="197"/>
+      <c r="L86" s="197"/>
+      <c r="M86" s="201"/>
+    </row>
+    <row r="87" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="221"/>
+      <c r="B87" s="192"/>
+      <c r="C87" s="210"/>
+      <c r="D87" s="218"/>
       <c r="E87" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F87" s="130" t="s">
         <v>213</v>
       </c>
-      <c r="G87" s="190"/>
-      <c r="H87" s="190"/>
-      <c r="I87" s="190"/>
-      <c r="J87" s="190"/>
-      <c r="K87" s="190"/>
-      <c r="L87" s="190"/>
-      <c r="M87" s="211"/>
-    </row>
-    <row r="88" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A88" s="193"/>
-      <c r="B88" s="208"/>
-      <c r="C88" s="200"/>
-      <c r="D88" s="205"/>
+      <c r="G87" s="197"/>
+      <c r="H87" s="197"/>
+      <c r="I87" s="197"/>
+      <c r="J87" s="197"/>
+      <c r="K87" s="197"/>
+      <c r="L87" s="197"/>
+      <c r="M87" s="201"/>
+    </row>
+    <row r="88" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="221"/>
+      <c r="B88" s="192"/>
+      <c r="C88" s="211"/>
+      <c r="D88" s="218"/>
       <c r="E88" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F88" s="130" t="s">
         <v>214</v>
       </c>
-      <c r="G88" s="190"/>
-      <c r="H88" s="190"/>
-      <c r="I88" s="190"/>
-      <c r="J88" s="190"/>
-      <c r="K88" s="190"/>
-      <c r="L88" s="190"/>
-      <c r="M88" s="211"/>
-    </row>
-    <row r="89" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="193"/>
-      <c r="B89" s="208"/>
-      <c r="C89" s="198" t="s">
+      <c r="G88" s="197"/>
+      <c r="H88" s="197"/>
+      <c r="I88" s="197"/>
+      <c r="J88" s="197"/>
+      <c r="K88" s="197"/>
+      <c r="L88" s="197"/>
+      <c r="M88" s="201"/>
+    </row>
+    <row r="89" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="221"/>
+      <c r="B89" s="192"/>
+      <c r="C89" s="209" t="s">
         <v>180</v>
       </c>
-      <c r="D89" s="205"/>
+      <c r="D89" s="218"/>
       <c r="E89" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F89" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="G89" s="190"/>
-      <c r="H89" s="190"/>
-      <c r="I89" s="190"/>
-      <c r="J89" s="190"/>
-      <c r="K89" s="190"/>
-      <c r="L89" s="190"/>
-      <c r="M89" s="211"/>
-    </row>
-    <row r="90" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A90" s="193"/>
-      <c r="B90" s="208"/>
-      <c r="C90" s="199"/>
-      <c r="D90" s="205"/>
+      <c r="G89" s="197"/>
+      <c r="H89" s="197"/>
+      <c r="I89" s="197"/>
+      <c r="J89" s="197"/>
+      <c r="K89" s="197"/>
+      <c r="L89" s="197"/>
+      <c r="M89" s="201"/>
+    </row>
+    <row r="90" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="221"/>
+      <c r="B90" s="192"/>
+      <c r="C90" s="210"/>
+      <c r="D90" s="218"/>
       <c r="E90" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F90" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="G90" s="190"/>
-      <c r="H90" s="190"/>
-      <c r="I90" s="190"/>
-      <c r="J90" s="190"/>
-      <c r="K90" s="190"/>
-      <c r="L90" s="190"/>
-      <c r="M90" s="211"/>
-    </row>
-    <row r="91" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="193"/>
-      <c r="B91" s="208"/>
-      <c r="C91" s="199"/>
-      <c r="D91" s="205"/>
-      <c r="E91" s="201" t="s">
+      <c r="G90" s="197"/>
+      <c r="H90" s="197"/>
+      <c r="I90" s="197"/>
+      <c r="J90" s="197"/>
+      <c r="K90" s="197"/>
+      <c r="L90" s="197"/>
+      <c r="M90" s="201"/>
+    </row>
+    <row r="91" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="221"/>
+      <c r="B91" s="192"/>
+      <c r="C91" s="210"/>
+      <c r="D91" s="218"/>
+      <c r="E91" s="214" t="s">
         <v>171</v>
       </c>
       <c r="F91" s="130" t="s">
         <v>207</v>
       </c>
-      <c r="G91" s="190"/>
-      <c r="H91" s="190"/>
-      <c r="I91" s="190"/>
-      <c r="J91" s="190"/>
-      <c r="K91" s="190"/>
-      <c r="L91" s="190"/>
-      <c r="M91" s="211"/>
-    </row>
-    <row r="92" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A92" s="193"/>
-      <c r="B92" s="208"/>
-      <c r="C92" s="200"/>
-      <c r="D92" s="205"/>
-      <c r="E92" s="202"/>
+      <c r="G91" s="197"/>
+      <c r="H91" s="197"/>
+      <c r="I91" s="197"/>
+      <c r="J91" s="197"/>
+      <c r="K91" s="197"/>
+      <c r="L91" s="197"/>
+      <c r="M91" s="201"/>
+    </row>
+    <row r="92" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="221"/>
+      <c r="B92" s="192"/>
+      <c r="C92" s="211"/>
+      <c r="D92" s="218"/>
+      <c r="E92" s="215"/>
       <c r="F92" s="130" t="s">
         <v>208</v>
       </c>
-      <c r="G92" s="190"/>
-      <c r="H92" s="190"/>
-      <c r="I92" s="190"/>
-      <c r="J92" s="190"/>
-      <c r="K92" s="190"/>
-      <c r="L92" s="190"/>
-      <c r="M92" s="211"/>
-    </row>
-    <row r="93" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="193"/>
-      <c r="B93" s="208"/>
-      <c r="C93" s="198" t="s">
+      <c r="G92" s="197"/>
+      <c r="H92" s="197"/>
+      <c r="I92" s="197"/>
+      <c r="J92" s="197"/>
+      <c r="K92" s="197"/>
+      <c r="L92" s="197"/>
+      <c r="M92" s="201"/>
+    </row>
+    <row r="93" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="221"/>
+      <c r="B93" s="192"/>
+      <c r="C93" s="209" t="s">
         <v>181</v>
       </c>
-      <c r="D93" s="205"/>
+      <c r="D93" s="218"/>
       <c r="E93" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F93" s="130" t="s">
         <v>215</v>
       </c>
-      <c r="G93" s="190"/>
-      <c r="H93" s="190"/>
-      <c r="I93" s="190"/>
-      <c r="J93" s="190"/>
-      <c r="K93" s="190"/>
-      <c r="L93" s="190"/>
-      <c r="M93" s="211"/>
-    </row>
-    <row r="94" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A94" s="193"/>
-      <c r="B94" s="208"/>
-      <c r="C94" s="199"/>
-      <c r="D94" s="205"/>
+      <c r="G93" s="197"/>
+      <c r="H93" s="197"/>
+      <c r="I93" s="197"/>
+      <c r="J93" s="197"/>
+      <c r="K93" s="197"/>
+      <c r="L93" s="197"/>
+      <c r="M93" s="201"/>
+    </row>
+    <row r="94" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="221"/>
+      <c r="B94" s="192"/>
+      <c r="C94" s="210"/>
+      <c r="D94" s="218"/>
       <c r="E94" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F94" s="130" t="s">
         <v>207</v>
       </c>
-      <c r="G94" s="190"/>
-      <c r="H94" s="190"/>
-      <c r="I94" s="190"/>
-      <c r="J94" s="190"/>
-      <c r="K94" s="190"/>
-      <c r="L94" s="190"/>
-      <c r="M94" s="211"/>
-    </row>
-    <row r="95" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="193"/>
-      <c r="B95" s="208"/>
-      <c r="C95" s="200"/>
-      <c r="D95" s="205"/>
+      <c r="G94" s="197"/>
+      <c r="H94" s="197"/>
+      <c r="I94" s="197"/>
+      <c r="J94" s="197"/>
+      <c r="K94" s="197"/>
+      <c r="L94" s="197"/>
+      <c r="M94" s="201"/>
+    </row>
+    <row r="95" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="221"/>
+      <c r="B95" s="192"/>
+      <c r="C95" s="211"/>
+      <c r="D95" s="218"/>
       <c r="E95" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F95" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="G95" s="190"/>
-      <c r="H95" s="190"/>
-      <c r="I95" s="190"/>
-      <c r="J95" s="190"/>
-      <c r="K95" s="190"/>
-      <c r="L95" s="190"/>
-      <c r="M95" s="211"/>
-    </row>
-    <row r="96" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A96" s="193"/>
-      <c r="B96" s="208"/>
-      <c r="C96" s="198" t="s">
+      <c r="G95" s="197"/>
+      <c r="H95" s="197"/>
+      <c r="I95" s="197"/>
+      <c r="J95" s="197"/>
+      <c r="K95" s="197"/>
+      <c r="L95" s="197"/>
+      <c r="M95" s="201"/>
+    </row>
+    <row r="96" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="221"/>
+      <c r="B96" s="192"/>
+      <c r="C96" s="209" t="s">
         <v>182</v>
       </c>
-      <c r="D96" s="205"/>
+      <c r="D96" s="218"/>
       <c r="E96" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F96" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="G96" s="190"/>
-      <c r="H96" s="190"/>
-      <c r="I96" s="190"/>
-      <c r="J96" s="190"/>
-      <c r="K96" s="190"/>
-      <c r="L96" s="190"/>
-      <c r="M96" s="211"/>
-    </row>
-    <row r="97" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="193"/>
-      <c r="B97" s="208"/>
-      <c r="C97" s="199"/>
-      <c r="D97" s="205"/>
-      <c r="E97" s="201" t="s">
+      <c r="G96" s="197"/>
+      <c r="H96" s="197"/>
+      <c r="I96" s="197"/>
+      <c r="J96" s="197"/>
+      <c r="K96" s="197"/>
+      <c r="L96" s="197"/>
+      <c r="M96" s="201"/>
+    </row>
+    <row r="97" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="221"/>
+      <c r="B97" s="192"/>
+      <c r="C97" s="210"/>
+      <c r="D97" s="218"/>
+      <c r="E97" s="214" t="s">
         <v>170</v>
       </c>
       <c r="F97" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="G97" s="190"/>
-      <c r="H97" s="190"/>
-      <c r="I97" s="190"/>
-      <c r="J97" s="190"/>
-      <c r="K97" s="190"/>
-      <c r="L97" s="190"/>
-      <c r="M97" s="211"/>
-    </row>
-    <row r="98" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A98" s="193"/>
-      <c r="B98" s="208"/>
-      <c r="C98" s="199"/>
-      <c r="D98" s="205"/>
-      <c r="E98" s="202"/>
+      <c r="G97" s="197"/>
+      <c r="H97" s="197"/>
+      <c r="I97" s="197"/>
+      <c r="J97" s="197"/>
+      <c r="K97" s="197"/>
+      <c r="L97" s="197"/>
+      <c r="M97" s="201"/>
+    </row>
+    <row r="98" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="221"/>
+      <c r="B98" s="192"/>
+      <c r="C98" s="210"/>
+      <c r="D98" s="218"/>
+      <c r="E98" s="215"/>
       <c r="F98" s="130" t="s">
         <v>204</v>
       </c>
-      <c r="G98" s="190"/>
-      <c r="H98" s="190"/>
-      <c r="I98" s="190"/>
-      <c r="J98" s="190"/>
-      <c r="K98" s="190"/>
-      <c r="L98" s="190"/>
-      <c r="M98" s="211"/>
-    </row>
-    <row r="99" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="193"/>
-      <c r="B99" s="208"/>
-      <c r="C99" s="200"/>
-      <c r="D99" s="205"/>
+      <c r="G98" s="197"/>
+      <c r="H98" s="197"/>
+      <c r="I98" s="197"/>
+      <c r="J98" s="197"/>
+      <c r="K98" s="197"/>
+      <c r="L98" s="197"/>
+      <c r="M98" s="201"/>
+    </row>
+    <row r="99" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="221"/>
+      <c r="B99" s="192"/>
+      <c r="C99" s="211"/>
+      <c r="D99" s="218"/>
       <c r="E99" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F99" s="130" t="s">
         <v>205</v>
       </c>
-      <c r="G99" s="190"/>
-      <c r="H99" s="190"/>
-      <c r="I99" s="190"/>
-      <c r="J99" s="190"/>
-      <c r="K99" s="190"/>
-      <c r="L99" s="190"/>
-      <c r="M99" s="211"/>
-    </row>
-    <row r="100" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="193"/>
-      <c r="B100" s="208"/>
-      <c r="C100" s="198" t="s">
+      <c r="G99" s="197"/>
+      <c r="H99" s="197"/>
+      <c r="I99" s="197"/>
+      <c r="J99" s="197"/>
+      <c r="K99" s="197"/>
+      <c r="L99" s="197"/>
+      <c r="M99" s="201"/>
+    </row>
+    <row r="100" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="221"/>
+      <c r="B100" s="192"/>
+      <c r="C100" s="209" t="s">
         <v>183</v>
       </c>
-      <c r="D100" s="205"/>
-      <c r="E100" s="201" t="s">
+      <c r="D100" s="218"/>
+      <c r="E100" s="214" t="s">
         <v>169</v>
       </c>
       <c r="F100" s="130" t="s">
         <v>216</v>
       </c>
-      <c r="G100" s="190"/>
-      <c r="H100" s="190"/>
-      <c r="I100" s="190"/>
-      <c r="J100" s="190"/>
-      <c r="K100" s="190"/>
-      <c r="L100" s="190"/>
-      <c r="M100" s="211"/>
-    </row>
-    <row r="101" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="193"/>
-      <c r="B101" s="208"/>
-      <c r="C101" s="199"/>
-      <c r="D101" s="205"/>
-      <c r="E101" s="202"/>
+      <c r="G100" s="197"/>
+      <c r="H100" s="197"/>
+      <c r="I100" s="197"/>
+      <c r="J100" s="197"/>
+      <c r="K100" s="197"/>
+      <c r="L100" s="197"/>
+      <c r="M100" s="201"/>
+    </row>
+    <row r="101" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="221"/>
+      <c r="B101" s="192"/>
+      <c r="C101" s="210"/>
+      <c r="D101" s="218"/>
+      <c r="E101" s="215"/>
       <c r="F101" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="G101" s="190"/>
-      <c r="H101" s="190"/>
-      <c r="I101" s="190"/>
-      <c r="J101" s="190"/>
-      <c r="K101" s="190"/>
-      <c r="L101" s="190"/>
-      <c r="M101" s="211"/>
-    </row>
-    <row r="102" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A102" s="193"/>
-      <c r="B102" s="208"/>
-      <c r="C102" s="199"/>
-      <c r="D102" s="205"/>
+      <c r="G101" s="197"/>
+      <c r="H101" s="197"/>
+      <c r="I101" s="197"/>
+      <c r="J101" s="197"/>
+      <c r="K101" s="197"/>
+      <c r="L101" s="197"/>
+      <c r="M101" s="201"/>
+    </row>
+    <row r="102" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="221"/>
+      <c r="B102" s="192"/>
+      <c r="C102" s="210"/>
+      <c r="D102" s="218"/>
       <c r="E102" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F102" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="G102" s="190"/>
-      <c r="H102" s="190"/>
-      <c r="I102" s="190"/>
-      <c r="J102" s="190"/>
-      <c r="K102" s="190"/>
-      <c r="L102" s="190"/>
-      <c r="M102" s="211"/>
-    </row>
-    <row r="103" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A103" s="193"/>
-      <c r="B103" s="208"/>
-      <c r="C103" s="199"/>
-      <c r="D103" s="205"/>
-      <c r="E103" s="201" t="s">
+      <c r="G102" s="197"/>
+      <c r="H102" s="197"/>
+      <c r="I102" s="197"/>
+      <c r="J102" s="197"/>
+      <c r="K102" s="197"/>
+      <c r="L102" s="197"/>
+      <c r="M102" s="201"/>
+    </row>
+    <row r="103" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="221"/>
+      <c r="B103" s="192"/>
+      <c r="C103" s="210"/>
+      <c r="D103" s="218"/>
+      <c r="E103" s="214" t="s">
         <v>171</v>
       </c>
       <c r="F103" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="G103" s="190"/>
-      <c r="H103" s="190"/>
-      <c r="I103" s="190"/>
-      <c r="J103" s="190"/>
-      <c r="K103" s="190"/>
-      <c r="L103" s="190"/>
-      <c r="M103" s="211"/>
-    </row>
-    <row r="104" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A104" s="193"/>
-      <c r="B104" s="208"/>
-      <c r="C104" s="200"/>
-      <c r="D104" s="205"/>
-      <c r="E104" s="202"/>
+      <c r="G103" s="197"/>
+      <c r="H103" s="197"/>
+      <c r="I103" s="197"/>
+      <c r="J103" s="197"/>
+      <c r="K103" s="197"/>
+      <c r="L103" s="197"/>
+      <c r="M103" s="201"/>
+    </row>
+    <row r="104" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="221"/>
+      <c r="B104" s="192"/>
+      <c r="C104" s="211"/>
+      <c r="D104" s="218"/>
+      <c r="E104" s="215"/>
       <c r="F104" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="G104" s="190"/>
-      <c r="H104" s="190"/>
-      <c r="I104" s="190"/>
-      <c r="J104" s="190"/>
-      <c r="K104" s="190"/>
-      <c r="L104" s="190"/>
-      <c r="M104" s="211"/>
-    </row>
-    <row r="105" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A105" s="193"/>
-      <c r="B105" s="208"/>
-      <c r="C105" s="198" t="s">
+      <c r="G104" s="197"/>
+      <c r="H104" s="197"/>
+      <c r="I104" s="197"/>
+      <c r="J104" s="197"/>
+      <c r="K104" s="197"/>
+      <c r="L104" s="197"/>
+      <c r="M104" s="201"/>
+    </row>
+    <row r="105" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="221"/>
+      <c r="B105" s="192"/>
+      <c r="C105" s="209" t="s">
         <v>184</v>
       </c>
-      <c r="D105" s="205"/>
+      <c r="D105" s="218"/>
       <c r="E105" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F105" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="G105" s="190"/>
-      <c r="H105" s="190"/>
-      <c r="I105" s="190"/>
-      <c r="J105" s="190"/>
-      <c r="K105" s="190"/>
-      <c r="L105" s="190"/>
-      <c r="M105" s="211"/>
-    </row>
-    <row r="106" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A106" s="193"/>
-      <c r="B106" s="208"/>
-      <c r="C106" s="199"/>
-      <c r="D106" s="205"/>
+      <c r="G105" s="197"/>
+      <c r="H105" s="197"/>
+      <c r="I105" s="197"/>
+      <c r="J105" s="197"/>
+      <c r="K105" s="197"/>
+      <c r="L105" s="197"/>
+      <c r="M105" s="201"/>
+    </row>
+    <row r="106" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="221"/>
+      <c r="B106" s="192"/>
+      <c r="C106" s="210"/>
+      <c r="D106" s="218"/>
       <c r="E106" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F106" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="G106" s="190"/>
-      <c r="H106" s="190"/>
-      <c r="I106" s="190"/>
-      <c r="J106" s="190"/>
-      <c r="K106" s="190"/>
-      <c r="L106" s="190"/>
-      <c r="M106" s="211"/>
-    </row>
-    <row r="107" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A107" s="193"/>
-      <c r="B107" s="208"/>
-      <c r="C107" s="200"/>
-      <c r="D107" s="205"/>
+      <c r="G106" s="197"/>
+      <c r="H106" s="197"/>
+      <c r="I106" s="197"/>
+      <c r="J106" s="197"/>
+      <c r="K106" s="197"/>
+      <c r="L106" s="197"/>
+      <c r="M106" s="201"/>
+    </row>
+    <row r="107" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="221"/>
+      <c r="B107" s="192"/>
+      <c r="C107" s="211"/>
+      <c r="D107" s="218"/>
       <c r="E107" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F107" s="130" t="s">
         <v>217</v>
       </c>
-      <c r="G107" s="190"/>
-      <c r="H107" s="190"/>
-      <c r="I107" s="190"/>
-      <c r="J107" s="190"/>
-      <c r="K107" s="190"/>
-      <c r="L107" s="190"/>
-      <c r="M107" s="211"/>
-    </row>
-    <row r="108" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A108" s="193"/>
-      <c r="B108" s="208"/>
-      <c r="C108" s="198" t="s">
+      <c r="G107" s="197"/>
+      <c r="H107" s="197"/>
+      <c r="I107" s="197"/>
+      <c r="J107" s="197"/>
+      <c r="K107" s="197"/>
+      <c r="L107" s="197"/>
+      <c r="M107" s="201"/>
+    </row>
+    <row r="108" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="221"/>
+      <c r="B108" s="192"/>
+      <c r="C108" s="209" t="s">
         <v>185</v>
       </c>
-      <c r="D108" s="205"/>
+      <c r="D108" s="218"/>
       <c r="E108" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F108" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="G108" s="190"/>
-      <c r="H108" s="190"/>
-      <c r="I108" s="190"/>
-      <c r="J108" s="190"/>
-      <c r="K108" s="190"/>
-      <c r="L108" s="190"/>
-      <c r="M108" s="211"/>
-    </row>
-    <row r="109" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A109" s="193"/>
-      <c r="B109" s="208"/>
-      <c r="C109" s="199"/>
-      <c r="D109" s="205"/>
-      <c r="E109" s="201" t="s">
+      <c r="G108" s="197"/>
+      <c r="H108" s="197"/>
+      <c r="I108" s="197"/>
+      <c r="J108" s="197"/>
+      <c r="K108" s="197"/>
+      <c r="L108" s="197"/>
+      <c r="M108" s="201"/>
+    </row>
+    <row r="109" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="221"/>
+      <c r="B109" s="192"/>
+      <c r="C109" s="210"/>
+      <c r="D109" s="218"/>
+      <c r="E109" s="214" t="s">
         <v>170</v>
       </c>
       <c r="F109" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="G109" s="190"/>
-      <c r="H109" s="190"/>
-      <c r="I109" s="190"/>
-      <c r="J109" s="190"/>
-      <c r="K109" s="190"/>
-      <c r="L109" s="190"/>
-      <c r="M109" s="211"/>
-    </row>
-    <row r="110" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A110" s="193"/>
-      <c r="B110" s="208"/>
-      <c r="C110" s="199"/>
-      <c r="D110" s="205"/>
-      <c r="E110" s="202"/>
+      <c r="G109" s="197"/>
+      <c r="H109" s="197"/>
+      <c r="I109" s="197"/>
+      <c r="J109" s="197"/>
+      <c r="K109" s="197"/>
+      <c r="L109" s="197"/>
+      <c r="M109" s="201"/>
+    </row>
+    <row r="110" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="221"/>
+      <c r="B110" s="192"/>
+      <c r="C110" s="210"/>
+      <c r="D110" s="218"/>
+      <c r="E110" s="215"/>
       <c r="F110" s="130" t="s">
         <v>218</v>
       </c>
-      <c r="G110" s="190"/>
-      <c r="H110" s="190"/>
-      <c r="I110" s="190"/>
-      <c r="J110" s="190"/>
-      <c r="K110" s="190"/>
-      <c r="L110" s="190"/>
-      <c r="M110" s="211"/>
-    </row>
-    <row r="111" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A111" s="193"/>
-      <c r="B111" s="208"/>
-      <c r="C111" s="200"/>
-      <c r="D111" s="205"/>
+      <c r="G110" s="197"/>
+      <c r="H110" s="197"/>
+      <c r="I110" s="197"/>
+      <c r="J110" s="197"/>
+      <c r="K110" s="197"/>
+      <c r="L110" s="197"/>
+      <c r="M110" s="201"/>
+    </row>
+    <row r="111" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="221"/>
+      <c r="B111" s="192"/>
+      <c r="C111" s="211"/>
+      <c r="D111" s="218"/>
       <c r="E111" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F111" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="G111" s="190"/>
-      <c r="H111" s="190"/>
-      <c r="I111" s="190"/>
-      <c r="J111" s="190"/>
-      <c r="K111" s="190"/>
-      <c r="L111" s="190"/>
-      <c r="M111" s="211"/>
-    </row>
-    <row r="112" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A112" s="193"/>
-      <c r="B112" s="208"/>
-      <c r="C112" s="198" t="s">
+      <c r="G111" s="197"/>
+      <c r="H111" s="197"/>
+      <c r="I111" s="197"/>
+      <c r="J111" s="197"/>
+      <c r="K111" s="197"/>
+      <c r="L111" s="197"/>
+      <c r="M111" s="201"/>
+    </row>
+    <row r="112" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="221"/>
+      <c r="B112" s="192"/>
+      <c r="C112" s="209" t="s">
         <v>186</v>
       </c>
-      <c r="D112" s="205"/>
+      <c r="D112" s="218"/>
       <c r="E112" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F112" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="G112" s="190"/>
-      <c r="H112" s="190"/>
-      <c r="I112" s="190"/>
-      <c r="J112" s="190"/>
-      <c r="K112" s="190"/>
-      <c r="L112" s="190"/>
-      <c r="M112" s="211"/>
-    </row>
-    <row r="113" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="193"/>
-      <c r="B113" s="208"/>
-      <c r="C113" s="199"/>
-      <c r="D113" s="205"/>
+      <c r="G112" s="197"/>
+      <c r="H112" s="197"/>
+      <c r="I112" s="197"/>
+      <c r="J112" s="197"/>
+      <c r="K112" s="197"/>
+      <c r="L112" s="197"/>
+      <c r="M112" s="201"/>
+    </row>
+    <row r="113" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="221"/>
+      <c r="B113" s="192"/>
+      <c r="C113" s="210"/>
+      <c r="D113" s="218"/>
       <c r="E113" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F113" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="G113" s="190"/>
-      <c r="H113" s="190"/>
-      <c r="I113" s="190"/>
-      <c r="J113" s="190"/>
-      <c r="K113" s="190"/>
-      <c r="L113" s="190"/>
-      <c r="M113" s="211"/>
-    </row>
-    <row r="114" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A114" s="193"/>
-      <c r="B114" s="208"/>
-      <c r="C114" s="200"/>
-      <c r="D114" s="205"/>
+      <c r="G113" s="197"/>
+      <c r="H113" s="197"/>
+      <c r="I113" s="197"/>
+      <c r="J113" s="197"/>
+      <c r="K113" s="197"/>
+      <c r="L113" s="197"/>
+      <c r="M113" s="201"/>
+    </row>
+    <row r="114" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="221"/>
+      <c r="B114" s="192"/>
+      <c r="C114" s="211"/>
+      <c r="D114" s="218"/>
       <c r="E114" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F114" s="130" t="s">
         <v>205</v>
       </c>
-      <c r="G114" s="190"/>
-      <c r="H114" s="190"/>
-      <c r="I114" s="190"/>
-      <c r="J114" s="190"/>
-      <c r="K114" s="190"/>
-      <c r="L114" s="190"/>
-      <c r="M114" s="211"/>
-    </row>
-    <row r="115" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A115" s="193"/>
-      <c r="B115" s="208"/>
-      <c r="C115" s="198" t="s">
+      <c r="G114" s="197"/>
+      <c r="H114" s="197"/>
+      <c r="I114" s="197"/>
+      <c r="J114" s="197"/>
+      <c r="K114" s="197"/>
+      <c r="L114" s="197"/>
+      <c r="M114" s="201"/>
+    </row>
+    <row r="115" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="221"/>
+      <c r="B115" s="192"/>
+      <c r="C115" s="209" t="s">
         <v>187</v>
       </c>
-      <c r="D115" s="205"/>
+      <c r="D115" s="218"/>
       <c r="E115" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F115" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="G115" s="190"/>
-      <c r="H115" s="190"/>
-      <c r="I115" s="190"/>
-      <c r="J115" s="190"/>
-      <c r="K115" s="190"/>
-      <c r="L115" s="190"/>
-      <c r="M115" s="211"/>
-    </row>
-    <row r="116" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A116" s="193"/>
-      <c r="B116" s="208"/>
-      <c r="C116" s="199"/>
-      <c r="D116" s="205"/>
+      <c r="G115" s="197"/>
+      <c r="H115" s="197"/>
+      <c r="I115" s="197"/>
+      <c r="J115" s="197"/>
+      <c r="K115" s="197"/>
+      <c r="L115" s="197"/>
+      <c r="M115" s="201"/>
+    </row>
+    <row r="116" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="221"/>
+      <c r="B116" s="192"/>
+      <c r="C116" s="210"/>
+      <c r="D116" s="218"/>
       <c r="E116" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F116" s="130" t="s">
         <v>205</v>
       </c>
-      <c r="G116" s="190"/>
-      <c r="H116" s="190"/>
-      <c r="I116" s="190"/>
-      <c r="J116" s="190"/>
-      <c r="K116" s="190"/>
-      <c r="L116" s="190"/>
-      <c r="M116" s="211"/>
-    </row>
-    <row r="117" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A117" s="193"/>
-      <c r="B117" s="208"/>
-      <c r="C117" s="200"/>
-      <c r="D117" s="205"/>
+      <c r="G116" s="197"/>
+      <c r="H116" s="197"/>
+      <c r="I116" s="197"/>
+      <c r="J116" s="197"/>
+      <c r="K116" s="197"/>
+      <c r="L116" s="197"/>
+      <c r="M116" s="201"/>
+    </row>
+    <row r="117" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="221"/>
+      <c r="B117" s="192"/>
+      <c r="C117" s="211"/>
+      <c r="D117" s="218"/>
       <c r="E117" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F117" s="130" t="s">
         <v>213</v>
       </c>
-      <c r="G117" s="190"/>
-      <c r="H117" s="190"/>
-      <c r="I117" s="190"/>
-      <c r="J117" s="190"/>
-      <c r="K117" s="190"/>
-      <c r="L117" s="190"/>
-      <c r="M117" s="211"/>
-    </row>
-    <row r="118" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A118" s="193"/>
-      <c r="B118" s="208"/>
-      <c r="C118" s="198" t="s">
+      <c r="G117" s="197"/>
+      <c r="H117" s="197"/>
+      <c r="I117" s="197"/>
+      <c r="J117" s="197"/>
+      <c r="K117" s="197"/>
+      <c r="L117" s="197"/>
+      <c r="M117" s="201"/>
+    </row>
+    <row r="118" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="221"/>
+      <c r="B118" s="192"/>
+      <c r="C118" s="209" t="s">
         <v>188</v>
       </c>
-      <c r="D118" s="205"/>
+      <c r="D118" s="218"/>
       <c r="E118" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F118" s="130" t="s">
         <v>201</v>
       </c>
-      <c r="G118" s="190"/>
-      <c r="H118" s="190"/>
-      <c r="I118" s="190"/>
-      <c r="J118" s="190"/>
-      <c r="K118" s="190"/>
-      <c r="L118" s="190"/>
-      <c r="M118" s="211"/>
-    </row>
-    <row r="119" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A119" s="193"/>
-      <c r="B119" s="208"/>
-      <c r="C119" s="199"/>
-      <c r="D119" s="205"/>
+      <c r="G118" s="197"/>
+      <c r="H118" s="197"/>
+      <c r="I118" s="197"/>
+      <c r="J118" s="197"/>
+      <c r="K118" s="197"/>
+      <c r="L118" s="197"/>
+      <c r="M118" s="201"/>
+    </row>
+    <row r="119" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="221"/>
+      <c r="B119" s="192"/>
+      <c r="C119" s="210"/>
+      <c r="D119" s="218"/>
       <c r="E119" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F119" s="130" t="s">
         <v>219</v>
       </c>
-      <c r="G119" s="190"/>
-      <c r="H119" s="190"/>
-      <c r="I119" s="190"/>
-      <c r="J119" s="190"/>
-      <c r="K119" s="190"/>
-      <c r="L119" s="190"/>
-      <c r="M119" s="211"/>
-    </row>
-    <row r="120" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A120" s="193"/>
-      <c r="B120" s="208"/>
-      <c r="C120" s="200"/>
-      <c r="D120" s="205"/>
+      <c r="G119" s="197"/>
+      <c r="H119" s="197"/>
+      <c r="I119" s="197"/>
+      <c r="J119" s="197"/>
+      <c r="K119" s="197"/>
+      <c r="L119" s="197"/>
+      <c r="M119" s="201"/>
+    </row>
+    <row r="120" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="221"/>
+      <c r="B120" s="192"/>
+      <c r="C120" s="211"/>
+      <c r="D120" s="218"/>
       <c r="E120" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F120" s="130" t="s">
         <v>211</v>
       </c>
-      <c r="G120" s="190"/>
-      <c r="H120" s="190"/>
-      <c r="I120" s="190"/>
-      <c r="J120" s="190"/>
-      <c r="K120" s="190"/>
-      <c r="L120" s="190"/>
-      <c r="M120" s="211"/>
-    </row>
-    <row r="121" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A121" s="193"/>
-      <c r="B121" s="208"/>
-      <c r="C121" s="198" t="s">
+      <c r="G120" s="197"/>
+      <c r="H120" s="197"/>
+      <c r="I120" s="197"/>
+      <c r="J120" s="197"/>
+      <c r="K120" s="197"/>
+      <c r="L120" s="197"/>
+      <c r="M120" s="201"/>
+    </row>
+    <row r="121" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="221"/>
+      <c r="B121" s="192"/>
+      <c r="C121" s="209" t="s">
         <v>189</v>
       </c>
-      <c r="D121" s="205"/>
+      <c r="D121" s="218"/>
       <c r="E121" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F121" s="130" t="s">
         <v>216</v>
       </c>
-      <c r="G121" s="190"/>
-      <c r="H121" s="190"/>
-      <c r="I121" s="190"/>
-      <c r="J121" s="190"/>
-      <c r="K121" s="190"/>
-      <c r="L121" s="190"/>
-      <c r="M121" s="211"/>
-    </row>
-    <row r="122" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A122" s="193"/>
-      <c r="B122" s="208"/>
-      <c r="C122" s="199"/>
-      <c r="D122" s="205"/>
+      <c r="G121" s="197"/>
+      <c r="H121" s="197"/>
+      <c r="I121" s="197"/>
+      <c r="J121" s="197"/>
+      <c r="K121" s="197"/>
+      <c r="L121" s="197"/>
+      <c r="M121" s="201"/>
+    </row>
+    <row r="122" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="221"/>
+      <c r="B122" s="192"/>
+      <c r="C122" s="210"/>
+      <c r="D122" s="218"/>
       <c r="E122" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F122" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="G122" s="190"/>
-      <c r="H122" s="190"/>
-      <c r="I122" s="190"/>
-      <c r="J122" s="190"/>
-      <c r="K122" s="190"/>
-      <c r="L122" s="190"/>
-      <c r="M122" s="211"/>
-    </row>
-    <row r="123" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A123" s="193"/>
-      <c r="B123" s="208"/>
-      <c r="C123" s="200"/>
-      <c r="D123" s="205"/>
+      <c r="G122" s="197"/>
+      <c r="H122" s="197"/>
+      <c r="I122" s="197"/>
+      <c r="J122" s="197"/>
+      <c r="K122" s="197"/>
+      <c r="L122" s="197"/>
+      <c r="M122" s="201"/>
+    </row>
+    <row r="123" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="221"/>
+      <c r="B123" s="192"/>
+      <c r="C123" s="211"/>
+      <c r="D123" s="218"/>
       <c r="E123" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F123" s="130" t="s">
         <v>218</v>
       </c>
-      <c r="G123" s="190"/>
-      <c r="H123" s="190"/>
-      <c r="I123" s="190"/>
-      <c r="J123" s="190"/>
-      <c r="K123" s="190"/>
-      <c r="L123" s="190"/>
-      <c r="M123" s="211"/>
-    </row>
-    <row r="124" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A124" s="193"/>
-      <c r="B124" s="208"/>
-      <c r="C124" s="198" t="s">
+      <c r="G123" s="197"/>
+      <c r="H123" s="197"/>
+      <c r="I123" s="197"/>
+      <c r="J123" s="197"/>
+      <c r="K123" s="197"/>
+      <c r="L123" s="197"/>
+      <c r="M123" s="201"/>
+    </row>
+    <row r="124" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="221"/>
+      <c r="B124" s="192"/>
+      <c r="C124" s="209" t="s">
         <v>190</v>
       </c>
-      <c r="D124" s="205"/>
+      <c r="D124" s="218"/>
       <c r="E124" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F124" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="G124" s="190"/>
-      <c r="H124" s="190"/>
-      <c r="I124" s="190"/>
-      <c r="J124" s="190"/>
-      <c r="K124" s="190"/>
-      <c r="L124" s="190"/>
-      <c r="M124" s="211"/>
-    </row>
-    <row r="125" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A125" s="193"/>
-      <c r="B125" s="208"/>
-      <c r="C125" s="199"/>
-      <c r="D125" s="205"/>
+      <c r="G124" s="197"/>
+      <c r="H124" s="197"/>
+      <c r="I124" s="197"/>
+      <c r="J124" s="197"/>
+      <c r="K124" s="197"/>
+      <c r="L124" s="197"/>
+      <c r="M124" s="201"/>
+    </row>
+    <row r="125" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="221"/>
+      <c r="B125" s="192"/>
+      <c r="C125" s="210"/>
+      <c r="D125" s="218"/>
       <c r="E125" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F125" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="G125" s="190"/>
-      <c r="H125" s="190"/>
-      <c r="I125" s="190"/>
-      <c r="J125" s="190"/>
-      <c r="K125" s="190"/>
-      <c r="L125" s="190"/>
-      <c r="M125" s="211"/>
-    </row>
-    <row r="126" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A126" s="193"/>
-      <c r="B126" s="208"/>
-      <c r="C126" s="200"/>
-      <c r="D126" s="205"/>
+      <c r="G125" s="197"/>
+      <c r="H125" s="197"/>
+      <c r="I125" s="197"/>
+      <c r="J125" s="197"/>
+      <c r="K125" s="197"/>
+      <c r="L125" s="197"/>
+      <c r="M125" s="201"/>
+    </row>
+    <row r="126" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="221"/>
+      <c r="B126" s="192"/>
+      <c r="C126" s="211"/>
+      <c r="D126" s="218"/>
       <c r="E126" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F126" s="130" t="s">
         <v>218</v>
       </c>
-      <c r="G126" s="190"/>
-      <c r="H126" s="190"/>
-      <c r="I126" s="190"/>
-      <c r="J126" s="190"/>
-      <c r="K126" s="190"/>
-      <c r="L126" s="190"/>
-      <c r="M126" s="211"/>
-    </row>
-    <row r="127" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A127" s="193"/>
-      <c r="B127" s="208"/>
-      <c r="C127" s="198" t="s">
+      <c r="G126" s="197"/>
+      <c r="H126" s="197"/>
+      <c r="I126" s="197"/>
+      <c r="J126" s="197"/>
+      <c r="K126" s="197"/>
+      <c r="L126" s="197"/>
+      <c r="M126" s="201"/>
+    </row>
+    <row r="127" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="221"/>
+      <c r="B127" s="192"/>
+      <c r="C127" s="209" t="s">
         <v>191</v>
       </c>
-      <c r="D127" s="205"/>
+      <c r="D127" s="218"/>
       <c r="E127" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F127" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="G127" s="190"/>
-      <c r="H127" s="190"/>
-      <c r="I127" s="190"/>
-      <c r="J127" s="190"/>
-      <c r="K127" s="190"/>
-      <c r="L127" s="190"/>
-      <c r="M127" s="211"/>
-    </row>
-    <row r="128" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A128" s="193"/>
-      <c r="B128" s="208"/>
-      <c r="C128" s="199"/>
-      <c r="D128" s="205"/>
+      <c r="G127" s="197"/>
+      <c r="H127" s="197"/>
+      <c r="I127" s="197"/>
+      <c r="J127" s="197"/>
+      <c r="K127" s="197"/>
+      <c r="L127" s="197"/>
+      <c r="M127" s="201"/>
+    </row>
+    <row r="128" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="221"/>
+      <c r="B128" s="192"/>
+      <c r="C128" s="210"/>
+      <c r="D128" s="218"/>
       <c r="E128" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F128" s="130" t="s">
         <v>221</v>
       </c>
-      <c r="G128" s="190"/>
-      <c r="H128" s="190"/>
-      <c r="I128" s="190"/>
-      <c r="J128" s="190"/>
-      <c r="K128" s="190"/>
-      <c r="L128" s="190"/>
-      <c r="M128" s="211"/>
-    </row>
-    <row r="129" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A129" s="193"/>
-      <c r="B129" s="208"/>
-      <c r="C129" s="200"/>
-      <c r="D129" s="205"/>
+      <c r="G128" s="197"/>
+      <c r="H128" s="197"/>
+      <c r="I128" s="197"/>
+      <c r="J128" s="197"/>
+      <c r="K128" s="197"/>
+      <c r="L128" s="197"/>
+      <c r="M128" s="201"/>
+    </row>
+    <row r="129" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="221"/>
+      <c r="B129" s="192"/>
+      <c r="C129" s="211"/>
+      <c r="D129" s="218"/>
       <c r="E129" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F129" s="130" t="s">
         <v>215</v>
       </c>
-      <c r="G129" s="190"/>
-      <c r="H129" s="190"/>
-      <c r="I129" s="190"/>
-      <c r="J129" s="190"/>
-      <c r="K129" s="190"/>
-      <c r="L129" s="190"/>
-      <c r="M129" s="211"/>
-    </row>
-    <row r="130" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A130" s="193"/>
-      <c r="B130" s="208"/>
-      <c r="C130" s="198" t="s">
+      <c r="G129" s="197"/>
+      <c r="H129" s="197"/>
+      <c r="I129" s="197"/>
+      <c r="J129" s="197"/>
+      <c r="K129" s="197"/>
+      <c r="L129" s="197"/>
+      <c r="M129" s="201"/>
+    </row>
+    <row r="130" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="221"/>
+      <c r="B130" s="192"/>
+      <c r="C130" s="209" t="s">
         <v>192</v>
       </c>
-      <c r="D130" s="205"/>
+      <c r="D130" s="218"/>
       <c r="E130" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F130" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="G130" s="190"/>
-      <c r="H130" s="190"/>
-      <c r="I130" s="190"/>
-      <c r="J130" s="190"/>
-      <c r="K130" s="190"/>
-      <c r="L130" s="190"/>
-      <c r="M130" s="211"/>
-    </row>
-    <row r="131" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A131" s="193"/>
-      <c r="B131" s="208"/>
-      <c r="C131" s="199"/>
-      <c r="D131" s="205"/>
+      <c r="G130" s="197"/>
+      <c r="H130" s="197"/>
+      <c r="I130" s="197"/>
+      <c r="J130" s="197"/>
+      <c r="K130" s="197"/>
+      <c r="L130" s="197"/>
+      <c r="M130" s="201"/>
+    </row>
+    <row r="131" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="221"/>
+      <c r="B131" s="192"/>
+      <c r="C131" s="210"/>
+      <c r="D131" s="218"/>
       <c r="E131" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F131" s="130" t="s">
         <v>222</v>
       </c>
-      <c r="G131" s="190"/>
-      <c r="H131" s="190"/>
-      <c r="I131" s="190"/>
-      <c r="J131" s="190"/>
-      <c r="K131" s="190"/>
-      <c r="L131" s="190"/>
-      <c r="M131" s="211"/>
-    </row>
-    <row r="132" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A132" s="193"/>
-      <c r="B132" s="208"/>
-      <c r="C132" s="200"/>
-      <c r="D132" s="205"/>
+      <c r="G131" s="197"/>
+      <c r="H131" s="197"/>
+      <c r="I131" s="197"/>
+      <c r="J131" s="197"/>
+      <c r="K131" s="197"/>
+      <c r="L131" s="197"/>
+      <c r="M131" s="201"/>
+    </row>
+    <row r="132" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="221"/>
+      <c r="B132" s="192"/>
+      <c r="C132" s="211"/>
+      <c r="D132" s="218"/>
       <c r="E132" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F132" s="130" t="s">
         <v>218</v>
       </c>
-      <c r="G132" s="190"/>
-      <c r="H132" s="190"/>
-      <c r="I132" s="190"/>
-      <c r="J132" s="190"/>
-      <c r="K132" s="190"/>
-      <c r="L132" s="190"/>
-      <c r="M132" s="211"/>
-    </row>
-    <row r="133" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A133" s="193"/>
-      <c r="B133" s="208"/>
-      <c r="C133" s="198" t="s">
+      <c r="G132" s="197"/>
+      <c r="H132" s="197"/>
+      <c r="I132" s="197"/>
+      <c r="J132" s="197"/>
+      <c r="K132" s="197"/>
+      <c r="L132" s="197"/>
+      <c r="M132" s="201"/>
+    </row>
+    <row r="133" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="221"/>
+      <c r="B133" s="192"/>
+      <c r="C133" s="209" t="s">
         <v>193</v>
       </c>
-      <c r="D133" s="205"/>
+      <c r="D133" s="218"/>
       <c r="E133" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F133" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="G133" s="190"/>
-      <c r="H133" s="190"/>
-      <c r="I133" s="190"/>
-      <c r="J133" s="190"/>
-      <c r="K133" s="190"/>
-      <c r="L133" s="190"/>
-      <c r="M133" s="211"/>
-    </row>
-    <row r="134" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A134" s="193"/>
-      <c r="B134" s="208"/>
-      <c r="C134" s="199"/>
-      <c r="D134" s="205"/>
+      <c r="G133" s="197"/>
+      <c r="H133" s="197"/>
+      <c r="I133" s="197"/>
+      <c r="J133" s="197"/>
+      <c r="K133" s="197"/>
+      <c r="L133" s="197"/>
+      <c r="M133" s="201"/>
+    </row>
+    <row r="134" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="221"/>
+      <c r="B134" s="192"/>
+      <c r="C134" s="210"/>
+      <c r="D134" s="218"/>
       <c r="E134" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F134" s="130" t="s">
         <v>221</v>
       </c>
-      <c r="G134" s="190"/>
-      <c r="H134" s="190"/>
-      <c r="I134" s="190"/>
-      <c r="J134" s="190"/>
-      <c r="K134" s="190"/>
-      <c r="L134" s="190"/>
-      <c r="M134" s="211"/>
-    </row>
-    <row r="135" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A135" s="193"/>
-      <c r="B135" s="208"/>
-      <c r="C135" s="200"/>
-      <c r="D135" s="205"/>
+      <c r="G134" s="197"/>
+      <c r="H134" s="197"/>
+      <c r="I134" s="197"/>
+      <c r="J134" s="197"/>
+      <c r="K134" s="197"/>
+      <c r="L134" s="197"/>
+      <c r="M134" s="201"/>
+    </row>
+    <row r="135" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="221"/>
+      <c r="B135" s="192"/>
+      <c r="C135" s="211"/>
+      <c r="D135" s="218"/>
       <c r="E135" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F135" s="130" t="s">
         <v>218</v>
       </c>
-      <c r="G135" s="190"/>
-      <c r="H135" s="190"/>
-      <c r="I135" s="190"/>
-      <c r="J135" s="190"/>
-      <c r="K135" s="190"/>
-      <c r="L135" s="190"/>
-      <c r="M135" s="211"/>
-    </row>
-    <row r="136" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A136" s="193"/>
-      <c r="B136" s="208"/>
-      <c r="C136" s="198" t="s">
+      <c r="G135" s="197"/>
+      <c r="H135" s="197"/>
+      <c r="I135" s="197"/>
+      <c r="J135" s="197"/>
+      <c r="K135" s="197"/>
+      <c r="L135" s="197"/>
+      <c r="M135" s="201"/>
+    </row>
+    <row r="136" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="221"/>
+      <c r="B136" s="192"/>
+      <c r="C136" s="209" t="s">
         <v>194</v>
       </c>
-      <c r="D136" s="205"/>
+      <c r="D136" s="218"/>
       <c r="E136" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F136" s="130" t="s">
         <v>223</v>
       </c>
-      <c r="G136" s="190"/>
-      <c r="H136" s="190"/>
-      <c r="I136" s="190"/>
-      <c r="J136" s="190"/>
-      <c r="K136" s="190"/>
-      <c r="L136" s="190"/>
-      <c r="M136" s="211"/>
-    </row>
-    <row r="137" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A137" s="193"/>
-      <c r="B137" s="208"/>
-      <c r="C137" s="199"/>
-      <c r="D137" s="205"/>
+      <c r="G136" s="197"/>
+      <c r="H136" s="197"/>
+      <c r="I136" s="197"/>
+      <c r="J136" s="197"/>
+      <c r="K136" s="197"/>
+      <c r="L136" s="197"/>
+      <c r="M136" s="201"/>
+    </row>
+    <row r="137" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="221"/>
+      <c r="B137" s="192"/>
+      <c r="C137" s="210"/>
+      <c r="D137" s="218"/>
       <c r="E137" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F137" s="130" t="s">
         <v>224</v>
       </c>
-      <c r="G137" s="190"/>
-      <c r="H137" s="190"/>
-      <c r="I137" s="190"/>
-      <c r="J137" s="190"/>
-      <c r="K137" s="190"/>
-      <c r="L137" s="190"/>
-      <c r="M137" s="211"/>
-    </row>
-    <row r="138" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A138" s="193"/>
-      <c r="B138" s="208"/>
-      <c r="C138" s="200"/>
-      <c r="D138" s="205"/>
+      <c r="G137" s="197"/>
+      <c r="H137" s="197"/>
+      <c r="I137" s="197"/>
+      <c r="J137" s="197"/>
+      <c r="K137" s="197"/>
+      <c r="L137" s="197"/>
+      <c r="M137" s="201"/>
+    </row>
+    <row r="138" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="221"/>
+      <c r="B138" s="192"/>
+      <c r="C138" s="211"/>
+      <c r="D138" s="218"/>
       <c r="E138" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F138" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="G138" s="190"/>
-      <c r="H138" s="190"/>
-      <c r="I138" s="190"/>
-      <c r="J138" s="190"/>
-      <c r="K138" s="190"/>
-      <c r="L138" s="190"/>
-      <c r="M138" s="211"/>
-    </row>
-    <row r="139" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A139" s="193"/>
-      <c r="B139" s="208"/>
-      <c r="C139" s="198" t="s">
+      <c r="G138" s="197"/>
+      <c r="H138" s="197"/>
+      <c r="I138" s="197"/>
+      <c r="J138" s="197"/>
+      <c r="K138" s="197"/>
+      <c r="L138" s="197"/>
+      <c r="M138" s="201"/>
+    </row>
+    <row r="139" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="221"/>
+      <c r="B139" s="192"/>
+      <c r="C139" s="209" t="s">
         <v>195</v>
       </c>
-      <c r="D139" s="205"/>
+      <c r="D139" s="218"/>
       <c r="E139" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F139" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="G139" s="190"/>
-      <c r="H139" s="190"/>
-      <c r="I139" s="190"/>
-      <c r="J139" s="190"/>
-      <c r="K139" s="190"/>
-      <c r="L139" s="190"/>
-      <c r="M139" s="211"/>
-    </row>
-    <row r="140" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A140" s="193"/>
-      <c r="B140" s="208"/>
-      <c r="C140" s="199"/>
-      <c r="D140" s="205"/>
+      <c r="G139" s="197"/>
+      <c r="H139" s="197"/>
+      <c r="I139" s="197"/>
+      <c r="J139" s="197"/>
+      <c r="K139" s="197"/>
+      <c r="L139" s="197"/>
+      <c r="M139" s="201"/>
+    </row>
+    <row r="140" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="221"/>
+      <c r="B140" s="192"/>
+      <c r="C140" s="210"/>
+      <c r="D140" s="218"/>
       <c r="E140" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F140" s="130" t="s">
         <v>207</v>
       </c>
-      <c r="G140" s="190"/>
-      <c r="H140" s="190"/>
-      <c r="I140" s="190"/>
-      <c r="J140" s="190"/>
-      <c r="K140" s="190"/>
-      <c r="L140" s="190"/>
-      <c r="M140" s="211"/>
-    </row>
-    <row r="141" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A141" s="193"/>
-      <c r="B141" s="208"/>
-      <c r="C141" s="200"/>
-      <c r="D141" s="205"/>
+      <c r="G140" s="197"/>
+      <c r="H140" s="197"/>
+      <c r="I140" s="197"/>
+      <c r="J140" s="197"/>
+      <c r="K140" s="197"/>
+      <c r="L140" s="197"/>
+      <c r="M140" s="201"/>
+    </row>
+    <row r="141" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="221"/>
+      <c r="B141" s="192"/>
+      <c r="C141" s="211"/>
+      <c r="D141" s="218"/>
       <c r="E141" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F141" s="130" t="s">
         <v>211</v>
       </c>
-      <c r="G141" s="190"/>
-      <c r="H141" s="190"/>
-      <c r="I141" s="190"/>
-      <c r="J141" s="190"/>
-      <c r="K141" s="190"/>
-      <c r="L141" s="190"/>
-      <c r="M141" s="211"/>
-    </row>
-    <row r="142" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A142" s="193"/>
-      <c r="B142" s="208"/>
-      <c r="C142" s="198" t="s">
+      <c r="G141" s="197"/>
+      <c r="H141" s="197"/>
+      <c r="I141" s="197"/>
+      <c r="J141" s="197"/>
+      <c r="K141" s="197"/>
+      <c r="L141" s="197"/>
+      <c r="M141" s="201"/>
+    </row>
+    <row r="142" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="221"/>
+      <c r="B142" s="192"/>
+      <c r="C142" s="209" t="s">
         <v>196</v>
       </c>
-      <c r="D142" s="205"/>
+      <c r="D142" s="218"/>
       <c r="E142" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F142" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="G142" s="190"/>
-      <c r="H142" s="190"/>
-      <c r="I142" s="190"/>
-      <c r="J142" s="190"/>
-      <c r="K142" s="190"/>
-      <c r="L142" s="190"/>
-      <c r="M142" s="211"/>
-    </row>
-    <row r="143" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="193"/>
-      <c r="B143" s="208"/>
-      <c r="C143" s="199"/>
-      <c r="D143" s="205"/>
+      <c r="G142" s="197"/>
+      <c r="H142" s="197"/>
+      <c r="I142" s="197"/>
+      <c r="J142" s="197"/>
+      <c r="K142" s="197"/>
+      <c r="L142" s="197"/>
+      <c r="M142" s="201"/>
+    </row>
+    <row r="143" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="221"/>
+      <c r="B143" s="192"/>
+      <c r="C143" s="210"/>
+      <c r="D143" s="218"/>
       <c r="E143" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F143" s="130" t="s">
         <v>205</v>
       </c>
-      <c r="G143" s="190"/>
-      <c r="H143" s="190"/>
-      <c r="I143" s="190"/>
-      <c r="J143" s="190"/>
-      <c r="K143" s="190"/>
-      <c r="L143" s="190"/>
-      <c r="M143" s="211"/>
-    </row>
-    <row r="144" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="193"/>
-      <c r="B144" s="208"/>
-      <c r="C144" s="199"/>
-      <c r="D144" s="205"/>
-      <c r="E144" s="201" t="s">
+      <c r="G143" s="197"/>
+      <c r="H143" s="197"/>
+      <c r="I143" s="197"/>
+      <c r="J143" s="197"/>
+      <c r="K143" s="197"/>
+      <c r="L143" s="197"/>
+      <c r="M143" s="201"/>
+    </row>
+    <row r="144" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="221"/>
+      <c r="B144" s="192"/>
+      <c r="C144" s="210"/>
+      <c r="D144" s="218"/>
+      <c r="E144" s="214" t="s">
         <v>171</v>
       </c>
       <c r="F144" s="130" t="s">
         <v>221</v>
       </c>
-      <c r="G144" s="190"/>
-      <c r="H144" s="190"/>
-      <c r="I144" s="190"/>
-      <c r="J144" s="190"/>
-      <c r="K144" s="190"/>
-      <c r="L144" s="190"/>
-      <c r="M144" s="211"/>
-    </row>
-    <row r="145" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A145" s="193"/>
-      <c r="B145" s="208"/>
-      <c r="C145" s="200"/>
-      <c r="D145" s="205"/>
-      <c r="E145" s="202"/>
+      <c r="G144" s="197"/>
+      <c r="H144" s="197"/>
+      <c r="I144" s="197"/>
+      <c r="J144" s="197"/>
+      <c r="K144" s="197"/>
+      <c r="L144" s="197"/>
+      <c r="M144" s="201"/>
+    </row>
+    <row r="145" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="221"/>
+      <c r="B145" s="192"/>
+      <c r="C145" s="211"/>
+      <c r="D145" s="218"/>
+      <c r="E145" s="215"/>
       <c r="F145" s="130" t="s">
         <v>208</v>
       </c>
-      <c r="G145" s="190"/>
-      <c r="H145" s="190"/>
-      <c r="I145" s="190"/>
-      <c r="J145" s="190"/>
-      <c r="K145" s="190"/>
-      <c r="L145" s="190"/>
-      <c r="M145" s="211"/>
-    </row>
-    <row r="146" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A146" s="193"/>
-      <c r="B146" s="208"/>
-      <c r="C146" s="198" t="s">
+      <c r="G145" s="197"/>
+      <c r="H145" s="197"/>
+      <c r="I145" s="197"/>
+      <c r="J145" s="197"/>
+      <c r="K145" s="197"/>
+      <c r="L145" s="197"/>
+      <c r="M145" s="201"/>
+    </row>
+    <row r="146" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="221"/>
+      <c r="B146" s="192"/>
+      <c r="C146" s="209" t="s">
         <v>197</v>
       </c>
-      <c r="D146" s="205"/>
+      <c r="D146" s="218"/>
       <c r="E146" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F146" s="130" t="s">
         <v>212</v>
       </c>
-      <c r="G146" s="190"/>
-      <c r="H146" s="190"/>
-      <c r="I146" s="190"/>
-      <c r="J146" s="190"/>
-      <c r="K146" s="190"/>
-      <c r="L146" s="190"/>
-      <c r="M146" s="211"/>
-    </row>
-    <row r="147" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A147" s="193"/>
-      <c r="B147" s="208"/>
-      <c r="C147" s="199"/>
-      <c r="D147" s="205"/>
+      <c r="G146" s="197"/>
+      <c r="H146" s="197"/>
+      <c r="I146" s="197"/>
+      <c r="J146" s="197"/>
+      <c r="K146" s="197"/>
+      <c r="L146" s="197"/>
+      <c r="M146" s="201"/>
+    </row>
+    <row r="147" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="221"/>
+      <c r="B147" s="192"/>
+      <c r="C147" s="210"/>
+      <c r="D147" s="218"/>
       <c r="E147" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F147" s="130" t="s">
         <v>225</v>
       </c>
-      <c r="G147" s="190"/>
-      <c r="H147" s="190"/>
-      <c r="I147" s="190"/>
-      <c r="J147" s="190"/>
-      <c r="K147" s="190"/>
-      <c r="L147" s="190"/>
-      <c r="M147" s="211"/>
-    </row>
-    <row r="148" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A148" s="193"/>
-      <c r="B148" s="208"/>
-      <c r="C148" s="200"/>
-      <c r="D148" s="205"/>
+      <c r="G147" s="197"/>
+      <c r="H147" s="197"/>
+      <c r="I147" s="197"/>
+      <c r="J147" s="197"/>
+      <c r="K147" s="197"/>
+      <c r="L147" s="197"/>
+      <c r="M147" s="201"/>
+    </row>
+    <row r="148" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="221"/>
+      <c r="B148" s="192"/>
+      <c r="C148" s="211"/>
+      <c r="D148" s="218"/>
       <c r="E148" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F148" s="130" t="s">
         <v>226</v>
       </c>
-      <c r="G148" s="190"/>
-      <c r="H148" s="190"/>
-      <c r="I148" s="190"/>
-      <c r="J148" s="190"/>
-      <c r="K148" s="190"/>
-      <c r="L148" s="190"/>
-      <c r="M148" s="211"/>
-    </row>
-    <row r="149" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A149" s="193"/>
-      <c r="B149" s="208"/>
-      <c r="C149" s="198" t="s">
+      <c r="G148" s="197"/>
+      <c r="H148" s="197"/>
+      <c r="I148" s="197"/>
+      <c r="J148" s="197"/>
+      <c r="K148" s="197"/>
+      <c r="L148" s="197"/>
+      <c r="M148" s="201"/>
+    </row>
+    <row r="149" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="221"/>
+      <c r="B149" s="192"/>
+      <c r="C149" s="209" t="s">
         <v>198</v>
       </c>
-      <c r="D149" s="205"/>
+      <c r="D149" s="218"/>
       <c r="E149" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F149" s="130" t="s">
         <v>227</v>
       </c>
-      <c r="G149" s="190"/>
-      <c r="H149" s="190"/>
-      <c r="I149" s="190"/>
-      <c r="J149" s="190"/>
-      <c r="K149" s="190"/>
-      <c r="L149" s="190"/>
-      <c r="M149" s="211"/>
-    </row>
-    <row r="150" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A150" s="193"/>
-      <c r="B150" s="208"/>
-      <c r="C150" s="199"/>
-      <c r="D150" s="205"/>
+      <c r="G149" s="197"/>
+      <c r="H149" s="197"/>
+      <c r="I149" s="197"/>
+      <c r="J149" s="197"/>
+      <c r="K149" s="197"/>
+      <c r="L149" s="197"/>
+      <c r="M149" s="201"/>
+    </row>
+    <row r="150" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="221"/>
+      <c r="B150" s="192"/>
+      <c r="C150" s="210"/>
+      <c r="D150" s="218"/>
       <c r="E150" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F150" s="130" t="s">
         <v>228</v>
       </c>
-      <c r="G150" s="190"/>
-      <c r="H150" s="190"/>
-      <c r="I150" s="190"/>
-      <c r="J150" s="190"/>
-      <c r="K150" s="190"/>
-      <c r="L150" s="190"/>
-      <c r="M150" s="211"/>
-    </row>
-    <row r="151" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A151" s="193"/>
-      <c r="B151" s="208"/>
-      <c r="C151" s="200"/>
-      <c r="D151" s="205"/>
+      <c r="G150" s="197"/>
+      <c r="H150" s="197"/>
+      <c r="I150" s="197"/>
+      <c r="J150" s="197"/>
+      <c r="K150" s="197"/>
+      <c r="L150" s="197"/>
+      <c r="M150" s="201"/>
+    </row>
+    <row r="151" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="221"/>
+      <c r="B151" s="192"/>
+      <c r="C151" s="211"/>
+      <c r="D151" s="218"/>
       <c r="E151" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F151" s="130" t="s">
         <v>229</v>
       </c>
-      <c r="G151" s="190"/>
-      <c r="H151" s="190"/>
-      <c r="I151" s="190"/>
-      <c r="J151" s="190"/>
-      <c r="K151" s="190"/>
-      <c r="L151" s="190"/>
-      <c r="M151" s="211"/>
-    </row>
-    <row r="152" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A152" s="193"/>
-      <c r="B152" s="208"/>
-      <c r="C152" s="198" t="s">
+      <c r="G151" s="197"/>
+      <c r="H151" s="197"/>
+      <c r="I151" s="197"/>
+      <c r="J151" s="197"/>
+      <c r="K151" s="197"/>
+      <c r="L151" s="197"/>
+      <c r="M151" s="201"/>
+    </row>
+    <row r="152" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="221"/>
+      <c r="B152" s="192"/>
+      <c r="C152" s="209" t="s">
         <v>199</v>
       </c>
-      <c r="D152" s="205"/>
-      <c r="E152" s="201" t="s">
+      <c r="D152" s="218"/>
+      <c r="E152" s="214" t="s">
         <v>169</v>
       </c>
       <c r="F152" s="130" t="s">
         <v>211</v>
       </c>
-      <c r="G152" s="190"/>
-      <c r="H152" s="190"/>
-      <c r="I152" s="190"/>
-      <c r="J152" s="190"/>
-      <c r="K152" s="190"/>
-      <c r="L152" s="190"/>
-      <c r="M152" s="211"/>
-    </row>
-    <row r="153" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A153" s="193"/>
-      <c r="B153" s="208"/>
-      <c r="C153" s="199"/>
-      <c r="D153" s="205"/>
-      <c r="E153" s="202"/>
+      <c r="G152" s="197"/>
+      <c r="H152" s="197"/>
+      <c r="I152" s="197"/>
+      <c r="J152" s="197"/>
+      <c r="K152" s="197"/>
+      <c r="L152" s="197"/>
+      <c r="M152" s="201"/>
+    </row>
+    <row r="153" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="221"/>
+      <c r="B153" s="192"/>
+      <c r="C153" s="210"/>
+      <c r="D153" s="218"/>
+      <c r="E153" s="215"/>
       <c r="F153" s="130" t="s">
         <v>227</v>
       </c>
-      <c r="G153" s="190"/>
-      <c r="H153" s="190"/>
-      <c r="I153" s="190"/>
-      <c r="J153" s="190"/>
-      <c r="K153" s="190"/>
-      <c r="L153" s="190"/>
-      <c r="M153" s="211"/>
-    </row>
-    <row r="154" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A154" s="193"/>
-      <c r="B154" s="208"/>
-      <c r="C154" s="199"/>
-      <c r="D154" s="205"/>
-      <c r="E154" s="201" t="s">
+      <c r="G153" s="197"/>
+      <c r="H153" s="197"/>
+      <c r="I153" s="197"/>
+      <c r="J153" s="197"/>
+      <c r="K153" s="197"/>
+      <c r="L153" s="197"/>
+      <c r="M153" s="201"/>
+    </row>
+    <row r="154" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="221"/>
+      <c r="B154" s="192"/>
+      <c r="C154" s="210"/>
+      <c r="D154" s="218"/>
+      <c r="E154" s="214" t="s">
         <v>170</v>
       </c>
       <c r="F154" s="130" t="s">
         <v>230</v>
       </c>
-      <c r="G154" s="190"/>
-      <c r="H154" s="190"/>
-      <c r="I154" s="190"/>
-      <c r="J154" s="190"/>
-      <c r="K154" s="190"/>
-      <c r="L154" s="190"/>
-      <c r="M154" s="211"/>
-    </row>
-    <row r="155" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A155" s="193"/>
-      <c r="B155" s="208"/>
-      <c r="C155" s="199"/>
-      <c r="D155" s="205"/>
-      <c r="E155" s="203"/>
+      <c r="G154" s="197"/>
+      <c r="H154" s="197"/>
+      <c r="I154" s="197"/>
+      <c r="J154" s="197"/>
+      <c r="K154" s="197"/>
+      <c r="L154" s="197"/>
+      <c r="M154" s="201"/>
+    </row>
+    <row r="155" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="221"/>
+      <c r="B155" s="192"/>
+      <c r="C155" s="210"/>
+      <c r="D155" s="218"/>
+      <c r="E155" s="216"/>
       <c r="F155" s="130" t="s">
         <v>231</v>
       </c>
-      <c r="G155" s="190"/>
-      <c r="H155" s="190"/>
-      <c r="I155" s="190"/>
-      <c r="J155" s="190"/>
-      <c r="K155" s="190"/>
-      <c r="L155" s="190"/>
-      <c r="M155" s="211"/>
-    </row>
-    <row r="156" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A156" s="193"/>
-      <c r="B156" s="208"/>
-      <c r="C156" s="199"/>
-      <c r="D156" s="205"/>
-      <c r="E156" s="202"/>
+      <c r="G155" s="197"/>
+      <c r="H155" s="197"/>
+      <c r="I155" s="197"/>
+      <c r="J155" s="197"/>
+      <c r="K155" s="197"/>
+      <c r="L155" s="197"/>
+      <c r="M155" s="201"/>
+    </row>
+    <row r="156" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="221"/>
+      <c r="B156" s="192"/>
+      <c r="C156" s="210"/>
+      <c r="D156" s="218"/>
+      <c r="E156" s="215"/>
       <c r="F156" s="130" t="s">
         <v>232</v>
       </c>
-      <c r="G156" s="190"/>
-      <c r="H156" s="190"/>
-      <c r="I156" s="190"/>
-      <c r="J156" s="190"/>
-      <c r="K156" s="190"/>
-      <c r="L156" s="190"/>
-      <c r="M156" s="211"/>
-    </row>
-    <row r="157" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="193"/>
-      <c r="B157" s="209"/>
-      <c r="C157" s="200"/>
-      <c r="D157" s="206"/>
+      <c r="G156" s="197"/>
+      <c r="H156" s="197"/>
+      <c r="I156" s="197"/>
+      <c r="J156" s="197"/>
+      <c r="K156" s="197"/>
+      <c r="L156" s="197"/>
+      <c r="M156" s="201"/>
+    </row>
+    <row r="157" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="221"/>
+      <c r="B157" s="193"/>
+      <c r="C157" s="211"/>
+      <c r="D157" s="219"/>
       <c r="E157" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F157" s="130" t="s">
         <v>217</v>
       </c>
-      <c r="G157" s="191"/>
-      <c r="H157" s="191"/>
-      <c r="I157" s="191"/>
-      <c r="J157" s="191"/>
-      <c r="K157" s="191"/>
-      <c r="L157" s="191"/>
-      <c r="M157" s="214"/>
-    </row>
-    <row r="158" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G157" s="198"/>
+      <c r="H157" s="198"/>
+      <c r="I157" s="198"/>
+      <c r="J157" s="198"/>
+      <c r="K157" s="198"/>
+      <c r="L157" s="198"/>
+      <c r="M157" s="202"/>
+    </row>
+    <row r="158" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="15"/>
       <c r="B158" s="15"/>
       <c r="C158" s="16"/>
@@ -6172,7 +6197,7 @@
       <c r="L158" s="18"/>
       <c r="M158" s="63"/>
     </row>
-    <row r="159" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A159" s="1" t="s">
         <v>0</v>
       </c>
@@ -6213,7 +6238,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:13" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A160" s="169" t="s">
         <v>21</v>
       </c>
@@ -6232,7 +6257,7 @@
       <c r="L160" s="127"/>
       <c r="M160" s="167"/>
     </row>
-    <row r="161" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A161" s="15"/>
       <c r="B161" s="15"/>
       <c r="C161" s="16"/>
@@ -6247,7 +6272,7 @@
       <c r="L161" s="18"/>
       <c r="M161" s="63"/>
     </row>
-    <row r="162" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1" t="s">
         <v>0</v>
       </c>
@@ -6288,7 +6313,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A163" s="169" t="s">
         <v>21</v>
       </c>
@@ -6307,7 +6332,7 @@
       <c r="L163" s="127"/>
       <c r="M163" s="167"/>
     </row>
-    <row r="164" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A164" s="15"/>
       <c r="B164" s="15"/>
       <c r="C164" s="16"/>
@@ -6322,7 +6347,7 @@
       <c r="L164" s="18"/>
       <c r="M164" s="63"/>
     </row>
-    <row r="165" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="171" t="s">
         <v>0</v>
       </c>
@@ -6363,7 +6388,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:13" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="178" t="s">
         <v>21</v>
       </c>
@@ -6384,26 +6409,29 @@
     </row>
   </sheetData>
   <mergeCells count="70">
-    <mergeCell ref="B29:B53"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B8:B26"/>
-    <mergeCell ref="A8:A26"/>
-    <mergeCell ref="C17:C22"/>
-    <mergeCell ref="M8:M26"/>
-    <mergeCell ref="M29:M53"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="M63:M157"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="A29:A53"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="G63:G157"/>
+    <mergeCell ref="H63:H157"/>
+    <mergeCell ref="I63:I157"/>
+    <mergeCell ref="C149:C151"/>
+    <mergeCell ref="C152:C157"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="E144:E145"/>
+    <mergeCell ref="J63:J157"/>
+    <mergeCell ref="K63:K157"/>
+    <mergeCell ref="L63:L157"/>
+    <mergeCell ref="A63:A157"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="E109:E110"/>
     <mergeCell ref="B56:B60"/>
     <mergeCell ref="M56:M60"/>
     <mergeCell ref="C63:C65"/>
@@ -6420,6 +6448,11 @@
     <mergeCell ref="E152:E153"/>
     <mergeCell ref="E154:E156"/>
     <mergeCell ref="D63:D157"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="C79:C81"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="M63:M157"/>
     <mergeCell ref="C133:C135"/>
     <mergeCell ref="C136:C138"/>
     <mergeCell ref="C139:C141"/>
@@ -6431,29 +6464,21 @@
     <mergeCell ref="C127:C129"/>
     <mergeCell ref="C130:C132"/>
     <mergeCell ref="C100:C104"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="C108:C111"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="J63:J157"/>
-    <mergeCell ref="K63:K157"/>
-    <mergeCell ref="L63:L157"/>
-    <mergeCell ref="A63:A157"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="A29:A53"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="G63:G157"/>
-    <mergeCell ref="H63:H157"/>
-    <mergeCell ref="I63:I157"/>
-    <mergeCell ref="C149:C151"/>
-    <mergeCell ref="C152:C157"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="M8:M26"/>
+    <mergeCell ref="M29:M53"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="B29:B53"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B8:B26"/>
+    <mergeCell ref="A8:A26"/>
+    <mergeCell ref="C17:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
@@ -6469,38 +6494,38 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7:F8"/>
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="28.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="28.42578125" customWidth="1"/>
-    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="18.109375" customWidth="1"/>
+    <col min="2" max="2" width="28.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="28.44140625" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" customWidth="1"/>
     <col min="7" max="7" width="43" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="8.5703125" customWidth="1"/>
+    <col min="8" max="13" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A1" s="224" t="s">
+    <row r="1" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
+      <c r="A1" s="233" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="224"/>
-      <c r="C1" s="224"/>
-      <c r="D1" s="224"/>
-      <c r="E1" s="224"/>
-      <c r="F1" s="224"/>
-      <c r="G1" s="224"/>
-      <c r="H1" s="224"/>
-      <c r="I1" s="224"/>
-      <c r="J1" s="224"/>
-      <c r="K1" s="224"/>
-      <c r="L1" s="224"/>
-      <c r="M1" s="224"/>
-      <c r="N1" s="224"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B1" s="233"/>
+      <c r="C1" s="233"/>
+      <c r="D1" s="233"/>
+      <c r="E1" s="233"/>
+      <c r="F1" s="233"/>
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
+      <c r="I1" s="233"/>
+      <c r="J1" s="233"/>
+      <c r="K1" s="233"/>
+      <c r="L1" s="233"/>
+      <c r="M1" s="233"/>
+      <c r="N1" s="233"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="131"/>
       <c r="B2" s="131"/>
       <c r="C2" s="131"/>
@@ -6528,7 +6553,7 @@
       </c>
       <c r="N2" s="131"/>
     </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="131"/>
       <c r="B3" s="131"/>
       <c r="C3" s="131"/>
@@ -6554,7 +6579,7 @@
       <c r="M3" s="133"/>
       <c r="N3" s="131"/>
     </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="131"/>
       <c r="B4" s="134"/>
       <c r="C4" s="134"/>
@@ -6562,17 +6587,17 @@
       <c r="E4" s="135"/>
       <c r="F4" s="136"/>
       <c r="G4" s="136"/>
-      <c r="H4" s="239" t="s">
+      <c r="H4" s="228" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="240"/>
-      <c r="J4" s="240"/>
-      <c r="K4" s="240"/>
-      <c r="L4" s="240"/>
-      <c r="M4" s="241"/>
+      <c r="I4" s="229"/>
+      <c r="J4" s="229"/>
+      <c r="K4" s="229"/>
+      <c r="L4" s="229"/>
+      <c r="M4" s="230"/>
       <c r="N4" s="137"/>
     </row>
-    <row r="5" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A5" s="138" t="s">
         <v>0</v>
       </c>
@@ -6616,11 +6641,11 @@
         <v>239</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="223" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="231" t="s">
         <v>240</v>
       </c>
-      <c r="B6" s="233" t="s">
+      <c r="B6" s="232" t="s">
         <v>241</v>
       </c>
       <c r="C6" s="145" t="s">
@@ -6629,7 +6654,7 @@
       <c r="D6" s="146" t="s">
         <v>243</v>
       </c>
-      <c r="E6" s="242" t="s">
+      <c r="E6" s="223" t="s">
         <v>244</v>
       </c>
       <c r="F6" s="147">
@@ -6648,21 +6673,21 @@
       <c r="K6" s="185"/>
       <c r="L6" s="185"/>
       <c r="M6" s="185"/>
-      <c r="N6" s="242" t="s">
+      <c r="N6" s="223" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="223"/>
-      <c r="B7" s="233"/>
-      <c r="C7" s="227" t="s">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="231"/>
+      <c r="B7" s="232"/>
+      <c r="C7" s="236" t="s">
         <v>245</v>
       </c>
-      <c r="D7" s="225" t="s">
+      <c r="D7" s="234" t="s">
         <v>243</v>
       </c>
-      <c r="E7" s="243"/>
-      <c r="F7" s="254">
+      <c r="E7" s="224"/>
+      <c r="F7" s="238">
         <v>2</v>
       </c>
       <c r="G7" s="147" t="s">
@@ -6678,15 +6703,15 @@
       <c r="K7" s="185"/>
       <c r="L7" s="185"/>
       <c r="M7" s="185"/>
-      <c r="N7" s="243"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="223"/>
-      <c r="B8" s="233"/>
-      <c r="C8" s="228"/>
-      <c r="D8" s="226"/>
-      <c r="E8" s="243"/>
-      <c r="F8" s="255"/>
+      <c r="N7" s="224"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="231"/>
+      <c r="B8" s="232"/>
+      <c r="C8" s="237"/>
+      <c r="D8" s="235"/>
+      <c r="E8" s="224"/>
+      <c r="F8" s="239"/>
       <c r="G8" s="147" t="s">
         <v>279</v>
       </c>
@@ -6700,22 +6725,22 @@
       <c r="K8" s="185"/>
       <c r="L8" s="185"/>
       <c r="M8" s="185"/>
-      <c r="N8" s="243"/>
-    </row>
-    <row r="9" spans="1:14" ht="28.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="223"/>
-      <c r="B9" s="233"/>
+      <c r="N8" s="224"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="231"/>
+      <c r="B9" s="232"/>
       <c r="C9" s="148" t="s">
         <v>246</v>
       </c>
       <c r="D9" s="146" t="s">
         <v>243</v>
       </c>
-      <c r="E9" s="243"/>
+      <c r="E9" s="224"/>
       <c r="F9" s="147">
         <v>1</v>
       </c>
-      <c r="G9" s="253" t="s">
+      <c r="G9" s="190" t="s">
         <v>280</v>
       </c>
       <c r="H9" s="184" t="s">
@@ -6728,18 +6753,18 @@
       <c r="K9" s="149"/>
       <c r="L9" s="149"/>
       <c r="M9" s="150"/>
-      <c r="N9" s="243"/>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="223"/>
-      <c r="B10" s="233"/>
-      <c r="C10" s="238" t="s">
+      <c r="N9" s="224"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="231"/>
+      <c r="B10" s="232"/>
+      <c r="C10" s="226" t="s">
         <v>247</v>
       </c>
       <c r="D10" s="151" t="s">
         <v>248</v>
       </c>
-      <c r="E10" s="243"/>
+      <c r="E10" s="224"/>
       <c r="F10" s="147">
         <v>1</v>
       </c>
@@ -6756,16 +6781,16 @@
       <c r="K10" s="149"/>
       <c r="L10" s="149"/>
       <c r="M10" s="150"/>
-      <c r="N10" s="243"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="223"/>
-      <c r="B11" s="233"/>
-      <c r="C11" s="238"/>
+      <c r="N10" s="224"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" s="231"/>
+      <c r="B11" s="232"/>
+      <c r="C11" s="226"/>
       <c r="D11" s="151" t="s">
         <v>249</v>
       </c>
-      <c r="E11" s="243"/>
+      <c r="E11" s="224"/>
       <c r="F11" s="147">
         <v>1</v>
       </c>
@@ -6782,16 +6807,16 @@
       <c r="K11" s="149"/>
       <c r="L11" s="149"/>
       <c r="M11" s="150"/>
-      <c r="N11" s="243"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="223"/>
-      <c r="B12" s="233"/>
-      <c r="C12" s="238"/>
+      <c r="N11" s="224"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" s="231"/>
+      <c r="B12" s="232"/>
+      <c r="C12" s="226"/>
       <c r="D12" s="151" t="s">
         <v>250</v>
       </c>
-      <c r="E12" s="243"/>
+      <c r="E12" s="224"/>
       <c r="F12" s="147">
         <v>1</v>
       </c>
@@ -6808,16 +6833,16 @@
       <c r="K12" s="149"/>
       <c r="L12" s="149"/>
       <c r="M12" s="150"/>
-      <c r="N12" s="243"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="223"/>
-      <c r="B13" s="233"/>
-      <c r="C13" s="238"/>
+      <c r="N12" s="224"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" s="231"/>
+      <c r="B13" s="232"/>
+      <c r="C13" s="226"/>
       <c r="D13" s="151" t="s">
         <v>251</v>
       </c>
-      <c r="E13" s="243"/>
+      <c r="E13" s="224"/>
       <c r="F13" s="147">
         <v>1</v>
       </c>
@@ -6834,16 +6859,16 @@
       <c r="K13" s="149"/>
       <c r="L13" s="149"/>
       <c r="M13" s="150"/>
-      <c r="N13" s="243"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="223"/>
-      <c r="B14" s="233"/>
-      <c r="C14" s="238"/>
+      <c r="N13" s="224"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" s="231"/>
+      <c r="B14" s="232"/>
+      <c r="C14" s="226"/>
       <c r="D14" s="151" t="s">
         <v>252</v>
       </c>
-      <c r="E14" s="243"/>
+      <c r="E14" s="224"/>
       <c r="F14" s="147">
         <v>1</v>
       </c>
@@ -6860,16 +6885,16 @@
       <c r="K14" s="149"/>
       <c r="L14" s="149"/>
       <c r="M14" s="150"/>
-      <c r="N14" s="243"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="223"/>
-      <c r="B15" s="233"/>
-      <c r="C15" s="238"/>
+      <c r="N14" s="224"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" s="231"/>
+      <c r="B15" s="232"/>
+      <c r="C15" s="226"/>
       <c r="D15" s="151" t="s">
         <v>253</v>
       </c>
-      <c r="E15" s="243"/>
+      <c r="E15" s="224"/>
       <c r="F15" s="147">
         <v>1</v>
       </c>
@@ -6886,16 +6911,16 @@
       <c r="K15" s="149"/>
       <c r="L15" s="149"/>
       <c r="M15" s="150"/>
-      <c r="N15" s="243"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="223"/>
-      <c r="B16" s="233"/>
-      <c r="C16" s="238"/>
+      <c r="N15" s="224"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" s="231"/>
+      <c r="B16" s="232"/>
+      <c r="C16" s="226"/>
       <c r="D16" s="151" t="s">
         <v>254</v>
       </c>
-      <c r="E16" s="243"/>
+      <c r="E16" s="224"/>
       <c r="F16" s="147">
         <v>1</v>
       </c>
@@ -6912,18 +6937,18 @@
       <c r="K16" s="149"/>
       <c r="L16" s="149"/>
       <c r="M16" s="150"/>
-      <c r="N16" s="243"/>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="223"/>
-      <c r="B17" s="233"/>
-      <c r="C17" s="238" t="s">
+      <c r="N16" s="224"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17" s="231"/>
+      <c r="B17" s="232"/>
+      <c r="C17" s="226" t="s">
         <v>255</v>
       </c>
       <c r="D17" s="151" t="s">
         <v>256</v>
       </c>
-      <c r="E17" s="243"/>
+      <c r="E17" s="224"/>
       <c r="F17" s="147">
         <v>1</v>
       </c>
@@ -6940,16 +6965,16 @@
       <c r="K17" s="149"/>
       <c r="L17" s="149"/>
       <c r="M17" s="150"/>
-      <c r="N17" s="243"/>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="223"/>
-      <c r="B18" s="233"/>
-      <c r="C18" s="238"/>
+      <c r="N17" s="224"/>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18" s="231"/>
+      <c r="B18" s="232"/>
+      <c r="C18" s="226"/>
       <c r="D18" s="151" t="s">
         <v>257</v>
       </c>
-      <c r="E18" s="243"/>
+      <c r="E18" s="224"/>
       <c r="F18" s="147">
         <v>1</v>
       </c>
@@ -6966,16 +6991,16 @@
       <c r="K18" s="149"/>
       <c r="L18" s="149"/>
       <c r="M18" s="150"/>
-      <c r="N18" s="243"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="223"/>
-      <c r="B19" s="233"/>
-      <c r="C19" s="238"/>
+      <c r="N18" s="224"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19" s="231"/>
+      <c r="B19" s="232"/>
+      <c r="C19" s="226"/>
       <c r="D19" s="151" t="s">
         <v>258</v>
       </c>
-      <c r="E19" s="243"/>
+      <c r="E19" s="224"/>
       <c r="F19" s="147">
         <v>1</v>
       </c>
@@ -6992,16 +7017,16 @@
       <c r="K19" s="149"/>
       <c r="L19" s="149"/>
       <c r="M19" s="150"/>
-      <c r="N19" s="243"/>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="223"/>
-      <c r="B20" s="233"/>
-      <c r="C20" s="238"/>
+      <c r="N19" s="224"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20" s="231"/>
+      <c r="B20" s="232"/>
+      <c r="C20" s="226"/>
       <c r="D20" s="151" t="s">
         <v>259</v>
       </c>
-      <c r="E20" s="243"/>
+      <c r="E20" s="224"/>
       <c r="F20" s="147">
         <v>1</v>
       </c>
@@ -7018,16 +7043,16 @@
       <c r="K20" s="149"/>
       <c r="L20" s="149"/>
       <c r="M20" s="150"/>
-      <c r="N20" s="243"/>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="223"/>
-      <c r="B21" s="233"/>
-      <c r="C21" s="238"/>
+      <c r="N20" s="224"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21" s="231"/>
+      <c r="B21" s="232"/>
+      <c r="C21" s="226"/>
       <c r="D21" s="151" t="s">
         <v>260</v>
       </c>
-      <c r="E21" s="244"/>
+      <c r="E21" s="225"/>
       <c r="F21" s="147">
         <v>1</v>
       </c>
@@ -7044,9 +7069,9 @@
       <c r="K21" s="149"/>
       <c r="L21" s="149"/>
       <c r="M21" s="150"/>
-      <c r="N21" s="244"/>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N21" s="225"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="152" t="s">
         <v>0</v>
       </c>
@@ -7070,20 +7095,20 @@
       <c r="M22" s="159"/>
       <c r="N22" s="156"/>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="223" t="s">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23" s="231" t="s">
         <v>240</v>
       </c>
-      <c r="B23" s="233" t="s">
+      <c r="B23" s="232" t="s">
         <v>262</v>
       </c>
-      <c r="C23" s="234" t="s">
+      <c r="C23" s="227" t="s">
         <v>263</v>
       </c>
       <c r="D23" s="151" t="s">
         <v>264</v>
       </c>
-      <c r="E23" s="235" t="s">
+      <c r="E23" s="244" t="s">
         <v>244</v>
       </c>
       <c r="F23" s="147">
@@ -7102,18 +7127,18 @@
       <c r="K23" s="149"/>
       <c r="L23" s="149"/>
       <c r="M23" s="150"/>
-      <c r="N23" s="235" t="s">
+      <c r="N23" s="244" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="223"/>
-      <c r="B24" s="233"/>
-      <c r="C24" s="234"/>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24" s="231"/>
+      <c r="B24" s="232"/>
+      <c r="C24" s="227"/>
       <c r="D24" s="151" t="s">
         <v>265</v>
       </c>
-      <c r="E24" s="236"/>
+      <c r="E24" s="245"/>
       <c r="F24" s="164"/>
       <c r="G24" s="147"/>
       <c r="H24" s="184"/>
@@ -7122,18 +7147,18 @@
       <c r="K24" s="149"/>
       <c r="L24" s="149"/>
       <c r="M24" s="150"/>
-      <c r="N24" s="236"/>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="223"/>
-      <c r="B25" s="233"/>
-      <c r="C25" s="234" t="s">
+      <c r="N24" s="245"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25" s="231"/>
+      <c r="B25" s="232"/>
+      <c r="C25" s="227" t="s">
         <v>266</v>
       </c>
       <c r="D25" s="151" t="s">
         <v>264</v>
       </c>
-      <c r="E25" s="236"/>
+      <c r="E25" s="245"/>
       <c r="F25" s="147">
         <v>1</v>
       </c>
@@ -7150,17 +7175,17 @@
       <c r="K25" s="149"/>
       <c r="L25" s="149"/>
       <c r="M25" s="150"/>
-      <c r="N25" s="236"/>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="223"/>
-      <c r="B26" s="233"/>
-      <c r="C26" s="234"/>
+      <c r="N25" s="245"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26" s="231"/>
+      <c r="B26" s="232"/>
+      <c r="C26" s="227"/>
       <c r="D26" s="151" t="s">
         <v>267</v>
       </c>
-      <c r="E26" s="236"/>
-      <c r="F26" s="253"/>
+      <c r="E26" s="245"/>
+      <c r="F26" s="190"/>
       <c r="G26" s="147"/>
       <c r="H26" s="184"/>
       <c r="I26" s="184"/>
@@ -7168,16 +7193,16 @@
       <c r="K26" s="149"/>
       <c r="L26" s="149"/>
       <c r="M26" s="149"/>
-      <c r="N26" s="236"/>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="223"/>
-      <c r="B27" s="233"/>
-      <c r="C27" s="234"/>
+      <c r="N26" s="245"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27" s="231"/>
+      <c r="B27" s="232"/>
+      <c r="C27" s="227"/>
       <c r="D27" s="151" t="s">
         <v>268</v>
       </c>
-      <c r="E27" s="236"/>
+      <c r="E27" s="245"/>
       <c r="F27" s="164"/>
       <c r="G27" s="147"/>
       <c r="H27" s="184"/>
@@ -7186,18 +7211,18 @@
       <c r="K27" s="160"/>
       <c r="L27" s="160"/>
       <c r="M27" s="161"/>
-      <c r="N27" s="236"/>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="223"/>
-      <c r="B28" s="233"/>
-      <c r="C28" s="234" t="s">
+      <c r="N27" s="245"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28" s="231"/>
+      <c r="B28" s="232"/>
+      <c r="C28" s="227" t="s">
         <v>269</v>
       </c>
       <c r="D28" s="151" t="s">
         <v>264</v>
       </c>
-      <c r="E28" s="236"/>
+      <c r="E28" s="245"/>
       <c r="F28" s="147">
         <v>1</v>
       </c>
@@ -7214,16 +7239,16 @@
       <c r="K28" s="185"/>
       <c r="L28" s="185"/>
       <c r="M28" s="186"/>
-      <c r="N28" s="236"/>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="223"/>
-      <c r="B29" s="233"/>
-      <c r="C29" s="234"/>
+      <c r="N28" s="245"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29" s="231"/>
+      <c r="B29" s="232"/>
+      <c r="C29" s="227"/>
       <c r="D29" s="151" t="s">
         <v>267</v>
       </c>
-      <c r="E29" s="236"/>
+      <c r="E29" s="245"/>
       <c r="F29" s="164"/>
       <c r="G29" s="147"/>
       <c r="H29" s="184"/>
@@ -7232,18 +7257,18 @@
       <c r="K29" s="185"/>
       <c r="L29" s="185"/>
       <c r="M29" s="186"/>
-      <c r="N29" s="236"/>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="223"/>
-      <c r="B30" s="233"/>
-      <c r="C30" s="234" t="s">
+      <c r="N29" s="245"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30" s="231"/>
+      <c r="B30" s="232"/>
+      <c r="C30" s="227" t="s">
         <v>270</v>
       </c>
       <c r="D30" s="151" t="s">
         <v>264</v>
       </c>
-      <c r="E30" s="236"/>
+      <c r="E30" s="245"/>
       <c r="F30" s="147">
         <v>1</v>
       </c>
@@ -7260,16 +7285,16 @@
       <c r="K30" s="185"/>
       <c r="L30" s="185"/>
       <c r="M30" s="186"/>
-      <c r="N30" s="236"/>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="223"/>
-      <c r="B31" s="233"/>
-      <c r="C31" s="234"/>
+      <c r="N30" s="245"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31" s="231"/>
+      <c r="B31" s="232"/>
+      <c r="C31" s="227"/>
       <c r="D31" s="151" t="s">
         <v>267</v>
       </c>
-      <c r="E31" s="236"/>
+      <c r="E31" s="245"/>
       <c r="F31" s="147">
         <v>1</v>
       </c>
@@ -7286,18 +7311,18 @@
       <c r="K31" s="185"/>
       <c r="L31" s="185"/>
       <c r="M31" s="186"/>
-      <c r="N31" s="236"/>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="223"/>
-      <c r="B32" s="233"/>
-      <c r="C32" s="238" t="s">
+      <c r="N31" s="245"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32" s="231"/>
+      <c r="B32" s="232"/>
+      <c r="C32" s="226" t="s">
         <v>271</v>
       </c>
       <c r="D32" s="151" t="s">
         <v>264</v>
       </c>
-      <c r="E32" s="236"/>
+      <c r="E32" s="245"/>
       <c r="F32" s="147">
         <v>1</v>
       </c>
@@ -7314,16 +7339,16 @@
       <c r="K32" s="185"/>
       <c r="L32" s="185"/>
       <c r="M32" s="186"/>
-      <c r="N32" s="236"/>
-    </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="223"/>
-      <c r="B33" s="233"/>
-      <c r="C33" s="238"/>
+      <c r="N32" s="245"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33" s="231"/>
+      <c r="B33" s="232"/>
+      <c r="C33" s="226"/>
       <c r="D33" s="151" t="s">
         <v>267</v>
       </c>
-      <c r="E33" s="236"/>
+      <c r="E33" s="245"/>
       <c r="F33" s="147">
         <v>1</v>
       </c>
@@ -7340,18 +7365,18 @@
       <c r="K33" s="185"/>
       <c r="L33" s="185"/>
       <c r="M33" s="186"/>
-      <c r="N33" s="236"/>
-    </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A34" s="223"/>
-      <c r="B34" s="233"/>
-      <c r="C34" s="234" t="s">
+      <c r="N33" s="245"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34" s="231"/>
+      <c r="B34" s="232"/>
+      <c r="C34" s="227" t="s">
         <v>272</v>
       </c>
       <c r="D34" s="151" t="s">
         <v>264</v>
       </c>
-      <c r="E34" s="236"/>
+      <c r="E34" s="245"/>
       <c r="F34" s="147">
         <v>1</v>
       </c>
@@ -7368,20 +7393,20 @@
       <c r="K34" s="185"/>
       <c r="L34" s="185"/>
       <c r="M34" s="186"/>
-      <c r="N34" s="236"/>
-    </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A35" s="223"/>
-      <c r="B35" s="233"/>
-      <c r="C35" s="234"/>
+      <c r="N34" s="245"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35" s="231"/>
+      <c r="B35" s="232"/>
+      <c r="C35" s="227"/>
       <c r="D35" s="151" t="s">
         <v>267</v>
       </c>
-      <c r="E35" s="237"/>
+      <c r="E35" s="246"/>
       <c r="F35" s="147">
         <v>1</v>
       </c>
-      <c r="G35" s="147" t="s">
+      <c r="G35" s="190" t="s">
         <v>287</v>
       </c>
       <c r="H35" s="184" t="s">
@@ -7394,9 +7419,9 @@
       <c r="K35" s="185"/>
       <c r="L35" s="185"/>
       <c r="M35" s="186"/>
-      <c r="N35" s="237"/>
-    </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N35" s="246"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="138" t="s">
         <v>0</v>
       </c>
@@ -7416,129 +7441,129 @@
       <c r="M36" s="188"/>
       <c r="N36" s="156"/>
     </row>
-    <row r="37" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="223" t="s">
+    <row r="37" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="231" t="s">
         <v>240</v>
       </c>
-      <c r="B37" s="232" t="s">
+      <c r="B37" s="243" t="s">
         <v>273</v>
       </c>
-      <c r="C37" s="231"/>
-      <c r="D37" s="230"/>
-      <c r="E37" s="229" t="s">
+      <c r="C37" s="242"/>
+      <c r="D37" s="241"/>
+      <c r="E37" s="240" t="s">
         <v>244</v>
       </c>
-      <c r="F37" s="229">
+      <c r="F37" s="240">
         <v>6</v>
       </c>
       <c r="G37" s="165" t="s">
         <v>288</v>
       </c>
-      <c r="H37" s="221" t="s">
-        <v>49</v>
-      </c>
-      <c r="I37" s="221" t="s">
-        <v>49</v>
-      </c>
-      <c r="J37" s="221"/>
-      <c r="K37" s="221"/>
-      <c r="L37" s="221"/>
-      <c r="M37" s="221"/>
-      <c r="N37" s="222" t="s">
+      <c r="H37" s="247" t="s">
+        <v>49</v>
+      </c>
+      <c r="I37" s="247" t="s">
+        <v>49</v>
+      </c>
+      <c r="J37" s="247"/>
+      <c r="K37" s="247"/>
+      <c r="L37" s="247"/>
+      <c r="M37" s="247"/>
+      <c r="N37" s="248" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A38" s="223"/>
-      <c r="B38" s="232"/>
-      <c r="C38" s="231"/>
-      <c r="D38" s="230"/>
-      <c r="E38" s="229"/>
-      <c r="F38" s="229"/>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A38" s="231"/>
+      <c r="B38" s="243"/>
+      <c r="C38" s="242"/>
+      <c r="D38" s="241"/>
+      <c r="E38" s="240"/>
+      <c r="F38" s="240"/>
       <c r="G38" s="165" t="s">
         <v>289</v>
       </c>
-      <c r="H38" s="221"/>
-      <c r="I38" s="221"/>
-      <c r="J38" s="221"/>
-      <c r="K38" s="221"/>
-      <c r="L38" s="221"/>
-      <c r="M38" s="221"/>
-      <c r="N38" s="222"/>
-    </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A39" s="223"/>
-      <c r="B39" s="232"/>
-      <c r="C39" s="231"/>
-      <c r="D39" s="230"/>
-      <c r="E39" s="229"/>
-      <c r="F39" s="229"/>
+      <c r="H38" s="247"/>
+      <c r="I38" s="247"/>
+      <c r="J38" s="247"/>
+      <c r="K38" s="247"/>
+      <c r="L38" s="247"/>
+      <c r="M38" s="247"/>
+      <c r="N38" s="248"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A39" s="231"/>
+      <c r="B39" s="243"/>
+      <c r="C39" s="242"/>
+      <c r="D39" s="241"/>
+      <c r="E39" s="240"/>
+      <c r="F39" s="240"/>
       <c r="G39" s="165" t="s">
         <v>290</v>
       </c>
-      <c r="H39" s="221"/>
-      <c r="I39" s="221"/>
-      <c r="J39" s="221"/>
-      <c r="K39" s="221"/>
-      <c r="L39" s="221"/>
-      <c r="M39" s="221"/>
-      <c r="N39" s="222"/>
-    </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A40" s="223"/>
-      <c r="B40" s="232"/>
-      <c r="C40" s="231"/>
-      <c r="D40" s="230"/>
-      <c r="E40" s="229"/>
-      <c r="F40" s="229"/>
+      <c r="H39" s="247"/>
+      <c r="I39" s="247"/>
+      <c r="J39" s="247"/>
+      <c r="K39" s="247"/>
+      <c r="L39" s="247"/>
+      <c r="M39" s="247"/>
+      <c r="N39" s="248"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A40" s="231"/>
+      <c r="B40" s="243"/>
+      <c r="C40" s="242"/>
+      <c r="D40" s="241"/>
+      <c r="E40" s="240"/>
+      <c r="F40" s="240"/>
       <c r="G40" s="165" t="s">
         <v>293</v>
       </c>
-      <c r="H40" s="221"/>
-      <c r="I40" s="221"/>
-      <c r="J40" s="221"/>
-      <c r="K40" s="221"/>
-      <c r="L40" s="221"/>
-      <c r="M40" s="221"/>
-      <c r="N40" s="222"/>
-    </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A41" s="223"/>
-      <c r="B41" s="232"/>
-      <c r="C41" s="231"/>
-      <c r="D41" s="230"/>
-      <c r="E41" s="229"/>
-      <c r="F41" s="229"/>
+      <c r="H40" s="247"/>
+      <c r="I40" s="247"/>
+      <c r="J40" s="247"/>
+      <c r="K40" s="247"/>
+      <c r="L40" s="247"/>
+      <c r="M40" s="247"/>
+      <c r="N40" s="248"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A41" s="231"/>
+      <c r="B41" s="243"/>
+      <c r="C41" s="242"/>
+      <c r="D41" s="241"/>
+      <c r="E41" s="240"/>
+      <c r="F41" s="240"/>
       <c r="G41" s="165" t="s">
         <v>291</v>
       </c>
-      <c r="H41" s="221"/>
-      <c r="I41" s="221"/>
-      <c r="J41" s="221"/>
-      <c r="K41" s="221"/>
-      <c r="L41" s="221"/>
-      <c r="M41" s="221"/>
-      <c r="N41" s="222"/>
-    </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A42" s="223"/>
-      <c r="B42" s="232"/>
-      <c r="C42" s="231"/>
-      <c r="D42" s="230"/>
-      <c r="E42" s="229"/>
-      <c r="F42" s="229"/>
+      <c r="H41" s="247"/>
+      <c r="I41" s="247"/>
+      <c r="J41" s="247"/>
+      <c r="K41" s="247"/>
+      <c r="L41" s="247"/>
+      <c r="M41" s="247"/>
+      <c r="N41" s="248"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A42" s="231"/>
+      <c r="B42" s="243"/>
+      <c r="C42" s="242"/>
+      <c r="D42" s="241"/>
+      <c r="E42" s="240"/>
+      <c r="F42" s="240"/>
       <c r="G42" s="165" t="s">
         <v>292</v>
       </c>
-      <c r="H42" s="221"/>
-      <c r="I42" s="221"/>
-      <c r="J42" s="221"/>
-      <c r="K42" s="221"/>
-      <c r="L42" s="221"/>
-      <c r="M42" s="221"/>
-      <c r="N42" s="222"/>
-    </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="H42" s="247"/>
+      <c r="I42" s="247"/>
+      <c r="J42" s="247"/>
+      <c r="K42" s="247"/>
+      <c r="L42" s="247"/>
+      <c r="M42" s="247"/>
+      <c r="N42" s="248"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H43" s="24"/>
       <c r="I43" s="24"/>
       <c r="J43" s="24"/>
@@ -7548,16 +7573,14 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="N6:N21"/>
-    <mergeCell ref="C10:C16"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="A6:A21"/>
-    <mergeCell ref="B6:B21"/>
-    <mergeCell ref="E6:E21"/>
+    <mergeCell ref="M37:M42"/>
+    <mergeCell ref="N37:N42"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="H37:H42"/>
+    <mergeCell ref="I37:I42"/>
+    <mergeCell ref="J37:J42"/>
+    <mergeCell ref="K37:K42"/>
+    <mergeCell ref="L37:L42"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="C7:C8"/>
@@ -7574,14 +7597,16 @@
     <mergeCell ref="N23:N35"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="C28:C29"/>
-    <mergeCell ref="M37:M42"/>
-    <mergeCell ref="N37:N42"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="H37:H42"/>
-    <mergeCell ref="I37:I42"/>
-    <mergeCell ref="J37:J42"/>
-    <mergeCell ref="K37:K42"/>
-    <mergeCell ref="L37:L42"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="A6:A21"/>
+    <mergeCell ref="B6:B21"/>
+    <mergeCell ref="E6:E21"/>
+    <mergeCell ref="N6:N21"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -7596,33 +7621,33 @@
       <selection activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
-    <col min="3" max="3" width="27.7109375" customWidth="1"/>
-    <col min="4" max="4" width="32.42578125" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="27.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32.44140625" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
     <col min="6" max="6" width="12" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" style="64" customWidth="1"/>
-    <col min="8" max="8" width="5.7109375" customWidth="1"/>
+    <col min="7" max="7" width="5.6640625" style="64" customWidth="1"/>
+    <col min="8" max="8" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="90" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A1" s="251" t="s">
+    <row r="1" spans="1:8" s="90" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="255" t="s">
         <v>302</v>
       </c>
-      <c r="B1" s="251"/>
-      <c r="C1" s="251"/>
-      <c r="D1" s="251"/>
-      <c r="E1" s="251"/>
-      <c r="F1" s="251"/>
-      <c r="G1" s="251"/>
-      <c r="H1" s="251"/>
-    </row>
-    <row r="2" spans="1:8" s="90" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="255"/>
+      <c r="C1" s="255"/>
+      <c r="D1" s="255"/>
+      <c r="E1" s="255"/>
+      <c r="F1" s="255"/>
+      <c r="G1" s="255"/>
+      <c r="H1" s="255"/>
+    </row>
+    <row r="2" spans="1:8" s="90" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G2" s="91"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="74" t="s">
         <v>123</v>
       </c>
@@ -7639,7 +7664,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="100" t="s">
         <v>121</v>
       </c>
@@ -7650,11 +7675,11 @@
         <v>141</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="25"/>
       <c r="C5" s="79"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C6" s="82" t="s">
         <v>142</v>
       </c>
@@ -7662,13 +7687,13 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C7" s="83"/>
       <c r="D7" s="81" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C8" s="30" t="s">
         <v>143</v>
       </c>
@@ -7677,13 +7702,13 @@
       </c>
       <c r="E8" s="86"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C9" s="30"/>
       <c r="D9" s="41" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C10" s="31" t="s">
         <v>144</v>
       </c>
@@ -7691,13 +7716,13 @@
         <v>108</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C11" s="31"/>
       <c r="D11" s="42" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C12" s="43" t="s">
         <v>145</v>
       </c>
@@ -7705,14 +7730,14 @@
         <v>108</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C13" s="43"/>
       <c r="D13" s="87" t="s">
         <v>109</v>
       </c>
       <c r="E13" s="86"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C14" s="50" t="s">
         <v>146</v>
       </c>
@@ -7721,14 +7746,14 @@
       </c>
       <c r="E14" s="86"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C15" s="50"/>
       <c r="D15" s="88" t="s">
         <v>109</v>
       </c>
       <c r="E15" s="86"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C16" s="56" t="s">
         <v>147</v>
       </c>
@@ -7736,37 +7761,37 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C17" s="56"/>
       <c r="D17" s="52" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C18" s="248" t="s">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C18" s="252" t="s">
         <v>148</v>
       </c>
       <c r="D18" s="89" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="249"/>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C19" s="253"/>
       <c r="D19" s="89" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C20" s="85" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C21" s="104" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B22" s="103" t="s">
         <v>124</v>
       </c>
@@ -7777,7 +7802,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B23" s="103" t="s">
         <v>125</v>
       </c>
@@ -7785,15 +7810,15 @@
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="E24" s="86"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="25"/>
       <c r="C25" s="25"/>
     </row>
-    <row r="26" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:7" s="26" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="100" t="s">
         <v>122</v>
       </c>
@@ -7811,13 +7836,13 @@
       </c>
       <c r="G27" s="67"/>
     </row>
-    <row r="28" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="55" t="s">
         <v>102</v>
       </c>
       <c r="G28" s="68"/>
     </row>
-    <row r="29" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="38" t="s">
         <v>111</v>
       </c>
@@ -7832,7 +7857,7 @@
       </c>
       <c r="G29" s="69"/>
     </row>
-    <row r="30" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="39"/>
       <c r="D30" s="41" t="s">
         <v>51</v>
@@ -7845,7 +7870,7 @@
       </c>
       <c r="G30" s="69"/>
     </row>
-    <row r="31" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="39"/>
       <c r="D31" s="41" t="s">
         <v>131</v>
@@ -7858,7 +7883,7 @@
       </c>
       <c r="G31" s="69"/>
     </row>
-    <row r="32" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="39"/>
       <c r="D32" s="41" t="s">
         <v>113</v>
@@ -7871,7 +7896,7 @@
       </c>
       <c r="G32" s="69"/>
     </row>
-    <row r="33" spans="3:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:9" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="39"/>
       <c r="D33" s="41" t="s">
         <v>52</v>
@@ -7884,7 +7909,7 @@
       </c>
       <c r="G33" s="69"/>
     </row>
-    <row r="34" spans="3:9" s="28" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:9" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="40"/>
       <c r="D34" s="41" t="s">
         <v>110</v>
@@ -7897,7 +7922,7 @@
       </c>
       <c r="G34" s="69"/>
     </row>
-    <row r="35" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="35" t="s">
         <v>103</v>
       </c>
@@ -7909,7 +7934,7 @@
       </c>
       <c r="G35" s="70"/>
     </row>
-    <row r="36" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="36"/>
       <c r="D36" s="33"/>
       <c r="E36" s="42" t="s">
@@ -7917,7 +7942,7 @@
       </c>
       <c r="G36" s="70"/>
     </row>
-    <row r="37" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="36"/>
       <c r="D37" s="33"/>
       <c r="E37" s="42" t="s">
@@ -7925,7 +7950,7 @@
       </c>
       <c r="G37" s="70"/>
     </row>
-    <row r="38" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="36"/>
       <c r="D38" s="33"/>
       <c r="E38" s="42" t="s">
@@ -7933,7 +7958,7 @@
       </c>
       <c r="G38" s="70"/>
     </row>
-    <row r="39" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="36"/>
       <c r="D39" s="33"/>
       <c r="E39" s="42" t="s">
@@ -7941,7 +7966,7 @@
       </c>
       <c r="G39" s="70"/>
     </row>
-    <row r="40" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="36"/>
       <c r="D40" s="32" t="s">
         <v>54</v>
@@ -7951,7 +7976,7 @@
       </c>
       <c r="G40" s="70"/>
     </row>
-    <row r="41" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="36"/>
       <c r="D41" s="33"/>
       <c r="E41" s="42" t="s">
@@ -7959,7 +7984,7 @@
       </c>
       <c r="G41" s="70"/>
     </row>
-    <row r="42" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="36"/>
       <c r="D42" s="33"/>
       <c r="E42" s="42" t="s">
@@ -7967,7 +7992,7 @@
       </c>
       <c r="G42" s="70"/>
     </row>
-    <row r="43" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="36"/>
       <c r="D43" s="33"/>
       <c r="E43" s="42" t="s">
@@ -7975,7 +8000,7 @@
       </c>
       <c r="G43" s="70"/>
     </row>
-    <row r="44" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="36"/>
       <c r="D44" s="33"/>
       <c r="E44" s="106" t="s">
@@ -7986,7 +8011,7 @@
       <c r="H44" s="107"/>
       <c r="I44" s="107"/>
     </row>
-    <row r="45" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="36"/>
       <c r="D45" s="34"/>
       <c r="E45" s="106" t="s">
@@ -7997,7 +8022,7 @@
       <c r="H45" s="107"/>
       <c r="I45" s="107"/>
     </row>
-    <row r="46" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="36"/>
       <c r="D46" s="42" t="s">
         <v>55</v>
@@ -8008,7 +8033,7 @@
       <c r="H46" s="107"/>
       <c r="I46" s="107"/>
     </row>
-    <row r="47" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="36"/>
       <c r="D47" s="42" t="s">
         <v>74</v>
@@ -8021,7 +8046,7 @@
       <c r="H47" s="107"/>
       <c r="I47" s="107"/>
     </row>
-    <row r="48" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37"/>
       <c r="D48" s="42" t="s">
         <v>75</v>
@@ -8034,7 +8059,7 @@
       <c r="H48" s="107"/>
       <c r="I48" s="107"/>
     </row>
-    <row r="49" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="45" t="s">
         <v>104</v>
       </c>
@@ -8047,7 +8072,7 @@
       <c r="H49" s="108"/>
       <c r="I49" s="108"/>
     </row>
-    <row r="50" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="61"/>
       <c r="D50" s="44" t="s">
         <v>68</v>
@@ -8058,7 +8083,7 @@
       <c r="H50" s="108"/>
       <c r="I50" s="108"/>
     </row>
-    <row r="51" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="61"/>
       <c r="D51" s="44" t="s">
         <v>69</v>
@@ -8069,7 +8094,7 @@
       <c r="H51" s="108"/>
       <c r="I51" s="108"/>
     </row>
-    <row r="52" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="61"/>
       <c r="D52" s="44" t="s">
         <v>70</v>
@@ -8080,7 +8105,7 @@
       <c r="H52" s="108"/>
       <c r="I52" s="108"/>
     </row>
-    <row r="53" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="61"/>
       <c r="D53" s="44" t="s">
         <v>71</v>
@@ -8091,7 +8116,7 @@
       <c r="H53" s="108"/>
       <c r="I53" s="108"/>
     </row>
-    <row r="54" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="61"/>
       <c r="D54" s="44" t="s">
         <v>72</v>
@@ -8102,7 +8127,7 @@
       <c r="H54" s="108"/>
       <c r="I54" s="108"/>
     </row>
-    <row r="55" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="61"/>
       <c r="D55" s="44" t="s">
         <v>73</v>
@@ -8113,7 +8138,7 @@
       <c r="H55" s="108"/>
       <c r="I55" s="108"/>
     </row>
-    <row r="56" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="62"/>
       <c r="D56" s="45" t="s">
         <v>66</v>
@@ -8124,7 +8149,7 @@
       <c r="H56" s="108"/>
       <c r="I56" s="108"/>
     </row>
-    <row r="57" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="47" t="s">
         <v>105</v>
       </c>
@@ -8141,7 +8166,7 @@
       <c r="H57" s="108"/>
       <c r="I57" s="108"/>
     </row>
-    <row r="58" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="48"/>
       <c r="D58" s="93" t="s">
         <v>155</v>
@@ -8156,7 +8181,7 @@
       <c r="H58" s="108"/>
       <c r="I58" s="108"/>
     </row>
-    <row r="59" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="92"/>
       <c r="D59" s="47" t="s">
         <v>117</v>
@@ -8173,7 +8198,7 @@
       <c r="H59" s="108"/>
       <c r="I59" s="108"/>
     </row>
-    <row r="60" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="92"/>
       <c r="D60" s="48"/>
       <c r="E60" s="110" t="s">
@@ -8188,7 +8213,7 @@
       <c r="H60" s="108"/>
       <c r="I60" s="108"/>
     </row>
-    <row r="61" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="92"/>
       <c r="D61" s="92"/>
       <c r="E61" s="111" t="s">
@@ -8205,7 +8230,7 @@
       </c>
       <c r="I61" s="108"/>
     </row>
-    <row r="62" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="92"/>
       <c r="D62" s="92"/>
       <c r="E62" s="112"/>
@@ -8220,7 +8245,7 @@
       </c>
       <c r="I62" s="108"/>
     </row>
-    <row r="63" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="92"/>
       <c r="D63" s="48"/>
       <c r="E63" s="114" t="s">
@@ -8235,7 +8260,7 @@
       <c r="H63" s="108"/>
       <c r="I63" s="108"/>
     </row>
-    <row r="64" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="92"/>
       <c r="D64" s="48"/>
       <c r="E64" s="110" t="s">
@@ -8246,7 +8271,7 @@
       <c r="H64" s="108"/>
       <c r="I64" s="108"/>
     </row>
-    <row r="65" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="92"/>
       <c r="D65" s="49"/>
       <c r="E65" s="110" t="s">
@@ -8261,7 +8286,7 @@
       <c r="H65" s="108"/>
       <c r="I65" s="108"/>
     </row>
-    <row r="66" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="48"/>
       <c r="D66" s="94" t="s">
         <v>156</v>
@@ -8276,7 +8301,7 @@
       <c r="H66" s="108"/>
       <c r="I66" s="108"/>
     </row>
-    <row r="67" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C67" s="48"/>
       <c r="D67" s="46" t="s">
         <v>157</v>
@@ -8291,7 +8316,7 @@
       <c r="H67" s="108"/>
       <c r="I67" s="108"/>
     </row>
-    <row r="68" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C68" s="49"/>
       <c r="D68" s="46" t="s">
         <v>77</v>
@@ -8306,7 +8331,7 @@
       <c r="H68" s="108"/>
       <c r="I68" s="108"/>
     </row>
-    <row r="69" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C69" s="51" t="s">
         <v>106</v>
       </c>
@@ -8321,7 +8346,7 @@
       <c r="H69" s="108"/>
       <c r="I69" s="108"/>
     </row>
-    <row r="70" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C70" s="53"/>
       <c r="D70" s="52" t="s">
         <v>79</v>
@@ -8334,7 +8359,7 @@
       <c r="H70" s="108"/>
       <c r="I70" s="108"/>
     </row>
-    <row r="71" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C71" s="53"/>
       <c r="D71" s="52" t="s">
         <v>80</v>
@@ -8347,7 +8372,7 @@
       <c r="H71" s="108"/>
       <c r="I71" s="108"/>
     </row>
-    <row r="72" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C72" s="53"/>
       <c r="D72" s="52" t="s">
         <v>81</v>
@@ -8362,7 +8387,7 @@
       <c r="H72" s="108"/>
       <c r="I72" s="108"/>
     </row>
-    <row r="73" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C73" s="54"/>
       <c r="D73" s="52" t="s">
         <v>82</v>
@@ -8375,7 +8400,7 @@
       <c r="H73" s="108"/>
       <c r="I73" s="108"/>
     </row>
-    <row r="74" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C74" s="75" t="s">
         <v>107</v>
       </c>
@@ -8384,7 +8409,7 @@
       </c>
       <c r="G74" s="71"/>
     </row>
-    <row r="75" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C75" s="76"/>
       <c r="D75" s="59" t="s">
         <v>84</v>
@@ -8397,9 +8422,9 @@
       </c>
       <c r="G75" s="71"/>
     </row>
-    <row r="76" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C76" s="77"/>
-      <c r="D76" s="245" t="s">
+      <c r="D76" s="249" t="s">
         <v>85</v>
       </c>
       <c r="E76" s="59" t="s">
@@ -8411,9 +8436,9 @@
       <c r="G76" s="72"/>
       <c r="H76" s="72"/>
     </row>
-    <row r="77" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C77" s="77"/>
-      <c r="D77" s="246"/>
+      <c r="D77" s="250"/>
       <c r="E77" s="60"/>
       <c r="F77" s="58" t="s">
         <v>87</v>
@@ -8421,9 +8446,9 @@
       <c r="G77" s="72"/>
       <c r="H77" s="72"/>
     </row>
-    <row r="78" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C78" s="77"/>
-      <c r="D78" s="246"/>
+      <c r="D78" s="250"/>
       <c r="E78" s="59" t="s">
         <v>93</v>
       </c>
@@ -8440,9 +8465,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="79" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C79" s="77"/>
-      <c r="D79" s="246"/>
+      <c r="D79" s="250"/>
       <c r="E79" s="60"/>
       <c r="F79" s="58" t="s">
         <v>87</v>
@@ -8450,9 +8475,9 @@
       <c r="G79" s="72"/>
       <c r="H79" s="72"/>
     </row>
-    <row r="80" spans="3:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C80" s="77"/>
-      <c r="D80" s="246"/>
+      <c r="D80" s="250"/>
       <c r="E80" s="59" t="s">
         <v>92</v>
       </c>
@@ -8469,9 +8494,9 @@
         <v>137</v>
       </c>
     </row>
-    <row r="81" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C81" s="77"/>
-      <c r="D81" s="246"/>
+      <c r="D81" s="250"/>
       <c r="E81" s="60"/>
       <c r="F81" s="58" t="s">
         <v>87</v>
@@ -8479,9 +8504,9 @@
       <c r="G81" s="72"/>
       <c r="H81" s="72"/>
     </row>
-    <row r="82" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C82" s="77"/>
-      <c r="D82" s="246"/>
+      <c r="D82" s="250"/>
       <c r="E82" s="59" t="s">
         <v>89</v>
       </c>
@@ -8491,9 +8516,9 @@
       <c r="G82" s="72"/>
       <c r="H82" s="72"/>
     </row>
-    <row r="83" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C83" s="77"/>
-      <c r="D83" s="246"/>
+      <c r="D83" s="250"/>
       <c r="E83" s="60"/>
       <c r="F83" s="58" t="s">
         <v>87</v>
@@ -8501,9 +8526,9 @@
       <c r="G83" s="72"/>
       <c r="H83" s="72"/>
     </row>
-    <row r="84" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C84" s="77"/>
-      <c r="D84" s="246"/>
+      <c r="D84" s="250"/>
       <c r="E84" s="59" t="s">
         <v>90</v>
       </c>
@@ -8513,9 +8538,9 @@
       <c r="G84" s="72"/>
       <c r="H84" s="72"/>
     </row>
-    <row r="85" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C85" s="77"/>
-      <c r="D85" s="246"/>
+      <c r="D85" s="250"/>
       <c r="E85" s="60"/>
       <c r="F85" s="58" t="s">
         <v>87</v>
@@ -8523,9 +8548,9 @@
       <c r="G85" s="72"/>
       <c r="H85" s="72"/>
     </row>
-    <row r="86" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C86" s="77"/>
-      <c r="D86" s="246"/>
+      <c r="D86" s="250"/>
       <c r="E86" s="73" t="s">
         <v>91</v>
       </c>
@@ -8535,9 +8560,9 @@
       <c r="G86" s="72"/>
       <c r="H86" s="72"/>
     </row>
-    <row r="87" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C87" s="77"/>
-      <c r="D87" s="247"/>
+      <c r="D87" s="251"/>
       <c r="E87" s="60"/>
       <c r="F87" s="58" t="s">
         <v>87</v>
@@ -8545,14 +8570,14 @@
       <c r="G87" s="72"/>
       <c r="H87" s="72"/>
     </row>
-    <row r="88" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C88" s="77"/>
       <c r="D88" s="60" t="s">
         <v>96</v>
       </c>
       <c r="G88"/>
     </row>
-    <row r="89" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C89" s="77"/>
       <c r="D89" s="101" t="s">
         <v>152</v>
@@ -8562,7 +8587,7 @@
       </c>
       <c r="G89"/>
     </row>
-    <row r="90" spans="3:8" x14ac:dyDescent="0.25">
+    <row r="90" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C90" s="77"/>
       <c r="D90" s="101" t="s">
         <v>153</v>
@@ -8571,8 +8596,8 @@
         <v>154</v>
       </c>
     </row>
-    <row r="91" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C91" s="250" t="s">
+    <row r="91" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C91" s="254" t="s">
         <v>120</v>
       </c>
       <c r="D91" s="96" t="s">
@@ -8588,40 +8613,40 @@
         <v>159</v>
       </c>
     </row>
-    <row r="92" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C92" s="250"/>
+    <row r="92" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C92" s="254"/>
       <c r="D92" s="96" t="s">
         <v>127</v>
       </c>
       <c r="E92" s="97"/>
       <c r="F92" s="98"/>
     </row>
-    <row r="93" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C93" s="250"/>
+    <row r="93" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C93" s="254"/>
       <c r="D93" s="96" t="s">
         <v>149</v>
       </c>
       <c r="E93" s="97"/>
       <c r="F93" s="98"/>
     </row>
-    <row r="94" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C94" s="250"/>
+    <row r="94" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C94" s="254"/>
       <c r="D94" s="96" t="s">
         <v>150</v>
       </c>
       <c r="E94" s="97"/>
       <c r="F94" s="98"/>
     </row>
-    <row r="95" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C95" s="250"/>
+    <row r="95" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C95" s="254"/>
       <c r="D95" s="96" t="s">
         <v>103</v>
       </c>
       <c r="E95" s="97"/>
       <c r="F95" s="98"/>
     </row>
-    <row r="96" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C96" s="250"/>
+    <row r="96" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C96" s="254"/>
       <c r="D96" s="96" t="s">
         <v>103</v>
       </c>
@@ -8652,19 +8677,19 @@
       <selection activeCell="C6" sqref="C6:C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="166" t="s">
         <v>297</v>
       </c>
       <c r="B1" s="166"/>
       <c r="C1" s="166"/>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>294</v>
       </c>
@@ -8672,7 +8697,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>295</v>
       </c>

--- a/asset/Control GESPRO.xlsx
+++ b/asset/Control GESPRO.xlsx
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="303">
   <si>
     <t>Sección</t>
   </si>
@@ -1782,7 +1782,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="256">
+  <cellXfs count="257">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2208,165 +2208,150 @@
     <xf numFmtId="0" fontId="2" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="18" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2376,11 +2361,26 @@
     <xf numFmtId="0" fontId="1" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2402,6 +2402,9 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2694,8 +2697,8 @@
   </sheetPr>
   <dimension ref="A1:M166"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43:E44"/>
+    <sheetView topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K51" sqref="K51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2712,38 +2715,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="222" t="s">
+      <c r="A1" s="191" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="222"/>
-      <c r="C1" s="222"/>
-      <c r="D1" s="222"/>
-      <c r="E1" s="222"/>
-      <c r="F1" s="222"/>
-      <c r="G1" s="222"/>
-      <c r="H1" s="222"/>
-      <c r="I1" s="222"/>
-      <c r="J1" s="222"/>
-      <c r="K1" s="222"/>
-      <c r="L1" s="222"/>
-      <c r="M1" s="222"/>
+      <c r="B1" s="191"/>
+      <c r="C1" s="191"/>
+      <c r="D1" s="191"/>
+      <c r="E1" s="191"/>
+      <c r="F1" s="191"/>
+      <c r="G1" s="191"/>
+      <c r="H1" s="191"/>
+      <c r="I1" s="191"/>
+      <c r="J1" s="191"/>
+      <c r="K1" s="191"/>
+      <c r="L1" s="191"/>
+      <c r="M1" s="191"/>
     </row>
     <row r="2" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="222" t="s">
+      <c r="A2" s="191" t="s">
         <v>298</v>
       </c>
-      <c r="B2" s="222"/>
-      <c r="C2" s="222"/>
-      <c r="D2" s="222"/>
-      <c r="E2" s="222"/>
-      <c r="F2" s="222"/>
-      <c r="G2" s="222"/>
-      <c r="H2" s="222"/>
-      <c r="I2" s="222"/>
-      <c r="J2" s="222"/>
-      <c r="K2" s="222"/>
-      <c r="L2" s="222"/>
-      <c r="M2" s="222"/>
+      <c r="B2" s="191"/>
+      <c r="C2" s="191"/>
+      <c r="D2" s="191"/>
+      <c r="E2" s="191"/>
+      <c r="F2" s="191"/>
+      <c r="G2" s="191"/>
+      <c r="H2" s="191"/>
+      <c r="I2" s="191"/>
+      <c r="J2" s="191"/>
+      <c r="K2" s="191"/>
+      <c r="L2" s="191"/>
+      <c r="M2" s="191"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G3" s="20" t="s">
@@ -2784,24 +2787,24 @@
       <c r="L4" s="22"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G5" s="203" t="s">
+      <c r="G5" s="192" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="204"/>
-      <c r="I5" s="204"/>
-      <c r="J5" s="204"/>
-      <c r="K5" s="204"/>
-      <c r="L5" s="205"/>
+      <c r="H5" s="193"/>
+      <c r="I5" s="193"/>
+      <c r="J5" s="193"/>
+      <c r="K5" s="193"/>
+      <c r="L5" s="194"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G6" s="203" t="s">
+      <c r="G6" s="192" t="s">
         <v>275</v>
       </c>
-      <c r="H6" s="204"/>
-      <c r="I6" s="204"/>
-      <c r="J6" s="204"/>
-      <c r="K6" s="204"/>
-      <c r="L6" s="205"/>
+      <c r="H6" s="193"/>
+      <c r="I6" s="193"/>
+      <c r="J6" s="193"/>
+      <c r="K6" s="193"/>
+      <c r="L6" s="194"/>
     </row>
     <row r="7" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -2845,10 +2848,10 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="196" t="s">
+      <c r="A8" s="197" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="191" t="s">
+      <c r="B8" s="205" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -2873,13 +2876,13 @@
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
-      <c r="M8" s="200" t="s">
+      <c r="M8" s="208" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="197"/>
-      <c r="B9" s="192"/>
+      <c r="A9" s="198"/>
+      <c r="B9" s="206"/>
       <c r="C9" s="8" t="s">
         <v>6</v>
       </c>
@@ -2902,11 +2905,11 @@
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
-      <c r="M9" s="201"/>
+      <c r="M9" s="209"/>
     </row>
     <row r="10" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="197"/>
-      <c r="B10" s="192"/>
+      <c r="A10" s="198"/>
+      <c r="B10" s="206"/>
       <c r="C10" s="8" t="s">
         <v>7</v>
       </c>
@@ -2929,11 +2932,11 @@
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
-      <c r="M10" s="201"/>
+      <c r="M10" s="209"/>
     </row>
     <row r="11" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="197"/>
-      <c r="B11" s="192"/>
+      <c r="A11" s="198"/>
+      <c r="B11" s="206"/>
       <c r="C11" s="8" t="s">
         <v>8</v>
       </c>
@@ -2956,11 +2959,11 @@
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="201"/>
+      <c r="M11" s="209"/>
     </row>
     <row r="12" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="197"/>
-      <c r="B12" s="192"/>
+      <c r="A12" s="198"/>
+      <c r="B12" s="206"/>
       <c r="C12" s="8" t="s">
         <v>9</v>
       </c>
@@ -2983,11 +2986,11 @@
       </c>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
-      <c r="M12" s="201"/>
+      <c r="M12" s="209"/>
     </row>
     <row r="13" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="197"/>
-      <c r="B13" s="192"/>
+      <c r="A13" s="198"/>
+      <c r="B13" s="206"/>
       <c r="C13" s="8" t="s">
         <v>10</v>
       </c>
@@ -3010,11 +3013,11 @@
       </c>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
-      <c r="M13" s="201"/>
+      <c r="M13" s="209"/>
     </row>
     <row r="14" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="197"/>
-      <c r="B14" s="192"/>
+      <c r="A14" s="198"/>
+      <c r="B14" s="206"/>
       <c r="C14" s="8" t="s">
         <v>11</v>
       </c>
@@ -3037,11 +3040,11 @@
       </c>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="201"/>
+      <c r="M14" s="209"/>
     </row>
     <row r="15" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="197"/>
-      <c r="B15" s="192"/>
+      <c r="A15" s="198"/>
+      <c r="B15" s="206"/>
       <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
@@ -3064,11 +3067,11 @@
       </c>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
-      <c r="M15" s="201"/>
+      <c r="M15" s="209"/>
     </row>
     <row r="16" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="197"/>
-      <c r="B16" s="192"/>
+      <c r="A16" s="198"/>
+      <c r="B16" s="206"/>
       <c r="C16" s="8" t="s">
         <v>13</v>
       </c>
@@ -3091,18 +3094,18 @@
       </c>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
-      <c r="M16" s="201"/>
+      <c r="M16" s="209"/>
     </row>
     <row r="17" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="197"/>
-      <c r="B17" s="192"/>
-      <c r="C17" s="194" t="s">
+      <c r="A17" s="198"/>
+      <c r="B17" s="206"/>
+      <c r="C17" s="217" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="9">
         <v>31</v>
       </c>
-      <c r="E17" s="206" t="s">
+      <c r="E17" s="220" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="13" t="s">
@@ -3122,16 +3125,16 @@
       </c>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="201"/>
+      <c r="M17" s="209"/>
     </row>
     <row r="18" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="197"/>
-      <c r="B18" s="192"/>
-      <c r="C18" s="195"/>
+      <c r="A18" s="198"/>
+      <c r="B18" s="206"/>
+      <c r="C18" s="218"/>
       <c r="D18" s="10">
         <v>31</v>
       </c>
-      <c r="E18" s="208"/>
+      <c r="E18" s="222"/>
       <c r="F18" s="12" t="s">
         <v>14</v>
       </c>
@@ -3149,16 +3152,16 @@
       </c>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
-      <c r="M18" s="201"/>
+      <c r="M18" s="209"/>
     </row>
     <row r="19" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="197"/>
-      <c r="B19" s="192"/>
-      <c r="C19" s="195"/>
+      <c r="A19" s="198"/>
+      <c r="B19" s="206"/>
+      <c r="C19" s="218"/>
       <c r="D19" s="10">
         <v>31</v>
       </c>
-      <c r="E19" s="207"/>
+      <c r="E19" s="221"/>
       <c r="F19" s="12" t="s">
         <v>16</v>
       </c>
@@ -3176,16 +3179,16 @@
       </c>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
-      <c r="M19" s="201"/>
+      <c r="M19" s="209"/>
     </row>
     <row r="20" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="197"/>
-      <c r="B20" s="192"/>
-      <c r="C20" s="195"/>
+      <c r="A20" s="198"/>
+      <c r="B20" s="206"/>
+      <c r="C20" s="218"/>
       <c r="D20" s="10">
         <v>31</v>
       </c>
-      <c r="E20" s="206" t="s">
+      <c r="E20" s="220" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="11" t="s">
@@ -3205,16 +3208,16 @@
       </c>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
-      <c r="M20" s="201"/>
+      <c r="M20" s="209"/>
     </row>
     <row r="21" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="197"/>
-      <c r="B21" s="192"/>
-      <c r="C21" s="195"/>
+      <c r="A21" s="198"/>
+      <c r="B21" s="206"/>
+      <c r="C21" s="218"/>
       <c r="D21" s="10">
         <v>31</v>
       </c>
-      <c r="E21" s="208"/>
+      <c r="E21" s="222"/>
       <c r="F21" s="12" t="s">
         <v>14</v>
       </c>
@@ -3232,16 +3235,16 @@
       </c>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
-      <c r="M21" s="201"/>
+      <c r="M21" s="209"/>
     </row>
     <row r="22" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="197"/>
-      <c r="B22" s="192"/>
-      <c r="C22" s="199"/>
+      <c r="A22" s="198"/>
+      <c r="B22" s="206"/>
+      <c r="C22" s="219"/>
       <c r="D22" s="10">
         <v>31</v>
       </c>
-      <c r="E22" s="207"/>
+      <c r="E22" s="221"/>
       <c r="F22" s="12" t="s">
         <v>16</v>
       </c>
@@ -3259,12 +3262,12 @@
       </c>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
-      <c r="M22" s="201"/>
+      <c r="M22" s="209"/>
     </row>
     <row r="23" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="197"/>
-      <c r="B23" s="192"/>
-      <c r="C23" s="194" t="s">
+      <c r="A23" s="198"/>
+      <c r="B23" s="206"/>
+      <c r="C23" s="217" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="9">
@@ -3288,12 +3291,12 @@
       </c>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
-      <c r="M23" s="201"/>
+      <c r="M23" s="209"/>
     </row>
     <row r="24" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="197"/>
-      <c r="B24" s="192"/>
-      <c r="C24" s="195"/>
+      <c r="A24" s="198"/>
+      <c r="B24" s="206"/>
+      <c r="C24" s="218"/>
       <c r="D24" s="10">
         <v>29</v>
       </c>
@@ -3315,11 +3318,11 @@
       </c>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
-      <c r="M24" s="201"/>
+      <c r="M24" s="209"/>
     </row>
     <row r="25" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="197"/>
-      <c r="B25" s="192"/>
+      <c r="A25" s="198"/>
+      <c r="B25" s="206"/>
       <c r="C25" s="7" t="s">
         <v>19</v>
       </c>
@@ -3342,11 +3345,11 @@
       </c>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
-      <c r="M25" s="201"/>
+      <c r="M25" s="209"/>
     </row>
     <row r="26" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="198"/>
-      <c r="B26" s="193"/>
+      <c r="A26" s="199"/>
+      <c r="B26" s="207"/>
       <c r="C26" s="8" t="s">
         <v>16</v>
       </c>
@@ -3369,7 +3372,7 @@
       </c>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
-      <c r="M26" s="202"/>
+      <c r="M26" s="216"/>
     </row>
     <row r="27" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="14"/>
@@ -3428,10 +3431,10 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="220" t="s">
+      <c r="A29" s="195" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="191" t="s">
+      <c r="B29" s="205" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -3456,13 +3459,13 @@
       </c>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
-      <c r="M29" s="200" t="s">
+      <c r="M29" s="208" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="221"/>
-      <c r="B30" s="192"/>
+      <c r="A30" s="196"/>
+      <c r="B30" s="206"/>
       <c r="C30" s="7" t="s">
         <v>5</v>
       </c>
@@ -3485,11 +3488,11 @@
       </c>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
-      <c r="M30" s="201"/>
+      <c r="M30" s="209"/>
     </row>
     <row r="31" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="221"/>
-      <c r="B31" s="192"/>
+      <c r="A31" s="196"/>
+      <c r="B31" s="206"/>
       <c r="C31" s="8" t="s">
         <v>6</v>
       </c>
@@ -3512,11 +3515,11 @@
       </c>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
-      <c r="M31" s="201"/>
+      <c r="M31" s="209"/>
     </row>
     <row r="32" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="221"/>
-      <c r="B32" s="192"/>
+      <c r="A32" s="196"/>
+      <c r="B32" s="206"/>
       <c r="C32" s="8" t="s">
         <v>39</v>
       </c>
@@ -3539,11 +3542,11 @@
       </c>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
-      <c r="M32" s="201"/>
+      <c r="M32" s="209"/>
     </row>
     <row r="33" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="221"/>
-      <c r="B33" s="192"/>
+      <c r="A33" s="196"/>
+      <c r="B33" s="206"/>
       <c r="C33" s="8" t="s">
         <v>7</v>
       </c>
@@ -3566,11 +3569,11 @@
       </c>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
-      <c r="M33" s="201"/>
+      <c r="M33" s="209"/>
     </row>
     <row r="34" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="221"/>
-      <c r="B34" s="192"/>
+      <c r="A34" s="196"/>
+      <c r="B34" s="206"/>
       <c r="C34" s="8" t="s">
         <v>40</v>
       </c>
@@ -3593,11 +3596,11 @@
       </c>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
-      <c r="M34" s="201"/>
+      <c r="M34" s="209"/>
     </row>
     <row r="35" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="221"/>
-      <c r="B35" s="192"/>
+      <c r="A35" s="196"/>
+      <c r="B35" s="206"/>
       <c r="C35" s="8" t="s">
         <v>8</v>
       </c>
@@ -3620,11 +3623,11 @@
       </c>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
-      <c r="M35" s="201"/>
+      <c r="M35" s="209"/>
     </row>
     <row r="36" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="221"/>
-      <c r="B36" s="192"/>
+      <c r="A36" s="196"/>
+      <c r="B36" s="206"/>
       <c r="C36" s="8" t="s">
         <v>9</v>
       </c>
@@ -3647,11 +3650,11 @@
       </c>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
-      <c r="M36" s="201"/>
+      <c r="M36" s="209"/>
     </row>
     <row r="37" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="221"/>
-      <c r="B37" s="192"/>
+      <c r="A37" s="196"/>
+      <c r="B37" s="206"/>
       <c r="C37" s="8" t="s">
         <v>10</v>
       </c>
@@ -3674,11 +3677,11 @@
       </c>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
-      <c r="M37" s="201"/>
+      <c r="M37" s="209"/>
     </row>
     <row r="38" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="221"/>
-      <c r="B38" s="192"/>
+      <c r="A38" s="196"/>
+      <c r="B38" s="206"/>
       <c r="C38" s="8" t="s">
         <v>11</v>
       </c>
@@ -3701,11 +3704,11 @@
       </c>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
-      <c r="M38" s="201"/>
+      <c r="M38" s="209"/>
     </row>
     <row r="39" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="221"/>
-      <c r="B39" s="192"/>
+      <c r="A39" s="196"/>
+      <c r="B39" s="206"/>
       <c r="C39" s="8" t="s">
         <v>12</v>
       </c>
@@ -3728,11 +3731,11 @@
       </c>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
-      <c r="M39" s="201"/>
+      <c r="M39" s="209"/>
     </row>
     <row r="40" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="221"/>
-      <c r="B40" s="192"/>
+      <c r="A40" s="196"/>
+      <c r="B40" s="206"/>
       <c r="C40" s="8" t="s">
         <v>13</v>
       </c>
@@ -3755,11 +3758,11 @@
       </c>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
-      <c r="M40" s="201"/>
+      <c r="M40" s="209"/>
     </row>
     <row r="41" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="221"/>
-      <c r="B41" s="192"/>
+      <c r="A41" s="196"/>
+      <c r="B41" s="206"/>
       <c r="C41" s="8" t="s">
         <v>41</v>
       </c>
@@ -3782,11 +3785,11 @@
       </c>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="201"/>
+      <c r="M41" s="209"/>
     </row>
     <row r="42" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="221"/>
-      <c r="B42" s="192"/>
+      <c r="A42" s="196"/>
+      <c r="B42" s="206"/>
       <c r="C42" s="8" t="s">
         <v>42</v>
       </c>
@@ -3809,18 +3812,18 @@
       </c>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="201"/>
+      <c r="M42" s="209"/>
     </row>
     <row r="43" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="221"/>
-      <c r="B43" s="192"/>
-      <c r="C43" s="194" t="s">
+      <c r="A43" s="196"/>
+      <c r="B43" s="206"/>
+      <c r="C43" s="217" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="9">
         <v>32</v>
       </c>
-      <c r="E43" s="206" t="s">
+      <c r="E43" s="220" t="s">
         <v>15</v>
       </c>
       <c r="F43" s="13"/>
@@ -3838,16 +3841,16 @@
       </c>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
-      <c r="M43" s="201"/>
+      <c r="M43" s="209"/>
     </row>
     <row r="44" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="221"/>
-      <c r="B44" s="192"/>
-      <c r="C44" s="195"/>
+      <c r="A44" s="196"/>
+      <c r="B44" s="206"/>
+      <c r="C44" s="218"/>
       <c r="D44" s="10">
         <v>32</v>
       </c>
-      <c r="E44" s="207"/>
+      <c r="E44" s="221"/>
       <c r="F44" s="12"/>
       <c r="G44" s="1" t="s">
         <v>49</v>
@@ -3863,16 +3866,16 @@
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="201"/>
+      <c r="M44" s="209"/>
     </row>
     <row r="45" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="221"/>
-      <c r="B45" s="192"/>
-      <c r="C45" s="195"/>
+      <c r="A45" s="196"/>
+      <c r="B45" s="206"/>
+      <c r="C45" s="218"/>
       <c r="D45" s="10">
         <v>32</v>
       </c>
-      <c r="E45" s="206" t="s">
+      <c r="E45" s="220" t="s">
         <v>17</v>
       </c>
       <c r="F45" s="11"/>
@@ -3890,16 +3893,16 @@
       </c>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
-      <c r="M45" s="201"/>
+      <c r="M45" s="209"/>
     </row>
     <row r="46" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="221"/>
-      <c r="B46" s="192"/>
-      <c r="C46" s="199"/>
+      <c r="A46" s="196"/>
+      <c r="B46" s="206"/>
+      <c r="C46" s="219"/>
       <c r="D46" s="10">
         <v>32</v>
       </c>
-      <c r="E46" s="207"/>
+      <c r="E46" s="221"/>
       <c r="F46" s="12"/>
       <c r="G46" s="1" t="s">
         <v>49</v>
@@ -3915,12 +3918,12 @@
       </c>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
-      <c r="M46" s="201"/>
+      <c r="M46" s="209"/>
     </row>
     <row r="47" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="221"/>
-      <c r="B47" s="192"/>
-      <c r="C47" s="194" t="s">
+      <c r="A47" s="196"/>
+      <c r="B47" s="206"/>
+      <c r="C47" s="217" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="9">
@@ -3944,12 +3947,12 @@
       </c>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
-      <c r="M47" s="201"/>
+      <c r="M47" s="209"/>
     </row>
     <row r="48" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="221"/>
-      <c r="B48" s="192"/>
-      <c r="C48" s="195"/>
+      <c r="A48" s="196"/>
+      <c r="B48" s="206"/>
+      <c r="C48" s="218"/>
       <c r="D48" s="10">
         <v>30</v>
       </c>
@@ -3971,12 +3974,12 @@
       </c>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
-      <c r="M48" s="201"/>
+      <c r="M48" s="209"/>
     </row>
     <row r="49" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="221"/>
-      <c r="B49" s="192"/>
-      <c r="C49" s="194" t="s">
+      <c r="A49" s="196"/>
+      <c r="B49" s="206"/>
+      <c r="C49" s="217" t="s">
         <v>19</v>
       </c>
       <c r="D49" s="9">
@@ -4000,12 +4003,12 @@
       </c>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
-      <c r="M49" s="201"/>
+      <c r="M49" s="209"/>
     </row>
     <row r="50" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="221"/>
-      <c r="B50" s="192"/>
-      <c r="C50" s="195"/>
+      <c r="A50" s="196"/>
+      <c r="B50" s="206"/>
+      <c r="C50" s="218"/>
       <c r="D50" s="10">
         <v>35</v>
       </c>
@@ -4027,11 +4030,11 @@
       </c>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
-      <c r="M50" s="201"/>
+      <c r="M50" s="209"/>
     </row>
     <row r="51" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="221"/>
-      <c r="B51" s="192"/>
+      <c r="A51" s="196"/>
+      <c r="B51" s="206"/>
       <c r="C51" s="8" t="s">
         <v>16</v>
       </c>
@@ -4054,11 +4057,11 @@
       </c>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
-      <c r="M51" s="201"/>
+      <c r="M51" s="209"/>
     </row>
     <row r="52" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="221"/>
-      <c r="B52" s="192"/>
+      <c r="A52" s="196"/>
+      <c r="B52" s="206"/>
       <c r="C52" s="8" t="s">
         <v>45</v>
       </c>
@@ -4081,11 +4084,11 @@
       </c>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
-      <c r="M52" s="201"/>
+      <c r="M52" s="209"/>
     </row>
     <row r="53" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="221"/>
-      <c r="B53" s="193"/>
+      <c r="A53" s="196"/>
+      <c r="B53" s="207"/>
       <c r="C53" s="8" t="s">
         <v>46</v>
       </c>
@@ -4108,7 +4111,7 @@
       </c>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
-      <c r="M53" s="202"/>
+      <c r="M53" s="216"/>
     </row>
     <row r="54" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="14"/>
@@ -4170,7 +4173,7 @@
       <c r="A56" s="169" t="s">
         <v>21</v>
       </c>
-      <c r="B56" s="191" t="s">
+      <c r="B56" s="205" t="s">
         <v>161</v>
       </c>
       <c r="C56" s="124" t="s">
@@ -4184,18 +4187,24 @@
       <c r="G56" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="H56" s="127"/>
-      <c r="I56" s="127"/>
-      <c r="J56" s="127"/>
+      <c r="H56" s="256" t="s">
+        <v>49</v>
+      </c>
+      <c r="I56" s="256" t="s">
+        <v>49</v>
+      </c>
+      <c r="J56" s="256" t="s">
+        <v>49</v>
+      </c>
       <c r="K56" s="127"/>
       <c r="L56" s="127"/>
-      <c r="M56" s="200" t="s">
+      <c r="M56" s="208" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="170"/>
-      <c r="B57" s="192"/>
+      <c r="B57" s="206"/>
       <c r="C57" s="124" t="s">
         <v>163</v>
       </c>
@@ -4207,16 +4216,22 @@
       <c r="G57" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="H57" s="127"/>
-      <c r="I57" s="127"/>
-      <c r="J57" s="127"/>
+      <c r="H57" s="256" t="s">
+        <v>49</v>
+      </c>
+      <c r="I57" s="256" t="s">
+        <v>49</v>
+      </c>
+      <c r="J57" s="256" t="s">
+        <v>49</v>
+      </c>
       <c r="K57" s="127"/>
       <c r="L57" s="127"/>
-      <c r="M57" s="201"/>
+      <c r="M57" s="209"/>
     </row>
     <row r="58" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A58" s="170"/>
-      <c r="B58" s="192"/>
+      <c r="B58" s="206"/>
       <c r="C58" s="124" t="s">
         <v>164</v>
       </c>
@@ -4228,16 +4243,22 @@
       <c r="G58" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="H58" s="127"/>
-      <c r="I58" s="127"/>
-      <c r="J58" s="127"/>
+      <c r="H58" s="256" t="s">
+        <v>49</v>
+      </c>
+      <c r="I58" s="256" t="s">
+        <v>49</v>
+      </c>
+      <c r="J58" s="256" t="s">
+        <v>49</v>
+      </c>
       <c r="K58" s="127"/>
       <c r="L58" s="127"/>
-      <c r="M58" s="201"/>
+      <c r="M58" s="209"/>
     </row>
     <row r="59" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A59" s="170"/>
-      <c r="B59" s="192"/>
+      <c r="B59" s="206"/>
       <c r="C59" s="124" t="s">
         <v>165</v>
       </c>
@@ -4249,16 +4270,22 @@
       <c r="G59" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="H59" s="127"/>
-      <c r="I59" s="127"/>
-      <c r="J59" s="127"/>
+      <c r="H59" s="256" t="s">
+        <v>49</v>
+      </c>
+      <c r="I59" s="256" t="s">
+        <v>49</v>
+      </c>
+      <c r="J59" s="256" t="s">
+        <v>49</v>
+      </c>
       <c r="K59" s="127"/>
       <c r="L59" s="127"/>
-      <c r="M59" s="201"/>
+      <c r="M59" s="209"/>
     </row>
     <row r="60" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A60" s="170"/>
-      <c r="B60" s="193"/>
+      <c r="B60" s="207"/>
       <c r="C60" s="124" t="s">
         <v>166</v>
       </c>
@@ -4270,12 +4297,18 @@
       <c r="G60" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="H60" s="127"/>
-      <c r="I60" s="127"/>
-      <c r="J60" s="127"/>
+      <c r="H60" s="256" t="s">
+        <v>49</v>
+      </c>
+      <c r="I60" s="256" t="s">
+        <v>49</v>
+      </c>
+      <c r="J60" s="256" t="s">
+        <v>49</v>
+      </c>
       <c r="K60" s="127"/>
       <c r="L60" s="127"/>
-      <c r="M60" s="201"/>
+      <c r="M60" s="209"/>
     </row>
     <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="15"/>
@@ -4334,16 +4367,16 @@
       </c>
     </row>
     <row r="63" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="220" t="s">
+      <c r="A63" s="195" t="s">
         <v>21</v>
       </c>
-      <c r="B63" s="191" t="s">
+      <c r="B63" s="205" t="s">
         <v>167</v>
       </c>
-      <c r="C63" s="209" t="s">
+      <c r="C63" s="200" t="s">
         <v>168</v>
       </c>
-      <c r="D63" s="217">
+      <c r="D63" s="211">
         <v>28</v>
       </c>
       <c r="E63" s="128" t="s">
@@ -4352,1835 +4385,1839 @@
       <c r="F63" s="129" t="s">
         <v>172</v>
       </c>
-      <c r="G63" s="196" t="s">
-        <v>49</v>
-      </c>
-      <c r="H63" s="196" t="s">
-        <v>49</v>
-      </c>
-      <c r="I63" s="196"/>
-      <c r="J63" s="196"/>
-      <c r="K63" s="196"/>
-      <c r="L63" s="196"/>
-      <c r="M63" s="200" t="s">
+      <c r="G63" s="197" t="s">
+        <v>49</v>
+      </c>
+      <c r="H63" s="197" t="s">
+        <v>49</v>
+      </c>
+      <c r="I63" s="197" t="s">
+        <v>49</v>
+      </c>
+      <c r="J63" s="197" t="s">
+        <v>49</v>
+      </c>
+      <c r="K63" s="197"/>
+      <c r="L63" s="197"/>
+      <c r="M63" s="208" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="221"/>
-      <c r="B64" s="192"/>
-      <c r="C64" s="210"/>
-      <c r="D64" s="218"/>
+      <c r="A64" s="196"/>
+      <c r="B64" s="206"/>
+      <c r="C64" s="201"/>
+      <c r="D64" s="212"/>
       <c r="E64" s="128" t="s">
         <v>170</v>
       </c>
-      <c r="F64" s="212" t="s">
+      <c r="F64" s="214" t="s">
         <v>200</v>
       </c>
-      <c r="G64" s="197"/>
-      <c r="H64" s="197"/>
-      <c r="I64" s="197"/>
-      <c r="J64" s="197"/>
-      <c r="K64" s="197"/>
-      <c r="L64" s="197"/>
-      <c r="M64" s="201"/>
+      <c r="G64" s="198"/>
+      <c r="H64" s="198"/>
+      <c r="I64" s="198"/>
+      <c r="J64" s="198"/>
+      <c r="K64" s="198"/>
+      <c r="L64" s="198"/>
+      <c r="M64" s="209"/>
     </row>
     <row r="65" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="221"/>
-      <c r="B65" s="192"/>
-      <c r="C65" s="211"/>
-      <c r="D65" s="218"/>
+      <c r="A65" s="196"/>
+      <c r="B65" s="206"/>
+      <c r="C65" s="202"/>
+      <c r="D65" s="212"/>
       <c r="E65" s="128" t="s">
         <v>171</v>
       </c>
-      <c r="F65" s="213"/>
-      <c r="G65" s="197"/>
-      <c r="H65" s="197"/>
-      <c r="I65" s="197"/>
-      <c r="J65" s="197"/>
-      <c r="K65" s="197"/>
-      <c r="L65" s="197"/>
-      <c r="M65" s="201"/>
+      <c r="F65" s="215"/>
+      <c r="G65" s="198"/>
+      <c r="H65" s="198"/>
+      <c r="I65" s="198"/>
+      <c r="J65" s="198"/>
+      <c r="K65" s="198"/>
+      <c r="L65" s="198"/>
+      <c r="M65" s="209"/>
     </row>
     <row r="66" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="221"/>
-      <c r="B66" s="192"/>
-      <c r="C66" s="209" t="s">
+      <c r="A66" s="196"/>
+      <c r="B66" s="206"/>
+      <c r="C66" s="200" t="s">
         <v>173</v>
       </c>
-      <c r="D66" s="218"/>
+      <c r="D66" s="212"/>
       <c r="E66" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F66" s="130" t="s">
         <v>201</v>
       </c>
-      <c r="G66" s="197"/>
-      <c r="H66" s="197"/>
-      <c r="I66" s="197"/>
-      <c r="J66" s="197"/>
-      <c r="K66" s="197"/>
-      <c r="L66" s="197"/>
-      <c r="M66" s="201"/>
+      <c r="G66" s="198"/>
+      <c r="H66" s="198"/>
+      <c r="I66" s="198"/>
+      <c r="J66" s="198"/>
+      <c r="K66" s="198"/>
+      <c r="L66" s="198"/>
+      <c r="M66" s="209"/>
     </row>
     <row r="67" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="221"/>
-      <c r="B67" s="192"/>
-      <c r="C67" s="210"/>
-      <c r="D67" s="218"/>
+      <c r="A67" s="196"/>
+      <c r="B67" s="206"/>
+      <c r="C67" s="201"/>
+      <c r="D67" s="212"/>
       <c r="E67" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F67" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="G67" s="197"/>
-      <c r="H67" s="197"/>
-      <c r="I67" s="197"/>
-      <c r="J67" s="197"/>
-      <c r="K67" s="197"/>
-      <c r="L67" s="197"/>
-      <c r="M67" s="201"/>
+      <c r="G67" s="198"/>
+      <c r="H67" s="198"/>
+      <c r="I67" s="198"/>
+      <c r="J67" s="198"/>
+      <c r="K67" s="198"/>
+      <c r="L67" s="198"/>
+      <c r="M67" s="209"/>
     </row>
     <row r="68" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="221"/>
-      <c r="B68" s="192"/>
-      <c r="C68" s="210"/>
-      <c r="D68" s="218"/>
-      <c r="E68" s="214" t="s">
+      <c r="A68" s="196"/>
+      <c r="B68" s="206"/>
+      <c r="C68" s="201"/>
+      <c r="D68" s="212"/>
+      <c r="E68" s="203" t="s">
         <v>171</v>
       </c>
       <c r="F68" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="G68" s="197"/>
-      <c r="H68" s="197"/>
-      <c r="I68" s="197"/>
-      <c r="J68" s="197"/>
-      <c r="K68" s="197"/>
-      <c r="L68" s="197"/>
-      <c r="M68" s="201"/>
+      <c r="G68" s="198"/>
+      <c r="H68" s="198"/>
+      <c r="I68" s="198"/>
+      <c r="J68" s="198"/>
+      <c r="K68" s="198"/>
+      <c r="L68" s="198"/>
+      <c r="M68" s="209"/>
     </row>
     <row r="69" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="221"/>
-      <c r="B69" s="192"/>
-      <c r="C69" s="211"/>
-      <c r="D69" s="218"/>
-      <c r="E69" s="215"/>
+      <c r="A69" s="196"/>
+      <c r="B69" s="206"/>
+      <c r="C69" s="202"/>
+      <c r="D69" s="212"/>
+      <c r="E69" s="204"/>
       <c r="F69" s="130" t="s">
         <v>204</v>
       </c>
-      <c r="G69" s="197"/>
-      <c r="H69" s="197"/>
-      <c r="I69" s="197"/>
-      <c r="J69" s="197"/>
-      <c r="K69" s="197"/>
-      <c r="L69" s="197"/>
-      <c r="M69" s="201"/>
+      <c r="G69" s="198"/>
+      <c r="H69" s="198"/>
+      <c r="I69" s="198"/>
+      <c r="J69" s="198"/>
+      <c r="K69" s="198"/>
+      <c r="L69" s="198"/>
+      <c r="M69" s="209"/>
     </row>
     <row r="70" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="221"/>
-      <c r="B70" s="192"/>
-      <c r="C70" s="209" t="s">
+      <c r="A70" s="196"/>
+      <c r="B70" s="206"/>
+      <c r="C70" s="200" t="s">
         <v>174</v>
       </c>
-      <c r="D70" s="218"/>
+      <c r="D70" s="212"/>
       <c r="E70" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F70" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="G70" s="197"/>
-      <c r="H70" s="197"/>
-      <c r="I70" s="197"/>
-      <c r="J70" s="197"/>
-      <c r="K70" s="197"/>
-      <c r="L70" s="197"/>
-      <c r="M70" s="201"/>
+      <c r="G70" s="198"/>
+      <c r="H70" s="198"/>
+      <c r="I70" s="198"/>
+      <c r="J70" s="198"/>
+      <c r="K70" s="198"/>
+      <c r="L70" s="198"/>
+      <c r="M70" s="209"/>
     </row>
     <row r="71" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="221"/>
-      <c r="B71" s="192"/>
-      <c r="C71" s="210"/>
-      <c r="D71" s="218"/>
+      <c r="A71" s="196"/>
+      <c r="B71" s="206"/>
+      <c r="C71" s="201"/>
+      <c r="D71" s="212"/>
       <c r="E71" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F71" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="G71" s="197"/>
-      <c r="H71" s="197"/>
-      <c r="I71" s="197"/>
-      <c r="J71" s="197"/>
-      <c r="K71" s="197"/>
-      <c r="L71" s="197"/>
-      <c r="M71" s="201"/>
+      <c r="G71" s="198"/>
+      <c r="H71" s="198"/>
+      <c r="I71" s="198"/>
+      <c r="J71" s="198"/>
+      <c r="K71" s="198"/>
+      <c r="L71" s="198"/>
+      <c r="M71" s="209"/>
     </row>
     <row r="72" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="221"/>
-      <c r="B72" s="192"/>
-      <c r="C72" s="211"/>
-      <c r="D72" s="218"/>
+      <c r="A72" s="196"/>
+      <c r="B72" s="206"/>
+      <c r="C72" s="202"/>
+      <c r="D72" s="212"/>
       <c r="E72" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F72" s="130" t="s">
         <v>205</v>
       </c>
-      <c r="G72" s="197"/>
-      <c r="H72" s="197"/>
-      <c r="I72" s="197"/>
-      <c r="J72" s="197"/>
-      <c r="K72" s="197"/>
-      <c r="L72" s="197"/>
-      <c r="M72" s="201"/>
+      <c r="G72" s="198"/>
+      <c r="H72" s="198"/>
+      <c r="I72" s="198"/>
+      <c r="J72" s="198"/>
+      <c r="K72" s="198"/>
+      <c r="L72" s="198"/>
+      <c r="M72" s="209"/>
     </row>
     <row r="73" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="221"/>
-      <c r="B73" s="192"/>
-      <c r="C73" s="209" t="s">
+      <c r="A73" s="196"/>
+      <c r="B73" s="206"/>
+      <c r="C73" s="200" t="s">
         <v>175</v>
       </c>
-      <c r="D73" s="218"/>
+      <c r="D73" s="212"/>
       <c r="E73" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F73" s="130" t="s">
         <v>206</v>
       </c>
-      <c r="G73" s="197"/>
-      <c r="H73" s="197"/>
-      <c r="I73" s="197"/>
-      <c r="J73" s="197"/>
-      <c r="K73" s="197"/>
-      <c r="L73" s="197"/>
-      <c r="M73" s="201"/>
+      <c r="G73" s="198"/>
+      <c r="H73" s="198"/>
+      <c r="I73" s="198"/>
+      <c r="J73" s="198"/>
+      <c r="K73" s="198"/>
+      <c r="L73" s="198"/>
+      <c r="M73" s="209"/>
     </row>
     <row r="74" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="221"/>
-      <c r="B74" s="192"/>
-      <c r="C74" s="210"/>
-      <c r="D74" s="218"/>
+      <c r="A74" s="196"/>
+      <c r="B74" s="206"/>
+      <c r="C74" s="201"/>
+      <c r="D74" s="212"/>
       <c r="E74" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F74" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="G74" s="197"/>
-      <c r="H74" s="197"/>
-      <c r="I74" s="197"/>
-      <c r="J74" s="197"/>
-      <c r="K74" s="197"/>
-      <c r="L74" s="197"/>
-      <c r="M74" s="201"/>
+      <c r="G74" s="198"/>
+      <c r="H74" s="198"/>
+      <c r="I74" s="198"/>
+      <c r="J74" s="198"/>
+      <c r="K74" s="198"/>
+      <c r="L74" s="198"/>
+      <c r="M74" s="209"/>
     </row>
     <row r="75" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="221"/>
-      <c r="B75" s="192"/>
-      <c r="C75" s="211"/>
-      <c r="D75" s="218"/>
+      <c r="A75" s="196"/>
+      <c r="B75" s="206"/>
+      <c r="C75" s="202"/>
+      <c r="D75" s="212"/>
       <c r="E75" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F75" s="130" t="s">
         <v>207</v>
       </c>
-      <c r="G75" s="197"/>
-      <c r="H75" s="197"/>
-      <c r="I75" s="197"/>
-      <c r="J75" s="197"/>
-      <c r="K75" s="197"/>
-      <c r="L75" s="197"/>
-      <c r="M75" s="201"/>
+      <c r="G75" s="198"/>
+      <c r="H75" s="198"/>
+      <c r="I75" s="198"/>
+      <c r="J75" s="198"/>
+      <c r="K75" s="198"/>
+      <c r="L75" s="198"/>
+      <c r="M75" s="209"/>
     </row>
     <row r="76" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="221"/>
-      <c r="B76" s="192"/>
-      <c r="C76" s="209" t="s">
+      <c r="A76" s="196"/>
+      <c r="B76" s="206"/>
+      <c r="C76" s="200" t="s">
         <v>176</v>
       </c>
-      <c r="D76" s="218"/>
+      <c r="D76" s="212"/>
       <c r="E76" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F76" s="130" t="s">
         <v>208</v>
       </c>
-      <c r="G76" s="197"/>
-      <c r="H76" s="197"/>
-      <c r="I76" s="197"/>
-      <c r="J76" s="197"/>
-      <c r="K76" s="197"/>
-      <c r="L76" s="197"/>
-      <c r="M76" s="201"/>
+      <c r="G76" s="198"/>
+      <c r="H76" s="198"/>
+      <c r="I76" s="198"/>
+      <c r="J76" s="198"/>
+      <c r="K76" s="198"/>
+      <c r="L76" s="198"/>
+      <c r="M76" s="209"/>
     </row>
     <row r="77" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="221"/>
-      <c r="B77" s="192"/>
-      <c r="C77" s="210"/>
-      <c r="D77" s="218"/>
+      <c r="A77" s="196"/>
+      <c r="B77" s="206"/>
+      <c r="C77" s="201"/>
+      <c r="D77" s="212"/>
       <c r="E77" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F77" s="130" t="s">
         <v>208</v>
       </c>
-      <c r="G77" s="197"/>
-      <c r="H77" s="197"/>
-      <c r="I77" s="197"/>
-      <c r="J77" s="197"/>
-      <c r="K77" s="197"/>
-      <c r="L77" s="197"/>
-      <c r="M77" s="201"/>
+      <c r="G77" s="198"/>
+      <c r="H77" s="198"/>
+      <c r="I77" s="198"/>
+      <c r="J77" s="198"/>
+      <c r="K77" s="198"/>
+      <c r="L77" s="198"/>
+      <c r="M77" s="209"/>
     </row>
     <row r="78" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="221"/>
-      <c r="B78" s="192"/>
-      <c r="C78" s="211"/>
-      <c r="D78" s="218"/>
+      <c r="A78" s="196"/>
+      <c r="B78" s="206"/>
+      <c r="C78" s="202"/>
+      <c r="D78" s="212"/>
       <c r="E78" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F78" s="130" t="s">
         <v>208</v>
       </c>
-      <c r="G78" s="197"/>
-      <c r="H78" s="197"/>
-      <c r="I78" s="197"/>
-      <c r="J78" s="197"/>
-      <c r="K78" s="197"/>
-      <c r="L78" s="197"/>
-      <c r="M78" s="201"/>
+      <c r="G78" s="198"/>
+      <c r="H78" s="198"/>
+      <c r="I78" s="198"/>
+      <c r="J78" s="198"/>
+      <c r="K78" s="198"/>
+      <c r="L78" s="198"/>
+      <c r="M78" s="209"/>
     </row>
     <row r="79" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="221"/>
-      <c r="B79" s="192"/>
-      <c r="C79" s="209" t="s">
+      <c r="A79" s="196"/>
+      <c r="B79" s="206"/>
+      <c r="C79" s="200" t="s">
         <v>177</v>
       </c>
-      <c r="D79" s="218"/>
+      <c r="D79" s="212"/>
       <c r="E79" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F79" s="130" t="s">
         <v>204</v>
       </c>
-      <c r="G79" s="197"/>
-      <c r="H79" s="197"/>
-      <c r="I79" s="197"/>
-      <c r="J79" s="197"/>
-      <c r="K79" s="197"/>
-      <c r="L79" s="197"/>
-      <c r="M79" s="201"/>
+      <c r="G79" s="198"/>
+      <c r="H79" s="198"/>
+      <c r="I79" s="198"/>
+      <c r="J79" s="198"/>
+      <c r="K79" s="198"/>
+      <c r="L79" s="198"/>
+      <c r="M79" s="209"/>
     </row>
     <row r="80" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="221"/>
-      <c r="B80" s="192"/>
-      <c r="C80" s="210"/>
-      <c r="D80" s="218"/>
+      <c r="A80" s="196"/>
+      <c r="B80" s="206"/>
+      <c r="C80" s="201"/>
+      <c r="D80" s="212"/>
       <c r="E80" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F80" s="130" t="s">
         <v>209</v>
       </c>
-      <c r="G80" s="197"/>
-      <c r="H80" s="197"/>
-      <c r="I80" s="197"/>
-      <c r="J80" s="197"/>
-      <c r="K80" s="197"/>
-      <c r="L80" s="197"/>
-      <c r="M80" s="201"/>
+      <c r="G80" s="198"/>
+      <c r="H80" s="198"/>
+      <c r="I80" s="198"/>
+      <c r="J80" s="198"/>
+      <c r="K80" s="198"/>
+      <c r="L80" s="198"/>
+      <c r="M80" s="209"/>
     </row>
     <row r="81" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="221"/>
-      <c r="B81" s="192"/>
-      <c r="C81" s="211"/>
-      <c r="D81" s="218"/>
+      <c r="A81" s="196"/>
+      <c r="B81" s="206"/>
+      <c r="C81" s="202"/>
+      <c r="D81" s="212"/>
       <c r="E81" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F81" s="130" t="s">
         <v>210</v>
       </c>
-      <c r="G81" s="197"/>
-      <c r="H81" s="197"/>
-      <c r="I81" s="197"/>
-      <c r="J81" s="197"/>
-      <c r="K81" s="197"/>
-      <c r="L81" s="197"/>
-      <c r="M81" s="201"/>
+      <c r="G81" s="198"/>
+      <c r="H81" s="198"/>
+      <c r="I81" s="198"/>
+      <c r="J81" s="198"/>
+      <c r="K81" s="198"/>
+      <c r="L81" s="198"/>
+      <c r="M81" s="209"/>
     </row>
     <row r="82" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="221"/>
-      <c r="B82" s="192"/>
-      <c r="C82" s="209" t="s">
+      <c r="A82" s="196"/>
+      <c r="B82" s="206"/>
+      <c r="C82" s="200" t="s">
         <v>178</v>
       </c>
-      <c r="D82" s="218"/>
+      <c r="D82" s="212"/>
       <c r="E82" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F82" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="G82" s="197"/>
-      <c r="H82" s="197"/>
-      <c r="I82" s="197"/>
-      <c r="J82" s="197"/>
-      <c r="K82" s="197"/>
-      <c r="L82" s="197"/>
-      <c r="M82" s="201"/>
+      <c r="G82" s="198"/>
+      <c r="H82" s="198"/>
+      <c r="I82" s="198"/>
+      <c r="J82" s="198"/>
+      <c r="K82" s="198"/>
+      <c r="L82" s="198"/>
+      <c r="M82" s="209"/>
     </row>
     <row r="83" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="221"/>
-      <c r="B83" s="192"/>
-      <c r="C83" s="210"/>
-      <c r="D83" s="218"/>
+      <c r="A83" s="196"/>
+      <c r="B83" s="206"/>
+      <c r="C83" s="201"/>
+      <c r="D83" s="212"/>
       <c r="E83" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F83" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="G83" s="197"/>
-      <c r="H83" s="197"/>
-      <c r="I83" s="197"/>
-      <c r="J83" s="197"/>
-      <c r="K83" s="197"/>
-      <c r="L83" s="197"/>
-      <c r="M83" s="201"/>
+      <c r="G83" s="198"/>
+      <c r="H83" s="198"/>
+      <c r="I83" s="198"/>
+      <c r="J83" s="198"/>
+      <c r="K83" s="198"/>
+      <c r="L83" s="198"/>
+      <c r="M83" s="209"/>
     </row>
     <row r="84" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="221"/>
-      <c r="B84" s="192"/>
-      <c r="C84" s="211"/>
-      <c r="D84" s="218"/>
+      <c r="A84" s="196"/>
+      <c r="B84" s="206"/>
+      <c r="C84" s="202"/>
+      <c r="D84" s="212"/>
       <c r="E84" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F84" s="130" t="s">
         <v>211</v>
       </c>
-      <c r="G84" s="197"/>
-      <c r="H84" s="197"/>
-      <c r="I84" s="197"/>
-      <c r="J84" s="197"/>
-      <c r="K84" s="197"/>
-      <c r="L84" s="197"/>
-      <c r="M84" s="201"/>
+      <c r="G84" s="198"/>
+      <c r="H84" s="198"/>
+      <c r="I84" s="198"/>
+      <c r="J84" s="198"/>
+      <c r="K84" s="198"/>
+      <c r="L84" s="198"/>
+      <c r="M84" s="209"/>
     </row>
     <row r="85" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="221"/>
-      <c r="B85" s="192"/>
-      <c r="C85" s="209" t="s">
+      <c r="A85" s="196"/>
+      <c r="B85" s="206"/>
+      <c r="C85" s="200" t="s">
         <v>179</v>
       </c>
-      <c r="D85" s="218"/>
-      <c r="E85" s="214" t="s">
+      <c r="D85" s="212"/>
+      <c r="E85" s="203" t="s">
         <v>169</v>
       </c>
       <c r="F85" s="130" t="s">
         <v>212</v>
       </c>
-      <c r="G85" s="197"/>
-      <c r="H85" s="197"/>
-      <c r="I85" s="197"/>
-      <c r="J85" s="197"/>
-      <c r="K85" s="197"/>
-      <c r="L85" s="197"/>
-      <c r="M85" s="201"/>
+      <c r="G85" s="198"/>
+      <c r="H85" s="198"/>
+      <c r="I85" s="198"/>
+      <c r="J85" s="198"/>
+      <c r="K85" s="198"/>
+      <c r="L85" s="198"/>
+      <c r="M85" s="209"/>
     </row>
     <row r="86" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="221"/>
-      <c r="B86" s="192"/>
-      <c r="C86" s="210"/>
-      <c r="D86" s="218"/>
-      <c r="E86" s="215"/>
+      <c r="A86" s="196"/>
+      <c r="B86" s="206"/>
+      <c r="C86" s="201"/>
+      <c r="D86" s="212"/>
+      <c r="E86" s="204"/>
       <c r="F86" s="130" t="s">
         <v>213</v>
       </c>
-      <c r="G86" s="197"/>
-      <c r="H86" s="197"/>
-      <c r="I86" s="197"/>
-      <c r="J86" s="197"/>
-      <c r="K86" s="197"/>
-      <c r="L86" s="197"/>
-      <c r="M86" s="201"/>
+      <c r="G86" s="198"/>
+      <c r="H86" s="198"/>
+      <c r="I86" s="198"/>
+      <c r="J86" s="198"/>
+      <c r="K86" s="198"/>
+      <c r="L86" s="198"/>
+      <c r="M86" s="209"/>
     </row>
     <row r="87" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="221"/>
-      <c r="B87" s="192"/>
-      <c r="C87" s="210"/>
-      <c r="D87" s="218"/>
+      <c r="A87" s="196"/>
+      <c r="B87" s="206"/>
+      <c r="C87" s="201"/>
+      <c r="D87" s="212"/>
       <c r="E87" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F87" s="130" t="s">
         <v>213</v>
       </c>
-      <c r="G87" s="197"/>
-      <c r="H87" s="197"/>
-      <c r="I87" s="197"/>
-      <c r="J87" s="197"/>
-      <c r="K87" s="197"/>
-      <c r="L87" s="197"/>
-      <c r="M87" s="201"/>
+      <c r="G87" s="198"/>
+      <c r="H87" s="198"/>
+      <c r="I87" s="198"/>
+      <c r="J87" s="198"/>
+      <c r="K87" s="198"/>
+      <c r="L87" s="198"/>
+      <c r="M87" s="209"/>
     </row>
     <row r="88" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="221"/>
-      <c r="B88" s="192"/>
-      <c r="C88" s="211"/>
-      <c r="D88" s="218"/>
+      <c r="A88" s="196"/>
+      <c r="B88" s="206"/>
+      <c r="C88" s="202"/>
+      <c r="D88" s="212"/>
       <c r="E88" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F88" s="130" t="s">
         <v>214</v>
       </c>
-      <c r="G88" s="197"/>
-      <c r="H88" s="197"/>
-      <c r="I88" s="197"/>
-      <c r="J88" s="197"/>
-      <c r="K88" s="197"/>
-      <c r="L88" s="197"/>
-      <c r="M88" s="201"/>
+      <c r="G88" s="198"/>
+      <c r="H88" s="198"/>
+      <c r="I88" s="198"/>
+      <c r="J88" s="198"/>
+      <c r="K88" s="198"/>
+      <c r="L88" s="198"/>
+      <c r="M88" s="209"/>
     </row>
     <row r="89" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="221"/>
-      <c r="B89" s="192"/>
-      <c r="C89" s="209" t="s">
+      <c r="A89" s="196"/>
+      <c r="B89" s="206"/>
+      <c r="C89" s="200" t="s">
         <v>180</v>
       </c>
-      <c r="D89" s="218"/>
+      <c r="D89" s="212"/>
       <c r="E89" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F89" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="G89" s="197"/>
-      <c r="H89" s="197"/>
-      <c r="I89" s="197"/>
-      <c r="J89" s="197"/>
-      <c r="K89" s="197"/>
-      <c r="L89" s="197"/>
-      <c r="M89" s="201"/>
+      <c r="G89" s="198"/>
+      <c r="H89" s="198"/>
+      <c r="I89" s="198"/>
+      <c r="J89" s="198"/>
+      <c r="K89" s="198"/>
+      <c r="L89" s="198"/>
+      <c r="M89" s="209"/>
     </row>
     <row r="90" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="221"/>
-      <c r="B90" s="192"/>
-      <c r="C90" s="210"/>
-      <c r="D90" s="218"/>
+      <c r="A90" s="196"/>
+      <c r="B90" s="206"/>
+      <c r="C90" s="201"/>
+      <c r="D90" s="212"/>
       <c r="E90" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F90" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="G90" s="197"/>
-      <c r="H90" s="197"/>
-      <c r="I90" s="197"/>
-      <c r="J90" s="197"/>
-      <c r="K90" s="197"/>
-      <c r="L90" s="197"/>
-      <c r="M90" s="201"/>
+      <c r="G90" s="198"/>
+      <c r="H90" s="198"/>
+      <c r="I90" s="198"/>
+      <c r="J90" s="198"/>
+      <c r="K90" s="198"/>
+      <c r="L90" s="198"/>
+      <c r="M90" s="209"/>
     </row>
     <row r="91" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="221"/>
-      <c r="B91" s="192"/>
-      <c r="C91" s="210"/>
-      <c r="D91" s="218"/>
-      <c r="E91" s="214" t="s">
+      <c r="A91" s="196"/>
+      <c r="B91" s="206"/>
+      <c r="C91" s="201"/>
+      <c r="D91" s="212"/>
+      <c r="E91" s="203" t="s">
         <v>171</v>
       </c>
       <c r="F91" s="130" t="s">
         <v>207</v>
       </c>
-      <c r="G91" s="197"/>
-      <c r="H91" s="197"/>
-      <c r="I91" s="197"/>
-      <c r="J91" s="197"/>
-      <c r="K91" s="197"/>
-      <c r="L91" s="197"/>
-      <c r="M91" s="201"/>
+      <c r="G91" s="198"/>
+      <c r="H91" s="198"/>
+      <c r="I91" s="198"/>
+      <c r="J91" s="198"/>
+      <c r="K91" s="198"/>
+      <c r="L91" s="198"/>
+      <c r="M91" s="209"/>
     </row>
     <row r="92" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="221"/>
-      <c r="B92" s="192"/>
-      <c r="C92" s="211"/>
-      <c r="D92" s="218"/>
-      <c r="E92" s="215"/>
+      <c r="A92" s="196"/>
+      <c r="B92" s="206"/>
+      <c r="C92" s="202"/>
+      <c r="D92" s="212"/>
+      <c r="E92" s="204"/>
       <c r="F92" s="130" t="s">
         <v>208</v>
       </c>
-      <c r="G92" s="197"/>
-      <c r="H92" s="197"/>
-      <c r="I92" s="197"/>
-      <c r="J92" s="197"/>
-      <c r="K92" s="197"/>
-      <c r="L92" s="197"/>
-      <c r="M92" s="201"/>
+      <c r="G92" s="198"/>
+      <c r="H92" s="198"/>
+      <c r="I92" s="198"/>
+      <c r="J92" s="198"/>
+      <c r="K92" s="198"/>
+      <c r="L92" s="198"/>
+      <c r="M92" s="209"/>
     </row>
     <row r="93" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="221"/>
-      <c r="B93" s="192"/>
-      <c r="C93" s="209" t="s">
+      <c r="A93" s="196"/>
+      <c r="B93" s="206"/>
+      <c r="C93" s="200" t="s">
         <v>181</v>
       </c>
-      <c r="D93" s="218"/>
+      <c r="D93" s="212"/>
       <c r="E93" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F93" s="130" t="s">
         <v>215</v>
       </c>
-      <c r="G93" s="197"/>
-      <c r="H93" s="197"/>
-      <c r="I93" s="197"/>
-      <c r="J93" s="197"/>
-      <c r="K93" s="197"/>
-      <c r="L93" s="197"/>
-      <c r="M93" s="201"/>
+      <c r="G93" s="198"/>
+      <c r="H93" s="198"/>
+      <c r="I93" s="198"/>
+      <c r="J93" s="198"/>
+      <c r="K93" s="198"/>
+      <c r="L93" s="198"/>
+      <c r="M93" s="209"/>
     </row>
     <row r="94" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="221"/>
-      <c r="B94" s="192"/>
-      <c r="C94" s="210"/>
-      <c r="D94" s="218"/>
+      <c r="A94" s="196"/>
+      <c r="B94" s="206"/>
+      <c r="C94" s="201"/>
+      <c r="D94" s="212"/>
       <c r="E94" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F94" s="130" t="s">
         <v>207</v>
       </c>
-      <c r="G94" s="197"/>
-      <c r="H94" s="197"/>
-      <c r="I94" s="197"/>
-      <c r="J94" s="197"/>
-      <c r="K94" s="197"/>
-      <c r="L94" s="197"/>
-      <c r="M94" s="201"/>
+      <c r="G94" s="198"/>
+      <c r="H94" s="198"/>
+      <c r="I94" s="198"/>
+      <c r="J94" s="198"/>
+      <c r="K94" s="198"/>
+      <c r="L94" s="198"/>
+      <c r="M94" s="209"/>
     </row>
     <row r="95" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="221"/>
-      <c r="B95" s="192"/>
-      <c r="C95" s="211"/>
-      <c r="D95" s="218"/>
+      <c r="A95" s="196"/>
+      <c r="B95" s="206"/>
+      <c r="C95" s="202"/>
+      <c r="D95" s="212"/>
       <c r="E95" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F95" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="G95" s="197"/>
-      <c r="H95" s="197"/>
-      <c r="I95" s="197"/>
-      <c r="J95" s="197"/>
-      <c r="K95" s="197"/>
-      <c r="L95" s="197"/>
-      <c r="M95" s="201"/>
+      <c r="G95" s="198"/>
+      <c r="H95" s="198"/>
+      <c r="I95" s="198"/>
+      <c r="J95" s="198"/>
+      <c r="K95" s="198"/>
+      <c r="L95" s="198"/>
+      <c r="M95" s="209"/>
     </row>
     <row r="96" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="221"/>
-      <c r="B96" s="192"/>
-      <c r="C96" s="209" t="s">
+      <c r="A96" s="196"/>
+      <c r="B96" s="206"/>
+      <c r="C96" s="200" t="s">
         <v>182</v>
       </c>
-      <c r="D96" s="218"/>
+      <c r="D96" s="212"/>
       <c r="E96" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F96" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="G96" s="197"/>
-      <c r="H96" s="197"/>
-      <c r="I96" s="197"/>
-      <c r="J96" s="197"/>
-      <c r="K96" s="197"/>
-      <c r="L96" s="197"/>
-      <c r="M96" s="201"/>
+      <c r="G96" s="198"/>
+      <c r="H96" s="198"/>
+      <c r="I96" s="198"/>
+      <c r="J96" s="198"/>
+      <c r="K96" s="198"/>
+      <c r="L96" s="198"/>
+      <c r="M96" s="209"/>
     </row>
     <row r="97" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="221"/>
-      <c r="B97" s="192"/>
-      <c r="C97" s="210"/>
-      <c r="D97" s="218"/>
-      <c r="E97" s="214" t="s">
+      <c r="A97" s="196"/>
+      <c r="B97" s="206"/>
+      <c r="C97" s="201"/>
+      <c r="D97" s="212"/>
+      <c r="E97" s="203" t="s">
         <v>170</v>
       </c>
       <c r="F97" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="G97" s="197"/>
-      <c r="H97" s="197"/>
-      <c r="I97" s="197"/>
-      <c r="J97" s="197"/>
-      <c r="K97" s="197"/>
-      <c r="L97" s="197"/>
-      <c r="M97" s="201"/>
+      <c r="G97" s="198"/>
+      <c r="H97" s="198"/>
+      <c r="I97" s="198"/>
+      <c r="J97" s="198"/>
+      <c r="K97" s="198"/>
+      <c r="L97" s="198"/>
+      <c r="M97" s="209"/>
     </row>
     <row r="98" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="221"/>
-      <c r="B98" s="192"/>
-      <c r="C98" s="210"/>
-      <c r="D98" s="218"/>
-      <c r="E98" s="215"/>
+      <c r="A98" s="196"/>
+      <c r="B98" s="206"/>
+      <c r="C98" s="201"/>
+      <c r="D98" s="212"/>
+      <c r="E98" s="204"/>
       <c r="F98" s="130" t="s">
         <v>204</v>
       </c>
-      <c r="G98" s="197"/>
-      <c r="H98" s="197"/>
-      <c r="I98" s="197"/>
-      <c r="J98" s="197"/>
-      <c r="K98" s="197"/>
-      <c r="L98" s="197"/>
-      <c r="M98" s="201"/>
+      <c r="G98" s="198"/>
+      <c r="H98" s="198"/>
+      <c r="I98" s="198"/>
+      <c r="J98" s="198"/>
+      <c r="K98" s="198"/>
+      <c r="L98" s="198"/>
+      <c r="M98" s="209"/>
     </row>
     <row r="99" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="221"/>
-      <c r="B99" s="192"/>
-      <c r="C99" s="211"/>
-      <c r="D99" s="218"/>
+      <c r="A99" s="196"/>
+      <c r="B99" s="206"/>
+      <c r="C99" s="202"/>
+      <c r="D99" s="212"/>
       <c r="E99" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F99" s="130" t="s">
         <v>205</v>
       </c>
-      <c r="G99" s="197"/>
-      <c r="H99" s="197"/>
-      <c r="I99" s="197"/>
-      <c r="J99" s="197"/>
-      <c r="K99" s="197"/>
-      <c r="L99" s="197"/>
-      <c r="M99" s="201"/>
+      <c r="G99" s="198"/>
+      <c r="H99" s="198"/>
+      <c r="I99" s="198"/>
+      <c r="J99" s="198"/>
+      <c r="K99" s="198"/>
+      <c r="L99" s="198"/>
+      <c r="M99" s="209"/>
     </row>
     <row r="100" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="221"/>
-      <c r="B100" s="192"/>
-      <c r="C100" s="209" t="s">
+      <c r="A100" s="196"/>
+      <c r="B100" s="206"/>
+      <c r="C100" s="200" t="s">
         <v>183</v>
       </c>
-      <c r="D100" s="218"/>
-      <c r="E100" s="214" t="s">
+      <c r="D100" s="212"/>
+      <c r="E100" s="203" t="s">
         <v>169</v>
       </c>
       <c r="F100" s="130" t="s">
         <v>216</v>
       </c>
-      <c r="G100" s="197"/>
-      <c r="H100" s="197"/>
-      <c r="I100" s="197"/>
-      <c r="J100" s="197"/>
-      <c r="K100" s="197"/>
-      <c r="L100" s="197"/>
-      <c r="M100" s="201"/>
+      <c r="G100" s="198"/>
+      <c r="H100" s="198"/>
+      <c r="I100" s="198"/>
+      <c r="J100" s="198"/>
+      <c r="K100" s="198"/>
+      <c r="L100" s="198"/>
+      <c r="M100" s="209"/>
     </row>
     <row r="101" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="221"/>
-      <c r="B101" s="192"/>
-      <c r="C101" s="210"/>
-      <c r="D101" s="218"/>
-      <c r="E101" s="215"/>
+      <c r="A101" s="196"/>
+      <c r="B101" s="206"/>
+      <c r="C101" s="201"/>
+      <c r="D101" s="212"/>
+      <c r="E101" s="204"/>
       <c r="F101" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="G101" s="197"/>
-      <c r="H101" s="197"/>
-      <c r="I101" s="197"/>
-      <c r="J101" s="197"/>
-      <c r="K101" s="197"/>
-      <c r="L101" s="197"/>
-      <c r="M101" s="201"/>
+      <c r="G101" s="198"/>
+      <c r="H101" s="198"/>
+      <c r="I101" s="198"/>
+      <c r="J101" s="198"/>
+      <c r="K101" s="198"/>
+      <c r="L101" s="198"/>
+      <c r="M101" s="209"/>
     </row>
     <row r="102" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="221"/>
-      <c r="B102" s="192"/>
-      <c r="C102" s="210"/>
-      <c r="D102" s="218"/>
+      <c r="A102" s="196"/>
+      <c r="B102" s="206"/>
+      <c r="C102" s="201"/>
+      <c r="D102" s="212"/>
       <c r="E102" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F102" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="G102" s="197"/>
-      <c r="H102" s="197"/>
-      <c r="I102" s="197"/>
-      <c r="J102" s="197"/>
-      <c r="K102" s="197"/>
-      <c r="L102" s="197"/>
-      <c r="M102" s="201"/>
+      <c r="G102" s="198"/>
+      <c r="H102" s="198"/>
+      <c r="I102" s="198"/>
+      <c r="J102" s="198"/>
+      <c r="K102" s="198"/>
+      <c r="L102" s="198"/>
+      <c r="M102" s="209"/>
     </row>
     <row r="103" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="221"/>
-      <c r="B103" s="192"/>
-      <c r="C103" s="210"/>
-      <c r="D103" s="218"/>
-      <c r="E103" s="214" t="s">
+      <c r="A103" s="196"/>
+      <c r="B103" s="206"/>
+      <c r="C103" s="201"/>
+      <c r="D103" s="212"/>
+      <c r="E103" s="203" t="s">
         <v>171</v>
       </c>
       <c r="F103" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="G103" s="197"/>
-      <c r="H103" s="197"/>
-      <c r="I103" s="197"/>
-      <c r="J103" s="197"/>
-      <c r="K103" s="197"/>
-      <c r="L103" s="197"/>
-      <c r="M103" s="201"/>
+      <c r="G103" s="198"/>
+      <c r="H103" s="198"/>
+      <c r="I103" s="198"/>
+      <c r="J103" s="198"/>
+      <c r="K103" s="198"/>
+      <c r="L103" s="198"/>
+      <c r="M103" s="209"/>
     </row>
     <row r="104" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="221"/>
-      <c r="B104" s="192"/>
-      <c r="C104" s="211"/>
-      <c r="D104" s="218"/>
-      <c r="E104" s="215"/>
+      <c r="A104" s="196"/>
+      <c r="B104" s="206"/>
+      <c r="C104" s="202"/>
+      <c r="D104" s="212"/>
+      <c r="E104" s="204"/>
       <c r="F104" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="G104" s="197"/>
-      <c r="H104" s="197"/>
-      <c r="I104" s="197"/>
-      <c r="J104" s="197"/>
-      <c r="K104" s="197"/>
-      <c r="L104" s="197"/>
-      <c r="M104" s="201"/>
+      <c r="G104" s="198"/>
+      <c r="H104" s="198"/>
+      <c r="I104" s="198"/>
+      <c r="J104" s="198"/>
+      <c r="K104" s="198"/>
+      <c r="L104" s="198"/>
+      <c r="M104" s="209"/>
     </row>
     <row r="105" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="221"/>
-      <c r="B105" s="192"/>
-      <c r="C105" s="209" t="s">
+      <c r="A105" s="196"/>
+      <c r="B105" s="206"/>
+      <c r="C105" s="200" t="s">
         <v>184</v>
       </c>
-      <c r="D105" s="218"/>
+      <c r="D105" s="212"/>
       <c r="E105" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F105" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="G105" s="197"/>
-      <c r="H105" s="197"/>
-      <c r="I105" s="197"/>
-      <c r="J105" s="197"/>
-      <c r="K105" s="197"/>
-      <c r="L105" s="197"/>
-      <c r="M105" s="201"/>
+      <c r="G105" s="198"/>
+      <c r="H105" s="198"/>
+      <c r="I105" s="198"/>
+      <c r="J105" s="198"/>
+      <c r="K105" s="198"/>
+      <c r="L105" s="198"/>
+      <c r="M105" s="209"/>
     </row>
     <row r="106" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="221"/>
-      <c r="B106" s="192"/>
-      <c r="C106" s="210"/>
-      <c r="D106" s="218"/>
+      <c r="A106" s="196"/>
+      <c r="B106" s="206"/>
+      <c r="C106" s="201"/>
+      <c r="D106" s="212"/>
       <c r="E106" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F106" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="G106" s="197"/>
-      <c r="H106" s="197"/>
-      <c r="I106" s="197"/>
-      <c r="J106" s="197"/>
-      <c r="K106" s="197"/>
-      <c r="L106" s="197"/>
-      <c r="M106" s="201"/>
+      <c r="G106" s="198"/>
+      <c r="H106" s="198"/>
+      <c r="I106" s="198"/>
+      <c r="J106" s="198"/>
+      <c r="K106" s="198"/>
+      <c r="L106" s="198"/>
+      <c r="M106" s="209"/>
     </row>
     <row r="107" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="221"/>
-      <c r="B107" s="192"/>
-      <c r="C107" s="211"/>
-      <c r="D107" s="218"/>
+      <c r="A107" s="196"/>
+      <c r="B107" s="206"/>
+      <c r="C107" s="202"/>
+      <c r="D107" s="212"/>
       <c r="E107" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F107" s="130" t="s">
         <v>217</v>
       </c>
-      <c r="G107" s="197"/>
-      <c r="H107" s="197"/>
-      <c r="I107" s="197"/>
-      <c r="J107" s="197"/>
-      <c r="K107" s="197"/>
-      <c r="L107" s="197"/>
-      <c r="M107" s="201"/>
+      <c r="G107" s="198"/>
+      <c r="H107" s="198"/>
+      <c r="I107" s="198"/>
+      <c r="J107" s="198"/>
+      <c r="K107" s="198"/>
+      <c r="L107" s="198"/>
+      <c r="M107" s="209"/>
     </row>
     <row r="108" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="221"/>
-      <c r="B108" s="192"/>
-      <c r="C108" s="209" t="s">
+      <c r="A108" s="196"/>
+      <c r="B108" s="206"/>
+      <c r="C108" s="200" t="s">
         <v>185</v>
       </c>
-      <c r="D108" s="218"/>
+      <c r="D108" s="212"/>
       <c r="E108" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F108" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="G108" s="197"/>
-      <c r="H108" s="197"/>
-      <c r="I108" s="197"/>
-      <c r="J108" s="197"/>
-      <c r="K108" s="197"/>
-      <c r="L108" s="197"/>
-      <c r="M108" s="201"/>
+      <c r="G108" s="198"/>
+      <c r="H108" s="198"/>
+      <c r="I108" s="198"/>
+      <c r="J108" s="198"/>
+      <c r="K108" s="198"/>
+      <c r="L108" s="198"/>
+      <c r="M108" s="209"/>
     </row>
     <row r="109" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="221"/>
-      <c r="B109" s="192"/>
-      <c r="C109" s="210"/>
-      <c r="D109" s="218"/>
-      <c r="E109" s="214" t="s">
+      <c r="A109" s="196"/>
+      <c r="B109" s="206"/>
+      <c r="C109" s="201"/>
+      <c r="D109" s="212"/>
+      <c r="E109" s="203" t="s">
         <v>170</v>
       </c>
       <c r="F109" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="G109" s="197"/>
-      <c r="H109" s="197"/>
-      <c r="I109" s="197"/>
-      <c r="J109" s="197"/>
-      <c r="K109" s="197"/>
-      <c r="L109" s="197"/>
-      <c r="M109" s="201"/>
+      <c r="G109" s="198"/>
+      <c r="H109" s="198"/>
+      <c r="I109" s="198"/>
+      <c r="J109" s="198"/>
+      <c r="K109" s="198"/>
+      <c r="L109" s="198"/>
+      <c r="M109" s="209"/>
     </row>
     <row r="110" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="221"/>
-      <c r="B110" s="192"/>
-      <c r="C110" s="210"/>
-      <c r="D110" s="218"/>
-      <c r="E110" s="215"/>
+      <c r="A110" s="196"/>
+      <c r="B110" s="206"/>
+      <c r="C110" s="201"/>
+      <c r="D110" s="212"/>
+      <c r="E110" s="204"/>
       <c r="F110" s="130" t="s">
         <v>218</v>
       </c>
-      <c r="G110" s="197"/>
-      <c r="H110" s="197"/>
-      <c r="I110" s="197"/>
-      <c r="J110" s="197"/>
-      <c r="K110" s="197"/>
-      <c r="L110" s="197"/>
-      <c r="M110" s="201"/>
+      <c r="G110" s="198"/>
+      <c r="H110" s="198"/>
+      <c r="I110" s="198"/>
+      <c r="J110" s="198"/>
+      <c r="K110" s="198"/>
+      <c r="L110" s="198"/>
+      <c r="M110" s="209"/>
     </row>
     <row r="111" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="221"/>
-      <c r="B111" s="192"/>
-      <c r="C111" s="211"/>
-      <c r="D111" s="218"/>
+      <c r="A111" s="196"/>
+      <c r="B111" s="206"/>
+      <c r="C111" s="202"/>
+      <c r="D111" s="212"/>
       <c r="E111" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F111" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="G111" s="197"/>
-      <c r="H111" s="197"/>
-      <c r="I111" s="197"/>
-      <c r="J111" s="197"/>
-      <c r="K111" s="197"/>
-      <c r="L111" s="197"/>
-      <c r="M111" s="201"/>
+      <c r="G111" s="198"/>
+      <c r="H111" s="198"/>
+      <c r="I111" s="198"/>
+      <c r="J111" s="198"/>
+      <c r="K111" s="198"/>
+      <c r="L111" s="198"/>
+      <c r="M111" s="209"/>
     </row>
     <row r="112" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="221"/>
-      <c r="B112" s="192"/>
-      <c r="C112" s="209" t="s">
+      <c r="A112" s="196"/>
+      <c r="B112" s="206"/>
+      <c r="C112" s="200" t="s">
         <v>186</v>
       </c>
-      <c r="D112" s="218"/>
+      <c r="D112" s="212"/>
       <c r="E112" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F112" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="G112" s="197"/>
-      <c r="H112" s="197"/>
-      <c r="I112" s="197"/>
-      <c r="J112" s="197"/>
-      <c r="K112" s="197"/>
-      <c r="L112" s="197"/>
-      <c r="M112" s="201"/>
+      <c r="G112" s="198"/>
+      <c r="H112" s="198"/>
+      <c r="I112" s="198"/>
+      <c r="J112" s="198"/>
+      <c r="K112" s="198"/>
+      <c r="L112" s="198"/>
+      <c r="M112" s="209"/>
     </row>
     <row r="113" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="221"/>
-      <c r="B113" s="192"/>
-      <c r="C113" s="210"/>
-      <c r="D113" s="218"/>
+      <c r="A113" s="196"/>
+      <c r="B113" s="206"/>
+      <c r="C113" s="201"/>
+      <c r="D113" s="212"/>
       <c r="E113" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F113" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="G113" s="197"/>
-      <c r="H113" s="197"/>
-      <c r="I113" s="197"/>
-      <c r="J113" s="197"/>
-      <c r="K113" s="197"/>
-      <c r="L113" s="197"/>
-      <c r="M113" s="201"/>
+      <c r="G113" s="198"/>
+      <c r="H113" s="198"/>
+      <c r="I113" s="198"/>
+      <c r="J113" s="198"/>
+      <c r="K113" s="198"/>
+      <c r="L113" s="198"/>
+      <c r="M113" s="209"/>
     </row>
     <row r="114" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="221"/>
-      <c r="B114" s="192"/>
-      <c r="C114" s="211"/>
-      <c r="D114" s="218"/>
+      <c r="A114" s="196"/>
+      <c r="B114" s="206"/>
+      <c r="C114" s="202"/>
+      <c r="D114" s="212"/>
       <c r="E114" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F114" s="130" t="s">
         <v>205</v>
       </c>
-      <c r="G114" s="197"/>
-      <c r="H114" s="197"/>
-      <c r="I114" s="197"/>
-      <c r="J114" s="197"/>
-      <c r="K114" s="197"/>
-      <c r="L114" s="197"/>
-      <c r="M114" s="201"/>
+      <c r="G114" s="198"/>
+      <c r="H114" s="198"/>
+      <c r="I114" s="198"/>
+      <c r="J114" s="198"/>
+      <c r="K114" s="198"/>
+      <c r="L114" s="198"/>
+      <c r="M114" s="209"/>
     </row>
     <row r="115" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="221"/>
-      <c r="B115" s="192"/>
-      <c r="C115" s="209" t="s">
+      <c r="A115" s="196"/>
+      <c r="B115" s="206"/>
+      <c r="C115" s="200" t="s">
         <v>187</v>
       </c>
-      <c r="D115" s="218"/>
+      <c r="D115" s="212"/>
       <c r="E115" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F115" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="G115" s="197"/>
-      <c r="H115" s="197"/>
-      <c r="I115" s="197"/>
-      <c r="J115" s="197"/>
-      <c r="K115" s="197"/>
-      <c r="L115" s="197"/>
-      <c r="M115" s="201"/>
+      <c r="G115" s="198"/>
+      <c r="H115" s="198"/>
+      <c r="I115" s="198"/>
+      <c r="J115" s="198"/>
+      <c r="K115" s="198"/>
+      <c r="L115" s="198"/>
+      <c r="M115" s="209"/>
     </row>
     <row r="116" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="221"/>
-      <c r="B116" s="192"/>
-      <c r="C116" s="210"/>
-      <c r="D116" s="218"/>
+      <c r="A116" s="196"/>
+      <c r="B116" s="206"/>
+      <c r="C116" s="201"/>
+      <c r="D116" s="212"/>
       <c r="E116" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F116" s="130" t="s">
         <v>205</v>
       </c>
-      <c r="G116" s="197"/>
-      <c r="H116" s="197"/>
-      <c r="I116" s="197"/>
-      <c r="J116" s="197"/>
-      <c r="K116" s="197"/>
-      <c r="L116" s="197"/>
-      <c r="M116" s="201"/>
+      <c r="G116" s="198"/>
+      <c r="H116" s="198"/>
+      <c r="I116" s="198"/>
+      <c r="J116" s="198"/>
+      <c r="K116" s="198"/>
+      <c r="L116" s="198"/>
+      <c r="M116" s="209"/>
     </row>
     <row r="117" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="221"/>
-      <c r="B117" s="192"/>
-      <c r="C117" s="211"/>
-      <c r="D117" s="218"/>
+      <c r="A117" s="196"/>
+      <c r="B117" s="206"/>
+      <c r="C117" s="202"/>
+      <c r="D117" s="212"/>
       <c r="E117" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F117" s="130" t="s">
         <v>213</v>
       </c>
-      <c r="G117" s="197"/>
-      <c r="H117" s="197"/>
-      <c r="I117" s="197"/>
-      <c r="J117" s="197"/>
-      <c r="K117" s="197"/>
-      <c r="L117" s="197"/>
-      <c r="M117" s="201"/>
+      <c r="G117" s="198"/>
+      <c r="H117" s="198"/>
+      <c r="I117" s="198"/>
+      <c r="J117" s="198"/>
+      <c r="K117" s="198"/>
+      <c r="L117" s="198"/>
+      <c r="M117" s="209"/>
     </row>
     <row r="118" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="221"/>
-      <c r="B118" s="192"/>
-      <c r="C118" s="209" t="s">
+      <c r="A118" s="196"/>
+      <c r="B118" s="206"/>
+      <c r="C118" s="200" t="s">
         <v>188</v>
       </c>
-      <c r="D118" s="218"/>
+      <c r="D118" s="212"/>
       <c r="E118" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F118" s="130" t="s">
         <v>201</v>
       </c>
-      <c r="G118" s="197"/>
-      <c r="H118" s="197"/>
-      <c r="I118" s="197"/>
-      <c r="J118" s="197"/>
-      <c r="K118" s="197"/>
-      <c r="L118" s="197"/>
-      <c r="M118" s="201"/>
+      <c r="G118" s="198"/>
+      <c r="H118" s="198"/>
+      <c r="I118" s="198"/>
+      <c r="J118" s="198"/>
+      <c r="K118" s="198"/>
+      <c r="L118" s="198"/>
+      <c r="M118" s="209"/>
     </row>
     <row r="119" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="221"/>
-      <c r="B119" s="192"/>
-      <c r="C119" s="210"/>
-      <c r="D119" s="218"/>
+      <c r="A119" s="196"/>
+      <c r="B119" s="206"/>
+      <c r="C119" s="201"/>
+      <c r="D119" s="212"/>
       <c r="E119" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F119" s="130" t="s">
         <v>219</v>
       </c>
-      <c r="G119" s="197"/>
-      <c r="H119" s="197"/>
-      <c r="I119" s="197"/>
-      <c r="J119" s="197"/>
-      <c r="K119" s="197"/>
-      <c r="L119" s="197"/>
-      <c r="M119" s="201"/>
+      <c r="G119" s="198"/>
+      <c r="H119" s="198"/>
+      <c r="I119" s="198"/>
+      <c r="J119" s="198"/>
+      <c r="K119" s="198"/>
+      <c r="L119" s="198"/>
+      <c r="M119" s="209"/>
     </row>
     <row r="120" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="221"/>
-      <c r="B120" s="192"/>
-      <c r="C120" s="211"/>
-      <c r="D120" s="218"/>
+      <c r="A120" s="196"/>
+      <c r="B120" s="206"/>
+      <c r="C120" s="202"/>
+      <c r="D120" s="212"/>
       <c r="E120" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F120" s="130" t="s">
         <v>211</v>
       </c>
-      <c r="G120" s="197"/>
-      <c r="H120" s="197"/>
-      <c r="I120" s="197"/>
-      <c r="J120" s="197"/>
-      <c r="K120" s="197"/>
-      <c r="L120" s="197"/>
-      <c r="M120" s="201"/>
+      <c r="G120" s="198"/>
+      <c r="H120" s="198"/>
+      <c r="I120" s="198"/>
+      <c r="J120" s="198"/>
+      <c r="K120" s="198"/>
+      <c r="L120" s="198"/>
+      <c r="M120" s="209"/>
     </row>
     <row r="121" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="221"/>
-      <c r="B121" s="192"/>
-      <c r="C121" s="209" t="s">
+      <c r="A121" s="196"/>
+      <c r="B121" s="206"/>
+      <c r="C121" s="200" t="s">
         <v>189</v>
       </c>
-      <c r="D121" s="218"/>
+      <c r="D121" s="212"/>
       <c r="E121" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F121" s="130" t="s">
         <v>216</v>
       </c>
-      <c r="G121" s="197"/>
-      <c r="H121" s="197"/>
-      <c r="I121" s="197"/>
-      <c r="J121" s="197"/>
-      <c r="K121" s="197"/>
-      <c r="L121" s="197"/>
-      <c r="M121" s="201"/>
+      <c r="G121" s="198"/>
+      <c r="H121" s="198"/>
+      <c r="I121" s="198"/>
+      <c r="J121" s="198"/>
+      <c r="K121" s="198"/>
+      <c r="L121" s="198"/>
+      <c r="M121" s="209"/>
     </row>
     <row r="122" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="221"/>
-      <c r="B122" s="192"/>
-      <c r="C122" s="210"/>
-      <c r="D122" s="218"/>
+      <c r="A122" s="196"/>
+      <c r="B122" s="206"/>
+      <c r="C122" s="201"/>
+      <c r="D122" s="212"/>
       <c r="E122" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F122" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="G122" s="197"/>
-      <c r="H122" s="197"/>
-      <c r="I122" s="197"/>
-      <c r="J122" s="197"/>
-      <c r="K122" s="197"/>
-      <c r="L122" s="197"/>
-      <c r="M122" s="201"/>
+      <c r="G122" s="198"/>
+      <c r="H122" s="198"/>
+      <c r="I122" s="198"/>
+      <c r="J122" s="198"/>
+      <c r="K122" s="198"/>
+      <c r="L122" s="198"/>
+      <c r="M122" s="209"/>
     </row>
     <row r="123" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="221"/>
-      <c r="B123" s="192"/>
-      <c r="C123" s="211"/>
-      <c r="D123" s="218"/>
+      <c r="A123" s="196"/>
+      <c r="B123" s="206"/>
+      <c r="C123" s="202"/>
+      <c r="D123" s="212"/>
       <c r="E123" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F123" s="130" t="s">
         <v>218</v>
       </c>
-      <c r="G123" s="197"/>
-      <c r="H123" s="197"/>
-      <c r="I123" s="197"/>
-      <c r="J123" s="197"/>
-      <c r="K123" s="197"/>
-      <c r="L123" s="197"/>
-      <c r="M123" s="201"/>
+      <c r="G123" s="198"/>
+      <c r="H123" s="198"/>
+      <c r="I123" s="198"/>
+      <c r="J123" s="198"/>
+      <c r="K123" s="198"/>
+      <c r="L123" s="198"/>
+      <c r="M123" s="209"/>
     </row>
     <row r="124" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="221"/>
-      <c r="B124" s="192"/>
-      <c r="C124" s="209" t="s">
+      <c r="A124" s="196"/>
+      <c r="B124" s="206"/>
+      <c r="C124" s="200" t="s">
         <v>190</v>
       </c>
-      <c r="D124" s="218"/>
+      <c r="D124" s="212"/>
       <c r="E124" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F124" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="G124" s="197"/>
-      <c r="H124" s="197"/>
-      <c r="I124" s="197"/>
-      <c r="J124" s="197"/>
-      <c r="K124" s="197"/>
-      <c r="L124" s="197"/>
-      <c r="M124" s="201"/>
+      <c r="G124" s="198"/>
+      <c r="H124" s="198"/>
+      <c r="I124" s="198"/>
+      <c r="J124" s="198"/>
+      <c r="K124" s="198"/>
+      <c r="L124" s="198"/>
+      <c r="M124" s="209"/>
     </row>
     <row r="125" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="221"/>
-      <c r="B125" s="192"/>
-      <c r="C125" s="210"/>
-      <c r="D125" s="218"/>
+      <c r="A125" s="196"/>
+      <c r="B125" s="206"/>
+      <c r="C125" s="201"/>
+      <c r="D125" s="212"/>
       <c r="E125" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F125" s="130" t="s">
         <v>220</v>
       </c>
-      <c r="G125" s="197"/>
-      <c r="H125" s="197"/>
-      <c r="I125" s="197"/>
-      <c r="J125" s="197"/>
-      <c r="K125" s="197"/>
-      <c r="L125" s="197"/>
-      <c r="M125" s="201"/>
+      <c r="G125" s="198"/>
+      <c r="H125" s="198"/>
+      <c r="I125" s="198"/>
+      <c r="J125" s="198"/>
+      <c r="K125" s="198"/>
+      <c r="L125" s="198"/>
+      <c r="M125" s="209"/>
     </row>
     <row r="126" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="221"/>
-      <c r="B126" s="192"/>
-      <c r="C126" s="211"/>
-      <c r="D126" s="218"/>
+      <c r="A126" s="196"/>
+      <c r="B126" s="206"/>
+      <c r="C126" s="202"/>
+      <c r="D126" s="212"/>
       <c r="E126" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F126" s="130" t="s">
         <v>218</v>
       </c>
-      <c r="G126" s="197"/>
-      <c r="H126" s="197"/>
-      <c r="I126" s="197"/>
-      <c r="J126" s="197"/>
-      <c r="K126" s="197"/>
-      <c r="L126" s="197"/>
-      <c r="M126" s="201"/>
+      <c r="G126" s="198"/>
+      <c r="H126" s="198"/>
+      <c r="I126" s="198"/>
+      <c r="J126" s="198"/>
+      <c r="K126" s="198"/>
+      <c r="L126" s="198"/>
+      <c r="M126" s="209"/>
     </row>
     <row r="127" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="221"/>
-      <c r="B127" s="192"/>
-      <c r="C127" s="209" t="s">
+      <c r="A127" s="196"/>
+      <c r="B127" s="206"/>
+      <c r="C127" s="200" t="s">
         <v>191</v>
       </c>
-      <c r="D127" s="218"/>
+      <c r="D127" s="212"/>
       <c r="E127" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F127" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="G127" s="197"/>
-      <c r="H127" s="197"/>
-      <c r="I127" s="197"/>
-      <c r="J127" s="197"/>
-      <c r="K127" s="197"/>
-      <c r="L127" s="197"/>
-      <c r="M127" s="201"/>
+      <c r="G127" s="198"/>
+      <c r="H127" s="198"/>
+      <c r="I127" s="198"/>
+      <c r="J127" s="198"/>
+      <c r="K127" s="198"/>
+      <c r="L127" s="198"/>
+      <c r="M127" s="209"/>
     </row>
     <row r="128" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="221"/>
-      <c r="B128" s="192"/>
-      <c r="C128" s="210"/>
-      <c r="D128" s="218"/>
+      <c r="A128" s="196"/>
+      <c r="B128" s="206"/>
+      <c r="C128" s="201"/>
+      <c r="D128" s="212"/>
       <c r="E128" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F128" s="130" t="s">
         <v>221</v>
       </c>
-      <c r="G128" s="197"/>
-      <c r="H128" s="197"/>
-      <c r="I128" s="197"/>
-      <c r="J128" s="197"/>
-      <c r="K128" s="197"/>
-      <c r="L128" s="197"/>
-      <c r="M128" s="201"/>
+      <c r="G128" s="198"/>
+      <c r="H128" s="198"/>
+      <c r="I128" s="198"/>
+      <c r="J128" s="198"/>
+      <c r="K128" s="198"/>
+      <c r="L128" s="198"/>
+      <c r="M128" s="209"/>
     </row>
     <row r="129" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="221"/>
-      <c r="B129" s="192"/>
-      <c r="C129" s="211"/>
-      <c r="D129" s="218"/>
+      <c r="A129" s="196"/>
+      <c r="B129" s="206"/>
+      <c r="C129" s="202"/>
+      <c r="D129" s="212"/>
       <c r="E129" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F129" s="130" t="s">
         <v>215</v>
       </c>
-      <c r="G129" s="197"/>
-      <c r="H129" s="197"/>
-      <c r="I129" s="197"/>
-      <c r="J129" s="197"/>
-      <c r="K129" s="197"/>
-      <c r="L129" s="197"/>
-      <c r="M129" s="201"/>
+      <c r="G129" s="198"/>
+      <c r="H129" s="198"/>
+      <c r="I129" s="198"/>
+      <c r="J129" s="198"/>
+      <c r="K129" s="198"/>
+      <c r="L129" s="198"/>
+      <c r="M129" s="209"/>
     </row>
     <row r="130" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="221"/>
-      <c r="B130" s="192"/>
-      <c r="C130" s="209" t="s">
+      <c r="A130" s="196"/>
+      <c r="B130" s="206"/>
+      <c r="C130" s="200" t="s">
         <v>192</v>
       </c>
-      <c r="D130" s="218"/>
+      <c r="D130" s="212"/>
       <c r="E130" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F130" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="G130" s="197"/>
-      <c r="H130" s="197"/>
-      <c r="I130" s="197"/>
-      <c r="J130" s="197"/>
-      <c r="K130" s="197"/>
-      <c r="L130" s="197"/>
-      <c r="M130" s="201"/>
+      <c r="G130" s="198"/>
+      <c r="H130" s="198"/>
+      <c r="I130" s="198"/>
+      <c r="J130" s="198"/>
+      <c r="K130" s="198"/>
+      <c r="L130" s="198"/>
+      <c r="M130" s="209"/>
     </row>
     <row r="131" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="221"/>
-      <c r="B131" s="192"/>
-      <c r="C131" s="210"/>
-      <c r="D131" s="218"/>
+      <c r="A131" s="196"/>
+      <c r="B131" s="206"/>
+      <c r="C131" s="201"/>
+      <c r="D131" s="212"/>
       <c r="E131" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F131" s="130" t="s">
         <v>222</v>
       </c>
-      <c r="G131" s="197"/>
-      <c r="H131" s="197"/>
-      <c r="I131" s="197"/>
-      <c r="J131" s="197"/>
-      <c r="K131" s="197"/>
-      <c r="L131" s="197"/>
-      <c r="M131" s="201"/>
+      <c r="G131" s="198"/>
+      <c r="H131" s="198"/>
+      <c r="I131" s="198"/>
+      <c r="J131" s="198"/>
+      <c r="K131" s="198"/>
+      <c r="L131" s="198"/>
+      <c r="M131" s="209"/>
     </row>
     <row r="132" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="221"/>
-      <c r="B132" s="192"/>
-      <c r="C132" s="211"/>
-      <c r="D132" s="218"/>
+      <c r="A132" s="196"/>
+      <c r="B132" s="206"/>
+      <c r="C132" s="202"/>
+      <c r="D132" s="212"/>
       <c r="E132" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F132" s="130" t="s">
         <v>218</v>
       </c>
-      <c r="G132" s="197"/>
-      <c r="H132" s="197"/>
-      <c r="I132" s="197"/>
-      <c r="J132" s="197"/>
-      <c r="K132" s="197"/>
-      <c r="L132" s="197"/>
-      <c r="M132" s="201"/>
+      <c r="G132" s="198"/>
+      <c r="H132" s="198"/>
+      <c r="I132" s="198"/>
+      <c r="J132" s="198"/>
+      <c r="K132" s="198"/>
+      <c r="L132" s="198"/>
+      <c r="M132" s="209"/>
     </row>
     <row r="133" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="221"/>
-      <c r="B133" s="192"/>
-      <c r="C133" s="209" t="s">
+      <c r="A133" s="196"/>
+      <c r="B133" s="206"/>
+      <c r="C133" s="200" t="s">
         <v>193</v>
       </c>
-      <c r="D133" s="218"/>
+      <c r="D133" s="212"/>
       <c r="E133" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F133" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="G133" s="197"/>
-      <c r="H133" s="197"/>
-      <c r="I133" s="197"/>
-      <c r="J133" s="197"/>
-      <c r="K133" s="197"/>
-      <c r="L133" s="197"/>
-      <c r="M133" s="201"/>
+      <c r="G133" s="198"/>
+      <c r="H133" s="198"/>
+      <c r="I133" s="198"/>
+      <c r="J133" s="198"/>
+      <c r="K133" s="198"/>
+      <c r="L133" s="198"/>
+      <c r="M133" s="209"/>
     </row>
     <row r="134" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="221"/>
-      <c r="B134" s="192"/>
-      <c r="C134" s="210"/>
-      <c r="D134" s="218"/>
+      <c r="A134" s="196"/>
+      <c r="B134" s="206"/>
+      <c r="C134" s="201"/>
+      <c r="D134" s="212"/>
       <c r="E134" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F134" s="130" t="s">
         <v>221</v>
       </c>
-      <c r="G134" s="197"/>
-      <c r="H134" s="197"/>
-      <c r="I134" s="197"/>
-      <c r="J134" s="197"/>
-      <c r="K134" s="197"/>
-      <c r="L134" s="197"/>
-      <c r="M134" s="201"/>
+      <c r="G134" s="198"/>
+      <c r="H134" s="198"/>
+      <c r="I134" s="198"/>
+      <c r="J134" s="198"/>
+      <c r="K134" s="198"/>
+      <c r="L134" s="198"/>
+      <c r="M134" s="209"/>
     </row>
     <row r="135" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="221"/>
-      <c r="B135" s="192"/>
-      <c r="C135" s="211"/>
-      <c r="D135" s="218"/>
+      <c r="A135" s="196"/>
+      <c r="B135" s="206"/>
+      <c r="C135" s="202"/>
+      <c r="D135" s="212"/>
       <c r="E135" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F135" s="130" t="s">
         <v>218</v>
       </c>
-      <c r="G135" s="197"/>
-      <c r="H135" s="197"/>
-      <c r="I135" s="197"/>
-      <c r="J135" s="197"/>
-      <c r="K135" s="197"/>
-      <c r="L135" s="197"/>
-      <c r="M135" s="201"/>
+      <c r="G135" s="198"/>
+      <c r="H135" s="198"/>
+      <c r="I135" s="198"/>
+      <c r="J135" s="198"/>
+      <c r="K135" s="198"/>
+      <c r="L135" s="198"/>
+      <c r="M135" s="209"/>
     </row>
     <row r="136" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="221"/>
-      <c r="B136" s="192"/>
-      <c r="C136" s="209" t="s">
+      <c r="A136" s="196"/>
+      <c r="B136" s="206"/>
+      <c r="C136" s="200" t="s">
         <v>194</v>
       </c>
-      <c r="D136" s="218"/>
+      <c r="D136" s="212"/>
       <c r="E136" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F136" s="130" t="s">
         <v>223</v>
       </c>
-      <c r="G136" s="197"/>
-      <c r="H136" s="197"/>
-      <c r="I136" s="197"/>
-      <c r="J136" s="197"/>
-      <c r="K136" s="197"/>
-      <c r="L136" s="197"/>
-      <c r="M136" s="201"/>
+      <c r="G136" s="198"/>
+      <c r="H136" s="198"/>
+      <c r="I136" s="198"/>
+      <c r="J136" s="198"/>
+      <c r="K136" s="198"/>
+      <c r="L136" s="198"/>
+      <c r="M136" s="209"/>
     </row>
     <row r="137" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="221"/>
-      <c r="B137" s="192"/>
-      <c r="C137" s="210"/>
-      <c r="D137" s="218"/>
+      <c r="A137" s="196"/>
+      <c r="B137" s="206"/>
+      <c r="C137" s="201"/>
+      <c r="D137" s="212"/>
       <c r="E137" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F137" s="130" t="s">
         <v>224</v>
       </c>
-      <c r="G137" s="197"/>
-      <c r="H137" s="197"/>
-      <c r="I137" s="197"/>
-      <c r="J137" s="197"/>
-      <c r="K137" s="197"/>
-      <c r="L137" s="197"/>
-      <c r="M137" s="201"/>
+      <c r="G137" s="198"/>
+      <c r="H137" s="198"/>
+      <c r="I137" s="198"/>
+      <c r="J137" s="198"/>
+      <c r="K137" s="198"/>
+      <c r="L137" s="198"/>
+      <c r="M137" s="209"/>
     </row>
     <row r="138" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="221"/>
-      <c r="B138" s="192"/>
-      <c r="C138" s="211"/>
-      <c r="D138" s="218"/>
+      <c r="A138" s="196"/>
+      <c r="B138" s="206"/>
+      <c r="C138" s="202"/>
+      <c r="D138" s="212"/>
       <c r="E138" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F138" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="G138" s="197"/>
-      <c r="H138" s="197"/>
-      <c r="I138" s="197"/>
-      <c r="J138" s="197"/>
-      <c r="K138" s="197"/>
-      <c r="L138" s="197"/>
-      <c r="M138" s="201"/>
+      <c r="G138" s="198"/>
+      <c r="H138" s="198"/>
+      <c r="I138" s="198"/>
+      <c r="J138" s="198"/>
+      <c r="K138" s="198"/>
+      <c r="L138" s="198"/>
+      <c r="M138" s="209"/>
     </row>
     <row r="139" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="221"/>
-      <c r="B139" s="192"/>
-      <c r="C139" s="209" t="s">
+      <c r="A139" s="196"/>
+      <c r="B139" s="206"/>
+      <c r="C139" s="200" t="s">
         <v>195</v>
       </c>
-      <c r="D139" s="218"/>
+      <c r="D139" s="212"/>
       <c r="E139" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F139" s="130" t="s">
         <v>202</v>
       </c>
-      <c r="G139" s="197"/>
-      <c r="H139" s="197"/>
-      <c r="I139" s="197"/>
-      <c r="J139" s="197"/>
-      <c r="K139" s="197"/>
-      <c r="L139" s="197"/>
-      <c r="M139" s="201"/>
+      <c r="G139" s="198"/>
+      <c r="H139" s="198"/>
+      <c r="I139" s="198"/>
+      <c r="J139" s="198"/>
+      <c r="K139" s="198"/>
+      <c r="L139" s="198"/>
+      <c r="M139" s="209"/>
     </row>
     <row r="140" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="221"/>
-      <c r="B140" s="192"/>
-      <c r="C140" s="210"/>
-      <c r="D140" s="218"/>
+      <c r="A140" s="196"/>
+      <c r="B140" s="206"/>
+      <c r="C140" s="201"/>
+      <c r="D140" s="212"/>
       <c r="E140" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F140" s="130" t="s">
         <v>207</v>
       </c>
-      <c r="G140" s="197"/>
-      <c r="H140" s="197"/>
-      <c r="I140" s="197"/>
-      <c r="J140" s="197"/>
-      <c r="K140" s="197"/>
-      <c r="L140" s="197"/>
-      <c r="M140" s="201"/>
+      <c r="G140" s="198"/>
+      <c r="H140" s="198"/>
+      <c r="I140" s="198"/>
+      <c r="J140" s="198"/>
+      <c r="K140" s="198"/>
+      <c r="L140" s="198"/>
+      <c r="M140" s="209"/>
     </row>
     <row r="141" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="221"/>
-      <c r="B141" s="192"/>
-      <c r="C141" s="211"/>
-      <c r="D141" s="218"/>
+      <c r="A141" s="196"/>
+      <c r="B141" s="206"/>
+      <c r="C141" s="202"/>
+      <c r="D141" s="212"/>
       <c r="E141" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F141" s="130" t="s">
         <v>211</v>
       </c>
-      <c r="G141" s="197"/>
-      <c r="H141" s="197"/>
-      <c r="I141" s="197"/>
-      <c r="J141" s="197"/>
-      <c r="K141" s="197"/>
-      <c r="L141" s="197"/>
-      <c r="M141" s="201"/>
+      <c r="G141" s="198"/>
+      <c r="H141" s="198"/>
+      <c r="I141" s="198"/>
+      <c r="J141" s="198"/>
+      <c r="K141" s="198"/>
+      <c r="L141" s="198"/>
+      <c r="M141" s="209"/>
     </row>
     <row r="142" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="221"/>
-      <c r="B142" s="192"/>
-      <c r="C142" s="209" t="s">
+      <c r="A142" s="196"/>
+      <c r="B142" s="206"/>
+      <c r="C142" s="200" t="s">
         <v>196</v>
       </c>
-      <c r="D142" s="218"/>
+      <c r="D142" s="212"/>
       <c r="E142" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F142" s="130" t="s">
         <v>203</v>
       </c>
-      <c r="G142" s="197"/>
-      <c r="H142" s="197"/>
-      <c r="I142" s="197"/>
-      <c r="J142" s="197"/>
-      <c r="K142" s="197"/>
-      <c r="L142" s="197"/>
-      <c r="M142" s="201"/>
+      <c r="G142" s="198"/>
+      <c r="H142" s="198"/>
+      <c r="I142" s="198"/>
+      <c r="J142" s="198"/>
+      <c r="K142" s="198"/>
+      <c r="L142" s="198"/>
+      <c r="M142" s="209"/>
     </row>
     <row r="143" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="221"/>
-      <c r="B143" s="192"/>
-      <c r="C143" s="210"/>
-      <c r="D143" s="218"/>
+      <c r="A143" s="196"/>
+      <c r="B143" s="206"/>
+      <c r="C143" s="201"/>
+      <c r="D143" s="212"/>
       <c r="E143" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F143" s="130" t="s">
         <v>205</v>
       </c>
-      <c r="G143" s="197"/>
-      <c r="H143" s="197"/>
-      <c r="I143" s="197"/>
-      <c r="J143" s="197"/>
-      <c r="K143" s="197"/>
-      <c r="L143" s="197"/>
-      <c r="M143" s="201"/>
+      <c r="G143" s="198"/>
+      <c r="H143" s="198"/>
+      <c r="I143" s="198"/>
+      <c r="J143" s="198"/>
+      <c r="K143" s="198"/>
+      <c r="L143" s="198"/>
+      <c r="M143" s="209"/>
     </row>
     <row r="144" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="221"/>
-      <c r="B144" s="192"/>
-      <c r="C144" s="210"/>
-      <c r="D144" s="218"/>
-      <c r="E144" s="214" t="s">
+      <c r="A144" s="196"/>
+      <c r="B144" s="206"/>
+      <c r="C144" s="201"/>
+      <c r="D144" s="212"/>
+      <c r="E144" s="203" t="s">
         <v>171</v>
       </c>
       <c r="F144" s="130" t="s">
         <v>221</v>
       </c>
-      <c r="G144" s="197"/>
-      <c r="H144" s="197"/>
-      <c r="I144" s="197"/>
-      <c r="J144" s="197"/>
-      <c r="K144" s="197"/>
-      <c r="L144" s="197"/>
-      <c r="M144" s="201"/>
+      <c r="G144" s="198"/>
+      <c r="H144" s="198"/>
+      <c r="I144" s="198"/>
+      <c r="J144" s="198"/>
+      <c r="K144" s="198"/>
+      <c r="L144" s="198"/>
+      <c r="M144" s="209"/>
     </row>
     <row r="145" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="221"/>
-      <c r="B145" s="192"/>
-      <c r="C145" s="211"/>
-      <c r="D145" s="218"/>
-      <c r="E145" s="215"/>
+      <c r="A145" s="196"/>
+      <c r="B145" s="206"/>
+      <c r="C145" s="202"/>
+      <c r="D145" s="212"/>
+      <c r="E145" s="204"/>
       <c r="F145" s="130" t="s">
         <v>208</v>
       </c>
-      <c r="G145" s="197"/>
-      <c r="H145" s="197"/>
-      <c r="I145" s="197"/>
-      <c r="J145" s="197"/>
-      <c r="K145" s="197"/>
-      <c r="L145" s="197"/>
-      <c r="M145" s="201"/>
+      <c r="G145" s="198"/>
+      <c r="H145" s="198"/>
+      <c r="I145" s="198"/>
+      <c r="J145" s="198"/>
+      <c r="K145" s="198"/>
+      <c r="L145" s="198"/>
+      <c r="M145" s="209"/>
     </row>
     <row r="146" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="221"/>
-      <c r="B146" s="192"/>
-      <c r="C146" s="209" t="s">
+      <c r="A146" s="196"/>
+      <c r="B146" s="206"/>
+      <c r="C146" s="200" t="s">
         <v>197</v>
       </c>
-      <c r="D146" s="218"/>
+      <c r="D146" s="212"/>
       <c r="E146" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F146" s="130" t="s">
         <v>212</v>
       </c>
-      <c r="G146" s="197"/>
-      <c r="H146" s="197"/>
-      <c r="I146" s="197"/>
-      <c r="J146" s="197"/>
-      <c r="K146" s="197"/>
-      <c r="L146" s="197"/>
-      <c r="M146" s="201"/>
+      <c r="G146" s="198"/>
+      <c r="H146" s="198"/>
+      <c r="I146" s="198"/>
+      <c r="J146" s="198"/>
+      <c r="K146" s="198"/>
+      <c r="L146" s="198"/>
+      <c r="M146" s="209"/>
     </row>
     <row r="147" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="221"/>
-      <c r="B147" s="192"/>
-      <c r="C147" s="210"/>
-      <c r="D147" s="218"/>
+      <c r="A147" s="196"/>
+      <c r="B147" s="206"/>
+      <c r="C147" s="201"/>
+      <c r="D147" s="212"/>
       <c r="E147" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F147" s="130" t="s">
         <v>225</v>
       </c>
-      <c r="G147" s="197"/>
-      <c r="H147" s="197"/>
-      <c r="I147" s="197"/>
-      <c r="J147" s="197"/>
-      <c r="K147" s="197"/>
-      <c r="L147" s="197"/>
-      <c r="M147" s="201"/>
+      <c r="G147" s="198"/>
+      <c r="H147" s="198"/>
+      <c r="I147" s="198"/>
+      <c r="J147" s="198"/>
+      <c r="K147" s="198"/>
+      <c r="L147" s="198"/>
+      <c r="M147" s="209"/>
     </row>
     <row r="148" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="221"/>
-      <c r="B148" s="192"/>
-      <c r="C148" s="211"/>
-      <c r="D148" s="218"/>
+      <c r="A148" s="196"/>
+      <c r="B148" s="206"/>
+      <c r="C148" s="202"/>
+      <c r="D148" s="212"/>
       <c r="E148" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F148" s="130" t="s">
         <v>226</v>
       </c>
-      <c r="G148" s="197"/>
-      <c r="H148" s="197"/>
-      <c r="I148" s="197"/>
-      <c r="J148" s="197"/>
-      <c r="K148" s="197"/>
-      <c r="L148" s="197"/>
-      <c r="M148" s="201"/>
+      <c r="G148" s="198"/>
+      <c r="H148" s="198"/>
+      <c r="I148" s="198"/>
+      <c r="J148" s="198"/>
+      <c r="K148" s="198"/>
+      <c r="L148" s="198"/>
+      <c r="M148" s="209"/>
     </row>
     <row r="149" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="221"/>
-      <c r="B149" s="192"/>
-      <c r="C149" s="209" t="s">
+      <c r="A149" s="196"/>
+      <c r="B149" s="206"/>
+      <c r="C149" s="200" t="s">
         <v>198</v>
       </c>
-      <c r="D149" s="218"/>
+      <c r="D149" s="212"/>
       <c r="E149" s="128" t="s">
         <v>169</v>
       </c>
       <c r="F149" s="130" t="s">
         <v>227</v>
       </c>
-      <c r="G149" s="197"/>
-      <c r="H149" s="197"/>
-      <c r="I149" s="197"/>
-      <c r="J149" s="197"/>
-      <c r="K149" s="197"/>
-      <c r="L149" s="197"/>
-      <c r="M149" s="201"/>
+      <c r="G149" s="198"/>
+      <c r="H149" s="198"/>
+      <c r="I149" s="198"/>
+      <c r="J149" s="198"/>
+      <c r="K149" s="198"/>
+      <c r="L149" s="198"/>
+      <c r="M149" s="209"/>
     </row>
     <row r="150" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="221"/>
-      <c r="B150" s="192"/>
-      <c r="C150" s="210"/>
-      <c r="D150" s="218"/>
+      <c r="A150" s="196"/>
+      <c r="B150" s="206"/>
+      <c r="C150" s="201"/>
+      <c r="D150" s="212"/>
       <c r="E150" s="128" t="s">
         <v>170</v>
       </c>
       <c r="F150" s="130" t="s">
         <v>228</v>
       </c>
-      <c r="G150" s="197"/>
-      <c r="H150" s="197"/>
-      <c r="I150" s="197"/>
-      <c r="J150" s="197"/>
-      <c r="K150" s="197"/>
-      <c r="L150" s="197"/>
-      <c r="M150" s="201"/>
+      <c r="G150" s="198"/>
+      <c r="H150" s="198"/>
+      <c r="I150" s="198"/>
+      <c r="J150" s="198"/>
+      <c r="K150" s="198"/>
+      <c r="L150" s="198"/>
+      <c r="M150" s="209"/>
     </row>
     <row r="151" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="221"/>
-      <c r="B151" s="192"/>
-      <c r="C151" s="211"/>
-      <c r="D151" s="218"/>
+      <c r="A151" s="196"/>
+      <c r="B151" s="206"/>
+      <c r="C151" s="202"/>
+      <c r="D151" s="212"/>
       <c r="E151" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F151" s="130" t="s">
         <v>229</v>
       </c>
-      <c r="G151" s="197"/>
-      <c r="H151" s="197"/>
-      <c r="I151" s="197"/>
-      <c r="J151" s="197"/>
-      <c r="K151" s="197"/>
-      <c r="L151" s="197"/>
-      <c r="M151" s="201"/>
+      <c r="G151" s="198"/>
+      <c r="H151" s="198"/>
+      <c r="I151" s="198"/>
+      <c r="J151" s="198"/>
+      <c r="K151" s="198"/>
+      <c r="L151" s="198"/>
+      <c r="M151" s="209"/>
     </row>
     <row r="152" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="221"/>
-      <c r="B152" s="192"/>
-      <c r="C152" s="209" t="s">
+      <c r="A152" s="196"/>
+      <c r="B152" s="206"/>
+      <c r="C152" s="200" t="s">
         <v>199</v>
       </c>
-      <c r="D152" s="218"/>
-      <c r="E152" s="214" t="s">
+      <c r="D152" s="212"/>
+      <c r="E152" s="203" t="s">
         <v>169</v>
       </c>
       <c r="F152" s="130" t="s">
         <v>211</v>
       </c>
-      <c r="G152" s="197"/>
-      <c r="H152" s="197"/>
-      <c r="I152" s="197"/>
-      <c r="J152" s="197"/>
-      <c r="K152" s="197"/>
-      <c r="L152" s="197"/>
-      <c r="M152" s="201"/>
+      <c r="G152" s="198"/>
+      <c r="H152" s="198"/>
+      <c r="I152" s="198"/>
+      <c r="J152" s="198"/>
+      <c r="K152" s="198"/>
+      <c r="L152" s="198"/>
+      <c r="M152" s="209"/>
     </row>
     <row r="153" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="221"/>
-      <c r="B153" s="192"/>
-      <c r="C153" s="210"/>
-      <c r="D153" s="218"/>
-      <c r="E153" s="215"/>
+      <c r="A153" s="196"/>
+      <c r="B153" s="206"/>
+      <c r="C153" s="201"/>
+      <c r="D153" s="212"/>
+      <c r="E153" s="204"/>
       <c r="F153" s="130" t="s">
         <v>227</v>
       </c>
-      <c r="G153" s="197"/>
-      <c r="H153" s="197"/>
-      <c r="I153" s="197"/>
-      <c r="J153" s="197"/>
-      <c r="K153" s="197"/>
-      <c r="L153" s="197"/>
-      <c r="M153" s="201"/>
+      <c r="G153" s="198"/>
+      <c r="H153" s="198"/>
+      <c r="I153" s="198"/>
+      <c r="J153" s="198"/>
+      <c r="K153" s="198"/>
+      <c r="L153" s="198"/>
+      <c r="M153" s="209"/>
     </row>
     <row r="154" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="221"/>
-      <c r="B154" s="192"/>
-      <c r="C154" s="210"/>
-      <c r="D154" s="218"/>
-      <c r="E154" s="214" t="s">
+      <c r="A154" s="196"/>
+      <c r="B154" s="206"/>
+      <c r="C154" s="201"/>
+      <c r="D154" s="212"/>
+      <c r="E154" s="203" t="s">
         <v>170</v>
       </c>
       <c r="F154" s="130" t="s">
         <v>230</v>
       </c>
-      <c r="G154" s="197"/>
-      <c r="H154" s="197"/>
-      <c r="I154" s="197"/>
-      <c r="J154" s="197"/>
-      <c r="K154" s="197"/>
-      <c r="L154" s="197"/>
-      <c r="M154" s="201"/>
+      <c r="G154" s="198"/>
+      <c r="H154" s="198"/>
+      <c r="I154" s="198"/>
+      <c r="J154" s="198"/>
+      <c r="K154" s="198"/>
+      <c r="L154" s="198"/>
+      <c r="M154" s="209"/>
     </row>
     <row r="155" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="221"/>
-      <c r="B155" s="192"/>
-      <c r="C155" s="210"/>
-      <c r="D155" s="218"/>
-      <c r="E155" s="216"/>
+      <c r="A155" s="196"/>
+      <c r="B155" s="206"/>
+      <c r="C155" s="201"/>
+      <c r="D155" s="212"/>
+      <c r="E155" s="210"/>
       <c r="F155" s="130" t="s">
         <v>231</v>
       </c>
-      <c r="G155" s="197"/>
-      <c r="H155" s="197"/>
-      <c r="I155" s="197"/>
-      <c r="J155" s="197"/>
-      <c r="K155" s="197"/>
-      <c r="L155" s="197"/>
-      <c r="M155" s="201"/>
+      <c r="G155" s="198"/>
+      <c r="H155" s="198"/>
+      <c r="I155" s="198"/>
+      <c r="J155" s="198"/>
+      <c r="K155" s="198"/>
+      <c r="L155" s="198"/>
+      <c r="M155" s="209"/>
     </row>
     <row r="156" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="221"/>
-      <c r="B156" s="192"/>
-      <c r="C156" s="210"/>
-      <c r="D156" s="218"/>
-      <c r="E156" s="215"/>
+      <c r="A156" s="196"/>
+      <c r="B156" s="206"/>
+      <c r="C156" s="201"/>
+      <c r="D156" s="212"/>
+      <c r="E156" s="204"/>
       <c r="F156" s="130" t="s">
         <v>232</v>
       </c>
-      <c r="G156" s="197"/>
-      <c r="H156" s="197"/>
-      <c r="I156" s="197"/>
-      <c r="J156" s="197"/>
-      <c r="K156" s="197"/>
-      <c r="L156" s="197"/>
-      <c r="M156" s="201"/>
+      <c r="G156" s="198"/>
+      <c r="H156" s="198"/>
+      <c r="I156" s="198"/>
+      <c r="J156" s="198"/>
+      <c r="K156" s="198"/>
+      <c r="L156" s="198"/>
+      <c r="M156" s="209"/>
     </row>
     <row r="157" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="221"/>
-      <c r="B157" s="193"/>
-      <c r="C157" s="211"/>
-      <c r="D157" s="219"/>
+      <c r="A157" s="196"/>
+      <c r="B157" s="207"/>
+      <c r="C157" s="202"/>
+      <c r="D157" s="213"/>
       <c r="E157" s="128" t="s">
         <v>171</v>
       </c>
       <c r="F157" s="130" t="s">
         <v>217</v>
       </c>
-      <c r="G157" s="198"/>
-      <c r="H157" s="198"/>
-      <c r="I157" s="198"/>
-      <c r="J157" s="198"/>
-      <c r="K157" s="198"/>
-      <c r="L157" s="198"/>
-      <c r="M157" s="202"/>
+      <c r="G157" s="199"/>
+      <c r="H157" s="199"/>
+      <c r="I157" s="199"/>
+      <c r="J157" s="199"/>
+      <c r="K157" s="199"/>
+      <c r="L157" s="199"/>
+      <c r="M157" s="216"/>
     </row>
     <row r="158" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A158" s="15"/>
@@ -6409,6 +6446,60 @@
     </row>
   </sheetData>
   <mergeCells count="70">
+    <mergeCell ref="B29:B53"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B8:B26"/>
+    <mergeCell ref="A8:A26"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="M8:M26"/>
+    <mergeCell ref="M29:M53"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="F64:F65"/>
+    <mergeCell ref="M63:M157"/>
+    <mergeCell ref="C133:C135"/>
+    <mergeCell ref="C136:C138"/>
+    <mergeCell ref="C139:C141"/>
+    <mergeCell ref="C142:C145"/>
+    <mergeCell ref="C146:C148"/>
+    <mergeCell ref="C118:C120"/>
+    <mergeCell ref="C121:C123"/>
+    <mergeCell ref="C124:C126"/>
+    <mergeCell ref="C127:C129"/>
+    <mergeCell ref="C130:C132"/>
+    <mergeCell ref="C100:C104"/>
+    <mergeCell ref="B56:B60"/>
+    <mergeCell ref="M56:M60"/>
+    <mergeCell ref="C63:C65"/>
+    <mergeCell ref="C66:C69"/>
+    <mergeCell ref="C70:C72"/>
+    <mergeCell ref="B63:B157"/>
+    <mergeCell ref="C112:C114"/>
+    <mergeCell ref="C115:C117"/>
+    <mergeCell ref="C82:C84"/>
+    <mergeCell ref="C85:C88"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="C93:C95"/>
+    <mergeCell ref="C96:C99"/>
+    <mergeCell ref="E152:E153"/>
+    <mergeCell ref="E154:E156"/>
+    <mergeCell ref="D63:D157"/>
+    <mergeCell ref="A63:A157"/>
+    <mergeCell ref="C105:C107"/>
+    <mergeCell ref="C108:C111"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="E100:E101"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="C73:C75"/>
+    <mergeCell ref="C76:C78"/>
+    <mergeCell ref="C79:C81"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="G6:L6"/>
     <mergeCell ref="A29:A53"/>
@@ -6425,64 +6516,10 @@
     <mergeCell ref="J63:J157"/>
     <mergeCell ref="K63:K157"/>
     <mergeCell ref="L63:L157"/>
-    <mergeCell ref="A63:A157"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="C108:C111"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="M56:M60"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="B63:B157"/>
-    <mergeCell ref="C112:C114"/>
-    <mergeCell ref="C115:C117"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="C85:C88"/>
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="E154:E156"/>
-    <mergeCell ref="D63:D157"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="M63:M157"/>
-    <mergeCell ref="C133:C135"/>
-    <mergeCell ref="C136:C138"/>
-    <mergeCell ref="C139:C141"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="C146:C148"/>
-    <mergeCell ref="C118:C120"/>
-    <mergeCell ref="C121:C123"/>
-    <mergeCell ref="C124:C126"/>
-    <mergeCell ref="C127:C129"/>
-    <mergeCell ref="C130:C132"/>
-    <mergeCell ref="C100:C104"/>
-    <mergeCell ref="M8:M26"/>
-    <mergeCell ref="M29:M53"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="B29:B53"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B8:B26"/>
-    <mergeCell ref="A8:A26"/>
-    <mergeCell ref="C17:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6494,7 +6531,7 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="D7" sqref="D7:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6508,22 +6545,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="226" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="233"/>
-      <c r="C1" s="233"/>
-      <c r="D1" s="233"/>
-      <c r="E1" s="233"/>
-      <c r="F1" s="233"/>
-      <c r="G1" s="233"/>
-      <c r="H1" s="233"/>
-      <c r="I1" s="233"/>
-      <c r="J1" s="233"/>
-      <c r="K1" s="233"/>
-      <c r="L1" s="233"/>
-      <c r="M1" s="233"/>
-      <c r="N1" s="233"/>
+      <c r="B1" s="226"/>
+      <c r="C1" s="226"/>
+      <c r="D1" s="226"/>
+      <c r="E1" s="226"/>
+      <c r="F1" s="226"/>
+      <c r="G1" s="226"/>
+      <c r="H1" s="226"/>
+      <c r="I1" s="226"/>
+      <c r="J1" s="226"/>
+      <c r="K1" s="226"/>
+      <c r="L1" s="226"/>
+      <c r="M1" s="226"/>
+      <c r="N1" s="226"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="131"/>
@@ -6587,14 +6624,14 @@
       <c r="E4" s="135"/>
       <c r="F4" s="136"/>
       <c r="G4" s="136"/>
-      <c r="H4" s="228" t="s">
+      <c r="H4" s="242" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="229"/>
-      <c r="J4" s="229"/>
-      <c r="K4" s="229"/>
-      <c r="L4" s="229"/>
-      <c r="M4" s="230"/>
+      <c r="I4" s="243"/>
+      <c r="J4" s="243"/>
+      <c r="K4" s="243"/>
+      <c r="L4" s="243"/>
+      <c r="M4" s="244"/>
       <c r="N4" s="137"/>
     </row>
     <row r="5" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
@@ -6642,10 +6679,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="231" t="s">
+      <c r="A6" s="225" t="s">
         <v>240</v>
       </c>
-      <c r="B6" s="232" t="s">
+      <c r="B6" s="237" t="s">
         <v>241</v>
       </c>
       <c r="C6" s="145" t="s">
@@ -6654,7 +6691,7 @@
       <c r="D6" s="146" t="s">
         <v>243</v>
       </c>
-      <c r="E6" s="223" t="s">
+      <c r="E6" s="245" t="s">
         <v>244</v>
       </c>
       <c r="F6" s="147">
@@ -6669,25 +6706,29 @@
       <c r="I6" s="184" t="s">
         <v>49</v>
       </c>
-      <c r="J6" s="185"/>
-      <c r="K6" s="185"/>
+      <c r="J6" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="184" t="s">
+        <v>49</v>
+      </c>
       <c r="L6" s="185"/>
       <c r="M6" s="185"/>
-      <c r="N6" s="223" t="s">
+      <c r="N6" s="245" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="231"/>
-      <c r="B7" s="232"/>
-      <c r="C7" s="236" t="s">
+      <c r="A7" s="225"/>
+      <c r="B7" s="237"/>
+      <c r="C7" s="229" t="s">
         <v>245</v>
       </c>
-      <c r="D7" s="234" t="s">
+      <c r="D7" s="227" t="s">
         <v>243</v>
       </c>
-      <c r="E7" s="224"/>
-      <c r="F7" s="238">
+      <c r="E7" s="246"/>
+      <c r="F7" s="231">
         <v>2</v>
       </c>
       <c r="G7" s="147" t="s">
@@ -6699,19 +6740,23 @@
       <c r="I7" s="184" t="s">
         <v>49</v>
       </c>
-      <c r="J7" s="185"/>
-      <c r="K7" s="185"/>
+      <c r="J7" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="184" t="s">
+        <v>49</v>
+      </c>
       <c r="L7" s="185"/>
       <c r="M7" s="185"/>
-      <c r="N7" s="224"/>
+      <c r="N7" s="246"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="231"/>
-      <c r="B8" s="232"/>
-      <c r="C8" s="237"/>
-      <c r="D8" s="235"/>
-      <c r="E8" s="224"/>
-      <c r="F8" s="239"/>
+      <c r="A8" s="225"/>
+      <c r="B8" s="237"/>
+      <c r="C8" s="230"/>
+      <c r="D8" s="228"/>
+      <c r="E8" s="246"/>
+      <c r="F8" s="232"/>
       <c r="G8" s="147" t="s">
         <v>279</v>
       </c>
@@ -6721,22 +6766,26 @@
       <c r="I8" s="184" t="s">
         <v>49</v>
       </c>
-      <c r="J8" s="185"/>
-      <c r="K8" s="185"/>
+      <c r="J8" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="184" t="s">
+        <v>49</v>
+      </c>
       <c r="L8" s="185"/>
       <c r="M8" s="185"/>
-      <c r="N8" s="224"/>
+      <c r="N8" s="246"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="231"/>
-      <c r="B9" s="232"/>
+      <c r="A9" s="225"/>
+      <c r="B9" s="237"/>
       <c r="C9" s="148" t="s">
         <v>246</v>
       </c>
       <c r="D9" s="146" t="s">
         <v>243</v>
       </c>
-      <c r="E9" s="224"/>
+      <c r="E9" s="246"/>
       <c r="F9" s="147">
         <v>1</v>
       </c>
@@ -6749,22 +6798,26 @@
       <c r="I9" s="184" t="s">
         <v>49</v>
       </c>
-      <c r="J9" s="149"/>
-      <c r="K9" s="149"/>
+      <c r="J9" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="184" t="s">
+        <v>49</v>
+      </c>
       <c r="L9" s="149"/>
       <c r="M9" s="150"/>
-      <c r="N9" s="224"/>
+      <c r="N9" s="246"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="231"/>
-      <c r="B10" s="232"/>
-      <c r="C10" s="226" t="s">
+      <c r="A10" s="225"/>
+      <c r="B10" s="237"/>
+      <c r="C10" s="248" t="s">
         <v>247</v>
       </c>
       <c r="D10" s="151" t="s">
         <v>248</v>
       </c>
-      <c r="E10" s="224"/>
+      <c r="E10" s="246"/>
       <c r="F10" s="147">
         <v>1</v>
       </c>
@@ -6777,20 +6830,24 @@
       <c r="I10" s="184" t="s">
         <v>49</v>
       </c>
-      <c r="J10" s="149"/>
-      <c r="K10" s="149"/>
+      <c r="J10" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="184" t="s">
+        <v>49</v>
+      </c>
       <c r="L10" s="149"/>
       <c r="M10" s="150"/>
-      <c r="N10" s="224"/>
+      <c r="N10" s="246"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="231"/>
-      <c r="B11" s="232"/>
-      <c r="C11" s="226"/>
+      <c r="A11" s="225"/>
+      <c r="B11" s="237"/>
+      <c r="C11" s="248"/>
       <c r="D11" s="151" t="s">
         <v>249</v>
       </c>
-      <c r="E11" s="224"/>
+      <c r="E11" s="246"/>
       <c r="F11" s="147">
         <v>1</v>
       </c>
@@ -6803,20 +6860,24 @@
       <c r="I11" s="184" t="s">
         <v>49</v>
       </c>
-      <c r="J11" s="149"/>
-      <c r="K11" s="149"/>
+      <c r="J11" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="184" t="s">
+        <v>49</v>
+      </c>
       <c r="L11" s="149"/>
       <c r="M11" s="150"/>
-      <c r="N11" s="224"/>
+      <c r="N11" s="246"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="231"/>
-      <c r="B12" s="232"/>
-      <c r="C12" s="226"/>
+      <c r="A12" s="225"/>
+      <c r="B12" s="237"/>
+      <c r="C12" s="248"/>
       <c r="D12" s="151" t="s">
         <v>250</v>
       </c>
-      <c r="E12" s="224"/>
+      <c r="E12" s="246"/>
       <c r="F12" s="147">
         <v>1</v>
       </c>
@@ -6829,20 +6890,24 @@
       <c r="I12" s="184" t="s">
         <v>49</v>
       </c>
-      <c r="J12" s="149"/>
-      <c r="K12" s="149"/>
+      <c r="J12" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="184" t="s">
+        <v>49</v>
+      </c>
       <c r="L12" s="149"/>
       <c r="M12" s="150"/>
-      <c r="N12" s="224"/>
+      <c r="N12" s="246"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="231"/>
-      <c r="B13" s="232"/>
-      <c r="C13" s="226"/>
+      <c r="A13" s="225"/>
+      <c r="B13" s="237"/>
+      <c r="C13" s="248"/>
       <c r="D13" s="151" t="s">
         <v>251</v>
       </c>
-      <c r="E13" s="224"/>
+      <c r="E13" s="246"/>
       <c r="F13" s="147">
         <v>1</v>
       </c>
@@ -6855,20 +6920,24 @@
       <c r="I13" s="184" t="s">
         <v>49</v>
       </c>
-      <c r="J13" s="149"/>
-      <c r="K13" s="149"/>
+      <c r="J13" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="184" t="s">
+        <v>49</v>
+      </c>
       <c r="L13" s="149"/>
       <c r="M13" s="150"/>
-      <c r="N13" s="224"/>
+      <c r="N13" s="246"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="231"/>
-      <c r="B14" s="232"/>
-      <c r="C14" s="226"/>
+      <c r="A14" s="225"/>
+      <c r="B14" s="237"/>
+      <c r="C14" s="248"/>
       <c r="D14" s="151" t="s">
         <v>252</v>
       </c>
-      <c r="E14" s="224"/>
+      <c r="E14" s="246"/>
       <c r="F14" s="147">
         <v>1</v>
       </c>
@@ -6881,20 +6950,24 @@
       <c r="I14" s="184" t="s">
         <v>49</v>
       </c>
-      <c r="J14" s="149"/>
-      <c r="K14" s="149"/>
+      <c r="J14" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="184" t="s">
+        <v>49</v>
+      </c>
       <c r="L14" s="149"/>
       <c r="M14" s="150"/>
-      <c r="N14" s="224"/>
+      <c r="N14" s="246"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="231"/>
-      <c r="B15" s="232"/>
-      <c r="C15" s="226"/>
+      <c r="A15" s="225"/>
+      <c r="B15" s="237"/>
+      <c r="C15" s="248"/>
       <c r="D15" s="151" t="s">
         <v>253</v>
       </c>
-      <c r="E15" s="224"/>
+      <c r="E15" s="246"/>
       <c r="F15" s="147">
         <v>1</v>
       </c>
@@ -6907,20 +6980,24 @@
       <c r="I15" s="184" t="s">
         <v>49</v>
       </c>
-      <c r="J15" s="149"/>
-      <c r="K15" s="149"/>
+      <c r="J15" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="184" t="s">
+        <v>49</v>
+      </c>
       <c r="L15" s="149"/>
       <c r="M15" s="150"/>
-      <c r="N15" s="224"/>
+      <c r="N15" s="246"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="231"/>
-      <c r="B16" s="232"/>
-      <c r="C16" s="226"/>
+      <c r="A16" s="225"/>
+      <c r="B16" s="237"/>
+      <c r="C16" s="248"/>
       <c r="D16" s="151" t="s">
         <v>254</v>
       </c>
-      <c r="E16" s="224"/>
+      <c r="E16" s="246"/>
       <c r="F16" s="147">
         <v>1</v>
       </c>
@@ -6933,22 +7010,26 @@
       <c r="I16" s="184" t="s">
         <v>49</v>
       </c>
-      <c r="J16" s="149"/>
-      <c r="K16" s="149"/>
+      <c r="J16" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="184" t="s">
+        <v>49</v>
+      </c>
       <c r="L16" s="149"/>
       <c r="M16" s="150"/>
-      <c r="N16" s="224"/>
+      <c r="N16" s="246"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="231"/>
-      <c r="B17" s="232"/>
-      <c r="C17" s="226" t="s">
+      <c r="A17" s="225"/>
+      <c r="B17" s="237"/>
+      <c r="C17" s="248" t="s">
         <v>255</v>
       </c>
       <c r="D17" s="151" t="s">
         <v>256</v>
       </c>
-      <c r="E17" s="224"/>
+      <c r="E17" s="246"/>
       <c r="F17" s="147">
         <v>1</v>
       </c>
@@ -6961,20 +7042,24 @@
       <c r="I17" s="184" t="s">
         <v>49</v>
       </c>
-      <c r="J17" s="149"/>
-      <c r="K17" s="149"/>
+      <c r="J17" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="184" t="s">
+        <v>49</v>
+      </c>
       <c r="L17" s="149"/>
       <c r="M17" s="150"/>
-      <c r="N17" s="224"/>
+      <c r="N17" s="246"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="231"/>
-      <c r="B18" s="232"/>
-      <c r="C18" s="226"/>
+      <c r="A18" s="225"/>
+      <c r="B18" s="237"/>
+      <c r="C18" s="248"/>
       <c r="D18" s="151" t="s">
         <v>257</v>
       </c>
-      <c r="E18" s="224"/>
+      <c r="E18" s="246"/>
       <c r="F18" s="147">
         <v>1</v>
       </c>
@@ -6987,20 +7072,24 @@
       <c r="I18" s="184" t="s">
         <v>49</v>
       </c>
-      <c r="J18" s="149"/>
-      <c r="K18" s="149"/>
+      <c r="J18" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="184" t="s">
+        <v>49</v>
+      </c>
       <c r="L18" s="149"/>
       <c r="M18" s="150"/>
-      <c r="N18" s="224"/>
+      <c r="N18" s="246"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="231"/>
-      <c r="B19" s="232"/>
-      <c r="C19" s="226"/>
+      <c r="A19" s="225"/>
+      <c r="B19" s="237"/>
+      <c r="C19" s="248"/>
       <c r="D19" s="151" t="s">
         <v>258</v>
       </c>
-      <c r="E19" s="224"/>
+      <c r="E19" s="246"/>
       <c r="F19" s="147">
         <v>1</v>
       </c>
@@ -7013,20 +7102,24 @@
       <c r="I19" s="184" t="s">
         <v>49</v>
       </c>
-      <c r="J19" s="149"/>
-      <c r="K19" s="149"/>
+      <c r="J19" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="184" t="s">
+        <v>49</v>
+      </c>
       <c r="L19" s="149"/>
       <c r="M19" s="150"/>
-      <c r="N19" s="224"/>
+      <c r="N19" s="246"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="231"/>
-      <c r="B20" s="232"/>
-      <c r="C20" s="226"/>
+      <c r="A20" s="225"/>
+      <c r="B20" s="237"/>
+      <c r="C20" s="248"/>
       <c r="D20" s="151" t="s">
         <v>259</v>
       </c>
-      <c r="E20" s="224"/>
+      <c r="E20" s="246"/>
       <c r="F20" s="147">
         <v>1</v>
       </c>
@@ -7039,20 +7132,24 @@
       <c r="I20" s="184" t="s">
         <v>49</v>
       </c>
-      <c r="J20" s="149"/>
-      <c r="K20" s="149"/>
+      <c r="J20" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="184" t="s">
+        <v>49</v>
+      </c>
       <c r="L20" s="149"/>
       <c r="M20" s="150"/>
-      <c r="N20" s="224"/>
+      <c r="N20" s="246"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="231"/>
-      <c r="B21" s="232"/>
-      <c r="C21" s="226"/>
+      <c r="A21" s="225"/>
+      <c r="B21" s="237"/>
+      <c r="C21" s="248"/>
       <c r="D21" s="151" t="s">
         <v>260</v>
       </c>
-      <c r="E21" s="225"/>
+      <c r="E21" s="247"/>
       <c r="F21" s="147">
         <v>1</v>
       </c>
@@ -7065,11 +7162,15 @@
       <c r="I21" s="184" t="s">
         <v>49</v>
       </c>
-      <c r="J21" s="149"/>
-      <c r="K21" s="149"/>
+      <c r="J21" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21" s="184" t="s">
+        <v>49</v>
+      </c>
       <c r="L21" s="149"/>
       <c r="M21" s="150"/>
-      <c r="N21" s="225"/>
+      <c r="N21" s="247"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="152" t="s">
@@ -7096,19 +7197,19 @@
       <c r="N22" s="156"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="231" t="s">
+      <c r="A23" s="225" t="s">
         <v>240</v>
       </c>
-      <c r="B23" s="232" t="s">
+      <c r="B23" s="237" t="s">
         <v>262</v>
       </c>
-      <c r="C23" s="227" t="s">
+      <c r="C23" s="238" t="s">
         <v>263</v>
       </c>
       <c r="D23" s="151" t="s">
         <v>264</v>
       </c>
-      <c r="E23" s="244" t="s">
+      <c r="E23" s="239" t="s">
         <v>244</v>
       </c>
       <c r="F23" s="147">
@@ -7123,42 +7224,50 @@
       <c r="I23" s="184" t="s">
         <v>49</v>
       </c>
-      <c r="J23" s="149"/>
-      <c r="K23" s="149"/>
+      <c r="J23" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="184" t="s">
+        <v>49</v>
+      </c>
       <c r="L23" s="149"/>
       <c r="M23" s="150"/>
-      <c r="N23" s="244" t="s">
+      <c r="N23" s="239" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="231"/>
-      <c r="B24" s="232"/>
-      <c r="C24" s="227"/>
+      <c r="A24" s="225"/>
+      <c r="B24" s="237"/>
+      <c r="C24" s="238"/>
       <c r="D24" s="151" t="s">
         <v>265</v>
       </c>
-      <c r="E24" s="245"/>
+      <c r="E24" s="240"/>
       <c r="F24" s="164"/>
       <c r="G24" s="147"/>
       <c r="H24" s="184"/>
       <c r="I24" s="184"/>
-      <c r="J24" s="149"/>
-      <c r="K24" s="149"/>
+      <c r="J24" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" s="184" t="s">
+        <v>49</v>
+      </c>
       <c r="L24" s="149"/>
       <c r="M24" s="150"/>
-      <c r="N24" s="245"/>
+      <c r="N24" s="240"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="231"/>
-      <c r="B25" s="232"/>
-      <c r="C25" s="227" t="s">
+      <c r="A25" s="225"/>
+      <c r="B25" s="237"/>
+      <c r="C25" s="238" t="s">
         <v>266</v>
       </c>
       <c r="D25" s="151" t="s">
         <v>264</v>
       </c>
-      <c r="E25" s="245"/>
+      <c r="E25" s="240"/>
       <c r="F25" s="147">
         <v>1</v>
       </c>
@@ -7171,58 +7280,70 @@
       <c r="I25" s="184" t="s">
         <v>49</v>
       </c>
-      <c r="J25" s="149"/>
-      <c r="K25" s="149"/>
+      <c r="J25" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25" s="184" t="s">
+        <v>49</v>
+      </c>
       <c r="L25" s="149"/>
       <c r="M25" s="150"/>
-      <c r="N25" s="245"/>
+      <c r="N25" s="240"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="231"/>
-      <c r="B26" s="232"/>
-      <c r="C26" s="227"/>
+      <c r="A26" s="225"/>
+      <c r="B26" s="237"/>
+      <c r="C26" s="238"/>
       <c r="D26" s="151" t="s">
         <v>267</v>
       </c>
-      <c r="E26" s="245"/>
+      <c r="E26" s="240"/>
       <c r="F26" s="190"/>
       <c r="G26" s="147"/>
       <c r="H26" s="184"/>
       <c r="I26" s="184"/>
-      <c r="J26" s="149"/>
-      <c r="K26" s="149"/>
+      <c r="J26" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26" s="184" t="s">
+        <v>49</v>
+      </c>
       <c r="L26" s="149"/>
       <c r="M26" s="149"/>
-      <c r="N26" s="245"/>
+      <c r="N26" s="240"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="231"/>
-      <c r="B27" s="232"/>
-      <c r="C27" s="227"/>
+      <c r="A27" s="225"/>
+      <c r="B27" s="237"/>
+      <c r="C27" s="238"/>
       <c r="D27" s="151" t="s">
         <v>268</v>
       </c>
-      <c r="E27" s="245"/>
+      <c r="E27" s="240"/>
       <c r="F27" s="164"/>
       <c r="G27" s="147"/>
       <c r="H27" s="184"/>
       <c r="I27" s="184"/>
-      <c r="J27" s="160"/>
-      <c r="K27" s="160"/>
+      <c r="J27" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="184" t="s">
+        <v>49</v>
+      </c>
       <c r="L27" s="160"/>
       <c r="M27" s="161"/>
-      <c r="N27" s="245"/>
+      <c r="N27" s="240"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="231"/>
-      <c r="B28" s="232"/>
-      <c r="C28" s="227" t="s">
+      <c r="A28" s="225"/>
+      <c r="B28" s="237"/>
+      <c r="C28" s="238" t="s">
         <v>269</v>
       </c>
       <c r="D28" s="151" t="s">
         <v>264</v>
       </c>
-      <c r="E28" s="245"/>
+      <c r="E28" s="240"/>
       <c r="F28" s="147">
         <v>1</v>
       </c>
@@ -7235,40 +7356,48 @@
       <c r="I28" s="184" t="s">
         <v>49</v>
       </c>
-      <c r="J28" s="185"/>
-      <c r="K28" s="185"/>
+      <c r="J28" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28" s="184" t="s">
+        <v>49</v>
+      </c>
       <c r="L28" s="185"/>
       <c r="M28" s="186"/>
-      <c r="N28" s="245"/>
+      <c r="N28" s="240"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="231"/>
-      <c r="B29" s="232"/>
-      <c r="C29" s="227"/>
+      <c r="A29" s="225"/>
+      <c r="B29" s="237"/>
+      <c r="C29" s="238"/>
       <c r="D29" s="151" t="s">
         <v>267</v>
       </c>
-      <c r="E29" s="245"/>
+      <c r="E29" s="240"/>
       <c r="F29" s="164"/>
       <c r="G29" s="147"/>
       <c r="H29" s="184"/>
       <c r="I29" s="184"/>
-      <c r="J29" s="185"/>
-      <c r="K29" s="185"/>
+      <c r="J29" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29" s="184" t="s">
+        <v>49</v>
+      </c>
       <c r="L29" s="185"/>
       <c r="M29" s="186"/>
-      <c r="N29" s="245"/>
+      <c r="N29" s="240"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="231"/>
-      <c r="B30" s="232"/>
-      <c r="C30" s="227" t="s">
+      <c r="A30" s="225"/>
+      <c r="B30" s="237"/>
+      <c r="C30" s="238" t="s">
         <v>270</v>
       </c>
       <c r="D30" s="151" t="s">
         <v>264</v>
       </c>
-      <c r="E30" s="245"/>
+      <c r="E30" s="240"/>
       <c r="F30" s="147">
         <v>1</v>
       </c>
@@ -7281,20 +7410,24 @@
       <c r="I30" s="184" t="s">
         <v>49</v>
       </c>
-      <c r="J30" s="185"/>
-      <c r="K30" s="185"/>
+      <c r="J30" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30" s="184" t="s">
+        <v>49</v>
+      </c>
       <c r="L30" s="185"/>
       <c r="M30" s="186"/>
-      <c r="N30" s="245"/>
+      <c r="N30" s="240"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="231"/>
-      <c r="B31" s="232"/>
-      <c r="C31" s="227"/>
+      <c r="A31" s="225"/>
+      <c r="B31" s="237"/>
+      <c r="C31" s="238"/>
       <c r="D31" s="151" t="s">
         <v>267</v>
       </c>
-      <c r="E31" s="245"/>
+      <c r="E31" s="240"/>
       <c r="F31" s="147">
         <v>1</v>
       </c>
@@ -7307,22 +7440,26 @@
       <c r="I31" s="184" t="s">
         <v>49</v>
       </c>
-      <c r="J31" s="185"/>
-      <c r="K31" s="185"/>
+      <c r="J31" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31" s="184" t="s">
+        <v>49</v>
+      </c>
       <c r="L31" s="185"/>
       <c r="M31" s="186"/>
-      <c r="N31" s="245"/>
+      <c r="N31" s="240"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="231"/>
-      <c r="B32" s="232"/>
-      <c r="C32" s="226" t="s">
+      <c r="A32" s="225"/>
+      <c r="B32" s="237"/>
+      <c r="C32" s="248" t="s">
         <v>271</v>
       </c>
       <c r="D32" s="151" t="s">
         <v>264</v>
       </c>
-      <c r="E32" s="245"/>
+      <c r="E32" s="240"/>
       <c r="F32" s="147">
         <v>1</v>
       </c>
@@ -7335,20 +7472,24 @@
       <c r="I32" s="184" t="s">
         <v>49</v>
       </c>
-      <c r="J32" s="185"/>
-      <c r="K32" s="185"/>
+      <c r="J32" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32" s="184" t="s">
+        <v>49</v>
+      </c>
       <c r="L32" s="185"/>
       <c r="M32" s="186"/>
-      <c r="N32" s="245"/>
+      <c r="N32" s="240"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="231"/>
-      <c r="B33" s="232"/>
-      <c r="C33" s="226"/>
+      <c r="A33" s="225"/>
+      <c r="B33" s="237"/>
+      <c r="C33" s="248"/>
       <c r="D33" s="151" t="s">
         <v>267</v>
       </c>
-      <c r="E33" s="245"/>
+      <c r="E33" s="240"/>
       <c r="F33" s="147">
         <v>1</v>
       </c>
@@ -7361,22 +7502,26 @@
       <c r="I33" s="184" t="s">
         <v>49</v>
       </c>
-      <c r="J33" s="185"/>
-      <c r="K33" s="185"/>
+      <c r="J33" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="K33" s="184" t="s">
+        <v>49</v>
+      </c>
       <c r="L33" s="185"/>
       <c r="M33" s="186"/>
-      <c r="N33" s="245"/>
+      <c r="N33" s="240"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="231"/>
-      <c r="B34" s="232"/>
-      <c r="C34" s="227" t="s">
+      <c r="A34" s="225"/>
+      <c r="B34" s="237"/>
+      <c r="C34" s="238" t="s">
         <v>272</v>
       </c>
       <c r="D34" s="151" t="s">
         <v>264</v>
       </c>
-      <c r="E34" s="245"/>
+      <c r="E34" s="240"/>
       <c r="F34" s="147">
         <v>1</v>
       </c>
@@ -7389,20 +7534,24 @@
       <c r="I34" s="184" t="s">
         <v>49</v>
       </c>
-      <c r="J34" s="185"/>
-      <c r="K34" s="185"/>
+      <c r="J34" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="K34" s="184" t="s">
+        <v>49</v>
+      </c>
       <c r="L34" s="185"/>
       <c r="M34" s="186"/>
-      <c r="N34" s="245"/>
+      <c r="N34" s="240"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="231"/>
-      <c r="B35" s="232"/>
-      <c r="C35" s="227"/>
+      <c r="A35" s="225"/>
+      <c r="B35" s="237"/>
+      <c r="C35" s="238"/>
       <c r="D35" s="151" t="s">
         <v>267</v>
       </c>
-      <c r="E35" s="246"/>
+      <c r="E35" s="241"/>
       <c r="F35" s="147">
         <v>1</v>
       </c>
@@ -7415,11 +7564,15 @@
       <c r="I35" s="184" t="s">
         <v>49</v>
       </c>
-      <c r="J35" s="185"/>
-      <c r="K35" s="185"/>
+      <c r="J35" s="184" t="s">
+        <v>49</v>
+      </c>
+      <c r="K35" s="184" t="s">
+        <v>49</v>
+      </c>
       <c r="L35" s="185"/>
       <c r="M35" s="186"/>
-      <c r="N35" s="246"/>
+      <c r="N35" s="241"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="138" t="s">
@@ -7442,126 +7595,130 @@
       <c r="N36" s="156"/>
     </row>
     <row r="37" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="231" t="s">
+      <c r="A37" s="225" t="s">
         <v>240</v>
       </c>
-      <c r="B37" s="243" t="s">
+      <c r="B37" s="236" t="s">
         <v>273</v>
       </c>
-      <c r="C37" s="242"/>
-      <c r="D37" s="241"/>
-      <c r="E37" s="240" t="s">
+      <c r="C37" s="235"/>
+      <c r="D37" s="234"/>
+      <c r="E37" s="233" t="s">
         <v>244</v>
       </c>
-      <c r="F37" s="240">
+      <c r="F37" s="233">
         <v>6</v>
       </c>
       <c r="G37" s="165" t="s">
         <v>288</v>
       </c>
-      <c r="H37" s="247" t="s">
-        <v>49</v>
-      </c>
-      <c r="I37" s="247" t="s">
-        <v>49</v>
-      </c>
-      <c r="J37" s="247"/>
-      <c r="K37" s="247"/>
-      <c r="L37" s="247"/>
-      <c r="M37" s="247"/>
-      <c r="N37" s="248" t="s">
+      <c r="H37" s="223" t="s">
+        <v>49</v>
+      </c>
+      <c r="I37" s="223" t="s">
+        <v>49</v>
+      </c>
+      <c r="J37" s="223" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37" s="223" t="s">
+        <v>49</v>
+      </c>
+      <c r="L37" s="223"/>
+      <c r="M37" s="223"/>
+      <c r="N37" s="224" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="231"/>
-      <c r="B38" s="243"/>
-      <c r="C38" s="242"/>
-      <c r="D38" s="241"/>
-      <c r="E38" s="240"/>
-      <c r="F38" s="240"/>
+      <c r="A38" s="225"/>
+      <c r="B38" s="236"/>
+      <c r="C38" s="235"/>
+      <c r="D38" s="234"/>
+      <c r="E38" s="233"/>
+      <c r="F38" s="233"/>
       <c r="G38" s="165" t="s">
         <v>289</v>
       </c>
-      <c r="H38" s="247"/>
-      <c r="I38" s="247"/>
-      <c r="J38" s="247"/>
-      <c r="K38" s="247"/>
-      <c r="L38" s="247"/>
-      <c r="M38" s="247"/>
-      <c r="N38" s="248"/>
+      <c r="H38" s="223"/>
+      <c r="I38" s="223"/>
+      <c r="J38" s="223"/>
+      <c r="K38" s="223"/>
+      <c r="L38" s="223"/>
+      <c r="M38" s="223"/>
+      <c r="N38" s="224"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="231"/>
-      <c r="B39" s="243"/>
-      <c r="C39" s="242"/>
-      <c r="D39" s="241"/>
-      <c r="E39" s="240"/>
-      <c r="F39" s="240"/>
+      <c r="A39" s="225"/>
+      <c r="B39" s="236"/>
+      <c r="C39" s="235"/>
+      <c r="D39" s="234"/>
+      <c r="E39" s="233"/>
+      <c r="F39" s="233"/>
       <c r="G39" s="165" t="s">
         <v>290</v>
       </c>
-      <c r="H39" s="247"/>
-      <c r="I39" s="247"/>
-      <c r="J39" s="247"/>
-      <c r="K39" s="247"/>
-      <c r="L39" s="247"/>
-      <c r="M39" s="247"/>
-      <c r="N39" s="248"/>
+      <c r="H39" s="223"/>
+      <c r="I39" s="223"/>
+      <c r="J39" s="223"/>
+      <c r="K39" s="223"/>
+      <c r="L39" s="223"/>
+      <c r="M39" s="223"/>
+      <c r="N39" s="224"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="231"/>
-      <c r="B40" s="243"/>
-      <c r="C40" s="242"/>
-      <c r="D40" s="241"/>
-      <c r="E40" s="240"/>
-      <c r="F40" s="240"/>
+      <c r="A40" s="225"/>
+      <c r="B40" s="236"/>
+      <c r="C40" s="235"/>
+      <c r="D40" s="234"/>
+      <c r="E40" s="233"/>
+      <c r="F40" s="233"/>
       <c r="G40" s="165" t="s">
         <v>293</v>
       </c>
-      <c r="H40" s="247"/>
-      <c r="I40" s="247"/>
-      <c r="J40" s="247"/>
-      <c r="K40" s="247"/>
-      <c r="L40" s="247"/>
-      <c r="M40" s="247"/>
-      <c r="N40" s="248"/>
+      <c r="H40" s="223"/>
+      <c r="I40" s="223"/>
+      <c r="J40" s="223"/>
+      <c r="K40" s="223"/>
+      <c r="L40" s="223"/>
+      <c r="M40" s="223"/>
+      <c r="N40" s="224"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="231"/>
-      <c r="B41" s="243"/>
-      <c r="C41" s="242"/>
-      <c r="D41" s="241"/>
-      <c r="E41" s="240"/>
-      <c r="F41" s="240"/>
+      <c r="A41" s="225"/>
+      <c r="B41" s="236"/>
+      <c r="C41" s="235"/>
+      <c r="D41" s="234"/>
+      <c r="E41" s="233"/>
+      <c r="F41" s="233"/>
       <c r="G41" s="165" t="s">
         <v>291</v>
       </c>
-      <c r="H41" s="247"/>
-      <c r="I41" s="247"/>
-      <c r="J41" s="247"/>
-      <c r="K41" s="247"/>
-      <c r="L41" s="247"/>
-      <c r="M41" s="247"/>
-      <c r="N41" s="248"/>
+      <c r="H41" s="223"/>
+      <c r="I41" s="223"/>
+      <c r="J41" s="223"/>
+      <c r="K41" s="223"/>
+      <c r="L41" s="223"/>
+      <c r="M41" s="223"/>
+      <c r="N41" s="224"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="231"/>
-      <c r="B42" s="243"/>
-      <c r="C42" s="242"/>
-      <c r="D42" s="241"/>
-      <c r="E42" s="240"/>
-      <c r="F42" s="240"/>
+      <c r="A42" s="225"/>
+      <c r="B42" s="236"/>
+      <c r="C42" s="235"/>
+      <c r="D42" s="234"/>
+      <c r="E42" s="233"/>
+      <c r="F42" s="233"/>
       <c r="G42" s="165" t="s">
         <v>292</v>
       </c>
-      <c r="H42" s="247"/>
-      <c r="I42" s="247"/>
-      <c r="J42" s="247"/>
-      <c r="K42" s="247"/>
-      <c r="L42" s="247"/>
-      <c r="M42" s="247"/>
-      <c r="N42" s="248"/>
+      <c r="H42" s="223"/>
+      <c r="I42" s="223"/>
+      <c r="J42" s="223"/>
+      <c r="K42" s="223"/>
+      <c r="L42" s="223"/>
+      <c r="M42" s="223"/>
+      <c r="N42" s="224"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H43" s="24"/>
@@ -7573,14 +7730,16 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="M37:M42"/>
-    <mergeCell ref="N37:N42"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="H37:H42"/>
-    <mergeCell ref="I37:I42"/>
-    <mergeCell ref="J37:J42"/>
-    <mergeCell ref="K37:K42"/>
-    <mergeCell ref="L37:L42"/>
+    <mergeCell ref="N6:N21"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="A6:A21"/>
+    <mergeCell ref="B6:B21"/>
+    <mergeCell ref="E6:E21"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="C7:C8"/>
@@ -7597,16 +7756,14 @@
     <mergeCell ref="N23:N35"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="A6:A21"/>
-    <mergeCell ref="B6:B21"/>
-    <mergeCell ref="E6:E21"/>
-    <mergeCell ref="N6:N21"/>
-    <mergeCell ref="C10:C16"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="M37:M42"/>
+    <mergeCell ref="N37:N42"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="H37:H42"/>
+    <mergeCell ref="I37:I42"/>
+    <mergeCell ref="J37:J42"/>
+    <mergeCell ref="K37:K42"/>
+    <mergeCell ref="L37:L42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>

--- a/asset/Control GESPRO.xlsx
+++ b/asset/Control GESPRO.xlsx
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1063" uniqueCount="307">
   <si>
     <t>Sección</t>
   </si>
@@ -1077,6 +1077,18 @@
   </si>
   <si>
     <t>DISTRIBUCIÓN DE CARPETAS-SUBIDA DE RECURSO</t>
+  </si>
+  <si>
+    <t>Escuelas Nocturnas Nivel I</t>
+  </si>
+  <si>
+    <t>Escuelas Nocturnas Nivel II</t>
+  </si>
+  <si>
+    <t>Escuelas Nocturnas Nivel IIII</t>
+  </si>
+  <si>
+    <t>Escuelas Nocturnas Nivel IV</t>
   </si>
 </sst>
 </file>
@@ -1782,7 +1794,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="257">
+  <cellXfs count="256">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1927,9 +1939,6 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="19" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="17" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2131,9 +2140,6 @@
     <xf numFmtId="0" fontId="1" fillId="23" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2153,9 +2159,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2208,101 +2211,179 @@
     <xf numFmtId="0" fontId="2" fillId="30" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2310,78 +2391,6 @@
     <xf numFmtId="0" fontId="1" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2403,7 +2412,7 @@
     <xf numFmtId="0" fontId="14" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2695,10 +2704,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:M166"/>
+  <dimension ref="A1:M170"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K51" sqref="K51"/>
+    <sheetView topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K62" sqref="K62:K64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2715,38 +2724,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="221" t="s">
         <v>274</v>
       </c>
-      <c r="B1" s="191"/>
-      <c r="C1" s="191"/>
-      <c r="D1" s="191"/>
-      <c r="E1" s="191"/>
-      <c r="F1" s="191"/>
-      <c r="G1" s="191"/>
-      <c r="H1" s="191"/>
-      <c r="I1" s="191"/>
-      <c r="J1" s="191"/>
-      <c r="K1" s="191"/>
-      <c r="L1" s="191"/>
-      <c r="M1" s="191"/>
+      <c r="B1" s="221"/>
+      <c r="C1" s="221"/>
+      <c r="D1" s="221"/>
+      <c r="E1" s="221"/>
+      <c r="F1" s="221"/>
+      <c r="G1" s="221"/>
+      <c r="H1" s="221"/>
+      <c r="I1" s="221"/>
+      <c r="J1" s="221"/>
+      <c r="K1" s="221"/>
+      <c r="L1" s="221"/>
+      <c r="M1" s="221"/>
     </row>
     <row r="2" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="191" t="s">
+      <c r="A2" s="221" t="s">
         <v>298</v>
       </c>
-      <c r="B2" s="191"/>
-      <c r="C2" s="191"/>
-      <c r="D2" s="191"/>
-      <c r="E2" s="191"/>
-      <c r="F2" s="191"/>
-      <c r="G2" s="191"/>
-      <c r="H2" s="191"/>
-      <c r="I2" s="191"/>
-      <c r="J2" s="191"/>
-      <c r="K2" s="191"/>
-      <c r="L2" s="191"/>
-      <c r="M2" s="191"/>
+      <c r="B2" s="221"/>
+      <c r="C2" s="221"/>
+      <c r="D2" s="221"/>
+      <c r="E2" s="221"/>
+      <c r="F2" s="221"/>
+      <c r="G2" s="221"/>
+      <c r="H2" s="221"/>
+      <c r="I2" s="221"/>
+      <c r="J2" s="221"/>
+      <c r="K2" s="221"/>
+      <c r="L2" s="221"/>
+      <c r="M2" s="221"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G3" s="20" t="s">
@@ -2787,24 +2796,24 @@
       <c r="L4" s="22"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G5" s="192" t="s">
+      <c r="G5" s="202" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="193"/>
-      <c r="I5" s="193"/>
-      <c r="J5" s="193"/>
-      <c r="K5" s="193"/>
-      <c r="L5" s="194"/>
+      <c r="H5" s="203"/>
+      <c r="I5" s="203"/>
+      <c r="J5" s="203"/>
+      <c r="K5" s="203"/>
+      <c r="L5" s="204"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G6" s="192" t="s">
+      <c r="G6" s="202" t="s">
         <v>275</v>
       </c>
-      <c r="H6" s="193"/>
-      <c r="I6" s="193"/>
-      <c r="J6" s="193"/>
-      <c r="K6" s="193"/>
-      <c r="L6" s="194"/>
+      <c r="H6" s="203"/>
+      <c r="I6" s="203"/>
+      <c r="J6" s="203"/>
+      <c r="K6" s="203"/>
+      <c r="L6" s="204"/>
     </row>
     <row r="7" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -2848,10 +2857,10 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="197" t="s">
+      <c r="A8" s="195" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="205" t="s">
+      <c r="B8" s="190" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -2874,15 +2883,17 @@
       <c r="J8" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K8" s="1"/>
+      <c r="K8" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L8" s="1"/>
-      <c r="M8" s="208" t="s">
+      <c r="M8" s="199" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="198"/>
-      <c r="B9" s="206"/>
+      <c r="A9" s="196"/>
+      <c r="B9" s="191"/>
       <c r="C9" s="8" t="s">
         <v>6</v>
       </c>
@@ -2903,13 +2914,15 @@
       <c r="J9" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K9" s="1"/>
+      <c r="K9" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="209"/>
+      <c r="M9" s="200"/>
     </row>
     <row r="10" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="198"/>
-      <c r="B10" s="206"/>
+      <c r="A10" s="196"/>
+      <c r="B10" s="191"/>
       <c r="C10" s="8" t="s">
         <v>7</v>
       </c>
@@ -2930,13 +2943,15 @@
       <c r="J10" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="1"/>
+      <c r="K10" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="209"/>
+      <c r="M10" s="200"/>
     </row>
     <row r="11" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="198"/>
-      <c r="B11" s="206"/>
+      <c r="A11" s="196"/>
+      <c r="B11" s="191"/>
       <c r="C11" s="8" t="s">
         <v>8</v>
       </c>
@@ -2957,13 +2972,15 @@
       <c r="J11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K11" s="1"/>
+      <c r="K11" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L11" s="1"/>
-      <c r="M11" s="209"/>
+      <c r="M11" s="200"/>
     </row>
     <row r="12" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="198"/>
-      <c r="B12" s="206"/>
+      <c r="A12" s="196"/>
+      <c r="B12" s="191"/>
       <c r="C12" s="8" t="s">
         <v>9</v>
       </c>
@@ -2984,13 +3001,15 @@
       <c r="J12" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K12" s="1"/>
+      <c r="K12" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="209"/>
+      <c r="M12" s="200"/>
     </row>
     <row r="13" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="198"/>
-      <c r="B13" s="206"/>
+      <c r="A13" s="196"/>
+      <c r="B13" s="191"/>
       <c r="C13" s="8" t="s">
         <v>10</v>
       </c>
@@ -3011,13 +3030,15 @@
       <c r="J13" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K13" s="1"/>
+      <c r="K13" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="209"/>
+      <c r="M13" s="200"/>
     </row>
     <row r="14" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="198"/>
-      <c r="B14" s="206"/>
+      <c r="A14" s="196"/>
+      <c r="B14" s="191"/>
       <c r="C14" s="8" t="s">
         <v>11</v>
       </c>
@@ -3038,13 +3059,15 @@
       <c r="J14" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K14" s="1"/>
+      <c r="K14" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="209"/>
+      <c r="M14" s="200"/>
     </row>
     <row r="15" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="198"/>
-      <c r="B15" s="206"/>
+      <c r="A15" s="196"/>
+      <c r="B15" s="191"/>
       <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
@@ -3065,13 +3088,15 @@
       <c r="J15" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K15" s="1"/>
+      <c r="K15" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="209"/>
+      <c r="M15" s="200"/>
     </row>
     <row r="16" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="198"/>
-      <c r="B16" s="206"/>
+      <c r="A16" s="196"/>
+      <c r="B16" s="191"/>
       <c r="C16" s="8" t="s">
         <v>13</v>
       </c>
@@ -3092,20 +3117,22 @@
       <c r="J16" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K16" s="1"/>
+      <c r="K16" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="209"/>
+      <c r="M16" s="200"/>
     </row>
     <row r="17" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="198"/>
-      <c r="B17" s="206"/>
-      <c r="C17" s="217" t="s">
+      <c r="A17" s="196"/>
+      <c r="B17" s="191"/>
+      <c r="C17" s="193" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="9">
         <v>31</v>
       </c>
-      <c r="E17" s="220" t="s">
+      <c r="E17" s="205" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="13" t="s">
@@ -3123,18 +3150,20 @@
       <c r="J17" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K17" s="1"/>
+      <c r="K17" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="209"/>
+      <c r="M17" s="200"/>
     </row>
     <row r="18" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="198"/>
-      <c r="B18" s="206"/>
-      <c r="C18" s="218"/>
+      <c r="A18" s="196"/>
+      <c r="B18" s="191"/>
+      <c r="C18" s="194"/>
       <c r="D18" s="10">
         <v>31</v>
       </c>
-      <c r="E18" s="222"/>
+      <c r="E18" s="207"/>
       <c r="F18" s="12" t="s">
         <v>14</v>
       </c>
@@ -3150,18 +3179,20 @@
       <c r="J18" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K18" s="1"/>
+      <c r="K18" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L18" s="1"/>
-      <c r="M18" s="209"/>
+      <c r="M18" s="200"/>
     </row>
     <row r="19" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="198"/>
-      <c r="B19" s="206"/>
-      <c r="C19" s="218"/>
+      <c r="A19" s="196"/>
+      <c r="B19" s="191"/>
+      <c r="C19" s="194"/>
       <c r="D19" s="10">
         <v>31</v>
       </c>
-      <c r="E19" s="221"/>
+      <c r="E19" s="206"/>
       <c r="F19" s="12" t="s">
         <v>16</v>
       </c>
@@ -3177,18 +3208,20 @@
       <c r="J19" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K19" s="1"/>
+      <c r="K19" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L19" s="1"/>
-      <c r="M19" s="209"/>
+      <c r="M19" s="200"/>
     </row>
     <row r="20" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="198"/>
-      <c r="B20" s="206"/>
-      <c r="C20" s="218"/>
+      <c r="A20" s="196"/>
+      <c r="B20" s="191"/>
+      <c r="C20" s="194"/>
       <c r="D20" s="10">
         <v>31</v>
       </c>
-      <c r="E20" s="220" t="s">
+      <c r="E20" s="205" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="11" t="s">
@@ -3206,18 +3239,20 @@
       <c r="J20" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K20" s="1"/>
+      <c r="K20" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L20" s="1"/>
-      <c r="M20" s="209"/>
+      <c r="M20" s="200"/>
     </row>
     <row r="21" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="198"/>
-      <c r="B21" s="206"/>
-      <c r="C21" s="218"/>
+      <c r="A21" s="196"/>
+      <c r="B21" s="191"/>
+      <c r="C21" s="194"/>
       <c r="D21" s="10">
         <v>31</v>
       </c>
-      <c r="E21" s="222"/>
+      <c r="E21" s="207"/>
       <c r="F21" s="12" t="s">
         <v>14</v>
       </c>
@@ -3233,18 +3268,20 @@
       <c r="J21" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K21" s="1"/>
+      <c r="K21" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L21" s="1"/>
-      <c r="M21" s="209"/>
+      <c r="M21" s="200"/>
     </row>
     <row r="22" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="198"/>
-      <c r="B22" s="206"/>
-      <c r="C22" s="219"/>
+      <c r="A22" s="196"/>
+      <c r="B22" s="191"/>
+      <c r="C22" s="198"/>
       <c r="D22" s="10">
         <v>31</v>
       </c>
-      <c r="E22" s="221"/>
+      <c r="E22" s="206"/>
       <c r="F22" s="12" t="s">
         <v>16</v>
       </c>
@@ -3260,14 +3297,16 @@
       <c r="J22" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K22" s="1"/>
+      <c r="K22" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L22" s="1"/>
-      <c r="M22" s="209"/>
+      <c r="M22" s="200"/>
     </row>
     <row r="23" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="198"/>
-      <c r="B23" s="206"/>
-      <c r="C23" s="217" t="s">
+      <c r="A23" s="196"/>
+      <c r="B23" s="191"/>
+      <c r="C23" s="193" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="9">
@@ -3289,14 +3328,16 @@
       <c r="J23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K23" s="1"/>
+      <c r="K23" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L23" s="1"/>
-      <c r="M23" s="209"/>
+      <c r="M23" s="200"/>
     </row>
     <row r="24" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="198"/>
-      <c r="B24" s="206"/>
-      <c r="C24" s="218"/>
+      <c r="A24" s="196"/>
+      <c r="B24" s="191"/>
+      <c r="C24" s="194"/>
       <c r="D24" s="10">
         <v>29</v>
       </c>
@@ -3313,16 +3354,18 @@
       <c r="I24" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="J24" s="78" t="s">
-        <v>49</v>
-      </c>
-      <c r="K24" s="1"/>
+      <c r="J24" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L24" s="1"/>
-      <c r="M24" s="209"/>
+      <c r="M24" s="200"/>
     </row>
     <row r="25" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="198"/>
-      <c r="B25" s="206"/>
+      <c r="A25" s="196"/>
+      <c r="B25" s="191"/>
       <c r="C25" s="7" t="s">
         <v>19</v>
       </c>
@@ -3343,13 +3386,15 @@
       <c r="J25" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K25" s="1"/>
+      <c r="K25" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L25" s="1"/>
-      <c r="M25" s="209"/>
+      <c r="M25" s="200"/>
     </row>
     <row r="26" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="199"/>
-      <c r="B26" s="207"/>
+      <c r="A26" s="197"/>
+      <c r="B26" s="192"/>
       <c r="C26" s="8" t="s">
         <v>16</v>
       </c>
@@ -3370,9 +3415,11 @@
       <c r="J26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K26" s="1"/>
+      <c r="K26" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L26" s="1"/>
-      <c r="M26" s="216"/>
+      <c r="M26" s="201"/>
     </row>
     <row r="27" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="14"/>
@@ -3431,10 +3478,10 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="195" t="s">
+      <c r="A29" s="219" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="205" t="s">
+      <c r="B29" s="190" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -3457,15 +3504,17 @@
       <c r="J29" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K29" s="1"/>
+      <c r="K29" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L29" s="1"/>
-      <c r="M29" s="208" t="s">
+      <c r="M29" s="199" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="196"/>
-      <c r="B30" s="206"/>
+      <c r="A30" s="220"/>
+      <c r="B30" s="191"/>
       <c r="C30" s="7" t="s">
         <v>5</v>
       </c>
@@ -3486,13 +3535,15 @@
       <c r="J30" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K30" s="1"/>
+      <c r="K30" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L30" s="1"/>
-      <c r="M30" s="209"/>
+      <c r="M30" s="200"/>
     </row>
     <row r="31" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="196"/>
-      <c r="B31" s="206"/>
+      <c r="A31" s="220"/>
+      <c r="B31" s="191"/>
       <c r="C31" s="8" t="s">
         <v>6</v>
       </c>
@@ -3513,13 +3564,15 @@
       <c r="J31" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K31" s="1"/>
+      <c r="K31" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L31" s="1"/>
-      <c r="M31" s="209"/>
+      <c r="M31" s="200"/>
     </row>
     <row r="32" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="196"/>
-      <c r="B32" s="206"/>
+      <c r="A32" s="220"/>
+      <c r="B32" s="191"/>
       <c r="C32" s="8" t="s">
         <v>39</v>
       </c>
@@ -3540,13 +3593,15 @@
       <c r="J32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K32" s="1"/>
+      <c r="K32" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L32" s="1"/>
-      <c r="M32" s="209"/>
+      <c r="M32" s="200"/>
     </row>
     <row r="33" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="196"/>
-      <c r="B33" s="206"/>
+      <c r="A33" s="220"/>
+      <c r="B33" s="191"/>
       <c r="C33" s="8" t="s">
         <v>7</v>
       </c>
@@ -3567,13 +3622,15 @@
       <c r="J33" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K33" s="1"/>
+      <c r="K33" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L33" s="1"/>
-      <c r="M33" s="209"/>
+      <c r="M33" s="200"/>
     </row>
     <row r="34" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="196"/>
-      <c r="B34" s="206"/>
+      <c r="A34" s="220"/>
+      <c r="B34" s="191"/>
       <c r="C34" s="8" t="s">
         <v>40</v>
       </c>
@@ -3594,13 +3651,15 @@
       <c r="J34" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K34" s="1"/>
+      <c r="K34" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L34" s="1"/>
-      <c r="M34" s="209"/>
+      <c r="M34" s="200"/>
     </row>
     <row r="35" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="196"/>
-      <c r="B35" s="206"/>
+      <c r="A35" s="220"/>
+      <c r="B35" s="191"/>
       <c r="C35" s="8" t="s">
         <v>8</v>
       </c>
@@ -3621,13 +3680,15 @@
       <c r="J35" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K35" s="1"/>
+      <c r="K35" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L35" s="1"/>
-      <c r="M35" s="209"/>
+      <c r="M35" s="200"/>
     </row>
     <row r="36" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="196"/>
-      <c r="B36" s="206"/>
+      <c r="A36" s="220"/>
+      <c r="B36" s="191"/>
       <c r="C36" s="8" t="s">
         <v>9</v>
       </c>
@@ -3648,17 +3709,19 @@
       <c r="J36" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K36" s="1"/>
+      <c r="K36" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L36" s="1"/>
-      <c r="M36" s="209"/>
+      <c r="M36" s="200"/>
     </row>
     <row r="37" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="196"/>
-      <c r="B37" s="206"/>
+      <c r="A37" s="220"/>
+      <c r="B37" s="191"/>
       <c r="C37" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="189">
+      <c r="D37" s="186">
         <v>25</v>
       </c>
       <c r="E37" s="13"/>
@@ -3675,13 +3738,15 @@
       <c r="J37" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K37" s="1"/>
+      <c r="K37" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L37" s="1"/>
-      <c r="M37" s="209"/>
+      <c r="M37" s="200"/>
     </row>
     <row r="38" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="196"/>
-      <c r="B38" s="206"/>
+      <c r="A38" s="220"/>
+      <c r="B38" s="191"/>
       <c r="C38" s="8" t="s">
         <v>11</v>
       </c>
@@ -3702,13 +3767,15 @@
       <c r="J38" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K38" s="1"/>
+      <c r="K38" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L38" s="1"/>
-      <c r="M38" s="209"/>
+      <c r="M38" s="200"/>
     </row>
     <row r="39" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="196"/>
-      <c r="B39" s="206"/>
+      <c r="A39" s="220"/>
+      <c r="B39" s="191"/>
       <c r="C39" s="8" t="s">
         <v>12</v>
       </c>
@@ -3729,13 +3796,15 @@
       <c r="J39" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K39" s="1"/>
+      <c r="K39" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L39" s="1"/>
-      <c r="M39" s="209"/>
+      <c r="M39" s="200"/>
     </row>
     <row r="40" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="196"/>
-      <c r="B40" s="206"/>
+      <c r="A40" s="220"/>
+      <c r="B40" s="191"/>
       <c r="C40" s="8" t="s">
         <v>13</v>
       </c>
@@ -3756,13 +3825,15 @@
       <c r="J40" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K40" s="1"/>
+      <c r="K40" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L40" s="1"/>
-      <c r="M40" s="209"/>
+      <c r="M40" s="200"/>
     </row>
     <row r="41" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="196"/>
-      <c r="B41" s="206"/>
+      <c r="A41" s="220"/>
+      <c r="B41" s="191"/>
       <c r="C41" s="8" t="s">
         <v>41</v>
       </c>
@@ -3783,13 +3854,15 @@
       <c r="J41" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K41" s="1"/>
+      <c r="K41" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L41" s="1"/>
-      <c r="M41" s="209"/>
+      <c r="M41" s="200"/>
     </row>
     <row r="42" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="196"/>
-      <c r="B42" s="206"/>
+      <c r="A42" s="220"/>
+      <c r="B42" s="191"/>
       <c r="C42" s="8" t="s">
         <v>42</v>
       </c>
@@ -3810,20 +3883,22 @@
       <c r="J42" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K42" s="1"/>
+      <c r="K42" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L42" s="1"/>
-      <c r="M42" s="209"/>
+      <c r="M42" s="200"/>
     </row>
     <row r="43" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="196"/>
-      <c r="B43" s="206"/>
-      <c r="C43" s="217" t="s">
+      <c r="A43" s="220"/>
+      <c r="B43" s="191"/>
+      <c r="C43" s="193" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="9">
         <v>32</v>
       </c>
-      <c r="E43" s="220" t="s">
+      <c r="E43" s="205" t="s">
         <v>15</v>
       </c>
       <c r="F43" s="13"/>
@@ -3839,18 +3914,20 @@
       <c r="J43" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K43" s="1"/>
+      <c r="K43" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L43" s="1"/>
-      <c r="M43" s="209"/>
+      <c r="M43" s="200"/>
     </row>
     <row r="44" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="196"/>
-      <c r="B44" s="206"/>
-      <c r="C44" s="218"/>
+      <c r="A44" s="220"/>
+      <c r="B44" s="191"/>
+      <c r="C44" s="194"/>
       <c r="D44" s="10">
         <v>32</v>
       </c>
-      <c r="E44" s="221"/>
+      <c r="E44" s="206"/>
       <c r="F44" s="12"/>
       <c r="G44" s="1" t="s">
         <v>49</v>
@@ -3864,18 +3941,20 @@
       <c r="J44" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K44" s="1"/>
+      <c r="K44" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L44" s="1"/>
-      <c r="M44" s="209"/>
+      <c r="M44" s="200"/>
     </row>
     <row r="45" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="196"/>
-      <c r="B45" s="206"/>
-      <c r="C45" s="218"/>
+      <c r="A45" s="220"/>
+      <c r="B45" s="191"/>
+      <c r="C45" s="194"/>
       <c r="D45" s="10">
         <v>32</v>
       </c>
-      <c r="E45" s="220" t="s">
+      <c r="E45" s="205" t="s">
         <v>17</v>
       </c>
       <c r="F45" s="11"/>
@@ -3891,18 +3970,20 @@
       <c r="J45" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K45" s="1"/>
+      <c r="K45" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L45" s="1"/>
-      <c r="M45" s="209"/>
+      <c r="M45" s="200"/>
     </row>
     <row r="46" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="196"/>
-      <c r="B46" s="206"/>
-      <c r="C46" s="219"/>
+      <c r="A46" s="220"/>
+      <c r="B46" s="191"/>
+      <c r="C46" s="198"/>
       <c r="D46" s="10">
         <v>32</v>
       </c>
-      <c r="E46" s="221"/>
+      <c r="E46" s="206"/>
       <c r="F46" s="12"/>
       <c r="G46" s="1" t="s">
         <v>49</v>
@@ -3916,14 +3997,16 @@
       <c r="J46" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K46" s="1"/>
+      <c r="K46" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L46" s="1"/>
-      <c r="M46" s="209"/>
+      <c r="M46" s="200"/>
     </row>
     <row r="47" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="196"/>
-      <c r="B47" s="206"/>
-      <c r="C47" s="217" t="s">
+      <c r="A47" s="220"/>
+      <c r="B47" s="191"/>
+      <c r="C47" s="193" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="9">
@@ -3945,14 +4028,16 @@
       <c r="J47" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K47" s="1"/>
+      <c r="K47" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L47" s="1"/>
-      <c r="M47" s="209"/>
+      <c r="M47" s="200"/>
     </row>
     <row r="48" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="196"/>
-      <c r="B48" s="206"/>
-      <c r="C48" s="218"/>
+      <c r="A48" s="220"/>
+      <c r="B48" s="191"/>
+      <c r="C48" s="194"/>
       <c r="D48" s="10">
         <v>30</v>
       </c>
@@ -3972,14 +4057,16 @@
       <c r="J48" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K48" s="1"/>
+      <c r="K48" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L48" s="1"/>
-      <c r="M48" s="209"/>
+      <c r="M48" s="200"/>
     </row>
     <row r="49" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="196"/>
-      <c r="B49" s="206"/>
-      <c r="C49" s="217" t="s">
+      <c r="A49" s="220"/>
+      <c r="B49" s="191"/>
+      <c r="C49" s="193" t="s">
         <v>19</v>
       </c>
       <c r="D49" s="9">
@@ -4001,14 +4088,16 @@
       <c r="J49" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K49" s="1"/>
+      <c r="K49" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L49" s="1"/>
-      <c r="M49" s="209"/>
+      <c r="M49" s="200"/>
     </row>
     <row r="50" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="196"/>
-      <c r="B50" s="206"/>
-      <c r="C50" s="218"/>
+      <c r="A50" s="220"/>
+      <c r="B50" s="191"/>
+      <c r="C50" s="194"/>
       <c r="D50" s="10">
         <v>35</v>
       </c>
@@ -4028,13 +4117,15 @@
       <c r="J50" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K50" s="1"/>
+      <c r="K50" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L50" s="1"/>
-      <c r="M50" s="209"/>
+      <c r="M50" s="200"/>
     </row>
     <row r="51" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="196"/>
-      <c r="B51" s="206"/>
+      <c r="A51" s="220"/>
+      <c r="B51" s="191"/>
       <c r="C51" s="8" t="s">
         <v>16</v>
       </c>
@@ -4055,13 +4146,15 @@
       <c r="J51" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K51" s="1"/>
+      <c r="K51" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L51" s="1"/>
-      <c r="M51" s="209"/>
+      <c r="M51" s="200"/>
     </row>
     <row r="52" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="196"/>
-      <c r="B52" s="206"/>
+      <c r="A52" s="220"/>
+      <c r="B52" s="191"/>
       <c r="C52" s="8" t="s">
         <v>45</v>
       </c>
@@ -4082,13 +4175,15 @@
       <c r="J52" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K52" s="1"/>
+      <c r="K52" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L52" s="1"/>
-      <c r="M52" s="209"/>
+      <c r="M52" s="200"/>
     </row>
     <row r="53" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="196"/>
-      <c r="B53" s="207"/>
+      <c r="A53" s="220"/>
+      <c r="B53" s="192"/>
       <c r="C53" s="8" t="s">
         <v>46</v>
       </c>
@@ -4109,9 +4204,11 @@
       <c r="J53" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="K53" s="1"/>
+      <c r="K53" s="1" t="s">
+        <v>49</v>
+      </c>
       <c r="L53" s="1"/>
-      <c r="M53" s="216"/>
+      <c r="M53" s="201"/>
     </row>
     <row r="54" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="14"/>
@@ -4132,2325 +4229,2454 @@
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="119" t="s">
+      <c r="B55" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="120" t="s">
+      <c r="C55" s="119" t="s">
         <v>2</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E55" s="121" t="s">
+      <c r="E55" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="F55" s="122" t="s">
+      <c r="F55" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="G55" s="123" t="s">
+      <c r="G55" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="H55" s="123" t="s">
+      <c r="H55" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="I55" s="123" t="s">
+      <c r="I55" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="J55" s="123" t="s">
+      <c r="J55" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="K55" s="123" t="s">
+      <c r="K55" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="L55" s="123" t="s">
+      <c r="L55" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="M55" s="117" t="s">
+      <c r="M55" s="116" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="169" t="s">
+      <c r="A56" s="219" t="s">
         <v>21</v>
       </c>
-      <c r="B56" s="205" t="s">
+      <c r="B56" s="190" t="s">
         <v>161</v>
       </c>
-      <c r="C56" s="124" t="s">
+      <c r="C56" s="123" t="s">
         <v>162</v>
       </c>
-      <c r="D56" s="125">
+      <c r="D56" s="124">
         <v>36</v>
       </c>
-      <c r="E56" s="126"/>
-      <c r="F56" s="126"/>
-      <c r="G56" s="127" t="s">
-        <v>49</v>
-      </c>
-      <c r="H56" s="256" t="s">
-        <v>49</v>
-      </c>
-      <c r="I56" s="256" t="s">
-        <v>49</v>
-      </c>
-      <c r="J56" s="256" t="s">
-        <v>49</v>
-      </c>
-      <c r="K56" s="127"/>
-      <c r="L56" s="127"/>
-      <c r="M56" s="208" t="s">
+      <c r="E56" s="125"/>
+      <c r="F56" s="125"/>
+      <c r="G56" s="126" t="s">
+        <v>49</v>
+      </c>
+      <c r="H56" s="189" t="s">
+        <v>49</v>
+      </c>
+      <c r="I56" s="189" t="s">
+        <v>49</v>
+      </c>
+      <c r="J56" s="189" t="s">
+        <v>49</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L56" s="126"/>
+      <c r="M56" s="199" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="170"/>
-      <c r="B57" s="206"/>
-      <c r="C57" s="124" t="s">
+      <c r="A57" s="220"/>
+      <c r="B57" s="191"/>
+      <c r="C57" s="123" t="s">
         <v>163</v>
       </c>
-      <c r="D57" s="125">
+      <c r="D57" s="124">
         <v>37</v>
       </c>
-      <c r="E57" s="126"/>
-      <c r="F57" s="126"/>
-      <c r="G57" s="127" t="s">
-        <v>49</v>
-      </c>
-      <c r="H57" s="256" t="s">
-        <v>49</v>
-      </c>
-      <c r="I57" s="256" t="s">
-        <v>49</v>
-      </c>
-      <c r="J57" s="256" t="s">
-        <v>49</v>
-      </c>
-      <c r="K57" s="127"/>
-      <c r="L57" s="127"/>
-      <c r="M57" s="209"/>
-    </row>
-    <row r="58" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="170"/>
-      <c r="B58" s="206"/>
-      <c r="C58" s="124" t="s">
+      <c r="E57" s="125"/>
+      <c r="F57" s="125"/>
+      <c r="G57" s="126" t="s">
+        <v>49</v>
+      </c>
+      <c r="H57" s="189" t="s">
+        <v>49</v>
+      </c>
+      <c r="I57" s="189" t="s">
+        <v>49</v>
+      </c>
+      <c r="J57" s="189" t="s">
+        <v>49</v>
+      </c>
+      <c r="K57" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L57" s="126"/>
+      <c r="M57" s="200"/>
+    </row>
+    <row r="58" spans="1:13" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A58" s="220"/>
+      <c r="B58" s="191"/>
+      <c r="C58" s="255" t="s">
+        <v>303</v>
+      </c>
+      <c r="D58" s="188"/>
+      <c r="E58" s="125"/>
+      <c r="F58" s="125"/>
+      <c r="G58" s="126"/>
+      <c r="H58" s="189"/>
+      <c r="I58" s="189"/>
+      <c r="J58" s="189"/>
+      <c r="K58" s="126"/>
+      <c r="L58" s="126"/>
+      <c r="M58" s="200"/>
+    </row>
+    <row r="59" spans="1:13" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A59" s="220"/>
+      <c r="B59" s="191"/>
+      <c r="C59" s="255" t="s">
+        <v>304</v>
+      </c>
+      <c r="D59" s="188"/>
+      <c r="E59" s="125"/>
+      <c r="F59" s="125"/>
+      <c r="G59" s="126"/>
+      <c r="H59" s="189"/>
+      <c r="I59" s="189"/>
+      <c r="J59" s="189"/>
+      <c r="K59" s="126"/>
+      <c r="L59" s="126"/>
+      <c r="M59" s="200"/>
+    </row>
+    <row r="60" spans="1:13" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A60" s="220"/>
+      <c r="B60" s="191"/>
+      <c r="C60" s="255" t="s">
+        <v>305</v>
+      </c>
+      <c r="D60" s="188"/>
+      <c r="E60" s="125"/>
+      <c r="F60" s="125"/>
+      <c r="G60" s="126"/>
+      <c r="H60" s="189"/>
+      <c r="I60" s="189"/>
+      <c r="J60" s="189"/>
+      <c r="K60" s="126"/>
+      <c r="L60" s="126"/>
+      <c r="M60" s="200"/>
+    </row>
+    <row r="61" spans="1:13" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A61" s="220"/>
+      <c r="B61" s="191"/>
+      <c r="C61" s="255" t="s">
+        <v>306</v>
+      </c>
+      <c r="D61" s="188"/>
+      <c r="E61" s="125"/>
+      <c r="F61" s="125"/>
+      <c r="G61" s="126"/>
+      <c r="H61" s="189"/>
+      <c r="I61" s="189"/>
+      <c r="J61" s="189"/>
+      <c r="K61" s="126"/>
+      <c r="L61" s="126"/>
+      <c r="M61" s="200"/>
+    </row>
+    <row r="62" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A62" s="220"/>
+      <c r="B62" s="191"/>
+      <c r="C62" s="123" t="s">
         <v>164</v>
       </c>
-      <c r="D58" s="125">
+      <c r="D62" s="124">
         <v>38</v>
       </c>
-      <c r="E58" s="126"/>
-      <c r="F58" s="126"/>
-      <c r="G58" s="127" t="s">
-        <v>49</v>
-      </c>
-      <c r="H58" s="256" t="s">
-        <v>49</v>
-      </c>
-      <c r="I58" s="256" t="s">
-        <v>49</v>
-      </c>
-      <c r="J58" s="256" t="s">
-        <v>49</v>
-      </c>
-      <c r="K58" s="127"/>
-      <c r="L58" s="127"/>
-      <c r="M58" s="209"/>
-    </row>
-    <row r="59" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="170"/>
-      <c r="B59" s="206"/>
-      <c r="C59" s="124" t="s">
+      <c r="E62" s="125"/>
+      <c r="F62" s="125"/>
+      <c r="G62" s="126" t="s">
+        <v>49</v>
+      </c>
+      <c r="H62" s="189" t="s">
+        <v>49</v>
+      </c>
+      <c r="I62" s="189" t="s">
+        <v>49</v>
+      </c>
+      <c r="J62" s="189" t="s">
+        <v>49</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L62" s="126"/>
+      <c r="M62" s="200"/>
+    </row>
+    <row r="63" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="220"/>
+      <c r="B63" s="191"/>
+      <c r="C63" s="123" t="s">
         <v>165</v>
       </c>
-      <c r="D59" s="125">
+      <c r="D63" s="124">
         <v>38</v>
       </c>
-      <c r="E59" s="126"/>
-      <c r="F59" s="126"/>
-      <c r="G59" s="127" t="s">
-        <v>49</v>
-      </c>
-      <c r="H59" s="256" t="s">
-        <v>49</v>
-      </c>
-      <c r="I59" s="256" t="s">
-        <v>49</v>
-      </c>
-      <c r="J59" s="256" t="s">
-        <v>49</v>
-      </c>
-      <c r="K59" s="127"/>
-      <c r="L59" s="127"/>
-      <c r="M59" s="209"/>
-    </row>
-    <row r="60" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="170"/>
-      <c r="B60" s="207"/>
-      <c r="C60" s="124" t="s">
+      <c r="E63" s="125"/>
+      <c r="F63" s="125"/>
+      <c r="G63" s="126" t="s">
+        <v>49</v>
+      </c>
+      <c r="H63" s="189" t="s">
+        <v>49</v>
+      </c>
+      <c r="I63" s="189" t="s">
+        <v>49</v>
+      </c>
+      <c r="J63" s="189" t="s">
+        <v>49</v>
+      </c>
+      <c r="K63" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L63" s="126"/>
+      <c r="M63" s="200"/>
+    </row>
+    <row r="64" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A64" s="220"/>
+      <c r="B64" s="192"/>
+      <c r="C64" s="123" t="s">
         <v>166</v>
       </c>
-      <c r="D60" s="125">
+      <c r="D64" s="124">
         <v>38</v>
       </c>
-      <c r="E60" s="126"/>
-      <c r="F60" s="126"/>
-      <c r="G60" s="127" t="s">
-        <v>49</v>
-      </c>
-      <c r="H60" s="256" t="s">
-        <v>49</v>
-      </c>
-      <c r="I60" s="256" t="s">
-        <v>49</v>
-      </c>
-      <c r="J60" s="256" t="s">
-        <v>49</v>
-      </c>
-      <c r="K60" s="127"/>
-      <c r="L60" s="127"/>
-      <c r="M60" s="209"/>
-    </row>
-    <row r="61" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="15"/>
-      <c r="B61" s="15"/>
-      <c r="C61" s="16"/>
-      <c r="D61" s="16"/>
-      <c r="E61" s="16"/>
-      <c r="F61" s="17"/>
-      <c r="G61" s="18"/>
-      <c r="H61" s="18"/>
-      <c r="I61" s="18"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="18"/>
-      <c r="L61" s="18"/>
-      <c r="M61" s="63"/>
-    </row>
-    <row r="62" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
+      <c r="E64" s="125"/>
+      <c r="F64" s="125"/>
+      <c r="G64" s="126" t="s">
+        <v>49</v>
+      </c>
+      <c r="H64" s="189" t="s">
+        <v>49</v>
+      </c>
+      <c r="I64" s="189" t="s">
+        <v>49</v>
+      </c>
+      <c r="J64" s="189" t="s">
+        <v>49</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="L64" s="126"/>
+      <c r="M64" s="200"/>
+    </row>
+    <row r="65" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A65" s="15"/>
+      <c r="B65" s="15"/>
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
+      <c r="E65" s="16"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="18"/>
+      <c r="H65" s="18"/>
+      <c r="I65" s="18"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="18"/>
+      <c r="L65" s="18"/>
+      <c r="M65" s="63"/>
+    </row>
+    <row r="66" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B62" s="119" t="s">
+      <c r="B66" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="C62" s="120" t="s">
+      <c r="C66" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="D62" s="6" t="s">
+      <c r="D66" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E62" s="121" t="s">
+      <c r="E66" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="F62" s="122" t="s">
+      <c r="F66" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="G62" s="123" t="s">
+      <c r="G66" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="H62" s="123" t="s">
+      <c r="H66" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="I62" s="123" t="s">
+      <c r="I66" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="J62" s="123" t="s">
+      <c r="J66" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="K62" s="123" t="s">
+      <c r="K66" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="L62" s="123" t="s">
+      <c r="L66" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="M62" s="117" t="s">
+      <c r="M66" s="116" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="63" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="195" t="s">
+    <row r="67" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A67" s="219" t="s">
         <v>21</v>
       </c>
-      <c r="B63" s="205" t="s">
+      <c r="B67" s="190" t="s">
         <v>167</v>
       </c>
-      <c r="C63" s="200" t="s">
+      <c r="C67" s="210" t="s">
         <v>168</v>
       </c>
-      <c r="D63" s="211">
+      <c r="D67" s="216">
         <v>28</v>
       </c>
-      <c r="E63" s="128" t="s">
+      <c r="E67" s="127" t="s">
         <v>169</v>
       </c>
-      <c r="F63" s="129" t="s">
+      <c r="F67" s="128" t="s">
         <v>172</v>
       </c>
-      <c r="G63" s="197" t="s">
-        <v>49</v>
-      </c>
-      <c r="H63" s="197" t="s">
-        <v>49</v>
-      </c>
-      <c r="I63" s="197" t="s">
-        <v>49</v>
-      </c>
-      <c r="J63" s="197" t="s">
-        <v>49</v>
-      </c>
-      <c r="K63" s="197"/>
-      <c r="L63" s="197"/>
-      <c r="M63" s="208" t="s">
+      <c r="G67" s="195" t="s">
+        <v>49</v>
+      </c>
+      <c r="H67" s="195" t="s">
+        <v>49</v>
+      </c>
+      <c r="I67" s="195" t="s">
+        <v>49</v>
+      </c>
+      <c r="J67" s="195" t="s">
+        <v>49</v>
+      </c>
+      <c r="K67" s="195"/>
+      <c r="L67" s="195"/>
+      <c r="M67" s="199" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="64" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="196"/>
-      <c r="B64" s="206"/>
-      <c r="C64" s="201"/>
-      <c r="D64" s="212"/>
-      <c r="E64" s="128" t="s">
+    <row r="68" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A68" s="220"/>
+      <c r="B68" s="191"/>
+      <c r="C68" s="211"/>
+      <c r="D68" s="217"/>
+      <c r="E68" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="F64" s="214" t="s">
+      <c r="F68" s="208" t="s">
         <v>200</v>
       </c>
-      <c r="G64" s="198"/>
-      <c r="H64" s="198"/>
-      <c r="I64" s="198"/>
-      <c r="J64" s="198"/>
-      <c r="K64" s="198"/>
-      <c r="L64" s="198"/>
-      <c r="M64" s="209"/>
-    </row>
-    <row r="65" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A65" s="196"/>
-      <c r="B65" s="206"/>
-      <c r="C65" s="202"/>
-      <c r="D65" s="212"/>
-      <c r="E65" s="128" t="s">
+      <c r="G68" s="196"/>
+      <c r="H68" s="196"/>
+      <c r="I68" s="196"/>
+      <c r="J68" s="196"/>
+      <c r="K68" s="196"/>
+      <c r="L68" s="196"/>
+      <c r="M68" s="200"/>
+    </row>
+    <row r="69" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A69" s="220"/>
+      <c r="B69" s="191"/>
+      <c r="C69" s="212"/>
+      <c r="D69" s="217"/>
+      <c r="E69" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="F65" s="215"/>
-      <c r="G65" s="198"/>
-      <c r="H65" s="198"/>
-      <c r="I65" s="198"/>
-      <c r="J65" s="198"/>
-      <c r="K65" s="198"/>
-      <c r="L65" s="198"/>
-      <c r="M65" s="209"/>
-    </row>
-    <row r="66" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A66" s="196"/>
-      <c r="B66" s="206"/>
-      <c r="C66" s="200" t="s">
+      <c r="F69" s="209"/>
+      <c r="G69" s="196"/>
+      <c r="H69" s="196"/>
+      <c r="I69" s="196"/>
+      <c r="J69" s="196"/>
+      <c r="K69" s="196"/>
+      <c r="L69" s="196"/>
+      <c r="M69" s="200"/>
+    </row>
+    <row r="70" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A70" s="220"/>
+      <c r="B70" s="191"/>
+      <c r="C70" s="210" t="s">
         <v>173</v>
       </c>
-      <c r="D66" s="212"/>
-      <c r="E66" s="128" t="s">
+      <c r="D70" s="217"/>
+      <c r="E70" s="127" t="s">
         <v>169</v>
       </c>
-      <c r="F66" s="130" t="s">
+      <c r="F70" s="129" t="s">
         <v>201</v>
       </c>
-      <c r="G66" s="198"/>
-      <c r="H66" s="198"/>
-      <c r="I66" s="198"/>
-      <c r="J66" s="198"/>
-      <c r="K66" s="198"/>
-      <c r="L66" s="198"/>
-      <c r="M66" s="209"/>
-    </row>
-    <row r="67" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="196"/>
-      <c r="B67" s="206"/>
-      <c r="C67" s="201"/>
-      <c r="D67" s="212"/>
-      <c r="E67" s="128" t="s">
+      <c r="G70" s="196"/>
+      <c r="H70" s="196"/>
+      <c r="I70" s="196"/>
+      <c r="J70" s="196"/>
+      <c r="K70" s="196"/>
+      <c r="L70" s="196"/>
+      <c r="M70" s="200"/>
+    </row>
+    <row r="71" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A71" s="220"/>
+      <c r="B71" s="191"/>
+      <c r="C71" s="211"/>
+      <c r="D71" s="217"/>
+      <c r="E71" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="F67" s="130" t="s">
+      <c r="F71" s="129" t="s">
         <v>202</v>
       </c>
-      <c r="G67" s="198"/>
-      <c r="H67" s="198"/>
-      <c r="I67" s="198"/>
-      <c r="J67" s="198"/>
-      <c r="K67" s="198"/>
-      <c r="L67" s="198"/>
-      <c r="M67" s="209"/>
-    </row>
-    <row r="68" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="196"/>
-      <c r="B68" s="206"/>
-      <c r="C68" s="201"/>
-      <c r="D68" s="212"/>
-      <c r="E68" s="203" t="s">
+      <c r="G71" s="196"/>
+      <c r="H71" s="196"/>
+      <c r="I71" s="196"/>
+      <c r="J71" s="196"/>
+      <c r="K71" s="196"/>
+      <c r="L71" s="196"/>
+      <c r="M71" s="200"/>
+    </row>
+    <row r="72" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A72" s="220"/>
+      <c r="B72" s="191"/>
+      <c r="C72" s="211"/>
+      <c r="D72" s="217"/>
+      <c r="E72" s="213" t="s">
         <v>171</v>
       </c>
-      <c r="F68" s="130" t="s">
+      <c r="F72" s="129" t="s">
         <v>203</v>
       </c>
-      <c r="G68" s="198"/>
-      <c r="H68" s="198"/>
-      <c r="I68" s="198"/>
-      <c r="J68" s="198"/>
-      <c r="K68" s="198"/>
-      <c r="L68" s="198"/>
-      <c r="M68" s="209"/>
-    </row>
-    <row r="69" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="196"/>
-      <c r="B69" s="206"/>
-      <c r="C69" s="202"/>
-      <c r="D69" s="212"/>
-      <c r="E69" s="204"/>
-      <c r="F69" s="130" t="s">
+      <c r="G72" s="196"/>
+      <c r="H72" s="196"/>
+      <c r="I72" s="196"/>
+      <c r="J72" s="196"/>
+      <c r="K72" s="196"/>
+      <c r="L72" s="196"/>
+      <c r="M72" s="200"/>
+    </row>
+    <row r="73" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="220"/>
+      <c r="B73" s="191"/>
+      <c r="C73" s="212"/>
+      <c r="D73" s="217"/>
+      <c r="E73" s="214"/>
+      <c r="F73" s="129" t="s">
         <v>204</v>
       </c>
-      <c r="G69" s="198"/>
-      <c r="H69" s="198"/>
-      <c r="I69" s="198"/>
-      <c r="J69" s="198"/>
-      <c r="K69" s="198"/>
-      <c r="L69" s="198"/>
-      <c r="M69" s="209"/>
-    </row>
-    <row r="70" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="196"/>
-      <c r="B70" s="206"/>
-      <c r="C70" s="200" t="s">
+      <c r="G73" s="196"/>
+      <c r="H73" s="196"/>
+      <c r="I73" s="196"/>
+      <c r="J73" s="196"/>
+      <c r="K73" s="196"/>
+      <c r="L73" s="196"/>
+      <c r="M73" s="200"/>
+    </row>
+    <row r="74" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A74" s="220"/>
+      <c r="B74" s="191"/>
+      <c r="C74" s="210" t="s">
         <v>174</v>
       </c>
-      <c r="D70" s="212"/>
-      <c r="E70" s="128" t="s">
+      <c r="D74" s="217"/>
+      <c r="E74" s="127" t="s">
         <v>169</v>
       </c>
-      <c r="F70" s="130" t="s">
+      <c r="F74" s="129" t="s">
         <v>202</v>
       </c>
-      <c r="G70" s="198"/>
-      <c r="H70" s="198"/>
-      <c r="I70" s="198"/>
-      <c r="J70" s="198"/>
-      <c r="K70" s="198"/>
-      <c r="L70" s="198"/>
-      <c r="M70" s="209"/>
-    </row>
-    <row r="71" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="196"/>
-      <c r="B71" s="206"/>
-      <c r="C71" s="201"/>
-      <c r="D71" s="212"/>
-      <c r="E71" s="128" t="s">
+      <c r="G74" s="196"/>
+      <c r="H74" s="196"/>
+      <c r="I74" s="196"/>
+      <c r="J74" s="196"/>
+      <c r="K74" s="196"/>
+      <c r="L74" s="196"/>
+      <c r="M74" s="200"/>
+    </row>
+    <row r="75" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A75" s="220"/>
+      <c r="B75" s="191"/>
+      <c r="C75" s="211"/>
+      <c r="D75" s="217"/>
+      <c r="E75" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="F71" s="130" t="s">
+      <c r="F75" s="129" t="s">
         <v>203</v>
       </c>
-      <c r="G71" s="198"/>
-      <c r="H71" s="198"/>
-      <c r="I71" s="198"/>
-      <c r="J71" s="198"/>
-      <c r="K71" s="198"/>
-      <c r="L71" s="198"/>
-      <c r="M71" s="209"/>
-    </row>
-    <row r="72" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="196"/>
-      <c r="B72" s="206"/>
-      <c r="C72" s="202"/>
-      <c r="D72" s="212"/>
-      <c r="E72" s="128" t="s">
+      <c r="G75" s="196"/>
+      <c r="H75" s="196"/>
+      <c r="I75" s="196"/>
+      <c r="J75" s="196"/>
+      <c r="K75" s="196"/>
+      <c r="L75" s="196"/>
+      <c r="M75" s="200"/>
+    </row>
+    <row r="76" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A76" s="220"/>
+      <c r="B76" s="191"/>
+      <c r="C76" s="212"/>
+      <c r="D76" s="217"/>
+      <c r="E76" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="F72" s="130" t="s">
+      <c r="F76" s="129" t="s">
         <v>205</v>
       </c>
-      <c r="G72" s="198"/>
-      <c r="H72" s="198"/>
-      <c r="I72" s="198"/>
-      <c r="J72" s="198"/>
-      <c r="K72" s="198"/>
-      <c r="L72" s="198"/>
-      <c r="M72" s="209"/>
-    </row>
-    <row r="73" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="196"/>
-      <c r="B73" s="206"/>
-      <c r="C73" s="200" t="s">
+      <c r="G76" s="196"/>
+      <c r="H76" s="196"/>
+      <c r="I76" s="196"/>
+      <c r="J76" s="196"/>
+      <c r="K76" s="196"/>
+      <c r="L76" s="196"/>
+      <c r="M76" s="200"/>
+    </row>
+    <row r="77" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A77" s="220"/>
+      <c r="B77" s="191"/>
+      <c r="C77" s="210" t="s">
         <v>175</v>
       </c>
-      <c r="D73" s="212"/>
-      <c r="E73" s="128" t="s">
+      <c r="D77" s="217"/>
+      <c r="E77" s="127" t="s">
         <v>169</v>
       </c>
-      <c r="F73" s="130" t="s">
+      <c r="F77" s="129" t="s">
         <v>206</v>
       </c>
-      <c r="G73" s="198"/>
-      <c r="H73" s="198"/>
-      <c r="I73" s="198"/>
-      <c r="J73" s="198"/>
-      <c r="K73" s="198"/>
-      <c r="L73" s="198"/>
-      <c r="M73" s="209"/>
-    </row>
-    <row r="74" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="196"/>
-      <c r="B74" s="206"/>
-      <c r="C74" s="201"/>
-      <c r="D74" s="212"/>
-      <c r="E74" s="128" t="s">
+      <c r="G77" s="196"/>
+      <c r="H77" s="196"/>
+      <c r="I77" s="196"/>
+      <c r="J77" s="196"/>
+      <c r="K77" s="196"/>
+      <c r="L77" s="196"/>
+      <c r="M77" s="200"/>
+    </row>
+    <row r="78" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A78" s="220"/>
+      <c r="B78" s="191"/>
+      <c r="C78" s="211"/>
+      <c r="D78" s="217"/>
+      <c r="E78" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="F74" s="130" t="s">
+      <c r="F78" s="129" t="s">
         <v>203</v>
       </c>
-      <c r="G74" s="198"/>
-      <c r="H74" s="198"/>
-      <c r="I74" s="198"/>
-      <c r="J74" s="198"/>
-      <c r="K74" s="198"/>
-      <c r="L74" s="198"/>
-      <c r="M74" s="209"/>
-    </row>
-    <row r="75" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="196"/>
-      <c r="B75" s="206"/>
-      <c r="C75" s="202"/>
-      <c r="D75" s="212"/>
-      <c r="E75" s="128" t="s">
+      <c r="G78" s="196"/>
+      <c r="H78" s="196"/>
+      <c r="I78" s="196"/>
+      <c r="J78" s="196"/>
+      <c r="K78" s="196"/>
+      <c r="L78" s="196"/>
+      <c r="M78" s="200"/>
+    </row>
+    <row r="79" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A79" s="220"/>
+      <c r="B79" s="191"/>
+      <c r="C79" s="212"/>
+      <c r="D79" s="217"/>
+      <c r="E79" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="F75" s="130" t="s">
+      <c r="F79" s="129" t="s">
         <v>207</v>
       </c>
-      <c r="G75" s="198"/>
-      <c r="H75" s="198"/>
-      <c r="I75" s="198"/>
-      <c r="J75" s="198"/>
-      <c r="K75" s="198"/>
-      <c r="L75" s="198"/>
-      <c r="M75" s="209"/>
-    </row>
-    <row r="76" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="196"/>
-      <c r="B76" s="206"/>
-      <c r="C76" s="200" t="s">
+      <c r="G79" s="196"/>
+      <c r="H79" s="196"/>
+      <c r="I79" s="196"/>
+      <c r="J79" s="196"/>
+      <c r="K79" s="196"/>
+      <c r="L79" s="196"/>
+      <c r="M79" s="200"/>
+    </row>
+    <row r="80" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A80" s="220"/>
+      <c r="B80" s="191"/>
+      <c r="C80" s="210" t="s">
         <v>176</v>
       </c>
-      <c r="D76" s="212"/>
-      <c r="E76" s="128" t="s">
+      <c r="D80" s="217"/>
+      <c r="E80" s="127" t="s">
         <v>169</v>
       </c>
-      <c r="F76" s="130" t="s">
+      <c r="F80" s="129" t="s">
         <v>208</v>
       </c>
-      <c r="G76" s="198"/>
-      <c r="H76" s="198"/>
-      <c r="I76" s="198"/>
-      <c r="J76" s="198"/>
-      <c r="K76" s="198"/>
-      <c r="L76" s="198"/>
-      <c r="M76" s="209"/>
-    </row>
-    <row r="77" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="196"/>
-      <c r="B77" s="206"/>
-      <c r="C77" s="201"/>
-      <c r="D77" s="212"/>
-      <c r="E77" s="128" t="s">
+      <c r="G80" s="196"/>
+      <c r="H80" s="196"/>
+      <c r="I80" s="196"/>
+      <c r="J80" s="196"/>
+      <c r="K80" s="196"/>
+      <c r="L80" s="196"/>
+      <c r="M80" s="200"/>
+    </row>
+    <row r="81" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A81" s="220"/>
+      <c r="B81" s="191"/>
+      <c r="C81" s="211"/>
+      <c r="D81" s="217"/>
+      <c r="E81" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="F77" s="130" t="s">
+      <c r="F81" s="129" t="s">
         <v>208</v>
       </c>
-      <c r="G77" s="198"/>
-      <c r="H77" s="198"/>
-      <c r="I77" s="198"/>
-      <c r="J77" s="198"/>
-      <c r="K77" s="198"/>
-      <c r="L77" s="198"/>
-      <c r="M77" s="209"/>
-    </row>
-    <row r="78" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="196"/>
-      <c r="B78" s="206"/>
-      <c r="C78" s="202"/>
-      <c r="D78" s="212"/>
-      <c r="E78" s="128" t="s">
+      <c r="G81" s="196"/>
+      <c r="H81" s="196"/>
+      <c r="I81" s="196"/>
+      <c r="J81" s="196"/>
+      <c r="K81" s="196"/>
+      <c r="L81" s="196"/>
+      <c r="M81" s="200"/>
+    </row>
+    <row r="82" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A82" s="220"/>
+      <c r="B82" s="191"/>
+      <c r="C82" s="212"/>
+      <c r="D82" s="217"/>
+      <c r="E82" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="F78" s="130" t="s">
+      <c r="F82" s="129" t="s">
         <v>208</v>
       </c>
-      <c r="G78" s="198"/>
-      <c r="H78" s="198"/>
-      <c r="I78" s="198"/>
-      <c r="J78" s="198"/>
-      <c r="K78" s="198"/>
-      <c r="L78" s="198"/>
-      <c r="M78" s="209"/>
-    </row>
-    <row r="79" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="196"/>
-      <c r="B79" s="206"/>
-      <c r="C79" s="200" t="s">
+      <c r="G82" s="196"/>
+      <c r="H82" s="196"/>
+      <c r="I82" s="196"/>
+      <c r="J82" s="196"/>
+      <c r="K82" s="196"/>
+      <c r="L82" s="196"/>
+      <c r="M82" s="200"/>
+    </row>
+    <row r="83" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A83" s="220"/>
+      <c r="B83" s="191"/>
+      <c r="C83" s="210" t="s">
         <v>177</v>
       </c>
-      <c r="D79" s="212"/>
-      <c r="E79" s="128" t="s">
+      <c r="D83" s="217"/>
+      <c r="E83" s="127" t="s">
         <v>169</v>
       </c>
-      <c r="F79" s="130" t="s">
+      <c r="F83" s="129" t="s">
         <v>204</v>
       </c>
-      <c r="G79" s="198"/>
-      <c r="H79" s="198"/>
-      <c r="I79" s="198"/>
-      <c r="J79" s="198"/>
-      <c r="K79" s="198"/>
-      <c r="L79" s="198"/>
-      <c r="M79" s="209"/>
-    </row>
-    <row r="80" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="196"/>
-      <c r="B80" s="206"/>
-      <c r="C80" s="201"/>
-      <c r="D80" s="212"/>
-      <c r="E80" s="128" t="s">
+      <c r="G83" s="196"/>
+      <c r="H83" s="196"/>
+      <c r="I83" s="196"/>
+      <c r="J83" s="196"/>
+      <c r="K83" s="196"/>
+      <c r="L83" s="196"/>
+      <c r="M83" s="200"/>
+    </row>
+    <row r="84" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A84" s="220"/>
+      <c r="B84" s="191"/>
+      <c r="C84" s="211"/>
+      <c r="D84" s="217"/>
+      <c r="E84" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="F80" s="130" t="s">
+      <c r="F84" s="129" t="s">
         <v>209</v>
       </c>
-      <c r="G80" s="198"/>
-      <c r="H80" s="198"/>
-      <c r="I80" s="198"/>
-      <c r="J80" s="198"/>
-      <c r="K80" s="198"/>
-      <c r="L80" s="198"/>
-      <c r="M80" s="209"/>
-    </row>
-    <row r="81" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="196"/>
-      <c r="B81" s="206"/>
-      <c r="C81" s="202"/>
-      <c r="D81" s="212"/>
-      <c r="E81" s="128" t="s">
+      <c r="G84" s="196"/>
+      <c r="H84" s="196"/>
+      <c r="I84" s="196"/>
+      <c r="J84" s="196"/>
+      <c r="K84" s="196"/>
+      <c r="L84" s="196"/>
+      <c r="M84" s="200"/>
+    </row>
+    <row r="85" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A85" s="220"/>
+      <c r="B85" s="191"/>
+      <c r="C85" s="212"/>
+      <c r="D85" s="217"/>
+      <c r="E85" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="F81" s="130" t="s">
+      <c r="F85" s="129" t="s">
         <v>210</v>
       </c>
-      <c r="G81" s="198"/>
-      <c r="H81" s="198"/>
-      <c r="I81" s="198"/>
-      <c r="J81" s="198"/>
-      <c r="K81" s="198"/>
-      <c r="L81" s="198"/>
-      <c r="M81" s="209"/>
-    </row>
-    <row r="82" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="196"/>
-      <c r="B82" s="206"/>
-      <c r="C82" s="200" t="s">
+      <c r="G85" s="196"/>
+      <c r="H85" s="196"/>
+      <c r="I85" s="196"/>
+      <c r="J85" s="196"/>
+      <c r="K85" s="196"/>
+      <c r="L85" s="196"/>
+      <c r="M85" s="200"/>
+    </row>
+    <row r="86" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A86" s="220"/>
+      <c r="B86" s="191"/>
+      <c r="C86" s="210" t="s">
         <v>178</v>
       </c>
-      <c r="D82" s="212"/>
-      <c r="E82" s="128" t="s">
+      <c r="D86" s="217"/>
+      <c r="E86" s="127" t="s">
         <v>169</v>
       </c>
-      <c r="F82" s="130" t="s">
+      <c r="F86" s="129" t="s">
         <v>203</v>
       </c>
-      <c r="G82" s="198"/>
-      <c r="H82" s="198"/>
-      <c r="I82" s="198"/>
-      <c r="J82" s="198"/>
-      <c r="K82" s="198"/>
-      <c r="L82" s="198"/>
-      <c r="M82" s="209"/>
-    </row>
-    <row r="83" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="196"/>
-      <c r="B83" s="206"/>
-      <c r="C83" s="201"/>
-      <c r="D83" s="212"/>
-      <c r="E83" s="128" t="s">
+      <c r="G86" s="196"/>
+      <c r="H86" s="196"/>
+      <c r="I86" s="196"/>
+      <c r="J86" s="196"/>
+      <c r="K86" s="196"/>
+      <c r="L86" s="196"/>
+      <c r="M86" s="200"/>
+    </row>
+    <row r="87" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="220"/>
+      <c r="B87" s="191"/>
+      <c r="C87" s="211"/>
+      <c r="D87" s="217"/>
+      <c r="E87" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="F83" s="130" t="s">
+      <c r="F87" s="129" t="s">
         <v>202</v>
       </c>
-      <c r="G83" s="198"/>
-      <c r="H83" s="198"/>
-      <c r="I83" s="198"/>
-      <c r="J83" s="198"/>
-      <c r="K83" s="198"/>
-      <c r="L83" s="198"/>
-      <c r="M83" s="209"/>
-    </row>
-    <row r="84" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="196"/>
-      <c r="B84" s="206"/>
-      <c r="C84" s="202"/>
-      <c r="D84" s="212"/>
-      <c r="E84" s="128" t="s">
+      <c r="G87" s="196"/>
+      <c r="H87" s="196"/>
+      <c r="I87" s="196"/>
+      <c r="J87" s="196"/>
+      <c r="K87" s="196"/>
+      <c r="L87" s="196"/>
+      <c r="M87" s="200"/>
+    </row>
+    <row r="88" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A88" s="220"/>
+      <c r="B88" s="191"/>
+      <c r="C88" s="212"/>
+      <c r="D88" s="217"/>
+      <c r="E88" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="F84" s="130" t="s">
+      <c r="F88" s="129" t="s">
         <v>211</v>
       </c>
-      <c r="G84" s="198"/>
-      <c r="H84" s="198"/>
-      <c r="I84" s="198"/>
-      <c r="J84" s="198"/>
-      <c r="K84" s="198"/>
-      <c r="L84" s="198"/>
-      <c r="M84" s="209"/>
-    </row>
-    <row r="85" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="196"/>
-      <c r="B85" s="206"/>
-      <c r="C85" s="200" t="s">
+      <c r="G88" s="196"/>
+      <c r="H88" s="196"/>
+      <c r="I88" s="196"/>
+      <c r="J88" s="196"/>
+      <c r="K88" s="196"/>
+      <c r="L88" s="196"/>
+      <c r="M88" s="200"/>
+    </row>
+    <row r="89" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A89" s="220"/>
+      <c r="B89" s="191"/>
+      <c r="C89" s="210" t="s">
         <v>179</v>
       </c>
-      <c r="D85" s="212"/>
-      <c r="E85" s="203" t="s">
+      <c r="D89" s="217"/>
+      <c r="E89" s="213" t="s">
         <v>169</v>
       </c>
-      <c r="F85" s="130" t="s">
+      <c r="F89" s="129" t="s">
         <v>212</v>
       </c>
-      <c r="G85" s="198"/>
-      <c r="H85" s="198"/>
-      <c r="I85" s="198"/>
-      <c r="J85" s="198"/>
-      <c r="K85" s="198"/>
-      <c r="L85" s="198"/>
-      <c r="M85" s="209"/>
-    </row>
-    <row r="86" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="196"/>
-      <c r="B86" s="206"/>
-      <c r="C86" s="201"/>
-      <c r="D86" s="212"/>
-      <c r="E86" s="204"/>
-      <c r="F86" s="130" t="s">
+      <c r="G89" s="196"/>
+      <c r="H89" s="196"/>
+      <c r="I89" s="196"/>
+      <c r="J89" s="196"/>
+      <c r="K89" s="196"/>
+      <c r="L89" s="196"/>
+      <c r="M89" s="200"/>
+    </row>
+    <row r="90" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A90" s="220"/>
+      <c r="B90" s="191"/>
+      <c r="C90" s="211"/>
+      <c r="D90" s="217"/>
+      <c r="E90" s="214"/>
+      <c r="F90" s="129" t="s">
         <v>213</v>
       </c>
-      <c r="G86" s="198"/>
-      <c r="H86" s="198"/>
-      <c r="I86" s="198"/>
-      <c r="J86" s="198"/>
-      <c r="K86" s="198"/>
-      <c r="L86" s="198"/>
-      <c r="M86" s="209"/>
-    </row>
-    <row r="87" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="196"/>
-      <c r="B87" s="206"/>
-      <c r="C87" s="201"/>
-      <c r="D87" s="212"/>
-      <c r="E87" s="128" t="s">
+      <c r="G90" s="196"/>
+      <c r="H90" s="196"/>
+      <c r="I90" s="196"/>
+      <c r="J90" s="196"/>
+      <c r="K90" s="196"/>
+      <c r="L90" s="196"/>
+      <c r="M90" s="200"/>
+    </row>
+    <row r="91" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A91" s="220"/>
+      <c r="B91" s="191"/>
+      <c r="C91" s="211"/>
+      <c r="D91" s="217"/>
+      <c r="E91" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="F87" s="130" t="s">
+      <c r="F91" s="129" t="s">
         <v>213</v>
       </c>
-      <c r="G87" s="198"/>
-      <c r="H87" s="198"/>
-      <c r="I87" s="198"/>
-      <c r="J87" s="198"/>
-      <c r="K87" s="198"/>
-      <c r="L87" s="198"/>
-      <c r="M87" s="209"/>
-    </row>
-    <row r="88" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="196"/>
-      <c r="B88" s="206"/>
-      <c r="C88" s="202"/>
-      <c r="D88" s="212"/>
-      <c r="E88" s="128" t="s">
+      <c r="G91" s="196"/>
+      <c r="H91" s="196"/>
+      <c r="I91" s="196"/>
+      <c r="J91" s="196"/>
+      <c r="K91" s="196"/>
+      <c r="L91" s="196"/>
+      <c r="M91" s="200"/>
+    </row>
+    <row r="92" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A92" s="220"/>
+      <c r="B92" s="191"/>
+      <c r="C92" s="212"/>
+      <c r="D92" s="217"/>
+      <c r="E92" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="F88" s="130" t="s">
+      <c r="F92" s="129" t="s">
         <v>214</v>
       </c>
-      <c r="G88" s="198"/>
-      <c r="H88" s="198"/>
-      <c r="I88" s="198"/>
-      <c r="J88" s="198"/>
-      <c r="K88" s="198"/>
-      <c r="L88" s="198"/>
-      <c r="M88" s="209"/>
-    </row>
-    <row r="89" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="196"/>
-      <c r="B89" s="206"/>
-      <c r="C89" s="200" t="s">
+      <c r="G92" s="196"/>
+      <c r="H92" s="196"/>
+      <c r="I92" s="196"/>
+      <c r="J92" s="196"/>
+      <c r="K92" s="196"/>
+      <c r="L92" s="196"/>
+      <c r="M92" s="200"/>
+    </row>
+    <row r="93" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A93" s="220"/>
+      <c r="B93" s="191"/>
+      <c r="C93" s="210" t="s">
         <v>180</v>
       </c>
-      <c r="D89" s="212"/>
-      <c r="E89" s="128" t="s">
+      <c r="D93" s="217"/>
+      <c r="E93" s="127" t="s">
         <v>169</v>
       </c>
-      <c r="F89" s="130" t="s">
+      <c r="F93" s="129" t="s">
         <v>202</v>
       </c>
-      <c r="G89" s="198"/>
-      <c r="H89" s="198"/>
-      <c r="I89" s="198"/>
-      <c r="J89" s="198"/>
-      <c r="K89" s="198"/>
-      <c r="L89" s="198"/>
-      <c r="M89" s="209"/>
-    </row>
-    <row r="90" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="196"/>
-      <c r="B90" s="206"/>
-      <c r="C90" s="201"/>
-      <c r="D90" s="212"/>
-      <c r="E90" s="128" t="s">
+      <c r="G93" s="196"/>
+      <c r="H93" s="196"/>
+      <c r="I93" s="196"/>
+      <c r="J93" s="196"/>
+      <c r="K93" s="196"/>
+      <c r="L93" s="196"/>
+      <c r="M93" s="200"/>
+    </row>
+    <row r="94" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A94" s="220"/>
+      <c r="B94" s="191"/>
+      <c r="C94" s="211"/>
+      <c r="D94" s="217"/>
+      <c r="E94" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="F90" s="130" t="s">
+      <c r="F94" s="129" t="s">
         <v>203</v>
       </c>
-      <c r="G90" s="198"/>
-      <c r="H90" s="198"/>
-      <c r="I90" s="198"/>
-      <c r="J90" s="198"/>
-      <c r="K90" s="198"/>
-      <c r="L90" s="198"/>
-      <c r="M90" s="209"/>
-    </row>
-    <row r="91" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="196"/>
-      <c r="B91" s="206"/>
-      <c r="C91" s="201"/>
-      <c r="D91" s="212"/>
-      <c r="E91" s="203" t="s">
+      <c r="G94" s="196"/>
+      <c r="H94" s="196"/>
+      <c r="I94" s="196"/>
+      <c r="J94" s="196"/>
+      <c r="K94" s="196"/>
+      <c r="L94" s="196"/>
+      <c r="M94" s="200"/>
+    </row>
+    <row r="95" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A95" s="220"/>
+      <c r="B95" s="191"/>
+      <c r="C95" s="211"/>
+      <c r="D95" s="217"/>
+      <c r="E95" s="213" t="s">
         <v>171</v>
       </c>
-      <c r="F91" s="130" t="s">
+      <c r="F95" s="129" t="s">
         <v>207</v>
       </c>
-      <c r="G91" s="198"/>
-      <c r="H91" s="198"/>
-      <c r="I91" s="198"/>
-      <c r="J91" s="198"/>
-      <c r="K91" s="198"/>
-      <c r="L91" s="198"/>
-      <c r="M91" s="209"/>
-    </row>
-    <row r="92" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="196"/>
-      <c r="B92" s="206"/>
-      <c r="C92" s="202"/>
-      <c r="D92" s="212"/>
-      <c r="E92" s="204"/>
-      <c r="F92" s="130" t="s">
+      <c r="G95" s="196"/>
+      <c r="H95" s="196"/>
+      <c r="I95" s="196"/>
+      <c r="J95" s="196"/>
+      <c r="K95" s="196"/>
+      <c r="L95" s="196"/>
+      <c r="M95" s="200"/>
+    </row>
+    <row r="96" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A96" s="220"/>
+      <c r="B96" s="191"/>
+      <c r="C96" s="212"/>
+      <c r="D96" s="217"/>
+      <c r="E96" s="214"/>
+      <c r="F96" s="129" t="s">
         <v>208</v>
       </c>
-      <c r="G92" s="198"/>
-      <c r="H92" s="198"/>
-      <c r="I92" s="198"/>
-      <c r="J92" s="198"/>
-      <c r="K92" s="198"/>
-      <c r="L92" s="198"/>
-      <c r="M92" s="209"/>
-    </row>
-    <row r="93" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="196"/>
-      <c r="B93" s="206"/>
-      <c r="C93" s="200" t="s">
+      <c r="G96" s="196"/>
+      <c r="H96" s="196"/>
+      <c r="I96" s="196"/>
+      <c r="J96" s="196"/>
+      <c r="K96" s="196"/>
+      <c r="L96" s="196"/>
+      <c r="M96" s="200"/>
+    </row>
+    <row r="97" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A97" s="220"/>
+      <c r="B97" s="191"/>
+      <c r="C97" s="210" t="s">
         <v>181</v>
       </c>
-      <c r="D93" s="212"/>
-      <c r="E93" s="128" t="s">
+      <c r="D97" s="217"/>
+      <c r="E97" s="127" t="s">
         <v>169</v>
       </c>
-      <c r="F93" s="130" t="s">
+      <c r="F97" s="129" t="s">
         <v>215</v>
       </c>
-      <c r="G93" s="198"/>
-      <c r="H93" s="198"/>
-      <c r="I93" s="198"/>
-      <c r="J93" s="198"/>
-      <c r="K93" s="198"/>
-      <c r="L93" s="198"/>
-      <c r="M93" s="209"/>
-    </row>
-    <row r="94" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="196"/>
-      <c r="B94" s="206"/>
-      <c r="C94" s="201"/>
-      <c r="D94" s="212"/>
-      <c r="E94" s="128" t="s">
+      <c r="G97" s="196"/>
+      <c r="H97" s="196"/>
+      <c r="I97" s="196"/>
+      <c r="J97" s="196"/>
+      <c r="K97" s="196"/>
+      <c r="L97" s="196"/>
+      <c r="M97" s="200"/>
+    </row>
+    <row r="98" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A98" s="220"/>
+      <c r="B98" s="191"/>
+      <c r="C98" s="211"/>
+      <c r="D98" s="217"/>
+      <c r="E98" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="F94" s="130" t="s">
+      <c r="F98" s="129" t="s">
         <v>207</v>
       </c>
-      <c r="G94" s="198"/>
-      <c r="H94" s="198"/>
-      <c r="I94" s="198"/>
-      <c r="J94" s="198"/>
-      <c r="K94" s="198"/>
-      <c r="L94" s="198"/>
-      <c r="M94" s="209"/>
-    </row>
-    <row r="95" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="196"/>
-      <c r="B95" s="206"/>
-      <c r="C95" s="202"/>
-      <c r="D95" s="212"/>
-      <c r="E95" s="128" t="s">
+      <c r="G98" s="196"/>
+      <c r="H98" s="196"/>
+      <c r="I98" s="196"/>
+      <c r="J98" s="196"/>
+      <c r="K98" s="196"/>
+      <c r="L98" s="196"/>
+      <c r="M98" s="200"/>
+    </row>
+    <row r="99" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A99" s="220"/>
+      <c r="B99" s="191"/>
+      <c r="C99" s="212"/>
+      <c r="D99" s="217"/>
+      <c r="E99" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="F95" s="130" t="s">
+      <c r="F99" s="129" t="s">
         <v>202</v>
       </c>
-      <c r="G95" s="198"/>
-      <c r="H95" s="198"/>
-      <c r="I95" s="198"/>
-      <c r="J95" s="198"/>
-      <c r="K95" s="198"/>
-      <c r="L95" s="198"/>
-      <c r="M95" s="209"/>
-    </row>
-    <row r="96" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="196"/>
-      <c r="B96" s="206"/>
-      <c r="C96" s="200" t="s">
+      <c r="G99" s="196"/>
+      <c r="H99" s="196"/>
+      <c r="I99" s="196"/>
+      <c r="J99" s="196"/>
+      <c r="K99" s="196"/>
+      <c r="L99" s="196"/>
+      <c r="M99" s="200"/>
+    </row>
+    <row r="100" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A100" s="220"/>
+      <c r="B100" s="191"/>
+      <c r="C100" s="210" t="s">
         <v>182</v>
       </c>
-      <c r="D96" s="212"/>
-      <c r="E96" s="128" t="s">
+      <c r="D100" s="217"/>
+      <c r="E100" s="127" t="s">
         <v>169</v>
       </c>
-      <c r="F96" s="130" t="s">
+      <c r="F100" s="129" t="s">
         <v>202</v>
       </c>
-      <c r="G96" s="198"/>
-      <c r="H96" s="198"/>
-      <c r="I96" s="198"/>
-      <c r="J96" s="198"/>
-      <c r="K96" s="198"/>
-      <c r="L96" s="198"/>
-      <c r="M96" s="209"/>
-    </row>
-    <row r="97" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="196"/>
-      <c r="B97" s="206"/>
-      <c r="C97" s="201"/>
-      <c r="D97" s="212"/>
-      <c r="E97" s="203" t="s">
+      <c r="G100" s="196"/>
+      <c r="H100" s="196"/>
+      <c r="I100" s="196"/>
+      <c r="J100" s="196"/>
+      <c r="K100" s="196"/>
+      <c r="L100" s="196"/>
+      <c r="M100" s="200"/>
+    </row>
+    <row r="101" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="220"/>
+      <c r="B101" s="191"/>
+      <c r="C101" s="211"/>
+      <c r="D101" s="217"/>
+      <c r="E101" s="213" t="s">
         <v>170</v>
       </c>
-      <c r="F97" s="130" t="s">
+      <c r="F101" s="129" t="s">
         <v>203</v>
       </c>
-      <c r="G97" s="198"/>
-      <c r="H97" s="198"/>
-      <c r="I97" s="198"/>
-      <c r="J97" s="198"/>
-      <c r="K97" s="198"/>
-      <c r="L97" s="198"/>
-      <c r="M97" s="209"/>
-    </row>
-    <row r="98" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="196"/>
-      <c r="B98" s="206"/>
-      <c r="C98" s="201"/>
-      <c r="D98" s="212"/>
-      <c r="E98" s="204"/>
-      <c r="F98" s="130" t="s">
+      <c r="G101" s="196"/>
+      <c r="H101" s="196"/>
+      <c r="I101" s="196"/>
+      <c r="J101" s="196"/>
+      <c r="K101" s="196"/>
+      <c r="L101" s="196"/>
+      <c r="M101" s="200"/>
+    </row>
+    <row r="102" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A102" s="220"/>
+      <c r="B102" s="191"/>
+      <c r="C102" s="211"/>
+      <c r="D102" s="217"/>
+      <c r="E102" s="214"/>
+      <c r="F102" s="129" t="s">
         <v>204</v>
       </c>
-      <c r="G98" s="198"/>
-      <c r="H98" s="198"/>
-      <c r="I98" s="198"/>
-      <c r="J98" s="198"/>
-      <c r="K98" s="198"/>
-      <c r="L98" s="198"/>
-      <c r="M98" s="209"/>
-    </row>
-    <row r="99" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="196"/>
-      <c r="B99" s="206"/>
-      <c r="C99" s="202"/>
-      <c r="D99" s="212"/>
-      <c r="E99" s="128" t="s">
+      <c r="G102" s="196"/>
+      <c r="H102" s="196"/>
+      <c r="I102" s="196"/>
+      <c r="J102" s="196"/>
+      <c r="K102" s="196"/>
+      <c r="L102" s="196"/>
+      <c r="M102" s="200"/>
+    </row>
+    <row r="103" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A103" s="220"/>
+      <c r="B103" s="191"/>
+      <c r="C103" s="212"/>
+      <c r="D103" s="217"/>
+      <c r="E103" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="F99" s="130" t="s">
+      <c r="F103" s="129" t="s">
         <v>205</v>
       </c>
-      <c r="G99" s="198"/>
-      <c r="H99" s="198"/>
-      <c r="I99" s="198"/>
-      <c r="J99" s="198"/>
-      <c r="K99" s="198"/>
-      <c r="L99" s="198"/>
-      <c r="M99" s="209"/>
-    </row>
-    <row r="100" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="196"/>
-      <c r="B100" s="206"/>
-      <c r="C100" s="200" t="s">
+      <c r="G103" s="196"/>
+      <c r="H103" s="196"/>
+      <c r="I103" s="196"/>
+      <c r="J103" s="196"/>
+      <c r="K103" s="196"/>
+      <c r="L103" s="196"/>
+      <c r="M103" s="200"/>
+    </row>
+    <row r="104" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A104" s="220"/>
+      <c r="B104" s="191"/>
+      <c r="C104" s="210" t="s">
         <v>183</v>
       </c>
-      <c r="D100" s="212"/>
-      <c r="E100" s="203" t="s">
+      <c r="D104" s="217"/>
+      <c r="E104" s="213" t="s">
         <v>169</v>
       </c>
-      <c r="F100" s="130" t="s">
+      <c r="F104" s="129" t="s">
         <v>216</v>
       </c>
-      <c r="G100" s="198"/>
-      <c r="H100" s="198"/>
-      <c r="I100" s="198"/>
-      <c r="J100" s="198"/>
-      <c r="K100" s="198"/>
-      <c r="L100" s="198"/>
-      <c r="M100" s="209"/>
-    </row>
-    <row r="101" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="196"/>
-      <c r="B101" s="206"/>
-      <c r="C101" s="201"/>
-      <c r="D101" s="212"/>
-      <c r="E101" s="204"/>
-      <c r="F101" s="130" t="s">
+      <c r="G104" s="196"/>
+      <c r="H104" s="196"/>
+      <c r="I104" s="196"/>
+      <c r="J104" s="196"/>
+      <c r="K104" s="196"/>
+      <c r="L104" s="196"/>
+      <c r="M104" s="200"/>
+    </row>
+    <row r="105" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A105" s="220"/>
+      <c r="B105" s="191"/>
+      <c r="C105" s="211"/>
+      <c r="D105" s="217"/>
+      <c r="E105" s="214"/>
+      <c r="F105" s="129" t="s">
         <v>202</v>
       </c>
-      <c r="G101" s="198"/>
-      <c r="H101" s="198"/>
-      <c r="I101" s="198"/>
-      <c r="J101" s="198"/>
-      <c r="K101" s="198"/>
-      <c r="L101" s="198"/>
-      <c r="M101" s="209"/>
-    </row>
-    <row r="102" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="196"/>
-      <c r="B102" s="206"/>
-      <c r="C102" s="201"/>
-      <c r="D102" s="212"/>
-      <c r="E102" s="128" t="s">
+      <c r="G105" s="196"/>
+      <c r="H105" s="196"/>
+      <c r="I105" s="196"/>
+      <c r="J105" s="196"/>
+      <c r="K105" s="196"/>
+      <c r="L105" s="196"/>
+      <c r="M105" s="200"/>
+    </row>
+    <row r="106" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A106" s="220"/>
+      <c r="B106" s="191"/>
+      <c r="C106" s="211"/>
+      <c r="D106" s="217"/>
+      <c r="E106" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="F102" s="130" t="s">
+      <c r="F106" s="129" t="s">
         <v>202</v>
       </c>
-      <c r="G102" s="198"/>
-      <c r="H102" s="198"/>
-      <c r="I102" s="198"/>
-      <c r="J102" s="198"/>
-      <c r="K102" s="198"/>
-      <c r="L102" s="198"/>
-      <c r="M102" s="209"/>
-    </row>
-    <row r="103" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="196"/>
-      <c r="B103" s="206"/>
-      <c r="C103" s="201"/>
-      <c r="D103" s="212"/>
-      <c r="E103" s="203" t="s">
+      <c r="G106" s="196"/>
+      <c r="H106" s="196"/>
+      <c r="I106" s="196"/>
+      <c r="J106" s="196"/>
+      <c r="K106" s="196"/>
+      <c r="L106" s="196"/>
+      <c r="M106" s="200"/>
+    </row>
+    <row r="107" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A107" s="220"/>
+      <c r="B107" s="191"/>
+      <c r="C107" s="211"/>
+      <c r="D107" s="217"/>
+      <c r="E107" s="213" t="s">
         <v>171</v>
       </c>
-      <c r="F103" s="130" t="s">
+      <c r="F107" s="129" t="s">
         <v>203</v>
       </c>
-      <c r="G103" s="198"/>
-      <c r="H103" s="198"/>
-      <c r="I103" s="198"/>
-      <c r="J103" s="198"/>
-      <c r="K103" s="198"/>
-      <c r="L103" s="198"/>
-      <c r="M103" s="209"/>
-    </row>
-    <row r="104" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="196"/>
-      <c r="B104" s="206"/>
-      <c r="C104" s="202"/>
-      <c r="D104" s="212"/>
-      <c r="E104" s="204"/>
-      <c r="F104" s="130" t="s">
+      <c r="G107" s="196"/>
+      <c r="H107" s="196"/>
+      <c r="I107" s="196"/>
+      <c r="J107" s="196"/>
+      <c r="K107" s="196"/>
+      <c r="L107" s="196"/>
+      <c r="M107" s="200"/>
+    </row>
+    <row r="108" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A108" s="220"/>
+      <c r="B108" s="191"/>
+      <c r="C108" s="212"/>
+      <c r="D108" s="217"/>
+      <c r="E108" s="214"/>
+      <c r="F108" s="129" t="s">
         <v>202</v>
       </c>
-      <c r="G104" s="198"/>
-      <c r="H104" s="198"/>
-      <c r="I104" s="198"/>
-      <c r="J104" s="198"/>
-      <c r="K104" s="198"/>
-      <c r="L104" s="198"/>
-      <c r="M104" s="209"/>
-    </row>
-    <row r="105" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="196"/>
-      <c r="B105" s="206"/>
-      <c r="C105" s="200" t="s">
+      <c r="G108" s="196"/>
+      <c r="H108" s="196"/>
+      <c r="I108" s="196"/>
+      <c r="J108" s="196"/>
+      <c r="K108" s="196"/>
+      <c r="L108" s="196"/>
+      <c r="M108" s="200"/>
+    </row>
+    <row r="109" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A109" s="220"/>
+      <c r="B109" s="191"/>
+      <c r="C109" s="210" t="s">
         <v>184</v>
       </c>
-      <c r="D105" s="212"/>
-      <c r="E105" s="128" t="s">
+      <c r="D109" s="217"/>
+      <c r="E109" s="127" t="s">
         <v>169</v>
       </c>
-      <c r="F105" s="130" t="s">
+      <c r="F109" s="129" t="s">
         <v>203</v>
       </c>
-      <c r="G105" s="198"/>
-      <c r="H105" s="198"/>
-      <c r="I105" s="198"/>
-      <c r="J105" s="198"/>
-      <c r="K105" s="198"/>
-      <c r="L105" s="198"/>
-      <c r="M105" s="209"/>
-    </row>
-    <row r="106" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="196"/>
-      <c r="B106" s="206"/>
-      <c r="C106" s="201"/>
-      <c r="D106" s="212"/>
-      <c r="E106" s="128" t="s">
+      <c r="G109" s="196"/>
+      <c r="H109" s="196"/>
+      <c r="I109" s="196"/>
+      <c r="J109" s="196"/>
+      <c r="K109" s="196"/>
+      <c r="L109" s="196"/>
+      <c r="M109" s="200"/>
+    </row>
+    <row r="110" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A110" s="220"/>
+      <c r="B110" s="191"/>
+      <c r="C110" s="211"/>
+      <c r="D110" s="217"/>
+      <c r="E110" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="F106" s="130" t="s">
+      <c r="F110" s="129" t="s">
         <v>202</v>
       </c>
-      <c r="G106" s="198"/>
-      <c r="H106" s="198"/>
-      <c r="I106" s="198"/>
-      <c r="J106" s="198"/>
-      <c r="K106" s="198"/>
-      <c r="L106" s="198"/>
-      <c r="M106" s="209"/>
-    </row>
-    <row r="107" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="196"/>
-      <c r="B107" s="206"/>
-      <c r="C107" s="202"/>
-      <c r="D107" s="212"/>
-      <c r="E107" s="128" t="s">
+      <c r="G110" s="196"/>
+      <c r="H110" s="196"/>
+      <c r="I110" s="196"/>
+      <c r="J110" s="196"/>
+      <c r="K110" s="196"/>
+      <c r="L110" s="196"/>
+      <c r="M110" s="200"/>
+    </row>
+    <row r="111" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A111" s="220"/>
+      <c r="B111" s="191"/>
+      <c r="C111" s="212"/>
+      <c r="D111" s="217"/>
+      <c r="E111" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="F107" s="130" t="s">
+      <c r="F111" s="129" t="s">
         <v>217</v>
       </c>
-      <c r="G107" s="198"/>
-      <c r="H107" s="198"/>
-      <c r="I107" s="198"/>
-      <c r="J107" s="198"/>
-      <c r="K107" s="198"/>
-      <c r="L107" s="198"/>
-      <c r="M107" s="209"/>
-    </row>
-    <row r="108" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="196"/>
-      <c r="B108" s="206"/>
-      <c r="C108" s="200" t="s">
+      <c r="G111" s="196"/>
+      <c r="H111" s="196"/>
+      <c r="I111" s="196"/>
+      <c r="J111" s="196"/>
+      <c r="K111" s="196"/>
+      <c r="L111" s="196"/>
+      <c r="M111" s="200"/>
+    </row>
+    <row r="112" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A112" s="220"/>
+      <c r="B112" s="191"/>
+      <c r="C112" s="210" t="s">
         <v>185</v>
       </c>
-      <c r="D108" s="212"/>
-      <c r="E108" s="128" t="s">
+      <c r="D112" s="217"/>
+      <c r="E112" s="127" t="s">
         <v>169</v>
       </c>
-      <c r="F108" s="130" t="s">
+      <c r="F112" s="129" t="s">
         <v>202</v>
       </c>
-      <c r="G108" s="198"/>
-      <c r="H108" s="198"/>
-      <c r="I108" s="198"/>
-      <c r="J108" s="198"/>
-      <c r="K108" s="198"/>
-      <c r="L108" s="198"/>
-      <c r="M108" s="209"/>
-    </row>
-    <row r="109" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="196"/>
-      <c r="B109" s="206"/>
-      <c r="C109" s="201"/>
-      <c r="D109" s="212"/>
-      <c r="E109" s="203" t="s">
+      <c r="G112" s="196"/>
+      <c r="H112" s="196"/>
+      <c r="I112" s="196"/>
+      <c r="J112" s="196"/>
+      <c r="K112" s="196"/>
+      <c r="L112" s="196"/>
+      <c r="M112" s="200"/>
+    </row>
+    <row r="113" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A113" s="220"/>
+      <c r="B113" s="191"/>
+      <c r="C113" s="211"/>
+      <c r="D113" s="217"/>
+      <c r="E113" s="213" t="s">
         <v>170</v>
       </c>
-      <c r="F109" s="130" t="s">
+      <c r="F113" s="129" t="s">
         <v>203</v>
       </c>
-      <c r="G109" s="198"/>
-      <c r="H109" s="198"/>
-      <c r="I109" s="198"/>
-      <c r="J109" s="198"/>
-      <c r="K109" s="198"/>
-      <c r="L109" s="198"/>
-      <c r="M109" s="209"/>
-    </row>
-    <row r="110" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="196"/>
-      <c r="B110" s="206"/>
-      <c r="C110" s="201"/>
-      <c r="D110" s="212"/>
-      <c r="E110" s="204"/>
-      <c r="F110" s="130" t="s">
+      <c r="G113" s="196"/>
+      <c r="H113" s="196"/>
+      <c r="I113" s="196"/>
+      <c r="J113" s="196"/>
+      <c r="K113" s="196"/>
+      <c r="L113" s="196"/>
+      <c r="M113" s="200"/>
+    </row>
+    <row r="114" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A114" s="220"/>
+      <c r="B114" s="191"/>
+      <c r="C114" s="211"/>
+      <c r="D114" s="217"/>
+      <c r="E114" s="214"/>
+      <c r="F114" s="129" t="s">
         <v>218</v>
       </c>
-      <c r="G110" s="198"/>
-      <c r="H110" s="198"/>
-      <c r="I110" s="198"/>
-      <c r="J110" s="198"/>
-      <c r="K110" s="198"/>
-      <c r="L110" s="198"/>
-      <c r="M110" s="209"/>
-    </row>
-    <row r="111" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="196"/>
-      <c r="B111" s="206"/>
-      <c r="C111" s="202"/>
-      <c r="D111" s="212"/>
-      <c r="E111" s="128" t="s">
+      <c r="G114" s="196"/>
+      <c r="H114" s="196"/>
+      <c r="I114" s="196"/>
+      <c r="J114" s="196"/>
+      <c r="K114" s="196"/>
+      <c r="L114" s="196"/>
+      <c r="M114" s="200"/>
+    </row>
+    <row r="115" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="220"/>
+      <c r="B115" s="191"/>
+      <c r="C115" s="212"/>
+      <c r="D115" s="217"/>
+      <c r="E115" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="F111" s="130" t="s">
+      <c r="F115" s="129" t="s">
         <v>202</v>
       </c>
-      <c r="G111" s="198"/>
-      <c r="H111" s="198"/>
-      <c r="I111" s="198"/>
-      <c r="J111" s="198"/>
-      <c r="K111" s="198"/>
-      <c r="L111" s="198"/>
-      <c r="M111" s="209"/>
-    </row>
-    <row r="112" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="196"/>
-      <c r="B112" s="206"/>
-      <c r="C112" s="200" t="s">
+      <c r="G115" s="196"/>
+      <c r="H115" s="196"/>
+      <c r="I115" s="196"/>
+      <c r="J115" s="196"/>
+      <c r="K115" s="196"/>
+      <c r="L115" s="196"/>
+      <c r="M115" s="200"/>
+    </row>
+    <row r="116" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="220"/>
+      <c r="B116" s="191"/>
+      <c r="C116" s="210" t="s">
         <v>186</v>
       </c>
-      <c r="D112" s="212"/>
-      <c r="E112" s="128" t="s">
+      <c r="D116" s="217"/>
+      <c r="E116" s="127" t="s">
         <v>169</v>
       </c>
-      <c r="F112" s="130" t="s">
+      <c r="F116" s="129" t="s">
         <v>203</v>
       </c>
-      <c r="G112" s="198"/>
-      <c r="H112" s="198"/>
-      <c r="I112" s="198"/>
-      <c r="J112" s="198"/>
-      <c r="K112" s="198"/>
-      <c r="L112" s="198"/>
-      <c r="M112" s="209"/>
-    </row>
-    <row r="113" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="196"/>
-      <c r="B113" s="206"/>
-      <c r="C113" s="201"/>
-      <c r="D113" s="212"/>
-      <c r="E113" s="128" t="s">
+      <c r="G116" s="196"/>
+      <c r="H116" s="196"/>
+      <c r="I116" s="196"/>
+      <c r="J116" s="196"/>
+      <c r="K116" s="196"/>
+      <c r="L116" s="196"/>
+      <c r="M116" s="200"/>
+    </row>
+    <row r="117" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A117" s="220"/>
+      <c r="B117" s="191"/>
+      <c r="C117" s="211"/>
+      <c r="D117" s="217"/>
+      <c r="E117" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="F113" s="130" t="s">
+      <c r="F117" s="129" t="s">
         <v>202</v>
       </c>
-      <c r="G113" s="198"/>
-      <c r="H113" s="198"/>
-      <c r="I113" s="198"/>
-      <c r="J113" s="198"/>
-      <c r="K113" s="198"/>
-      <c r="L113" s="198"/>
-      <c r="M113" s="209"/>
-    </row>
-    <row r="114" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="196"/>
-      <c r="B114" s="206"/>
-      <c r="C114" s="202"/>
-      <c r="D114" s="212"/>
-      <c r="E114" s="128" t="s">
+      <c r="G117" s="196"/>
+      <c r="H117" s="196"/>
+      <c r="I117" s="196"/>
+      <c r="J117" s="196"/>
+      <c r="K117" s="196"/>
+      <c r="L117" s="196"/>
+      <c r="M117" s="200"/>
+    </row>
+    <row r="118" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A118" s="220"/>
+      <c r="B118" s="191"/>
+      <c r="C118" s="212"/>
+      <c r="D118" s="217"/>
+      <c r="E118" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="F114" s="130" t="s">
+      <c r="F118" s="129" t="s">
         <v>205</v>
       </c>
-      <c r="G114" s="198"/>
-      <c r="H114" s="198"/>
-      <c r="I114" s="198"/>
-      <c r="J114" s="198"/>
-      <c r="K114" s="198"/>
-      <c r="L114" s="198"/>
-      <c r="M114" s="209"/>
-    </row>
-    <row r="115" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="196"/>
-      <c r="B115" s="206"/>
-      <c r="C115" s="200" t="s">
+      <c r="G118" s="196"/>
+      <c r="H118" s="196"/>
+      <c r="I118" s="196"/>
+      <c r="J118" s="196"/>
+      <c r="K118" s="196"/>
+      <c r="L118" s="196"/>
+      <c r="M118" s="200"/>
+    </row>
+    <row r="119" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A119" s="220"/>
+      <c r="B119" s="191"/>
+      <c r="C119" s="210" t="s">
         <v>187</v>
       </c>
-      <c r="D115" s="212"/>
-      <c r="E115" s="128" t="s">
+      <c r="D119" s="217"/>
+      <c r="E119" s="127" t="s">
         <v>169</v>
       </c>
-      <c r="F115" s="130" t="s">
+      <c r="F119" s="129" t="s">
         <v>202</v>
       </c>
-      <c r="G115" s="198"/>
-      <c r="H115" s="198"/>
-      <c r="I115" s="198"/>
-      <c r="J115" s="198"/>
-      <c r="K115" s="198"/>
-      <c r="L115" s="198"/>
-      <c r="M115" s="209"/>
-    </row>
-    <row r="116" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="196"/>
-      <c r="B116" s="206"/>
-      <c r="C116" s="201"/>
-      <c r="D116" s="212"/>
-      <c r="E116" s="128" t="s">
+      <c r="G119" s="196"/>
+      <c r="H119" s="196"/>
+      <c r="I119" s="196"/>
+      <c r="J119" s="196"/>
+      <c r="K119" s="196"/>
+      <c r="L119" s="196"/>
+      <c r="M119" s="200"/>
+    </row>
+    <row r="120" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A120" s="220"/>
+      <c r="B120" s="191"/>
+      <c r="C120" s="211"/>
+      <c r="D120" s="217"/>
+      <c r="E120" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="F116" s="130" t="s">
+      <c r="F120" s="129" t="s">
         <v>205</v>
       </c>
-      <c r="G116" s="198"/>
-      <c r="H116" s="198"/>
-      <c r="I116" s="198"/>
-      <c r="J116" s="198"/>
-      <c r="K116" s="198"/>
-      <c r="L116" s="198"/>
-      <c r="M116" s="209"/>
-    </row>
-    <row r="117" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="196"/>
-      <c r="B117" s="206"/>
-      <c r="C117" s="202"/>
-      <c r="D117" s="212"/>
-      <c r="E117" s="128" t="s">
+      <c r="G120" s="196"/>
+      <c r="H120" s="196"/>
+      <c r="I120" s="196"/>
+      <c r="J120" s="196"/>
+      <c r="K120" s="196"/>
+      <c r="L120" s="196"/>
+      <c r="M120" s="200"/>
+    </row>
+    <row r="121" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A121" s="220"/>
+      <c r="B121" s="191"/>
+      <c r="C121" s="212"/>
+      <c r="D121" s="217"/>
+      <c r="E121" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="F117" s="130" t="s">
+      <c r="F121" s="129" t="s">
         <v>213</v>
       </c>
-      <c r="G117" s="198"/>
-      <c r="H117" s="198"/>
-      <c r="I117" s="198"/>
-      <c r="J117" s="198"/>
-      <c r="K117" s="198"/>
-      <c r="L117" s="198"/>
-      <c r="M117" s="209"/>
-    </row>
-    <row r="118" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="196"/>
-      <c r="B118" s="206"/>
-      <c r="C118" s="200" t="s">
+      <c r="G121" s="196"/>
+      <c r="H121" s="196"/>
+      <c r="I121" s="196"/>
+      <c r="J121" s="196"/>
+      <c r="K121" s="196"/>
+      <c r="L121" s="196"/>
+      <c r="M121" s="200"/>
+    </row>
+    <row r="122" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A122" s="220"/>
+      <c r="B122" s="191"/>
+      <c r="C122" s="210" t="s">
         <v>188</v>
       </c>
-      <c r="D118" s="212"/>
-      <c r="E118" s="128" t="s">
+      <c r="D122" s="217"/>
+      <c r="E122" s="127" t="s">
         <v>169</v>
       </c>
-      <c r="F118" s="130" t="s">
+      <c r="F122" s="129" t="s">
         <v>201</v>
       </c>
-      <c r="G118" s="198"/>
-      <c r="H118" s="198"/>
-      <c r="I118" s="198"/>
-      <c r="J118" s="198"/>
-      <c r="K118" s="198"/>
-      <c r="L118" s="198"/>
-      <c r="M118" s="209"/>
-    </row>
-    <row r="119" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="196"/>
-      <c r="B119" s="206"/>
-      <c r="C119" s="201"/>
-      <c r="D119" s="212"/>
-      <c r="E119" s="128" t="s">
+      <c r="G122" s="196"/>
+      <c r="H122" s="196"/>
+      <c r="I122" s="196"/>
+      <c r="J122" s="196"/>
+      <c r="K122" s="196"/>
+      <c r="L122" s="196"/>
+      <c r="M122" s="200"/>
+    </row>
+    <row r="123" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A123" s="220"/>
+      <c r="B123" s="191"/>
+      <c r="C123" s="211"/>
+      <c r="D123" s="217"/>
+      <c r="E123" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="F119" s="130" t="s">
+      <c r="F123" s="129" t="s">
         <v>219</v>
       </c>
-      <c r="G119" s="198"/>
-      <c r="H119" s="198"/>
-      <c r="I119" s="198"/>
-      <c r="J119" s="198"/>
-      <c r="K119" s="198"/>
-      <c r="L119" s="198"/>
-      <c r="M119" s="209"/>
-    </row>
-    <row r="120" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="196"/>
-      <c r="B120" s="206"/>
-      <c r="C120" s="202"/>
-      <c r="D120" s="212"/>
-      <c r="E120" s="128" t="s">
+      <c r="G123" s="196"/>
+      <c r="H123" s="196"/>
+      <c r="I123" s="196"/>
+      <c r="J123" s="196"/>
+      <c r="K123" s="196"/>
+      <c r="L123" s="196"/>
+      <c r="M123" s="200"/>
+    </row>
+    <row r="124" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A124" s="220"/>
+      <c r="B124" s="191"/>
+      <c r="C124" s="212"/>
+      <c r="D124" s="217"/>
+      <c r="E124" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="F120" s="130" t="s">
+      <c r="F124" s="129" t="s">
         <v>211</v>
       </c>
-      <c r="G120" s="198"/>
-      <c r="H120" s="198"/>
-      <c r="I120" s="198"/>
-      <c r="J120" s="198"/>
-      <c r="K120" s="198"/>
-      <c r="L120" s="198"/>
-      <c r="M120" s="209"/>
-    </row>
-    <row r="121" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="196"/>
-      <c r="B121" s="206"/>
-      <c r="C121" s="200" t="s">
+      <c r="G124" s="196"/>
+      <c r="H124" s="196"/>
+      <c r="I124" s="196"/>
+      <c r="J124" s="196"/>
+      <c r="K124" s="196"/>
+      <c r="L124" s="196"/>
+      <c r="M124" s="200"/>
+    </row>
+    <row r="125" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A125" s="220"/>
+      <c r="B125" s="191"/>
+      <c r="C125" s="210" t="s">
         <v>189</v>
       </c>
-      <c r="D121" s="212"/>
-      <c r="E121" s="128" t="s">
+      <c r="D125" s="217"/>
+      <c r="E125" s="127" t="s">
         <v>169</v>
       </c>
-      <c r="F121" s="130" t="s">
+      <c r="F125" s="129" t="s">
         <v>216</v>
       </c>
-      <c r="G121" s="198"/>
-      <c r="H121" s="198"/>
-      <c r="I121" s="198"/>
-      <c r="J121" s="198"/>
-      <c r="K121" s="198"/>
-      <c r="L121" s="198"/>
-      <c r="M121" s="209"/>
-    </row>
-    <row r="122" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="196"/>
-      <c r="B122" s="206"/>
-      <c r="C122" s="201"/>
-      <c r="D122" s="212"/>
-      <c r="E122" s="128" t="s">
+      <c r="G125" s="196"/>
+      <c r="H125" s="196"/>
+      <c r="I125" s="196"/>
+      <c r="J125" s="196"/>
+      <c r="K125" s="196"/>
+      <c r="L125" s="196"/>
+      <c r="M125" s="200"/>
+    </row>
+    <row r="126" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A126" s="220"/>
+      <c r="B126" s="191"/>
+      <c r="C126" s="211"/>
+      <c r="D126" s="217"/>
+      <c r="E126" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="F122" s="130" t="s">
+      <c r="F126" s="129" t="s">
         <v>203</v>
       </c>
-      <c r="G122" s="198"/>
-      <c r="H122" s="198"/>
-      <c r="I122" s="198"/>
-      <c r="J122" s="198"/>
-      <c r="K122" s="198"/>
-      <c r="L122" s="198"/>
-      <c r="M122" s="209"/>
-    </row>
-    <row r="123" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="196"/>
-      <c r="B123" s="206"/>
-      <c r="C123" s="202"/>
-      <c r="D123" s="212"/>
-      <c r="E123" s="128" t="s">
+      <c r="G126" s="196"/>
+      <c r="H126" s="196"/>
+      <c r="I126" s="196"/>
+      <c r="J126" s="196"/>
+      <c r="K126" s="196"/>
+      <c r="L126" s="196"/>
+      <c r="M126" s="200"/>
+    </row>
+    <row r="127" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A127" s="220"/>
+      <c r="B127" s="191"/>
+      <c r="C127" s="212"/>
+      <c r="D127" s="217"/>
+      <c r="E127" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="F123" s="130" t="s">
+      <c r="F127" s="129" t="s">
         <v>218</v>
       </c>
-      <c r="G123" s="198"/>
-      <c r="H123" s="198"/>
-      <c r="I123" s="198"/>
-      <c r="J123" s="198"/>
-      <c r="K123" s="198"/>
-      <c r="L123" s="198"/>
-      <c r="M123" s="209"/>
-    </row>
-    <row r="124" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="196"/>
-      <c r="B124" s="206"/>
-      <c r="C124" s="200" t="s">
+      <c r="G127" s="196"/>
+      <c r="H127" s="196"/>
+      <c r="I127" s="196"/>
+      <c r="J127" s="196"/>
+      <c r="K127" s="196"/>
+      <c r="L127" s="196"/>
+      <c r="M127" s="200"/>
+    </row>
+    <row r="128" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A128" s="220"/>
+      <c r="B128" s="191"/>
+      <c r="C128" s="210" t="s">
         <v>190</v>
       </c>
-      <c r="D124" s="212"/>
-      <c r="E124" s="128" t="s">
+      <c r="D128" s="217"/>
+      <c r="E128" s="127" t="s">
         <v>169</v>
       </c>
-      <c r="F124" s="130" t="s">
+      <c r="F128" s="129" t="s">
         <v>202</v>
       </c>
-      <c r="G124" s="198"/>
-      <c r="H124" s="198"/>
-      <c r="I124" s="198"/>
-      <c r="J124" s="198"/>
-      <c r="K124" s="198"/>
-      <c r="L124" s="198"/>
-      <c r="M124" s="209"/>
-    </row>
-    <row r="125" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="196"/>
-      <c r="B125" s="206"/>
-      <c r="C125" s="201"/>
-      <c r="D125" s="212"/>
-      <c r="E125" s="128" t="s">
+      <c r="G128" s="196"/>
+      <c r="H128" s="196"/>
+      <c r="I128" s="196"/>
+      <c r="J128" s="196"/>
+      <c r="K128" s="196"/>
+      <c r="L128" s="196"/>
+      <c r="M128" s="200"/>
+    </row>
+    <row r="129" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A129" s="220"/>
+      <c r="B129" s="191"/>
+      <c r="C129" s="211"/>
+      <c r="D129" s="217"/>
+      <c r="E129" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="F125" s="130" t="s">
+      <c r="F129" s="129" t="s">
         <v>220</v>
       </c>
-      <c r="G125" s="198"/>
-      <c r="H125" s="198"/>
-      <c r="I125" s="198"/>
-      <c r="J125" s="198"/>
-      <c r="K125" s="198"/>
-      <c r="L125" s="198"/>
-      <c r="M125" s="209"/>
-    </row>
-    <row r="126" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="196"/>
-      <c r="B126" s="206"/>
-      <c r="C126" s="202"/>
-      <c r="D126" s="212"/>
-      <c r="E126" s="128" t="s">
+      <c r="G129" s="196"/>
+      <c r="H129" s="196"/>
+      <c r="I129" s="196"/>
+      <c r="J129" s="196"/>
+      <c r="K129" s="196"/>
+      <c r="L129" s="196"/>
+      <c r="M129" s="200"/>
+    </row>
+    <row r="130" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A130" s="220"/>
+      <c r="B130" s="191"/>
+      <c r="C130" s="212"/>
+      <c r="D130" s="217"/>
+      <c r="E130" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="F126" s="130" t="s">
+      <c r="F130" s="129" t="s">
         <v>218</v>
       </c>
-      <c r="G126" s="198"/>
-      <c r="H126" s="198"/>
-      <c r="I126" s="198"/>
-      <c r="J126" s="198"/>
-      <c r="K126" s="198"/>
-      <c r="L126" s="198"/>
-      <c r="M126" s="209"/>
-    </row>
-    <row r="127" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="196"/>
-      <c r="B127" s="206"/>
-      <c r="C127" s="200" t="s">
+      <c r="G130" s="196"/>
+      <c r="H130" s="196"/>
+      <c r="I130" s="196"/>
+      <c r="J130" s="196"/>
+      <c r="K130" s="196"/>
+      <c r="L130" s="196"/>
+      <c r="M130" s="200"/>
+    </row>
+    <row r="131" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A131" s="220"/>
+      <c r="B131" s="191"/>
+      <c r="C131" s="210" t="s">
         <v>191</v>
       </c>
-      <c r="D127" s="212"/>
-      <c r="E127" s="128" t="s">
+      <c r="D131" s="217"/>
+      <c r="E131" s="127" t="s">
         <v>169</v>
       </c>
-      <c r="F127" s="130" t="s">
+      <c r="F131" s="129" t="s">
         <v>203</v>
       </c>
-      <c r="G127" s="198"/>
-      <c r="H127" s="198"/>
-      <c r="I127" s="198"/>
-      <c r="J127" s="198"/>
-      <c r="K127" s="198"/>
-      <c r="L127" s="198"/>
-      <c r="M127" s="209"/>
-    </row>
-    <row r="128" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="196"/>
-      <c r="B128" s="206"/>
-      <c r="C128" s="201"/>
-      <c r="D128" s="212"/>
-      <c r="E128" s="128" t="s">
+      <c r="G131" s="196"/>
+      <c r="H131" s="196"/>
+      <c r="I131" s="196"/>
+      <c r="J131" s="196"/>
+      <c r="K131" s="196"/>
+      <c r="L131" s="196"/>
+      <c r="M131" s="200"/>
+    </row>
+    <row r="132" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A132" s="220"/>
+      <c r="B132" s="191"/>
+      <c r="C132" s="211"/>
+      <c r="D132" s="217"/>
+      <c r="E132" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="F128" s="130" t="s">
+      <c r="F132" s="129" t="s">
         <v>221</v>
       </c>
-      <c r="G128" s="198"/>
-      <c r="H128" s="198"/>
-      <c r="I128" s="198"/>
-      <c r="J128" s="198"/>
-      <c r="K128" s="198"/>
-      <c r="L128" s="198"/>
-      <c r="M128" s="209"/>
-    </row>
-    <row r="129" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="196"/>
-      <c r="B129" s="206"/>
-      <c r="C129" s="202"/>
-      <c r="D129" s="212"/>
-      <c r="E129" s="128" t="s">
+      <c r="G132" s="196"/>
+      <c r="H132" s="196"/>
+      <c r="I132" s="196"/>
+      <c r="J132" s="196"/>
+      <c r="K132" s="196"/>
+      <c r="L132" s="196"/>
+      <c r="M132" s="200"/>
+    </row>
+    <row r="133" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A133" s="220"/>
+      <c r="B133" s="191"/>
+      <c r="C133" s="212"/>
+      <c r="D133" s="217"/>
+      <c r="E133" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="F129" s="130" t="s">
+      <c r="F133" s="129" t="s">
         <v>215</v>
       </c>
-      <c r="G129" s="198"/>
-      <c r="H129" s="198"/>
-      <c r="I129" s="198"/>
-      <c r="J129" s="198"/>
-      <c r="K129" s="198"/>
-      <c r="L129" s="198"/>
-      <c r="M129" s="209"/>
-    </row>
-    <row r="130" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="196"/>
-      <c r="B130" s="206"/>
-      <c r="C130" s="200" t="s">
+      <c r="G133" s="196"/>
+      <c r="H133" s="196"/>
+      <c r="I133" s="196"/>
+      <c r="J133" s="196"/>
+      <c r="K133" s="196"/>
+      <c r="L133" s="196"/>
+      <c r="M133" s="200"/>
+    </row>
+    <row r="134" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A134" s="220"/>
+      <c r="B134" s="191"/>
+      <c r="C134" s="210" t="s">
         <v>192</v>
       </c>
-      <c r="D130" s="212"/>
-      <c r="E130" s="128" t="s">
+      <c r="D134" s="217"/>
+      <c r="E134" s="127" t="s">
         <v>169</v>
       </c>
-      <c r="F130" s="130" t="s">
+      <c r="F134" s="129" t="s">
         <v>202</v>
       </c>
-      <c r="G130" s="198"/>
-      <c r="H130" s="198"/>
-      <c r="I130" s="198"/>
-      <c r="J130" s="198"/>
-      <c r="K130" s="198"/>
-      <c r="L130" s="198"/>
-      <c r="M130" s="209"/>
-    </row>
-    <row r="131" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="196"/>
-      <c r="B131" s="206"/>
-      <c r="C131" s="201"/>
-      <c r="D131" s="212"/>
-      <c r="E131" s="128" t="s">
+      <c r="G134" s="196"/>
+      <c r="H134" s="196"/>
+      <c r="I134" s="196"/>
+      <c r="J134" s="196"/>
+      <c r="K134" s="196"/>
+      <c r="L134" s="196"/>
+      <c r="M134" s="200"/>
+    </row>
+    <row r="135" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A135" s="220"/>
+      <c r="B135" s="191"/>
+      <c r="C135" s="211"/>
+      <c r="D135" s="217"/>
+      <c r="E135" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="F131" s="130" t="s">
+      <c r="F135" s="129" t="s">
         <v>222</v>
       </c>
-      <c r="G131" s="198"/>
-      <c r="H131" s="198"/>
-      <c r="I131" s="198"/>
-      <c r="J131" s="198"/>
-      <c r="K131" s="198"/>
-      <c r="L131" s="198"/>
-      <c r="M131" s="209"/>
-    </row>
-    <row r="132" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="196"/>
-      <c r="B132" s="206"/>
-      <c r="C132" s="202"/>
-      <c r="D132" s="212"/>
-      <c r="E132" s="128" t="s">
+      <c r="G135" s="196"/>
+      <c r="H135" s="196"/>
+      <c r="I135" s="196"/>
+      <c r="J135" s="196"/>
+      <c r="K135" s="196"/>
+      <c r="L135" s="196"/>
+      <c r="M135" s="200"/>
+    </row>
+    <row r="136" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A136" s="220"/>
+      <c r="B136" s="191"/>
+      <c r="C136" s="212"/>
+      <c r="D136" s="217"/>
+      <c r="E136" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="F132" s="130" t="s">
+      <c r="F136" s="129" t="s">
         <v>218</v>
       </c>
-      <c r="G132" s="198"/>
-      <c r="H132" s="198"/>
-      <c r="I132" s="198"/>
-      <c r="J132" s="198"/>
-      <c r="K132" s="198"/>
-      <c r="L132" s="198"/>
-      <c r="M132" s="209"/>
-    </row>
-    <row r="133" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="196"/>
-      <c r="B133" s="206"/>
-      <c r="C133" s="200" t="s">
+      <c r="G136" s="196"/>
+      <c r="H136" s="196"/>
+      <c r="I136" s="196"/>
+      <c r="J136" s="196"/>
+      <c r="K136" s="196"/>
+      <c r="L136" s="196"/>
+      <c r="M136" s="200"/>
+    </row>
+    <row r="137" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A137" s="220"/>
+      <c r="B137" s="191"/>
+      <c r="C137" s="210" t="s">
         <v>193</v>
       </c>
-      <c r="D133" s="212"/>
-      <c r="E133" s="128" t="s">
+      <c r="D137" s="217"/>
+      <c r="E137" s="127" t="s">
         <v>169</v>
       </c>
-      <c r="F133" s="130" t="s">
+      <c r="F137" s="129" t="s">
         <v>202</v>
       </c>
-      <c r="G133" s="198"/>
-      <c r="H133" s="198"/>
-      <c r="I133" s="198"/>
-      <c r="J133" s="198"/>
-      <c r="K133" s="198"/>
-      <c r="L133" s="198"/>
-      <c r="M133" s="209"/>
-    </row>
-    <row r="134" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="196"/>
-      <c r="B134" s="206"/>
-      <c r="C134" s="201"/>
-      <c r="D134" s="212"/>
-      <c r="E134" s="128" t="s">
+      <c r="G137" s="196"/>
+      <c r="H137" s="196"/>
+      <c r="I137" s="196"/>
+      <c r="J137" s="196"/>
+      <c r="K137" s="196"/>
+      <c r="L137" s="196"/>
+      <c r="M137" s="200"/>
+    </row>
+    <row r="138" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A138" s="220"/>
+      <c r="B138" s="191"/>
+      <c r="C138" s="211"/>
+      <c r="D138" s="217"/>
+      <c r="E138" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="F134" s="130" t="s">
+      <c r="F138" s="129" t="s">
         <v>221</v>
       </c>
-      <c r="G134" s="198"/>
-      <c r="H134" s="198"/>
-      <c r="I134" s="198"/>
-      <c r="J134" s="198"/>
-      <c r="K134" s="198"/>
-      <c r="L134" s="198"/>
-      <c r="M134" s="209"/>
-    </row>
-    <row r="135" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="196"/>
-      <c r="B135" s="206"/>
-      <c r="C135" s="202"/>
-      <c r="D135" s="212"/>
-      <c r="E135" s="128" t="s">
+      <c r="G138" s="196"/>
+      <c r="H138" s="196"/>
+      <c r="I138" s="196"/>
+      <c r="J138" s="196"/>
+      <c r="K138" s="196"/>
+      <c r="L138" s="196"/>
+      <c r="M138" s="200"/>
+    </row>
+    <row r="139" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A139" s="220"/>
+      <c r="B139" s="191"/>
+      <c r="C139" s="212"/>
+      <c r="D139" s="217"/>
+      <c r="E139" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="F135" s="130" t="s">
+      <c r="F139" s="129" t="s">
         <v>218</v>
       </c>
-      <c r="G135" s="198"/>
-      <c r="H135" s="198"/>
-      <c r="I135" s="198"/>
-      <c r="J135" s="198"/>
-      <c r="K135" s="198"/>
-      <c r="L135" s="198"/>
-      <c r="M135" s="209"/>
-    </row>
-    <row r="136" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="196"/>
-      <c r="B136" s="206"/>
-      <c r="C136" s="200" t="s">
+      <c r="G139" s="196"/>
+      <c r="H139" s="196"/>
+      <c r="I139" s="196"/>
+      <c r="J139" s="196"/>
+      <c r="K139" s="196"/>
+      <c r="L139" s="196"/>
+      <c r="M139" s="200"/>
+    </row>
+    <row r="140" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A140" s="220"/>
+      <c r="B140" s="191"/>
+      <c r="C140" s="210" t="s">
         <v>194</v>
       </c>
-      <c r="D136" s="212"/>
-      <c r="E136" s="128" t="s">
+      <c r="D140" s="217"/>
+      <c r="E140" s="127" t="s">
         <v>169</v>
       </c>
-      <c r="F136" s="130" t="s">
+      <c r="F140" s="129" t="s">
         <v>223</v>
       </c>
-      <c r="G136" s="198"/>
-      <c r="H136" s="198"/>
-      <c r="I136" s="198"/>
-      <c r="J136" s="198"/>
-      <c r="K136" s="198"/>
-      <c r="L136" s="198"/>
-      <c r="M136" s="209"/>
-    </row>
-    <row r="137" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="196"/>
-      <c r="B137" s="206"/>
-      <c r="C137" s="201"/>
-      <c r="D137" s="212"/>
-      <c r="E137" s="128" t="s">
+      <c r="G140" s="196"/>
+      <c r="H140" s="196"/>
+      <c r="I140" s="196"/>
+      <c r="J140" s="196"/>
+      <c r="K140" s="196"/>
+      <c r="L140" s="196"/>
+      <c r="M140" s="200"/>
+    </row>
+    <row r="141" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A141" s="220"/>
+      <c r="B141" s="191"/>
+      <c r="C141" s="211"/>
+      <c r="D141" s="217"/>
+      <c r="E141" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="F137" s="130" t="s">
+      <c r="F141" s="129" t="s">
         <v>224</v>
       </c>
-      <c r="G137" s="198"/>
-      <c r="H137" s="198"/>
-      <c r="I137" s="198"/>
-      <c r="J137" s="198"/>
-      <c r="K137" s="198"/>
-      <c r="L137" s="198"/>
-      <c r="M137" s="209"/>
-    </row>
-    <row r="138" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="196"/>
-      <c r="B138" s="206"/>
-      <c r="C138" s="202"/>
-      <c r="D138" s="212"/>
-      <c r="E138" s="128" t="s">
+      <c r="G141" s="196"/>
+      <c r="H141" s="196"/>
+      <c r="I141" s="196"/>
+      <c r="J141" s="196"/>
+      <c r="K141" s="196"/>
+      <c r="L141" s="196"/>
+      <c r="M141" s="200"/>
+    </row>
+    <row r="142" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A142" s="220"/>
+      <c r="B142" s="191"/>
+      <c r="C142" s="212"/>
+      <c r="D142" s="217"/>
+      <c r="E142" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="F138" s="130" t="s">
+      <c r="F142" s="129" t="s">
         <v>203</v>
       </c>
-      <c r="G138" s="198"/>
-      <c r="H138" s="198"/>
-      <c r="I138" s="198"/>
-      <c r="J138" s="198"/>
-      <c r="K138" s="198"/>
-      <c r="L138" s="198"/>
-      <c r="M138" s="209"/>
-    </row>
-    <row r="139" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="196"/>
-      <c r="B139" s="206"/>
-      <c r="C139" s="200" t="s">
+      <c r="G142" s="196"/>
+      <c r="H142" s="196"/>
+      <c r="I142" s="196"/>
+      <c r="J142" s="196"/>
+      <c r="K142" s="196"/>
+      <c r="L142" s="196"/>
+      <c r="M142" s="200"/>
+    </row>
+    <row r="143" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A143" s="220"/>
+      <c r="B143" s="191"/>
+      <c r="C143" s="210" t="s">
         <v>195</v>
       </c>
-      <c r="D139" s="212"/>
-      <c r="E139" s="128" t="s">
+      <c r="D143" s="217"/>
+      <c r="E143" s="127" t="s">
         <v>169</v>
       </c>
-      <c r="F139" s="130" t="s">
+      <c r="F143" s="129" t="s">
         <v>202</v>
       </c>
-      <c r="G139" s="198"/>
-      <c r="H139" s="198"/>
-      <c r="I139" s="198"/>
-      <c r="J139" s="198"/>
-      <c r="K139" s="198"/>
-      <c r="L139" s="198"/>
-      <c r="M139" s="209"/>
-    </row>
-    <row r="140" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="196"/>
-      <c r="B140" s="206"/>
-      <c r="C140" s="201"/>
-      <c r="D140" s="212"/>
-      <c r="E140" s="128" t="s">
+      <c r="G143" s="196"/>
+      <c r="H143" s="196"/>
+      <c r="I143" s="196"/>
+      <c r="J143" s="196"/>
+      <c r="K143" s="196"/>
+      <c r="L143" s="196"/>
+      <c r="M143" s="200"/>
+    </row>
+    <row r="144" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A144" s="220"/>
+      <c r="B144" s="191"/>
+      <c r="C144" s="211"/>
+      <c r="D144" s="217"/>
+      <c r="E144" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="F140" s="130" t="s">
+      <c r="F144" s="129" t="s">
         <v>207</v>
       </c>
-      <c r="G140" s="198"/>
-      <c r="H140" s="198"/>
-      <c r="I140" s="198"/>
-      <c r="J140" s="198"/>
-      <c r="K140" s="198"/>
-      <c r="L140" s="198"/>
-      <c r="M140" s="209"/>
-    </row>
-    <row r="141" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="196"/>
-      <c r="B141" s="206"/>
-      <c r="C141" s="202"/>
-      <c r="D141" s="212"/>
-      <c r="E141" s="128" t="s">
+      <c r="G144" s="196"/>
+      <c r="H144" s="196"/>
+      <c r="I144" s="196"/>
+      <c r="J144" s="196"/>
+      <c r="K144" s="196"/>
+      <c r="L144" s="196"/>
+      <c r="M144" s="200"/>
+    </row>
+    <row r="145" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="220"/>
+      <c r="B145" s="191"/>
+      <c r="C145" s="212"/>
+      <c r="D145" s="217"/>
+      <c r="E145" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="F141" s="130" t="s">
+      <c r="F145" s="129" t="s">
         <v>211</v>
       </c>
-      <c r="G141" s="198"/>
-      <c r="H141" s="198"/>
-      <c r="I141" s="198"/>
-      <c r="J141" s="198"/>
-      <c r="K141" s="198"/>
-      <c r="L141" s="198"/>
-      <c r="M141" s="209"/>
-    </row>
-    <row r="142" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="196"/>
-      <c r="B142" s="206"/>
-      <c r="C142" s="200" t="s">
+      <c r="G145" s="196"/>
+      <c r="H145" s="196"/>
+      <c r="I145" s="196"/>
+      <c r="J145" s="196"/>
+      <c r="K145" s="196"/>
+      <c r="L145" s="196"/>
+      <c r="M145" s="200"/>
+    </row>
+    <row r="146" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A146" s="220"/>
+      <c r="B146" s="191"/>
+      <c r="C146" s="210" t="s">
         <v>196</v>
       </c>
-      <c r="D142" s="212"/>
-      <c r="E142" s="128" t="s">
+      <c r="D146" s="217"/>
+      <c r="E146" s="127" t="s">
         <v>169</v>
       </c>
-      <c r="F142" s="130" t="s">
+      <c r="F146" s="129" t="s">
         <v>203</v>
       </c>
-      <c r="G142" s="198"/>
-      <c r="H142" s="198"/>
-      <c r="I142" s="198"/>
-      <c r="J142" s="198"/>
-      <c r="K142" s="198"/>
-      <c r="L142" s="198"/>
-      <c r="M142" s="209"/>
-    </row>
-    <row r="143" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="196"/>
-      <c r="B143" s="206"/>
-      <c r="C143" s="201"/>
-      <c r="D143" s="212"/>
-      <c r="E143" s="128" t="s">
+      <c r="G146" s="196"/>
+      <c r="H146" s="196"/>
+      <c r="I146" s="196"/>
+      <c r="J146" s="196"/>
+      <c r="K146" s="196"/>
+      <c r="L146" s="196"/>
+      <c r="M146" s="200"/>
+    </row>
+    <row r="147" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A147" s="220"/>
+      <c r="B147" s="191"/>
+      <c r="C147" s="211"/>
+      <c r="D147" s="217"/>
+      <c r="E147" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="F143" s="130" t="s">
+      <c r="F147" s="129" t="s">
         <v>205</v>
       </c>
-      <c r="G143" s="198"/>
-      <c r="H143" s="198"/>
-      <c r="I143" s="198"/>
-      <c r="J143" s="198"/>
-      <c r="K143" s="198"/>
-      <c r="L143" s="198"/>
-      <c r="M143" s="209"/>
-    </row>
-    <row r="144" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="196"/>
-      <c r="B144" s="206"/>
-      <c r="C144" s="201"/>
-      <c r="D144" s="212"/>
-      <c r="E144" s="203" t="s">
+      <c r="G147" s="196"/>
+      <c r="H147" s="196"/>
+      <c r="I147" s="196"/>
+      <c r="J147" s="196"/>
+      <c r="K147" s="196"/>
+      <c r="L147" s="196"/>
+      <c r="M147" s="200"/>
+    </row>
+    <row r="148" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A148" s="220"/>
+      <c r="B148" s="191"/>
+      <c r="C148" s="211"/>
+      <c r="D148" s="217"/>
+      <c r="E148" s="213" t="s">
         <v>171</v>
       </c>
-      <c r="F144" s="130" t="s">
+      <c r="F148" s="129" t="s">
         <v>221</v>
       </c>
-      <c r="G144" s="198"/>
-      <c r="H144" s="198"/>
-      <c r="I144" s="198"/>
-      <c r="J144" s="198"/>
-      <c r="K144" s="198"/>
-      <c r="L144" s="198"/>
-      <c r="M144" s="209"/>
-    </row>
-    <row r="145" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="196"/>
-      <c r="B145" s="206"/>
-      <c r="C145" s="202"/>
-      <c r="D145" s="212"/>
-      <c r="E145" s="204"/>
-      <c r="F145" s="130" t="s">
+      <c r="G148" s="196"/>
+      <c r="H148" s="196"/>
+      <c r="I148" s="196"/>
+      <c r="J148" s="196"/>
+      <c r="K148" s="196"/>
+      <c r="L148" s="196"/>
+      <c r="M148" s="200"/>
+    </row>
+    <row r="149" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A149" s="220"/>
+      <c r="B149" s="191"/>
+      <c r="C149" s="212"/>
+      <c r="D149" s="217"/>
+      <c r="E149" s="214"/>
+      <c r="F149" s="129" t="s">
         <v>208</v>
       </c>
-      <c r="G145" s="198"/>
-      <c r="H145" s="198"/>
-      <c r="I145" s="198"/>
-      <c r="J145" s="198"/>
-      <c r="K145" s="198"/>
-      <c r="L145" s="198"/>
-      <c r="M145" s="209"/>
-    </row>
-    <row r="146" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="196"/>
-      <c r="B146" s="206"/>
-      <c r="C146" s="200" t="s">
+      <c r="G149" s="196"/>
+      <c r="H149" s="196"/>
+      <c r="I149" s="196"/>
+      <c r="J149" s="196"/>
+      <c r="K149" s="196"/>
+      <c r="L149" s="196"/>
+      <c r="M149" s="200"/>
+    </row>
+    <row r="150" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A150" s="220"/>
+      <c r="B150" s="191"/>
+      <c r="C150" s="210" t="s">
         <v>197</v>
       </c>
-      <c r="D146" s="212"/>
-      <c r="E146" s="128" t="s">
+      <c r="D150" s="217"/>
+      <c r="E150" s="127" t="s">
         <v>169</v>
       </c>
-      <c r="F146" s="130" t="s">
+      <c r="F150" s="129" t="s">
         <v>212</v>
       </c>
-      <c r="G146" s="198"/>
-      <c r="H146" s="198"/>
-      <c r="I146" s="198"/>
-      <c r="J146" s="198"/>
-      <c r="K146" s="198"/>
-      <c r="L146" s="198"/>
-      <c r="M146" s="209"/>
-    </row>
-    <row r="147" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="196"/>
-      <c r="B147" s="206"/>
-      <c r="C147" s="201"/>
-      <c r="D147" s="212"/>
-      <c r="E147" s="128" t="s">
+      <c r="G150" s="196"/>
+      <c r="H150" s="196"/>
+      <c r="I150" s="196"/>
+      <c r="J150" s="196"/>
+      <c r="K150" s="196"/>
+      <c r="L150" s="196"/>
+      <c r="M150" s="200"/>
+    </row>
+    <row r="151" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A151" s="220"/>
+      <c r="B151" s="191"/>
+      <c r="C151" s="211"/>
+      <c r="D151" s="217"/>
+      <c r="E151" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="F147" s="130" t="s">
+      <c r="F151" s="129" t="s">
         <v>225</v>
       </c>
-      <c r="G147" s="198"/>
-      <c r="H147" s="198"/>
-      <c r="I147" s="198"/>
-      <c r="J147" s="198"/>
-      <c r="K147" s="198"/>
-      <c r="L147" s="198"/>
-      <c r="M147" s="209"/>
-    </row>
-    <row r="148" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="196"/>
-      <c r="B148" s="206"/>
-      <c r="C148" s="202"/>
-      <c r="D148" s="212"/>
-      <c r="E148" s="128" t="s">
+      <c r="G151" s="196"/>
+      <c r="H151" s="196"/>
+      <c r="I151" s="196"/>
+      <c r="J151" s="196"/>
+      <c r="K151" s="196"/>
+      <c r="L151" s="196"/>
+      <c r="M151" s="200"/>
+    </row>
+    <row r="152" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A152" s="220"/>
+      <c r="B152" s="191"/>
+      <c r="C152" s="212"/>
+      <c r="D152" s="217"/>
+      <c r="E152" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="F148" s="130" t="s">
+      <c r="F152" s="129" t="s">
         <v>226</v>
       </c>
-      <c r="G148" s="198"/>
-      <c r="H148" s="198"/>
-      <c r="I148" s="198"/>
-      <c r="J148" s="198"/>
-      <c r="K148" s="198"/>
-      <c r="L148" s="198"/>
-      <c r="M148" s="209"/>
-    </row>
-    <row r="149" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="196"/>
-      <c r="B149" s="206"/>
-      <c r="C149" s="200" t="s">
+      <c r="G152" s="196"/>
+      <c r="H152" s="196"/>
+      <c r="I152" s="196"/>
+      <c r="J152" s="196"/>
+      <c r="K152" s="196"/>
+      <c r="L152" s="196"/>
+      <c r="M152" s="200"/>
+    </row>
+    <row r="153" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A153" s="220"/>
+      <c r="B153" s="191"/>
+      <c r="C153" s="210" t="s">
         <v>198</v>
       </c>
-      <c r="D149" s="212"/>
-      <c r="E149" s="128" t="s">
+      <c r="D153" s="217"/>
+      <c r="E153" s="127" t="s">
         <v>169</v>
       </c>
-      <c r="F149" s="130" t="s">
+      <c r="F153" s="129" t="s">
         <v>227</v>
       </c>
-      <c r="G149" s="198"/>
-      <c r="H149" s="198"/>
-      <c r="I149" s="198"/>
-      <c r="J149" s="198"/>
-      <c r="K149" s="198"/>
-      <c r="L149" s="198"/>
-      <c r="M149" s="209"/>
-    </row>
-    <row r="150" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="196"/>
-      <c r="B150" s="206"/>
-      <c r="C150" s="201"/>
-      <c r="D150" s="212"/>
-      <c r="E150" s="128" t="s">
+      <c r="G153" s="196"/>
+      <c r="H153" s="196"/>
+      <c r="I153" s="196"/>
+      <c r="J153" s="196"/>
+      <c r="K153" s="196"/>
+      <c r="L153" s="196"/>
+      <c r="M153" s="200"/>
+    </row>
+    <row r="154" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A154" s="220"/>
+      <c r="B154" s="191"/>
+      <c r="C154" s="211"/>
+      <c r="D154" s="217"/>
+      <c r="E154" s="127" t="s">
         <v>170</v>
       </c>
-      <c r="F150" s="130" t="s">
+      <c r="F154" s="129" t="s">
         <v>228</v>
       </c>
-      <c r="G150" s="198"/>
-      <c r="H150" s="198"/>
-      <c r="I150" s="198"/>
-      <c r="J150" s="198"/>
-      <c r="K150" s="198"/>
-      <c r="L150" s="198"/>
-      <c r="M150" s="209"/>
-    </row>
-    <row r="151" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="196"/>
-      <c r="B151" s="206"/>
-      <c r="C151" s="202"/>
-      <c r="D151" s="212"/>
-      <c r="E151" s="128" t="s">
+      <c r="G154" s="196"/>
+      <c r="H154" s="196"/>
+      <c r="I154" s="196"/>
+      <c r="J154" s="196"/>
+      <c r="K154" s="196"/>
+      <c r="L154" s="196"/>
+      <c r="M154" s="200"/>
+    </row>
+    <row r="155" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A155" s="220"/>
+      <c r="B155" s="191"/>
+      <c r="C155" s="212"/>
+      <c r="D155" s="217"/>
+      <c r="E155" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="F151" s="130" t="s">
+      <c r="F155" s="129" t="s">
         <v>229</v>
       </c>
-      <c r="G151" s="198"/>
-      <c r="H151" s="198"/>
-      <c r="I151" s="198"/>
-      <c r="J151" s="198"/>
-      <c r="K151" s="198"/>
-      <c r="L151" s="198"/>
-      <c r="M151" s="209"/>
-    </row>
-    <row r="152" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="196"/>
-      <c r="B152" s="206"/>
-      <c r="C152" s="200" t="s">
+      <c r="G155" s="196"/>
+      <c r="H155" s="196"/>
+      <c r="I155" s="196"/>
+      <c r="J155" s="196"/>
+      <c r="K155" s="196"/>
+      <c r="L155" s="196"/>
+      <c r="M155" s="200"/>
+    </row>
+    <row r="156" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A156" s="220"/>
+      <c r="B156" s="191"/>
+      <c r="C156" s="210" t="s">
         <v>199</v>
       </c>
-      <c r="D152" s="212"/>
-      <c r="E152" s="203" t="s">
+      <c r="D156" s="217"/>
+      <c r="E156" s="213" t="s">
         <v>169</v>
       </c>
-      <c r="F152" s="130" t="s">
+      <c r="F156" s="129" t="s">
         <v>211</v>
       </c>
-      <c r="G152" s="198"/>
-      <c r="H152" s="198"/>
-      <c r="I152" s="198"/>
-      <c r="J152" s="198"/>
-      <c r="K152" s="198"/>
-      <c r="L152" s="198"/>
-      <c r="M152" s="209"/>
-    </row>
-    <row r="153" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="196"/>
-      <c r="B153" s="206"/>
-      <c r="C153" s="201"/>
-      <c r="D153" s="212"/>
-      <c r="E153" s="204"/>
-      <c r="F153" s="130" t="s">
+      <c r="G156" s="196"/>
+      <c r="H156" s="196"/>
+      <c r="I156" s="196"/>
+      <c r="J156" s="196"/>
+      <c r="K156" s="196"/>
+      <c r="L156" s="196"/>
+      <c r="M156" s="200"/>
+    </row>
+    <row r="157" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A157" s="220"/>
+      <c r="B157" s="191"/>
+      <c r="C157" s="211"/>
+      <c r="D157" s="217"/>
+      <c r="E157" s="214"/>
+      <c r="F157" s="129" t="s">
         <v>227</v>
       </c>
-      <c r="G153" s="198"/>
-      <c r="H153" s="198"/>
-      <c r="I153" s="198"/>
-      <c r="J153" s="198"/>
-      <c r="K153" s="198"/>
-      <c r="L153" s="198"/>
-      <c r="M153" s="209"/>
-    </row>
-    <row r="154" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="196"/>
-      <c r="B154" s="206"/>
-      <c r="C154" s="201"/>
-      <c r="D154" s="212"/>
-      <c r="E154" s="203" t="s">
+      <c r="G157" s="196"/>
+      <c r="H157" s="196"/>
+      <c r="I157" s="196"/>
+      <c r="J157" s="196"/>
+      <c r="K157" s="196"/>
+      <c r="L157" s="196"/>
+      <c r="M157" s="200"/>
+    </row>
+    <row r="158" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A158" s="220"/>
+      <c r="B158" s="191"/>
+      <c r="C158" s="211"/>
+      <c r="D158" s="217"/>
+      <c r="E158" s="213" t="s">
         <v>170</v>
       </c>
-      <c r="F154" s="130" t="s">
+      <c r="F158" s="129" t="s">
         <v>230</v>
       </c>
-      <c r="G154" s="198"/>
-      <c r="H154" s="198"/>
-      <c r="I154" s="198"/>
-      <c r="J154" s="198"/>
-      <c r="K154" s="198"/>
-      <c r="L154" s="198"/>
-      <c r="M154" s="209"/>
-    </row>
-    <row r="155" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="196"/>
-      <c r="B155" s="206"/>
-      <c r="C155" s="201"/>
-      <c r="D155" s="212"/>
-      <c r="E155" s="210"/>
-      <c r="F155" s="130" t="s">
+      <c r="G158" s="196"/>
+      <c r="H158" s="196"/>
+      <c r="I158" s="196"/>
+      <c r="J158" s="196"/>
+      <c r="K158" s="196"/>
+      <c r="L158" s="196"/>
+      <c r="M158" s="200"/>
+    </row>
+    <row r="159" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A159" s="220"/>
+      <c r="B159" s="191"/>
+      <c r="C159" s="211"/>
+      <c r="D159" s="217"/>
+      <c r="E159" s="215"/>
+      <c r="F159" s="129" t="s">
         <v>231</v>
       </c>
-      <c r="G155" s="198"/>
-      <c r="H155" s="198"/>
-      <c r="I155" s="198"/>
-      <c r="J155" s="198"/>
-      <c r="K155" s="198"/>
-      <c r="L155" s="198"/>
-      <c r="M155" s="209"/>
-    </row>
-    <row r="156" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="196"/>
-      <c r="B156" s="206"/>
-      <c r="C156" s="201"/>
-      <c r="D156" s="212"/>
-      <c r="E156" s="204"/>
-      <c r="F156" s="130" t="s">
+      <c r="G159" s="196"/>
+      <c r="H159" s="196"/>
+      <c r="I159" s="196"/>
+      <c r="J159" s="196"/>
+      <c r="K159" s="196"/>
+      <c r="L159" s="196"/>
+      <c r="M159" s="200"/>
+    </row>
+    <row r="160" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A160" s="220"/>
+      <c r="B160" s="191"/>
+      <c r="C160" s="211"/>
+      <c r="D160" s="217"/>
+      <c r="E160" s="214"/>
+      <c r="F160" s="129" t="s">
         <v>232</v>
       </c>
-      <c r="G156" s="198"/>
-      <c r="H156" s="198"/>
-      <c r="I156" s="198"/>
-      <c r="J156" s="198"/>
-      <c r="K156" s="198"/>
-      <c r="L156" s="198"/>
-      <c r="M156" s="209"/>
-    </row>
-    <row r="157" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="196"/>
-      <c r="B157" s="207"/>
-      <c r="C157" s="202"/>
-      <c r="D157" s="213"/>
-      <c r="E157" s="128" t="s">
+      <c r="G160" s="196"/>
+      <c r="H160" s="196"/>
+      <c r="I160" s="196"/>
+      <c r="J160" s="196"/>
+      <c r="K160" s="196"/>
+      <c r="L160" s="196"/>
+      <c r="M160" s="200"/>
+    </row>
+    <row r="161" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A161" s="220"/>
+      <c r="B161" s="192"/>
+      <c r="C161" s="212"/>
+      <c r="D161" s="218"/>
+      <c r="E161" s="127" t="s">
         <v>171</v>
       </c>
-      <c r="F157" s="130" t="s">
+      <c r="F161" s="129" t="s">
         <v>217</v>
       </c>
-      <c r="G157" s="199"/>
-      <c r="H157" s="199"/>
-      <c r="I157" s="199"/>
-      <c r="J157" s="199"/>
-      <c r="K157" s="199"/>
-      <c r="L157" s="199"/>
-      <c r="M157" s="216"/>
-    </row>
-    <row r="158" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="15"/>
-      <c r="B158" s="15"/>
-      <c r="C158" s="16"/>
-      <c r="D158" s="16"/>
-      <c r="E158" s="16"/>
-      <c r="F158" s="17"/>
-      <c r="G158" s="18"/>
-      <c r="H158" s="18"/>
-      <c r="I158" s="18"/>
-      <c r="J158" s="18"/>
-      <c r="K158" s="18"/>
-      <c r="L158" s="18"/>
-      <c r="M158" s="63"/>
-    </row>
-    <row r="159" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="1" t="s">
+      <c r="G161" s="197"/>
+      <c r="H161" s="197"/>
+      <c r="I161" s="197"/>
+      <c r="J161" s="197"/>
+      <c r="K161" s="197"/>
+      <c r="L161" s="197"/>
+      <c r="M161" s="201"/>
+    </row>
+    <row r="162" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A162" s="15"/>
+      <c r="B162" s="15"/>
+      <c r="C162" s="16"/>
+      <c r="D162" s="16"/>
+      <c r="E162" s="16"/>
+      <c r="F162" s="17"/>
+      <c r="G162" s="18"/>
+      <c r="H162" s="18"/>
+      <c r="I162" s="18"/>
+      <c r="J162" s="18"/>
+      <c r="K162" s="18"/>
+      <c r="L162" s="18"/>
+      <c r="M162" s="63"/>
+    </row>
+    <row r="163" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A163" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B159" s="119" t="s">
+      <c r="B163" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="C159" s="120" t="s">
+      <c r="C163" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="D159" s="6" t="s">
+      <c r="D163" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E159" s="121" t="s">
+      <c r="E163" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="F159" s="122" t="s">
+      <c r="F163" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="G159" s="123" t="s">
+      <c r="G163" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="H159" s="123" t="s">
+      <c r="H163" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="I159" s="123" t="s">
+      <c r="I163" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="J159" s="123" t="s">
+      <c r="J163" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="K159" s="123" t="s">
+      <c r="K163" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="L159" s="123" t="s">
+      <c r="L163" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="M159" s="117" t="s">
+      <c r="M163" s="116" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="160" spans="1:13" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="169" t="s">
+    <row r="164" spans="1:13" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A164" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="B160" s="168" t="s">
+      <c r="B164" s="166" t="s">
         <v>299</v>
       </c>
-      <c r="C160" s="124"/>
-      <c r="D160" s="125"/>
-      <c r="E160" s="126"/>
-      <c r="F160" s="126"/>
-      <c r="G160" s="127"/>
-      <c r="H160" s="127"/>
-      <c r="I160" s="127"/>
-      <c r="J160" s="127"/>
-      <c r="K160" s="127"/>
-      <c r="L160" s="127"/>
-      <c r="M160" s="167"/>
-    </row>
-    <row r="161" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="15"/>
-      <c r="B161" s="15"/>
-      <c r="C161" s="16"/>
-      <c r="D161" s="16"/>
-      <c r="E161" s="16"/>
-      <c r="F161" s="17"/>
-      <c r="G161" s="18"/>
-      <c r="H161" s="18"/>
-      <c r="I161" s="18"/>
-      <c r="J161" s="18"/>
-      <c r="K161" s="18"/>
-      <c r="L161" s="18"/>
-      <c r="M161" s="63"/>
-    </row>
-    <row r="162" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A162" s="1" t="s">
+      <c r="C164" s="123"/>
+      <c r="D164" s="124"/>
+      <c r="E164" s="125"/>
+      <c r="F164" s="125"/>
+      <c r="G164" s="126"/>
+      <c r="H164" s="126"/>
+      <c r="I164" s="126"/>
+      <c r="J164" s="126"/>
+      <c r="K164" s="126"/>
+      <c r="L164" s="126"/>
+      <c r="M164" s="165"/>
+    </row>
+    <row r="165" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A165" s="15"/>
+      <c r="B165" s="15"/>
+      <c r="C165" s="16"/>
+      <c r="D165" s="16"/>
+      <c r="E165" s="16"/>
+      <c r="F165" s="17"/>
+      <c r="G165" s="18"/>
+      <c r="H165" s="18"/>
+      <c r="I165" s="18"/>
+      <c r="J165" s="18"/>
+      <c r="K165" s="18"/>
+      <c r="L165" s="18"/>
+      <c r="M165" s="63"/>
+    </row>
+    <row r="166" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A166" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B162" s="119" t="s">
+      <c r="B166" s="118" t="s">
         <v>1</v>
       </c>
-      <c r="C162" s="120" t="s">
+      <c r="C166" s="119" t="s">
         <v>2</v>
       </c>
-      <c r="D162" s="6" t="s">
+      <c r="D166" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E162" s="121" t="s">
+      <c r="E166" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="F162" s="122" t="s">
+      <c r="F166" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="G162" s="123" t="s">
+      <c r="G166" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="H162" s="123" t="s">
+      <c r="H166" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="I162" s="123" t="s">
+      <c r="I166" s="122" t="s">
         <v>25</v>
       </c>
-      <c r="J162" s="123" t="s">
+      <c r="J166" s="122" t="s">
         <v>26</v>
       </c>
-      <c r="K162" s="123" t="s">
+      <c r="K166" s="122" t="s">
         <v>27</v>
       </c>
-      <c r="L162" s="123" t="s">
+      <c r="L166" s="122" t="s">
         <v>28</v>
       </c>
-      <c r="M162" s="117" t="s">
+      <c r="M166" s="116" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A163" s="169" t="s">
+    <row r="167" spans="1:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A167" s="167" t="s">
         <v>21</v>
       </c>
-      <c r="B163" s="168" t="s">
+      <c r="B167" s="166" t="s">
         <v>300</v>
       </c>
-      <c r="C163" s="124"/>
-      <c r="D163" s="125"/>
-      <c r="E163" s="126"/>
-      <c r="F163" s="126"/>
-      <c r="G163" s="127"/>
-      <c r="H163" s="127"/>
-      <c r="I163" s="127"/>
-      <c r="J163" s="127"/>
-      <c r="K163" s="127"/>
-      <c r="L163" s="127"/>
-      <c r="M163" s="167"/>
-    </row>
-    <row r="164" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="15"/>
-      <c r="B164" s="15"/>
-      <c r="C164" s="16"/>
-      <c r="D164" s="16"/>
-      <c r="E164" s="16"/>
-      <c r="F164" s="17"/>
-      <c r="G164" s="18"/>
-      <c r="H164" s="18"/>
-      <c r="I164" s="18"/>
-      <c r="J164" s="18"/>
-      <c r="K164" s="18"/>
-      <c r="L164" s="18"/>
-      <c r="M164" s="63"/>
-    </row>
-    <row r="165" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A165" s="171" t="s">
+      <c r="C167" s="123"/>
+      <c r="D167" s="124"/>
+      <c r="E167" s="125"/>
+      <c r="F167" s="125"/>
+      <c r="G167" s="126"/>
+      <c r="H167" s="126"/>
+      <c r="I167" s="126"/>
+      <c r="J167" s="126"/>
+      <c r="K167" s="126"/>
+      <c r="L167" s="126"/>
+      <c r="M167" s="165"/>
+    </row>
+    <row r="168" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A168" s="15"/>
+      <c r="B168" s="15"/>
+      <c r="C168" s="16"/>
+      <c r="D168" s="16"/>
+      <c r="E168" s="16"/>
+      <c r="F168" s="17"/>
+      <c r="G168" s="18"/>
+      <c r="H168" s="18"/>
+      <c r="I168" s="18"/>
+      <c r="J168" s="18"/>
+      <c r="K168" s="18"/>
+      <c r="L168" s="18"/>
+      <c r="M168" s="63"/>
+    </row>
+    <row r="169" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A169" s="168" t="s">
         <v>0</v>
       </c>
-      <c r="B165" s="172" t="s">
+      <c r="B169" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="C165" s="173" t="s">
+      <c r="C169" s="170" t="s">
         <v>2</v>
       </c>
-      <c r="D165" s="174" t="s">
+      <c r="D169" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="E165" s="175" t="s">
+      <c r="E169" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="F165" s="176" t="s">
+      <c r="F169" s="173" t="s">
         <v>3</v>
       </c>
-      <c r="G165" s="177" t="s">
+      <c r="G169" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="H165" s="177" t="s">
+      <c r="H169" s="174" t="s">
         <v>23</v>
       </c>
-      <c r="I165" s="177" t="s">
+      <c r="I169" s="174" t="s">
         <v>25</v>
       </c>
-      <c r="J165" s="177" t="s">
+      <c r="J169" s="174" t="s">
         <v>26</v>
       </c>
-      <c r="K165" s="177" t="s">
+      <c r="K169" s="174" t="s">
         <v>27</v>
       </c>
-      <c r="L165" s="177" t="s">
+      <c r="L169" s="174" t="s">
         <v>28</v>
       </c>
-      <c r="M165" s="117" t="s">
+      <c r="M169" s="116" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A166" s="178" t="s">
+    <row r="170" spans="1:13" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A170" s="175" t="s">
         <v>21</v>
       </c>
-      <c r="B166" s="179" t="s">
+      <c r="B170" s="176" t="s">
         <v>301</v>
       </c>
-      <c r="C166" s="180"/>
-      <c r="D166" s="181"/>
-      <c r="E166" s="182"/>
-      <c r="F166" s="182"/>
-      <c r="G166" s="127"/>
-      <c r="H166" s="127"/>
-      <c r="I166" s="127"/>
-      <c r="J166" s="127"/>
-      <c r="K166" s="127"/>
-      <c r="L166" s="127"/>
-      <c r="M166" s="183"/>
+      <c r="C170" s="177"/>
+      <c r="D170" s="178"/>
+      <c r="E170" s="179"/>
+      <c r="F170" s="179"/>
+      <c r="G170" s="126"/>
+      <c r="H170" s="126"/>
+      <c r="I170" s="126"/>
+      <c r="J170" s="126"/>
+      <c r="K170" s="126"/>
+      <c r="L170" s="126"/>
+      <c r="M170" s="180"/>
     </row>
   </sheetData>
-  <mergeCells count="70">
-    <mergeCell ref="B29:B53"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B8:B26"/>
-    <mergeCell ref="A8:A26"/>
-    <mergeCell ref="C17:C22"/>
+  <mergeCells count="71">
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="A29:A53"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="G67:G161"/>
+    <mergeCell ref="H67:H161"/>
+    <mergeCell ref="I67:I161"/>
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="C156:C161"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="J67:J161"/>
+    <mergeCell ref="K67:K161"/>
+    <mergeCell ref="L67:L161"/>
+    <mergeCell ref="A67:A161"/>
+    <mergeCell ref="C109:C111"/>
+    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="B56:B64"/>
+    <mergeCell ref="M56:M64"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="B67:B161"/>
+    <mergeCell ref="C116:C118"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="C93:C96"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="E158:E160"/>
+    <mergeCell ref="D67:D161"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="M67:M161"/>
+    <mergeCell ref="C137:C139"/>
+    <mergeCell ref="C140:C142"/>
+    <mergeCell ref="C143:C145"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="C150:C152"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="C134:C136"/>
+    <mergeCell ref="C104:C108"/>
     <mergeCell ref="M8:M26"/>
     <mergeCell ref="M29:M53"/>
     <mergeCell ref="G5:L5"/>
@@ -6461,61 +6687,11 @@
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="E17:E19"/>
     <mergeCell ref="E20:E22"/>
-    <mergeCell ref="F64:F65"/>
-    <mergeCell ref="M63:M157"/>
-    <mergeCell ref="C133:C135"/>
-    <mergeCell ref="C136:C138"/>
-    <mergeCell ref="C139:C141"/>
-    <mergeCell ref="C142:C145"/>
-    <mergeCell ref="C146:C148"/>
-    <mergeCell ref="C118:C120"/>
-    <mergeCell ref="C121:C123"/>
-    <mergeCell ref="C124:C126"/>
-    <mergeCell ref="C127:C129"/>
-    <mergeCell ref="C130:C132"/>
-    <mergeCell ref="C100:C104"/>
-    <mergeCell ref="B56:B60"/>
-    <mergeCell ref="M56:M60"/>
-    <mergeCell ref="C63:C65"/>
-    <mergeCell ref="C66:C69"/>
-    <mergeCell ref="C70:C72"/>
-    <mergeCell ref="B63:B157"/>
-    <mergeCell ref="C112:C114"/>
-    <mergeCell ref="C115:C117"/>
-    <mergeCell ref="C82:C84"/>
-    <mergeCell ref="C85:C88"/>
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="C93:C95"/>
-    <mergeCell ref="C96:C99"/>
-    <mergeCell ref="E152:E153"/>
-    <mergeCell ref="E154:E156"/>
-    <mergeCell ref="D63:D157"/>
-    <mergeCell ref="A63:A157"/>
-    <mergeCell ref="C105:C107"/>
-    <mergeCell ref="C108:C111"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="E100:E101"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="E109:E110"/>
-    <mergeCell ref="C73:C75"/>
-    <mergeCell ref="C76:C78"/>
-    <mergeCell ref="C79:C81"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="A29:A53"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="G63:G157"/>
-    <mergeCell ref="H63:H157"/>
-    <mergeCell ref="I63:I157"/>
-    <mergeCell ref="C149:C151"/>
-    <mergeCell ref="C152:C157"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="E144:E145"/>
-    <mergeCell ref="J63:J157"/>
-    <mergeCell ref="K63:K157"/>
-    <mergeCell ref="L63:L157"/>
+    <mergeCell ref="B29:B53"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B8:B26"/>
+    <mergeCell ref="A8:A26"/>
+    <mergeCell ref="C17:C22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6530,8 +6706,8 @@
   </sheetPr>
   <dimension ref="A1:N43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7:D8"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37:L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6545,1180 +6721,1240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="226" t="s">
+      <c r="A1" s="232" t="s">
         <v>276</v>
       </c>
-      <c r="B1" s="226"/>
-      <c r="C1" s="226"/>
-      <c r="D1" s="226"/>
-      <c r="E1" s="226"/>
-      <c r="F1" s="226"/>
-      <c r="G1" s="226"/>
-      <c r="H1" s="226"/>
-      <c r="I1" s="226"/>
-      <c r="J1" s="226"/>
-      <c r="K1" s="226"/>
-      <c r="L1" s="226"/>
-      <c r="M1" s="226"/>
-      <c r="N1" s="226"/>
+      <c r="B1" s="232"/>
+      <c r="C1" s="232"/>
+      <c r="D1" s="232"/>
+      <c r="E1" s="232"/>
+      <c r="F1" s="232"/>
+      <c r="G1" s="232"/>
+      <c r="H1" s="232"/>
+      <c r="I1" s="232"/>
+      <c r="J1" s="232"/>
+      <c r="K1" s="232"/>
+      <c r="L1" s="232"/>
+      <c r="M1" s="232"/>
+      <c r="N1" s="232"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="131"/>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="131"/>
-      <c r="F2" s="131"/>
-      <c r="G2" s="131"/>
-      <c r="H2" s="132" t="s">
+      <c r="A2" s="130"/>
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="130"/>
+      <c r="E2" s="130"/>
+      <c r="F2" s="130"/>
+      <c r="G2" s="130"/>
+      <c r="H2" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="132" t="s">
+      <c r="I2" s="131" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="132" t="s">
+      <c r="J2" s="131" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="132" t="s">
+      <c r="K2" s="131" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="132" t="s">
+      <c r="L2" s="131" t="s">
         <v>233</v>
       </c>
-      <c r="M2" s="132" t="s">
+      <c r="M2" s="131" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="131"/>
+      <c r="N2" s="130"/>
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="131"/>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="131"/>
-      <c r="F3" s="131"/>
-      <c r="G3" s="131"/>
-      <c r="H3" s="133" t="s">
+      <c r="A3" s="130"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="130"/>
+      <c r="E3" s="130"/>
+      <c r="F3" s="130"/>
+      <c r="G3" s="130"/>
+      <c r="H3" s="132" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="133" t="s">
+      <c r="I3" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="133" t="s">
+      <c r="J3" s="132" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="133" t="s">
+      <c r="K3" s="132" t="s">
         <v>234</v>
       </c>
-      <c r="L3" s="133" t="s">
+      <c r="L3" s="132" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="133"/>
-      <c r="N3" s="131"/>
+      <c r="M3" s="132"/>
+      <c r="N3" s="130"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="131"/>
-      <c r="B4" s="134"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="135"/>
-      <c r="F4" s="136"/>
-      <c r="G4" s="136"/>
-      <c r="H4" s="242" t="s">
+      <c r="A4" s="130"/>
+      <c r="B4" s="133"/>
+      <c r="C4" s="133"/>
+      <c r="D4" s="133"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="227" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="243"/>
-      <c r="J4" s="243"/>
-      <c r="K4" s="243"/>
-      <c r="L4" s="243"/>
-      <c r="M4" s="244"/>
-      <c r="N4" s="137"/>
+      <c r="I4" s="228"/>
+      <c r="J4" s="228"/>
+      <c r="K4" s="228"/>
+      <c r="L4" s="228"/>
+      <c r="M4" s="229"/>
+      <c r="N4" s="136"/>
     </row>
     <row r="5" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="138" t="s">
+      <c r="A5" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="139" t="s">
+      <c r="B5" s="138" t="s">
         <v>235</v>
       </c>
-      <c r="C5" s="140" t="s">
+      <c r="C5" s="139" t="s">
         <v>236</v>
       </c>
-      <c r="D5" s="141" t="s">
+      <c r="D5" s="140" t="s">
         <v>236</v>
       </c>
-      <c r="E5" s="142" t="s">
+      <c r="E5" s="141" t="s">
         <v>237</v>
       </c>
-      <c r="F5" s="142" t="s">
+      <c r="F5" s="141" t="s">
         <v>238</v>
       </c>
-      <c r="G5" s="142" t="s">
+      <c r="G5" s="141" t="s">
         <v>277</v>
       </c>
-      <c r="H5" s="143" t="s">
+      <c r="H5" s="142" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="143" t="s">
+      <c r="I5" s="142" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="143" t="s">
+      <c r="J5" s="142" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="143" t="s">
+      <c r="K5" s="142" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="143" t="s">
+      <c r="L5" s="142" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="144" t="s">
+      <c r="M5" s="143" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="142" t="s">
+      <c r="N5" s="141" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="225" t="s">
+      <c r="A6" s="230" t="s">
         <v>240</v>
       </c>
-      <c r="B6" s="237" t="s">
+      <c r="B6" s="231" t="s">
         <v>241</v>
       </c>
-      <c r="C6" s="145" t="s">
+      <c r="C6" s="144" t="s">
         <v>242</v>
       </c>
-      <c r="D6" s="146" t="s">
+      <c r="D6" s="145" t="s">
         <v>243</v>
       </c>
-      <c r="E6" s="245" t="s">
+      <c r="E6" s="222" t="s">
         <v>244</v>
       </c>
-      <c r="F6" s="147">
+      <c r="F6" s="146">
         <v>1</v>
       </c>
-      <c r="G6" s="147" t="s">
+      <c r="G6" s="146" t="s">
         <v>242</v>
       </c>
-      <c r="H6" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="185"/>
-      <c r="M6" s="185"/>
-      <c r="N6" s="245" t="s">
+      <c r="H6" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="182"/>
+      <c r="N6" s="222" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="225"/>
-      <c r="B7" s="237"/>
-      <c r="C7" s="229" t="s">
+      <c r="A7" s="230"/>
+      <c r="B7" s="231"/>
+      <c r="C7" s="235" t="s">
         <v>245</v>
       </c>
-      <c r="D7" s="227" t="s">
+      <c r="D7" s="233" t="s">
         <v>243</v>
       </c>
-      <c r="E7" s="246"/>
-      <c r="F7" s="231">
+      <c r="E7" s="223"/>
+      <c r="F7" s="237">
         <v>2</v>
       </c>
-      <c r="G7" s="147" t="s">
+      <c r="G7" s="146" t="s">
         <v>278</v>
       </c>
-      <c r="H7" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" s="185"/>
-      <c r="M7" s="185"/>
-      <c r="N7" s="246"/>
+      <c r="H7" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="182"/>
+      <c r="N7" s="223"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="225"/>
-      <c r="B8" s="237"/>
-      <c r="C8" s="230"/>
-      <c r="D8" s="228"/>
-      <c r="E8" s="246"/>
-      <c r="F8" s="232"/>
-      <c r="G8" s="147" t="s">
+      <c r="A8" s="230"/>
+      <c r="B8" s="231"/>
+      <c r="C8" s="236"/>
+      <c r="D8" s="234"/>
+      <c r="E8" s="223"/>
+      <c r="F8" s="238"/>
+      <c r="G8" s="146" t="s">
         <v>279</v>
       </c>
-      <c r="H8" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="185"/>
-      <c r="M8" s="185"/>
-      <c r="N8" s="246"/>
+      <c r="H8" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="182"/>
+      <c r="N8" s="223"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="225"/>
-      <c r="B9" s="237"/>
-      <c r="C9" s="148" t="s">
+      <c r="A9" s="230"/>
+      <c r="B9" s="231"/>
+      <c r="C9" s="147" t="s">
         <v>246</v>
       </c>
-      <c r="D9" s="146" t="s">
+      <c r="D9" s="145" t="s">
         <v>243</v>
       </c>
-      <c r="E9" s="246"/>
-      <c r="F9" s="147">
+      <c r="E9" s="223"/>
+      <c r="F9" s="146">
         <v>1</v>
       </c>
-      <c r="G9" s="190" t="s">
+      <c r="G9" s="187" t="s">
         <v>280</v>
       </c>
-      <c r="H9" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="L9" s="149"/>
-      <c r="M9" s="150"/>
-      <c r="N9" s="246"/>
+      <c r="H9" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="149"/>
+      <c r="N9" s="223"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="225"/>
-      <c r="B10" s="237"/>
-      <c r="C10" s="248" t="s">
+      <c r="A10" s="230"/>
+      <c r="B10" s="231"/>
+      <c r="C10" s="225" t="s">
         <v>247</v>
       </c>
-      <c r="D10" s="151" t="s">
+      <c r="D10" s="150" t="s">
         <v>248</v>
       </c>
-      <c r="E10" s="246"/>
-      <c r="F10" s="147">
+      <c r="E10" s="223"/>
+      <c r="F10" s="146">
         <v>1</v>
       </c>
-      <c r="G10" s="147" t="s">
+      <c r="G10" s="146" t="s">
         <v>248</v>
       </c>
-      <c r="H10" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" s="149"/>
-      <c r="M10" s="150"/>
-      <c r="N10" s="246"/>
+      <c r="H10" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="149"/>
+      <c r="N10" s="223"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="225"/>
-      <c r="B11" s="237"/>
-      <c r="C11" s="248"/>
-      <c r="D11" s="151" t="s">
+      <c r="A11" s="230"/>
+      <c r="B11" s="231"/>
+      <c r="C11" s="225"/>
+      <c r="D11" s="150" t="s">
         <v>249</v>
       </c>
-      <c r="E11" s="246"/>
-      <c r="F11" s="147">
+      <c r="E11" s="223"/>
+      <c r="F11" s="146">
         <v>1</v>
       </c>
-      <c r="G11" s="147" t="s">
+      <c r="G11" s="146" t="s">
         <v>281</v>
       </c>
-      <c r="H11" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="L11" s="149"/>
-      <c r="M11" s="150"/>
-      <c r="N11" s="246"/>
+      <c r="H11" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="149"/>
+      <c r="N11" s="223"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="225"/>
-      <c r="B12" s="237"/>
-      <c r="C12" s="248"/>
-      <c r="D12" s="151" t="s">
+      <c r="A12" s="230"/>
+      <c r="B12" s="231"/>
+      <c r="C12" s="225"/>
+      <c r="D12" s="150" t="s">
         <v>250</v>
       </c>
-      <c r="E12" s="246"/>
-      <c r="F12" s="147">
+      <c r="E12" s="223"/>
+      <c r="F12" s="146">
         <v>1</v>
       </c>
-      <c r="G12" s="147" t="s">
+      <c r="G12" s="146" t="s">
         <v>250</v>
       </c>
-      <c r="H12" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="L12" s="149"/>
-      <c r="M12" s="150"/>
-      <c r="N12" s="246"/>
+      <c r="H12" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" s="149"/>
+      <c r="N12" s="223"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="225"/>
-      <c r="B13" s="237"/>
-      <c r="C13" s="248"/>
-      <c r="D13" s="151" t="s">
+      <c r="A13" s="230"/>
+      <c r="B13" s="231"/>
+      <c r="C13" s="225"/>
+      <c r="D13" s="150" t="s">
         <v>251</v>
       </c>
-      <c r="E13" s="246"/>
-      <c r="F13" s="147">
+      <c r="E13" s="223"/>
+      <c r="F13" s="146">
         <v>1</v>
       </c>
-      <c r="G13" s="147" t="s">
+      <c r="G13" s="146" t="s">
         <v>251</v>
       </c>
-      <c r="H13" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="L13" s="149"/>
-      <c r="M13" s="150"/>
-      <c r="N13" s="246"/>
+      <c r="H13" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="149"/>
+      <c r="N13" s="223"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="225"/>
-      <c r="B14" s="237"/>
-      <c r="C14" s="248"/>
-      <c r="D14" s="151" t="s">
+      <c r="A14" s="230"/>
+      <c r="B14" s="231"/>
+      <c r="C14" s="225"/>
+      <c r="D14" s="150" t="s">
         <v>252</v>
       </c>
-      <c r="E14" s="246"/>
-      <c r="F14" s="147">
+      <c r="E14" s="223"/>
+      <c r="F14" s="146">
         <v>1</v>
       </c>
-      <c r="G14" s="147" t="s">
+      <c r="G14" s="146" t="s">
         <v>252</v>
       </c>
-      <c r="H14" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="L14" s="149"/>
-      <c r="M14" s="150"/>
-      <c r="N14" s="246"/>
+      <c r="H14" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" s="149"/>
+      <c r="N14" s="223"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="225"/>
-      <c r="B15" s="237"/>
-      <c r="C15" s="248"/>
-      <c r="D15" s="151" t="s">
+      <c r="A15" s="230"/>
+      <c r="B15" s="231"/>
+      <c r="C15" s="225"/>
+      <c r="D15" s="150" t="s">
         <v>253</v>
       </c>
-      <c r="E15" s="246"/>
-      <c r="F15" s="147">
+      <c r="E15" s="223"/>
+      <c r="F15" s="146">
         <v>1</v>
       </c>
-      <c r="G15" s="147" t="s">
+      <c r="G15" s="146" t="s">
         <v>253</v>
       </c>
-      <c r="H15" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="L15" s="149"/>
-      <c r="M15" s="150"/>
-      <c r="N15" s="246"/>
+      <c r="H15" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" s="149"/>
+      <c r="N15" s="223"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="225"/>
-      <c r="B16" s="237"/>
-      <c r="C16" s="248"/>
-      <c r="D16" s="151" t="s">
+      <c r="A16" s="230"/>
+      <c r="B16" s="231"/>
+      <c r="C16" s="225"/>
+      <c r="D16" s="150" t="s">
         <v>254</v>
       </c>
-      <c r="E16" s="246"/>
-      <c r="F16" s="147">
+      <c r="E16" s="223"/>
+      <c r="F16" s="146">
         <v>1</v>
       </c>
-      <c r="G16" s="147" t="s">
+      <c r="G16" s="146" t="s">
         <v>254</v>
       </c>
-      <c r="H16" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="L16" s="149"/>
-      <c r="M16" s="150"/>
-      <c r="N16" s="246"/>
+      <c r="H16" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="149"/>
+      <c r="N16" s="223"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="225"/>
-      <c r="B17" s="237"/>
-      <c r="C17" s="248" t="s">
+      <c r="A17" s="230"/>
+      <c r="B17" s="231"/>
+      <c r="C17" s="225" t="s">
         <v>255</v>
       </c>
-      <c r="D17" s="151" t="s">
+      <c r="D17" s="150" t="s">
         <v>256</v>
       </c>
-      <c r="E17" s="246"/>
-      <c r="F17" s="147">
+      <c r="E17" s="223"/>
+      <c r="F17" s="146">
         <v>1</v>
       </c>
-      <c r="G17" s="147" t="s">
+      <c r="G17" s="146" t="s">
         <v>256</v>
       </c>
-      <c r="H17" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="J17" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="K17" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="L17" s="149"/>
-      <c r="M17" s="150"/>
-      <c r="N17" s="246"/>
+      <c r="H17" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="L17" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" s="149"/>
+      <c r="N17" s="223"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="225"/>
-      <c r="B18" s="237"/>
-      <c r="C18" s="248"/>
-      <c r="D18" s="151" t="s">
+      <c r="A18" s="230"/>
+      <c r="B18" s="231"/>
+      <c r="C18" s="225"/>
+      <c r="D18" s="150" t="s">
         <v>257</v>
       </c>
-      <c r="E18" s="246"/>
-      <c r="F18" s="147">
+      <c r="E18" s="223"/>
+      <c r="F18" s="146">
         <v>1</v>
       </c>
-      <c r="G18" s="147" t="s">
+      <c r="G18" s="146" t="s">
         <v>257</v>
       </c>
-      <c r="H18" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="I18" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="K18" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="L18" s="149"/>
-      <c r="M18" s="150"/>
-      <c r="N18" s="246"/>
+      <c r="H18" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="M18" s="149"/>
+      <c r="N18" s="223"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="225"/>
-      <c r="B19" s="237"/>
-      <c r="C19" s="248"/>
-      <c r="D19" s="151" t="s">
+      <c r="A19" s="230"/>
+      <c r="B19" s="231"/>
+      <c r="C19" s="225"/>
+      <c r="D19" s="150" t="s">
         <v>258</v>
       </c>
-      <c r="E19" s="246"/>
-      <c r="F19" s="147">
+      <c r="E19" s="223"/>
+      <c r="F19" s="146">
         <v>1</v>
       </c>
-      <c r="G19" s="147" t="s">
+      <c r="G19" s="146" t="s">
         <v>258</v>
       </c>
-      <c r="H19" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="I19" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="J19" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" s="149"/>
-      <c r="M19" s="150"/>
-      <c r="N19" s="246"/>
+      <c r="H19" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="M19" s="149"/>
+      <c r="N19" s="223"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="225"/>
-      <c r="B20" s="237"/>
-      <c r="C20" s="248"/>
-      <c r="D20" s="151" t="s">
+      <c r="A20" s="230"/>
+      <c r="B20" s="231"/>
+      <c r="C20" s="225"/>
+      <c r="D20" s="150" t="s">
         <v>259</v>
       </c>
-      <c r="E20" s="246"/>
-      <c r="F20" s="147">
+      <c r="E20" s="223"/>
+      <c r="F20" s="146">
         <v>1</v>
       </c>
-      <c r="G20" s="147" t="s">
+      <c r="G20" s="146" t="s">
         <v>259</v>
       </c>
-      <c r="H20" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="I20" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="J20" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="K20" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="L20" s="149"/>
-      <c r="M20" s="150"/>
-      <c r="N20" s="246"/>
+      <c r="H20" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="M20" s="149"/>
+      <c r="N20" s="223"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="225"/>
-      <c r="B21" s="237"/>
-      <c r="C21" s="248"/>
-      <c r="D21" s="151" t="s">
+      <c r="A21" s="230"/>
+      <c r="B21" s="231"/>
+      <c r="C21" s="225"/>
+      <c r="D21" s="150" t="s">
         <v>260</v>
       </c>
-      <c r="E21" s="247"/>
-      <c r="F21" s="147">
+      <c r="E21" s="224"/>
+      <c r="F21" s="146">
         <v>1</v>
       </c>
-      <c r="G21" s="147" t="s">
+      <c r="G21" s="146" t="s">
         <v>260</v>
       </c>
-      <c r="H21" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="J21" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="K21" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="L21" s="149"/>
-      <c r="M21" s="150"/>
-      <c r="N21" s="247"/>
+      <c r="H21" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="L21" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21" s="149"/>
+      <c r="N21" s="224"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="152" t="s">
+      <c r="A22" s="151" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="153" t="s">
+      <c r="B22" s="152" t="s">
         <v>235</v>
       </c>
-      <c r="C22" s="154" t="s">
+      <c r="C22" s="153" t="s">
         <v>261</v>
       </c>
-      <c r="D22" s="155" t="s">
+      <c r="D22" s="154" t="s">
         <v>236</v>
       </c>
-      <c r="E22" s="156"/>
-      <c r="F22" s="157"/>
-      <c r="G22" s="157"/>
-      <c r="H22" s="158"/>
-      <c r="I22" s="158"/>
-      <c r="J22" s="158"/>
-      <c r="K22" s="158"/>
-      <c r="L22" s="158"/>
-      <c r="M22" s="159"/>
-      <c r="N22" s="156"/>
+      <c r="E22" s="155"/>
+      <c r="F22" s="156"/>
+      <c r="G22" s="156"/>
+      <c r="H22" s="157"/>
+      <c r="I22" s="157"/>
+      <c r="J22" s="157"/>
+      <c r="K22" s="157"/>
+      <c r="L22" s="157"/>
+      <c r="M22" s="158"/>
+      <c r="N22" s="155"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="225" t="s">
+      <c r="A23" s="230" t="s">
         <v>240</v>
       </c>
-      <c r="B23" s="237" t="s">
+      <c r="B23" s="231" t="s">
         <v>262</v>
       </c>
-      <c r="C23" s="238" t="s">
+      <c r="C23" s="226" t="s">
         <v>263</v>
       </c>
-      <c r="D23" s="151" t="s">
+      <c r="D23" s="150" t="s">
         <v>264</v>
       </c>
-      <c r="E23" s="239" t="s">
+      <c r="E23" s="243" t="s">
         <v>244</v>
       </c>
-      <c r="F23" s="147">
+      <c r="F23" s="146">
         <v>1</v>
       </c>
-      <c r="G23" s="147" t="s">
+      <c r="G23" s="146" t="s">
         <v>282</v>
       </c>
-      <c r="H23" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="I23" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="J23" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="L23" s="149"/>
-      <c r="M23" s="150"/>
-      <c r="N23" s="239" t="s">
+      <c r="H23" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="L23" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="M23" s="149"/>
+      <c r="N23" s="243" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="225"/>
-      <c r="B24" s="237"/>
-      <c r="C24" s="238"/>
-      <c r="D24" s="151" t="s">
+      <c r="A24" s="230"/>
+      <c r="B24" s="231"/>
+      <c r="C24" s="226"/>
+      <c r="D24" s="150" t="s">
         <v>265</v>
       </c>
-      <c r="E24" s="240"/>
-      <c r="F24" s="164"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="184"/>
-      <c r="I24" s="184"/>
-      <c r="J24" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="K24" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="L24" s="149"/>
-      <c r="M24" s="150"/>
-      <c r="N24" s="240"/>
+      <c r="E24" s="244"/>
+      <c r="F24" s="162"/>
+      <c r="G24" s="146"/>
+      <c r="H24" s="181"/>
+      <c r="I24" s="181"/>
+      <c r="J24" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="L24" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="M24" s="149"/>
+      <c r="N24" s="244"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="225"/>
-      <c r="B25" s="237"/>
-      <c r="C25" s="238" t="s">
+      <c r="A25" s="230"/>
+      <c r="B25" s="231"/>
+      <c r="C25" s="226" t="s">
         <v>266</v>
       </c>
-      <c r="D25" s="151" t="s">
+      <c r="D25" s="150" t="s">
         <v>264</v>
       </c>
-      <c r="E25" s="240"/>
-      <c r="F25" s="147">
+      <c r="E25" s="244"/>
+      <c r="F25" s="146">
         <v>1</v>
       </c>
-      <c r="G25" s="147" t="s">
+      <c r="G25" s="146" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="I25" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="J25" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="K25" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="L25" s="149"/>
-      <c r="M25" s="150"/>
-      <c r="N25" s="240"/>
+      <c r="H25" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="J25" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="L25" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="M25" s="149"/>
+      <c r="N25" s="244"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="225"/>
-      <c r="B26" s="237"/>
-      <c r="C26" s="238"/>
-      <c r="D26" s="151" t="s">
+      <c r="A26" s="230"/>
+      <c r="B26" s="231"/>
+      <c r="C26" s="226"/>
+      <c r="D26" s="150" t="s">
         <v>267</v>
       </c>
-      <c r="E26" s="240"/>
-      <c r="F26" s="190"/>
-      <c r="G26" s="147"/>
-      <c r="H26" s="184"/>
-      <c r="I26" s="184"/>
-      <c r="J26" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="K26" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="L26" s="149"/>
-      <c r="M26" s="149"/>
-      <c r="N26" s="240"/>
+      <c r="E26" s="244"/>
+      <c r="F26" s="187"/>
+      <c r="G26" s="146"/>
+      <c r="H26" s="181"/>
+      <c r="I26" s="181"/>
+      <c r="J26" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="L26" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="M26" s="148"/>
+      <c r="N26" s="244"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="225"/>
-      <c r="B27" s="237"/>
-      <c r="C27" s="238"/>
-      <c r="D27" s="151" t="s">
+      <c r="A27" s="230"/>
+      <c r="B27" s="231"/>
+      <c r="C27" s="226"/>
+      <c r="D27" s="150" t="s">
         <v>268</v>
       </c>
-      <c r="E27" s="240"/>
-      <c r="F27" s="164"/>
-      <c r="G27" s="147"/>
-      <c r="H27" s="184"/>
-      <c r="I27" s="184"/>
-      <c r="J27" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="L27" s="160"/>
-      <c r="M27" s="161"/>
-      <c r="N27" s="240"/>
+      <c r="E27" s="244"/>
+      <c r="F27" s="162"/>
+      <c r="G27" s="146"/>
+      <c r="H27" s="181"/>
+      <c r="I27" s="181"/>
+      <c r="J27" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="L27" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="M27" s="159"/>
+      <c r="N27" s="244"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="225"/>
-      <c r="B28" s="237"/>
-      <c r="C28" s="238" t="s">
+      <c r="A28" s="230"/>
+      <c r="B28" s="231"/>
+      <c r="C28" s="226" t="s">
         <v>269</v>
       </c>
-      <c r="D28" s="151" t="s">
+      <c r="D28" s="150" t="s">
         <v>264</v>
       </c>
-      <c r="E28" s="240"/>
-      <c r="F28" s="147">
+      <c r="E28" s="244"/>
+      <c r="F28" s="146">
         <v>1</v>
       </c>
-      <c r="G28" s="147" t="s">
+      <c r="G28" s="146" t="s">
         <v>60</v>
       </c>
-      <c r="H28" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="I28" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="J28" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="K28" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="L28" s="185"/>
-      <c r="M28" s="186"/>
-      <c r="N28" s="240"/>
+      <c r="H28" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="M28" s="183"/>
+      <c r="N28" s="244"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="225"/>
-      <c r="B29" s="237"/>
-      <c r="C29" s="238"/>
-      <c r="D29" s="151" t="s">
+      <c r="A29" s="230"/>
+      <c r="B29" s="231"/>
+      <c r="C29" s="226"/>
+      <c r="D29" s="150" t="s">
         <v>267</v>
       </c>
-      <c r="E29" s="240"/>
-      <c r="F29" s="164"/>
-      <c r="G29" s="147"/>
-      <c r="H29" s="184"/>
-      <c r="I29" s="184"/>
-      <c r="J29" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="K29" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="L29" s="185"/>
-      <c r="M29" s="186"/>
-      <c r="N29" s="240"/>
+      <c r="E29" s="244"/>
+      <c r="F29" s="162"/>
+      <c r="G29" s="146"/>
+      <c r="H29" s="181"/>
+      <c r="I29" s="181"/>
+      <c r="J29" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="L29" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="M29" s="183"/>
+      <c r="N29" s="244"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="225"/>
-      <c r="B30" s="237"/>
-      <c r="C30" s="238" t="s">
+      <c r="A30" s="230"/>
+      <c r="B30" s="231"/>
+      <c r="C30" s="226" t="s">
         <v>270</v>
       </c>
-      <c r="D30" s="151" t="s">
+      <c r="D30" s="150" t="s">
         <v>264</v>
       </c>
-      <c r="E30" s="240"/>
-      <c r="F30" s="147">
+      <c r="E30" s="244"/>
+      <c r="F30" s="146">
         <v>1</v>
       </c>
-      <c r="G30" s="147" t="s">
+      <c r="G30" s="146" t="s">
         <v>283</v>
       </c>
-      <c r="H30" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="I30" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="J30" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="K30" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="L30" s="185"/>
-      <c r="M30" s="186"/>
-      <c r="N30" s="240"/>
+      <c r="H30" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="L30" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="M30" s="183"/>
+      <c r="N30" s="244"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="225"/>
-      <c r="B31" s="237"/>
-      <c r="C31" s="238"/>
-      <c r="D31" s="151" t="s">
+      <c r="A31" s="230"/>
+      <c r="B31" s="231"/>
+      <c r="C31" s="226"/>
+      <c r="D31" s="150" t="s">
         <v>267</v>
       </c>
-      <c r="E31" s="240"/>
-      <c r="F31" s="147">
+      <c r="E31" s="244"/>
+      <c r="F31" s="146">
         <v>1</v>
       </c>
-      <c r="G31" s="147" t="s">
+      <c r="G31" s="146" t="s">
         <v>284</v>
       </c>
-      <c r="H31" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="I31" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="J31" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="K31" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="L31" s="185"/>
-      <c r="M31" s="186"/>
-      <c r="N31" s="240"/>
+      <c r="H31" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="J31" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="L31" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="M31" s="183"/>
+      <c r="N31" s="244"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="225"/>
-      <c r="B32" s="237"/>
-      <c r="C32" s="248" t="s">
+      <c r="A32" s="230"/>
+      <c r="B32" s="231"/>
+      <c r="C32" s="225" t="s">
         <v>271</v>
       </c>
-      <c r="D32" s="151" t="s">
+      <c r="D32" s="150" t="s">
         <v>264</v>
       </c>
-      <c r="E32" s="240"/>
-      <c r="F32" s="147">
+      <c r="E32" s="244"/>
+      <c r="F32" s="146">
         <v>1</v>
       </c>
-      <c r="G32" s="147" t="s">
+      <c r="G32" s="146" t="s">
         <v>285</v>
       </c>
-      <c r="H32" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="I32" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="J32" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="K32" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="L32" s="185"/>
-      <c r="M32" s="186"/>
-      <c r="N32" s="240"/>
+      <c r="H32" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="J32" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="L32" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="M32" s="183"/>
+      <c r="N32" s="244"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="225"/>
-      <c r="B33" s="237"/>
-      <c r="C33" s="248"/>
-      <c r="D33" s="151" t="s">
+      <c r="A33" s="230"/>
+      <c r="B33" s="231"/>
+      <c r="C33" s="225"/>
+      <c r="D33" s="150" t="s">
         <v>267</v>
       </c>
-      <c r="E33" s="240"/>
-      <c r="F33" s="147">
+      <c r="E33" s="244"/>
+      <c r="F33" s="146">
         <v>1</v>
       </c>
-      <c r="G33" s="147" t="s">
+      <c r="G33" s="146" t="s">
         <v>286</v>
       </c>
-      <c r="H33" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="I33" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="J33" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="K33" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="L33" s="185"/>
-      <c r="M33" s="186"/>
-      <c r="N33" s="240"/>
+      <c r="H33" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="I33" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="J33" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="K33" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="L33" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="M33" s="183"/>
+      <c r="N33" s="244"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="225"/>
-      <c r="B34" s="237"/>
-      <c r="C34" s="238" t="s">
+      <c r="A34" s="230"/>
+      <c r="B34" s="231"/>
+      <c r="C34" s="226" t="s">
         <v>272</v>
       </c>
-      <c r="D34" s="151" t="s">
+      <c r="D34" s="150" t="s">
         <v>264</v>
       </c>
-      <c r="E34" s="240"/>
-      <c r="F34" s="147">
+      <c r="E34" s="244"/>
+      <c r="F34" s="146">
         <v>1</v>
       </c>
-      <c r="G34" s="147" t="s">
+      <c r="G34" s="146" t="s">
         <v>61</v>
       </c>
-      <c r="H34" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="I34" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="J34" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="K34" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="L34" s="185"/>
-      <c r="M34" s="186"/>
-      <c r="N34" s="240"/>
+      <c r="H34" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="J34" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="K34" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="L34" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="M34" s="183"/>
+      <c r="N34" s="244"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="225"/>
-      <c r="B35" s="237"/>
-      <c r="C35" s="238"/>
-      <c r="D35" s="151" t="s">
+      <c r="A35" s="230"/>
+      <c r="B35" s="231"/>
+      <c r="C35" s="226"/>
+      <c r="D35" s="150" t="s">
         <v>267</v>
       </c>
-      <c r="E35" s="241"/>
-      <c r="F35" s="147">
+      <c r="E35" s="245"/>
+      <c r="F35" s="146">
         <v>1</v>
       </c>
-      <c r="G35" s="190" t="s">
+      <c r="G35" s="187" t="s">
         <v>287</v>
       </c>
-      <c r="H35" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="I35" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="J35" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="K35" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="L35" s="185"/>
-      <c r="M35" s="186"/>
-      <c r="N35" s="241"/>
+      <c r="H35" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="I35" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="J35" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="K35" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="L35" s="181" t="s">
+        <v>49</v>
+      </c>
+      <c r="M35" s="183"/>
+      <c r="N35" s="245"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="138" t="s">
+      <c r="A36" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="153" t="s">
+      <c r="B36" s="152" t="s">
         <v>235</v>
       </c>
-      <c r="C36" s="162"/>
-      <c r="D36" s="163"/>
-      <c r="E36" s="156"/>
-      <c r="F36" s="157"/>
-      <c r="G36" s="157"/>
-      <c r="H36" s="187"/>
-      <c r="I36" s="187"/>
-      <c r="J36" s="187"/>
-      <c r="K36" s="187"/>
-      <c r="L36" s="187"/>
-      <c r="M36" s="188"/>
-      <c r="N36" s="156"/>
+      <c r="C36" s="160"/>
+      <c r="D36" s="161"/>
+      <c r="E36" s="155"/>
+      <c r="F36" s="156"/>
+      <c r="G36" s="156"/>
+      <c r="H36" s="184"/>
+      <c r="I36" s="184"/>
+      <c r="J36" s="184"/>
+      <c r="K36" s="184"/>
+      <c r="L36" s="184"/>
+      <c r="M36" s="185"/>
+      <c r="N36" s="155"/>
     </row>
     <row r="37" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="225" t="s">
+      <c r="A37" s="230" t="s">
         <v>240</v>
       </c>
-      <c r="B37" s="236" t="s">
+      <c r="B37" s="242" t="s">
         <v>273</v>
       </c>
-      <c r="C37" s="235"/>
-      <c r="D37" s="234"/>
-      <c r="E37" s="233" t="s">
+      <c r="C37" s="241"/>
+      <c r="D37" s="240"/>
+      <c r="E37" s="239" t="s">
         <v>244</v>
       </c>
-      <c r="F37" s="233">
+      <c r="F37" s="239">
         <v>6</v>
       </c>
-      <c r="G37" s="165" t="s">
+      <c r="G37" s="163" t="s">
         <v>288</v>
       </c>
-      <c r="H37" s="223" t="s">
-        <v>49</v>
-      </c>
-      <c r="I37" s="223" t="s">
-        <v>49</v>
-      </c>
-      <c r="J37" s="223" t="s">
-        <v>49</v>
-      </c>
-      <c r="K37" s="223" t="s">
-        <v>49</v>
-      </c>
-      <c r="L37" s="223"/>
-      <c r="M37" s="223"/>
-      <c r="N37" s="224" t="s">
+      <c r="H37" s="246" t="s">
+        <v>49</v>
+      </c>
+      <c r="I37" s="246" t="s">
+        <v>49</v>
+      </c>
+      <c r="J37" s="246" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37" s="246" t="s">
+        <v>49</v>
+      </c>
+      <c r="L37" s="246" t="s">
+        <v>49</v>
+      </c>
+      <c r="M37" s="246"/>
+      <c r="N37" s="247" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="225"/>
-      <c r="B38" s="236"/>
-      <c r="C38" s="235"/>
-      <c r="D38" s="234"/>
-      <c r="E38" s="233"/>
-      <c r="F38" s="233"/>
-      <c r="G38" s="165" t="s">
+      <c r="A38" s="230"/>
+      <c r="B38" s="242"/>
+      <c r="C38" s="241"/>
+      <c r="D38" s="240"/>
+      <c r="E38" s="239"/>
+      <c r="F38" s="239"/>
+      <c r="G38" s="163" t="s">
         <v>289</v>
       </c>
-      <c r="H38" s="223"/>
-      <c r="I38" s="223"/>
-      <c r="J38" s="223"/>
-      <c r="K38" s="223"/>
-      <c r="L38" s="223"/>
-      <c r="M38" s="223"/>
-      <c r="N38" s="224"/>
+      <c r="H38" s="246"/>
+      <c r="I38" s="246"/>
+      <c r="J38" s="246"/>
+      <c r="K38" s="246"/>
+      <c r="L38" s="246"/>
+      <c r="M38" s="246"/>
+      <c r="N38" s="247"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="225"/>
-      <c r="B39" s="236"/>
-      <c r="C39" s="235"/>
-      <c r="D39" s="234"/>
-      <c r="E39" s="233"/>
-      <c r="F39" s="233"/>
-      <c r="G39" s="165" t="s">
+      <c r="A39" s="230"/>
+      <c r="B39" s="242"/>
+      <c r="C39" s="241"/>
+      <c r="D39" s="240"/>
+      <c r="E39" s="239"/>
+      <c r="F39" s="239"/>
+      <c r="G39" s="163" t="s">
         <v>290</v>
       </c>
-      <c r="H39" s="223"/>
-      <c r="I39" s="223"/>
-      <c r="J39" s="223"/>
-      <c r="K39" s="223"/>
-      <c r="L39" s="223"/>
-      <c r="M39" s="223"/>
-      <c r="N39" s="224"/>
+      <c r="H39" s="246"/>
+      <c r="I39" s="246"/>
+      <c r="J39" s="246"/>
+      <c r="K39" s="246"/>
+      <c r="L39" s="246"/>
+      <c r="M39" s="246"/>
+      <c r="N39" s="247"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="225"/>
-      <c r="B40" s="236"/>
-      <c r="C40" s="235"/>
-      <c r="D40" s="234"/>
-      <c r="E40" s="233"/>
-      <c r="F40" s="233"/>
-      <c r="G40" s="165" t="s">
+      <c r="A40" s="230"/>
+      <c r="B40" s="242"/>
+      <c r="C40" s="241"/>
+      <c r="D40" s="240"/>
+      <c r="E40" s="239"/>
+      <c r="F40" s="239"/>
+      <c r="G40" s="163" t="s">
         <v>293</v>
       </c>
-      <c r="H40" s="223"/>
-      <c r="I40" s="223"/>
-      <c r="J40" s="223"/>
-      <c r="K40" s="223"/>
-      <c r="L40" s="223"/>
-      <c r="M40" s="223"/>
-      <c r="N40" s="224"/>
+      <c r="H40" s="246"/>
+      <c r="I40" s="246"/>
+      <c r="J40" s="246"/>
+      <c r="K40" s="246"/>
+      <c r="L40" s="246"/>
+      <c r="M40" s="246"/>
+      <c r="N40" s="247"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="225"/>
-      <c r="B41" s="236"/>
-      <c r="C41" s="235"/>
-      <c r="D41" s="234"/>
-      <c r="E41" s="233"/>
-      <c r="F41" s="233"/>
-      <c r="G41" s="165" t="s">
+      <c r="A41" s="230"/>
+      <c r="B41" s="242"/>
+      <c r="C41" s="241"/>
+      <c r="D41" s="240"/>
+      <c r="E41" s="239"/>
+      <c r="F41" s="239"/>
+      <c r="G41" s="163" t="s">
         <v>291</v>
       </c>
-      <c r="H41" s="223"/>
-      <c r="I41" s="223"/>
-      <c r="J41" s="223"/>
-      <c r="K41" s="223"/>
-      <c r="L41" s="223"/>
-      <c r="M41" s="223"/>
-      <c r="N41" s="224"/>
+      <c r="H41" s="246"/>
+      <c r="I41" s="246"/>
+      <c r="J41" s="246"/>
+      <c r="K41" s="246"/>
+      <c r="L41" s="246"/>
+      <c r="M41" s="246"/>
+      <c r="N41" s="247"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="225"/>
-      <c r="B42" s="236"/>
-      <c r="C42" s="235"/>
-      <c r="D42" s="234"/>
-      <c r="E42" s="233"/>
-      <c r="F42" s="233"/>
-      <c r="G42" s="165" t="s">
+      <c r="A42" s="230"/>
+      <c r="B42" s="242"/>
+      <c r="C42" s="241"/>
+      <c r="D42" s="240"/>
+      <c r="E42" s="239"/>
+      <c r="F42" s="239"/>
+      <c r="G42" s="163" t="s">
         <v>292</v>
       </c>
-      <c r="H42" s="223"/>
-      <c r="I42" s="223"/>
-      <c r="J42" s="223"/>
-      <c r="K42" s="223"/>
-      <c r="L42" s="223"/>
-      <c r="M42" s="223"/>
-      <c r="N42" s="224"/>
+      <c r="H42" s="246"/>
+      <c r="I42" s="246"/>
+      <c r="J42" s="246"/>
+      <c r="K42" s="246"/>
+      <c r="L42" s="246"/>
+      <c r="M42" s="246"/>
+      <c r="N42" s="247"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H43" s="24"/>
@@ -7730,16 +7966,14 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="N6:N21"/>
-    <mergeCell ref="C10:C16"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="A6:A21"/>
-    <mergeCell ref="B6:B21"/>
-    <mergeCell ref="E6:E21"/>
+    <mergeCell ref="M37:M42"/>
+    <mergeCell ref="N37:N42"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="H37:H42"/>
+    <mergeCell ref="I37:I42"/>
+    <mergeCell ref="J37:J42"/>
+    <mergeCell ref="K37:K42"/>
+    <mergeCell ref="L37:L42"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="C7:C8"/>
@@ -7756,17 +7990,20 @@
     <mergeCell ref="N23:N35"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="C28:C29"/>
-    <mergeCell ref="M37:M42"/>
-    <mergeCell ref="N37:N42"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="H37:H42"/>
-    <mergeCell ref="I37:I42"/>
-    <mergeCell ref="J37:J42"/>
-    <mergeCell ref="K37:K42"/>
-    <mergeCell ref="L37:L42"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="A6:A21"/>
+    <mergeCell ref="B6:B21"/>
+    <mergeCell ref="E6:E21"/>
+    <mergeCell ref="N6:N21"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7789,20 +8026,20 @@
     <col min="8" max="8" width="5.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="90" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="255" t="s">
+    <row r="1" spans="1:8" s="89" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="254" t="s">
         <v>302</v>
       </c>
-      <c r="B1" s="255"/>
-      <c r="C1" s="255"/>
-      <c r="D1" s="255"/>
-      <c r="E1" s="255"/>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
-    </row>
-    <row r="2" spans="1:8" s="90" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G2" s="91"/>
+      <c r="B1" s="254"/>
+      <c r="C1" s="254"/>
+      <c r="D1" s="254"/>
+      <c r="E1" s="254"/>
+      <c r="F1" s="254"/>
+      <c r="G1" s="254"/>
+      <c r="H1" s="254"/>
+    </row>
+    <row r="2" spans="1:8" s="89" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G2" s="90"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="74" t="s">
@@ -7822,31 +8059,31 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="100" t="s">
+      <c r="A4" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="95" t="s">
+      <c r="B4" s="94" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="79" t="s">
+      <c r="C4" s="78" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="25"/>
-      <c r="C5" s="79"/>
+      <c r="C5" s="78"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C6" s="82" t="s">
+      <c r="C6" s="81" t="s">
         <v>142</v>
       </c>
-      <c r="D6" s="81" t="s">
+      <c r="D6" s="80" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C7" s="83"/>
-      <c r="D7" s="81" t="s">
+      <c r="C7" s="82"/>
+      <c r="D7" s="80" t="s">
         <v>109</v>
       </c>
     </row>
@@ -7857,7 +8094,7 @@
       <c r="D8" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="86"/>
+      <c r="E8" s="85"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C9" s="30"/>
@@ -7883,32 +8120,32 @@
       <c r="C12" s="43" t="s">
         <v>145</v>
       </c>
-      <c r="D12" s="87" t="s">
+      <c r="D12" s="86" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C13" s="43"/>
-      <c r="D13" s="87" t="s">
+      <c r="D13" s="86" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="86"/>
+      <c r="E13" s="85"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C14" s="50" t="s">
         <v>146</v>
       </c>
-      <c r="D14" s="88" t="s">
+      <c r="D14" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="86"/>
+      <c r="E14" s="85"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C15" s="50"/>
-      <c r="D15" s="88" t="s">
+      <c r="D15" s="87" t="s">
         <v>109</v>
       </c>
-      <c r="E15" s="86"/>
+      <c r="E15" s="85"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C16" s="56" t="s">
@@ -7925,50 +8162,50 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C18" s="252" t="s">
+      <c r="C18" s="251" t="s">
         <v>148</v>
       </c>
-      <c r="D18" s="89" t="s">
+      <c r="D18" s="88" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C19" s="253"/>
-      <c r="D19" s="89" t="s">
+      <c r="C19" s="252"/>
+      <c r="D19" s="88" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="85" t="s">
+      <c r="C20" s="84" t="s">
         <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="104" t="s">
+      <c r="C21" s="103" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="103" t="s">
+      <c r="B22" s="102" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="105">
+      <c r="C22" s="104">
         <v>8</v>
       </c>
-      <c r="D22" s="105" t="s">
+      <c r="D22" s="104" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="103" t="s">
+      <c r="B23" s="102" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="96" t="s">
+      <c r="C23" s="95" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E24" s="86"/>
+      <c r="E24" s="85"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="25"/>
@@ -7976,19 +8213,19 @@
     </row>
     <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="27" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="100" t="s">
+      <c r="A27" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="B27" s="95" t="s">
+      <c r="B27" s="94" t="s">
         <v>140</v>
       </c>
-      <c r="C27" s="80" t="s">
+      <c r="C27" s="79" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="80" t="s">
+      <c r="D27" s="79" t="s">
         <v>160</v>
       </c>
-      <c r="E27" s="118" t="s">
+      <c r="E27" s="117" t="s">
         <v>159</v>
       </c>
       <c r="G27" s="67"/>
@@ -8006,10 +8243,10 @@
       <c r="D29" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="84">
+      <c r="E29" s="83">
         <v>1</v>
       </c>
-      <c r="F29" s="84" t="s">
+      <c r="F29" s="83" t="s">
         <v>129</v>
       </c>
       <c r="G29" s="69"/>
@@ -8019,10 +8256,10 @@
       <c r="D30" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="84">
+      <c r="E30" s="83">
         <v>1</v>
       </c>
-      <c r="F30" s="84" t="s">
+      <c r="F30" s="83" t="s">
         <v>129</v>
       </c>
       <c r="G30" s="69"/>
@@ -8032,10 +8269,10 @@
       <c r="D31" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E31" s="84">
+      <c r="E31" s="83">
         <v>1</v>
       </c>
-      <c r="F31" s="84" t="s">
+      <c r="F31" s="83" t="s">
         <v>129</v>
       </c>
       <c r="G31" s="69"/>
@@ -8045,10 +8282,10 @@
       <c r="D32" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="E32" s="84">
+      <c r="E32" s="83">
         <v>1</v>
       </c>
-      <c r="F32" s="84" t="s">
+      <c r="F32" s="83" t="s">
         <v>112</v>
       </c>
       <c r="G32" s="69"/>
@@ -8058,10 +8295,10 @@
       <c r="D33" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="84">
+      <c r="E33" s="83">
         <v>1</v>
       </c>
-      <c r="F33" s="84" t="s">
+      <c r="F33" s="83" t="s">
         <v>112</v>
       </c>
       <c r="G33" s="69"/>
@@ -8071,10 +8308,10 @@
       <c r="D34" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="E34" s="84">
+      <c r="E34" s="83">
         <v>1</v>
       </c>
-      <c r="F34" s="84" t="s">
+      <c r="F34" s="83" t="s">
         <v>130</v>
       </c>
       <c r="G34" s="69"/>
@@ -8160,61 +8397,61 @@
     <row r="44" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="36"/>
       <c r="D44" s="33"/>
-      <c r="E44" s="106" t="s">
+      <c r="E44" s="105" t="s">
         <v>60</v>
       </c>
-      <c r="F44" s="107"/>
-      <c r="G44" s="107"/>
-      <c r="H44" s="107"/>
-      <c r="I44" s="107"/>
+      <c r="F44" s="106"/>
+      <c r="G44" s="106"/>
+      <c r="H44" s="106"/>
+      <c r="I44" s="106"/>
     </row>
     <row r="45" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="36"/>
       <c r="D45" s="34"/>
-      <c r="E45" s="106" t="s">
+      <c r="E45" s="105" t="s">
         <v>151</v>
       </c>
-      <c r="F45" s="107"/>
-      <c r="G45" s="107"/>
-      <c r="H45" s="107"/>
-      <c r="I45" s="107"/>
+      <c r="F45" s="106"/>
+      <c r="G45" s="106"/>
+      <c r="H45" s="106"/>
+      <c r="I45" s="106"/>
     </row>
     <row r="46" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="36"/>
       <c r="D46" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="E46" s="108"/>
-      <c r="F46" s="107"/>
-      <c r="G46" s="107"/>
-      <c r="H46" s="107"/>
-      <c r="I46" s="107"/>
+      <c r="E46" s="107"/>
+      <c r="F46" s="106"/>
+      <c r="G46" s="106"/>
+      <c r="H46" s="106"/>
+      <c r="I46" s="106"/>
     </row>
     <row r="47" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="36"/>
       <c r="D47" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="E47" s="106" t="s">
+      <c r="E47" s="105" t="s">
         <v>154</v>
       </c>
-      <c r="F47" s="107"/>
-      <c r="G47" s="107"/>
-      <c r="H47" s="107"/>
-      <c r="I47" s="107"/>
+      <c r="F47" s="106"/>
+      <c r="G47" s="106"/>
+      <c r="H47" s="106"/>
+      <c r="I47" s="106"/>
     </row>
     <row r="48" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37"/>
       <c r="D48" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="E48" s="106" t="s">
+      <c r="E48" s="105" t="s">
         <v>154</v>
       </c>
-      <c r="F48" s="107"/>
-      <c r="G48" s="107"/>
-      <c r="H48" s="107"/>
-      <c r="I48" s="107"/>
+      <c r="F48" s="106"/>
+      <c r="G48" s="106"/>
+      <c r="H48" s="106"/>
+      <c r="I48" s="106"/>
     </row>
     <row r="49" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="45" t="s">
@@ -8223,88 +8460,88 @@
       <c r="D49" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="E49" s="108"/>
-      <c r="F49" s="108"/>
-      <c r="G49" s="108"/>
-      <c r="H49" s="108"/>
-      <c r="I49" s="108"/>
+      <c r="E49" s="107"/>
+      <c r="F49" s="107"/>
+      <c r="G49" s="107"/>
+      <c r="H49" s="107"/>
+      <c r="I49" s="107"/>
     </row>
     <row r="50" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="61"/>
       <c r="D50" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="108"/>
-      <c r="F50" s="108"/>
-      <c r="G50" s="108"/>
-      <c r="H50" s="108"/>
-      <c r="I50" s="108"/>
+      <c r="E50" s="107"/>
+      <c r="F50" s="107"/>
+      <c r="G50" s="107"/>
+      <c r="H50" s="107"/>
+      <c r="I50" s="107"/>
     </row>
     <row r="51" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="61"/>
       <c r="D51" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="E51" s="108"/>
-      <c r="F51" s="108"/>
-      <c r="G51" s="108"/>
-      <c r="H51" s="108"/>
-      <c r="I51" s="108"/>
+      <c r="E51" s="107"/>
+      <c r="F51" s="107"/>
+      <c r="G51" s="107"/>
+      <c r="H51" s="107"/>
+      <c r="I51" s="107"/>
     </row>
     <row r="52" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="61"/>
       <c r="D52" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="E52" s="108"/>
-      <c r="F52" s="108"/>
-      <c r="G52" s="108"/>
-      <c r="H52" s="108"/>
-      <c r="I52" s="108"/>
+      <c r="E52" s="107"/>
+      <c r="F52" s="107"/>
+      <c r="G52" s="107"/>
+      <c r="H52" s="107"/>
+      <c r="I52" s="107"/>
     </row>
     <row r="53" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="61"/>
       <c r="D53" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="E53" s="108"/>
-      <c r="F53" s="108"/>
-      <c r="G53" s="108"/>
-      <c r="H53" s="108"/>
-      <c r="I53" s="108"/>
+      <c r="E53" s="107"/>
+      <c r="F53" s="107"/>
+      <c r="G53" s="107"/>
+      <c r="H53" s="107"/>
+      <c r="I53" s="107"/>
     </row>
     <row r="54" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="61"/>
       <c r="D54" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="E54" s="108"/>
-      <c r="F54" s="108"/>
-      <c r="G54" s="108"/>
-      <c r="H54" s="108"/>
-      <c r="I54" s="108"/>
+      <c r="E54" s="107"/>
+      <c r="F54" s="107"/>
+      <c r="G54" s="107"/>
+      <c r="H54" s="107"/>
+      <c r="I54" s="107"/>
     </row>
     <row r="55" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="61"/>
       <c r="D55" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="E55" s="108"/>
-      <c r="F55" s="108"/>
-      <c r="G55" s="108"/>
-      <c r="H55" s="108"/>
-      <c r="I55" s="108"/>
+      <c r="E55" s="107"/>
+      <c r="F55" s="107"/>
+      <c r="G55" s="107"/>
+      <c r="H55" s="107"/>
+      <c r="I55" s="107"/>
     </row>
     <row r="56" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="62"/>
       <c r="D56" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="E56" s="108"/>
-      <c r="F56" s="108"/>
-      <c r="G56" s="108"/>
-      <c r="H56" s="108"/>
-      <c r="I56" s="108"/>
+      <c r="E56" s="107"/>
+      <c r="F56" s="107"/>
+      <c r="G56" s="107"/>
+      <c r="H56" s="107"/>
+      <c r="I56" s="107"/>
     </row>
     <row r="57" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="47" t="s">
@@ -8313,180 +8550,180 @@
       <c r="D57" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="E57" s="110">
+      <c r="E57" s="109">
         <v>1</v>
       </c>
-      <c r="F57" s="110" t="s">
+      <c r="F57" s="109" t="s">
         <v>130</v>
       </c>
-      <c r="G57" s="108"/>
-      <c r="H57" s="108"/>
-      <c r="I57" s="108"/>
+      <c r="G57" s="107"/>
+      <c r="H57" s="107"/>
+      <c r="I57" s="107"/>
     </row>
     <row r="58" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="48"/>
-      <c r="D58" s="93" t="s">
+      <c r="D58" s="92" t="s">
         <v>155</v>
       </c>
-      <c r="E58" s="110">
+      <c r="E58" s="109">
         <v>1</v>
       </c>
-      <c r="F58" s="110" t="s">
+      <c r="F58" s="109" t="s">
         <v>130</v>
       </c>
-      <c r="G58" s="108"/>
-      <c r="H58" s="108"/>
-      <c r="I58" s="108"/>
+      <c r="G58" s="107"/>
+      <c r="H58" s="107"/>
+      <c r="I58" s="107"/>
     </row>
     <row r="59" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="92"/>
+      <c r="C59" s="91"/>
       <c r="D59" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="E59" s="110" t="s">
+      <c r="E59" s="109" t="s">
         <v>88</v>
       </c>
-      <c r="F59" s="110">
+      <c r="F59" s="109">
         <v>4</v>
       </c>
-      <c r="G59" s="110" t="s">
+      <c r="G59" s="109" t="s">
         <v>130</v>
       </c>
-      <c r="H59" s="108"/>
-      <c r="I59" s="108"/>
+      <c r="H59" s="107"/>
+      <c r="I59" s="107"/>
     </row>
     <row r="60" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="92"/>
+      <c r="C60" s="91"/>
       <c r="D60" s="48"/>
-      <c r="E60" s="110" t="s">
+      <c r="E60" s="109" t="s">
         <v>93</v>
       </c>
-      <c r="F60" s="110" t="s">
+      <c r="F60" s="109" t="s">
         <v>119</v>
       </c>
-      <c r="G60" s="110" t="s">
+      <c r="G60" s="109" t="s">
         <v>130</v>
       </c>
-      <c r="H60" s="108"/>
-      <c r="I60" s="108"/>
+      <c r="H60" s="107"/>
+      <c r="I60" s="107"/>
     </row>
     <row r="61" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="92"/>
-      <c r="D61" s="92"/>
-      <c r="E61" s="111" t="s">
+      <c r="C61" s="91"/>
+      <c r="D61" s="91"/>
+      <c r="E61" s="110" t="s">
         <v>118</v>
       </c>
-      <c r="F61" s="110" t="s">
+      <c r="F61" s="109" t="s">
         <v>133</v>
       </c>
-      <c r="G61" s="110">
+      <c r="G61" s="109">
         <v>17</v>
       </c>
-      <c r="H61" s="110" t="s">
+      <c r="H61" s="109" t="s">
         <v>130</v>
       </c>
-      <c r="I61" s="108"/>
+      <c r="I61" s="107"/>
     </row>
     <row r="62" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="92"/>
-      <c r="D62" s="92"/>
-      <c r="E62" s="112"/>
-      <c r="F62" s="110" t="s">
+      <c r="C62" s="91"/>
+      <c r="D62" s="91"/>
+      <c r="E62" s="111"/>
+      <c r="F62" s="109" t="s">
         <v>132</v>
       </c>
-      <c r="G62" s="110">
+      <c r="G62" s="109">
         <v>13</v>
       </c>
-      <c r="H62" s="110" t="s">
+      <c r="H62" s="109" t="s">
         <v>130</v>
       </c>
-      <c r="I62" s="108"/>
+      <c r="I62" s="107"/>
     </row>
     <row r="63" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="92"/>
+      <c r="C63" s="91"/>
       <c r="D63" s="48"/>
-      <c r="E63" s="114" t="s">
+      <c r="E63" s="113" t="s">
         <v>115</v>
       </c>
-      <c r="F63" s="110">
+      <c r="F63" s="109">
         <v>1</v>
       </c>
-      <c r="G63" s="113" t="s">
+      <c r="G63" s="112" t="s">
         <v>130</v>
       </c>
-      <c r="H63" s="108"/>
-      <c r="I63" s="108"/>
+      <c r="H63" s="107"/>
+      <c r="I63" s="107"/>
     </row>
     <row r="64" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="92"/>
+      <c r="C64" s="91"/>
       <c r="D64" s="48"/>
-      <c r="E64" s="110" t="s">
+      <c r="E64" s="109" t="s">
         <v>89</v>
       </c>
-      <c r="F64" s="110"/>
-      <c r="G64" s="108"/>
-      <c r="H64" s="108"/>
-      <c r="I64" s="108"/>
+      <c r="F64" s="109"/>
+      <c r="G64" s="107"/>
+      <c r="H64" s="107"/>
+      <c r="I64" s="107"/>
     </row>
     <row r="65" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="92"/>
+      <c r="C65" s="91"/>
       <c r="D65" s="49"/>
-      <c r="E65" s="110" t="s">
+      <c r="E65" s="109" t="s">
         <v>116</v>
       </c>
-      <c r="F65" s="110">
+      <c r="F65" s="109">
         <v>1</v>
       </c>
-      <c r="G65" s="109" t="s">
+      <c r="G65" s="108" t="s">
         <v>130</v>
       </c>
-      <c r="H65" s="108"/>
-      <c r="I65" s="108"/>
+      <c r="H65" s="107"/>
+      <c r="I65" s="107"/>
     </row>
     <row r="66" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="48"/>
-      <c r="D66" s="94" t="s">
+      <c r="D66" s="93" t="s">
         <v>156</v>
       </c>
-      <c r="E66" s="110">
+      <c r="E66" s="109">
         <v>1</v>
       </c>
-      <c r="F66" s="110" t="s">
+      <c r="F66" s="109" t="s">
         <v>130</v>
       </c>
-      <c r="G66" s="108"/>
-      <c r="H66" s="108"/>
-      <c r="I66" s="108"/>
+      <c r="G66" s="107"/>
+      <c r="H66" s="107"/>
+      <c r="I66" s="107"/>
     </row>
     <row r="67" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C67" s="48"/>
       <c r="D67" s="46" t="s">
         <v>157</v>
       </c>
-      <c r="E67" s="110">
+      <c r="E67" s="109">
         <v>1</v>
       </c>
-      <c r="F67" s="110" t="s">
+      <c r="F67" s="109" t="s">
         <v>130</v>
       </c>
-      <c r="G67" s="108"/>
-      <c r="H67" s="108"/>
-      <c r="I67" s="108"/>
+      <c r="G67" s="107"/>
+      <c r="H67" s="107"/>
+      <c r="I67" s="107"/>
     </row>
     <row r="68" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C68" s="49"/>
       <c r="D68" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="E68" s="113">
+      <c r="E68" s="112">
         <v>1</v>
       </c>
-      <c r="F68" s="113" t="s">
+      <c r="F68" s="112" t="s">
         <v>130</v>
       </c>
-      <c r="G68" s="108"/>
-      <c r="H68" s="108"/>
-      <c r="I68" s="108"/>
+      <c r="G68" s="107"/>
+      <c r="H68" s="107"/>
+      <c r="I68" s="107"/>
     </row>
     <row r="69" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C69" s="51" t="s">
@@ -8498,10 +8735,10 @@
       <c r="E69" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="F69" s="108"/>
-      <c r="G69" s="108"/>
-      <c r="H69" s="108"/>
-      <c r="I69" s="108"/>
+      <c r="F69" s="107"/>
+      <c r="G69" s="107"/>
+      <c r="H69" s="107"/>
+      <c r="I69" s="107"/>
     </row>
     <row r="70" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C70" s="53"/>
@@ -8511,10 +8748,10 @@
       <c r="E70" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="F70" s="108"/>
-      <c r="G70" s="108"/>
-      <c r="H70" s="108"/>
-      <c r="I70" s="108"/>
+      <c r="F70" s="107"/>
+      <c r="G70" s="107"/>
+      <c r="H70" s="107"/>
+      <c r="I70" s="107"/>
     </row>
     <row r="71" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C71" s="53"/>
@@ -8524,25 +8761,25 @@
       <c r="E71" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="F71" s="108"/>
-      <c r="G71" s="116"/>
-      <c r="H71" s="108"/>
-      <c r="I71" s="108"/>
+      <c r="F71" s="107"/>
+      <c r="G71" s="115"/>
+      <c r="H71" s="107"/>
+      <c r="I71" s="107"/>
     </row>
     <row r="72" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C72" s="53"/>
       <c r="D72" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="E72" s="115">
+      <c r="E72" s="114">
         <v>3</v>
       </c>
-      <c r="F72" s="115" t="s">
+      <c r="F72" s="114" t="s">
         <v>130</v>
       </c>
-      <c r="G72" s="108"/>
-      <c r="H72" s="108"/>
-      <c r="I72" s="108"/>
+      <c r="G72" s="107"/>
+      <c r="H72" s="107"/>
+      <c r="I72" s="107"/>
     </row>
     <row r="73" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C73" s="54"/>
@@ -8552,10 +8789,10 @@
       <c r="E73" s="52" t="s">
         <v>158</v>
       </c>
-      <c r="F73" s="108"/>
-      <c r="G73" s="108"/>
-      <c r="H73" s="108"/>
-      <c r="I73" s="108"/>
+      <c r="F73" s="107"/>
+      <c r="G73" s="107"/>
+      <c r="H73" s="107"/>
+      <c r="I73" s="107"/>
     </row>
     <row r="74" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C74" s="75" t="s">
@@ -8581,7 +8818,7 @@
     </row>
     <row r="76" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C76" s="77"/>
-      <c r="D76" s="249" t="s">
+      <c r="D76" s="248" t="s">
         <v>85</v>
       </c>
       <c r="E76" s="59" t="s">
@@ -8595,7 +8832,7 @@
     </row>
     <row r="77" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C77" s="77"/>
-      <c r="D77" s="250"/>
+      <c r="D77" s="249"/>
       <c r="E77" s="60"/>
       <c r="F77" s="58" t="s">
         <v>87</v>
@@ -8605,7 +8842,7 @@
     </row>
     <row r="78" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C78" s="77"/>
-      <c r="D78" s="250"/>
+      <c r="D78" s="249"/>
       <c r="E78" s="59" t="s">
         <v>93</v>
       </c>
@@ -8624,7 +8861,7 @@
     </row>
     <row r="79" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C79" s="77"/>
-      <c r="D79" s="250"/>
+      <c r="D79" s="249"/>
       <c r="E79" s="60"/>
       <c r="F79" s="58" t="s">
         <v>87</v>
@@ -8634,7 +8871,7 @@
     </row>
     <row r="80" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C80" s="77"/>
-      <c r="D80" s="250"/>
+      <c r="D80" s="249"/>
       <c r="E80" s="59" t="s">
         <v>92</v>
       </c>
@@ -8644,16 +8881,16 @@
       <c r="G80" s="72" t="s">
         <v>136</v>
       </c>
-      <c r="H80" s="99" t="s">
+      <c r="H80" s="98" t="s">
         <v>130</v>
       </c>
-      <c r="I80" s="102" t="s">
+      <c r="I80" s="101" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="81" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C81" s="77"/>
-      <c r="D81" s="250"/>
+      <c r="D81" s="249"/>
       <c r="E81" s="60"/>
       <c r="F81" s="58" t="s">
         <v>87</v>
@@ -8663,7 +8900,7 @@
     </row>
     <row r="82" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C82" s="77"/>
-      <c r="D82" s="250"/>
+      <c r="D82" s="249"/>
       <c r="E82" s="59" t="s">
         <v>89</v>
       </c>
@@ -8675,7 +8912,7 @@
     </row>
     <row r="83" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C83" s="77"/>
-      <c r="D83" s="250"/>
+      <c r="D83" s="249"/>
       <c r="E83" s="60"/>
       <c r="F83" s="58" t="s">
         <v>87</v>
@@ -8685,7 +8922,7 @@
     </row>
     <row r="84" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C84" s="77"/>
-      <c r="D84" s="250"/>
+      <c r="D84" s="249"/>
       <c r="E84" s="59" t="s">
         <v>90</v>
       </c>
@@ -8697,7 +8934,7 @@
     </row>
     <row r="85" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C85" s="77"/>
-      <c r="D85" s="250"/>
+      <c r="D85" s="249"/>
       <c r="E85" s="60"/>
       <c r="F85" s="58" t="s">
         <v>87</v>
@@ -8707,7 +8944,7 @@
     </row>
     <row r="86" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C86" s="77"/>
-      <c r="D86" s="250"/>
+      <c r="D86" s="249"/>
       <c r="E86" s="73" t="s">
         <v>91</v>
       </c>
@@ -8719,7 +8956,7 @@
     </row>
     <row r="87" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C87" s="77"/>
-      <c r="D87" s="251"/>
+      <c r="D87" s="250"/>
       <c r="E87" s="60"/>
       <c r="F87" s="58" t="s">
         <v>87</v>
@@ -8736,7 +8973,7 @@
     </row>
     <row r="89" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C89" s="77"/>
-      <c r="D89" s="101" t="s">
+      <c r="D89" s="100" t="s">
         <v>152</v>
       </c>
       <c r="E89" s="58" t="s">
@@ -8746,69 +8983,69 @@
     </row>
     <row r="90" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C90" s="77"/>
-      <c r="D90" s="101" t="s">
+      <c r="D90" s="100" t="s">
         <v>153</v>
       </c>
-      <c r="E90" s="101" t="s">
+      <c r="E90" s="100" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="91" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C91" s="254" t="s">
+      <c r="C91" s="253" t="s">
         <v>120</v>
       </c>
-      <c r="D91" s="96" t="s">
+      <c r="D91" s="95" t="s">
         <v>128</v>
       </c>
-      <c r="E91" s="97">
+      <c r="E91" s="96">
         <v>1</v>
       </c>
-      <c r="F91" s="98" t="s">
+      <c r="F91" s="97" t="s">
         <v>134</v>
       </c>
-      <c r="G91" s="118" t="s">
+      <c r="G91" s="117" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="92" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C92" s="254"/>
-      <c r="D92" s="96" t="s">
+      <c r="C92" s="253"/>
+      <c r="D92" s="95" t="s">
         <v>127</v>
       </c>
-      <c r="E92" s="97"/>
-      <c r="F92" s="98"/>
+      <c r="E92" s="96"/>
+      <c r="F92" s="97"/>
     </row>
     <row r="93" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C93" s="254"/>
-      <c r="D93" s="96" t="s">
+      <c r="C93" s="253"/>
+      <c r="D93" s="95" t="s">
         <v>149</v>
       </c>
-      <c r="E93" s="97"/>
-      <c r="F93" s="98"/>
+      <c r="E93" s="96"/>
+      <c r="F93" s="97"/>
     </row>
     <row r="94" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C94" s="254"/>
-      <c r="D94" s="96" t="s">
+      <c r="C94" s="253"/>
+      <c r="D94" s="95" t="s">
         <v>150</v>
       </c>
-      <c r="E94" s="97"/>
-      <c r="F94" s="98"/>
+      <c r="E94" s="96"/>
+      <c r="F94" s="97"/>
     </row>
     <row r="95" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C95" s="254"/>
-      <c r="D95" s="96" t="s">
+      <c r="C95" s="253"/>
+      <c r="D95" s="95" t="s">
         <v>103</v>
       </c>
-      <c r="E95" s="97"/>
-      <c r="F95" s="98"/>
+      <c r="E95" s="96"/>
+      <c r="F95" s="97"/>
     </row>
     <row r="96" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C96" s="254"/>
-      <c r="D96" s="96" t="s">
+      <c r="C96" s="253"/>
+      <c r="D96" s="95" t="s">
         <v>103</v>
       </c>
-      <c r="E96" s="97"/>
-      <c r="F96" s="98"/>
+      <c r="E96" s="96"/>
+      <c r="F96" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -8840,11 +9077,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="166" t="s">
+      <c r="A1" s="164" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="166"/>
-      <c r="C1" s="166"/>
+      <c r="B1" s="164"/>
+      <c r="C1" s="164"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">

--- a/asset/Control GESPRO.xlsx
+++ b/asset/Control GESPRO.xlsx
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1107" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="331">
   <si>
     <t>Sección</t>
   </si>
@@ -1082,12 +1082,6 @@
     <t>Escuelas Nocturnas Nivel IV</t>
   </si>
   <si>
-    <t>120 a 20 p/p</t>
-  </si>
-  <si>
-    <t>con 6 personas (Oscar-Rony-Paty-Ana-Kathe-Sirle) Luis prueba servidor x día</t>
-  </si>
-  <si>
     <t>semana 9-13 nuevos requerimientos</t>
   </si>
   <si>
@@ -1103,15 +1097,6 @@
     <t>Del 20 al 24</t>
   </si>
   <si>
-    <t xml:space="preserve">2 dias nada mas vacaciones </t>
-  </si>
-  <si>
-    <t>Sin Oscar 6 días</t>
-  </si>
-  <si>
-    <t>5 días a 6 personas</t>
-  </si>
-  <si>
     <t>ref</t>
   </si>
   <si>
@@ -1143,13 +1128,46 @@
   </si>
   <si>
     <t>psico</t>
+  </si>
+  <si>
+    <t>TOTAL</t>
+  </si>
+  <si>
+    <t>Entrega de hoy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sin Oscar 2 días </t>
+  </si>
+  <si>
+    <t>5 días a 5 personas</t>
+  </si>
+  <si>
+    <t>2 días nada más, por  vacaciones 19-20 de Paty-Oscar</t>
+  </si>
+  <si>
+    <t>120 a 20 p/p, con  personas (Oscar-Paty-Ana-Kathe-Sirle) Luis prueba servidor x día</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>oneD</t>
+  </si>
+  <si>
+    <t>json</t>
+  </si>
+  <si>
+    <t>OneD</t>
+  </si>
+  <si>
+    <t>Json</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1318,6 +1336,14 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -1871,7 +1897,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="295">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1997,9 +2023,6 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2290,211 +2313,7 @@
     <xf numFmtId="0" fontId="2" fillId="30" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2503,9 +2322,6 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2515,22 +2331,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2540,21 +2344,272 @@
     <xf numFmtId="0" fontId="4" fillId="32" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2865,38 +2920,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="190" t="s">
+      <c r="A1" s="212" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="190"/>
-      <c r="C1" s="190"/>
-      <c r="D1" s="190"/>
-      <c r="E1" s="190"/>
-      <c r="F1" s="190"/>
-      <c r="G1" s="190"/>
-      <c r="H1" s="190"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="190"/>
-      <c r="K1" s="190"/>
-      <c r="L1" s="190"/>
-      <c r="M1" s="190"/>
+      <c r="B1" s="212"/>
+      <c r="C1" s="212"/>
+      <c r="D1" s="212"/>
+      <c r="E1" s="212"/>
+      <c r="F1" s="212"/>
+      <c r="G1" s="212"/>
+      <c r="H1" s="212"/>
+      <c r="I1" s="212"/>
+      <c r="J1" s="212"/>
+      <c r="K1" s="212"/>
+      <c r="L1" s="212"/>
+      <c r="M1" s="212"/>
     </row>
     <row r="2" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="190" t="s">
+      <c r="A2" s="212" t="s">
         <v>295</v>
       </c>
-      <c r="B2" s="190"/>
-      <c r="C2" s="190"/>
-      <c r="D2" s="190"/>
-      <c r="E2" s="190"/>
-      <c r="F2" s="190"/>
-      <c r="G2" s="190"/>
-      <c r="H2" s="190"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="190"/>
-      <c r="K2" s="190"/>
-      <c r="L2" s="190"/>
-      <c r="M2" s="190"/>
+      <c r="B2" s="212"/>
+      <c r="C2" s="212"/>
+      <c r="D2" s="212"/>
+      <c r="E2" s="212"/>
+      <c r="F2" s="212"/>
+      <c r="G2" s="212"/>
+      <c r="H2" s="212"/>
+      <c r="I2" s="212"/>
+      <c r="J2" s="212"/>
+      <c r="K2" s="212"/>
+      <c r="L2" s="212"/>
+      <c r="M2" s="212"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G3" s="20" t="s">
@@ -2937,24 +2992,24 @@
       <c r="L4" s="22"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G5" s="191" t="s">
+      <c r="G5" s="213" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="192"/>
-      <c r="I5" s="192"/>
-      <c r="J5" s="192"/>
-      <c r="K5" s="192"/>
-      <c r="L5" s="193"/>
+      <c r="H5" s="214"/>
+      <c r="I5" s="214"/>
+      <c r="J5" s="214"/>
+      <c r="K5" s="214"/>
+      <c r="L5" s="215"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G6" s="191" t="s">
+      <c r="G6" s="213" t="s">
         <v>272</v>
       </c>
-      <c r="H6" s="192"/>
-      <c r="I6" s="192"/>
-      <c r="J6" s="192"/>
-      <c r="K6" s="192"/>
-      <c r="L6" s="193"/>
+      <c r="H6" s="214"/>
+      <c r="I6" s="214"/>
+      <c r="J6" s="214"/>
+      <c r="K6" s="214"/>
+      <c r="L6" s="215"/>
     </row>
     <row r="7" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -2998,10 +3053,10 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="194" t="s">
+      <c r="A8" s="228" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="202" t="s">
+      <c r="B8" s="216" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -3028,13 +3083,13 @@
         <v>49</v>
       </c>
       <c r="L8" s="1"/>
-      <c r="M8" s="205" t="s">
+      <c r="M8" s="219" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="195"/>
-      <c r="B9" s="203"/>
+      <c r="A9" s="229"/>
+      <c r="B9" s="217"/>
       <c r="C9" s="8" t="s">
         <v>6</v>
       </c>
@@ -3059,11 +3114,11 @@
         <v>49</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="206"/>
+      <c r="M9" s="220"/>
     </row>
     <row r="10" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="195"/>
-      <c r="B10" s="203"/>
+      <c r="A10" s="229"/>
+      <c r="B10" s="217"/>
       <c r="C10" s="8" t="s">
         <v>7</v>
       </c>
@@ -3088,11 +3143,11 @@
         <v>49</v>
       </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="206"/>
+      <c r="M10" s="220"/>
     </row>
     <row r="11" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="195"/>
-      <c r="B11" s="203"/>
+      <c r="A11" s="229"/>
+      <c r="B11" s="217"/>
       <c r="C11" s="8" t="s">
         <v>8</v>
       </c>
@@ -3117,11 +3172,11 @@
         <v>49</v>
       </c>
       <c r="L11" s="1"/>
-      <c r="M11" s="206"/>
+      <c r="M11" s="220"/>
     </row>
     <row r="12" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="195"/>
-      <c r="B12" s="203"/>
+      <c r="A12" s="229"/>
+      <c r="B12" s="217"/>
       <c r="C12" s="8" t="s">
         <v>9</v>
       </c>
@@ -3146,11 +3201,11 @@
         <v>49</v>
       </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="206"/>
+      <c r="M12" s="220"/>
     </row>
     <row r="13" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="195"/>
-      <c r="B13" s="203"/>
+      <c r="A13" s="229"/>
+      <c r="B13" s="217"/>
       <c r="C13" s="8" t="s">
         <v>10</v>
       </c>
@@ -3175,11 +3230,11 @@
         <v>49</v>
       </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="206"/>
+      <c r="M13" s="220"/>
     </row>
     <row r="14" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="195"/>
-      <c r="B14" s="203"/>
+      <c r="A14" s="229"/>
+      <c r="B14" s="217"/>
       <c r="C14" s="8" t="s">
         <v>11</v>
       </c>
@@ -3204,11 +3259,11 @@
         <v>49</v>
       </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="206"/>
+      <c r="M14" s="220"/>
     </row>
     <row r="15" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="195"/>
-      <c r="B15" s="203"/>
+      <c r="A15" s="229"/>
+      <c r="B15" s="217"/>
       <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
@@ -3233,11 +3288,11 @@
         <v>49</v>
       </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="206"/>
+      <c r="M15" s="220"/>
     </row>
     <row r="16" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="195"/>
-      <c r="B16" s="203"/>
+      <c r="A16" s="229"/>
+      <c r="B16" s="217"/>
       <c r="C16" s="8" t="s">
         <v>13</v>
       </c>
@@ -3262,18 +3317,18 @@
         <v>49</v>
       </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="206"/>
+      <c r="M16" s="220"/>
     </row>
     <row r="17" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="195"/>
-      <c r="B17" s="203"/>
-      <c r="C17" s="214" t="s">
+      <c r="A17" s="229"/>
+      <c r="B17" s="217"/>
+      <c r="C17" s="222" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="9">
         <v>31</v>
       </c>
-      <c r="E17" s="217" t="s">
+      <c r="E17" s="225" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="13" t="s">
@@ -3295,16 +3350,16 @@
         <v>49</v>
       </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="206"/>
+      <c r="M17" s="220"/>
     </row>
     <row r="18" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="195"/>
-      <c r="B18" s="203"/>
-      <c r="C18" s="215"/>
+      <c r="A18" s="229"/>
+      <c r="B18" s="217"/>
+      <c r="C18" s="223"/>
       <c r="D18" s="10">
         <v>31</v>
       </c>
-      <c r="E18" s="219"/>
+      <c r="E18" s="227"/>
       <c r="F18" s="12" t="s">
         <v>14</v>
       </c>
@@ -3324,16 +3379,16 @@
         <v>49</v>
       </c>
       <c r="L18" s="1"/>
-      <c r="M18" s="206"/>
+      <c r="M18" s="220"/>
     </row>
     <row r="19" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="195"/>
-      <c r="B19" s="203"/>
-      <c r="C19" s="215"/>
+      <c r="A19" s="229"/>
+      <c r="B19" s="217"/>
+      <c r="C19" s="223"/>
       <c r="D19" s="10">
         <v>31</v>
       </c>
-      <c r="E19" s="218"/>
+      <c r="E19" s="226"/>
       <c r="F19" s="12" t="s">
         <v>16</v>
       </c>
@@ -3353,16 +3408,16 @@
         <v>49</v>
       </c>
       <c r="L19" s="1"/>
-      <c r="M19" s="206"/>
+      <c r="M19" s="220"/>
     </row>
     <row r="20" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="195"/>
-      <c r="B20" s="203"/>
-      <c r="C20" s="215"/>
+      <c r="A20" s="229"/>
+      <c r="B20" s="217"/>
+      <c r="C20" s="223"/>
       <c r="D20" s="10">
         <v>31</v>
       </c>
-      <c r="E20" s="217" t="s">
+      <c r="E20" s="225" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="11" t="s">
@@ -3384,16 +3439,16 @@
         <v>49</v>
       </c>
       <c r="L20" s="1"/>
-      <c r="M20" s="206"/>
+      <c r="M20" s="220"/>
     </row>
     <row r="21" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="195"/>
-      <c r="B21" s="203"/>
-      <c r="C21" s="215"/>
+      <c r="A21" s="229"/>
+      <c r="B21" s="217"/>
+      <c r="C21" s="223"/>
       <c r="D21" s="10">
         <v>31</v>
       </c>
-      <c r="E21" s="219"/>
+      <c r="E21" s="227"/>
       <c r="F21" s="12" t="s">
         <v>14</v>
       </c>
@@ -3413,16 +3468,16 @@
         <v>49</v>
       </c>
       <c r="L21" s="1"/>
-      <c r="M21" s="206"/>
+      <c r="M21" s="220"/>
     </row>
     <row r="22" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="195"/>
-      <c r="B22" s="203"/>
-      <c r="C22" s="216"/>
+      <c r="A22" s="229"/>
+      <c r="B22" s="217"/>
+      <c r="C22" s="224"/>
       <c r="D22" s="10">
         <v>31</v>
       </c>
-      <c r="E22" s="218"/>
+      <c r="E22" s="226"/>
       <c r="F22" s="12" t="s">
         <v>16</v>
       </c>
@@ -3442,12 +3497,12 @@
         <v>49</v>
       </c>
       <c r="L22" s="1"/>
-      <c r="M22" s="206"/>
+      <c r="M22" s="220"/>
     </row>
     <row r="23" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="195"/>
-      <c r="B23" s="203"/>
-      <c r="C23" s="214" t="s">
+      <c r="A23" s="229"/>
+      <c r="B23" s="217"/>
+      <c r="C23" s="222" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="9">
@@ -3473,12 +3528,12 @@
         <v>49</v>
       </c>
       <c r="L23" s="1"/>
-      <c r="M23" s="206"/>
+      <c r="M23" s="220"/>
     </row>
     <row r="24" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="195"/>
-      <c r="B24" s="203"/>
-      <c r="C24" s="215"/>
+      <c r="A24" s="229"/>
+      <c r="B24" s="217"/>
+      <c r="C24" s="223"/>
       <c r="D24" s="10">
         <v>29</v>
       </c>
@@ -3502,11 +3557,11 @@
         <v>49</v>
       </c>
       <c r="L24" s="1"/>
-      <c r="M24" s="206"/>
+      <c r="M24" s="220"/>
     </row>
     <row r="25" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="195"/>
-      <c r="B25" s="203"/>
+      <c r="A25" s="229"/>
+      <c r="B25" s="217"/>
       <c r="C25" s="7" t="s">
         <v>19</v>
       </c>
@@ -3531,11 +3586,11 @@
         <v>49</v>
       </c>
       <c r="L25" s="1"/>
-      <c r="M25" s="206"/>
+      <c r="M25" s="220"/>
     </row>
     <row r="26" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="196"/>
-      <c r="B26" s="204"/>
+      <c r="A26" s="230"/>
+      <c r="B26" s="218"/>
       <c r="C26" s="8" t="s">
         <v>16</v>
       </c>
@@ -3560,7 +3615,7 @@
         <v>49</v>
       </c>
       <c r="L26" s="1"/>
-      <c r="M26" s="213"/>
+      <c r="M26" s="221"/>
     </row>
     <row r="27" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="14"/>
@@ -3619,10 +3674,10 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="188" t="s">
+      <c r="A29" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="202" t="s">
+      <c r="B29" s="216" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -3649,13 +3704,13 @@
         <v>49</v>
       </c>
       <c r="L29" s="1"/>
-      <c r="M29" s="205" t="s">
+      <c r="M29" s="219" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="189"/>
-      <c r="B30" s="203"/>
+      <c r="A30" s="211"/>
+      <c r="B30" s="217"/>
       <c r="C30" s="7" t="s">
         <v>5</v>
       </c>
@@ -3680,11 +3735,11 @@
         <v>49</v>
       </c>
       <c r="L30" s="1"/>
-      <c r="M30" s="206"/>
+      <c r="M30" s="220"/>
     </row>
     <row r="31" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="189"/>
-      <c r="B31" s="203"/>
+      <c r="A31" s="211"/>
+      <c r="B31" s="217"/>
       <c r="C31" s="8" t="s">
         <v>6</v>
       </c>
@@ -3709,11 +3764,11 @@
         <v>49</v>
       </c>
       <c r="L31" s="1"/>
-      <c r="M31" s="206"/>
+      <c r="M31" s="220"/>
     </row>
     <row r="32" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="189"/>
-      <c r="B32" s="203"/>
+      <c r="A32" s="211"/>
+      <c r="B32" s="217"/>
       <c r="C32" s="8" t="s">
         <v>39</v>
       </c>
@@ -3738,11 +3793,11 @@
         <v>49</v>
       </c>
       <c r="L32" s="1"/>
-      <c r="M32" s="206"/>
+      <c r="M32" s="220"/>
     </row>
     <row r="33" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="189"/>
-      <c r="B33" s="203"/>
+      <c r="A33" s="211"/>
+      <c r="B33" s="217"/>
       <c r="C33" s="8" t="s">
         <v>7</v>
       </c>
@@ -3767,11 +3822,11 @@
         <v>49</v>
       </c>
       <c r="L33" s="1"/>
-      <c r="M33" s="206"/>
+      <c r="M33" s="220"/>
     </row>
     <row r="34" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="189"/>
-      <c r="B34" s="203"/>
+      <c r="A34" s="211"/>
+      <c r="B34" s="217"/>
       <c r="C34" s="8" t="s">
         <v>40</v>
       </c>
@@ -3796,11 +3851,11 @@
         <v>49</v>
       </c>
       <c r="L34" s="1"/>
-      <c r="M34" s="206"/>
+      <c r="M34" s="220"/>
     </row>
     <row r="35" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="189"/>
-      <c r="B35" s="203"/>
+      <c r="A35" s="211"/>
+      <c r="B35" s="217"/>
       <c r="C35" s="8" t="s">
         <v>8</v>
       </c>
@@ -3825,11 +3880,11 @@
         <v>49</v>
       </c>
       <c r="L35" s="1"/>
-      <c r="M35" s="206"/>
+      <c r="M35" s="220"/>
     </row>
     <row r="36" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="189"/>
-      <c r="B36" s="203"/>
+      <c r="A36" s="211"/>
+      <c r="B36" s="217"/>
       <c r="C36" s="8" t="s">
         <v>9</v>
       </c>
@@ -3854,15 +3909,15 @@
         <v>49</v>
       </c>
       <c r="L36" s="1"/>
-      <c r="M36" s="206"/>
+      <c r="M36" s="220"/>
     </row>
     <row r="37" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="189"/>
-      <c r="B37" s="203"/>
+      <c r="A37" s="211"/>
+      <c r="B37" s="217"/>
       <c r="C37" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D37" s="181">
+      <c r="D37" s="180">
         <v>25</v>
       </c>
       <c r="E37" s="13"/>
@@ -3883,11 +3938,11 @@
         <v>49</v>
       </c>
       <c r="L37" s="1"/>
-      <c r="M37" s="206"/>
+      <c r="M37" s="220"/>
     </row>
     <row r="38" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="189"/>
-      <c r="B38" s="203"/>
+      <c r="A38" s="211"/>
+      <c r="B38" s="217"/>
       <c r="C38" s="8" t="s">
         <v>11</v>
       </c>
@@ -3912,11 +3967,11 @@
         <v>49</v>
       </c>
       <c r="L38" s="1"/>
-      <c r="M38" s="206"/>
+      <c r="M38" s="220"/>
     </row>
     <row r="39" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="189"/>
-      <c r="B39" s="203"/>
+      <c r="A39" s="211"/>
+      <c r="B39" s="217"/>
       <c r="C39" s="8" t="s">
         <v>12</v>
       </c>
@@ -3941,11 +3996,11 @@
         <v>49</v>
       </c>
       <c r="L39" s="1"/>
-      <c r="M39" s="206"/>
+      <c r="M39" s="220"/>
     </row>
     <row r="40" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="189"/>
-      <c r="B40" s="203"/>
+      <c r="A40" s="211"/>
+      <c r="B40" s="217"/>
       <c r="C40" s="8" t="s">
         <v>13</v>
       </c>
@@ -3970,11 +4025,11 @@
         <v>49</v>
       </c>
       <c r="L40" s="1"/>
-      <c r="M40" s="206"/>
+      <c r="M40" s="220"/>
     </row>
     <row r="41" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="189"/>
-      <c r="B41" s="203"/>
+      <c r="A41" s="211"/>
+      <c r="B41" s="217"/>
       <c r="C41" s="8" t="s">
         <v>41</v>
       </c>
@@ -3999,11 +4054,11 @@
         <v>49</v>
       </c>
       <c r="L41" s="1"/>
-      <c r="M41" s="206"/>
+      <c r="M41" s="220"/>
     </row>
     <row r="42" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="189"/>
-      <c r="B42" s="203"/>
+      <c r="A42" s="211"/>
+      <c r="B42" s="217"/>
       <c r="C42" s="8" t="s">
         <v>42</v>
       </c>
@@ -4028,18 +4083,18 @@
         <v>49</v>
       </c>
       <c r="L42" s="1"/>
-      <c r="M42" s="206"/>
+      <c r="M42" s="220"/>
     </row>
     <row r="43" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="189"/>
-      <c r="B43" s="203"/>
-      <c r="C43" s="214" t="s">
+      <c r="A43" s="211"/>
+      <c r="B43" s="217"/>
+      <c r="C43" s="222" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="9">
         <v>32</v>
       </c>
-      <c r="E43" s="217" t="s">
+      <c r="E43" s="225" t="s">
         <v>15</v>
       </c>
       <c r="F43" s="13"/>
@@ -4059,16 +4114,16 @@
         <v>49</v>
       </c>
       <c r="L43" s="1"/>
-      <c r="M43" s="206"/>
+      <c r="M43" s="220"/>
     </row>
     <row r="44" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="189"/>
-      <c r="B44" s="203"/>
-      <c r="C44" s="215"/>
+      <c r="A44" s="211"/>
+      <c r="B44" s="217"/>
+      <c r="C44" s="223"/>
       <c r="D44" s="10">
         <v>32</v>
       </c>
-      <c r="E44" s="218"/>
+      <c r="E44" s="226"/>
       <c r="F44" s="12"/>
       <c r="G44" s="1" t="s">
         <v>49</v>
@@ -4086,16 +4141,16 @@
         <v>49</v>
       </c>
       <c r="L44" s="1"/>
-      <c r="M44" s="206"/>
+      <c r="M44" s="220"/>
     </row>
     <row r="45" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="189"/>
-      <c r="B45" s="203"/>
-      <c r="C45" s="215"/>
+      <c r="A45" s="211"/>
+      <c r="B45" s="217"/>
+      <c r="C45" s="223"/>
       <c r="D45" s="10">
         <v>32</v>
       </c>
-      <c r="E45" s="217" t="s">
+      <c r="E45" s="225" t="s">
         <v>17</v>
       </c>
       <c r="F45" s="11"/>
@@ -4115,16 +4170,16 @@
         <v>49</v>
       </c>
       <c r="L45" s="1"/>
-      <c r="M45" s="206"/>
+      <c r="M45" s="220"/>
     </row>
     <row r="46" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="189"/>
-      <c r="B46" s="203"/>
-      <c r="C46" s="216"/>
+      <c r="A46" s="211"/>
+      <c r="B46" s="217"/>
+      <c r="C46" s="224"/>
       <c r="D46" s="10">
         <v>32</v>
       </c>
-      <c r="E46" s="218"/>
+      <c r="E46" s="226"/>
       <c r="F46" s="12"/>
       <c r="G46" s="1" t="s">
         <v>49</v>
@@ -4142,12 +4197,12 @@
         <v>49</v>
       </c>
       <c r="L46" s="1"/>
-      <c r="M46" s="206"/>
+      <c r="M46" s="220"/>
     </row>
     <row r="47" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="189"/>
-      <c r="B47" s="203"/>
-      <c r="C47" s="214" t="s">
+      <c r="A47" s="211"/>
+      <c r="B47" s="217"/>
+      <c r="C47" s="222" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="9">
@@ -4173,12 +4228,12 @@
         <v>49</v>
       </c>
       <c r="L47" s="1"/>
-      <c r="M47" s="206"/>
+      <c r="M47" s="220"/>
     </row>
     <row r="48" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="189"/>
-      <c r="B48" s="203"/>
-      <c r="C48" s="215"/>
+      <c r="A48" s="211"/>
+      <c r="B48" s="217"/>
+      <c r="C48" s="223"/>
       <c r="D48" s="10">
         <v>30</v>
       </c>
@@ -4202,12 +4257,12 @@
         <v>49</v>
       </c>
       <c r="L48" s="1"/>
-      <c r="M48" s="206"/>
+      <c r="M48" s="220"/>
     </row>
     <row r="49" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="189"/>
-      <c r="B49" s="203"/>
-      <c r="C49" s="214" t="s">
+      <c r="A49" s="211"/>
+      <c r="B49" s="217"/>
+      <c r="C49" s="222" t="s">
         <v>19</v>
       </c>
       <c r="D49" s="9">
@@ -4233,12 +4288,12 @@
         <v>49</v>
       </c>
       <c r="L49" s="1"/>
-      <c r="M49" s="206"/>
+      <c r="M49" s="220"/>
     </row>
     <row r="50" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="189"/>
-      <c r="B50" s="203"/>
-      <c r="C50" s="215"/>
+      <c r="A50" s="211"/>
+      <c r="B50" s="217"/>
+      <c r="C50" s="223"/>
       <c r="D50" s="10">
         <v>35</v>
       </c>
@@ -4262,11 +4317,11 @@
         <v>49</v>
       </c>
       <c r="L50" s="1"/>
-      <c r="M50" s="206"/>
+      <c r="M50" s="220"/>
     </row>
     <row r="51" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="189"/>
-      <c r="B51" s="203"/>
+      <c r="A51" s="211"/>
+      <c r="B51" s="217"/>
       <c r="C51" s="8" t="s">
         <v>16</v>
       </c>
@@ -4291,11 +4346,11 @@
         <v>49</v>
       </c>
       <c r="L51" s="1"/>
-      <c r="M51" s="206"/>
+      <c r="M51" s="220"/>
     </row>
     <row r="52" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="189"/>
-      <c r="B52" s="203"/>
+      <c r="A52" s="211"/>
+      <c r="B52" s="217"/>
       <c r="C52" s="8" t="s">
         <v>45</v>
       </c>
@@ -4320,11 +4375,11 @@
         <v>49</v>
       </c>
       <c r="L52" s="1"/>
-      <c r="M52" s="206"/>
+      <c r="M52" s="220"/>
     </row>
     <row r="53" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="189"/>
-      <c r="B53" s="204"/>
+      <c r="A53" s="211"/>
+      <c r="B53" s="218"/>
       <c r="C53" s="8" t="s">
         <v>46</v>
       </c>
@@ -4349,7 +4404,7 @@
         <v>49</v>
       </c>
       <c r="L53" s="1"/>
-      <c r="M53" s="213"/>
+      <c r="M53" s="221"/>
     </row>
     <row r="54" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="14"/>
@@ -4370,261 +4425,261 @@
       <c r="A55" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B55" s="113" t="s">
+      <c r="B55" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="C55" s="114" t="s">
+      <c r="C55" s="113" t="s">
         <v>2</v>
       </c>
       <c r="D55" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E55" s="115" t="s">
+      <c r="E55" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="F55" s="116" t="s">
+      <c r="F55" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="G55" s="117" t="s">
+      <c r="G55" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="H55" s="117" t="s">
+      <c r="H55" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="I55" s="117" t="s">
+      <c r="I55" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="J55" s="117" t="s">
+      <c r="J55" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="K55" s="117" t="s">
+      <c r="K55" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="L55" s="117" t="s">
+      <c r="L55" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="M55" s="111" t="s">
+      <c r="M55" s="110" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="188" t="s">
+      <c r="A56" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="B56" s="202" t="s">
+      <c r="B56" s="216" t="s">
         <v>158</v>
       </c>
-      <c r="C56" s="118" t="s">
+      <c r="C56" s="117" t="s">
         <v>159</v>
       </c>
-      <c r="D56" s="119">
+      <c r="D56" s="118">
         <v>36</v>
       </c>
-      <c r="E56" s="120"/>
-      <c r="F56" s="120"/>
-      <c r="G56" s="121" t="s">
-        <v>49</v>
-      </c>
-      <c r="H56" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="I56" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="J56" s="184" t="s">
+      <c r="E56" s="119"/>
+      <c r="F56" s="119"/>
+      <c r="G56" s="120" t="s">
+        <v>49</v>
+      </c>
+      <c r="H56" s="183" t="s">
+        <v>49</v>
+      </c>
+      <c r="I56" s="183" t="s">
+        <v>49</v>
+      </c>
+      <c r="J56" s="183" t="s">
         <v>49</v>
       </c>
       <c r="K56" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L56" s="121"/>
-      <c r="M56" s="205" t="s">
+      <c r="L56" s="120"/>
+      <c r="M56" s="219" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="189"/>
-      <c r="B57" s="203"/>
-      <c r="C57" s="118" t="s">
+      <c r="A57" s="211"/>
+      <c r="B57" s="217"/>
+      <c r="C57" s="117" t="s">
         <v>160</v>
       </c>
-      <c r="D57" s="119">
+      <c r="D57" s="118">
         <v>37</v>
       </c>
-      <c r="E57" s="120"/>
-      <c r="F57" s="120"/>
-      <c r="G57" s="121" t="s">
-        <v>49</v>
-      </c>
-      <c r="H57" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="I57" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="J57" s="184" t="s">
+      <c r="E57" s="119"/>
+      <c r="F57" s="119"/>
+      <c r="G57" s="120" t="s">
+        <v>49</v>
+      </c>
+      <c r="H57" s="183" t="s">
+        <v>49</v>
+      </c>
+      <c r="I57" s="183" t="s">
+        <v>49</v>
+      </c>
+      <c r="J57" s="183" t="s">
         <v>49</v>
       </c>
       <c r="K57" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L57" s="121"/>
-      <c r="M57" s="206"/>
+      <c r="L57" s="120"/>
+      <c r="M57" s="220"/>
     </row>
     <row r="58" spans="1:13" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="189"/>
-      <c r="B58" s="203"/>
-      <c r="C58" s="187" t="s">
+      <c r="A58" s="211"/>
+      <c r="B58" s="217"/>
+      <c r="C58" s="186" t="s">
         <v>300</v>
       </c>
-      <c r="D58" s="183"/>
-      <c r="E58" s="120"/>
-      <c r="F58" s="120"/>
-      <c r="G58" s="121"/>
-      <c r="H58" s="184"/>
-      <c r="I58" s="184"/>
-      <c r="J58" s="184"/>
-      <c r="K58" s="121"/>
-      <c r="L58" s="121"/>
-      <c r="M58" s="206"/>
+      <c r="D58" s="182"/>
+      <c r="E58" s="119"/>
+      <c r="F58" s="119"/>
+      <c r="G58" s="120"/>
+      <c r="H58" s="183"/>
+      <c r="I58" s="183"/>
+      <c r="J58" s="183"/>
+      <c r="K58" s="120"/>
+      <c r="L58" s="120"/>
+      <c r="M58" s="220"/>
     </row>
     <row r="59" spans="1:13" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="189"/>
-      <c r="B59" s="203"/>
-      <c r="C59" s="187" t="s">
+      <c r="A59" s="211"/>
+      <c r="B59" s="217"/>
+      <c r="C59" s="186" t="s">
         <v>301</v>
       </c>
-      <c r="D59" s="183"/>
-      <c r="E59" s="120"/>
-      <c r="F59" s="120"/>
-      <c r="G59" s="121"/>
-      <c r="H59" s="184"/>
-      <c r="I59" s="184"/>
-      <c r="J59" s="184"/>
-      <c r="K59" s="121"/>
-      <c r="L59" s="121"/>
-      <c r="M59" s="206"/>
+      <c r="D59" s="182"/>
+      <c r="E59" s="119"/>
+      <c r="F59" s="119"/>
+      <c r="G59" s="120"/>
+      <c r="H59" s="183"/>
+      <c r="I59" s="183"/>
+      <c r="J59" s="183"/>
+      <c r="K59" s="120"/>
+      <c r="L59" s="120"/>
+      <c r="M59" s="220"/>
     </row>
     <row r="60" spans="1:13" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="189"/>
-      <c r="B60" s="203"/>
-      <c r="C60" s="187" t="s">
+      <c r="A60" s="211"/>
+      <c r="B60" s="217"/>
+      <c r="C60" s="186" t="s">
         <v>302</v>
       </c>
-      <c r="D60" s="183"/>
-      <c r="E60" s="120"/>
-      <c r="F60" s="120"/>
-      <c r="G60" s="121"/>
-      <c r="H60" s="184"/>
-      <c r="I60" s="184"/>
-      <c r="J60" s="184"/>
-      <c r="K60" s="121"/>
-      <c r="L60" s="121"/>
-      <c r="M60" s="206"/>
+      <c r="D60" s="182"/>
+      <c r="E60" s="119"/>
+      <c r="F60" s="119"/>
+      <c r="G60" s="120"/>
+      <c r="H60" s="183"/>
+      <c r="I60" s="183"/>
+      <c r="J60" s="183"/>
+      <c r="K60" s="120"/>
+      <c r="L60" s="120"/>
+      <c r="M60" s="220"/>
     </row>
     <row r="61" spans="1:13" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="189"/>
-      <c r="B61" s="203"/>
-      <c r="C61" s="187" t="s">
+      <c r="A61" s="211"/>
+      <c r="B61" s="217"/>
+      <c r="C61" s="186" t="s">
         <v>303</v>
       </c>
-      <c r="D61" s="183"/>
-      <c r="E61" s="120"/>
-      <c r="F61" s="120"/>
-      <c r="G61" s="121"/>
-      <c r="H61" s="184"/>
-      <c r="I61" s="184"/>
-      <c r="J61" s="184"/>
-      <c r="K61" s="121"/>
-      <c r="L61" s="121"/>
-      <c r="M61" s="206"/>
+      <c r="D61" s="182"/>
+      <c r="E61" s="119"/>
+      <c r="F61" s="119"/>
+      <c r="G61" s="120"/>
+      <c r="H61" s="183"/>
+      <c r="I61" s="183"/>
+      <c r="J61" s="183"/>
+      <c r="K61" s="120"/>
+      <c r="L61" s="120"/>
+      <c r="M61" s="220"/>
     </row>
     <row r="62" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="189"/>
-      <c r="B62" s="203"/>
-      <c r="C62" s="118" t="s">
+      <c r="A62" s="211"/>
+      <c r="B62" s="217"/>
+      <c r="C62" s="117" t="s">
         <v>161</v>
       </c>
-      <c r="D62" s="119">
+      <c r="D62" s="118">
         <v>38</v>
       </c>
-      <c r="E62" s="120"/>
-      <c r="F62" s="120"/>
-      <c r="G62" s="121" t="s">
-        <v>49</v>
-      </c>
-      <c r="H62" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="I62" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="J62" s="184" t="s">
+      <c r="E62" s="119"/>
+      <c r="F62" s="119"/>
+      <c r="G62" s="120" t="s">
+        <v>49</v>
+      </c>
+      <c r="H62" s="183" t="s">
+        <v>49</v>
+      </c>
+      <c r="I62" s="183" t="s">
+        <v>49</v>
+      </c>
+      <c r="J62" s="183" t="s">
         <v>49</v>
       </c>
       <c r="K62" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L62" s="121"/>
-      <c r="M62" s="206"/>
+      <c r="L62" s="120"/>
+      <c r="M62" s="220"/>
     </row>
     <row r="63" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="189"/>
-      <c r="B63" s="203"/>
-      <c r="C63" s="118" t="s">
+      <c r="A63" s="211"/>
+      <c r="B63" s="217"/>
+      <c r="C63" s="117" t="s">
         <v>162</v>
       </c>
-      <c r="D63" s="119">
+      <c r="D63" s="118">
         <v>38</v>
       </c>
-      <c r="E63" s="120"/>
-      <c r="F63" s="120"/>
-      <c r="G63" s="121" t="s">
-        <v>49</v>
-      </c>
-      <c r="H63" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="I63" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="J63" s="184" t="s">
+      <c r="E63" s="119"/>
+      <c r="F63" s="119"/>
+      <c r="G63" s="120" t="s">
+        <v>49</v>
+      </c>
+      <c r="H63" s="183" t="s">
+        <v>49</v>
+      </c>
+      <c r="I63" s="183" t="s">
+        <v>49</v>
+      </c>
+      <c r="J63" s="183" t="s">
         <v>49</v>
       </c>
       <c r="K63" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L63" s="121"/>
-      <c r="M63" s="206"/>
+      <c r="L63" s="120"/>
+      <c r="M63" s="220"/>
     </row>
     <row r="64" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="189"/>
-      <c r="B64" s="204"/>
-      <c r="C64" s="118" t="s">
+      <c r="A64" s="211"/>
+      <c r="B64" s="218"/>
+      <c r="C64" s="117" t="s">
         <v>163</v>
       </c>
-      <c r="D64" s="119">
+      <c r="D64" s="118">
         <v>38</v>
       </c>
-      <c r="E64" s="120"/>
-      <c r="F64" s="120"/>
-      <c r="G64" s="121" t="s">
-        <v>49</v>
-      </c>
-      <c r="H64" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="I64" s="184" t="s">
-        <v>49</v>
-      </c>
-      <c r="J64" s="184" t="s">
+      <c r="E64" s="119"/>
+      <c r="F64" s="119"/>
+      <c r="G64" s="120" t="s">
+        <v>49</v>
+      </c>
+      <c r="H64" s="183" t="s">
+        <v>49</v>
+      </c>
+      <c r="I64" s="183" t="s">
+        <v>49</v>
+      </c>
+      <c r="J64" s="183" t="s">
         <v>49</v>
       </c>
       <c r="K64" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="L64" s="121"/>
-      <c r="M64" s="206"/>
+      <c r="L64" s="120"/>
+      <c r="M64" s="220"/>
     </row>
     <row r="65" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="15"/>
@@ -4645,1895 +4700,1895 @@
       <c r="A66" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B66" s="113" t="s">
+      <c r="B66" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="114" t="s">
+      <c r="C66" s="113" t="s">
         <v>2</v>
       </c>
       <c r="D66" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E66" s="115" t="s">
+      <c r="E66" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="F66" s="116" t="s">
+      <c r="F66" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="G66" s="117" t="s">
+      <c r="G66" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="H66" s="117" t="s">
+      <c r="H66" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="I66" s="117" t="s">
+      <c r="I66" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="J66" s="117" t="s">
+      <c r="J66" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="K66" s="117" t="s">
+      <c r="K66" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="L66" s="117" t="s">
+      <c r="L66" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="M66" s="111" t="s">
+      <c r="M66" s="110" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="188" t="s">
+      <c r="A67" s="210" t="s">
         <v>21</v>
       </c>
-      <c r="B67" s="202" t="s">
+      <c r="B67" s="216" t="s">
         <v>164</v>
       </c>
-      <c r="C67" s="197" t="s">
+      <c r="C67" s="231" t="s">
         <v>165</v>
       </c>
-      <c r="D67" s="208">
+      <c r="D67" s="237">
         <v>28</v>
       </c>
-      <c r="E67" s="122" t="s">
+      <c r="E67" s="121" t="s">
         <v>166</v>
       </c>
-      <c r="F67" s="123" t="s">
+      <c r="F67" s="122" t="s">
         <v>169</v>
       </c>
-      <c r="G67" s="194" t="s">
-        <v>49</v>
-      </c>
-      <c r="H67" s="194" t="s">
-        <v>49</v>
-      </c>
-      <c r="I67" s="194" t="s">
-        <v>49</v>
-      </c>
-      <c r="J67" s="194" t="s">
-        <v>49</v>
-      </c>
-      <c r="K67" s="194"/>
-      <c r="L67" s="194"/>
-      <c r="M67" s="205" t="s">
+      <c r="G67" s="228" t="s">
+        <v>49</v>
+      </c>
+      <c r="H67" s="228" t="s">
+        <v>49</v>
+      </c>
+      <c r="I67" s="228" t="s">
+        <v>49</v>
+      </c>
+      <c r="J67" s="228" t="s">
+        <v>49</v>
+      </c>
+      <c r="K67" s="228"/>
+      <c r="L67" s="228"/>
+      <c r="M67" s="219" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="189"/>
-      <c r="B68" s="203"/>
-      <c r="C68" s="198"/>
-      <c r="D68" s="209"/>
-      <c r="E68" s="122" t="s">
+      <c r="A68" s="211"/>
+      <c r="B68" s="217"/>
+      <c r="C68" s="232"/>
+      <c r="D68" s="238"/>
+      <c r="E68" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="F68" s="211" t="s">
+      <c r="F68" s="240" t="s">
         <v>197</v>
       </c>
-      <c r="G68" s="195"/>
-      <c r="H68" s="195"/>
-      <c r="I68" s="195"/>
-      <c r="J68" s="195"/>
-      <c r="K68" s="195"/>
-      <c r="L68" s="195"/>
-      <c r="M68" s="206"/>
+      <c r="G68" s="229"/>
+      <c r="H68" s="229"/>
+      <c r="I68" s="229"/>
+      <c r="J68" s="229"/>
+      <c r="K68" s="229"/>
+      <c r="L68" s="229"/>
+      <c r="M68" s="220"/>
     </row>
     <row r="69" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="189"/>
-      <c r="B69" s="203"/>
-      <c r="C69" s="199"/>
-      <c r="D69" s="209"/>
-      <c r="E69" s="122" t="s">
+      <c r="A69" s="211"/>
+      <c r="B69" s="217"/>
+      <c r="C69" s="233"/>
+      <c r="D69" s="238"/>
+      <c r="E69" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="F69" s="212"/>
-      <c r="G69" s="195"/>
-      <c r="H69" s="195"/>
-      <c r="I69" s="195"/>
-      <c r="J69" s="195"/>
-      <c r="K69" s="195"/>
-      <c r="L69" s="195"/>
-      <c r="M69" s="206"/>
+      <c r="F69" s="241"/>
+      <c r="G69" s="229"/>
+      <c r="H69" s="229"/>
+      <c r="I69" s="229"/>
+      <c r="J69" s="229"/>
+      <c r="K69" s="229"/>
+      <c r="L69" s="229"/>
+      <c r="M69" s="220"/>
     </row>
     <row r="70" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="189"/>
-      <c r="B70" s="203"/>
-      <c r="C70" s="197" t="s">
+      <c r="A70" s="211"/>
+      <c r="B70" s="217"/>
+      <c r="C70" s="231" t="s">
         <v>170</v>
       </c>
-      <c r="D70" s="209"/>
-      <c r="E70" s="122" t="s">
+      <c r="D70" s="238"/>
+      <c r="E70" s="121" t="s">
         <v>166</v>
       </c>
-      <c r="F70" s="124" t="s">
+      <c r="F70" s="123" t="s">
         <v>198</v>
       </c>
-      <c r="G70" s="195"/>
-      <c r="H70" s="195"/>
-      <c r="I70" s="195"/>
-      <c r="J70" s="195"/>
-      <c r="K70" s="195"/>
-      <c r="L70" s="195"/>
-      <c r="M70" s="206"/>
+      <c r="G70" s="229"/>
+      <c r="H70" s="229"/>
+      <c r="I70" s="229"/>
+      <c r="J70" s="229"/>
+      <c r="K70" s="229"/>
+      <c r="L70" s="229"/>
+      <c r="M70" s="220"/>
     </row>
     <row r="71" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="189"/>
-      <c r="B71" s="203"/>
-      <c r="C71" s="198"/>
-      <c r="D71" s="209"/>
-      <c r="E71" s="122" t="s">
+      <c r="A71" s="211"/>
+      <c r="B71" s="217"/>
+      <c r="C71" s="232"/>
+      <c r="D71" s="238"/>
+      <c r="E71" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="F71" s="124" t="s">
+      <c r="F71" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G71" s="195"/>
-      <c r="H71" s="195"/>
-      <c r="I71" s="195"/>
-      <c r="J71" s="195"/>
-      <c r="K71" s="195"/>
-      <c r="L71" s="195"/>
-      <c r="M71" s="206"/>
+      <c r="G71" s="229"/>
+      <c r="H71" s="229"/>
+      <c r="I71" s="229"/>
+      <c r="J71" s="229"/>
+      <c r="K71" s="229"/>
+      <c r="L71" s="229"/>
+      <c r="M71" s="220"/>
     </row>
     <row r="72" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="189"/>
-      <c r="B72" s="203"/>
-      <c r="C72" s="198"/>
-      <c r="D72" s="209"/>
-      <c r="E72" s="200" t="s">
+      <c r="A72" s="211"/>
+      <c r="B72" s="217"/>
+      <c r="C72" s="232"/>
+      <c r="D72" s="238"/>
+      <c r="E72" s="234" t="s">
         <v>168</v>
       </c>
-      <c r="F72" s="124" t="s">
+      <c r="F72" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G72" s="195"/>
-      <c r="H72" s="195"/>
-      <c r="I72" s="195"/>
-      <c r="J72" s="195"/>
-      <c r="K72" s="195"/>
-      <c r="L72" s="195"/>
-      <c r="M72" s="206"/>
+      <c r="G72" s="229"/>
+      <c r="H72" s="229"/>
+      <c r="I72" s="229"/>
+      <c r="J72" s="229"/>
+      <c r="K72" s="229"/>
+      <c r="L72" s="229"/>
+      <c r="M72" s="220"/>
     </row>
     <row r="73" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="189"/>
-      <c r="B73" s="203"/>
-      <c r="C73" s="199"/>
-      <c r="D73" s="209"/>
-      <c r="E73" s="201"/>
-      <c r="F73" s="124" t="s">
+      <c r="A73" s="211"/>
+      <c r="B73" s="217"/>
+      <c r="C73" s="233"/>
+      <c r="D73" s="238"/>
+      <c r="E73" s="235"/>
+      <c r="F73" s="123" t="s">
         <v>201</v>
       </c>
-      <c r="G73" s="195"/>
-      <c r="H73" s="195"/>
-      <c r="I73" s="195"/>
-      <c r="J73" s="195"/>
-      <c r="K73" s="195"/>
-      <c r="L73" s="195"/>
-      <c r="M73" s="206"/>
+      <c r="G73" s="229"/>
+      <c r="H73" s="229"/>
+      <c r="I73" s="229"/>
+      <c r="J73" s="229"/>
+      <c r="K73" s="229"/>
+      <c r="L73" s="229"/>
+      <c r="M73" s="220"/>
     </row>
     <row r="74" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="189"/>
-      <c r="B74" s="203"/>
-      <c r="C74" s="197" t="s">
+      <c r="A74" s="211"/>
+      <c r="B74" s="217"/>
+      <c r="C74" s="231" t="s">
         <v>171</v>
       </c>
-      <c r="D74" s="209"/>
-      <c r="E74" s="122" t="s">
+      <c r="D74" s="238"/>
+      <c r="E74" s="121" t="s">
         <v>166</v>
       </c>
-      <c r="F74" s="124" t="s">
+      <c r="F74" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G74" s="195"/>
-      <c r="H74" s="195"/>
-      <c r="I74" s="195"/>
-      <c r="J74" s="195"/>
-      <c r="K74" s="195"/>
-      <c r="L74" s="195"/>
-      <c r="M74" s="206"/>
+      <c r="G74" s="229"/>
+      <c r="H74" s="229"/>
+      <c r="I74" s="229"/>
+      <c r="J74" s="229"/>
+      <c r="K74" s="229"/>
+      <c r="L74" s="229"/>
+      <c r="M74" s="220"/>
     </row>
     <row r="75" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="189"/>
-      <c r="B75" s="203"/>
-      <c r="C75" s="198"/>
-      <c r="D75" s="209"/>
-      <c r="E75" s="122" t="s">
+      <c r="A75" s="211"/>
+      <c r="B75" s="217"/>
+      <c r="C75" s="232"/>
+      <c r="D75" s="238"/>
+      <c r="E75" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="F75" s="124" t="s">
+      <c r="F75" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G75" s="195"/>
-      <c r="H75" s="195"/>
-      <c r="I75" s="195"/>
-      <c r="J75" s="195"/>
-      <c r="K75" s="195"/>
-      <c r="L75" s="195"/>
-      <c r="M75" s="206"/>
+      <c r="G75" s="229"/>
+      <c r="H75" s="229"/>
+      <c r="I75" s="229"/>
+      <c r="J75" s="229"/>
+      <c r="K75" s="229"/>
+      <c r="L75" s="229"/>
+      <c r="M75" s="220"/>
     </row>
     <row r="76" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="189"/>
-      <c r="B76" s="203"/>
-      <c r="C76" s="199"/>
-      <c r="D76" s="209"/>
-      <c r="E76" s="122" t="s">
+      <c r="A76" s="211"/>
+      <c r="B76" s="217"/>
+      <c r="C76" s="233"/>
+      <c r="D76" s="238"/>
+      <c r="E76" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="F76" s="124" t="s">
+      <c r="F76" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="G76" s="195"/>
-      <c r="H76" s="195"/>
-      <c r="I76" s="195"/>
-      <c r="J76" s="195"/>
-      <c r="K76" s="195"/>
-      <c r="L76" s="195"/>
-      <c r="M76" s="206"/>
+      <c r="G76" s="229"/>
+      <c r="H76" s="229"/>
+      <c r="I76" s="229"/>
+      <c r="J76" s="229"/>
+      <c r="K76" s="229"/>
+      <c r="L76" s="229"/>
+      <c r="M76" s="220"/>
     </row>
     <row r="77" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="189"/>
-      <c r="B77" s="203"/>
-      <c r="C77" s="197" t="s">
+      <c r="A77" s="211"/>
+      <c r="B77" s="217"/>
+      <c r="C77" s="231" t="s">
         <v>172</v>
       </c>
-      <c r="D77" s="209"/>
-      <c r="E77" s="122" t="s">
+      <c r="D77" s="238"/>
+      <c r="E77" s="121" t="s">
         <v>166</v>
       </c>
-      <c r="F77" s="124" t="s">
+      <c r="F77" s="123" t="s">
         <v>203</v>
       </c>
-      <c r="G77" s="195"/>
-      <c r="H77" s="195"/>
-      <c r="I77" s="195"/>
-      <c r="J77" s="195"/>
-      <c r="K77" s="195"/>
-      <c r="L77" s="195"/>
-      <c r="M77" s="206"/>
+      <c r="G77" s="229"/>
+      <c r="H77" s="229"/>
+      <c r="I77" s="229"/>
+      <c r="J77" s="229"/>
+      <c r="K77" s="229"/>
+      <c r="L77" s="229"/>
+      <c r="M77" s="220"/>
     </row>
     <row r="78" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="189"/>
-      <c r="B78" s="203"/>
-      <c r="C78" s="198"/>
-      <c r="D78" s="209"/>
-      <c r="E78" s="122" t="s">
+      <c r="A78" s="211"/>
+      <c r="B78" s="217"/>
+      <c r="C78" s="232"/>
+      <c r="D78" s="238"/>
+      <c r="E78" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="F78" s="124" t="s">
+      <c r="F78" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G78" s="195"/>
-      <c r="H78" s="195"/>
-      <c r="I78" s="195"/>
-      <c r="J78" s="195"/>
-      <c r="K78" s="195"/>
-      <c r="L78" s="195"/>
-      <c r="M78" s="206"/>
+      <c r="G78" s="229"/>
+      <c r="H78" s="229"/>
+      <c r="I78" s="229"/>
+      <c r="J78" s="229"/>
+      <c r="K78" s="229"/>
+      <c r="L78" s="229"/>
+      <c r="M78" s="220"/>
     </row>
     <row r="79" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="189"/>
-      <c r="B79" s="203"/>
-      <c r="C79" s="199"/>
-      <c r="D79" s="209"/>
-      <c r="E79" s="122" t="s">
+      <c r="A79" s="211"/>
+      <c r="B79" s="217"/>
+      <c r="C79" s="233"/>
+      <c r="D79" s="238"/>
+      <c r="E79" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="F79" s="124" t="s">
+      <c r="F79" s="123" t="s">
         <v>204</v>
       </c>
-      <c r="G79" s="195"/>
-      <c r="H79" s="195"/>
-      <c r="I79" s="195"/>
-      <c r="J79" s="195"/>
-      <c r="K79" s="195"/>
-      <c r="L79" s="195"/>
-      <c r="M79" s="206"/>
+      <c r="G79" s="229"/>
+      <c r="H79" s="229"/>
+      <c r="I79" s="229"/>
+      <c r="J79" s="229"/>
+      <c r="K79" s="229"/>
+      <c r="L79" s="229"/>
+      <c r="M79" s="220"/>
     </row>
     <row r="80" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="189"/>
-      <c r="B80" s="203"/>
-      <c r="C80" s="197" t="s">
+      <c r="A80" s="211"/>
+      <c r="B80" s="217"/>
+      <c r="C80" s="231" t="s">
         <v>173</v>
       </c>
-      <c r="D80" s="209"/>
-      <c r="E80" s="122" t="s">
+      <c r="D80" s="238"/>
+      <c r="E80" s="121" t="s">
         <v>166</v>
       </c>
-      <c r="F80" s="124" t="s">
+      <c r="F80" s="123" t="s">
         <v>205</v>
       </c>
-      <c r="G80" s="195"/>
-      <c r="H80" s="195"/>
-      <c r="I80" s="195"/>
-      <c r="J80" s="195"/>
-      <c r="K80" s="195"/>
-      <c r="L80" s="195"/>
-      <c r="M80" s="206"/>
+      <c r="G80" s="229"/>
+      <c r="H80" s="229"/>
+      <c r="I80" s="229"/>
+      <c r="J80" s="229"/>
+      <c r="K80" s="229"/>
+      <c r="L80" s="229"/>
+      <c r="M80" s="220"/>
     </row>
     <row r="81" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="189"/>
-      <c r="B81" s="203"/>
-      <c r="C81" s="198"/>
-      <c r="D81" s="209"/>
-      <c r="E81" s="122" t="s">
+      <c r="A81" s="211"/>
+      <c r="B81" s="217"/>
+      <c r="C81" s="232"/>
+      <c r="D81" s="238"/>
+      <c r="E81" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="F81" s="124" t="s">
+      <c r="F81" s="123" t="s">
         <v>205</v>
       </c>
-      <c r="G81" s="195"/>
-      <c r="H81" s="195"/>
-      <c r="I81" s="195"/>
-      <c r="J81" s="195"/>
-      <c r="K81" s="195"/>
-      <c r="L81" s="195"/>
-      <c r="M81" s="206"/>
+      <c r="G81" s="229"/>
+      <c r="H81" s="229"/>
+      <c r="I81" s="229"/>
+      <c r="J81" s="229"/>
+      <c r="K81" s="229"/>
+      <c r="L81" s="229"/>
+      <c r="M81" s="220"/>
     </row>
     <row r="82" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="189"/>
-      <c r="B82" s="203"/>
-      <c r="C82" s="199"/>
-      <c r="D82" s="209"/>
-      <c r="E82" s="122" t="s">
+      <c r="A82" s="211"/>
+      <c r="B82" s="217"/>
+      <c r="C82" s="233"/>
+      <c r="D82" s="238"/>
+      <c r="E82" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="F82" s="124" t="s">
+      <c r="F82" s="123" t="s">
         <v>205</v>
       </c>
-      <c r="G82" s="195"/>
-      <c r="H82" s="195"/>
-      <c r="I82" s="195"/>
-      <c r="J82" s="195"/>
-      <c r="K82" s="195"/>
-      <c r="L82" s="195"/>
-      <c r="M82" s="206"/>
+      <c r="G82" s="229"/>
+      <c r="H82" s="229"/>
+      <c r="I82" s="229"/>
+      <c r="J82" s="229"/>
+      <c r="K82" s="229"/>
+      <c r="L82" s="229"/>
+      <c r="M82" s="220"/>
     </row>
     <row r="83" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="189"/>
-      <c r="B83" s="203"/>
-      <c r="C83" s="197" t="s">
+      <c r="A83" s="211"/>
+      <c r="B83" s="217"/>
+      <c r="C83" s="231" t="s">
         <v>174</v>
       </c>
-      <c r="D83" s="209"/>
-      <c r="E83" s="122" t="s">
+      <c r="D83" s="238"/>
+      <c r="E83" s="121" t="s">
         <v>166</v>
       </c>
-      <c r="F83" s="124" t="s">
+      <c r="F83" s="123" t="s">
         <v>201</v>
       </c>
-      <c r="G83" s="195"/>
-      <c r="H83" s="195"/>
-      <c r="I83" s="195"/>
-      <c r="J83" s="195"/>
-      <c r="K83" s="195"/>
-      <c r="L83" s="195"/>
-      <c r="M83" s="206"/>
+      <c r="G83" s="229"/>
+      <c r="H83" s="229"/>
+      <c r="I83" s="229"/>
+      <c r="J83" s="229"/>
+      <c r="K83" s="229"/>
+      <c r="L83" s="229"/>
+      <c r="M83" s="220"/>
     </row>
     <row r="84" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="189"/>
-      <c r="B84" s="203"/>
-      <c r="C84" s="198"/>
-      <c r="D84" s="209"/>
-      <c r="E84" s="122" t="s">
+      <c r="A84" s="211"/>
+      <c r="B84" s="217"/>
+      <c r="C84" s="232"/>
+      <c r="D84" s="238"/>
+      <c r="E84" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="F84" s="124" t="s">
+      <c r="F84" s="123" t="s">
         <v>206</v>
       </c>
-      <c r="G84" s="195"/>
-      <c r="H84" s="195"/>
-      <c r="I84" s="195"/>
-      <c r="J84" s="195"/>
-      <c r="K84" s="195"/>
-      <c r="L84" s="195"/>
-      <c r="M84" s="206"/>
+      <c r="G84" s="229"/>
+      <c r="H84" s="229"/>
+      <c r="I84" s="229"/>
+      <c r="J84" s="229"/>
+      <c r="K84" s="229"/>
+      <c r="L84" s="229"/>
+      <c r="M84" s="220"/>
     </row>
     <row r="85" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="189"/>
-      <c r="B85" s="203"/>
-      <c r="C85" s="199"/>
-      <c r="D85" s="209"/>
-      <c r="E85" s="122" t="s">
+      <c r="A85" s="211"/>
+      <c r="B85" s="217"/>
+      <c r="C85" s="233"/>
+      <c r="D85" s="238"/>
+      <c r="E85" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="F85" s="124" t="s">
+      <c r="F85" s="123" t="s">
         <v>207</v>
       </c>
-      <c r="G85" s="195"/>
-      <c r="H85" s="195"/>
-      <c r="I85" s="195"/>
-      <c r="J85" s="195"/>
-      <c r="K85" s="195"/>
-      <c r="L85" s="195"/>
-      <c r="M85" s="206"/>
+      <c r="G85" s="229"/>
+      <c r="H85" s="229"/>
+      <c r="I85" s="229"/>
+      <c r="J85" s="229"/>
+      <c r="K85" s="229"/>
+      <c r="L85" s="229"/>
+      <c r="M85" s="220"/>
     </row>
     <row r="86" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="189"/>
-      <c r="B86" s="203"/>
-      <c r="C86" s="197" t="s">
+      <c r="A86" s="211"/>
+      <c r="B86" s="217"/>
+      <c r="C86" s="231" t="s">
         <v>175</v>
       </c>
-      <c r="D86" s="209"/>
-      <c r="E86" s="122" t="s">
+      <c r="D86" s="238"/>
+      <c r="E86" s="121" t="s">
         <v>166</v>
       </c>
-      <c r="F86" s="124" t="s">
+      <c r="F86" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G86" s="195"/>
-      <c r="H86" s="195"/>
-      <c r="I86" s="195"/>
-      <c r="J86" s="195"/>
-      <c r="K86" s="195"/>
-      <c r="L86" s="195"/>
-      <c r="M86" s="206"/>
+      <c r="G86" s="229"/>
+      <c r="H86" s="229"/>
+      <c r="I86" s="229"/>
+      <c r="J86" s="229"/>
+      <c r="K86" s="229"/>
+      <c r="L86" s="229"/>
+      <c r="M86" s="220"/>
     </row>
     <row r="87" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="189"/>
-      <c r="B87" s="203"/>
-      <c r="C87" s="198"/>
-      <c r="D87" s="209"/>
-      <c r="E87" s="122" t="s">
+      <c r="A87" s="211"/>
+      <c r="B87" s="217"/>
+      <c r="C87" s="232"/>
+      <c r="D87" s="238"/>
+      <c r="E87" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="F87" s="124" t="s">
+      <c r="F87" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G87" s="195"/>
-      <c r="H87" s="195"/>
-      <c r="I87" s="195"/>
-      <c r="J87" s="195"/>
-      <c r="K87" s="195"/>
-      <c r="L87" s="195"/>
-      <c r="M87" s="206"/>
+      <c r="G87" s="229"/>
+      <c r="H87" s="229"/>
+      <c r="I87" s="229"/>
+      <c r="J87" s="229"/>
+      <c r="K87" s="229"/>
+      <c r="L87" s="229"/>
+      <c r="M87" s="220"/>
     </row>
     <row r="88" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="189"/>
-      <c r="B88" s="203"/>
-      <c r="C88" s="199"/>
-      <c r="D88" s="209"/>
-      <c r="E88" s="122" t="s">
+      <c r="A88" s="211"/>
+      <c r="B88" s="217"/>
+      <c r="C88" s="233"/>
+      <c r="D88" s="238"/>
+      <c r="E88" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="F88" s="124" t="s">
+      <c r="F88" s="123" t="s">
         <v>208</v>
       </c>
-      <c r="G88" s="195"/>
-      <c r="H88" s="195"/>
-      <c r="I88" s="195"/>
-      <c r="J88" s="195"/>
-      <c r="K88" s="195"/>
-      <c r="L88" s="195"/>
-      <c r="M88" s="206"/>
+      <c r="G88" s="229"/>
+      <c r="H88" s="229"/>
+      <c r="I88" s="229"/>
+      <c r="J88" s="229"/>
+      <c r="K88" s="229"/>
+      <c r="L88" s="229"/>
+      <c r="M88" s="220"/>
     </row>
     <row r="89" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="189"/>
-      <c r="B89" s="203"/>
-      <c r="C89" s="197" t="s">
+      <c r="A89" s="211"/>
+      <c r="B89" s="217"/>
+      <c r="C89" s="231" t="s">
         <v>176</v>
       </c>
-      <c r="D89" s="209"/>
-      <c r="E89" s="200" t="s">
+      <c r="D89" s="238"/>
+      <c r="E89" s="234" t="s">
         <v>166</v>
       </c>
-      <c r="F89" s="124" t="s">
+      <c r="F89" s="123" t="s">
         <v>209</v>
       </c>
-      <c r="G89" s="195"/>
-      <c r="H89" s="195"/>
-      <c r="I89" s="195"/>
-      <c r="J89" s="195"/>
-      <c r="K89" s="195"/>
-      <c r="L89" s="195"/>
-      <c r="M89" s="206"/>
+      <c r="G89" s="229"/>
+      <c r="H89" s="229"/>
+      <c r="I89" s="229"/>
+      <c r="J89" s="229"/>
+      <c r="K89" s="229"/>
+      <c r="L89" s="229"/>
+      <c r="M89" s="220"/>
     </row>
     <row r="90" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="189"/>
-      <c r="B90" s="203"/>
-      <c r="C90" s="198"/>
-      <c r="D90" s="209"/>
-      <c r="E90" s="201"/>
-      <c r="F90" s="124" t="s">
+      <c r="A90" s="211"/>
+      <c r="B90" s="217"/>
+      <c r="C90" s="232"/>
+      <c r="D90" s="238"/>
+      <c r="E90" s="235"/>
+      <c r="F90" s="123" t="s">
         <v>210</v>
       </c>
-      <c r="G90" s="195"/>
-      <c r="H90" s="195"/>
-      <c r="I90" s="195"/>
-      <c r="J90" s="195"/>
-      <c r="K90" s="195"/>
-      <c r="L90" s="195"/>
-      <c r="M90" s="206"/>
+      <c r="G90" s="229"/>
+      <c r="H90" s="229"/>
+      <c r="I90" s="229"/>
+      <c r="J90" s="229"/>
+      <c r="K90" s="229"/>
+      <c r="L90" s="229"/>
+      <c r="M90" s="220"/>
     </row>
     <row r="91" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="189"/>
-      <c r="B91" s="203"/>
-      <c r="C91" s="198"/>
-      <c r="D91" s="209"/>
-      <c r="E91" s="122" t="s">
+      <c r="A91" s="211"/>
+      <c r="B91" s="217"/>
+      <c r="C91" s="232"/>
+      <c r="D91" s="238"/>
+      <c r="E91" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="F91" s="124" t="s">
+      <c r="F91" s="123" t="s">
         <v>210</v>
       </c>
-      <c r="G91" s="195"/>
-      <c r="H91" s="195"/>
-      <c r="I91" s="195"/>
-      <c r="J91" s="195"/>
-      <c r="K91" s="195"/>
-      <c r="L91" s="195"/>
-      <c r="M91" s="206"/>
+      <c r="G91" s="229"/>
+      <c r="H91" s="229"/>
+      <c r="I91" s="229"/>
+      <c r="J91" s="229"/>
+      <c r="K91" s="229"/>
+      <c r="L91" s="229"/>
+      <c r="M91" s="220"/>
     </row>
     <row r="92" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="189"/>
-      <c r="B92" s="203"/>
-      <c r="C92" s="199"/>
-      <c r="D92" s="209"/>
-      <c r="E92" s="122" t="s">
+      <c r="A92" s="211"/>
+      <c r="B92" s="217"/>
+      <c r="C92" s="233"/>
+      <c r="D92" s="238"/>
+      <c r="E92" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="F92" s="124" t="s">
+      <c r="F92" s="123" t="s">
         <v>211</v>
       </c>
-      <c r="G92" s="195"/>
-      <c r="H92" s="195"/>
-      <c r="I92" s="195"/>
-      <c r="J92" s="195"/>
-      <c r="K92" s="195"/>
-      <c r="L92" s="195"/>
-      <c r="M92" s="206"/>
+      <c r="G92" s="229"/>
+      <c r="H92" s="229"/>
+      <c r="I92" s="229"/>
+      <c r="J92" s="229"/>
+      <c r="K92" s="229"/>
+      <c r="L92" s="229"/>
+      <c r="M92" s="220"/>
     </row>
     <row r="93" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="189"/>
-      <c r="B93" s="203"/>
-      <c r="C93" s="197" t="s">
+      <c r="A93" s="211"/>
+      <c r="B93" s="217"/>
+      <c r="C93" s="231" t="s">
         <v>177</v>
       </c>
-      <c r="D93" s="209"/>
-      <c r="E93" s="122" t="s">
+      <c r="D93" s="238"/>
+      <c r="E93" s="121" t="s">
         <v>166</v>
       </c>
-      <c r="F93" s="124" t="s">
+      <c r="F93" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G93" s="195"/>
-      <c r="H93" s="195"/>
-      <c r="I93" s="195"/>
-      <c r="J93" s="195"/>
-      <c r="K93" s="195"/>
-      <c r="L93" s="195"/>
-      <c r="M93" s="206"/>
+      <c r="G93" s="229"/>
+      <c r="H93" s="229"/>
+      <c r="I93" s="229"/>
+      <c r="J93" s="229"/>
+      <c r="K93" s="229"/>
+      <c r="L93" s="229"/>
+      <c r="M93" s="220"/>
     </row>
     <row r="94" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="189"/>
-      <c r="B94" s="203"/>
-      <c r="C94" s="198"/>
-      <c r="D94" s="209"/>
-      <c r="E94" s="122" t="s">
+      <c r="A94" s="211"/>
+      <c r="B94" s="217"/>
+      <c r="C94" s="232"/>
+      <c r="D94" s="238"/>
+      <c r="E94" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="F94" s="124" t="s">
+      <c r="F94" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G94" s="195"/>
-      <c r="H94" s="195"/>
-      <c r="I94" s="195"/>
-      <c r="J94" s="195"/>
-      <c r="K94" s="195"/>
-      <c r="L94" s="195"/>
-      <c r="M94" s="206"/>
+      <c r="G94" s="229"/>
+      <c r="H94" s="229"/>
+      <c r="I94" s="229"/>
+      <c r="J94" s="229"/>
+      <c r="K94" s="229"/>
+      <c r="L94" s="229"/>
+      <c r="M94" s="220"/>
     </row>
     <row r="95" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="189"/>
-      <c r="B95" s="203"/>
-      <c r="C95" s="198"/>
-      <c r="D95" s="209"/>
-      <c r="E95" s="200" t="s">
+      <c r="A95" s="211"/>
+      <c r="B95" s="217"/>
+      <c r="C95" s="232"/>
+      <c r="D95" s="238"/>
+      <c r="E95" s="234" t="s">
         <v>168</v>
       </c>
-      <c r="F95" s="124" t="s">
+      <c r="F95" s="123" t="s">
         <v>204</v>
       </c>
-      <c r="G95" s="195"/>
-      <c r="H95" s="195"/>
-      <c r="I95" s="195"/>
-      <c r="J95" s="195"/>
-      <c r="K95" s="195"/>
-      <c r="L95" s="195"/>
-      <c r="M95" s="206"/>
+      <c r="G95" s="229"/>
+      <c r="H95" s="229"/>
+      <c r="I95" s="229"/>
+      <c r="J95" s="229"/>
+      <c r="K95" s="229"/>
+      <c r="L95" s="229"/>
+      <c r="M95" s="220"/>
     </row>
     <row r="96" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="189"/>
-      <c r="B96" s="203"/>
-      <c r="C96" s="199"/>
-      <c r="D96" s="209"/>
-      <c r="E96" s="201"/>
-      <c r="F96" s="124" t="s">
+      <c r="A96" s="211"/>
+      <c r="B96" s="217"/>
+      <c r="C96" s="233"/>
+      <c r="D96" s="238"/>
+      <c r="E96" s="235"/>
+      <c r="F96" s="123" t="s">
         <v>205</v>
       </c>
-      <c r="G96" s="195"/>
-      <c r="H96" s="195"/>
-      <c r="I96" s="195"/>
-      <c r="J96" s="195"/>
-      <c r="K96" s="195"/>
-      <c r="L96" s="195"/>
-      <c r="M96" s="206"/>
+      <c r="G96" s="229"/>
+      <c r="H96" s="229"/>
+      <c r="I96" s="229"/>
+      <c r="J96" s="229"/>
+      <c r="K96" s="229"/>
+      <c r="L96" s="229"/>
+      <c r="M96" s="220"/>
     </row>
     <row r="97" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="189"/>
-      <c r="B97" s="203"/>
-      <c r="C97" s="197" t="s">
+      <c r="A97" s="211"/>
+      <c r="B97" s="217"/>
+      <c r="C97" s="231" t="s">
         <v>178</v>
       </c>
-      <c r="D97" s="209"/>
-      <c r="E97" s="122" t="s">
+      <c r="D97" s="238"/>
+      <c r="E97" s="121" t="s">
         <v>166</v>
       </c>
-      <c r="F97" s="124" t="s">
+      <c r="F97" s="123" t="s">
         <v>212</v>
       </c>
-      <c r="G97" s="195"/>
-      <c r="H97" s="195"/>
-      <c r="I97" s="195"/>
-      <c r="J97" s="195"/>
-      <c r="K97" s="195"/>
-      <c r="L97" s="195"/>
-      <c r="M97" s="206"/>
+      <c r="G97" s="229"/>
+      <c r="H97" s="229"/>
+      <c r="I97" s="229"/>
+      <c r="J97" s="229"/>
+      <c r="K97" s="229"/>
+      <c r="L97" s="229"/>
+      <c r="M97" s="220"/>
     </row>
     <row r="98" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="189"/>
-      <c r="B98" s="203"/>
-      <c r="C98" s="198"/>
-      <c r="D98" s="209"/>
-      <c r="E98" s="122" t="s">
+      <c r="A98" s="211"/>
+      <c r="B98" s="217"/>
+      <c r="C98" s="232"/>
+      <c r="D98" s="238"/>
+      <c r="E98" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="F98" s="124" t="s">
+      <c r="F98" s="123" t="s">
         <v>204</v>
       </c>
-      <c r="G98" s="195"/>
-      <c r="H98" s="195"/>
-      <c r="I98" s="195"/>
-      <c r="J98" s="195"/>
-      <c r="K98" s="195"/>
-      <c r="L98" s="195"/>
-      <c r="M98" s="206"/>
+      <c r="G98" s="229"/>
+      <c r="H98" s="229"/>
+      <c r="I98" s="229"/>
+      <c r="J98" s="229"/>
+      <c r="K98" s="229"/>
+      <c r="L98" s="229"/>
+      <c r="M98" s="220"/>
     </row>
     <row r="99" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="189"/>
-      <c r="B99" s="203"/>
-      <c r="C99" s="199"/>
-      <c r="D99" s="209"/>
-      <c r="E99" s="122" t="s">
+      <c r="A99" s="211"/>
+      <c r="B99" s="217"/>
+      <c r="C99" s="233"/>
+      <c r="D99" s="238"/>
+      <c r="E99" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="F99" s="124" t="s">
+      <c r="F99" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G99" s="195"/>
-      <c r="H99" s="195"/>
-      <c r="I99" s="195"/>
-      <c r="J99" s="195"/>
-      <c r="K99" s="195"/>
-      <c r="L99" s="195"/>
-      <c r="M99" s="206"/>
+      <c r="G99" s="229"/>
+      <c r="H99" s="229"/>
+      <c r="I99" s="229"/>
+      <c r="J99" s="229"/>
+      <c r="K99" s="229"/>
+      <c r="L99" s="229"/>
+      <c r="M99" s="220"/>
     </row>
     <row r="100" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="189"/>
-      <c r="B100" s="203"/>
-      <c r="C100" s="197" t="s">
+      <c r="A100" s="211"/>
+      <c r="B100" s="217"/>
+      <c r="C100" s="231" t="s">
         <v>179</v>
       </c>
-      <c r="D100" s="209"/>
-      <c r="E100" s="122" t="s">
+      <c r="D100" s="238"/>
+      <c r="E100" s="121" t="s">
         <v>166</v>
       </c>
-      <c r="F100" s="124" t="s">
+      <c r="F100" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G100" s="195"/>
-      <c r="H100" s="195"/>
-      <c r="I100" s="195"/>
-      <c r="J100" s="195"/>
-      <c r="K100" s="195"/>
-      <c r="L100" s="195"/>
-      <c r="M100" s="206"/>
+      <c r="G100" s="229"/>
+      <c r="H100" s="229"/>
+      <c r="I100" s="229"/>
+      <c r="J100" s="229"/>
+      <c r="K100" s="229"/>
+      <c r="L100" s="229"/>
+      <c r="M100" s="220"/>
     </row>
     <row r="101" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="189"/>
-      <c r="B101" s="203"/>
-      <c r="C101" s="198"/>
-      <c r="D101" s="209"/>
-      <c r="E101" s="200" t="s">
+      <c r="A101" s="211"/>
+      <c r="B101" s="217"/>
+      <c r="C101" s="232"/>
+      <c r="D101" s="238"/>
+      <c r="E101" s="234" t="s">
         <v>167</v>
       </c>
-      <c r="F101" s="124" t="s">
+      <c r="F101" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G101" s="195"/>
-      <c r="H101" s="195"/>
-      <c r="I101" s="195"/>
-      <c r="J101" s="195"/>
-      <c r="K101" s="195"/>
-      <c r="L101" s="195"/>
-      <c r="M101" s="206"/>
+      <c r="G101" s="229"/>
+      <c r="H101" s="229"/>
+      <c r="I101" s="229"/>
+      <c r="J101" s="229"/>
+      <c r="K101" s="229"/>
+      <c r="L101" s="229"/>
+      <c r="M101" s="220"/>
     </row>
     <row r="102" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="189"/>
-      <c r="B102" s="203"/>
-      <c r="C102" s="198"/>
-      <c r="D102" s="209"/>
-      <c r="E102" s="201"/>
-      <c r="F102" s="124" t="s">
+      <c r="A102" s="211"/>
+      <c r="B102" s="217"/>
+      <c r="C102" s="232"/>
+      <c r="D102" s="238"/>
+      <c r="E102" s="235"/>
+      <c r="F102" s="123" t="s">
         <v>201</v>
       </c>
-      <c r="G102" s="195"/>
-      <c r="H102" s="195"/>
-      <c r="I102" s="195"/>
-      <c r="J102" s="195"/>
-      <c r="K102" s="195"/>
-      <c r="L102" s="195"/>
-      <c r="M102" s="206"/>
+      <c r="G102" s="229"/>
+      <c r="H102" s="229"/>
+      <c r="I102" s="229"/>
+      <c r="J102" s="229"/>
+      <c r="K102" s="229"/>
+      <c r="L102" s="229"/>
+      <c r="M102" s="220"/>
     </row>
     <row r="103" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="189"/>
-      <c r="B103" s="203"/>
-      <c r="C103" s="199"/>
-      <c r="D103" s="209"/>
-      <c r="E103" s="122" t="s">
+      <c r="A103" s="211"/>
+      <c r="B103" s="217"/>
+      <c r="C103" s="233"/>
+      <c r="D103" s="238"/>
+      <c r="E103" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="F103" s="124" t="s">
+      <c r="F103" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="G103" s="195"/>
-      <c r="H103" s="195"/>
-      <c r="I103" s="195"/>
-      <c r="J103" s="195"/>
-      <c r="K103" s="195"/>
-      <c r="L103" s="195"/>
-      <c r="M103" s="206"/>
+      <c r="G103" s="229"/>
+      <c r="H103" s="229"/>
+      <c r="I103" s="229"/>
+      <c r="J103" s="229"/>
+      <c r="K103" s="229"/>
+      <c r="L103" s="229"/>
+      <c r="M103" s="220"/>
     </row>
     <row r="104" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="189"/>
-      <c r="B104" s="203"/>
-      <c r="C104" s="197" t="s">
+      <c r="A104" s="211"/>
+      <c r="B104" s="217"/>
+      <c r="C104" s="231" t="s">
         <v>180</v>
       </c>
-      <c r="D104" s="209"/>
-      <c r="E104" s="200" t="s">
+      <c r="D104" s="238"/>
+      <c r="E104" s="234" t="s">
         <v>166</v>
       </c>
-      <c r="F104" s="124" t="s">
+      <c r="F104" s="123" t="s">
         <v>213</v>
       </c>
-      <c r="G104" s="195"/>
-      <c r="H104" s="195"/>
-      <c r="I104" s="195"/>
-      <c r="J104" s="195"/>
-      <c r="K104" s="195"/>
-      <c r="L104" s="195"/>
-      <c r="M104" s="206"/>
+      <c r="G104" s="229"/>
+      <c r="H104" s="229"/>
+      <c r="I104" s="229"/>
+      <c r="J104" s="229"/>
+      <c r="K104" s="229"/>
+      <c r="L104" s="229"/>
+      <c r="M104" s="220"/>
     </row>
     <row r="105" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="189"/>
-      <c r="B105" s="203"/>
-      <c r="C105" s="198"/>
-      <c r="D105" s="209"/>
-      <c r="E105" s="201"/>
-      <c r="F105" s="124" t="s">
+      <c r="A105" s="211"/>
+      <c r="B105" s="217"/>
+      <c r="C105" s="232"/>
+      <c r="D105" s="238"/>
+      <c r="E105" s="235"/>
+      <c r="F105" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G105" s="195"/>
-      <c r="H105" s="195"/>
-      <c r="I105" s="195"/>
-      <c r="J105" s="195"/>
-      <c r="K105" s="195"/>
-      <c r="L105" s="195"/>
-      <c r="M105" s="206"/>
+      <c r="G105" s="229"/>
+      <c r="H105" s="229"/>
+      <c r="I105" s="229"/>
+      <c r="J105" s="229"/>
+      <c r="K105" s="229"/>
+      <c r="L105" s="229"/>
+      <c r="M105" s="220"/>
     </row>
     <row r="106" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="189"/>
-      <c r="B106" s="203"/>
-      <c r="C106" s="198"/>
-      <c r="D106" s="209"/>
-      <c r="E106" s="122" t="s">
+      <c r="A106" s="211"/>
+      <c r="B106" s="217"/>
+      <c r="C106" s="232"/>
+      <c r="D106" s="238"/>
+      <c r="E106" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="F106" s="124" t="s">
+      <c r="F106" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G106" s="195"/>
-      <c r="H106" s="195"/>
-      <c r="I106" s="195"/>
-      <c r="J106" s="195"/>
-      <c r="K106" s="195"/>
-      <c r="L106" s="195"/>
-      <c r="M106" s="206"/>
+      <c r="G106" s="229"/>
+      <c r="H106" s="229"/>
+      <c r="I106" s="229"/>
+      <c r="J106" s="229"/>
+      <c r="K106" s="229"/>
+      <c r="L106" s="229"/>
+      <c r="M106" s="220"/>
     </row>
     <row r="107" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="189"/>
-      <c r="B107" s="203"/>
-      <c r="C107" s="198"/>
-      <c r="D107" s="209"/>
-      <c r="E107" s="200" t="s">
+      <c r="A107" s="211"/>
+      <c r="B107" s="217"/>
+      <c r="C107" s="232"/>
+      <c r="D107" s="238"/>
+      <c r="E107" s="234" t="s">
         <v>168</v>
       </c>
-      <c r="F107" s="124" t="s">
+      <c r="F107" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G107" s="195"/>
-      <c r="H107" s="195"/>
-      <c r="I107" s="195"/>
-      <c r="J107" s="195"/>
-      <c r="K107" s="195"/>
-      <c r="L107" s="195"/>
-      <c r="M107" s="206"/>
+      <c r="G107" s="229"/>
+      <c r="H107" s="229"/>
+      <c r="I107" s="229"/>
+      <c r="J107" s="229"/>
+      <c r="K107" s="229"/>
+      <c r="L107" s="229"/>
+      <c r="M107" s="220"/>
     </row>
     <row r="108" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="189"/>
-      <c r="B108" s="203"/>
-      <c r="C108" s="199"/>
-      <c r="D108" s="209"/>
-      <c r="E108" s="201"/>
-      <c r="F108" s="124" t="s">
+      <c r="A108" s="211"/>
+      <c r="B108" s="217"/>
+      <c r="C108" s="233"/>
+      <c r="D108" s="238"/>
+      <c r="E108" s="235"/>
+      <c r="F108" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G108" s="195"/>
-      <c r="H108" s="195"/>
-      <c r="I108" s="195"/>
-      <c r="J108" s="195"/>
-      <c r="K108" s="195"/>
-      <c r="L108" s="195"/>
-      <c r="M108" s="206"/>
+      <c r="G108" s="229"/>
+      <c r="H108" s="229"/>
+      <c r="I108" s="229"/>
+      <c r="J108" s="229"/>
+      <c r="K108" s="229"/>
+      <c r="L108" s="229"/>
+      <c r="M108" s="220"/>
     </row>
     <row r="109" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="189"/>
-      <c r="B109" s="203"/>
-      <c r="C109" s="197" t="s">
+      <c r="A109" s="211"/>
+      <c r="B109" s="217"/>
+      <c r="C109" s="231" t="s">
         <v>181</v>
       </c>
-      <c r="D109" s="209"/>
-      <c r="E109" s="122" t="s">
+      <c r="D109" s="238"/>
+      <c r="E109" s="121" t="s">
         <v>166</v>
       </c>
-      <c r="F109" s="124" t="s">
+      <c r="F109" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G109" s="195"/>
-      <c r="H109" s="195"/>
-      <c r="I109" s="195"/>
-      <c r="J109" s="195"/>
-      <c r="K109" s="195"/>
-      <c r="L109" s="195"/>
-      <c r="M109" s="206"/>
+      <c r="G109" s="229"/>
+      <c r="H109" s="229"/>
+      <c r="I109" s="229"/>
+      <c r="J109" s="229"/>
+      <c r="K109" s="229"/>
+      <c r="L109" s="229"/>
+      <c r="M109" s="220"/>
     </row>
     <row r="110" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="189"/>
-      <c r="B110" s="203"/>
-      <c r="C110" s="198"/>
-      <c r="D110" s="209"/>
-      <c r="E110" s="122" t="s">
+      <c r="A110" s="211"/>
+      <c r="B110" s="217"/>
+      <c r="C110" s="232"/>
+      <c r="D110" s="238"/>
+      <c r="E110" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="F110" s="124" t="s">
+      <c r="F110" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G110" s="195"/>
-      <c r="H110" s="195"/>
-      <c r="I110" s="195"/>
-      <c r="J110" s="195"/>
-      <c r="K110" s="195"/>
-      <c r="L110" s="195"/>
-      <c r="M110" s="206"/>
+      <c r="G110" s="229"/>
+      <c r="H110" s="229"/>
+      <c r="I110" s="229"/>
+      <c r="J110" s="229"/>
+      <c r="K110" s="229"/>
+      <c r="L110" s="229"/>
+      <c r="M110" s="220"/>
     </row>
     <row r="111" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="189"/>
-      <c r="B111" s="203"/>
-      <c r="C111" s="199"/>
-      <c r="D111" s="209"/>
-      <c r="E111" s="122" t="s">
+      <c r="A111" s="211"/>
+      <c r="B111" s="217"/>
+      <c r="C111" s="233"/>
+      <c r="D111" s="238"/>
+      <c r="E111" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="F111" s="124" t="s">
+      <c r="F111" s="123" t="s">
         <v>214</v>
       </c>
-      <c r="G111" s="195"/>
-      <c r="H111" s="195"/>
-      <c r="I111" s="195"/>
-      <c r="J111" s="195"/>
-      <c r="K111" s="195"/>
-      <c r="L111" s="195"/>
-      <c r="M111" s="206"/>
+      <c r="G111" s="229"/>
+      <c r="H111" s="229"/>
+      <c r="I111" s="229"/>
+      <c r="J111" s="229"/>
+      <c r="K111" s="229"/>
+      <c r="L111" s="229"/>
+      <c r="M111" s="220"/>
     </row>
     <row r="112" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="189"/>
-      <c r="B112" s="203"/>
-      <c r="C112" s="197" t="s">
+      <c r="A112" s="211"/>
+      <c r="B112" s="217"/>
+      <c r="C112" s="231" t="s">
         <v>182</v>
       </c>
-      <c r="D112" s="209"/>
-      <c r="E112" s="122" t="s">
+      <c r="D112" s="238"/>
+      <c r="E112" s="121" t="s">
         <v>166</v>
       </c>
-      <c r="F112" s="124" t="s">
+      <c r="F112" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G112" s="195"/>
-      <c r="H112" s="195"/>
-      <c r="I112" s="195"/>
-      <c r="J112" s="195"/>
-      <c r="K112" s="195"/>
-      <c r="L112" s="195"/>
-      <c r="M112" s="206"/>
+      <c r="G112" s="229"/>
+      <c r="H112" s="229"/>
+      <c r="I112" s="229"/>
+      <c r="J112" s="229"/>
+      <c r="K112" s="229"/>
+      <c r="L112" s="229"/>
+      <c r="M112" s="220"/>
     </row>
     <row r="113" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="189"/>
-      <c r="B113" s="203"/>
-      <c r="C113" s="198"/>
-      <c r="D113" s="209"/>
-      <c r="E113" s="200" t="s">
+      <c r="A113" s="211"/>
+      <c r="B113" s="217"/>
+      <c r="C113" s="232"/>
+      <c r="D113" s="238"/>
+      <c r="E113" s="234" t="s">
         <v>167</v>
       </c>
-      <c r="F113" s="124" t="s">
+      <c r="F113" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G113" s="195"/>
-      <c r="H113" s="195"/>
-      <c r="I113" s="195"/>
-      <c r="J113" s="195"/>
-      <c r="K113" s="195"/>
-      <c r="L113" s="195"/>
-      <c r="M113" s="206"/>
+      <c r="G113" s="229"/>
+      <c r="H113" s="229"/>
+      <c r="I113" s="229"/>
+      <c r="J113" s="229"/>
+      <c r="K113" s="229"/>
+      <c r="L113" s="229"/>
+      <c r="M113" s="220"/>
     </row>
     <row r="114" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="189"/>
-      <c r="B114" s="203"/>
-      <c r="C114" s="198"/>
-      <c r="D114" s="209"/>
-      <c r="E114" s="201"/>
-      <c r="F114" s="124" t="s">
+      <c r="A114" s="211"/>
+      <c r="B114" s="217"/>
+      <c r="C114" s="232"/>
+      <c r="D114" s="238"/>
+      <c r="E114" s="235"/>
+      <c r="F114" s="123" t="s">
         <v>215</v>
       </c>
-      <c r="G114" s="195"/>
-      <c r="H114" s="195"/>
-      <c r="I114" s="195"/>
-      <c r="J114" s="195"/>
-      <c r="K114" s="195"/>
-      <c r="L114" s="195"/>
-      <c r="M114" s="206"/>
+      <c r="G114" s="229"/>
+      <c r="H114" s="229"/>
+      <c r="I114" s="229"/>
+      <c r="J114" s="229"/>
+      <c r="K114" s="229"/>
+      <c r="L114" s="229"/>
+      <c r="M114" s="220"/>
     </row>
     <row r="115" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="189"/>
-      <c r="B115" s="203"/>
-      <c r="C115" s="199"/>
-      <c r="D115" s="209"/>
-      <c r="E115" s="122" t="s">
+      <c r="A115" s="211"/>
+      <c r="B115" s="217"/>
+      <c r="C115" s="233"/>
+      <c r="D115" s="238"/>
+      <c r="E115" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="F115" s="124" t="s">
+      <c r="F115" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G115" s="195"/>
-      <c r="H115" s="195"/>
-      <c r="I115" s="195"/>
-      <c r="J115" s="195"/>
-      <c r="K115" s="195"/>
-      <c r="L115" s="195"/>
-      <c r="M115" s="206"/>
+      <c r="G115" s="229"/>
+      <c r="H115" s="229"/>
+      <c r="I115" s="229"/>
+      <c r="J115" s="229"/>
+      <c r="K115" s="229"/>
+      <c r="L115" s="229"/>
+      <c r="M115" s="220"/>
     </row>
     <row r="116" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="189"/>
-      <c r="B116" s="203"/>
-      <c r="C116" s="197" t="s">
+      <c r="A116" s="211"/>
+      <c r="B116" s="217"/>
+      <c r="C116" s="231" t="s">
         <v>183</v>
       </c>
-      <c r="D116" s="209"/>
-      <c r="E116" s="122" t="s">
+      <c r="D116" s="238"/>
+      <c r="E116" s="121" t="s">
         <v>166</v>
       </c>
-      <c r="F116" s="124" t="s">
+      <c r="F116" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G116" s="195"/>
-      <c r="H116" s="195"/>
-      <c r="I116" s="195"/>
-      <c r="J116" s="195"/>
-      <c r="K116" s="195"/>
-      <c r="L116" s="195"/>
-      <c r="M116" s="206"/>
+      <c r="G116" s="229"/>
+      <c r="H116" s="229"/>
+      <c r="I116" s="229"/>
+      <c r="J116" s="229"/>
+      <c r="K116" s="229"/>
+      <c r="L116" s="229"/>
+      <c r="M116" s="220"/>
     </row>
     <row r="117" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="189"/>
-      <c r="B117" s="203"/>
-      <c r="C117" s="198"/>
-      <c r="D117" s="209"/>
-      <c r="E117" s="122" t="s">
+      <c r="A117" s="211"/>
+      <c r="B117" s="217"/>
+      <c r="C117" s="232"/>
+      <c r="D117" s="238"/>
+      <c r="E117" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="F117" s="124" t="s">
+      <c r="F117" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G117" s="195"/>
-      <c r="H117" s="195"/>
-      <c r="I117" s="195"/>
-      <c r="J117" s="195"/>
-      <c r="K117" s="195"/>
-      <c r="L117" s="195"/>
-      <c r="M117" s="206"/>
+      <c r="G117" s="229"/>
+      <c r="H117" s="229"/>
+      <c r="I117" s="229"/>
+      <c r="J117" s="229"/>
+      <c r="K117" s="229"/>
+      <c r="L117" s="229"/>
+      <c r="M117" s="220"/>
     </row>
     <row r="118" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="189"/>
-      <c r="B118" s="203"/>
-      <c r="C118" s="199"/>
-      <c r="D118" s="209"/>
-      <c r="E118" s="122" t="s">
+      <c r="A118" s="211"/>
+      <c r="B118" s="217"/>
+      <c r="C118" s="233"/>
+      <c r="D118" s="238"/>
+      <c r="E118" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="F118" s="124" t="s">
+      <c r="F118" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="G118" s="195"/>
-      <c r="H118" s="195"/>
-      <c r="I118" s="195"/>
-      <c r="J118" s="195"/>
-      <c r="K118" s="195"/>
-      <c r="L118" s="195"/>
-      <c r="M118" s="206"/>
+      <c r="G118" s="229"/>
+      <c r="H118" s="229"/>
+      <c r="I118" s="229"/>
+      <c r="J118" s="229"/>
+      <c r="K118" s="229"/>
+      <c r="L118" s="229"/>
+      <c r="M118" s="220"/>
     </row>
     <row r="119" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="189"/>
-      <c r="B119" s="203"/>
-      <c r="C119" s="197" t="s">
+      <c r="A119" s="211"/>
+      <c r="B119" s="217"/>
+      <c r="C119" s="231" t="s">
         <v>184</v>
       </c>
-      <c r="D119" s="209"/>
-      <c r="E119" s="122" t="s">
+      <c r="D119" s="238"/>
+      <c r="E119" s="121" t="s">
         <v>166</v>
       </c>
-      <c r="F119" s="124" t="s">
+      <c r="F119" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G119" s="195"/>
-      <c r="H119" s="195"/>
-      <c r="I119" s="195"/>
-      <c r="J119" s="195"/>
-      <c r="K119" s="195"/>
-      <c r="L119" s="195"/>
-      <c r="M119" s="206"/>
+      <c r="G119" s="229"/>
+      <c r="H119" s="229"/>
+      <c r="I119" s="229"/>
+      <c r="J119" s="229"/>
+      <c r="K119" s="229"/>
+      <c r="L119" s="229"/>
+      <c r="M119" s="220"/>
     </row>
     <row r="120" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="189"/>
-      <c r="B120" s="203"/>
-      <c r="C120" s="198"/>
-      <c r="D120" s="209"/>
-      <c r="E120" s="122" t="s">
+      <c r="A120" s="211"/>
+      <c r="B120" s="217"/>
+      <c r="C120" s="232"/>
+      <c r="D120" s="238"/>
+      <c r="E120" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="F120" s="124" t="s">
+      <c r="F120" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="G120" s="195"/>
-      <c r="H120" s="195"/>
-      <c r="I120" s="195"/>
-      <c r="J120" s="195"/>
-      <c r="K120" s="195"/>
-      <c r="L120" s="195"/>
-      <c r="M120" s="206"/>
+      <c r="G120" s="229"/>
+      <c r="H120" s="229"/>
+      <c r="I120" s="229"/>
+      <c r="J120" s="229"/>
+      <c r="K120" s="229"/>
+      <c r="L120" s="229"/>
+      <c r="M120" s="220"/>
     </row>
     <row r="121" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="189"/>
-      <c r="B121" s="203"/>
-      <c r="C121" s="199"/>
-      <c r="D121" s="209"/>
-      <c r="E121" s="122" t="s">
+      <c r="A121" s="211"/>
+      <c r="B121" s="217"/>
+      <c r="C121" s="233"/>
+      <c r="D121" s="238"/>
+      <c r="E121" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="F121" s="124" t="s">
+      <c r="F121" s="123" t="s">
         <v>210</v>
       </c>
-      <c r="G121" s="195"/>
-      <c r="H121" s="195"/>
-      <c r="I121" s="195"/>
-      <c r="J121" s="195"/>
-      <c r="K121" s="195"/>
-      <c r="L121" s="195"/>
-      <c r="M121" s="206"/>
+      <c r="G121" s="229"/>
+      <c r="H121" s="229"/>
+      <c r="I121" s="229"/>
+      <c r="J121" s="229"/>
+      <c r="K121" s="229"/>
+      <c r="L121" s="229"/>
+      <c r="M121" s="220"/>
     </row>
     <row r="122" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="189"/>
-      <c r="B122" s="203"/>
-      <c r="C122" s="197" t="s">
+      <c r="A122" s="211"/>
+      <c r="B122" s="217"/>
+      <c r="C122" s="231" t="s">
         <v>185</v>
       </c>
-      <c r="D122" s="209"/>
-      <c r="E122" s="122" t="s">
+      <c r="D122" s="238"/>
+      <c r="E122" s="121" t="s">
         <v>166</v>
       </c>
-      <c r="F122" s="124" t="s">
+      <c r="F122" s="123" t="s">
         <v>198</v>
       </c>
-      <c r="G122" s="195"/>
-      <c r="H122" s="195"/>
-      <c r="I122" s="195"/>
-      <c r="J122" s="195"/>
-      <c r="K122" s="195"/>
-      <c r="L122" s="195"/>
-      <c r="M122" s="206"/>
+      <c r="G122" s="229"/>
+      <c r="H122" s="229"/>
+      <c r="I122" s="229"/>
+      <c r="J122" s="229"/>
+      <c r="K122" s="229"/>
+      <c r="L122" s="229"/>
+      <c r="M122" s="220"/>
     </row>
     <row r="123" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="189"/>
-      <c r="B123" s="203"/>
-      <c r="C123" s="198"/>
-      <c r="D123" s="209"/>
-      <c r="E123" s="122" t="s">
+      <c r="A123" s="211"/>
+      <c r="B123" s="217"/>
+      <c r="C123" s="232"/>
+      <c r="D123" s="238"/>
+      <c r="E123" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="F123" s="124" t="s">
+      <c r="F123" s="123" t="s">
         <v>216</v>
       </c>
-      <c r="G123" s="195"/>
-      <c r="H123" s="195"/>
-      <c r="I123" s="195"/>
-      <c r="J123" s="195"/>
-      <c r="K123" s="195"/>
-      <c r="L123" s="195"/>
-      <c r="M123" s="206"/>
+      <c r="G123" s="229"/>
+      <c r="H123" s="229"/>
+      <c r="I123" s="229"/>
+      <c r="J123" s="229"/>
+      <c r="K123" s="229"/>
+      <c r="L123" s="229"/>
+      <c r="M123" s="220"/>
     </row>
     <row r="124" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="189"/>
-      <c r="B124" s="203"/>
-      <c r="C124" s="199"/>
-      <c r="D124" s="209"/>
-      <c r="E124" s="122" t="s">
+      <c r="A124" s="211"/>
+      <c r="B124" s="217"/>
+      <c r="C124" s="233"/>
+      <c r="D124" s="238"/>
+      <c r="E124" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="F124" s="124" t="s">
+      <c r="F124" s="123" t="s">
         <v>208</v>
       </c>
-      <c r="G124" s="195"/>
-      <c r="H124" s="195"/>
-      <c r="I124" s="195"/>
-      <c r="J124" s="195"/>
-      <c r="K124" s="195"/>
-      <c r="L124" s="195"/>
-      <c r="M124" s="206"/>
+      <c r="G124" s="229"/>
+      <c r="H124" s="229"/>
+      <c r="I124" s="229"/>
+      <c r="J124" s="229"/>
+      <c r="K124" s="229"/>
+      <c r="L124" s="229"/>
+      <c r="M124" s="220"/>
     </row>
     <row r="125" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="189"/>
-      <c r="B125" s="203"/>
-      <c r="C125" s="197" t="s">
+      <c r="A125" s="211"/>
+      <c r="B125" s="217"/>
+      <c r="C125" s="231" t="s">
         <v>186</v>
       </c>
-      <c r="D125" s="209"/>
-      <c r="E125" s="122" t="s">
+      <c r="D125" s="238"/>
+      <c r="E125" s="121" t="s">
         <v>166</v>
       </c>
-      <c r="F125" s="124" t="s">
+      <c r="F125" s="123" t="s">
         <v>213</v>
       </c>
-      <c r="G125" s="195"/>
-      <c r="H125" s="195"/>
-      <c r="I125" s="195"/>
-      <c r="J125" s="195"/>
-      <c r="K125" s="195"/>
-      <c r="L125" s="195"/>
-      <c r="M125" s="206"/>
+      <c r="G125" s="229"/>
+      <c r="H125" s="229"/>
+      <c r="I125" s="229"/>
+      <c r="J125" s="229"/>
+      <c r="K125" s="229"/>
+      <c r="L125" s="229"/>
+      <c r="M125" s="220"/>
     </row>
     <row r="126" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="189"/>
-      <c r="B126" s="203"/>
-      <c r="C126" s="198"/>
-      <c r="D126" s="209"/>
-      <c r="E126" s="122" t="s">
+      <c r="A126" s="211"/>
+      <c r="B126" s="217"/>
+      <c r="C126" s="232"/>
+      <c r="D126" s="238"/>
+      <c r="E126" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="F126" s="124" t="s">
+      <c r="F126" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G126" s="195"/>
-      <c r="H126" s="195"/>
-      <c r="I126" s="195"/>
-      <c r="J126" s="195"/>
-      <c r="K126" s="195"/>
-      <c r="L126" s="195"/>
-      <c r="M126" s="206"/>
+      <c r="G126" s="229"/>
+      <c r="H126" s="229"/>
+      <c r="I126" s="229"/>
+      <c r="J126" s="229"/>
+      <c r="K126" s="229"/>
+      <c r="L126" s="229"/>
+      <c r="M126" s="220"/>
     </row>
     <row r="127" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="189"/>
-      <c r="B127" s="203"/>
-      <c r="C127" s="199"/>
-      <c r="D127" s="209"/>
-      <c r="E127" s="122" t="s">
+      <c r="A127" s="211"/>
+      <c r="B127" s="217"/>
+      <c r="C127" s="233"/>
+      <c r="D127" s="238"/>
+      <c r="E127" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="F127" s="124" t="s">
+      <c r="F127" s="123" t="s">
         <v>215</v>
       </c>
-      <c r="G127" s="195"/>
-      <c r="H127" s="195"/>
-      <c r="I127" s="195"/>
-      <c r="J127" s="195"/>
-      <c r="K127" s="195"/>
-      <c r="L127" s="195"/>
-      <c r="M127" s="206"/>
+      <c r="G127" s="229"/>
+      <c r="H127" s="229"/>
+      <c r="I127" s="229"/>
+      <c r="J127" s="229"/>
+      <c r="K127" s="229"/>
+      <c r="L127" s="229"/>
+      <c r="M127" s="220"/>
     </row>
     <row r="128" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="189"/>
-      <c r="B128" s="203"/>
-      <c r="C128" s="197" t="s">
+      <c r="A128" s="211"/>
+      <c r="B128" s="217"/>
+      <c r="C128" s="231" t="s">
         <v>187</v>
       </c>
-      <c r="D128" s="209"/>
-      <c r="E128" s="122" t="s">
+      <c r="D128" s="238"/>
+      <c r="E128" s="121" t="s">
         <v>166</v>
       </c>
-      <c r="F128" s="124" t="s">
+      <c r="F128" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G128" s="195"/>
-      <c r="H128" s="195"/>
-      <c r="I128" s="195"/>
-      <c r="J128" s="195"/>
-      <c r="K128" s="195"/>
-      <c r="L128" s="195"/>
-      <c r="M128" s="206"/>
+      <c r="G128" s="229"/>
+      <c r="H128" s="229"/>
+      <c r="I128" s="229"/>
+      <c r="J128" s="229"/>
+      <c r="K128" s="229"/>
+      <c r="L128" s="229"/>
+      <c r="M128" s="220"/>
     </row>
     <row r="129" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="189"/>
-      <c r="B129" s="203"/>
-      <c r="C129" s="198"/>
-      <c r="D129" s="209"/>
-      <c r="E129" s="122" t="s">
+      <c r="A129" s="211"/>
+      <c r="B129" s="217"/>
+      <c r="C129" s="232"/>
+      <c r="D129" s="238"/>
+      <c r="E129" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="F129" s="124" t="s">
+      <c r="F129" s="123" t="s">
         <v>217</v>
       </c>
-      <c r="G129" s="195"/>
-      <c r="H129" s="195"/>
-      <c r="I129" s="195"/>
-      <c r="J129" s="195"/>
-      <c r="K129" s="195"/>
-      <c r="L129" s="195"/>
-      <c r="M129" s="206"/>
+      <c r="G129" s="229"/>
+      <c r="H129" s="229"/>
+      <c r="I129" s="229"/>
+      <c r="J129" s="229"/>
+      <c r="K129" s="229"/>
+      <c r="L129" s="229"/>
+      <c r="M129" s="220"/>
     </row>
     <row r="130" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="189"/>
-      <c r="B130" s="203"/>
-      <c r="C130" s="199"/>
-      <c r="D130" s="209"/>
-      <c r="E130" s="122" t="s">
+      <c r="A130" s="211"/>
+      <c r="B130" s="217"/>
+      <c r="C130" s="233"/>
+      <c r="D130" s="238"/>
+      <c r="E130" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="F130" s="124" t="s">
+      <c r="F130" s="123" t="s">
         <v>215</v>
       </c>
-      <c r="G130" s="195"/>
-      <c r="H130" s="195"/>
-      <c r="I130" s="195"/>
-      <c r="J130" s="195"/>
-      <c r="K130" s="195"/>
-      <c r="L130" s="195"/>
-      <c r="M130" s="206"/>
+      <c r="G130" s="229"/>
+      <c r="H130" s="229"/>
+      <c r="I130" s="229"/>
+      <c r="J130" s="229"/>
+      <c r="K130" s="229"/>
+      <c r="L130" s="229"/>
+      <c r="M130" s="220"/>
     </row>
     <row r="131" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="189"/>
-      <c r="B131" s="203"/>
-      <c r="C131" s="197" t="s">
+      <c r="A131" s="211"/>
+      <c r="B131" s="217"/>
+      <c r="C131" s="231" t="s">
         <v>188</v>
       </c>
-      <c r="D131" s="209"/>
-      <c r="E131" s="122" t="s">
+      <c r="D131" s="238"/>
+      <c r="E131" s="121" t="s">
         <v>166</v>
       </c>
-      <c r="F131" s="124" t="s">
+      <c r="F131" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G131" s="195"/>
-      <c r="H131" s="195"/>
-      <c r="I131" s="195"/>
-      <c r="J131" s="195"/>
-      <c r="K131" s="195"/>
-      <c r="L131" s="195"/>
-      <c r="M131" s="206"/>
+      <c r="G131" s="229"/>
+      <c r="H131" s="229"/>
+      <c r="I131" s="229"/>
+      <c r="J131" s="229"/>
+      <c r="K131" s="229"/>
+      <c r="L131" s="229"/>
+      <c r="M131" s="220"/>
     </row>
     <row r="132" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="189"/>
-      <c r="B132" s="203"/>
-      <c r="C132" s="198"/>
-      <c r="D132" s="209"/>
-      <c r="E132" s="122" t="s">
+      <c r="A132" s="211"/>
+      <c r="B132" s="217"/>
+      <c r="C132" s="232"/>
+      <c r="D132" s="238"/>
+      <c r="E132" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="F132" s="124" t="s">
+      <c r="F132" s="123" t="s">
         <v>218</v>
       </c>
-      <c r="G132" s="195"/>
-      <c r="H132" s="195"/>
-      <c r="I132" s="195"/>
-      <c r="J132" s="195"/>
-      <c r="K132" s="195"/>
-      <c r="L132" s="195"/>
-      <c r="M132" s="206"/>
+      <c r="G132" s="229"/>
+      <c r="H132" s="229"/>
+      <c r="I132" s="229"/>
+      <c r="J132" s="229"/>
+      <c r="K132" s="229"/>
+      <c r="L132" s="229"/>
+      <c r="M132" s="220"/>
     </row>
     <row r="133" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="189"/>
-      <c r="B133" s="203"/>
-      <c r="C133" s="199"/>
-      <c r="D133" s="209"/>
-      <c r="E133" s="122" t="s">
+      <c r="A133" s="211"/>
+      <c r="B133" s="217"/>
+      <c r="C133" s="233"/>
+      <c r="D133" s="238"/>
+      <c r="E133" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="F133" s="124" t="s">
+      <c r="F133" s="123" t="s">
         <v>212</v>
       </c>
-      <c r="G133" s="195"/>
-      <c r="H133" s="195"/>
-      <c r="I133" s="195"/>
-      <c r="J133" s="195"/>
-      <c r="K133" s="195"/>
-      <c r="L133" s="195"/>
-      <c r="M133" s="206"/>
+      <c r="G133" s="229"/>
+      <c r="H133" s="229"/>
+      <c r="I133" s="229"/>
+      <c r="J133" s="229"/>
+      <c r="K133" s="229"/>
+      <c r="L133" s="229"/>
+      <c r="M133" s="220"/>
     </row>
     <row r="134" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="189"/>
-      <c r="B134" s="203"/>
-      <c r="C134" s="197" t="s">
+      <c r="A134" s="211"/>
+      <c r="B134" s="217"/>
+      <c r="C134" s="231" t="s">
         <v>189</v>
       </c>
-      <c r="D134" s="209"/>
-      <c r="E134" s="122" t="s">
+      <c r="D134" s="238"/>
+      <c r="E134" s="121" t="s">
         <v>166</v>
       </c>
-      <c r="F134" s="124" t="s">
+      <c r="F134" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G134" s="195"/>
-      <c r="H134" s="195"/>
-      <c r="I134" s="195"/>
-      <c r="J134" s="195"/>
-      <c r="K134" s="195"/>
-      <c r="L134" s="195"/>
-      <c r="M134" s="206"/>
+      <c r="G134" s="229"/>
+      <c r="H134" s="229"/>
+      <c r="I134" s="229"/>
+      <c r="J134" s="229"/>
+      <c r="K134" s="229"/>
+      <c r="L134" s="229"/>
+      <c r="M134" s="220"/>
     </row>
     <row r="135" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="189"/>
-      <c r="B135" s="203"/>
-      <c r="C135" s="198"/>
-      <c r="D135" s="209"/>
-      <c r="E135" s="122" t="s">
+      <c r="A135" s="211"/>
+      <c r="B135" s="217"/>
+      <c r="C135" s="232"/>
+      <c r="D135" s="238"/>
+      <c r="E135" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="F135" s="124" t="s">
+      <c r="F135" s="123" t="s">
         <v>219</v>
       </c>
-      <c r="G135" s="195"/>
-      <c r="H135" s="195"/>
-      <c r="I135" s="195"/>
-      <c r="J135" s="195"/>
-      <c r="K135" s="195"/>
-      <c r="L135" s="195"/>
-      <c r="M135" s="206"/>
+      <c r="G135" s="229"/>
+      <c r="H135" s="229"/>
+      <c r="I135" s="229"/>
+      <c r="J135" s="229"/>
+      <c r="K135" s="229"/>
+      <c r="L135" s="229"/>
+      <c r="M135" s="220"/>
     </row>
     <row r="136" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="189"/>
-      <c r="B136" s="203"/>
-      <c r="C136" s="199"/>
-      <c r="D136" s="209"/>
-      <c r="E136" s="122" t="s">
+      <c r="A136" s="211"/>
+      <c r="B136" s="217"/>
+      <c r="C136" s="233"/>
+      <c r="D136" s="238"/>
+      <c r="E136" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="F136" s="124" t="s">
+      <c r="F136" s="123" t="s">
         <v>215</v>
       </c>
-      <c r="G136" s="195"/>
-      <c r="H136" s="195"/>
-      <c r="I136" s="195"/>
-      <c r="J136" s="195"/>
-      <c r="K136" s="195"/>
-      <c r="L136" s="195"/>
-      <c r="M136" s="206"/>
+      <c r="G136" s="229"/>
+      <c r="H136" s="229"/>
+      <c r="I136" s="229"/>
+      <c r="J136" s="229"/>
+      <c r="K136" s="229"/>
+      <c r="L136" s="229"/>
+      <c r="M136" s="220"/>
     </row>
     <row r="137" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="189"/>
-      <c r="B137" s="203"/>
-      <c r="C137" s="197" t="s">
+      <c r="A137" s="211"/>
+      <c r="B137" s="217"/>
+      <c r="C137" s="231" t="s">
         <v>190</v>
       </c>
-      <c r="D137" s="209"/>
-      <c r="E137" s="122" t="s">
+      <c r="D137" s="238"/>
+      <c r="E137" s="121" t="s">
         <v>166</v>
       </c>
-      <c r="F137" s="124" t="s">
+      <c r="F137" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G137" s="195"/>
-      <c r="H137" s="195"/>
-      <c r="I137" s="195"/>
-      <c r="J137" s="195"/>
-      <c r="K137" s="195"/>
-      <c r="L137" s="195"/>
-      <c r="M137" s="206"/>
+      <c r="G137" s="229"/>
+      <c r="H137" s="229"/>
+      <c r="I137" s="229"/>
+      <c r="J137" s="229"/>
+      <c r="K137" s="229"/>
+      <c r="L137" s="229"/>
+      <c r="M137" s="220"/>
     </row>
     <row r="138" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="189"/>
-      <c r="B138" s="203"/>
-      <c r="C138" s="198"/>
-      <c r="D138" s="209"/>
-      <c r="E138" s="122" t="s">
+      <c r="A138" s="211"/>
+      <c r="B138" s="217"/>
+      <c r="C138" s="232"/>
+      <c r="D138" s="238"/>
+      <c r="E138" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="F138" s="124" t="s">
+      <c r="F138" s="123" t="s">
         <v>218</v>
       </c>
-      <c r="G138" s="195"/>
-      <c r="H138" s="195"/>
-      <c r="I138" s="195"/>
-      <c r="J138" s="195"/>
-      <c r="K138" s="195"/>
-      <c r="L138" s="195"/>
-      <c r="M138" s="206"/>
+      <c r="G138" s="229"/>
+      <c r="H138" s="229"/>
+      <c r="I138" s="229"/>
+      <c r="J138" s="229"/>
+      <c r="K138" s="229"/>
+      <c r="L138" s="229"/>
+      <c r="M138" s="220"/>
     </row>
     <row r="139" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="189"/>
-      <c r="B139" s="203"/>
-      <c r="C139" s="199"/>
-      <c r="D139" s="209"/>
-      <c r="E139" s="122" t="s">
+      <c r="A139" s="211"/>
+      <c r="B139" s="217"/>
+      <c r="C139" s="233"/>
+      <c r="D139" s="238"/>
+      <c r="E139" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="F139" s="124" t="s">
+      <c r="F139" s="123" t="s">
         <v>215</v>
       </c>
-      <c r="G139" s="195"/>
-      <c r="H139" s="195"/>
-      <c r="I139" s="195"/>
-      <c r="J139" s="195"/>
-      <c r="K139" s="195"/>
-      <c r="L139" s="195"/>
-      <c r="M139" s="206"/>
+      <c r="G139" s="229"/>
+      <c r="H139" s="229"/>
+      <c r="I139" s="229"/>
+      <c r="J139" s="229"/>
+      <c r="K139" s="229"/>
+      <c r="L139" s="229"/>
+      <c r="M139" s="220"/>
     </row>
     <row r="140" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="189"/>
-      <c r="B140" s="203"/>
-      <c r="C140" s="197" t="s">
+      <c r="A140" s="211"/>
+      <c r="B140" s="217"/>
+      <c r="C140" s="231" t="s">
         <v>191</v>
       </c>
-      <c r="D140" s="209"/>
-      <c r="E140" s="122" t="s">
+      <c r="D140" s="238"/>
+      <c r="E140" s="121" t="s">
         <v>166</v>
       </c>
-      <c r="F140" s="124" t="s">
+      <c r="F140" s="123" t="s">
         <v>220</v>
       </c>
-      <c r="G140" s="195"/>
-      <c r="H140" s="195"/>
-      <c r="I140" s="195"/>
-      <c r="J140" s="195"/>
-      <c r="K140" s="195"/>
-      <c r="L140" s="195"/>
-      <c r="M140" s="206"/>
+      <c r="G140" s="229"/>
+      <c r="H140" s="229"/>
+      <c r="I140" s="229"/>
+      <c r="J140" s="229"/>
+      <c r="K140" s="229"/>
+      <c r="L140" s="229"/>
+      <c r="M140" s="220"/>
     </row>
     <row r="141" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="189"/>
-      <c r="B141" s="203"/>
-      <c r="C141" s="198"/>
-      <c r="D141" s="209"/>
-      <c r="E141" s="122" t="s">
+      <c r="A141" s="211"/>
+      <c r="B141" s="217"/>
+      <c r="C141" s="232"/>
+      <c r="D141" s="238"/>
+      <c r="E141" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="F141" s="124" t="s">
+      <c r="F141" s="123" t="s">
         <v>221</v>
       </c>
-      <c r="G141" s="195"/>
-      <c r="H141" s="195"/>
-      <c r="I141" s="195"/>
-      <c r="J141" s="195"/>
-      <c r="K141" s="195"/>
-      <c r="L141" s="195"/>
-      <c r="M141" s="206"/>
+      <c r="G141" s="229"/>
+      <c r="H141" s="229"/>
+      <c r="I141" s="229"/>
+      <c r="J141" s="229"/>
+      <c r="K141" s="229"/>
+      <c r="L141" s="229"/>
+      <c r="M141" s="220"/>
     </row>
     <row r="142" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="189"/>
-      <c r="B142" s="203"/>
-      <c r="C142" s="199"/>
-      <c r="D142" s="209"/>
-      <c r="E142" s="122" t="s">
+      <c r="A142" s="211"/>
+      <c r="B142" s="217"/>
+      <c r="C142" s="233"/>
+      <c r="D142" s="238"/>
+      <c r="E142" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="F142" s="124" t="s">
+      <c r="F142" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G142" s="195"/>
-      <c r="H142" s="195"/>
-      <c r="I142" s="195"/>
-      <c r="J142" s="195"/>
-      <c r="K142" s="195"/>
-      <c r="L142" s="195"/>
-      <c r="M142" s="206"/>
+      <c r="G142" s="229"/>
+      <c r="H142" s="229"/>
+      <c r="I142" s="229"/>
+      <c r="J142" s="229"/>
+      <c r="K142" s="229"/>
+      <c r="L142" s="229"/>
+      <c r="M142" s="220"/>
     </row>
     <row r="143" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="189"/>
-      <c r="B143" s="203"/>
-      <c r="C143" s="197" t="s">
+      <c r="A143" s="211"/>
+      <c r="B143" s="217"/>
+      <c r="C143" s="231" t="s">
         <v>192</v>
       </c>
-      <c r="D143" s="209"/>
-      <c r="E143" s="122" t="s">
+      <c r="D143" s="238"/>
+      <c r="E143" s="121" t="s">
         <v>166</v>
       </c>
-      <c r="F143" s="124" t="s">
+      <c r="F143" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G143" s="195"/>
-      <c r="H143" s="195"/>
-      <c r="I143" s="195"/>
-      <c r="J143" s="195"/>
-      <c r="K143" s="195"/>
-      <c r="L143" s="195"/>
-      <c r="M143" s="206"/>
+      <c r="G143" s="229"/>
+      <c r="H143" s="229"/>
+      <c r="I143" s="229"/>
+      <c r="J143" s="229"/>
+      <c r="K143" s="229"/>
+      <c r="L143" s="229"/>
+      <c r="M143" s="220"/>
     </row>
     <row r="144" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="189"/>
-      <c r="B144" s="203"/>
-      <c r="C144" s="198"/>
-      <c r="D144" s="209"/>
-      <c r="E144" s="122" t="s">
+      <c r="A144" s="211"/>
+      <c r="B144" s="217"/>
+      <c r="C144" s="232"/>
+      <c r="D144" s="238"/>
+      <c r="E144" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="F144" s="124" t="s">
+      <c r="F144" s="123" t="s">
         <v>204</v>
       </c>
-      <c r="G144" s="195"/>
-      <c r="H144" s="195"/>
-      <c r="I144" s="195"/>
-      <c r="J144" s="195"/>
-      <c r="K144" s="195"/>
-      <c r="L144" s="195"/>
-      <c r="M144" s="206"/>
+      <c r="G144" s="229"/>
+      <c r="H144" s="229"/>
+      <c r="I144" s="229"/>
+      <c r="J144" s="229"/>
+      <c r="K144" s="229"/>
+      <c r="L144" s="229"/>
+      <c r="M144" s="220"/>
     </row>
     <row r="145" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="189"/>
-      <c r="B145" s="203"/>
-      <c r="C145" s="199"/>
-      <c r="D145" s="209"/>
-      <c r="E145" s="122" t="s">
+      <c r="A145" s="211"/>
+      <c r="B145" s="217"/>
+      <c r="C145" s="233"/>
+      <c r="D145" s="238"/>
+      <c r="E145" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="F145" s="124" t="s">
+      <c r="F145" s="123" t="s">
         <v>208</v>
       </c>
-      <c r="G145" s="195"/>
-      <c r="H145" s="195"/>
-      <c r="I145" s="195"/>
-      <c r="J145" s="195"/>
-      <c r="K145" s="195"/>
-      <c r="L145" s="195"/>
-      <c r="M145" s="206"/>
+      <c r="G145" s="229"/>
+      <c r="H145" s="229"/>
+      <c r="I145" s="229"/>
+      <c r="J145" s="229"/>
+      <c r="K145" s="229"/>
+      <c r="L145" s="229"/>
+      <c r="M145" s="220"/>
     </row>
     <row r="146" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="189"/>
-      <c r="B146" s="203"/>
-      <c r="C146" s="197" t="s">
+      <c r="A146" s="211"/>
+      <c r="B146" s="217"/>
+      <c r="C146" s="231" t="s">
         <v>193</v>
       </c>
-      <c r="D146" s="209"/>
-      <c r="E146" s="122" t="s">
+      <c r="D146" s="238"/>
+      <c r="E146" s="121" t="s">
         <v>166</v>
       </c>
-      <c r="F146" s="124" t="s">
+      <c r="F146" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G146" s="195"/>
-      <c r="H146" s="195"/>
-      <c r="I146" s="195"/>
-      <c r="J146" s="195"/>
-      <c r="K146" s="195"/>
-      <c r="L146" s="195"/>
-      <c r="M146" s="206"/>
+      <c r="G146" s="229"/>
+      <c r="H146" s="229"/>
+      <c r="I146" s="229"/>
+      <c r="J146" s="229"/>
+      <c r="K146" s="229"/>
+      <c r="L146" s="229"/>
+      <c r="M146" s="220"/>
     </row>
     <row r="147" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="189"/>
-      <c r="B147" s="203"/>
-      <c r="C147" s="198"/>
-      <c r="D147" s="209"/>
-      <c r="E147" s="122" t="s">
+      <c r="A147" s="211"/>
+      <c r="B147" s="217"/>
+      <c r="C147" s="232"/>
+      <c r="D147" s="238"/>
+      <c r="E147" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="F147" s="124" t="s">
+      <c r="F147" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="G147" s="195"/>
-      <c r="H147" s="195"/>
-      <c r="I147" s="195"/>
-      <c r="J147" s="195"/>
-      <c r="K147" s="195"/>
-      <c r="L147" s="195"/>
-      <c r="M147" s="206"/>
+      <c r="G147" s="229"/>
+      <c r="H147" s="229"/>
+      <c r="I147" s="229"/>
+      <c r="J147" s="229"/>
+      <c r="K147" s="229"/>
+      <c r="L147" s="229"/>
+      <c r="M147" s="220"/>
     </row>
     <row r="148" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="189"/>
-      <c r="B148" s="203"/>
-      <c r="C148" s="198"/>
-      <c r="D148" s="209"/>
-      <c r="E148" s="200" t="s">
+      <c r="A148" s="211"/>
+      <c r="B148" s="217"/>
+      <c r="C148" s="232"/>
+      <c r="D148" s="238"/>
+      <c r="E148" s="234" t="s">
         <v>168</v>
       </c>
-      <c r="F148" s="124" t="s">
+      <c r="F148" s="123" t="s">
         <v>218</v>
       </c>
-      <c r="G148" s="195"/>
-      <c r="H148" s="195"/>
-      <c r="I148" s="195"/>
-      <c r="J148" s="195"/>
-      <c r="K148" s="195"/>
-      <c r="L148" s="195"/>
-      <c r="M148" s="206"/>
+      <c r="G148" s="229"/>
+      <c r="H148" s="229"/>
+      <c r="I148" s="229"/>
+      <c r="J148" s="229"/>
+      <c r="K148" s="229"/>
+      <c r="L148" s="229"/>
+      <c r="M148" s="220"/>
     </row>
     <row r="149" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="189"/>
-      <c r="B149" s="203"/>
-      <c r="C149" s="199"/>
-      <c r="D149" s="209"/>
-      <c r="E149" s="201"/>
-      <c r="F149" s="124" t="s">
+      <c r="A149" s="211"/>
+      <c r="B149" s="217"/>
+      <c r="C149" s="233"/>
+      <c r="D149" s="238"/>
+      <c r="E149" s="235"/>
+      <c r="F149" s="123" t="s">
         <v>205</v>
       </c>
-      <c r="G149" s="195"/>
-      <c r="H149" s="195"/>
-      <c r="I149" s="195"/>
-      <c r="J149" s="195"/>
-      <c r="K149" s="195"/>
-      <c r="L149" s="195"/>
-      <c r="M149" s="206"/>
+      <c r="G149" s="229"/>
+      <c r="H149" s="229"/>
+      <c r="I149" s="229"/>
+      <c r="J149" s="229"/>
+      <c r="K149" s="229"/>
+      <c r="L149" s="229"/>
+      <c r="M149" s="220"/>
     </row>
     <row r="150" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="189"/>
-      <c r="B150" s="203"/>
-      <c r="C150" s="197" t="s">
+      <c r="A150" s="211"/>
+      <c r="B150" s="217"/>
+      <c r="C150" s="231" t="s">
         <v>194</v>
       </c>
-      <c r="D150" s="209"/>
-      <c r="E150" s="122" t="s">
+      <c r="D150" s="238"/>
+      <c r="E150" s="121" t="s">
         <v>166</v>
       </c>
-      <c r="F150" s="124" t="s">
+      <c r="F150" s="123" t="s">
         <v>209</v>
       </c>
-      <c r="G150" s="195"/>
-      <c r="H150" s="195"/>
-      <c r="I150" s="195"/>
-      <c r="J150" s="195"/>
-      <c r="K150" s="195"/>
-      <c r="L150" s="195"/>
-      <c r="M150" s="206"/>
+      <c r="G150" s="229"/>
+      <c r="H150" s="229"/>
+      <c r="I150" s="229"/>
+      <c r="J150" s="229"/>
+      <c r="K150" s="229"/>
+      <c r="L150" s="229"/>
+      <c r="M150" s="220"/>
     </row>
     <row r="151" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="189"/>
-      <c r="B151" s="203"/>
-      <c r="C151" s="198"/>
-      <c r="D151" s="209"/>
-      <c r="E151" s="122" t="s">
+      <c r="A151" s="211"/>
+      <c r="B151" s="217"/>
+      <c r="C151" s="232"/>
+      <c r="D151" s="238"/>
+      <c r="E151" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="F151" s="124" t="s">
+      <c r="F151" s="123" t="s">
         <v>222</v>
       </c>
-      <c r="G151" s="195"/>
-      <c r="H151" s="195"/>
-      <c r="I151" s="195"/>
-      <c r="J151" s="195"/>
-      <c r="K151" s="195"/>
-      <c r="L151" s="195"/>
-      <c r="M151" s="206"/>
+      <c r="G151" s="229"/>
+      <c r="H151" s="229"/>
+      <c r="I151" s="229"/>
+      <c r="J151" s="229"/>
+      <c r="K151" s="229"/>
+      <c r="L151" s="229"/>
+      <c r="M151" s="220"/>
     </row>
     <row r="152" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="189"/>
-      <c r="B152" s="203"/>
-      <c r="C152" s="199"/>
-      <c r="D152" s="209"/>
-      <c r="E152" s="122" t="s">
+      <c r="A152" s="211"/>
+      <c r="B152" s="217"/>
+      <c r="C152" s="233"/>
+      <c r="D152" s="238"/>
+      <c r="E152" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="F152" s="124" t="s">
+      <c r="F152" s="123" t="s">
         <v>223</v>
       </c>
-      <c r="G152" s="195"/>
-      <c r="H152" s="195"/>
-      <c r="I152" s="195"/>
-      <c r="J152" s="195"/>
-      <c r="K152" s="195"/>
-      <c r="L152" s="195"/>
-      <c r="M152" s="206"/>
+      <c r="G152" s="229"/>
+      <c r="H152" s="229"/>
+      <c r="I152" s="229"/>
+      <c r="J152" s="229"/>
+      <c r="K152" s="229"/>
+      <c r="L152" s="229"/>
+      <c r="M152" s="220"/>
     </row>
     <row r="153" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="189"/>
-      <c r="B153" s="203"/>
-      <c r="C153" s="197" t="s">
+      <c r="A153" s="211"/>
+      <c r="B153" s="217"/>
+      <c r="C153" s="231" t="s">
         <v>195</v>
       </c>
-      <c r="D153" s="209"/>
-      <c r="E153" s="122" t="s">
+      <c r="D153" s="238"/>
+      <c r="E153" s="121" t="s">
         <v>166</v>
       </c>
-      <c r="F153" s="124" t="s">
+      <c r="F153" s="123" t="s">
         <v>224</v>
       </c>
-      <c r="G153" s="195"/>
-      <c r="H153" s="195"/>
-      <c r="I153" s="195"/>
-      <c r="J153" s="195"/>
-      <c r="K153" s="195"/>
-      <c r="L153" s="195"/>
-      <c r="M153" s="206"/>
+      <c r="G153" s="229"/>
+      <c r="H153" s="229"/>
+      <c r="I153" s="229"/>
+      <c r="J153" s="229"/>
+      <c r="K153" s="229"/>
+      <c r="L153" s="229"/>
+      <c r="M153" s="220"/>
     </row>
     <row r="154" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="189"/>
-      <c r="B154" s="203"/>
-      <c r="C154" s="198"/>
-      <c r="D154" s="209"/>
-      <c r="E154" s="122" t="s">
+      <c r="A154" s="211"/>
+      <c r="B154" s="217"/>
+      <c r="C154" s="232"/>
+      <c r="D154" s="238"/>
+      <c r="E154" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="F154" s="124" t="s">
+      <c r="F154" s="123" t="s">
         <v>225</v>
       </c>
-      <c r="G154" s="195"/>
-      <c r="H154" s="195"/>
-      <c r="I154" s="195"/>
-      <c r="J154" s="195"/>
-      <c r="K154" s="195"/>
-      <c r="L154" s="195"/>
-      <c r="M154" s="206"/>
+      <c r="G154" s="229"/>
+      <c r="H154" s="229"/>
+      <c r="I154" s="229"/>
+      <c r="J154" s="229"/>
+      <c r="K154" s="229"/>
+      <c r="L154" s="229"/>
+      <c r="M154" s="220"/>
     </row>
     <row r="155" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="189"/>
-      <c r="B155" s="203"/>
-      <c r="C155" s="199"/>
-      <c r="D155" s="209"/>
-      <c r="E155" s="122" t="s">
+      <c r="A155" s="211"/>
+      <c r="B155" s="217"/>
+      <c r="C155" s="233"/>
+      <c r="D155" s="238"/>
+      <c r="E155" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="F155" s="124" t="s">
+      <c r="F155" s="123" t="s">
         <v>226</v>
       </c>
-      <c r="G155" s="195"/>
-      <c r="H155" s="195"/>
-      <c r="I155" s="195"/>
-      <c r="J155" s="195"/>
-      <c r="K155" s="195"/>
-      <c r="L155" s="195"/>
-      <c r="M155" s="206"/>
+      <c r="G155" s="229"/>
+      <c r="H155" s="229"/>
+      <c r="I155" s="229"/>
+      <c r="J155" s="229"/>
+      <c r="K155" s="229"/>
+      <c r="L155" s="229"/>
+      <c r="M155" s="220"/>
     </row>
     <row r="156" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="189"/>
-      <c r="B156" s="203"/>
-      <c r="C156" s="197" t="s">
+      <c r="A156" s="211"/>
+      <c r="B156" s="217"/>
+      <c r="C156" s="231" t="s">
         <v>196</v>
       </c>
-      <c r="D156" s="209"/>
-      <c r="E156" s="200" t="s">
+      <c r="D156" s="238"/>
+      <c r="E156" s="234" t="s">
         <v>166</v>
       </c>
-      <c r="F156" s="124" t="s">
+      <c r="F156" s="123" t="s">
         <v>208</v>
       </c>
-      <c r="G156" s="195"/>
-      <c r="H156" s="195"/>
-      <c r="I156" s="195"/>
-      <c r="J156" s="195"/>
-      <c r="K156" s="195"/>
-      <c r="L156" s="195"/>
-      <c r="M156" s="206"/>
+      <c r="G156" s="229"/>
+      <c r="H156" s="229"/>
+      <c r="I156" s="229"/>
+      <c r="J156" s="229"/>
+      <c r="K156" s="229"/>
+      <c r="L156" s="229"/>
+      <c r="M156" s="220"/>
     </row>
     <row r="157" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="189"/>
-      <c r="B157" s="203"/>
-      <c r="C157" s="198"/>
-      <c r="D157" s="209"/>
-      <c r="E157" s="201"/>
-      <c r="F157" s="124" t="s">
+      <c r="A157" s="211"/>
+      <c r="B157" s="217"/>
+      <c r="C157" s="232"/>
+      <c r="D157" s="238"/>
+      <c r="E157" s="235"/>
+      <c r="F157" s="123" t="s">
         <v>224</v>
       </c>
-      <c r="G157" s="195"/>
-      <c r="H157" s="195"/>
-      <c r="I157" s="195"/>
-      <c r="J157" s="195"/>
-      <c r="K157" s="195"/>
-      <c r="L157" s="195"/>
-      <c r="M157" s="206"/>
+      <c r="G157" s="229"/>
+      <c r="H157" s="229"/>
+      <c r="I157" s="229"/>
+      <c r="J157" s="229"/>
+      <c r="K157" s="229"/>
+      <c r="L157" s="229"/>
+      <c r="M157" s="220"/>
     </row>
     <row r="158" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="189"/>
-      <c r="B158" s="203"/>
-      <c r="C158" s="198"/>
-      <c r="D158" s="209"/>
-      <c r="E158" s="200" t="s">
+      <c r="A158" s="211"/>
+      <c r="B158" s="217"/>
+      <c r="C158" s="232"/>
+      <c r="D158" s="238"/>
+      <c r="E158" s="234" t="s">
         <v>167</v>
       </c>
-      <c r="F158" s="124" t="s">
+      <c r="F158" s="123" t="s">
         <v>227</v>
       </c>
-      <c r="G158" s="195"/>
-      <c r="H158" s="195"/>
-      <c r="I158" s="195"/>
-      <c r="J158" s="195"/>
-      <c r="K158" s="195"/>
-      <c r="L158" s="195"/>
-      <c r="M158" s="206"/>
+      <c r="G158" s="229"/>
+      <c r="H158" s="229"/>
+      <c r="I158" s="229"/>
+      <c r="J158" s="229"/>
+      <c r="K158" s="229"/>
+      <c r="L158" s="229"/>
+      <c r="M158" s="220"/>
     </row>
     <row r="159" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="189"/>
-      <c r="B159" s="203"/>
-      <c r="C159" s="198"/>
-      <c r="D159" s="209"/>
-      <c r="E159" s="207"/>
-      <c r="F159" s="124" t="s">
+      <c r="A159" s="211"/>
+      <c r="B159" s="217"/>
+      <c r="C159" s="232"/>
+      <c r="D159" s="238"/>
+      <c r="E159" s="236"/>
+      <c r="F159" s="123" t="s">
         <v>228</v>
       </c>
-      <c r="G159" s="195"/>
-      <c r="H159" s="195"/>
-      <c r="I159" s="195"/>
-      <c r="J159" s="195"/>
-      <c r="K159" s="195"/>
-      <c r="L159" s="195"/>
-      <c r="M159" s="206"/>
+      <c r="G159" s="229"/>
+      <c r="H159" s="229"/>
+      <c r="I159" s="229"/>
+      <c r="J159" s="229"/>
+      <c r="K159" s="229"/>
+      <c r="L159" s="229"/>
+      <c r="M159" s="220"/>
     </row>
     <row r="160" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="189"/>
-      <c r="B160" s="203"/>
-      <c r="C160" s="198"/>
-      <c r="D160" s="209"/>
-      <c r="E160" s="201"/>
-      <c r="F160" s="124" t="s">
+      <c r="A160" s="211"/>
+      <c r="B160" s="217"/>
+      <c r="C160" s="232"/>
+      <c r="D160" s="238"/>
+      <c r="E160" s="235"/>
+      <c r="F160" s="123" t="s">
         <v>229</v>
       </c>
-      <c r="G160" s="195"/>
-      <c r="H160" s="195"/>
-      <c r="I160" s="195"/>
-      <c r="J160" s="195"/>
-      <c r="K160" s="195"/>
-      <c r="L160" s="195"/>
-      <c r="M160" s="206"/>
+      <c r="G160" s="229"/>
+      <c r="H160" s="229"/>
+      <c r="I160" s="229"/>
+      <c r="J160" s="229"/>
+      <c r="K160" s="229"/>
+      <c r="L160" s="229"/>
+      <c r="M160" s="220"/>
     </row>
     <row r="161" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="189"/>
-      <c r="B161" s="204"/>
-      <c r="C161" s="199"/>
-      <c r="D161" s="210"/>
-      <c r="E161" s="122" t="s">
+      <c r="A161" s="211"/>
+      <c r="B161" s="218"/>
+      <c r="C161" s="233"/>
+      <c r="D161" s="239"/>
+      <c r="E161" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="F161" s="124" t="s">
+      <c r="F161" s="123" t="s">
         <v>214</v>
       </c>
-      <c r="G161" s="196"/>
-      <c r="H161" s="196"/>
-      <c r="I161" s="196"/>
-      <c r="J161" s="196"/>
-      <c r="K161" s="196"/>
-      <c r="L161" s="196"/>
-      <c r="M161" s="213"/>
+      <c r="G161" s="230"/>
+      <c r="H161" s="230"/>
+      <c r="I161" s="230"/>
+      <c r="J161" s="230"/>
+      <c r="K161" s="230"/>
+      <c r="L161" s="230"/>
+      <c r="M161" s="221"/>
     </row>
     <row r="162" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="15"/>
@@ -6554,61 +6609,61 @@
       <c r="A163" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B163" s="113" t="s">
+      <c r="B163" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="C163" s="114" t="s">
+      <c r="C163" s="113" t="s">
         <v>2</v>
       </c>
       <c r="D163" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E163" s="115" t="s">
+      <c r="E163" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="F163" s="116" t="s">
+      <c r="F163" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="G163" s="117" t="s">
+      <c r="G163" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="H163" s="117" t="s">
+      <c r="H163" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="I163" s="117" t="s">
+      <c r="I163" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="J163" s="117" t="s">
+      <c r="J163" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="K163" s="117" t="s">
+      <c r="K163" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="L163" s="117" t="s">
+      <c r="L163" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="M163" s="111" t="s">
+      <c r="M163" s="110" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="164" spans="1:13" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A164" s="162" t="s">
+      <c r="A164" s="161" t="s">
         <v>21</v>
       </c>
-      <c r="B164" s="161" t="s">
+      <c r="B164" s="160" t="s">
         <v>296</v>
       </c>
-      <c r="C164" s="118"/>
-      <c r="D164" s="119"/>
-      <c r="E164" s="120"/>
-      <c r="F164" s="120"/>
-      <c r="G164" s="121"/>
-      <c r="H164" s="121"/>
-      <c r="I164" s="121"/>
-      <c r="J164" s="121"/>
-      <c r="K164" s="121"/>
-      <c r="L164" s="121"/>
-      <c r="M164" s="160"/>
+      <c r="C164" s="117"/>
+      <c r="D164" s="118"/>
+      <c r="E164" s="119"/>
+      <c r="F164" s="119"/>
+      <c r="G164" s="120"/>
+      <c r="H164" s="120"/>
+      <c r="I164" s="120"/>
+      <c r="J164" s="120"/>
+      <c r="K164" s="120"/>
+      <c r="L164" s="120"/>
+      <c r="M164" s="159"/>
     </row>
     <row r="165" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A165" s="15"/>
@@ -6629,61 +6684,61 @@
       <c r="A166" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B166" s="113" t="s">
+      <c r="B166" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="C166" s="114" t="s">
+      <c r="C166" s="113" t="s">
         <v>2</v>
       </c>
       <c r="D166" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="E166" s="115" t="s">
+      <c r="E166" s="114" t="s">
         <v>3</v>
       </c>
-      <c r="F166" s="116" t="s">
+      <c r="F166" s="115" t="s">
         <v>3</v>
       </c>
-      <c r="G166" s="117" t="s">
+      <c r="G166" s="116" t="s">
         <v>24</v>
       </c>
-      <c r="H166" s="117" t="s">
+      <c r="H166" s="116" t="s">
         <v>23</v>
       </c>
-      <c r="I166" s="117" t="s">
+      <c r="I166" s="116" t="s">
         <v>25</v>
       </c>
-      <c r="J166" s="117" t="s">
+      <c r="J166" s="116" t="s">
         <v>26</v>
       </c>
-      <c r="K166" s="117" t="s">
+      <c r="K166" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="L166" s="117" t="s">
+      <c r="L166" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="M166" s="111" t="s">
+      <c r="M166" s="110" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="167" spans="1:13" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A167" s="162" t="s">
+      <c r="A167" s="161" t="s">
         <v>21</v>
       </c>
-      <c r="B167" s="161" t="s">
+      <c r="B167" s="160" t="s">
         <v>297</v>
       </c>
-      <c r="C167" s="118"/>
-      <c r="D167" s="119"/>
-      <c r="E167" s="120"/>
-      <c r="F167" s="120"/>
-      <c r="G167" s="121"/>
-      <c r="H167" s="121"/>
-      <c r="I167" s="121"/>
-      <c r="J167" s="121"/>
-      <c r="K167" s="121"/>
-      <c r="L167" s="121"/>
-      <c r="M167" s="160"/>
+      <c r="C167" s="117"/>
+      <c r="D167" s="118"/>
+      <c r="E167" s="119"/>
+      <c r="F167" s="119"/>
+      <c r="G167" s="120"/>
+      <c r="H167" s="120"/>
+      <c r="I167" s="120"/>
+      <c r="J167" s="120"/>
+      <c r="K167" s="120"/>
+      <c r="L167" s="120"/>
+      <c r="M167" s="159"/>
     </row>
     <row r="168" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="15"/>
@@ -6701,73 +6756,75 @@
       <c r="M168" s="63"/>
     </row>
     <row r="169" spans="1:13" ht="30.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A169" s="163" t="s">
+      <c r="A169" s="162" t="s">
         <v>0</v>
       </c>
-      <c r="B169" s="164" t="s">
+      <c r="B169" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="C169" s="165" t="s">
+      <c r="C169" s="164" t="s">
         <v>2</v>
       </c>
-      <c r="D169" s="166" t="s">
+      <c r="D169" s="165" t="s">
         <v>4</v>
       </c>
-      <c r="E169" s="167" t="s">
+      <c r="E169" s="166" t="s">
         <v>3</v>
       </c>
-      <c r="F169" s="168" t="s">
+      <c r="F169" s="167" t="s">
         <v>3</v>
       </c>
-      <c r="G169" s="169" t="s">
+      <c r="G169" s="168" t="s">
         <v>24</v>
       </c>
-      <c r="H169" s="169" t="s">
+      <c r="H169" s="168" t="s">
         <v>23</v>
       </c>
-      <c r="I169" s="169" t="s">
+      <c r="I169" s="168" t="s">
         <v>25</v>
       </c>
-      <c r="J169" s="169" t="s">
+      <c r="J169" s="168" t="s">
         <v>26</v>
       </c>
-      <c r="K169" s="169" t="s">
+      <c r="K169" s="168" t="s">
         <v>27</v>
       </c>
-      <c r="L169" s="169" t="s">
+      <c r="L169" s="168" t="s">
         <v>28</v>
       </c>
-      <c r="M169" s="111" t="s">
+      <c r="M169" s="110" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="170" spans="1:13" ht="61.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A170" s="170" t="s">
+      <c r="A170" s="169" t="s">
         <v>21</v>
       </c>
-      <c r="B170" s="171" t="s">
+      <c r="B170" s="170" t="s">
         <v>298</v>
       </c>
-      <c r="C170" s="172"/>
-      <c r="D170" s="173"/>
-      <c r="E170" s="174"/>
-      <c r="F170" s="174"/>
-      <c r="G170" s="121"/>
-      <c r="H170" s="121"/>
-      <c r="I170" s="121"/>
-      <c r="J170" s="121"/>
-      <c r="K170" s="121"/>
-      <c r="L170" s="121"/>
-      <c r="M170" s="175"/>
+      <c r="C170" s="171"/>
+      <c r="D170" s="172"/>
+      <c r="E170" s="173"/>
+      <c r="F170" s="173"/>
+      <c r="G170" s="120"/>
+      <c r="H170" s="120"/>
+      <c r="I170" s="120"/>
+      <c r="J170" s="120"/>
+      <c r="K170" s="120"/>
+      <c r="L170" s="120"/>
+      <c r="M170" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="A8:A26"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="G67:G161"/>
     <mergeCell ref="E20:E22"/>
     <mergeCell ref="B29:B53"/>
     <mergeCell ref="C23:C24"/>
     <mergeCell ref="B8:B26"/>
-    <mergeCell ref="A8:A26"/>
-    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="C100:C103"/>
     <mergeCell ref="M67:M161"/>
     <mergeCell ref="C137:C139"/>
     <mergeCell ref="C140:C142"/>
@@ -6780,14 +6837,6 @@
     <mergeCell ref="C131:C133"/>
     <mergeCell ref="C134:C136"/>
     <mergeCell ref="C104:C108"/>
-    <mergeCell ref="B67:B161"/>
-    <mergeCell ref="C116:C118"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="C93:C96"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="C100:C103"/>
     <mergeCell ref="J67:J161"/>
     <mergeCell ref="K67:K161"/>
     <mergeCell ref="L67:L161"/>
@@ -6804,7 +6853,9 @@
     <mergeCell ref="C67:C69"/>
     <mergeCell ref="C70:C73"/>
     <mergeCell ref="C74:C76"/>
-    <mergeCell ref="G67:G161"/>
+    <mergeCell ref="B67:B161"/>
+    <mergeCell ref="C116:C118"/>
+    <mergeCell ref="C119:C121"/>
     <mergeCell ref="H67:H161"/>
     <mergeCell ref="I67:I161"/>
     <mergeCell ref="C153:C155"/>
@@ -6817,6 +6868,10 @@
     <mergeCell ref="E158:E160"/>
     <mergeCell ref="D67:D161"/>
     <mergeCell ref="F68:F69"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="C93:C96"/>
+    <mergeCell ref="C97:C99"/>
     <mergeCell ref="A56:A64"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="G6:L6"/>
@@ -6862,1240 +6917,1240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="223" t="s">
+      <c r="A1" s="245" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="223"/>
-      <c r="C1" s="223"/>
-      <c r="D1" s="223"/>
-      <c r="E1" s="223"/>
-      <c r="F1" s="223"/>
-      <c r="G1" s="223"/>
-      <c r="H1" s="223"/>
-      <c r="I1" s="223"/>
-      <c r="J1" s="223"/>
-      <c r="K1" s="223"/>
-      <c r="L1" s="223"/>
-      <c r="M1" s="223"/>
-      <c r="N1" s="223"/>
+      <c r="B1" s="245"/>
+      <c r="C1" s="245"/>
+      <c r="D1" s="245"/>
+      <c r="E1" s="245"/>
+      <c r="F1" s="245"/>
+      <c r="G1" s="245"/>
+      <c r="H1" s="245"/>
+      <c r="I1" s="245"/>
+      <c r="J1" s="245"/>
+      <c r="K1" s="245"/>
+      <c r="L1" s="245"/>
+      <c r="M1" s="245"/>
+      <c r="N1" s="245"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="125"/>
-      <c r="B2" s="125"/>
-      <c r="C2" s="125"/>
-      <c r="D2" s="125"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="125"/>
-      <c r="G2" s="125"/>
-      <c r="H2" s="126" t="s">
+      <c r="A2" s="124"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="126" t="s">
+      <c r="I2" s="125" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="126" t="s">
+      <c r="J2" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="K2" s="126" t="s">
+      <c r="K2" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="126" t="s">
+      <c r="L2" s="125" t="s">
         <v>230</v>
       </c>
-      <c r="M2" s="126" t="s">
+      <c r="M2" s="125" t="s">
         <v>37</v>
       </c>
-      <c r="N2" s="125"/>
+      <c r="N2" s="124"/>
     </row>
     <row r="3" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="125"/>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
-      <c r="G3" s="125"/>
-      <c r="H3" s="127" t="s">
+      <c r="A3" s="124"/>
+      <c r="B3" s="124"/>
+      <c r="C3" s="124"/>
+      <c r="D3" s="124"/>
+      <c r="E3" s="124"/>
+      <c r="F3" s="124"/>
+      <c r="G3" s="124"/>
+      <c r="H3" s="126" t="s">
         <v>30</v>
       </c>
-      <c r="I3" s="127" t="s">
+      <c r="I3" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="J3" s="127" t="s">
+      <c r="J3" s="126" t="s">
         <v>32</v>
       </c>
-      <c r="K3" s="127" t="s">
+      <c r="K3" s="126" t="s">
         <v>231</v>
       </c>
-      <c r="L3" s="127" t="s">
+      <c r="L3" s="126" t="s">
         <v>36</v>
       </c>
-      <c r="M3" s="127"/>
-      <c r="N3" s="125"/>
+      <c r="M3" s="126"/>
+      <c r="N3" s="124"/>
     </row>
     <row r="4" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="125"/>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="130"/>
-      <c r="G4" s="130"/>
-      <c r="H4" s="239" t="s">
+      <c r="A4" s="124"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="128"/>
+      <c r="F4" s="129"/>
+      <c r="G4" s="129"/>
+      <c r="H4" s="261" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="240"/>
-      <c r="J4" s="240"/>
-      <c r="K4" s="240"/>
-      <c r="L4" s="240"/>
-      <c r="M4" s="241"/>
-      <c r="N4" s="131"/>
+      <c r="I4" s="262"/>
+      <c r="J4" s="262"/>
+      <c r="K4" s="262"/>
+      <c r="L4" s="262"/>
+      <c r="M4" s="263"/>
+      <c r="N4" s="130"/>
     </row>
     <row r="5" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="132" t="s">
+      <c r="A5" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="132" t="s">
         <v>232</v>
       </c>
-      <c r="C5" s="134" t="s">
+      <c r="C5" s="133" t="s">
         <v>233</v>
       </c>
-      <c r="D5" s="135" t="s">
+      <c r="D5" s="134" t="s">
         <v>233</v>
       </c>
-      <c r="E5" s="136" t="s">
+      <c r="E5" s="135" t="s">
         <v>234</v>
       </c>
-      <c r="F5" s="136" t="s">
+      <c r="F5" s="135" t="s">
         <v>235</v>
       </c>
-      <c r="G5" s="136" t="s">
+      <c r="G5" s="135" t="s">
         <v>274</v>
       </c>
-      <c r="H5" s="137" t="s">
+      <c r="H5" s="136" t="s">
         <v>24</v>
       </c>
-      <c r="I5" s="137" t="s">
+      <c r="I5" s="136" t="s">
         <v>23</v>
       </c>
-      <c r="J5" s="137" t="s">
+      <c r="J5" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="K5" s="137" t="s">
+      <c r="K5" s="136" t="s">
         <v>26</v>
       </c>
-      <c r="L5" s="137" t="s">
+      <c r="L5" s="136" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="138" t="s">
+      <c r="M5" s="137" t="s">
         <v>28</v>
       </c>
-      <c r="N5" s="136" t="s">
+      <c r="N5" s="135" t="s">
         <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="222" t="s">
+      <c r="A6" s="244" t="s">
         <v>237</v>
       </c>
-      <c r="B6" s="234" t="s">
+      <c r="B6" s="256" t="s">
         <v>238</v>
       </c>
-      <c r="C6" s="139" t="s">
+      <c r="C6" s="138" t="s">
         <v>239</v>
       </c>
-      <c r="D6" s="140" t="s">
+      <c r="D6" s="139" t="s">
         <v>240</v>
       </c>
-      <c r="E6" s="242" t="s">
+      <c r="E6" s="264" t="s">
         <v>241</v>
       </c>
-      <c r="F6" s="141">
+      <c r="F6" s="140">
         <v>1</v>
       </c>
-      <c r="G6" s="141" t="s">
+      <c r="G6" s="140" t="s">
         <v>239</v>
       </c>
-      <c r="H6" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="I6" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="J6" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="K6" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="L6" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="M6" s="177"/>
-      <c r="N6" s="242" t="s">
+      <c r="H6" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="I6" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="J6" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="K6" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="L6" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="M6" s="176"/>
+      <c r="N6" s="264" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="222"/>
-      <c r="B7" s="234"/>
-      <c r="C7" s="226" t="s">
+      <c r="A7" s="244"/>
+      <c r="B7" s="256"/>
+      <c r="C7" s="248" t="s">
         <v>242</v>
       </c>
-      <c r="D7" s="224" t="s">
+      <c r="D7" s="246" t="s">
         <v>240</v>
       </c>
-      <c r="E7" s="243"/>
-      <c r="F7" s="228">
+      <c r="E7" s="265"/>
+      <c r="F7" s="250">
         <v>2</v>
       </c>
-      <c r="G7" s="141" t="s">
+      <c r="G7" s="140" t="s">
         <v>275</v>
       </c>
-      <c r="H7" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="I7" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="J7" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="L7" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="M7" s="177"/>
-      <c r="N7" s="243"/>
+      <c r="H7" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="I7" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="J7" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="L7" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7" s="176"/>
+      <c r="N7" s="265"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="222"/>
-      <c r="B8" s="234"/>
-      <c r="C8" s="227"/>
-      <c r="D8" s="225"/>
-      <c r="E8" s="243"/>
-      <c r="F8" s="229"/>
-      <c r="G8" s="141" t="s">
+      <c r="A8" s="244"/>
+      <c r="B8" s="256"/>
+      <c r="C8" s="249"/>
+      <c r="D8" s="247"/>
+      <c r="E8" s="265"/>
+      <c r="F8" s="251"/>
+      <c r="G8" s="140" t="s">
         <v>276</v>
       </c>
-      <c r="H8" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="I8" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="J8" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="K8" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="L8" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="M8" s="177"/>
-      <c r="N8" s="243"/>
+      <c r="H8" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="I8" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="J8" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="K8" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="L8" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="M8" s="176"/>
+      <c r="N8" s="265"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="222"/>
-      <c r="B9" s="234"/>
-      <c r="C9" s="142" t="s">
+      <c r="A9" s="244"/>
+      <c r="B9" s="256"/>
+      <c r="C9" s="141" t="s">
         <v>243</v>
       </c>
-      <c r="D9" s="140" t="s">
+      <c r="D9" s="139" t="s">
         <v>240</v>
       </c>
-      <c r="E9" s="243"/>
-      <c r="F9" s="141">
+      <c r="E9" s="265"/>
+      <c r="F9" s="140">
         <v>1</v>
       </c>
-      <c r="G9" s="182" t="s">
+      <c r="G9" s="181" t="s">
         <v>277</v>
       </c>
-      <c r="H9" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="I9" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="J9" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="K9" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="L9" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="M9" s="144"/>
-      <c r="N9" s="243"/>
+      <c r="H9" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="I9" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="J9" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="K9" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="L9" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="M9" s="143"/>
+      <c r="N9" s="265"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="222"/>
-      <c r="B10" s="234"/>
-      <c r="C10" s="245" t="s">
+      <c r="A10" s="244"/>
+      <c r="B10" s="256"/>
+      <c r="C10" s="267" t="s">
         <v>244</v>
       </c>
-      <c r="D10" s="145" t="s">
+      <c r="D10" s="144" t="s">
         <v>245</v>
       </c>
-      <c r="E10" s="243"/>
-      <c r="F10" s="141">
+      <c r="E10" s="265"/>
+      <c r="F10" s="140">
         <v>1</v>
       </c>
-      <c r="G10" s="141" t="s">
+      <c r="G10" s="140" t="s">
         <v>245</v>
       </c>
-      <c r="H10" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="I10" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="J10" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="L10" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="M10" s="144"/>
-      <c r="N10" s="243"/>
+      <c r="H10" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="I10" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="J10" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="K10" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="L10" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="143"/>
+      <c r="N10" s="265"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="222"/>
-      <c r="B11" s="234"/>
-      <c r="C11" s="245"/>
-      <c r="D11" s="145" t="s">
+      <c r="A11" s="244"/>
+      <c r="B11" s="256"/>
+      <c r="C11" s="267"/>
+      <c r="D11" s="144" t="s">
         <v>246</v>
       </c>
-      <c r="E11" s="243"/>
-      <c r="F11" s="141">
+      <c r="E11" s="265"/>
+      <c r="F11" s="140">
         <v>1</v>
       </c>
-      <c r="G11" s="141" t="s">
+      <c r="G11" s="140" t="s">
         <v>278</v>
       </c>
-      <c r="H11" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="I11" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="J11" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="L11" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="M11" s="144"/>
-      <c r="N11" s="243"/>
+      <c r="H11" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="I11" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="J11" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="M11" s="143"/>
+      <c r="N11" s="265"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="222"/>
-      <c r="B12" s="234"/>
-      <c r="C12" s="245"/>
-      <c r="D12" s="145" t="s">
+      <c r="A12" s="244"/>
+      <c r="B12" s="256"/>
+      <c r="C12" s="267"/>
+      <c r="D12" s="144" t="s">
         <v>247</v>
       </c>
-      <c r="E12" s="243"/>
-      <c r="F12" s="141">
+      <c r="E12" s="265"/>
+      <c r="F12" s="140">
         <v>1</v>
       </c>
-      <c r="G12" s="141" t="s">
+      <c r="G12" s="140" t="s">
         <v>247</v>
       </c>
-      <c r="H12" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="I12" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="J12" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="L12" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="M12" s="144"/>
-      <c r="N12" s="243"/>
+      <c r="H12" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="I12" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="J12" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="K12" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="M12" s="143"/>
+      <c r="N12" s="265"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="222"/>
-      <c r="B13" s="234"/>
-      <c r="C13" s="245"/>
-      <c r="D13" s="145" t="s">
+      <c r="A13" s="244"/>
+      <c r="B13" s="256"/>
+      <c r="C13" s="267"/>
+      <c r="D13" s="144" t="s">
         <v>248</v>
       </c>
-      <c r="E13" s="243"/>
-      <c r="F13" s="141">
+      <c r="E13" s="265"/>
+      <c r="F13" s="140">
         <v>1</v>
       </c>
-      <c r="G13" s="141" t="s">
+      <c r="G13" s="140" t="s">
         <v>248</v>
       </c>
-      <c r="H13" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="I13" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="J13" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="L13" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="M13" s="144"/>
-      <c r="N13" s="243"/>
+      <c r="H13" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="I13" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="J13" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="M13" s="143"/>
+      <c r="N13" s="265"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="222"/>
-      <c r="B14" s="234"/>
-      <c r="C14" s="245"/>
-      <c r="D14" s="145" t="s">
+      <c r="A14" s="244"/>
+      <c r="B14" s="256"/>
+      <c r="C14" s="267"/>
+      <c r="D14" s="144" t="s">
         <v>249</v>
       </c>
-      <c r="E14" s="243"/>
-      <c r="F14" s="141">
+      <c r="E14" s="265"/>
+      <c r="F14" s="140">
         <v>1</v>
       </c>
-      <c r="G14" s="141" t="s">
+      <c r="G14" s="140" t="s">
         <v>249</v>
       </c>
-      <c r="H14" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="I14" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="J14" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="L14" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="M14" s="144"/>
-      <c r="N14" s="243"/>
+      <c r="H14" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="I14" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="J14" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="M14" s="143"/>
+      <c r="N14" s="265"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="222"/>
-      <c r="B15" s="234"/>
-      <c r="C15" s="245"/>
-      <c r="D15" s="145" t="s">
+      <c r="A15" s="244"/>
+      <c r="B15" s="256"/>
+      <c r="C15" s="267"/>
+      <c r="D15" s="144" t="s">
         <v>250</v>
       </c>
-      <c r="E15" s="243"/>
-      <c r="F15" s="141">
+      <c r="E15" s="265"/>
+      <c r="F15" s="140">
         <v>1</v>
       </c>
-      <c r="G15" s="141" t="s">
+      <c r="G15" s="140" t="s">
         <v>250</v>
       </c>
-      <c r="H15" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="J15" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="L15" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="M15" s="144"/>
-      <c r="N15" s="243"/>
+      <c r="H15" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="I15" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="J15" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="M15" s="143"/>
+      <c r="N15" s="265"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="222"/>
-      <c r="B16" s="234"/>
-      <c r="C16" s="245"/>
-      <c r="D16" s="145" t="s">
+      <c r="A16" s="244"/>
+      <c r="B16" s="256"/>
+      <c r="C16" s="267"/>
+      <c r="D16" s="144" t="s">
         <v>251</v>
       </c>
-      <c r="E16" s="243"/>
-      <c r="F16" s="141">
+      <c r="E16" s="265"/>
+      <c r="F16" s="140">
         <v>1</v>
       </c>
-      <c r="G16" s="141" t="s">
+      <c r="G16" s="140" t="s">
         <v>251</v>
       </c>
-      <c r="H16" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="I16" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="J16" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="L16" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="M16" s="144"/>
-      <c r="N16" s="243"/>
+      <c r="H16" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="J16" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="M16" s="143"/>
+      <c r="N16" s="265"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="222"/>
-      <c r="B17" s="234"/>
-      <c r="C17" s="245" t="s">
+      <c r="A17" s="244"/>
+      <c r="B17" s="256"/>
+      <c r="C17" s="267" t="s">
         <v>252</v>
       </c>
-      <c r="D17" s="145" t="s">
+      <c r="D17" s="144" t="s">
         <v>253</v>
       </c>
-      <c r="E17" s="243"/>
-      <c r="F17" s="141">
+      <c r="E17" s="265"/>
+      <c r="F17" s="140">
         <v>1</v>
       </c>
-      <c r="G17" s="141" t="s">
+      <c r="G17" s="140" t="s">
         <v>253</v>
       </c>
-      <c r="H17" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="I17" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="J17" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="K17" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="L17" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="M17" s="144"/>
-      <c r="N17" s="243"/>
+      <c r="H17" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="I17" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="J17" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="L17" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="M17" s="143"/>
+      <c r="N17" s="265"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="222"/>
-      <c r="B18" s="234"/>
-      <c r="C18" s="245"/>
-      <c r="D18" s="145" t="s">
+      <c r="A18" s="244"/>
+      <c r="B18" s="256"/>
+      <c r="C18" s="267"/>
+      <c r="D18" s="144" t="s">
         <v>254</v>
       </c>
-      <c r="E18" s="243"/>
-      <c r="F18" s="141">
+      <c r="E18" s="265"/>
+      <c r="F18" s="140">
         <v>1</v>
       </c>
-      <c r="G18" s="141" t="s">
+      <c r="G18" s="140" t="s">
         <v>254</v>
       </c>
-      <c r="H18" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="I18" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="J18" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="K18" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="L18" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="M18" s="144"/>
-      <c r="N18" s="243"/>
+      <c r="H18" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="I18" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="M18" s="143"/>
+      <c r="N18" s="265"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="222"/>
-      <c r="B19" s="234"/>
-      <c r="C19" s="245"/>
-      <c r="D19" s="145" t="s">
+      <c r="A19" s="244"/>
+      <c r="B19" s="256"/>
+      <c r="C19" s="267"/>
+      <c r="D19" s="144" t="s">
         <v>255</v>
       </c>
-      <c r="E19" s="243"/>
-      <c r="F19" s="141">
+      <c r="E19" s="265"/>
+      <c r="F19" s="140">
         <v>1</v>
       </c>
-      <c r="G19" s="141" t="s">
+      <c r="G19" s="140" t="s">
         <v>255</v>
       </c>
-      <c r="H19" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="I19" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="J19" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="L19" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="M19" s="144"/>
-      <c r="N19" s="243"/>
+      <c r="H19" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="I19" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="J19" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="L19" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="M19" s="143"/>
+      <c r="N19" s="265"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="222"/>
-      <c r="B20" s="234"/>
-      <c r="C20" s="245"/>
-      <c r="D20" s="145" t="s">
+      <c r="A20" s="244"/>
+      <c r="B20" s="256"/>
+      <c r="C20" s="267"/>
+      <c r="D20" s="144" t="s">
         <v>256</v>
       </c>
-      <c r="E20" s="243"/>
-      <c r="F20" s="141">
+      <c r="E20" s="265"/>
+      <c r="F20" s="140">
         <v>1</v>
       </c>
-      <c r="G20" s="141" t="s">
+      <c r="G20" s="140" t="s">
         <v>256</v>
       </c>
-      <c r="H20" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="I20" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="J20" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="K20" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="L20" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="M20" s="144"/>
-      <c r="N20" s="243"/>
+      <c r="H20" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="I20" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="J20" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="L20" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="M20" s="143"/>
+      <c r="N20" s="265"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="222"/>
-      <c r="B21" s="234"/>
-      <c r="C21" s="245"/>
-      <c r="D21" s="145" t="s">
+      <c r="A21" s="244"/>
+      <c r="B21" s="256"/>
+      <c r="C21" s="267"/>
+      <c r="D21" s="144" t="s">
         <v>257</v>
       </c>
-      <c r="E21" s="244"/>
-      <c r="F21" s="141">
+      <c r="E21" s="266"/>
+      <c r="F21" s="140">
         <v>1</v>
       </c>
-      <c r="G21" s="141" t="s">
+      <c r="G21" s="140" t="s">
         <v>257</v>
       </c>
-      <c r="H21" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="I21" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="J21" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="K21" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="L21" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="M21" s="144"/>
-      <c r="N21" s="244"/>
+      <c r="H21" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="I21" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="J21" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="K21" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="L21" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="M21" s="143"/>
+      <c r="N21" s="266"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A22" s="146" t="s">
+      <c r="A22" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="147" t="s">
+      <c r="B22" s="146" t="s">
         <v>232</v>
       </c>
-      <c r="C22" s="148" t="s">
+      <c r="C22" s="147" t="s">
         <v>258</v>
       </c>
-      <c r="D22" s="149" t="s">
+      <c r="D22" s="148" t="s">
         <v>233</v>
       </c>
-      <c r="E22" s="150"/>
-      <c r="F22" s="151"/>
-      <c r="G22" s="151"/>
-      <c r="H22" s="152"/>
-      <c r="I22" s="152"/>
-      <c r="J22" s="152"/>
-      <c r="K22" s="152"/>
-      <c r="L22" s="152"/>
-      <c r="M22" s="153"/>
-      <c r="N22" s="150"/>
+      <c r="E22" s="149"/>
+      <c r="F22" s="150"/>
+      <c r="G22" s="150"/>
+      <c r="H22" s="151"/>
+      <c r="I22" s="151"/>
+      <c r="J22" s="151"/>
+      <c r="K22" s="151"/>
+      <c r="L22" s="151"/>
+      <c r="M22" s="152"/>
+      <c r="N22" s="149"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="222" t="s">
+      <c r="A23" s="244" t="s">
         <v>237</v>
       </c>
-      <c r="B23" s="234" t="s">
+      <c r="B23" s="256" t="s">
         <v>259</v>
       </c>
-      <c r="C23" s="235" t="s">
+      <c r="C23" s="257" t="s">
         <v>260</v>
       </c>
-      <c r="D23" s="145" t="s">
+      <c r="D23" s="144" t="s">
         <v>261</v>
       </c>
-      <c r="E23" s="236" t="s">
+      <c r="E23" s="258" t="s">
         <v>241</v>
       </c>
-      <c r="F23" s="141">
+      <c r="F23" s="140">
         <v>1</v>
       </c>
-      <c r="G23" s="141" t="s">
+      <c r="G23" s="140" t="s">
         <v>279</v>
       </c>
-      <c r="H23" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="I23" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="J23" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="K23" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="L23" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="M23" s="144"/>
-      <c r="N23" s="236" t="s">
+      <c r="H23" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="I23" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="J23" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="K23" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="L23" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="M23" s="143"/>
+      <c r="N23" s="258" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="222"/>
-      <c r="B24" s="234"/>
-      <c r="C24" s="235"/>
-      <c r="D24" s="145" t="s">
+      <c r="A24" s="244"/>
+      <c r="B24" s="256"/>
+      <c r="C24" s="257"/>
+      <c r="D24" s="144" t="s">
         <v>262</v>
       </c>
-      <c r="E24" s="237"/>
-      <c r="F24" s="157"/>
-      <c r="G24" s="141"/>
-      <c r="H24" s="176"/>
-      <c r="I24" s="176"/>
-      <c r="J24" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="K24" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="L24" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="M24" s="144"/>
-      <c r="N24" s="237"/>
+      <c r="E24" s="259"/>
+      <c r="F24" s="156"/>
+      <c r="G24" s="140"/>
+      <c r="H24" s="175"/>
+      <c r="I24" s="175"/>
+      <c r="J24" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="K24" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="L24" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="M24" s="143"/>
+      <c r="N24" s="259"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="222"/>
-      <c r="B25" s="234"/>
-      <c r="C25" s="235" t="s">
+      <c r="A25" s="244"/>
+      <c r="B25" s="256"/>
+      <c r="C25" s="257" t="s">
         <v>263</v>
       </c>
-      <c r="D25" s="145" t="s">
+      <c r="D25" s="144" t="s">
         <v>261</v>
       </c>
-      <c r="E25" s="237"/>
-      <c r="F25" s="141">
+      <c r="E25" s="259"/>
+      <c r="F25" s="140">
         <v>1</v>
       </c>
-      <c r="G25" s="141" t="s">
+      <c r="G25" s="140" t="s">
         <v>59</v>
       </c>
-      <c r="H25" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="I25" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="J25" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="K25" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="L25" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="M25" s="144"/>
-      <c r="N25" s="237"/>
+      <c r="H25" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="I25" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="J25" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="K25" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="L25" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="M25" s="143"/>
+      <c r="N25" s="259"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="222"/>
-      <c r="B26" s="234"/>
-      <c r="C26" s="235"/>
-      <c r="D26" s="145" t="s">
+      <c r="A26" s="244"/>
+      <c r="B26" s="256"/>
+      <c r="C26" s="257"/>
+      <c r="D26" s="144" t="s">
         <v>264</v>
       </c>
-      <c r="E26" s="237"/>
-      <c r="F26" s="182"/>
-      <c r="G26" s="141"/>
-      <c r="H26" s="176"/>
-      <c r="I26" s="176"/>
-      <c r="J26" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="K26" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="L26" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="M26" s="143"/>
-      <c r="N26" s="237"/>
+      <c r="E26" s="259"/>
+      <c r="F26" s="181"/>
+      <c r="G26" s="140"/>
+      <c r="H26" s="175"/>
+      <c r="I26" s="175"/>
+      <c r="J26" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="K26" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="L26" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="M26" s="142"/>
+      <c r="N26" s="259"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="222"/>
-      <c r="B27" s="234"/>
-      <c r="C27" s="235"/>
-      <c r="D27" s="145" t="s">
+      <c r="A27" s="244"/>
+      <c r="B27" s="256"/>
+      <c r="C27" s="257"/>
+      <c r="D27" s="144" t="s">
         <v>265</v>
       </c>
-      <c r="E27" s="237"/>
-      <c r="F27" s="157"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="176"/>
-      <c r="I27" s="176"/>
-      <c r="J27" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="L27" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="M27" s="154"/>
-      <c r="N27" s="237"/>
+      <c r="E27" s="259"/>
+      <c r="F27" s="156"/>
+      <c r="G27" s="140"/>
+      <c r="H27" s="175"/>
+      <c r="I27" s="175"/>
+      <c r="J27" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="K27" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="L27" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="M27" s="153"/>
+      <c r="N27" s="259"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="222"/>
-      <c r="B28" s="234"/>
-      <c r="C28" s="235" t="s">
+      <c r="A28" s="244"/>
+      <c r="B28" s="256"/>
+      <c r="C28" s="257" t="s">
         <v>266</v>
       </c>
-      <c r="D28" s="145" t="s">
+      <c r="D28" s="144" t="s">
         <v>261</v>
       </c>
-      <c r="E28" s="237"/>
-      <c r="F28" s="141">
+      <c r="E28" s="259"/>
+      <c r="F28" s="140">
         <v>1</v>
       </c>
-      <c r="G28" s="141" t="s">
+      <c r="G28" s="140" t="s">
         <v>60</v>
       </c>
-      <c r="H28" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="I28" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="J28" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="K28" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="L28" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="M28" s="178"/>
-      <c r="N28" s="237"/>
+      <c r="H28" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="I28" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="J28" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="L28" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="M28" s="177"/>
+      <c r="N28" s="259"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="222"/>
-      <c r="B29" s="234"/>
-      <c r="C29" s="235"/>
-      <c r="D29" s="145" t="s">
+      <c r="A29" s="244"/>
+      <c r="B29" s="256"/>
+      <c r="C29" s="257"/>
+      <c r="D29" s="144" t="s">
         <v>264</v>
       </c>
-      <c r="E29" s="237"/>
-      <c r="F29" s="157"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="176"/>
-      <c r="I29" s="176"/>
-      <c r="J29" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="K29" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="L29" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="M29" s="178"/>
-      <c r="N29" s="237"/>
+      <c r="E29" s="259"/>
+      <c r="F29" s="156"/>
+      <c r="G29" s="140"/>
+      <c r="H29" s="175"/>
+      <c r="I29" s="175"/>
+      <c r="J29" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="K29" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="L29" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="M29" s="177"/>
+      <c r="N29" s="259"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="222"/>
-      <c r="B30" s="234"/>
-      <c r="C30" s="235" t="s">
+      <c r="A30" s="244"/>
+      <c r="B30" s="256"/>
+      <c r="C30" s="257" t="s">
         <v>267</v>
       </c>
-      <c r="D30" s="145" t="s">
+      <c r="D30" s="144" t="s">
         <v>261</v>
       </c>
-      <c r="E30" s="237"/>
-      <c r="F30" s="141">
+      <c r="E30" s="259"/>
+      <c r="F30" s="140">
         <v>1</v>
       </c>
-      <c r="G30" s="141" t="s">
+      <c r="G30" s="140" t="s">
         <v>280</v>
       </c>
-      <c r="H30" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="I30" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="J30" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="K30" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="L30" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="M30" s="178"/>
-      <c r="N30" s="237"/>
+      <c r="H30" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="I30" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="J30" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="K30" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="L30" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="M30" s="177"/>
+      <c r="N30" s="259"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="222"/>
-      <c r="B31" s="234"/>
-      <c r="C31" s="235"/>
-      <c r="D31" s="145" t="s">
+      <c r="A31" s="244"/>
+      <c r="B31" s="256"/>
+      <c r="C31" s="257"/>
+      <c r="D31" s="144" t="s">
         <v>264</v>
       </c>
-      <c r="E31" s="237"/>
-      <c r="F31" s="141">
+      <c r="E31" s="259"/>
+      <c r="F31" s="140">
         <v>1</v>
       </c>
-      <c r="G31" s="141" t="s">
+      <c r="G31" s="140" t="s">
         <v>281</v>
       </c>
-      <c r="H31" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="I31" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="J31" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="K31" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="L31" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="M31" s="178"/>
-      <c r="N31" s="237"/>
+      <c r="H31" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="I31" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="J31" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="K31" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="L31" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="M31" s="177"/>
+      <c r="N31" s="259"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="222"/>
-      <c r="B32" s="234"/>
-      <c r="C32" s="245" t="s">
+      <c r="A32" s="244"/>
+      <c r="B32" s="256"/>
+      <c r="C32" s="267" t="s">
         <v>268</v>
       </c>
-      <c r="D32" s="145" t="s">
+      <c r="D32" s="144" t="s">
         <v>261</v>
       </c>
-      <c r="E32" s="237"/>
-      <c r="F32" s="141">
+      <c r="E32" s="259"/>
+      <c r="F32" s="140">
         <v>1</v>
       </c>
-      <c r="G32" s="141" t="s">
+      <c r="G32" s="140" t="s">
         <v>282</v>
       </c>
-      <c r="H32" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="I32" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="J32" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="K32" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="L32" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="M32" s="178"/>
-      <c r="N32" s="237"/>
+      <c r="H32" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="I32" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="J32" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="L32" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="M32" s="177"/>
+      <c r="N32" s="259"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="222"/>
-      <c r="B33" s="234"/>
-      <c r="C33" s="245"/>
-      <c r="D33" s="145" t="s">
+      <c r="A33" s="244"/>
+      <c r="B33" s="256"/>
+      <c r="C33" s="267"/>
+      <c r="D33" s="144" t="s">
         <v>264</v>
       </c>
-      <c r="E33" s="237"/>
-      <c r="F33" s="141">
+      <c r="E33" s="259"/>
+      <c r="F33" s="140">
         <v>1</v>
       </c>
-      <c r="G33" s="141" t="s">
+      <c r="G33" s="140" t="s">
         <v>283</v>
       </c>
-      <c r="H33" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="I33" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="J33" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="K33" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="L33" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="M33" s="178"/>
-      <c r="N33" s="237"/>
+      <c r="H33" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="I33" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="J33" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="K33" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="L33" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="M33" s="177"/>
+      <c r="N33" s="259"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="222"/>
-      <c r="B34" s="234"/>
-      <c r="C34" s="235" t="s">
+      <c r="A34" s="244"/>
+      <c r="B34" s="256"/>
+      <c r="C34" s="257" t="s">
         <v>269</v>
       </c>
-      <c r="D34" s="145" t="s">
+      <c r="D34" s="144" t="s">
         <v>261</v>
       </c>
-      <c r="E34" s="237"/>
-      <c r="F34" s="141">
+      <c r="E34" s="259"/>
+      <c r="F34" s="140">
         <v>1</v>
       </c>
-      <c r="G34" s="141" t="s">
+      <c r="G34" s="140" t="s">
         <v>61</v>
       </c>
-      <c r="H34" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="I34" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="J34" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="K34" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="L34" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="M34" s="178"/>
-      <c r="N34" s="237"/>
+      <c r="H34" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="I34" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="J34" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="K34" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="L34" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="M34" s="177"/>
+      <c r="N34" s="259"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="222"/>
-      <c r="B35" s="234"/>
-      <c r="C35" s="235"/>
-      <c r="D35" s="145" t="s">
+      <c r="A35" s="244"/>
+      <c r="B35" s="256"/>
+      <c r="C35" s="257"/>
+      <c r="D35" s="144" t="s">
         <v>264</v>
       </c>
-      <c r="E35" s="238"/>
-      <c r="F35" s="141">
+      <c r="E35" s="260"/>
+      <c r="F35" s="140">
         <v>1</v>
       </c>
-      <c r="G35" s="182" t="s">
+      <c r="G35" s="181" t="s">
         <v>284</v>
       </c>
-      <c r="H35" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="I35" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="J35" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="K35" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="L35" s="176" t="s">
-        <v>49</v>
-      </c>
-      <c r="M35" s="178"/>
-      <c r="N35" s="238"/>
+      <c r="H35" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="I35" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="J35" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="K35" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="L35" s="175" t="s">
+        <v>49</v>
+      </c>
+      <c r="M35" s="177"/>
+      <c r="N35" s="260"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A36" s="132" t="s">
+      <c r="A36" s="131" t="s">
         <v>0</v>
       </c>
-      <c r="B36" s="147" t="s">
+      <c r="B36" s="146" t="s">
         <v>232</v>
       </c>
-      <c r="C36" s="155"/>
-      <c r="D36" s="156"/>
-      <c r="E36" s="150"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="179"/>
-      <c r="I36" s="179"/>
-      <c r="J36" s="179"/>
-      <c r="K36" s="179"/>
-      <c r="L36" s="179"/>
-      <c r="M36" s="180"/>
-      <c r="N36" s="150"/>
+      <c r="C36" s="154"/>
+      <c r="D36" s="155"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="150"/>
+      <c r="G36" s="150"/>
+      <c r="H36" s="178"/>
+      <c r="I36" s="178"/>
+      <c r="J36" s="178"/>
+      <c r="K36" s="178"/>
+      <c r="L36" s="178"/>
+      <c r="M36" s="179"/>
+      <c r="N36" s="149"/>
     </row>
     <row r="37" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="222" t="s">
+      <c r="A37" s="244" t="s">
         <v>237</v>
       </c>
-      <c r="B37" s="233" t="s">
+      <c r="B37" s="255" t="s">
         <v>270</v>
       </c>
-      <c r="C37" s="232"/>
-      <c r="D37" s="231"/>
-      <c r="E37" s="230" t="s">
+      <c r="C37" s="254"/>
+      <c r="D37" s="253"/>
+      <c r="E37" s="252" t="s">
         <v>241</v>
       </c>
-      <c r="F37" s="230">
+      <c r="F37" s="252">
         <v>6</v>
       </c>
-      <c r="G37" s="158" t="s">
+      <c r="G37" s="157" t="s">
         <v>285</v>
       </c>
-      <c r="H37" s="220" t="s">
-        <v>49</v>
-      </c>
-      <c r="I37" s="220" t="s">
-        <v>49</v>
-      </c>
-      <c r="J37" s="220" t="s">
-        <v>49</v>
-      </c>
-      <c r="K37" s="220" t="s">
-        <v>49</v>
-      </c>
-      <c r="L37" s="220" t="s">
-        <v>49</v>
-      </c>
-      <c r="M37" s="220"/>
-      <c r="N37" s="221" t="s">
+      <c r="H37" s="242" t="s">
+        <v>49</v>
+      </c>
+      <c r="I37" s="242" t="s">
+        <v>49</v>
+      </c>
+      <c r="J37" s="242" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37" s="242" t="s">
+        <v>49</v>
+      </c>
+      <c r="L37" s="242" t="s">
+        <v>49</v>
+      </c>
+      <c r="M37" s="242"/>
+      <c r="N37" s="243" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="222"/>
-      <c r="B38" s="233"/>
-      <c r="C38" s="232"/>
-      <c r="D38" s="231"/>
-      <c r="E38" s="230"/>
-      <c r="F38" s="230"/>
-      <c r="G38" s="158" t="s">
+      <c r="A38" s="244"/>
+      <c r="B38" s="255"/>
+      <c r="C38" s="254"/>
+      <c r="D38" s="253"/>
+      <c r="E38" s="252"/>
+      <c r="F38" s="252"/>
+      <c r="G38" s="157" t="s">
         <v>286</v>
       </c>
-      <c r="H38" s="220"/>
-      <c r="I38" s="220"/>
-      <c r="J38" s="220"/>
-      <c r="K38" s="220"/>
-      <c r="L38" s="220"/>
-      <c r="M38" s="220"/>
-      <c r="N38" s="221"/>
+      <c r="H38" s="242"/>
+      <c r="I38" s="242"/>
+      <c r="J38" s="242"/>
+      <c r="K38" s="242"/>
+      <c r="L38" s="242"/>
+      <c r="M38" s="242"/>
+      <c r="N38" s="243"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="222"/>
-      <c r="B39" s="233"/>
-      <c r="C39" s="232"/>
-      <c r="D39" s="231"/>
-      <c r="E39" s="230"/>
-      <c r="F39" s="230"/>
-      <c r="G39" s="158" t="s">
+      <c r="A39" s="244"/>
+      <c r="B39" s="255"/>
+      <c r="C39" s="254"/>
+      <c r="D39" s="253"/>
+      <c r="E39" s="252"/>
+      <c r="F39" s="252"/>
+      <c r="G39" s="157" t="s">
         <v>287</v>
       </c>
-      <c r="H39" s="220"/>
-      <c r="I39" s="220"/>
-      <c r="J39" s="220"/>
-      <c r="K39" s="220"/>
-      <c r="L39" s="220"/>
-      <c r="M39" s="220"/>
-      <c r="N39" s="221"/>
+      <c r="H39" s="242"/>
+      <c r="I39" s="242"/>
+      <c r="J39" s="242"/>
+      <c r="K39" s="242"/>
+      <c r="L39" s="242"/>
+      <c r="M39" s="242"/>
+      <c r="N39" s="243"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="222"/>
-      <c r="B40" s="233"/>
-      <c r="C40" s="232"/>
-      <c r="D40" s="231"/>
-      <c r="E40" s="230"/>
-      <c r="F40" s="230"/>
-      <c r="G40" s="158" t="s">
+      <c r="A40" s="244"/>
+      <c r="B40" s="255"/>
+      <c r="C40" s="254"/>
+      <c r="D40" s="253"/>
+      <c r="E40" s="252"/>
+      <c r="F40" s="252"/>
+      <c r="G40" s="157" t="s">
         <v>290</v>
       </c>
-      <c r="H40" s="220"/>
-      <c r="I40" s="220"/>
-      <c r="J40" s="220"/>
-      <c r="K40" s="220"/>
-      <c r="L40" s="220"/>
-      <c r="M40" s="220"/>
-      <c r="N40" s="221"/>
+      <c r="H40" s="242"/>
+      <c r="I40" s="242"/>
+      <c r="J40" s="242"/>
+      <c r="K40" s="242"/>
+      <c r="L40" s="242"/>
+      <c r="M40" s="242"/>
+      <c r="N40" s="243"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="222"/>
-      <c r="B41" s="233"/>
-      <c r="C41" s="232"/>
-      <c r="D41" s="231"/>
-      <c r="E41" s="230"/>
-      <c r="F41" s="230"/>
-      <c r="G41" s="158" t="s">
+      <c r="A41" s="244"/>
+      <c r="B41" s="255"/>
+      <c r="C41" s="254"/>
+      <c r="D41" s="253"/>
+      <c r="E41" s="252"/>
+      <c r="F41" s="252"/>
+      <c r="G41" s="157" t="s">
         <v>288</v>
       </c>
-      <c r="H41" s="220"/>
-      <c r="I41" s="220"/>
-      <c r="J41" s="220"/>
-      <c r="K41" s="220"/>
-      <c r="L41" s="220"/>
-      <c r="M41" s="220"/>
-      <c r="N41" s="221"/>
+      <c r="H41" s="242"/>
+      <c r="I41" s="242"/>
+      <c r="J41" s="242"/>
+      <c r="K41" s="242"/>
+      <c r="L41" s="242"/>
+      <c r="M41" s="242"/>
+      <c r="N41" s="243"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="222"/>
-      <c r="B42" s="233"/>
-      <c r="C42" s="232"/>
-      <c r="D42" s="231"/>
-      <c r="E42" s="230"/>
-      <c r="F42" s="230"/>
-      <c r="G42" s="158" t="s">
+      <c r="A42" s="244"/>
+      <c r="B42" s="255"/>
+      <c r="C42" s="254"/>
+      <c r="D42" s="253"/>
+      <c r="E42" s="252"/>
+      <c r="F42" s="252"/>
+      <c r="G42" s="157" t="s">
         <v>289</v>
       </c>
-      <c r="H42" s="220"/>
-      <c r="I42" s="220"/>
-      <c r="J42" s="220"/>
-      <c r="K42" s="220"/>
-      <c r="L42" s="220"/>
-      <c r="M42" s="220"/>
-      <c r="N42" s="221"/>
+      <c r="H42" s="242"/>
+      <c r="I42" s="242"/>
+      <c r="J42" s="242"/>
+      <c r="K42" s="242"/>
+      <c r="L42" s="242"/>
+      <c r="M42" s="242"/>
+      <c r="N42" s="243"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H43" s="24"/>
@@ -8150,10 +8205,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L105"/>
+  <dimension ref="A1:M105"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="J93" sqref="J93"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J32" sqref="J32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8168,66 +8223,67 @@
     <col min="9" max="9" width="6.21875" customWidth="1"/>
     <col min="11" max="11" width="4.77734375" customWidth="1"/>
     <col min="12" max="12" width="4.6640625" customWidth="1"/>
+    <col min="13" max="13" width="4.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="89" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="252" t="s">
+    <row r="1" spans="1:8" s="88" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A1" s="270" t="s">
         <v>299</v>
       </c>
-      <c r="B1" s="252"/>
-      <c r="C1" s="252"/>
-      <c r="D1" s="252"/>
-      <c r="E1" s="252"/>
-      <c r="F1" s="252"/>
-      <c r="G1" s="252"/>
-      <c r="H1" s="252"/>
-    </row>
-    <row r="2" spans="1:8" s="89" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="G2" s="90"/>
+      <c r="B1" s="270"/>
+      <c r="C1" s="270"/>
+      <c r="D1" s="270"/>
+      <c r="E1" s="270"/>
+      <c r="F1" s="270"/>
+      <c r="G1" s="270"/>
+      <c r="H1" s="270"/>
+    </row>
+    <row r="2" spans="1:8" s="88" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G2" s="89"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="74" t="s">
+      <c r="A3" s="73" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="74" t="s">
+      <c r="B3" s="73" t="s">
         <v>97</v>
       </c>
-      <c r="C3" s="74" t="s">
+      <c r="C3" s="73" t="s">
         <v>98</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="73" t="s">
         <v>99</v>
       </c>
-      <c r="E3" s="74" t="s">
+      <c r="E3" s="73" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="96" t="s">
+      <c r="A4" s="95" t="s">
         <v>121</v>
       </c>
-      <c r="B4" s="94" t="s">
+      <c r="B4" s="93" t="s">
         <v>100</v>
       </c>
-      <c r="C4" s="78" t="s">
+      <c r="C4" s="77" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="25"/>
-      <c r="C5" s="78"/>
+      <c r="C5" s="77"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C6" s="81" t="s">
+      <c r="C6" s="80" t="s">
         <v>139</v>
       </c>
-      <c r="D6" s="80" t="s">
+      <c r="D6" s="79" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C7" s="82"/>
-      <c r="D7" s="80" t="s">
+      <c r="C7" s="81"/>
+      <c r="D7" s="79" t="s">
         <v>109</v>
       </c>
     </row>
@@ -8238,7 +8294,7 @@
       <c r="D8" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="85"/>
+      <c r="E8" s="84"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C9" s="30"/>
@@ -8264,32 +8320,32 @@
       <c r="C12" s="43" t="s">
         <v>142</v>
       </c>
-      <c r="D12" s="86" t="s">
+      <c r="D12" s="85" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C13" s="43"/>
-      <c r="D13" s="86" t="s">
+      <c r="D13" s="85" t="s">
         <v>109</v>
       </c>
-      <c r="E13" s="85"/>
+      <c r="E13" s="84"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C14" s="50" t="s">
         <v>143</v>
       </c>
-      <c r="D14" s="87" t="s">
+      <c r="D14" s="86" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="85"/>
+      <c r="E14" s="84"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C15" s="50"/>
-      <c r="D15" s="87" t="s">
+      <c r="D15" s="86" t="s">
         <v>109</v>
       </c>
-      <c r="E15" s="85"/>
+      <c r="E15" s="84"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C16" s="56" t="s">
@@ -8299,166 +8355,196 @@
         <v>108</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C17" s="56"/>
       <c r="D17" s="52" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C18" s="249" t="s">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="268" t="s">
         <v>145</v>
       </c>
-      <c r="D18" s="88" t="s">
+      <c r="D18" s="87" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C19" s="250"/>
-      <c r="D19" s="88" t="s">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="269"/>
+      <c r="D19" s="87" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C20" s="84" t="s">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="83" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C21" s="98" t="s">
+    <row r="21" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="97" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="97" t="s">
+    <row r="22" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="96" t="s">
         <v>124</v>
       </c>
-      <c r="C22" s="99">
+      <c r="C22" s="98">
         <v>8</v>
       </c>
-      <c r="D22" s="99" t="s">
+      <c r="D22" s="98" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="97" t="s">
+    <row r="23" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="96" t="s">
         <v>125</v>
       </c>
-      <c r="C23" s="95" t="s">
+      <c r="C23" s="94" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="E24" s="85"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="E24" s="84"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="25"/>
       <c r="C25" s="25"/>
     </row>
-    <row r="26" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:7" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A27" s="96" t="s">
+    <row r="26" spans="1:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:8" s="26" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="95" t="s">
         <v>122</v>
       </c>
-      <c r="B27" s="94" t="s">
+      <c r="B27" s="93" t="s">
         <v>137</v>
       </c>
-      <c r="C27" s="79" t="s">
+      <c r="C27" s="78" t="s">
         <v>101</v>
       </c>
-      <c r="D27" s="79" t="s">
+      <c r="D27" s="78" t="s">
         <v>157</v>
       </c>
-      <c r="E27" s="112" t="s">
+      <c r="E27" s="111" t="s">
         <v>156</v>
       </c>
       <c r="G27" s="67"/>
     </row>
-    <row r="28" spans="1:7" s="27" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="55" t="s">
         <v>102</v>
       </c>
       <c r="G28" s="68"/>
     </row>
-    <row r="29" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="38" t="s">
         <v>111</v>
       </c>
       <c r="D29" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="E29" s="83">
+      <c r="E29" s="82">
         <v>1</v>
       </c>
-      <c r="F29" s="83" t="s">
+      <c r="F29" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="G29" s="69"/>
-    </row>
-    <row r="30" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G29" s="82" t="s">
+        <v>329</v>
+      </c>
+      <c r="H29" s="82" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="39"/>
       <c r="D30" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="83">
+      <c r="E30" s="82">
         <v>1</v>
       </c>
-      <c r="F30" s="83" t="s">
+      <c r="F30" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="G30" s="69"/>
-    </row>
-    <row r="31" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G30" s="82" t="s">
+        <v>329</v>
+      </c>
+      <c r="H30" s="294" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="39"/>
       <c r="D31" s="41" t="s">
         <v>131</v>
       </c>
-      <c r="E31" s="83">
+      <c r="E31" s="82">
         <v>1</v>
       </c>
-      <c r="F31" s="83" t="s">
+      <c r="F31" s="82" t="s">
         <v>129</v>
       </c>
-      <c r="G31" s="69"/>
-    </row>
-    <row r="32" spans="1:7" s="28" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G31" s="82" t="s">
+        <v>329</v>
+      </c>
+      <c r="H31" s="82" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="39"/>
       <c r="D32" s="41" t="s">
         <v>113</v>
       </c>
-      <c r="E32" s="83">
+      <c r="E32" s="82">
         <v>1</v>
       </c>
-      <c r="F32" s="83" t="s">
+      <c r="F32" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="G32" s="69"/>
+      <c r="G32" s="82" t="s">
+        <v>329</v>
+      </c>
+      <c r="H32" s="82" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="33" spans="3:9" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="39"/>
       <c r="D33" s="41" t="s">
         <v>52</v>
       </c>
-      <c r="E33" s="83">
+      <c r="E33" s="82">
         <v>1</v>
       </c>
-      <c r="F33" s="83" t="s">
+      <c r="F33" s="82" t="s">
         <v>112</v>
       </c>
-      <c r="G33" s="69"/>
+      <c r="G33" s="82" t="s">
+        <v>329</v>
+      </c>
+      <c r="H33" s="82" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="34" spans="3:9" s="28" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="40"/>
       <c r="D34" s="41" t="s">
         <v>110</v>
       </c>
-      <c r="E34" s="83">
+      <c r="E34" s="82">
         <v>1</v>
       </c>
-      <c r="F34" s="83" t="s">
+      <c r="F34" s="82" t="s">
         <v>130</v>
       </c>
-      <c r="G34" s="69"/>
+      <c r="G34" s="82" t="s">
+        <v>329</v>
+      </c>
+      <c r="H34" s="82" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="35" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="35" t="s">
@@ -8470,7 +8556,7 @@
       <c r="E35" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="G35" s="70"/>
+      <c r="G35" s="69"/>
     </row>
     <row r="36" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="36"/>
@@ -8478,7 +8564,7 @@
       <c r="E36" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="G36" s="70"/>
+      <c r="G36" s="69"/>
     </row>
     <row r="37" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="36"/>
@@ -8486,7 +8572,7 @@
       <c r="E37" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="G37" s="70"/>
+      <c r="G37" s="69"/>
     </row>
     <row r="38" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="36"/>
@@ -8494,7 +8580,7 @@
       <c r="E38" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="G38" s="70"/>
+      <c r="G38" s="69"/>
     </row>
     <row r="39" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="36"/>
@@ -8502,7 +8588,7 @@
       <c r="E39" s="42" t="s">
         <v>62</v>
       </c>
-      <c r="G39" s="70"/>
+      <c r="G39" s="69"/>
     </row>
     <row r="40" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="36"/>
@@ -8512,7 +8598,7 @@
       <c r="E40" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="G40" s="70"/>
+      <c r="G40" s="69"/>
     </row>
     <row r="41" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="36"/>
@@ -8520,7 +8606,7 @@
       <c r="E41" s="42" t="s">
         <v>57</v>
       </c>
-      <c r="G41" s="70"/>
+      <c r="G41" s="69"/>
     </row>
     <row r="42" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="36"/>
@@ -8528,7 +8614,7 @@
       <c r="E42" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="G42" s="70"/>
+      <c r="G42" s="69"/>
     </row>
     <row r="43" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="36"/>
@@ -8536,66 +8622,66 @@
       <c r="E43" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="G43" s="70"/>
+      <c r="G43" s="69"/>
     </row>
     <row r="44" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="36"/>
       <c r="D44" s="33"/>
-      <c r="E44" s="100" t="s">
+      <c r="E44" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="F44" s="101"/>
-      <c r="G44" s="101"/>
-      <c r="H44" s="101"/>
-      <c r="I44" s="101"/>
+      <c r="F44" s="100"/>
+      <c r="G44" s="100"/>
+      <c r="H44" s="100"/>
+      <c r="I44" s="100"/>
     </row>
     <row r="45" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="36"/>
       <c r="D45" s="34"/>
-      <c r="E45" s="100" t="s">
+      <c r="E45" s="99" t="s">
         <v>148</v>
       </c>
-      <c r="F45" s="101"/>
-      <c r="G45" s="101"/>
-      <c r="H45" s="101"/>
-      <c r="I45" s="101"/>
+      <c r="F45" s="100"/>
+      <c r="G45" s="100"/>
+      <c r="H45" s="100"/>
+      <c r="I45" s="100"/>
     </row>
     <row r="46" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="36"/>
       <c r="D46" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="E46" s="102"/>
-      <c r="F46" s="101"/>
-      <c r="G46" s="101"/>
-      <c r="H46" s="101"/>
-      <c r="I46" s="101"/>
+      <c r="E46" s="101"/>
+      <c r="F46" s="100"/>
+      <c r="G46" s="100"/>
+      <c r="H46" s="100"/>
+      <c r="I46" s="100"/>
     </row>
     <row r="47" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="36"/>
       <c r="D47" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="E47" s="100" t="s">
+      <c r="E47" s="99" t="s">
         <v>151</v>
       </c>
-      <c r="F47" s="101"/>
-      <c r="G47" s="101"/>
-      <c r="H47" s="101"/>
-      <c r="I47" s="101"/>
+      <c r="F47" s="100"/>
+      <c r="G47" s="100"/>
+      <c r="H47" s="100"/>
+      <c r="I47" s="100"/>
     </row>
     <row r="48" spans="3:9" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37"/>
       <c r="D48" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="E48" s="100" t="s">
+      <c r="E48" s="99" t="s">
         <v>151</v>
       </c>
-      <c r="F48" s="101"/>
-      <c r="G48" s="101"/>
-      <c r="H48" s="101"/>
-      <c r="I48" s="101"/>
+      <c r="F48" s="100"/>
+      <c r="G48" s="100"/>
+      <c r="H48" s="100"/>
+      <c r="I48" s="100"/>
     </row>
     <row r="49" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="45" t="s">
@@ -8604,88 +8690,88 @@
       <c r="D49" s="44" t="s">
         <v>67</v>
       </c>
-      <c r="E49" s="102"/>
-      <c r="F49" s="102"/>
-      <c r="G49" s="102"/>
-      <c r="H49" s="102"/>
-      <c r="I49" s="102"/>
+      <c r="E49" s="101"/>
+      <c r="F49" s="101"/>
+      <c r="G49" s="101"/>
+      <c r="H49" s="101"/>
+      <c r="I49" s="101"/>
     </row>
     <row r="50" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="61"/>
       <c r="D50" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="E50" s="102"/>
-      <c r="F50" s="102"/>
-      <c r="G50" s="102"/>
-      <c r="H50" s="102"/>
-      <c r="I50" s="102"/>
+      <c r="E50" s="101"/>
+      <c r="F50" s="101"/>
+      <c r="G50" s="101"/>
+      <c r="H50" s="101"/>
+      <c r="I50" s="101"/>
     </row>
     <row r="51" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="61"/>
       <c r="D51" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="E51" s="102"/>
-      <c r="F51" s="102"/>
-      <c r="G51" s="102"/>
-      <c r="H51" s="102"/>
-      <c r="I51" s="102"/>
+      <c r="E51" s="101"/>
+      <c r="F51" s="101"/>
+      <c r="G51" s="101"/>
+      <c r="H51" s="101"/>
+      <c r="I51" s="101"/>
     </row>
     <row r="52" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="61"/>
       <c r="D52" s="44" t="s">
         <v>70</v>
       </c>
-      <c r="E52" s="102"/>
-      <c r="F52" s="102"/>
-      <c r="G52" s="102"/>
-      <c r="H52" s="102"/>
-      <c r="I52" s="102"/>
+      <c r="E52" s="101"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="101"/>
+      <c r="H52" s="101"/>
+      <c r="I52" s="101"/>
     </row>
     <row r="53" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="61"/>
       <c r="D53" s="44" t="s">
         <v>71</v>
       </c>
-      <c r="E53" s="102"/>
-      <c r="F53" s="102"/>
-      <c r="G53" s="102"/>
-      <c r="H53" s="102"/>
-      <c r="I53" s="102"/>
+      <c r="E53" s="101"/>
+      <c r="F53" s="101"/>
+      <c r="G53" s="101"/>
+      <c r="H53" s="101"/>
+      <c r="I53" s="101"/>
     </row>
     <row r="54" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="61"/>
       <c r="D54" s="44" t="s">
         <v>72</v>
       </c>
-      <c r="E54" s="102"/>
-      <c r="F54" s="102"/>
-      <c r="G54" s="102"/>
-      <c r="H54" s="102"/>
-      <c r="I54" s="102"/>
+      <c r="E54" s="101"/>
+      <c r="F54" s="101"/>
+      <c r="G54" s="101"/>
+      <c r="H54" s="101"/>
+      <c r="I54" s="101"/>
     </row>
     <row r="55" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="61"/>
       <c r="D55" s="44" t="s">
         <v>73</v>
       </c>
-      <c r="E55" s="102"/>
-      <c r="F55" s="102"/>
-      <c r="G55" s="102"/>
-      <c r="H55" s="102"/>
-      <c r="I55" s="102"/>
+      <c r="E55" s="101"/>
+      <c r="F55" s="101"/>
+      <c r="G55" s="101"/>
+      <c r="H55" s="101"/>
+      <c r="I55" s="101"/>
     </row>
     <row r="56" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="62"/>
       <c r="D56" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="E56" s="102"/>
-      <c r="F56" s="102"/>
-      <c r="G56" s="102"/>
-      <c r="H56" s="102"/>
-      <c r="I56" s="102"/>
+      <c r="E56" s="101"/>
+      <c r="F56" s="101"/>
+      <c r="G56" s="101"/>
+      <c r="H56" s="101"/>
+      <c r="I56" s="101"/>
     </row>
     <row r="57" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="47" t="s">
@@ -8694,182 +8780,182 @@
       <c r="D57" s="46" t="s">
         <v>76</v>
       </c>
-      <c r="E57" s="104">
+      <c r="E57" s="103">
         <v>1</v>
       </c>
-      <c r="F57" s="104" t="s">
+      <c r="F57" s="103" t="s">
         <v>130</v>
       </c>
-      <c r="G57" s="102"/>
-      <c r="H57" s="102"/>
-      <c r="I57" s="102"/>
+      <c r="G57" s="101"/>
+      <c r="H57" s="101"/>
+      <c r="I57" s="101"/>
     </row>
     <row r="58" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="48"/>
-      <c r="D58" s="92" t="s">
+      <c r="D58" s="91" t="s">
         <v>152</v>
       </c>
-      <c r="E58" s="104">
+      <c r="E58" s="103">
         <v>1</v>
       </c>
-      <c r="F58" s="104" t="s">
+      <c r="F58" s="103" t="s">
         <v>130</v>
       </c>
-      <c r="G58" s="102"/>
-      <c r="H58" s="102"/>
-      <c r="I58" s="102"/>
+      <c r="G58" s="101"/>
+      <c r="H58" s="101"/>
+      <c r="I58" s="101"/>
     </row>
     <row r="59" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="91"/>
+      <c r="C59" s="90"/>
       <c r="D59" s="47" t="s">
         <v>117</v>
       </c>
-      <c r="E59" s="104" t="s">
+      <c r="E59" s="103" t="s">
         <v>88</v>
       </c>
-      <c r="F59" s="104">
+      <c r="F59" s="103">
         <v>4</v>
       </c>
-      <c r="G59" s="104" t="s">
+      <c r="G59" s="103" t="s">
         <v>130</v>
       </c>
-      <c r="H59" s="102"/>
-      <c r="I59" s="102"/>
+      <c r="H59" s="101"/>
+      <c r="I59" s="101"/>
     </row>
     <row r="60" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C60" s="91"/>
+      <c r="C60" s="90"/>
       <c r="D60" s="48"/>
-      <c r="E60" s="104" t="s">
+      <c r="E60" s="103" t="s">
         <v>93</v>
       </c>
-      <c r="F60" s="104" t="s">
+      <c r="F60" s="103" t="s">
         <v>119</v>
       </c>
-      <c r="G60" s="104" t="s">
+      <c r="G60" s="103" t="s">
         <v>130</v>
       </c>
-      <c r="H60" s="102"/>
-      <c r="I60" s="102"/>
+      <c r="H60" s="101"/>
+      <c r="I60" s="101"/>
     </row>
     <row r="61" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C61" s="91"/>
-      <c r="D61" s="91"/>
-      <c r="E61" s="105" t="s">
+      <c r="C61" s="90"/>
+      <c r="D61" s="90"/>
+      <c r="E61" s="104" t="s">
         <v>118</v>
       </c>
-      <c r="F61" s="104" t="s">
+      <c r="F61" s="103" t="s">
         <v>133</v>
       </c>
-      <c r="G61" s="104">
+      <c r="G61" s="103">
         <v>17</v>
       </c>
-      <c r="H61" s="104" t="s">
+      <c r="H61" s="103" t="s">
         <v>130</v>
       </c>
-      <c r="I61" s="102"/>
+      <c r="I61" s="101"/>
     </row>
     <row r="62" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C62" s="91"/>
-      <c r="D62" s="91"/>
-      <c r="E62" s="106"/>
-      <c r="F62" s="104" t="s">
+      <c r="C62" s="90"/>
+      <c r="D62" s="90"/>
+      <c r="E62" s="105"/>
+      <c r="F62" s="103" t="s">
         <v>132</v>
       </c>
-      <c r="G62" s="104">
+      <c r="G62" s="103">
         <v>13</v>
       </c>
-      <c r="H62" s="104" t="s">
+      <c r="H62" s="103" t="s">
         <v>130</v>
       </c>
-      <c r="I62" s="102"/>
+      <c r="I62" s="101"/>
     </row>
     <row r="63" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C63" s="91"/>
+      <c r="C63" s="90"/>
       <c r="D63" s="48"/>
-      <c r="E63" s="108" t="s">
+      <c r="E63" s="107" t="s">
         <v>115</v>
       </c>
-      <c r="F63" s="104">
+      <c r="F63" s="103">
         <v>1</v>
       </c>
-      <c r="G63" s="107" t="s">
+      <c r="G63" s="106" t="s">
         <v>130</v>
       </c>
-      <c r="H63" s="102"/>
-      <c r="I63" s="102"/>
+      <c r="H63" s="101"/>
+      <c r="I63" s="101"/>
     </row>
     <row r="64" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C64" s="91"/>
+      <c r="C64" s="90"/>
       <c r="D64" s="48"/>
-      <c r="E64" s="104" t="s">
+      <c r="E64" s="103" t="s">
         <v>89</v>
       </c>
-      <c r="F64" s="104"/>
-      <c r="G64" s="102"/>
-      <c r="H64" s="102"/>
-      <c r="I64" s="102"/>
-    </row>
-    <row r="65" spans="3:12" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C65" s="91"/>
+      <c r="F64" s="103"/>
+      <c r="G64" s="101"/>
+      <c r="H64" s="101"/>
+      <c r="I64" s="101"/>
+    </row>
+    <row r="65" spans="3:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C65" s="90"/>
       <c r="D65" s="49"/>
-      <c r="E65" s="104" t="s">
+      <c r="E65" s="103" t="s">
         <v>116</v>
       </c>
-      <c r="F65" s="104">
+      <c r="F65" s="103">
         <v>1</v>
       </c>
-      <c r="G65" s="103" t="s">
+      <c r="G65" s="102" t="s">
         <v>130</v>
       </c>
-      <c r="H65" s="102"/>
-      <c r="I65" s="102"/>
-    </row>
-    <row r="66" spans="3:12" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="H65" s="101"/>
+      <c r="I65" s="101"/>
+    </row>
+    <row r="66" spans="3:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="48"/>
-      <c r="D66" s="93" t="s">
+      <c r="D66" s="92" t="s">
         <v>153</v>
       </c>
-      <c r="E66" s="104">
+      <c r="E66" s="103">
         <v>1</v>
       </c>
-      <c r="F66" s="104" t="s">
+      <c r="F66" s="103" t="s">
         <v>130</v>
       </c>
-      <c r="G66" s="102"/>
-      <c r="H66" s="102"/>
-      <c r="I66" s="102"/>
-    </row>
-    <row r="67" spans="3:12" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G66" s="101"/>
+      <c r="H66" s="101"/>
+      <c r="I66" s="101"/>
+    </row>
+    <row r="67" spans="3:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C67" s="48"/>
       <c r="D67" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="E67" s="104">
+      <c r="E67" s="103">
         <v>1</v>
       </c>
-      <c r="F67" s="104" t="s">
+      <c r="F67" s="103" t="s">
         <v>130</v>
       </c>
-      <c r="G67" s="102"/>
-      <c r="H67" s="102"/>
-      <c r="I67" s="102"/>
-    </row>
-    <row r="68" spans="3:12" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G67" s="101"/>
+      <c r="H67" s="101"/>
+      <c r="I67" s="101"/>
+    </row>
+    <row r="68" spans="3:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C68" s="49"/>
       <c r="D68" s="46" t="s">
         <v>77</v>
       </c>
-      <c r="E68" s="107">
+      <c r="E68" s="106">
         <v>1</v>
       </c>
-      <c r="F68" s="107" t="s">
+      <c r="F68" s="106" t="s">
         <v>130</v>
       </c>
-      <c r="G68" s="102"/>
-      <c r="H68" s="102"/>
-      <c r="I68" s="102"/>
-    </row>
-    <row r="69" spans="3:12" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G68" s="101"/>
+      <c r="H68" s="101"/>
+      <c r="I68" s="101"/>
+    </row>
+    <row r="69" spans="3:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C69" s="51" t="s">
         <v>106</v>
       </c>
@@ -8879,12 +8965,12 @@
       <c r="E69" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="F69" s="102"/>
-      <c r="G69" s="102"/>
-      <c r="H69" s="102"/>
-      <c r="I69" s="102"/>
-    </row>
-    <row r="70" spans="3:12" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F69" s="101"/>
+      <c r="G69" s="101"/>
+      <c r="H69" s="101"/>
+      <c r="I69" s="101"/>
+    </row>
+    <row r="70" spans="3:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C70" s="53"/>
       <c r="D70" s="52" t="s">
         <v>79</v>
@@ -8892,12 +8978,12 @@
       <c r="E70" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="F70" s="102"/>
-      <c r="G70" s="102"/>
-      <c r="H70" s="102"/>
-      <c r="I70" s="102"/>
-    </row>
-    <row r="71" spans="3:12" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F70" s="101"/>
+      <c r="G70" s="101"/>
+      <c r="H70" s="101"/>
+      <c r="I70" s="101"/>
+    </row>
+    <row r="71" spans="3:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C71" s="53"/>
       <c r="D71" s="52" t="s">
         <v>80</v>
@@ -8905,27 +8991,31 @@
       <c r="E71" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="F71" s="102"/>
-      <c r="G71" s="110"/>
-      <c r="H71" s="102"/>
-      <c r="I71" s="102"/>
-    </row>
-    <row r="72" spans="3:12" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="F71" s="101"/>
+      <c r="G71" s="109"/>
+      <c r="H71" s="101"/>
+      <c r="I71" s="101"/>
+    </row>
+    <row r="72" spans="3:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C72" s="53"/>
       <c r="D72" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="E72" s="109">
+      <c r="E72" s="108">
         <v>3</v>
       </c>
-      <c r="F72" s="109" t="s">
+      <c r="F72" s="108" t="s">
         <v>130</v>
       </c>
-      <c r="G72" s="102"/>
-      <c r="H72" s="102"/>
-      <c r="I72" s="102"/>
-    </row>
-    <row r="73" spans="3:12" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G72" s="108" t="s">
+        <v>327</v>
+      </c>
+      <c r="H72" s="108" t="s">
+        <v>328</v>
+      </c>
+      <c r="I72" s="101"/>
+    </row>
+    <row r="73" spans="3:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C73" s="54"/>
       <c r="D73" s="52" t="s">
         <v>82</v>
@@ -8933,36 +9023,36 @@
       <c r="E73" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="F73" s="102"/>
-      <c r="G73" s="102"/>
-      <c r="H73" s="102"/>
-      <c r="I73" s="102"/>
-    </row>
-    <row r="74" spans="3:12" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C74" s="75" t="s">
+      <c r="F73" s="101"/>
+      <c r="G73" s="101"/>
+      <c r="H73" s="101"/>
+      <c r="I73" s="101"/>
+    </row>
+    <row r="74" spans="3:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="74" t="s">
         <v>107</v>
       </c>
       <c r="D74" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="G74" s="71"/>
-    </row>
-    <row r="75" spans="3:12" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C75" s="76"/>
+      <c r="G74" s="70"/>
+    </row>
+    <row r="75" spans="3:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="75"/>
       <c r="D75" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="E75" s="257">
+      <c r="E75" s="188">
         <v>3</v>
       </c>
       <c r="F75" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="G75" s="71"/>
-    </row>
-    <row r="76" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C76" s="77"/>
-      <c r="D76" s="246" t="s">
+      <c r="G75" s="70"/>
+    </row>
+    <row r="76" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C76" s="76"/>
+      <c r="D76" s="271" t="s">
         <v>85</v>
       </c>
       <c r="E76" s="59" t="s">
@@ -8971,349 +9061,372 @@
       <c r="F76" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="G76" s="72"/>
-      <c r="H76" s="72"/>
-    </row>
-    <row r="77" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C77" s="77"/>
-      <c r="D77" s="247"/>
-      <c r="E77" s="258"/>
-      <c r="F77" s="259" t="s">
+      <c r="G76" s="71"/>
+      <c r="H76" s="71"/>
+    </row>
+    <row r="77" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C77" s="76"/>
+      <c r="D77" s="272"/>
+      <c r="E77" s="189"/>
+      <c r="F77" s="190" t="s">
         <v>87</v>
       </c>
-      <c r="G77" s="260"/>
-      <c r="H77" s="260"/>
-    </row>
-    <row r="78" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C78" s="77"/>
-      <c r="D78" s="261"/>
-      <c r="E78" s="272" t="s">
+      <c r="G77" s="191"/>
+      <c r="H77" s="191"/>
+    </row>
+    <row r="78" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C78" s="76"/>
+      <c r="D78" s="273"/>
+      <c r="E78" s="275" t="s">
         <v>93</v>
       </c>
-      <c r="F78" s="273" t="s">
+      <c r="F78" s="199" t="s">
         <v>86</v>
       </c>
-      <c r="G78" s="273">
+      <c r="G78" s="199">
         <v>15</v>
       </c>
-      <c r="H78" s="273" t="s">
+      <c r="H78" s="199" t="s">
         <v>130</v>
       </c>
-      <c r="I78" s="273" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="79" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C79" s="77"/>
-      <c r="D79" s="261"/>
-      <c r="E79" s="272"/>
-      <c r="F79" s="272" t="s">
+      <c r="I78" s="199" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="79" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C79" s="76"/>
+      <c r="D79" s="273"/>
+      <c r="E79" s="275"/>
+      <c r="F79" s="275" t="s">
         <v>87</v>
       </c>
-      <c r="G79" s="272" t="s">
-        <v>315</v>
-      </c>
-      <c r="H79" s="274" t="s">
+      <c r="G79" s="275" t="s">
+        <v>310</v>
+      </c>
+      <c r="H79" s="200" t="s">
         <v>93</v>
       </c>
-      <c r="I79" s="274">
+      <c r="I79" s="200">
         <v>29</v>
       </c>
-      <c r="J79" s="274" t="s">
-        <v>316</v>
-      </c>
-      <c r="K79" s="272">
+      <c r="J79" s="200" t="s">
+        <v>311</v>
+      </c>
+      <c r="K79" s="275">
         <f>SUM(I79:I84)</f>
         <v>117</v>
       </c>
-      <c r="L79" s="272" t="s">
+      <c r="L79" s="275" t="s">
+        <v>327</v>
+      </c>
+      <c r="M79" s="275" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="80" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C80" s="76"/>
+      <c r="D80" s="273"/>
+      <c r="E80" s="275"/>
+      <c r="F80" s="275"/>
+      <c r="G80" s="275"/>
+      <c r="H80" s="200" t="s">
+        <v>312</v>
+      </c>
+      <c r="I80" s="200">
+        <v>27</v>
+      </c>
+      <c r="J80" s="200" t="s">
+        <v>311</v>
+      </c>
+      <c r="K80" s="275"/>
+      <c r="L80" s="275"/>
+      <c r="M80" s="275"/>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C81" s="76"/>
+      <c r="D81" s="273"/>
+      <c r="E81" s="275"/>
+      <c r="F81" s="275"/>
+      <c r="G81" s="275"/>
+      <c r="H81" s="200" t="s">
+        <v>313</v>
+      </c>
+      <c r="I81" s="200">
+        <v>17</v>
+      </c>
+      <c r="J81" s="200" t="s">
+        <v>311</v>
+      </c>
+      <c r="K81" s="275"/>
+      <c r="L81" s="275"/>
+      <c r="M81" s="275"/>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C82" s="76"/>
+      <c r="D82" s="273"/>
+      <c r="E82" s="275"/>
+      <c r="F82" s="275"/>
+      <c r="G82" s="275"/>
+      <c r="H82" s="200" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="80" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C80" s="77"/>
-      <c r="D80" s="261"/>
-      <c r="E80" s="272"/>
-      <c r="F80" s="272"/>
-      <c r="G80" s="272"/>
-      <c r="H80" s="274" t="s">
+      <c r="I82" s="200">
+        <v>15</v>
+      </c>
+      <c r="J82" s="200" t="s">
+        <v>311</v>
+      </c>
+      <c r="K82" s="275"/>
+      <c r="L82" s="275"/>
+      <c r="M82" s="275"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C83" s="76"/>
+      <c r="D83" s="273"/>
+      <c r="E83" s="275"/>
+      <c r="F83" s="275"/>
+      <c r="G83" s="275"/>
+      <c r="H83" s="200" t="s">
+        <v>315</v>
+      </c>
+      <c r="I83" s="200">
+        <v>13</v>
+      </c>
+      <c r="J83" s="200" t="s">
+        <v>311</v>
+      </c>
+      <c r="K83" s="275"/>
+      <c r="L83" s="275"/>
+      <c r="M83" s="275"/>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C84" s="76"/>
+      <c r="D84" s="273"/>
+      <c r="E84" s="275"/>
+      <c r="F84" s="275"/>
+      <c r="G84" s="275"/>
+      <c r="H84" s="200" t="s">
+        <v>316</v>
+      </c>
+      <c r="I84" s="200">
+        <v>16</v>
+      </c>
+      <c r="J84" s="200" t="s">
+        <v>311</v>
+      </c>
+      <c r="K84" s="275"/>
+      <c r="L84" s="275"/>
+      <c r="M84" s="275"/>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C85" s="76"/>
+      <c r="D85" s="273"/>
+      <c r="E85" s="275"/>
+      <c r="F85" s="275"/>
+      <c r="G85" s="200" t="s">
         <v>317</v>
       </c>
-      <c r="I80" s="274">
-        <v>27</v>
-      </c>
-      <c r="J80" s="274" t="s">
-        <v>316</v>
-      </c>
-      <c r="K80" s="272"/>
-      <c r="L80" s="272"/>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C81" s="77"/>
-      <c r="D81" s="261"/>
-      <c r="E81" s="272"/>
-      <c r="F81" s="272"/>
-      <c r="G81" s="272"/>
-      <c r="H81" s="274" t="s">
+      <c r="H85" s="200">
+        <v>6</v>
+      </c>
+      <c r="I85" s="200" t="s">
+        <v>311</v>
+      </c>
+      <c r="J85" s="200" t="s">
+        <v>327</v>
+      </c>
+      <c r="K85" s="200" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C86" s="76"/>
+      <c r="D86" s="272"/>
+      <c r="E86" s="192" t="s">
+        <v>92</v>
+      </c>
+      <c r="F86" s="193" t="s">
+        <v>86</v>
+      </c>
+      <c r="G86" s="194">
+        <v>24</v>
+      </c>
+      <c r="H86" s="195" t="s">
+        <v>130</v>
+      </c>
+      <c r="I86" s="196" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C87" s="76"/>
+      <c r="D87" s="272"/>
+      <c r="E87" s="192"/>
+      <c r="F87" s="281" t="s">
+        <v>87</v>
+      </c>
+      <c r="G87" s="197" t="s">
         <v>318</v>
       </c>
-      <c r="I81" s="274">
-        <v>17</v>
-      </c>
-      <c r="J81" s="274" t="s">
-        <v>316</v>
-      </c>
-      <c r="K81" s="272"/>
-      <c r="L81" s="272"/>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C82" s="77"/>
-      <c r="D82" s="261"/>
-      <c r="E82" s="272"/>
-      <c r="F82" s="272"/>
-      <c r="G82" s="272"/>
-      <c r="H82" s="274" t="s">
+      <c r="H87" s="197">
+        <v>3</v>
+      </c>
+      <c r="I87" s="196" t="s">
+        <v>311</v>
+      </c>
+      <c r="J87" s="196" t="s">
+        <v>327</v>
+      </c>
+      <c r="K87" s="196" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C88" s="76"/>
+      <c r="D88" s="272"/>
+      <c r="E88" s="192"/>
+      <c r="F88" s="282"/>
+      <c r="G88" s="197" t="s">
+        <v>317</v>
+      </c>
+      <c r="H88" s="197">
+        <v>5</v>
+      </c>
+      <c r="I88" s="196" t="s">
+        <v>311</v>
+      </c>
+      <c r="J88" s="196" t="s">
+        <v>327</v>
+      </c>
+      <c r="K88" s="196" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C89" s="76"/>
+      <c r="D89" s="272"/>
+      <c r="E89" s="198"/>
+      <c r="F89" s="283"/>
+      <c r="G89" s="197" t="s">
         <v>319</v>
       </c>
-      <c r="I82" s="274">
-        <v>15</v>
-      </c>
-      <c r="J82" s="274" t="s">
-        <v>316</v>
-      </c>
-      <c r="K82" s="272"/>
-      <c r="L82" s="272"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C83" s="77"/>
-      <c r="D83" s="261"/>
-      <c r="E83" s="272"/>
-      <c r="F83" s="272"/>
-      <c r="G83" s="272"/>
-      <c r="H83" s="274" t="s">
-        <v>320</v>
-      </c>
-      <c r="I83" s="274">
-        <v>13</v>
-      </c>
-      <c r="J83" s="274" t="s">
-        <v>316</v>
-      </c>
-      <c r="K83" s="272"/>
-      <c r="L83" s="272"/>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C84" s="77"/>
-      <c r="D84" s="261"/>
-      <c r="E84" s="272"/>
-      <c r="F84" s="272"/>
-      <c r="G84" s="272"/>
-      <c r="H84" s="274" t="s">
-        <v>321</v>
-      </c>
-      <c r="I84" s="274">
-        <v>16</v>
-      </c>
-      <c r="J84" s="274" t="s">
-        <v>316</v>
-      </c>
-      <c r="K84" s="272"/>
-      <c r="L84" s="272"/>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C85" s="77"/>
-      <c r="D85" s="261"/>
-      <c r="E85" s="272"/>
-      <c r="F85" s="272"/>
-      <c r="G85" s="274" t="s">
-        <v>322</v>
-      </c>
-      <c r="H85" s="274">
-        <v>6</v>
-      </c>
-      <c r="I85" s="274" t="s">
-        <v>316</v>
-      </c>
-      <c r="J85" s="274" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C86" s="77"/>
-      <c r="D86" s="247"/>
-      <c r="E86" s="262" t="s">
-        <v>92</v>
-      </c>
-      <c r="F86" s="263" t="s">
+      <c r="H89" s="197">
+        <v>1</v>
+      </c>
+      <c r="I89" s="196" t="s">
+        <v>311</v>
+      </c>
+      <c r="J89" s="196" t="s">
+        <v>327</v>
+      </c>
+      <c r="K89" s="196" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C90" s="76"/>
+      <c r="D90" s="272"/>
+      <c r="E90" s="201" t="s">
+        <v>89</v>
+      </c>
+      <c r="F90" s="202" t="s">
         <v>86</v>
       </c>
-      <c r="G86" s="264">
-        <v>24</v>
-      </c>
-      <c r="H86" s="265" t="s">
+      <c r="G90" s="203">
+        <v>4</v>
+      </c>
+      <c r="H90" s="203" t="s">
         <v>130</v>
       </c>
-      <c r="I86" s="266" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C87" s="77"/>
-      <c r="D87" s="247"/>
-      <c r="E87" s="262"/>
-      <c r="F87" s="267" t="s">
-        <v>87</v>
-      </c>
-      <c r="G87" s="268" t="s">
-        <v>323</v>
-      </c>
-      <c r="H87" s="268">
-        <v>3</v>
-      </c>
-      <c r="I87" s="266" t="s">
-        <v>316</v>
-      </c>
-      <c r="J87" s="266" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C88" s="77"/>
-      <c r="D88" s="247"/>
-      <c r="E88" s="262"/>
-      <c r="F88" s="269"/>
-      <c r="G88" s="268" t="s">
-        <v>322</v>
-      </c>
-      <c r="H88" s="268">
-        <v>5</v>
-      </c>
-      <c r="I88" s="266" t="s">
-        <v>316</v>
-      </c>
-      <c r="J88" s="266" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C89" s="77"/>
-      <c r="D89" s="247"/>
-      <c r="E89" s="270"/>
-      <c r="F89" s="271"/>
-      <c r="G89" s="268" t="s">
-        <v>324</v>
-      </c>
-      <c r="H89" s="268">
-        <v>1</v>
-      </c>
-      <c r="I89" s="266" t="s">
-        <v>316</v>
-      </c>
-      <c r="J89" s="266" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C90" s="77"/>
-      <c r="D90" s="247"/>
-      <c r="E90" s="275" t="s">
-        <v>89</v>
-      </c>
-      <c r="F90" s="276" t="s">
-        <v>86</v>
-      </c>
-      <c r="G90" s="277">
-        <v>4</v>
-      </c>
-      <c r="H90" s="277" t="s">
-        <v>130</v>
-      </c>
-      <c r="I90" s="282" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C91" s="77"/>
-      <c r="D91" s="247"/>
-      <c r="E91" s="278"/>
+      <c r="I90" s="204" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C91" s="76"/>
+      <c r="D91" s="272"/>
+      <c r="E91" s="277"/>
       <c r="F91" s="279" t="s">
         <v>87</v>
       </c>
-      <c r="G91" s="277" t="s">
-        <v>322</v>
-      </c>
-      <c r="H91" s="277">
+      <c r="G91" s="203" t="s">
+        <v>317</v>
+      </c>
+      <c r="H91" s="203">
         <v>6</v>
       </c>
-      <c r="I91" s="283" t="s">
-        <v>316</v>
-      </c>
-      <c r="J91" s="283" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C92" s="77"/>
-      <c r="D92" s="247"/>
-      <c r="E92" s="280"/>
-      <c r="F92" s="281"/>
-      <c r="G92" s="277"/>
-      <c r="H92" s="277"/>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C93" s="77"/>
-      <c r="D93" s="247"/>
+      <c r="I91" s="205" t="s">
+        <v>311</v>
+      </c>
+      <c r="J91" s="205" t="s">
+        <v>327</v>
+      </c>
+      <c r="K91" s="205" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C92" s="76"/>
+      <c r="D92" s="272"/>
+      <c r="E92" s="278"/>
+      <c r="F92" s="280"/>
+      <c r="G92" s="203"/>
+      <c r="H92" s="203"/>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C93" s="76"/>
+      <c r="D93" s="272"/>
       <c r="E93" s="59" t="s">
         <v>90</v>
       </c>
       <c r="F93" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="G93" s="72"/>
-      <c r="H93" s="72"/>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C94" s="77"/>
-      <c r="D94" s="247"/>
+      <c r="G93" s="71"/>
+      <c r="H93" s="71"/>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C94" s="76"/>
+      <c r="D94" s="272"/>
       <c r="E94" s="60"/>
       <c r="F94" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="G94" s="72"/>
-      <c r="H94" s="72"/>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C95" s="77"/>
-      <c r="D95" s="247"/>
-      <c r="E95" s="73" t="s">
+      <c r="G94" s="71"/>
+      <c r="H94" s="71"/>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C95" s="76"/>
+      <c r="D95" s="272"/>
+      <c r="E95" s="72" t="s">
         <v>91</v>
       </c>
       <c r="F95" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="G95" s="72"/>
-      <c r="H95" s="72"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C96" s="77"/>
-      <c r="D96" s="248"/>
+      <c r="G95" s="71"/>
+      <c r="H95" s="71"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C96" s="76"/>
+      <c r="D96" s="274"/>
       <c r="E96" s="60"/>
       <c r="F96" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="G96" s="72"/>
-      <c r="H96" s="72"/>
+      <c r="G96" s="71"/>
+      <c r="H96" s="71"/>
     </row>
     <row r="97" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C97" s="77"/>
+      <c r="C97" s="76"/>
       <c r="D97" s="60" t="s">
         <v>96</v>
       </c>
       <c r="G97"/>
     </row>
     <row r="98" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C98" s="77"/>
-      <c r="D98" s="185" t="s">
+      <c r="C98" s="76"/>
+      <c r="D98" s="184" t="s">
         <v>149</v>
       </c>
       <c r="E98" s="58" t="s">
@@ -9322,73 +9435,74 @@
       <c r="G98"/>
     </row>
     <row r="99" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C99" s="77"/>
-      <c r="D99" s="185" t="s">
+      <c r="C99" s="76"/>
+      <c r="D99" s="184" t="s">
         <v>150</v>
       </c>
-      <c r="E99" s="185" t="s">
+      <c r="E99" s="184" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="100" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C100" s="251" t="s">
+      <c r="C100" s="276" t="s">
         <v>120</v>
       </c>
-      <c r="D100" s="95" t="s">
+      <c r="D100" s="94" t="s">
         <v>128</v>
       </c>
-      <c r="E100" s="186">
+      <c r="E100" s="185">
         <v>1</v>
       </c>
-      <c r="F100" s="186" t="s">
+      <c r="F100" s="185" t="s">
         <v>134</v>
       </c>
-      <c r="G100" s="112" t="s">
+      <c r="G100" s="111" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="101" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C101" s="251"/>
-      <c r="D101" s="95" t="s">
+      <c r="C101" s="276"/>
+      <c r="D101" s="94" t="s">
         <v>127</v>
       </c>
-      <c r="E101" s="186"/>
-      <c r="F101" s="186"/>
+      <c r="E101" s="185"/>
+      <c r="F101" s="185"/>
     </row>
     <row r="102" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C102" s="251"/>
-      <c r="D102" s="95" t="s">
+      <c r="C102" s="276"/>
+      <c r="D102" s="94" t="s">
         <v>146</v>
       </c>
-      <c r="E102" s="186"/>
-      <c r="F102" s="186"/>
+      <c r="E102" s="185"/>
+      <c r="F102" s="185"/>
     </row>
     <row r="103" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C103" s="251"/>
-      <c r="D103" s="95" t="s">
+      <c r="C103" s="276"/>
+      <c r="D103" s="94" t="s">
         <v>147</v>
       </c>
-      <c r="E103" s="186"/>
-      <c r="F103" s="186"/>
+      <c r="E103" s="185"/>
+      <c r="F103" s="185"/>
     </row>
     <row r="104" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C104" s="251"/>
-      <c r="D104" s="95" t="s">
+      <c r="C104" s="276"/>
+      <c r="D104" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="E104" s="186"/>
-      <c r="F104" s="186"/>
+      <c r="E104" s="185"/>
+      <c r="F104" s="185"/>
     </row>
     <row r="105" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C105" s="251"/>
-      <c r="D105" s="95" t="s">
+      <c r="C105" s="276"/>
+      <c r="D105" s="94" t="s">
         <v>103</v>
       </c>
-      <c r="E105" s="186"/>
-      <c r="F105" s="186"/>
+      <c r="E105" s="185"/>
+      <c r="F105" s="185"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="13">
+    <mergeCell ref="M79:M84"/>
     <mergeCell ref="K79:K84"/>
     <mergeCell ref="L79:L84"/>
     <mergeCell ref="C100:C105"/>
@@ -9407,7 +9521,7 @@
     <hyperlink ref="E27" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -9415,51 +9529,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:O1"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="9" max="15" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A1" s="159" t="s">
+      <c r="A1" s="158" t="s">
         <v>294</v>
       </c>
-      <c r="B1" s="159"/>
-      <c r="C1" s="159"/>
-      <c r="E1" s="254" t="s">
+      <c r="B1" s="158"/>
+      <c r="C1" s="158"/>
+      <c r="F1" s="206"/>
+      <c r="G1" s="206"/>
+      <c r="H1" s="206"/>
+      <c r="I1" s="286" t="s">
         <v>294</v>
       </c>
-      <c r="F1" s="255"/>
-      <c r="G1" s="255"/>
-      <c r="H1" s="255"/>
-      <c r="I1" s="255"/>
-      <c r="J1" s="255"/>
-      <c r="K1" s="255"/>
-      <c r="L1" s="255"/>
-      <c r="M1" s="255"/>
-      <c r="N1" s="255"/>
-      <c r="O1" s="256"/>
+      <c r="J1" s="287"/>
+      <c r="K1" s="287"/>
+      <c r="L1" s="287"/>
+      <c r="M1" s="287"/>
+      <c r="N1" s="287"/>
+      <c r="O1" s="288"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E2" s="253"/>
-      <c r="F2" s="253"/>
-      <c r="G2" s="253"/>
-      <c r="H2" s="253"/>
-      <c r="I2" s="253" t="s">
-        <v>304</v>
-      </c>
-      <c r="J2" s="253" t="s">
-        <v>305</v>
-      </c>
-      <c r="K2" s="253"/>
-      <c r="L2" s="253"/>
-      <c r="M2" s="253"/>
-      <c r="N2" s="253"/>
-      <c r="O2" s="253"/>
+      <c r="E2" s="187"/>
+      <c r="F2" s="187"/>
+      <c r="G2" s="187"/>
+      <c r="H2" s="187"/>
+      <c r="I2" s="291" t="s">
+        <v>325</v>
+      </c>
+      <c r="J2" s="292"/>
+      <c r="K2" s="292"/>
+      <c r="L2" s="292"/>
+      <c r="M2" s="292"/>
+      <c r="N2" s="292"/>
+      <c r="O2" s="293"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -9468,31 +9580,33 @@
       <c r="B3">
         <v>34</v>
       </c>
-      <c r="E3" s="253" t="s">
+      <c r="E3" s="187" t="s">
         <v>291</v>
       </c>
-      <c r="F3" s="253">
+      <c r="F3" s="187">
         <v>34</v>
       </c>
-      <c r="G3" s="253"/>
-      <c r="H3" s="253"/>
-      <c r="I3" s="253" t="s">
+      <c r="G3" s="187"/>
+      <c r="H3" s="187"/>
+      <c r="I3" s="289" t="s">
+        <v>304</v>
+      </c>
+      <c r="J3" s="290"/>
+      <c r="K3" s="208" t="s">
+        <v>305</v>
+      </c>
+      <c r="L3" s="208" t="s">
         <v>306</v>
       </c>
-      <c r="J3" s="253"/>
-      <c r="K3" s="253" t="s">
+      <c r="M3" s="208" t="s">
         <v>307</v>
       </c>
-      <c r="L3" s="253" t="s">
+      <c r="N3" s="208" t="s">
         <v>308</v>
       </c>
-      <c r="M3" s="253" t="s">
-        <v>309</v>
-      </c>
-      <c r="N3" s="253" t="s">
-        <v>310</v>
-      </c>
-      <c r="O3" s="253"/>
+      <c r="O3" s="208" t="s">
+        <v>320</v>
+      </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -9504,64 +9618,72 @@
       <c r="C4" t="s">
         <v>293</v>
       </c>
-      <c r="E4" s="253" t="s">
+      <c r="E4" s="187" t="s">
         <v>292</v>
       </c>
-      <c r="F4" s="253">
+      <c r="F4" s="187">
         <v>35</v>
       </c>
-      <c r="G4" s="253" t="s">
+      <c r="G4" s="187" t="s">
         <v>293</v>
       </c>
-      <c r="H4" s="253"/>
-      <c r="I4" s="253">
+      <c r="H4" s="187"/>
+      <c r="I4" s="207">
         <v>69</v>
       </c>
-      <c r="J4" s="253">
+      <c r="J4" s="207">
         <v>119</v>
       </c>
-      <c r="K4" s="253">
-        <v>240</v>
-      </c>
-      <c r="L4" s="253">
-        <v>520</v>
-      </c>
-      <c r="M4" s="253">
-        <v>600</v>
-      </c>
-      <c r="N4" s="253">
-        <v>600</v>
-      </c>
-      <c r="O4" s="253">
-        <v>2148</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="E5" s="253"/>
-      <c r="F5" s="253">
+      <c r="K4" s="207">
+        <v>220</v>
+      </c>
+      <c r="L4" s="207">
+        <v>500</v>
+      </c>
+      <c r="M4" s="207">
+        <v>580</v>
+      </c>
+      <c r="N4" s="207">
+        <v>580</v>
+      </c>
+      <c r="O4" s="284">
+        <f>SUM(I4:N4)</f>
+        <v>2068</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="E5" s="187"/>
+      <c r="F5" s="187">
         <v>69</v>
       </c>
-      <c r="G5" s="253"/>
-      <c r="H5" s="253"/>
-      <c r="I5" s="253"/>
-      <c r="J5" s="253"/>
-      <c r="K5" s="253" t="s">
-        <v>311</v>
-      </c>
-      <c r="L5" s="253" t="s">
-        <v>312</v>
-      </c>
-      <c r="M5" s="253" t="s">
-        <v>313</v>
-      </c>
-      <c r="N5" s="253" t="s">
-        <v>313</v>
-      </c>
-      <c r="O5" s="253"/>
+      <c r="G5" s="187"/>
+      <c r="H5" s="187"/>
+      <c r="I5" s="209" t="s">
+        <v>291</v>
+      </c>
+      <c r="J5" s="209" t="s">
+        <v>321</v>
+      </c>
+      <c r="K5" s="209" t="s">
+        <v>324</v>
+      </c>
+      <c r="L5" s="209" t="s">
+        <v>322</v>
+      </c>
+      <c r="M5" s="209" t="s">
+        <v>323</v>
+      </c>
+      <c r="N5" s="209" t="s">
+        <v>323</v>
+      </c>
+      <c r="O5" s="285"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="E1:O1"/>
+  <mergeCells count="4">
+    <mergeCell ref="O4:O5"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="I2:O2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/asset/Control GESPRO.xlsx
+++ b/asset/Control GESPRO.xlsx
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1129" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="332">
   <si>
     <t>Sección</t>
   </si>
@@ -1161,6 +1161,9 @@
   </si>
   <si>
     <t>Json</t>
+  </si>
+  <si>
+    <t>unid</t>
   </si>
 </sst>
 </file>
@@ -1897,7 +1900,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="295">
+  <cellXfs count="298">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2356,12 +2359,93 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2374,83 +2458,77 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2458,77 +2536,32 @@
     <xf numFmtId="0" fontId="1" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -2551,33 +2584,6 @@
     <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2608,8 +2614,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2920,38 +2932,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="212" t="s">
+      <c r="A1" s="239" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="212"/>
-      <c r="C1" s="212"/>
-      <c r="D1" s="212"/>
-      <c r="E1" s="212"/>
-      <c r="F1" s="212"/>
-      <c r="G1" s="212"/>
-      <c r="H1" s="212"/>
-      <c r="I1" s="212"/>
-      <c r="J1" s="212"/>
-      <c r="K1" s="212"/>
-      <c r="L1" s="212"/>
-      <c r="M1" s="212"/>
+      <c r="B1" s="239"/>
+      <c r="C1" s="239"/>
+      <c r="D1" s="239"/>
+      <c r="E1" s="239"/>
+      <c r="F1" s="239"/>
+      <c r="G1" s="239"/>
+      <c r="H1" s="239"/>
+      <c r="I1" s="239"/>
+      <c r="J1" s="239"/>
+      <c r="K1" s="239"/>
+      <c r="L1" s="239"/>
+      <c r="M1" s="239"/>
     </row>
     <row r="2" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="212" t="s">
+      <c r="A2" s="239" t="s">
         <v>295</v>
       </c>
-      <c r="B2" s="212"/>
-      <c r="C2" s="212"/>
-      <c r="D2" s="212"/>
-      <c r="E2" s="212"/>
-      <c r="F2" s="212"/>
-      <c r="G2" s="212"/>
-      <c r="H2" s="212"/>
-      <c r="I2" s="212"/>
-      <c r="J2" s="212"/>
-      <c r="K2" s="212"/>
-      <c r="L2" s="212"/>
-      <c r="M2" s="212"/>
+      <c r="B2" s="239"/>
+      <c r="C2" s="239"/>
+      <c r="D2" s="239"/>
+      <c r="E2" s="239"/>
+      <c r="F2" s="239"/>
+      <c r="G2" s="239"/>
+      <c r="H2" s="239"/>
+      <c r="I2" s="239"/>
+      <c r="J2" s="239"/>
+      <c r="K2" s="239"/>
+      <c r="L2" s="239"/>
+      <c r="M2" s="239"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G3" s="20" t="s">
@@ -2992,24 +3004,24 @@
       <c r="L4" s="22"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G5" s="213" t="s">
+      <c r="G5" s="240" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="214"/>
-      <c r="I5" s="214"/>
-      <c r="J5" s="214"/>
-      <c r="K5" s="214"/>
-      <c r="L5" s="215"/>
+      <c r="H5" s="241"/>
+      <c r="I5" s="241"/>
+      <c r="J5" s="241"/>
+      <c r="K5" s="241"/>
+      <c r="L5" s="242"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G6" s="213" t="s">
+      <c r="G6" s="240" t="s">
         <v>272</v>
       </c>
-      <c r="H6" s="214"/>
-      <c r="I6" s="214"/>
-      <c r="J6" s="214"/>
-      <c r="K6" s="214"/>
-      <c r="L6" s="215"/>
+      <c r="H6" s="241"/>
+      <c r="I6" s="241"/>
+      <c r="J6" s="241"/>
+      <c r="K6" s="241"/>
+      <c r="L6" s="242"/>
     </row>
     <row r="7" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -3053,10 +3065,10 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="228" t="s">
+      <c r="A8" s="211" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="216" t="s">
+      <c r="B8" s="220" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -3083,13 +3095,13 @@
         <v>49</v>
       </c>
       <c r="L8" s="1"/>
-      <c r="M8" s="219" t="s">
+      <c r="M8" s="226" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="229"/>
-      <c r="B9" s="217"/>
+      <c r="A9" s="212"/>
+      <c r="B9" s="221"/>
       <c r="C9" s="8" t="s">
         <v>6</v>
       </c>
@@ -3114,11 +3126,11 @@
         <v>49</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="220"/>
+      <c r="M9" s="227"/>
     </row>
     <row r="10" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="229"/>
-      <c r="B10" s="217"/>
+      <c r="A10" s="212"/>
+      <c r="B10" s="221"/>
       <c r="C10" s="8" t="s">
         <v>7</v>
       </c>
@@ -3143,11 +3155,11 @@
         <v>49</v>
       </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="220"/>
+      <c r="M10" s="227"/>
     </row>
     <row r="11" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="229"/>
-      <c r="B11" s="217"/>
+      <c r="A11" s="212"/>
+      <c r="B11" s="221"/>
       <c r="C11" s="8" t="s">
         <v>8</v>
       </c>
@@ -3172,11 +3184,11 @@
         <v>49</v>
       </c>
       <c r="L11" s="1"/>
-      <c r="M11" s="220"/>
+      <c r="M11" s="227"/>
     </row>
     <row r="12" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="229"/>
-      <c r="B12" s="217"/>
+      <c r="A12" s="212"/>
+      <c r="B12" s="221"/>
       <c r="C12" s="8" t="s">
         <v>9</v>
       </c>
@@ -3201,11 +3213,11 @@
         <v>49</v>
       </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="220"/>
+      <c r="M12" s="227"/>
     </row>
     <row r="13" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="229"/>
-      <c r="B13" s="217"/>
+      <c r="A13" s="212"/>
+      <c r="B13" s="221"/>
       <c r="C13" s="8" t="s">
         <v>10</v>
       </c>
@@ -3230,11 +3242,11 @@
         <v>49</v>
       </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="220"/>
+      <c r="M13" s="227"/>
     </row>
     <row r="14" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="229"/>
-      <c r="B14" s="217"/>
+      <c r="A14" s="212"/>
+      <c r="B14" s="221"/>
       <c r="C14" s="8" t="s">
         <v>11</v>
       </c>
@@ -3259,11 +3271,11 @@
         <v>49</v>
       </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="220"/>
+      <c r="M14" s="227"/>
     </row>
     <row r="15" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="229"/>
-      <c r="B15" s="217"/>
+      <c r="A15" s="212"/>
+      <c r="B15" s="221"/>
       <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
@@ -3288,11 +3300,11 @@
         <v>49</v>
       </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="220"/>
+      <c r="M15" s="227"/>
     </row>
     <row r="16" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="229"/>
-      <c r="B16" s="217"/>
+      <c r="A16" s="212"/>
+      <c r="B16" s="221"/>
       <c r="C16" s="8" t="s">
         <v>13</v>
       </c>
@@ -3317,18 +3329,18 @@
         <v>49</v>
       </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="220"/>
+      <c r="M16" s="227"/>
     </row>
     <row r="17" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="229"/>
-      <c r="B17" s="217"/>
-      <c r="C17" s="222" t="s">
+      <c r="A17" s="212"/>
+      <c r="B17" s="221"/>
+      <c r="C17" s="214" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="9">
         <v>31</v>
       </c>
-      <c r="E17" s="225" t="s">
+      <c r="E17" s="217" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="13" t="s">
@@ -3350,16 +3362,16 @@
         <v>49</v>
       </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="220"/>
+      <c r="M17" s="227"/>
     </row>
     <row r="18" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="229"/>
-      <c r="B18" s="217"/>
-      <c r="C18" s="223"/>
+      <c r="A18" s="212"/>
+      <c r="B18" s="221"/>
+      <c r="C18" s="215"/>
       <c r="D18" s="10">
         <v>31</v>
       </c>
-      <c r="E18" s="227"/>
+      <c r="E18" s="218"/>
       <c r="F18" s="12" t="s">
         <v>14</v>
       </c>
@@ -3379,16 +3391,16 @@
         <v>49</v>
       </c>
       <c r="L18" s="1"/>
-      <c r="M18" s="220"/>
+      <c r="M18" s="227"/>
     </row>
     <row r="19" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="229"/>
-      <c r="B19" s="217"/>
-      <c r="C19" s="223"/>
+      <c r="A19" s="212"/>
+      <c r="B19" s="221"/>
+      <c r="C19" s="215"/>
       <c r="D19" s="10">
         <v>31</v>
       </c>
-      <c r="E19" s="226"/>
+      <c r="E19" s="219"/>
       <c r="F19" s="12" t="s">
         <v>16</v>
       </c>
@@ -3408,16 +3420,16 @@
         <v>49</v>
       </c>
       <c r="L19" s="1"/>
-      <c r="M19" s="220"/>
+      <c r="M19" s="227"/>
     </row>
     <row r="20" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="229"/>
-      <c r="B20" s="217"/>
-      <c r="C20" s="223"/>
+      <c r="A20" s="212"/>
+      <c r="B20" s="221"/>
+      <c r="C20" s="215"/>
       <c r="D20" s="10">
         <v>31</v>
       </c>
-      <c r="E20" s="225" t="s">
+      <c r="E20" s="217" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="11" t="s">
@@ -3439,16 +3451,16 @@
         <v>49</v>
       </c>
       <c r="L20" s="1"/>
-      <c r="M20" s="220"/>
+      <c r="M20" s="227"/>
     </row>
     <row r="21" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="229"/>
-      <c r="B21" s="217"/>
-      <c r="C21" s="223"/>
+      <c r="A21" s="212"/>
+      <c r="B21" s="221"/>
+      <c r="C21" s="215"/>
       <c r="D21" s="10">
         <v>31</v>
       </c>
-      <c r="E21" s="227"/>
+      <c r="E21" s="218"/>
       <c r="F21" s="12" t="s">
         <v>14</v>
       </c>
@@ -3468,16 +3480,16 @@
         <v>49</v>
       </c>
       <c r="L21" s="1"/>
-      <c r="M21" s="220"/>
+      <c r="M21" s="227"/>
     </row>
     <row r="22" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="229"/>
-      <c r="B22" s="217"/>
-      <c r="C22" s="224"/>
+      <c r="A22" s="212"/>
+      <c r="B22" s="221"/>
+      <c r="C22" s="216"/>
       <c r="D22" s="10">
         <v>31</v>
       </c>
-      <c r="E22" s="226"/>
+      <c r="E22" s="219"/>
       <c r="F22" s="12" t="s">
         <v>16</v>
       </c>
@@ -3497,12 +3509,12 @@
         <v>49</v>
       </c>
       <c r="L22" s="1"/>
-      <c r="M22" s="220"/>
+      <c r="M22" s="227"/>
     </row>
     <row r="23" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="229"/>
-      <c r="B23" s="217"/>
-      <c r="C23" s="222" t="s">
+      <c r="A23" s="212"/>
+      <c r="B23" s="221"/>
+      <c r="C23" s="214" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="9">
@@ -3528,12 +3540,12 @@
         <v>49</v>
       </c>
       <c r="L23" s="1"/>
-      <c r="M23" s="220"/>
+      <c r="M23" s="227"/>
     </row>
     <row r="24" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="229"/>
-      <c r="B24" s="217"/>
-      <c r="C24" s="223"/>
+      <c r="A24" s="212"/>
+      <c r="B24" s="221"/>
+      <c r="C24" s="215"/>
       <c r="D24" s="10">
         <v>29</v>
       </c>
@@ -3557,11 +3569,11 @@
         <v>49</v>
       </c>
       <c r="L24" s="1"/>
-      <c r="M24" s="220"/>
+      <c r="M24" s="227"/>
     </row>
     <row r="25" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="229"/>
-      <c r="B25" s="217"/>
+      <c r="A25" s="212"/>
+      <c r="B25" s="221"/>
       <c r="C25" s="7" t="s">
         <v>19</v>
       </c>
@@ -3586,11 +3598,11 @@
         <v>49</v>
       </c>
       <c r="L25" s="1"/>
-      <c r="M25" s="220"/>
+      <c r="M25" s="227"/>
     </row>
     <row r="26" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="230"/>
-      <c r="B26" s="218"/>
+      <c r="A26" s="213"/>
+      <c r="B26" s="222"/>
       <c r="C26" s="8" t="s">
         <v>16</v>
       </c>
@@ -3615,7 +3627,7 @@
         <v>49</v>
       </c>
       <c r="L26" s="1"/>
-      <c r="M26" s="221"/>
+      <c r="M26" s="228"/>
     </row>
     <row r="27" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="14"/>
@@ -3674,10 +3686,10 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="210" t="s">
+      <c r="A29" s="229" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="216" t="s">
+      <c r="B29" s="220" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -3704,13 +3716,13 @@
         <v>49</v>
       </c>
       <c r="L29" s="1"/>
-      <c r="M29" s="219" t="s">
+      <c r="M29" s="226" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="211"/>
-      <c r="B30" s="217"/>
+      <c r="A30" s="230"/>
+      <c r="B30" s="221"/>
       <c r="C30" s="7" t="s">
         <v>5</v>
       </c>
@@ -3735,11 +3747,11 @@
         <v>49</v>
       </c>
       <c r="L30" s="1"/>
-      <c r="M30" s="220"/>
+      <c r="M30" s="227"/>
     </row>
     <row r="31" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="211"/>
-      <c r="B31" s="217"/>
+      <c r="A31" s="230"/>
+      <c r="B31" s="221"/>
       <c r="C31" s="8" t="s">
         <v>6</v>
       </c>
@@ -3764,11 +3776,11 @@
         <v>49</v>
       </c>
       <c r="L31" s="1"/>
-      <c r="M31" s="220"/>
+      <c r="M31" s="227"/>
     </row>
     <row r="32" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="211"/>
-      <c r="B32" s="217"/>
+      <c r="A32" s="230"/>
+      <c r="B32" s="221"/>
       <c r="C32" s="8" t="s">
         <v>39</v>
       </c>
@@ -3793,11 +3805,11 @@
         <v>49</v>
       </c>
       <c r="L32" s="1"/>
-      <c r="M32" s="220"/>
+      <c r="M32" s="227"/>
     </row>
     <row r="33" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="211"/>
-      <c r="B33" s="217"/>
+      <c r="A33" s="230"/>
+      <c r="B33" s="221"/>
       <c r="C33" s="8" t="s">
         <v>7</v>
       </c>
@@ -3822,11 +3834,11 @@
         <v>49</v>
       </c>
       <c r="L33" s="1"/>
-      <c r="M33" s="220"/>
+      <c r="M33" s="227"/>
     </row>
     <row r="34" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="211"/>
-      <c r="B34" s="217"/>
+      <c r="A34" s="230"/>
+      <c r="B34" s="221"/>
       <c r="C34" s="8" t="s">
         <v>40</v>
       </c>
@@ -3851,11 +3863,11 @@
         <v>49</v>
       </c>
       <c r="L34" s="1"/>
-      <c r="M34" s="220"/>
+      <c r="M34" s="227"/>
     </row>
     <row r="35" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="211"/>
-      <c r="B35" s="217"/>
+      <c r="A35" s="230"/>
+      <c r="B35" s="221"/>
       <c r="C35" s="8" t="s">
         <v>8</v>
       </c>
@@ -3880,11 +3892,11 @@
         <v>49</v>
       </c>
       <c r="L35" s="1"/>
-      <c r="M35" s="220"/>
+      <c r="M35" s="227"/>
     </row>
     <row r="36" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="211"/>
-      <c r="B36" s="217"/>
+      <c r="A36" s="230"/>
+      <c r="B36" s="221"/>
       <c r="C36" s="8" t="s">
         <v>9</v>
       </c>
@@ -3909,11 +3921,11 @@
         <v>49</v>
       </c>
       <c r="L36" s="1"/>
-      <c r="M36" s="220"/>
+      <c r="M36" s="227"/>
     </row>
     <row r="37" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="211"/>
-      <c r="B37" s="217"/>
+      <c r="A37" s="230"/>
+      <c r="B37" s="221"/>
       <c r="C37" s="8" t="s">
         <v>10</v>
       </c>
@@ -3938,11 +3950,11 @@
         <v>49</v>
       </c>
       <c r="L37" s="1"/>
-      <c r="M37" s="220"/>
+      <c r="M37" s="227"/>
     </row>
     <row r="38" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="211"/>
-      <c r="B38" s="217"/>
+      <c r="A38" s="230"/>
+      <c r="B38" s="221"/>
       <c r="C38" s="8" t="s">
         <v>11</v>
       </c>
@@ -3967,11 +3979,11 @@
         <v>49</v>
       </c>
       <c r="L38" s="1"/>
-      <c r="M38" s="220"/>
+      <c r="M38" s="227"/>
     </row>
     <row r="39" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="211"/>
-      <c r="B39" s="217"/>
+      <c r="A39" s="230"/>
+      <c r="B39" s="221"/>
       <c r="C39" s="8" t="s">
         <v>12</v>
       </c>
@@ -3996,11 +4008,11 @@
         <v>49</v>
       </c>
       <c r="L39" s="1"/>
-      <c r="M39" s="220"/>
+      <c r="M39" s="227"/>
     </row>
     <row r="40" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="211"/>
-      <c r="B40" s="217"/>
+      <c r="A40" s="230"/>
+      <c r="B40" s="221"/>
       <c r="C40" s="8" t="s">
         <v>13</v>
       </c>
@@ -4025,11 +4037,11 @@
         <v>49</v>
       </c>
       <c r="L40" s="1"/>
-      <c r="M40" s="220"/>
+      <c r="M40" s="227"/>
     </row>
     <row r="41" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="211"/>
-      <c r="B41" s="217"/>
+      <c r="A41" s="230"/>
+      <c r="B41" s="221"/>
       <c r="C41" s="8" t="s">
         <v>41</v>
       </c>
@@ -4054,11 +4066,11 @@
         <v>49</v>
       </c>
       <c r="L41" s="1"/>
-      <c r="M41" s="220"/>
+      <c r="M41" s="227"/>
     </row>
     <row r="42" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="211"/>
-      <c r="B42" s="217"/>
+      <c r="A42" s="230"/>
+      <c r="B42" s="221"/>
       <c r="C42" s="8" t="s">
         <v>42</v>
       </c>
@@ -4083,18 +4095,18 @@
         <v>49</v>
       </c>
       <c r="L42" s="1"/>
-      <c r="M42" s="220"/>
+      <c r="M42" s="227"/>
     </row>
     <row r="43" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="211"/>
-      <c r="B43" s="217"/>
-      <c r="C43" s="222" t="s">
+      <c r="A43" s="230"/>
+      <c r="B43" s="221"/>
+      <c r="C43" s="214" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="9">
         <v>32</v>
       </c>
-      <c r="E43" s="225" t="s">
+      <c r="E43" s="217" t="s">
         <v>15</v>
       </c>
       <c r="F43" s="13"/>
@@ -4114,16 +4126,16 @@
         <v>49</v>
       </c>
       <c r="L43" s="1"/>
-      <c r="M43" s="220"/>
+      <c r="M43" s="227"/>
     </row>
     <row r="44" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="211"/>
-      <c r="B44" s="217"/>
-      <c r="C44" s="223"/>
+      <c r="A44" s="230"/>
+      <c r="B44" s="221"/>
+      <c r="C44" s="215"/>
       <c r="D44" s="10">
         <v>32</v>
       </c>
-      <c r="E44" s="226"/>
+      <c r="E44" s="219"/>
       <c r="F44" s="12"/>
       <c r="G44" s="1" t="s">
         <v>49</v>
@@ -4141,16 +4153,16 @@
         <v>49</v>
       </c>
       <c r="L44" s="1"/>
-      <c r="M44" s="220"/>
+      <c r="M44" s="227"/>
     </row>
     <row r="45" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="211"/>
-      <c r="B45" s="217"/>
-      <c r="C45" s="223"/>
+      <c r="A45" s="230"/>
+      <c r="B45" s="221"/>
+      <c r="C45" s="215"/>
       <c r="D45" s="10">
         <v>32</v>
       </c>
-      <c r="E45" s="225" t="s">
+      <c r="E45" s="217" t="s">
         <v>17</v>
       </c>
       <c r="F45" s="11"/>
@@ -4170,16 +4182,16 @@
         <v>49</v>
       </c>
       <c r="L45" s="1"/>
-      <c r="M45" s="220"/>
+      <c r="M45" s="227"/>
     </row>
     <row r="46" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="211"/>
-      <c r="B46" s="217"/>
-      <c r="C46" s="224"/>
+      <c r="A46" s="230"/>
+      <c r="B46" s="221"/>
+      <c r="C46" s="216"/>
       <c r="D46" s="10">
         <v>32</v>
       </c>
-      <c r="E46" s="226"/>
+      <c r="E46" s="219"/>
       <c r="F46" s="12"/>
       <c r="G46" s="1" t="s">
         <v>49</v>
@@ -4197,12 +4209,12 @@
         <v>49</v>
       </c>
       <c r="L46" s="1"/>
-      <c r="M46" s="220"/>
+      <c r="M46" s="227"/>
     </row>
     <row r="47" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="211"/>
-      <c r="B47" s="217"/>
-      <c r="C47" s="222" t="s">
+      <c r="A47" s="230"/>
+      <c r="B47" s="221"/>
+      <c r="C47" s="214" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="9">
@@ -4228,12 +4240,12 @@
         <v>49</v>
       </c>
       <c r="L47" s="1"/>
-      <c r="M47" s="220"/>
+      <c r="M47" s="227"/>
     </row>
     <row r="48" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="211"/>
-      <c r="B48" s="217"/>
-      <c r="C48" s="223"/>
+      <c r="A48" s="230"/>
+      <c r="B48" s="221"/>
+      <c r="C48" s="215"/>
       <c r="D48" s="10">
         <v>30</v>
       </c>
@@ -4257,12 +4269,12 @@
         <v>49</v>
       </c>
       <c r="L48" s="1"/>
-      <c r="M48" s="220"/>
+      <c r="M48" s="227"/>
     </row>
     <row r="49" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="211"/>
-      <c r="B49" s="217"/>
-      <c r="C49" s="222" t="s">
+      <c r="A49" s="230"/>
+      <c r="B49" s="221"/>
+      <c r="C49" s="214" t="s">
         <v>19</v>
       </c>
       <c r="D49" s="9">
@@ -4288,12 +4300,12 @@
         <v>49</v>
       </c>
       <c r="L49" s="1"/>
-      <c r="M49" s="220"/>
+      <c r="M49" s="227"/>
     </row>
     <row r="50" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="211"/>
-      <c r="B50" s="217"/>
-      <c r="C50" s="223"/>
+      <c r="A50" s="230"/>
+      <c r="B50" s="221"/>
+      <c r="C50" s="215"/>
       <c r="D50" s="10">
         <v>35</v>
       </c>
@@ -4317,11 +4329,11 @@
         <v>49</v>
       </c>
       <c r="L50" s="1"/>
-      <c r="M50" s="220"/>
+      <c r="M50" s="227"/>
     </row>
     <row r="51" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="211"/>
-      <c r="B51" s="217"/>
+      <c r="A51" s="230"/>
+      <c r="B51" s="221"/>
       <c r="C51" s="8" t="s">
         <v>16</v>
       </c>
@@ -4346,11 +4358,11 @@
         <v>49</v>
       </c>
       <c r="L51" s="1"/>
-      <c r="M51" s="220"/>
+      <c r="M51" s="227"/>
     </row>
     <row r="52" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="211"/>
-      <c r="B52" s="217"/>
+      <c r="A52" s="230"/>
+      <c r="B52" s="221"/>
       <c r="C52" s="8" t="s">
         <v>45</v>
       </c>
@@ -4375,11 +4387,11 @@
         <v>49</v>
       </c>
       <c r="L52" s="1"/>
-      <c r="M52" s="220"/>
+      <c r="M52" s="227"/>
     </row>
     <row r="53" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="211"/>
-      <c r="B53" s="218"/>
+      <c r="A53" s="230"/>
+      <c r="B53" s="222"/>
       <c r="C53" s="8" t="s">
         <v>46</v>
       </c>
@@ -4404,7 +4416,7 @@
         <v>49</v>
       </c>
       <c r="L53" s="1"/>
-      <c r="M53" s="221"/>
+      <c r="M53" s="228"/>
     </row>
     <row r="54" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="14"/>
@@ -4463,10 +4475,10 @@
       </c>
     </row>
     <row r="56" spans="1:13" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="210" t="s">
+      <c r="A56" s="229" t="s">
         <v>21</v>
       </c>
-      <c r="B56" s="216" t="s">
+      <c r="B56" s="220" t="s">
         <v>158</v>
       </c>
       <c r="C56" s="117" t="s">
@@ -4493,13 +4505,13 @@
         <v>49</v>
       </c>
       <c r="L56" s="120"/>
-      <c r="M56" s="219" t="s">
+      <c r="M56" s="226" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="211"/>
-      <c r="B57" s="217"/>
+      <c r="A57" s="230"/>
+      <c r="B57" s="221"/>
       <c r="C57" s="117" t="s">
         <v>160</v>
       </c>
@@ -4524,11 +4536,11 @@
         <v>49</v>
       </c>
       <c r="L57" s="120"/>
-      <c r="M57" s="220"/>
+      <c r="M57" s="227"/>
     </row>
     <row r="58" spans="1:13" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="211"/>
-      <c r="B58" s="217"/>
+      <c r="A58" s="230"/>
+      <c r="B58" s="221"/>
       <c r="C58" s="186" t="s">
         <v>300</v>
       </c>
@@ -4541,11 +4553,11 @@
       <c r="J58" s="183"/>
       <c r="K58" s="120"/>
       <c r="L58" s="120"/>
-      <c r="M58" s="220"/>
+      <c r="M58" s="227"/>
     </row>
     <row r="59" spans="1:13" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="211"/>
-      <c r="B59" s="217"/>
+      <c r="A59" s="230"/>
+      <c r="B59" s="221"/>
       <c r="C59" s="186" t="s">
         <v>301</v>
       </c>
@@ -4558,11 +4570,11 @@
       <c r="J59" s="183"/>
       <c r="K59" s="120"/>
       <c r="L59" s="120"/>
-      <c r="M59" s="220"/>
+      <c r="M59" s="227"/>
     </row>
     <row r="60" spans="1:13" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="211"/>
-      <c r="B60" s="217"/>
+      <c r="A60" s="230"/>
+      <c r="B60" s="221"/>
       <c r="C60" s="186" t="s">
         <v>302</v>
       </c>
@@ -4575,11 +4587,11 @@
       <c r="J60" s="183"/>
       <c r="K60" s="120"/>
       <c r="L60" s="120"/>
-      <c r="M60" s="220"/>
+      <c r="M60" s="227"/>
     </row>
     <row r="61" spans="1:13" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="211"/>
-      <c r="B61" s="217"/>
+      <c r="A61" s="230"/>
+      <c r="B61" s="221"/>
       <c r="C61" s="186" t="s">
         <v>303</v>
       </c>
@@ -4592,11 +4604,11 @@
       <c r="J61" s="183"/>
       <c r="K61" s="120"/>
       <c r="L61" s="120"/>
-      <c r="M61" s="220"/>
+      <c r="M61" s="227"/>
     </row>
     <row r="62" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="211"/>
-      <c r="B62" s="217"/>
+      <c r="A62" s="230"/>
+      <c r="B62" s="221"/>
       <c r="C62" s="117" t="s">
         <v>161</v>
       </c>
@@ -4621,11 +4633,11 @@
         <v>49</v>
       </c>
       <c r="L62" s="120"/>
-      <c r="M62" s="220"/>
+      <c r="M62" s="227"/>
     </row>
     <row r="63" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="211"/>
-      <c r="B63" s="217"/>
+      <c r="A63" s="230"/>
+      <c r="B63" s="221"/>
       <c r="C63" s="117" t="s">
         <v>162</v>
       </c>
@@ -4650,11 +4662,11 @@
         <v>49</v>
       </c>
       <c r="L63" s="120"/>
-      <c r="M63" s="220"/>
+      <c r="M63" s="227"/>
     </row>
     <row r="64" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="211"/>
-      <c r="B64" s="218"/>
+      <c r="A64" s="230"/>
+      <c r="B64" s="222"/>
       <c r="C64" s="117" t="s">
         <v>163</v>
       </c>
@@ -4679,7 +4691,7 @@
         <v>49</v>
       </c>
       <c r="L64" s="120"/>
-      <c r="M64" s="220"/>
+      <c r="M64" s="227"/>
     </row>
     <row r="65" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="15"/>
@@ -4738,16 +4750,16 @@
       </c>
     </row>
     <row r="67" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="210" t="s">
+      <c r="A67" s="229" t="s">
         <v>21</v>
       </c>
-      <c r="B67" s="216" t="s">
+      <c r="B67" s="220" t="s">
         <v>164</v>
       </c>
-      <c r="C67" s="231" t="s">
+      <c r="C67" s="223" t="s">
         <v>165</v>
       </c>
-      <c r="D67" s="237">
+      <c r="D67" s="234">
         <v>28</v>
       </c>
       <c r="E67" s="121" t="s">
@@ -4756,1839 +4768,1839 @@
       <c r="F67" s="122" t="s">
         <v>169</v>
       </c>
-      <c r="G67" s="228" t="s">
-        <v>49</v>
-      </c>
-      <c r="H67" s="228" t="s">
-        <v>49</v>
-      </c>
-      <c r="I67" s="228" t="s">
-        <v>49</v>
-      </c>
-      <c r="J67" s="228" t="s">
-        <v>49</v>
-      </c>
-      <c r="K67" s="228"/>
-      <c r="L67" s="228"/>
-      <c r="M67" s="219" t="s">
+      <c r="G67" s="211" t="s">
+        <v>49</v>
+      </c>
+      <c r="H67" s="211" t="s">
+        <v>49</v>
+      </c>
+      <c r="I67" s="211" t="s">
+        <v>49</v>
+      </c>
+      <c r="J67" s="211" t="s">
+        <v>49</v>
+      </c>
+      <c r="K67" s="211"/>
+      <c r="L67" s="211"/>
+      <c r="M67" s="226" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="211"/>
-      <c r="B68" s="217"/>
-      <c r="C68" s="232"/>
-      <c r="D68" s="238"/>
+      <c r="A68" s="230"/>
+      <c r="B68" s="221"/>
+      <c r="C68" s="224"/>
+      <c r="D68" s="235"/>
       <c r="E68" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="F68" s="240" t="s">
+      <c r="F68" s="237" t="s">
         <v>197</v>
       </c>
-      <c r="G68" s="229"/>
-      <c r="H68" s="229"/>
-      <c r="I68" s="229"/>
-      <c r="J68" s="229"/>
-      <c r="K68" s="229"/>
-      <c r="L68" s="229"/>
-      <c r="M68" s="220"/>
+      <c r="G68" s="212"/>
+      <c r="H68" s="212"/>
+      <c r="I68" s="212"/>
+      <c r="J68" s="212"/>
+      <c r="K68" s="212"/>
+      <c r="L68" s="212"/>
+      <c r="M68" s="227"/>
     </row>
     <row r="69" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="211"/>
-      <c r="B69" s="217"/>
-      <c r="C69" s="233"/>
-      <c r="D69" s="238"/>
+      <c r="A69" s="230"/>
+      <c r="B69" s="221"/>
+      <c r="C69" s="225"/>
+      <c r="D69" s="235"/>
       <c r="E69" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="F69" s="241"/>
-      <c r="G69" s="229"/>
-      <c r="H69" s="229"/>
-      <c r="I69" s="229"/>
-      <c r="J69" s="229"/>
-      <c r="K69" s="229"/>
-      <c r="L69" s="229"/>
-      <c r="M69" s="220"/>
+      <c r="F69" s="238"/>
+      <c r="G69" s="212"/>
+      <c r="H69" s="212"/>
+      <c r="I69" s="212"/>
+      <c r="J69" s="212"/>
+      <c r="K69" s="212"/>
+      <c r="L69" s="212"/>
+      <c r="M69" s="227"/>
     </row>
     <row r="70" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="211"/>
-      <c r="B70" s="217"/>
-      <c r="C70" s="231" t="s">
+      <c r="A70" s="230"/>
+      <c r="B70" s="221"/>
+      <c r="C70" s="223" t="s">
         <v>170</v>
       </c>
-      <c r="D70" s="238"/>
+      <c r="D70" s="235"/>
       <c r="E70" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F70" s="123" t="s">
         <v>198</v>
       </c>
-      <c r="G70" s="229"/>
-      <c r="H70" s="229"/>
-      <c r="I70" s="229"/>
-      <c r="J70" s="229"/>
-      <c r="K70" s="229"/>
-      <c r="L70" s="229"/>
-      <c r="M70" s="220"/>
+      <c r="G70" s="212"/>
+      <c r="H70" s="212"/>
+      <c r="I70" s="212"/>
+      <c r="J70" s="212"/>
+      <c r="K70" s="212"/>
+      <c r="L70" s="212"/>
+      <c r="M70" s="227"/>
     </row>
     <row r="71" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="211"/>
-      <c r="B71" s="217"/>
-      <c r="C71" s="232"/>
-      <c r="D71" s="238"/>
+      <c r="A71" s="230"/>
+      <c r="B71" s="221"/>
+      <c r="C71" s="224"/>
+      <c r="D71" s="235"/>
       <c r="E71" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F71" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G71" s="229"/>
-      <c r="H71" s="229"/>
-      <c r="I71" s="229"/>
-      <c r="J71" s="229"/>
-      <c r="K71" s="229"/>
-      <c r="L71" s="229"/>
-      <c r="M71" s="220"/>
+      <c r="G71" s="212"/>
+      <c r="H71" s="212"/>
+      <c r="I71" s="212"/>
+      <c r="J71" s="212"/>
+      <c r="K71" s="212"/>
+      <c r="L71" s="212"/>
+      <c r="M71" s="227"/>
     </row>
     <row r="72" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="211"/>
-      <c r="B72" s="217"/>
-      <c r="C72" s="232"/>
-      <c r="D72" s="238"/>
-      <c r="E72" s="234" t="s">
+      <c r="A72" s="230"/>
+      <c r="B72" s="221"/>
+      <c r="C72" s="224"/>
+      <c r="D72" s="235"/>
+      <c r="E72" s="231" t="s">
         <v>168</v>
       </c>
       <c r="F72" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G72" s="229"/>
-      <c r="H72" s="229"/>
-      <c r="I72" s="229"/>
-      <c r="J72" s="229"/>
-      <c r="K72" s="229"/>
-      <c r="L72" s="229"/>
-      <c r="M72" s="220"/>
+      <c r="G72" s="212"/>
+      <c r="H72" s="212"/>
+      <c r="I72" s="212"/>
+      <c r="J72" s="212"/>
+      <c r="K72" s="212"/>
+      <c r="L72" s="212"/>
+      <c r="M72" s="227"/>
     </row>
     <row r="73" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="211"/>
-      <c r="B73" s="217"/>
-      <c r="C73" s="233"/>
-      <c r="D73" s="238"/>
-      <c r="E73" s="235"/>
+      <c r="A73" s="230"/>
+      <c r="B73" s="221"/>
+      <c r="C73" s="225"/>
+      <c r="D73" s="235"/>
+      <c r="E73" s="232"/>
       <c r="F73" s="123" t="s">
         <v>201</v>
       </c>
-      <c r="G73" s="229"/>
-      <c r="H73" s="229"/>
-      <c r="I73" s="229"/>
-      <c r="J73" s="229"/>
-      <c r="K73" s="229"/>
-      <c r="L73" s="229"/>
-      <c r="M73" s="220"/>
+      <c r="G73" s="212"/>
+      <c r="H73" s="212"/>
+      <c r="I73" s="212"/>
+      <c r="J73" s="212"/>
+      <c r="K73" s="212"/>
+      <c r="L73" s="212"/>
+      <c r="M73" s="227"/>
     </row>
     <row r="74" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="211"/>
-      <c r="B74" s="217"/>
-      <c r="C74" s="231" t="s">
+      <c r="A74" s="230"/>
+      <c r="B74" s="221"/>
+      <c r="C74" s="223" t="s">
         <v>171</v>
       </c>
-      <c r="D74" s="238"/>
+      <c r="D74" s="235"/>
       <c r="E74" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F74" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G74" s="229"/>
-      <c r="H74" s="229"/>
-      <c r="I74" s="229"/>
-      <c r="J74" s="229"/>
-      <c r="K74" s="229"/>
-      <c r="L74" s="229"/>
-      <c r="M74" s="220"/>
+      <c r="G74" s="212"/>
+      <c r="H74" s="212"/>
+      <c r="I74" s="212"/>
+      <c r="J74" s="212"/>
+      <c r="K74" s="212"/>
+      <c r="L74" s="212"/>
+      <c r="M74" s="227"/>
     </row>
     <row r="75" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="211"/>
-      <c r="B75" s="217"/>
-      <c r="C75" s="232"/>
-      <c r="D75" s="238"/>
+      <c r="A75" s="230"/>
+      <c r="B75" s="221"/>
+      <c r="C75" s="224"/>
+      <c r="D75" s="235"/>
       <c r="E75" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F75" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G75" s="229"/>
-      <c r="H75" s="229"/>
-      <c r="I75" s="229"/>
-      <c r="J75" s="229"/>
-      <c r="K75" s="229"/>
-      <c r="L75" s="229"/>
-      <c r="M75" s="220"/>
+      <c r="G75" s="212"/>
+      <c r="H75" s="212"/>
+      <c r="I75" s="212"/>
+      <c r="J75" s="212"/>
+      <c r="K75" s="212"/>
+      <c r="L75" s="212"/>
+      <c r="M75" s="227"/>
     </row>
     <row r="76" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="211"/>
-      <c r="B76" s="217"/>
-      <c r="C76" s="233"/>
-      <c r="D76" s="238"/>
+      <c r="A76" s="230"/>
+      <c r="B76" s="221"/>
+      <c r="C76" s="225"/>
+      <c r="D76" s="235"/>
       <c r="E76" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F76" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="G76" s="229"/>
-      <c r="H76" s="229"/>
-      <c r="I76" s="229"/>
-      <c r="J76" s="229"/>
-      <c r="K76" s="229"/>
-      <c r="L76" s="229"/>
-      <c r="M76" s="220"/>
+      <c r="G76" s="212"/>
+      <c r="H76" s="212"/>
+      <c r="I76" s="212"/>
+      <c r="J76" s="212"/>
+      <c r="K76" s="212"/>
+      <c r="L76" s="212"/>
+      <c r="M76" s="227"/>
     </row>
     <row r="77" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="211"/>
-      <c r="B77" s="217"/>
-      <c r="C77" s="231" t="s">
+      <c r="A77" s="230"/>
+      <c r="B77" s="221"/>
+      <c r="C77" s="223" t="s">
         <v>172</v>
       </c>
-      <c r="D77" s="238"/>
+      <c r="D77" s="235"/>
       <c r="E77" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F77" s="123" t="s">
         <v>203</v>
       </c>
-      <c r="G77" s="229"/>
-      <c r="H77" s="229"/>
-      <c r="I77" s="229"/>
-      <c r="J77" s="229"/>
-      <c r="K77" s="229"/>
-      <c r="L77" s="229"/>
-      <c r="M77" s="220"/>
+      <c r="G77" s="212"/>
+      <c r="H77" s="212"/>
+      <c r="I77" s="212"/>
+      <c r="J77" s="212"/>
+      <c r="K77" s="212"/>
+      <c r="L77" s="212"/>
+      <c r="M77" s="227"/>
     </row>
     <row r="78" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="211"/>
-      <c r="B78" s="217"/>
-      <c r="C78" s="232"/>
-      <c r="D78" s="238"/>
+      <c r="A78" s="230"/>
+      <c r="B78" s="221"/>
+      <c r="C78" s="224"/>
+      <c r="D78" s="235"/>
       <c r="E78" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F78" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G78" s="229"/>
-      <c r="H78" s="229"/>
-      <c r="I78" s="229"/>
-      <c r="J78" s="229"/>
-      <c r="K78" s="229"/>
-      <c r="L78" s="229"/>
-      <c r="M78" s="220"/>
+      <c r="G78" s="212"/>
+      <c r="H78" s="212"/>
+      <c r="I78" s="212"/>
+      <c r="J78" s="212"/>
+      <c r="K78" s="212"/>
+      <c r="L78" s="212"/>
+      <c r="M78" s="227"/>
     </row>
     <row r="79" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="211"/>
-      <c r="B79" s="217"/>
-      <c r="C79" s="233"/>
-      <c r="D79" s="238"/>
+      <c r="A79" s="230"/>
+      <c r="B79" s="221"/>
+      <c r="C79" s="225"/>
+      <c r="D79" s="235"/>
       <c r="E79" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F79" s="123" t="s">
         <v>204</v>
       </c>
-      <c r="G79" s="229"/>
-      <c r="H79" s="229"/>
-      <c r="I79" s="229"/>
-      <c r="J79" s="229"/>
-      <c r="K79" s="229"/>
-      <c r="L79" s="229"/>
-      <c r="M79" s="220"/>
+      <c r="G79" s="212"/>
+      <c r="H79" s="212"/>
+      <c r="I79" s="212"/>
+      <c r="J79" s="212"/>
+      <c r="K79" s="212"/>
+      <c r="L79" s="212"/>
+      <c r="M79" s="227"/>
     </row>
     <row r="80" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="211"/>
-      <c r="B80" s="217"/>
-      <c r="C80" s="231" t="s">
+      <c r="A80" s="230"/>
+      <c r="B80" s="221"/>
+      <c r="C80" s="223" t="s">
         <v>173</v>
       </c>
-      <c r="D80" s="238"/>
+      <c r="D80" s="235"/>
       <c r="E80" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F80" s="123" t="s">
         <v>205</v>
       </c>
-      <c r="G80" s="229"/>
-      <c r="H80" s="229"/>
-      <c r="I80" s="229"/>
-      <c r="J80" s="229"/>
-      <c r="K80" s="229"/>
-      <c r="L80" s="229"/>
-      <c r="M80" s="220"/>
+      <c r="G80" s="212"/>
+      <c r="H80" s="212"/>
+      <c r="I80" s="212"/>
+      <c r="J80" s="212"/>
+      <c r="K80" s="212"/>
+      <c r="L80" s="212"/>
+      <c r="M80" s="227"/>
     </row>
     <row r="81" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="211"/>
-      <c r="B81" s="217"/>
-      <c r="C81" s="232"/>
-      <c r="D81" s="238"/>
+      <c r="A81" s="230"/>
+      <c r="B81" s="221"/>
+      <c r="C81" s="224"/>
+      <c r="D81" s="235"/>
       <c r="E81" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F81" s="123" t="s">
         <v>205</v>
       </c>
-      <c r="G81" s="229"/>
-      <c r="H81" s="229"/>
-      <c r="I81" s="229"/>
-      <c r="J81" s="229"/>
-      <c r="K81" s="229"/>
-      <c r="L81" s="229"/>
-      <c r="M81" s="220"/>
+      <c r="G81" s="212"/>
+      <c r="H81" s="212"/>
+      <c r="I81" s="212"/>
+      <c r="J81" s="212"/>
+      <c r="K81" s="212"/>
+      <c r="L81" s="212"/>
+      <c r="M81" s="227"/>
     </row>
     <row r="82" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="211"/>
-      <c r="B82" s="217"/>
-      <c r="C82" s="233"/>
-      <c r="D82" s="238"/>
+      <c r="A82" s="230"/>
+      <c r="B82" s="221"/>
+      <c r="C82" s="225"/>
+      <c r="D82" s="235"/>
       <c r="E82" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F82" s="123" t="s">
         <v>205</v>
       </c>
-      <c r="G82" s="229"/>
-      <c r="H82" s="229"/>
-      <c r="I82" s="229"/>
-      <c r="J82" s="229"/>
-      <c r="K82" s="229"/>
-      <c r="L82" s="229"/>
-      <c r="M82" s="220"/>
+      <c r="G82" s="212"/>
+      <c r="H82" s="212"/>
+      <c r="I82" s="212"/>
+      <c r="J82" s="212"/>
+      <c r="K82" s="212"/>
+      <c r="L82" s="212"/>
+      <c r="M82" s="227"/>
     </row>
     <row r="83" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="211"/>
-      <c r="B83" s="217"/>
-      <c r="C83" s="231" t="s">
+      <c r="A83" s="230"/>
+      <c r="B83" s="221"/>
+      <c r="C83" s="223" t="s">
         <v>174</v>
       </c>
-      <c r="D83" s="238"/>
+      <c r="D83" s="235"/>
       <c r="E83" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F83" s="123" t="s">
         <v>201</v>
       </c>
-      <c r="G83" s="229"/>
-      <c r="H83" s="229"/>
-      <c r="I83" s="229"/>
-      <c r="J83" s="229"/>
-      <c r="K83" s="229"/>
-      <c r="L83" s="229"/>
-      <c r="M83" s="220"/>
+      <c r="G83" s="212"/>
+      <c r="H83" s="212"/>
+      <c r="I83" s="212"/>
+      <c r="J83" s="212"/>
+      <c r="K83" s="212"/>
+      <c r="L83" s="212"/>
+      <c r="M83" s="227"/>
     </row>
     <row r="84" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="211"/>
-      <c r="B84" s="217"/>
-      <c r="C84" s="232"/>
-      <c r="D84" s="238"/>
+      <c r="A84" s="230"/>
+      <c r="B84" s="221"/>
+      <c r="C84" s="224"/>
+      <c r="D84" s="235"/>
       <c r="E84" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F84" s="123" t="s">
         <v>206</v>
       </c>
-      <c r="G84" s="229"/>
-      <c r="H84" s="229"/>
-      <c r="I84" s="229"/>
-      <c r="J84" s="229"/>
-      <c r="K84" s="229"/>
-      <c r="L84" s="229"/>
-      <c r="M84" s="220"/>
+      <c r="G84" s="212"/>
+      <c r="H84" s="212"/>
+      <c r="I84" s="212"/>
+      <c r="J84" s="212"/>
+      <c r="K84" s="212"/>
+      <c r="L84" s="212"/>
+      <c r="M84" s="227"/>
     </row>
     <row r="85" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="211"/>
-      <c r="B85" s="217"/>
-      <c r="C85" s="233"/>
-      <c r="D85" s="238"/>
+      <c r="A85" s="230"/>
+      <c r="B85" s="221"/>
+      <c r="C85" s="225"/>
+      <c r="D85" s="235"/>
       <c r="E85" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F85" s="123" t="s">
         <v>207</v>
       </c>
-      <c r="G85" s="229"/>
-      <c r="H85" s="229"/>
-      <c r="I85" s="229"/>
-      <c r="J85" s="229"/>
-      <c r="K85" s="229"/>
-      <c r="L85" s="229"/>
-      <c r="M85" s="220"/>
+      <c r="G85" s="212"/>
+      <c r="H85" s="212"/>
+      <c r="I85" s="212"/>
+      <c r="J85" s="212"/>
+      <c r="K85" s="212"/>
+      <c r="L85" s="212"/>
+      <c r="M85" s="227"/>
     </row>
     <row r="86" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="211"/>
-      <c r="B86" s="217"/>
-      <c r="C86" s="231" t="s">
+      <c r="A86" s="230"/>
+      <c r="B86" s="221"/>
+      <c r="C86" s="223" t="s">
         <v>175</v>
       </c>
-      <c r="D86" s="238"/>
+      <c r="D86" s="235"/>
       <c r="E86" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F86" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G86" s="229"/>
-      <c r="H86" s="229"/>
-      <c r="I86" s="229"/>
-      <c r="J86" s="229"/>
-      <c r="K86" s="229"/>
-      <c r="L86" s="229"/>
-      <c r="M86" s="220"/>
+      <c r="G86" s="212"/>
+      <c r="H86" s="212"/>
+      <c r="I86" s="212"/>
+      <c r="J86" s="212"/>
+      <c r="K86" s="212"/>
+      <c r="L86" s="212"/>
+      <c r="M86" s="227"/>
     </row>
     <row r="87" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="211"/>
-      <c r="B87" s="217"/>
-      <c r="C87" s="232"/>
-      <c r="D87" s="238"/>
+      <c r="A87" s="230"/>
+      <c r="B87" s="221"/>
+      <c r="C87" s="224"/>
+      <c r="D87" s="235"/>
       <c r="E87" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F87" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G87" s="229"/>
-      <c r="H87" s="229"/>
-      <c r="I87" s="229"/>
-      <c r="J87" s="229"/>
-      <c r="K87" s="229"/>
-      <c r="L87" s="229"/>
-      <c r="M87" s="220"/>
+      <c r="G87" s="212"/>
+      <c r="H87" s="212"/>
+      <c r="I87" s="212"/>
+      <c r="J87" s="212"/>
+      <c r="K87" s="212"/>
+      <c r="L87" s="212"/>
+      <c r="M87" s="227"/>
     </row>
     <row r="88" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="211"/>
-      <c r="B88" s="217"/>
-      <c r="C88" s="233"/>
-      <c r="D88" s="238"/>
+      <c r="A88" s="230"/>
+      <c r="B88" s="221"/>
+      <c r="C88" s="225"/>
+      <c r="D88" s="235"/>
       <c r="E88" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F88" s="123" t="s">
         <v>208</v>
       </c>
-      <c r="G88" s="229"/>
-      <c r="H88" s="229"/>
-      <c r="I88" s="229"/>
-      <c r="J88" s="229"/>
-      <c r="K88" s="229"/>
-      <c r="L88" s="229"/>
-      <c r="M88" s="220"/>
+      <c r="G88" s="212"/>
+      <c r="H88" s="212"/>
+      <c r="I88" s="212"/>
+      <c r="J88" s="212"/>
+      <c r="K88" s="212"/>
+      <c r="L88" s="212"/>
+      <c r="M88" s="227"/>
     </row>
     <row r="89" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="211"/>
-      <c r="B89" s="217"/>
-      <c r="C89" s="231" t="s">
+      <c r="A89" s="230"/>
+      <c r="B89" s="221"/>
+      <c r="C89" s="223" t="s">
         <v>176</v>
       </c>
-      <c r="D89" s="238"/>
-      <c r="E89" s="234" t="s">
+      <c r="D89" s="235"/>
+      <c r="E89" s="231" t="s">
         <v>166</v>
       </c>
       <c r="F89" s="123" t="s">
         <v>209</v>
       </c>
-      <c r="G89" s="229"/>
-      <c r="H89" s="229"/>
-      <c r="I89" s="229"/>
-      <c r="J89" s="229"/>
-      <c r="K89" s="229"/>
-      <c r="L89" s="229"/>
-      <c r="M89" s="220"/>
+      <c r="G89" s="212"/>
+      <c r="H89" s="212"/>
+      <c r="I89" s="212"/>
+      <c r="J89" s="212"/>
+      <c r="K89" s="212"/>
+      <c r="L89" s="212"/>
+      <c r="M89" s="227"/>
     </row>
     <row r="90" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="211"/>
-      <c r="B90" s="217"/>
-      <c r="C90" s="232"/>
-      <c r="D90" s="238"/>
-      <c r="E90" s="235"/>
+      <c r="A90" s="230"/>
+      <c r="B90" s="221"/>
+      <c r="C90" s="224"/>
+      <c r="D90" s="235"/>
+      <c r="E90" s="232"/>
       <c r="F90" s="123" t="s">
         <v>210</v>
       </c>
-      <c r="G90" s="229"/>
-      <c r="H90" s="229"/>
-      <c r="I90" s="229"/>
-      <c r="J90" s="229"/>
-      <c r="K90" s="229"/>
-      <c r="L90" s="229"/>
-      <c r="M90" s="220"/>
+      <c r="G90" s="212"/>
+      <c r="H90" s="212"/>
+      <c r="I90" s="212"/>
+      <c r="J90" s="212"/>
+      <c r="K90" s="212"/>
+      <c r="L90" s="212"/>
+      <c r="M90" s="227"/>
     </row>
     <row r="91" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="211"/>
-      <c r="B91" s="217"/>
-      <c r="C91" s="232"/>
-      <c r="D91" s="238"/>
+      <c r="A91" s="230"/>
+      <c r="B91" s="221"/>
+      <c r="C91" s="224"/>
+      <c r="D91" s="235"/>
       <c r="E91" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F91" s="123" t="s">
         <v>210</v>
       </c>
-      <c r="G91" s="229"/>
-      <c r="H91" s="229"/>
-      <c r="I91" s="229"/>
-      <c r="J91" s="229"/>
-      <c r="K91" s="229"/>
-      <c r="L91" s="229"/>
-      <c r="M91" s="220"/>
+      <c r="G91" s="212"/>
+      <c r="H91" s="212"/>
+      <c r="I91" s="212"/>
+      <c r="J91" s="212"/>
+      <c r="K91" s="212"/>
+      <c r="L91" s="212"/>
+      <c r="M91" s="227"/>
     </row>
     <row r="92" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="211"/>
-      <c r="B92" s="217"/>
-      <c r="C92" s="233"/>
-      <c r="D92" s="238"/>
+      <c r="A92" s="230"/>
+      <c r="B92" s="221"/>
+      <c r="C92" s="225"/>
+      <c r="D92" s="235"/>
       <c r="E92" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F92" s="123" t="s">
         <v>211</v>
       </c>
-      <c r="G92" s="229"/>
-      <c r="H92" s="229"/>
-      <c r="I92" s="229"/>
-      <c r="J92" s="229"/>
-      <c r="K92" s="229"/>
-      <c r="L92" s="229"/>
-      <c r="M92" s="220"/>
+      <c r="G92" s="212"/>
+      <c r="H92" s="212"/>
+      <c r="I92" s="212"/>
+      <c r="J92" s="212"/>
+      <c r="K92" s="212"/>
+      <c r="L92" s="212"/>
+      <c r="M92" s="227"/>
     </row>
     <row r="93" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="211"/>
-      <c r="B93" s="217"/>
-      <c r="C93" s="231" t="s">
+      <c r="A93" s="230"/>
+      <c r="B93" s="221"/>
+      <c r="C93" s="223" t="s">
         <v>177</v>
       </c>
-      <c r="D93" s="238"/>
+      <c r="D93" s="235"/>
       <c r="E93" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F93" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G93" s="229"/>
-      <c r="H93" s="229"/>
-      <c r="I93" s="229"/>
-      <c r="J93" s="229"/>
-      <c r="K93" s="229"/>
-      <c r="L93" s="229"/>
-      <c r="M93" s="220"/>
+      <c r="G93" s="212"/>
+      <c r="H93" s="212"/>
+      <c r="I93" s="212"/>
+      <c r="J93" s="212"/>
+      <c r="K93" s="212"/>
+      <c r="L93" s="212"/>
+      <c r="M93" s="227"/>
     </row>
     <row r="94" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="211"/>
-      <c r="B94" s="217"/>
-      <c r="C94" s="232"/>
-      <c r="D94" s="238"/>
+      <c r="A94" s="230"/>
+      <c r="B94" s="221"/>
+      <c r="C94" s="224"/>
+      <c r="D94" s="235"/>
       <c r="E94" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F94" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G94" s="229"/>
-      <c r="H94" s="229"/>
-      <c r="I94" s="229"/>
-      <c r="J94" s="229"/>
-      <c r="K94" s="229"/>
-      <c r="L94" s="229"/>
-      <c r="M94" s="220"/>
+      <c r="G94" s="212"/>
+      <c r="H94" s="212"/>
+      <c r="I94" s="212"/>
+      <c r="J94" s="212"/>
+      <c r="K94" s="212"/>
+      <c r="L94" s="212"/>
+      <c r="M94" s="227"/>
     </row>
     <row r="95" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="211"/>
-      <c r="B95" s="217"/>
-      <c r="C95" s="232"/>
-      <c r="D95" s="238"/>
-      <c r="E95" s="234" t="s">
+      <c r="A95" s="230"/>
+      <c r="B95" s="221"/>
+      <c r="C95" s="224"/>
+      <c r="D95" s="235"/>
+      <c r="E95" s="231" t="s">
         <v>168</v>
       </c>
       <c r="F95" s="123" t="s">
         <v>204</v>
       </c>
-      <c r="G95" s="229"/>
-      <c r="H95" s="229"/>
-      <c r="I95" s="229"/>
-      <c r="J95" s="229"/>
-      <c r="K95" s="229"/>
-      <c r="L95" s="229"/>
-      <c r="M95" s="220"/>
+      <c r="G95" s="212"/>
+      <c r="H95" s="212"/>
+      <c r="I95" s="212"/>
+      <c r="J95" s="212"/>
+      <c r="K95" s="212"/>
+      <c r="L95" s="212"/>
+      <c r="M95" s="227"/>
     </row>
     <row r="96" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="211"/>
-      <c r="B96" s="217"/>
-      <c r="C96" s="233"/>
-      <c r="D96" s="238"/>
-      <c r="E96" s="235"/>
+      <c r="A96" s="230"/>
+      <c r="B96" s="221"/>
+      <c r="C96" s="225"/>
+      <c r="D96" s="235"/>
+      <c r="E96" s="232"/>
       <c r="F96" s="123" t="s">
         <v>205</v>
       </c>
-      <c r="G96" s="229"/>
-      <c r="H96" s="229"/>
-      <c r="I96" s="229"/>
-      <c r="J96" s="229"/>
-      <c r="K96" s="229"/>
-      <c r="L96" s="229"/>
-      <c r="M96" s="220"/>
+      <c r="G96" s="212"/>
+      <c r="H96" s="212"/>
+      <c r="I96" s="212"/>
+      <c r="J96" s="212"/>
+      <c r="K96" s="212"/>
+      <c r="L96" s="212"/>
+      <c r="M96" s="227"/>
     </row>
     <row r="97" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="211"/>
-      <c r="B97" s="217"/>
-      <c r="C97" s="231" t="s">
+      <c r="A97" s="230"/>
+      <c r="B97" s="221"/>
+      <c r="C97" s="223" t="s">
         <v>178</v>
       </c>
-      <c r="D97" s="238"/>
+      <c r="D97" s="235"/>
       <c r="E97" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F97" s="123" t="s">
         <v>212</v>
       </c>
-      <c r="G97" s="229"/>
-      <c r="H97" s="229"/>
-      <c r="I97" s="229"/>
-      <c r="J97" s="229"/>
-      <c r="K97" s="229"/>
-      <c r="L97" s="229"/>
-      <c r="M97" s="220"/>
+      <c r="G97" s="212"/>
+      <c r="H97" s="212"/>
+      <c r="I97" s="212"/>
+      <c r="J97" s="212"/>
+      <c r="K97" s="212"/>
+      <c r="L97" s="212"/>
+      <c r="M97" s="227"/>
     </row>
     <row r="98" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="211"/>
-      <c r="B98" s="217"/>
-      <c r="C98" s="232"/>
-      <c r="D98" s="238"/>
+      <c r="A98" s="230"/>
+      <c r="B98" s="221"/>
+      <c r="C98" s="224"/>
+      <c r="D98" s="235"/>
       <c r="E98" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F98" s="123" t="s">
         <v>204</v>
       </c>
-      <c r="G98" s="229"/>
-      <c r="H98" s="229"/>
-      <c r="I98" s="229"/>
-      <c r="J98" s="229"/>
-      <c r="K98" s="229"/>
-      <c r="L98" s="229"/>
-      <c r="M98" s="220"/>
+      <c r="G98" s="212"/>
+      <c r="H98" s="212"/>
+      <c r="I98" s="212"/>
+      <c r="J98" s="212"/>
+      <c r="K98" s="212"/>
+      <c r="L98" s="212"/>
+      <c r="M98" s="227"/>
     </row>
     <row r="99" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="211"/>
-      <c r="B99" s="217"/>
-      <c r="C99" s="233"/>
-      <c r="D99" s="238"/>
+      <c r="A99" s="230"/>
+      <c r="B99" s="221"/>
+      <c r="C99" s="225"/>
+      <c r="D99" s="235"/>
       <c r="E99" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F99" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G99" s="229"/>
-      <c r="H99" s="229"/>
-      <c r="I99" s="229"/>
-      <c r="J99" s="229"/>
-      <c r="K99" s="229"/>
-      <c r="L99" s="229"/>
-      <c r="M99" s="220"/>
+      <c r="G99" s="212"/>
+      <c r="H99" s="212"/>
+      <c r="I99" s="212"/>
+      <c r="J99" s="212"/>
+      <c r="K99" s="212"/>
+      <c r="L99" s="212"/>
+      <c r="M99" s="227"/>
     </row>
     <row r="100" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="211"/>
-      <c r="B100" s="217"/>
-      <c r="C100" s="231" t="s">
+      <c r="A100" s="230"/>
+      <c r="B100" s="221"/>
+      <c r="C100" s="223" t="s">
         <v>179</v>
       </c>
-      <c r="D100" s="238"/>
+      <c r="D100" s="235"/>
       <c r="E100" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F100" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G100" s="229"/>
-      <c r="H100" s="229"/>
-      <c r="I100" s="229"/>
-      <c r="J100" s="229"/>
-      <c r="K100" s="229"/>
-      <c r="L100" s="229"/>
-      <c r="M100" s="220"/>
+      <c r="G100" s="212"/>
+      <c r="H100" s="212"/>
+      <c r="I100" s="212"/>
+      <c r="J100" s="212"/>
+      <c r="K100" s="212"/>
+      <c r="L100" s="212"/>
+      <c r="M100" s="227"/>
     </row>
     <row r="101" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="211"/>
-      <c r="B101" s="217"/>
-      <c r="C101" s="232"/>
-      <c r="D101" s="238"/>
-      <c r="E101" s="234" t="s">
+      <c r="A101" s="230"/>
+      <c r="B101" s="221"/>
+      <c r="C101" s="224"/>
+      <c r="D101" s="235"/>
+      <c r="E101" s="231" t="s">
         <v>167</v>
       </c>
       <c r="F101" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G101" s="229"/>
-      <c r="H101" s="229"/>
-      <c r="I101" s="229"/>
-      <c r="J101" s="229"/>
-      <c r="K101" s="229"/>
-      <c r="L101" s="229"/>
-      <c r="M101" s="220"/>
+      <c r="G101" s="212"/>
+      <c r="H101" s="212"/>
+      <c r="I101" s="212"/>
+      <c r="J101" s="212"/>
+      <c r="K101" s="212"/>
+      <c r="L101" s="212"/>
+      <c r="M101" s="227"/>
     </row>
     <row r="102" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="211"/>
-      <c r="B102" s="217"/>
-      <c r="C102" s="232"/>
-      <c r="D102" s="238"/>
-      <c r="E102" s="235"/>
+      <c r="A102" s="230"/>
+      <c r="B102" s="221"/>
+      <c r="C102" s="224"/>
+      <c r="D102" s="235"/>
+      <c r="E102" s="232"/>
       <c r="F102" s="123" t="s">
         <v>201</v>
       </c>
-      <c r="G102" s="229"/>
-      <c r="H102" s="229"/>
-      <c r="I102" s="229"/>
-      <c r="J102" s="229"/>
-      <c r="K102" s="229"/>
-      <c r="L102" s="229"/>
-      <c r="M102" s="220"/>
+      <c r="G102" s="212"/>
+      <c r="H102" s="212"/>
+      <c r="I102" s="212"/>
+      <c r="J102" s="212"/>
+      <c r="K102" s="212"/>
+      <c r="L102" s="212"/>
+      <c r="M102" s="227"/>
     </row>
     <row r="103" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="211"/>
-      <c r="B103" s="217"/>
-      <c r="C103" s="233"/>
-      <c r="D103" s="238"/>
+      <c r="A103" s="230"/>
+      <c r="B103" s="221"/>
+      <c r="C103" s="225"/>
+      <c r="D103" s="235"/>
       <c r="E103" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F103" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="G103" s="229"/>
-      <c r="H103" s="229"/>
-      <c r="I103" s="229"/>
-      <c r="J103" s="229"/>
-      <c r="K103" s="229"/>
-      <c r="L103" s="229"/>
-      <c r="M103" s="220"/>
+      <c r="G103" s="212"/>
+      <c r="H103" s="212"/>
+      <c r="I103" s="212"/>
+      <c r="J103" s="212"/>
+      <c r="K103" s="212"/>
+      <c r="L103" s="212"/>
+      <c r="M103" s="227"/>
     </row>
     <row r="104" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="211"/>
-      <c r="B104" s="217"/>
-      <c r="C104" s="231" t="s">
+      <c r="A104" s="230"/>
+      <c r="B104" s="221"/>
+      <c r="C104" s="223" t="s">
         <v>180</v>
       </c>
-      <c r="D104" s="238"/>
-      <c r="E104" s="234" t="s">
+      <c r="D104" s="235"/>
+      <c r="E104" s="231" t="s">
         <v>166</v>
       </c>
       <c r="F104" s="123" t="s">
         <v>213</v>
       </c>
-      <c r="G104" s="229"/>
-      <c r="H104" s="229"/>
-      <c r="I104" s="229"/>
-      <c r="J104" s="229"/>
-      <c r="K104" s="229"/>
-      <c r="L104" s="229"/>
-      <c r="M104" s="220"/>
+      <c r="G104" s="212"/>
+      <c r="H104" s="212"/>
+      <c r="I104" s="212"/>
+      <c r="J104" s="212"/>
+      <c r="K104" s="212"/>
+      <c r="L104" s="212"/>
+      <c r="M104" s="227"/>
     </row>
     <row r="105" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="211"/>
-      <c r="B105" s="217"/>
-      <c r="C105" s="232"/>
-      <c r="D105" s="238"/>
-      <c r="E105" s="235"/>
+      <c r="A105" s="230"/>
+      <c r="B105" s="221"/>
+      <c r="C105" s="224"/>
+      <c r="D105" s="235"/>
+      <c r="E105" s="232"/>
       <c r="F105" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G105" s="229"/>
-      <c r="H105" s="229"/>
-      <c r="I105" s="229"/>
-      <c r="J105" s="229"/>
-      <c r="K105" s="229"/>
-      <c r="L105" s="229"/>
-      <c r="M105" s="220"/>
+      <c r="G105" s="212"/>
+      <c r="H105" s="212"/>
+      <c r="I105" s="212"/>
+      <c r="J105" s="212"/>
+      <c r="K105" s="212"/>
+      <c r="L105" s="212"/>
+      <c r="M105" s="227"/>
     </row>
     <row r="106" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="211"/>
-      <c r="B106" s="217"/>
-      <c r="C106" s="232"/>
-      <c r="D106" s="238"/>
+      <c r="A106" s="230"/>
+      <c r="B106" s="221"/>
+      <c r="C106" s="224"/>
+      <c r="D106" s="235"/>
       <c r="E106" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F106" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G106" s="229"/>
-      <c r="H106" s="229"/>
-      <c r="I106" s="229"/>
-      <c r="J106" s="229"/>
-      <c r="K106" s="229"/>
-      <c r="L106" s="229"/>
-      <c r="M106" s="220"/>
+      <c r="G106" s="212"/>
+      <c r="H106" s="212"/>
+      <c r="I106" s="212"/>
+      <c r="J106" s="212"/>
+      <c r="K106" s="212"/>
+      <c r="L106" s="212"/>
+      <c r="M106" s="227"/>
     </row>
     <row r="107" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="211"/>
-      <c r="B107" s="217"/>
-      <c r="C107" s="232"/>
-      <c r="D107" s="238"/>
-      <c r="E107" s="234" t="s">
+      <c r="A107" s="230"/>
+      <c r="B107" s="221"/>
+      <c r="C107" s="224"/>
+      <c r="D107" s="235"/>
+      <c r="E107" s="231" t="s">
         <v>168</v>
       </c>
       <c r="F107" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G107" s="229"/>
-      <c r="H107" s="229"/>
-      <c r="I107" s="229"/>
-      <c r="J107" s="229"/>
-      <c r="K107" s="229"/>
-      <c r="L107" s="229"/>
-      <c r="M107" s="220"/>
+      <c r="G107" s="212"/>
+      <c r="H107" s="212"/>
+      <c r="I107" s="212"/>
+      <c r="J107" s="212"/>
+      <c r="K107" s="212"/>
+      <c r="L107" s="212"/>
+      <c r="M107" s="227"/>
     </row>
     <row r="108" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="211"/>
-      <c r="B108" s="217"/>
-      <c r="C108" s="233"/>
-      <c r="D108" s="238"/>
-      <c r="E108" s="235"/>
+      <c r="A108" s="230"/>
+      <c r="B108" s="221"/>
+      <c r="C108" s="225"/>
+      <c r="D108" s="235"/>
+      <c r="E108" s="232"/>
       <c r="F108" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G108" s="229"/>
-      <c r="H108" s="229"/>
-      <c r="I108" s="229"/>
-      <c r="J108" s="229"/>
-      <c r="K108" s="229"/>
-      <c r="L108" s="229"/>
-      <c r="M108" s="220"/>
+      <c r="G108" s="212"/>
+      <c r="H108" s="212"/>
+      <c r="I108" s="212"/>
+      <c r="J108" s="212"/>
+      <c r="K108" s="212"/>
+      <c r="L108" s="212"/>
+      <c r="M108" s="227"/>
     </row>
     <row r="109" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="211"/>
-      <c r="B109" s="217"/>
-      <c r="C109" s="231" t="s">
+      <c r="A109" s="230"/>
+      <c r="B109" s="221"/>
+      <c r="C109" s="223" t="s">
         <v>181</v>
       </c>
-      <c r="D109" s="238"/>
+      <c r="D109" s="235"/>
       <c r="E109" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F109" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G109" s="229"/>
-      <c r="H109" s="229"/>
-      <c r="I109" s="229"/>
-      <c r="J109" s="229"/>
-      <c r="K109" s="229"/>
-      <c r="L109" s="229"/>
-      <c r="M109" s="220"/>
+      <c r="G109" s="212"/>
+      <c r="H109" s="212"/>
+      <c r="I109" s="212"/>
+      <c r="J109" s="212"/>
+      <c r="K109" s="212"/>
+      <c r="L109" s="212"/>
+      <c r="M109" s="227"/>
     </row>
     <row r="110" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="211"/>
-      <c r="B110" s="217"/>
-      <c r="C110" s="232"/>
-      <c r="D110" s="238"/>
+      <c r="A110" s="230"/>
+      <c r="B110" s="221"/>
+      <c r="C110" s="224"/>
+      <c r="D110" s="235"/>
       <c r="E110" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F110" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G110" s="229"/>
-      <c r="H110" s="229"/>
-      <c r="I110" s="229"/>
-      <c r="J110" s="229"/>
-      <c r="K110" s="229"/>
-      <c r="L110" s="229"/>
-      <c r="M110" s="220"/>
+      <c r="G110" s="212"/>
+      <c r="H110" s="212"/>
+      <c r="I110" s="212"/>
+      <c r="J110" s="212"/>
+      <c r="K110" s="212"/>
+      <c r="L110" s="212"/>
+      <c r="M110" s="227"/>
     </row>
     <row r="111" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="211"/>
-      <c r="B111" s="217"/>
-      <c r="C111" s="233"/>
-      <c r="D111" s="238"/>
+      <c r="A111" s="230"/>
+      <c r="B111" s="221"/>
+      <c r="C111" s="225"/>
+      <c r="D111" s="235"/>
       <c r="E111" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F111" s="123" t="s">
         <v>214</v>
       </c>
-      <c r="G111" s="229"/>
-      <c r="H111" s="229"/>
-      <c r="I111" s="229"/>
-      <c r="J111" s="229"/>
-      <c r="K111" s="229"/>
-      <c r="L111" s="229"/>
-      <c r="M111" s="220"/>
+      <c r="G111" s="212"/>
+      <c r="H111" s="212"/>
+      <c r="I111" s="212"/>
+      <c r="J111" s="212"/>
+      <c r="K111" s="212"/>
+      <c r="L111" s="212"/>
+      <c r="M111" s="227"/>
     </row>
     <row r="112" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="211"/>
-      <c r="B112" s="217"/>
-      <c r="C112" s="231" t="s">
+      <c r="A112" s="230"/>
+      <c r="B112" s="221"/>
+      <c r="C112" s="223" t="s">
         <v>182</v>
       </c>
-      <c r="D112" s="238"/>
+      <c r="D112" s="235"/>
       <c r="E112" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F112" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G112" s="229"/>
-      <c r="H112" s="229"/>
-      <c r="I112" s="229"/>
-      <c r="J112" s="229"/>
-      <c r="K112" s="229"/>
-      <c r="L112" s="229"/>
-      <c r="M112" s="220"/>
+      <c r="G112" s="212"/>
+      <c r="H112" s="212"/>
+      <c r="I112" s="212"/>
+      <c r="J112" s="212"/>
+      <c r="K112" s="212"/>
+      <c r="L112" s="212"/>
+      <c r="M112" s="227"/>
     </row>
     <row r="113" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="211"/>
-      <c r="B113" s="217"/>
-      <c r="C113" s="232"/>
-      <c r="D113" s="238"/>
-      <c r="E113" s="234" t="s">
+      <c r="A113" s="230"/>
+      <c r="B113" s="221"/>
+      <c r="C113" s="224"/>
+      <c r="D113" s="235"/>
+      <c r="E113" s="231" t="s">
         <v>167</v>
       </c>
       <c r="F113" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G113" s="229"/>
-      <c r="H113" s="229"/>
-      <c r="I113" s="229"/>
-      <c r="J113" s="229"/>
-      <c r="K113" s="229"/>
-      <c r="L113" s="229"/>
-      <c r="M113" s="220"/>
+      <c r="G113" s="212"/>
+      <c r="H113" s="212"/>
+      <c r="I113" s="212"/>
+      <c r="J113" s="212"/>
+      <c r="K113" s="212"/>
+      <c r="L113" s="212"/>
+      <c r="M113" s="227"/>
     </row>
     <row r="114" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="211"/>
-      <c r="B114" s="217"/>
-      <c r="C114" s="232"/>
-      <c r="D114" s="238"/>
-      <c r="E114" s="235"/>
+      <c r="A114" s="230"/>
+      <c r="B114" s="221"/>
+      <c r="C114" s="224"/>
+      <c r="D114" s="235"/>
+      <c r="E114" s="232"/>
       <c r="F114" s="123" t="s">
         <v>215</v>
       </c>
-      <c r="G114" s="229"/>
-      <c r="H114" s="229"/>
-      <c r="I114" s="229"/>
-      <c r="J114" s="229"/>
-      <c r="K114" s="229"/>
-      <c r="L114" s="229"/>
-      <c r="M114" s="220"/>
+      <c r="G114" s="212"/>
+      <c r="H114" s="212"/>
+      <c r="I114" s="212"/>
+      <c r="J114" s="212"/>
+      <c r="K114" s="212"/>
+      <c r="L114" s="212"/>
+      <c r="M114" s="227"/>
     </row>
     <row r="115" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="211"/>
-      <c r="B115" s="217"/>
-      <c r="C115" s="233"/>
-      <c r="D115" s="238"/>
+      <c r="A115" s="230"/>
+      <c r="B115" s="221"/>
+      <c r="C115" s="225"/>
+      <c r="D115" s="235"/>
       <c r="E115" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F115" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G115" s="229"/>
-      <c r="H115" s="229"/>
-      <c r="I115" s="229"/>
-      <c r="J115" s="229"/>
-      <c r="K115" s="229"/>
-      <c r="L115" s="229"/>
-      <c r="M115" s="220"/>
+      <c r="G115" s="212"/>
+      <c r="H115" s="212"/>
+      <c r="I115" s="212"/>
+      <c r="J115" s="212"/>
+      <c r="K115" s="212"/>
+      <c r="L115" s="212"/>
+      <c r="M115" s="227"/>
     </row>
     <row r="116" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="211"/>
-      <c r="B116" s="217"/>
-      <c r="C116" s="231" t="s">
+      <c r="A116" s="230"/>
+      <c r="B116" s="221"/>
+      <c r="C116" s="223" t="s">
         <v>183</v>
       </c>
-      <c r="D116" s="238"/>
+      <c r="D116" s="235"/>
       <c r="E116" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F116" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G116" s="229"/>
-      <c r="H116" s="229"/>
-      <c r="I116" s="229"/>
-      <c r="J116" s="229"/>
-      <c r="K116" s="229"/>
-      <c r="L116" s="229"/>
-      <c r="M116" s="220"/>
+      <c r="G116" s="212"/>
+      <c r="H116" s="212"/>
+      <c r="I116" s="212"/>
+      <c r="J116" s="212"/>
+      <c r="K116" s="212"/>
+      <c r="L116" s="212"/>
+      <c r="M116" s="227"/>
     </row>
     <row r="117" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="211"/>
-      <c r="B117" s="217"/>
-      <c r="C117" s="232"/>
-      <c r="D117" s="238"/>
+      <c r="A117" s="230"/>
+      <c r="B117" s="221"/>
+      <c r="C117" s="224"/>
+      <c r="D117" s="235"/>
       <c r="E117" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F117" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G117" s="229"/>
-      <c r="H117" s="229"/>
-      <c r="I117" s="229"/>
-      <c r="J117" s="229"/>
-      <c r="K117" s="229"/>
-      <c r="L117" s="229"/>
-      <c r="M117" s="220"/>
+      <c r="G117" s="212"/>
+      <c r="H117" s="212"/>
+      <c r="I117" s="212"/>
+      <c r="J117" s="212"/>
+      <c r="K117" s="212"/>
+      <c r="L117" s="212"/>
+      <c r="M117" s="227"/>
     </row>
     <row r="118" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="211"/>
-      <c r="B118" s="217"/>
-      <c r="C118" s="233"/>
-      <c r="D118" s="238"/>
+      <c r="A118" s="230"/>
+      <c r="B118" s="221"/>
+      <c r="C118" s="225"/>
+      <c r="D118" s="235"/>
       <c r="E118" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F118" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="G118" s="229"/>
-      <c r="H118" s="229"/>
-      <c r="I118" s="229"/>
-      <c r="J118" s="229"/>
-      <c r="K118" s="229"/>
-      <c r="L118" s="229"/>
-      <c r="M118" s="220"/>
+      <c r="G118" s="212"/>
+      <c r="H118" s="212"/>
+      <c r="I118" s="212"/>
+      <c r="J118" s="212"/>
+      <c r="K118" s="212"/>
+      <c r="L118" s="212"/>
+      <c r="M118" s="227"/>
     </row>
     <row r="119" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="211"/>
-      <c r="B119" s="217"/>
-      <c r="C119" s="231" t="s">
+      <c r="A119" s="230"/>
+      <c r="B119" s="221"/>
+      <c r="C119" s="223" t="s">
         <v>184</v>
       </c>
-      <c r="D119" s="238"/>
+      <c r="D119" s="235"/>
       <c r="E119" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F119" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G119" s="229"/>
-      <c r="H119" s="229"/>
-      <c r="I119" s="229"/>
-      <c r="J119" s="229"/>
-      <c r="K119" s="229"/>
-      <c r="L119" s="229"/>
-      <c r="M119" s="220"/>
+      <c r="G119" s="212"/>
+      <c r="H119" s="212"/>
+      <c r="I119" s="212"/>
+      <c r="J119" s="212"/>
+      <c r="K119" s="212"/>
+      <c r="L119" s="212"/>
+      <c r="M119" s="227"/>
     </row>
     <row r="120" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="211"/>
-      <c r="B120" s="217"/>
-      <c r="C120" s="232"/>
-      <c r="D120" s="238"/>
+      <c r="A120" s="230"/>
+      <c r="B120" s="221"/>
+      <c r="C120" s="224"/>
+      <c r="D120" s="235"/>
       <c r="E120" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F120" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="G120" s="229"/>
-      <c r="H120" s="229"/>
-      <c r="I120" s="229"/>
-      <c r="J120" s="229"/>
-      <c r="K120" s="229"/>
-      <c r="L120" s="229"/>
-      <c r="M120" s="220"/>
+      <c r="G120" s="212"/>
+      <c r="H120" s="212"/>
+      <c r="I120" s="212"/>
+      <c r="J120" s="212"/>
+      <c r="K120" s="212"/>
+      <c r="L120" s="212"/>
+      <c r="M120" s="227"/>
     </row>
     <row r="121" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="211"/>
-      <c r="B121" s="217"/>
-      <c r="C121" s="233"/>
-      <c r="D121" s="238"/>
+      <c r="A121" s="230"/>
+      <c r="B121" s="221"/>
+      <c r="C121" s="225"/>
+      <c r="D121" s="235"/>
       <c r="E121" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F121" s="123" t="s">
         <v>210</v>
       </c>
-      <c r="G121" s="229"/>
-      <c r="H121" s="229"/>
-      <c r="I121" s="229"/>
-      <c r="J121" s="229"/>
-      <c r="K121" s="229"/>
-      <c r="L121" s="229"/>
-      <c r="M121" s="220"/>
+      <c r="G121" s="212"/>
+      <c r="H121" s="212"/>
+      <c r="I121" s="212"/>
+      <c r="J121" s="212"/>
+      <c r="K121" s="212"/>
+      <c r="L121" s="212"/>
+      <c r="M121" s="227"/>
     </row>
     <row r="122" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="211"/>
-      <c r="B122" s="217"/>
-      <c r="C122" s="231" t="s">
+      <c r="A122" s="230"/>
+      <c r="B122" s="221"/>
+      <c r="C122" s="223" t="s">
         <v>185</v>
       </c>
-      <c r="D122" s="238"/>
+      <c r="D122" s="235"/>
       <c r="E122" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F122" s="123" t="s">
         <v>198</v>
       </c>
-      <c r="G122" s="229"/>
-      <c r="H122" s="229"/>
-      <c r="I122" s="229"/>
-      <c r="J122" s="229"/>
-      <c r="K122" s="229"/>
-      <c r="L122" s="229"/>
-      <c r="M122" s="220"/>
+      <c r="G122" s="212"/>
+      <c r="H122" s="212"/>
+      <c r="I122" s="212"/>
+      <c r="J122" s="212"/>
+      <c r="K122" s="212"/>
+      <c r="L122" s="212"/>
+      <c r="M122" s="227"/>
     </row>
     <row r="123" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="211"/>
-      <c r="B123" s="217"/>
-      <c r="C123" s="232"/>
-      <c r="D123" s="238"/>
+      <c r="A123" s="230"/>
+      <c r="B123" s="221"/>
+      <c r="C123" s="224"/>
+      <c r="D123" s="235"/>
       <c r="E123" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F123" s="123" t="s">
         <v>216</v>
       </c>
-      <c r="G123" s="229"/>
-      <c r="H123" s="229"/>
-      <c r="I123" s="229"/>
-      <c r="J123" s="229"/>
-      <c r="K123" s="229"/>
-      <c r="L123" s="229"/>
-      <c r="M123" s="220"/>
+      <c r="G123" s="212"/>
+      <c r="H123" s="212"/>
+      <c r="I123" s="212"/>
+      <c r="J123" s="212"/>
+      <c r="K123" s="212"/>
+      <c r="L123" s="212"/>
+      <c r="M123" s="227"/>
     </row>
     <row r="124" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="211"/>
-      <c r="B124" s="217"/>
-      <c r="C124" s="233"/>
-      <c r="D124" s="238"/>
+      <c r="A124" s="230"/>
+      <c r="B124" s="221"/>
+      <c r="C124" s="225"/>
+      <c r="D124" s="235"/>
       <c r="E124" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F124" s="123" t="s">
         <v>208</v>
       </c>
-      <c r="G124" s="229"/>
-      <c r="H124" s="229"/>
-      <c r="I124" s="229"/>
-      <c r="J124" s="229"/>
-      <c r="K124" s="229"/>
-      <c r="L124" s="229"/>
-      <c r="M124" s="220"/>
+      <c r="G124" s="212"/>
+      <c r="H124" s="212"/>
+      <c r="I124" s="212"/>
+      <c r="J124" s="212"/>
+      <c r="K124" s="212"/>
+      <c r="L124" s="212"/>
+      <c r="M124" s="227"/>
     </row>
     <row r="125" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="211"/>
-      <c r="B125" s="217"/>
-      <c r="C125" s="231" t="s">
+      <c r="A125" s="230"/>
+      <c r="B125" s="221"/>
+      <c r="C125" s="223" t="s">
         <v>186</v>
       </c>
-      <c r="D125" s="238"/>
+      <c r="D125" s="235"/>
       <c r="E125" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F125" s="123" t="s">
         <v>213</v>
       </c>
-      <c r="G125" s="229"/>
-      <c r="H125" s="229"/>
-      <c r="I125" s="229"/>
-      <c r="J125" s="229"/>
-      <c r="K125" s="229"/>
-      <c r="L125" s="229"/>
-      <c r="M125" s="220"/>
+      <c r="G125" s="212"/>
+      <c r="H125" s="212"/>
+      <c r="I125" s="212"/>
+      <c r="J125" s="212"/>
+      <c r="K125" s="212"/>
+      <c r="L125" s="212"/>
+      <c r="M125" s="227"/>
     </row>
     <row r="126" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="211"/>
-      <c r="B126" s="217"/>
-      <c r="C126" s="232"/>
-      <c r="D126" s="238"/>
+      <c r="A126" s="230"/>
+      <c r="B126" s="221"/>
+      <c r="C126" s="224"/>
+      <c r="D126" s="235"/>
       <c r="E126" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F126" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G126" s="229"/>
-      <c r="H126" s="229"/>
-      <c r="I126" s="229"/>
-      <c r="J126" s="229"/>
-      <c r="K126" s="229"/>
-      <c r="L126" s="229"/>
-      <c r="M126" s="220"/>
+      <c r="G126" s="212"/>
+      <c r="H126" s="212"/>
+      <c r="I126" s="212"/>
+      <c r="J126" s="212"/>
+      <c r="K126" s="212"/>
+      <c r="L126" s="212"/>
+      <c r="M126" s="227"/>
     </row>
     <row r="127" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="211"/>
-      <c r="B127" s="217"/>
-      <c r="C127" s="233"/>
-      <c r="D127" s="238"/>
+      <c r="A127" s="230"/>
+      <c r="B127" s="221"/>
+      <c r="C127" s="225"/>
+      <c r="D127" s="235"/>
       <c r="E127" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F127" s="123" t="s">
         <v>215</v>
       </c>
-      <c r="G127" s="229"/>
-      <c r="H127" s="229"/>
-      <c r="I127" s="229"/>
-      <c r="J127" s="229"/>
-      <c r="K127" s="229"/>
-      <c r="L127" s="229"/>
-      <c r="M127" s="220"/>
+      <c r="G127" s="212"/>
+      <c r="H127" s="212"/>
+      <c r="I127" s="212"/>
+      <c r="J127" s="212"/>
+      <c r="K127" s="212"/>
+      <c r="L127" s="212"/>
+      <c r="M127" s="227"/>
     </row>
     <row r="128" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="211"/>
-      <c r="B128" s="217"/>
-      <c r="C128" s="231" t="s">
+      <c r="A128" s="230"/>
+      <c r="B128" s="221"/>
+      <c r="C128" s="223" t="s">
         <v>187</v>
       </c>
-      <c r="D128" s="238"/>
+      <c r="D128" s="235"/>
       <c r="E128" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F128" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G128" s="229"/>
-      <c r="H128" s="229"/>
-      <c r="I128" s="229"/>
-      <c r="J128" s="229"/>
-      <c r="K128" s="229"/>
-      <c r="L128" s="229"/>
-      <c r="M128" s="220"/>
+      <c r="G128" s="212"/>
+      <c r="H128" s="212"/>
+      <c r="I128" s="212"/>
+      <c r="J128" s="212"/>
+      <c r="K128" s="212"/>
+      <c r="L128" s="212"/>
+      <c r="M128" s="227"/>
     </row>
     <row r="129" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="211"/>
-      <c r="B129" s="217"/>
-      <c r="C129" s="232"/>
-      <c r="D129" s="238"/>
+      <c r="A129" s="230"/>
+      <c r="B129" s="221"/>
+      <c r="C129" s="224"/>
+      <c r="D129" s="235"/>
       <c r="E129" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F129" s="123" t="s">
         <v>217</v>
       </c>
-      <c r="G129" s="229"/>
-      <c r="H129" s="229"/>
-      <c r="I129" s="229"/>
-      <c r="J129" s="229"/>
-      <c r="K129" s="229"/>
-      <c r="L129" s="229"/>
-      <c r="M129" s="220"/>
+      <c r="G129" s="212"/>
+      <c r="H129" s="212"/>
+      <c r="I129" s="212"/>
+      <c r="J129" s="212"/>
+      <c r="K129" s="212"/>
+      <c r="L129" s="212"/>
+      <c r="M129" s="227"/>
     </row>
     <row r="130" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="211"/>
-      <c r="B130" s="217"/>
-      <c r="C130" s="233"/>
-      <c r="D130" s="238"/>
+      <c r="A130" s="230"/>
+      <c r="B130" s="221"/>
+      <c r="C130" s="225"/>
+      <c r="D130" s="235"/>
       <c r="E130" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F130" s="123" t="s">
         <v>215</v>
       </c>
-      <c r="G130" s="229"/>
-      <c r="H130" s="229"/>
-      <c r="I130" s="229"/>
-      <c r="J130" s="229"/>
-      <c r="K130" s="229"/>
-      <c r="L130" s="229"/>
-      <c r="M130" s="220"/>
+      <c r="G130" s="212"/>
+      <c r="H130" s="212"/>
+      <c r="I130" s="212"/>
+      <c r="J130" s="212"/>
+      <c r="K130" s="212"/>
+      <c r="L130" s="212"/>
+      <c r="M130" s="227"/>
     </row>
     <row r="131" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="211"/>
-      <c r="B131" s="217"/>
-      <c r="C131" s="231" t="s">
+      <c r="A131" s="230"/>
+      <c r="B131" s="221"/>
+      <c r="C131" s="223" t="s">
         <v>188</v>
       </c>
-      <c r="D131" s="238"/>
+      <c r="D131" s="235"/>
       <c r="E131" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F131" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G131" s="229"/>
-      <c r="H131" s="229"/>
-      <c r="I131" s="229"/>
-      <c r="J131" s="229"/>
-      <c r="K131" s="229"/>
-      <c r="L131" s="229"/>
-      <c r="M131" s="220"/>
+      <c r="G131" s="212"/>
+      <c r="H131" s="212"/>
+      <c r="I131" s="212"/>
+      <c r="J131" s="212"/>
+      <c r="K131" s="212"/>
+      <c r="L131" s="212"/>
+      <c r="M131" s="227"/>
     </row>
     <row r="132" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="211"/>
-      <c r="B132" s="217"/>
-      <c r="C132" s="232"/>
-      <c r="D132" s="238"/>
+      <c r="A132" s="230"/>
+      <c r="B132" s="221"/>
+      <c r="C132" s="224"/>
+      <c r="D132" s="235"/>
       <c r="E132" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F132" s="123" t="s">
         <v>218</v>
       </c>
-      <c r="G132" s="229"/>
-      <c r="H132" s="229"/>
-      <c r="I132" s="229"/>
-      <c r="J132" s="229"/>
-      <c r="K132" s="229"/>
-      <c r="L132" s="229"/>
-      <c r="M132" s="220"/>
+      <c r="G132" s="212"/>
+      <c r="H132" s="212"/>
+      <c r="I132" s="212"/>
+      <c r="J132" s="212"/>
+      <c r="K132" s="212"/>
+      <c r="L132" s="212"/>
+      <c r="M132" s="227"/>
     </row>
     <row r="133" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="211"/>
-      <c r="B133" s="217"/>
-      <c r="C133" s="233"/>
-      <c r="D133" s="238"/>
+      <c r="A133" s="230"/>
+      <c r="B133" s="221"/>
+      <c r="C133" s="225"/>
+      <c r="D133" s="235"/>
       <c r="E133" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F133" s="123" t="s">
         <v>212</v>
       </c>
-      <c r="G133" s="229"/>
-      <c r="H133" s="229"/>
-      <c r="I133" s="229"/>
-      <c r="J133" s="229"/>
-      <c r="K133" s="229"/>
-      <c r="L133" s="229"/>
-      <c r="M133" s="220"/>
+      <c r="G133" s="212"/>
+      <c r="H133" s="212"/>
+      <c r="I133" s="212"/>
+      <c r="J133" s="212"/>
+      <c r="K133" s="212"/>
+      <c r="L133" s="212"/>
+      <c r="M133" s="227"/>
     </row>
     <row r="134" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="211"/>
-      <c r="B134" s="217"/>
-      <c r="C134" s="231" t="s">
+      <c r="A134" s="230"/>
+      <c r="B134" s="221"/>
+      <c r="C134" s="223" t="s">
         <v>189</v>
       </c>
-      <c r="D134" s="238"/>
+      <c r="D134" s="235"/>
       <c r="E134" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F134" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G134" s="229"/>
-      <c r="H134" s="229"/>
-      <c r="I134" s="229"/>
-      <c r="J134" s="229"/>
-      <c r="K134" s="229"/>
-      <c r="L134" s="229"/>
-      <c r="M134" s="220"/>
+      <c r="G134" s="212"/>
+      <c r="H134" s="212"/>
+      <c r="I134" s="212"/>
+      <c r="J134" s="212"/>
+      <c r="K134" s="212"/>
+      <c r="L134" s="212"/>
+      <c r="M134" s="227"/>
     </row>
     <row r="135" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="211"/>
-      <c r="B135" s="217"/>
-      <c r="C135" s="232"/>
-      <c r="D135" s="238"/>
+      <c r="A135" s="230"/>
+      <c r="B135" s="221"/>
+      <c r="C135" s="224"/>
+      <c r="D135" s="235"/>
       <c r="E135" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F135" s="123" t="s">
         <v>219</v>
       </c>
-      <c r="G135" s="229"/>
-      <c r="H135" s="229"/>
-      <c r="I135" s="229"/>
-      <c r="J135" s="229"/>
-      <c r="K135" s="229"/>
-      <c r="L135" s="229"/>
-      <c r="M135" s="220"/>
+      <c r="G135" s="212"/>
+      <c r="H135" s="212"/>
+      <c r="I135" s="212"/>
+      <c r="J135" s="212"/>
+      <c r="K135" s="212"/>
+      <c r="L135" s="212"/>
+      <c r="M135" s="227"/>
     </row>
     <row r="136" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="211"/>
-      <c r="B136" s="217"/>
-      <c r="C136" s="233"/>
-      <c r="D136" s="238"/>
+      <c r="A136" s="230"/>
+      <c r="B136" s="221"/>
+      <c r="C136" s="225"/>
+      <c r="D136" s="235"/>
       <c r="E136" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F136" s="123" t="s">
         <v>215</v>
       </c>
-      <c r="G136" s="229"/>
-      <c r="H136" s="229"/>
-      <c r="I136" s="229"/>
-      <c r="J136" s="229"/>
-      <c r="K136" s="229"/>
-      <c r="L136" s="229"/>
-      <c r="M136" s="220"/>
+      <c r="G136" s="212"/>
+      <c r="H136" s="212"/>
+      <c r="I136" s="212"/>
+      <c r="J136" s="212"/>
+      <c r="K136" s="212"/>
+      <c r="L136" s="212"/>
+      <c r="M136" s="227"/>
     </row>
     <row r="137" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="211"/>
-      <c r="B137" s="217"/>
-      <c r="C137" s="231" t="s">
+      <c r="A137" s="230"/>
+      <c r="B137" s="221"/>
+      <c r="C137" s="223" t="s">
         <v>190</v>
       </c>
-      <c r="D137" s="238"/>
+      <c r="D137" s="235"/>
       <c r="E137" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F137" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G137" s="229"/>
-      <c r="H137" s="229"/>
-      <c r="I137" s="229"/>
-      <c r="J137" s="229"/>
-      <c r="K137" s="229"/>
-      <c r="L137" s="229"/>
-      <c r="M137" s="220"/>
+      <c r="G137" s="212"/>
+      <c r="H137" s="212"/>
+      <c r="I137" s="212"/>
+      <c r="J137" s="212"/>
+      <c r="K137" s="212"/>
+      <c r="L137" s="212"/>
+      <c r="M137" s="227"/>
     </row>
     <row r="138" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="211"/>
-      <c r="B138" s="217"/>
-      <c r="C138" s="232"/>
-      <c r="D138" s="238"/>
+      <c r="A138" s="230"/>
+      <c r="B138" s="221"/>
+      <c r="C138" s="224"/>
+      <c r="D138" s="235"/>
       <c r="E138" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F138" s="123" t="s">
         <v>218</v>
       </c>
-      <c r="G138" s="229"/>
-      <c r="H138" s="229"/>
-      <c r="I138" s="229"/>
-      <c r="J138" s="229"/>
-      <c r="K138" s="229"/>
-      <c r="L138" s="229"/>
-      <c r="M138" s="220"/>
+      <c r="G138" s="212"/>
+      <c r="H138" s="212"/>
+      <c r="I138" s="212"/>
+      <c r="J138" s="212"/>
+      <c r="K138" s="212"/>
+      <c r="L138" s="212"/>
+      <c r="M138" s="227"/>
     </row>
     <row r="139" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="211"/>
-      <c r="B139" s="217"/>
-      <c r="C139" s="233"/>
-      <c r="D139" s="238"/>
+      <c r="A139" s="230"/>
+      <c r="B139" s="221"/>
+      <c r="C139" s="225"/>
+      <c r="D139" s="235"/>
       <c r="E139" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F139" s="123" t="s">
         <v>215</v>
       </c>
-      <c r="G139" s="229"/>
-      <c r="H139" s="229"/>
-      <c r="I139" s="229"/>
-      <c r="J139" s="229"/>
-      <c r="K139" s="229"/>
-      <c r="L139" s="229"/>
-      <c r="M139" s="220"/>
+      <c r="G139" s="212"/>
+      <c r="H139" s="212"/>
+      <c r="I139" s="212"/>
+      <c r="J139" s="212"/>
+      <c r="K139" s="212"/>
+      <c r="L139" s="212"/>
+      <c r="M139" s="227"/>
     </row>
     <row r="140" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="211"/>
-      <c r="B140" s="217"/>
-      <c r="C140" s="231" t="s">
+      <c r="A140" s="230"/>
+      <c r="B140" s="221"/>
+      <c r="C140" s="223" t="s">
         <v>191</v>
       </c>
-      <c r="D140" s="238"/>
+      <c r="D140" s="235"/>
       <c r="E140" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F140" s="123" t="s">
         <v>220</v>
       </c>
-      <c r="G140" s="229"/>
-      <c r="H140" s="229"/>
-      <c r="I140" s="229"/>
-      <c r="J140" s="229"/>
-      <c r="K140" s="229"/>
-      <c r="L140" s="229"/>
-      <c r="M140" s="220"/>
+      <c r="G140" s="212"/>
+      <c r="H140" s="212"/>
+      <c r="I140" s="212"/>
+      <c r="J140" s="212"/>
+      <c r="K140" s="212"/>
+      <c r="L140" s="212"/>
+      <c r="M140" s="227"/>
     </row>
     <row r="141" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="211"/>
-      <c r="B141" s="217"/>
-      <c r="C141" s="232"/>
-      <c r="D141" s="238"/>
+      <c r="A141" s="230"/>
+      <c r="B141" s="221"/>
+      <c r="C141" s="224"/>
+      <c r="D141" s="235"/>
       <c r="E141" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F141" s="123" t="s">
         <v>221</v>
       </c>
-      <c r="G141" s="229"/>
-      <c r="H141" s="229"/>
-      <c r="I141" s="229"/>
-      <c r="J141" s="229"/>
-      <c r="K141" s="229"/>
-      <c r="L141" s="229"/>
-      <c r="M141" s="220"/>
+      <c r="G141" s="212"/>
+      <c r="H141" s="212"/>
+      <c r="I141" s="212"/>
+      <c r="J141" s="212"/>
+      <c r="K141" s="212"/>
+      <c r="L141" s="212"/>
+      <c r="M141" s="227"/>
     </row>
     <row r="142" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="211"/>
-      <c r="B142" s="217"/>
-      <c r="C142" s="233"/>
-      <c r="D142" s="238"/>
+      <c r="A142" s="230"/>
+      <c r="B142" s="221"/>
+      <c r="C142" s="225"/>
+      <c r="D142" s="235"/>
       <c r="E142" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F142" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G142" s="229"/>
-      <c r="H142" s="229"/>
-      <c r="I142" s="229"/>
-      <c r="J142" s="229"/>
-      <c r="K142" s="229"/>
-      <c r="L142" s="229"/>
-      <c r="M142" s="220"/>
+      <c r="G142" s="212"/>
+      <c r="H142" s="212"/>
+      <c r="I142" s="212"/>
+      <c r="J142" s="212"/>
+      <c r="K142" s="212"/>
+      <c r="L142" s="212"/>
+      <c r="M142" s="227"/>
     </row>
     <row r="143" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="211"/>
-      <c r="B143" s="217"/>
-      <c r="C143" s="231" t="s">
+      <c r="A143" s="230"/>
+      <c r="B143" s="221"/>
+      <c r="C143" s="223" t="s">
         <v>192</v>
       </c>
-      <c r="D143" s="238"/>
+      <c r="D143" s="235"/>
       <c r="E143" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F143" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G143" s="229"/>
-      <c r="H143" s="229"/>
-      <c r="I143" s="229"/>
-      <c r="J143" s="229"/>
-      <c r="K143" s="229"/>
-      <c r="L143" s="229"/>
-      <c r="M143" s="220"/>
+      <c r="G143" s="212"/>
+      <c r="H143" s="212"/>
+      <c r="I143" s="212"/>
+      <c r="J143" s="212"/>
+      <c r="K143" s="212"/>
+      <c r="L143" s="212"/>
+      <c r="M143" s="227"/>
     </row>
     <row r="144" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="211"/>
-      <c r="B144" s="217"/>
-      <c r="C144" s="232"/>
-      <c r="D144" s="238"/>
+      <c r="A144" s="230"/>
+      <c r="B144" s="221"/>
+      <c r="C144" s="224"/>
+      <c r="D144" s="235"/>
       <c r="E144" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F144" s="123" t="s">
         <v>204</v>
       </c>
-      <c r="G144" s="229"/>
-      <c r="H144" s="229"/>
-      <c r="I144" s="229"/>
-      <c r="J144" s="229"/>
-      <c r="K144" s="229"/>
-      <c r="L144" s="229"/>
-      <c r="M144" s="220"/>
+      <c r="G144" s="212"/>
+      <c r="H144" s="212"/>
+      <c r="I144" s="212"/>
+      <c r="J144" s="212"/>
+      <c r="K144" s="212"/>
+      <c r="L144" s="212"/>
+      <c r="M144" s="227"/>
     </row>
     <row r="145" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="211"/>
-      <c r="B145" s="217"/>
-      <c r="C145" s="233"/>
-      <c r="D145" s="238"/>
+      <c r="A145" s="230"/>
+      <c r="B145" s="221"/>
+      <c r="C145" s="225"/>
+      <c r="D145" s="235"/>
       <c r="E145" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F145" s="123" t="s">
         <v>208</v>
       </c>
-      <c r="G145" s="229"/>
-      <c r="H145" s="229"/>
-      <c r="I145" s="229"/>
-      <c r="J145" s="229"/>
-      <c r="K145" s="229"/>
-      <c r="L145" s="229"/>
-      <c r="M145" s="220"/>
+      <c r="G145" s="212"/>
+      <c r="H145" s="212"/>
+      <c r="I145" s="212"/>
+      <c r="J145" s="212"/>
+      <c r="K145" s="212"/>
+      <c r="L145" s="212"/>
+      <c r="M145" s="227"/>
     </row>
     <row r="146" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="211"/>
-      <c r="B146" s="217"/>
-      <c r="C146" s="231" t="s">
+      <c r="A146" s="230"/>
+      <c r="B146" s="221"/>
+      <c r="C146" s="223" t="s">
         <v>193</v>
       </c>
-      <c r="D146" s="238"/>
+      <c r="D146" s="235"/>
       <c r="E146" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F146" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G146" s="229"/>
-      <c r="H146" s="229"/>
-      <c r="I146" s="229"/>
-      <c r="J146" s="229"/>
-      <c r="K146" s="229"/>
-      <c r="L146" s="229"/>
-      <c r="M146" s="220"/>
+      <c r="G146" s="212"/>
+      <c r="H146" s="212"/>
+      <c r="I146" s="212"/>
+      <c r="J146" s="212"/>
+      <c r="K146" s="212"/>
+      <c r="L146" s="212"/>
+      <c r="M146" s="227"/>
     </row>
     <row r="147" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="211"/>
-      <c r="B147" s="217"/>
-      <c r="C147" s="232"/>
-      <c r="D147" s="238"/>
+      <c r="A147" s="230"/>
+      <c r="B147" s="221"/>
+      <c r="C147" s="224"/>
+      <c r="D147" s="235"/>
       <c r="E147" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F147" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="G147" s="229"/>
-      <c r="H147" s="229"/>
-      <c r="I147" s="229"/>
-      <c r="J147" s="229"/>
-      <c r="K147" s="229"/>
-      <c r="L147" s="229"/>
-      <c r="M147" s="220"/>
+      <c r="G147" s="212"/>
+      <c r="H147" s="212"/>
+      <c r="I147" s="212"/>
+      <c r="J147" s="212"/>
+      <c r="K147" s="212"/>
+      <c r="L147" s="212"/>
+      <c r="M147" s="227"/>
     </row>
     <row r="148" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="211"/>
-      <c r="B148" s="217"/>
-      <c r="C148" s="232"/>
-      <c r="D148" s="238"/>
-      <c r="E148" s="234" t="s">
+      <c r="A148" s="230"/>
+      <c r="B148" s="221"/>
+      <c r="C148" s="224"/>
+      <c r="D148" s="235"/>
+      <c r="E148" s="231" t="s">
         <v>168</v>
       </c>
       <c r="F148" s="123" t="s">
         <v>218</v>
       </c>
-      <c r="G148" s="229"/>
-      <c r="H148" s="229"/>
-      <c r="I148" s="229"/>
-      <c r="J148" s="229"/>
-      <c r="K148" s="229"/>
-      <c r="L148" s="229"/>
-      <c r="M148" s="220"/>
+      <c r="G148" s="212"/>
+      <c r="H148" s="212"/>
+      <c r="I148" s="212"/>
+      <c r="J148" s="212"/>
+      <c r="K148" s="212"/>
+      <c r="L148" s="212"/>
+      <c r="M148" s="227"/>
     </row>
     <row r="149" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="211"/>
-      <c r="B149" s="217"/>
-      <c r="C149" s="233"/>
-      <c r="D149" s="238"/>
-      <c r="E149" s="235"/>
+      <c r="A149" s="230"/>
+      <c r="B149" s="221"/>
+      <c r="C149" s="225"/>
+      <c r="D149" s="235"/>
+      <c r="E149" s="232"/>
       <c r="F149" s="123" t="s">
         <v>205</v>
       </c>
-      <c r="G149" s="229"/>
-      <c r="H149" s="229"/>
-      <c r="I149" s="229"/>
-      <c r="J149" s="229"/>
-      <c r="K149" s="229"/>
-      <c r="L149" s="229"/>
-      <c r="M149" s="220"/>
+      <c r="G149" s="212"/>
+      <c r="H149" s="212"/>
+      <c r="I149" s="212"/>
+      <c r="J149" s="212"/>
+      <c r="K149" s="212"/>
+      <c r="L149" s="212"/>
+      <c r="M149" s="227"/>
     </row>
     <row r="150" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="211"/>
-      <c r="B150" s="217"/>
-      <c r="C150" s="231" t="s">
+      <c r="A150" s="230"/>
+      <c r="B150" s="221"/>
+      <c r="C150" s="223" t="s">
         <v>194</v>
       </c>
-      <c r="D150" s="238"/>
+      <c r="D150" s="235"/>
       <c r="E150" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F150" s="123" t="s">
         <v>209</v>
       </c>
-      <c r="G150" s="229"/>
-      <c r="H150" s="229"/>
-      <c r="I150" s="229"/>
-      <c r="J150" s="229"/>
-      <c r="K150" s="229"/>
-      <c r="L150" s="229"/>
-      <c r="M150" s="220"/>
+      <c r="G150" s="212"/>
+      <c r="H150" s="212"/>
+      <c r="I150" s="212"/>
+      <c r="J150" s="212"/>
+      <c r="K150" s="212"/>
+      <c r="L150" s="212"/>
+      <c r="M150" s="227"/>
     </row>
     <row r="151" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="211"/>
-      <c r="B151" s="217"/>
-      <c r="C151" s="232"/>
-      <c r="D151" s="238"/>
+      <c r="A151" s="230"/>
+      <c r="B151" s="221"/>
+      <c r="C151" s="224"/>
+      <c r="D151" s="235"/>
       <c r="E151" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F151" s="123" t="s">
         <v>222</v>
       </c>
-      <c r="G151" s="229"/>
-      <c r="H151" s="229"/>
-      <c r="I151" s="229"/>
-      <c r="J151" s="229"/>
-      <c r="K151" s="229"/>
-      <c r="L151" s="229"/>
-      <c r="M151" s="220"/>
+      <c r="G151" s="212"/>
+      <c r="H151" s="212"/>
+      <c r="I151" s="212"/>
+      <c r="J151" s="212"/>
+      <c r="K151" s="212"/>
+      <c r="L151" s="212"/>
+      <c r="M151" s="227"/>
     </row>
     <row r="152" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="211"/>
-      <c r="B152" s="217"/>
-      <c r="C152" s="233"/>
-      <c r="D152" s="238"/>
+      <c r="A152" s="230"/>
+      <c r="B152" s="221"/>
+      <c r="C152" s="225"/>
+      <c r="D152" s="235"/>
       <c r="E152" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F152" s="123" t="s">
         <v>223</v>
       </c>
-      <c r="G152" s="229"/>
-      <c r="H152" s="229"/>
-      <c r="I152" s="229"/>
-      <c r="J152" s="229"/>
-      <c r="K152" s="229"/>
-      <c r="L152" s="229"/>
-      <c r="M152" s="220"/>
+      <c r="G152" s="212"/>
+      <c r="H152" s="212"/>
+      <c r="I152" s="212"/>
+      <c r="J152" s="212"/>
+      <c r="K152" s="212"/>
+      <c r="L152" s="212"/>
+      <c r="M152" s="227"/>
     </row>
     <row r="153" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="211"/>
-      <c r="B153" s="217"/>
-      <c r="C153" s="231" t="s">
+      <c r="A153" s="230"/>
+      <c r="B153" s="221"/>
+      <c r="C153" s="223" t="s">
         <v>195</v>
       </c>
-      <c r="D153" s="238"/>
+      <c r="D153" s="235"/>
       <c r="E153" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F153" s="123" t="s">
         <v>224</v>
       </c>
-      <c r="G153" s="229"/>
-      <c r="H153" s="229"/>
-      <c r="I153" s="229"/>
-      <c r="J153" s="229"/>
-      <c r="K153" s="229"/>
-      <c r="L153" s="229"/>
-      <c r="M153" s="220"/>
+      <c r="G153" s="212"/>
+      <c r="H153" s="212"/>
+      <c r="I153" s="212"/>
+      <c r="J153" s="212"/>
+      <c r="K153" s="212"/>
+      <c r="L153" s="212"/>
+      <c r="M153" s="227"/>
     </row>
     <row r="154" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="211"/>
-      <c r="B154" s="217"/>
-      <c r="C154" s="232"/>
-      <c r="D154" s="238"/>
+      <c r="A154" s="230"/>
+      <c r="B154" s="221"/>
+      <c r="C154" s="224"/>
+      <c r="D154" s="235"/>
       <c r="E154" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F154" s="123" t="s">
         <v>225</v>
       </c>
-      <c r="G154" s="229"/>
-      <c r="H154" s="229"/>
-      <c r="I154" s="229"/>
-      <c r="J154" s="229"/>
-      <c r="K154" s="229"/>
-      <c r="L154" s="229"/>
-      <c r="M154" s="220"/>
+      <c r="G154" s="212"/>
+      <c r="H154" s="212"/>
+      <c r="I154" s="212"/>
+      <c r="J154" s="212"/>
+      <c r="K154" s="212"/>
+      <c r="L154" s="212"/>
+      <c r="M154" s="227"/>
     </row>
     <row r="155" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="211"/>
-      <c r="B155" s="217"/>
-      <c r="C155" s="233"/>
-      <c r="D155" s="238"/>
+      <c r="A155" s="230"/>
+      <c r="B155" s="221"/>
+      <c r="C155" s="225"/>
+      <c r="D155" s="235"/>
       <c r="E155" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F155" s="123" t="s">
         <v>226</v>
       </c>
-      <c r="G155" s="229"/>
-      <c r="H155" s="229"/>
-      <c r="I155" s="229"/>
-      <c r="J155" s="229"/>
-      <c r="K155" s="229"/>
-      <c r="L155" s="229"/>
-      <c r="M155" s="220"/>
+      <c r="G155" s="212"/>
+      <c r="H155" s="212"/>
+      <c r="I155" s="212"/>
+      <c r="J155" s="212"/>
+      <c r="K155" s="212"/>
+      <c r="L155" s="212"/>
+      <c r="M155" s="227"/>
     </row>
     <row r="156" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="211"/>
-      <c r="B156" s="217"/>
-      <c r="C156" s="231" t="s">
+      <c r="A156" s="230"/>
+      <c r="B156" s="221"/>
+      <c r="C156" s="223" t="s">
         <v>196</v>
       </c>
-      <c r="D156" s="238"/>
-      <c r="E156" s="234" t="s">
+      <c r="D156" s="235"/>
+      <c r="E156" s="231" t="s">
         <v>166</v>
       </c>
       <c r="F156" s="123" t="s">
         <v>208</v>
       </c>
-      <c r="G156" s="229"/>
-      <c r="H156" s="229"/>
-      <c r="I156" s="229"/>
-      <c r="J156" s="229"/>
-      <c r="K156" s="229"/>
-      <c r="L156" s="229"/>
-      <c r="M156" s="220"/>
+      <c r="G156" s="212"/>
+      <c r="H156" s="212"/>
+      <c r="I156" s="212"/>
+      <c r="J156" s="212"/>
+      <c r="K156" s="212"/>
+      <c r="L156" s="212"/>
+      <c r="M156" s="227"/>
     </row>
     <row r="157" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="211"/>
-      <c r="B157" s="217"/>
-      <c r="C157" s="232"/>
-      <c r="D157" s="238"/>
-      <c r="E157" s="235"/>
+      <c r="A157" s="230"/>
+      <c r="B157" s="221"/>
+      <c r="C157" s="224"/>
+      <c r="D157" s="235"/>
+      <c r="E157" s="232"/>
       <c r="F157" s="123" t="s">
         <v>224</v>
       </c>
-      <c r="G157" s="229"/>
-      <c r="H157" s="229"/>
-      <c r="I157" s="229"/>
-      <c r="J157" s="229"/>
-      <c r="K157" s="229"/>
-      <c r="L157" s="229"/>
-      <c r="M157" s="220"/>
+      <c r="G157" s="212"/>
+      <c r="H157" s="212"/>
+      <c r="I157" s="212"/>
+      <c r="J157" s="212"/>
+      <c r="K157" s="212"/>
+      <c r="L157" s="212"/>
+      <c r="M157" s="227"/>
     </row>
     <row r="158" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="211"/>
-      <c r="B158" s="217"/>
-      <c r="C158" s="232"/>
-      <c r="D158" s="238"/>
-      <c r="E158" s="234" t="s">
+      <c r="A158" s="230"/>
+      <c r="B158" s="221"/>
+      <c r="C158" s="224"/>
+      <c r="D158" s="235"/>
+      <c r="E158" s="231" t="s">
         <v>167</v>
       </c>
       <c r="F158" s="123" t="s">
         <v>227</v>
       </c>
-      <c r="G158" s="229"/>
-      <c r="H158" s="229"/>
-      <c r="I158" s="229"/>
-      <c r="J158" s="229"/>
-      <c r="K158" s="229"/>
-      <c r="L158" s="229"/>
-      <c r="M158" s="220"/>
+      <c r="G158" s="212"/>
+      <c r="H158" s="212"/>
+      <c r="I158" s="212"/>
+      <c r="J158" s="212"/>
+      <c r="K158" s="212"/>
+      <c r="L158" s="212"/>
+      <c r="M158" s="227"/>
     </row>
     <row r="159" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="211"/>
-      <c r="B159" s="217"/>
-      <c r="C159" s="232"/>
-      <c r="D159" s="238"/>
-      <c r="E159" s="236"/>
+      <c r="A159" s="230"/>
+      <c r="B159" s="221"/>
+      <c r="C159" s="224"/>
+      <c r="D159" s="235"/>
+      <c r="E159" s="233"/>
       <c r="F159" s="123" t="s">
         <v>228</v>
       </c>
-      <c r="G159" s="229"/>
-      <c r="H159" s="229"/>
-      <c r="I159" s="229"/>
-      <c r="J159" s="229"/>
-      <c r="K159" s="229"/>
-      <c r="L159" s="229"/>
-      <c r="M159" s="220"/>
+      <c r="G159" s="212"/>
+      <c r="H159" s="212"/>
+      <c r="I159" s="212"/>
+      <c r="J159" s="212"/>
+      <c r="K159" s="212"/>
+      <c r="L159" s="212"/>
+      <c r="M159" s="227"/>
     </row>
     <row r="160" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="211"/>
-      <c r="B160" s="217"/>
-      <c r="C160" s="232"/>
-      <c r="D160" s="238"/>
-      <c r="E160" s="235"/>
+      <c r="A160" s="230"/>
+      <c r="B160" s="221"/>
+      <c r="C160" s="224"/>
+      <c r="D160" s="235"/>
+      <c r="E160" s="232"/>
       <c r="F160" s="123" t="s">
         <v>229</v>
       </c>
-      <c r="G160" s="229"/>
-      <c r="H160" s="229"/>
-      <c r="I160" s="229"/>
-      <c r="J160" s="229"/>
-      <c r="K160" s="229"/>
-      <c r="L160" s="229"/>
-      <c r="M160" s="220"/>
+      <c r="G160" s="212"/>
+      <c r="H160" s="212"/>
+      <c r="I160" s="212"/>
+      <c r="J160" s="212"/>
+      <c r="K160" s="212"/>
+      <c r="L160" s="212"/>
+      <c r="M160" s="227"/>
     </row>
     <row r="161" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="211"/>
-      <c r="B161" s="218"/>
-      <c r="C161" s="233"/>
-      <c r="D161" s="239"/>
+      <c r="A161" s="230"/>
+      <c r="B161" s="222"/>
+      <c r="C161" s="225"/>
+      <c r="D161" s="236"/>
       <c r="E161" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F161" s="123" t="s">
         <v>214</v>
       </c>
-      <c r="G161" s="230"/>
-      <c r="H161" s="230"/>
-      <c r="I161" s="230"/>
-      <c r="J161" s="230"/>
-      <c r="K161" s="230"/>
-      <c r="L161" s="230"/>
-      <c r="M161" s="221"/>
+      <c r="G161" s="213"/>
+      <c r="H161" s="213"/>
+      <c r="I161" s="213"/>
+      <c r="J161" s="213"/>
+      <c r="K161" s="213"/>
+      <c r="L161" s="213"/>
+      <c r="M161" s="228"/>
     </row>
     <row r="162" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="15"/>
@@ -6817,45 +6829,22 @@
     </row>
   </sheetData>
   <mergeCells count="71">
-    <mergeCell ref="A8:A26"/>
-    <mergeCell ref="C17:C22"/>
-    <mergeCell ref="G67:G161"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="B29:B53"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B8:B26"/>
-    <mergeCell ref="C100:C103"/>
-    <mergeCell ref="M67:M161"/>
-    <mergeCell ref="C137:C139"/>
-    <mergeCell ref="C140:C142"/>
-    <mergeCell ref="C143:C145"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="C150:C152"/>
-    <mergeCell ref="C122:C124"/>
-    <mergeCell ref="C125:C127"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="C131:C133"/>
-    <mergeCell ref="C134:C136"/>
-    <mergeCell ref="C104:C108"/>
-    <mergeCell ref="J67:J161"/>
-    <mergeCell ref="K67:K161"/>
-    <mergeCell ref="L67:L161"/>
-    <mergeCell ref="A67:A161"/>
-    <mergeCell ref="C109:C111"/>
-    <mergeCell ref="C112:C115"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="C80:C82"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="B67:B161"/>
-    <mergeCell ref="C116:C118"/>
-    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="A29:A53"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="B56:B64"/>
+    <mergeCell ref="M56:M64"/>
+    <mergeCell ref="M8:M26"/>
+    <mergeCell ref="M29:M53"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E17:E19"/>
     <mergeCell ref="H67:H161"/>
     <mergeCell ref="I67:I161"/>
     <mergeCell ref="C153:C155"/>
@@ -6872,22 +6861,45 @@
     <mergeCell ref="C89:C92"/>
     <mergeCell ref="C93:C96"/>
     <mergeCell ref="C97:C99"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="A29:A53"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="B56:B64"/>
-    <mergeCell ref="M56:M64"/>
-    <mergeCell ref="M8:M26"/>
-    <mergeCell ref="M29:M53"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="B67:B161"/>
+    <mergeCell ref="C116:C118"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="M67:M161"/>
+    <mergeCell ref="C137:C139"/>
+    <mergeCell ref="C140:C142"/>
+    <mergeCell ref="C143:C145"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="C150:C152"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="C134:C136"/>
+    <mergeCell ref="C104:C108"/>
+    <mergeCell ref="J67:J161"/>
+    <mergeCell ref="K67:K161"/>
+    <mergeCell ref="L67:L161"/>
+    <mergeCell ref="C109:C111"/>
+    <mergeCell ref="A8:A26"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="G67:G161"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="B29:B53"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B8:B26"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="A67:A161"/>
+    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="C80:C82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6917,22 +6929,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="245" t="s">
+      <c r="A1" s="253" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="245"/>
-      <c r="G1" s="245"/>
-      <c r="H1" s="245"/>
-      <c r="I1" s="245"/>
-      <c r="J1" s="245"/>
-      <c r="K1" s="245"/>
-      <c r="L1" s="245"/>
-      <c r="M1" s="245"/>
-      <c r="N1" s="245"/>
+      <c r="B1" s="253"/>
+      <c r="C1" s="253"/>
+      <c r="D1" s="253"/>
+      <c r="E1" s="253"/>
+      <c r="F1" s="253"/>
+      <c r="G1" s="253"/>
+      <c r="H1" s="253"/>
+      <c r="I1" s="253"/>
+      <c r="J1" s="253"/>
+      <c r="K1" s="253"/>
+      <c r="L1" s="253"/>
+      <c r="M1" s="253"/>
+      <c r="N1" s="253"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="124"/>
@@ -6996,14 +7008,14 @@
       <c r="E4" s="128"/>
       <c r="F4" s="129"/>
       <c r="G4" s="129"/>
-      <c r="H4" s="261" t="s">
+      <c r="H4" s="248" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="262"/>
-      <c r="J4" s="262"/>
-      <c r="K4" s="262"/>
-      <c r="L4" s="262"/>
-      <c r="M4" s="263"/>
+      <c r="I4" s="249"/>
+      <c r="J4" s="249"/>
+      <c r="K4" s="249"/>
+      <c r="L4" s="249"/>
+      <c r="M4" s="250"/>
       <c r="N4" s="130"/>
     </row>
     <row r="5" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
@@ -7051,10 +7063,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="244" t="s">
+      <c r="A6" s="251" t="s">
         <v>237</v>
       </c>
-      <c r="B6" s="256" t="s">
+      <c r="B6" s="252" t="s">
         <v>238</v>
       </c>
       <c r="C6" s="138" t="s">
@@ -7063,7 +7075,7 @@
       <c r="D6" s="139" t="s">
         <v>240</v>
       </c>
-      <c r="E6" s="264" t="s">
+      <c r="E6" s="243" t="s">
         <v>241</v>
       </c>
       <c r="F6" s="140">
@@ -7088,21 +7100,21 @@
         <v>49</v>
       </c>
       <c r="M6" s="176"/>
-      <c r="N6" s="264" t="s">
+      <c r="N6" s="243" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="244"/>
-      <c r="B7" s="256"/>
-      <c r="C7" s="248" t="s">
+      <c r="A7" s="251"/>
+      <c r="B7" s="252"/>
+      <c r="C7" s="256" t="s">
         <v>242</v>
       </c>
-      <c r="D7" s="246" t="s">
+      <c r="D7" s="254" t="s">
         <v>240</v>
       </c>
-      <c r="E7" s="265"/>
-      <c r="F7" s="250">
+      <c r="E7" s="244"/>
+      <c r="F7" s="258">
         <v>2</v>
       </c>
       <c r="G7" s="140" t="s">
@@ -7124,15 +7136,15 @@
         <v>49</v>
       </c>
       <c r="M7" s="176"/>
-      <c r="N7" s="265"/>
+      <c r="N7" s="244"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="244"/>
-      <c r="B8" s="256"/>
-      <c r="C8" s="249"/>
-      <c r="D8" s="247"/>
-      <c r="E8" s="265"/>
-      <c r="F8" s="251"/>
+      <c r="A8" s="251"/>
+      <c r="B8" s="252"/>
+      <c r="C8" s="257"/>
+      <c r="D8" s="255"/>
+      <c r="E8" s="244"/>
+      <c r="F8" s="259"/>
       <c r="G8" s="140" t="s">
         <v>276</v>
       </c>
@@ -7152,18 +7164,18 @@
         <v>49</v>
       </c>
       <c r="M8" s="176"/>
-      <c r="N8" s="265"/>
+      <c r="N8" s="244"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="244"/>
-      <c r="B9" s="256"/>
+      <c r="A9" s="251"/>
+      <c r="B9" s="252"/>
       <c r="C9" s="141" t="s">
         <v>243</v>
       </c>
       <c r="D9" s="139" t="s">
         <v>240</v>
       </c>
-      <c r="E9" s="265"/>
+      <c r="E9" s="244"/>
       <c r="F9" s="140">
         <v>1</v>
       </c>
@@ -7186,18 +7198,18 @@
         <v>49</v>
       </c>
       <c r="M9" s="143"/>
-      <c r="N9" s="265"/>
+      <c r="N9" s="244"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="244"/>
-      <c r="B10" s="256"/>
-      <c r="C10" s="267" t="s">
+      <c r="A10" s="251"/>
+      <c r="B10" s="252"/>
+      <c r="C10" s="246" t="s">
         <v>244</v>
       </c>
       <c r="D10" s="144" t="s">
         <v>245</v>
       </c>
-      <c r="E10" s="265"/>
+      <c r="E10" s="244"/>
       <c r="F10" s="140">
         <v>1</v>
       </c>
@@ -7220,16 +7232,16 @@
         <v>49</v>
       </c>
       <c r="M10" s="143"/>
-      <c r="N10" s="265"/>
+      <c r="N10" s="244"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="244"/>
-      <c r="B11" s="256"/>
-      <c r="C11" s="267"/>
+      <c r="A11" s="251"/>
+      <c r="B11" s="252"/>
+      <c r="C11" s="246"/>
       <c r="D11" s="144" t="s">
         <v>246</v>
       </c>
-      <c r="E11" s="265"/>
+      <c r="E11" s="244"/>
       <c r="F11" s="140">
         <v>1</v>
       </c>
@@ -7252,16 +7264,16 @@
         <v>49</v>
       </c>
       <c r="M11" s="143"/>
-      <c r="N11" s="265"/>
+      <c r="N11" s="244"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="244"/>
-      <c r="B12" s="256"/>
-      <c r="C12" s="267"/>
+      <c r="A12" s="251"/>
+      <c r="B12" s="252"/>
+      <c r="C12" s="246"/>
       <c r="D12" s="144" t="s">
         <v>247</v>
       </c>
-      <c r="E12" s="265"/>
+      <c r="E12" s="244"/>
       <c r="F12" s="140">
         <v>1</v>
       </c>
@@ -7284,16 +7296,16 @@
         <v>49</v>
       </c>
       <c r="M12" s="143"/>
-      <c r="N12" s="265"/>
+      <c r="N12" s="244"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="244"/>
-      <c r="B13" s="256"/>
-      <c r="C13" s="267"/>
+      <c r="A13" s="251"/>
+      <c r="B13" s="252"/>
+      <c r="C13" s="246"/>
       <c r="D13" s="144" t="s">
         <v>248</v>
       </c>
-      <c r="E13" s="265"/>
+      <c r="E13" s="244"/>
       <c r="F13" s="140">
         <v>1</v>
       </c>
@@ -7316,16 +7328,16 @@
         <v>49</v>
       </c>
       <c r="M13" s="143"/>
-      <c r="N13" s="265"/>
+      <c r="N13" s="244"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="244"/>
-      <c r="B14" s="256"/>
-      <c r="C14" s="267"/>
+      <c r="A14" s="251"/>
+      <c r="B14" s="252"/>
+      <c r="C14" s="246"/>
       <c r="D14" s="144" t="s">
         <v>249</v>
       </c>
-      <c r="E14" s="265"/>
+      <c r="E14" s="244"/>
       <c r="F14" s="140">
         <v>1</v>
       </c>
@@ -7348,16 +7360,16 @@
         <v>49</v>
       </c>
       <c r="M14" s="143"/>
-      <c r="N14" s="265"/>
+      <c r="N14" s="244"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="244"/>
-      <c r="B15" s="256"/>
-      <c r="C15" s="267"/>
+      <c r="A15" s="251"/>
+      <c r="B15" s="252"/>
+      <c r="C15" s="246"/>
       <c r="D15" s="144" t="s">
         <v>250</v>
       </c>
-      <c r="E15" s="265"/>
+      <c r="E15" s="244"/>
       <c r="F15" s="140">
         <v>1</v>
       </c>
@@ -7380,16 +7392,16 @@
         <v>49</v>
       </c>
       <c r="M15" s="143"/>
-      <c r="N15" s="265"/>
+      <c r="N15" s="244"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="244"/>
-      <c r="B16" s="256"/>
-      <c r="C16" s="267"/>
+      <c r="A16" s="251"/>
+      <c r="B16" s="252"/>
+      <c r="C16" s="246"/>
       <c r="D16" s="144" t="s">
         <v>251</v>
       </c>
-      <c r="E16" s="265"/>
+      <c r="E16" s="244"/>
       <c r="F16" s="140">
         <v>1</v>
       </c>
@@ -7412,18 +7424,18 @@
         <v>49</v>
       </c>
       <c r="M16" s="143"/>
-      <c r="N16" s="265"/>
+      <c r="N16" s="244"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="244"/>
-      <c r="B17" s="256"/>
-      <c r="C17" s="267" t="s">
+      <c r="A17" s="251"/>
+      <c r="B17" s="252"/>
+      <c r="C17" s="246" t="s">
         <v>252</v>
       </c>
       <c r="D17" s="144" t="s">
         <v>253</v>
       </c>
-      <c r="E17" s="265"/>
+      <c r="E17" s="244"/>
       <c r="F17" s="140">
         <v>1</v>
       </c>
@@ -7446,16 +7458,16 @@
         <v>49</v>
       </c>
       <c r="M17" s="143"/>
-      <c r="N17" s="265"/>
+      <c r="N17" s="244"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="244"/>
-      <c r="B18" s="256"/>
-      <c r="C18" s="267"/>
+      <c r="A18" s="251"/>
+      <c r="B18" s="252"/>
+      <c r="C18" s="246"/>
       <c r="D18" s="144" t="s">
         <v>254</v>
       </c>
-      <c r="E18" s="265"/>
+      <c r="E18" s="244"/>
       <c r="F18" s="140">
         <v>1</v>
       </c>
@@ -7478,16 +7490,16 @@
         <v>49</v>
       </c>
       <c r="M18" s="143"/>
-      <c r="N18" s="265"/>
+      <c r="N18" s="244"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="244"/>
-      <c r="B19" s="256"/>
-      <c r="C19" s="267"/>
+      <c r="A19" s="251"/>
+      <c r="B19" s="252"/>
+      <c r="C19" s="246"/>
       <c r="D19" s="144" t="s">
         <v>255</v>
       </c>
-      <c r="E19" s="265"/>
+      <c r="E19" s="244"/>
       <c r="F19" s="140">
         <v>1</v>
       </c>
@@ -7510,16 +7522,16 @@
         <v>49</v>
       </c>
       <c r="M19" s="143"/>
-      <c r="N19" s="265"/>
+      <c r="N19" s="244"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="244"/>
-      <c r="B20" s="256"/>
-      <c r="C20" s="267"/>
+      <c r="A20" s="251"/>
+      <c r="B20" s="252"/>
+      <c r="C20" s="246"/>
       <c r="D20" s="144" t="s">
         <v>256</v>
       </c>
-      <c r="E20" s="265"/>
+      <c r="E20" s="244"/>
       <c r="F20" s="140">
         <v>1</v>
       </c>
@@ -7542,16 +7554,16 @@
         <v>49</v>
       </c>
       <c r="M20" s="143"/>
-      <c r="N20" s="265"/>
+      <c r="N20" s="244"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="244"/>
-      <c r="B21" s="256"/>
-      <c r="C21" s="267"/>
+      <c r="A21" s="251"/>
+      <c r="B21" s="252"/>
+      <c r="C21" s="246"/>
       <c r="D21" s="144" t="s">
         <v>257</v>
       </c>
-      <c r="E21" s="266"/>
+      <c r="E21" s="245"/>
       <c r="F21" s="140">
         <v>1</v>
       </c>
@@ -7574,7 +7586,7 @@
         <v>49</v>
       </c>
       <c r="M21" s="143"/>
-      <c r="N21" s="266"/>
+      <c r="N21" s="245"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="145" t="s">
@@ -7601,19 +7613,19 @@
       <c r="N22" s="149"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="244" t="s">
+      <c r="A23" s="251" t="s">
         <v>237</v>
       </c>
-      <c r="B23" s="256" t="s">
+      <c r="B23" s="252" t="s">
         <v>259</v>
       </c>
-      <c r="C23" s="257" t="s">
+      <c r="C23" s="247" t="s">
         <v>260</v>
       </c>
       <c r="D23" s="144" t="s">
         <v>261</v>
       </c>
-      <c r="E23" s="258" t="s">
+      <c r="E23" s="264" t="s">
         <v>241</v>
       </c>
       <c r="F23" s="140">
@@ -7638,18 +7650,18 @@
         <v>49</v>
       </c>
       <c r="M23" s="143"/>
-      <c r="N23" s="258" t="s">
+      <c r="N23" s="264" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="244"/>
-      <c r="B24" s="256"/>
-      <c r="C24" s="257"/>
+      <c r="A24" s="251"/>
+      <c r="B24" s="252"/>
+      <c r="C24" s="247"/>
       <c r="D24" s="144" t="s">
         <v>262</v>
       </c>
-      <c r="E24" s="259"/>
+      <c r="E24" s="265"/>
       <c r="F24" s="156"/>
       <c r="G24" s="140"/>
       <c r="H24" s="175"/>
@@ -7664,18 +7676,18 @@
         <v>49</v>
       </c>
       <c r="M24" s="143"/>
-      <c r="N24" s="259"/>
+      <c r="N24" s="265"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="244"/>
-      <c r="B25" s="256"/>
-      <c r="C25" s="257" t="s">
+      <c r="A25" s="251"/>
+      <c r="B25" s="252"/>
+      <c r="C25" s="247" t="s">
         <v>263</v>
       </c>
       <c r="D25" s="144" t="s">
         <v>261</v>
       </c>
-      <c r="E25" s="259"/>
+      <c r="E25" s="265"/>
       <c r="F25" s="140">
         <v>1</v>
       </c>
@@ -7698,16 +7710,16 @@
         <v>49</v>
       </c>
       <c r="M25" s="143"/>
-      <c r="N25" s="259"/>
+      <c r="N25" s="265"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="244"/>
-      <c r="B26" s="256"/>
-      <c r="C26" s="257"/>
+      <c r="A26" s="251"/>
+      <c r="B26" s="252"/>
+      <c r="C26" s="247"/>
       <c r="D26" s="144" t="s">
         <v>264</v>
       </c>
-      <c r="E26" s="259"/>
+      <c r="E26" s="265"/>
       <c r="F26" s="181"/>
       <c r="G26" s="140"/>
       <c r="H26" s="175"/>
@@ -7722,16 +7734,16 @@
         <v>49</v>
       </c>
       <c r="M26" s="142"/>
-      <c r="N26" s="259"/>
+      <c r="N26" s="265"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="244"/>
-      <c r="B27" s="256"/>
-      <c r="C27" s="257"/>
+      <c r="A27" s="251"/>
+      <c r="B27" s="252"/>
+      <c r="C27" s="247"/>
       <c r="D27" s="144" t="s">
         <v>265</v>
       </c>
-      <c r="E27" s="259"/>
+      <c r="E27" s="265"/>
       <c r="F27" s="156"/>
       <c r="G27" s="140"/>
       <c r="H27" s="175"/>
@@ -7746,18 +7758,18 @@
         <v>49</v>
       </c>
       <c r="M27" s="153"/>
-      <c r="N27" s="259"/>
+      <c r="N27" s="265"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="244"/>
-      <c r="B28" s="256"/>
-      <c r="C28" s="257" t="s">
+      <c r="A28" s="251"/>
+      <c r="B28" s="252"/>
+      <c r="C28" s="247" t="s">
         <v>266</v>
       </c>
       <c r="D28" s="144" t="s">
         <v>261</v>
       </c>
-      <c r="E28" s="259"/>
+      <c r="E28" s="265"/>
       <c r="F28" s="140">
         <v>1</v>
       </c>
@@ -7780,16 +7792,16 @@
         <v>49</v>
       </c>
       <c r="M28" s="177"/>
-      <c r="N28" s="259"/>
+      <c r="N28" s="265"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="244"/>
-      <c r="B29" s="256"/>
-      <c r="C29" s="257"/>
+      <c r="A29" s="251"/>
+      <c r="B29" s="252"/>
+      <c r="C29" s="247"/>
       <c r="D29" s="144" t="s">
         <v>264</v>
       </c>
-      <c r="E29" s="259"/>
+      <c r="E29" s="265"/>
       <c r="F29" s="156"/>
       <c r="G29" s="140"/>
       <c r="H29" s="175"/>
@@ -7804,18 +7816,18 @@
         <v>49</v>
       </c>
       <c r="M29" s="177"/>
-      <c r="N29" s="259"/>
+      <c r="N29" s="265"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="244"/>
-      <c r="B30" s="256"/>
-      <c r="C30" s="257" t="s">
+      <c r="A30" s="251"/>
+      <c r="B30" s="252"/>
+      <c r="C30" s="247" t="s">
         <v>267</v>
       </c>
       <c r="D30" s="144" t="s">
         <v>261</v>
       </c>
-      <c r="E30" s="259"/>
+      <c r="E30" s="265"/>
       <c r="F30" s="140">
         <v>1</v>
       </c>
@@ -7838,16 +7850,16 @@
         <v>49</v>
       </c>
       <c r="M30" s="177"/>
-      <c r="N30" s="259"/>
+      <c r="N30" s="265"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="244"/>
-      <c r="B31" s="256"/>
-      <c r="C31" s="257"/>
+      <c r="A31" s="251"/>
+      <c r="B31" s="252"/>
+      <c r="C31" s="247"/>
       <c r="D31" s="144" t="s">
         <v>264</v>
       </c>
-      <c r="E31" s="259"/>
+      <c r="E31" s="265"/>
       <c r="F31" s="140">
         <v>1</v>
       </c>
@@ -7870,18 +7882,18 @@
         <v>49</v>
       </c>
       <c r="M31" s="177"/>
-      <c r="N31" s="259"/>
+      <c r="N31" s="265"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="244"/>
-      <c r="B32" s="256"/>
-      <c r="C32" s="267" t="s">
+      <c r="A32" s="251"/>
+      <c r="B32" s="252"/>
+      <c r="C32" s="246" t="s">
         <v>268</v>
       </c>
       <c r="D32" s="144" t="s">
         <v>261</v>
       </c>
-      <c r="E32" s="259"/>
+      <c r="E32" s="265"/>
       <c r="F32" s="140">
         <v>1</v>
       </c>
@@ -7904,16 +7916,16 @@
         <v>49</v>
       </c>
       <c r="M32" s="177"/>
-      <c r="N32" s="259"/>
+      <c r="N32" s="265"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="244"/>
-      <c r="B33" s="256"/>
-      <c r="C33" s="267"/>
+      <c r="A33" s="251"/>
+      <c r="B33" s="252"/>
+      <c r="C33" s="246"/>
       <c r="D33" s="144" t="s">
         <v>264</v>
       </c>
-      <c r="E33" s="259"/>
+      <c r="E33" s="265"/>
       <c r="F33" s="140">
         <v>1</v>
       </c>
@@ -7936,18 +7948,18 @@
         <v>49</v>
       </c>
       <c r="M33" s="177"/>
-      <c r="N33" s="259"/>
+      <c r="N33" s="265"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="244"/>
-      <c r="B34" s="256"/>
-      <c r="C34" s="257" t="s">
+      <c r="A34" s="251"/>
+      <c r="B34" s="252"/>
+      <c r="C34" s="247" t="s">
         <v>269</v>
       </c>
       <c r="D34" s="144" t="s">
         <v>261</v>
       </c>
-      <c r="E34" s="259"/>
+      <c r="E34" s="265"/>
       <c r="F34" s="140">
         <v>1</v>
       </c>
@@ -7970,16 +7982,16 @@
         <v>49</v>
       </c>
       <c r="M34" s="177"/>
-      <c r="N34" s="259"/>
+      <c r="N34" s="265"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="244"/>
-      <c r="B35" s="256"/>
-      <c r="C35" s="257"/>
+      <c r="A35" s="251"/>
+      <c r="B35" s="252"/>
+      <c r="C35" s="247"/>
       <c r="D35" s="144" t="s">
         <v>264</v>
       </c>
-      <c r="E35" s="260"/>
+      <c r="E35" s="266"/>
       <c r="F35" s="140">
         <v>1</v>
       </c>
@@ -8002,7 +8014,7 @@
         <v>49</v>
       </c>
       <c r="M35" s="177"/>
-      <c r="N35" s="260"/>
+      <c r="N35" s="266"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="131" t="s">
@@ -8025,132 +8037,132 @@
       <c r="N36" s="149"/>
     </row>
     <row r="37" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="244" t="s">
+      <c r="A37" s="251" t="s">
         <v>237</v>
       </c>
-      <c r="B37" s="255" t="s">
+      <c r="B37" s="263" t="s">
         <v>270</v>
       </c>
-      <c r="C37" s="254"/>
-      <c r="D37" s="253"/>
-      <c r="E37" s="252" t="s">
+      <c r="C37" s="262"/>
+      <c r="D37" s="261"/>
+      <c r="E37" s="260" t="s">
         <v>241</v>
       </c>
-      <c r="F37" s="252">
+      <c r="F37" s="260">
         <v>6</v>
       </c>
       <c r="G37" s="157" t="s">
         <v>285</v>
       </c>
-      <c r="H37" s="242" t="s">
-        <v>49</v>
-      </c>
-      <c r="I37" s="242" t="s">
-        <v>49</v>
-      </c>
-      <c r="J37" s="242" t="s">
-        <v>49</v>
-      </c>
-      <c r="K37" s="242" t="s">
-        <v>49</v>
-      </c>
-      <c r="L37" s="242" t="s">
-        <v>49</v>
-      </c>
-      <c r="M37" s="242"/>
-      <c r="N37" s="243" t="s">
+      <c r="H37" s="267" t="s">
+        <v>49</v>
+      </c>
+      <c r="I37" s="267" t="s">
+        <v>49</v>
+      </c>
+      <c r="J37" s="267" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37" s="267" t="s">
+        <v>49</v>
+      </c>
+      <c r="L37" s="267" t="s">
+        <v>49</v>
+      </c>
+      <c r="M37" s="267"/>
+      <c r="N37" s="268" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="244"/>
-      <c r="B38" s="255"/>
-      <c r="C38" s="254"/>
-      <c r="D38" s="253"/>
-      <c r="E38" s="252"/>
-      <c r="F38" s="252"/>
+      <c r="A38" s="251"/>
+      <c r="B38" s="263"/>
+      <c r="C38" s="262"/>
+      <c r="D38" s="261"/>
+      <c r="E38" s="260"/>
+      <c r="F38" s="260"/>
       <c r="G38" s="157" t="s">
         <v>286</v>
       </c>
-      <c r="H38" s="242"/>
-      <c r="I38" s="242"/>
-      <c r="J38" s="242"/>
-      <c r="K38" s="242"/>
-      <c r="L38" s="242"/>
-      <c r="M38" s="242"/>
-      <c r="N38" s="243"/>
+      <c r="H38" s="267"/>
+      <c r="I38" s="267"/>
+      <c r="J38" s="267"/>
+      <c r="K38" s="267"/>
+      <c r="L38" s="267"/>
+      <c r="M38" s="267"/>
+      <c r="N38" s="268"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="244"/>
-      <c r="B39" s="255"/>
-      <c r="C39" s="254"/>
-      <c r="D39" s="253"/>
-      <c r="E39" s="252"/>
-      <c r="F39" s="252"/>
+      <c r="A39" s="251"/>
+      <c r="B39" s="263"/>
+      <c r="C39" s="262"/>
+      <c r="D39" s="261"/>
+      <c r="E39" s="260"/>
+      <c r="F39" s="260"/>
       <c r="G39" s="157" t="s">
         <v>287</v>
       </c>
-      <c r="H39" s="242"/>
-      <c r="I39" s="242"/>
-      <c r="J39" s="242"/>
-      <c r="K39" s="242"/>
-      <c r="L39" s="242"/>
-      <c r="M39" s="242"/>
-      <c r="N39" s="243"/>
+      <c r="H39" s="267"/>
+      <c r="I39" s="267"/>
+      <c r="J39" s="267"/>
+      <c r="K39" s="267"/>
+      <c r="L39" s="267"/>
+      <c r="M39" s="267"/>
+      <c r="N39" s="268"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="244"/>
-      <c r="B40" s="255"/>
-      <c r="C40" s="254"/>
-      <c r="D40" s="253"/>
-      <c r="E40" s="252"/>
-      <c r="F40" s="252"/>
+      <c r="A40" s="251"/>
+      <c r="B40" s="263"/>
+      <c r="C40" s="262"/>
+      <c r="D40" s="261"/>
+      <c r="E40" s="260"/>
+      <c r="F40" s="260"/>
       <c r="G40" s="157" t="s">
         <v>290</v>
       </c>
-      <c r="H40" s="242"/>
-      <c r="I40" s="242"/>
-      <c r="J40" s="242"/>
-      <c r="K40" s="242"/>
-      <c r="L40" s="242"/>
-      <c r="M40" s="242"/>
-      <c r="N40" s="243"/>
+      <c r="H40" s="267"/>
+      <c r="I40" s="267"/>
+      <c r="J40" s="267"/>
+      <c r="K40" s="267"/>
+      <c r="L40" s="267"/>
+      <c r="M40" s="267"/>
+      <c r="N40" s="268"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="244"/>
-      <c r="B41" s="255"/>
-      <c r="C41" s="254"/>
-      <c r="D41" s="253"/>
-      <c r="E41" s="252"/>
-      <c r="F41" s="252"/>
+      <c r="A41" s="251"/>
+      <c r="B41" s="263"/>
+      <c r="C41" s="262"/>
+      <c r="D41" s="261"/>
+      <c r="E41" s="260"/>
+      <c r="F41" s="260"/>
       <c r="G41" s="157" t="s">
         <v>288</v>
       </c>
-      <c r="H41" s="242"/>
-      <c r="I41" s="242"/>
-      <c r="J41" s="242"/>
-      <c r="K41" s="242"/>
-      <c r="L41" s="242"/>
-      <c r="M41" s="242"/>
-      <c r="N41" s="243"/>
+      <c r="H41" s="267"/>
+      <c r="I41" s="267"/>
+      <c r="J41" s="267"/>
+      <c r="K41" s="267"/>
+      <c r="L41" s="267"/>
+      <c r="M41" s="267"/>
+      <c r="N41" s="268"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="244"/>
-      <c r="B42" s="255"/>
-      <c r="C42" s="254"/>
-      <c r="D42" s="253"/>
-      <c r="E42" s="252"/>
-      <c r="F42" s="252"/>
+      <c r="A42" s="251"/>
+      <c r="B42" s="263"/>
+      <c r="C42" s="262"/>
+      <c r="D42" s="261"/>
+      <c r="E42" s="260"/>
+      <c r="F42" s="260"/>
       <c r="G42" s="157" t="s">
         <v>289</v>
       </c>
-      <c r="H42" s="242"/>
-      <c r="I42" s="242"/>
-      <c r="J42" s="242"/>
-      <c r="K42" s="242"/>
-      <c r="L42" s="242"/>
-      <c r="M42" s="242"/>
-      <c r="N42" s="243"/>
+      <c r="H42" s="267"/>
+      <c r="I42" s="267"/>
+      <c r="J42" s="267"/>
+      <c r="K42" s="267"/>
+      <c r="L42" s="267"/>
+      <c r="M42" s="267"/>
+      <c r="N42" s="268"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H43" s="24"/>
@@ -8162,16 +8174,14 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="N6:N21"/>
-    <mergeCell ref="C10:C16"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="A6:A21"/>
-    <mergeCell ref="B6:B21"/>
-    <mergeCell ref="E6:E21"/>
+    <mergeCell ref="M37:M42"/>
+    <mergeCell ref="N37:N42"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="H37:H42"/>
+    <mergeCell ref="I37:I42"/>
+    <mergeCell ref="J37:J42"/>
+    <mergeCell ref="K37:K42"/>
+    <mergeCell ref="L37:L42"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="C7:C8"/>
@@ -8188,14 +8198,16 @@
     <mergeCell ref="N23:N35"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="C28:C29"/>
-    <mergeCell ref="M37:M42"/>
-    <mergeCell ref="N37:N42"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="H37:H42"/>
-    <mergeCell ref="I37:I42"/>
-    <mergeCell ref="J37:J42"/>
-    <mergeCell ref="K37:K42"/>
-    <mergeCell ref="L37:L42"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="A6:A21"/>
+    <mergeCell ref="B6:B21"/>
+    <mergeCell ref="E6:E21"/>
+    <mergeCell ref="N6:N21"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8205,10 +8217,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M105"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8227,16 +8239,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="88" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="270" t="s">
+      <c r="A1" s="280" t="s">
         <v>299</v>
       </c>
-      <c r="B1" s="270"/>
-      <c r="C1" s="270"/>
-      <c r="D1" s="270"/>
-      <c r="E1" s="270"/>
-      <c r="F1" s="270"/>
-      <c r="G1" s="270"/>
-      <c r="H1" s="270"/>
+      <c r="B1" s="280"/>
+      <c r="C1" s="280"/>
+      <c r="D1" s="280"/>
+      <c r="E1" s="280"/>
+      <c r="F1" s="280"/>
+      <c r="G1" s="280"/>
+      <c r="H1" s="280"/>
     </row>
     <row r="2" spans="1:8" s="88" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G2" s="89"/>
@@ -8362,7 +8374,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="268" t="s">
+      <c r="C18" s="278" t="s">
         <v>145</v>
       </c>
       <c r="D18" s="87" t="s">
@@ -8370,7 +8382,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="269"/>
+      <c r="C19" s="279"/>
       <c r="D19" s="87" t="s">
         <v>109</v>
       </c>
@@ -8470,7 +8482,7 @@
       <c r="G30" s="82" t="s">
         <v>329</v>
       </c>
-      <c r="H30" s="294" t="s">
+      <c r="H30" s="210" t="s">
         <v>330</v>
       </c>
     </row>
@@ -8824,7 +8836,7 @@
     </row>
     <row r="60" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="90"/>
-      <c r="D60" s="48"/>
+      <c r="D60" s="296"/>
       <c r="E60" s="103" t="s">
         <v>93</v>
       </c>
@@ -8839,7 +8851,7 @@
     </row>
     <row r="61" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="90"/>
-      <c r="D61" s="90"/>
+      <c r="D61" s="296"/>
       <c r="E61" s="104" t="s">
         <v>118</v>
       </c>
@@ -8856,7 +8868,7 @@
     </row>
     <row r="62" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="90"/>
-      <c r="D62" s="90"/>
+      <c r="D62" s="296"/>
       <c r="E62" s="105"/>
       <c r="F62" s="103" t="s">
         <v>132</v>
@@ -8871,7 +8883,7 @@
     </row>
     <row r="63" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="90"/>
-      <c r="D63" s="48"/>
+      <c r="D63" s="296"/>
       <c r="E63" s="107" t="s">
         <v>115</v>
       </c>
@@ -8886,7 +8898,7 @@
     </row>
     <row r="64" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="90"/>
-      <c r="D64" s="48"/>
+      <c r="D64" s="296"/>
       <c r="E64" s="103" t="s">
         <v>89</v>
       </c>
@@ -8897,7 +8909,7 @@
     </row>
     <row r="65" spans="3:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="90"/>
-      <c r="D65" s="49"/>
+      <c r="D65" s="296"/>
       <c r="E65" s="103" t="s">
         <v>116</v>
       </c>
@@ -8911,24 +8923,20 @@
       <c r="I65" s="101"/>
     </row>
     <row r="66" spans="3:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C66" s="48"/>
-      <c r="D66" s="92" t="s">
-        <v>153</v>
-      </c>
-      <c r="E66" s="103">
-        <v>1</v>
-      </c>
-      <c r="F66" s="103" t="s">
-        <v>130</v>
-      </c>
-      <c r="G66" s="101"/>
+      <c r="C66" s="90"/>
+      <c r="D66" s="297"/>
+      <c r="E66" s="103" t="s">
+        <v>331</v>
+      </c>
+      <c r="F66" s="103"/>
+      <c r="G66" s="295"/>
       <c r="H66" s="101"/>
       <c r="I66" s="101"/>
     </row>
     <row r="67" spans="3:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C67" s="48"/>
-      <c r="D67" s="46" t="s">
-        <v>154</v>
+      <c r="D67" s="92" t="s">
+        <v>153</v>
       </c>
       <c r="E67" s="103">
         <v>1</v>
@@ -8941,14 +8949,14 @@
       <c r="I67" s="101"/>
     </row>
     <row r="68" spans="3:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C68" s="49"/>
+      <c r="C68" s="48"/>
       <c r="D68" s="46" t="s">
-        <v>77</v>
-      </c>
-      <c r="E68" s="106">
+        <v>154</v>
+      </c>
+      <c r="E68" s="103">
         <v>1</v>
       </c>
-      <c r="F68" s="106" t="s">
+      <c r="F68" s="103" t="s">
         <v>130</v>
       </c>
       <c r="G68" s="101"/>
@@ -8956,24 +8964,26 @@
       <c r="I68" s="101"/>
     </row>
     <row r="69" spans="3:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C69" s="51" t="s">
-        <v>106</v>
-      </c>
-      <c r="D69" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="E69" s="52" t="s">
-        <v>155</v>
-      </c>
-      <c r="F69" s="101"/>
+      <c r="C69" s="49"/>
+      <c r="D69" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="E69" s="106">
+        <v>1</v>
+      </c>
+      <c r="F69" s="106" t="s">
+        <v>130</v>
+      </c>
       <c r="G69" s="101"/>
       <c r="H69" s="101"/>
       <c r="I69" s="101"/>
     </row>
     <row r="70" spans="3:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C70" s="53"/>
+      <c r="C70" s="51" t="s">
+        <v>106</v>
+      </c>
       <c r="D70" s="52" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E70" s="52" t="s">
         <v>155</v>
@@ -8986,311 +8996,303 @@
     <row r="71" spans="3:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C71" s="53"/>
       <c r="D71" s="52" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E71" s="52" t="s">
         <v>155</v>
       </c>
       <c r="F71" s="101"/>
-      <c r="G71" s="109"/>
+      <c r="G71" s="101"/>
       <c r="H71" s="101"/>
       <c r="I71" s="101"/>
     </row>
     <row r="72" spans="3:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C72" s="53"/>
       <c r="D72" s="52" t="s">
+        <v>80</v>
+      </c>
+      <c r="E72" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="F72" s="101"/>
+      <c r="G72" s="109"/>
+      <c r="H72" s="101"/>
+      <c r="I72" s="101"/>
+    </row>
+    <row r="73" spans="3:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C73" s="53"/>
+      <c r="D73" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="E72" s="108">
+      <c r="E73" s="108">
         <v>3</v>
       </c>
-      <c r="F72" s="108" t="s">
+      <c r="F73" s="108" t="s">
         <v>130</v>
       </c>
-      <c r="G72" s="108" t="s">
+      <c r="G73" s="108" t="s">
         <v>327</v>
       </c>
-      <c r="H72" s="108" t="s">
+      <c r="H73" s="108" t="s">
         <v>328</v>
       </c>
-      <c r="I72" s="101"/>
-    </row>
-    <row r="73" spans="3:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C73" s="54"/>
-      <c r="D73" s="52" t="s">
+      <c r="I73" s="101"/>
+    </row>
+    <row r="74" spans="3:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="54"/>
+      <c r="D74" s="52" t="s">
         <v>82</v>
       </c>
-      <c r="E73" s="52" t="s">
+      <c r="E74" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="F73" s="101"/>
-      <c r="G73" s="101"/>
-      <c r="H73" s="101"/>
-      <c r="I73" s="101"/>
-    </row>
-    <row r="74" spans="3:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C74" s="74" t="s">
+      <c r="F74" s="101"/>
+      <c r="G74" s="101"/>
+      <c r="H74" s="101"/>
+      <c r="I74" s="101"/>
+    </row>
+    <row r="75" spans="3:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C75" s="74" t="s">
         <v>107</v>
       </c>
-      <c r="D74" s="57" t="s">
+      <c r="D75" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="G74" s="70"/>
-    </row>
-    <row r="75" spans="3:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="C75" s="75"/>
-      <c r="D75" s="59" t="s">
+      <c r="G75" s="70"/>
+    </row>
+    <row r="76" spans="3:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="C76" s="75"/>
+      <c r="D76" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="E75" s="188">
+      <c r="E76" s="188">
         <v>3</v>
       </c>
-      <c r="F75" s="59" t="s">
+      <c r="F76" s="59" t="s">
         <v>130</v>
       </c>
-      <c r="G75" s="70"/>
-    </row>
-    <row r="76" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C76" s="76"/>
-      <c r="D76" s="271" t="s">
-        <v>85</v>
-      </c>
-      <c r="E76" s="59" t="s">
-        <v>88</v>
-      </c>
-      <c r="F76" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="G76" s="71"/>
-      <c r="H76" s="71"/>
+      <c r="G76" s="70"/>
     </row>
     <row r="77" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C77" s="76"/>
-      <c r="D77" s="272"/>
-      <c r="E77" s="189"/>
-      <c r="F77" s="190" t="s">
-        <v>87</v>
-      </c>
-      <c r="G77" s="191"/>
-      <c r="H77" s="191"/>
+      <c r="D77" s="281" t="s">
+        <v>85</v>
+      </c>
+      <c r="E77" s="59" t="s">
+        <v>88</v>
+      </c>
+      <c r="F77" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="G77" s="71"/>
+      <c r="H77" s="71"/>
     </row>
     <row r="78" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C78" s="76"/>
-      <c r="D78" s="273"/>
-      <c r="E78" s="275" t="s">
-        <v>93</v>
-      </c>
-      <c r="F78" s="199" t="s">
-        <v>86</v>
-      </c>
-      <c r="G78" s="199">
-        <v>15</v>
-      </c>
-      <c r="H78" s="199" t="s">
-        <v>130</v>
-      </c>
-      <c r="I78" s="199" t="s">
-        <v>326</v>
-      </c>
+      <c r="D78" s="282"/>
+      <c r="E78" s="189"/>
+      <c r="F78" s="190" t="s">
+        <v>87</v>
+      </c>
+      <c r="G78" s="191"/>
+      <c r="H78" s="191"/>
     </row>
     <row r="79" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C79" s="76"/>
-      <c r="D79" s="273"/>
-      <c r="E79" s="275"/>
-      <c r="F79" s="275" t="s">
-        <v>87</v>
-      </c>
-      <c r="G79" s="275" t="s">
-        <v>310</v>
-      </c>
-      <c r="H79" s="200" t="s">
+      <c r="D79" s="283"/>
+      <c r="E79" s="269" t="s">
         <v>93</v>
       </c>
-      <c r="I79" s="200">
-        <v>29</v>
-      </c>
-      <c r="J79" s="200" t="s">
-        <v>311</v>
-      </c>
-      <c r="K79" s="275">
-        <f>SUM(I79:I84)</f>
-        <v>117</v>
-      </c>
-      <c r="L79" s="275" t="s">
-        <v>327</v>
-      </c>
-      <c r="M79" s="275" t="s">
-        <v>328</v>
+      <c r="F79" s="199" t="s">
+        <v>86</v>
+      </c>
+      <c r="G79" s="199">
+        <v>15</v>
+      </c>
+      <c r="H79" s="199" t="s">
+        <v>130</v>
+      </c>
+      <c r="I79" s="199" t="s">
+        <v>326</v>
       </c>
     </row>
     <row r="80" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C80" s="76"/>
-      <c r="D80" s="273"/>
-      <c r="E80" s="275"/>
-      <c r="F80" s="275"/>
-      <c r="G80" s="275"/>
+      <c r="D80" s="283"/>
+      <c r="E80" s="269"/>
+      <c r="F80" s="269" t="s">
+        <v>87</v>
+      </c>
+      <c r="G80" s="269" t="s">
+        <v>310</v>
+      </c>
       <c r="H80" s="200" t="s">
-        <v>312</v>
+        <v>93</v>
       </c>
       <c r="I80" s="200">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="J80" s="200" t="s">
         <v>311</v>
       </c>
-      <c r="K80" s="275"/>
-      <c r="L80" s="275"/>
-      <c r="M80" s="275"/>
+      <c r="K80" s="269">
+        <f>SUM(I80:I85)</f>
+        <v>117</v>
+      </c>
+      <c r="L80" s="269" t="s">
+        <v>327</v>
+      </c>
+      <c r="M80" s="269" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="81" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C81" s="76"/>
-      <c r="D81" s="273"/>
-      <c r="E81" s="275"/>
-      <c r="F81" s="275"/>
-      <c r="G81" s="275"/>
+      <c r="D81" s="283"/>
+      <c r="E81" s="269"/>
+      <c r="F81" s="269"/>
+      <c r="G81" s="269"/>
       <c r="H81" s="200" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I81" s="200">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="J81" s="200" t="s">
         <v>311</v>
       </c>
-      <c r="K81" s="275"/>
-      <c r="L81" s="275"/>
-      <c r="M81" s="275"/>
+      <c r="K81" s="269"/>
+      <c r="L81" s="269"/>
+      <c r="M81" s="269"/>
     </row>
     <row r="82" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C82" s="76"/>
-      <c r="D82" s="273"/>
-      <c r="E82" s="275"/>
-      <c r="F82" s="275"/>
-      <c r="G82" s="275"/>
+      <c r="D82" s="283"/>
+      <c r="E82" s="269"/>
+      <c r="F82" s="269"/>
+      <c r="G82" s="269"/>
       <c r="H82" s="200" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="I82" s="200">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J82" s="200" t="s">
         <v>311</v>
       </c>
-      <c r="K82" s="275"/>
-      <c r="L82" s="275"/>
-      <c r="M82" s="275"/>
+      <c r="K82" s="269"/>
+      <c r="L82" s="269"/>
+      <c r="M82" s="269"/>
     </row>
     <row r="83" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C83" s="76"/>
-      <c r="D83" s="273"/>
-      <c r="E83" s="275"/>
-      <c r="F83" s="275"/>
-      <c r="G83" s="275"/>
+      <c r="D83" s="283"/>
+      <c r="E83" s="269"/>
+      <c r="F83" s="269"/>
+      <c r="G83" s="269"/>
       <c r="H83" s="200" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="I83" s="200">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="J83" s="200" t="s">
         <v>311</v>
       </c>
-      <c r="K83" s="275"/>
-      <c r="L83" s="275"/>
-      <c r="M83" s="275"/>
+      <c r="K83" s="269"/>
+      <c r="L83" s="269"/>
+      <c r="M83" s="269"/>
     </row>
     <row r="84" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C84" s="76"/>
-      <c r="D84" s="273"/>
-      <c r="E84" s="275"/>
-      <c r="F84" s="275"/>
-      <c r="G84" s="275"/>
+      <c r="D84" s="283"/>
+      <c r="E84" s="269"/>
+      <c r="F84" s="269"/>
+      <c r="G84" s="269"/>
       <c r="H84" s="200" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I84" s="200">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="J84" s="200" t="s">
         <v>311</v>
       </c>
-      <c r="K84" s="275"/>
-      <c r="L84" s="275"/>
-      <c r="M84" s="275"/>
+      <c r="K84" s="269"/>
+      <c r="L84" s="269"/>
+      <c r="M84" s="269"/>
     </row>
     <row r="85" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C85" s="76"/>
-      <c r="D85" s="273"/>
-      <c r="E85" s="275"/>
-      <c r="F85" s="275"/>
-      <c r="G85" s="200" t="s">
-        <v>317</v>
-      </c>
-      <c r="H85" s="200">
-        <v>6</v>
-      </c>
-      <c r="I85" s="200" t="s">
+      <c r="D85" s="283"/>
+      <c r="E85" s="269"/>
+      <c r="F85" s="269"/>
+      <c r="G85" s="269"/>
+      <c r="H85" s="200" t="s">
+        <v>316</v>
+      </c>
+      <c r="I85" s="200">
+        <v>16</v>
+      </c>
+      <c r="J85" s="200" t="s">
         <v>311</v>
       </c>
-      <c r="J85" s="200" t="s">
-        <v>327</v>
-      </c>
-      <c r="K85" s="200" t="s">
-        <v>328</v>
-      </c>
+      <c r="K85" s="269"/>
+      <c r="L85" s="269"/>
+      <c r="M85" s="269"/>
     </row>
     <row r="86" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C86" s="76"/>
-      <c r="D86" s="272"/>
-      <c r="E86" s="192" t="s">
-        <v>92</v>
-      </c>
-      <c r="F86" s="193" t="s">
-        <v>86</v>
-      </c>
-      <c r="G86" s="194">
-        <v>24</v>
-      </c>
-      <c r="H86" s="195" t="s">
-        <v>130</v>
-      </c>
-      <c r="I86" s="196" t="s">
-        <v>309</v>
+      <c r="D86" s="283"/>
+      <c r="E86" s="269"/>
+      <c r="F86" s="269"/>
+      <c r="G86" s="200" t="s">
+        <v>317</v>
+      </c>
+      <c r="H86" s="200">
+        <v>6</v>
+      </c>
+      <c r="I86" s="200" t="s">
+        <v>311</v>
+      </c>
+      <c r="J86" s="200" t="s">
+        <v>327</v>
+      </c>
+      <c r="K86" s="200" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="87" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C87" s="76"/>
-      <c r="D87" s="272"/>
-      <c r="E87" s="192"/>
-      <c r="F87" s="281" t="s">
-        <v>87</v>
-      </c>
-      <c r="G87" s="197" t="s">
-        <v>318</v>
-      </c>
-      <c r="H87" s="197">
-        <v>3</v>
+      <c r="D87" s="282"/>
+      <c r="E87" s="192" t="s">
+        <v>92</v>
+      </c>
+      <c r="F87" s="193" t="s">
+        <v>86</v>
+      </c>
+      <c r="G87" s="194">
+        <v>24</v>
+      </c>
+      <c r="H87" s="195" t="s">
+        <v>130</v>
       </c>
       <c r="I87" s="196" t="s">
-        <v>311</v>
-      </c>
-      <c r="J87" s="196" t="s">
-        <v>327</v>
-      </c>
-      <c r="K87" s="196" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="88" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C88" s="76"/>
-      <c r="D88" s="272"/>
+      <c r="D88" s="282"/>
       <c r="E88" s="192"/>
-      <c r="F88" s="282"/>
+      <c r="F88" s="275" t="s">
+        <v>87</v>
+      </c>
       <c r="G88" s="197" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H88" s="197">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I88" s="196" t="s">
         <v>311</v>
@@ -9304,14 +9306,14 @@
     </row>
     <row r="89" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C89" s="76"/>
-      <c r="D89" s="272"/>
-      <c r="E89" s="198"/>
-      <c r="F89" s="283"/>
+      <c r="D89" s="282"/>
+      <c r="E89" s="192"/>
+      <c r="F89" s="276"/>
       <c r="G89" s="197" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="H89" s="197">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="I89" s="196" t="s">
         <v>311</v>
@@ -9325,199 +9327,221 @@
     </row>
     <row r="90" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C90" s="76"/>
-      <c r="D90" s="272"/>
-      <c r="E90" s="201" t="s">
-        <v>89</v>
-      </c>
-      <c r="F90" s="202" t="s">
-        <v>86</v>
-      </c>
-      <c r="G90" s="203">
-        <v>4</v>
-      </c>
-      <c r="H90" s="203" t="s">
-        <v>130</v>
-      </c>
-      <c r="I90" s="204" t="s">
-        <v>309</v>
+      <c r="D90" s="282"/>
+      <c r="E90" s="198"/>
+      <c r="F90" s="277"/>
+      <c r="G90" s="197" t="s">
+        <v>319</v>
+      </c>
+      <c r="H90" s="197">
+        <v>1</v>
+      </c>
+      <c r="I90" s="196" t="s">
+        <v>311</v>
+      </c>
+      <c r="J90" s="196" t="s">
+        <v>327</v>
+      </c>
+      <c r="K90" s="196" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="91" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C91" s="76"/>
-      <c r="D91" s="272"/>
-      <c r="E91" s="277"/>
-      <c r="F91" s="279" t="s">
-        <v>87</v>
-      </c>
-      <c r="G91" s="203" t="s">
-        <v>317</v>
-      </c>
-      <c r="H91" s="203">
-        <v>6</v>
-      </c>
-      <c r="I91" s="205" t="s">
-        <v>311</v>
-      </c>
-      <c r="J91" s="205" t="s">
-        <v>327</v>
-      </c>
-      <c r="K91" s="205" t="s">
-        <v>328</v>
+      <c r="D91" s="282"/>
+      <c r="E91" s="201" t="s">
+        <v>89</v>
+      </c>
+      <c r="F91" s="202" t="s">
+        <v>86</v>
+      </c>
+      <c r="G91" s="203">
+        <v>4</v>
+      </c>
+      <c r="H91" s="203" t="s">
+        <v>130</v>
+      </c>
+      <c r="I91" s="204" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="92" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C92" s="76"/>
-      <c r="D92" s="272"/>
-      <c r="E92" s="278"/>
-      <c r="F92" s="280"/>
-      <c r="G92" s="203"/>
-      <c r="H92" s="203"/>
+      <c r="D92" s="282"/>
+      <c r="E92" s="271"/>
+      <c r="F92" s="273" t="s">
+        <v>87</v>
+      </c>
+      <c r="G92" s="203" t="s">
+        <v>317</v>
+      </c>
+      <c r="H92" s="203">
+        <v>6</v>
+      </c>
+      <c r="I92" s="205" t="s">
+        <v>311</v>
+      </c>
+      <c r="J92" s="205" t="s">
+        <v>327</v>
+      </c>
+      <c r="K92" s="205" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="93" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C93" s="76"/>
-      <c r="D93" s="272"/>
-      <c r="E93" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="F93" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="G93" s="71"/>
-      <c r="H93" s="71"/>
+      <c r="D93" s="282"/>
+      <c r="E93" s="272"/>
+      <c r="F93" s="274"/>
+      <c r="G93" s="203"/>
+      <c r="H93" s="203"/>
     </row>
     <row r="94" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C94" s="76"/>
-      <c r="D94" s="272"/>
-      <c r="E94" s="60"/>
+      <c r="D94" s="282"/>
+      <c r="E94" s="59" t="s">
+        <v>90</v>
+      </c>
       <c r="F94" s="58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G94" s="71"/>
       <c r="H94" s="71"/>
     </row>
     <row r="95" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C95" s="76"/>
-      <c r="D95" s="272"/>
-      <c r="E95" s="72" t="s">
-        <v>91</v>
-      </c>
+      <c r="D95" s="282"/>
+      <c r="E95" s="60"/>
       <c r="F95" s="58" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="G95" s="71"/>
       <c r="H95" s="71"/>
     </row>
     <row r="96" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C96" s="76"/>
-      <c r="D96" s="274"/>
-      <c r="E96" s="60"/>
+      <c r="D96" s="282"/>
+      <c r="E96" s="72" t="s">
+        <v>91</v>
+      </c>
       <c r="F96" s="58" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G96" s="71"/>
       <c r="H96" s="71"/>
     </row>
-    <row r="97" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C97" s="76"/>
-      <c r="D97" s="60" t="s">
+      <c r="D97" s="284"/>
+      <c r="E97" s="60"/>
+      <c r="F97" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="G97" s="71"/>
+      <c r="H97" s="71"/>
+    </row>
+    <row r="98" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C98" s="76"/>
+      <c r="D98" s="60" t="s">
         <v>96</v>
       </c>
-      <c r="G97"/>
-    </row>
-    <row r="98" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C98" s="76"/>
-      <c r="D98" s="184" t="s">
-        <v>149</v>
-      </c>
-      <c r="E98" s="58" t="s">
-        <v>151</v>
-      </c>
       <c r="G98"/>
     </row>
-    <row r="99" spans="3:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C99" s="76"/>
       <c r="D99" s="184" t="s">
+        <v>149</v>
+      </c>
+      <c r="E99" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="G99"/>
+    </row>
+    <row r="100" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C100" s="76"/>
+      <c r="D100" s="184" t="s">
         <v>150</v>
       </c>
-      <c r="E99" s="184" t="s">
+      <c r="E100" s="184" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="100" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C100" s="276" t="s">
+    <row r="101" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C101" s="270" t="s">
         <v>120</v>
       </c>
-      <c r="D100" s="94" t="s">
+      <c r="D101" s="94" t="s">
         <v>128</v>
       </c>
-      <c r="E100" s="185">
+      <c r="E101" s="185">
         <v>1</v>
       </c>
-      <c r="F100" s="185" t="s">
+      <c r="F101" s="185" t="s">
         <v>134</v>
       </c>
-      <c r="G100" s="111" t="s">
+      <c r="G101" s="111" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="101" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C101" s="276"/>
-      <c r="D101" s="94" t="s">
+    <row r="102" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C102" s="270"/>
+      <c r="D102" s="94" t="s">
         <v>127</v>
-      </c>
-      <c r="E101" s="185"/>
-      <c r="F101" s="185"/>
-    </row>
-    <row r="102" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C102" s="276"/>
-      <c r="D102" s="94" t="s">
-        <v>146</v>
       </c>
       <c r="E102" s="185"/>
       <c r="F102" s="185"/>
     </row>
-    <row r="103" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C103" s="276"/>
+    <row r="103" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C103" s="270"/>
       <c r="D103" s="94" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E103" s="185"/>
       <c r="F103" s="185"/>
     </row>
-    <row r="104" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C104" s="276"/>
+    <row r="104" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C104" s="270"/>
       <c r="D104" s="94" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="E104" s="185"/>
       <c r="F104" s="185"/>
     </row>
-    <row r="105" spans="3:7" x14ac:dyDescent="0.3">
-      <c r="C105" s="276"/>
+    <row r="105" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C105" s="270"/>
       <c r="D105" s="94" t="s">
         <v>103</v>
       </c>
       <c r="E105" s="185"/>
       <c r="F105" s="185"/>
     </row>
+    <row r="106" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C106" s="270"/>
+      <c r="D106" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="E106" s="185"/>
+      <c r="F106" s="185"/>
+    </row>
   </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="M79:M84"/>
-    <mergeCell ref="K79:K84"/>
-    <mergeCell ref="L79:L84"/>
-    <mergeCell ref="C100:C105"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="F87:F89"/>
+  <mergeCells count="14">
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="D76:D96"/>
-    <mergeCell ref="E78:E85"/>
-    <mergeCell ref="F79:F85"/>
-    <mergeCell ref="G79:G84"/>
+    <mergeCell ref="D77:D97"/>
+    <mergeCell ref="E79:E86"/>
+    <mergeCell ref="F80:F86"/>
+    <mergeCell ref="G80:G85"/>
+    <mergeCell ref="D60:D66"/>
+    <mergeCell ref="M80:M85"/>
+    <mergeCell ref="K80:K85"/>
+    <mergeCell ref="L80:L85"/>
+    <mergeCell ref="C101:C106"/>
+    <mergeCell ref="E92:E93"/>
+    <mergeCell ref="F92:F93"/>
+    <mergeCell ref="F88:F90"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G100" r:id="rId1"/>
+    <hyperlink ref="G101" r:id="rId1"/>
     <hyperlink ref="E27" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9548,30 +9572,30 @@
       <c r="F1" s="206"/>
       <c r="G1" s="206"/>
       <c r="H1" s="206"/>
-      <c r="I1" s="286" t="s">
+      <c r="I1" s="287" t="s">
         <v>294</v>
       </c>
-      <c r="J1" s="287"/>
-      <c r="K1" s="287"/>
-      <c r="L1" s="287"/>
-      <c r="M1" s="287"/>
-      <c r="N1" s="287"/>
-      <c r="O1" s="288"/>
+      <c r="J1" s="288"/>
+      <c r="K1" s="288"/>
+      <c r="L1" s="288"/>
+      <c r="M1" s="288"/>
+      <c r="N1" s="288"/>
+      <c r="O1" s="289"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E2" s="187"/>
       <c r="F2" s="187"/>
       <c r="G2" s="187"/>
       <c r="H2" s="187"/>
-      <c r="I2" s="291" t="s">
+      <c r="I2" s="292" t="s">
         <v>325</v>
       </c>
-      <c r="J2" s="292"/>
-      <c r="K2" s="292"/>
-      <c r="L2" s="292"/>
-      <c r="M2" s="292"/>
-      <c r="N2" s="292"/>
-      <c r="O2" s="293"/>
+      <c r="J2" s="293"/>
+      <c r="K2" s="293"/>
+      <c r="L2" s="293"/>
+      <c r="M2" s="293"/>
+      <c r="N2" s="293"/>
+      <c r="O2" s="294"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -9588,10 +9612,10 @@
       </c>
       <c r="G3" s="187"/>
       <c r="H3" s="187"/>
-      <c r="I3" s="289" t="s">
+      <c r="I3" s="290" t="s">
         <v>304</v>
       </c>
-      <c r="J3" s="290"/>
+      <c r="J3" s="291"/>
       <c r="K3" s="208" t="s">
         <v>305</v>
       </c>
@@ -9646,7 +9670,7 @@
       <c r="N4" s="207">
         <v>580</v>
       </c>
-      <c r="O4" s="284">
+      <c r="O4" s="285">
         <f>SUM(I4:N4)</f>
         <v>2068</v>
       </c>
@@ -9676,7 +9700,7 @@
       <c r="N5" s="209" t="s">
         <v>323</v>
       </c>
-      <c r="O5" s="285"/>
+      <c r="O5" s="286"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/asset/Control GESPRO.xlsx
+++ b/asset/Control GESPRO.xlsx
@@ -168,7 +168,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1130" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="332">
   <si>
     <t>Sección</t>
   </si>
@@ -1900,7 +1900,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="298">
+  <cellXfs count="303">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2362,6 +2362,63 @@
     <xf numFmtId="0" fontId="23" fillId="14" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2371,33 +2428,6 @@
     <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2407,21 +2437,6 @@
     <xf numFmtId="0" fontId="2" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2446,16 +2461,70 @@
     <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2470,75 +2539,36 @@
     <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -2563,27 +2593,6 @@
     <xf numFmtId="0" fontId="4" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="22" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2614,13 +2623,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2932,38 +2945,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="239" t="s">
+      <c r="A1" s="214" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="239"/>
-      <c r="C1" s="239"/>
-      <c r="D1" s="239"/>
-      <c r="E1" s="239"/>
-      <c r="F1" s="239"/>
-      <c r="G1" s="239"/>
-      <c r="H1" s="239"/>
-      <c r="I1" s="239"/>
-      <c r="J1" s="239"/>
-      <c r="K1" s="239"/>
-      <c r="L1" s="239"/>
-      <c r="M1" s="239"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="214"/>
+      <c r="K1" s="214"/>
+      <c r="L1" s="214"/>
+      <c r="M1" s="214"/>
     </row>
     <row r="2" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="239" t="s">
+      <c r="A2" s="214" t="s">
         <v>295</v>
       </c>
-      <c r="B2" s="239"/>
-      <c r="C2" s="239"/>
-      <c r="D2" s="239"/>
-      <c r="E2" s="239"/>
-      <c r="F2" s="239"/>
-      <c r="G2" s="239"/>
-      <c r="H2" s="239"/>
-      <c r="I2" s="239"/>
-      <c r="J2" s="239"/>
-      <c r="K2" s="239"/>
-      <c r="L2" s="239"/>
-      <c r="M2" s="239"/>
+      <c r="B2" s="214"/>
+      <c r="C2" s="214"/>
+      <c r="D2" s="214"/>
+      <c r="E2" s="214"/>
+      <c r="F2" s="214"/>
+      <c r="G2" s="214"/>
+      <c r="H2" s="214"/>
+      <c r="I2" s="214"/>
+      <c r="J2" s="214"/>
+      <c r="K2" s="214"/>
+      <c r="L2" s="214"/>
+      <c r="M2" s="214"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G3" s="20" t="s">
@@ -3004,24 +3017,24 @@
       <c r="L4" s="22"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G5" s="240" t="s">
+      <c r="G5" s="215" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="241"/>
-      <c r="I5" s="241"/>
-      <c r="J5" s="241"/>
-      <c r="K5" s="241"/>
-      <c r="L5" s="242"/>
+      <c r="H5" s="216"/>
+      <c r="I5" s="216"/>
+      <c r="J5" s="216"/>
+      <c r="K5" s="216"/>
+      <c r="L5" s="217"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G6" s="240" t="s">
+      <c r="G6" s="215" t="s">
         <v>272</v>
       </c>
-      <c r="H6" s="241"/>
-      <c r="I6" s="241"/>
-      <c r="J6" s="241"/>
-      <c r="K6" s="241"/>
-      <c r="L6" s="242"/>
+      <c r="H6" s="216"/>
+      <c r="I6" s="216"/>
+      <c r="J6" s="216"/>
+      <c r="K6" s="216"/>
+      <c r="L6" s="217"/>
     </row>
     <row r="7" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -3065,10 +3078,10 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="211" t="s">
+      <c r="A8" s="230" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="220" t="s">
+      <c r="B8" s="218" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -3095,13 +3108,13 @@
         <v>49</v>
       </c>
       <c r="L8" s="1"/>
-      <c r="M8" s="226" t="s">
+      <c r="M8" s="221" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="212"/>
-      <c r="B9" s="221"/>
+      <c r="A9" s="231"/>
+      <c r="B9" s="219"/>
       <c r="C9" s="8" t="s">
         <v>6</v>
       </c>
@@ -3126,11 +3139,11 @@
         <v>49</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="227"/>
+      <c r="M9" s="222"/>
     </row>
     <row r="10" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="212"/>
-      <c r="B10" s="221"/>
+      <c r="A10" s="231"/>
+      <c r="B10" s="219"/>
       <c r="C10" s="8" t="s">
         <v>7</v>
       </c>
@@ -3155,11 +3168,11 @@
         <v>49</v>
       </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="227"/>
+      <c r="M10" s="222"/>
     </row>
     <row r="11" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="212"/>
-      <c r="B11" s="221"/>
+      <c r="A11" s="231"/>
+      <c r="B11" s="219"/>
       <c r="C11" s="8" t="s">
         <v>8</v>
       </c>
@@ -3184,11 +3197,11 @@
         <v>49</v>
       </c>
       <c r="L11" s="1"/>
-      <c r="M11" s="227"/>
+      <c r="M11" s="222"/>
     </row>
     <row r="12" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="212"/>
-      <c r="B12" s="221"/>
+      <c r="A12" s="231"/>
+      <c r="B12" s="219"/>
       <c r="C12" s="8" t="s">
         <v>9</v>
       </c>
@@ -3213,11 +3226,11 @@
         <v>49</v>
       </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="227"/>
+      <c r="M12" s="222"/>
     </row>
     <row r="13" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="212"/>
-      <c r="B13" s="221"/>
+      <c r="A13" s="231"/>
+      <c r="B13" s="219"/>
       <c r="C13" s="8" t="s">
         <v>10</v>
       </c>
@@ -3242,11 +3255,11 @@
         <v>49</v>
       </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="227"/>
+      <c r="M13" s="222"/>
     </row>
     <row r="14" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="212"/>
-      <c r="B14" s="221"/>
+      <c r="A14" s="231"/>
+      <c r="B14" s="219"/>
       <c r="C14" s="8" t="s">
         <v>11</v>
       </c>
@@ -3271,11 +3284,11 @@
         <v>49</v>
       </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="227"/>
+      <c r="M14" s="222"/>
     </row>
     <row r="15" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="212"/>
-      <c r="B15" s="221"/>
+      <c r="A15" s="231"/>
+      <c r="B15" s="219"/>
       <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
@@ -3300,11 +3313,11 @@
         <v>49</v>
       </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="227"/>
+      <c r="M15" s="222"/>
     </row>
     <row r="16" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="212"/>
-      <c r="B16" s="221"/>
+      <c r="A16" s="231"/>
+      <c r="B16" s="219"/>
       <c r="C16" s="8" t="s">
         <v>13</v>
       </c>
@@ -3329,18 +3342,18 @@
         <v>49</v>
       </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="227"/>
+      <c r="M16" s="222"/>
     </row>
     <row r="17" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="212"/>
-      <c r="B17" s="221"/>
-      <c r="C17" s="214" t="s">
+      <c r="A17" s="231"/>
+      <c r="B17" s="219"/>
+      <c r="C17" s="224" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="9">
         <v>31</v>
       </c>
-      <c r="E17" s="217" t="s">
+      <c r="E17" s="227" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="13" t="s">
@@ -3362,16 +3375,16 @@
         <v>49</v>
       </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="227"/>
+      <c r="M17" s="222"/>
     </row>
     <row r="18" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="212"/>
-      <c r="B18" s="221"/>
-      <c r="C18" s="215"/>
+      <c r="A18" s="231"/>
+      <c r="B18" s="219"/>
+      <c r="C18" s="225"/>
       <c r="D18" s="10">
         <v>31</v>
       </c>
-      <c r="E18" s="218"/>
+      <c r="E18" s="229"/>
       <c r="F18" s="12" t="s">
         <v>14</v>
       </c>
@@ -3391,16 +3404,16 @@
         <v>49</v>
       </c>
       <c r="L18" s="1"/>
-      <c r="M18" s="227"/>
+      <c r="M18" s="222"/>
     </row>
     <row r="19" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="212"/>
-      <c r="B19" s="221"/>
-      <c r="C19" s="215"/>
+      <c r="A19" s="231"/>
+      <c r="B19" s="219"/>
+      <c r="C19" s="225"/>
       <c r="D19" s="10">
         <v>31</v>
       </c>
-      <c r="E19" s="219"/>
+      <c r="E19" s="228"/>
       <c r="F19" s="12" t="s">
         <v>16</v>
       </c>
@@ -3420,16 +3433,16 @@
         <v>49</v>
       </c>
       <c r="L19" s="1"/>
-      <c r="M19" s="227"/>
+      <c r="M19" s="222"/>
     </row>
     <row r="20" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="212"/>
-      <c r="B20" s="221"/>
-      <c r="C20" s="215"/>
+      <c r="A20" s="231"/>
+      <c r="B20" s="219"/>
+      <c r="C20" s="225"/>
       <c r="D20" s="10">
         <v>31</v>
       </c>
-      <c r="E20" s="217" t="s">
+      <c r="E20" s="227" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="11" t="s">
@@ -3451,16 +3464,16 @@
         <v>49</v>
       </c>
       <c r="L20" s="1"/>
-      <c r="M20" s="227"/>
+      <c r="M20" s="222"/>
     </row>
     <row r="21" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="212"/>
-      <c r="B21" s="221"/>
-      <c r="C21" s="215"/>
+      <c r="A21" s="231"/>
+      <c r="B21" s="219"/>
+      <c r="C21" s="225"/>
       <c r="D21" s="10">
         <v>31</v>
       </c>
-      <c r="E21" s="218"/>
+      <c r="E21" s="229"/>
       <c r="F21" s="12" t="s">
         <v>14</v>
       </c>
@@ -3480,16 +3493,16 @@
         <v>49</v>
       </c>
       <c r="L21" s="1"/>
-      <c r="M21" s="227"/>
+      <c r="M21" s="222"/>
     </row>
     <row r="22" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="212"/>
-      <c r="B22" s="221"/>
-      <c r="C22" s="216"/>
+      <c r="A22" s="231"/>
+      <c r="B22" s="219"/>
+      <c r="C22" s="226"/>
       <c r="D22" s="10">
         <v>31</v>
       </c>
-      <c r="E22" s="219"/>
+      <c r="E22" s="228"/>
       <c r="F22" s="12" t="s">
         <v>16</v>
       </c>
@@ -3509,12 +3522,12 @@
         <v>49</v>
       </c>
       <c r="L22" s="1"/>
-      <c r="M22" s="227"/>
+      <c r="M22" s="222"/>
     </row>
     <row r="23" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="212"/>
-      <c r="B23" s="221"/>
-      <c r="C23" s="214" t="s">
+      <c r="A23" s="231"/>
+      <c r="B23" s="219"/>
+      <c r="C23" s="224" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="9">
@@ -3540,12 +3553,12 @@
         <v>49</v>
       </c>
       <c r="L23" s="1"/>
-      <c r="M23" s="227"/>
+      <c r="M23" s="222"/>
     </row>
     <row r="24" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="212"/>
-      <c r="B24" s="221"/>
-      <c r="C24" s="215"/>
+      <c r="A24" s="231"/>
+      <c r="B24" s="219"/>
+      <c r="C24" s="225"/>
       <c r="D24" s="10">
         <v>29</v>
       </c>
@@ -3569,11 +3582,11 @@
         <v>49</v>
       </c>
       <c r="L24" s="1"/>
-      <c r="M24" s="227"/>
+      <c r="M24" s="222"/>
     </row>
     <row r="25" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="212"/>
-      <c r="B25" s="221"/>
+      <c r="A25" s="231"/>
+      <c r="B25" s="219"/>
       <c r="C25" s="7" t="s">
         <v>19</v>
       </c>
@@ -3598,11 +3611,11 @@
         <v>49</v>
       </c>
       <c r="L25" s="1"/>
-      <c r="M25" s="227"/>
+      <c r="M25" s="222"/>
     </row>
     <row r="26" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="213"/>
-      <c r="B26" s="222"/>
+      <c r="A26" s="232"/>
+      <c r="B26" s="220"/>
       <c r="C26" s="8" t="s">
         <v>16</v>
       </c>
@@ -3627,7 +3640,7 @@
         <v>49</v>
       </c>
       <c r="L26" s="1"/>
-      <c r="M26" s="228"/>
+      <c r="M26" s="223"/>
     </row>
     <row r="27" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="14"/>
@@ -3686,10 +3699,10 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="229" t="s">
+      <c r="A29" s="212" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="220" t="s">
+      <c r="B29" s="218" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -3716,13 +3729,13 @@
         <v>49</v>
       </c>
       <c r="L29" s="1"/>
-      <c r="M29" s="226" t="s">
+      <c r="M29" s="221" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="230"/>
-      <c r="B30" s="221"/>
+      <c r="A30" s="213"/>
+      <c r="B30" s="219"/>
       <c r="C30" s="7" t="s">
         <v>5</v>
       </c>
@@ -3747,11 +3760,11 @@
         <v>49</v>
       </c>
       <c r="L30" s="1"/>
-      <c r="M30" s="227"/>
+      <c r="M30" s="222"/>
     </row>
     <row r="31" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="230"/>
-      <c r="B31" s="221"/>
+      <c r="A31" s="213"/>
+      <c r="B31" s="219"/>
       <c r="C31" s="8" t="s">
         <v>6</v>
       </c>
@@ -3776,11 +3789,11 @@
         <v>49</v>
       </c>
       <c r="L31" s="1"/>
-      <c r="M31" s="227"/>
+      <c r="M31" s="222"/>
     </row>
     <row r="32" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="230"/>
-      <c r="B32" s="221"/>
+      <c r="A32" s="213"/>
+      <c r="B32" s="219"/>
       <c r="C32" s="8" t="s">
         <v>39</v>
       </c>
@@ -3805,11 +3818,11 @@
         <v>49</v>
       </c>
       <c r="L32" s="1"/>
-      <c r="M32" s="227"/>
+      <c r="M32" s="222"/>
     </row>
     <row r="33" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="230"/>
-      <c r="B33" s="221"/>
+      <c r="A33" s="213"/>
+      <c r="B33" s="219"/>
       <c r="C33" s="8" t="s">
         <v>7</v>
       </c>
@@ -3834,11 +3847,11 @@
         <v>49</v>
       </c>
       <c r="L33" s="1"/>
-      <c r="M33" s="227"/>
+      <c r="M33" s="222"/>
     </row>
     <row r="34" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="230"/>
-      <c r="B34" s="221"/>
+      <c r="A34" s="213"/>
+      <c r="B34" s="219"/>
       <c r="C34" s="8" t="s">
         <v>40</v>
       </c>
@@ -3863,11 +3876,11 @@
         <v>49</v>
       </c>
       <c r="L34" s="1"/>
-      <c r="M34" s="227"/>
+      <c r="M34" s="222"/>
     </row>
     <row r="35" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="230"/>
-      <c r="B35" s="221"/>
+      <c r="A35" s="213"/>
+      <c r="B35" s="219"/>
       <c r="C35" s="8" t="s">
         <v>8</v>
       </c>
@@ -3892,11 +3905,11 @@
         <v>49</v>
       </c>
       <c r="L35" s="1"/>
-      <c r="M35" s="227"/>
+      <c r="M35" s="222"/>
     </row>
     <row r="36" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="230"/>
-      <c r="B36" s="221"/>
+      <c r="A36" s="213"/>
+      <c r="B36" s="219"/>
       <c r="C36" s="8" t="s">
         <v>9</v>
       </c>
@@ -3921,11 +3934,11 @@
         <v>49</v>
       </c>
       <c r="L36" s="1"/>
-      <c r="M36" s="227"/>
+      <c r="M36" s="222"/>
     </row>
     <row r="37" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="230"/>
-      <c r="B37" s="221"/>
+      <c r="A37" s="213"/>
+      <c r="B37" s="219"/>
       <c r="C37" s="8" t="s">
         <v>10</v>
       </c>
@@ -3950,11 +3963,11 @@
         <v>49</v>
       </c>
       <c r="L37" s="1"/>
-      <c r="M37" s="227"/>
+      <c r="M37" s="222"/>
     </row>
     <row r="38" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="230"/>
-      <c r="B38" s="221"/>
+      <c r="A38" s="213"/>
+      <c r="B38" s="219"/>
       <c r="C38" s="8" t="s">
         <v>11</v>
       </c>
@@ -3979,11 +3992,11 @@
         <v>49</v>
       </c>
       <c r="L38" s="1"/>
-      <c r="M38" s="227"/>
+      <c r="M38" s="222"/>
     </row>
     <row r="39" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="230"/>
-      <c r="B39" s="221"/>
+      <c r="A39" s="213"/>
+      <c r="B39" s="219"/>
       <c r="C39" s="8" t="s">
         <v>12</v>
       </c>
@@ -4008,11 +4021,11 @@
         <v>49</v>
       </c>
       <c r="L39" s="1"/>
-      <c r="M39" s="227"/>
+      <c r="M39" s="222"/>
     </row>
     <row r="40" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="230"/>
-      <c r="B40" s="221"/>
+      <c r="A40" s="213"/>
+      <c r="B40" s="219"/>
       <c r="C40" s="8" t="s">
         <v>13</v>
       </c>
@@ -4037,11 +4050,11 @@
         <v>49</v>
       </c>
       <c r="L40" s="1"/>
-      <c r="M40" s="227"/>
+      <c r="M40" s="222"/>
     </row>
     <row r="41" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="230"/>
-      <c r="B41" s="221"/>
+      <c r="A41" s="213"/>
+      <c r="B41" s="219"/>
       <c r="C41" s="8" t="s">
         <v>41</v>
       </c>
@@ -4066,11 +4079,11 @@
         <v>49</v>
       </c>
       <c r="L41" s="1"/>
-      <c r="M41" s="227"/>
+      <c r="M41" s="222"/>
     </row>
     <row r="42" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="230"/>
-      <c r="B42" s="221"/>
+      <c r="A42" s="213"/>
+      <c r="B42" s="219"/>
       <c r="C42" s="8" t="s">
         <v>42</v>
       </c>
@@ -4095,18 +4108,18 @@
         <v>49</v>
       </c>
       <c r="L42" s="1"/>
-      <c r="M42" s="227"/>
+      <c r="M42" s="222"/>
     </row>
     <row r="43" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="230"/>
-      <c r="B43" s="221"/>
-      <c r="C43" s="214" t="s">
+      <c r="A43" s="213"/>
+      <c r="B43" s="219"/>
+      <c r="C43" s="224" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="9">
         <v>32</v>
       </c>
-      <c r="E43" s="217" t="s">
+      <c r="E43" s="227" t="s">
         <v>15</v>
       </c>
       <c r="F43" s="13"/>
@@ -4126,16 +4139,16 @@
         <v>49</v>
       </c>
       <c r="L43" s="1"/>
-      <c r="M43" s="227"/>
+      <c r="M43" s="222"/>
     </row>
     <row r="44" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="230"/>
-      <c r="B44" s="221"/>
-      <c r="C44" s="215"/>
+      <c r="A44" s="213"/>
+      <c r="B44" s="219"/>
+      <c r="C44" s="225"/>
       <c r="D44" s="10">
         <v>32</v>
       </c>
-      <c r="E44" s="219"/>
+      <c r="E44" s="228"/>
       <c r="F44" s="12"/>
       <c r="G44" s="1" t="s">
         <v>49</v>
@@ -4153,16 +4166,16 @@
         <v>49</v>
       </c>
       <c r="L44" s="1"/>
-      <c r="M44" s="227"/>
+      <c r="M44" s="222"/>
     </row>
     <row r="45" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="230"/>
-      <c r="B45" s="221"/>
-      <c r="C45" s="215"/>
+      <c r="A45" s="213"/>
+      <c r="B45" s="219"/>
+      <c r="C45" s="225"/>
       <c r="D45" s="10">
         <v>32</v>
       </c>
-      <c r="E45" s="217" t="s">
+      <c r="E45" s="227" t="s">
         <v>17</v>
       </c>
       <c r="F45" s="11"/>
@@ -4182,16 +4195,16 @@
         <v>49</v>
       </c>
       <c r="L45" s="1"/>
-      <c r="M45" s="227"/>
+      <c r="M45" s="222"/>
     </row>
     <row r="46" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="230"/>
-      <c r="B46" s="221"/>
-      <c r="C46" s="216"/>
+      <c r="A46" s="213"/>
+      <c r="B46" s="219"/>
+      <c r="C46" s="226"/>
       <c r="D46" s="10">
         <v>32</v>
       </c>
-      <c r="E46" s="219"/>
+      <c r="E46" s="228"/>
       <c r="F46" s="12"/>
       <c r="G46" s="1" t="s">
         <v>49</v>
@@ -4209,12 +4222,12 @@
         <v>49</v>
       </c>
       <c r="L46" s="1"/>
-      <c r="M46" s="227"/>
+      <c r="M46" s="222"/>
     </row>
     <row r="47" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="230"/>
-      <c r="B47" s="221"/>
-      <c r="C47" s="214" t="s">
+      <c r="A47" s="213"/>
+      <c r="B47" s="219"/>
+      <c r="C47" s="224" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="9">
@@ -4240,12 +4253,12 @@
         <v>49</v>
       </c>
       <c r="L47" s="1"/>
-      <c r="M47" s="227"/>
+      <c r="M47" s="222"/>
     </row>
     <row r="48" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="230"/>
-      <c r="B48" s="221"/>
-      <c r="C48" s="215"/>
+      <c r="A48" s="213"/>
+      <c r="B48" s="219"/>
+      <c r="C48" s="225"/>
       <c r="D48" s="10">
         <v>30</v>
       </c>
@@ -4269,12 +4282,12 @@
         <v>49</v>
       </c>
       <c r="L48" s="1"/>
-      <c r="M48" s="227"/>
+      <c r="M48" s="222"/>
     </row>
     <row r="49" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="230"/>
-      <c r="B49" s="221"/>
-      <c r="C49" s="214" t="s">
+      <c r="A49" s="213"/>
+      <c r="B49" s="219"/>
+      <c r="C49" s="224" t="s">
         <v>19</v>
       </c>
       <c r="D49" s="9">
@@ -4300,12 +4313,12 @@
         <v>49</v>
       </c>
       <c r="L49" s="1"/>
-      <c r="M49" s="227"/>
+      <c r="M49" s="222"/>
     </row>
     <row r="50" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="230"/>
-      <c r="B50" s="221"/>
-      <c r="C50" s="215"/>
+      <c r="A50" s="213"/>
+      <c r="B50" s="219"/>
+      <c r="C50" s="225"/>
       <c r="D50" s="10">
         <v>35</v>
       </c>
@@ -4329,11 +4342,11 @@
         <v>49</v>
       </c>
       <c r="L50" s="1"/>
-      <c r="M50" s="227"/>
+      <c r="M50" s="222"/>
     </row>
     <row r="51" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="230"/>
-      <c r="B51" s="221"/>
+      <c r="A51" s="213"/>
+      <c r="B51" s="219"/>
       <c r="C51" s="8" t="s">
         <v>16</v>
       </c>
@@ -4358,11 +4371,11 @@
         <v>49</v>
       </c>
       <c r="L51" s="1"/>
-      <c r="M51" s="227"/>
+      <c r="M51" s="222"/>
     </row>
     <row r="52" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="230"/>
-      <c r="B52" s="221"/>
+      <c r="A52" s="213"/>
+      <c r="B52" s="219"/>
       <c r="C52" s="8" t="s">
         <v>45</v>
       </c>
@@ -4387,11 +4400,11 @@
         <v>49</v>
       </c>
       <c r="L52" s="1"/>
-      <c r="M52" s="227"/>
+      <c r="M52" s="222"/>
     </row>
     <row r="53" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="230"/>
-      <c r="B53" s="222"/>
+      <c r="A53" s="213"/>
+      <c r="B53" s="220"/>
       <c r="C53" s="8" t="s">
         <v>46</v>
       </c>
@@ -4416,7 +4429,7 @@
         <v>49</v>
       </c>
       <c r="L53" s="1"/>
-      <c r="M53" s="228"/>
+      <c r="M53" s="223"/>
     </row>
     <row r="54" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="14"/>
@@ -4475,10 +4488,10 @@
       </c>
     </row>
     <row r="56" spans="1:13" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="229" t="s">
+      <c r="A56" s="212" t="s">
         <v>21</v>
       </c>
-      <c r="B56" s="220" t="s">
+      <c r="B56" s="218" t="s">
         <v>158</v>
       </c>
       <c r="C56" s="117" t="s">
@@ -4505,13 +4518,13 @@
         <v>49</v>
       </c>
       <c r="L56" s="120"/>
-      <c r="M56" s="226" t="s">
+      <c r="M56" s="221" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="230"/>
-      <c r="B57" s="221"/>
+      <c r="A57" s="213"/>
+      <c r="B57" s="219"/>
       <c r="C57" s="117" t="s">
         <v>160</v>
       </c>
@@ -4536,11 +4549,11 @@
         <v>49</v>
       </c>
       <c r="L57" s="120"/>
-      <c r="M57" s="227"/>
+      <c r="M57" s="222"/>
     </row>
     <row r="58" spans="1:13" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="230"/>
-      <c r="B58" s="221"/>
+      <c r="A58" s="213"/>
+      <c r="B58" s="219"/>
       <c r="C58" s="186" t="s">
         <v>300</v>
       </c>
@@ -4553,11 +4566,11 @@
       <c r="J58" s="183"/>
       <c r="K58" s="120"/>
       <c r="L58" s="120"/>
-      <c r="M58" s="227"/>
+      <c r="M58" s="222"/>
     </row>
     <row r="59" spans="1:13" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="230"/>
-      <c r="B59" s="221"/>
+      <c r="A59" s="213"/>
+      <c r="B59" s="219"/>
       <c r="C59" s="186" t="s">
         <v>301</v>
       </c>
@@ -4570,11 +4583,11 @@
       <c r="J59" s="183"/>
       <c r="K59" s="120"/>
       <c r="L59" s="120"/>
-      <c r="M59" s="227"/>
+      <c r="M59" s="222"/>
     </row>
     <row r="60" spans="1:13" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="230"/>
-      <c r="B60" s="221"/>
+      <c r="A60" s="213"/>
+      <c r="B60" s="219"/>
       <c r="C60" s="186" t="s">
         <v>302</v>
       </c>
@@ -4587,11 +4600,11 @@
       <c r="J60" s="183"/>
       <c r="K60" s="120"/>
       <c r="L60" s="120"/>
-      <c r="M60" s="227"/>
+      <c r="M60" s="222"/>
     </row>
     <row r="61" spans="1:13" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="230"/>
-      <c r="B61" s="221"/>
+      <c r="A61" s="213"/>
+      <c r="B61" s="219"/>
       <c r="C61" s="186" t="s">
         <v>303</v>
       </c>
@@ -4604,11 +4617,11 @@
       <c r="J61" s="183"/>
       <c r="K61" s="120"/>
       <c r="L61" s="120"/>
-      <c r="M61" s="227"/>
+      <c r="M61" s="222"/>
     </row>
     <row r="62" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="230"/>
-      <c r="B62" s="221"/>
+      <c r="A62" s="213"/>
+      <c r="B62" s="219"/>
       <c r="C62" s="117" t="s">
         <v>161</v>
       </c>
@@ -4633,11 +4646,11 @@
         <v>49</v>
       </c>
       <c r="L62" s="120"/>
-      <c r="M62" s="227"/>
+      <c r="M62" s="222"/>
     </row>
     <row r="63" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="230"/>
-      <c r="B63" s="221"/>
+      <c r="A63" s="213"/>
+      <c r="B63" s="219"/>
       <c r="C63" s="117" t="s">
         <v>162</v>
       </c>
@@ -4662,11 +4675,11 @@
         <v>49</v>
       </c>
       <c r="L63" s="120"/>
-      <c r="M63" s="227"/>
+      <c r="M63" s="222"/>
     </row>
     <row r="64" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="230"/>
-      <c r="B64" s="222"/>
+      <c r="A64" s="213"/>
+      <c r="B64" s="220"/>
       <c r="C64" s="117" t="s">
         <v>163</v>
       </c>
@@ -4691,7 +4704,7 @@
         <v>49</v>
       </c>
       <c r="L64" s="120"/>
-      <c r="M64" s="227"/>
+      <c r="M64" s="222"/>
     </row>
     <row r="65" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="15"/>
@@ -4750,16 +4763,16 @@
       </c>
     </row>
     <row r="67" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="229" t="s">
+      <c r="A67" s="212" t="s">
         <v>21</v>
       </c>
-      <c r="B67" s="220" t="s">
+      <c r="B67" s="218" t="s">
         <v>164</v>
       </c>
-      <c r="C67" s="223" t="s">
+      <c r="C67" s="233" t="s">
         <v>165</v>
       </c>
-      <c r="D67" s="234">
+      <c r="D67" s="239">
         <v>28</v>
       </c>
       <c r="E67" s="121" t="s">
@@ -4768,1839 +4781,1839 @@
       <c r="F67" s="122" t="s">
         <v>169</v>
       </c>
-      <c r="G67" s="211" t="s">
-        <v>49</v>
-      </c>
-      <c r="H67" s="211" t="s">
-        <v>49</v>
-      </c>
-      <c r="I67" s="211" t="s">
-        <v>49</v>
-      </c>
-      <c r="J67" s="211" t="s">
-        <v>49</v>
-      </c>
-      <c r="K67" s="211"/>
-      <c r="L67" s="211"/>
-      <c r="M67" s="226" t="s">
+      <c r="G67" s="230" t="s">
+        <v>49</v>
+      </c>
+      <c r="H67" s="230" t="s">
+        <v>49</v>
+      </c>
+      <c r="I67" s="230" t="s">
+        <v>49</v>
+      </c>
+      <c r="J67" s="230" t="s">
+        <v>49</v>
+      </c>
+      <c r="K67" s="230"/>
+      <c r="L67" s="230"/>
+      <c r="M67" s="221" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="230"/>
-      <c r="B68" s="221"/>
-      <c r="C68" s="224"/>
-      <c r="D68" s="235"/>
+      <c r="A68" s="213"/>
+      <c r="B68" s="219"/>
+      <c r="C68" s="234"/>
+      <c r="D68" s="240"/>
       <c r="E68" s="121" t="s">
         <v>167</v>
       </c>
-      <c r="F68" s="237" t="s">
+      <c r="F68" s="242" t="s">
         <v>197</v>
       </c>
-      <c r="G68" s="212"/>
-      <c r="H68" s="212"/>
-      <c r="I68" s="212"/>
-      <c r="J68" s="212"/>
-      <c r="K68" s="212"/>
-      <c r="L68" s="212"/>
-      <c r="M68" s="227"/>
+      <c r="G68" s="231"/>
+      <c r="H68" s="231"/>
+      <c r="I68" s="231"/>
+      <c r="J68" s="231"/>
+      <c r="K68" s="231"/>
+      <c r="L68" s="231"/>
+      <c r="M68" s="222"/>
     </row>
     <row r="69" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="230"/>
-      <c r="B69" s="221"/>
-      <c r="C69" s="225"/>
-      <c r="D69" s="235"/>
+      <c r="A69" s="213"/>
+      <c r="B69" s="219"/>
+      <c r="C69" s="235"/>
+      <c r="D69" s="240"/>
       <c r="E69" s="121" t="s">
         <v>168</v>
       </c>
-      <c r="F69" s="238"/>
-      <c r="G69" s="212"/>
-      <c r="H69" s="212"/>
-      <c r="I69" s="212"/>
-      <c r="J69" s="212"/>
-      <c r="K69" s="212"/>
-      <c r="L69" s="212"/>
-      <c r="M69" s="227"/>
+      <c r="F69" s="243"/>
+      <c r="G69" s="231"/>
+      <c r="H69" s="231"/>
+      <c r="I69" s="231"/>
+      <c r="J69" s="231"/>
+      <c r="K69" s="231"/>
+      <c r="L69" s="231"/>
+      <c r="M69" s="222"/>
     </row>
     <row r="70" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="230"/>
-      <c r="B70" s="221"/>
-      <c r="C70" s="223" t="s">
+      <c r="A70" s="213"/>
+      <c r="B70" s="219"/>
+      <c r="C70" s="233" t="s">
         <v>170</v>
       </c>
-      <c r="D70" s="235"/>
+      <c r="D70" s="240"/>
       <c r="E70" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F70" s="123" t="s">
         <v>198</v>
       </c>
-      <c r="G70" s="212"/>
-      <c r="H70" s="212"/>
-      <c r="I70" s="212"/>
-      <c r="J70" s="212"/>
-      <c r="K70" s="212"/>
-      <c r="L70" s="212"/>
-      <c r="M70" s="227"/>
+      <c r="G70" s="231"/>
+      <c r="H70" s="231"/>
+      <c r="I70" s="231"/>
+      <c r="J70" s="231"/>
+      <c r="K70" s="231"/>
+      <c r="L70" s="231"/>
+      <c r="M70" s="222"/>
     </row>
     <row r="71" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="230"/>
-      <c r="B71" s="221"/>
-      <c r="C71" s="224"/>
-      <c r="D71" s="235"/>
+      <c r="A71" s="213"/>
+      <c r="B71" s="219"/>
+      <c r="C71" s="234"/>
+      <c r="D71" s="240"/>
       <c r="E71" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F71" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G71" s="212"/>
-      <c r="H71" s="212"/>
-      <c r="I71" s="212"/>
-      <c r="J71" s="212"/>
-      <c r="K71" s="212"/>
-      <c r="L71" s="212"/>
-      <c r="M71" s="227"/>
+      <c r="G71" s="231"/>
+      <c r="H71" s="231"/>
+      <c r="I71" s="231"/>
+      <c r="J71" s="231"/>
+      <c r="K71" s="231"/>
+      <c r="L71" s="231"/>
+      <c r="M71" s="222"/>
     </row>
     <row r="72" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="230"/>
-      <c r="B72" s="221"/>
-      <c r="C72" s="224"/>
-      <c r="D72" s="235"/>
-      <c r="E72" s="231" t="s">
+      <c r="A72" s="213"/>
+      <c r="B72" s="219"/>
+      <c r="C72" s="234"/>
+      <c r="D72" s="240"/>
+      <c r="E72" s="236" t="s">
         <v>168</v>
       </c>
       <c r="F72" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G72" s="212"/>
-      <c r="H72" s="212"/>
-      <c r="I72" s="212"/>
-      <c r="J72" s="212"/>
-      <c r="K72" s="212"/>
-      <c r="L72" s="212"/>
-      <c r="M72" s="227"/>
+      <c r="G72" s="231"/>
+      <c r="H72" s="231"/>
+      <c r="I72" s="231"/>
+      <c r="J72" s="231"/>
+      <c r="K72" s="231"/>
+      <c r="L72" s="231"/>
+      <c r="M72" s="222"/>
     </row>
     <row r="73" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="230"/>
-      <c r="B73" s="221"/>
-      <c r="C73" s="225"/>
-      <c r="D73" s="235"/>
-      <c r="E73" s="232"/>
+      <c r="A73" s="213"/>
+      <c r="B73" s="219"/>
+      <c r="C73" s="235"/>
+      <c r="D73" s="240"/>
+      <c r="E73" s="237"/>
       <c r="F73" s="123" t="s">
         <v>201</v>
       </c>
-      <c r="G73" s="212"/>
-      <c r="H73" s="212"/>
-      <c r="I73" s="212"/>
-      <c r="J73" s="212"/>
-      <c r="K73" s="212"/>
-      <c r="L73" s="212"/>
-      <c r="M73" s="227"/>
+      <c r="G73" s="231"/>
+      <c r="H73" s="231"/>
+      <c r="I73" s="231"/>
+      <c r="J73" s="231"/>
+      <c r="K73" s="231"/>
+      <c r="L73" s="231"/>
+      <c r="M73" s="222"/>
     </row>
     <row r="74" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="230"/>
-      <c r="B74" s="221"/>
-      <c r="C74" s="223" t="s">
+      <c r="A74" s="213"/>
+      <c r="B74" s="219"/>
+      <c r="C74" s="233" t="s">
         <v>171</v>
       </c>
-      <c r="D74" s="235"/>
+      <c r="D74" s="240"/>
       <c r="E74" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F74" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G74" s="212"/>
-      <c r="H74" s="212"/>
-      <c r="I74" s="212"/>
-      <c r="J74" s="212"/>
-      <c r="K74" s="212"/>
-      <c r="L74" s="212"/>
-      <c r="M74" s="227"/>
+      <c r="G74" s="231"/>
+      <c r="H74" s="231"/>
+      <c r="I74" s="231"/>
+      <c r="J74" s="231"/>
+      <c r="K74" s="231"/>
+      <c r="L74" s="231"/>
+      <c r="M74" s="222"/>
     </row>
     <row r="75" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="230"/>
-      <c r="B75" s="221"/>
-      <c r="C75" s="224"/>
-      <c r="D75" s="235"/>
+      <c r="A75" s="213"/>
+      <c r="B75" s="219"/>
+      <c r="C75" s="234"/>
+      <c r="D75" s="240"/>
       <c r="E75" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F75" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G75" s="212"/>
-      <c r="H75" s="212"/>
-      <c r="I75" s="212"/>
-      <c r="J75" s="212"/>
-      <c r="K75" s="212"/>
-      <c r="L75" s="212"/>
-      <c r="M75" s="227"/>
+      <c r="G75" s="231"/>
+      <c r="H75" s="231"/>
+      <c r="I75" s="231"/>
+      <c r="J75" s="231"/>
+      <c r="K75" s="231"/>
+      <c r="L75" s="231"/>
+      <c r="M75" s="222"/>
     </row>
     <row r="76" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="230"/>
-      <c r="B76" s="221"/>
-      <c r="C76" s="225"/>
-      <c r="D76" s="235"/>
+      <c r="A76" s="213"/>
+      <c r="B76" s="219"/>
+      <c r="C76" s="235"/>
+      <c r="D76" s="240"/>
       <c r="E76" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F76" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="G76" s="212"/>
-      <c r="H76" s="212"/>
-      <c r="I76" s="212"/>
-      <c r="J76" s="212"/>
-      <c r="K76" s="212"/>
-      <c r="L76" s="212"/>
-      <c r="M76" s="227"/>
+      <c r="G76" s="231"/>
+      <c r="H76" s="231"/>
+      <c r="I76" s="231"/>
+      <c r="J76" s="231"/>
+      <c r="K76" s="231"/>
+      <c r="L76" s="231"/>
+      <c r="M76" s="222"/>
     </row>
     <row r="77" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="230"/>
-      <c r="B77" s="221"/>
-      <c r="C77" s="223" t="s">
+      <c r="A77" s="213"/>
+      <c r="B77" s="219"/>
+      <c r="C77" s="233" t="s">
         <v>172</v>
       </c>
-      <c r="D77" s="235"/>
+      <c r="D77" s="240"/>
       <c r="E77" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F77" s="123" t="s">
         <v>203</v>
       </c>
-      <c r="G77" s="212"/>
-      <c r="H77" s="212"/>
-      <c r="I77" s="212"/>
-      <c r="J77" s="212"/>
-      <c r="K77" s="212"/>
-      <c r="L77" s="212"/>
-      <c r="M77" s="227"/>
+      <c r="G77" s="231"/>
+      <c r="H77" s="231"/>
+      <c r="I77" s="231"/>
+      <c r="J77" s="231"/>
+      <c r="K77" s="231"/>
+      <c r="L77" s="231"/>
+      <c r="M77" s="222"/>
     </row>
     <row r="78" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="230"/>
-      <c r="B78" s="221"/>
-      <c r="C78" s="224"/>
-      <c r="D78" s="235"/>
+      <c r="A78" s="213"/>
+      <c r="B78" s="219"/>
+      <c r="C78" s="234"/>
+      <c r="D78" s="240"/>
       <c r="E78" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F78" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G78" s="212"/>
-      <c r="H78" s="212"/>
-      <c r="I78" s="212"/>
-      <c r="J78" s="212"/>
-      <c r="K78" s="212"/>
-      <c r="L78" s="212"/>
-      <c r="M78" s="227"/>
+      <c r="G78" s="231"/>
+      <c r="H78" s="231"/>
+      <c r="I78" s="231"/>
+      <c r="J78" s="231"/>
+      <c r="K78" s="231"/>
+      <c r="L78" s="231"/>
+      <c r="M78" s="222"/>
     </row>
     <row r="79" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="230"/>
-      <c r="B79" s="221"/>
-      <c r="C79" s="225"/>
-      <c r="D79" s="235"/>
+      <c r="A79" s="213"/>
+      <c r="B79" s="219"/>
+      <c r="C79" s="235"/>
+      <c r="D79" s="240"/>
       <c r="E79" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F79" s="123" t="s">
         <v>204</v>
       </c>
-      <c r="G79" s="212"/>
-      <c r="H79" s="212"/>
-      <c r="I79" s="212"/>
-      <c r="J79" s="212"/>
-      <c r="K79" s="212"/>
-      <c r="L79" s="212"/>
-      <c r="M79" s="227"/>
+      <c r="G79" s="231"/>
+      <c r="H79" s="231"/>
+      <c r="I79" s="231"/>
+      <c r="J79" s="231"/>
+      <c r="K79" s="231"/>
+      <c r="L79" s="231"/>
+      <c r="M79" s="222"/>
     </row>
     <row r="80" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="230"/>
-      <c r="B80" s="221"/>
-      <c r="C80" s="223" t="s">
+      <c r="A80" s="213"/>
+      <c r="B80" s="219"/>
+      <c r="C80" s="233" t="s">
         <v>173</v>
       </c>
-      <c r="D80" s="235"/>
+      <c r="D80" s="240"/>
       <c r="E80" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F80" s="123" t="s">
         <v>205</v>
       </c>
-      <c r="G80" s="212"/>
-      <c r="H80" s="212"/>
-      <c r="I80" s="212"/>
-      <c r="J80" s="212"/>
-      <c r="K80" s="212"/>
-      <c r="L80" s="212"/>
-      <c r="M80" s="227"/>
+      <c r="G80" s="231"/>
+      <c r="H80" s="231"/>
+      <c r="I80" s="231"/>
+      <c r="J80" s="231"/>
+      <c r="K80" s="231"/>
+      <c r="L80" s="231"/>
+      <c r="M80" s="222"/>
     </row>
     <row r="81" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="230"/>
-      <c r="B81" s="221"/>
-      <c r="C81" s="224"/>
-      <c r="D81" s="235"/>
+      <c r="A81" s="213"/>
+      <c r="B81" s="219"/>
+      <c r="C81" s="234"/>
+      <c r="D81" s="240"/>
       <c r="E81" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F81" s="123" t="s">
         <v>205</v>
       </c>
-      <c r="G81" s="212"/>
-      <c r="H81" s="212"/>
-      <c r="I81" s="212"/>
-      <c r="J81" s="212"/>
-      <c r="K81" s="212"/>
-      <c r="L81" s="212"/>
-      <c r="M81" s="227"/>
+      <c r="G81" s="231"/>
+      <c r="H81" s="231"/>
+      <c r="I81" s="231"/>
+      <c r="J81" s="231"/>
+      <c r="K81" s="231"/>
+      <c r="L81" s="231"/>
+      <c r="M81" s="222"/>
     </row>
     <row r="82" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="230"/>
-      <c r="B82" s="221"/>
-      <c r="C82" s="225"/>
-      <c r="D82" s="235"/>
+      <c r="A82" s="213"/>
+      <c r="B82" s="219"/>
+      <c r="C82" s="235"/>
+      <c r="D82" s="240"/>
       <c r="E82" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F82" s="123" t="s">
         <v>205</v>
       </c>
-      <c r="G82" s="212"/>
-      <c r="H82" s="212"/>
-      <c r="I82" s="212"/>
-      <c r="J82" s="212"/>
-      <c r="K82" s="212"/>
-      <c r="L82" s="212"/>
-      <c r="M82" s="227"/>
+      <c r="G82" s="231"/>
+      <c r="H82" s="231"/>
+      <c r="I82" s="231"/>
+      <c r="J82" s="231"/>
+      <c r="K82" s="231"/>
+      <c r="L82" s="231"/>
+      <c r="M82" s="222"/>
     </row>
     <row r="83" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="230"/>
-      <c r="B83" s="221"/>
-      <c r="C83" s="223" t="s">
+      <c r="A83" s="213"/>
+      <c r="B83" s="219"/>
+      <c r="C83" s="233" t="s">
         <v>174</v>
       </c>
-      <c r="D83" s="235"/>
+      <c r="D83" s="240"/>
       <c r="E83" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F83" s="123" t="s">
         <v>201</v>
       </c>
-      <c r="G83" s="212"/>
-      <c r="H83" s="212"/>
-      <c r="I83" s="212"/>
-      <c r="J83" s="212"/>
-      <c r="K83" s="212"/>
-      <c r="L83" s="212"/>
-      <c r="M83" s="227"/>
+      <c r="G83" s="231"/>
+      <c r="H83" s="231"/>
+      <c r="I83" s="231"/>
+      <c r="J83" s="231"/>
+      <c r="K83" s="231"/>
+      <c r="L83" s="231"/>
+      <c r="M83" s="222"/>
     </row>
     <row r="84" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="230"/>
-      <c r="B84" s="221"/>
-      <c r="C84" s="224"/>
-      <c r="D84" s="235"/>
+      <c r="A84" s="213"/>
+      <c r="B84" s="219"/>
+      <c r="C84" s="234"/>
+      <c r="D84" s="240"/>
       <c r="E84" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F84" s="123" t="s">
         <v>206</v>
       </c>
-      <c r="G84" s="212"/>
-      <c r="H84" s="212"/>
-      <c r="I84" s="212"/>
-      <c r="J84" s="212"/>
-      <c r="K84" s="212"/>
-      <c r="L84" s="212"/>
-      <c r="M84" s="227"/>
+      <c r="G84" s="231"/>
+      <c r="H84" s="231"/>
+      <c r="I84" s="231"/>
+      <c r="J84" s="231"/>
+      <c r="K84" s="231"/>
+      <c r="L84" s="231"/>
+      <c r="M84" s="222"/>
     </row>
     <row r="85" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="230"/>
-      <c r="B85" s="221"/>
-      <c r="C85" s="225"/>
-      <c r="D85" s="235"/>
+      <c r="A85" s="213"/>
+      <c r="B85" s="219"/>
+      <c r="C85" s="235"/>
+      <c r="D85" s="240"/>
       <c r="E85" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F85" s="123" t="s">
         <v>207</v>
       </c>
-      <c r="G85" s="212"/>
-      <c r="H85" s="212"/>
-      <c r="I85" s="212"/>
-      <c r="J85" s="212"/>
-      <c r="K85" s="212"/>
-      <c r="L85" s="212"/>
-      <c r="M85" s="227"/>
+      <c r="G85" s="231"/>
+      <c r="H85" s="231"/>
+      <c r="I85" s="231"/>
+      <c r="J85" s="231"/>
+      <c r="K85" s="231"/>
+      <c r="L85" s="231"/>
+      <c r="M85" s="222"/>
     </row>
     <row r="86" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="230"/>
-      <c r="B86" s="221"/>
-      <c r="C86" s="223" t="s">
+      <c r="A86" s="213"/>
+      <c r="B86" s="219"/>
+      <c r="C86" s="233" t="s">
         <v>175</v>
       </c>
-      <c r="D86" s="235"/>
+      <c r="D86" s="240"/>
       <c r="E86" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F86" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G86" s="212"/>
-      <c r="H86" s="212"/>
-      <c r="I86" s="212"/>
-      <c r="J86" s="212"/>
-      <c r="K86" s="212"/>
-      <c r="L86" s="212"/>
-      <c r="M86" s="227"/>
+      <c r="G86" s="231"/>
+      <c r="H86" s="231"/>
+      <c r="I86" s="231"/>
+      <c r="J86" s="231"/>
+      <c r="K86" s="231"/>
+      <c r="L86" s="231"/>
+      <c r="M86" s="222"/>
     </row>
     <row r="87" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="230"/>
-      <c r="B87" s="221"/>
-      <c r="C87" s="224"/>
-      <c r="D87" s="235"/>
+      <c r="A87" s="213"/>
+      <c r="B87" s="219"/>
+      <c r="C87" s="234"/>
+      <c r="D87" s="240"/>
       <c r="E87" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F87" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G87" s="212"/>
-      <c r="H87" s="212"/>
-      <c r="I87" s="212"/>
-      <c r="J87" s="212"/>
-      <c r="K87" s="212"/>
-      <c r="L87" s="212"/>
-      <c r="M87" s="227"/>
+      <c r="G87" s="231"/>
+      <c r="H87" s="231"/>
+      <c r="I87" s="231"/>
+      <c r="J87" s="231"/>
+      <c r="K87" s="231"/>
+      <c r="L87" s="231"/>
+      <c r="M87" s="222"/>
     </row>
     <row r="88" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="230"/>
-      <c r="B88" s="221"/>
-      <c r="C88" s="225"/>
-      <c r="D88" s="235"/>
+      <c r="A88" s="213"/>
+      <c r="B88" s="219"/>
+      <c r="C88" s="235"/>
+      <c r="D88" s="240"/>
       <c r="E88" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F88" s="123" t="s">
         <v>208</v>
       </c>
-      <c r="G88" s="212"/>
-      <c r="H88" s="212"/>
-      <c r="I88" s="212"/>
-      <c r="J88" s="212"/>
-      <c r="K88" s="212"/>
-      <c r="L88" s="212"/>
-      <c r="M88" s="227"/>
+      <c r="G88" s="231"/>
+      <c r="H88" s="231"/>
+      <c r="I88" s="231"/>
+      <c r="J88" s="231"/>
+      <c r="K88" s="231"/>
+      <c r="L88" s="231"/>
+      <c r="M88" s="222"/>
     </row>
     <row r="89" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="230"/>
-      <c r="B89" s="221"/>
-      <c r="C89" s="223" t="s">
+      <c r="A89" s="213"/>
+      <c r="B89" s="219"/>
+      <c r="C89" s="233" t="s">
         <v>176</v>
       </c>
-      <c r="D89" s="235"/>
-      <c r="E89" s="231" t="s">
+      <c r="D89" s="240"/>
+      <c r="E89" s="236" t="s">
         <v>166</v>
       </c>
       <c r="F89" s="123" t="s">
         <v>209</v>
       </c>
-      <c r="G89" s="212"/>
-      <c r="H89" s="212"/>
-      <c r="I89" s="212"/>
-      <c r="J89" s="212"/>
-      <c r="K89" s="212"/>
-      <c r="L89" s="212"/>
-      <c r="M89" s="227"/>
+      <c r="G89" s="231"/>
+      <c r="H89" s="231"/>
+      <c r="I89" s="231"/>
+      <c r="J89" s="231"/>
+      <c r="K89" s="231"/>
+      <c r="L89" s="231"/>
+      <c r="M89" s="222"/>
     </row>
     <row r="90" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="230"/>
-      <c r="B90" s="221"/>
-      <c r="C90" s="224"/>
-      <c r="D90" s="235"/>
-      <c r="E90" s="232"/>
+      <c r="A90" s="213"/>
+      <c r="B90" s="219"/>
+      <c r="C90" s="234"/>
+      <c r="D90" s="240"/>
+      <c r="E90" s="237"/>
       <c r="F90" s="123" t="s">
         <v>210</v>
       </c>
-      <c r="G90" s="212"/>
-      <c r="H90" s="212"/>
-      <c r="I90" s="212"/>
-      <c r="J90" s="212"/>
-      <c r="K90" s="212"/>
-      <c r="L90" s="212"/>
-      <c r="M90" s="227"/>
+      <c r="G90" s="231"/>
+      <c r="H90" s="231"/>
+      <c r="I90" s="231"/>
+      <c r="J90" s="231"/>
+      <c r="K90" s="231"/>
+      <c r="L90" s="231"/>
+      <c r="M90" s="222"/>
     </row>
     <row r="91" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="230"/>
-      <c r="B91" s="221"/>
-      <c r="C91" s="224"/>
-      <c r="D91" s="235"/>
+      <c r="A91" s="213"/>
+      <c r="B91" s="219"/>
+      <c r="C91" s="234"/>
+      <c r="D91" s="240"/>
       <c r="E91" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F91" s="123" t="s">
         <v>210</v>
       </c>
-      <c r="G91" s="212"/>
-      <c r="H91" s="212"/>
-      <c r="I91" s="212"/>
-      <c r="J91" s="212"/>
-      <c r="K91" s="212"/>
-      <c r="L91" s="212"/>
-      <c r="M91" s="227"/>
+      <c r="G91" s="231"/>
+      <c r="H91" s="231"/>
+      <c r="I91" s="231"/>
+      <c r="J91" s="231"/>
+      <c r="K91" s="231"/>
+      <c r="L91" s="231"/>
+      <c r="M91" s="222"/>
     </row>
     <row r="92" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="230"/>
-      <c r="B92" s="221"/>
-      <c r="C92" s="225"/>
-      <c r="D92" s="235"/>
+      <c r="A92" s="213"/>
+      <c r="B92" s="219"/>
+      <c r="C92" s="235"/>
+      <c r="D92" s="240"/>
       <c r="E92" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F92" s="123" t="s">
         <v>211</v>
       </c>
-      <c r="G92" s="212"/>
-      <c r="H92" s="212"/>
-      <c r="I92" s="212"/>
-      <c r="J92" s="212"/>
-      <c r="K92" s="212"/>
-      <c r="L92" s="212"/>
-      <c r="M92" s="227"/>
+      <c r="G92" s="231"/>
+      <c r="H92" s="231"/>
+      <c r="I92" s="231"/>
+      <c r="J92" s="231"/>
+      <c r="K92" s="231"/>
+      <c r="L92" s="231"/>
+      <c r="M92" s="222"/>
     </row>
     <row r="93" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="230"/>
-      <c r="B93" s="221"/>
-      <c r="C93" s="223" t="s">
+      <c r="A93" s="213"/>
+      <c r="B93" s="219"/>
+      <c r="C93" s="233" t="s">
         <v>177</v>
       </c>
-      <c r="D93" s="235"/>
+      <c r="D93" s="240"/>
       <c r="E93" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F93" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G93" s="212"/>
-      <c r="H93" s="212"/>
-      <c r="I93" s="212"/>
-      <c r="J93" s="212"/>
-      <c r="K93" s="212"/>
-      <c r="L93" s="212"/>
-      <c r="M93" s="227"/>
+      <c r="G93" s="231"/>
+      <c r="H93" s="231"/>
+      <c r="I93" s="231"/>
+      <c r="J93" s="231"/>
+      <c r="K93" s="231"/>
+      <c r="L93" s="231"/>
+      <c r="M93" s="222"/>
     </row>
     <row r="94" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="230"/>
-      <c r="B94" s="221"/>
-      <c r="C94" s="224"/>
-      <c r="D94" s="235"/>
+      <c r="A94" s="213"/>
+      <c r="B94" s="219"/>
+      <c r="C94" s="234"/>
+      <c r="D94" s="240"/>
       <c r="E94" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F94" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G94" s="212"/>
-      <c r="H94" s="212"/>
-      <c r="I94" s="212"/>
-      <c r="J94" s="212"/>
-      <c r="K94" s="212"/>
-      <c r="L94" s="212"/>
-      <c r="M94" s="227"/>
+      <c r="G94" s="231"/>
+      <c r="H94" s="231"/>
+      <c r="I94" s="231"/>
+      <c r="J94" s="231"/>
+      <c r="K94" s="231"/>
+      <c r="L94" s="231"/>
+      <c r="M94" s="222"/>
     </row>
     <row r="95" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="230"/>
-      <c r="B95" s="221"/>
-      <c r="C95" s="224"/>
-      <c r="D95" s="235"/>
-      <c r="E95" s="231" t="s">
+      <c r="A95" s="213"/>
+      <c r="B95" s="219"/>
+      <c r="C95" s="234"/>
+      <c r="D95" s="240"/>
+      <c r="E95" s="236" t="s">
         <v>168</v>
       </c>
       <c r="F95" s="123" t="s">
         <v>204</v>
       </c>
-      <c r="G95" s="212"/>
-      <c r="H95" s="212"/>
-      <c r="I95" s="212"/>
-      <c r="J95" s="212"/>
-      <c r="K95" s="212"/>
-      <c r="L95" s="212"/>
-      <c r="M95" s="227"/>
+      <c r="G95" s="231"/>
+      <c r="H95" s="231"/>
+      <c r="I95" s="231"/>
+      <c r="J95" s="231"/>
+      <c r="K95" s="231"/>
+      <c r="L95" s="231"/>
+      <c r="M95" s="222"/>
     </row>
     <row r="96" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="230"/>
-      <c r="B96" s="221"/>
-      <c r="C96" s="225"/>
-      <c r="D96" s="235"/>
-      <c r="E96" s="232"/>
+      <c r="A96" s="213"/>
+      <c r="B96" s="219"/>
+      <c r="C96" s="235"/>
+      <c r="D96" s="240"/>
+      <c r="E96" s="237"/>
       <c r="F96" s="123" t="s">
         <v>205</v>
       </c>
-      <c r="G96" s="212"/>
-      <c r="H96" s="212"/>
-      <c r="I96" s="212"/>
-      <c r="J96" s="212"/>
-      <c r="K96" s="212"/>
-      <c r="L96" s="212"/>
-      <c r="M96" s="227"/>
+      <c r="G96" s="231"/>
+      <c r="H96" s="231"/>
+      <c r="I96" s="231"/>
+      <c r="J96" s="231"/>
+      <c r="K96" s="231"/>
+      <c r="L96" s="231"/>
+      <c r="M96" s="222"/>
     </row>
     <row r="97" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="230"/>
-      <c r="B97" s="221"/>
-      <c r="C97" s="223" t="s">
+      <c r="A97" s="213"/>
+      <c r="B97" s="219"/>
+      <c r="C97" s="233" t="s">
         <v>178</v>
       </c>
-      <c r="D97" s="235"/>
+      <c r="D97" s="240"/>
       <c r="E97" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F97" s="123" t="s">
         <v>212</v>
       </c>
-      <c r="G97" s="212"/>
-      <c r="H97" s="212"/>
-      <c r="I97" s="212"/>
-      <c r="J97" s="212"/>
-      <c r="K97" s="212"/>
-      <c r="L97" s="212"/>
-      <c r="M97" s="227"/>
+      <c r="G97" s="231"/>
+      <c r="H97" s="231"/>
+      <c r="I97" s="231"/>
+      <c r="J97" s="231"/>
+      <c r="K97" s="231"/>
+      <c r="L97" s="231"/>
+      <c r="M97" s="222"/>
     </row>
     <row r="98" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="230"/>
-      <c r="B98" s="221"/>
-      <c r="C98" s="224"/>
-      <c r="D98" s="235"/>
+      <c r="A98" s="213"/>
+      <c r="B98" s="219"/>
+      <c r="C98" s="234"/>
+      <c r="D98" s="240"/>
       <c r="E98" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F98" s="123" t="s">
         <v>204</v>
       </c>
-      <c r="G98" s="212"/>
-      <c r="H98" s="212"/>
-      <c r="I98" s="212"/>
-      <c r="J98" s="212"/>
-      <c r="K98" s="212"/>
-      <c r="L98" s="212"/>
-      <c r="M98" s="227"/>
+      <c r="G98" s="231"/>
+      <c r="H98" s="231"/>
+      <c r="I98" s="231"/>
+      <c r="J98" s="231"/>
+      <c r="K98" s="231"/>
+      <c r="L98" s="231"/>
+      <c r="M98" s="222"/>
     </row>
     <row r="99" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="230"/>
-      <c r="B99" s="221"/>
-      <c r="C99" s="225"/>
-      <c r="D99" s="235"/>
+      <c r="A99" s="213"/>
+      <c r="B99" s="219"/>
+      <c r="C99" s="235"/>
+      <c r="D99" s="240"/>
       <c r="E99" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F99" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G99" s="212"/>
-      <c r="H99" s="212"/>
-      <c r="I99" s="212"/>
-      <c r="J99" s="212"/>
-      <c r="K99" s="212"/>
-      <c r="L99" s="212"/>
-      <c r="M99" s="227"/>
+      <c r="G99" s="231"/>
+      <c r="H99" s="231"/>
+      <c r="I99" s="231"/>
+      <c r="J99" s="231"/>
+      <c r="K99" s="231"/>
+      <c r="L99" s="231"/>
+      <c r="M99" s="222"/>
     </row>
     <row r="100" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="230"/>
-      <c r="B100" s="221"/>
-      <c r="C100" s="223" t="s">
+      <c r="A100" s="213"/>
+      <c r="B100" s="219"/>
+      <c r="C100" s="233" t="s">
         <v>179</v>
       </c>
-      <c r="D100" s="235"/>
+      <c r="D100" s="240"/>
       <c r="E100" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F100" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G100" s="212"/>
-      <c r="H100" s="212"/>
-      <c r="I100" s="212"/>
-      <c r="J100" s="212"/>
-      <c r="K100" s="212"/>
-      <c r="L100" s="212"/>
-      <c r="M100" s="227"/>
+      <c r="G100" s="231"/>
+      <c r="H100" s="231"/>
+      <c r="I100" s="231"/>
+      <c r="J100" s="231"/>
+      <c r="K100" s="231"/>
+      <c r="L100" s="231"/>
+      <c r="M100" s="222"/>
     </row>
     <row r="101" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="230"/>
-      <c r="B101" s="221"/>
-      <c r="C101" s="224"/>
-      <c r="D101" s="235"/>
-      <c r="E101" s="231" t="s">
+      <c r="A101" s="213"/>
+      <c r="B101" s="219"/>
+      <c r="C101" s="234"/>
+      <c r="D101" s="240"/>
+      <c r="E101" s="236" t="s">
         <v>167</v>
       </c>
       <c r="F101" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G101" s="212"/>
-      <c r="H101" s="212"/>
-      <c r="I101" s="212"/>
-      <c r="J101" s="212"/>
-      <c r="K101" s="212"/>
-      <c r="L101" s="212"/>
-      <c r="M101" s="227"/>
+      <c r="G101" s="231"/>
+      <c r="H101" s="231"/>
+      <c r="I101" s="231"/>
+      <c r="J101" s="231"/>
+      <c r="K101" s="231"/>
+      <c r="L101" s="231"/>
+      <c r="M101" s="222"/>
     </row>
     <row r="102" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="230"/>
-      <c r="B102" s="221"/>
-      <c r="C102" s="224"/>
-      <c r="D102" s="235"/>
-      <c r="E102" s="232"/>
+      <c r="A102" s="213"/>
+      <c r="B102" s="219"/>
+      <c r="C102" s="234"/>
+      <c r="D102" s="240"/>
+      <c r="E102" s="237"/>
       <c r="F102" s="123" t="s">
         <v>201</v>
       </c>
-      <c r="G102" s="212"/>
-      <c r="H102" s="212"/>
-      <c r="I102" s="212"/>
-      <c r="J102" s="212"/>
-      <c r="K102" s="212"/>
-      <c r="L102" s="212"/>
-      <c r="M102" s="227"/>
+      <c r="G102" s="231"/>
+      <c r="H102" s="231"/>
+      <c r="I102" s="231"/>
+      <c r="J102" s="231"/>
+      <c r="K102" s="231"/>
+      <c r="L102" s="231"/>
+      <c r="M102" s="222"/>
     </row>
     <row r="103" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="230"/>
-      <c r="B103" s="221"/>
-      <c r="C103" s="225"/>
-      <c r="D103" s="235"/>
+      <c r="A103" s="213"/>
+      <c r="B103" s="219"/>
+      <c r="C103" s="235"/>
+      <c r="D103" s="240"/>
       <c r="E103" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F103" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="G103" s="212"/>
-      <c r="H103" s="212"/>
-      <c r="I103" s="212"/>
-      <c r="J103" s="212"/>
-      <c r="K103" s="212"/>
-      <c r="L103" s="212"/>
-      <c r="M103" s="227"/>
+      <c r="G103" s="231"/>
+      <c r="H103" s="231"/>
+      <c r="I103" s="231"/>
+      <c r="J103" s="231"/>
+      <c r="K103" s="231"/>
+      <c r="L103" s="231"/>
+      <c r="M103" s="222"/>
     </row>
     <row r="104" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="230"/>
-      <c r="B104" s="221"/>
-      <c r="C104" s="223" t="s">
+      <c r="A104" s="213"/>
+      <c r="B104" s="219"/>
+      <c r="C104" s="233" t="s">
         <v>180</v>
       </c>
-      <c r="D104" s="235"/>
-      <c r="E104" s="231" t="s">
+      <c r="D104" s="240"/>
+      <c r="E104" s="236" t="s">
         <v>166</v>
       </c>
       <c r="F104" s="123" t="s">
         <v>213</v>
       </c>
-      <c r="G104" s="212"/>
-      <c r="H104" s="212"/>
-      <c r="I104" s="212"/>
-      <c r="J104" s="212"/>
-      <c r="K104" s="212"/>
-      <c r="L104" s="212"/>
-      <c r="M104" s="227"/>
+      <c r="G104" s="231"/>
+      <c r="H104" s="231"/>
+      <c r="I104" s="231"/>
+      <c r="J104" s="231"/>
+      <c r="K104" s="231"/>
+      <c r="L104" s="231"/>
+      <c r="M104" s="222"/>
     </row>
     <row r="105" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="230"/>
-      <c r="B105" s="221"/>
-      <c r="C105" s="224"/>
-      <c r="D105" s="235"/>
-      <c r="E105" s="232"/>
+      <c r="A105" s="213"/>
+      <c r="B105" s="219"/>
+      <c r="C105" s="234"/>
+      <c r="D105" s="240"/>
+      <c r="E105" s="237"/>
       <c r="F105" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G105" s="212"/>
-      <c r="H105" s="212"/>
-      <c r="I105" s="212"/>
-      <c r="J105" s="212"/>
-      <c r="K105" s="212"/>
-      <c r="L105" s="212"/>
-      <c r="M105" s="227"/>
+      <c r="G105" s="231"/>
+      <c r="H105" s="231"/>
+      <c r="I105" s="231"/>
+      <c r="J105" s="231"/>
+      <c r="K105" s="231"/>
+      <c r="L105" s="231"/>
+      <c r="M105" s="222"/>
     </row>
     <row r="106" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="230"/>
-      <c r="B106" s="221"/>
-      <c r="C106" s="224"/>
-      <c r="D106" s="235"/>
+      <c r="A106" s="213"/>
+      <c r="B106" s="219"/>
+      <c r="C106" s="234"/>
+      <c r="D106" s="240"/>
       <c r="E106" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F106" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G106" s="212"/>
-      <c r="H106" s="212"/>
-      <c r="I106" s="212"/>
-      <c r="J106" s="212"/>
-      <c r="K106" s="212"/>
-      <c r="L106" s="212"/>
-      <c r="M106" s="227"/>
+      <c r="G106" s="231"/>
+      <c r="H106" s="231"/>
+      <c r="I106" s="231"/>
+      <c r="J106" s="231"/>
+      <c r="K106" s="231"/>
+      <c r="L106" s="231"/>
+      <c r="M106" s="222"/>
     </row>
     <row r="107" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="230"/>
-      <c r="B107" s="221"/>
-      <c r="C107" s="224"/>
-      <c r="D107" s="235"/>
-      <c r="E107" s="231" t="s">
+      <c r="A107" s="213"/>
+      <c r="B107" s="219"/>
+      <c r="C107" s="234"/>
+      <c r="D107" s="240"/>
+      <c r="E107" s="236" t="s">
         <v>168</v>
       </c>
       <c r="F107" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G107" s="212"/>
-      <c r="H107" s="212"/>
-      <c r="I107" s="212"/>
-      <c r="J107" s="212"/>
-      <c r="K107" s="212"/>
-      <c r="L107" s="212"/>
-      <c r="M107" s="227"/>
+      <c r="G107" s="231"/>
+      <c r="H107" s="231"/>
+      <c r="I107" s="231"/>
+      <c r="J107" s="231"/>
+      <c r="K107" s="231"/>
+      <c r="L107" s="231"/>
+      <c r="M107" s="222"/>
     </row>
     <row r="108" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="230"/>
-      <c r="B108" s="221"/>
-      <c r="C108" s="225"/>
-      <c r="D108" s="235"/>
-      <c r="E108" s="232"/>
+      <c r="A108" s="213"/>
+      <c r="B108" s="219"/>
+      <c r="C108" s="235"/>
+      <c r="D108" s="240"/>
+      <c r="E108" s="237"/>
       <c r="F108" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G108" s="212"/>
-      <c r="H108" s="212"/>
-      <c r="I108" s="212"/>
-      <c r="J108" s="212"/>
-      <c r="K108" s="212"/>
-      <c r="L108" s="212"/>
-      <c r="M108" s="227"/>
+      <c r="G108" s="231"/>
+      <c r="H108" s="231"/>
+      <c r="I108" s="231"/>
+      <c r="J108" s="231"/>
+      <c r="K108" s="231"/>
+      <c r="L108" s="231"/>
+      <c r="M108" s="222"/>
     </row>
     <row r="109" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="230"/>
-      <c r="B109" s="221"/>
-      <c r="C109" s="223" t="s">
+      <c r="A109" s="213"/>
+      <c r="B109" s="219"/>
+      <c r="C109" s="233" t="s">
         <v>181</v>
       </c>
-      <c r="D109" s="235"/>
+      <c r="D109" s="240"/>
       <c r="E109" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F109" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G109" s="212"/>
-      <c r="H109" s="212"/>
-      <c r="I109" s="212"/>
-      <c r="J109" s="212"/>
-      <c r="K109" s="212"/>
-      <c r="L109" s="212"/>
-      <c r="M109" s="227"/>
+      <c r="G109" s="231"/>
+      <c r="H109" s="231"/>
+      <c r="I109" s="231"/>
+      <c r="J109" s="231"/>
+      <c r="K109" s="231"/>
+      <c r="L109" s="231"/>
+      <c r="M109" s="222"/>
     </row>
     <row r="110" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="230"/>
-      <c r="B110" s="221"/>
-      <c r="C110" s="224"/>
-      <c r="D110" s="235"/>
+      <c r="A110" s="213"/>
+      <c r="B110" s="219"/>
+      <c r="C110" s="234"/>
+      <c r="D110" s="240"/>
       <c r="E110" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F110" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G110" s="212"/>
-      <c r="H110" s="212"/>
-      <c r="I110" s="212"/>
-      <c r="J110" s="212"/>
-      <c r="K110" s="212"/>
-      <c r="L110" s="212"/>
-      <c r="M110" s="227"/>
+      <c r="G110" s="231"/>
+      <c r="H110" s="231"/>
+      <c r="I110" s="231"/>
+      <c r="J110" s="231"/>
+      <c r="K110" s="231"/>
+      <c r="L110" s="231"/>
+      <c r="M110" s="222"/>
     </row>
     <row r="111" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="230"/>
-      <c r="B111" s="221"/>
-      <c r="C111" s="225"/>
-      <c r="D111" s="235"/>
+      <c r="A111" s="213"/>
+      <c r="B111" s="219"/>
+      <c r="C111" s="235"/>
+      <c r="D111" s="240"/>
       <c r="E111" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F111" s="123" t="s">
         <v>214</v>
       </c>
-      <c r="G111" s="212"/>
-      <c r="H111" s="212"/>
-      <c r="I111" s="212"/>
-      <c r="J111" s="212"/>
-      <c r="K111" s="212"/>
-      <c r="L111" s="212"/>
-      <c r="M111" s="227"/>
+      <c r="G111" s="231"/>
+      <c r="H111" s="231"/>
+      <c r="I111" s="231"/>
+      <c r="J111" s="231"/>
+      <c r="K111" s="231"/>
+      <c r="L111" s="231"/>
+      <c r="M111" s="222"/>
     </row>
     <row r="112" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="230"/>
-      <c r="B112" s="221"/>
-      <c r="C112" s="223" t="s">
+      <c r="A112" s="213"/>
+      <c r="B112" s="219"/>
+      <c r="C112" s="233" t="s">
         <v>182</v>
       </c>
-      <c r="D112" s="235"/>
+      <c r="D112" s="240"/>
       <c r="E112" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F112" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G112" s="212"/>
-      <c r="H112" s="212"/>
-      <c r="I112" s="212"/>
-      <c r="J112" s="212"/>
-      <c r="K112" s="212"/>
-      <c r="L112" s="212"/>
-      <c r="M112" s="227"/>
+      <c r="G112" s="231"/>
+      <c r="H112" s="231"/>
+      <c r="I112" s="231"/>
+      <c r="J112" s="231"/>
+      <c r="K112" s="231"/>
+      <c r="L112" s="231"/>
+      <c r="M112" s="222"/>
     </row>
     <row r="113" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="230"/>
-      <c r="B113" s="221"/>
-      <c r="C113" s="224"/>
-      <c r="D113" s="235"/>
-      <c r="E113" s="231" t="s">
+      <c r="A113" s="213"/>
+      <c r="B113" s="219"/>
+      <c r="C113" s="234"/>
+      <c r="D113" s="240"/>
+      <c r="E113" s="236" t="s">
         <v>167</v>
       </c>
       <c r="F113" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G113" s="212"/>
-      <c r="H113" s="212"/>
-      <c r="I113" s="212"/>
-      <c r="J113" s="212"/>
-      <c r="K113" s="212"/>
-      <c r="L113" s="212"/>
-      <c r="M113" s="227"/>
+      <c r="G113" s="231"/>
+      <c r="H113" s="231"/>
+      <c r="I113" s="231"/>
+      <c r="J113" s="231"/>
+      <c r="K113" s="231"/>
+      <c r="L113" s="231"/>
+      <c r="M113" s="222"/>
     </row>
     <row r="114" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="230"/>
-      <c r="B114" s="221"/>
-      <c r="C114" s="224"/>
-      <c r="D114" s="235"/>
-      <c r="E114" s="232"/>
+      <c r="A114" s="213"/>
+      <c r="B114" s="219"/>
+      <c r="C114" s="234"/>
+      <c r="D114" s="240"/>
+      <c r="E114" s="237"/>
       <c r="F114" s="123" t="s">
         <v>215</v>
       </c>
-      <c r="G114" s="212"/>
-      <c r="H114" s="212"/>
-      <c r="I114" s="212"/>
-      <c r="J114" s="212"/>
-      <c r="K114" s="212"/>
-      <c r="L114" s="212"/>
-      <c r="M114" s="227"/>
+      <c r="G114" s="231"/>
+      <c r="H114" s="231"/>
+      <c r="I114" s="231"/>
+      <c r="J114" s="231"/>
+      <c r="K114" s="231"/>
+      <c r="L114" s="231"/>
+      <c r="M114" s="222"/>
     </row>
     <row r="115" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="230"/>
-      <c r="B115" s="221"/>
-      <c r="C115" s="225"/>
-      <c r="D115" s="235"/>
+      <c r="A115" s="213"/>
+      <c r="B115" s="219"/>
+      <c r="C115" s="235"/>
+      <c r="D115" s="240"/>
       <c r="E115" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F115" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G115" s="212"/>
-      <c r="H115" s="212"/>
-      <c r="I115" s="212"/>
-      <c r="J115" s="212"/>
-      <c r="K115" s="212"/>
-      <c r="L115" s="212"/>
-      <c r="M115" s="227"/>
+      <c r="G115" s="231"/>
+      <c r="H115" s="231"/>
+      <c r="I115" s="231"/>
+      <c r="J115" s="231"/>
+      <c r="K115" s="231"/>
+      <c r="L115" s="231"/>
+      <c r="M115" s="222"/>
     </row>
     <row r="116" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="230"/>
-      <c r="B116" s="221"/>
-      <c r="C116" s="223" t="s">
+      <c r="A116" s="213"/>
+      <c r="B116" s="219"/>
+      <c r="C116" s="233" t="s">
         <v>183</v>
       </c>
-      <c r="D116" s="235"/>
+      <c r="D116" s="240"/>
       <c r="E116" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F116" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G116" s="212"/>
-      <c r="H116" s="212"/>
-      <c r="I116" s="212"/>
-      <c r="J116" s="212"/>
-      <c r="K116" s="212"/>
-      <c r="L116" s="212"/>
-      <c r="M116" s="227"/>
+      <c r="G116" s="231"/>
+      <c r="H116" s="231"/>
+      <c r="I116" s="231"/>
+      <c r="J116" s="231"/>
+      <c r="K116" s="231"/>
+      <c r="L116" s="231"/>
+      <c r="M116" s="222"/>
     </row>
     <row r="117" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="230"/>
-      <c r="B117" s="221"/>
-      <c r="C117" s="224"/>
-      <c r="D117" s="235"/>
+      <c r="A117" s="213"/>
+      <c r="B117" s="219"/>
+      <c r="C117" s="234"/>
+      <c r="D117" s="240"/>
       <c r="E117" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F117" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G117" s="212"/>
-      <c r="H117" s="212"/>
-      <c r="I117" s="212"/>
-      <c r="J117" s="212"/>
-      <c r="K117" s="212"/>
-      <c r="L117" s="212"/>
-      <c r="M117" s="227"/>
+      <c r="G117" s="231"/>
+      <c r="H117" s="231"/>
+      <c r="I117" s="231"/>
+      <c r="J117" s="231"/>
+      <c r="K117" s="231"/>
+      <c r="L117" s="231"/>
+      <c r="M117" s="222"/>
     </row>
     <row r="118" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="230"/>
-      <c r="B118" s="221"/>
-      <c r="C118" s="225"/>
-      <c r="D118" s="235"/>
+      <c r="A118" s="213"/>
+      <c r="B118" s="219"/>
+      <c r="C118" s="235"/>
+      <c r="D118" s="240"/>
       <c r="E118" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F118" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="G118" s="212"/>
-      <c r="H118" s="212"/>
-      <c r="I118" s="212"/>
-      <c r="J118" s="212"/>
-      <c r="K118" s="212"/>
-      <c r="L118" s="212"/>
-      <c r="M118" s="227"/>
+      <c r="G118" s="231"/>
+      <c r="H118" s="231"/>
+      <c r="I118" s="231"/>
+      <c r="J118" s="231"/>
+      <c r="K118" s="231"/>
+      <c r="L118" s="231"/>
+      <c r="M118" s="222"/>
     </row>
     <row r="119" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="230"/>
-      <c r="B119" s="221"/>
-      <c r="C119" s="223" t="s">
+      <c r="A119" s="213"/>
+      <c r="B119" s="219"/>
+      <c r="C119" s="233" t="s">
         <v>184</v>
       </c>
-      <c r="D119" s="235"/>
+      <c r="D119" s="240"/>
       <c r="E119" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F119" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G119" s="212"/>
-      <c r="H119" s="212"/>
-      <c r="I119" s="212"/>
-      <c r="J119" s="212"/>
-      <c r="K119" s="212"/>
-      <c r="L119" s="212"/>
-      <c r="M119" s="227"/>
+      <c r="G119" s="231"/>
+      <c r="H119" s="231"/>
+      <c r="I119" s="231"/>
+      <c r="J119" s="231"/>
+      <c r="K119" s="231"/>
+      <c r="L119" s="231"/>
+      <c r="M119" s="222"/>
     </row>
     <row r="120" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="230"/>
-      <c r="B120" s="221"/>
-      <c r="C120" s="224"/>
-      <c r="D120" s="235"/>
+      <c r="A120" s="213"/>
+      <c r="B120" s="219"/>
+      <c r="C120" s="234"/>
+      <c r="D120" s="240"/>
       <c r="E120" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F120" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="G120" s="212"/>
-      <c r="H120" s="212"/>
-      <c r="I120" s="212"/>
-      <c r="J120" s="212"/>
-      <c r="K120" s="212"/>
-      <c r="L120" s="212"/>
-      <c r="M120" s="227"/>
+      <c r="G120" s="231"/>
+      <c r="H120" s="231"/>
+      <c r="I120" s="231"/>
+      <c r="J120" s="231"/>
+      <c r="K120" s="231"/>
+      <c r="L120" s="231"/>
+      <c r="M120" s="222"/>
     </row>
     <row r="121" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="230"/>
-      <c r="B121" s="221"/>
-      <c r="C121" s="225"/>
-      <c r="D121" s="235"/>
+      <c r="A121" s="213"/>
+      <c r="B121" s="219"/>
+      <c r="C121" s="235"/>
+      <c r="D121" s="240"/>
       <c r="E121" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F121" s="123" t="s">
         <v>210</v>
       </c>
-      <c r="G121" s="212"/>
-      <c r="H121" s="212"/>
-      <c r="I121" s="212"/>
-      <c r="J121" s="212"/>
-      <c r="K121" s="212"/>
-      <c r="L121" s="212"/>
-      <c r="M121" s="227"/>
+      <c r="G121" s="231"/>
+      <c r="H121" s="231"/>
+      <c r="I121" s="231"/>
+      <c r="J121" s="231"/>
+      <c r="K121" s="231"/>
+      <c r="L121" s="231"/>
+      <c r="M121" s="222"/>
     </row>
     <row r="122" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="230"/>
-      <c r="B122" s="221"/>
-      <c r="C122" s="223" t="s">
+      <c r="A122" s="213"/>
+      <c r="B122" s="219"/>
+      <c r="C122" s="233" t="s">
         <v>185</v>
       </c>
-      <c r="D122" s="235"/>
+      <c r="D122" s="240"/>
       <c r="E122" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F122" s="123" t="s">
         <v>198</v>
       </c>
-      <c r="G122" s="212"/>
-      <c r="H122" s="212"/>
-      <c r="I122" s="212"/>
-      <c r="J122" s="212"/>
-      <c r="K122" s="212"/>
-      <c r="L122" s="212"/>
-      <c r="M122" s="227"/>
+      <c r="G122" s="231"/>
+      <c r="H122" s="231"/>
+      <c r="I122" s="231"/>
+      <c r="J122" s="231"/>
+      <c r="K122" s="231"/>
+      <c r="L122" s="231"/>
+      <c r="M122" s="222"/>
     </row>
     <row r="123" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="230"/>
-      <c r="B123" s="221"/>
-      <c r="C123" s="224"/>
-      <c r="D123" s="235"/>
+      <c r="A123" s="213"/>
+      <c r="B123" s="219"/>
+      <c r="C123" s="234"/>
+      <c r="D123" s="240"/>
       <c r="E123" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F123" s="123" t="s">
         <v>216</v>
       </c>
-      <c r="G123" s="212"/>
-      <c r="H123" s="212"/>
-      <c r="I123" s="212"/>
-      <c r="J123" s="212"/>
-      <c r="K123" s="212"/>
-      <c r="L123" s="212"/>
-      <c r="M123" s="227"/>
+      <c r="G123" s="231"/>
+      <c r="H123" s="231"/>
+      <c r="I123" s="231"/>
+      <c r="J123" s="231"/>
+      <c r="K123" s="231"/>
+      <c r="L123" s="231"/>
+      <c r="M123" s="222"/>
     </row>
     <row r="124" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="230"/>
-      <c r="B124" s="221"/>
-      <c r="C124" s="225"/>
-      <c r="D124" s="235"/>
+      <c r="A124" s="213"/>
+      <c r="B124" s="219"/>
+      <c r="C124" s="235"/>
+      <c r="D124" s="240"/>
       <c r="E124" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F124" s="123" t="s">
         <v>208</v>
       </c>
-      <c r="G124" s="212"/>
-      <c r="H124" s="212"/>
-      <c r="I124" s="212"/>
-      <c r="J124" s="212"/>
-      <c r="K124" s="212"/>
-      <c r="L124" s="212"/>
-      <c r="M124" s="227"/>
+      <c r="G124" s="231"/>
+      <c r="H124" s="231"/>
+      <c r="I124" s="231"/>
+      <c r="J124" s="231"/>
+      <c r="K124" s="231"/>
+      <c r="L124" s="231"/>
+      <c r="M124" s="222"/>
     </row>
     <row r="125" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="230"/>
-      <c r="B125" s="221"/>
-      <c r="C125" s="223" t="s">
+      <c r="A125" s="213"/>
+      <c r="B125" s="219"/>
+      <c r="C125" s="233" t="s">
         <v>186</v>
       </c>
-      <c r="D125" s="235"/>
+      <c r="D125" s="240"/>
       <c r="E125" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F125" s="123" t="s">
         <v>213</v>
       </c>
-      <c r="G125" s="212"/>
-      <c r="H125" s="212"/>
-      <c r="I125" s="212"/>
-      <c r="J125" s="212"/>
-      <c r="K125" s="212"/>
-      <c r="L125" s="212"/>
-      <c r="M125" s="227"/>
+      <c r="G125" s="231"/>
+      <c r="H125" s="231"/>
+      <c r="I125" s="231"/>
+      <c r="J125" s="231"/>
+      <c r="K125" s="231"/>
+      <c r="L125" s="231"/>
+      <c r="M125" s="222"/>
     </row>
     <row r="126" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="230"/>
-      <c r="B126" s="221"/>
-      <c r="C126" s="224"/>
-      <c r="D126" s="235"/>
+      <c r="A126" s="213"/>
+      <c r="B126" s="219"/>
+      <c r="C126" s="234"/>
+      <c r="D126" s="240"/>
       <c r="E126" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F126" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G126" s="212"/>
-      <c r="H126" s="212"/>
-      <c r="I126" s="212"/>
-      <c r="J126" s="212"/>
-      <c r="K126" s="212"/>
-      <c r="L126" s="212"/>
-      <c r="M126" s="227"/>
+      <c r="G126" s="231"/>
+      <c r="H126" s="231"/>
+      <c r="I126" s="231"/>
+      <c r="J126" s="231"/>
+      <c r="K126" s="231"/>
+      <c r="L126" s="231"/>
+      <c r="M126" s="222"/>
     </row>
     <row r="127" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="230"/>
-      <c r="B127" s="221"/>
-      <c r="C127" s="225"/>
-      <c r="D127" s="235"/>
+      <c r="A127" s="213"/>
+      <c r="B127" s="219"/>
+      <c r="C127" s="235"/>
+      <c r="D127" s="240"/>
       <c r="E127" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F127" s="123" t="s">
         <v>215</v>
       </c>
-      <c r="G127" s="212"/>
-      <c r="H127" s="212"/>
-      <c r="I127" s="212"/>
-      <c r="J127" s="212"/>
-      <c r="K127" s="212"/>
-      <c r="L127" s="212"/>
-      <c r="M127" s="227"/>
+      <c r="G127" s="231"/>
+      <c r="H127" s="231"/>
+      <c r="I127" s="231"/>
+      <c r="J127" s="231"/>
+      <c r="K127" s="231"/>
+      <c r="L127" s="231"/>
+      <c r="M127" s="222"/>
     </row>
     <row r="128" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="230"/>
-      <c r="B128" s="221"/>
-      <c r="C128" s="223" t="s">
+      <c r="A128" s="213"/>
+      <c r="B128" s="219"/>
+      <c r="C128" s="233" t="s">
         <v>187</v>
       </c>
-      <c r="D128" s="235"/>
+      <c r="D128" s="240"/>
       <c r="E128" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F128" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G128" s="212"/>
-      <c r="H128" s="212"/>
-      <c r="I128" s="212"/>
-      <c r="J128" s="212"/>
-      <c r="K128" s="212"/>
-      <c r="L128" s="212"/>
-      <c r="M128" s="227"/>
+      <c r="G128" s="231"/>
+      <c r="H128" s="231"/>
+      <c r="I128" s="231"/>
+      <c r="J128" s="231"/>
+      <c r="K128" s="231"/>
+      <c r="L128" s="231"/>
+      <c r="M128" s="222"/>
     </row>
     <row r="129" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="230"/>
-      <c r="B129" s="221"/>
-      <c r="C129" s="224"/>
-      <c r="D129" s="235"/>
+      <c r="A129" s="213"/>
+      <c r="B129" s="219"/>
+      <c r="C129" s="234"/>
+      <c r="D129" s="240"/>
       <c r="E129" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F129" s="123" t="s">
         <v>217</v>
       </c>
-      <c r="G129" s="212"/>
-      <c r="H129" s="212"/>
-      <c r="I129" s="212"/>
-      <c r="J129" s="212"/>
-      <c r="K129" s="212"/>
-      <c r="L129" s="212"/>
-      <c r="M129" s="227"/>
+      <c r="G129" s="231"/>
+      <c r="H129" s="231"/>
+      <c r="I129" s="231"/>
+      <c r="J129" s="231"/>
+      <c r="K129" s="231"/>
+      <c r="L129" s="231"/>
+      <c r="M129" s="222"/>
     </row>
     <row r="130" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="230"/>
-      <c r="B130" s="221"/>
-      <c r="C130" s="225"/>
-      <c r="D130" s="235"/>
+      <c r="A130" s="213"/>
+      <c r="B130" s="219"/>
+      <c r="C130" s="235"/>
+      <c r="D130" s="240"/>
       <c r="E130" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F130" s="123" t="s">
         <v>215</v>
       </c>
-      <c r="G130" s="212"/>
-      <c r="H130" s="212"/>
-      <c r="I130" s="212"/>
-      <c r="J130" s="212"/>
-      <c r="K130" s="212"/>
-      <c r="L130" s="212"/>
-      <c r="M130" s="227"/>
+      <c r="G130" s="231"/>
+      <c r="H130" s="231"/>
+      <c r="I130" s="231"/>
+      <c r="J130" s="231"/>
+      <c r="K130" s="231"/>
+      <c r="L130" s="231"/>
+      <c r="M130" s="222"/>
     </row>
     <row r="131" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="230"/>
-      <c r="B131" s="221"/>
-      <c r="C131" s="223" t="s">
+      <c r="A131" s="213"/>
+      <c r="B131" s="219"/>
+      <c r="C131" s="233" t="s">
         <v>188</v>
       </c>
-      <c r="D131" s="235"/>
+      <c r="D131" s="240"/>
       <c r="E131" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F131" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G131" s="212"/>
-      <c r="H131" s="212"/>
-      <c r="I131" s="212"/>
-      <c r="J131" s="212"/>
-      <c r="K131" s="212"/>
-      <c r="L131" s="212"/>
-      <c r="M131" s="227"/>
+      <c r="G131" s="231"/>
+      <c r="H131" s="231"/>
+      <c r="I131" s="231"/>
+      <c r="J131" s="231"/>
+      <c r="K131" s="231"/>
+      <c r="L131" s="231"/>
+      <c r="M131" s="222"/>
     </row>
     <row r="132" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="230"/>
-      <c r="B132" s="221"/>
-      <c r="C132" s="224"/>
-      <c r="D132" s="235"/>
+      <c r="A132" s="213"/>
+      <c r="B132" s="219"/>
+      <c r="C132" s="234"/>
+      <c r="D132" s="240"/>
       <c r="E132" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F132" s="123" t="s">
         <v>218</v>
       </c>
-      <c r="G132" s="212"/>
-      <c r="H132" s="212"/>
-      <c r="I132" s="212"/>
-      <c r="J132" s="212"/>
-      <c r="K132" s="212"/>
-      <c r="L132" s="212"/>
-      <c r="M132" s="227"/>
+      <c r="G132" s="231"/>
+      <c r="H132" s="231"/>
+      <c r="I132" s="231"/>
+      <c r="J132" s="231"/>
+      <c r="K132" s="231"/>
+      <c r="L132" s="231"/>
+      <c r="M132" s="222"/>
     </row>
     <row r="133" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="230"/>
-      <c r="B133" s="221"/>
-      <c r="C133" s="225"/>
-      <c r="D133" s="235"/>
+      <c r="A133" s="213"/>
+      <c r="B133" s="219"/>
+      <c r="C133" s="235"/>
+      <c r="D133" s="240"/>
       <c r="E133" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F133" s="123" t="s">
         <v>212</v>
       </c>
-      <c r="G133" s="212"/>
-      <c r="H133" s="212"/>
-      <c r="I133" s="212"/>
-      <c r="J133" s="212"/>
-      <c r="K133" s="212"/>
-      <c r="L133" s="212"/>
-      <c r="M133" s="227"/>
+      <c r="G133" s="231"/>
+      <c r="H133" s="231"/>
+      <c r="I133" s="231"/>
+      <c r="J133" s="231"/>
+      <c r="K133" s="231"/>
+      <c r="L133" s="231"/>
+      <c r="M133" s="222"/>
     </row>
     <row r="134" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="230"/>
-      <c r="B134" s="221"/>
-      <c r="C134" s="223" t="s">
+      <c r="A134" s="213"/>
+      <c r="B134" s="219"/>
+      <c r="C134" s="233" t="s">
         <v>189</v>
       </c>
-      <c r="D134" s="235"/>
+      <c r="D134" s="240"/>
       <c r="E134" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F134" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G134" s="212"/>
-      <c r="H134" s="212"/>
-      <c r="I134" s="212"/>
-      <c r="J134" s="212"/>
-      <c r="K134" s="212"/>
-      <c r="L134" s="212"/>
-      <c r="M134" s="227"/>
+      <c r="G134" s="231"/>
+      <c r="H134" s="231"/>
+      <c r="I134" s="231"/>
+      <c r="J134" s="231"/>
+      <c r="K134" s="231"/>
+      <c r="L134" s="231"/>
+      <c r="M134" s="222"/>
     </row>
     <row r="135" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="230"/>
-      <c r="B135" s="221"/>
-      <c r="C135" s="224"/>
-      <c r="D135" s="235"/>
+      <c r="A135" s="213"/>
+      <c r="B135" s="219"/>
+      <c r="C135" s="234"/>
+      <c r="D135" s="240"/>
       <c r="E135" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F135" s="123" t="s">
         <v>219</v>
       </c>
-      <c r="G135" s="212"/>
-      <c r="H135" s="212"/>
-      <c r="I135" s="212"/>
-      <c r="J135" s="212"/>
-      <c r="K135" s="212"/>
-      <c r="L135" s="212"/>
-      <c r="M135" s="227"/>
+      <c r="G135" s="231"/>
+      <c r="H135" s="231"/>
+      <c r="I135" s="231"/>
+      <c r="J135" s="231"/>
+      <c r="K135" s="231"/>
+      <c r="L135" s="231"/>
+      <c r="M135" s="222"/>
     </row>
     <row r="136" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="230"/>
-      <c r="B136" s="221"/>
-      <c r="C136" s="225"/>
-      <c r="D136" s="235"/>
+      <c r="A136" s="213"/>
+      <c r="B136" s="219"/>
+      <c r="C136" s="235"/>
+      <c r="D136" s="240"/>
       <c r="E136" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F136" s="123" t="s">
         <v>215</v>
       </c>
-      <c r="G136" s="212"/>
-      <c r="H136" s="212"/>
-      <c r="I136" s="212"/>
-      <c r="J136" s="212"/>
-      <c r="K136" s="212"/>
-      <c r="L136" s="212"/>
-      <c r="M136" s="227"/>
+      <c r="G136" s="231"/>
+      <c r="H136" s="231"/>
+      <c r="I136" s="231"/>
+      <c r="J136" s="231"/>
+      <c r="K136" s="231"/>
+      <c r="L136" s="231"/>
+      <c r="M136" s="222"/>
     </row>
     <row r="137" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="230"/>
-      <c r="B137" s="221"/>
-      <c r="C137" s="223" t="s">
+      <c r="A137" s="213"/>
+      <c r="B137" s="219"/>
+      <c r="C137" s="233" t="s">
         <v>190</v>
       </c>
-      <c r="D137" s="235"/>
+      <c r="D137" s="240"/>
       <c r="E137" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F137" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G137" s="212"/>
-      <c r="H137" s="212"/>
-      <c r="I137" s="212"/>
-      <c r="J137" s="212"/>
-      <c r="K137" s="212"/>
-      <c r="L137" s="212"/>
-      <c r="M137" s="227"/>
+      <c r="G137" s="231"/>
+      <c r="H137" s="231"/>
+      <c r="I137" s="231"/>
+      <c r="J137" s="231"/>
+      <c r="K137" s="231"/>
+      <c r="L137" s="231"/>
+      <c r="M137" s="222"/>
     </row>
     <row r="138" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="230"/>
-      <c r="B138" s="221"/>
-      <c r="C138" s="224"/>
-      <c r="D138" s="235"/>
+      <c r="A138" s="213"/>
+      <c r="B138" s="219"/>
+      <c r="C138" s="234"/>
+      <c r="D138" s="240"/>
       <c r="E138" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F138" s="123" t="s">
         <v>218</v>
       </c>
-      <c r="G138" s="212"/>
-      <c r="H138" s="212"/>
-      <c r="I138" s="212"/>
-      <c r="J138" s="212"/>
-      <c r="K138" s="212"/>
-      <c r="L138" s="212"/>
-      <c r="M138" s="227"/>
+      <c r="G138" s="231"/>
+      <c r="H138" s="231"/>
+      <c r="I138" s="231"/>
+      <c r="J138" s="231"/>
+      <c r="K138" s="231"/>
+      <c r="L138" s="231"/>
+      <c r="M138" s="222"/>
     </row>
     <row r="139" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="230"/>
-      <c r="B139" s="221"/>
-      <c r="C139" s="225"/>
-      <c r="D139" s="235"/>
+      <c r="A139" s="213"/>
+      <c r="B139" s="219"/>
+      <c r="C139" s="235"/>
+      <c r="D139" s="240"/>
       <c r="E139" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F139" s="123" t="s">
         <v>215</v>
       </c>
-      <c r="G139" s="212"/>
-      <c r="H139" s="212"/>
-      <c r="I139" s="212"/>
-      <c r="J139" s="212"/>
-      <c r="K139" s="212"/>
-      <c r="L139" s="212"/>
-      <c r="M139" s="227"/>
+      <c r="G139" s="231"/>
+      <c r="H139" s="231"/>
+      <c r="I139" s="231"/>
+      <c r="J139" s="231"/>
+      <c r="K139" s="231"/>
+      <c r="L139" s="231"/>
+      <c r="M139" s="222"/>
     </row>
     <row r="140" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="230"/>
-      <c r="B140" s="221"/>
-      <c r="C140" s="223" t="s">
+      <c r="A140" s="213"/>
+      <c r="B140" s="219"/>
+      <c r="C140" s="233" t="s">
         <v>191</v>
       </c>
-      <c r="D140" s="235"/>
+      <c r="D140" s="240"/>
       <c r="E140" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F140" s="123" t="s">
         <v>220</v>
       </c>
-      <c r="G140" s="212"/>
-      <c r="H140" s="212"/>
-      <c r="I140" s="212"/>
-      <c r="J140" s="212"/>
-      <c r="K140" s="212"/>
-      <c r="L140" s="212"/>
-      <c r="M140" s="227"/>
+      <c r="G140" s="231"/>
+      <c r="H140" s="231"/>
+      <c r="I140" s="231"/>
+      <c r="J140" s="231"/>
+      <c r="K140" s="231"/>
+      <c r="L140" s="231"/>
+      <c r="M140" s="222"/>
     </row>
     <row r="141" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="230"/>
-      <c r="B141" s="221"/>
-      <c r="C141" s="224"/>
-      <c r="D141" s="235"/>
+      <c r="A141" s="213"/>
+      <c r="B141" s="219"/>
+      <c r="C141" s="234"/>
+      <c r="D141" s="240"/>
       <c r="E141" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F141" s="123" t="s">
         <v>221</v>
       </c>
-      <c r="G141" s="212"/>
-      <c r="H141" s="212"/>
-      <c r="I141" s="212"/>
-      <c r="J141" s="212"/>
-      <c r="K141" s="212"/>
-      <c r="L141" s="212"/>
-      <c r="M141" s="227"/>
+      <c r="G141" s="231"/>
+      <c r="H141" s="231"/>
+      <c r="I141" s="231"/>
+      <c r="J141" s="231"/>
+      <c r="K141" s="231"/>
+      <c r="L141" s="231"/>
+      <c r="M141" s="222"/>
     </row>
     <row r="142" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="230"/>
-      <c r="B142" s="221"/>
-      <c r="C142" s="225"/>
-      <c r="D142" s="235"/>
+      <c r="A142" s="213"/>
+      <c r="B142" s="219"/>
+      <c r="C142" s="235"/>
+      <c r="D142" s="240"/>
       <c r="E142" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F142" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G142" s="212"/>
-      <c r="H142" s="212"/>
-      <c r="I142" s="212"/>
-      <c r="J142" s="212"/>
-      <c r="K142" s="212"/>
-      <c r="L142" s="212"/>
-      <c r="M142" s="227"/>
+      <c r="G142" s="231"/>
+      <c r="H142" s="231"/>
+      <c r="I142" s="231"/>
+      <c r="J142" s="231"/>
+      <c r="K142" s="231"/>
+      <c r="L142" s="231"/>
+      <c r="M142" s="222"/>
     </row>
     <row r="143" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="230"/>
-      <c r="B143" s="221"/>
-      <c r="C143" s="223" t="s">
+      <c r="A143" s="213"/>
+      <c r="B143" s="219"/>
+      <c r="C143" s="233" t="s">
         <v>192</v>
       </c>
-      <c r="D143" s="235"/>
+      <c r="D143" s="240"/>
       <c r="E143" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F143" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G143" s="212"/>
-      <c r="H143" s="212"/>
-      <c r="I143" s="212"/>
-      <c r="J143" s="212"/>
-      <c r="K143" s="212"/>
-      <c r="L143" s="212"/>
-      <c r="M143" s="227"/>
+      <c r="G143" s="231"/>
+      <c r="H143" s="231"/>
+      <c r="I143" s="231"/>
+      <c r="J143" s="231"/>
+      <c r="K143" s="231"/>
+      <c r="L143" s="231"/>
+      <c r="M143" s="222"/>
     </row>
     <row r="144" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="230"/>
-      <c r="B144" s="221"/>
-      <c r="C144" s="224"/>
-      <c r="D144" s="235"/>
+      <c r="A144" s="213"/>
+      <c r="B144" s="219"/>
+      <c r="C144" s="234"/>
+      <c r="D144" s="240"/>
       <c r="E144" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F144" s="123" t="s">
         <v>204</v>
       </c>
-      <c r="G144" s="212"/>
-      <c r="H144" s="212"/>
-      <c r="I144" s="212"/>
-      <c r="J144" s="212"/>
-      <c r="K144" s="212"/>
-      <c r="L144" s="212"/>
-      <c r="M144" s="227"/>
+      <c r="G144" s="231"/>
+      <c r="H144" s="231"/>
+      <c r="I144" s="231"/>
+      <c r="J144" s="231"/>
+      <c r="K144" s="231"/>
+      <c r="L144" s="231"/>
+      <c r="M144" s="222"/>
     </row>
     <row r="145" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="230"/>
-      <c r="B145" s="221"/>
-      <c r="C145" s="225"/>
-      <c r="D145" s="235"/>
+      <c r="A145" s="213"/>
+      <c r="B145" s="219"/>
+      <c r="C145" s="235"/>
+      <c r="D145" s="240"/>
       <c r="E145" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F145" s="123" t="s">
         <v>208</v>
       </c>
-      <c r="G145" s="212"/>
-      <c r="H145" s="212"/>
-      <c r="I145" s="212"/>
-      <c r="J145" s="212"/>
-      <c r="K145" s="212"/>
-      <c r="L145" s="212"/>
-      <c r="M145" s="227"/>
+      <c r="G145" s="231"/>
+      <c r="H145" s="231"/>
+      <c r="I145" s="231"/>
+      <c r="J145" s="231"/>
+      <c r="K145" s="231"/>
+      <c r="L145" s="231"/>
+      <c r="M145" s="222"/>
     </row>
     <row r="146" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="230"/>
-      <c r="B146" s="221"/>
-      <c r="C146" s="223" t="s">
+      <c r="A146" s="213"/>
+      <c r="B146" s="219"/>
+      <c r="C146" s="233" t="s">
         <v>193</v>
       </c>
-      <c r="D146" s="235"/>
+      <c r="D146" s="240"/>
       <c r="E146" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F146" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G146" s="212"/>
-      <c r="H146" s="212"/>
-      <c r="I146" s="212"/>
-      <c r="J146" s="212"/>
-      <c r="K146" s="212"/>
-      <c r="L146" s="212"/>
-      <c r="M146" s="227"/>
+      <c r="G146" s="231"/>
+      <c r="H146" s="231"/>
+      <c r="I146" s="231"/>
+      <c r="J146" s="231"/>
+      <c r="K146" s="231"/>
+      <c r="L146" s="231"/>
+      <c r="M146" s="222"/>
     </row>
     <row r="147" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="230"/>
-      <c r="B147" s="221"/>
-      <c r="C147" s="224"/>
-      <c r="D147" s="235"/>
+      <c r="A147" s="213"/>
+      <c r="B147" s="219"/>
+      <c r="C147" s="234"/>
+      <c r="D147" s="240"/>
       <c r="E147" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F147" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="G147" s="212"/>
-      <c r="H147" s="212"/>
-      <c r="I147" s="212"/>
-      <c r="J147" s="212"/>
-      <c r="K147" s="212"/>
-      <c r="L147" s="212"/>
-      <c r="M147" s="227"/>
+      <c r="G147" s="231"/>
+      <c r="H147" s="231"/>
+      <c r="I147" s="231"/>
+      <c r="J147" s="231"/>
+      <c r="K147" s="231"/>
+      <c r="L147" s="231"/>
+      <c r="M147" s="222"/>
     </row>
     <row r="148" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="230"/>
-      <c r="B148" s="221"/>
-      <c r="C148" s="224"/>
-      <c r="D148" s="235"/>
-      <c r="E148" s="231" t="s">
+      <c r="A148" s="213"/>
+      <c r="B148" s="219"/>
+      <c r="C148" s="234"/>
+      <c r="D148" s="240"/>
+      <c r="E148" s="236" t="s">
         <v>168</v>
       </c>
       <c r="F148" s="123" t="s">
         <v>218</v>
       </c>
-      <c r="G148" s="212"/>
-      <c r="H148" s="212"/>
-      <c r="I148" s="212"/>
-      <c r="J148" s="212"/>
-      <c r="K148" s="212"/>
-      <c r="L148" s="212"/>
-      <c r="M148" s="227"/>
+      <c r="G148" s="231"/>
+      <c r="H148" s="231"/>
+      <c r="I148" s="231"/>
+      <c r="J148" s="231"/>
+      <c r="K148" s="231"/>
+      <c r="L148" s="231"/>
+      <c r="M148" s="222"/>
     </row>
     <row r="149" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="230"/>
-      <c r="B149" s="221"/>
-      <c r="C149" s="225"/>
-      <c r="D149" s="235"/>
-      <c r="E149" s="232"/>
+      <c r="A149" s="213"/>
+      <c r="B149" s="219"/>
+      <c r="C149" s="235"/>
+      <c r="D149" s="240"/>
+      <c r="E149" s="237"/>
       <c r="F149" s="123" t="s">
         <v>205</v>
       </c>
-      <c r="G149" s="212"/>
-      <c r="H149" s="212"/>
-      <c r="I149" s="212"/>
-      <c r="J149" s="212"/>
-      <c r="K149" s="212"/>
-      <c r="L149" s="212"/>
-      <c r="M149" s="227"/>
+      <c r="G149" s="231"/>
+      <c r="H149" s="231"/>
+      <c r="I149" s="231"/>
+      <c r="J149" s="231"/>
+      <c r="K149" s="231"/>
+      <c r="L149" s="231"/>
+      <c r="M149" s="222"/>
     </row>
     <row r="150" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="230"/>
-      <c r="B150" s="221"/>
-      <c r="C150" s="223" t="s">
+      <c r="A150" s="213"/>
+      <c r="B150" s="219"/>
+      <c r="C150" s="233" t="s">
         <v>194</v>
       </c>
-      <c r="D150" s="235"/>
+      <c r="D150" s="240"/>
       <c r="E150" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F150" s="123" t="s">
         <v>209</v>
       </c>
-      <c r="G150" s="212"/>
-      <c r="H150" s="212"/>
-      <c r="I150" s="212"/>
-      <c r="J150" s="212"/>
-      <c r="K150" s="212"/>
-      <c r="L150" s="212"/>
-      <c r="M150" s="227"/>
+      <c r="G150" s="231"/>
+      <c r="H150" s="231"/>
+      <c r="I150" s="231"/>
+      <c r="J150" s="231"/>
+      <c r="K150" s="231"/>
+      <c r="L150" s="231"/>
+      <c r="M150" s="222"/>
     </row>
     <row r="151" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="230"/>
-      <c r="B151" s="221"/>
-      <c r="C151" s="224"/>
-      <c r="D151" s="235"/>
+      <c r="A151" s="213"/>
+      <c r="B151" s="219"/>
+      <c r="C151" s="234"/>
+      <c r="D151" s="240"/>
       <c r="E151" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F151" s="123" t="s">
         <v>222</v>
       </c>
-      <c r="G151" s="212"/>
-      <c r="H151" s="212"/>
-      <c r="I151" s="212"/>
-      <c r="J151" s="212"/>
-      <c r="K151" s="212"/>
-      <c r="L151" s="212"/>
-      <c r="M151" s="227"/>
+      <c r="G151" s="231"/>
+      <c r="H151" s="231"/>
+      <c r="I151" s="231"/>
+      <c r="J151" s="231"/>
+      <c r="K151" s="231"/>
+      <c r="L151" s="231"/>
+      <c r="M151" s="222"/>
     </row>
     <row r="152" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="230"/>
-      <c r="B152" s="221"/>
-      <c r="C152" s="225"/>
-      <c r="D152" s="235"/>
+      <c r="A152" s="213"/>
+      <c r="B152" s="219"/>
+      <c r="C152" s="235"/>
+      <c r="D152" s="240"/>
       <c r="E152" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F152" s="123" t="s">
         <v>223</v>
       </c>
-      <c r="G152" s="212"/>
-      <c r="H152" s="212"/>
-      <c r="I152" s="212"/>
-      <c r="J152" s="212"/>
-      <c r="K152" s="212"/>
-      <c r="L152" s="212"/>
-      <c r="M152" s="227"/>
+      <c r="G152" s="231"/>
+      <c r="H152" s="231"/>
+      <c r="I152" s="231"/>
+      <c r="J152" s="231"/>
+      <c r="K152" s="231"/>
+      <c r="L152" s="231"/>
+      <c r="M152" s="222"/>
     </row>
     <row r="153" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="230"/>
-      <c r="B153" s="221"/>
-      <c r="C153" s="223" t="s">
+      <c r="A153" s="213"/>
+      <c r="B153" s="219"/>
+      <c r="C153" s="233" t="s">
         <v>195</v>
       </c>
-      <c r="D153" s="235"/>
+      <c r="D153" s="240"/>
       <c r="E153" s="121" t="s">
         <v>166</v>
       </c>
       <c r="F153" s="123" t="s">
         <v>224</v>
       </c>
-      <c r="G153" s="212"/>
-      <c r="H153" s="212"/>
-      <c r="I153" s="212"/>
-      <c r="J153" s="212"/>
-      <c r="K153" s="212"/>
-      <c r="L153" s="212"/>
-      <c r="M153" s="227"/>
+      <c r="G153" s="231"/>
+      <c r="H153" s="231"/>
+      <c r="I153" s="231"/>
+      <c r="J153" s="231"/>
+      <c r="K153" s="231"/>
+      <c r="L153" s="231"/>
+      <c r="M153" s="222"/>
     </row>
     <row r="154" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="230"/>
-      <c r="B154" s="221"/>
-      <c r="C154" s="224"/>
-      <c r="D154" s="235"/>
+      <c r="A154" s="213"/>
+      <c r="B154" s="219"/>
+      <c r="C154" s="234"/>
+      <c r="D154" s="240"/>
       <c r="E154" s="121" t="s">
         <v>167</v>
       </c>
       <c r="F154" s="123" t="s">
         <v>225</v>
       </c>
-      <c r="G154" s="212"/>
-      <c r="H154" s="212"/>
-      <c r="I154" s="212"/>
-      <c r="J154" s="212"/>
-      <c r="K154" s="212"/>
-      <c r="L154" s="212"/>
-      <c r="M154" s="227"/>
+      <c r="G154" s="231"/>
+      <c r="H154" s="231"/>
+      <c r="I154" s="231"/>
+      <c r="J154" s="231"/>
+      <c r="K154" s="231"/>
+      <c r="L154" s="231"/>
+      <c r="M154" s="222"/>
     </row>
     <row r="155" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="230"/>
-      <c r="B155" s="221"/>
-      <c r="C155" s="225"/>
-      <c r="D155" s="235"/>
+      <c r="A155" s="213"/>
+      <c r="B155" s="219"/>
+      <c r="C155" s="235"/>
+      <c r="D155" s="240"/>
       <c r="E155" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F155" s="123" t="s">
         <v>226</v>
       </c>
-      <c r="G155" s="212"/>
-      <c r="H155" s="212"/>
-      <c r="I155" s="212"/>
-      <c r="J155" s="212"/>
-      <c r="K155" s="212"/>
-      <c r="L155" s="212"/>
-      <c r="M155" s="227"/>
+      <c r="G155" s="231"/>
+      <c r="H155" s="231"/>
+      <c r="I155" s="231"/>
+      <c r="J155" s="231"/>
+      <c r="K155" s="231"/>
+      <c r="L155" s="231"/>
+      <c r="M155" s="222"/>
     </row>
     <row r="156" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="230"/>
-      <c r="B156" s="221"/>
-      <c r="C156" s="223" t="s">
+      <c r="A156" s="213"/>
+      <c r="B156" s="219"/>
+      <c r="C156" s="233" t="s">
         <v>196</v>
       </c>
-      <c r="D156" s="235"/>
-      <c r="E156" s="231" t="s">
+      <c r="D156" s="240"/>
+      <c r="E156" s="236" t="s">
         <v>166</v>
       </c>
       <c r="F156" s="123" t="s">
         <v>208</v>
       </c>
-      <c r="G156" s="212"/>
-      <c r="H156" s="212"/>
-      <c r="I156" s="212"/>
-      <c r="J156" s="212"/>
-      <c r="K156" s="212"/>
-      <c r="L156" s="212"/>
-      <c r="M156" s="227"/>
+      <c r="G156" s="231"/>
+      <c r="H156" s="231"/>
+      <c r="I156" s="231"/>
+      <c r="J156" s="231"/>
+      <c r="K156" s="231"/>
+      <c r="L156" s="231"/>
+      <c r="M156" s="222"/>
     </row>
     <row r="157" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="230"/>
-      <c r="B157" s="221"/>
-      <c r="C157" s="224"/>
-      <c r="D157" s="235"/>
-      <c r="E157" s="232"/>
+      <c r="A157" s="213"/>
+      <c r="B157" s="219"/>
+      <c r="C157" s="234"/>
+      <c r="D157" s="240"/>
+      <c r="E157" s="237"/>
       <c r="F157" s="123" t="s">
         <v>224</v>
       </c>
-      <c r="G157" s="212"/>
-      <c r="H157" s="212"/>
-      <c r="I157" s="212"/>
-      <c r="J157" s="212"/>
-      <c r="K157" s="212"/>
-      <c r="L157" s="212"/>
-      <c r="M157" s="227"/>
+      <c r="G157" s="231"/>
+      <c r="H157" s="231"/>
+      <c r="I157" s="231"/>
+      <c r="J157" s="231"/>
+      <c r="K157" s="231"/>
+      <c r="L157" s="231"/>
+      <c r="M157" s="222"/>
     </row>
     <row r="158" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="230"/>
-      <c r="B158" s="221"/>
-      <c r="C158" s="224"/>
-      <c r="D158" s="235"/>
-      <c r="E158" s="231" t="s">
+      <c r="A158" s="213"/>
+      <c r="B158" s="219"/>
+      <c r="C158" s="234"/>
+      <c r="D158" s="240"/>
+      <c r="E158" s="236" t="s">
         <v>167</v>
       </c>
       <c r="F158" s="123" t="s">
         <v>227</v>
       </c>
-      <c r="G158" s="212"/>
-      <c r="H158" s="212"/>
-      <c r="I158" s="212"/>
-      <c r="J158" s="212"/>
-      <c r="K158" s="212"/>
-      <c r="L158" s="212"/>
-      <c r="M158" s="227"/>
+      <c r="G158" s="231"/>
+      <c r="H158" s="231"/>
+      <c r="I158" s="231"/>
+      <c r="J158" s="231"/>
+      <c r="K158" s="231"/>
+      <c r="L158" s="231"/>
+      <c r="M158" s="222"/>
     </row>
     <row r="159" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="230"/>
-      <c r="B159" s="221"/>
-      <c r="C159" s="224"/>
-      <c r="D159" s="235"/>
-      <c r="E159" s="233"/>
+      <c r="A159" s="213"/>
+      <c r="B159" s="219"/>
+      <c r="C159" s="234"/>
+      <c r="D159" s="240"/>
+      <c r="E159" s="238"/>
       <c r="F159" s="123" t="s">
         <v>228</v>
       </c>
-      <c r="G159" s="212"/>
-      <c r="H159" s="212"/>
-      <c r="I159" s="212"/>
-      <c r="J159" s="212"/>
-      <c r="K159" s="212"/>
-      <c r="L159" s="212"/>
-      <c r="M159" s="227"/>
+      <c r="G159" s="231"/>
+      <c r="H159" s="231"/>
+      <c r="I159" s="231"/>
+      <c r="J159" s="231"/>
+      <c r="K159" s="231"/>
+      <c r="L159" s="231"/>
+      <c r="M159" s="222"/>
     </row>
     <row r="160" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="230"/>
-      <c r="B160" s="221"/>
-      <c r="C160" s="224"/>
-      <c r="D160" s="235"/>
-      <c r="E160" s="232"/>
+      <c r="A160" s="213"/>
+      <c r="B160" s="219"/>
+      <c r="C160" s="234"/>
+      <c r="D160" s="240"/>
+      <c r="E160" s="237"/>
       <c r="F160" s="123" t="s">
         <v>229</v>
       </c>
-      <c r="G160" s="212"/>
-      <c r="H160" s="212"/>
-      <c r="I160" s="212"/>
-      <c r="J160" s="212"/>
-      <c r="K160" s="212"/>
-      <c r="L160" s="212"/>
-      <c r="M160" s="227"/>
+      <c r="G160" s="231"/>
+      <c r="H160" s="231"/>
+      <c r="I160" s="231"/>
+      <c r="J160" s="231"/>
+      <c r="K160" s="231"/>
+      <c r="L160" s="231"/>
+      <c r="M160" s="222"/>
     </row>
     <row r="161" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="230"/>
-      <c r="B161" s="222"/>
-      <c r="C161" s="225"/>
-      <c r="D161" s="236"/>
+      <c r="A161" s="213"/>
+      <c r="B161" s="220"/>
+      <c r="C161" s="235"/>
+      <c r="D161" s="241"/>
       <c r="E161" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F161" s="123" t="s">
         <v>214</v>
       </c>
-      <c r="G161" s="213"/>
-      <c r="H161" s="213"/>
-      <c r="I161" s="213"/>
-      <c r="J161" s="213"/>
-      <c r="K161" s="213"/>
-      <c r="L161" s="213"/>
-      <c r="M161" s="228"/>
+      <c r="G161" s="232"/>
+      <c r="H161" s="232"/>
+      <c r="I161" s="232"/>
+      <c r="J161" s="232"/>
+      <c r="K161" s="232"/>
+      <c r="L161" s="232"/>
+      <c r="M161" s="223"/>
     </row>
     <row r="162" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="15"/>
@@ -6829,6 +6842,61 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="A8:A26"/>
+    <mergeCell ref="C17:C22"/>
+    <mergeCell ref="G67:G161"/>
+    <mergeCell ref="E20:E22"/>
+    <mergeCell ref="B29:B53"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="B8:B26"/>
+    <mergeCell ref="C100:C103"/>
+    <mergeCell ref="A67:A161"/>
+    <mergeCell ref="C112:C115"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="E104:E105"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="E113:E114"/>
+    <mergeCell ref="C77:C79"/>
+    <mergeCell ref="C80:C82"/>
+    <mergeCell ref="M67:M161"/>
+    <mergeCell ref="C137:C139"/>
+    <mergeCell ref="C140:C142"/>
+    <mergeCell ref="C143:C145"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="C150:C152"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="C134:C136"/>
+    <mergeCell ref="C104:C108"/>
+    <mergeCell ref="J67:J161"/>
+    <mergeCell ref="K67:K161"/>
+    <mergeCell ref="L67:L161"/>
+    <mergeCell ref="C109:C111"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="B67:B161"/>
+    <mergeCell ref="C116:C118"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="H67:H161"/>
+    <mergeCell ref="I67:I161"/>
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="C156:C161"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="E158:E160"/>
+    <mergeCell ref="D67:D161"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="C93:C96"/>
+    <mergeCell ref="C97:C99"/>
     <mergeCell ref="A56:A64"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="G6:L6"/>
@@ -6845,61 +6913,6 @@
     <mergeCell ref="C47:C48"/>
     <mergeCell ref="C49:C50"/>
     <mergeCell ref="E17:E19"/>
-    <mergeCell ref="H67:H161"/>
-    <mergeCell ref="I67:I161"/>
-    <mergeCell ref="C153:C155"/>
-    <mergeCell ref="C156:C161"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="E156:E157"/>
-    <mergeCell ref="E158:E160"/>
-    <mergeCell ref="D67:D161"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="C93:C96"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="B67:B161"/>
-    <mergeCell ref="C116:C118"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="M67:M161"/>
-    <mergeCell ref="C137:C139"/>
-    <mergeCell ref="C140:C142"/>
-    <mergeCell ref="C143:C145"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="C150:C152"/>
-    <mergeCell ref="C122:C124"/>
-    <mergeCell ref="C125:C127"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="C131:C133"/>
-    <mergeCell ref="C134:C136"/>
-    <mergeCell ref="C104:C108"/>
-    <mergeCell ref="J67:J161"/>
-    <mergeCell ref="K67:K161"/>
-    <mergeCell ref="L67:L161"/>
-    <mergeCell ref="C109:C111"/>
-    <mergeCell ref="A8:A26"/>
-    <mergeCell ref="C17:C22"/>
-    <mergeCell ref="G67:G161"/>
-    <mergeCell ref="E20:E22"/>
-    <mergeCell ref="B29:B53"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="B8:B26"/>
-    <mergeCell ref="C100:C103"/>
-    <mergeCell ref="A67:A161"/>
-    <mergeCell ref="C112:C115"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="E104:E105"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="E113:E114"/>
-    <mergeCell ref="C77:C79"/>
-    <mergeCell ref="C80:C82"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6929,22 +6942,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="253" t="s">
+      <c r="A1" s="247" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="253"/>
-      <c r="C1" s="253"/>
-      <c r="D1" s="253"/>
-      <c r="E1" s="253"/>
-      <c r="F1" s="253"/>
-      <c r="G1" s="253"/>
-      <c r="H1" s="253"/>
-      <c r="I1" s="253"/>
-      <c r="J1" s="253"/>
-      <c r="K1" s="253"/>
-      <c r="L1" s="253"/>
-      <c r="M1" s="253"/>
-      <c r="N1" s="253"/>
+      <c r="B1" s="247"/>
+      <c r="C1" s="247"/>
+      <c r="D1" s="247"/>
+      <c r="E1" s="247"/>
+      <c r="F1" s="247"/>
+      <c r="G1" s="247"/>
+      <c r="H1" s="247"/>
+      <c r="I1" s="247"/>
+      <c r="J1" s="247"/>
+      <c r="K1" s="247"/>
+      <c r="L1" s="247"/>
+      <c r="M1" s="247"/>
+      <c r="N1" s="247"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="124"/>
@@ -7008,14 +7021,14 @@
       <c r="E4" s="128"/>
       <c r="F4" s="129"/>
       <c r="G4" s="129"/>
-      <c r="H4" s="248" t="s">
+      <c r="H4" s="263" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="249"/>
-      <c r="J4" s="249"/>
-      <c r="K4" s="249"/>
-      <c r="L4" s="249"/>
-      <c r="M4" s="250"/>
+      <c r="I4" s="264"/>
+      <c r="J4" s="264"/>
+      <c r="K4" s="264"/>
+      <c r="L4" s="264"/>
+      <c r="M4" s="265"/>
       <c r="N4" s="130"/>
     </row>
     <row r="5" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
@@ -7063,10 +7076,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="251" t="s">
+      <c r="A6" s="246" t="s">
         <v>237</v>
       </c>
-      <c r="B6" s="252" t="s">
+      <c r="B6" s="258" t="s">
         <v>238</v>
       </c>
       <c r="C6" s="138" t="s">
@@ -7075,7 +7088,7 @@
       <c r="D6" s="139" t="s">
         <v>240</v>
       </c>
-      <c r="E6" s="243" t="s">
+      <c r="E6" s="266" t="s">
         <v>241</v>
       </c>
       <c r="F6" s="140">
@@ -7100,21 +7113,21 @@
         <v>49</v>
       </c>
       <c r="M6" s="176"/>
-      <c r="N6" s="243" t="s">
+      <c r="N6" s="266" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="251"/>
-      <c r="B7" s="252"/>
-      <c r="C7" s="256" t="s">
+      <c r="A7" s="246"/>
+      <c r="B7" s="258"/>
+      <c r="C7" s="250" t="s">
         <v>242</v>
       </c>
-      <c r="D7" s="254" t="s">
+      <c r="D7" s="248" t="s">
         <v>240</v>
       </c>
-      <c r="E7" s="244"/>
-      <c r="F7" s="258">
+      <c r="E7" s="267"/>
+      <c r="F7" s="252">
         <v>2</v>
       </c>
       <c r="G7" s="140" t="s">
@@ -7136,15 +7149,15 @@
         <v>49</v>
       </c>
       <c r="M7" s="176"/>
-      <c r="N7" s="244"/>
+      <c r="N7" s="267"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="251"/>
-      <c r="B8" s="252"/>
-      <c r="C8" s="257"/>
-      <c r="D8" s="255"/>
-      <c r="E8" s="244"/>
-      <c r="F8" s="259"/>
+      <c r="A8" s="246"/>
+      <c r="B8" s="258"/>
+      <c r="C8" s="251"/>
+      <c r="D8" s="249"/>
+      <c r="E8" s="267"/>
+      <c r="F8" s="253"/>
       <c r="G8" s="140" t="s">
         <v>276</v>
       </c>
@@ -7164,18 +7177,18 @@
         <v>49</v>
       </c>
       <c r="M8" s="176"/>
-      <c r="N8" s="244"/>
+      <c r="N8" s="267"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="251"/>
-      <c r="B9" s="252"/>
+      <c r="A9" s="246"/>
+      <c r="B9" s="258"/>
       <c r="C9" s="141" t="s">
         <v>243</v>
       </c>
       <c r="D9" s="139" t="s">
         <v>240</v>
       </c>
-      <c r="E9" s="244"/>
+      <c r="E9" s="267"/>
       <c r="F9" s="140">
         <v>1</v>
       </c>
@@ -7198,18 +7211,18 @@
         <v>49</v>
       </c>
       <c r="M9" s="143"/>
-      <c r="N9" s="244"/>
+      <c r="N9" s="267"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="251"/>
-      <c r="B10" s="252"/>
-      <c r="C10" s="246" t="s">
+      <c r="A10" s="246"/>
+      <c r="B10" s="258"/>
+      <c r="C10" s="269" t="s">
         <v>244</v>
       </c>
       <c r="D10" s="144" t="s">
         <v>245</v>
       </c>
-      <c r="E10" s="244"/>
+      <c r="E10" s="267"/>
       <c r="F10" s="140">
         <v>1</v>
       </c>
@@ -7232,16 +7245,16 @@
         <v>49</v>
       </c>
       <c r="M10" s="143"/>
-      <c r="N10" s="244"/>
+      <c r="N10" s="267"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="251"/>
-      <c r="B11" s="252"/>
-      <c r="C11" s="246"/>
+      <c r="A11" s="246"/>
+      <c r="B11" s="258"/>
+      <c r="C11" s="269"/>
       <c r="D11" s="144" t="s">
         <v>246</v>
       </c>
-      <c r="E11" s="244"/>
+      <c r="E11" s="267"/>
       <c r="F11" s="140">
         <v>1</v>
       </c>
@@ -7264,16 +7277,16 @@
         <v>49</v>
       </c>
       <c r="M11" s="143"/>
-      <c r="N11" s="244"/>
+      <c r="N11" s="267"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="251"/>
-      <c r="B12" s="252"/>
-      <c r="C12" s="246"/>
+      <c r="A12" s="246"/>
+      <c r="B12" s="258"/>
+      <c r="C12" s="269"/>
       <c r="D12" s="144" t="s">
         <v>247</v>
       </c>
-      <c r="E12" s="244"/>
+      <c r="E12" s="267"/>
       <c r="F12" s="140">
         <v>1</v>
       </c>
@@ -7296,16 +7309,16 @@
         <v>49</v>
       </c>
       <c r="M12" s="143"/>
-      <c r="N12" s="244"/>
+      <c r="N12" s="267"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="251"/>
-      <c r="B13" s="252"/>
-      <c r="C13" s="246"/>
+      <c r="A13" s="246"/>
+      <c r="B13" s="258"/>
+      <c r="C13" s="269"/>
       <c r="D13" s="144" t="s">
         <v>248</v>
       </c>
-      <c r="E13" s="244"/>
+      <c r="E13" s="267"/>
       <c r="F13" s="140">
         <v>1</v>
       </c>
@@ -7328,16 +7341,16 @@
         <v>49</v>
       </c>
       <c r="M13" s="143"/>
-      <c r="N13" s="244"/>
+      <c r="N13" s="267"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="251"/>
-      <c r="B14" s="252"/>
-      <c r="C14" s="246"/>
+      <c r="A14" s="246"/>
+      <c r="B14" s="258"/>
+      <c r="C14" s="269"/>
       <c r="D14" s="144" t="s">
         <v>249</v>
       </c>
-      <c r="E14" s="244"/>
+      <c r="E14" s="267"/>
       <c r="F14" s="140">
         <v>1</v>
       </c>
@@ -7360,16 +7373,16 @@
         <v>49</v>
       </c>
       <c r="M14" s="143"/>
-      <c r="N14" s="244"/>
+      <c r="N14" s="267"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="251"/>
-      <c r="B15" s="252"/>
-      <c r="C15" s="246"/>
+      <c r="A15" s="246"/>
+      <c r="B15" s="258"/>
+      <c r="C15" s="269"/>
       <c r="D15" s="144" t="s">
         <v>250</v>
       </c>
-      <c r="E15" s="244"/>
+      <c r="E15" s="267"/>
       <c r="F15" s="140">
         <v>1</v>
       </c>
@@ -7392,16 +7405,16 @@
         <v>49</v>
       </c>
       <c r="M15" s="143"/>
-      <c r="N15" s="244"/>
+      <c r="N15" s="267"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="251"/>
-      <c r="B16" s="252"/>
-      <c r="C16" s="246"/>
+      <c r="A16" s="246"/>
+      <c r="B16" s="258"/>
+      <c r="C16" s="269"/>
       <c r="D16" s="144" t="s">
         <v>251</v>
       </c>
-      <c r="E16" s="244"/>
+      <c r="E16" s="267"/>
       <c r="F16" s="140">
         <v>1</v>
       </c>
@@ -7424,18 +7437,18 @@
         <v>49</v>
       </c>
       <c r="M16" s="143"/>
-      <c r="N16" s="244"/>
+      <c r="N16" s="267"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="251"/>
-      <c r="B17" s="252"/>
-      <c r="C17" s="246" t="s">
+      <c r="A17" s="246"/>
+      <c r="B17" s="258"/>
+      <c r="C17" s="269" t="s">
         <v>252</v>
       </c>
       <c r="D17" s="144" t="s">
         <v>253</v>
       </c>
-      <c r="E17" s="244"/>
+      <c r="E17" s="267"/>
       <c r="F17" s="140">
         <v>1</v>
       </c>
@@ -7458,16 +7471,16 @@
         <v>49</v>
       </c>
       <c r="M17" s="143"/>
-      <c r="N17" s="244"/>
+      <c r="N17" s="267"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="251"/>
-      <c r="B18" s="252"/>
-      <c r="C18" s="246"/>
+      <c r="A18" s="246"/>
+      <c r="B18" s="258"/>
+      <c r="C18" s="269"/>
       <c r="D18" s="144" t="s">
         <v>254</v>
       </c>
-      <c r="E18" s="244"/>
+      <c r="E18" s="267"/>
       <c r="F18" s="140">
         <v>1</v>
       </c>
@@ -7490,16 +7503,16 @@
         <v>49</v>
       </c>
       <c r="M18" s="143"/>
-      <c r="N18" s="244"/>
+      <c r="N18" s="267"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="251"/>
-      <c r="B19" s="252"/>
-      <c r="C19" s="246"/>
+      <c r="A19" s="246"/>
+      <c r="B19" s="258"/>
+      <c r="C19" s="269"/>
       <c r="D19" s="144" t="s">
         <v>255</v>
       </c>
-      <c r="E19" s="244"/>
+      <c r="E19" s="267"/>
       <c r="F19" s="140">
         <v>1</v>
       </c>
@@ -7522,16 +7535,16 @@
         <v>49</v>
       </c>
       <c r="M19" s="143"/>
-      <c r="N19" s="244"/>
+      <c r="N19" s="267"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="251"/>
-      <c r="B20" s="252"/>
-      <c r="C20" s="246"/>
+      <c r="A20" s="246"/>
+      <c r="B20" s="258"/>
+      <c r="C20" s="269"/>
       <c r="D20" s="144" t="s">
         <v>256</v>
       </c>
-      <c r="E20" s="244"/>
+      <c r="E20" s="267"/>
       <c r="F20" s="140">
         <v>1</v>
       </c>
@@ -7554,16 +7567,16 @@
         <v>49</v>
       </c>
       <c r="M20" s="143"/>
-      <c r="N20" s="244"/>
+      <c r="N20" s="267"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="251"/>
-      <c r="B21" s="252"/>
-      <c r="C21" s="246"/>
+      <c r="A21" s="246"/>
+      <c r="B21" s="258"/>
+      <c r="C21" s="269"/>
       <c r="D21" s="144" t="s">
         <v>257</v>
       </c>
-      <c r="E21" s="245"/>
+      <c r="E21" s="268"/>
       <c r="F21" s="140">
         <v>1</v>
       </c>
@@ -7586,7 +7599,7 @@
         <v>49</v>
       </c>
       <c r="M21" s="143"/>
-      <c r="N21" s="245"/>
+      <c r="N21" s="268"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="145" t="s">
@@ -7613,19 +7626,19 @@
       <c r="N22" s="149"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="251" t="s">
+      <c r="A23" s="246" t="s">
         <v>237</v>
       </c>
-      <c r="B23" s="252" t="s">
+      <c r="B23" s="258" t="s">
         <v>259</v>
       </c>
-      <c r="C23" s="247" t="s">
+      <c r="C23" s="259" t="s">
         <v>260</v>
       </c>
       <c r="D23" s="144" t="s">
         <v>261</v>
       </c>
-      <c r="E23" s="264" t="s">
+      <c r="E23" s="260" t="s">
         <v>241</v>
       </c>
       <c r="F23" s="140">
@@ -7650,18 +7663,18 @@
         <v>49</v>
       </c>
       <c r="M23" s="143"/>
-      <c r="N23" s="264" t="s">
+      <c r="N23" s="260" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="251"/>
-      <c r="B24" s="252"/>
-      <c r="C24" s="247"/>
+      <c r="A24" s="246"/>
+      <c r="B24" s="258"/>
+      <c r="C24" s="259"/>
       <c r="D24" s="144" t="s">
         <v>262</v>
       </c>
-      <c r="E24" s="265"/>
+      <c r="E24" s="261"/>
       <c r="F24" s="156"/>
       <c r="G24" s="140"/>
       <c r="H24" s="175"/>
@@ -7676,18 +7689,18 @@
         <v>49</v>
       </c>
       <c r="M24" s="143"/>
-      <c r="N24" s="265"/>
+      <c r="N24" s="261"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="251"/>
-      <c r="B25" s="252"/>
-      <c r="C25" s="247" t="s">
+      <c r="A25" s="246"/>
+      <c r="B25" s="258"/>
+      <c r="C25" s="259" t="s">
         <v>263</v>
       </c>
       <c r="D25" s="144" t="s">
         <v>261</v>
       </c>
-      <c r="E25" s="265"/>
+      <c r="E25" s="261"/>
       <c r="F25" s="140">
         <v>1</v>
       </c>
@@ -7710,16 +7723,16 @@
         <v>49</v>
       </c>
       <c r="M25" s="143"/>
-      <c r="N25" s="265"/>
+      <c r="N25" s="261"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="251"/>
-      <c r="B26" s="252"/>
-      <c r="C26" s="247"/>
+      <c r="A26" s="246"/>
+      <c r="B26" s="258"/>
+      <c r="C26" s="259"/>
       <c r="D26" s="144" t="s">
         <v>264</v>
       </c>
-      <c r="E26" s="265"/>
+      <c r="E26" s="261"/>
       <c r="F26" s="181"/>
       <c r="G26" s="140"/>
       <c r="H26" s="175"/>
@@ -7734,16 +7747,16 @@
         <v>49</v>
       </c>
       <c r="M26" s="142"/>
-      <c r="N26" s="265"/>
+      <c r="N26" s="261"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="251"/>
-      <c r="B27" s="252"/>
-      <c r="C27" s="247"/>
+      <c r="A27" s="246"/>
+      <c r="B27" s="258"/>
+      <c r="C27" s="259"/>
       <c r="D27" s="144" t="s">
         <v>265</v>
       </c>
-      <c r="E27" s="265"/>
+      <c r="E27" s="261"/>
       <c r="F27" s="156"/>
       <c r="G27" s="140"/>
       <c r="H27" s="175"/>
@@ -7758,18 +7771,18 @@
         <v>49</v>
       </c>
       <c r="M27" s="153"/>
-      <c r="N27" s="265"/>
+      <c r="N27" s="261"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="251"/>
-      <c r="B28" s="252"/>
-      <c r="C28" s="247" t="s">
+      <c r="A28" s="246"/>
+      <c r="B28" s="258"/>
+      <c r="C28" s="259" t="s">
         <v>266</v>
       </c>
       <c r="D28" s="144" t="s">
         <v>261</v>
       </c>
-      <c r="E28" s="265"/>
+      <c r="E28" s="261"/>
       <c r="F28" s="140">
         <v>1</v>
       </c>
@@ -7792,16 +7805,16 @@
         <v>49</v>
       </c>
       <c r="M28" s="177"/>
-      <c r="N28" s="265"/>
+      <c r="N28" s="261"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="251"/>
-      <c r="B29" s="252"/>
-      <c r="C29" s="247"/>
+      <c r="A29" s="246"/>
+      <c r="B29" s="258"/>
+      <c r="C29" s="259"/>
       <c r="D29" s="144" t="s">
         <v>264</v>
       </c>
-      <c r="E29" s="265"/>
+      <c r="E29" s="261"/>
       <c r="F29" s="156"/>
       <c r="G29" s="140"/>
       <c r="H29" s="175"/>
@@ -7816,18 +7829,18 @@
         <v>49</v>
       </c>
       <c r="M29" s="177"/>
-      <c r="N29" s="265"/>
+      <c r="N29" s="261"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="251"/>
-      <c r="B30" s="252"/>
-      <c r="C30" s="247" t="s">
+      <c r="A30" s="246"/>
+      <c r="B30" s="258"/>
+      <c r="C30" s="259" t="s">
         <v>267</v>
       </c>
       <c r="D30" s="144" t="s">
         <v>261</v>
       </c>
-      <c r="E30" s="265"/>
+      <c r="E30" s="261"/>
       <c r="F30" s="140">
         <v>1</v>
       </c>
@@ -7850,16 +7863,16 @@
         <v>49</v>
       </c>
       <c r="M30" s="177"/>
-      <c r="N30" s="265"/>
+      <c r="N30" s="261"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="251"/>
-      <c r="B31" s="252"/>
-      <c r="C31" s="247"/>
+      <c r="A31" s="246"/>
+      <c r="B31" s="258"/>
+      <c r="C31" s="259"/>
       <c r="D31" s="144" t="s">
         <v>264</v>
       </c>
-      <c r="E31" s="265"/>
+      <c r="E31" s="261"/>
       <c r="F31" s="140">
         <v>1</v>
       </c>
@@ -7882,18 +7895,18 @@
         <v>49</v>
       </c>
       <c r="M31" s="177"/>
-      <c r="N31" s="265"/>
+      <c r="N31" s="261"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="251"/>
-      <c r="B32" s="252"/>
-      <c r="C32" s="246" t="s">
+      <c r="A32" s="246"/>
+      <c r="B32" s="258"/>
+      <c r="C32" s="269" t="s">
         <v>268</v>
       </c>
       <c r="D32" s="144" t="s">
         <v>261</v>
       </c>
-      <c r="E32" s="265"/>
+      <c r="E32" s="261"/>
       <c r="F32" s="140">
         <v>1</v>
       </c>
@@ -7916,16 +7929,16 @@
         <v>49</v>
       </c>
       <c r="M32" s="177"/>
-      <c r="N32" s="265"/>
+      <c r="N32" s="261"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="251"/>
-      <c r="B33" s="252"/>
-      <c r="C33" s="246"/>
+      <c r="A33" s="246"/>
+      <c r="B33" s="258"/>
+      <c r="C33" s="269"/>
       <c r="D33" s="144" t="s">
         <v>264</v>
       </c>
-      <c r="E33" s="265"/>
+      <c r="E33" s="261"/>
       <c r="F33" s="140">
         <v>1</v>
       </c>
@@ -7948,18 +7961,18 @@
         <v>49</v>
       </c>
       <c r="M33" s="177"/>
-      <c r="N33" s="265"/>
+      <c r="N33" s="261"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="251"/>
-      <c r="B34" s="252"/>
-      <c r="C34" s="247" t="s">
+      <c r="A34" s="246"/>
+      <c r="B34" s="258"/>
+      <c r="C34" s="259" t="s">
         <v>269</v>
       </c>
       <c r="D34" s="144" t="s">
         <v>261</v>
       </c>
-      <c r="E34" s="265"/>
+      <c r="E34" s="261"/>
       <c r="F34" s="140">
         <v>1</v>
       </c>
@@ -7982,16 +7995,16 @@
         <v>49</v>
       </c>
       <c r="M34" s="177"/>
-      <c r="N34" s="265"/>
+      <c r="N34" s="261"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="251"/>
-      <c r="B35" s="252"/>
-      <c r="C35" s="247"/>
+      <c r="A35" s="246"/>
+      <c r="B35" s="258"/>
+      <c r="C35" s="259"/>
       <c r="D35" s="144" t="s">
         <v>264</v>
       </c>
-      <c r="E35" s="266"/>
+      <c r="E35" s="262"/>
       <c r="F35" s="140">
         <v>1</v>
       </c>
@@ -8014,7 +8027,7 @@
         <v>49</v>
       </c>
       <c r="M35" s="177"/>
-      <c r="N35" s="266"/>
+      <c r="N35" s="262"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="131" t="s">
@@ -8037,132 +8050,132 @@
       <c r="N36" s="149"/>
     </row>
     <row r="37" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="251" t="s">
+      <c r="A37" s="246" t="s">
         <v>237</v>
       </c>
-      <c r="B37" s="263" t="s">
+      <c r="B37" s="257" t="s">
         <v>270</v>
       </c>
-      <c r="C37" s="262"/>
-      <c r="D37" s="261"/>
-      <c r="E37" s="260" t="s">
+      <c r="C37" s="256"/>
+      <c r="D37" s="255"/>
+      <c r="E37" s="254" t="s">
         <v>241</v>
       </c>
-      <c r="F37" s="260">
+      <c r="F37" s="254">
         <v>6</v>
       </c>
       <c r="G37" s="157" t="s">
         <v>285</v>
       </c>
-      <c r="H37" s="267" t="s">
-        <v>49</v>
-      </c>
-      <c r="I37" s="267" t="s">
-        <v>49</v>
-      </c>
-      <c r="J37" s="267" t="s">
-        <v>49</v>
-      </c>
-      <c r="K37" s="267" t="s">
-        <v>49</v>
-      </c>
-      <c r="L37" s="267" t="s">
-        <v>49</v>
-      </c>
-      <c r="M37" s="267"/>
-      <c r="N37" s="268" t="s">
+      <c r="H37" s="244" t="s">
+        <v>49</v>
+      </c>
+      <c r="I37" s="244" t="s">
+        <v>49</v>
+      </c>
+      <c r="J37" s="244" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37" s="244" t="s">
+        <v>49</v>
+      </c>
+      <c r="L37" s="244" t="s">
+        <v>49</v>
+      </c>
+      <c r="M37" s="244"/>
+      <c r="N37" s="245" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="251"/>
-      <c r="B38" s="263"/>
-      <c r="C38" s="262"/>
-      <c r="D38" s="261"/>
-      <c r="E38" s="260"/>
-      <c r="F38" s="260"/>
+      <c r="A38" s="246"/>
+      <c r="B38" s="257"/>
+      <c r="C38" s="256"/>
+      <c r="D38" s="255"/>
+      <c r="E38" s="254"/>
+      <c r="F38" s="254"/>
       <c r="G38" s="157" t="s">
         <v>286</v>
       </c>
-      <c r="H38" s="267"/>
-      <c r="I38" s="267"/>
-      <c r="J38" s="267"/>
-      <c r="K38" s="267"/>
-      <c r="L38" s="267"/>
-      <c r="M38" s="267"/>
-      <c r="N38" s="268"/>
+      <c r="H38" s="244"/>
+      <c r="I38" s="244"/>
+      <c r="J38" s="244"/>
+      <c r="K38" s="244"/>
+      <c r="L38" s="244"/>
+      <c r="M38" s="244"/>
+      <c r="N38" s="245"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="251"/>
-      <c r="B39" s="263"/>
-      <c r="C39" s="262"/>
-      <c r="D39" s="261"/>
-      <c r="E39" s="260"/>
-      <c r="F39" s="260"/>
+      <c r="A39" s="246"/>
+      <c r="B39" s="257"/>
+      <c r="C39" s="256"/>
+      <c r="D39" s="255"/>
+      <c r="E39" s="254"/>
+      <c r="F39" s="254"/>
       <c r="G39" s="157" t="s">
         <v>287</v>
       </c>
-      <c r="H39" s="267"/>
-      <c r="I39" s="267"/>
-      <c r="J39" s="267"/>
-      <c r="K39" s="267"/>
-      <c r="L39" s="267"/>
-      <c r="M39" s="267"/>
-      <c r="N39" s="268"/>
+      <c r="H39" s="244"/>
+      <c r="I39" s="244"/>
+      <c r="J39" s="244"/>
+      <c r="K39" s="244"/>
+      <c r="L39" s="244"/>
+      <c r="M39" s="244"/>
+      <c r="N39" s="245"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="251"/>
-      <c r="B40" s="263"/>
-      <c r="C40" s="262"/>
-      <c r="D40" s="261"/>
-      <c r="E40" s="260"/>
-      <c r="F40" s="260"/>
+      <c r="A40" s="246"/>
+      <c r="B40" s="257"/>
+      <c r="C40" s="256"/>
+      <c r="D40" s="255"/>
+      <c r="E40" s="254"/>
+      <c r="F40" s="254"/>
       <c r="G40" s="157" t="s">
         <v>290</v>
       </c>
-      <c r="H40" s="267"/>
-      <c r="I40" s="267"/>
-      <c r="J40" s="267"/>
-      <c r="K40" s="267"/>
-      <c r="L40" s="267"/>
-      <c r="M40" s="267"/>
-      <c r="N40" s="268"/>
+      <c r="H40" s="244"/>
+      <c r="I40" s="244"/>
+      <c r="J40" s="244"/>
+      <c r="K40" s="244"/>
+      <c r="L40" s="244"/>
+      <c r="M40" s="244"/>
+      <c r="N40" s="245"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="251"/>
-      <c r="B41" s="263"/>
-      <c r="C41" s="262"/>
-      <c r="D41" s="261"/>
-      <c r="E41" s="260"/>
-      <c r="F41" s="260"/>
+      <c r="A41" s="246"/>
+      <c r="B41" s="257"/>
+      <c r="C41" s="256"/>
+      <c r="D41" s="255"/>
+      <c r="E41" s="254"/>
+      <c r="F41" s="254"/>
       <c r="G41" s="157" t="s">
         <v>288</v>
       </c>
-      <c r="H41" s="267"/>
-      <c r="I41" s="267"/>
-      <c r="J41" s="267"/>
-      <c r="K41" s="267"/>
-      <c r="L41" s="267"/>
-      <c r="M41" s="267"/>
-      <c r="N41" s="268"/>
+      <c r="H41" s="244"/>
+      <c r="I41" s="244"/>
+      <c r="J41" s="244"/>
+      <c r="K41" s="244"/>
+      <c r="L41" s="244"/>
+      <c r="M41" s="244"/>
+      <c r="N41" s="245"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="251"/>
-      <c r="B42" s="263"/>
-      <c r="C42" s="262"/>
-      <c r="D42" s="261"/>
-      <c r="E42" s="260"/>
-      <c r="F42" s="260"/>
+      <c r="A42" s="246"/>
+      <c r="B42" s="257"/>
+      <c r="C42" s="256"/>
+      <c r="D42" s="255"/>
+      <c r="E42" s="254"/>
+      <c r="F42" s="254"/>
       <c r="G42" s="157" t="s">
         <v>289</v>
       </c>
-      <c r="H42" s="267"/>
-      <c r="I42" s="267"/>
-      <c r="J42" s="267"/>
-      <c r="K42" s="267"/>
-      <c r="L42" s="267"/>
-      <c r="M42" s="267"/>
-      <c r="N42" s="268"/>
+      <c r="H42" s="244"/>
+      <c r="I42" s="244"/>
+      <c r="J42" s="244"/>
+      <c r="K42" s="244"/>
+      <c r="L42" s="244"/>
+      <c r="M42" s="244"/>
+      <c r="N42" s="245"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H43" s="24"/>
@@ -8174,14 +8187,16 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="M37:M42"/>
-    <mergeCell ref="N37:N42"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="H37:H42"/>
-    <mergeCell ref="I37:I42"/>
-    <mergeCell ref="J37:J42"/>
-    <mergeCell ref="K37:K42"/>
-    <mergeCell ref="L37:L42"/>
+    <mergeCell ref="N6:N21"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="A6:A21"/>
+    <mergeCell ref="B6:B21"/>
+    <mergeCell ref="E6:E21"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="C7:C8"/>
@@ -8198,16 +8213,14 @@
     <mergeCell ref="N23:N35"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="C28:C29"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="A6:A21"/>
-    <mergeCell ref="B6:B21"/>
-    <mergeCell ref="E6:E21"/>
-    <mergeCell ref="N6:N21"/>
-    <mergeCell ref="C10:C16"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="M37:M42"/>
+    <mergeCell ref="N37:N42"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="H37:H42"/>
+    <mergeCell ref="I37:I42"/>
+    <mergeCell ref="J37:J42"/>
+    <mergeCell ref="K37:K42"/>
+    <mergeCell ref="L37:L42"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8217,10 +8230,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M106"/>
+  <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="I104" sqref="I104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8239,16 +8252,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="88" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="280" t="s">
+      <c r="A1" s="272" t="s">
         <v>299</v>
       </c>
-      <c r="B1" s="280"/>
-      <c r="C1" s="280"/>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="280"/>
-      <c r="H1" s="280"/>
+      <c r="B1" s="272"/>
+      <c r="C1" s="272"/>
+      <c r="D1" s="272"/>
+      <c r="E1" s="272"/>
+      <c r="F1" s="272"/>
+      <c r="G1" s="272"/>
+      <c r="H1" s="272"/>
     </row>
     <row r="2" spans="1:8" s="88" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G2" s="89"/>
@@ -8374,7 +8387,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="278" t="s">
+      <c r="C18" s="270" t="s">
         <v>145</v>
       </c>
       <c r="D18" s="87" t="s">
@@ -8382,7 +8395,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="279"/>
+      <c r="C19" s="271"/>
       <c r="D19" s="87" t="s">
         <v>109</v>
       </c>
@@ -8836,7 +8849,7 @@
     </row>
     <row r="60" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="90"/>
-      <c r="D60" s="296"/>
+      <c r="D60" s="278"/>
       <c r="E60" s="103" t="s">
         <v>93</v>
       </c>
@@ -8851,7 +8864,7 @@
     </row>
     <row r="61" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="90"/>
-      <c r="D61" s="296"/>
+      <c r="D61" s="278"/>
       <c r="E61" s="104" t="s">
         <v>118</v>
       </c>
@@ -8868,7 +8881,7 @@
     </row>
     <row r="62" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="90"/>
-      <c r="D62" s="296"/>
+      <c r="D62" s="278"/>
       <c r="E62" s="105"/>
       <c r="F62" s="103" t="s">
         <v>132</v>
@@ -8883,7 +8896,7 @@
     </row>
     <row r="63" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="90"/>
-      <c r="D63" s="296"/>
+      <c r="D63" s="278"/>
       <c r="E63" s="107" t="s">
         <v>115</v>
       </c>
@@ -8898,7 +8911,7 @@
     </row>
     <row r="64" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="90"/>
-      <c r="D64" s="296"/>
+      <c r="D64" s="278"/>
       <c r="E64" s="103" t="s">
         <v>89</v>
       </c>
@@ -8909,7 +8922,7 @@
     </row>
     <row r="65" spans="3:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="90"/>
-      <c r="D65" s="296"/>
+      <c r="D65" s="278"/>
       <c r="E65" s="103" t="s">
         <v>116</v>
       </c>
@@ -8924,12 +8937,12 @@
     </row>
     <row r="66" spans="3:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="90"/>
-      <c r="D66" s="297"/>
+      <c r="D66" s="279"/>
       <c r="E66" s="103" t="s">
         <v>331</v>
       </c>
       <c r="F66" s="103"/>
-      <c r="G66" s="295"/>
+      <c r="G66" s="211"/>
       <c r="H66" s="101"/>
       <c r="I66" s="101"/>
     </row>
@@ -9075,7 +9088,7 @@
     </row>
     <row r="77" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C77" s="76"/>
-      <c r="D77" s="281" t="s">
+      <c r="D77" s="273" t="s">
         <v>85</v>
       </c>
       <c r="E77" s="59" t="s">
@@ -9089,7 +9102,7 @@
     </row>
     <row r="78" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C78" s="76"/>
-      <c r="D78" s="282"/>
+      <c r="D78" s="274"/>
       <c r="E78" s="189"/>
       <c r="F78" s="190" t="s">
         <v>87</v>
@@ -9099,8 +9112,8 @@
     </row>
     <row r="79" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C79" s="76"/>
-      <c r="D79" s="283"/>
-      <c r="E79" s="269" t="s">
+      <c r="D79" s="275"/>
+      <c r="E79" s="298" t="s">
         <v>93</v>
       </c>
       <c r="F79" s="199" t="s">
@@ -9118,12 +9131,12 @@
     </row>
     <row r="80" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C80" s="76"/>
-      <c r="D80" s="283"/>
-      <c r="E80" s="269"/>
-      <c r="F80" s="269" t="s">
+      <c r="D80" s="275"/>
+      <c r="E80" s="298"/>
+      <c r="F80" s="298" t="s">
         <v>87</v>
       </c>
-      <c r="G80" s="269" t="s">
+      <c r="G80" s="277" t="s">
         <v>310</v>
       </c>
       <c r="H80" s="200" t="s">
@@ -9135,23 +9148,23 @@
       <c r="J80" s="200" t="s">
         <v>311</v>
       </c>
-      <c r="K80" s="269">
+      <c r="K80" s="277">
         <f>SUM(I80:I85)</f>
         <v>117</v>
       </c>
-      <c r="L80" s="269" t="s">
+      <c r="L80" s="277" t="s">
         <v>327</v>
       </c>
-      <c r="M80" s="269" t="s">
+      <c r="M80" s="277" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="81" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C81" s="76"/>
-      <c r="D81" s="283"/>
-      <c r="E81" s="269"/>
-      <c r="F81" s="269"/>
-      <c r="G81" s="269"/>
+      <c r="D81" s="275"/>
+      <c r="E81" s="298"/>
+      <c r="F81" s="298"/>
+      <c r="G81" s="277"/>
       <c r="H81" s="200" t="s">
         <v>312</v>
       </c>
@@ -9161,16 +9174,16 @@
       <c r="J81" s="200" t="s">
         <v>311</v>
       </c>
-      <c r="K81" s="269"/>
-      <c r="L81" s="269"/>
-      <c r="M81" s="269"/>
+      <c r="K81" s="277"/>
+      <c r="L81" s="277"/>
+      <c r="M81" s="277"/>
     </row>
     <row r="82" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C82" s="76"/>
-      <c r="D82" s="283"/>
-      <c r="E82" s="269"/>
-      <c r="F82" s="269"/>
-      <c r="G82" s="269"/>
+      <c r="D82" s="275"/>
+      <c r="E82" s="298"/>
+      <c r="F82" s="298"/>
+      <c r="G82" s="277"/>
       <c r="H82" s="200" t="s">
         <v>313</v>
       </c>
@@ -9180,16 +9193,16 @@
       <c r="J82" s="200" t="s">
         <v>311</v>
       </c>
-      <c r="K82" s="269"/>
-      <c r="L82" s="269"/>
-      <c r="M82" s="269"/>
+      <c r="K82" s="277"/>
+      <c r="L82" s="277"/>
+      <c r="M82" s="277"/>
     </row>
     <row r="83" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C83" s="76"/>
-      <c r="D83" s="283"/>
-      <c r="E83" s="269"/>
-      <c r="F83" s="269"/>
-      <c r="G83" s="269"/>
+      <c r="D83" s="275"/>
+      <c r="E83" s="298"/>
+      <c r="F83" s="298"/>
+      <c r="G83" s="277"/>
       <c r="H83" s="200" t="s">
         <v>314</v>
       </c>
@@ -9199,16 +9212,16 @@
       <c r="J83" s="200" t="s">
         <v>311</v>
       </c>
-      <c r="K83" s="269"/>
-      <c r="L83" s="269"/>
-      <c r="M83" s="269"/>
+      <c r="K83" s="277"/>
+      <c r="L83" s="277"/>
+      <c r="M83" s="277"/>
     </row>
     <row r="84" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C84" s="76"/>
-      <c r="D84" s="283"/>
-      <c r="E84" s="269"/>
-      <c r="F84" s="269"/>
-      <c r="G84" s="269"/>
+      <c r="D84" s="275"/>
+      <c r="E84" s="298"/>
+      <c r="F84" s="298"/>
+      <c r="G84" s="277"/>
       <c r="H84" s="200" t="s">
         <v>315</v>
       </c>
@@ -9218,16 +9231,16 @@
       <c r="J84" s="200" t="s">
         <v>311</v>
       </c>
-      <c r="K84" s="269"/>
-      <c r="L84" s="269"/>
-      <c r="M84" s="269"/>
+      <c r="K84" s="277"/>
+      <c r="L84" s="277"/>
+      <c r="M84" s="277"/>
     </row>
     <row r="85" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C85" s="76"/>
-      <c r="D85" s="283"/>
-      <c r="E85" s="269"/>
-      <c r="F85" s="269"/>
-      <c r="G85" s="269"/>
+      <c r="D85" s="275"/>
+      <c r="E85" s="298"/>
+      <c r="F85" s="298"/>
+      <c r="G85" s="277"/>
       <c r="H85" s="200" t="s">
         <v>316</v>
       </c>
@@ -9237,15 +9250,15 @@
       <c r="J85" s="200" t="s">
         <v>311</v>
       </c>
-      <c r="K85" s="269"/>
-      <c r="L85" s="269"/>
-      <c r="M85" s="269"/>
+      <c r="K85" s="277"/>
+      <c r="L85" s="277"/>
+      <c r="M85" s="277"/>
     </row>
     <row r="86" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C86" s="76"/>
-      <c r="D86" s="283"/>
-      <c r="E86" s="269"/>
-      <c r="F86" s="269"/>
+      <c r="D86" s="275"/>
+      <c r="E86" s="298"/>
+      <c r="F86" s="298"/>
       <c r="G86" s="200" t="s">
         <v>317</v>
       </c>
@@ -9264,77 +9277,59 @@
     </row>
     <row r="87" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C87" s="76"/>
-      <c r="D87" s="282"/>
-      <c r="E87" s="192" t="s">
-        <v>92</v>
-      </c>
-      <c r="F87" s="193" t="s">
+      <c r="D87" s="275"/>
+      <c r="E87" s="299" t="s">
+        <v>331</v>
+      </c>
+      <c r="F87" s="300" t="s">
         <v>86</v>
       </c>
-      <c r="G87" s="194">
-        <v>24</v>
-      </c>
-      <c r="H87" s="195" t="s">
-        <v>130</v>
-      </c>
-      <c r="I87" s="196" t="s">
-        <v>309</v>
-      </c>
+      <c r="G87" s="301"/>
+      <c r="H87" s="301"/>
+      <c r="I87" s="302"/>
     </row>
     <row r="88" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C88" s="76"/>
-      <c r="D88" s="282"/>
-      <c r="E88" s="192"/>
-      <c r="F88" s="275" t="s">
+      <c r="D88" s="275"/>
+      <c r="E88" s="299"/>
+      <c r="F88" s="300" t="s">
         <v>87</v>
       </c>
-      <c r="G88" s="197" t="s">
-        <v>318</v>
-      </c>
-      <c r="H88" s="197">
-        <v>3</v>
-      </c>
-      <c r="I88" s="196" t="s">
-        <v>311</v>
-      </c>
-      <c r="J88" s="196" t="s">
-        <v>327</v>
-      </c>
-      <c r="K88" s="196" t="s">
-        <v>328</v>
-      </c>
+      <c r="G88" s="301"/>
+      <c r="H88" s="301"/>
+      <c r="I88" s="302"/>
     </row>
     <row r="89" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C89" s="76"/>
-      <c r="D89" s="282"/>
-      <c r="E89" s="192"/>
-      <c r="F89" s="276"/>
-      <c r="G89" s="197" t="s">
-        <v>317</v>
-      </c>
-      <c r="H89" s="197">
-        <v>5</v>
+      <c r="D89" s="274"/>
+      <c r="E89" s="192" t="s">
+        <v>92</v>
+      </c>
+      <c r="F89" s="193" t="s">
+        <v>86</v>
+      </c>
+      <c r="G89" s="194">
+        <v>24</v>
+      </c>
+      <c r="H89" s="195" t="s">
+        <v>130</v>
       </c>
       <c r="I89" s="196" t="s">
-        <v>311</v>
-      </c>
-      <c r="J89" s="196" t="s">
-        <v>327</v>
-      </c>
-      <c r="K89" s="196" t="s">
-        <v>328</v>
+        <v>309</v>
       </c>
     </row>
     <row r="90" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C90" s="76"/>
-      <c r="D90" s="282"/>
-      <c r="E90" s="198"/>
-      <c r="F90" s="277"/>
+      <c r="D90" s="274"/>
+      <c r="E90" s="192"/>
+      <c r="F90" s="285" t="s">
+        <v>87</v>
+      </c>
       <c r="G90" s="197" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H90" s="197">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I90" s="196" t="s">
         <v>311</v>
@@ -9348,81 +9343,101 @@
     </row>
     <row r="91" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C91" s="76"/>
-      <c r="D91" s="282"/>
-      <c r="E91" s="201" t="s">
-        <v>89</v>
-      </c>
-      <c r="F91" s="202" t="s">
-        <v>86</v>
-      </c>
-      <c r="G91" s="203">
-        <v>4</v>
-      </c>
-      <c r="H91" s="203" t="s">
-        <v>130</v>
-      </c>
-      <c r="I91" s="204" t="s">
-        <v>309</v>
+      <c r="D91" s="274"/>
+      <c r="E91" s="192"/>
+      <c r="F91" s="286"/>
+      <c r="G91" s="197" t="s">
+        <v>317</v>
+      </c>
+      <c r="H91" s="197">
+        <v>5</v>
+      </c>
+      <c r="I91" s="196" t="s">
+        <v>311</v>
+      </c>
+      <c r="J91" s="196" t="s">
+        <v>327</v>
+      </c>
+      <c r="K91" s="196" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="92" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C92" s="76"/>
-      <c r="D92" s="282"/>
-      <c r="E92" s="271"/>
-      <c r="F92" s="273" t="s">
-        <v>87</v>
-      </c>
-      <c r="G92" s="203" t="s">
-        <v>317</v>
-      </c>
-      <c r="H92" s="203">
-        <v>6</v>
-      </c>
-      <c r="I92" s="205" t="s">
+      <c r="D92" s="274"/>
+      <c r="E92" s="198"/>
+      <c r="F92" s="287"/>
+      <c r="G92" s="197" t="s">
+        <v>319</v>
+      </c>
+      <c r="H92" s="197">
+        <v>1</v>
+      </c>
+      <c r="I92" s="196" t="s">
         <v>311</v>
       </c>
-      <c r="J92" s="205" t="s">
+      <c r="J92" s="196" t="s">
         <v>327</v>
       </c>
-      <c r="K92" s="205" t="s">
+      <c r="K92" s="196" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="93" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C93" s="76"/>
-      <c r="D93" s="282"/>
-      <c r="E93" s="272"/>
-      <c r="F93" s="274"/>
-      <c r="G93" s="203"/>
-      <c r="H93" s="203"/>
+      <c r="D93" s="274"/>
+      <c r="E93" s="201" t="s">
+        <v>89</v>
+      </c>
+      <c r="F93" s="202" t="s">
+        <v>86</v>
+      </c>
+      <c r="G93" s="203">
+        <v>4</v>
+      </c>
+      <c r="H93" s="203" t="s">
+        <v>130</v>
+      </c>
+      <c r="I93" s="204" t="s">
+        <v>309</v>
+      </c>
     </row>
     <row r="94" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C94" s="76"/>
-      <c r="D94" s="282"/>
-      <c r="E94" s="59" t="s">
-        <v>90</v>
-      </c>
-      <c r="F94" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="G94" s="71"/>
-      <c r="H94" s="71"/>
+      <c r="D94" s="274"/>
+      <c r="E94" s="281"/>
+      <c r="F94" s="283" t="s">
+        <v>87</v>
+      </c>
+      <c r="G94" s="203" t="s">
+        <v>317</v>
+      </c>
+      <c r="H94" s="203">
+        <v>6</v>
+      </c>
+      <c r="I94" s="205" t="s">
+        <v>311</v>
+      </c>
+      <c r="J94" s="205" t="s">
+        <v>327</v>
+      </c>
+      <c r="K94" s="205" t="s">
+        <v>328</v>
+      </c>
     </row>
     <row r="95" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C95" s="76"/>
-      <c r="D95" s="282"/>
-      <c r="E95" s="60"/>
-      <c r="F95" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="G95" s="71"/>
-      <c r="H95" s="71"/>
+      <c r="D95" s="274"/>
+      <c r="E95" s="282"/>
+      <c r="F95" s="284"/>
+      <c r="G95" s="203"/>
+      <c r="H95" s="203"/>
     </row>
     <row r="96" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C96" s="76"/>
-      <c r="D96" s="282"/>
-      <c r="E96" s="72" t="s">
-        <v>91</v>
+      <c r="D96" s="274"/>
+      <c r="E96" s="59" t="s">
+        <v>90</v>
       </c>
       <c r="F96" s="58" t="s">
         <v>86</v>
@@ -9432,7 +9447,7 @@
     </row>
     <row r="97" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C97" s="76"/>
-      <c r="D97" s="284"/>
+      <c r="D97" s="274"/>
       <c r="E97" s="60"/>
       <c r="F97" s="58" t="s">
         <v>87</v>
@@ -9442,106 +9457,128 @@
     </row>
     <row r="98" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C98" s="76"/>
-      <c r="D98" s="60" t="s">
-        <v>96</v>
-      </c>
-      <c r="G98"/>
+      <c r="D98" s="274"/>
+      <c r="E98" s="72" t="s">
+        <v>91</v>
+      </c>
+      <c r="F98" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="G98" s="71"/>
+      <c r="H98" s="71"/>
     </row>
     <row r="99" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C99" s="76"/>
-      <c r="D99" s="184" t="s">
-        <v>149</v>
-      </c>
-      <c r="E99" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="G99"/>
+      <c r="D99" s="276"/>
+      <c r="E99" s="60"/>
+      <c r="F99" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="G99" s="71"/>
+      <c r="H99" s="71"/>
     </row>
     <row r="100" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C100" s="76"/>
-      <c r="D100" s="184" t="s">
+      <c r="D100" s="60" t="s">
+        <v>96</v>
+      </c>
+      <c r="G100"/>
+    </row>
+    <row r="101" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C101" s="76"/>
+      <c r="D101" s="184" t="s">
+        <v>149</v>
+      </c>
+      <c r="E101" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="G101"/>
+    </row>
+    <row r="102" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C102" s="76"/>
+      <c r="D102" s="184" t="s">
         <v>150</v>
       </c>
-      <c r="E100" s="184" t="s">
+      <c r="E102" s="184" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="101" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C101" s="270" t="s">
+    <row r="103" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C103" s="280" t="s">
         <v>120</v>
       </c>
-      <c r="D101" s="94" t="s">
+      <c r="D103" s="94" t="s">
         <v>128</v>
       </c>
-      <c r="E101" s="185">
+      <c r="E103" s="185">
         <v>1</v>
       </c>
-      <c r="F101" s="185" t="s">
+      <c r="F103" s="185" t="s">
         <v>134</v>
       </c>
-      <c r="G101" s="111" t="s">
+      <c r="G103" s="111" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="102" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C102" s="270"/>
-      <c r="D102" s="94" t="s">
+    <row r="104" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C104" s="280"/>
+      <c r="D104" s="94" t="s">
         <v>127</v>
-      </c>
-      <c r="E102" s="185"/>
-      <c r="F102" s="185"/>
-    </row>
-    <row r="103" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C103" s="270"/>
-      <c r="D103" s="94" t="s">
-        <v>146</v>
-      </c>
-      <c r="E103" s="185"/>
-      <c r="F103" s="185"/>
-    </row>
-    <row r="104" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C104" s="270"/>
-      <c r="D104" s="94" t="s">
-        <v>147</v>
       </c>
       <c r="E104" s="185"/>
       <c r="F104" s="185"/>
     </row>
     <row r="105" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C105" s="270"/>
+      <c r="C105" s="280"/>
       <c r="D105" s="94" t="s">
-        <v>103</v>
+        <v>146</v>
       </c>
       <c r="E105" s="185"/>
       <c r="F105" s="185"/>
     </row>
     <row r="106" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C106" s="270"/>
+      <c r="C106" s="280"/>
       <c r="D106" s="94" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="E106" s="185"/>
       <c r="F106" s="185"/>
     </row>
+    <row r="107" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C107" s="280"/>
+      <c r="D107" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="E107" s="185"/>
+      <c r="F107" s="185"/>
+    </row>
+    <row r="108" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C108" s="280"/>
+      <c r="D108" s="94" t="s">
+        <v>103</v>
+      </c>
+      <c r="E108" s="185"/>
+      <c r="F108" s="185"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="M80:M85"/>
+    <mergeCell ref="K80:K85"/>
+    <mergeCell ref="L80:L85"/>
+    <mergeCell ref="C103:C108"/>
+    <mergeCell ref="E94:E95"/>
+    <mergeCell ref="F94:F95"/>
+    <mergeCell ref="F90:F92"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="A1:H1"/>
-    <mergeCell ref="D77:D97"/>
+    <mergeCell ref="D77:D99"/>
     <mergeCell ref="E79:E86"/>
     <mergeCell ref="F80:F86"/>
     <mergeCell ref="G80:G85"/>
     <mergeCell ref="D60:D66"/>
-    <mergeCell ref="M80:M85"/>
-    <mergeCell ref="K80:K85"/>
-    <mergeCell ref="L80:L85"/>
-    <mergeCell ref="C101:C106"/>
-    <mergeCell ref="E92:E93"/>
-    <mergeCell ref="F92:F93"/>
-    <mergeCell ref="F88:F90"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="G101" r:id="rId1"/>
+    <hyperlink ref="G103" r:id="rId1"/>
     <hyperlink ref="E27" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9572,30 +9609,30 @@
       <c r="F1" s="206"/>
       <c r="G1" s="206"/>
       <c r="H1" s="206"/>
-      <c r="I1" s="287" t="s">
+      <c r="I1" s="290" t="s">
         <v>294</v>
       </c>
-      <c r="J1" s="288"/>
-      <c r="K1" s="288"/>
-      <c r="L1" s="288"/>
-      <c r="M1" s="288"/>
-      <c r="N1" s="288"/>
-      <c r="O1" s="289"/>
+      <c r="J1" s="291"/>
+      <c r="K1" s="291"/>
+      <c r="L1" s="291"/>
+      <c r="M1" s="291"/>
+      <c r="N1" s="291"/>
+      <c r="O1" s="292"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E2" s="187"/>
       <c r="F2" s="187"/>
       <c r="G2" s="187"/>
       <c r="H2" s="187"/>
-      <c r="I2" s="292" t="s">
+      <c r="I2" s="295" t="s">
         <v>325</v>
       </c>
-      <c r="J2" s="293"/>
-      <c r="K2" s="293"/>
-      <c r="L2" s="293"/>
-      <c r="M2" s="293"/>
-      <c r="N2" s="293"/>
-      <c r="O2" s="294"/>
+      <c r="J2" s="296"/>
+      <c r="K2" s="296"/>
+      <c r="L2" s="296"/>
+      <c r="M2" s="296"/>
+      <c r="N2" s="296"/>
+      <c r="O2" s="297"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -9612,10 +9649,10 @@
       </c>
       <c r="G3" s="187"/>
       <c r="H3" s="187"/>
-      <c r="I3" s="290" t="s">
+      <c r="I3" s="293" t="s">
         <v>304</v>
       </c>
-      <c r="J3" s="291"/>
+      <c r="J3" s="294"/>
       <c r="K3" s="208" t="s">
         <v>305</v>
       </c>
@@ -9670,7 +9707,7 @@
       <c r="N4" s="207">
         <v>580</v>
       </c>
-      <c r="O4" s="285">
+      <c r="O4" s="288">
         <f>SUM(I4:N4)</f>
         <v>2068</v>
       </c>
@@ -9700,7 +9737,7 @@
       <c r="N5" s="209" t="s">
         <v>323</v>
       </c>
-      <c r="O5" s="286"/>
+      <c r="O5" s="289"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/asset/Control GESPRO.xlsx
+++ b/asset/Control GESPRO.xlsx
@@ -9,14 +9,18 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10272" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="10272" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Planeam-Lineam" sheetId="1" r:id="rId1"/>
     <sheet name="Apoyos_Planeamiento" sheetId="3" r:id="rId2"/>
     <sheet name="Estructura" sheetId="2" r:id="rId3"/>
-    <sheet name="Hoja2" sheetId="4" r:id="rId4"/>
+    <sheet name="Proyeccion" sheetId="4" r:id="rId4"/>
+    <sheet name="distribucion" sheetId="5" r:id="rId5"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">distribucion!$A$25:$P$50</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -168,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1133" uniqueCount="332">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1393" uniqueCount="353">
   <si>
     <t>Sección</t>
   </si>
@@ -1164,13 +1168,76 @@
   </si>
   <si>
     <t>unid</t>
+  </si>
+  <si>
+    <t>Sección Apoyos al Planeamiento</t>
+  </si>
+  <si>
+    <t>Año</t>
+  </si>
+  <si>
+    <t>Periodicidad Planeamiento</t>
+  </si>
+  <si>
+    <t>Observaciones</t>
+  </si>
+  <si>
+    <t>Mensual</t>
+  </si>
+  <si>
+    <t>Trimestral</t>
+  </si>
+  <si>
+    <t>Anual</t>
+  </si>
+  <si>
+    <t>Estructura</t>
+  </si>
+  <si>
+    <t>Referencia</t>
+  </si>
+  <si>
+    <t>One Drive</t>
+  </si>
+  <si>
+    <t>Referencia Json</t>
+  </si>
+  <si>
+    <t>Pendiente por incapacidad del compañero</t>
+  </si>
+  <si>
+    <t>Educación para el Hogar</t>
+  </si>
+  <si>
+    <t>Se acomoda por contenidos según lo pautado con anterioridad</t>
+  </si>
+  <si>
+    <t>Matemáticas</t>
+  </si>
+  <si>
+    <t>Orientación</t>
+  </si>
+  <si>
+    <t>Año (en que se imparte)</t>
+  </si>
+  <si>
+    <t>Secundaria (Tercer Ciclo y Ciclo Diversificado)</t>
+  </si>
+  <si>
+    <t>Afectividad y Sexualidad</t>
+  </si>
+  <si>
+    <t>Según los requerimientos ya pautados</t>
+  </si>
+  <si>
+    <t>Filosofía</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1348,8 +1415,54 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1542,8 +1655,38 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF7CAAC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE599"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFBDD6EE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFB4C6E7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="30">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1896,11 +2039,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="303">
+  <cellXfs count="395">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2365,267 +2528,6 @@
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="30" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2635,6 +2537,543 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="22" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="36" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="36" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="36" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="37" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="36" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="35" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2945,38 +3384,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="214" t="s">
+      <c r="A1" s="244" t="s">
         <v>271</v>
       </c>
-      <c r="B1" s="214"/>
-      <c r="C1" s="214"/>
-      <c r="D1" s="214"/>
-      <c r="E1" s="214"/>
-      <c r="F1" s="214"/>
-      <c r="G1" s="214"/>
-      <c r="H1" s="214"/>
-      <c r="I1" s="214"/>
-      <c r="J1" s="214"/>
-      <c r="K1" s="214"/>
-      <c r="L1" s="214"/>
-      <c r="M1" s="214"/>
+      <c r="B1" s="244"/>
+      <c r="C1" s="244"/>
+      <c r="D1" s="244"/>
+      <c r="E1" s="244"/>
+      <c r="F1" s="244"/>
+      <c r="G1" s="244"/>
+      <c r="H1" s="244"/>
+      <c r="I1" s="244"/>
+      <c r="J1" s="244"/>
+      <c r="K1" s="244"/>
+      <c r="L1" s="244"/>
+      <c r="M1" s="244"/>
     </row>
     <row r="2" spans="1:13" ht="24" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="214" t="s">
+      <c r="A2" s="244" t="s">
         <v>295</v>
       </c>
-      <c r="B2" s="214"/>
-      <c r="C2" s="214"/>
-      <c r="D2" s="214"/>
-      <c r="E2" s="214"/>
-      <c r="F2" s="214"/>
-      <c r="G2" s="214"/>
-      <c r="H2" s="214"/>
-      <c r="I2" s="214"/>
-      <c r="J2" s="214"/>
-      <c r="K2" s="214"/>
-      <c r="L2" s="214"/>
-      <c r="M2" s="214"/>
+      <c r="B2" s="244"/>
+      <c r="C2" s="244"/>
+      <c r="D2" s="244"/>
+      <c r="E2" s="244"/>
+      <c r="F2" s="244"/>
+      <c r="G2" s="244"/>
+      <c r="H2" s="244"/>
+      <c r="I2" s="244"/>
+      <c r="J2" s="244"/>
+      <c r="K2" s="244"/>
+      <c r="L2" s="244"/>
+      <c r="M2" s="244"/>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="G3" s="20" t="s">
@@ -3017,24 +3456,24 @@
       <c r="L4" s="22"/>
     </row>
     <row r="5" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G5" s="215" t="s">
+      <c r="G5" s="245" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="216"/>
-      <c r="I5" s="216"/>
-      <c r="J5" s="216"/>
-      <c r="K5" s="216"/>
-      <c r="L5" s="217"/>
+      <c r="H5" s="246"/>
+      <c r="I5" s="246"/>
+      <c r="J5" s="246"/>
+      <c r="K5" s="246"/>
+      <c r="L5" s="247"/>
     </row>
     <row r="6" spans="1:13" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="G6" s="215" t="s">
+      <c r="G6" s="245" t="s">
         <v>272</v>
       </c>
-      <c r="H6" s="216"/>
-      <c r="I6" s="216"/>
-      <c r="J6" s="216"/>
-      <c r="K6" s="216"/>
-      <c r="L6" s="217"/>
+      <c r="H6" s="246"/>
+      <c r="I6" s="246"/>
+      <c r="J6" s="246"/>
+      <c r="K6" s="246"/>
+      <c r="L6" s="247"/>
     </row>
     <row r="7" spans="1:13" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
@@ -3078,10 +3517,10 @@
       </c>
     </row>
     <row r="8" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="230" t="s">
+      <c r="A8" s="216" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="218" t="s">
+      <c r="B8" s="225" t="s">
         <v>20</v>
       </c>
       <c r="C8" s="7" t="s">
@@ -3108,13 +3547,13 @@
         <v>49</v>
       </c>
       <c r="L8" s="1"/>
-      <c r="M8" s="221" t="s">
+      <c r="M8" s="235" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="231"/>
-      <c r="B9" s="219"/>
+      <c r="A9" s="217"/>
+      <c r="B9" s="226"/>
       <c r="C9" s="8" t="s">
         <v>6</v>
       </c>
@@ -3139,11 +3578,11 @@
         <v>49</v>
       </c>
       <c r="L9" s="1"/>
-      <c r="M9" s="222"/>
+      <c r="M9" s="236"/>
     </row>
     <row r="10" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="231"/>
-      <c r="B10" s="219"/>
+      <c r="A10" s="217"/>
+      <c r="B10" s="226"/>
       <c r="C10" s="8" t="s">
         <v>7</v>
       </c>
@@ -3168,11 +3607,11 @@
         <v>49</v>
       </c>
       <c r="L10" s="1"/>
-      <c r="M10" s="222"/>
+      <c r="M10" s="236"/>
     </row>
     <row r="11" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="231"/>
-      <c r="B11" s="219"/>
+      <c r="A11" s="217"/>
+      <c r="B11" s="226"/>
       <c r="C11" s="8" t="s">
         <v>8</v>
       </c>
@@ -3197,11 +3636,11 @@
         <v>49</v>
       </c>
       <c r="L11" s="1"/>
-      <c r="M11" s="222"/>
+      <c r="M11" s="236"/>
     </row>
     <row r="12" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="231"/>
-      <c r="B12" s="219"/>
+      <c r="A12" s="217"/>
+      <c r="B12" s="226"/>
       <c r="C12" s="8" t="s">
         <v>9</v>
       </c>
@@ -3226,11 +3665,11 @@
         <v>49</v>
       </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="222"/>
+      <c r="M12" s="236"/>
     </row>
     <row r="13" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="231"/>
-      <c r="B13" s="219"/>
+      <c r="A13" s="217"/>
+      <c r="B13" s="226"/>
       <c r="C13" s="8" t="s">
         <v>10</v>
       </c>
@@ -3255,11 +3694,11 @@
         <v>49</v>
       </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="222"/>
+      <c r="M13" s="236"/>
     </row>
     <row r="14" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="231"/>
-      <c r="B14" s="219"/>
+      <c r="A14" s="217"/>
+      <c r="B14" s="226"/>
       <c r="C14" s="8" t="s">
         <v>11</v>
       </c>
@@ -3284,11 +3723,11 @@
         <v>49</v>
       </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="222"/>
+      <c r="M14" s="236"/>
     </row>
     <row r="15" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="231"/>
-      <c r="B15" s="219"/>
+      <c r="A15" s="217"/>
+      <c r="B15" s="226"/>
       <c r="C15" s="8" t="s">
         <v>12</v>
       </c>
@@ -3313,11 +3752,11 @@
         <v>49</v>
       </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="222"/>
+      <c r="M15" s="236"/>
     </row>
     <row r="16" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="231"/>
-      <c r="B16" s="219"/>
+      <c r="A16" s="217"/>
+      <c r="B16" s="226"/>
       <c r="C16" s="8" t="s">
         <v>13</v>
       </c>
@@ -3342,18 +3781,18 @@
         <v>49</v>
       </c>
       <c r="L16" s="1"/>
-      <c r="M16" s="222"/>
+      <c r="M16" s="236"/>
     </row>
     <row r="17" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="231"/>
-      <c r="B17" s="219"/>
-      <c r="C17" s="224" t="s">
+      <c r="A17" s="217"/>
+      <c r="B17" s="226"/>
+      <c r="C17" s="219" t="s">
         <v>14</v>
       </c>
       <c r="D17" s="9">
         <v>31</v>
       </c>
-      <c r="E17" s="227" t="s">
+      <c r="E17" s="222" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="13" t="s">
@@ -3375,16 +3814,16 @@
         <v>49</v>
       </c>
       <c r="L17" s="1"/>
-      <c r="M17" s="222"/>
+      <c r="M17" s="236"/>
     </row>
     <row r="18" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="231"/>
-      <c r="B18" s="219"/>
-      <c r="C18" s="225"/>
+      <c r="A18" s="217"/>
+      <c r="B18" s="226"/>
+      <c r="C18" s="220"/>
       <c r="D18" s="10">
         <v>31</v>
       </c>
-      <c r="E18" s="229"/>
+      <c r="E18" s="223"/>
       <c r="F18" s="12" t="s">
         <v>14</v>
       </c>
@@ -3404,16 +3843,16 @@
         <v>49</v>
       </c>
       <c r="L18" s="1"/>
-      <c r="M18" s="222"/>
+      <c r="M18" s="236"/>
     </row>
     <row r="19" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="231"/>
-      <c r="B19" s="219"/>
-      <c r="C19" s="225"/>
+      <c r="A19" s="217"/>
+      <c r="B19" s="226"/>
+      <c r="C19" s="220"/>
       <c r="D19" s="10">
         <v>31</v>
       </c>
-      <c r="E19" s="228"/>
+      <c r="E19" s="224"/>
       <c r="F19" s="12" t="s">
         <v>16</v>
       </c>
@@ -3433,16 +3872,16 @@
         <v>49</v>
       </c>
       <c r="L19" s="1"/>
-      <c r="M19" s="222"/>
+      <c r="M19" s="236"/>
     </row>
     <row r="20" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="231"/>
-      <c r="B20" s="219"/>
-      <c r="C20" s="225"/>
+      <c r="A20" s="217"/>
+      <c r="B20" s="226"/>
+      <c r="C20" s="220"/>
       <c r="D20" s="10">
         <v>31</v>
       </c>
-      <c r="E20" s="227" t="s">
+      <c r="E20" s="222" t="s">
         <v>17</v>
       </c>
       <c r="F20" s="11" t="s">
@@ -3464,16 +3903,16 @@
         <v>49</v>
       </c>
       <c r="L20" s="1"/>
-      <c r="M20" s="222"/>
+      <c r="M20" s="236"/>
     </row>
     <row r="21" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="231"/>
-      <c r="B21" s="219"/>
-      <c r="C21" s="225"/>
+      <c r="A21" s="217"/>
+      <c r="B21" s="226"/>
+      <c r="C21" s="220"/>
       <c r="D21" s="10">
         <v>31</v>
       </c>
-      <c r="E21" s="229"/>
+      <c r="E21" s="223"/>
       <c r="F21" s="12" t="s">
         <v>14</v>
       </c>
@@ -3493,16 +3932,16 @@
         <v>49</v>
       </c>
       <c r="L21" s="1"/>
-      <c r="M21" s="222"/>
+      <c r="M21" s="236"/>
     </row>
     <row r="22" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="231"/>
-      <c r="B22" s="219"/>
-      <c r="C22" s="226"/>
+      <c r="A22" s="217"/>
+      <c r="B22" s="226"/>
+      <c r="C22" s="221"/>
       <c r="D22" s="10">
         <v>31</v>
       </c>
-      <c r="E22" s="228"/>
+      <c r="E22" s="224"/>
       <c r="F22" s="12" t="s">
         <v>16</v>
       </c>
@@ -3522,12 +3961,12 @@
         <v>49</v>
       </c>
       <c r="L22" s="1"/>
-      <c r="M22" s="222"/>
+      <c r="M22" s="236"/>
     </row>
     <row r="23" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="231"/>
-      <c r="B23" s="219"/>
-      <c r="C23" s="224" t="s">
+      <c r="A23" s="217"/>
+      <c r="B23" s="226"/>
+      <c r="C23" s="219" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="9">
@@ -3553,12 +3992,12 @@
         <v>49</v>
       </c>
       <c r="L23" s="1"/>
-      <c r="M23" s="222"/>
+      <c r="M23" s="236"/>
     </row>
     <row r="24" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="231"/>
-      <c r="B24" s="219"/>
-      <c r="C24" s="225"/>
+      <c r="A24" s="217"/>
+      <c r="B24" s="226"/>
+      <c r="C24" s="220"/>
       <c r="D24" s="10">
         <v>29</v>
       </c>
@@ -3582,11 +4021,11 @@
         <v>49</v>
       </c>
       <c r="L24" s="1"/>
-      <c r="M24" s="222"/>
+      <c r="M24" s="236"/>
     </row>
     <row r="25" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="231"/>
-      <c r="B25" s="219"/>
+      <c r="A25" s="217"/>
+      <c r="B25" s="226"/>
       <c r="C25" s="7" t="s">
         <v>19</v>
       </c>
@@ -3611,11 +4050,11 @@
         <v>49</v>
       </c>
       <c r="L25" s="1"/>
-      <c r="M25" s="222"/>
+      <c r="M25" s="236"/>
     </row>
     <row r="26" spans="1:13" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="232"/>
-      <c r="B26" s="220"/>
+      <c r="A26" s="218"/>
+      <c r="B26" s="227"/>
       <c r="C26" s="8" t="s">
         <v>16</v>
       </c>
@@ -3640,7 +4079,7 @@
         <v>49</v>
       </c>
       <c r="L26" s="1"/>
-      <c r="M26" s="223"/>
+      <c r="M26" s="237"/>
     </row>
     <row r="27" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="14"/>
@@ -3699,10 +4138,10 @@
       </c>
     </row>
     <row r="29" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="212" t="s">
+      <c r="A29" s="231" t="s">
         <v>21</v>
       </c>
-      <c r="B29" s="218" t="s">
+      <c r="B29" s="225" t="s">
         <v>48</v>
       </c>
       <c r="C29" s="7" t="s">
@@ -3729,13 +4168,13 @@
         <v>49</v>
       </c>
       <c r="L29" s="1"/>
-      <c r="M29" s="221" t="s">
+      <c r="M29" s="235" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="213"/>
-      <c r="B30" s="219"/>
+      <c r="A30" s="232"/>
+      <c r="B30" s="226"/>
       <c r="C30" s="7" t="s">
         <v>5</v>
       </c>
@@ -3760,11 +4199,11 @@
         <v>49</v>
       </c>
       <c r="L30" s="1"/>
-      <c r="M30" s="222"/>
+      <c r="M30" s="236"/>
     </row>
     <row r="31" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A31" s="213"/>
-      <c r="B31" s="219"/>
+      <c r="A31" s="232"/>
+      <c r="B31" s="226"/>
       <c r="C31" s="8" t="s">
         <v>6</v>
       </c>
@@ -3789,11 +4228,11 @@
         <v>49</v>
       </c>
       <c r="L31" s="1"/>
-      <c r="M31" s="222"/>
+      <c r="M31" s="236"/>
     </row>
     <row r="32" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="213"/>
-      <c r="B32" s="219"/>
+      <c r="A32" s="232"/>
+      <c r="B32" s="226"/>
       <c r="C32" s="8" t="s">
         <v>39</v>
       </c>
@@ -3818,11 +4257,11 @@
         <v>49</v>
       </c>
       <c r="L32" s="1"/>
-      <c r="M32" s="222"/>
+      <c r="M32" s="236"/>
     </row>
     <row r="33" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A33" s="213"/>
-      <c r="B33" s="219"/>
+      <c r="A33" s="232"/>
+      <c r="B33" s="226"/>
       <c r="C33" s="8" t="s">
         <v>7</v>
       </c>
@@ -3847,11 +4286,11 @@
         <v>49</v>
       </c>
       <c r="L33" s="1"/>
-      <c r="M33" s="222"/>
+      <c r="M33" s="236"/>
     </row>
     <row r="34" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="213"/>
-      <c r="B34" s="219"/>
+      <c r="A34" s="232"/>
+      <c r="B34" s="226"/>
       <c r="C34" s="8" t="s">
         <v>40</v>
       </c>
@@ -3876,11 +4315,11 @@
         <v>49</v>
       </c>
       <c r="L34" s="1"/>
-      <c r="M34" s="222"/>
+      <c r="M34" s="236"/>
     </row>
     <row r="35" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="213"/>
-      <c r="B35" s="219"/>
+      <c r="A35" s="232"/>
+      <c r="B35" s="226"/>
       <c r="C35" s="8" t="s">
         <v>8</v>
       </c>
@@ -3905,11 +4344,11 @@
         <v>49</v>
       </c>
       <c r="L35" s="1"/>
-      <c r="M35" s="222"/>
+      <c r="M35" s="236"/>
     </row>
     <row r="36" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="213"/>
-      <c r="B36" s="219"/>
+      <c r="A36" s="232"/>
+      <c r="B36" s="226"/>
       <c r="C36" s="8" t="s">
         <v>9</v>
       </c>
@@ -3934,11 +4373,11 @@
         <v>49</v>
       </c>
       <c r="L36" s="1"/>
-      <c r="M36" s="222"/>
+      <c r="M36" s="236"/>
     </row>
     <row r="37" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="213"/>
-      <c r="B37" s="219"/>
+      <c r="A37" s="232"/>
+      <c r="B37" s="226"/>
       <c r="C37" s="8" t="s">
         <v>10</v>
       </c>
@@ -3963,11 +4402,11 @@
         <v>49</v>
       </c>
       <c r="L37" s="1"/>
-      <c r="M37" s="222"/>
+      <c r="M37" s="236"/>
     </row>
     <row r="38" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="213"/>
-      <c r="B38" s="219"/>
+      <c r="A38" s="232"/>
+      <c r="B38" s="226"/>
       <c r="C38" s="8" t="s">
         <v>11</v>
       </c>
@@ -3992,11 +4431,11 @@
         <v>49</v>
       </c>
       <c r="L38" s="1"/>
-      <c r="M38" s="222"/>
+      <c r="M38" s="236"/>
     </row>
     <row r="39" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="213"/>
-      <c r="B39" s="219"/>
+      <c r="A39" s="232"/>
+      <c r="B39" s="226"/>
       <c r="C39" s="8" t="s">
         <v>12</v>
       </c>
@@ -4021,11 +4460,11 @@
         <v>49</v>
       </c>
       <c r="L39" s="1"/>
-      <c r="M39" s="222"/>
+      <c r="M39" s="236"/>
     </row>
     <row r="40" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A40" s="213"/>
-      <c r="B40" s="219"/>
+      <c r="A40" s="232"/>
+      <c r="B40" s="226"/>
       <c r="C40" s="8" t="s">
         <v>13</v>
       </c>
@@ -4050,11 +4489,11 @@
         <v>49</v>
       </c>
       <c r="L40" s="1"/>
-      <c r="M40" s="222"/>
+      <c r="M40" s="236"/>
     </row>
     <row r="41" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="213"/>
-      <c r="B41" s="219"/>
+      <c r="A41" s="232"/>
+      <c r="B41" s="226"/>
       <c r="C41" s="8" t="s">
         <v>41</v>
       </c>
@@ -4079,11 +4518,11 @@
         <v>49</v>
       </c>
       <c r="L41" s="1"/>
-      <c r="M41" s="222"/>
+      <c r="M41" s="236"/>
     </row>
     <row r="42" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="213"/>
-      <c r="B42" s="219"/>
+      <c r="A42" s="232"/>
+      <c r="B42" s="226"/>
       <c r="C42" s="8" t="s">
         <v>42</v>
       </c>
@@ -4108,18 +4547,18 @@
         <v>49</v>
       </c>
       <c r="L42" s="1"/>
-      <c r="M42" s="222"/>
+      <c r="M42" s="236"/>
     </row>
     <row r="43" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="213"/>
-      <c r="B43" s="219"/>
-      <c r="C43" s="224" t="s">
+      <c r="A43" s="232"/>
+      <c r="B43" s="226"/>
+      <c r="C43" s="219" t="s">
         <v>14</v>
       </c>
       <c r="D43" s="9">
         <v>32</v>
       </c>
-      <c r="E43" s="227" t="s">
+      <c r="E43" s="222" t="s">
         <v>15</v>
       </c>
       <c r="F43" s="13"/>
@@ -4139,16 +4578,16 @@
         <v>49</v>
       </c>
       <c r="L43" s="1"/>
-      <c r="M43" s="222"/>
+      <c r="M43" s="236"/>
     </row>
     <row r="44" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A44" s="213"/>
-      <c r="B44" s="219"/>
-      <c r="C44" s="225"/>
+      <c r="A44" s="232"/>
+      <c r="B44" s="226"/>
+      <c r="C44" s="220"/>
       <c r="D44" s="10">
         <v>32</v>
       </c>
-      <c r="E44" s="228"/>
+      <c r="E44" s="224"/>
       <c r="F44" s="12"/>
       <c r="G44" s="1" t="s">
         <v>49</v>
@@ -4166,16 +4605,16 @@
         <v>49</v>
       </c>
       <c r="L44" s="1"/>
-      <c r="M44" s="222"/>
+      <c r="M44" s="236"/>
     </row>
     <row r="45" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A45" s="213"/>
-      <c r="B45" s="219"/>
-      <c r="C45" s="225"/>
+      <c r="A45" s="232"/>
+      <c r="B45" s="226"/>
+      <c r="C45" s="220"/>
       <c r="D45" s="10">
         <v>32</v>
       </c>
-      <c r="E45" s="227" t="s">
+      <c r="E45" s="222" t="s">
         <v>17</v>
       </c>
       <c r="F45" s="11"/>
@@ -4195,16 +4634,16 @@
         <v>49</v>
       </c>
       <c r="L45" s="1"/>
-      <c r="M45" s="222"/>
+      <c r="M45" s="236"/>
     </row>
     <row r="46" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A46" s="213"/>
-      <c r="B46" s="219"/>
-      <c r="C46" s="226"/>
+      <c r="A46" s="232"/>
+      <c r="B46" s="226"/>
+      <c r="C46" s="221"/>
       <c r="D46" s="10">
         <v>32</v>
       </c>
-      <c r="E46" s="228"/>
+      <c r="E46" s="224"/>
       <c r="F46" s="12"/>
       <c r="G46" s="1" t="s">
         <v>49</v>
@@ -4222,12 +4661,12 @@
         <v>49</v>
       </c>
       <c r="L46" s="1"/>
-      <c r="M46" s="222"/>
+      <c r="M46" s="236"/>
     </row>
     <row r="47" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A47" s="213"/>
-      <c r="B47" s="219"/>
-      <c r="C47" s="224" t="s">
+      <c r="A47" s="232"/>
+      <c r="B47" s="226"/>
+      <c r="C47" s="219" t="s">
         <v>18</v>
       </c>
       <c r="D47" s="9">
@@ -4253,12 +4692,12 @@
         <v>49</v>
       </c>
       <c r="L47" s="1"/>
-      <c r="M47" s="222"/>
+      <c r="M47" s="236"/>
     </row>
     <row r="48" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A48" s="213"/>
-      <c r="B48" s="219"/>
-      <c r="C48" s="225"/>
+      <c r="A48" s="232"/>
+      <c r="B48" s="226"/>
+      <c r="C48" s="220"/>
       <c r="D48" s="10">
         <v>30</v>
       </c>
@@ -4282,12 +4721,12 @@
         <v>49</v>
       </c>
       <c r="L48" s="1"/>
-      <c r="M48" s="222"/>
+      <c r="M48" s="236"/>
     </row>
     <row r="49" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A49" s="213"/>
-      <c r="B49" s="219"/>
-      <c r="C49" s="224" t="s">
+      <c r="A49" s="232"/>
+      <c r="B49" s="226"/>
+      <c r="C49" s="219" t="s">
         <v>19</v>
       </c>
       <c r="D49" s="9">
@@ -4313,12 +4752,12 @@
         <v>49</v>
       </c>
       <c r="L49" s="1"/>
-      <c r="M49" s="222"/>
+      <c r="M49" s="236"/>
     </row>
     <row r="50" spans="1:13" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="213"/>
-      <c r="B50" s="219"/>
-      <c r="C50" s="225"/>
+      <c r="A50" s="232"/>
+      <c r="B50" s="226"/>
+      <c r="C50" s="220"/>
       <c r="D50" s="10">
         <v>35</v>
       </c>
@@ -4342,11 +4781,11 @@
         <v>49</v>
       </c>
       <c r="L50" s="1"/>
-      <c r="M50" s="222"/>
+      <c r="M50" s="236"/>
     </row>
     <row r="51" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A51" s="213"/>
-      <c r="B51" s="219"/>
+      <c r="A51" s="232"/>
+      <c r="B51" s="226"/>
       <c r="C51" s="8" t="s">
         <v>16</v>
       </c>
@@ -4371,11 +4810,11 @@
         <v>49</v>
       </c>
       <c r="L51" s="1"/>
-      <c r="M51" s="222"/>
+      <c r="M51" s="236"/>
     </row>
     <row r="52" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A52" s="213"/>
-      <c r="B52" s="219"/>
+      <c r="A52" s="232"/>
+      <c r="B52" s="226"/>
       <c r="C52" s="8" t="s">
         <v>45</v>
       </c>
@@ -4400,11 +4839,11 @@
         <v>49</v>
       </c>
       <c r="L52" s="1"/>
-      <c r="M52" s="222"/>
+      <c r="M52" s="236"/>
     </row>
     <row r="53" spans="1:13" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A53" s="213"/>
-      <c r="B53" s="220"/>
+      <c r="A53" s="232"/>
+      <c r="B53" s="227"/>
       <c r="C53" s="8" t="s">
         <v>46</v>
       </c>
@@ -4429,7 +4868,7 @@
         <v>49</v>
       </c>
       <c r="L53" s="1"/>
-      <c r="M53" s="223"/>
+      <c r="M53" s="237"/>
     </row>
     <row r="54" spans="1:13" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A54" s="14"/>
@@ -4488,10 +4927,10 @@
       </c>
     </row>
     <row r="56" spans="1:13" ht="43.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A56" s="212" t="s">
+      <c r="A56" s="231" t="s">
         <v>21</v>
       </c>
-      <c r="B56" s="218" t="s">
+      <c r="B56" s="225" t="s">
         <v>158</v>
       </c>
       <c r="C56" s="117" t="s">
@@ -4518,13 +4957,13 @@
         <v>49</v>
       </c>
       <c r="L56" s="120"/>
-      <c r="M56" s="221" t="s">
+      <c r="M56" s="235" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A57" s="213"/>
-      <c r="B57" s="219"/>
+      <c r="A57" s="232"/>
+      <c r="B57" s="226"/>
       <c r="C57" s="117" t="s">
         <v>160</v>
       </c>
@@ -4549,11 +4988,11 @@
         <v>49</v>
       </c>
       <c r="L57" s="120"/>
-      <c r="M57" s="222"/>
+      <c r="M57" s="236"/>
     </row>
     <row r="58" spans="1:13" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A58" s="213"/>
-      <c r="B58" s="219"/>
+      <c r="A58" s="232"/>
+      <c r="B58" s="226"/>
       <c r="C58" s="186" t="s">
         <v>300</v>
       </c>
@@ -4566,11 +5005,11 @@
       <c r="J58" s="183"/>
       <c r="K58" s="120"/>
       <c r="L58" s="120"/>
-      <c r="M58" s="222"/>
+      <c r="M58" s="236"/>
     </row>
     <row r="59" spans="1:13" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A59" s="213"/>
-      <c r="B59" s="219"/>
+      <c r="A59" s="232"/>
+      <c r="B59" s="226"/>
       <c r="C59" s="186" t="s">
         <v>301</v>
       </c>
@@ -4583,11 +5022,11 @@
       <c r="J59" s="183"/>
       <c r="K59" s="120"/>
       <c r="L59" s="120"/>
-      <c r="M59" s="222"/>
+      <c r="M59" s="236"/>
     </row>
     <row r="60" spans="1:13" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A60" s="213"/>
-      <c r="B60" s="219"/>
+      <c r="A60" s="232"/>
+      <c r="B60" s="226"/>
       <c r="C60" s="186" t="s">
         <v>302</v>
       </c>
@@ -4600,11 +5039,11 @@
       <c r="J60" s="183"/>
       <c r="K60" s="120"/>
       <c r="L60" s="120"/>
-      <c r="M60" s="222"/>
+      <c r="M60" s="236"/>
     </row>
     <row r="61" spans="1:13" ht="32.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="213"/>
-      <c r="B61" s="219"/>
+      <c r="A61" s="232"/>
+      <c r="B61" s="226"/>
       <c r="C61" s="186" t="s">
         <v>303</v>
       </c>
@@ -4617,11 +5056,11 @@
       <c r="J61" s="183"/>
       <c r="K61" s="120"/>
       <c r="L61" s="120"/>
-      <c r="M61" s="222"/>
+      <c r="M61" s="236"/>
     </row>
     <row r="62" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A62" s="213"/>
-      <c r="B62" s="219"/>
+      <c r="A62" s="232"/>
+      <c r="B62" s="226"/>
       <c r="C62" s="117" t="s">
         <v>161</v>
       </c>
@@ -4646,11 +5085,11 @@
         <v>49</v>
       </c>
       <c r="L62" s="120"/>
-      <c r="M62" s="222"/>
+      <c r="M62" s="236"/>
     </row>
     <row r="63" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="213"/>
-      <c r="B63" s="219"/>
+      <c r="A63" s="232"/>
+      <c r="B63" s="226"/>
       <c r="C63" s="117" t="s">
         <v>162</v>
       </c>
@@ -4675,11 +5114,11 @@
         <v>49</v>
       </c>
       <c r="L63" s="120"/>
-      <c r="M63" s="222"/>
+      <c r="M63" s="236"/>
     </row>
     <row r="64" spans="1:13" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A64" s="213"/>
-      <c r="B64" s="220"/>
+      <c r="A64" s="232"/>
+      <c r="B64" s="227"/>
       <c r="C64" s="117" t="s">
         <v>163</v>
       </c>
@@ -4704,7 +5143,7 @@
         <v>49</v>
       </c>
       <c r="L64" s="120"/>
-      <c r="M64" s="222"/>
+      <c r="M64" s="236"/>
     </row>
     <row r="65" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A65" s="15"/>
@@ -4763,13 +5202,13 @@
       </c>
     </row>
     <row r="67" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A67" s="212" t="s">
+      <c r="A67" s="231" t="s">
         <v>21</v>
       </c>
-      <c r="B67" s="218" t="s">
+      <c r="B67" s="225" t="s">
         <v>164</v>
       </c>
-      <c r="C67" s="233" t="s">
+      <c r="C67" s="228" t="s">
         <v>165</v>
       </c>
       <c r="D67" s="239">
@@ -4781,28 +5220,28 @@
       <c r="F67" s="122" t="s">
         <v>169</v>
       </c>
-      <c r="G67" s="230" t="s">
-        <v>49</v>
-      </c>
-      <c r="H67" s="230" t="s">
-        <v>49</v>
-      </c>
-      <c r="I67" s="230" t="s">
-        <v>49</v>
-      </c>
-      <c r="J67" s="230" t="s">
-        <v>49</v>
-      </c>
-      <c r="K67" s="230"/>
-      <c r="L67" s="230"/>
-      <c r="M67" s="221" t="s">
+      <c r="G67" s="216" t="s">
+        <v>49</v>
+      </c>
+      <c r="H67" s="216" t="s">
+        <v>49</v>
+      </c>
+      <c r="I67" s="216" t="s">
+        <v>49</v>
+      </c>
+      <c r="J67" s="216" t="s">
+        <v>49</v>
+      </c>
+      <c r="K67" s="216"/>
+      <c r="L67" s="216"/>
+      <c r="M67" s="235" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A68" s="213"/>
-      <c r="B68" s="219"/>
-      <c r="C68" s="234"/>
+      <c r="A68" s="232"/>
+      <c r="B68" s="226"/>
+      <c r="C68" s="229"/>
       <c r="D68" s="240"/>
       <c r="E68" s="121" t="s">
         <v>167</v>
@@ -4810,35 +5249,35 @@
       <c r="F68" s="242" t="s">
         <v>197</v>
       </c>
-      <c r="G68" s="231"/>
-      <c r="H68" s="231"/>
-      <c r="I68" s="231"/>
-      <c r="J68" s="231"/>
-      <c r="K68" s="231"/>
-      <c r="L68" s="231"/>
-      <c r="M68" s="222"/>
+      <c r="G68" s="217"/>
+      <c r="H68" s="217"/>
+      <c r="I68" s="217"/>
+      <c r="J68" s="217"/>
+      <c r="K68" s="217"/>
+      <c r="L68" s="217"/>
+      <c r="M68" s="236"/>
     </row>
     <row r="69" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A69" s="213"/>
-      <c r="B69" s="219"/>
-      <c r="C69" s="235"/>
+      <c r="A69" s="232"/>
+      <c r="B69" s="226"/>
+      <c r="C69" s="230"/>
       <c r="D69" s="240"/>
       <c r="E69" s="121" t="s">
         <v>168</v>
       </c>
       <c r="F69" s="243"/>
-      <c r="G69" s="231"/>
-      <c r="H69" s="231"/>
-      <c r="I69" s="231"/>
-      <c r="J69" s="231"/>
-      <c r="K69" s="231"/>
-      <c r="L69" s="231"/>
-      <c r="M69" s="222"/>
+      <c r="G69" s="217"/>
+      <c r="H69" s="217"/>
+      <c r="I69" s="217"/>
+      <c r="J69" s="217"/>
+      <c r="K69" s="217"/>
+      <c r="L69" s="217"/>
+      <c r="M69" s="236"/>
     </row>
     <row r="70" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A70" s="213"/>
-      <c r="B70" s="219"/>
-      <c r="C70" s="233" t="s">
+      <c r="A70" s="232"/>
+      <c r="B70" s="226"/>
+      <c r="C70" s="228" t="s">
         <v>170</v>
       </c>
       <c r="D70" s="240"/>
@@ -4848,18 +5287,18 @@
       <c r="F70" s="123" t="s">
         <v>198</v>
       </c>
-      <c r="G70" s="231"/>
-      <c r="H70" s="231"/>
-      <c r="I70" s="231"/>
-      <c r="J70" s="231"/>
-      <c r="K70" s="231"/>
-      <c r="L70" s="231"/>
-      <c r="M70" s="222"/>
+      <c r="G70" s="217"/>
+      <c r="H70" s="217"/>
+      <c r="I70" s="217"/>
+      <c r="J70" s="217"/>
+      <c r="K70" s="217"/>
+      <c r="L70" s="217"/>
+      <c r="M70" s="236"/>
     </row>
     <row r="71" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A71" s="213"/>
-      <c r="B71" s="219"/>
-      <c r="C71" s="234"/>
+      <c r="A71" s="232"/>
+      <c r="B71" s="226"/>
+      <c r="C71" s="229"/>
       <c r="D71" s="240"/>
       <c r="E71" s="121" t="s">
         <v>167</v>
@@ -4867,54 +5306,54 @@
       <c r="F71" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G71" s="231"/>
-      <c r="H71" s="231"/>
-      <c r="I71" s="231"/>
-      <c r="J71" s="231"/>
-      <c r="K71" s="231"/>
-      <c r="L71" s="231"/>
-      <c r="M71" s="222"/>
+      <c r="G71" s="217"/>
+      <c r="H71" s="217"/>
+      <c r="I71" s="217"/>
+      <c r="J71" s="217"/>
+      <c r="K71" s="217"/>
+      <c r="L71" s="217"/>
+      <c r="M71" s="236"/>
     </row>
     <row r="72" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A72" s="213"/>
-      <c r="B72" s="219"/>
-      <c r="C72" s="234"/>
+      <c r="A72" s="232"/>
+      <c r="B72" s="226"/>
+      <c r="C72" s="229"/>
       <c r="D72" s="240"/>
-      <c r="E72" s="236" t="s">
+      <c r="E72" s="233" t="s">
         <v>168</v>
       </c>
       <c r="F72" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G72" s="231"/>
-      <c r="H72" s="231"/>
-      <c r="I72" s="231"/>
-      <c r="J72" s="231"/>
-      <c r="K72" s="231"/>
-      <c r="L72" s="231"/>
-      <c r="M72" s="222"/>
+      <c r="G72" s="217"/>
+      <c r="H72" s="217"/>
+      <c r="I72" s="217"/>
+      <c r="J72" s="217"/>
+      <c r="K72" s="217"/>
+      <c r="L72" s="217"/>
+      <c r="M72" s="236"/>
     </row>
     <row r="73" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A73" s="213"/>
-      <c r="B73" s="219"/>
-      <c r="C73" s="235"/>
+      <c r="A73" s="232"/>
+      <c r="B73" s="226"/>
+      <c r="C73" s="230"/>
       <c r="D73" s="240"/>
-      <c r="E73" s="237"/>
+      <c r="E73" s="234"/>
       <c r="F73" s="123" t="s">
         <v>201</v>
       </c>
-      <c r="G73" s="231"/>
-      <c r="H73" s="231"/>
-      <c r="I73" s="231"/>
-      <c r="J73" s="231"/>
-      <c r="K73" s="231"/>
-      <c r="L73" s="231"/>
-      <c r="M73" s="222"/>
+      <c r="G73" s="217"/>
+      <c r="H73" s="217"/>
+      <c r="I73" s="217"/>
+      <c r="J73" s="217"/>
+      <c r="K73" s="217"/>
+      <c r="L73" s="217"/>
+      <c r="M73" s="236"/>
     </row>
     <row r="74" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A74" s="213"/>
-      <c r="B74" s="219"/>
-      <c r="C74" s="233" t="s">
+      <c r="A74" s="232"/>
+      <c r="B74" s="226"/>
+      <c r="C74" s="228" t="s">
         <v>171</v>
       </c>
       <c r="D74" s="240"/>
@@ -4924,18 +5363,18 @@
       <c r="F74" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G74" s="231"/>
-      <c r="H74" s="231"/>
-      <c r="I74" s="231"/>
-      <c r="J74" s="231"/>
-      <c r="K74" s="231"/>
-      <c r="L74" s="231"/>
-      <c r="M74" s="222"/>
+      <c r="G74" s="217"/>
+      <c r="H74" s="217"/>
+      <c r="I74" s="217"/>
+      <c r="J74" s="217"/>
+      <c r="K74" s="217"/>
+      <c r="L74" s="217"/>
+      <c r="M74" s="236"/>
     </row>
     <row r="75" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A75" s="213"/>
-      <c r="B75" s="219"/>
-      <c r="C75" s="234"/>
+      <c r="A75" s="232"/>
+      <c r="B75" s="226"/>
+      <c r="C75" s="229"/>
       <c r="D75" s="240"/>
       <c r="E75" s="121" t="s">
         <v>167</v>
@@ -4943,18 +5382,18 @@
       <c r="F75" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G75" s="231"/>
-      <c r="H75" s="231"/>
-      <c r="I75" s="231"/>
-      <c r="J75" s="231"/>
-      <c r="K75" s="231"/>
-      <c r="L75" s="231"/>
-      <c r="M75" s="222"/>
+      <c r="G75" s="217"/>
+      <c r="H75" s="217"/>
+      <c r="I75" s="217"/>
+      <c r="J75" s="217"/>
+      <c r="K75" s="217"/>
+      <c r="L75" s="217"/>
+      <c r="M75" s="236"/>
     </row>
     <row r="76" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A76" s="213"/>
-      <c r="B76" s="219"/>
-      <c r="C76" s="235"/>
+      <c r="A76" s="232"/>
+      <c r="B76" s="226"/>
+      <c r="C76" s="230"/>
       <c r="D76" s="240"/>
       <c r="E76" s="121" t="s">
         <v>168</v>
@@ -4962,18 +5401,18 @@
       <c r="F76" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="G76" s="231"/>
-      <c r="H76" s="231"/>
-      <c r="I76" s="231"/>
-      <c r="J76" s="231"/>
-      <c r="K76" s="231"/>
-      <c r="L76" s="231"/>
-      <c r="M76" s="222"/>
+      <c r="G76" s="217"/>
+      <c r="H76" s="217"/>
+      <c r="I76" s="217"/>
+      <c r="J76" s="217"/>
+      <c r="K76" s="217"/>
+      <c r="L76" s="217"/>
+      <c r="M76" s="236"/>
     </row>
     <row r="77" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A77" s="213"/>
-      <c r="B77" s="219"/>
-      <c r="C77" s="233" t="s">
+      <c r="A77" s="232"/>
+      <c r="B77" s="226"/>
+      <c r="C77" s="228" t="s">
         <v>172</v>
       </c>
       <c r="D77" s="240"/>
@@ -4983,18 +5422,18 @@
       <c r="F77" s="123" t="s">
         <v>203</v>
       </c>
-      <c r="G77" s="231"/>
-      <c r="H77" s="231"/>
-      <c r="I77" s="231"/>
-      <c r="J77" s="231"/>
-      <c r="K77" s="231"/>
-      <c r="L77" s="231"/>
-      <c r="M77" s="222"/>
+      <c r="G77" s="217"/>
+      <c r="H77" s="217"/>
+      <c r="I77" s="217"/>
+      <c r="J77" s="217"/>
+      <c r="K77" s="217"/>
+      <c r="L77" s="217"/>
+      <c r="M77" s="236"/>
     </row>
     <row r="78" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A78" s="213"/>
-      <c r="B78" s="219"/>
-      <c r="C78" s="234"/>
+      <c r="A78" s="232"/>
+      <c r="B78" s="226"/>
+      <c r="C78" s="229"/>
       <c r="D78" s="240"/>
       <c r="E78" s="121" t="s">
         <v>167</v>
@@ -5002,18 +5441,18 @@
       <c r="F78" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G78" s="231"/>
-      <c r="H78" s="231"/>
-      <c r="I78" s="231"/>
-      <c r="J78" s="231"/>
-      <c r="K78" s="231"/>
-      <c r="L78" s="231"/>
-      <c r="M78" s="222"/>
+      <c r="G78" s="217"/>
+      <c r="H78" s="217"/>
+      <c r="I78" s="217"/>
+      <c r="J78" s="217"/>
+      <c r="K78" s="217"/>
+      <c r="L78" s="217"/>
+      <c r="M78" s="236"/>
     </row>
     <row r="79" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A79" s="213"/>
-      <c r="B79" s="219"/>
-      <c r="C79" s="235"/>
+      <c r="A79" s="232"/>
+      <c r="B79" s="226"/>
+      <c r="C79" s="230"/>
       <c r="D79" s="240"/>
       <c r="E79" s="121" t="s">
         <v>168</v>
@@ -5021,18 +5460,18 @@
       <c r="F79" s="123" t="s">
         <v>204</v>
       </c>
-      <c r="G79" s="231"/>
-      <c r="H79" s="231"/>
-      <c r="I79" s="231"/>
-      <c r="J79" s="231"/>
-      <c r="K79" s="231"/>
-      <c r="L79" s="231"/>
-      <c r="M79" s="222"/>
+      <c r="G79" s="217"/>
+      <c r="H79" s="217"/>
+      <c r="I79" s="217"/>
+      <c r="J79" s="217"/>
+      <c r="K79" s="217"/>
+      <c r="L79" s="217"/>
+      <c r="M79" s="236"/>
     </row>
     <row r="80" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A80" s="213"/>
-      <c r="B80" s="219"/>
-      <c r="C80" s="233" t="s">
+      <c r="A80" s="232"/>
+      <c r="B80" s="226"/>
+      <c r="C80" s="228" t="s">
         <v>173</v>
       </c>
       <c r="D80" s="240"/>
@@ -5042,18 +5481,18 @@
       <c r="F80" s="123" t="s">
         <v>205</v>
       </c>
-      <c r="G80" s="231"/>
-      <c r="H80" s="231"/>
-      <c r="I80" s="231"/>
-      <c r="J80" s="231"/>
-      <c r="K80" s="231"/>
-      <c r="L80" s="231"/>
-      <c r="M80" s="222"/>
+      <c r="G80" s="217"/>
+      <c r="H80" s="217"/>
+      <c r="I80" s="217"/>
+      <c r="J80" s="217"/>
+      <c r="K80" s="217"/>
+      <c r="L80" s="217"/>
+      <c r="M80" s="236"/>
     </row>
     <row r="81" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A81" s="213"/>
-      <c r="B81" s="219"/>
-      <c r="C81" s="234"/>
+      <c r="A81" s="232"/>
+      <c r="B81" s="226"/>
+      <c r="C81" s="229"/>
       <c r="D81" s="240"/>
       <c r="E81" s="121" t="s">
         <v>167</v>
@@ -5061,18 +5500,18 @@
       <c r="F81" s="123" t="s">
         <v>205</v>
       </c>
-      <c r="G81" s="231"/>
-      <c r="H81" s="231"/>
-      <c r="I81" s="231"/>
-      <c r="J81" s="231"/>
-      <c r="K81" s="231"/>
-      <c r="L81" s="231"/>
-      <c r="M81" s="222"/>
+      <c r="G81" s="217"/>
+      <c r="H81" s="217"/>
+      <c r="I81" s="217"/>
+      <c r="J81" s="217"/>
+      <c r="K81" s="217"/>
+      <c r="L81" s="217"/>
+      <c r="M81" s="236"/>
     </row>
     <row r="82" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A82" s="213"/>
-      <c r="B82" s="219"/>
-      <c r="C82" s="235"/>
+      <c r="A82" s="232"/>
+      <c r="B82" s="226"/>
+      <c r="C82" s="230"/>
       <c r="D82" s="240"/>
       <c r="E82" s="121" t="s">
         <v>168</v>
@@ -5080,18 +5519,18 @@
       <c r="F82" s="123" t="s">
         <v>205</v>
       </c>
-      <c r="G82" s="231"/>
-      <c r="H82" s="231"/>
-      <c r="I82" s="231"/>
-      <c r="J82" s="231"/>
-      <c r="K82" s="231"/>
-      <c r="L82" s="231"/>
-      <c r="M82" s="222"/>
+      <c r="G82" s="217"/>
+      <c r="H82" s="217"/>
+      <c r="I82" s="217"/>
+      <c r="J82" s="217"/>
+      <c r="K82" s="217"/>
+      <c r="L82" s="217"/>
+      <c r="M82" s="236"/>
     </row>
     <row r="83" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A83" s="213"/>
-      <c r="B83" s="219"/>
-      <c r="C83" s="233" t="s">
+      <c r="A83" s="232"/>
+      <c r="B83" s="226"/>
+      <c r="C83" s="228" t="s">
         <v>174</v>
       </c>
       <c r="D83" s="240"/>
@@ -5101,18 +5540,18 @@
       <c r="F83" s="123" t="s">
         <v>201</v>
       </c>
-      <c r="G83" s="231"/>
-      <c r="H83" s="231"/>
-      <c r="I83" s="231"/>
-      <c r="J83" s="231"/>
-      <c r="K83" s="231"/>
-      <c r="L83" s="231"/>
-      <c r="M83" s="222"/>
+      <c r="G83" s="217"/>
+      <c r="H83" s="217"/>
+      <c r="I83" s="217"/>
+      <c r="J83" s="217"/>
+      <c r="K83" s="217"/>
+      <c r="L83" s="217"/>
+      <c r="M83" s="236"/>
     </row>
     <row r="84" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A84" s="213"/>
-      <c r="B84" s="219"/>
-      <c r="C84" s="234"/>
+      <c r="A84" s="232"/>
+      <c r="B84" s="226"/>
+      <c r="C84" s="229"/>
       <c r="D84" s="240"/>
       <c r="E84" s="121" t="s">
         <v>167</v>
@@ -5120,18 +5559,18 @@
       <c r="F84" s="123" t="s">
         <v>206</v>
       </c>
-      <c r="G84" s="231"/>
-      <c r="H84" s="231"/>
-      <c r="I84" s="231"/>
-      <c r="J84" s="231"/>
-      <c r="K84" s="231"/>
-      <c r="L84" s="231"/>
-      <c r="M84" s="222"/>
+      <c r="G84" s="217"/>
+      <c r="H84" s="217"/>
+      <c r="I84" s="217"/>
+      <c r="J84" s="217"/>
+      <c r="K84" s="217"/>
+      <c r="L84" s="217"/>
+      <c r="M84" s="236"/>
     </row>
     <row r="85" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A85" s="213"/>
-      <c r="B85" s="219"/>
-      <c r="C85" s="235"/>
+      <c r="A85" s="232"/>
+      <c r="B85" s="226"/>
+      <c r="C85" s="230"/>
       <c r="D85" s="240"/>
       <c r="E85" s="121" t="s">
         <v>168</v>
@@ -5139,18 +5578,18 @@
       <c r="F85" s="123" t="s">
         <v>207</v>
       </c>
-      <c r="G85" s="231"/>
-      <c r="H85" s="231"/>
-      <c r="I85" s="231"/>
-      <c r="J85" s="231"/>
-      <c r="K85" s="231"/>
-      <c r="L85" s="231"/>
-      <c r="M85" s="222"/>
+      <c r="G85" s="217"/>
+      <c r="H85" s="217"/>
+      <c r="I85" s="217"/>
+      <c r="J85" s="217"/>
+      <c r="K85" s="217"/>
+      <c r="L85" s="217"/>
+      <c r="M85" s="236"/>
     </row>
     <row r="86" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A86" s="213"/>
-      <c r="B86" s="219"/>
-      <c r="C86" s="233" t="s">
+      <c r="A86" s="232"/>
+      <c r="B86" s="226"/>
+      <c r="C86" s="228" t="s">
         <v>175</v>
       </c>
       <c r="D86" s="240"/>
@@ -5160,18 +5599,18 @@
       <c r="F86" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G86" s="231"/>
-      <c r="H86" s="231"/>
-      <c r="I86" s="231"/>
-      <c r="J86" s="231"/>
-      <c r="K86" s="231"/>
-      <c r="L86" s="231"/>
-      <c r="M86" s="222"/>
+      <c r="G86" s="217"/>
+      <c r="H86" s="217"/>
+      <c r="I86" s="217"/>
+      <c r="J86" s="217"/>
+      <c r="K86" s="217"/>
+      <c r="L86" s="217"/>
+      <c r="M86" s="236"/>
     </row>
     <row r="87" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="213"/>
-      <c r="B87" s="219"/>
-      <c r="C87" s="234"/>
+      <c r="A87" s="232"/>
+      <c r="B87" s="226"/>
+      <c r="C87" s="229"/>
       <c r="D87" s="240"/>
       <c r="E87" s="121" t="s">
         <v>167</v>
@@ -5179,18 +5618,18 @@
       <c r="F87" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G87" s="231"/>
-      <c r="H87" s="231"/>
-      <c r="I87" s="231"/>
-      <c r="J87" s="231"/>
-      <c r="K87" s="231"/>
-      <c r="L87" s="231"/>
-      <c r="M87" s="222"/>
+      <c r="G87" s="217"/>
+      <c r="H87" s="217"/>
+      <c r="I87" s="217"/>
+      <c r="J87" s="217"/>
+      <c r="K87" s="217"/>
+      <c r="L87" s="217"/>
+      <c r="M87" s="236"/>
     </row>
     <row r="88" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A88" s="213"/>
-      <c r="B88" s="219"/>
-      <c r="C88" s="235"/>
+      <c r="A88" s="232"/>
+      <c r="B88" s="226"/>
+      <c r="C88" s="230"/>
       <c r="D88" s="240"/>
       <c r="E88" s="121" t="s">
         <v>168</v>
@@ -5198,56 +5637,56 @@
       <c r="F88" s="123" t="s">
         <v>208</v>
       </c>
-      <c r="G88" s="231"/>
-      <c r="H88" s="231"/>
-      <c r="I88" s="231"/>
-      <c r="J88" s="231"/>
-      <c r="K88" s="231"/>
-      <c r="L88" s="231"/>
-      <c r="M88" s="222"/>
+      <c r="G88" s="217"/>
+      <c r="H88" s="217"/>
+      <c r="I88" s="217"/>
+      <c r="J88" s="217"/>
+      <c r="K88" s="217"/>
+      <c r="L88" s="217"/>
+      <c r="M88" s="236"/>
     </row>
     <row r="89" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="213"/>
-      <c r="B89" s="219"/>
-      <c r="C89" s="233" t="s">
+      <c r="A89" s="232"/>
+      <c r="B89" s="226"/>
+      <c r="C89" s="228" t="s">
         <v>176</v>
       </c>
       <c r="D89" s="240"/>
-      <c r="E89" s="236" t="s">
+      <c r="E89" s="233" t="s">
         <v>166</v>
       </c>
       <c r="F89" s="123" t="s">
         <v>209</v>
       </c>
-      <c r="G89" s="231"/>
-      <c r="H89" s="231"/>
-      <c r="I89" s="231"/>
-      <c r="J89" s="231"/>
-      <c r="K89" s="231"/>
-      <c r="L89" s="231"/>
-      <c r="M89" s="222"/>
+      <c r="G89" s="217"/>
+      <c r="H89" s="217"/>
+      <c r="I89" s="217"/>
+      <c r="J89" s="217"/>
+      <c r="K89" s="217"/>
+      <c r="L89" s="217"/>
+      <c r="M89" s="236"/>
     </row>
     <row r="90" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A90" s="213"/>
-      <c r="B90" s="219"/>
-      <c r="C90" s="234"/>
+      <c r="A90" s="232"/>
+      <c r="B90" s="226"/>
+      <c r="C90" s="229"/>
       <c r="D90" s="240"/>
-      <c r="E90" s="237"/>
+      <c r="E90" s="234"/>
       <c r="F90" s="123" t="s">
         <v>210</v>
       </c>
-      <c r="G90" s="231"/>
-      <c r="H90" s="231"/>
-      <c r="I90" s="231"/>
-      <c r="J90" s="231"/>
-      <c r="K90" s="231"/>
-      <c r="L90" s="231"/>
-      <c r="M90" s="222"/>
+      <c r="G90" s="217"/>
+      <c r="H90" s="217"/>
+      <c r="I90" s="217"/>
+      <c r="J90" s="217"/>
+      <c r="K90" s="217"/>
+      <c r="L90" s="217"/>
+      <c r="M90" s="236"/>
     </row>
     <row r="91" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A91" s="213"/>
-      <c r="B91" s="219"/>
-      <c r="C91" s="234"/>
+      <c r="A91" s="232"/>
+      <c r="B91" s="226"/>
+      <c r="C91" s="229"/>
       <c r="D91" s="240"/>
       <c r="E91" s="121" t="s">
         <v>167</v>
@@ -5255,18 +5694,18 @@
       <c r="F91" s="123" t="s">
         <v>210</v>
       </c>
-      <c r="G91" s="231"/>
-      <c r="H91" s="231"/>
-      <c r="I91" s="231"/>
-      <c r="J91" s="231"/>
-      <c r="K91" s="231"/>
-      <c r="L91" s="231"/>
-      <c r="M91" s="222"/>
+      <c r="G91" s="217"/>
+      <c r="H91" s="217"/>
+      <c r="I91" s="217"/>
+      <c r="J91" s="217"/>
+      <c r="K91" s="217"/>
+      <c r="L91" s="217"/>
+      <c r="M91" s="236"/>
     </row>
     <row r="92" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A92" s="213"/>
-      <c r="B92" s="219"/>
-      <c r="C92" s="235"/>
+      <c r="A92" s="232"/>
+      <c r="B92" s="226"/>
+      <c r="C92" s="230"/>
       <c r="D92" s="240"/>
       <c r="E92" s="121" t="s">
         <v>168</v>
@@ -5274,18 +5713,18 @@
       <c r="F92" s="123" t="s">
         <v>211</v>
       </c>
-      <c r="G92" s="231"/>
-      <c r="H92" s="231"/>
-      <c r="I92" s="231"/>
-      <c r="J92" s="231"/>
-      <c r="K92" s="231"/>
-      <c r="L92" s="231"/>
-      <c r="M92" s="222"/>
+      <c r="G92" s="217"/>
+      <c r="H92" s="217"/>
+      <c r="I92" s="217"/>
+      <c r="J92" s="217"/>
+      <c r="K92" s="217"/>
+      <c r="L92" s="217"/>
+      <c r="M92" s="236"/>
     </row>
     <row r="93" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A93" s="213"/>
-      <c r="B93" s="219"/>
-      <c r="C93" s="233" t="s">
+      <c r="A93" s="232"/>
+      <c r="B93" s="226"/>
+      <c r="C93" s="228" t="s">
         <v>177</v>
       </c>
       <c r="D93" s="240"/>
@@ -5295,18 +5734,18 @@
       <c r="F93" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G93" s="231"/>
-      <c r="H93" s="231"/>
-      <c r="I93" s="231"/>
-      <c r="J93" s="231"/>
-      <c r="K93" s="231"/>
-      <c r="L93" s="231"/>
-      <c r="M93" s="222"/>
+      <c r="G93" s="217"/>
+      <c r="H93" s="217"/>
+      <c r="I93" s="217"/>
+      <c r="J93" s="217"/>
+      <c r="K93" s="217"/>
+      <c r="L93" s="217"/>
+      <c r="M93" s="236"/>
     </row>
     <row r="94" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A94" s="213"/>
-      <c r="B94" s="219"/>
-      <c r="C94" s="234"/>
+      <c r="A94" s="232"/>
+      <c r="B94" s="226"/>
+      <c r="C94" s="229"/>
       <c r="D94" s="240"/>
       <c r="E94" s="121" t="s">
         <v>167</v>
@@ -5314,54 +5753,54 @@
       <c r="F94" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G94" s="231"/>
-      <c r="H94" s="231"/>
-      <c r="I94" s="231"/>
-      <c r="J94" s="231"/>
-      <c r="K94" s="231"/>
-      <c r="L94" s="231"/>
-      <c r="M94" s="222"/>
+      <c r="G94" s="217"/>
+      <c r="H94" s="217"/>
+      <c r="I94" s="217"/>
+      <c r="J94" s="217"/>
+      <c r="K94" s="217"/>
+      <c r="L94" s="217"/>
+      <c r="M94" s="236"/>
     </row>
     <row r="95" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A95" s="213"/>
-      <c r="B95" s="219"/>
-      <c r="C95" s="234"/>
+      <c r="A95" s="232"/>
+      <c r="B95" s="226"/>
+      <c r="C95" s="229"/>
       <c r="D95" s="240"/>
-      <c r="E95" s="236" t="s">
+      <c r="E95" s="233" t="s">
         <v>168</v>
       </c>
       <c r="F95" s="123" t="s">
         <v>204</v>
       </c>
-      <c r="G95" s="231"/>
-      <c r="H95" s="231"/>
-      <c r="I95" s="231"/>
-      <c r="J95" s="231"/>
-      <c r="K95" s="231"/>
-      <c r="L95" s="231"/>
-      <c r="M95" s="222"/>
+      <c r="G95" s="217"/>
+      <c r="H95" s="217"/>
+      <c r="I95" s="217"/>
+      <c r="J95" s="217"/>
+      <c r="K95" s="217"/>
+      <c r="L95" s="217"/>
+      <c r="M95" s="236"/>
     </row>
     <row r="96" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A96" s="213"/>
-      <c r="B96" s="219"/>
-      <c r="C96" s="235"/>
+      <c r="A96" s="232"/>
+      <c r="B96" s="226"/>
+      <c r="C96" s="230"/>
       <c r="D96" s="240"/>
-      <c r="E96" s="237"/>
+      <c r="E96" s="234"/>
       <c r="F96" s="123" t="s">
         <v>205</v>
       </c>
-      <c r="G96" s="231"/>
-      <c r="H96" s="231"/>
-      <c r="I96" s="231"/>
-      <c r="J96" s="231"/>
-      <c r="K96" s="231"/>
-      <c r="L96" s="231"/>
-      <c r="M96" s="222"/>
+      <c r="G96" s="217"/>
+      <c r="H96" s="217"/>
+      <c r="I96" s="217"/>
+      <c r="J96" s="217"/>
+      <c r="K96" s="217"/>
+      <c r="L96" s="217"/>
+      <c r="M96" s="236"/>
     </row>
     <row r="97" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A97" s="213"/>
-      <c r="B97" s="219"/>
-      <c r="C97" s="233" t="s">
+      <c r="A97" s="232"/>
+      <c r="B97" s="226"/>
+      <c r="C97" s="228" t="s">
         <v>178</v>
       </c>
       <c r="D97" s="240"/>
@@ -5371,18 +5810,18 @@
       <c r="F97" s="123" t="s">
         <v>212</v>
       </c>
-      <c r="G97" s="231"/>
-      <c r="H97" s="231"/>
-      <c r="I97" s="231"/>
-      <c r="J97" s="231"/>
-      <c r="K97" s="231"/>
-      <c r="L97" s="231"/>
-      <c r="M97" s="222"/>
+      <c r="G97" s="217"/>
+      <c r="H97" s="217"/>
+      <c r="I97" s="217"/>
+      <c r="J97" s="217"/>
+      <c r="K97" s="217"/>
+      <c r="L97" s="217"/>
+      <c r="M97" s="236"/>
     </row>
     <row r="98" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A98" s="213"/>
-      <c r="B98" s="219"/>
-      <c r="C98" s="234"/>
+      <c r="A98" s="232"/>
+      <c r="B98" s="226"/>
+      <c r="C98" s="229"/>
       <c r="D98" s="240"/>
       <c r="E98" s="121" t="s">
         <v>167</v>
@@ -5390,18 +5829,18 @@
       <c r="F98" s="123" t="s">
         <v>204</v>
       </c>
-      <c r="G98" s="231"/>
-      <c r="H98" s="231"/>
-      <c r="I98" s="231"/>
-      <c r="J98" s="231"/>
-      <c r="K98" s="231"/>
-      <c r="L98" s="231"/>
-      <c r="M98" s="222"/>
+      <c r="G98" s="217"/>
+      <c r="H98" s="217"/>
+      <c r="I98" s="217"/>
+      <c r="J98" s="217"/>
+      <c r="K98" s="217"/>
+      <c r="L98" s="217"/>
+      <c r="M98" s="236"/>
     </row>
     <row r="99" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A99" s="213"/>
-      <c r="B99" s="219"/>
-      <c r="C99" s="235"/>
+      <c r="A99" s="232"/>
+      <c r="B99" s="226"/>
+      <c r="C99" s="230"/>
       <c r="D99" s="240"/>
       <c r="E99" s="121" t="s">
         <v>168</v>
@@ -5409,18 +5848,18 @@
       <c r="F99" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G99" s="231"/>
-      <c r="H99" s="231"/>
-      <c r="I99" s="231"/>
-      <c r="J99" s="231"/>
-      <c r="K99" s="231"/>
-      <c r="L99" s="231"/>
-      <c r="M99" s="222"/>
+      <c r="G99" s="217"/>
+      <c r="H99" s="217"/>
+      <c r="I99" s="217"/>
+      <c r="J99" s="217"/>
+      <c r="K99" s="217"/>
+      <c r="L99" s="217"/>
+      <c r="M99" s="236"/>
     </row>
     <row r="100" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A100" s="213"/>
-      <c r="B100" s="219"/>
-      <c r="C100" s="233" t="s">
+      <c r="A100" s="232"/>
+      <c r="B100" s="226"/>
+      <c r="C100" s="228" t="s">
         <v>179</v>
       </c>
       <c r="D100" s="240"/>
@@ -5430,54 +5869,54 @@
       <c r="F100" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G100" s="231"/>
-      <c r="H100" s="231"/>
-      <c r="I100" s="231"/>
-      <c r="J100" s="231"/>
-      <c r="K100" s="231"/>
-      <c r="L100" s="231"/>
-      <c r="M100" s="222"/>
+      <c r="G100" s="217"/>
+      <c r="H100" s="217"/>
+      <c r="I100" s="217"/>
+      <c r="J100" s="217"/>
+      <c r="K100" s="217"/>
+      <c r="L100" s="217"/>
+      <c r="M100" s="236"/>
     </row>
     <row r="101" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="213"/>
-      <c r="B101" s="219"/>
-      <c r="C101" s="234"/>
+      <c r="A101" s="232"/>
+      <c r="B101" s="226"/>
+      <c r="C101" s="229"/>
       <c r="D101" s="240"/>
-      <c r="E101" s="236" t="s">
+      <c r="E101" s="233" t="s">
         <v>167</v>
       </c>
       <c r="F101" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G101" s="231"/>
-      <c r="H101" s="231"/>
-      <c r="I101" s="231"/>
-      <c r="J101" s="231"/>
-      <c r="K101" s="231"/>
-      <c r="L101" s="231"/>
-      <c r="M101" s="222"/>
+      <c r="G101" s="217"/>
+      <c r="H101" s="217"/>
+      <c r="I101" s="217"/>
+      <c r="J101" s="217"/>
+      <c r="K101" s="217"/>
+      <c r="L101" s="217"/>
+      <c r="M101" s="236"/>
     </row>
     <row r="102" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A102" s="213"/>
-      <c r="B102" s="219"/>
-      <c r="C102" s="234"/>
+      <c r="A102" s="232"/>
+      <c r="B102" s="226"/>
+      <c r="C102" s="229"/>
       <c r="D102" s="240"/>
-      <c r="E102" s="237"/>
+      <c r="E102" s="234"/>
       <c r="F102" s="123" t="s">
         <v>201</v>
       </c>
-      <c r="G102" s="231"/>
-      <c r="H102" s="231"/>
-      <c r="I102" s="231"/>
-      <c r="J102" s="231"/>
-      <c r="K102" s="231"/>
-      <c r="L102" s="231"/>
-      <c r="M102" s="222"/>
+      <c r="G102" s="217"/>
+      <c r="H102" s="217"/>
+      <c r="I102" s="217"/>
+      <c r="J102" s="217"/>
+      <c r="K102" s="217"/>
+      <c r="L102" s="217"/>
+      <c r="M102" s="236"/>
     </row>
     <row r="103" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A103" s="213"/>
-      <c r="B103" s="219"/>
-      <c r="C103" s="235"/>
+      <c r="A103" s="232"/>
+      <c r="B103" s="226"/>
+      <c r="C103" s="230"/>
       <c r="D103" s="240"/>
       <c r="E103" s="121" t="s">
         <v>168</v>
@@ -5485,56 +5924,56 @@
       <c r="F103" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="G103" s="231"/>
-      <c r="H103" s="231"/>
-      <c r="I103" s="231"/>
-      <c r="J103" s="231"/>
-      <c r="K103" s="231"/>
-      <c r="L103" s="231"/>
-      <c r="M103" s="222"/>
+      <c r="G103" s="217"/>
+      <c r="H103" s="217"/>
+      <c r="I103" s="217"/>
+      <c r="J103" s="217"/>
+      <c r="K103" s="217"/>
+      <c r="L103" s="217"/>
+      <c r="M103" s="236"/>
     </row>
     <row r="104" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A104" s="213"/>
-      <c r="B104" s="219"/>
-      <c r="C104" s="233" t="s">
+      <c r="A104" s="232"/>
+      <c r="B104" s="226"/>
+      <c r="C104" s="228" t="s">
         <v>180</v>
       </c>
       <c r="D104" s="240"/>
-      <c r="E104" s="236" t="s">
+      <c r="E104" s="233" t="s">
         <v>166</v>
       </c>
       <c r="F104" s="123" t="s">
         <v>213</v>
       </c>
-      <c r="G104" s="231"/>
-      <c r="H104" s="231"/>
-      <c r="I104" s="231"/>
-      <c r="J104" s="231"/>
-      <c r="K104" s="231"/>
-      <c r="L104" s="231"/>
-      <c r="M104" s="222"/>
+      <c r="G104" s="217"/>
+      <c r="H104" s="217"/>
+      <c r="I104" s="217"/>
+      <c r="J104" s="217"/>
+      <c r="K104" s="217"/>
+      <c r="L104" s="217"/>
+      <c r="M104" s="236"/>
     </row>
     <row r="105" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A105" s="213"/>
-      <c r="B105" s="219"/>
-      <c r="C105" s="234"/>
+      <c r="A105" s="232"/>
+      <c r="B105" s="226"/>
+      <c r="C105" s="229"/>
       <c r="D105" s="240"/>
-      <c r="E105" s="237"/>
+      <c r="E105" s="234"/>
       <c r="F105" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G105" s="231"/>
-      <c r="H105" s="231"/>
-      <c r="I105" s="231"/>
-      <c r="J105" s="231"/>
-      <c r="K105" s="231"/>
-      <c r="L105" s="231"/>
-      <c r="M105" s="222"/>
+      <c r="G105" s="217"/>
+      <c r="H105" s="217"/>
+      <c r="I105" s="217"/>
+      <c r="J105" s="217"/>
+      <c r="K105" s="217"/>
+      <c r="L105" s="217"/>
+      <c r="M105" s="236"/>
     </row>
     <row r="106" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A106" s="213"/>
-      <c r="B106" s="219"/>
-      <c r="C106" s="234"/>
+      <c r="A106" s="232"/>
+      <c r="B106" s="226"/>
+      <c r="C106" s="229"/>
       <c r="D106" s="240"/>
       <c r="E106" s="121" t="s">
         <v>167</v>
@@ -5542,54 +5981,54 @@
       <c r="F106" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G106" s="231"/>
-      <c r="H106" s="231"/>
-      <c r="I106" s="231"/>
-      <c r="J106" s="231"/>
-      <c r="K106" s="231"/>
-      <c r="L106" s="231"/>
-      <c r="M106" s="222"/>
+      <c r="G106" s="217"/>
+      <c r="H106" s="217"/>
+      <c r="I106" s="217"/>
+      <c r="J106" s="217"/>
+      <c r="K106" s="217"/>
+      <c r="L106" s="217"/>
+      <c r="M106" s="236"/>
     </row>
     <row r="107" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A107" s="213"/>
-      <c r="B107" s="219"/>
-      <c r="C107" s="234"/>
+      <c r="A107" s="232"/>
+      <c r="B107" s="226"/>
+      <c r="C107" s="229"/>
       <c r="D107" s="240"/>
-      <c r="E107" s="236" t="s">
+      <c r="E107" s="233" t="s">
         <v>168</v>
       </c>
       <c r="F107" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G107" s="231"/>
-      <c r="H107" s="231"/>
-      <c r="I107" s="231"/>
-      <c r="J107" s="231"/>
-      <c r="K107" s="231"/>
-      <c r="L107" s="231"/>
-      <c r="M107" s="222"/>
+      <c r="G107" s="217"/>
+      <c r="H107" s="217"/>
+      <c r="I107" s="217"/>
+      <c r="J107" s="217"/>
+      <c r="K107" s="217"/>
+      <c r="L107" s="217"/>
+      <c r="M107" s="236"/>
     </row>
     <row r="108" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A108" s="213"/>
-      <c r="B108" s="219"/>
-      <c r="C108" s="235"/>
+      <c r="A108" s="232"/>
+      <c r="B108" s="226"/>
+      <c r="C108" s="230"/>
       <c r="D108" s="240"/>
-      <c r="E108" s="237"/>
+      <c r="E108" s="234"/>
       <c r="F108" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G108" s="231"/>
-      <c r="H108" s="231"/>
-      <c r="I108" s="231"/>
-      <c r="J108" s="231"/>
-      <c r="K108" s="231"/>
-      <c r="L108" s="231"/>
-      <c r="M108" s="222"/>
+      <c r="G108" s="217"/>
+      <c r="H108" s="217"/>
+      <c r="I108" s="217"/>
+      <c r="J108" s="217"/>
+      <c r="K108" s="217"/>
+      <c r="L108" s="217"/>
+      <c r="M108" s="236"/>
     </row>
     <row r="109" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A109" s="213"/>
-      <c r="B109" s="219"/>
-      <c r="C109" s="233" t="s">
+      <c r="A109" s="232"/>
+      <c r="B109" s="226"/>
+      <c r="C109" s="228" t="s">
         <v>181</v>
       </c>
       <c r="D109" s="240"/>
@@ -5599,18 +6038,18 @@
       <c r="F109" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G109" s="231"/>
-      <c r="H109" s="231"/>
-      <c r="I109" s="231"/>
-      <c r="J109" s="231"/>
-      <c r="K109" s="231"/>
-      <c r="L109" s="231"/>
-      <c r="M109" s="222"/>
+      <c r="G109" s="217"/>
+      <c r="H109" s="217"/>
+      <c r="I109" s="217"/>
+      <c r="J109" s="217"/>
+      <c r="K109" s="217"/>
+      <c r="L109" s="217"/>
+      <c r="M109" s="236"/>
     </row>
     <row r="110" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A110" s="213"/>
-      <c r="B110" s="219"/>
-      <c r="C110" s="234"/>
+      <c r="A110" s="232"/>
+      <c r="B110" s="226"/>
+      <c r="C110" s="229"/>
       <c r="D110" s="240"/>
       <c r="E110" s="121" t="s">
         <v>167</v>
@@ -5618,18 +6057,18 @@
       <c r="F110" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G110" s="231"/>
-      <c r="H110" s="231"/>
-      <c r="I110" s="231"/>
-      <c r="J110" s="231"/>
-      <c r="K110" s="231"/>
-      <c r="L110" s="231"/>
-      <c r="M110" s="222"/>
+      <c r="G110" s="217"/>
+      <c r="H110" s="217"/>
+      <c r="I110" s="217"/>
+      <c r="J110" s="217"/>
+      <c r="K110" s="217"/>
+      <c r="L110" s="217"/>
+      <c r="M110" s="236"/>
     </row>
     <row r="111" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A111" s="213"/>
-      <c r="B111" s="219"/>
-      <c r="C111" s="235"/>
+      <c r="A111" s="232"/>
+      <c r="B111" s="226"/>
+      <c r="C111" s="230"/>
       <c r="D111" s="240"/>
       <c r="E111" s="121" t="s">
         <v>168</v>
@@ -5637,18 +6076,18 @@
       <c r="F111" s="123" t="s">
         <v>214</v>
       </c>
-      <c r="G111" s="231"/>
-      <c r="H111" s="231"/>
-      <c r="I111" s="231"/>
-      <c r="J111" s="231"/>
-      <c r="K111" s="231"/>
-      <c r="L111" s="231"/>
-      <c r="M111" s="222"/>
+      <c r="G111" s="217"/>
+      <c r="H111" s="217"/>
+      <c r="I111" s="217"/>
+      <c r="J111" s="217"/>
+      <c r="K111" s="217"/>
+      <c r="L111" s="217"/>
+      <c r="M111" s="236"/>
     </row>
     <row r="112" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A112" s="213"/>
-      <c r="B112" s="219"/>
-      <c r="C112" s="233" t="s">
+      <c r="A112" s="232"/>
+      <c r="B112" s="226"/>
+      <c r="C112" s="228" t="s">
         <v>182</v>
       </c>
       <c r="D112" s="240"/>
@@ -5658,54 +6097,54 @@
       <c r="F112" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G112" s="231"/>
-      <c r="H112" s="231"/>
-      <c r="I112" s="231"/>
-      <c r="J112" s="231"/>
-      <c r="K112" s="231"/>
-      <c r="L112" s="231"/>
-      <c r="M112" s="222"/>
+      <c r="G112" s="217"/>
+      <c r="H112" s="217"/>
+      <c r="I112" s="217"/>
+      <c r="J112" s="217"/>
+      <c r="K112" s="217"/>
+      <c r="L112" s="217"/>
+      <c r="M112" s="236"/>
     </row>
     <row r="113" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A113" s="213"/>
-      <c r="B113" s="219"/>
-      <c r="C113" s="234"/>
+      <c r="A113" s="232"/>
+      <c r="B113" s="226"/>
+      <c r="C113" s="229"/>
       <c r="D113" s="240"/>
-      <c r="E113" s="236" t="s">
+      <c r="E113" s="233" t="s">
         <v>167</v>
       </c>
       <c r="F113" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G113" s="231"/>
-      <c r="H113" s="231"/>
-      <c r="I113" s="231"/>
-      <c r="J113" s="231"/>
-      <c r="K113" s="231"/>
-      <c r="L113" s="231"/>
-      <c r="M113" s="222"/>
+      <c r="G113" s="217"/>
+      <c r="H113" s="217"/>
+      <c r="I113" s="217"/>
+      <c r="J113" s="217"/>
+      <c r="K113" s="217"/>
+      <c r="L113" s="217"/>
+      <c r="M113" s="236"/>
     </row>
     <row r="114" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A114" s="213"/>
-      <c r="B114" s="219"/>
-      <c r="C114" s="234"/>
+      <c r="A114" s="232"/>
+      <c r="B114" s="226"/>
+      <c r="C114" s="229"/>
       <c r="D114" s="240"/>
-      <c r="E114" s="237"/>
+      <c r="E114" s="234"/>
       <c r="F114" s="123" t="s">
         <v>215</v>
       </c>
-      <c r="G114" s="231"/>
-      <c r="H114" s="231"/>
-      <c r="I114" s="231"/>
-      <c r="J114" s="231"/>
-      <c r="K114" s="231"/>
-      <c r="L114" s="231"/>
-      <c r="M114" s="222"/>
+      <c r="G114" s="217"/>
+      <c r="H114" s="217"/>
+      <c r="I114" s="217"/>
+      <c r="J114" s="217"/>
+      <c r="K114" s="217"/>
+      <c r="L114" s="217"/>
+      <c r="M114" s="236"/>
     </row>
     <row r="115" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A115" s="213"/>
-      <c r="B115" s="219"/>
-      <c r="C115" s="235"/>
+      <c r="A115" s="232"/>
+      <c r="B115" s="226"/>
+      <c r="C115" s="230"/>
       <c r="D115" s="240"/>
       <c r="E115" s="121" t="s">
         <v>168</v>
@@ -5713,18 +6152,18 @@
       <c r="F115" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G115" s="231"/>
-      <c r="H115" s="231"/>
-      <c r="I115" s="231"/>
-      <c r="J115" s="231"/>
-      <c r="K115" s="231"/>
-      <c r="L115" s="231"/>
-      <c r="M115" s="222"/>
+      <c r="G115" s="217"/>
+      <c r="H115" s="217"/>
+      <c r="I115" s="217"/>
+      <c r="J115" s="217"/>
+      <c r="K115" s="217"/>
+      <c r="L115" s="217"/>
+      <c r="M115" s="236"/>
     </row>
     <row r="116" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A116" s="213"/>
-      <c r="B116" s="219"/>
-      <c r="C116" s="233" t="s">
+      <c r="A116" s="232"/>
+      <c r="B116" s="226"/>
+      <c r="C116" s="228" t="s">
         <v>183</v>
       </c>
       <c r="D116" s="240"/>
@@ -5734,18 +6173,18 @@
       <c r="F116" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G116" s="231"/>
-      <c r="H116" s="231"/>
-      <c r="I116" s="231"/>
-      <c r="J116" s="231"/>
-      <c r="K116" s="231"/>
-      <c r="L116" s="231"/>
-      <c r="M116" s="222"/>
+      <c r="G116" s="217"/>
+      <c r="H116" s="217"/>
+      <c r="I116" s="217"/>
+      <c r="J116" s="217"/>
+      <c r="K116" s="217"/>
+      <c r="L116" s="217"/>
+      <c r="M116" s="236"/>
     </row>
     <row r="117" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A117" s="213"/>
-      <c r="B117" s="219"/>
-      <c r="C117" s="234"/>
+      <c r="A117" s="232"/>
+      <c r="B117" s="226"/>
+      <c r="C117" s="229"/>
       <c r="D117" s="240"/>
       <c r="E117" s="121" t="s">
         <v>167</v>
@@ -5753,18 +6192,18 @@
       <c r="F117" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G117" s="231"/>
-      <c r="H117" s="231"/>
-      <c r="I117" s="231"/>
-      <c r="J117" s="231"/>
-      <c r="K117" s="231"/>
-      <c r="L117" s="231"/>
-      <c r="M117" s="222"/>
+      <c r="G117" s="217"/>
+      <c r="H117" s="217"/>
+      <c r="I117" s="217"/>
+      <c r="J117" s="217"/>
+      <c r="K117" s="217"/>
+      <c r="L117" s="217"/>
+      <c r="M117" s="236"/>
     </row>
     <row r="118" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A118" s="213"/>
-      <c r="B118" s="219"/>
-      <c r="C118" s="235"/>
+      <c r="A118" s="232"/>
+      <c r="B118" s="226"/>
+      <c r="C118" s="230"/>
       <c r="D118" s="240"/>
       <c r="E118" s="121" t="s">
         <v>168</v>
@@ -5772,18 +6211,18 @@
       <c r="F118" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="G118" s="231"/>
-      <c r="H118" s="231"/>
-      <c r="I118" s="231"/>
-      <c r="J118" s="231"/>
-      <c r="K118" s="231"/>
-      <c r="L118" s="231"/>
-      <c r="M118" s="222"/>
+      <c r="G118" s="217"/>
+      <c r="H118" s="217"/>
+      <c r="I118" s="217"/>
+      <c r="J118" s="217"/>
+      <c r="K118" s="217"/>
+      <c r="L118" s="217"/>
+      <c r="M118" s="236"/>
     </row>
     <row r="119" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A119" s="213"/>
-      <c r="B119" s="219"/>
-      <c r="C119" s="233" t="s">
+      <c r="A119" s="232"/>
+      <c r="B119" s="226"/>
+      <c r="C119" s="228" t="s">
         <v>184</v>
       </c>
       <c r="D119" s="240"/>
@@ -5793,18 +6232,18 @@
       <c r="F119" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G119" s="231"/>
-      <c r="H119" s="231"/>
-      <c r="I119" s="231"/>
-      <c r="J119" s="231"/>
-      <c r="K119" s="231"/>
-      <c r="L119" s="231"/>
-      <c r="M119" s="222"/>
+      <c r="G119" s="217"/>
+      <c r="H119" s="217"/>
+      <c r="I119" s="217"/>
+      <c r="J119" s="217"/>
+      <c r="K119" s="217"/>
+      <c r="L119" s="217"/>
+      <c r="M119" s="236"/>
     </row>
     <row r="120" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A120" s="213"/>
-      <c r="B120" s="219"/>
-      <c r="C120" s="234"/>
+      <c r="A120" s="232"/>
+      <c r="B120" s="226"/>
+      <c r="C120" s="229"/>
       <c r="D120" s="240"/>
       <c r="E120" s="121" t="s">
         <v>167</v>
@@ -5812,18 +6251,18 @@
       <c r="F120" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="G120" s="231"/>
-      <c r="H120" s="231"/>
-      <c r="I120" s="231"/>
-      <c r="J120" s="231"/>
-      <c r="K120" s="231"/>
-      <c r="L120" s="231"/>
-      <c r="M120" s="222"/>
+      <c r="G120" s="217"/>
+      <c r="H120" s="217"/>
+      <c r="I120" s="217"/>
+      <c r="J120" s="217"/>
+      <c r="K120" s="217"/>
+      <c r="L120" s="217"/>
+      <c r="M120" s="236"/>
     </row>
     <row r="121" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A121" s="213"/>
-      <c r="B121" s="219"/>
-      <c r="C121" s="235"/>
+      <c r="A121" s="232"/>
+      <c r="B121" s="226"/>
+      <c r="C121" s="230"/>
       <c r="D121" s="240"/>
       <c r="E121" s="121" t="s">
         <v>168</v>
@@ -5831,18 +6270,18 @@
       <c r="F121" s="123" t="s">
         <v>210</v>
       </c>
-      <c r="G121" s="231"/>
-      <c r="H121" s="231"/>
-      <c r="I121" s="231"/>
-      <c r="J121" s="231"/>
-      <c r="K121" s="231"/>
-      <c r="L121" s="231"/>
-      <c r="M121" s="222"/>
+      <c r="G121" s="217"/>
+      <c r="H121" s="217"/>
+      <c r="I121" s="217"/>
+      <c r="J121" s="217"/>
+      <c r="K121" s="217"/>
+      <c r="L121" s="217"/>
+      <c r="M121" s="236"/>
     </row>
     <row r="122" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A122" s="213"/>
-      <c r="B122" s="219"/>
-      <c r="C122" s="233" t="s">
+      <c r="A122" s="232"/>
+      <c r="B122" s="226"/>
+      <c r="C122" s="228" t="s">
         <v>185</v>
       </c>
       <c r="D122" s="240"/>
@@ -5852,18 +6291,18 @@
       <c r="F122" s="123" t="s">
         <v>198</v>
       </c>
-      <c r="G122" s="231"/>
-      <c r="H122" s="231"/>
-      <c r="I122" s="231"/>
-      <c r="J122" s="231"/>
-      <c r="K122" s="231"/>
-      <c r="L122" s="231"/>
-      <c r="M122" s="222"/>
+      <c r="G122" s="217"/>
+      <c r="H122" s="217"/>
+      <c r="I122" s="217"/>
+      <c r="J122" s="217"/>
+      <c r="K122" s="217"/>
+      <c r="L122" s="217"/>
+      <c r="M122" s="236"/>
     </row>
     <row r="123" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A123" s="213"/>
-      <c r="B123" s="219"/>
-      <c r="C123" s="234"/>
+      <c r="A123" s="232"/>
+      <c r="B123" s="226"/>
+      <c r="C123" s="229"/>
       <c r="D123" s="240"/>
       <c r="E123" s="121" t="s">
         <v>167</v>
@@ -5871,18 +6310,18 @@
       <c r="F123" s="123" t="s">
         <v>216</v>
       </c>
-      <c r="G123" s="231"/>
-      <c r="H123" s="231"/>
-      <c r="I123" s="231"/>
-      <c r="J123" s="231"/>
-      <c r="K123" s="231"/>
-      <c r="L123" s="231"/>
-      <c r="M123" s="222"/>
+      <c r="G123" s="217"/>
+      <c r="H123" s="217"/>
+      <c r="I123" s="217"/>
+      <c r="J123" s="217"/>
+      <c r="K123" s="217"/>
+      <c r="L123" s="217"/>
+      <c r="M123" s="236"/>
     </row>
     <row r="124" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A124" s="213"/>
-      <c r="B124" s="219"/>
-      <c r="C124" s="235"/>
+      <c r="A124" s="232"/>
+      <c r="B124" s="226"/>
+      <c r="C124" s="230"/>
       <c r="D124" s="240"/>
       <c r="E124" s="121" t="s">
         <v>168</v>
@@ -5890,18 +6329,18 @@
       <c r="F124" s="123" t="s">
         <v>208</v>
       </c>
-      <c r="G124" s="231"/>
-      <c r="H124" s="231"/>
-      <c r="I124" s="231"/>
-      <c r="J124" s="231"/>
-      <c r="K124" s="231"/>
-      <c r="L124" s="231"/>
-      <c r="M124" s="222"/>
+      <c r="G124" s="217"/>
+      <c r="H124" s="217"/>
+      <c r="I124" s="217"/>
+      <c r="J124" s="217"/>
+      <c r="K124" s="217"/>
+      <c r="L124" s="217"/>
+      <c r="M124" s="236"/>
     </row>
     <row r="125" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A125" s="213"/>
-      <c r="B125" s="219"/>
-      <c r="C125" s="233" t="s">
+      <c r="A125" s="232"/>
+      <c r="B125" s="226"/>
+      <c r="C125" s="228" t="s">
         <v>186</v>
       </c>
       <c r="D125" s="240"/>
@@ -5911,18 +6350,18 @@
       <c r="F125" s="123" t="s">
         <v>213</v>
       </c>
-      <c r="G125" s="231"/>
-      <c r="H125" s="231"/>
-      <c r="I125" s="231"/>
-      <c r="J125" s="231"/>
-      <c r="K125" s="231"/>
-      <c r="L125" s="231"/>
-      <c r="M125" s="222"/>
+      <c r="G125" s="217"/>
+      <c r="H125" s="217"/>
+      <c r="I125" s="217"/>
+      <c r="J125" s="217"/>
+      <c r="K125" s="217"/>
+      <c r="L125" s="217"/>
+      <c r="M125" s="236"/>
     </row>
     <row r="126" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A126" s="213"/>
-      <c r="B126" s="219"/>
-      <c r="C126" s="234"/>
+      <c r="A126" s="232"/>
+      <c r="B126" s="226"/>
+      <c r="C126" s="229"/>
       <c r="D126" s="240"/>
       <c r="E126" s="121" t="s">
         <v>167</v>
@@ -5930,18 +6369,18 @@
       <c r="F126" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G126" s="231"/>
-      <c r="H126" s="231"/>
-      <c r="I126" s="231"/>
-      <c r="J126" s="231"/>
-      <c r="K126" s="231"/>
-      <c r="L126" s="231"/>
-      <c r="M126" s="222"/>
+      <c r="G126" s="217"/>
+      <c r="H126" s="217"/>
+      <c r="I126" s="217"/>
+      <c r="J126" s="217"/>
+      <c r="K126" s="217"/>
+      <c r="L126" s="217"/>
+      <c r="M126" s="236"/>
     </row>
     <row r="127" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A127" s="213"/>
-      <c r="B127" s="219"/>
-      <c r="C127" s="235"/>
+      <c r="A127" s="232"/>
+      <c r="B127" s="226"/>
+      <c r="C127" s="230"/>
       <c r="D127" s="240"/>
       <c r="E127" s="121" t="s">
         <v>168</v>
@@ -5949,18 +6388,18 @@
       <c r="F127" s="123" t="s">
         <v>215</v>
       </c>
-      <c r="G127" s="231"/>
-      <c r="H127" s="231"/>
-      <c r="I127" s="231"/>
-      <c r="J127" s="231"/>
-      <c r="K127" s="231"/>
-      <c r="L127" s="231"/>
-      <c r="M127" s="222"/>
+      <c r="G127" s="217"/>
+      <c r="H127" s="217"/>
+      <c r="I127" s="217"/>
+      <c r="J127" s="217"/>
+      <c r="K127" s="217"/>
+      <c r="L127" s="217"/>
+      <c r="M127" s="236"/>
     </row>
     <row r="128" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A128" s="213"/>
-      <c r="B128" s="219"/>
-      <c r="C128" s="233" t="s">
+      <c r="A128" s="232"/>
+      <c r="B128" s="226"/>
+      <c r="C128" s="228" t="s">
         <v>187</v>
       </c>
       <c r="D128" s="240"/>
@@ -5970,18 +6409,18 @@
       <c r="F128" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G128" s="231"/>
-      <c r="H128" s="231"/>
-      <c r="I128" s="231"/>
-      <c r="J128" s="231"/>
-      <c r="K128" s="231"/>
-      <c r="L128" s="231"/>
-      <c r="M128" s="222"/>
+      <c r="G128" s="217"/>
+      <c r="H128" s="217"/>
+      <c r="I128" s="217"/>
+      <c r="J128" s="217"/>
+      <c r="K128" s="217"/>
+      <c r="L128" s="217"/>
+      <c r="M128" s="236"/>
     </row>
     <row r="129" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A129" s="213"/>
-      <c r="B129" s="219"/>
-      <c r="C129" s="234"/>
+      <c r="A129" s="232"/>
+      <c r="B129" s="226"/>
+      <c r="C129" s="229"/>
       <c r="D129" s="240"/>
       <c r="E129" s="121" t="s">
         <v>167</v>
@@ -5989,18 +6428,18 @@
       <c r="F129" s="123" t="s">
         <v>217</v>
       </c>
-      <c r="G129" s="231"/>
-      <c r="H129" s="231"/>
-      <c r="I129" s="231"/>
-      <c r="J129" s="231"/>
-      <c r="K129" s="231"/>
-      <c r="L129" s="231"/>
-      <c r="M129" s="222"/>
+      <c r="G129" s="217"/>
+      <c r="H129" s="217"/>
+      <c r="I129" s="217"/>
+      <c r="J129" s="217"/>
+      <c r="K129" s="217"/>
+      <c r="L129" s="217"/>
+      <c r="M129" s="236"/>
     </row>
     <row r="130" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A130" s="213"/>
-      <c r="B130" s="219"/>
-      <c r="C130" s="235"/>
+      <c r="A130" s="232"/>
+      <c r="B130" s="226"/>
+      <c r="C130" s="230"/>
       <c r="D130" s="240"/>
       <c r="E130" s="121" t="s">
         <v>168</v>
@@ -6008,18 +6447,18 @@
       <c r="F130" s="123" t="s">
         <v>215</v>
       </c>
-      <c r="G130" s="231"/>
-      <c r="H130" s="231"/>
-      <c r="I130" s="231"/>
-      <c r="J130" s="231"/>
-      <c r="K130" s="231"/>
-      <c r="L130" s="231"/>
-      <c r="M130" s="222"/>
+      <c r="G130" s="217"/>
+      <c r="H130" s="217"/>
+      <c r="I130" s="217"/>
+      <c r="J130" s="217"/>
+      <c r="K130" s="217"/>
+      <c r="L130" s="217"/>
+      <c r="M130" s="236"/>
     </row>
     <row r="131" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A131" s="213"/>
-      <c r="B131" s="219"/>
-      <c r="C131" s="233" t="s">
+      <c r="A131" s="232"/>
+      <c r="B131" s="226"/>
+      <c r="C131" s="228" t="s">
         <v>188</v>
       </c>
       <c r="D131" s="240"/>
@@ -6029,18 +6468,18 @@
       <c r="F131" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G131" s="231"/>
-      <c r="H131" s="231"/>
-      <c r="I131" s="231"/>
-      <c r="J131" s="231"/>
-      <c r="K131" s="231"/>
-      <c r="L131" s="231"/>
-      <c r="M131" s="222"/>
+      <c r="G131" s="217"/>
+      <c r="H131" s="217"/>
+      <c r="I131" s="217"/>
+      <c r="J131" s="217"/>
+      <c r="K131" s="217"/>
+      <c r="L131" s="217"/>
+      <c r="M131" s="236"/>
     </row>
     <row r="132" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A132" s="213"/>
-      <c r="B132" s="219"/>
-      <c r="C132" s="234"/>
+      <c r="A132" s="232"/>
+      <c r="B132" s="226"/>
+      <c r="C132" s="229"/>
       <c r="D132" s="240"/>
       <c r="E132" s="121" t="s">
         <v>167</v>
@@ -6048,18 +6487,18 @@
       <c r="F132" s="123" t="s">
         <v>218</v>
       </c>
-      <c r="G132" s="231"/>
-      <c r="H132" s="231"/>
-      <c r="I132" s="231"/>
-      <c r="J132" s="231"/>
-      <c r="K132" s="231"/>
-      <c r="L132" s="231"/>
-      <c r="M132" s="222"/>
+      <c r="G132" s="217"/>
+      <c r="H132" s="217"/>
+      <c r="I132" s="217"/>
+      <c r="J132" s="217"/>
+      <c r="K132" s="217"/>
+      <c r="L132" s="217"/>
+      <c r="M132" s="236"/>
     </row>
     <row r="133" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A133" s="213"/>
-      <c r="B133" s="219"/>
-      <c r="C133" s="235"/>
+      <c r="A133" s="232"/>
+      <c r="B133" s="226"/>
+      <c r="C133" s="230"/>
       <c r="D133" s="240"/>
       <c r="E133" s="121" t="s">
         <v>168</v>
@@ -6067,18 +6506,18 @@
       <c r="F133" s="123" t="s">
         <v>212</v>
       </c>
-      <c r="G133" s="231"/>
-      <c r="H133" s="231"/>
-      <c r="I133" s="231"/>
-      <c r="J133" s="231"/>
-      <c r="K133" s="231"/>
-      <c r="L133" s="231"/>
-      <c r="M133" s="222"/>
+      <c r="G133" s="217"/>
+      <c r="H133" s="217"/>
+      <c r="I133" s="217"/>
+      <c r="J133" s="217"/>
+      <c r="K133" s="217"/>
+      <c r="L133" s="217"/>
+      <c r="M133" s="236"/>
     </row>
     <row r="134" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A134" s="213"/>
-      <c r="B134" s="219"/>
-      <c r="C134" s="233" t="s">
+      <c r="A134" s="232"/>
+      <c r="B134" s="226"/>
+      <c r="C134" s="228" t="s">
         <v>189</v>
       </c>
       <c r="D134" s="240"/>
@@ -6088,18 +6527,18 @@
       <c r="F134" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G134" s="231"/>
-      <c r="H134" s="231"/>
-      <c r="I134" s="231"/>
-      <c r="J134" s="231"/>
-      <c r="K134" s="231"/>
-      <c r="L134" s="231"/>
-      <c r="M134" s="222"/>
+      <c r="G134" s="217"/>
+      <c r="H134" s="217"/>
+      <c r="I134" s="217"/>
+      <c r="J134" s="217"/>
+      <c r="K134" s="217"/>
+      <c r="L134" s="217"/>
+      <c r="M134" s="236"/>
     </row>
     <row r="135" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A135" s="213"/>
-      <c r="B135" s="219"/>
-      <c r="C135" s="234"/>
+      <c r="A135" s="232"/>
+      <c r="B135" s="226"/>
+      <c r="C135" s="229"/>
       <c r="D135" s="240"/>
       <c r="E135" s="121" t="s">
         <v>167</v>
@@ -6107,18 +6546,18 @@
       <c r="F135" s="123" t="s">
         <v>219</v>
       </c>
-      <c r="G135" s="231"/>
-      <c r="H135" s="231"/>
-      <c r="I135" s="231"/>
-      <c r="J135" s="231"/>
-      <c r="K135" s="231"/>
-      <c r="L135" s="231"/>
-      <c r="M135" s="222"/>
+      <c r="G135" s="217"/>
+      <c r="H135" s="217"/>
+      <c r="I135" s="217"/>
+      <c r="J135" s="217"/>
+      <c r="K135" s="217"/>
+      <c r="L135" s="217"/>
+      <c r="M135" s="236"/>
     </row>
     <row r="136" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A136" s="213"/>
-      <c r="B136" s="219"/>
-      <c r="C136" s="235"/>
+      <c r="A136" s="232"/>
+      <c r="B136" s="226"/>
+      <c r="C136" s="230"/>
       <c r="D136" s="240"/>
       <c r="E136" s="121" t="s">
         <v>168</v>
@@ -6126,18 +6565,18 @@
       <c r="F136" s="123" t="s">
         <v>215</v>
       </c>
-      <c r="G136" s="231"/>
-      <c r="H136" s="231"/>
-      <c r="I136" s="231"/>
-      <c r="J136" s="231"/>
-      <c r="K136" s="231"/>
-      <c r="L136" s="231"/>
-      <c r="M136" s="222"/>
+      <c r="G136" s="217"/>
+      <c r="H136" s="217"/>
+      <c r="I136" s="217"/>
+      <c r="J136" s="217"/>
+      <c r="K136" s="217"/>
+      <c r="L136" s="217"/>
+      <c r="M136" s="236"/>
     </row>
     <row r="137" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A137" s="213"/>
-      <c r="B137" s="219"/>
-      <c r="C137" s="233" t="s">
+      <c r="A137" s="232"/>
+      <c r="B137" s="226"/>
+      <c r="C137" s="228" t="s">
         <v>190</v>
       </c>
       <c r="D137" s="240"/>
@@ -6147,18 +6586,18 @@
       <c r="F137" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G137" s="231"/>
-      <c r="H137" s="231"/>
-      <c r="I137" s="231"/>
-      <c r="J137" s="231"/>
-      <c r="K137" s="231"/>
-      <c r="L137" s="231"/>
-      <c r="M137" s="222"/>
+      <c r="G137" s="217"/>
+      <c r="H137" s="217"/>
+      <c r="I137" s="217"/>
+      <c r="J137" s="217"/>
+      <c r="K137" s="217"/>
+      <c r="L137" s="217"/>
+      <c r="M137" s="236"/>
     </row>
     <row r="138" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A138" s="213"/>
-      <c r="B138" s="219"/>
-      <c r="C138" s="234"/>
+      <c r="A138" s="232"/>
+      <c r="B138" s="226"/>
+      <c r="C138" s="229"/>
       <c r="D138" s="240"/>
       <c r="E138" s="121" t="s">
         <v>167</v>
@@ -6166,18 +6605,18 @@
       <c r="F138" s="123" t="s">
         <v>218</v>
       </c>
-      <c r="G138" s="231"/>
-      <c r="H138" s="231"/>
-      <c r="I138" s="231"/>
-      <c r="J138" s="231"/>
-      <c r="K138" s="231"/>
-      <c r="L138" s="231"/>
-      <c r="M138" s="222"/>
+      <c r="G138" s="217"/>
+      <c r="H138" s="217"/>
+      <c r="I138" s="217"/>
+      <c r="J138" s="217"/>
+      <c r="K138" s="217"/>
+      <c r="L138" s="217"/>
+      <c r="M138" s="236"/>
     </row>
     <row r="139" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A139" s="213"/>
-      <c r="B139" s="219"/>
-      <c r="C139" s="235"/>
+      <c r="A139" s="232"/>
+      <c r="B139" s="226"/>
+      <c r="C139" s="230"/>
       <c r="D139" s="240"/>
       <c r="E139" s="121" t="s">
         <v>168</v>
@@ -6185,18 +6624,18 @@
       <c r="F139" s="123" t="s">
         <v>215</v>
       </c>
-      <c r="G139" s="231"/>
-      <c r="H139" s="231"/>
-      <c r="I139" s="231"/>
-      <c r="J139" s="231"/>
-      <c r="K139" s="231"/>
-      <c r="L139" s="231"/>
-      <c r="M139" s="222"/>
+      <c r="G139" s="217"/>
+      <c r="H139" s="217"/>
+      <c r="I139" s="217"/>
+      <c r="J139" s="217"/>
+      <c r="K139" s="217"/>
+      <c r="L139" s="217"/>
+      <c r="M139" s="236"/>
     </row>
     <row r="140" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A140" s="213"/>
-      <c r="B140" s="219"/>
-      <c r="C140" s="233" t="s">
+      <c r="A140" s="232"/>
+      <c r="B140" s="226"/>
+      <c r="C140" s="228" t="s">
         <v>191</v>
       </c>
       <c r="D140" s="240"/>
@@ -6206,18 +6645,18 @@
       <c r="F140" s="123" t="s">
         <v>220</v>
       </c>
-      <c r="G140" s="231"/>
-      <c r="H140" s="231"/>
-      <c r="I140" s="231"/>
-      <c r="J140" s="231"/>
-      <c r="K140" s="231"/>
-      <c r="L140" s="231"/>
-      <c r="M140" s="222"/>
+      <c r="G140" s="217"/>
+      <c r="H140" s="217"/>
+      <c r="I140" s="217"/>
+      <c r="J140" s="217"/>
+      <c r="K140" s="217"/>
+      <c r="L140" s="217"/>
+      <c r="M140" s="236"/>
     </row>
     <row r="141" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A141" s="213"/>
-      <c r="B141" s="219"/>
-      <c r="C141" s="234"/>
+      <c r="A141" s="232"/>
+      <c r="B141" s="226"/>
+      <c r="C141" s="229"/>
       <c r="D141" s="240"/>
       <c r="E141" s="121" t="s">
         <v>167</v>
@@ -6225,18 +6664,18 @@
       <c r="F141" s="123" t="s">
         <v>221</v>
       </c>
-      <c r="G141" s="231"/>
-      <c r="H141" s="231"/>
-      <c r="I141" s="231"/>
-      <c r="J141" s="231"/>
-      <c r="K141" s="231"/>
-      <c r="L141" s="231"/>
-      <c r="M141" s="222"/>
+      <c r="G141" s="217"/>
+      <c r="H141" s="217"/>
+      <c r="I141" s="217"/>
+      <c r="J141" s="217"/>
+      <c r="K141" s="217"/>
+      <c r="L141" s="217"/>
+      <c r="M141" s="236"/>
     </row>
     <row r="142" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A142" s="213"/>
-      <c r="B142" s="219"/>
-      <c r="C142" s="235"/>
+      <c r="A142" s="232"/>
+      <c r="B142" s="226"/>
+      <c r="C142" s="230"/>
       <c r="D142" s="240"/>
       <c r="E142" s="121" t="s">
         <v>168</v>
@@ -6244,18 +6683,18 @@
       <c r="F142" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G142" s="231"/>
-      <c r="H142" s="231"/>
-      <c r="I142" s="231"/>
-      <c r="J142" s="231"/>
-      <c r="K142" s="231"/>
-      <c r="L142" s="231"/>
-      <c r="M142" s="222"/>
+      <c r="G142" s="217"/>
+      <c r="H142" s="217"/>
+      <c r="I142" s="217"/>
+      <c r="J142" s="217"/>
+      <c r="K142" s="217"/>
+      <c r="L142" s="217"/>
+      <c r="M142" s="236"/>
     </row>
     <row r="143" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A143" s="213"/>
-      <c r="B143" s="219"/>
-      <c r="C143" s="233" t="s">
+      <c r="A143" s="232"/>
+      <c r="B143" s="226"/>
+      <c r="C143" s="228" t="s">
         <v>192</v>
       </c>
       <c r="D143" s="240"/>
@@ -6265,18 +6704,18 @@
       <c r="F143" s="123" t="s">
         <v>199</v>
       </c>
-      <c r="G143" s="231"/>
-      <c r="H143" s="231"/>
-      <c r="I143" s="231"/>
-      <c r="J143" s="231"/>
-      <c r="K143" s="231"/>
-      <c r="L143" s="231"/>
-      <c r="M143" s="222"/>
+      <c r="G143" s="217"/>
+      <c r="H143" s="217"/>
+      <c r="I143" s="217"/>
+      <c r="J143" s="217"/>
+      <c r="K143" s="217"/>
+      <c r="L143" s="217"/>
+      <c r="M143" s="236"/>
     </row>
     <row r="144" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A144" s="213"/>
-      <c r="B144" s="219"/>
-      <c r="C144" s="234"/>
+      <c r="A144" s="232"/>
+      <c r="B144" s="226"/>
+      <c r="C144" s="229"/>
       <c r="D144" s="240"/>
       <c r="E144" s="121" t="s">
         <v>167</v>
@@ -6284,18 +6723,18 @@
       <c r="F144" s="123" t="s">
         <v>204</v>
       </c>
-      <c r="G144" s="231"/>
-      <c r="H144" s="231"/>
-      <c r="I144" s="231"/>
-      <c r="J144" s="231"/>
-      <c r="K144" s="231"/>
-      <c r="L144" s="231"/>
-      <c r="M144" s="222"/>
+      <c r="G144" s="217"/>
+      <c r="H144" s="217"/>
+      <c r="I144" s="217"/>
+      <c r="J144" s="217"/>
+      <c r="K144" s="217"/>
+      <c r="L144" s="217"/>
+      <c r="M144" s="236"/>
     </row>
     <row r="145" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A145" s="213"/>
-      <c r="B145" s="219"/>
-      <c r="C145" s="235"/>
+      <c r="A145" s="232"/>
+      <c r="B145" s="226"/>
+      <c r="C145" s="230"/>
       <c r="D145" s="240"/>
       <c r="E145" s="121" t="s">
         <v>168</v>
@@ -6303,18 +6742,18 @@
       <c r="F145" s="123" t="s">
         <v>208</v>
       </c>
-      <c r="G145" s="231"/>
-      <c r="H145" s="231"/>
-      <c r="I145" s="231"/>
-      <c r="J145" s="231"/>
-      <c r="K145" s="231"/>
-      <c r="L145" s="231"/>
-      <c r="M145" s="222"/>
+      <c r="G145" s="217"/>
+      <c r="H145" s="217"/>
+      <c r="I145" s="217"/>
+      <c r="J145" s="217"/>
+      <c r="K145" s="217"/>
+      <c r="L145" s="217"/>
+      <c r="M145" s="236"/>
     </row>
     <row r="146" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A146" s="213"/>
-      <c r="B146" s="219"/>
-      <c r="C146" s="233" t="s">
+      <c r="A146" s="232"/>
+      <c r="B146" s="226"/>
+      <c r="C146" s="228" t="s">
         <v>193</v>
       </c>
       <c r="D146" s="240"/>
@@ -6324,18 +6763,18 @@
       <c r="F146" s="123" t="s">
         <v>200</v>
       </c>
-      <c r="G146" s="231"/>
-      <c r="H146" s="231"/>
-      <c r="I146" s="231"/>
-      <c r="J146" s="231"/>
-      <c r="K146" s="231"/>
-      <c r="L146" s="231"/>
-      <c r="M146" s="222"/>
+      <c r="G146" s="217"/>
+      <c r="H146" s="217"/>
+      <c r="I146" s="217"/>
+      <c r="J146" s="217"/>
+      <c r="K146" s="217"/>
+      <c r="L146" s="217"/>
+      <c r="M146" s="236"/>
     </row>
     <row r="147" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A147" s="213"/>
-      <c r="B147" s="219"/>
-      <c r="C147" s="234"/>
+      <c r="A147" s="232"/>
+      <c r="B147" s="226"/>
+      <c r="C147" s="229"/>
       <c r="D147" s="240"/>
       <c r="E147" s="121" t="s">
         <v>167</v>
@@ -6343,54 +6782,54 @@
       <c r="F147" s="123" t="s">
         <v>202</v>
       </c>
-      <c r="G147" s="231"/>
-      <c r="H147" s="231"/>
-      <c r="I147" s="231"/>
-      <c r="J147" s="231"/>
-      <c r="K147" s="231"/>
-      <c r="L147" s="231"/>
-      <c r="M147" s="222"/>
+      <c r="G147" s="217"/>
+      <c r="H147" s="217"/>
+      <c r="I147" s="217"/>
+      <c r="J147" s="217"/>
+      <c r="K147" s="217"/>
+      <c r="L147" s="217"/>
+      <c r="M147" s="236"/>
     </row>
     <row r="148" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A148" s="213"/>
-      <c r="B148" s="219"/>
-      <c r="C148" s="234"/>
+      <c r="A148" s="232"/>
+      <c r="B148" s="226"/>
+      <c r="C148" s="229"/>
       <c r="D148" s="240"/>
-      <c r="E148" s="236" t="s">
+      <c r="E148" s="233" t="s">
         <v>168</v>
       </c>
       <c r="F148" s="123" t="s">
         <v>218</v>
       </c>
-      <c r="G148" s="231"/>
-      <c r="H148" s="231"/>
-      <c r="I148" s="231"/>
-      <c r="J148" s="231"/>
-      <c r="K148" s="231"/>
-      <c r="L148" s="231"/>
-      <c r="M148" s="222"/>
+      <c r="G148" s="217"/>
+      <c r="H148" s="217"/>
+      <c r="I148" s="217"/>
+      <c r="J148" s="217"/>
+      <c r="K148" s="217"/>
+      <c r="L148" s="217"/>
+      <c r="M148" s="236"/>
     </row>
     <row r="149" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A149" s="213"/>
-      <c r="B149" s="219"/>
-      <c r="C149" s="235"/>
+      <c r="A149" s="232"/>
+      <c r="B149" s="226"/>
+      <c r="C149" s="230"/>
       <c r="D149" s="240"/>
-      <c r="E149" s="237"/>
+      <c r="E149" s="234"/>
       <c r="F149" s="123" t="s">
         <v>205</v>
       </c>
-      <c r="G149" s="231"/>
-      <c r="H149" s="231"/>
-      <c r="I149" s="231"/>
-      <c r="J149" s="231"/>
-      <c r="K149" s="231"/>
-      <c r="L149" s="231"/>
-      <c r="M149" s="222"/>
+      <c r="G149" s="217"/>
+      <c r="H149" s="217"/>
+      <c r="I149" s="217"/>
+      <c r="J149" s="217"/>
+      <c r="K149" s="217"/>
+      <c r="L149" s="217"/>
+      <c r="M149" s="236"/>
     </row>
     <row r="150" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A150" s="213"/>
-      <c r="B150" s="219"/>
-      <c r="C150" s="233" t="s">
+      <c r="A150" s="232"/>
+      <c r="B150" s="226"/>
+      <c r="C150" s="228" t="s">
         <v>194</v>
       </c>
       <c r="D150" s="240"/>
@@ -6400,18 +6839,18 @@
       <c r="F150" s="123" t="s">
         <v>209</v>
       </c>
-      <c r="G150" s="231"/>
-      <c r="H150" s="231"/>
-      <c r="I150" s="231"/>
-      <c r="J150" s="231"/>
-      <c r="K150" s="231"/>
-      <c r="L150" s="231"/>
-      <c r="M150" s="222"/>
+      <c r="G150" s="217"/>
+      <c r="H150" s="217"/>
+      <c r="I150" s="217"/>
+      <c r="J150" s="217"/>
+      <c r="K150" s="217"/>
+      <c r="L150" s="217"/>
+      <c r="M150" s="236"/>
     </row>
     <row r="151" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A151" s="213"/>
-      <c r="B151" s="219"/>
-      <c r="C151" s="234"/>
+      <c r="A151" s="232"/>
+      <c r="B151" s="226"/>
+      <c r="C151" s="229"/>
       <c r="D151" s="240"/>
       <c r="E151" s="121" t="s">
         <v>167</v>
@@ -6419,18 +6858,18 @@
       <c r="F151" s="123" t="s">
         <v>222</v>
       </c>
-      <c r="G151" s="231"/>
-      <c r="H151" s="231"/>
-      <c r="I151" s="231"/>
-      <c r="J151" s="231"/>
-      <c r="K151" s="231"/>
-      <c r="L151" s="231"/>
-      <c r="M151" s="222"/>
+      <c r="G151" s="217"/>
+      <c r="H151" s="217"/>
+      <c r="I151" s="217"/>
+      <c r="J151" s="217"/>
+      <c r="K151" s="217"/>
+      <c r="L151" s="217"/>
+      <c r="M151" s="236"/>
     </row>
     <row r="152" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A152" s="213"/>
-      <c r="B152" s="219"/>
-      <c r="C152" s="235"/>
+      <c r="A152" s="232"/>
+      <c r="B152" s="226"/>
+      <c r="C152" s="230"/>
       <c r="D152" s="240"/>
       <c r="E152" s="121" t="s">
         <v>168</v>
@@ -6438,18 +6877,18 @@
       <c r="F152" s="123" t="s">
         <v>223</v>
       </c>
-      <c r="G152" s="231"/>
-      <c r="H152" s="231"/>
-      <c r="I152" s="231"/>
-      <c r="J152" s="231"/>
-      <c r="K152" s="231"/>
-      <c r="L152" s="231"/>
-      <c r="M152" s="222"/>
+      <c r="G152" s="217"/>
+      <c r="H152" s="217"/>
+      <c r="I152" s="217"/>
+      <c r="J152" s="217"/>
+      <c r="K152" s="217"/>
+      <c r="L152" s="217"/>
+      <c r="M152" s="236"/>
     </row>
     <row r="153" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A153" s="213"/>
-      <c r="B153" s="219"/>
-      <c r="C153" s="233" t="s">
+      <c r="A153" s="232"/>
+      <c r="B153" s="226"/>
+      <c r="C153" s="228" t="s">
         <v>195</v>
       </c>
       <c r="D153" s="240"/>
@@ -6459,18 +6898,18 @@
       <c r="F153" s="123" t="s">
         <v>224</v>
       </c>
-      <c r="G153" s="231"/>
-      <c r="H153" s="231"/>
-      <c r="I153" s="231"/>
-      <c r="J153" s="231"/>
-      <c r="K153" s="231"/>
-      <c r="L153" s="231"/>
-      <c r="M153" s="222"/>
+      <c r="G153" s="217"/>
+      <c r="H153" s="217"/>
+      <c r="I153" s="217"/>
+      <c r="J153" s="217"/>
+      <c r="K153" s="217"/>
+      <c r="L153" s="217"/>
+      <c r="M153" s="236"/>
     </row>
     <row r="154" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A154" s="213"/>
-      <c r="B154" s="219"/>
-      <c r="C154" s="234"/>
+      <c r="A154" s="232"/>
+      <c r="B154" s="226"/>
+      <c r="C154" s="229"/>
       <c r="D154" s="240"/>
       <c r="E154" s="121" t="s">
         <v>167</v>
@@ -6478,18 +6917,18 @@
       <c r="F154" s="123" t="s">
         <v>225</v>
       </c>
-      <c r="G154" s="231"/>
-      <c r="H154" s="231"/>
-      <c r="I154" s="231"/>
-      <c r="J154" s="231"/>
-      <c r="K154" s="231"/>
-      <c r="L154" s="231"/>
-      <c r="M154" s="222"/>
+      <c r="G154" s="217"/>
+      <c r="H154" s="217"/>
+      <c r="I154" s="217"/>
+      <c r="J154" s="217"/>
+      <c r="K154" s="217"/>
+      <c r="L154" s="217"/>
+      <c r="M154" s="236"/>
     </row>
     <row r="155" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A155" s="213"/>
-      <c r="B155" s="219"/>
-      <c r="C155" s="235"/>
+      <c r="A155" s="232"/>
+      <c r="B155" s="226"/>
+      <c r="C155" s="230"/>
       <c r="D155" s="240"/>
       <c r="E155" s="121" t="s">
         <v>168</v>
@@ -6497,109 +6936,109 @@
       <c r="F155" s="123" t="s">
         <v>226</v>
       </c>
-      <c r="G155" s="231"/>
-      <c r="H155" s="231"/>
-      <c r="I155" s="231"/>
-      <c r="J155" s="231"/>
-      <c r="K155" s="231"/>
-      <c r="L155" s="231"/>
-      <c r="M155" s="222"/>
+      <c r="G155" s="217"/>
+      <c r="H155" s="217"/>
+      <c r="I155" s="217"/>
+      <c r="J155" s="217"/>
+      <c r="K155" s="217"/>
+      <c r="L155" s="217"/>
+      <c r="M155" s="236"/>
     </row>
     <row r="156" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A156" s="213"/>
-      <c r="B156" s="219"/>
-      <c r="C156" s="233" t="s">
+      <c r="A156" s="232"/>
+      <c r="B156" s="226"/>
+      <c r="C156" s="228" t="s">
         <v>196</v>
       </c>
       <c r="D156" s="240"/>
-      <c r="E156" s="236" t="s">
+      <c r="E156" s="233" t="s">
         <v>166</v>
       </c>
       <c r="F156" s="123" t="s">
         <v>208</v>
       </c>
-      <c r="G156" s="231"/>
-      <c r="H156" s="231"/>
-      <c r="I156" s="231"/>
-      <c r="J156" s="231"/>
-      <c r="K156" s="231"/>
-      <c r="L156" s="231"/>
-      <c r="M156" s="222"/>
+      <c r="G156" s="217"/>
+      <c r="H156" s="217"/>
+      <c r="I156" s="217"/>
+      <c r="J156" s="217"/>
+      <c r="K156" s="217"/>
+      <c r="L156" s="217"/>
+      <c r="M156" s="236"/>
     </row>
     <row r="157" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A157" s="213"/>
-      <c r="B157" s="219"/>
-      <c r="C157" s="234"/>
+      <c r="A157" s="232"/>
+      <c r="B157" s="226"/>
+      <c r="C157" s="229"/>
       <c r="D157" s="240"/>
-      <c r="E157" s="237"/>
+      <c r="E157" s="234"/>
       <c r="F157" s="123" t="s">
         <v>224</v>
       </c>
-      <c r="G157" s="231"/>
-      <c r="H157" s="231"/>
-      <c r="I157" s="231"/>
-      <c r="J157" s="231"/>
-      <c r="K157" s="231"/>
-      <c r="L157" s="231"/>
-      <c r="M157" s="222"/>
+      <c r="G157" s="217"/>
+      <c r="H157" s="217"/>
+      <c r="I157" s="217"/>
+      <c r="J157" s="217"/>
+      <c r="K157" s="217"/>
+      <c r="L157" s="217"/>
+      <c r="M157" s="236"/>
     </row>
     <row r="158" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A158" s="213"/>
-      <c r="B158" s="219"/>
-      <c r="C158" s="234"/>
+      <c r="A158" s="232"/>
+      <c r="B158" s="226"/>
+      <c r="C158" s="229"/>
       <c r="D158" s="240"/>
-      <c r="E158" s="236" t="s">
+      <c r="E158" s="233" t="s">
         <v>167</v>
       </c>
       <c r="F158" s="123" t="s">
         <v>227</v>
       </c>
-      <c r="G158" s="231"/>
-      <c r="H158" s="231"/>
-      <c r="I158" s="231"/>
-      <c r="J158" s="231"/>
-      <c r="K158" s="231"/>
-      <c r="L158" s="231"/>
-      <c r="M158" s="222"/>
+      <c r="G158" s="217"/>
+      <c r="H158" s="217"/>
+      <c r="I158" s="217"/>
+      <c r="J158" s="217"/>
+      <c r="K158" s="217"/>
+      <c r="L158" s="217"/>
+      <c r="M158" s="236"/>
     </row>
     <row r="159" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A159" s="213"/>
-      <c r="B159" s="219"/>
-      <c r="C159" s="234"/>
+      <c r="A159" s="232"/>
+      <c r="B159" s="226"/>
+      <c r="C159" s="229"/>
       <c r="D159" s="240"/>
       <c r="E159" s="238"/>
       <c r="F159" s="123" t="s">
         <v>228</v>
       </c>
-      <c r="G159" s="231"/>
-      <c r="H159" s="231"/>
-      <c r="I159" s="231"/>
-      <c r="J159" s="231"/>
-      <c r="K159" s="231"/>
-      <c r="L159" s="231"/>
-      <c r="M159" s="222"/>
+      <c r="G159" s="217"/>
+      <c r="H159" s="217"/>
+      <c r="I159" s="217"/>
+      <c r="J159" s="217"/>
+      <c r="K159" s="217"/>
+      <c r="L159" s="217"/>
+      <c r="M159" s="236"/>
     </row>
     <row r="160" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A160" s="213"/>
-      <c r="B160" s="219"/>
-      <c r="C160" s="234"/>
+      <c r="A160" s="232"/>
+      <c r="B160" s="226"/>
+      <c r="C160" s="229"/>
       <c r="D160" s="240"/>
-      <c r="E160" s="237"/>
+      <c r="E160" s="234"/>
       <c r="F160" s="123" t="s">
         <v>229</v>
       </c>
-      <c r="G160" s="231"/>
-      <c r="H160" s="231"/>
-      <c r="I160" s="231"/>
-      <c r="J160" s="231"/>
-      <c r="K160" s="231"/>
-      <c r="L160" s="231"/>
-      <c r="M160" s="222"/>
+      <c r="G160" s="217"/>
+      <c r="H160" s="217"/>
+      <c r="I160" s="217"/>
+      <c r="J160" s="217"/>
+      <c r="K160" s="217"/>
+      <c r="L160" s="217"/>
+      <c r="M160" s="236"/>
     </row>
     <row r="161" spans="1:13" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A161" s="213"/>
-      <c r="B161" s="220"/>
-      <c r="C161" s="235"/>
+      <c r="A161" s="232"/>
+      <c r="B161" s="227"/>
+      <c r="C161" s="230"/>
       <c r="D161" s="241"/>
       <c r="E161" s="121" t="s">
         <v>168</v>
@@ -6607,13 +7046,13 @@
       <c r="F161" s="123" t="s">
         <v>214</v>
       </c>
-      <c r="G161" s="232"/>
-      <c r="H161" s="232"/>
-      <c r="I161" s="232"/>
-      <c r="J161" s="232"/>
-      <c r="K161" s="232"/>
-      <c r="L161" s="232"/>
-      <c r="M161" s="223"/>
+      <c r="G161" s="218"/>
+      <c r="H161" s="218"/>
+      <c r="I161" s="218"/>
+      <c r="J161" s="218"/>
+      <c r="K161" s="218"/>
+      <c r="L161" s="218"/>
+      <c r="M161" s="237"/>
     </row>
     <row r="162" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A162" s="15"/>
@@ -6842,6 +7281,61 @@
     </row>
   </sheetData>
   <mergeCells count="71">
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="G6:L6"/>
+    <mergeCell ref="A29:A53"/>
+    <mergeCell ref="A2:M2"/>
+    <mergeCell ref="B56:B64"/>
+    <mergeCell ref="M56:M64"/>
+    <mergeCell ref="M8:M26"/>
+    <mergeCell ref="M29:M53"/>
+    <mergeCell ref="G5:L5"/>
+    <mergeCell ref="C43:C46"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="E17:E19"/>
+    <mergeCell ref="H67:H161"/>
+    <mergeCell ref="I67:I161"/>
+    <mergeCell ref="C153:C155"/>
+    <mergeCell ref="C156:C161"/>
+    <mergeCell ref="E72:E73"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="E148:E149"/>
+    <mergeCell ref="E156:E157"/>
+    <mergeCell ref="E158:E160"/>
+    <mergeCell ref="D67:D161"/>
+    <mergeCell ref="F68:F69"/>
+    <mergeCell ref="C86:C88"/>
+    <mergeCell ref="C89:C92"/>
+    <mergeCell ref="C93:C96"/>
+    <mergeCell ref="C97:C99"/>
+    <mergeCell ref="C83:C85"/>
+    <mergeCell ref="C67:C69"/>
+    <mergeCell ref="C70:C73"/>
+    <mergeCell ref="C74:C76"/>
+    <mergeCell ref="B67:B161"/>
+    <mergeCell ref="C116:C118"/>
+    <mergeCell ref="C119:C121"/>
+    <mergeCell ref="M67:M161"/>
+    <mergeCell ref="C137:C139"/>
+    <mergeCell ref="C140:C142"/>
+    <mergeCell ref="C143:C145"/>
+    <mergeCell ref="C146:C149"/>
+    <mergeCell ref="C150:C152"/>
+    <mergeCell ref="C122:C124"/>
+    <mergeCell ref="C125:C127"/>
+    <mergeCell ref="C128:C130"/>
+    <mergeCell ref="C131:C133"/>
+    <mergeCell ref="C134:C136"/>
+    <mergeCell ref="C104:C108"/>
+    <mergeCell ref="J67:J161"/>
+    <mergeCell ref="K67:K161"/>
+    <mergeCell ref="L67:L161"/>
+    <mergeCell ref="C109:C111"/>
     <mergeCell ref="A8:A26"/>
     <mergeCell ref="C17:C22"/>
     <mergeCell ref="G67:G161"/>
@@ -6858,61 +7352,6 @@
     <mergeCell ref="E113:E114"/>
     <mergeCell ref="C77:C79"/>
     <mergeCell ref="C80:C82"/>
-    <mergeCell ref="M67:M161"/>
-    <mergeCell ref="C137:C139"/>
-    <mergeCell ref="C140:C142"/>
-    <mergeCell ref="C143:C145"/>
-    <mergeCell ref="C146:C149"/>
-    <mergeCell ref="C150:C152"/>
-    <mergeCell ref="C122:C124"/>
-    <mergeCell ref="C125:C127"/>
-    <mergeCell ref="C128:C130"/>
-    <mergeCell ref="C131:C133"/>
-    <mergeCell ref="C134:C136"/>
-    <mergeCell ref="C104:C108"/>
-    <mergeCell ref="J67:J161"/>
-    <mergeCell ref="K67:K161"/>
-    <mergeCell ref="L67:L161"/>
-    <mergeCell ref="C109:C111"/>
-    <mergeCell ref="C83:C85"/>
-    <mergeCell ref="C67:C69"/>
-    <mergeCell ref="C70:C73"/>
-    <mergeCell ref="C74:C76"/>
-    <mergeCell ref="B67:B161"/>
-    <mergeCell ref="C116:C118"/>
-    <mergeCell ref="C119:C121"/>
-    <mergeCell ref="H67:H161"/>
-    <mergeCell ref="I67:I161"/>
-    <mergeCell ref="C153:C155"/>
-    <mergeCell ref="C156:C161"/>
-    <mergeCell ref="E72:E73"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="E148:E149"/>
-    <mergeCell ref="E156:E157"/>
-    <mergeCell ref="E158:E160"/>
-    <mergeCell ref="D67:D161"/>
-    <mergeCell ref="F68:F69"/>
-    <mergeCell ref="C86:C88"/>
-    <mergeCell ref="C89:C92"/>
-    <mergeCell ref="C93:C96"/>
-    <mergeCell ref="C97:C99"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="G6:L6"/>
-    <mergeCell ref="A29:A53"/>
-    <mergeCell ref="A2:M2"/>
-    <mergeCell ref="B56:B64"/>
-    <mergeCell ref="M56:M64"/>
-    <mergeCell ref="M8:M26"/>
-    <mergeCell ref="M29:M53"/>
-    <mergeCell ref="G5:L5"/>
-    <mergeCell ref="C43:C46"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="C47:C48"/>
-    <mergeCell ref="C49:C50"/>
-    <mergeCell ref="E17:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -6942,22 +7381,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="A1" s="247" t="s">
+      <c r="A1" s="258" t="s">
         <v>273</v>
       </c>
-      <c r="B1" s="247"/>
-      <c r="C1" s="247"/>
-      <c r="D1" s="247"/>
-      <c r="E1" s="247"/>
-      <c r="F1" s="247"/>
-      <c r="G1" s="247"/>
-      <c r="H1" s="247"/>
-      <c r="I1" s="247"/>
-      <c r="J1" s="247"/>
-      <c r="K1" s="247"/>
-      <c r="L1" s="247"/>
-      <c r="M1" s="247"/>
-      <c r="N1" s="247"/>
+      <c r="B1" s="258"/>
+      <c r="C1" s="258"/>
+      <c r="D1" s="258"/>
+      <c r="E1" s="258"/>
+      <c r="F1" s="258"/>
+      <c r="G1" s="258"/>
+      <c r="H1" s="258"/>
+      <c r="I1" s="258"/>
+      <c r="J1" s="258"/>
+      <c r="K1" s="258"/>
+      <c r="L1" s="258"/>
+      <c r="M1" s="258"/>
+      <c r="N1" s="258"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" s="124"/>
@@ -7021,14 +7460,14 @@
       <c r="E4" s="128"/>
       <c r="F4" s="129"/>
       <c r="G4" s="129"/>
-      <c r="H4" s="263" t="s">
+      <c r="H4" s="253" t="s">
         <v>22</v>
       </c>
-      <c r="I4" s="264"/>
-      <c r="J4" s="264"/>
-      <c r="K4" s="264"/>
-      <c r="L4" s="264"/>
-      <c r="M4" s="265"/>
+      <c r="I4" s="254"/>
+      <c r="J4" s="254"/>
+      <c r="K4" s="254"/>
+      <c r="L4" s="254"/>
+      <c r="M4" s="255"/>
       <c r="N4" s="130"/>
     </row>
     <row r="5" spans="1:14" ht="55.2" x14ac:dyDescent="0.3">
@@ -7076,10 +7515,10 @@
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="246" t="s">
+      <c r="A6" s="256" t="s">
         <v>237</v>
       </c>
-      <c r="B6" s="258" t="s">
+      <c r="B6" s="257" t="s">
         <v>238</v>
       </c>
       <c r="C6" s="138" t="s">
@@ -7088,7 +7527,7 @@
       <c r="D6" s="139" t="s">
         <v>240</v>
       </c>
-      <c r="E6" s="266" t="s">
+      <c r="E6" s="248" t="s">
         <v>241</v>
       </c>
       <c r="F6" s="140">
@@ -7113,21 +7552,21 @@
         <v>49</v>
       </c>
       <c r="M6" s="176"/>
-      <c r="N6" s="266" t="s">
+      <c r="N6" s="248" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A7" s="246"/>
-      <c r="B7" s="258"/>
-      <c r="C7" s="250" t="s">
+      <c r="A7" s="256"/>
+      <c r="B7" s="257"/>
+      <c r="C7" s="261" t="s">
         <v>242</v>
       </c>
-      <c r="D7" s="248" t="s">
+      <c r="D7" s="259" t="s">
         <v>240</v>
       </c>
-      <c r="E7" s="267"/>
-      <c r="F7" s="252">
+      <c r="E7" s="249"/>
+      <c r="F7" s="263">
         <v>2</v>
       </c>
       <c r="G7" s="140" t="s">
@@ -7149,15 +7588,15 @@
         <v>49</v>
       </c>
       <c r="M7" s="176"/>
-      <c r="N7" s="267"/>
+      <c r="N7" s="249"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A8" s="246"/>
-      <c r="B8" s="258"/>
-      <c r="C8" s="251"/>
-      <c r="D8" s="249"/>
-      <c r="E8" s="267"/>
-      <c r="F8" s="253"/>
+      <c r="A8" s="256"/>
+      <c r="B8" s="257"/>
+      <c r="C8" s="262"/>
+      <c r="D8" s="260"/>
+      <c r="E8" s="249"/>
+      <c r="F8" s="264"/>
       <c r="G8" s="140" t="s">
         <v>276</v>
       </c>
@@ -7177,18 +7616,18 @@
         <v>49</v>
       </c>
       <c r="M8" s="176"/>
-      <c r="N8" s="267"/>
+      <c r="N8" s="249"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="246"/>
-      <c r="B9" s="258"/>
+      <c r="A9" s="256"/>
+      <c r="B9" s="257"/>
       <c r="C9" s="141" t="s">
         <v>243</v>
       </c>
       <c r="D9" s="139" t="s">
         <v>240</v>
       </c>
-      <c r="E9" s="267"/>
+      <c r="E9" s="249"/>
       <c r="F9" s="140">
         <v>1</v>
       </c>
@@ -7211,18 +7650,18 @@
         <v>49</v>
       </c>
       <c r="M9" s="143"/>
-      <c r="N9" s="267"/>
+      <c r="N9" s="249"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="246"/>
-      <c r="B10" s="258"/>
-      <c r="C10" s="269" t="s">
+      <c r="A10" s="256"/>
+      <c r="B10" s="257"/>
+      <c r="C10" s="251" t="s">
         <v>244</v>
       </c>
       <c r="D10" s="144" t="s">
         <v>245</v>
       </c>
-      <c r="E10" s="267"/>
+      <c r="E10" s="249"/>
       <c r="F10" s="140">
         <v>1</v>
       </c>
@@ -7245,16 +7684,16 @@
         <v>49</v>
       </c>
       <c r="M10" s="143"/>
-      <c r="N10" s="267"/>
+      <c r="N10" s="249"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A11" s="246"/>
-      <c r="B11" s="258"/>
-      <c r="C11" s="269"/>
+      <c r="A11" s="256"/>
+      <c r="B11" s="257"/>
+      <c r="C11" s="251"/>
       <c r="D11" s="144" t="s">
         <v>246</v>
       </c>
-      <c r="E11" s="267"/>
+      <c r="E11" s="249"/>
       <c r="F11" s="140">
         <v>1</v>
       </c>
@@ -7277,16 +7716,16 @@
         <v>49</v>
       </c>
       <c r="M11" s="143"/>
-      <c r="N11" s="267"/>
+      <c r="N11" s="249"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A12" s="246"/>
-      <c r="B12" s="258"/>
-      <c r="C12" s="269"/>
+      <c r="A12" s="256"/>
+      <c r="B12" s="257"/>
+      <c r="C12" s="251"/>
       <c r="D12" s="144" t="s">
         <v>247</v>
       </c>
-      <c r="E12" s="267"/>
+      <c r="E12" s="249"/>
       <c r="F12" s="140">
         <v>1</v>
       </c>
@@ -7309,16 +7748,16 @@
         <v>49</v>
       </c>
       <c r="M12" s="143"/>
-      <c r="N12" s="267"/>
+      <c r="N12" s="249"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A13" s="246"/>
-      <c r="B13" s="258"/>
-      <c r="C13" s="269"/>
+      <c r="A13" s="256"/>
+      <c r="B13" s="257"/>
+      <c r="C13" s="251"/>
       <c r="D13" s="144" t="s">
         <v>248</v>
       </c>
-      <c r="E13" s="267"/>
+      <c r="E13" s="249"/>
       <c r="F13" s="140">
         <v>1</v>
       </c>
@@ -7341,16 +7780,16 @@
         <v>49</v>
       </c>
       <c r="M13" s="143"/>
-      <c r="N13" s="267"/>
+      <c r="N13" s="249"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A14" s="246"/>
-      <c r="B14" s="258"/>
-      <c r="C14" s="269"/>
+      <c r="A14" s="256"/>
+      <c r="B14" s="257"/>
+      <c r="C14" s="251"/>
       <c r="D14" s="144" t="s">
         <v>249</v>
       </c>
-      <c r="E14" s="267"/>
+      <c r="E14" s="249"/>
       <c r="F14" s="140">
         <v>1</v>
       </c>
@@ -7373,16 +7812,16 @@
         <v>49</v>
       </c>
       <c r="M14" s="143"/>
-      <c r="N14" s="267"/>
+      <c r="N14" s="249"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A15" s="246"/>
-      <c r="B15" s="258"/>
-      <c r="C15" s="269"/>
+      <c r="A15" s="256"/>
+      <c r="B15" s="257"/>
+      <c r="C15" s="251"/>
       <c r="D15" s="144" t="s">
         <v>250</v>
       </c>
-      <c r="E15" s="267"/>
+      <c r="E15" s="249"/>
       <c r="F15" s="140">
         <v>1</v>
       </c>
@@ -7405,16 +7844,16 @@
         <v>49</v>
       </c>
       <c r="M15" s="143"/>
-      <c r="N15" s="267"/>
+      <c r="N15" s="249"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A16" s="246"/>
-      <c r="B16" s="258"/>
-      <c r="C16" s="269"/>
+      <c r="A16" s="256"/>
+      <c r="B16" s="257"/>
+      <c r="C16" s="251"/>
       <c r="D16" s="144" t="s">
         <v>251</v>
       </c>
-      <c r="E16" s="267"/>
+      <c r="E16" s="249"/>
       <c r="F16" s="140">
         <v>1</v>
       </c>
@@ -7437,18 +7876,18 @@
         <v>49</v>
       </c>
       <c r="M16" s="143"/>
-      <c r="N16" s="267"/>
+      <c r="N16" s="249"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A17" s="246"/>
-      <c r="B17" s="258"/>
-      <c r="C17" s="269" t="s">
+      <c r="A17" s="256"/>
+      <c r="B17" s="257"/>
+      <c r="C17" s="251" t="s">
         <v>252</v>
       </c>
       <c r="D17" s="144" t="s">
         <v>253</v>
       </c>
-      <c r="E17" s="267"/>
+      <c r="E17" s="249"/>
       <c r="F17" s="140">
         <v>1</v>
       </c>
@@ -7471,16 +7910,16 @@
         <v>49</v>
       </c>
       <c r="M17" s="143"/>
-      <c r="N17" s="267"/>
+      <c r="N17" s="249"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A18" s="246"/>
-      <c r="B18" s="258"/>
-      <c r="C18" s="269"/>
+      <c r="A18" s="256"/>
+      <c r="B18" s="257"/>
+      <c r="C18" s="251"/>
       <c r="D18" s="144" t="s">
         <v>254</v>
       </c>
-      <c r="E18" s="267"/>
+      <c r="E18" s="249"/>
       <c r="F18" s="140">
         <v>1</v>
       </c>
@@ -7503,16 +7942,16 @@
         <v>49</v>
       </c>
       <c r="M18" s="143"/>
-      <c r="N18" s="267"/>
+      <c r="N18" s="249"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A19" s="246"/>
-      <c r="B19" s="258"/>
-      <c r="C19" s="269"/>
+      <c r="A19" s="256"/>
+      <c r="B19" s="257"/>
+      <c r="C19" s="251"/>
       <c r="D19" s="144" t="s">
         <v>255</v>
       </c>
-      <c r="E19" s="267"/>
+      <c r="E19" s="249"/>
       <c r="F19" s="140">
         <v>1</v>
       </c>
@@ -7535,16 +7974,16 @@
         <v>49</v>
       </c>
       <c r="M19" s="143"/>
-      <c r="N19" s="267"/>
+      <c r="N19" s="249"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A20" s="246"/>
-      <c r="B20" s="258"/>
-      <c r="C20" s="269"/>
+      <c r="A20" s="256"/>
+      <c r="B20" s="257"/>
+      <c r="C20" s="251"/>
       <c r="D20" s="144" t="s">
         <v>256</v>
       </c>
-      <c r="E20" s="267"/>
+      <c r="E20" s="249"/>
       <c r="F20" s="140">
         <v>1</v>
       </c>
@@ -7567,16 +8006,16 @@
         <v>49</v>
       </c>
       <c r="M20" s="143"/>
-      <c r="N20" s="267"/>
+      <c r="N20" s="249"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A21" s="246"/>
-      <c r="B21" s="258"/>
-      <c r="C21" s="269"/>
+      <c r="A21" s="256"/>
+      <c r="B21" s="257"/>
+      <c r="C21" s="251"/>
       <c r="D21" s="144" t="s">
         <v>257</v>
       </c>
-      <c r="E21" s="268"/>
+      <c r="E21" s="250"/>
       <c r="F21" s="140">
         <v>1</v>
       </c>
@@ -7599,7 +8038,7 @@
         <v>49</v>
       </c>
       <c r="M21" s="143"/>
-      <c r="N21" s="268"/>
+      <c r="N21" s="250"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22" s="145" t="s">
@@ -7626,19 +8065,19 @@
       <c r="N22" s="149"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A23" s="246" t="s">
+      <c r="A23" s="256" t="s">
         <v>237</v>
       </c>
-      <c r="B23" s="258" t="s">
+      <c r="B23" s="257" t="s">
         <v>259</v>
       </c>
-      <c r="C23" s="259" t="s">
+      <c r="C23" s="252" t="s">
         <v>260</v>
       </c>
       <c r="D23" s="144" t="s">
         <v>261</v>
       </c>
-      <c r="E23" s="260" t="s">
+      <c r="E23" s="269" t="s">
         <v>241</v>
       </c>
       <c r="F23" s="140">
@@ -7663,18 +8102,18 @@
         <v>49</v>
       </c>
       <c r="M23" s="143"/>
-      <c r="N23" s="260" t="s">
+      <c r="N23" s="269" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A24" s="246"/>
-      <c r="B24" s="258"/>
-      <c r="C24" s="259"/>
+      <c r="A24" s="256"/>
+      <c r="B24" s="257"/>
+      <c r="C24" s="252"/>
       <c r="D24" s="144" t="s">
         <v>262</v>
       </c>
-      <c r="E24" s="261"/>
+      <c r="E24" s="270"/>
       <c r="F24" s="156"/>
       <c r="G24" s="140"/>
       <c r="H24" s="175"/>
@@ -7689,18 +8128,18 @@
         <v>49</v>
       </c>
       <c r="M24" s="143"/>
-      <c r="N24" s="261"/>
+      <c r="N24" s="270"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A25" s="246"/>
-      <c r="B25" s="258"/>
-      <c r="C25" s="259" t="s">
+      <c r="A25" s="256"/>
+      <c r="B25" s="257"/>
+      <c r="C25" s="252" t="s">
         <v>263</v>
       </c>
       <c r="D25" s="144" t="s">
         <v>261</v>
       </c>
-      <c r="E25" s="261"/>
+      <c r="E25" s="270"/>
       <c r="F25" s="140">
         <v>1</v>
       </c>
@@ -7723,16 +8162,16 @@
         <v>49</v>
       </c>
       <c r="M25" s="143"/>
-      <c r="N25" s="261"/>
+      <c r="N25" s="270"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A26" s="246"/>
-      <c r="B26" s="258"/>
-      <c r="C26" s="259"/>
+      <c r="A26" s="256"/>
+      <c r="B26" s="257"/>
+      <c r="C26" s="252"/>
       <c r="D26" s="144" t="s">
         <v>264</v>
       </c>
-      <c r="E26" s="261"/>
+      <c r="E26" s="270"/>
       <c r="F26" s="181"/>
       <c r="G26" s="140"/>
       <c r="H26" s="175"/>
@@ -7747,16 +8186,16 @@
         <v>49</v>
       </c>
       <c r="M26" s="142"/>
-      <c r="N26" s="261"/>
+      <c r="N26" s="270"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A27" s="246"/>
-      <c r="B27" s="258"/>
-      <c r="C27" s="259"/>
+      <c r="A27" s="256"/>
+      <c r="B27" s="257"/>
+      <c r="C27" s="252"/>
       <c r="D27" s="144" t="s">
         <v>265</v>
       </c>
-      <c r="E27" s="261"/>
+      <c r="E27" s="270"/>
       <c r="F27" s="156"/>
       <c r="G27" s="140"/>
       <c r="H27" s="175"/>
@@ -7771,18 +8210,18 @@
         <v>49</v>
       </c>
       <c r="M27" s="153"/>
-      <c r="N27" s="261"/>
+      <c r="N27" s="270"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A28" s="246"/>
-      <c r="B28" s="258"/>
-      <c r="C28" s="259" t="s">
+      <c r="A28" s="256"/>
+      <c r="B28" s="257"/>
+      <c r="C28" s="252" t="s">
         <v>266</v>
       </c>
       <c r="D28" s="144" t="s">
         <v>261</v>
       </c>
-      <c r="E28" s="261"/>
+      <c r="E28" s="270"/>
       <c r="F28" s="140">
         <v>1</v>
       </c>
@@ -7805,16 +8244,16 @@
         <v>49</v>
       </c>
       <c r="M28" s="177"/>
-      <c r="N28" s="261"/>
+      <c r="N28" s="270"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A29" s="246"/>
-      <c r="B29" s="258"/>
-      <c r="C29" s="259"/>
+      <c r="A29" s="256"/>
+      <c r="B29" s="257"/>
+      <c r="C29" s="252"/>
       <c r="D29" s="144" t="s">
         <v>264</v>
       </c>
-      <c r="E29" s="261"/>
+      <c r="E29" s="270"/>
       <c r="F29" s="156"/>
       <c r="G29" s="140"/>
       <c r="H29" s="175"/>
@@ -7829,18 +8268,18 @@
         <v>49</v>
       </c>
       <c r="M29" s="177"/>
-      <c r="N29" s="261"/>
+      <c r="N29" s="270"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A30" s="246"/>
-      <c r="B30" s="258"/>
-      <c r="C30" s="259" t="s">
+      <c r="A30" s="256"/>
+      <c r="B30" s="257"/>
+      <c r="C30" s="252" t="s">
         <v>267</v>
       </c>
       <c r="D30" s="144" t="s">
         <v>261</v>
       </c>
-      <c r="E30" s="261"/>
+      <c r="E30" s="270"/>
       <c r="F30" s="140">
         <v>1</v>
       </c>
@@ -7863,16 +8302,16 @@
         <v>49</v>
       </c>
       <c r="M30" s="177"/>
-      <c r="N30" s="261"/>
+      <c r="N30" s="270"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A31" s="246"/>
-      <c r="B31" s="258"/>
-      <c r="C31" s="259"/>
+      <c r="A31" s="256"/>
+      <c r="B31" s="257"/>
+      <c r="C31" s="252"/>
       <c r="D31" s="144" t="s">
         <v>264</v>
       </c>
-      <c r="E31" s="261"/>
+      <c r="E31" s="270"/>
       <c r="F31" s="140">
         <v>1</v>
       </c>
@@ -7895,18 +8334,18 @@
         <v>49</v>
       </c>
       <c r="M31" s="177"/>
-      <c r="N31" s="261"/>
+      <c r="N31" s="270"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A32" s="246"/>
-      <c r="B32" s="258"/>
-      <c r="C32" s="269" t="s">
+      <c r="A32" s="256"/>
+      <c r="B32" s="257"/>
+      <c r="C32" s="251" t="s">
         <v>268</v>
       </c>
       <c r="D32" s="144" t="s">
         <v>261</v>
       </c>
-      <c r="E32" s="261"/>
+      <c r="E32" s="270"/>
       <c r="F32" s="140">
         <v>1</v>
       </c>
@@ -7929,16 +8368,16 @@
         <v>49</v>
       </c>
       <c r="M32" s="177"/>
-      <c r="N32" s="261"/>
+      <c r="N32" s="270"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A33" s="246"/>
-      <c r="B33" s="258"/>
-      <c r="C33" s="269"/>
+      <c r="A33" s="256"/>
+      <c r="B33" s="257"/>
+      <c r="C33" s="251"/>
       <c r="D33" s="144" t="s">
         <v>264</v>
       </c>
-      <c r="E33" s="261"/>
+      <c r="E33" s="270"/>
       <c r="F33" s="140">
         <v>1</v>
       </c>
@@ -7961,18 +8400,18 @@
         <v>49</v>
       </c>
       <c r="M33" s="177"/>
-      <c r="N33" s="261"/>
+      <c r="N33" s="270"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A34" s="246"/>
-      <c r="B34" s="258"/>
-      <c r="C34" s="259" t="s">
+      <c r="A34" s="256"/>
+      <c r="B34" s="257"/>
+      <c r="C34" s="252" t="s">
         <v>269</v>
       </c>
       <c r="D34" s="144" t="s">
         <v>261</v>
       </c>
-      <c r="E34" s="261"/>
+      <c r="E34" s="270"/>
       <c r="F34" s="140">
         <v>1</v>
       </c>
@@ -7995,16 +8434,16 @@
         <v>49</v>
       </c>
       <c r="M34" s="177"/>
-      <c r="N34" s="261"/>
+      <c r="N34" s="270"/>
     </row>
     <row r="35" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A35" s="246"/>
-      <c r="B35" s="258"/>
-      <c r="C35" s="259"/>
+      <c r="A35" s="256"/>
+      <c r="B35" s="257"/>
+      <c r="C35" s="252"/>
       <c r="D35" s="144" t="s">
         <v>264</v>
       </c>
-      <c r="E35" s="262"/>
+      <c r="E35" s="271"/>
       <c r="F35" s="140">
         <v>1</v>
       </c>
@@ -8027,7 +8466,7 @@
         <v>49</v>
       </c>
       <c r="M35" s="177"/>
-      <c r="N35" s="262"/>
+      <c r="N35" s="271"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36" s="131" t="s">
@@ -8050,132 +8489,132 @@
       <c r="N36" s="149"/>
     </row>
     <row r="37" spans="1:14" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="246" t="s">
+      <c r="A37" s="256" t="s">
         <v>237</v>
       </c>
-      <c r="B37" s="257" t="s">
+      <c r="B37" s="268" t="s">
         <v>270</v>
       </c>
-      <c r="C37" s="256"/>
-      <c r="D37" s="255"/>
-      <c r="E37" s="254" t="s">
+      <c r="C37" s="267"/>
+      <c r="D37" s="266"/>
+      <c r="E37" s="265" t="s">
         <v>241</v>
       </c>
-      <c r="F37" s="254">
+      <c r="F37" s="265">
         <v>6</v>
       </c>
       <c r="G37" s="157" t="s">
         <v>285</v>
       </c>
-      <c r="H37" s="244" t="s">
-        <v>49</v>
-      </c>
-      <c r="I37" s="244" t="s">
-        <v>49</v>
-      </c>
-      <c r="J37" s="244" t="s">
-        <v>49</v>
-      </c>
-      <c r="K37" s="244" t="s">
-        <v>49</v>
-      </c>
-      <c r="L37" s="244" t="s">
-        <v>49</v>
-      </c>
-      <c r="M37" s="244"/>
-      <c r="N37" s="245" t="s">
+      <c r="H37" s="272" t="s">
+        <v>49</v>
+      </c>
+      <c r="I37" s="272" t="s">
+        <v>49</v>
+      </c>
+      <c r="J37" s="272" t="s">
+        <v>49</v>
+      </c>
+      <c r="K37" s="272" t="s">
+        <v>49</v>
+      </c>
+      <c r="L37" s="272" t="s">
+        <v>49</v>
+      </c>
+      <c r="M37" s="272"/>
+      <c r="N37" s="273" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A38" s="246"/>
-      <c r="B38" s="257"/>
-      <c r="C38" s="256"/>
-      <c r="D38" s="255"/>
-      <c r="E38" s="254"/>
-      <c r="F38" s="254"/>
+      <c r="A38" s="256"/>
+      <c r="B38" s="268"/>
+      <c r="C38" s="267"/>
+      <c r="D38" s="266"/>
+      <c r="E38" s="265"/>
+      <c r="F38" s="265"/>
       <c r="G38" s="157" t="s">
         <v>286</v>
       </c>
-      <c r="H38" s="244"/>
-      <c r="I38" s="244"/>
-      <c r="J38" s="244"/>
-      <c r="K38" s="244"/>
-      <c r="L38" s="244"/>
-      <c r="M38" s="244"/>
-      <c r="N38" s="245"/>
+      <c r="H38" s="272"/>
+      <c r="I38" s="272"/>
+      <c r="J38" s="272"/>
+      <c r="K38" s="272"/>
+      <c r="L38" s="272"/>
+      <c r="M38" s="272"/>
+      <c r="N38" s="273"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A39" s="246"/>
-      <c r="B39" s="257"/>
-      <c r="C39" s="256"/>
-      <c r="D39" s="255"/>
-      <c r="E39" s="254"/>
-      <c r="F39" s="254"/>
+      <c r="A39" s="256"/>
+      <c r="B39" s="268"/>
+      <c r="C39" s="267"/>
+      <c r="D39" s="266"/>
+      <c r="E39" s="265"/>
+      <c r="F39" s="265"/>
       <c r="G39" s="157" t="s">
         <v>287</v>
       </c>
-      <c r="H39" s="244"/>
-      <c r="I39" s="244"/>
-      <c r="J39" s="244"/>
-      <c r="K39" s="244"/>
-      <c r="L39" s="244"/>
-      <c r="M39" s="244"/>
-      <c r="N39" s="245"/>
+      <c r="H39" s="272"/>
+      <c r="I39" s="272"/>
+      <c r="J39" s="272"/>
+      <c r="K39" s="272"/>
+      <c r="L39" s="272"/>
+      <c r="M39" s="272"/>
+      <c r="N39" s="273"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A40" s="246"/>
-      <c r="B40" s="257"/>
-      <c r="C40" s="256"/>
-      <c r="D40" s="255"/>
-      <c r="E40" s="254"/>
-      <c r="F40" s="254"/>
+      <c r="A40" s="256"/>
+      <c r="B40" s="268"/>
+      <c r="C40" s="267"/>
+      <c r="D40" s="266"/>
+      <c r="E40" s="265"/>
+      <c r="F40" s="265"/>
       <c r="G40" s="157" t="s">
         <v>290</v>
       </c>
-      <c r="H40" s="244"/>
-      <c r="I40" s="244"/>
-      <c r="J40" s="244"/>
-      <c r="K40" s="244"/>
-      <c r="L40" s="244"/>
-      <c r="M40" s="244"/>
-      <c r="N40" s="245"/>
+      <c r="H40" s="272"/>
+      <c r="I40" s="272"/>
+      <c r="J40" s="272"/>
+      <c r="K40" s="272"/>
+      <c r="L40" s="272"/>
+      <c r="M40" s="272"/>
+      <c r="N40" s="273"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A41" s="246"/>
-      <c r="B41" s="257"/>
-      <c r="C41" s="256"/>
-      <c r="D41" s="255"/>
-      <c r="E41" s="254"/>
-      <c r="F41" s="254"/>
+      <c r="A41" s="256"/>
+      <c r="B41" s="268"/>
+      <c r="C41" s="267"/>
+      <c r="D41" s="266"/>
+      <c r="E41" s="265"/>
+      <c r="F41" s="265"/>
       <c r="G41" s="157" t="s">
         <v>288</v>
       </c>
-      <c r="H41" s="244"/>
-      <c r="I41" s="244"/>
-      <c r="J41" s="244"/>
-      <c r="K41" s="244"/>
-      <c r="L41" s="244"/>
-      <c r="M41" s="244"/>
-      <c r="N41" s="245"/>
+      <c r="H41" s="272"/>
+      <c r="I41" s="272"/>
+      <c r="J41" s="272"/>
+      <c r="K41" s="272"/>
+      <c r="L41" s="272"/>
+      <c r="M41" s="272"/>
+      <c r="N41" s="273"/>
     </row>
     <row r="42" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A42" s="246"/>
-      <c r="B42" s="257"/>
-      <c r="C42" s="256"/>
-      <c r="D42" s="255"/>
-      <c r="E42" s="254"/>
-      <c r="F42" s="254"/>
+      <c r="A42" s="256"/>
+      <c r="B42" s="268"/>
+      <c r="C42" s="267"/>
+      <c r="D42" s="266"/>
+      <c r="E42" s="265"/>
+      <c r="F42" s="265"/>
       <c r="G42" s="157" t="s">
         <v>289</v>
       </c>
-      <c r="H42" s="244"/>
-      <c r="I42" s="244"/>
-      <c r="J42" s="244"/>
-      <c r="K42" s="244"/>
-      <c r="L42" s="244"/>
-      <c r="M42" s="244"/>
-      <c r="N42" s="245"/>
+      <c r="H42" s="272"/>
+      <c r="I42" s="272"/>
+      <c r="J42" s="272"/>
+      <c r="K42" s="272"/>
+      <c r="L42" s="272"/>
+      <c r="M42" s="272"/>
+      <c r="N42" s="273"/>
     </row>
     <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="H43" s="24"/>
@@ -8187,16 +8626,14 @@
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="N6:N21"/>
-    <mergeCell ref="C10:C16"/>
-    <mergeCell ref="C17:C21"/>
-    <mergeCell ref="C30:C31"/>
-    <mergeCell ref="C32:C33"/>
-    <mergeCell ref="C34:C35"/>
-    <mergeCell ref="H4:M4"/>
-    <mergeCell ref="A6:A21"/>
-    <mergeCell ref="B6:B21"/>
-    <mergeCell ref="E6:E21"/>
+    <mergeCell ref="M37:M42"/>
+    <mergeCell ref="N37:N42"/>
+    <mergeCell ref="A37:A42"/>
+    <mergeCell ref="H37:H42"/>
+    <mergeCell ref="I37:I42"/>
+    <mergeCell ref="J37:J42"/>
+    <mergeCell ref="K37:K42"/>
+    <mergeCell ref="L37:L42"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="C7:C8"/>
@@ -8213,14 +8650,16 @@
     <mergeCell ref="N23:N35"/>
     <mergeCell ref="C25:C27"/>
     <mergeCell ref="C28:C29"/>
-    <mergeCell ref="M37:M42"/>
-    <mergeCell ref="N37:N42"/>
-    <mergeCell ref="A37:A42"/>
-    <mergeCell ref="H37:H42"/>
-    <mergeCell ref="I37:I42"/>
-    <mergeCell ref="J37:J42"/>
-    <mergeCell ref="K37:K42"/>
-    <mergeCell ref="L37:L42"/>
+    <mergeCell ref="C34:C35"/>
+    <mergeCell ref="H4:M4"/>
+    <mergeCell ref="A6:A21"/>
+    <mergeCell ref="B6:B21"/>
+    <mergeCell ref="E6:E21"/>
+    <mergeCell ref="N6:N21"/>
+    <mergeCell ref="C10:C16"/>
+    <mergeCell ref="C17:C21"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="C32:C33"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -8230,9 +8669,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF7030A0"/>
+  </sheetPr>
   <dimension ref="A1:M108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+    <sheetView topLeftCell="A76" workbookViewId="0">
       <selection activeCell="I104" sqref="I104"/>
     </sheetView>
   </sheetViews>
@@ -8252,16 +8694,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="88" customFormat="1" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="272" t="s">
+      <c r="A1" s="285" t="s">
         <v>299</v>
       </c>
-      <c r="B1" s="272"/>
-      <c r="C1" s="272"/>
-      <c r="D1" s="272"/>
-      <c r="E1" s="272"/>
-      <c r="F1" s="272"/>
-      <c r="G1" s="272"/>
-      <c r="H1" s="272"/>
+      <c r="B1" s="285"/>
+      <c r="C1" s="285"/>
+      <c r="D1" s="285"/>
+      <c r="E1" s="285"/>
+      <c r="F1" s="285"/>
+      <c r="G1" s="285"/>
+      <c r="H1" s="285"/>
     </row>
     <row r="2" spans="1:8" s="88" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G2" s="89"/>
@@ -8387,7 +8829,7 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="270" t="s">
+      <c r="C18" s="283" t="s">
         <v>145</v>
       </c>
       <c r="D18" s="87" t="s">
@@ -8395,7 +8837,7 @@
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="271"/>
+      <c r="C19" s="284"/>
       <c r="D19" s="87" t="s">
         <v>109</v>
       </c>
@@ -8849,7 +9291,7 @@
     </row>
     <row r="60" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="90"/>
-      <c r="D60" s="278"/>
+      <c r="D60" s="291"/>
       <c r="E60" s="103" t="s">
         <v>93</v>
       </c>
@@ -8864,7 +9306,7 @@
     </row>
     <row r="61" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="90"/>
-      <c r="D61" s="278"/>
+      <c r="D61" s="291"/>
       <c r="E61" s="104" t="s">
         <v>118</v>
       </c>
@@ -8881,7 +9323,7 @@
     </row>
     <row r="62" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="90"/>
-      <c r="D62" s="278"/>
+      <c r="D62" s="291"/>
       <c r="E62" s="105"/>
       <c r="F62" s="103" t="s">
         <v>132</v>
@@ -8896,7 +9338,7 @@
     </row>
     <row r="63" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="90"/>
-      <c r="D63" s="278"/>
+      <c r="D63" s="291"/>
       <c r="E63" s="107" t="s">
         <v>115</v>
       </c>
@@ -8911,7 +9353,7 @@
     </row>
     <row r="64" spans="3:9" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="90"/>
-      <c r="D64" s="278"/>
+      <c r="D64" s="291"/>
       <c r="E64" s="103" t="s">
         <v>89</v>
       </c>
@@ -8922,7 +9364,7 @@
     </row>
     <row r="65" spans="3:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="90"/>
-      <c r="D65" s="278"/>
+      <c r="D65" s="291"/>
       <c r="E65" s="103" t="s">
         <v>116</v>
       </c>
@@ -8937,7 +9379,7 @@
     </row>
     <row r="66" spans="3:13" s="24" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="90"/>
-      <c r="D66" s="279"/>
+      <c r="D66" s="292"/>
       <c r="E66" s="103" t="s">
         <v>331</v>
       </c>
@@ -9088,7 +9530,7 @@
     </row>
     <row r="77" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C77" s="76"/>
-      <c r="D77" s="273" t="s">
+      <c r="D77" s="286" t="s">
         <v>85</v>
       </c>
       <c r="E77" s="59" t="s">
@@ -9102,7 +9544,7 @@
     </row>
     <row r="78" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C78" s="76"/>
-      <c r="D78" s="274"/>
+      <c r="D78" s="287"/>
       <c r="E78" s="189"/>
       <c r="F78" s="190" t="s">
         <v>87</v>
@@ -9112,8 +9554,8 @@
     </row>
     <row r="79" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C79" s="76"/>
-      <c r="D79" s="275"/>
-      <c r="E79" s="298" t="s">
+      <c r="D79" s="288"/>
+      <c r="E79" s="290" t="s">
         <v>93</v>
       </c>
       <c r="F79" s="199" t="s">
@@ -9131,12 +9573,12 @@
     </row>
     <row r="80" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C80" s="76"/>
-      <c r="D80" s="275"/>
-      <c r="E80" s="298"/>
-      <c r="F80" s="298" t="s">
+      <c r="D80" s="288"/>
+      <c r="E80" s="290"/>
+      <c r="F80" s="290" t="s">
         <v>87</v>
       </c>
-      <c r="G80" s="277" t="s">
+      <c r="G80" s="274" t="s">
         <v>310</v>
       </c>
       <c r="H80" s="200" t="s">
@@ -9148,23 +9590,23 @@
       <c r="J80" s="200" t="s">
         <v>311</v>
       </c>
-      <c r="K80" s="277">
+      <c r="K80" s="274">
         <f>SUM(I80:I85)</f>
         <v>117</v>
       </c>
-      <c r="L80" s="277" t="s">
+      <c r="L80" s="274" t="s">
         <v>327</v>
       </c>
-      <c r="M80" s="277" t="s">
+      <c r="M80" s="274" t="s">
         <v>328</v>
       </c>
     </row>
     <row r="81" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C81" s="76"/>
-      <c r="D81" s="275"/>
-      <c r="E81" s="298"/>
-      <c r="F81" s="298"/>
-      <c r="G81" s="277"/>
+      <c r="D81" s="288"/>
+      <c r="E81" s="290"/>
+      <c r="F81" s="290"/>
+      <c r="G81" s="274"/>
       <c r="H81" s="200" t="s">
         <v>312</v>
       </c>
@@ -9174,16 +9616,16 @@
       <c r="J81" s="200" t="s">
         <v>311</v>
       </c>
-      <c r="K81" s="277"/>
-      <c r="L81" s="277"/>
-      <c r="M81" s="277"/>
+      <c r="K81" s="274"/>
+      <c r="L81" s="274"/>
+      <c r="M81" s="274"/>
     </row>
     <row r="82" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C82" s="76"/>
-      <c r="D82" s="275"/>
-      <c r="E82" s="298"/>
-      <c r="F82" s="298"/>
-      <c r="G82" s="277"/>
+      <c r="D82" s="288"/>
+      <c r="E82" s="290"/>
+      <c r="F82" s="290"/>
+      <c r="G82" s="274"/>
       <c r="H82" s="200" t="s">
         <v>313</v>
       </c>
@@ -9193,16 +9635,16 @@
       <c r="J82" s="200" t="s">
         <v>311</v>
       </c>
-      <c r="K82" s="277"/>
-      <c r="L82" s="277"/>
-      <c r="M82" s="277"/>
+      <c r="K82" s="274"/>
+      <c r="L82" s="274"/>
+      <c r="M82" s="274"/>
     </row>
     <row r="83" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C83" s="76"/>
-      <c r="D83" s="275"/>
-      <c r="E83" s="298"/>
-      <c r="F83" s="298"/>
-      <c r="G83" s="277"/>
+      <c r="D83" s="288"/>
+      <c r="E83" s="290"/>
+      <c r="F83" s="290"/>
+      <c r="G83" s="274"/>
       <c r="H83" s="200" t="s">
         <v>314</v>
       </c>
@@ -9212,16 +9654,16 @@
       <c r="J83" s="200" t="s">
         <v>311</v>
       </c>
-      <c r="K83" s="277"/>
-      <c r="L83" s="277"/>
-      <c r="M83" s="277"/>
+      <c r="K83" s="274"/>
+      <c r="L83" s="274"/>
+      <c r="M83" s="274"/>
     </row>
     <row r="84" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C84" s="76"/>
-      <c r="D84" s="275"/>
-      <c r="E84" s="298"/>
-      <c r="F84" s="298"/>
-      <c r="G84" s="277"/>
+      <c r="D84" s="288"/>
+      <c r="E84" s="290"/>
+      <c r="F84" s="290"/>
+      <c r="G84" s="274"/>
       <c r="H84" s="200" t="s">
         <v>315</v>
       </c>
@@ -9231,16 +9673,16 @@
       <c r="J84" s="200" t="s">
         <v>311</v>
       </c>
-      <c r="K84" s="277"/>
-      <c r="L84" s="277"/>
-      <c r="M84" s="277"/>
+      <c r="K84" s="274"/>
+      <c r="L84" s="274"/>
+      <c r="M84" s="274"/>
     </row>
     <row r="85" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C85" s="76"/>
-      <c r="D85" s="275"/>
-      <c r="E85" s="298"/>
-      <c r="F85" s="298"/>
-      <c r="G85" s="277"/>
+      <c r="D85" s="288"/>
+      <c r="E85" s="290"/>
+      <c r="F85" s="290"/>
+      <c r="G85" s="274"/>
       <c r="H85" s="200" t="s">
         <v>316</v>
       </c>
@@ -9250,15 +9692,15 @@
       <c r="J85" s="200" t="s">
         <v>311</v>
       </c>
-      <c r="K85" s="277"/>
-      <c r="L85" s="277"/>
-      <c r="M85" s="277"/>
+      <c r="K85" s="274"/>
+      <c r="L85" s="274"/>
+      <c r="M85" s="274"/>
     </row>
     <row r="86" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C86" s="76"/>
-      <c r="D86" s="275"/>
-      <c r="E86" s="298"/>
-      <c r="F86" s="298"/>
+      <c r="D86" s="288"/>
+      <c r="E86" s="290"/>
+      <c r="F86" s="290"/>
       <c r="G86" s="200" t="s">
         <v>317</v>
       </c>
@@ -9277,31 +9719,31 @@
     </row>
     <row r="87" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C87" s="76"/>
-      <c r="D87" s="275"/>
-      <c r="E87" s="299" t="s">
+      <c r="D87" s="288"/>
+      <c r="E87" s="212" t="s">
         <v>331</v>
       </c>
-      <c r="F87" s="300" t="s">
+      <c r="F87" s="213" t="s">
         <v>86</v>
       </c>
-      <c r="G87" s="301"/>
-      <c r="H87" s="301"/>
-      <c r="I87" s="302"/>
+      <c r="G87" s="214"/>
+      <c r="H87" s="214"/>
+      <c r="I87" s="215"/>
     </row>
     <row r="88" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C88" s="76"/>
-      <c r="D88" s="275"/>
-      <c r="E88" s="299"/>
-      <c r="F88" s="300" t="s">
+      <c r="D88" s="288"/>
+      <c r="E88" s="212"/>
+      <c r="F88" s="213" t="s">
         <v>87</v>
       </c>
-      <c r="G88" s="301"/>
-      <c r="H88" s="301"/>
-      <c r="I88" s="302"/>
+      <c r="G88" s="214"/>
+      <c r="H88" s="214"/>
+      <c r="I88" s="215"/>
     </row>
     <row r="89" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C89" s="76"/>
-      <c r="D89" s="274"/>
+      <c r="D89" s="287"/>
       <c r="E89" s="192" t="s">
         <v>92</v>
       </c>
@@ -9320,9 +9762,9 @@
     </row>
     <row r="90" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C90" s="76"/>
-      <c r="D90" s="274"/>
+      <c r="D90" s="287"/>
       <c r="E90" s="192"/>
-      <c r="F90" s="285" t="s">
+      <c r="F90" s="280" t="s">
         <v>87</v>
       </c>
       <c r="G90" s="197" t="s">
@@ -9343,9 +9785,9 @@
     </row>
     <row r="91" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C91" s="76"/>
-      <c r="D91" s="274"/>
+      <c r="D91" s="287"/>
       <c r="E91" s="192"/>
-      <c r="F91" s="286"/>
+      <c r="F91" s="281"/>
       <c r="G91" s="197" t="s">
         <v>317</v>
       </c>
@@ -9364,9 +9806,9 @@
     </row>
     <row r="92" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C92" s="76"/>
-      <c r="D92" s="274"/>
+      <c r="D92" s="287"/>
       <c r="E92" s="198"/>
-      <c r="F92" s="287"/>
+      <c r="F92" s="282"/>
       <c r="G92" s="197" t="s">
         <v>319</v>
       </c>
@@ -9385,7 +9827,7 @@
     </row>
     <row r="93" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C93" s="76"/>
-      <c r="D93" s="274"/>
+      <c r="D93" s="287"/>
       <c r="E93" s="201" t="s">
         <v>89</v>
       </c>
@@ -9404,9 +9846,9 @@
     </row>
     <row r="94" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C94" s="76"/>
-      <c r="D94" s="274"/>
-      <c r="E94" s="281"/>
-      <c r="F94" s="283" t="s">
+      <c r="D94" s="287"/>
+      <c r="E94" s="276"/>
+      <c r="F94" s="278" t="s">
         <v>87</v>
       </c>
       <c r="G94" s="203" t="s">
@@ -9427,15 +9869,15 @@
     </row>
     <row r="95" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C95" s="76"/>
-      <c r="D95" s="274"/>
-      <c r="E95" s="282"/>
-      <c r="F95" s="284"/>
+      <c r="D95" s="287"/>
+      <c r="E95" s="277"/>
+      <c r="F95" s="279"/>
       <c r="G95" s="203"/>
       <c r="H95" s="203"/>
     </row>
     <row r="96" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C96" s="76"/>
-      <c r="D96" s="274"/>
+      <c r="D96" s="287"/>
       <c r="E96" s="59" t="s">
         <v>90</v>
       </c>
@@ -9447,7 +9889,7 @@
     </row>
     <row r="97" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C97" s="76"/>
-      <c r="D97" s="274"/>
+      <c r="D97" s="287"/>
       <c r="E97" s="60"/>
       <c r="F97" s="58" t="s">
         <v>87</v>
@@ -9457,7 +9899,7 @@
     </row>
     <row r="98" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C98" s="76"/>
-      <c r="D98" s="274"/>
+      <c r="D98" s="287"/>
       <c r="E98" s="72" t="s">
         <v>91</v>
       </c>
@@ -9469,7 +9911,7 @@
     </row>
     <row r="99" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C99" s="76"/>
-      <c r="D99" s="276"/>
+      <c r="D99" s="289"/>
       <c r="E99" s="60"/>
       <c r="F99" s="58" t="s">
         <v>87</v>
@@ -9504,7 +9946,7 @@
       </c>
     </row>
     <row r="103" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C103" s="280" t="s">
+      <c r="C103" s="275" t="s">
         <v>120</v>
       </c>
       <c r="D103" s="94" t="s">
@@ -9521,7 +9963,7 @@
       </c>
     </row>
     <row r="104" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C104" s="280"/>
+      <c r="C104" s="275"/>
       <c r="D104" s="94" t="s">
         <v>127</v>
       </c>
@@ -9529,7 +9971,7 @@
       <c r="F104" s="185"/>
     </row>
     <row r="105" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C105" s="280"/>
+      <c r="C105" s="275"/>
       <c r="D105" s="94" t="s">
         <v>146</v>
       </c>
@@ -9537,7 +9979,7 @@
       <c r="F105" s="185"/>
     </row>
     <row r="106" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C106" s="280"/>
+      <c r="C106" s="275"/>
       <c r="D106" s="94" t="s">
         <v>147</v>
       </c>
@@ -9545,7 +9987,7 @@
       <c r="F106" s="185"/>
     </row>
     <row r="107" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C107" s="280"/>
+      <c r="C107" s="275"/>
       <c r="D107" s="94" t="s">
         <v>103</v>
       </c>
@@ -9553,7 +9995,7 @@
       <c r="F107" s="185"/>
     </row>
     <row r="108" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C108" s="280"/>
+      <c r="C108" s="275"/>
       <c r="D108" s="94" t="s">
         <v>103</v>
       </c>
@@ -9562,6 +10004,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="D77:D99"/>
+    <mergeCell ref="E79:E86"/>
+    <mergeCell ref="F80:F86"/>
+    <mergeCell ref="G80:G85"/>
+    <mergeCell ref="D60:D66"/>
     <mergeCell ref="M80:M85"/>
     <mergeCell ref="K80:K85"/>
     <mergeCell ref="L80:L85"/>
@@ -9569,13 +10018,6 @@
     <mergeCell ref="E94:E95"/>
     <mergeCell ref="F94:F95"/>
     <mergeCell ref="F90:F92"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="D77:D99"/>
-    <mergeCell ref="E79:E86"/>
-    <mergeCell ref="F80:F86"/>
-    <mergeCell ref="G80:G85"/>
-    <mergeCell ref="D60:D66"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="G103" r:id="rId1"/>
@@ -9588,10 +10030,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF92D050"/>
+  </sheetPr>
   <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="L27" sqref="L27:L28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -9609,30 +10054,30 @@
       <c r="F1" s="206"/>
       <c r="G1" s="206"/>
       <c r="H1" s="206"/>
-      <c r="I1" s="290" t="s">
+      <c r="I1" s="295" t="s">
         <v>294</v>
       </c>
-      <c r="J1" s="291"/>
-      <c r="K1" s="291"/>
-      <c r="L1" s="291"/>
-      <c r="M1" s="291"/>
-      <c r="N1" s="291"/>
-      <c r="O1" s="292"/>
+      <c r="J1" s="296"/>
+      <c r="K1" s="296"/>
+      <c r="L1" s="296"/>
+      <c r="M1" s="296"/>
+      <c r="N1" s="296"/>
+      <c r="O1" s="297"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="E2" s="187"/>
       <c r="F2" s="187"/>
       <c r="G2" s="187"/>
       <c r="H2" s="187"/>
-      <c r="I2" s="295" t="s">
+      <c r="I2" s="300" t="s">
         <v>325</v>
       </c>
-      <c r="J2" s="296"/>
-      <c r="K2" s="296"/>
-      <c r="L2" s="296"/>
-      <c r="M2" s="296"/>
-      <c r="N2" s="296"/>
-      <c r="O2" s="297"/>
+      <c r="J2" s="301"/>
+      <c r="K2" s="301"/>
+      <c r="L2" s="301"/>
+      <c r="M2" s="301"/>
+      <c r="N2" s="301"/>
+      <c r="O2" s="302"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
@@ -9649,10 +10094,10 @@
       </c>
       <c r="G3" s="187"/>
       <c r="H3" s="187"/>
-      <c r="I3" s="293" t="s">
+      <c r="I3" s="298" t="s">
         <v>304</v>
       </c>
-      <c r="J3" s="294"/>
+      <c r="J3" s="299"/>
       <c r="K3" s="208" t="s">
         <v>305</v>
       </c>
@@ -9707,7 +10152,7 @@
       <c r="N4" s="207">
         <v>580</v>
       </c>
-      <c r="O4" s="288">
+      <c r="O4" s="293">
         <f>SUM(I4:N4)</f>
         <v>2068</v>
       </c>
@@ -9737,7 +10182,7 @@
       <c r="N5" s="209" t="s">
         <v>323</v>
       </c>
-      <c r="O5" s="289"/>
+      <c r="O5" s="294"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9748,4 +10193,1442 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor theme="5" tint="-0.249977111117893"/>
+  </sheetPr>
+  <dimension ref="A1:Q52"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q20" sqref="Q20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="20.44140625" customWidth="1"/>
+    <col min="3" max="7" width="5.77734375" customWidth="1"/>
+    <col min="8" max="8" width="7.33203125" customWidth="1"/>
+    <col min="9" max="9" width="6.88671875" customWidth="1"/>
+    <col min="10" max="10" width="8.5546875" customWidth="1"/>
+    <col min="11" max="11" width="6.88671875" customWidth="1"/>
+    <col min="16" max="16" width="0.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="314" t="s">
+        <v>332</v>
+      </c>
+      <c r="B2" s="315"/>
+      <c r="C2" s="315"/>
+      <c r="D2" s="315"/>
+      <c r="E2" s="315"/>
+      <c r="F2" s="315"/>
+      <c r="G2" s="315"/>
+      <c r="H2" s="315"/>
+      <c r="I2" s="315"/>
+      <c r="J2" s="315"/>
+      <c r="K2" s="315"/>
+      <c r="L2" s="315"/>
+      <c r="M2" s="315"/>
+      <c r="N2" s="315"/>
+      <c r="O2" s="316"/>
+    </row>
+    <row r="3" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="318" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="320" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="324" t="s">
+        <v>333</v>
+      </c>
+      <c r="D3" s="325"/>
+      <c r="E3" s="325"/>
+      <c r="F3" s="325"/>
+      <c r="G3" s="325"/>
+      <c r="H3" s="326"/>
+      <c r="I3" s="327" t="s">
+        <v>334</v>
+      </c>
+      <c r="J3" s="328"/>
+      <c r="K3" s="329"/>
+      <c r="L3" s="330" t="s">
+        <v>335</v>
+      </c>
+      <c r="M3" s="333"/>
+      <c r="N3" s="334"/>
+      <c r="O3" s="335"/>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A4" s="317"/>
+      <c r="B4" s="321"/>
+      <c r="C4" s="337">
+        <v>1</v>
+      </c>
+      <c r="D4" s="337">
+        <v>2</v>
+      </c>
+      <c r="E4" s="337">
+        <v>3</v>
+      </c>
+      <c r="F4" s="337">
+        <v>4</v>
+      </c>
+      <c r="G4" s="337">
+        <v>5</v>
+      </c>
+      <c r="H4" s="337">
+        <v>6</v>
+      </c>
+      <c r="I4" s="340" t="s">
+        <v>336</v>
+      </c>
+      <c r="J4" s="340" t="s">
+        <v>337</v>
+      </c>
+      <c r="K4" s="340" t="s">
+        <v>338</v>
+      </c>
+      <c r="L4" s="331"/>
+      <c r="M4" s="303" t="s">
+        <v>339</v>
+      </c>
+      <c r="N4" s="303" t="s">
+        <v>340</v>
+      </c>
+      <c r="O4" s="330" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A5" s="317"/>
+      <c r="B5" s="321"/>
+      <c r="C5" s="338"/>
+      <c r="D5" s="338"/>
+      <c r="E5" s="338"/>
+      <c r="F5" s="338"/>
+      <c r="G5" s="338"/>
+      <c r="H5" s="338"/>
+      <c r="I5" s="341"/>
+      <c r="J5" s="341"/>
+      <c r="K5" s="341"/>
+      <c r="L5" s="331"/>
+      <c r="M5" s="303" t="s">
+        <v>330</v>
+      </c>
+      <c r="N5" s="303" t="s">
+        <v>270</v>
+      </c>
+      <c r="O5" s="331"/>
+    </row>
+    <row r="6" spans="1:15" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="319"/>
+      <c r="B6" s="322"/>
+      <c r="C6" s="339"/>
+      <c r="D6" s="339"/>
+      <c r="E6" s="339"/>
+      <c r="F6" s="339"/>
+      <c r="G6" s="339"/>
+      <c r="H6" s="339"/>
+      <c r="I6" s="342"/>
+      <c r="J6" s="342"/>
+      <c r="K6" s="342"/>
+      <c r="L6" s="332"/>
+      <c r="M6" s="304"/>
+      <c r="N6" s="305" t="s">
+        